--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$772</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$774</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="2485">
   <si>
     <t>Word</t>
   </si>
@@ -1011,6 +1011,24 @@
     <t>Уу</t>
   </si>
   <si>
+    <t>byedniy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>беднй</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Вв</t>
+  </si>
+  <si>
+    <t>vat, ват</t>
+  </si>
+  <si>
     <t>byejat</t>
   </si>
   <si>
@@ -1020,25 +1038,25 @@
     <t>бежат</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Вв</t>
-  </si>
-  <si>
-    <t>vat, ват</t>
+    <t>Y, IY</t>
+  </si>
+  <si>
+    <t>Йй</t>
+  </si>
+  <si>
+    <t>biy, бй | yiyn, йийн</t>
   </si>
   <si>
     <t>to run, to sprint</t>
   </si>
   <si>
-    <t>Y, IY</t>
-  </si>
-  <si>
-    <t>Йй</t>
-  </si>
-  <si>
-    <t>biy, бй | yiyn, йийн</t>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>Яя</t>
+  </si>
+  <si>
+    <t>dagya, дагя</t>
   </si>
   <si>
     <t>byortomya</t>
@@ -1050,13 +1068,13 @@
     <t>бёртомя</t>
   </si>
   <si>
-    <t>YA</t>
-  </si>
-  <si>
-    <t>Яя</t>
-  </si>
-  <si>
-    <t>dagya, дагя</t>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Ее</t>
+  </si>
+  <si>
+    <t>yev, ев</t>
   </si>
   <si>
     <t>chaja</t>
@@ -1068,13 +1086,13 @@
     <t>чажа</t>
   </si>
   <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Ее</t>
-  </si>
-  <si>
-    <t>yev, ев</t>
+    <t>YO</t>
+  </si>
+  <si>
+    <t>Ёё</t>
+  </si>
+  <si>
+    <t>byortolm, бётоум</t>
   </si>
   <si>
     <t>chem</t>
@@ -1086,13 +1104,13 @@
     <t>чэм</t>
   </si>
   <si>
-    <t>YO</t>
-  </si>
-  <si>
-    <t>Ёё</t>
-  </si>
-  <si>
-    <t>byortolm, бётоум</t>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Юю</t>
+  </si>
+  <si>
+    <t>myutor, мютор</t>
   </si>
   <si>
     <t>cherslyosiba</t>
@@ -1104,13 +1122,13 @@
     <t>чэрслёсиба</t>
   </si>
   <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Юю</t>
-  </si>
-  <si>
-    <t>myutor, мютор</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Зз</t>
+  </si>
+  <si>
+    <t>zikofal, зикофао</t>
   </si>
   <si>
     <t>chersya</t>
@@ -1122,15 +1140,6 @@
     <t>чэрся</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Зз</t>
-  </si>
-  <si>
-    <t>zikofal, зикофао</t>
-  </si>
-  <si>
     <t>chert</t>
   </si>
   <si>
@@ -4459,6 +4468,15 @@
   </si>
   <si>
     <t>нетим</t>
+  </si>
+  <si>
+    <t>nyezlat</t>
+  </si>
+  <si>
+    <t>to lick</t>
+  </si>
+  <si>
+    <t>незлат</t>
   </si>
   <si>
     <t>nyoski</t>
@@ -10177,23 +10195,23 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>334</v>
+      <c r="B63" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>340</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -10216,13 +10234,13 @@
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>345</v>
@@ -10291,13 +10309,13 @@
       <c r="X65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="9" t="s">
         <v>356</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -10492,13 +10510,13 @@
       <c r="X71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="14" t="s">
         <v>383</v>
       </c>
       <c r="G72" s="18"/>
@@ -10521,13 +10539,13 @@
       <c r="X72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="9" t="s">
         <v>386</v>
       </c>
       <c r="D73" s="18"/>
@@ -10553,13 +10571,13 @@
       <c r="X73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="14" t="s">
         <v>389</v>
       </c>
       <c r="D74" s="18"/>
@@ -10585,13 +10603,13 @@
       <c r="X74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="9" t="s">
         <v>392</v>
       </c>
       <c r="D75" s="18"/>
@@ -10681,13 +10699,13 @@
       <c r="X77" s="18"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="14" t="s">
         <v>401</v>
       </c>
       <c r="D78" s="18"/>
@@ -10809,13 +10827,13 @@
       <c r="X81" s="18"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="9" t="s">
         <v>413</v>
       </c>
       <c r="D82" s="18"/>
@@ -10841,13 +10859,13 @@
       <c r="X82" s="18"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="14" t="s">
         <v>416</v>
       </c>
       <c r="D83" s="18"/>
@@ -10873,13 +10891,13 @@
       <c r="X83" s="18"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>419</v>
       </c>
       <c r="D84" s="18"/>
@@ -10905,13 +10923,13 @@
       <c r="X84" s="18"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="14" t="s">
         <v>422</v>
       </c>
       <c r="D85" s="18"/>
@@ -10937,13 +10955,13 @@
       <c r="X85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="9" t="s">
         <v>425</v>
       </c>
       <c r="D86" s="18"/>
@@ -11001,13 +11019,13 @@
       <c r="X87" s="18"/>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="14" t="s">
         <v>431</v>
       </c>
       <c r="D88" s="18"/>
@@ -11065,13 +11083,13 @@
       <c r="X89" s="18"/>
     </row>
     <row r="90">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="9" t="s">
         <v>437</v>
       </c>
       <c r="D90" s="18"/>
@@ -11161,13 +11179,13 @@
       <c r="X92" s="18"/>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="14" t="s">
         <v>446</v>
       </c>
       <c r="D93" s="18"/>
@@ -11225,13 +11243,13 @@
       <c r="X94" s="18"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="9" t="s">
         <v>452</v>
       </c>
       <c r="D95" s="18"/>
@@ -11289,13 +11307,13 @@
       <c r="X96" s="18"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="14" t="s">
         <v>458</v>
       </c>
       <c r="D97" s="18"/>
@@ -11449,13 +11467,13 @@
       <c r="X101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="9" t="s">
         <v>473</v>
       </c>
       <c r="D102" s="18"/>
@@ -11513,13 +11531,13 @@
       <c r="X103" s="18"/>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="14" t="s">
         <v>479</v>
       </c>
       <c r="D104" s="18"/>
@@ -11609,13 +11627,13 @@
       <c r="X106" s="18"/>
     </row>
     <row r="107">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="9" t="s">
         <v>488</v>
       </c>
       <c r="D107" s="18"/>
@@ -11673,13 +11691,13 @@
       <c r="X108" s="18"/>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="14" t="s">
         <v>494</v>
       </c>
       <c r="D109" s="18"/>
@@ -11769,13 +11787,13 @@
       <c r="X111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="9" t="s">
         <v>503</v>
       </c>
       <c r="D112" s="18"/>
@@ -11833,13 +11851,13 @@
       <c r="X113" s="18"/>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="14" t="s">
         <v>509</v>
       </c>
       <c r="D114" s="18"/>
@@ -11865,13 +11883,13 @@
       <c r="X114" s="18"/>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="9" t="s">
         <v>512</v>
       </c>
       <c r="D115" s="18"/>
@@ -11929,13 +11947,13 @@
       <c r="X116" s="18"/>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="14" t="s">
         <v>518</v>
       </c>
       <c r="D117" s="18"/>
@@ -12025,13 +12043,13 @@
       <c r="X119" s="18"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="9" t="s">
         <v>527</v>
       </c>
       <c r="D120" s="18"/>
@@ -12057,13 +12075,13 @@
       <c r="X120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="14" t="s">
         <v>530</v>
       </c>
       <c r="D121" s="18"/>
@@ -12089,13 +12107,13 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="9" t="s">
         <v>533</v>
       </c>
       <c r="D122" s="18"/>
@@ -12121,13 +12139,13 @@
       <c r="X122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="14" t="s">
         <v>536</v>
       </c>
       <c r="D123" s="18"/>
@@ -12185,13 +12203,13 @@
       <c r="X124" s="18"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="9" t="s">
         <v>542</v>
       </c>
       <c r="D125" s="18"/>
@@ -12217,13 +12235,13 @@
       <c r="X125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="14" t="s">
         <v>545</v>
       </c>
       <c r="D126" s="18"/>
@@ -12249,13 +12267,13 @@
       <c r="X126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="9" t="s">
         <v>548</v>
       </c>
       <c r="D127" s="18"/>
@@ -12377,13 +12395,13 @@
       <c r="X130" s="18"/>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="14" t="s">
         <v>560</v>
       </c>
       <c r="D131" s="18"/>
@@ -12441,13 +12459,13 @@
       <c r="X132" s="18"/>
     </row>
     <row r="133">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" s="9" t="s">
         <v>566</v>
       </c>
       <c r="D133" s="18"/>
@@ -12505,13 +12523,13 @@
       <c r="X134" s="18"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="14" t="s">
         <v>572</v>
       </c>
       <c r="D135" s="18"/>
@@ -12633,13 +12651,13 @@
       <c r="X138" s="18"/>
     </row>
     <row r="139">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" s="9" t="s">
         <v>584</v>
       </c>
       <c r="D139" s="18"/>
@@ -12665,13 +12683,13 @@
       <c r="X139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="14" t="s">
         <v>587</v>
       </c>
       <c r="D140" s="18"/>
@@ -12697,13 +12715,13 @@
       <c r="X140" s="18"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="9" t="s">
         <v>590</v>
       </c>
       <c r="D141" s="18"/>
@@ -12729,13 +12747,13 @@
       <c r="X141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="14" t="s">
         <v>593</v>
       </c>
       <c r="D142" s="18"/>
@@ -12793,13 +12811,13 @@
       <c r="X143" s="18"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="9" t="s">
         <v>599</v>
       </c>
       <c r="D144" s="18"/>
@@ -12889,13 +12907,13 @@
       <c r="X146" s="18"/>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="14" t="s">
         <v>608</v>
       </c>
       <c r="D147" s="18"/>
@@ -12921,13 +12939,13 @@
       <c r="X147" s="18"/>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="9" t="s">
         <v>611</v>
       </c>
       <c r="D148" s="18"/>
@@ -12985,13 +13003,13 @@
       <c r="X149" s="18"/>
     </row>
     <row r="150">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="14" t="s">
         <v>617</v>
       </c>
       <c r="D150" s="18"/>
@@ -13017,13 +13035,13 @@
       <c r="X150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="9" t="s">
         <v>620</v>
       </c>
       <c r="D151" s="18"/>
@@ -13081,13 +13099,13 @@
       <c r="X152" s="18"/>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="14" t="s">
         <v>626</v>
       </c>
       <c r="D153" s="18"/>
@@ -13145,13 +13163,13 @@
       <c r="X154" s="18"/>
     </row>
     <row r="155">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="9" t="s">
         <v>632</v>
       </c>
       <c r="D155" s="18"/>
@@ -13177,13 +13195,13 @@
       <c r="X155" s="18"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="14" t="s">
         <v>635</v>
       </c>
       <c r="D156" s="18"/>
@@ -13241,13 +13259,13 @@
       <c r="X157" s="18"/>
     </row>
     <row r="158">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="9" t="s">
         <v>641</v>
       </c>
       <c r="D158" s="18"/>
@@ -13273,13 +13291,13 @@
       <c r="X158" s="18"/>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="14" t="s">
         <v>644</v>
       </c>
       <c r="D159" s="18"/>
@@ -13369,13 +13387,13 @@
       <c r="X161" s="18"/>
     </row>
     <row r="162">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="9" t="s">
         <v>653</v>
       </c>
       <c r="D162" s="18"/>
@@ -13401,13 +13419,13 @@
       <c r="X162" s="18"/>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="14" t="s">
         <v>656</v>
       </c>
       <c r="D163" s="18"/>
@@ -13433,13 +13451,13 @@
       <c r="X163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="9" t="s">
         <v>659</v>
       </c>
       <c r="D164" s="18"/>
@@ -13497,13 +13515,13 @@
       <c r="X165" s="18"/>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="14" t="s">
         <v>665</v>
       </c>
       <c r="D166" s="18"/>
@@ -13529,13 +13547,13 @@
       <c r="X166" s="18"/>
     </row>
     <row r="167">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C167" s="9" t="s">
         <v>668</v>
       </c>
       <c r="D167" s="18"/>
@@ -13625,13 +13643,13 @@
       <c r="X169" s="18"/>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="14" t="s">
         <v>677</v>
       </c>
       <c r="D170" s="18"/>
@@ -13657,13 +13675,13 @@
       <c r="X170" s="18"/>
     </row>
     <row r="171">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" s="9" t="s">
         <v>680</v>
       </c>
       <c r="D171" s="18"/>
@@ -13785,13 +13803,13 @@
       <c r="X174" s="18"/>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="14" t="s">
         <v>692</v>
       </c>
       <c r="D175" s="18"/>
@@ -14009,13 +14027,13 @@
       <c r="X181" s="18"/>
     </row>
     <row r="182">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C182" s="9" t="s">
         <v>713</v>
       </c>
       <c r="D182" s="18"/>
@@ -14041,13 +14059,13 @@
       <c r="X182" s="18"/>
     </row>
     <row r="183">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="14" t="s">
         <v>716</v>
       </c>
       <c r="D183" s="18"/>
@@ -14105,13 +14123,13 @@
       <c r="X184" s="18"/>
     </row>
     <row r="185">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="9" t="s">
         <v>722</v>
       </c>
       <c r="D185" s="18"/>
@@ -14137,13 +14155,13 @@
       <c r="X185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="14" t="s">
         <v>725</v>
       </c>
       <c r="D186" s="18"/>
@@ -14233,13 +14251,13 @@
       <c r="X188" s="18"/>
     </row>
     <row r="189">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C189" s="9" t="s">
         <v>734</v>
       </c>
       <c r="D189" s="18"/>
@@ -14265,13 +14283,13 @@
       <c r="X189" s="18"/>
     </row>
     <row r="190">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="14" t="s">
         <v>737</v>
       </c>
       <c r="D190" s="18"/>
@@ -14297,13 +14315,13 @@
       <c r="X190" s="18"/>
     </row>
     <row r="191">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C191" s="9" t="s">
         <v>740</v>
       </c>
       <c r="D191" s="18"/>
@@ -14425,13 +14443,13 @@
       <c r="X194" s="18"/>
     </row>
     <row r="195">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="14" t="s">
         <v>752</v>
       </c>
       <c r="D195" s="18"/>
@@ -14457,13 +14475,13 @@
       <c r="X195" s="18"/>
     </row>
     <row r="196">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="9" t="s">
         <v>755</v>
       </c>
       <c r="D196" s="18"/>
@@ -14521,13 +14539,13 @@
       <c r="X197" s="18"/>
     </row>
     <row r="198">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="14" t="s">
         <v>761</v>
       </c>
       <c r="D198" s="18"/>
@@ -14553,13 +14571,13 @@
       <c r="X198" s="18"/>
     </row>
     <row r="199">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C199" s="9" t="s">
         <v>764</v>
       </c>
       <c r="D199" s="18"/>
@@ -14713,13 +14731,13 @@
       <c r="X203" s="18"/>
     </row>
     <row r="204">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="14" t="s">
         <v>779</v>
       </c>
       <c r="D204" s="18"/>
@@ -14777,13 +14795,13 @@
       <c r="X205" s="18"/>
     </row>
     <row r="206">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" s="9" t="s">
         <v>785</v>
       </c>
       <c r="D206" s="18"/>
@@ -14809,13 +14827,13 @@
       <c r="X206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="14" t="s">
         <v>788</v>
       </c>
       <c r="D207" s="18"/>
@@ -14841,13 +14859,13 @@
       <c r="X207" s="18"/>
     </row>
     <row r="208">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C208" s="9" t="s">
         <v>791</v>
       </c>
       <c r="D208" s="18"/>
@@ -14873,13 +14891,13 @@
       <c r="X208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="14" t="s">
         <v>794</v>
       </c>
       <c r="D209" s="18"/>
@@ -14905,13 +14923,13 @@
       <c r="X209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C210" s="9" t="s">
         <v>797</v>
       </c>
       <c r="D210" s="18"/>
@@ -14937,13 +14955,13 @@
       <c r="X210" s="18"/>
     </row>
     <row r="211">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="14" t="s">
         <v>800</v>
       </c>
       <c r="D211" s="18"/>
@@ -15033,13 +15051,13 @@
       <c r="X213" s="18"/>
     </row>
     <row r="214">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="C214" s="14" t="s">
+      <c r="C214" s="9" t="s">
         <v>809</v>
       </c>
       <c r="D214" s="18"/>
@@ -15065,13 +15083,13 @@
       <c r="X214" s="18"/>
     </row>
     <row r="215">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" s="14" t="s">
         <v>812</v>
       </c>
       <c r="D215" s="18"/>
@@ -15097,13 +15115,13 @@
       <c r="X215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="C216" s="9" t="s">
         <v>815</v>
       </c>
       <c r="D216" s="18"/>
@@ -15129,13 +15147,13 @@
       <c r="X216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="14" t="s">
         <v>818</v>
       </c>
       <c r="D217" s="18"/>
@@ -15161,13 +15179,13 @@
       <c r="X217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C218" s="9" t="s">
         <v>821</v>
       </c>
       <c r="D218" s="18"/>
@@ -15193,13 +15211,13 @@
       <c r="X218" s="18"/>
     </row>
     <row r="219">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="14" t="s">
         <v>824</v>
       </c>
       <c r="D219" s="18"/>
@@ -15225,13 +15243,13 @@
       <c r="X219" s="18"/>
     </row>
     <row r="220">
-      <c r="A220" s="14" t="s">
+      <c r="A220" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="C220" s="9" t="s">
         <v>827</v>
       </c>
       <c r="D220" s="18"/>
@@ -15257,13 +15275,13 @@
       <c r="X220" s="18"/>
     </row>
     <row r="221">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="14" t="s">
         <v>830</v>
       </c>
       <c r="D221" s="18"/>
@@ -15321,13 +15339,13 @@
       <c r="X222" s="18"/>
     </row>
     <row r="223">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B223" s="14" t="s">
+      <c r="B223" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C223" s="14" t="s">
+      <c r="C223" s="9" t="s">
         <v>836</v>
       </c>
       <c r="D223" s="18"/>
@@ -15353,13 +15371,13 @@
       <c r="X223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="14" t="s">
         <v>839</v>
       </c>
       <c r="D224" s="18"/>
@@ -15417,13 +15435,13 @@
       <c r="X225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C226" s="9" t="s">
         <v>845</v>
       </c>
       <c r="D226" s="18"/>
@@ -15449,13 +15467,13 @@
       <c r="X226" s="18"/>
     </row>
     <row r="227">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="14" t="s">
         <v>848</v>
       </c>
       <c r="D227" s="18"/>
@@ -15641,13 +15659,13 @@
       <c r="X232" s="18"/>
     </row>
     <row r="233">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C233" s="9" t="s">
         <v>866</v>
       </c>
       <c r="D233" s="18"/>
@@ -15673,13 +15691,13 @@
       <c r="X233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="14" t="s">
         <v>869</v>
       </c>
       <c r="D234" s="18"/>
@@ -15769,13 +15787,13 @@
       <c r="X236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="9" t="s">
         <v>878</v>
       </c>
       <c r="D237" s="18"/>
@@ -15801,13 +15819,13 @@
       <c r="X237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="14" t="s">
         <v>879</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="14" t="s">
         <v>881</v>
       </c>
       <c r="D238" s="18"/>
@@ -15865,13 +15883,13 @@
       <c r="X239" s="18"/>
     </row>
     <row r="240">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="C240" s="14" t="s">
+      <c r="C240" s="9" t="s">
         <v>887</v>
       </c>
       <c r="D240" s="18"/>
@@ -15993,13 +16011,13 @@
       <c r="X243" s="18"/>
     </row>
     <row r="244">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="14" t="s">
         <v>899</v>
       </c>
       <c r="D244" s="18"/>
@@ -16057,13 +16075,13 @@
       <c r="X245" s="18"/>
     </row>
     <row r="246">
-      <c r="A246" s="14" t="s">
+      <c r="A246" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C246" s="9" t="s">
         <v>905</v>
       </c>
       <c r="D246" s="18"/>
@@ -16089,13 +16107,13 @@
       <c r="X246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="14" t="s">
         <v>908</v>
       </c>
       <c r="D247" s="18"/>
@@ -16153,13 +16171,13 @@
       <c r="X248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="C249" s="9" t="s">
         <v>914</v>
       </c>
       <c r="D249" s="18"/>
@@ -16185,13 +16203,13 @@
       <c r="X249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="14" t="s">
         <v>917</v>
       </c>
       <c r="D250" s="18"/>
@@ -16249,13 +16267,13 @@
       <c r="X251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C252" s="9" t="s">
         <v>923</v>
       </c>
       <c r="D252" s="18"/>
@@ -16281,13 +16299,13 @@
       <c r="X252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="14" t="s">
         <v>924</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="14" t="s">
         <v>926</v>
       </c>
       <c r="D253" s="18"/>
@@ -16313,13 +16331,13 @@
       <c r="X253" s="18"/>
     </row>
     <row r="254">
-      <c r="A254" s="14" t="s">
+      <c r="A254" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="C254" s="14" t="s">
+      <c r="C254" s="9" t="s">
         <v>929</v>
       </c>
       <c r="D254" s="18"/>
@@ -16345,13 +16363,13 @@
       <c r="X254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="C255" s="14" t="s">
         <v>932</v>
       </c>
       <c r="D255" s="18"/>
@@ -16505,10 +16523,10 @@
       <c r="X259" s="18"/>
     </row>
     <row r="260">
-      <c r="A260" s="20" t="s">
+      <c r="A260" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="B260" s="20" t="s">
+      <c r="B260" s="9" t="s">
         <v>946</v>
       </c>
       <c r="C260" s="9" t="s">
@@ -16537,13 +16555,13 @@
       <c r="X260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="20" t="s">
         <v>949</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C261" s="9" t="s">
         <v>950</v>
       </c>
       <c r="D261" s="18"/>
@@ -16793,13 +16811,13 @@
       <c r="X268" s="18"/>
     </row>
     <row r="269">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="14" t="s">
         <v>974</v>
       </c>
       <c r="D269" s="18"/>
@@ -16825,13 +16843,13 @@
       <c r="X269" s="18"/>
     </row>
     <row r="270">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="C270" s="9" t="s">
         <v>977</v>
       </c>
       <c r="D270" s="18"/>
@@ -16857,13 +16875,13 @@
       <c r="X270" s="18"/>
     </row>
     <row r="271">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" s="14" t="s">
         <v>980</v>
       </c>
       <c r="D271" s="18"/>
@@ -16953,13 +16971,13 @@
       <c r="X273" s="18"/>
     </row>
     <row r="274">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C274" s="9" t="s">
         <v>989</v>
       </c>
       <c r="D274" s="18"/>
@@ -17049,13 +17067,13 @@
       <c r="X276" s="18"/>
     </row>
     <row r="277">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="C277" s="9" t="s">
+      <c r="C277" s="14" t="s">
         <v>998</v>
       </c>
       <c r="D277" s="18"/>
@@ -17177,13 +17195,13 @@
       <c r="X280" s="18"/>
     </row>
     <row r="281">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="C281" s="9" t="s">
         <v>1010</v>
       </c>
       <c r="D281" s="18"/>
@@ -17209,13 +17227,13 @@
       <c r="X281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="20" t="s">
+      <c r="A282" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B282" s="20" t="s">
+      <c r="B282" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="C282" s="9" t="s">
+      <c r="C282" s="14" t="s">
         <v>1013</v>
       </c>
       <c r="D282" s="18"/>
@@ -17241,10 +17259,10 @@
       <c r="X282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="14" t="s">
+      <c r="A283" s="20" t="s">
         <v>1014</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="20" t="s">
         <v>1015</v>
       </c>
       <c r="C283" s="9" t="s">
@@ -17273,7 +17291,7 @@
       <c r="X283" s="18"/>
     </row>
     <row r="284">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="14" t="s">
         <v>1017</v>
       </c>
       <c r="B284" s="9" t="s">
@@ -17305,13 +17323,13 @@
       <c r="X284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="9" t="s">
         <v>1022</v>
       </c>
       <c r="D285" s="18"/>
@@ -17337,13 +17355,13 @@
       <c r="X285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="C286" s="9" t="s">
+      <c r="C286" s="14" t="s">
         <v>1025</v>
       </c>
       <c r="D286" s="18"/>
@@ -17465,10 +17483,10 @@
       <c r="X289" s="18"/>
     </row>
     <row r="290">
-      <c r="A290" s="20" t="s">
+      <c r="A290" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="B290" s="20" t="s">
+      <c r="B290" s="9" t="s">
         <v>1036</v>
       </c>
       <c r="C290" s="9" t="s">
@@ -17497,14 +17515,14 @@
       <c r="X290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="20" t="s">
         <v>1038</v>
       </c>
-      <c r="B291" s="14" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C291" s="14" t="s">
+      <c r="B291" s="20" t="s">
         <v>1039</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>1040</v>
       </c>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
@@ -17529,13 +17547,13 @@
       <c r="X291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B292" s="9" t="s">
+      <c r="A292" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="B292" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C292" s="14" t="s">
         <v>1042</v>
       </c>
       <c r="D292" s="18"/>
@@ -17561,10 +17579,10 @@
       <c r="X292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="20" t="s">
+      <c r="A293" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="9" t="s">
         <v>1044</v>
       </c>
       <c r="C293" s="9" t="s">
@@ -17593,10 +17611,10 @@
       <c r="X293" s="18"/>
     </row>
     <row r="294">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="20" t="s">
         <v>1047</v>
       </c>
       <c r="C294" s="9" t="s">
@@ -17625,13 +17643,13 @@
       <c r="X294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B295" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="C295" s="9" t="s">
         <v>1051</v>
       </c>
       <c r="D295" s="18"/>
@@ -17721,13 +17739,13 @@
       <c r="X297" s="18"/>
     </row>
     <row r="298">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="C298" s="9" t="s">
+      <c r="C298" s="14" t="s">
         <v>1060</v>
       </c>
       <c r="D298" s="18"/>
@@ -17785,13 +17803,13 @@
       <c r="X299" s="18"/>
     </row>
     <row r="300">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C300" s="9" t="s">
         <v>1066</v>
       </c>
       <c r="D300" s="18"/>
@@ -17849,13 +17867,13 @@
       <c r="X301" s="18"/>
     </row>
     <row r="302">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="C302" s="9" t="s">
+      <c r="C302" s="14" t="s">
         <v>1072</v>
       </c>
       <c r="D302" s="18"/>
@@ -17881,13 +17899,13 @@
       <c r="X302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B303" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C303" s="9" t="s">
         <v>1075</v>
       </c>
       <c r="D303" s="18"/>
@@ -17977,13 +17995,13 @@
       <c r="X305" s="18"/>
     </row>
     <row r="306">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="C306" s="9" t="s">
+      <c r="C306" s="14" t="s">
         <v>1084</v>
       </c>
       <c r="D306" s="18"/>
@@ -18009,13 +18027,13 @@
       <c r="X306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="C307" s="9" t="s">
         <v>1087</v>
       </c>
       <c r="D307" s="18"/>
@@ -18105,13 +18123,13 @@
       <c r="X309" s="18"/>
     </row>
     <row r="310">
-      <c r="A310" s="9" t="s">
+      <c r="A310" s="14" t="s">
         <v>1094</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="C310" s="9" t="s">
+      <c r="C310" s="14" t="s">
         <v>1096</v>
       </c>
       <c r="D310" s="18"/>
@@ -18201,13 +18219,13 @@
       <c r="X312" s="18"/>
     </row>
     <row r="313">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="B313" s="14" t="s">
+      <c r="B313" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="C313" s="9" t="s">
         <v>1105</v>
       </c>
       <c r="D313" s="18"/>
@@ -18329,13 +18347,13 @@
       <c r="X316" s="18"/>
     </row>
     <row r="317">
-      <c r="A317" s="9" t="s">
+      <c r="A317" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="C317" s="9" t="s">
+      <c r="C317" s="14" t="s">
         <v>1117</v>
       </c>
       <c r="D317" s="18"/>
@@ -18393,13 +18411,13 @@
       <c r="X318" s="18"/>
     </row>
     <row r="319">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="B319" s="14" t="s">
+      <c r="B319" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="C319" s="9" t="s">
         <v>1123</v>
       </c>
       <c r="D319" s="18"/>
@@ -18489,13 +18507,13 @@
       <c r="X321" s="18"/>
     </row>
     <row r="322">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="14" t="s">
         <v>1130</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="C322" s="9" t="s">
+      <c r="C322" s="14" t="s">
         <v>1132</v>
       </c>
       <c r="D322" s="18"/>
@@ -18553,13 +18571,13 @@
       <c r="X323" s="18"/>
     </row>
     <row r="324">
-      <c r="A324" s="14" t="s">
+      <c r="A324" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="B324" s="14" t="s">
+      <c r="B324" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="C324" s="9" t="s">
         <v>1138</v>
       </c>
       <c r="D324" s="18"/>
@@ -18649,13 +18667,13 @@
       <c r="X326" s="18"/>
     </row>
     <row r="327">
-      <c r="A327" s="9" t="s">
+      <c r="A327" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="C327" s="9" t="s">
+      <c r="C327" s="14" t="s">
         <v>1147</v>
       </c>
       <c r="D327" s="18"/>
@@ -18713,10 +18731,10 @@
       <c r="X328" s="18"/>
     </row>
     <row r="329">
-      <c r="A329" s="20" t="s">
+      <c r="A329" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="B329" s="20" t="s">
+      <c r="B329" s="9" t="s">
         <v>1152</v>
       </c>
       <c r="C329" s="9" t="s">
@@ -18745,10 +18763,10 @@
       <c r="X329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="20" t="s">
         <v>1155</v>
       </c>
       <c r="C330" s="9" t="s">
@@ -18841,10 +18859,10 @@
       <c r="X332" s="18"/>
     </row>
     <row r="333">
-      <c r="A333" s="20" t="s">
+      <c r="A333" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="B333" s="20" t="s">
+      <c r="B333" s="9" t="s">
         <v>1164</v>
       </c>
       <c r="C333" s="9" t="s">
@@ -18873,10 +18891,10 @@
       <c r="X333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="14" t="s">
+      <c r="A334" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="20" t="s">
         <v>1167</v>
       </c>
       <c r="C334" s="9" t="s">
@@ -18905,7 +18923,7 @@
       <c r="X334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="14" t="s">
         <v>1169</v>
       </c>
       <c r="B335" s="9" t="s">
@@ -19097,13 +19115,13 @@
       <c r="X340" s="18"/>
     </row>
     <row r="341">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="9" t="s">
         <v>1188</v>
       </c>
-      <c r="C341" s="14" t="s">
+      <c r="C341" s="9" t="s">
         <v>1189</v>
       </c>
       <c r="D341" s="18"/>
@@ -19129,13 +19147,13 @@
       <c r="X341" s="18"/>
     </row>
     <row r="342">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="14" t="s">
         <v>1192</v>
       </c>
       <c r="D342" s="18"/>
@@ -19193,13 +19211,13 @@
       <c r="X343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="C344" s="14" t="s">
+      <c r="C344" s="9" t="s">
         <v>1198</v>
       </c>
       <c r="D344" s="18"/>
@@ -19225,13 +19243,13 @@
       <c r="X344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="14" t="s">
         <v>1200</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="14" t="s">
         <v>1201</v>
       </c>
       <c r="D345" s="18"/>
@@ -19417,13 +19435,13 @@
       <c r="X350" s="18"/>
     </row>
     <row r="351">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="C351" s="9" t="s">
         <v>1219</v>
       </c>
       <c r="D351" s="18"/>
@@ -19449,13 +19467,13 @@
       <c r="X351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="14" t="s">
         <v>1220</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="14" t="s">
         <v>1221</v>
       </c>
-      <c r="C352" s="9" t="s">
+      <c r="C352" s="14" t="s">
         <v>1222</v>
       </c>
       <c r="D352" s="18"/>
@@ -19513,13 +19531,13 @@
       <c r="X353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="9" t="s">
         <v>1227</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="9" t="s">
         <v>1228</v>
       </c>
       <c r="D354" s="18"/>
@@ -19577,13 +19595,13 @@
       <c r="X355" s="18"/>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="14" t="s">
         <v>1232</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="14" t="s">
         <v>1234</v>
       </c>
       <c r="D356" s="18"/>
@@ -19609,13 +19627,13 @@
       <c r="X356" s="18"/>
     </row>
     <row r="357">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="9" t="s">
         <v>1236</v>
       </c>
-      <c r="C357" s="14" t="s">
+      <c r="C357" s="9" t="s">
         <v>1237</v>
       </c>
       <c r="D357" s="18"/>
@@ -19641,13 +19659,13 @@
       <c r="X357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="20" t="s">
+      <c r="A358" s="14" t="s">
         <v>1238</v>
       </c>
-      <c r="B358" s="20" t="s">
+      <c r="B358" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C358" s="14" t="s">
         <v>1240</v>
       </c>
       <c r="D358" s="18"/>
@@ -19673,13 +19691,13 @@
       <c r="X358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="20" t="s">
         <v>1241</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="20" t="s">
         <v>1242</v>
       </c>
-      <c r="C359" s="14" t="s">
+      <c r="C359" s="9" t="s">
         <v>1243</v>
       </c>
       <c r="D359" s="18"/>
@@ -19737,13 +19755,13 @@
       <c r="X360" s="18"/>
     </row>
     <row r="361">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="C361" s="9" t="s">
+      <c r="C361" s="14" t="s">
         <v>1249</v>
       </c>
       <c r="D361" s="18"/>
@@ -19801,13 +19819,13 @@
       <c r="X362" s="18"/>
     </row>
     <row r="363">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="9" t="s">
         <v>1254</v>
       </c>
-      <c r="C363" s="14" t="s">
+      <c r="C363" s="9" t="s">
         <v>1255</v>
       </c>
       <c r="D363" s="18"/>
@@ -19865,13 +19883,13 @@
       <c r="X364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="14" t="s">
         <v>1260</v>
       </c>
-      <c r="C365" s="9" t="s">
+      <c r="C365" s="14" t="s">
         <v>1261</v>
       </c>
       <c r="D365" s="18"/>
@@ -20057,13 +20075,13 @@
       <c r="X370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="9" t="s">
         <v>1278</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="9" t="s">
         <v>1279</v>
       </c>
       <c r="D371" s="18"/>
@@ -20121,13 +20139,13 @@
       <c r="X372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="14" t="s">
         <v>1284</v>
       </c>
-      <c r="C373" s="9" t="s">
+      <c r="C373" s="14" t="s">
         <v>1285</v>
       </c>
       <c r="D373" s="18"/>
@@ -20185,13 +20203,13 @@
       <c r="X374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="C375" s="14" t="s">
+      <c r="C375" s="9" t="s">
         <v>1291</v>
       </c>
       <c r="D375" s="18"/>
@@ -20217,13 +20235,13 @@
       <c r="X375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="C376" s="14" t="s">
         <v>1294</v>
       </c>
       <c r="D376" s="18"/>
@@ -20249,13 +20267,13 @@
       <c r="X376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="C377" s="14" t="s">
+      <c r="C377" s="9" t="s">
         <v>1297</v>
       </c>
       <c r="D377" s="18"/>
@@ -20281,13 +20299,13 @@
       <c r="X377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C378" s="14" t="s">
         <v>1300</v>
       </c>
       <c r="D378" s="18"/>
@@ -20409,13 +20427,13 @@
       <c r="X381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="9" t="s">
         <v>1312</v>
       </c>
       <c r="D382" s="18"/>
@@ -20473,13 +20491,13 @@
       <c r="X383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="14" t="s">
         <v>1316</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="14" t="s">
         <v>1317</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="14" t="s">
         <v>1318</v>
       </c>
       <c r="D384" s="18"/>
@@ -20569,13 +20587,13 @@
       <c r="X386" s="18"/>
     </row>
     <row r="387">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="C387" s="14" t="s">
+      <c r="C387" s="9" t="s">
         <v>1327</v>
       </c>
       <c r="D387" s="18"/>
@@ -20601,13 +20619,13 @@
       <c r="X387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="14" t="s">
         <v>1328</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="14" t="s">
         <v>1330</v>
       </c>
       <c r="D388" s="18"/>
@@ -20633,14 +20651,14 @@
       <c r="X388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="B389" s="14" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C389" s="14" t="s">
+      <c r="B389" s="9" t="s">
         <v>1332</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>1333</v>
       </c>
       <c r="D389" s="18"/>
       <c r="E389" s="18"/>
@@ -20666,13 +20684,13 @@
     </row>
     <row r="390">
       <c r="A390" s="14" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
@@ -20697,8 +20715,8 @@
       <c r="X390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="9" t="s">
-        <v>1335</v>
+      <c r="A391" s="14" t="s">
+        <v>1336</v>
       </c>
       <c r="B391" s="14" t="s">
         <v>1336</v>
@@ -20732,10 +20750,10 @@
       <c r="A392" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="14" t="s">
         <v>1340</v>
       </c>
       <c r="D392" s="18"/>
@@ -20825,13 +20843,13 @@
       <c r="X394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="9" t="s">
         <v>1348</v>
       </c>
-      <c r="C395" s="14" t="s">
+      <c r="C395" s="9" t="s">
         <v>1349</v>
       </c>
       <c r="D395" s="18"/>
@@ -20953,13 +20971,13 @@
       <c r="X398" s="18"/>
     </row>
     <row r="399">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="14" t="s">
         <v>1359</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="14" t="s">
         <v>1360</v>
       </c>
-      <c r="C399" s="9" t="s">
+      <c r="C399" s="14" t="s">
         <v>1361</v>
       </c>
       <c r="D399" s="18"/>
@@ -20985,7 +21003,7 @@
       <c r="X399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="9" t="s">
         <v>1362</v>
       </c>
       <c r="B400" s="9" t="s">
@@ -21017,7 +21035,7 @@
       <c r="X400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="14" t="s">
         <v>1365</v>
       </c>
       <c r="B401" s="9" t="s">
@@ -21049,10 +21067,10 @@
       <c r="X401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="20" t="s">
+      <c r="A402" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="B402" s="20" t="s">
+      <c r="B402" s="9" t="s">
         <v>1369</v>
       </c>
       <c r="C402" s="9" t="s">
@@ -21081,10 +21099,10 @@
       <c r="X402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="27" t="s">
+      <c r="A403" s="20" t="s">
         <v>1371</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="20" t="s">
         <v>1372</v>
       </c>
       <c r="C403" s="9" t="s">
@@ -21113,7 +21131,7 @@
       <c r="X403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="27" t="s">
         <v>1374</v>
       </c>
       <c r="B404" s="9" t="s">
@@ -21145,13 +21163,13 @@
       <c r="X404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="C405" s="14" t="s">
+      <c r="C405" s="9" t="s">
         <v>1379</v>
       </c>
       <c r="D405" s="18"/>
@@ -21273,13 +21291,13 @@
       <c r="X408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="C409" s="9" t="s">
+      <c r="C409" s="14" t="s">
         <v>1391</v>
       </c>
       <c r="D409" s="18"/>
@@ -21369,13 +21387,13 @@
       <c r="X411" s="18"/>
     </row>
     <row r="412">
-      <c r="A412" s="14" t="s">
+      <c r="A412" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="9" t="s">
         <v>1399</v>
       </c>
-      <c r="C412" s="14" t="s">
+      <c r="C412" s="9" t="s">
         <v>1400</v>
       </c>
       <c r="D412" s="18"/>
@@ -21433,13 +21451,13 @@
       <c r="X413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="C414" s="9" t="s">
+      <c r="C414" s="14" t="s">
         <v>1406</v>
       </c>
       <c r="D414" s="18"/>
@@ -21529,13 +21547,13 @@
       <c r="X416" s="18"/>
     </row>
     <row r="417">
-      <c r="A417" s="14" t="s">
+      <c r="A417" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="B417" s="14" t="s">
+      <c r="B417" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="C417" s="14" t="s">
+      <c r="C417" s="9" t="s">
         <v>1415</v>
       </c>
       <c r="D417" s="18"/>
@@ -21561,13 +21579,13 @@
       <c r="X417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="14" t="s">
         <v>1416</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="C418" s="9" t="s">
+      <c r="C418" s="14" t="s">
         <v>1418</v>
       </c>
       <c r="D418" s="18"/>
@@ -21593,13 +21611,13 @@
       <c r="X418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="14" t="s">
+      <c r="A419" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="B419" s="14" t="s">
+      <c r="B419" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="C419" s="14" t="s">
+      <c r="C419" s="9" t="s">
         <v>1421</v>
       </c>
       <c r="D419" s="18"/>
@@ -21625,13 +21643,13 @@
       <c r="X419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C420" s="14" t="s">
         <v>1424</v>
       </c>
       <c r="D420" s="18"/>
@@ -21849,13 +21867,13 @@
       <c r="X426" s="18"/>
     </row>
     <row r="427">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B427" s="14" t="s">
+      <c r="B427" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="C427" s="14" t="s">
+      <c r="C427" s="9" t="s">
         <v>1445</v>
       </c>
       <c r="D427" s="18"/>
@@ -21913,13 +21931,13 @@
       <c r="X428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="C429" s="9" t="s">
+      <c r="C429" s="14" t="s">
         <v>1451</v>
       </c>
       <c r="D429" s="18"/>
@@ -21945,13 +21963,13 @@
       <c r="X429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="9" t="s">
         <v>1454</v>
       </c>
       <c r="D430" s="18"/>
@@ -22009,13 +22027,13 @@
       <c r="X431" s="18"/>
     </row>
     <row r="432">
-      <c r="A432" s="9" t="s">
+      <c r="A432" s="14" t="s">
         <v>1458</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="C432" s="9" t="s">
+      <c r="C432" s="14" t="s">
         <v>1460</v>
       </c>
       <c r="D432" s="18"/>
@@ -22169,13 +22187,13 @@
       <c r="X436" s="18"/>
     </row>
     <row r="437">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="C437" s="14" t="s">
+      <c r="C437" s="9" t="s">
         <v>1475</v>
       </c>
       <c r="D437" s="18"/>
@@ -22297,13 +22315,13 @@
       <c r="X440" s="18"/>
     </row>
     <row r="441">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="14" t="s">
         <v>1486</v>
       </c>
-      <c r="C441" s="9" t="s">
+      <c r="C441" s="14" t="s">
         <v>1487</v>
       </c>
       <c r="D441" s="18"/>
@@ -22361,13 +22379,13 @@
       <c r="X442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="C443" s="14" t="s">
+      <c r="C443" s="9" t="s">
         <v>1493</v>
       </c>
       <c r="D443" s="18"/>
@@ -22393,13 +22411,13 @@
       <c r="X443" s="18"/>
     </row>
     <row r="444">
-      <c r="A444" s="9" t="s">
+      <c r="A444" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="C444" s="9" t="s">
+      <c r="C444" s="14" t="s">
         <v>1496</v>
       </c>
       <c r="D444" s="18"/>
@@ -22425,13 +22443,13 @@
       <c r="X444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="14" t="s">
         <v>1497</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="14" t="s">
         <v>1498</v>
       </c>
-      <c r="C445" s="9" t="s">
+      <c r="C445" s="14" t="s">
         <v>1499</v>
       </c>
       <c r="D445" s="18"/>
@@ -22457,10 +22475,10 @@
       <c r="X445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="20" t="s">
+      <c r="A446" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="B446" s="20" t="s">
+      <c r="B446" s="9" t="s">
         <v>1501</v>
       </c>
       <c r="C446" s="9" t="s">
@@ -22521,13 +22539,13 @@
       <c r="X447" s="18"/>
     </row>
     <row r="448">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="20" t="s">
         <v>1506</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="20" t="s">
         <v>1507</v>
       </c>
-      <c r="C448" s="14" t="s">
+      <c r="C448" s="9" t="s">
         <v>1508</v>
       </c>
       <c r="D448" s="18"/>
@@ -22585,13 +22603,13 @@
       <c r="X449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="C450" s="9" t="s">
+      <c r="C450" s="14" t="s">
         <v>1514</v>
       </c>
       <c r="D450" s="18"/>
@@ -22617,13 +22635,13 @@
       <c r="X450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="14" t="s">
+      <c r="A451" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="B451" s="14" t="s">
+      <c r="B451" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="C451" s="14" t="s">
+      <c r="C451" s="9" t="s">
         <v>1517</v>
       </c>
       <c r="D451" s="18"/>
@@ -22649,13 +22667,13 @@
       <c r="X451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="B452" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="C452" s="14" t="s">
+      <c r="C452" s="9" t="s">
         <v>1520</v>
       </c>
       <c r="D452" s="18"/>
@@ -22713,13 +22731,13 @@
       <c r="X453" s="18"/>
     </row>
     <row r="454">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="C454" s="9" t="s">
+      <c r="C454" s="14" t="s">
         <v>1526</v>
       </c>
       <c r="D454" s="18"/>
@@ -22745,13 +22763,13 @@
       <c r="X454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="C455" s="9" t="s">
+      <c r="C455" s="14" t="s">
         <v>1529</v>
       </c>
       <c r="D455" s="18"/>
@@ -22777,13 +22795,13 @@
       <c r="X455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="9" t="s">
         <v>1531</v>
       </c>
-      <c r="C456" s="14" t="s">
+      <c r="C456" s="9" t="s">
         <v>1532</v>
       </c>
       <c r="D456" s="18"/>
@@ -22841,13 +22859,13 @@
       <c r="X457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="C458" s="9" t="s">
+      <c r="C458" s="14" t="s">
         <v>1538</v>
       </c>
       <c r="D458" s="18"/>
@@ -22905,13 +22923,13 @@
       <c r="X459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="B460" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="C460" s="14" t="s">
+      <c r="C460" s="9" t="s">
         <v>1544</v>
       </c>
       <c r="D460" s="18"/>
@@ -22937,13 +22955,13 @@
       <c r="X460" s="18"/>
     </row>
     <row r="461">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="C461" s="14" t="s">
+      <c r="C461" s="9" t="s">
         <v>1547</v>
       </c>
       <c r="D461" s="18"/>
@@ -22969,13 +22987,13 @@
       <c r="X461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="9" t="s">
+      <c r="A462" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="14" t="s">
         <v>1549</v>
       </c>
-      <c r="C462" s="9" t="s">
+      <c r="C462" s="14" t="s">
         <v>1550</v>
       </c>
       <c r="D462" s="18"/>
@@ -23001,7 +23019,7 @@
       <c r="X462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="14" t="s">
         <v>1551</v>
       </c>
       <c r="B463" s="14" t="s">
@@ -23033,13 +23051,13 @@
       <c r="X463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="14" t="s">
+      <c r="A464" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="C464" s="14" t="s">
+      <c r="C464" s="9" t="s">
         <v>1556</v>
       </c>
       <c r="D464" s="18"/>
@@ -23065,7 +23083,7 @@
       <c r="X464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="14" t="s">
+      <c r="A465" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="B465" s="14" t="s">
@@ -23225,13 +23243,13 @@
       <c r="X469" s="18"/>
     </row>
     <row r="470">
-      <c r="A470" s="9" t="s">
+      <c r="A470" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="14" t="s">
         <v>1573</v>
       </c>
-      <c r="C470" s="9" t="s">
+      <c r="C470" s="14" t="s">
         <v>1574</v>
       </c>
       <c r="D470" s="18"/>
@@ -23257,13 +23275,13 @@
       <c r="X470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="9" t="s">
+      <c r="A471" s="14" t="s">
         <v>1575</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="14" t="s">
         <v>1576</v>
       </c>
-      <c r="C471" s="9" t="s">
+      <c r="C471" s="14" t="s">
         <v>1577</v>
       </c>
       <c r="D471" s="18"/>
@@ -23289,13 +23307,13 @@
       <c r="X471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="14" t="s">
+      <c r="A472" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="C472" s="14" t="s">
+      <c r="C472" s="9" t="s">
         <v>1580</v>
       </c>
       <c r="D472" s="18"/>
@@ -23385,13 +23403,13 @@
       <c r="X474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="14" t="s">
+      <c r="A475" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="C475" s="14" t="s">
+      <c r="C475" s="9" t="s">
         <v>1589</v>
       </c>
       <c r="D475" s="18"/>
@@ -23449,13 +23467,13 @@
       <c r="X476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="9" t="s">
+      <c r="A477" s="14" t="s">
         <v>1593</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="14" t="s">
         <v>1594</v>
       </c>
-      <c r="C477" s="9" t="s">
+      <c r="C477" s="14" t="s">
         <v>1595</v>
       </c>
       <c r="D477" s="18"/>
@@ -23545,13 +23563,13 @@
       <c r="X479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="14" t="s">
         <v>1602</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="14" t="s">
         <v>1603</v>
       </c>
-      <c r="C480" s="9" t="s">
+      <c r="C480" s="14" t="s">
         <v>1604</v>
       </c>
       <c r="D480" s="18"/>
@@ -23577,13 +23595,13 @@
       <c r="X480" s="18"/>
     </row>
     <row r="481">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="C481" s="14" t="s">
+      <c r="C481" s="9" t="s">
         <v>1607</v>
       </c>
       <c r="D481" s="18"/>
@@ -23609,13 +23627,13 @@
       <c r="X481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="9" t="s">
         <v>1609</v>
       </c>
-      <c r="C482" s="14" t="s">
+      <c r="C482" s="9" t="s">
         <v>1610</v>
       </c>
       <c r="D482" s="18"/>
@@ -23641,13 +23659,13 @@
       <c r="X482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="9" t="s">
+      <c r="A483" s="14" t="s">
         <v>1611</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C483" s="14" t="s">
         <v>1613</v>
       </c>
       <c r="D483" s="18"/>
@@ -23705,13 +23723,13 @@
       <c r="X484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="14" t="s">
+      <c r="A485" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C485" s="9" t="s">
         <v>1619</v>
       </c>
       <c r="D485" s="18"/>
@@ -23737,13 +23755,13 @@
       <c r="X485" s="18"/>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="14" t="s">
         <v>1621</v>
       </c>
-      <c r="C486" s="9" t="s">
+      <c r="C486" s="14" t="s">
         <v>1622</v>
       </c>
       <c r="D486" s="18"/>
@@ -23769,13 +23787,13 @@
       <c r="X486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="9" t="s">
+      <c r="A487" s="14" t="s">
         <v>1623</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C487" s="14" t="s">
         <v>1625</v>
       </c>
       <c r="D487" s="18"/>
@@ -23801,13 +23819,13 @@
       <c r="X487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="14" t="s">
+      <c r="A488" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="C488" s="14" t="s">
+      <c r="C488" s="9" t="s">
         <v>1628</v>
       </c>
       <c r="D488" s="18"/>
@@ -23865,13 +23883,13 @@
       <c r="X489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="14" t="s">
         <v>1633</v>
       </c>
-      <c r="C490" s="9" t="s">
+      <c r="C490" s="14" t="s">
         <v>1634</v>
       </c>
       <c r="D490" s="18"/>
@@ -23929,13 +23947,13 @@
       <c r="X491" s="18"/>
     </row>
     <row r="492">
-      <c r="A492" s="14" t="s">
+      <c r="A492" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="9" t="s">
         <v>1639</v>
       </c>
-      <c r="C492" s="14" t="s">
+      <c r="C492" s="9" t="s">
         <v>1640</v>
       </c>
       <c r="D492" s="18"/>
@@ -23961,13 +23979,13 @@
       <c r="X492" s="18"/>
     </row>
     <row r="493">
-      <c r="A493" s="14" t="s">
+      <c r="A493" s="9" t="s">
         <v>1641</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="B493" s="9" t="s">
         <v>1642</v>
       </c>
-      <c r="C493" s="14" t="s">
+      <c r="C493" s="9" t="s">
         <v>1643</v>
       </c>
       <c r="D493" s="18"/>
@@ -24057,13 +24075,13 @@
       <c r="X495" s="18"/>
     </row>
     <row r="496">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="14" t="s">
         <v>1650</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="14" t="s">
         <v>1651</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="14" t="s">
         <v>1652</v>
       </c>
       <c r="D496" s="18"/>
@@ -24185,13 +24203,13 @@
       <c r="X499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="14" t="s">
+      <c r="A500" s="9" t="s">
         <v>1662</v>
       </c>
-      <c r="B500" s="14" t="s">
+      <c r="B500" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="C500" s="14" t="s">
+      <c r="C500" s="9" t="s">
         <v>1664</v>
       </c>
       <c r="D500" s="18"/>
@@ -24217,13 +24235,13 @@
       <c r="X500" s="18"/>
     </row>
     <row r="501">
-      <c r="A501" s="9" t="s">
+      <c r="A501" s="14" t="s">
         <v>1665</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="14" t="s">
         <v>1666</v>
       </c>
-      <c r="C501" s="9" t="s">
+      <c r="C501" s="14" t="s">
         <v>1667</v>
       </c>
       <c r="D501" s="18"/>
@@ -24281,13 +24299,13 @@
       <c r="X502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="14" t="s">
+      <c r="A503" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="B503" s="14" t="s">
+      <c r="B503" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="C503" s="14" t="s">
+      <c r="C503" s="9" t="s">
         <v>1673</v>
       </c>
       <c r="D503" s="18"/>
@@ -24537,13 +24555,13 @@
       <c r="X510" s="18"/>
     </row>
     <row r="511">
-      <c r="A511" s="9" t="s">
+      <c r="A511" s="14" t="s">
         <v>1695</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="14" t="s">
         <v>1696</v>
       </c>
-      <c r="C511" s="9" t="s">
+      <c r="C511" s="14" t="s">
         <v>1697</v>
       </c>
       <c r="D511" s="18"/>
@@ -24569,13 +24587,13 @@
       <c r="X511" s="18"/>
     </row>
     <row r="512">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="14" t="s">
         <v>1698</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="14" t="s">
         <v>1699</v>
       </c>
-      <c r="C512" s="9" t="s">
+      <c r="C512" s="14" t="s">
         <v>1700</v>
       </c>
       <c r="D512" s="18"/>
@@ -24633,13 +24651,13 @@
       <c r="X513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="14" t="s">
+      <c r="A514" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="B514" s="14" t="s">
+      <c r="B514" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="C514" s="14" t="s">
+      <c r="C514" s="9" t="s">
         <v>1706</v>
       </c>
       <c r="D514" s="18"/>
@@ -24665,13 +24683,13 @@
       <c r="X514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="14" t="s">
+      <c r="A515" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="B515" s="14" t="s">
+      <c r="B515" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="C515" s="14" t="s">
+      <c r="C515" s="9" t="s">
         <v>1709</v>
       </c>
       <c r="D515" s="18"/>
@@ -24793,13 +24811,13 @@
       <c r="X518" s="18"/>
     </row>
     <row r="519">
-      <c r="A519" s="9" t="s">
+      <c r="A519" s="14" t="s">
         <v>1719</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="C519" s="9" t="s">
+      <c r="C519" s="14" t="s">
         <v>1721</v>
       </c>
       <c r="D519" s="18"/>
@@ -24889,13 +24907,13 @@
       <c r="X521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="14" t="s">
         <v>1728</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="14" t="s">
         <v>1729</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C522" s="14" t="s">
         <v>1730</v>
       </c>
       <c r="D522" s="18"/>
@@ -25081,13 +25099,13 @@
       <c r="X527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="14" t="s">
+      <c r="A528" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="B528" s="14" t="s">
+      <c r="B528" s="9" t="s">
         <v>1747</v>
       </c>
-      <c r="C528" s="14" t="s">
+      <c r="C528" s="9" t="s">
         <v>1748</v>
       </c>
       <c r="D528" s="18"/>
@@ -25113,13 +25131,13 @@
       <c r="X528" s="18"/>
     </row>
     <row r="529">
-      <c r="A529" s="14" t="s">
+      <c r="A529" s="9" t="s">
         <v>1749</v>
       </c>
-      <c r="B529" s="14" t="s">
+      <c r="B529" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="C529" s="14" t="s">
+      <c r="C529" s="9" t="s">
         <v>1751</v>
       </c>
       <c r="D529" s="18"/>
@@ -25177,13 +25195,13 @@
       <c r="X530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="9" t="s">
+      <c r="A531" s="14" t="s">
         <v>1755</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="C531" s="9" t="s">
+      <c r="C531" s="14" t="s">
         <v>1757</v>
       </c>
       <c r="D531" s="18"/>
@@ -25209,13 +25227,13 @@
       <c r="X531" s="18"/>
     </row>
     <row r="532">
-      <c r="A532" s="9" t="s">
+      <c r="A532" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="14" t="s">
         <v>1759</v>
       </c>
-      <c r="C532" s="9" t="s">
+      <c r="C532" s="14" t="s">
         <v>1760</v>
       </c>
       <c r="D532" s="18"/>
@@ -25273,13 +25291,13 @@
       <c r="X533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="14" t="s">
+      <c r="A534" s="9" t="s">
         <v>1764</v>
       </c>
-      <c r="B534" s="14" t="s">
+      <c r="B534" s="9" t="s">
         <v>1765</v>
       </c>
-      <c r="C534" s="14" t="s">
+      <c r="C534" s="9" t="s">
         <v>1766</v>
       </c>
       <c r="D534" s="18"/>
@@ -25369,13 +25387,13 @@
       <c r="X536" s="18"/>
     </row>
     <row r="537">
-      <c r="A537" s="14" t="s">
+      <c r="A537" s="9" t="s">
         <v>1773</v>
       </c>
-      <c r="B537" s="14" t="s">
+      <c r="B537" s="9" t="s">
         <v>1774</v>
       </c>
-      <c r="C537" s="14" t="s">
+      <c r="C537" s="9" t="s">
         <v>1775</v>
       </c>
       <c r="D537" s="18"/>
@@ -25401,13 +25419,13 @@
       <c r="X537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="14" t="s">
         <v>1776</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="14" t="s">
         <v>1777</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="14" t="s">
         <v>1778</v>
       </c>
       <c r="D538" s="18"/>
@@ -25497,13 +25515,13 @@
       <c r="X540" s="18"/>
     </row>
     <row r="541">
-      <c r="A541" s="9" t="s">
+      <c r="A541" s="14" t="s">
         <v>1785</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="14" t="s">
         <v>1786</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="C541" s="14" t="s">
         <v>1787</v>
       </c>
       <c r="D541" s="18"/>
@@ -25561,13 +25579,13 @@
       <c r="X542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="14" t="s">
+      <c r="A543" s="9" t="s">
         <v>1791</v>
       </c>
-      <c r="B543" s="14" t="s">
+      <c r="B543" s="9" t="s">
         <v>1792</v>
       </c>
-      <c r="C543" s="14" t="s">
+      <c r="C543" s="9" t="s">
         <v>1793</v>
       </c>
       <c r="D543" s="18"/>
@@ -25625,13 +25643,13 @@
       <c r="X544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="9" t="s">
+      <c r="A545" s="14" t="s">
         <v>1797</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="14" t="s">
         <v>1798</v>
       </c>
-      <c r="C545" s="9" t="s">
+      <c r="C545" s="14" t="s">
         <v>1799</v>
       </c>
       <c r="D545" s="18"/>
@@ -25657,13 +25675,13 @@
       <c r="X545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="14" t="s">
+      <c r="A546" s="9" t="s">
         <v>1800</v>
       </c>
-      <c r="B546" s="14" t="s">
+      <c r="B546" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="C546" s="14" t="s">
+      <c r="C546" s="9" t="s">
         <v>1802</v>
       </c>
       <c r="D546" s="18"/>
@@ -25785,13 +25803,13 @@
       <c r="X549" s="18"/>
     </row>
     <row r="550">
-      <c r="A550" s="9" t="s">
+      <c r="A550" s="14" t="s">
         <v>1812</v>
       </c>
-      <c r="B550" s="9" t="s">
+      <c r="B550" s="14" t="s">
         <v>1813</v>
       </c>
-      <c r="C550" s="9" t="s">
+      <c r="C550" s="14" t="s">
         <v>1814</v>
       </c>
       <c r="D550" s="18"/>
@@ -25881,13 +25899,13 @@
       <c r="X552" s="18"/>
     </row>
     <row r="553">
-      <c r="A553" s="14" t="s">
+      <c r="A553" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="B553" s="14" t="s">
+      <c r="B553" s="9" t="s">
         <v>1822</v>
       </c>
-      <c r="C553" s="14" t="s">
+      <c r="C553" s="9" t="s">
         <v>1823</v>
       </c>
       <c r="D553" s="18"/>
@@ -25977,13 +25995,13 @@
       <c r="X555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="14" t="s">
+      <c r="A556" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="B556" s="14" t="s">
+      <c r="B556" s="9" t="s">
         <v>1831</v>
       </c>
-      <c r="C556" s="14" t="s">
+      <c r="C556" s="9" t="s">
         <v>1832</v>
       </c>
       <c r="D556" s="18"/>
@@ -26009,13 +26027,13 @@
       <c r="X556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="9" t="s">
+      <c r="A557" s="14" t="s">
         <v>1833</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B557" s="14" t="s">
         <v>1834</v>
       </c>
-      <c r="C557" s="9" t="s">
+      <c r="C557" s="14" t="s">
         <v>1835</v>
       </c>
       <c r="D557" s="18"/>
@@ -26041,13 +26059,13 @@
       <c r="X557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="9" t="s">
+      <c r="A558" s="14" t="s">
         <v>1836</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="14" t="s">
         <v>1837</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C558" s="14" t="s">
         <v>1838</v>
       </c>
       <c r="D558" s="18"/>
@@ -26137,13 +26155,13 @@
       <c r="X560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="14" t="s">
+      <c r="A561" s="9" t="s">
         <v>1845</v>
       </c>
-      <c r="B561" s="14" t="s">
+      <c r="B561" s="9" t="s">
         <v>1846</v>
       </c>
-      <c r="C561" s="14" t="s">
+      <c r="C561" s="9" t="s">
         <v>1847</v>
       </c>
       <c r="D561" s="18"/>
@@ -26169,13 +26187,13 @@
       <c r="X561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="14" t="s">
+      <c r="A562" s="9" t="s">
         <v>1848</v>
       </c>
-      <c r="B562" s="14" t="s">
+      <c r="B562" s="9" t="s">
         <v>1849</v>
       </c>
-      <c r="C562" s="14" t="s">
+      <c r="C562" s="9" t="s">
         <v>1850</v>
       </c>
       <c r="D562" s="18"/>
@@ -26201,13 +26219,13 @@
       <c r="X562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="9" t="s">
+      <c r="A563" s="14" t="s">
         <v>1851</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" s="14" t="s">
         <v>1852</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="C563" s="14" t="s">
         <v>1853</v>
       </c>
       <c r="D563" s="18"/>
@@ -26233,13 +26251,13 @@
       <c r="X563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="9" t="s">
+      <c r="A564" s="14" t="s">
         <v>1854</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="14" t="s">
         <v>1855</v>
       </c>
-      <c r="C564" s="9" t="s">
+      <c r="C564" s="14" t="s">
         <v>1856</v>
       </c>
       <c r="D564" s="18"/>
@@ -26457,13 +26475,13 @@
       <c r="X570" s="18"/>
     </row>
     <row r="571">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="9" t="s">
         <v>1875</v>
       </c>
-      <c r="B571" s="14" t="s">
+      <c r="B571" s="9" t="s">
         <v>1876</v>
       </c>
-      <c r="C571" s="14" t="s">
+      <c r="C571" s="9" t="s">
         <v>1877</v>
       </c>
       <c r="D571" s="18"/>
@@ -26489,13 +26507,13 @@
       <c r="X571" s="18"/>
     </row>
     <row r="572">
-      <c r="A572" s="14" t="s">
+      <c r="A572" s="9" t="s">
         <v>1878</v>
       </c>
-      <c r="B572" s="14" t="s">
+      <c r="B572" s="9" t="s">
         <v>1879</v>
       </c>
-      <c r="C572" s="14" t="s">
+      <c r="C572" s="9" t="s">
         <v>1880</v>
       </c>
       <c r="D572" s="18"/>
@@ -26521,13 +26539,13 @@
       <c r="X572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="9" t="s">
+      <c r="A573" s="14" t="s">
         <v>1881</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="14" t="s">
         <v>1882</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" s="14" t="s">
         <v>1883</v>
       </c>
       <c r="D573" s="18"/>
@@ -26553,13 +26571,13 @@
       <c r="X573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="9" t="s">
+      <c r="A574" s="14" t="s">
         <v>1884</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="14" t="s">
         <v>1885</v>
       </c>
-      <c r="C574" s="9" t="s">
+      <c r="C574" s="14" t="s">
         <v>1886</v>
       </c>
       <c r="D574" s="18"/>
@@ -26617,13 +26635,13 @@
       <c r="X575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="14" t="s">
+      <c r="A576" s="9" t="s">
         <v>1890</v>
       </c>
-      <c r="B576" s="14" t="s">
+      <c r="B576" s="9" t="s">
         <v>1891</v>
       </c>
-      <c r="C576" s="14" t="s">
+      <c r="C576" s="9" t="s">
         <v>1892</v>
       </c>
       <c r="D576" s="18"/>
@@ -26681,13 +26699,13 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="14" t="s">
         <v>1896</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="14" t="s">
         <v>1897</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="14" t="s">
         <v>1898</v>
       </c>
       <c r="D578" s="18"/>
@@ -26713,13 +26731,13 @@
       <c r="X578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="14" t="s">
+      <c r="A579" s="9" t="s">
         <v>1899</v>
       </c>
-      <c r="B579" s="14" t="s">
+      <c r="B579" s="9" t="s">
         <v>1900</v>
       </c>
-      <c r="C579" s="14" t="s">
+      <c r="C579" s="9" t="s">
         <v>1901</v>
       </c>
       <c r="D579" s="18"/>
@@ -26745,13 +26763,13 @@
       <c r="X579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="14" t="s">
+      <c r="A580" s="9" t="s">
         <v>1902</v>
       </c>
-      <c r="B580" s="14" t="s">
+      <c r="B580" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="C580" s="14" t="s">
+      <c r="C580" s="9" t="s">
         <v>1904</v>
       </c>
       <c r="D580" s="18"/>
@@ -26841,13 +26859,13 @@
       <c r="X582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="9" t="s">
+      <c r="A583" s="14" t="s">
         <v>1911</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" s="14" t="s">
         <v>1912</v>
       </c>
-      <c r="C583" s="9" t="s">
+      <c r="C583" s="14" t="s">
         <v>1913</v>
       </c>
       <c r="D583" s="18"/>
@@ -26937,13 +26955,13 @@
       <c r="X585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="14" t="s">
         <v>1920</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="14" t="s">
         <v>1921</v>
       </c>
-      <c r="C586" s="9" t="s">
+      <c r="C586" s="14" t="s">
         <v>1922</v>
       </c>
       <c r="D586" s="18"/>
@@ -27001,13 +27019,13 @@
       <c r="X587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="14" t="s">
+      <c r="A588" s="9" t="s">
         <v>1926</v>
       </c>
-      <c r="B588" s="14" t="s">
+      <c r="B588" s="9" t="s">
         <v>1927</v>
       </c>
-      <c r="C588" s="14" t="s">
+      <c r="C588" s="9" t="s">
         <v>1928</v>
       </c>
       <c r="D588" s="18"/>
@@ -27033,13 +27051,13 @@
       <c r="X588" s="18"/>
     </row>
     <row r="589">
-      <c r="A589" s="14" t="s">
+      <c r="A589" s="9" t="s">
         <v>1929</v>
       </c>
-      <c r="B589" s="14" t="s">
+      <c r="B589" s="9" t="s">
         <v>1930</v>
       </c>
-      <c r="C589" s="14" t="s">
+      <c r="C589" s="9" t="s">
         <v>1931</v>
       </c>
       <c r="D589" s="18"/>
@@ -27065,13 +27083,13 @@
       <c r="X589" s="18"/>
     </row>
     <row r="590">
-      <c r="A590" s="9" t="s">
+      <c r="A590" s="14" t="s">
         <v>1932</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="14" t="s">
         <v>1933</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="C590" s="14" t="s">
         <v>1934</v>
       </c>
       <c r="D590" s="18"/>
@@ -27097,13 +27115,13 @@
       <c r="X590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="9" t="s">
+      <c r="A591" s="14" t="s">
         <v>1935</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="14" t="s">
         <v>1936</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="C591" s="14" t="s">
         <v>1937</v>
       </c>
       <c r="D591" s="18"/>
@@ -27225,13 +27243,13 @@
       <c r="X594" s="18"/>
     </row>
     <row r="595">
-      <c r="A595" s="14" t="s">
+      <c r="A595" s="9" t="s">
         <v>1947</v>
       </c>
-      <c r="B595" s="14" t="s">
+      <c r="B595" s="9" t="s">
         <v>1948</v>
       </c>
-      <c r="C595" s="14" t="s">
+      <c r="C595" s="9" t="s">
         <v>1949</v>
       </c>
       <c r="D595" s="18"/>
@@ -27263,7 +27281,7 @@
       <c r="B596" s="9" t="s">
         <v>1951</v>
       </c>
-      <c r="C596" s="14" t="s">
+      <c r="C596" s="9" t="s">
         <v>1952</v>
       </c>
       <c r="D596" s="18"/>
@@ -27321,10 +27339,10 @@
       <c r="X597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="14" t="s">
+      <c r="A598" s="9" t="s">
         <v>1956</v>
       </c>
-      <c r="B598" s="14" t="s">
+      <c r="B598" s="9" t="s">
         <v>1957</v>
       </c>
       <c r="C598" s="14" t="s">
@@ -27353,13 +27371,13 @@
       <c r="X598" s="18"/>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="s">
+      <c r="A599" s="14" t="s">
         <v>1959</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="14" t="s">
         <v>1960</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="C599" s="14" t="s">
         <v>1961</v>
       </c>
       <c r="D599" s="18"/>
@@ -27417,13 +27435,13 @@
       <c r="X600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="14" t="s">
+      <c r="A601" s="9" t="s">
         <v>1965</v>
       </c>
-      <c r="B601" s="14" t="s">
+      <c r="B601" s="9" t="s">
         <v>1966</v>
       </c>
-      <c r="C601" s="14" t="s">
+      <c r="C601" s="9" t="s">
         <v>1967</v>
       </c>
       <c r="D601" s="18"/>
@@ -27481,13 +27499,13 @@
       <c r="X602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="s">
+      <c r="A603" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="14" t="s">
         <v>1972</v>
       </c>
-      <c r="C603" s="9" t="s">
+      <c r="C603" s="14" t="s">
         <v>1973</v>
       </c>
       <c r="D603" s="18"/>
@@ -27513,13 +27531,13 @@
       <c r="X603" s="18"/>
     </row>
     <row r="604">
-      <c r="A604" s="9" t="s">
+      <c r="A604" s="14" t="s">
         <v>1974</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" s="14" t="s">
         <v>1975</v>
       </c>
-      <c r="C604" s="9" t="s">
+      <c r="C604" s="14" t="s">
         <v>1976</v>
       </c>
       <c r="D604" s="18"/>
@@ -27641,13 +27659,13 @@
       <c r="X607" s="18"/>
     </row>
     <row r="608">
-      <c r="A608" s="20" t="s">
+      <c r="A608" s="9" t="s">
         <v>1986</v>
       </c>
-      <c r="B608" s="20" t="s">
+      <c r="B608" s="9" t="s">
         <v>1987</v>
       </c>
-      <c r="C608" s="10" t="s">
+      <c r="C608" s="9" t="s">
         <v>1988</v>
       </c>
       <c r="D608" s="18"/>
@@ -27705,13 +27723,13 @@
       <c r="X609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="14" t="s">
+      <c r="A610" s="20" t="s">
         <v>1992</v>
       </c>
-      <c r="B610" s="14" t="s">
+      <c r="B610" s="20" t="s">
         <v>1993</v>
       </c>
-      <c r="C610" s="14" t="s">
+      <c r="C610" s="10" t="s">
         <v>1994</v>
       </c>
       <c r="D610" s="18"/>
@@ -27801,13 +27819,13 @@
       <c r="X612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="14" t="s">
+      <c r="A613" s="9" t="s">
         <v>2001</v>
       </c>
-      <c r="B613" s="14" t="s">
+      <c r="B613" s="9" t="s">
         <v>2002</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="9" t="s">
         <v>2003</v>
       </c>
       <c r="D613" s="18"/>
@@ -27865,13 +27883,13 @@
       <c r="X614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="s">
+      <c r="A615" s="14" t="s">
         <v>2007</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="14" t="s">
         <v>2008</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="C615" s="14" t="s">
         <v>2009</v>
       </c>
       <c r="D615" s="18"/>
@@ -28005,13 +28023,13 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="9" t="s">
+      <c r="A622" s="14" t="s">
         <v>2028</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="14" t="s">
         <v>2029</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="C622" s="14" t="s">
         <v>2030</v>
       </c>
     </row>
@@ -28027,24 +28045,24 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="14" t="s">
+      <c r="A624" s="9" t="s">
         <v>2034</v>
       </c>
-      <c r="B624" s="14" t="s">
+      <c r="B624" s="9" t="s">
         <v>2035</v>
       </c>
-      <c r="C624" s="14" t="s">
+      <c r="C624" s="9" t="s">
         <v>2036</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="14" t="s">
+      <c r="A625" s="9" t="s">
         <v>2037</v>
       </c>
-      <c r="B625" s="14" t="s">
+      <c r="B625" s="9" t="s">
         <v>2038</v>
       </c>
-      <c r="C625" s="14" t="s">
+      <c r="C625" s="9" t="s">
         <v>2039</v>
       </c>
     </row>
@@ -28060,24 +28078,24 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="9" t="s">
+      <c r="A627" s="14" t="s">
         <v>2043</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="14" t="s">
         <v>2044</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="C627" s="14" t="s">
         <v>2045</v>
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="9" t="s">
+      <c r="A628" s="14" t="s">
         <v>2046</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="14" t="s">
         <v>2047</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C628" s="14" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -28085,7 +28103,7 @@
       <c r="A629" s="9" t="s">
         <v>2049</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2050</v>
       </c>
       <c r="C629" s="9" t="s">
@@ -28093,46 +28111,46 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="14" t="s">
+      <c r="A630" s="9" t="s">
         <v>2052</v>
       </c>
-      <c r="B630" s="14" t="s">
+      <c r="B630" s="9" t="s">
         <v>2053</v>
       </c>
-      <c r="C630" s="14" t="s">
+      <c r="C630" s="9" t="s">
         <v>2054</v>
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="14" t="s">
+      <c r="A631" s="9" t="s">
         <v>2055</v>
       </c>
       <c r="B631" s="14" t="s">
         <v>2056</v>
       </c>
-      <c r="C631" s="14" t="s">
+      <c r="C631" s="9" t="s">
         <v>2057</v>
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="9" t="s">
+      <c r="A632" s="14" t="s">
         <v>2058</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="14" t="s">
         <v>2059</v>
       </c>
-      <c r="C632" s="9" t="s">
+      <c r="C632" s="14" t="s">
         <v>2060</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="9" t="s">
+      <c r="A633" s="14" t="s">
         <v>2061</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" s="14" t="s">
         <v>2062</v>
       </c>
-      <c r="C633" s="9" t="s">
+      <c r="C633" s="14" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -28159,10 +28177,10 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="20" t="s">
+      <c r="A636" s="9" t="s">
         <v>2070</v>
       </c>
-      <c r="B636" s="20" t="s">
+      <c r="B636" s="9" t="s">
         <v>2071</v>
       </c>
       <c r="C636" s="9" t="s">
@@ -28181,10 +28199,10 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="20" t="s">
         <v>2076</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="20" t="s">
         <v>2077</v>
       </c>
       <c r="C638" s="9" t="s">
@@ -28214,24 +28232,24 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="14" t="s">
+      <c r="A641" s="9" t="s">
         <v>2085</v>
       </c>
-      <c r="B641" s="14" t="s">
+      <c r="B641" s="9" t="s">
         <v>2086</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="9" t="s">
         <v>2087</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="14" t="s">
+      <c r="A642" s="9" t="s">
         <v>2088</v>
       </c>
-      <c r="B642" s="14" t="s">
+      <c r="B642" s="9" t="s">
         <v>2089</v>
       </c>
-      <c r="C642" s="14" t="s">
+      <c r="C642" s="9" t="s">
         <v>2090</v>
       </c>
     </row>
@@ -28247,13 +28265,13 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="14" t="s">
         <v>2094</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="14" t="s">
         <v>2095</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="14" t="s">
         <v>2096</v>
       </c>
     </row>
@@ -28280,13 +28298,13 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="9" t="s">
+      <c r="A647" s="14" t="s">
         <v>2103</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="14" t="s">
         <v>2104</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="14" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -28302,13 +28320,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="14" t="s">
+      <c r="A649" s="9" t="s">
         <v>2109</v>
       </c>
-      <c r="B649" s="14" t="s">
+      <c r="B649" s="9" t="s">
         <v>2110</v>
       </c>
-      <c r="C649" s="14" t="s">
+      <c r="C649" s="9" t="s">
         <v>2111</v>
       </c>
     </row>
@@ -28390,13 +28408,13 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="9" t="s">
+      <c r="A657" s="14" t="s">
         <v>2133</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="14" t="s">
         <v>2134</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="14" t="s">
         <v>2135</v>
       </c>
     </row>
@@ -28412,13 +28430,13 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="14" t="s">
+      <c r="A659" s="9" t="s">
         <v>2139</v>
       </c>
-      <c r="B659" s="14" t="s">
+      <c r="B659" s="9" t="s">
         <v>2140</v>
       </c>
-      <c r="C659" s="14" t="s">
+      <c r="C659" s="9" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -28445,24 +28463,24 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="14" t="s">
+      <c r="A662" s="9" t="s">
         <v>2148</v>
       </c>
-      <c r="B662" s="14" t="s">
+      <c r="B662" s="9" t="s">
         <v>2149</v>
       </c>
-      <c r="C662" s="14" t="s">
+      <c r="C662" s="9" t="s">
         <v>2150</v>
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="9" t="s">
+      <c r="A663" s="14" t="s">
         <v>2151</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="14" t="s">
         <v>2152</v>
       </c>
-      <c r="C663" s="9" t="s">
+      <c r="C663" s="14" t="s">
         <v>2153</v>
       </c>
     </row>
@@ -28478,35 +28496,35 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="14" t="s">
+      <c r="A665" s="9" t="s">
         <v>2157</v>
       </c>
-      <c r="B665" s="14" t="s">
+      <c r="B665" s="9" t="s">
         <v>2158</v>
       </c>
-      <c r="C665" s="14" t="s">
+      <c r="C665" s="9" t="s">
         <v>2159</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="9" t="s">
+      <c r="A666" s="14" t="s">
         <v>2160</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="14" t="s">
         <v>2161</v>
       </c>
-      <c r="C666" s="9" t="s">
+      <c r="C666" s="14" t="s">
         <v>2162</v>
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="9" t="s">
+      <c r="A667" s="14" t="s">
         <v>2163</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="14" t="s">
         <v>2164</v>
       </c>
-      <c r="C667" s="9" t="s">
+      <c r="C667" s="14" t="s">
         <v>2165</v>
       </c>
     </row>
@@ -28555,24 +28573,24 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="14" t="s">
+      <c r="A672" s="9" t="s">
         <v>2178</v>
       </c>
-      <c r="B672" s="14" t="s">
+      <c r="B672" s="9" t="s">
         <v>2179</v>
       </c>
-      <c r="C672" s="14" t="s">
+      <c r="C672" s="9" t="s">
         <v>2180</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="14" t="s">
+      <c r="A673" s="9" t="s">
         <v>2181</v>
       </c>
-      <c r="B673" s="14" t="s">
+      <c r="B673" s="9" t="s">
         <v>2182</v>
       </c>
-      <c r="C673" s="14" t="s">
+      <c r="C673" s="9" t="s">
         <v>2183</v>
       </c>
     </row>
@@ -28588,24 +28606,24 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="9" t="s">
+      <c r="A675" s="14" t="s">
         <v>2187</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="14" t="s">
         <v>2188</v>
       </c>
-      <c r="C675" s="9" t="s">
+      <c r="C675" s="14" t="s">
         <v>2189</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="14" t="s">
         <v>2190</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="14" t="s">
         <v>2191</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="14" t="s">
         <v>2192</v>
       </c>
     </row>
@@ -28632,13 +28650,13 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="14" t="s">
+      <c r="A679" s="9" t="s">
         <v>2199</v>
       </c>
-      <c r="B679" s="14" t="s">
+      <c r="B679" s="9" t="s">
         <v>2200</v>
       </c>
-      <c r="C679" s="14" t="s">
+      <c r="C679" s="9" t="s">
         <v>2201</v>
       </c>
     </row>
@@ -28654,13 +28672,13 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="9" t="s">
+      <c r="A681" s="14" t="s">
         <v>2205</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="C681" s="9" t="s">
+      <c r="C681" s="14" t="s">
         <v>2207</v>
       </c>
     </row>
@@ -28676,13 +28694,13 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="14" t="s">
+      <c r="A683" s="9" t="s">
         <v>2211</v>
       </c>
-      <c r="B683" s="14" t="s">
+      <c r="B683" s="9" t="s">
         <v>2212</v>
       </c>
-      <c r="C683" s="14" t="s">
+      <c r="C683" s="9" t="s">
         <v>2213</v>
       </c>
     </row>
@@ -28698,24 +28716,24 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="14" t="s">
         <v>2217</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="14" t="s">
         <v>2218</v>
       </c>
-      <c r="C685" s="9" t="s">
+      <c r="C685" s="14" t="s">
         <v>2219</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="9" t="s">
         <v>2220</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2221</v>
       </c>
-      <c r="C686" s="14" t="s">
+      <c r="C686" s="9" t="s">
         <v>2222</v>
       </c>
     </row>
@@ -28731,13 +28749,13 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="9" t="s">
+      <c r="A688" s="14" t="s">
         <v>2226</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="14" t="s">
         <v>2227</v>
       </c>
-      <c r="C688" s="9" t="s">
+      <c r="C688" s="14" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -28753,24 +28771,24 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="14" t="s">
+      <c r="A690" s="9" t="s">
         <v>2232</v>
       </c>
-      <c r="B690" s="14" t="s">
+      <c r="B690" s="9" t="s">
         <v>2233</v>
       </c>
-      <c r="C690" s="14" t="s">
+      <c r="C690" s="9" t="s">
         <v>2234</v>
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="14" t="s">
+      <c r="A691" s="9" t="s">
         <v>2235</v>
       </c>
-      <c r="B691" s="14" t="s">
+      <c r="B691" s="9" t="s">
         <v>2236</v>
       </c>
-      <c r="C691" s="14" t="s">
+      <c r="C691" s="9" t="s">
         <v>2237</v>
       </c>
     </row>
@@ -28786,24 +28804,24 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="9" t="s">
+      <c r="A693" s="14" t="s">
         <v>2241</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="14" t="s">
         <v>2242</v>
       </c>
-      <c r="C693" s="9" t="s">
+      <c r="C693" s="14" t="s">
         <v>2243</v>
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="14" t="s">
         <v>2245</v>
       </c>
-      <c r="C694" s="9" t="s">
+      <c r="C694" s="14" t="s">
         <v>2246</v>
       </c>
     </row>
@@ -28819,24 +28837,24 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="14" t="s">
+      <c r="A696" s="9" t="s">
         <v>2250</v>
       </c>
-      <c r="B696" s="14" t="s">
+      <c r="B696" s="9" t="s">
         <v>2251</v>
       </c>
-      <c r="C696" s="14" t="s">
+      <c r="C696" s="9" t="s">
         <v>2252</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="14" t="s">
+      <c r="A697" s="9" t="s">
         <v>2253</v>
       </c>
-      <c r="B697" s="14" t="s">
+      <c r="B697" s="9" t="s">
         <v>2254</v>
       </c>
-      <c r="C697" s="14" t="s">
+      <c r="C697" s="9" t="s">
         <v>2255</v>
       </c>
     </row>
@@ -28852,10 +28870,10 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="9" t="s">
+      <c r="A699" s="14" t="s">
         <v>2259</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="14" t="s">
         <v>2260</v>
       </c>
       <c r="C699" s="14" t="s">
@@ -28863,21 +28881,21 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="9" t="s">
+      <c r="A700" s="14" t="s">
         <v>2262</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="14" t="s">
         <v>2263</v>
       </c>
-      <c r="C700" s="9" t="s">
+      <c r="C700" s="14" t="s">
         <v>2264</v>
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="14" t="s">
+      <c r="A701" s="9" t="s">
         <v>2265</v>
       </c>
-      <c r="B701" s="14" t="s">
+      <c r="B701" s="9" t="s">
         <v>2266</v>
       </c>
       <c r="C701" s="14" t="s">
@@ -28885,10 +28903,10 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="14" t="s">
+      <c r="A702" s="9" t="s">
         <v>2268</v>
       </c>
-      <c r="B702" s="14" t="s">
+      <c r="B702" s="9" t="s">
         <v>2269</v>
       </c>
       <c r="C702" s="9" t="s">
@@ -28902,7 +28920,7 @@
       <c r="B703" s="14" t="s">
         <v>2272</v>
       </c>
-      <c r="C703" s="9" t="s">
+      <c r="C703" s="14" t="s">
         <v>2273</v>
       </c>
     </row>
@@ -28913,15 +28931,15 @@
       <c r="B704" s="14" t="s">
         <v>2275</v>
       </c>
-      <c r="C704" s="14" t="s">
+      <c r="C704" s="9" t="s">
         <v>2276</v>
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="9" t="s">
+      <c r="A705" s="14" t="s">
         <v>2277</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="14" t="s">
         <v>2278</v>
       </c>
       <c r="C705" s="9" t="s">
@@ -28929,13 +28947,13 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="9" t="s">
+      <c r="A706" s="14" t="s">
         <v>2280</v>
       </c>
       <c r="B706" s="14" t="s">
         <v>2281</v>
       </c>
-      <c r="C706" s="9" t="s">
+      <c r="C706" s="14" t="s">
         <v>2282</v>
       </c>
     </row>
@@ -28954,7 +28972,7 @@
       <c r="A708" s="9" t="s">
         <v>2286</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="14" t="s">
         <v>2287</v>
       </c>
       <c r="C708" s="9" t="s">
@@ -28979,18 +28997,18 @@
       <c r="B710" s="9" t="s">
         <v>2293</v>
       </c>
-      <c r="C710" s="14" t="s">
+      <c r="C710" s="9" t="s">
         <v>2294</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="14" t="s">
+      <c r="A711" s="9" t="s">
         <v>2295</v>
       </c>
-      <c r="B711" s="14" t="s">
+      <c r="B711" s="9" t="s">
         <v>2296</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="9" t="s">
         <v>2297</v>
       </c>
     </row>
@@ -29001,7 +29019,7 @@
       <c r="B712" s="9" t="s">
         <v>2299</v>
       </c>
-      <c r="C712" s="9" t="s">
+      <c r="C712" s="14" t="s">
         <v>2300</v>
       </c>
     </row>
@@ -29023,7 +29041,7 @@
       <c r="B714" s="9" t="s">
         <v>2305</v>
       </c>
-      <c r="C714" s="14" t="s">
+      <c r="C714" s="9" t="s">
         <v>2306</v>
       </c>
     </row>
@@ -29034,7 +29052,7 @@
       <c r="B715" s="14" t="s">
         <v>2308</v>
       </c>
-      <c r="C715" s="9" t="s">
+      <c r="C715" s="14" t="s">
         <v>2309</v>
       </c>
     </row>
@@ -29043,29 +29061,29 @@
         <v>2310</v>
       </c>
       <c r="B716" s="9" t="s">
-        <v>2179</v>
-      </c>
-      <c r="C716" s="9" t="s">
         <v>2311</v>
       </c>
+      <c r="C716" s="14" t="s">
+        <v>2312</v>
+      </c>
     </row>
     <row r="717">
-      <c r="A717" s="9" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B717" s="9" t="s">
+      <c r="A717" s="14" t="s">
         <v>2313</v>
       </c>
+      <c r="B717" s="14" t="s">
+        <v>2314</v>
+      </c>
       <c r="C717" s="9" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="9" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>2316</v>
+        <v>2185</v>
       </c>
       <c r="C718" s="9" t="s">
         <v>2317</v>
@@ -29089,29 +29107,29 @@
       <c r="B720" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="14" t="s">
+      <c r="A721" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="B721" s="14" t="s">
+      <c r="B721" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="C721" s="14" t="s">
+      <c r="C721" s="9" t="s">
         <v>2326</v>
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="14" t="s">
+      <c r="A722" s="9" t="s">
         <v>2327</v>
       </c>
       <c r="B722" s="9" t="s">
         <v>2328</v>
       </c>
-      <c r="C722" s="9" t="s">
+      <c r="C722" s="14" t="s">
         <v>2329</v>
       </c>
     </row>
@@ -29122,12 +29140,12 @@
       <c r="B723" s="14" t="s">
         <v>2331</v>
       </c>
-      <c r="C723" s="9" t="s">
+      <c r="C723" s="14" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2333</v>
       </c>
       <c r="B724" s="9" t="s">
@@ -29138,13 +29156,13 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="9" t="s">
+      <c r="A725" s="14" t="s">
         <v>2336</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" s="14" t="s">
         <v>2337</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2338</v>
       </c>
     </row>
@@ -29160,10 +29178,10 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="14" t="s">
+      <c r="A727" s="9" t="s">
         <v>2342</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="9" t="s">
         <v>2343</v>
       </c>
       <c r="C727" s="14" t="s">
@@ -29182,21 +29200,21 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="9" t="s">
+      <c r="A729" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="14" t="s">
         <v>2349</v>
       </c>
-      <c r="C729" s="9" t="s">
+      <c r="C729" s="14" t="s">
         <v>2350</v>
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="14" t="s">
+      <c r="A730" s="9" t="s">
         <v>2351</v>
       </c>
-      <c r="B730" s="14" t="s">
+      <c r="B730" s="9" t="s">
         <v>2352</v>
       </c>
       <c r="C730" s="9" t="s">
@@ -29215,10 +29233,10 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="14" t="s">
         <v>2357</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="14" t="s">
         <v>2358</v>
       </c>
       <c r="C732" s="9" t="s">
@@ -29237,13 +29255,13 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="14" t="s">
+      <c r="A734" s="9" t="s">
         <v>2363</v>
       </c>
-      <c r="B734" s="14" t="s">
+      <c r="B734" s="9" t="s">
         <v>2364</v>
       </c>
-      <c r="C734" s="14" t="s">
+      <c r="C734" s="9" t="s">
         <v>2365</v>
       </c>
     </row>
@@ -29276,15 +29294,15 @@
       <c r="B737" s="9" t="s">
         <v>2373</v>
       </c>
-      <c r="C737" s="14" t="s">
+      <c r="C737" s="9" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="9" t="s">
+      <c r="A738" s="14" t="s">
         <v>2375</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" s="14" t="s">
         <v>2376</v>
       </c>
       <c r="C738" s="14" t="s">
@@ -29292,21 +29310,21 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="14" t="s">
+      <c r="A739" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="B739" s="14" t="s">
+      <c r="B739" s="9" t="s">
         <v>2379</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2381</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2382</v>
       </c>
       <c r="C740" s="14" t="s">
@@ -29314,10 +29332,10 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="9" t="s">
+      <c r="A741" s="14" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="14" t="s">
         <v>2385</v>
       </c>
       <c r="C741" s="9" t="s">
@@ -29336,13 +29354,13 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="14" t="s">
+      <c r="A743" s="9" t="s">
         <v>2390</v>
       </c>
-      <c r="B743" s="14" t="s">
+      <c r="B743" s="9" t="s">
         <v>2391</v>
       </c>
-      <c r="C743" s="14" t="s">
+      <c r="C743" s="9" t="s">
         <v>2392</v>
       </c>
     </row>
@@ -29386,7 +29404,7 @@
       <c r="B747" s="14" t="s">
         <v>2403</v>
       </c>
-      <c r="C747" s="9" t="s">
+      <c r="C747" s="14" t="s">
         <v>2404</v>
       </c>
     </row>
@@ -29394,10 +29412,10 @@
       <c r="A748" s="14" t="s">
         <v>2405</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="14" t="s">
         <v>2406</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2407</v>
       </c>
     </row>
@@ -29413,21 +29431,21 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="14" t="s">
         <v>2411</v>
       </c>
       <c r="B750" s="9" t="s">
         <v>2412</v>
       </c>
-      <c r="C750" s="14" t="s">
+      <c r="C750" s="9" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="9" t="s">
+      <c r="A751" s="14" t="s">
         <v>2414</v>
       </c>
-      <c r="B751" s="9" t="s">
+      <c r="B751" s="14" t="s">
         <v>2415</v>
       </c>
       <c r="C751" s="9" t="s">
@@ -29435,10 +29453,10 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="14" t="s">
+      <c r="A752" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="B752" s="14" t="s">
+      <c r="B752" s="9" t="s">
         <v>2418</v>
       </c>
       <c r="C752" s="14" t="s">
@@ -29452,7 +29470,7 @@
       <c r="B753" s="9" t="s">
         <v>2421</v>
       </c>
-      <c r="C753" s="14" t="s">
+      <c r="C753" s="9" t="s">
         <v>2422</v>
       </c>
     </row>
@@ -29463,15 +29481,15 @@
       <c r="B754" s="14" t="s">
         <v>2424</v>
       </c>
-      <c r="C754" s="9" t="s">
+      <c r="C754" s="14" t="s">
         <v>2425</v>
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="14" t="s">
+      <c r="A755" s="9" t="s">
         <v>2426</v>
       </c>
-      <c r="B755" s="14" t="s">
+      <c r="B755" s="9" t="s">
         <v>2427</v>
       </c>
       <c r="C755" s="14" t="s">
@@ -29479,10 +29497,10 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="9" t="s">
+      <c r="A756" s="14" t="s">
         <v>2429</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="14" t="s">
         <v>2430</v>
       </c>
       <c r="C756" s="9" t="s">
@@ -29496,7 +29514,7 @@
       <c r="B757" s="14" t="s">
         <v>2433</v>
       </c>
-      <c r="C757" s="9" t="s">
+      <c r="C757" s="14" t="s">
         <v>2434</v>
       </c>
     </row>
@@ -29512,10 +29530,10 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="9" t="s">
+      <c r="A759" s="14" t="s">
         <v>2438</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="B759" s="14" t="s">
         <v>2439</v>
       </c>
       <c r="C759" s="9" t="s">
@@ -29529,7 +29547,7 @@
       <c r="B760" s="9" t="s">
         <v>2442</v>
       </c>
-      <c r="C760" s="14" t="s">
+      <c r="C760" s="9" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -29551,7 +29569,7 @@
       <c r="B762" s="9" t="s">
         <v>2448</v>
       </c>
-      <c r="C762" s="9" t="s">
+      <c r="C762" s="14" t="s">
         <v>2449</v>
       </c>
     </row>
@@ -29562,59 +29580,59 @@
       <c r="B763" s="9" t="s">
         <v>2451</v>
       </c>
-      <c r="C763" s="14" t="s">
+      <c r="C763" s="9" t="s">
         <v>2452</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2454</v>
       </c>
-      <c r="C764" s="14" t="s">
+      <c r="C764" s="9" t="s">
         <v>2455</v>
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="14" t="s">
+      <c r="A765" s="9" t="s">
         <v>2456</v>
       </c>
-      <c r="B765" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="C765" s="9" t="s">
+      <c r="B765" s="9" t="s">
         <v>2457</v>
+      </c>
+      <c r="C765" s="14" t="s">
+        <v>2458</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="14" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="B766" s="14" t="s">
-        <v>2459</v>
-      </c>
-      <c r="C766" s="9" t="s">
         <v>2460</v>
       </c>
+      <c r="C766" s="14" t="s">
+        <v>2461</v>
+      </c>
     </row>
     <row r="767">
-      <c r="A767" s="9" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B767" s="9" t="s">
+      <c r="A767" s="14" t="s">
         <v>2462</v>
       </c>
-      <c r="C767" s="14" t="s">
+      <c r="B767" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C767" s="9" t="s">
         <v>2463</v>
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="9" t="s">
+      <c r="A768" s="14" t="s">
         <v>2464</v>
       </c>
-      <c r="B768" s="9" t="s">
+      <c r="B768" s="14" t="s">
         <v>2465</v>
       </c>
       <c r="C768" s="9" t="s">
@@ -29622,10 +29640,10 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="14" t="s">
+      <c r="A769" s="9" t="s">
         <v>2467</v>
       </c>
-      <c r="B769" s="14" t="s">
+      <c r="B769" s="9" t="s">
         <v>2468</v>
       </c>
       <c r="C769" s="14" t="s">
@@ -29639,7 +29657,7 @@
       <c r="B770" s="9" t="s">
         <v>2471</v>
       </c>
-      <c r="C770" s="14" t="s">
+      <c r="C770" s="9" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -29655,10 +29673,10 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="14" t="s">
+      <c r="A772" s="9" t="s">
         <v>2476</v>
       </c>
-      <c r="B772" s="14" t="s">
+      <c r="B772" s="9" t="s">
         <v>2477</v>
       </c>
       <c r="C772" s="14" t="s">
@@ -29666,12 +29684,26 @@
       </c>
     </row>
     <row r="773">
-      <c r="B773" s="22"/>
-      <c r="C773" s="22"/>
+      <c r="A773" s="14" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B773" s="14" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C773" s="14" t="s">
+        <v>2481</v>
+      </c>
     </row>
     <row r="774">
-      <c r="B774" s="22"/>
-      <c r="C774" s="22"/>
+      <c r="A774" s="14" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B774" s="14" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C774" s="14" t="s">
+        <v>2484</v>
+      </c>
     </row>
     <row r="775">
       <c r="B775" s="22"/>
@@ -30586,10 +30618,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$772">
-    <sortState ref="A1:C772">
-      <sortCondition ref="A1:A772"/>
-      <sortCondition ref="B1:B772"/>
+  <autoFilter ref="$A$1:$C$774">
+    <sortState ref="A1:C774">
+      <sortCondition ref="A1:A774"/>
+      <sortCondition ref="B1:B774"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$777</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="2491">
   <si>
     <t>Word</t>
   </si>
@@ -78,10 +78,10 @@
     <t>suffix</t>
   </si>
   <si>
-    <t>if ends with syllable, add -o. if ends with -t, -t becomes -cho</t>
-  </si>
-  <si>
-    <t>zomb</t>
+    <t>if ends with syllable, add -cho. if ends with -t, -t becomes -cho</t>
+  </si>
+  <si>
+    <t>suit</t>
   </si>
   <si>
     <t>na kaelm felatae mol agelovor = i food collected from factory = i got my food from the factory</t>
@@ -312,7 +312,7 @@
     <t>red</t>
   </si>
   <si>
-    <t>арач</t>
+    <t>арад</t>
   </si>
   <si>
     <t>present tense (-iya)</t>
@@ -597,7 +597,7 @@
     <t>spacefighter, jet fighter, starfighter (ship)</t>
   </si>
   <si>
-    <t>бороцлочска</t>
+    <t>бороцлодска</t>
   </si>
   <si>
     <t>borotsorfak</t>
@@ -975,7 +975,7 @@
     <t>destroyer</t>
   </si>
   <si>
-    <t>бройлэвлочска</t>
+    <t>бройлэвлодска</t>
   </si>
   <si>
     <t>T</t>
@@ -990,7 +990,7 @@
     <t>future</t>
   </si>
   <si>
-    <t>бучусхчэе</t>
+    <t>будусхчэе</t>
   </si>
   <si>
     <t>TS</t>
@@ -1200,7 +1200,7 @@
     <t>salty</t>
   </si>
   <si>
-    <t>чагла</t>
+    <t>дагла</t>
   </si>
   <si>
     <t>dagya</t>
@@ -1209,7 +1209,7 @@
     <t>to change</t>
   </si>
   <si>
-    <t>чагя</t>
+    <t>дагя</t>
   </si>
   <si>
     <t>dakast</t>
@@ -1218,7 +1218,7 @@
     <t>dakasti, dakastus (monster, undead)</t>
   </si>
   <si>
-    <t>чакаст</t>
+    <t>дакаст</t>
   </si>
   <si>
     <t>damov</t>
@@ -1227,7 +1227,7 @@
     <t>to cook</t>
   </si>
   <si>
-    <t>чамов</t>
+    <t>дамов</t>
   </si>
   <si>
     <t>damovo</t>
@@ -1236,7 +1236,7 @@
     <t>a cook</t>
   </si>
   <si>
-    <t>чамово</t>
+    <t>дамово</t>
   </si>
   <si>
     <t>dan</t>
@@ -1245,7 +1245,7 @@
     <t>hand</t>
   </si>
   <si>
-    <t>чан</t>
+    <t>дан</t>
   </si>
   <si>
     <t>daneygem</t>
@@ -1254,7 +1254,7 @@
     <t>flashlight, torch</t>
   </si>
   <si>
-    <t>чанэйгэм</t>
+    <t>данэйгэм</t>
   </si>
   <si>
     <t>dasha</t>
@@ -1263,7 +1263,7 @@
     <t>spear</t>
   </si>
   <si>
-    <t>часха</t>
+    <t>дасха</t>
   </si>
   <si>
     <t>dasko</t>
@@ -1272,7 +1272,7 @@
     <t>black</t>
   </si>
   <si>
-    <t>часко</t>
+    <t>даско</t>
   </si>
   <si>
     <t>daskon</t>
@@ -1281,7 +1281,7 @@
     <t>harbor, docking bay</t>
   </si>
   <si>
-    <t>часкон</t>
+    <t>даскон</t>
   </si>
   <si>
     <t>davektsam</t>
@@ -1290,7 +1290,7 @@
     <t>different</t>
   </si>
   <si>
-    <t>чавэкцам</t>
+    <t>давэкцам</t>
   </si>
   <si>
     <t>dedushka</t>
@@ -1299,7 +1299,7 @@
     <t>grandfather, grandpa</t>
   </si>
   <si>
-    <t>чэчусхка</t>
+    <t>дэдусхка</t>
   </si>
   <si>
     <t>defitsniy</t>
@@ -1308,7 +1308,7 @@
     <t>rare, scarce</t>
   </si>
   <si>
-    <t>чэфицнй</t>
+    <t>дэфицнй</t>
   </si>
   <si>
     <t>delat</t>
@@ -1317,7 +1317,16 @@
     <t>to do, act</t>
   </si>
   <si>
-    <t>чэлат</t>
+    <t>дэлат</t>
+  </si>
+  <si>
+    <t>dergatsyat</t>
+  </si>
+  <si>
+    <t>to masturbate</t>
+  </si>
+  <si>
+    <t>дэргацят</t>
   </si>
   <si>
     <t>digatsya</t>
@@ -1326,7 +1335,7 @@
     <t>to move</t>
   </si>
   <si>
-    <t>чигаця</t>
+    <t>дигаця</t>
   </si>
   <si>
     <t>disk</t>
@@ -1335,7 +1344,7 @@
     <t>piece, fragment, part</t>
   </si>
   <si>
-    <t>чиск</t>
+    <t>диск</t>
   </si>
   <si>
     <t>distinkish</t>
@@ -1344,7 +1353,7 @@
     <t>distinite</t>
   </si>
   <si>
-    <t>чистинкисх</t>
+    <t>дистинкисх</t>
   </si>
   <si>
     <t>dob</t>
@@ -1353,7 +1362,7 @@
     <t>bar</t>
   </si>
   <si>
-    <t>чоб</t>
+    <t>доб</t>
   </si>
   <si>
     <t>doljen</t>
@@ -1362,7 +1371,7 @@
     <t>to should</t>
   </si>
   <si>
-    <t>чолжэн</t>
+    <t>должэн</t>
   </si>
   <si>
     <t>dom</t>
@@ -1371,7 +1380,7 @@
     <t>house, home</t>
   </si>
   <si>
-    <t>чом</t>
+    <t>дом</t>
   </si>
   <si>
     <t>dopoga</t>
@@ -1380,7 +1389,7 @@
     <t>weather</t>
   </si>
   <si>
-    <t>чопога</t>
+    <t>допога</t>
   </si>
   <si>
     <t>doriya</t>
@@ -1389,7 +1398,7 @@
     <t>north</t>
   </si>
   <si>
-    <t>чория</t>
+    <t>дория</t>
   </si>
   <si>
     <t>dorom</t>
@@ -1398,7 +1407,7 @@
     <t>radio</t>
   </si>
   <si>
-    <t>чором</t>
+    <t>дором</t>
   </si>
   <si>
     <t>doteska</t>
@@ -1407,7 +1416,7 @@
     <t>father</t>
   </si>
   <si>
-    <t>чотэска</t>
+    <t>дотэска</t>
   </si>
   <si>
     <t>dovat</t>
@@ -1416,7 +1425,7 @@
     <t>to stop</t>
   </si>
   <si>
-    <t>човат</t>
+    <t>доват</t>
   </si>
   <si>
     <t>doyna</t>
@@ -1425,7 +1434,7 @@
     <t>war</t>
   </si>
   <si>
-    <t>чойна</t>
+    <t>дойна</t>
   </si>
   <si>
     <t>doynalodska</t>
@@ -1434,7 +1443,7 @@
     <t>warship, any ship used for war</t>
   </si>
   <si>
-    <t>чойналочска</t>
+    <t>дойналодска</t>
   </si>
   <si>
     <t>drasa</t>
@@ -1443,7 +1452,7 @@
     <t>wide</t>
   </si>
   <si>
-    <t>чраса</t>
+    <t>драса</t>
   </si>
   <si>
     <t>drikenig</t>
@@ -1452,7 +1461,7 @@
     <t>disgusting</t>
   </si>
   <si>
-    <t>чрикэниг</t>
+    <t>дрикэниг</t>
   </si>
   <si>
     <t>drin</t>
@@ -1461,7 +1470,7 @@
     <t>left</t>
   </si>
   <si>
-    <t>чрин</t>
+    <t>дрин</t>
   </si>
   <si>
     <t>drosel</t>
@@ -1470,7 +1479,7 @@
     <t>reactor, generator</t>
   </si>
   <si>
-    <t>чросэл</t>
+    <t>дросэл</t>
   </si>
   <si>
     <t>dumat</t>
@@ -1479,7 +1488,7 @@
     <t>to think</t>
   </si>
   <si>
-    <t>чумат</t>
+    <t>думат</t>
   </si>
   <si>
     <t>dutska</t>
@@ -1488,7 +1497,7 @@
     <t>feces, poop</t>
   </si>
   <si>
-    <t>чуцка</t>
+    <t>дуцка</t>
   </si>
   <si>
     <t>dyatsya</t>
@@ -1497,7 +1506,7 @@
     <t>to hope</t>
   </si>
   <si>
-    <t>чяця</t>
+    <t>дяця</t>
   </si>
   <si>
     <t>dyu</t>
@@ -1506,7 +1515,7 @@
     <t>day, day cycle</t>
   </si>
   <si>
-    <t>чю</t>
+    <t>дю</t>
   </si>
   <si>
     <t>dyuk</t>
@@ -1515,7 +1524,7 @@
     <t>poor</t>
   </si>
   <si>
-    <t>чюк</t>
+    <t>дюк</t>
   </si>
   <si>
     <t>ekemiv</t>
@@ -1704,7 +1713,7 @@
     <t>present, now</t>
   </si>
   <si>
-    <t>фочэн</t>
+    <t>фодэн</t>
   </si>
   <si>
     <t>foglyo</t>
@@ -1740,7 +1749,7 @@
     <t>blue</t>
   </si>
   <si>
-    <t>форч</t>
+    <t>форд</t>
   </si>
   <si>
     <t>fornyo</t>
@@ -1830,7 +1839,7 @@
     <t>bullshit</t>
   </si>
   <si>
-    <t>фячказй</t>
+    <t>фядказй</t>
   </si>
   <si>
     <t>fyej</t>
@@ -1845,7 +1854,7 @@
     <t>fyepya</t>
   </si>
   <si>
-    <t>to receive, collect, get, or gain</t>
+    <t>to receive, to collect, to get, to gain</t>
   </si>
   <si>
     <t>фепя</t>
@@ -1866,7 +1875,7 @@
     <t>apple</t>
   </si>
   <si>
-    <t>гачрэн</t>
+    <t>гадрэн</t>
   </si>
   <si>
     <t>gadska</t>
@@ -1875,7 +1884,7 @@
     <t>five</t>
   </si>
   <si>
-    <t>гачска</t>
+    <t>гадска</t>
   </si>
   <si>
     <t>galon</t>
@@ -1911,7 +1920,7 @@
     <t>letter, rune, glyph</t>
   </si>
   <si>
-    <t>гэлч</t>
+    <t>гэлд</t>
   </si>
   <si>
     <t>geliychat</t>
@@ -1929,7 +1938,7 @@
     <t>module, addon, extension</t>
   </si>
   <si>
-    <t>гимичача</t>
+    <t>гимидача</t>
   </si>
   <si>
     <t>godiy</t>
@@ -1938,7 +1947,7 @@
     <t>sad</t>
   </si>
   <si>
-    <t>гочй</t>
+    <t>годй</t>
   </si>
   <si>
     <t>gojest</t>
@@ -2028,7 +2037,7 @@
     <t>to add, to join</t>
   </si>
   <si>
-    <t>готичися</t>
+    <t>готидися</t>
   </si>
   <si>
     <t>gotivyet</t>
@@ -2622,7 +2631,7 @@
     <t>god, deity</t>
   </si>
   <si>
-    <t>жоглоч</t>
+    <t>жоглод</t>
   </si>
   <si>
     <t>joklun</t>
@@ -2640,7 +2649,7 @@
     <t>battleship, capital ship</t>
   </si>
   <si>
-    <t>жоклунлочска</t>
+    <t>жоклунлодска</t>
   </si>
   <si>
     <t>jolon</t>
@@ -2793,7 +2802,7 @@
     <t>being fat</t>
   </si>
   <si>
-    <t>кэйча</t>
+    <t>кэйда</t>
   </si>
   <si>
     <t>keymo</t>
@@ -2829,7 +2838,7 @@
     <t>solar system</t>
   </si>
   <si>
-    <t>кхачиятй</t>
+    <t>кхадиятй</t>
   </si>
   <si>
     <t>khamiymashka</t>
@@ -3027,7 +3036,7 @@
     <t>speed</t>
   </si>
   <si>
-    <t>клоч</t>
+    <t>клод</t>
   </si>
   <si>
     <t>klom</t>
@@ -3081,7 +3090,7 @@
     <t>some, unknown amount</t>
   </si>
   <si>
-    <t>коча</t>
+    <t>кода</t>
   </si>
   <si>
     <t>kodyet</t>
@@ -3090,7 +3099,7 @@
     <t>to turn off</t>
   </si>
   <si>
-    <t>кочет</t>
+    <t>кодет</t>
   </si>
   <si>
     <t>kofregad</t>
@@ -3099,7 +3108,7 @@
     <t>elemental</t>
   </si>
   <si>
-    <t>кофрэгач</t>
+    <t>кофрэгад</t>
   </si>
   <si>
     <t>koloshem</t>
@@ -3258,7 +3267,7 @@
     <t>to connect, to link together, to attach</t>
   </si>
   <si>
-    <t>лакчат</t>
+    <t>лакдат</t>
   </si>
   <si>
     <t>lamk</t>
@@ -4233,7 +4242,7 @@
     <t>tomorrow</t>
   </si>
   <si>
-    <t>нэбрачю</t>
+    <t>нэбрадю</t>
   </si>
   <si>
     <t>netye</t>
@@ -4440,7 +4449,7 @@
     <t>carrier (ship)</t>
   </si>
   <si>
-    <t>носэн ёфэлн лочска</t>
+    <t>носэн ёфэлн лодска</t>
   </si>
   <si>
     <t>nyak</t>
@@ -4458,7 +4467,7 @@
     <t>to hate</t>
   </si>
   <si>
-    <t>нявичэт</t>
+    <t>нявидэт</t>
   </si>
   <si>
     <t>nyetim</t>
@@ -4521,7 +4530,16 @@
     <t>blunt, not sharp</t>
   </si>
   <si>
-    <t>очак</t>
+    <t>одак</t>
+  </si>
+  <si>
+    <t>ofitsya</t>
+  </si>
+  <si>
+    <t>official, formal</t>
+  </si>
+  <si>
+    <t>офиця</t>
   </si>
   <si>
     <t>oglaba</t>
@@ -4611,7 +4629,7 @@
     <t>pebble, small rock</t>
   </si>
   <si>
-    <t>орчэлг</t>
+    <t>ордэлг</t>
   </si>
   <si>
     <t>oret</t>
@@ -4710,7 +4728,7 @@
     <t>to remove, to take off</t>
   </si>
   <si>
-    <t>отготичися</t>
+    <t>отготидися</t>
   </si>
   <si>
     <t>otvetit</t>
@@ -4836,7 +4854,7 @@
     <t>crime</t>
   </si>
   <si>
-    <t>пэсхкэчия</t>
+    <t>пэсхкэдия</t>
   </si>
   <si>
     <t>peshkediyo</t>
@@ -4845,7 +4863,7 @@
     <t>criminal</t>
   </si>
   <si>
-    <t>пэсхкэчйо</t>
+    <t>пэсхкэдйо</t>
   </si>
   <si>
     <t>petika</t>
@@ -4863,7 +4881,7 @@
     <t>to let, to allow, to permit</t>
   </si>
   <si>
-    <t>пичя</t>
+    <t>пидя</t>
   </si>
   <si>
     <t>plachatyu</t>
@@ -4944,7 +4962,7 @@
     <t>under</t>
   </si>
   <si>
-    <t>поч</t>
+    <t>под</t>
   </si>
   <si>
     <t>poden</t>
@@ -4953,7 +4971,7 @@
     <t>noon</t>
   </si>
   <si>
-    <t>почэн</t>
+    <t>подэн</t>
   </si>
   <si>
     <t>pogladit</t>
@@ -4962,7 +4980,7 @@
     <t>to pet, to caress, to soothe</t>
   </si>
   <si>
-    <t>поглачит</t>
+    <t>погладит</t>
   </si>
   <si>
     <t>pojaluysta</t>
@@ -5007,7 +5025,7 @@
     <t>library</t>
   </si>
   <si>
-    <t>полчос</t>
+    <t>полдос</t>
   </si>
   <si>
     <t>poletya</t>
@@ -5133,7 +5151,7 @@
     <t>to come</t>
   </si>
   <si>
-    <t>прикочя</t>
+    <t>прикодя</t>
   </si>
   <si>
     <t>privyet</t>
@@ -5268,7 +5286,7 @@
     <t>reedian (furry)</t>
   </si>
   <si>
-    <t>рэчожан</t>
+    <t>рэдожан</t>
   </si>
   <si>
     <t>remo</t>
@@ -5358,7 +5376,7 @@
     <t>yesterday</t>
   </si>
   <si>
-    <t>рйсхчю</t>
+    <t>рйсхдю</t>
   </si>
   <si>
     <t>rlato</t>
@@ -5502,7 +5520,7 @@
     <t>to rape, to sexually assault</t>
   </si>
   <si>
-    <t>розкучат</t>
+    <t>розкудат</t>
   </si>
   <si>
     <t>rukat</t>
@@ -5556,7 +5574,7 @@
     <t>to aim</t>
   </si>
   <si>
-    <t>счават</t>
+    <t>сдават</t>
   </si>
   <si>
     <t>sdoba</t>
@@ -5565,7 +5583,7 @@
     <t>pants</t>
   </si>
   <si>
-    <t>счоба</t>
+    <t>сдоба</t>
   </si>
   <si>
     <t>sdovalit</t>
@@ -5574,7 +5592,7 @@
     <t>to send</t>
   </si>
   <si>
-    <t>счовалит</t>
+    <t>сдовалит</t>
   </si>
   <si>
     <t>sejrem</t>
@@ -5763,7 +5781,7 @@
     <t>to sit</t>
   </si>
   <si>
-    <t>сичит</t>
+    <t>сидит</t>
   </si>
   <si>
     <t>sifenmujye</t>
@@ -5835,7 +5853,7 @@
     <t>to concentrate, to focus</t>
   </si>
   <si>
-    <t>скачзосит</t>
+    <t>скадзосит</t>
   </si>
   <si>
     <t>skan</t>
@@ -5898,7 +5916,7 @@
     <t>to follow, to go with</t>
   </si>
   <si>
-    <t>слэчет</t>
+    <t>слэдет</t>
   </si>
   <si>
     <t>sliykyat</t>
@@ -6033,7 +6051,7 @@
     <t>dictionary</t>
   </si>
   <si>
-    <t>совачй</t>
+    <t>совадй</t>
   </si>
   <si>
     <t>sproskit</t>
@@ -6114,7 +6132,7 @@
     <t>hundred</t>
   </si>
   <si>
-    <t>сточон</t>
+    <t>стодон</t>
   </si>
   <si>
     <t>stoma</t>
@@ -6354,7 +6372,7 @@
     <t>tivesel</t>
   </si>
   <si>
-    <t>clothing</t>
+    <t>clothing, garment, apparel</t>
   </si>
   <si>
     <t>тивэсэл</t>
@@ -6447,7 +6465,7 @@
     <t>traveler, traveling ship (not a battleship)</t>
   </si>
   <si>
-    <t>тоялочска</t>
+    <t>тоялодска</t>
   </si>
   <si>
     <t>trava</t>
@@ -6663,7 +6681,7 @@
     <t>camoflague</t>
   </si>
   <si>
-    <t>вэчон</t>
+    <t>вэдон</t>
   </si>
   <si>
     <t>vekin</t>
@@ -6789,7 +6807,7 @@
     <t>to own</t>
   </si>
   <si>
-    <t>влачэт</t>
+    <t>владэт</t>
   </si>
   <si>
     <t>vladetiyo</t>
@@ -6798,7 +6816,7 @@
     <t>master</t>
   </si>
   <si>
-    <t>влачэтйо</t>
+    <t>владэтйо</t>
   </si>
   <si>
     <t>vlebiyn</t>
@@ -6861,7 +6879,7 @@
     <t>what the hell, wtf (cuss)</t>
   </si>
   <si>
-    <t>вло за фячказй</t>
+    <t>вло за фядказй</t>
   </si>
   <si>
     <t>vlom</t>
@@ -6960,7 +6978,7 @@
     <t>week</t>
   </si>
   <si>
-    <t>вочрин</t>
+    <t>водрин</t>
   </si>
   <si>
     <t>voken</t>
@@ -7110,7 +7128,7 @@
     <t>fire</t>
   </si>
   <si>
-    <t>вяча</t>
+    <t>вяда</t>
   </si>
   <si>
     <t>vye</t>
@@ -7146,7 +7164,7 @@
     <t>to thank</t>
   </si>
   <si>
-    <t>яблачия</t>
+    <t>ябладия</t>
   </si>
   <si>
     <t>yad</t>
@@ -7155,7 +7173,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>яч</t>
+    <t>яд</t>
   </si>
   <si>
     <t>yaglut</t>
@@ -7191,7 +7209,7 @@
     <t>food, meal</t>
   </si>
   <si>
-    <t>еча</t>
+    <t>еда</t>
   </si>
   <si>
     <t>yego</t>
@@ -7236,7 +7254,7 @@
     <t>dress</t>
   </si>
   <si>
-    <t>енчам</t>
+    <t>ендам</t>
   </si>
   <si>
     <t>yerikomyet</t>
@@ -8055,10 +8073,13 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="9"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"galon porsk")</f>
+        <v>galon porsk</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hazmat suit")</f>
+        <v>hazmat suit</v>
+      </c>
       <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
@@ -8097,8 +8118,14 @@
       <c r="F6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"porsk")</f>
+        <v>porsk</v>
+      </c>
+      <c r="H6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"suit, full body suit")</f>
+        <v>suit, full body suit</v>
+      </c>
       <c r="I6" s="9" t="s">
         <v>41</v>
       </c>
@@ -11083,13 +11110,13 @@
       <c r="X89" s="18"/>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="14" t="s">
         <v>437</v>
       </c>
       <c r="D90" s="18"/>
@@ -11115,13 +11142,13 @@
       <c r="X90" s="18"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="9" t="s">
         <v>440</v>
       </c>
       <c r="D91" s="18"/>
@@ -11211,13 +11238,13 @@
       <c r="X93" s="18"/>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="14" t="s">
         <v>449</v>
       </c>
       <c r="D94" s="18"/>
@@ -11275,13 +11302,13 @@
       <c r="X95" s="18"/>
     </row>
     <row r="96">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="9" t="s">
         <v>455</v>
       </c>
       <c r="D96" s="18"/>
@@ -11339,13 +11366,13 @@
       <c r="X97" s="18"/>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="14" t="s">
         <v>461</v>
       </c>
       <c r="D98" s="18"/>
@@ -11499,13 +11526,13 @@
       <c r="X102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="9" t="s">
         <v>476</v>
       </c>
       <c r="D103" s="18"/>
@@ -11563,13 +11590,13 @@
       <c r="X104" s="18"/>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D105" s="18"/>
@@ -11659,13 +11686,13 @@
       <c r="X107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="9" t="s">
         <v>491</v>
       </c>
       <c r="D108" s="18"/>
@@ -11723,13 +11750,13 @@
       <c r="X109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="14" t="s">
         <v>497</v>
       </c>
       <c r="D110" s="18"/>
@@ -11819,13 +11846,13 @@
       <c r="X112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="9" t="s">
         <v>506</v>
       </c>
       <c r="D113" s="18"/>
@@ -11883,13 +11910,13 @@
       <c r="X114" s="18"/>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="14" t="s">
         <v>512</v>
       </c>
       <c r="D115" s="18"/>
@@ -11915,13 +11942,13 @@
       <c r="X115" s="18"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="9" t="s">
         <v>515</v>
       </c>
       <c r="D116" s="18"/>
@@ -11979,13 +12006,13 @@
       <c r="X117" s="18"/>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="14" t="s">
         <v>521</v>
       </c>
       <c r="D118" s="18"/>
@@ -12075,13 +12102,13 @@
       <c r="X120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="9" t="s">
         <v>530</v>
       </c>
       <c r="D121" s="18"/>
@@ -12107,13 +12134,13 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="14" t="s">
         <v>533</v>
       </c>
       <c r="D122" s="18"/>
@@ -12139,13 +12166,13 @@
       <c r="X122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="9" t="s">
         <v>536</v>
       </c>
       <c r="D123" s="18"/>
@@ -12171,13 +12198,13 @@
       <c r="X123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="14" t="s">
         <v>539</v>
       </c>
       <c r="D124" s="18"/>
@@ -12235,13 +12262,13 @@
       <c r="X125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="9" t="s">
         <v>545</v>
       </c>
       <c r="D126" s="18"/>
@@ -12267,13 +12294,13 @@
       <c r="X126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="14" t="s">
         <v>548</v>
       </c>
       <c r="D127" s="18"/>
@@ -12299,13 +12326,13 @@
       <c r="X127" s="18"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D128" s="18"/>
@@ -12427,13 +12454,13 @@
       <c r="X131" s="18"/>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="14" t="s">
         <v>563</v>
       </c>
       <c r="D132" s="18"/>
@@ -12491,13 +12518,13 @@
       <c r="X133" s="18"/>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="9" t="s">
         <v>569</v>
       </c>
       <c r="D134" s="18"/>
@@ -12555,13 +12582,13 @@
       <c r="X135" s="18"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="14" t="s">
         <v>575</v>
       </c>
       <c r="D136" s="18"/>
@@ -12683,13 +12710,13 @@
       <c r="X139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="9" t="s">
         <v>587</v>
       </c>
       <c r="D140" s="18"/>
@@ -12715,13 +12742,13 @@
       <c r="X140" s="18"/>
     </row>
     <row r="141">
-      <c r="A141" s="26" t="s">
+      <c r="A141" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="14" t="s">
         <v>590</v>
       </c>
       <c r="D141" s="18"/>
@@ -12747,13 +12774,13 @@
       <c r="X141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="9" t="s">
         <v>593</v>
       </c>
       <c r="D142" s="18"/>
@@ -12779,13 +12806,13 @@
       <c r="X142" s="18"/>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="14" t="s">
         <v>596</v>
       </c>
       <c r="D143" s="18"/>
@@ -12843,13 +12870,13 @@
       <c r="X144" s="18"/>
     </row>
     <row r="145">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="9" t="s">
         <v>602</v>
       </c>
       <c r="D145" s="18"/>
@@ -12939,13 +12966,13 @@
       <c r="X147" s="18"/>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="14" t="s">
         <v>611</v>
       </c>
       <c r="D148" s="18"/>
@@ -12971,13 +12998,13 @@
       <c r="X148" s="18"/>
     </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="9" t="s">
         <v>614</v>
       </c>
       <c r="D149" s="18"/>
@@ -13035,13 +13062,13 @@
       <c r="X150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="20" t="s">
+      <c r="A151" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="14" t="s">
         <v>620</v>
       </c>
       <c r="D151" s="18"/>
@@ -13067,13 +13094,13 @@
       <c r="X151" s="18"/>
     </row>
     <row r="152">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="20" t="s">
         <v>622</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="9" t="s">
         <v>623</v>
       </c>
       <c r="D152" s="18"/>
@@ -13131,13 +13158,13 @@
       <c r="X153" s="18"/>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="14" t="s">
         <v>629</v>
       </c>
       <c r="D154" s="18"/>
@@ -13195,13 +13222,13 @@
       <c r="X155" s="18"/>
     </row>
     <row r="156">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="9" t="s">
         <v>635</v>
       </c>
       <c r="D156" s="18"/>
@@ -13227,13 +13254,13 @@
       <c r="X156" s="18"/>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="14" t="s">
         <v>638</v>
       </c>
       <c r="D157" s="18"/>
@@ -13291,13 +13318,13 @@
       <c r="X158" s="18"/>
     </row>
     <row r="159">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="9" t="s">
         <v>644</v>
       </c>
       <c r="D159" s="18"/>
@@ -13323,13 +13350,13 @@
       <c r="X159" s="18"/>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="14" t="s">
         <v>647</v>
       </c>
       <c r="D160" s="18"/>
@@ -13419,13 +13446,13 @@
       <c r="X162" s="18"/>
     </row>
     <row r="163">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" s="9" t="s">
         <v>656</v>
       </c>
       <c r="D163" s="18"/>
@@ -13451,13 +13478,13 @@
       <c r="X163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="14" t="s">
         <v>659</v>
       </c>
       <c r="D164" s="18"/>
@@ -13483,13 +13510,13 @@
       <c r="X164" s="18"/>
     </row>
     <row r="165">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="9" t="s">
         <v>662</v>
       </c>
       <c r="D165" s="18"/>
@@ -13547,13 +13574,13 @@
       <c r="X166" s="18"/>
     </row>
     <row r="167">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="14" t="s">
         <v>668</v>
       </c>
       <c r="D167" s="18"/>
@@ -13579,13 +13606,13 @@
       <c r="X167" s="18"/>
     </row>
     <row r="168">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="9" t="s">
         <v>671</v>
       </c>
       <c r="D168" s="18"/>
@@ -13675,13 +13702,13 @@
       <c r="X170" s="18"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="14" t="s">
         <v>680</v>
       </c>
       <c r="D171" s="18"/>
@@ -13707,13 +13734,13 @@
       <c r="X171" s="18"/>
     </row>
     <row r="172">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="9" t="s">
         <v>683</v>
       </c>
       <c r="D172" s="18"/>
@@ -13835,13 +13862,13 @@
       <c r="X175" s="18"/>
     </row>
     <row r="176">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="14" t="s">
         <v>695</v>
       </c>
       <c r="D176" s="18"/>
@@ -14059,13 +14086,13 @@
       <c r="X182" s="18"/>
     </row>
     <row r="183">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="9" t="s">
         <v>716</v>
       </c>
       <c r="D183" s="18"/>
@@ -14091,13 +14118,13 @@
       <c r="X183" s="18"/>
     </row>
     <row r="184">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="14" t="s">
         <v>719</v>
       </c>
       <c r="D184" s="18"/>
@@ -14155,13 +14182,13 @@
       <c r="X185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C186" s="9" t="s">
         <v>725</v>
       </c>
       <c r="D186" s="18"/>
@@ -14187,13 +14214,13 @@
       <c r="X186" s="18"/>
     </row>
     <row r="187">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="14" t="s">
         <v>728</v>
       </c>
       <c r="D187" s="18"/>
@@ -14283,13 +14310,13 @@
       <c r="X189" s="18"/>
     </row>
     <row r="190">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C190" s="9" t="s">
         <v>737</v>
       </c>
       <c r="D190" s="18"/>
@@ -14315,13 +14342,13 @@
       <c r="X190" s="18"/>
     </row>
     <row r="191">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="14" t="s">
         <v>740</v>
       </c>
       <c r="D191" s="18"/>
@@ -14347,13 +14374,13 @@
       <c r="X191" s="18"/>
     </row>
     <row r="192">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B192" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="C192" s="9" t="s">
         <v>743</v>
       </c>
       <c r="D192" s="18"/>
@@ -14475,13 +14502,13 @@
       <c r="X195" s="18"/>
     </row>
     <row r="196">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="14" t="s">
         <v>755</v>
       </c>
       <c r="D196" s="18"/>
@@ -14507,13 +14534,13 @@
       <c r="X196" s="18"/>
     </row>
     <row r="197">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C197" s="9" t="s">
         <v>758</v>
       </c>
       <c r="D197" s="18"/>
@@ -14571,13 +14598,13 @@
       <c r="X198" s="18"/>
     </row>
     <row r="199">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="14" t="s">
         <v>764</v>
       </c>
       <c r="D199" s="18"/>
@@ -14603,13 +14630,13 @@
       <c r="X199" s="18"/>
     </row>
     <row r="200">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="9" t="s">
         <v>767</v>
       </c>
       <c r="D200" s="18"/>
@@ -14763,13 +14790,13 @@
       <c r="X204" s="18"/>
     </row>
     <row r="205">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="14" t="s">
         <v>782</v>
       </c>
       <c r="D205" s="18"/>
@@ -14827,13 +14854,13 @@
       <c r="X206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C207" s="9" t="s">
         <v>788</v>
       </c>
       <c r="D207" s="18"/>
@@ -14859,13 +14886,13 @@
       <c r="X207" s="18"/>
     </row>
     <row r="208">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="14" t="s">
         <v>791</v>
       </c>
       <c r="D208" s="18"/>
@@ -14891,13 +14918,13 @@
       <c r="X208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C209" s="9" t="s">
         <v>794</v>
       </c>
       <c r="D209" s="18"/>
@@ -14923,13 +14950,13 @@
       <c r="X209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="14" t="s">
         <v>797</v>
       </c>
       <c r="D210" s="18"/>
@@ -14955,13 +14982,13 @@
       <c r="X210" s="18"/>
     </row>
     <row r="211">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C211" s="9" t="s">
         <v>800</v>
       </c>
       <c r="D211" s="18"/>
@@ -14987,13 +15014,13 @@
       <c r="X211" s="18"/>
     </row>
     <row r="212">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="14" t="s">
         <v>803</v>
       </c>
       <c r="D212" s="18"/>
@@ -15083,13 +15110,13 @@
       <c r="X214" s="18"/>
     </row>
     <row r="215">
-      <c r="A215" s="14" t="s">
+      <c r="A215" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C215" s="9" t="s">
         <v>812</v>
       </c>
       <c r="D215" s="18"/>
@@ -15115,13 +15142,13 @@
       <c r="X215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="14" t="s">
         <v>815</v>
       </c>
       <c r="D216" s="18"/>
@@ -15147,13 +15174,13 @@
       <c r="X216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C217" s="9" t="s">
         <v>818</v>
       </c>
       <c r="D217" s="18"/>
@@ -15179,13 +15206,13 @@
       <c r="X217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="14" t="s">
         <v>821</v>
       </c>
       <c r="D218" s="18"/>
@@ -15211,13 +15238,13 @@
       <c r="X218" s="18"/>
     </row>
     <row r="219">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C219" s="9" t="s">
         <v>824</v>
       </c>
       <c r="D219" s="18"/>
@@ -15243,13 +15270,13 @@
       <c r="X219" s="18"/>
     </row>
     <row r="220">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="14" t="s">
         <v>827</v>
       </c>
       <c r="D220" s="18"/>
@@ -15275,13 +15302,13 @@
       <c r="X220" s="18"/>
     </row>
     <row r="221">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C221" s="9" t="s">
         <v>830</v>
       </c>
       <c r="D221" s="18"/>
@@ -15307,13 +15334,13 @@
       <c r="X221" s="18"/>
     </row>
     <row r="222">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="14" t="s">
         <v>833</v>
       </c>
       <c r="D222" s="18"/>
@@ -15371,13 +15398,13 @@
       <c r="X223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B224" s="14" t="s">
+      <c r="B224" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C224" s="14" t="s">
+      <c r="C224" s="9" t="s">
         <v>839</v>
       </c>
       <c r="D224" s="18"/>
@@ -15403,13 +15430,13 @@
       <c r="X224" s="18"/>
     </row>
     <row r="225">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="14" t="s">
         <v>842</v>
       </c>
       <c r="D225" s="18"/>
@@ -15467,13 +15494,13 @@
       <c r="X226" s="18"/>
     </row>
     <row r="227">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="C227" s="9" t="s">
         <v>848</v>
       </c>
       <c r="D227" s="18"/>
@@ -15499,13 +15526,13 @@
       <c r="X227" s="18"/>
     </row>
     <row r="228">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="14" t="s">
         <v>851</v>
       </c>
       <c r="D228" s="18"/>
@@ -15691,13 +15718,13 @@
       <c r="X233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="C234" s="9" t="s">
         <v>869</v>
       </c>
       <c r="D234" s="18"/>
@@ -15723,13 +15750,13 @@
       <c r="X234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="14" t="s">
         <v>870</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="14" t="s">
         <v>872</v>
       </c>
       <c r="D235" s="18"/>
@@ -15819,13 +15846,13 @@
       <c r="X237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="9" t="s">
         <v>881</v>
       </c>
       <c r="D238" s="18"/>
@@ -15851,13 +15878,13 @@
       <c r="X238" s="18"/>
     </row>
     <row r="239">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="14" t="s">
         <v>882</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" s="14" t="s">
         <v>884</v>
       </c>
       <c r="D239" s="18"/>
@@ -15915,13 +15942,13 @@
       <c r="X240" s="18"/>
     </row>
     <row r="241">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="C241" s="9" t="s">
         <v>890</v>
       </c>
       <c r="D241" s="18"/>
@@ -16043,13 +16070,13 @@
       <c r="X244" s="18"/>
     </row>
     <row r="245">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" s="14" t="s">
         <v>902</v>
       </c>
       <c r="D245" s="18"/>
@@ -16107,13 +16134,13 @@
       <c r="X246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="C247" s="14" t="s">
+      <c r="C247" s="9" t="s">
         <v>908</v>
       </c>
       <c r="D247" s="18"/>
@@ -16139,13 +16166,13 @@
       <c r="X247" s="18"/>
     </row>
     <row r="248">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" s="14" t="s">
         <v>911</v>
       </c>
       <c r="D248" s="18"/>
@@ -16203,13 +16230,13 @@
       <c r="X249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="14" t="s">
+      <c r="A250" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="C250" s="9" t="s">
         <v>917</v>
       </c>
       <c r="D250" s="18"/>
@@ -16235,13 +16262,13 @@
       <c r="X250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="14" t="s">
         <v>918</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="14" t="s">
         <v>920</v>
       </c>
       <c r="D251" s="18"/>
@@ -16299,13 +16326,13 @@
       <c r="X252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="C253" s="14" t="s">
+      <c r="C253" s="9" t="s">
         <v>926</v>
       </c>
       <c r="D253" s="18"/>
@@ -16331,13 +16358,13 @@
       <c r="X253" s="18"/>
     </row>
     <row r="254">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="14" t="s">
         <v>929</v>
       </c>
       <c r="D254" s="18"/>
@@ -16363,13 +16390,13 @@
       <c r="X254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="C255" s="9" t="s">
         <v>932</v>
       </c>
       <c r="D255" s="18"/>
@@ -16395,13 +16422,13 @@
       <c r="X255" s="18"/>
     </row>
     <row r="256">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="14" t="s">
         <v>935</v>
       </c>
       <c r="D256" s="18"/>
@@ -16555,10 +16582,10 @@
       <c r="X260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="20" t="s">
+      <c r="A261" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="B261" s="20" t="s">
+      <c r="B261" s="9" t="s">
         <v>949</v>
       </c>
       <c r="C261" s="9" t="s">
@@ -16587,13 +16614,13 @@
       <c r="X261" s="18"/>
     </row>
     <row r="262">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C262" s="9" t="s">
         <v>953</v>
       </c>
       <c r="D262" s="18"/>
@@ -16843,13 +16870,13 @@
       <c r="X269" s="18"/>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="14" t="s">
         <v>977</v>
       </c>
       <c r="D270" s="18"/>
@@ -16875,13 +16902,13 @@
       <c r="X270" s="18"/>
     </row>
     <row r="271">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C271" s="9" t="s">
         <v>980</v>
       </c>
       <c r="D271" s="18"/>
@@ -16907,13 +16934,13 @@
       <c r="X271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="14" t="s">
         <v>981</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="14" t="s">
         <v>983</v>
       </c>
       <c r="D272" s="18"/>
@@ -17003,13 +17030,13 @@
       <c r="X274" s="18"/>
     </row>
     <row r="275">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="C275" s="14" t="s">
+      <c r="C275" s="9" t="s">
         <v>992</v>
       </c>
       <c r="D275" s="18"/>
@@ -17099,13 +17126,13 @@
       <c r="X277" s="18"/>
     </row>
     <row r="278">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C278" s="14" t="s">
         <v>1001</v>
       </c>
       <c r="D278" s="18"/>
@@ -17227,13 +17254,13 @@
       <c r="X281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C282" s="9" t="s">
         <v>1013</v>
       </c>
       <c r="D282" s="18"/>
@@ -17259,13 +17286,13 @@
       <c r="X282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="20" t="s">
+      <c r="A283" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B283" s="20" t="s">
+      <c r="B283" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="14" t="s">
         <v>1016</v>
       </c>
       <c r="D283" s="18"/>
@@ -17291,10 +17318,10 @@
       <c r="X283" s="18"/>
     </row>
     <row r="284">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="20" t="s">
         <v>1017</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="20" t="s">
         <v>1018</v>
       </c>
       <c r="C284" s="9" t="s">
@@ -17323,7 +17350,7 @@
       <c r="X284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="14" t="s">
         <v>1020</v>
       </c>
       <c r="B285" s="9" t="s">
@@ -17355,13 +17382,13 @@
       <c r="X285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B286" s="14" t="s">
+      <c r="B286" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="C286" s="14" t="s">
+      <c r="C286" s="9" t="s">
         <v>1025</v>
       </c>
       <c r="D286" s="18"/>
@@ -17387,13 +17414,13 @@
       <c r="X286" s="18"/>
     </row>
     <row r="287">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="C287" s="9" t="s">
+      <c r="C287" s="14" t="s">
         <v>1028</v>
       </c>
       <c r="D287" s="18"/>
@@ -17515,10 +17542,10 @@
       <c r="X290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="20" t="s">
+      <c r="A291" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="B291" s="20" t="s">
+      <c r="B291" s="9" t="s">
         <v>1039</v>
       </c>
       <c r="C291" s="9" t="s">
@@ -17547,14 +17574,14 @@
       <c r="X291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="B292" s="14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C292" s="14" t="s">
+      <c r="B292" s="20" t="s">
         <v>1042</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="D292" s="18"/>
       <c r="E292" s="18"/>
@@ -17579,13 +17606,13 @@
       <c r="X292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B293" s="9" t="s">
+      <c r="A293" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="B293" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C293" s="14" t="s">
         <v>1045</v>
       </c>
       <c r="D293" s="18"/>
@@ -17611,10 +17638,10 @@
       <c r="X293" s="18"/>
     </row>
     <row r="294">
-      <c r="A294" s="20" t="s">
+      <c r="A294" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="9" t="s">
         <v>1047</v>
       </c>
       <c r="C294" s="9" t="s">
@@ -17643,10 +17670,10 @@
       <c r="X294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="20" t="s">
         <v>1049</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="20" t="s">
         <v>1050</v>
       </c>
       <c r="C295" s="9" t="s">
@@ -17675,13 +17702,13 @@
       <c r="X295" s="18"/>
     </row>
     <row r="296">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="9" t="s">
         <v>1054</v>
       </c>
       <c r="D296" s="18"/>
@@ -17771,13 +17798,13 @@
       <c r="X298" s="18"/>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="C299" s="9" t="s">
+      <c r="C299" s="14" t="s">
         <v>1063</v>
       </c>
       <c r="D299" s="18"/>
@@ -17835,13 +17862,13 @@
       <c r="X300" s="18"/>
     </row>
     <row r="301">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="9" t="s">
         <v>1068</v>
       </c>
-      <c r="C301" s="14" t="s">
+      <c r="C301" s="9" t="s">
         <v>1069</v>
       </c>
       <c r="D301" s="18"/>
@@ -17899,13 +17926,13 @@
       <c r="X302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C303" s="14" t="s">
         <v>1075</v>
       </c>
       <c r="D303" s="18"/>
@@ -17931,13 +17958,13 @@
       <c r="X303" s="18"/>
     </row>
     <row r="304">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="C304" s="14" t="s">
+      <c r="C304" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="D304" s="18"/>
@@ -18027,13 +18054,13 @@
       <c r="X306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="C307" s="9" t="s">
+      <c r="C307" s="14" t="s">
         <v>1087</v>
       </c>
       <c r="D307" s="18"/>
@@ -18059,13 +18086,13 @@
       <c r="X307" s="18"/>
     </row>
     <row r="308">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="C308" s="14" t="s">
+      <c r="C308" s="9" t="s">
         <v>1090</v>
       </c>
       <c r="D308" s="18"/>
@@ -18155,13 +18182,13 @@
       <c r="X310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="9" t="s">
+      <c r="A311" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="14" t="s">
         <v>1098</v>
       </c>
-      <c r="C311" s="9" t="s">
+      <c r="C311" s="14" t="s">
         <v>1099</v>
       </c>
       <c r="D311" s="18"/>
@@ -18251,13 +18278,13 @@
       <c r="X313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="B314" s="14" t="s">
+      <c r="B314" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C314" s="9" t="s">
         <v>1108</v>
       </c>
       <c r="D314" s="18"/>
@@ -18379,13 +18406,13 @@
       <c r="X317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="C318" s="9" t="s">
+      <c r="C318" s="14" t="s">
         <v>1120</v>
       </c>
       <c r="D318" s="18"/>
@@ -18443,13 +18470,13 @@
       <c r="X319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="14" t="s">
+      <c r="A320" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="B320" s="14" t="s">
+      <c r="B320" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="C320" s="14" t="s">
+      <c r="C320" s="9" t="s">
         <v>1126</v>
       </c>
       <c r="D320" s="18"/>
@@ -18539,13 +18566,13 @@
       <c r="X322" s="18"/>
     </row>
     <row r="323">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="C323" s="9" t="s">
+      <c r="C323" s="14" t="s">
         <v>1135</v>
       </c>
       <c r="D323" s="18"/>
@@ -18603,13 +18630,13 @@
       <c r="X324" s="18"/>
     </row>
     <row r="325">
-      <c r="A325" s="14" t="s">
+      <c r="A325" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="B325" s="14" t="s">
+      <c r="B325" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="C325" s="9" t="s">
         <v>1141</v>
       </c>
       <c r="D325" s="18"/>
@@ -18699,13 +18726,13 @@
       <c r="X327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="14" t="s">
         <v>1150</v>
       </c>
       <c r="D328" s="18"/>
@@ -18763,10 +18790,10 @@
       <c r="X329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="B330" s="20" t="s">
+      <c r="B330" s="9" t="s">
         <v>1155</v>
       </c>
       <c r="C330" s="9" t="s">
@@ -18795,10 +18822,10 @@
       <c r="X330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="9" t="s">
+      <c r="A331" s="20" t="s">
         <v>1157</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="20" t="s">
         <v>1158</v>
       </c>
       <c r="C331" s="9" t="s">
@@ -18891,10 +18918,10 @@
       <c r="X333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="20" t="s">
+      <c r="A334" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="B334" s="20" t="s">
+      <c r="B334" s="9" t="s">
         <v>1167</v>
       </c>
       <c r="C334" s="9" t="s">
@@ -18923,10 +18950,10 @@
       <c r="X334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="14" t="s">
+      <c r="A335" s="20" t="s">
         <v>1169</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="20" t="s">
         <v>1170</v>
       </c>
       <c r="C335" s="9" t="s">
@@ -18955,7 +18982,7 @@
       <c r="X335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="14" t="s">
         <v>1172</v>
       </c>
       <c r="B336" s="9" t="s">
@@ -19147,13 +19174,13 @@
       <c r="X341" s="18"/>
     </row>
     <row r="342">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C342" s="9" t="s">
         <v>1192</v>
       </c>
       <c r="D342" s="18"/>
@@ -19179,13 +19206,13 @@
       <c r="X342" s="18"/>
     </row>
     <row r="343">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="C343" s="9" t="s">
+      <c r="C343" s="14" t="s">
         <v>1195</v>
       </c>
       <c r="D343" s="18"/>
@@ -19243,13 +19270,13 @@
       <c r="X344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="9" t="s">
         <v>1200</v>
       </c>
-      <c r="C345" s="14" t="s">
+      <c r="C345" s="9" t="s">
         <v>1201</v>
       </c>
       <c r="D345" s="18"/>
@@ -19275,13 +19302,13 @@
       <c r="X345" s="18"/>
     </row>
     <row r="346">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C346" s="14" t="s">
         <v>1204</v>
       </c>
       <c r="D346" s="18"/>
@@ -19467,13 +19494,13 @@
       <c r="X351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="C352" s="14" t="s">
+      <c r="C352" s="9" t="s">
         <v>1222</v>
       </c>
       <c r="D352" s="18"/>
@@ -19499,13 +19526,13 @@
       <c r="X352" s="18"/>
     </row>
     <row r="353">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="14" t="s">
         <v>1224</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="C353" s="14" t="s">
         <v>1225</v>
       </c>
       <c r="D353" s="18"/>
@@ -19563,13 +19590,13 @@
       <c r="X354" s="18"/>
     </row>
     <row r="355">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="9" t="s">
         <v>1229</v>
       </c>
-      <c r="B355" s="14" t="s">
+      <c r="B355" s="9" t="s">
         <v>1230</v>
       </c>
-      <c r="C355" s="14" t="s">
+      <c r="C355" s="9" t="s">
         <v>1231</v>
       </c>
       <c r="D355" s="18"/>
@@ -19627,13 +19654,13 @@
       <c r="X356" s="18"/>
     </row>
     <row r="357">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="14" t="s">
         <v>1236</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="C357" s="14" t="s">
         <v>1237</v>
       </c>
       <c r="D357" s="18"/>
@@ -19659,13 +19686,13 @@
       <c r="X357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="C358" s="14" t="s">
+      <c r="C358" s="9" t="s">
         <v>1240</v>
       </c>
       <c r="D358" s="18"/>
@@ -19691,13 +19718,13 @@
       <c r="X358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="20" t="s">
+      <c r="A359" s="14" t="s">
         <v>1241</v>
       </c>
-      <c r="B359" s="20" t="s">
+      <c r="B359" s="14" t="s">
         <v>1242</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="C359" s="14" t="s">
         <v>1243</v>
       </c>
       <c r="D359" s="18"/>
@@ -19723,13 +19750,13 @@
       <c r="X359" s="18"/>
     </row>
     <row r="360">
-      <c r="A360" s="14" t="s">
+      <c r="A360" s="20" t="s">
         <v>1244</v>
       </c>
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="20" t="s">
         <v>1245</v>
       </c>
-      <c r="C360" s="14" t="s">
+      <c r="C360" s="9" t="s">
         <v>1246</v>
       </c>
       <c r="D360" s="18"/>
@@ -19787,13 +19814,13 @@
       <c r="X361" s="18"/>
     </row>
     <row r="362">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="14" t="s">
         <v>1250</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="14" t="s">
         <v>1252</v>
       </c>
       <c r="D362" s="18"/>
@@ -19851,13 +19878,13 @@
       <c r="X363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="C364" s="14" t="s">
+      <c r="C364" s="9" t="s">
         <v>1258</v>
       </c>
       <c r="D364" s="18"/>
@@ -19915,13 +19942,13 @@
       <c r="X365" s="18"/>
     </row>
     <row r="366">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="14" t="s">
         <v>1263</v>
       </c>
-      <c r="C366" s="9" t="s">
+      <c r="C366" s="14" t="s">
         <v>1264</v>
       </c>
       <c r="D366" s="18"/>
@@ -20107,13 +20134,13 @@
       <c r="X371" s="18"/>
     </row>
     <row r="372">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="9" t="s">
         <v>1282</v>
       </c>
       <c r="D372" s="18"/>
@@ -20171,13 +20198,13 @@
       <c r="X373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C374" s="14" t="s">
         <v>1288</v>
       </c>
       <c r="D374" s="18"/>
@@ -20235,13 +20262,13 @@
       <c r="X375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="14" t="s">
+      <c r="A376" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="C376" s="14" t="s">
+      <c r="C376" s="9" t="s">
         <v>1294</v>
       </c>
       <c r="D376" s="18"/>
@@ -20267,13 +20294,13 @@
       <c r="X376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="C377" s="9" t="s">
+      <c r="C377" s="14" t="s">
         <v>1297</v>
       </c>
       <c r="D377" s="18"/>
@@ -20299,13 +20326,13 @@
       <c r="X377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="C378" s="14" t="s">
+      <c r="C378" s="9" t="s">
         <v>1300</v>
       </c>
       <c r="D378" s="18"/>
@@ -20331,13 +20358,13 @@
       <c r="X378" s="18"/>
     </row>
     <row r="379">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="14" t="s">
         <v>1301</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="14" t="s">
         <v>1302</v>
       </c>
-      <c r="C379" s="9" t="s">
+      <c r="C379" s="14" t="s">
         <v>1303</v>
       </c>
       <c r="D379" s="18"/>
@@ -20459,13 +20486,13 @@
       <c r="X382" s="18"/>
     </row>
     <row r="383">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="9" t="s">
         <v>1314</v>
       </c>
-      <c r="C383" s="14" t="s">
+      <c r="C383" s="9" t="s">
         <v>1315</v>
       </c>
       <c r="D383" s="18"/>
@@ -20523,13 +20550,13 @@
       <c r="X384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="14" t="s">
         <v>1320</v>
       </c>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="14" t="s">
         <v>1321</v>
       </c>
       <c r="D385" s="18"/>
@@ -20619,13 +20646,13 @@
       <c r="X387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C388" s="9" t="s">
         <v>1330</v>
       </c>
       <c r="D388" s="18"/>
@@ -20651,13 +20678,13 @@
       <c r="X388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="14" t="s">
         <v>1332</v>
       </c>
-      <c r="C389" s="9" t="s">
+      <c r="C389" s="14" t="s">
         <v>1333</v>
       </c>
       <c r="D389" s="18"/>
@@ -20683,14 +20710,14 @@
       <c r="X389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="14" t="s">
+      <c r="A390" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="B390" s="14" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C390" s="14" t="s">
+      <c r="B390" s="9" t="s">
         <v>1335</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>1336</v>
       </c>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
@@ -20716,13 +20743,13 @@
     </row>
     <row r="391">
       <c r="A391" s="14" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
@@ -20747,8 +20774,8 @@
       <c r="X391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
-        <v>1338</v>
+      <c r="A392" s="14" t="s">
+        <v>1339</v>
       </c>
       <c r="B392" s="14" t="s">
         <v>1339</v>
@@ -20782,10 +20809,10 @@
       <c r="A393" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="14" t="s">
         <v>1342</v>
       </c>
-      <c r="C393" s="9" t="s">
+      <c r="C393" s="14" t="s">
         <v>1343</v>
       </c>
       <c r="D393" s="18"/>
@@ -20875,13 +20902,13 @@
       <c r="X395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="9" t="s">
         <v>1350</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C396" s="9" t="s">
         <v>1352</v>
       </c>
       <c r="D396" s="18"/>
@@ -21003,13 +21030,13 @@
       <c r="X399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="9" t="s">
+      <c r="A400" s="14" t="s">
         <v>1362</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="14" t="s">
         <v>1363</v>
       </c>
-      <c r="C400" s="9" t="s">
+      <c r="C400" s="14" t="s">
         <v>1364</v>
       </c>
       <c r="D400" s="18"/>
@@ -21035,7 +21062,7 @@
       <c r="X400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="14" t="s">
+      <c r="A401" s="9" t="s">
         <v>1365</v>
       </c>
       <c r="B401" s="9" t="s">
@@ -21067,7 +21094,7 @@
       <c r="X401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="14" t="s">
         <v>1368</v>
       </c>
       <c r="B402" s="9" t="s">
@@ -21099,10 +21126,10 @@
       <c r="X402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="20" t="s">
+      <c r="A403" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="B403" s="20" t="s">
+      <c r="B403" s="9" t="s">
         <v>1372</v>
       </c>
       <c r="C403" s="9" t="s">
@@ -21131,10 +21158,10 @@
       <c r="X403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="27" t="s">
+      <c r="A404" s="20" t="s">
         <v>1374</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="20" t="s">
         <v>1375</v>
       </c>
       <c r="C404" s="9" t="s">
@@ -21163,7 +21190,7 @@
       <c r="X404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="27" t="s">
         <v>1377</v>
       </c>
       <c r="B405" s="9" t="s">
@@ -21195,13 +21222,13 @@
       <c r="X405" s="18"/>
     </row>
     <row r="406">
-      <c r="A406" s="14" t="s">
+      <c r="A406" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="B406" s="9" t="s">
         <v>1381</v>
       </c>
-      <c r="C406" s="14" t="s">
+      <c r="C406" s="9" t="s">
         <v>1382</v>
       </c>
       <c r="D406" s="18"/>
@@ -21323,13 +21350,13 @@
       <c r="X409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1392</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C410" s="14" t="s">
         <v>1394</v>
       </c>
       <c r="D410" s="18"/>
@@ -21419,13 +21446,13 @@
       <c r="X412" s="18"/>
     </row>
     <row r="413">
-      <c r="A413" s="14" t="s">
+      <c r="A413" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="C413" s="14" t="s">
+      <c r="C413" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="D413" s="18"/>
@@ -21483,13 +21510,13 @@
       <c r="X414" s="18"/>
     </row>
     <row r="415">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="14" t="s">
         <v>1408</v>
       </c>
-      <c r="C415" s="9" t="s">
+      <c r="C415" s="14" t="s">
         <v>1409</v>
       </c>
       <c r="D415" s="18"/>
@@ -21579,13 +21606,13 @@
       <c r="X417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="14" t="s">
+      <c r="A418" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="B418" s="14" t="s">
+      <c r="B418" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="C418" s="14" t="s">
+      <c r="C418" s="9" t="s">
         <v>1418</v>
       </c>
       <c r="D418" s="18"/>
@@ -21611,13 +21638,13 @@
       <c r="X418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="9" t="s">
+      <c r="A419" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="14" t="s">
         <v>1420</v>
       </c>
-      <c r="C419" s="9" t="s">
+      <c r="C419" s="14" t="s">
         <v>1421</v>
       </c>
       <c r="D419" s="18"/>
@@ -21643,13 +21670,13 @@
       <c r="X419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C420" s="9" t="s">
         <v>1424</v>
       </c>
       <c r="D420" s="18"/>
@@ -21675,13 +21702,13 @@
       <c r="X420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="C421" s="9" t="s">
+      <c r="C421" s="14" t="s">
         <v>1427</v>
       </c>
       <c r="D421" s="18"/>
@@ -21899,13 +21926,13 @@
       <c r="X427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="14" t="s">
+      <c r="A428" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="B428" s="14" t="s">
+      <c r="B428" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="C428" s="14" t="s">
+      <c r="C428" s="9" t="s">
         <v>1448</v>
       </c>
       <c r="D428" s="18"/>
@@ -21963,13 +21990,13 @@
       <c r="X429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="14" t="s">
         <v>1453</v>
       </c>
-      <c r="C430" s="9" t="s">
+      <c r="C430" s="14" t="s">
         <v>1454</v>
       </c>
       <c r="D430" s="18"/>
@@ -21995,13 +22022,13 @@
       <c r="X430" s="18"/>
     </row>
     <row r="431">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" s="9" t="s">
         <v>1457</v>
       </c>
       <c r="D431" s="18"/>
@@ -22059,13 +22086,13 @@
       <c r="X432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="14" t="s">
         <v>1462</v>
       </c>
-      <c r="C433" s="9" t="s">
+      <c r="C433" s="14" t="s">
         <v>1463</v>
       </c>
       <c r="D433" s="18"/>
@@ -22219,13 +22246,13 @@
       <c r="X437" s="18"/>
     </row>
     <row r="438">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="B438" s="14" t="s">
+      <c r="B438" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="C438" s="14" t="s">
+      <c r="C438" s="9" t="s">
         <v>1478</v>
       </c>
       <c r="D438" s="18"/>
@@ -22379,13 +22406,13 @@
       <c r="X442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="9" t="s">
+      <c r="A443" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="C443" s="9" t="s">
+      <c r="C443" s="14" t="s">
         <v>1493</v>
       </c>
       <c r="D443" s="18"/>
@@ -22411,13 +22438,13 @@
       <c r="X443" s="18"/>
     </row>
     <row r="444">
-      <c r="A444" s="14" t="s">
+      <c r="A444" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="B444" s="14" t="s">
+      <c r="B444" s="9" t="s">
         <v>1495</v>
       </c>
-      <c r="C444" s="14" t="s">
+      <c r="C444" s="9" t="s">
         <v>1496</v>
       </c>
       <c r="D444" s="18"/>
@@ -22475,13 +22502,13 @@
       <c r="X445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="14" t="s">
         <v>1500</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="C446" s="9" t="s">
+      <c r="C446" s="14" t="s">
         <v>1502</v>
       </c>
       <c r="D446" s="18"/>
@@ -22539,13 +22566,13 @@
       <c r="X447" s="18"/>
     </row>
     <row r="448">
-      <c r="A448" s="20" t="s">
+      <c r="A448" s="14" t="s">
         <v>1506</v>
       </c>
-      <c r="B448" s="20" t="s">
+      <c r="B448" s="14" t="s">
         <v>1507</v>
       </c>
-      <c r="C448" s="9" t="s">
+      <c r="C448" s="14" t="s">
         <v>1508</v>
       </c>
       <c r="D448" s="18"/>
@@ -22603,13 +22630,13 @@
       <c r="X449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="14" t="s">
+      <c r="A450" s="20" t="s">
         <v>1512</v>
       </c>
-      <c r="B450" s="14" t="s">
+      <c r="B450" s="20" t="s">
         <v>1513</v>
       </c>
-      <c r="C450" s="14" t="s">
+      <c r="C450" s="9" t="s">
         <v>1514</v>
       </c>
       <c r="D450" s="18"/>
@@ -22667,13 +22694,13 @@
       <c r="X451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="C452" s="9" t="s">
+      <c r="C452" s="14" t="s">
         <v>1520</v>
       </c>
       <c r="D452" s="18"/>
@@ -22699,13 +22726,13 @@
       <c r="X452" s="18"/>
     </row>
     <row r="453">
-      <c r="A453" s="14" t="s">
+      <c r="A453" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="C453" s="14" t="s">
+      <c r="C453" s="9" t="s">
         <v>1523</v>
       </c>
       <c r="D453" s="18"/>
@@ -22731,13 +22758,13 @@
       <c r="X453" s="18"/>
     </row>
     <row r="454">
-      <c r="A454" s="14" t="s">
+      <c r="A454" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="C454" s="14" t="s">
+      <c r="C454" s="9" t="s">
         <v>1526</v>
       </c>
       <c r="D454" s="18"/>
@@ -22795,13 +22822,13 @@
       <c r="X455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="14" t="s">
         <v>1530</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="14" t="s">
         <v>1531</v>
       </c>
-      <c r="C456" s="9" t="s">
+      <c r="C456" s="14" t="s">
         <v>1532</v>
       </c>
       <c r="D456" s="18"/>
@@ -22827,13 +22854,13 @@
       <c r="X456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="C457" s="9" t="s">
+      <c r="C457" s="14" t="s">
         <v>1535</v>
       </c>
       <c r="D457" s="18"/>
@@ -22859,13 +22886,13 @@
       <c r="X457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="14" t="s">
+      <c r="A458" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="B458" s="14" t="s">
+      <c r="B458" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="C458" s="14" t="s">
+      <c r="C458" s="9" t="s">
         <v>1538</v>
       </c>
       <c r="D458" s="18"/>
@@ -22923,13 +22950,13 @@
       <c r="X459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="9" t="s">
+      <c r="A460" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="C460" s="9" t="s">
+      <c r="C460" s="14" t="s">
         <v>1544</v>
       </c>
       <c r="D460" s="18"/>
@@ -22987,13 +23014,13 @@
       <c r="X461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="14" t="s">
+      <c r="A462" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="B462" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="C462" s="14" t="s">
+      <c r="C462" s="9" t="s">
         <v>1550</v>
       </c>
       <c r="D462" s="18"/>
@@ -23019,13 +23046,13 @@
       <c r="X462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="14" t="s">
+      <c r="A463" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="B463" s="14" t="s">
+      <c r="B463" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="C463" s="14" t="s">
+      <c r="C463" s="9" t="s">
         <v>1553</v>
       </c>
       <c r="D463" s="18"/>
@@ -23051,13 +23078,13 @@
       <c r="X463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="9" t="s">
+      <c r="A464" s="14" t="s">
         <v>1554</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="14" t="s">
         <v>1555</v>
       </c>
-      <c r="C464" s="9" t="s">
+      <c r="C464" s="14" t="s">
         <v>1556</v>
       </c>
       <c r="D464" s="18"/>
@@ -23083,7 +23110,7 @@
       <c r="X464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="14" t="s">
         <v>1557</v>
       </c>
       <c r="B465" s="14" t="s">
@@ -23115,13 +23142,13 @@
       <c r="X465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="14" t="s">
+      <c r="A466" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="C466" s="14" t="s">
+      <c r="C466" s="9" t="s">
         <v>1562</v>
       </c>
       <c r="D466" s="18"/>
@@ -23147,7 +23174,7 @@
       <c r="X466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="9" t="s">
         <v>1563</v>
       </c>
       <c r="B467" s="14" t="s">
@@ -23307,13 +23334,13 @@
       <c r="X471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="9" t="s">
+      <c r="A472" s="14" t="s">
         <v>1578</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="14" t="s">
         <v>1579</v>
       </c>
-      <c r="C472" s="9" t="s">
+      <c r="C472" s="14" t="s">
         <v>1580</v>
       </c>
       <c r="D472" s="18"/>
@@ -23339,13 +23366,13 @@
       <c r="X472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="9" t="s">
+      <c r="A473" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="14" t="s">
         <v>1582</v>
       </c>
-      <c r="C473" s="9" t="s">
+      <c r="C473" s="14" t="s">
         <v>1583</v>
       </c>
       <c r="D473" s="18"/>
@@ -23371,13 +23398,13 @@
       <c r="X473" s="18"/>
     </row>
     <row r="474">
-      <c r="A474" s="14" t="s">
+      <c r="A474" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="9" t="s">
         <v>1585</v>
       </c>
-      <c r="C474" s="14" t="s">
+      <c r="C474" s="9" t="s">
         <v>1586</v>
       </c>
       <c r="D474" s="18"/>
@@ -23467,13 +23494,13 @@
       <c r="X476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="14" t="s">
+      <c r="A477" s="9" t="s">
         <v>1593</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="9" t="s">
         <v>1594</v>
       </c>
-      <c r="C477" s="14" t="s">
+      <c r="C477" s="9" t="s">
         <v>1595</v>
       </c>
       <c r="D477" s="18"/>
@@ -23531,13 +23558,13 @@
       <c r="X478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="9" t="s">
+      <c r="A479" s="14" t="s">
         <v>1599</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="14" t="s">
         <v>1600</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C479" s="14" t="s">
         <v>1601</v>
       </c>
       <c r="D479" s="18"/>
@@ -23627,13 +23654,13 @@
       <c r="X481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="9" t="s">
+      <c r="A482" s="14" t="s">
         <v>1608</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="14" t="s">
         <v>1609</v>
       </c>
-      <c r="C482" s="9" t="s">
+      <c r="C482" s="14" t="s">
         <v>1610</v>
       </c>
       <c r="D482" s="18"/>
@@ -23659,13 +23686,13 @@
       <c r="X482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C483" s="9" t="s">
         <v>1613</v>
       </c>
       <c r="D483" s="18"/>
@@ -23691,13 +23718,13 @@
       <c r="X483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="14" t="s">
+      <c r="A484" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="C484" s="14" t="s">
+      <c r="C484" s="9" t="s">
         <v>1616</v>
       </c>
       <c r="D484" s="18"/>
@@ -23723,13 +23750,13 @@
       <c r="X484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="14" t="s">
         <v>1617</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="14" t="s">
         <v>1618</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C485" s="14" t="s">
         <v>1619</v>
       </c>
       <c r="D485" s="18"/>
@@ -23787,13 +23814,13 @@
       <c r="X486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C487" s="9" t="s">
         <v>1625</v>
       </c>
       <c r="D487" s="18"/>
@@ -23819,13 +23846,13 @@
       <c r="X487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="C488" s="9" t="s">
+      <c r="C488" s="14" t="s">
         <v>1628</v>
       </c>
       <c r="D488" s="18"/>
@@ -23851,13 +23878,13 @@
       <c r="X488" s="18"/>
     </row>
     <row r="489">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="14" t="s">
         <v>1629</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="14" t="s">
         <v>1630</v>
       </c>
-      <c r="C489" s="9" t="s">
+      <c r="C489" s="14" t="s">
         <v>1631</v>
       </c>
       <c r="D489" s="18"/>
@@ -23883,13 +23910,13 @@
       <c r="X489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="14" t="s">
+      <c r="A490" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="B490" s="9" t="s">
         <v>1633</v>
       </c>
-      <c r="C490" s="14" t="s">
+      <c r="C490" s="9" t="s">
         <v>1634</v>
       </c>
       <c r="D490" s="18"/>
@@ -23947,13 +23974,13 @@
       <c r="X491" s="18"/>
     </row>
     <row r="492">
-      <c r="A492" s="9" t="s">
+      <c r="A492" s="14" t="s">
         <v>1638</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="14" t="s">
         <v>1639</v>
       </c>
-      <c r="C492" s="9" t="s">
+      <c r="C492" s="14" t="s">
         <v>1640</v>
       </c>
       <c r="D492" s="18"/>
@@ -24011,13 +24038,13 @@
       <c r="X493" s="18"/>
     </row>
     <row r="494">
-      <c r="A494" s="14" t="s">
+      <c r="A494" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B494" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="C494" s="14" t="s">
+      <c r="C494" s="9" t="s">
         <v>1646</v>
       </c>
       <c r="D494" s="18"/>
@@ -24043,13 +24070,13 @@
       <c r="X494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="9" t="s">
         <v>1649</v>
       </c>
       <c r="D495" s="18"/>
@@ -24139,13 +24166,13 @@
       <c r="X497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="14" t="s">
         <v>1656</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="14" t="s">
         <v>1657</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C498" s="14" t="s">
         <v>1658</v>
       </c>
       <c r="D498" s="18"/>
@@ -24267,13 +24294,13 @@
       <c r="X501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="9" t="s">
         <v>1668</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>1669</v>
       </c>
-      <c r="C502" s="14" t="s">
+      <c r="C502" s="9" t="s">
         <v>1670</v>
       </c>
       <c r="D502" s="18"/>
@@ -24299,13 +24326,13 @@
       <c r="X502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="9" t="s">
+      <c r="A503" s="14" t="s">
         <v>1671</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="C503" s="9" t="s">
+      <c r="C503" s="14" t="s">
         <v>1673</v>
       </c>
       <c r="D503" s="18"/>
@@ -24363,13 +24390,13 @@
       <c r="X504" s="18"/>
     </row>
     <row r="505">
-      <c r="A505" s="14" t="s">
+      <c r="A505" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="B505" s="14" t="s">
+      <c r="B505" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="C505" s="14" t="s">
+      <c r="C505" s="9" t="s">
         <v>1679</v>
       </c>
       <c r="D505" s="18"/>
@@ -24619,13 +24646,13 @@
       <c r="X512" s="18"/>
     </row>
     <row r="513">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="14" t="s">
         <v>1701</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="14" t="s">
         <v>1702</v>
       </c>
-      <c r="C513" s="9" t="s">
+      <c r="C513" s="14" t="s">
         <v>1703</v>
       </c>
       <c r="D513" s="18"/>
@@ -24651,13 +24678,13 @@
       <c r="X513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="14" t="s">
         <v>1704</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="14" t="s">
         <v>1705</v>
       </c>
-      <c r="C514" s="9" t="s">
+      <c r="C514" s="14" t="s">
         <v>1706</v>
       </c>
       <c r="D514" s="18"/>
@@ -24715,13 +24742,13 @@
       <c r="X515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="14" t="s">
+      <c r="A516" s="9" t="s">
         <v>1710</v>
       </c>
-      <c r="B516" s="14" t="s">
+      <c r="B516" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="C516" s="14" t="s">
+      <c r="C516" s="9" t="s">
         <v>1712</v>
       </c>
       <c r="D516" s="18"/>
@@ -24747,13 +24774,13 @@
       <c r="X516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="14" t="s">
+      <c r="A517" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="B517" s="14" t="s">
+      <c r="B517" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="C517" s="14" t="s">
+      <c r="C517" s="9" t="s">
         <v>1715</v>
       </c>
       <c r="D517" s="18"/>
@@ -24875,13 +24902,13 @@
       <c r="X520" s="18"/>
     </row>
     <row r="521">
-      <c r="A521" s="9" t="s">
+      <c r="A521" s="14" t="s">
         <v>1725</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="14" t="s">
         <v>1726</v>
       </c>
-      <c r="C521" s="9" t="s">
+      <c r="C521" s="14" t="s">
         <v>1727</v>
       </c>
       <c r="D521" s="18"/>
@@ -24971,13 +24998,13 @@
       <c r="X523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="14" t="s">
         <v>1734</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="14" t="s">
         <v>1735</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="14" t="s">
         <v>1736</v>
       </c>
       <c r="D524" s="18"/>
@@ -25163,13 +25190,13 @@
       <c r="X529" s="18"/>
     </row>
     <row r="530">
-      <c r="A530" s="14" t="s">
+      <c r="A530" s="9" t="s">
         <v>1752</v>
       </c>
-      <c r="B530" s="14" t="s">
+      <c r="B530" s="9" t="s">
         <v>1753</v>
       </c>
-      <c r="C530" s="14" t="s">
+      <c r="C530" s="9" t="s">
         <v>1754</v>
       </c>
       <c r="D530" s="18"/>
@@ -25195,13 +25222,13 @@
       <c r="X530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="9" t="s">
         <v>1755</v>
       </c>
-      <c r="B531" s="14" t="s">
+      <c r="B531" s="9" t="s">
         <v>1756</v>
       </c>
-      <c r="C531" s="14" t="s">
+      <c r="C531" s="9" t="s">
         <v>1757</v>
       </c>
       <c r="D531" s="18"/>
@@ -25259,13 +25286,13 @@
       <c r="X532" s="18"/>
     </row>
     <row r="533">
-      <c r="A533" s="9" t="s">
+      <c r="A533" s="14" t="s">
         <v>1761</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="14" t="s">
         <v>1762</v>
       </c>
-      <c r="C533" s="9" t="s">
+      <c r="C533" s="14" t="s">
         <v>1763</v>
       </c>
       <c r="D533" s="18"/>
@@ -25291,13 +25318,13 @@
       <c r="X533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="9" t="s">
+      <c r="A534" s="14" t="s">
         <v>1764</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="14" t="s">
         <v>1765</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C534" s="14" t="s">
         <v>1766</v>
       </c>
       <c r="D534" s="18"/>
@@ -25355,13 +25382,13 @@
       <c r="X535" s="18"/>
     </row>
     <row r="536">
-      <c r="A536" s="14" t="s">
+      <c r="A536" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="B536" s="14" t="s">
+      <c r="B536" s="9" t="s">
         <v>1771</v>
       </c>
-      <c r="C536" s="14" t="s">
+      <c r="C536" s="9" t="s">
         <v>1772</v>
       </c>
       <c r="D536" s="18"/>
@@ -25451,13 +25478,13 @@
       <c r="X538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="9" t="s">
         <v>1780</v>
       </c>
-      <c r="C539" s="14" t="s">
+      <c r="C539" s="9" t="s">
         <v>1781</v>
       </c>
       <c r="D539" s="18"/>
@@ -25483,13 +25510,13 @@
       <c r="X539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="9" t="s">
+      <c r="A540" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="14" t="s">
         <v>1783</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C540" s="14" t="s">
         <v>1784</v>
       </c>
       <c r="D540" s="18"/>
@@ -25579,13 +25606,13 @@
       <c r="X542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="9" t="s">
+      <c r="A543" s="14" t="s">
         <v>1791</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="C543" s="9" t="s">
+      <c r="C543" s="14" t="s">
         <v>1793</v>
       </c>
       <c r="D543" s="18"/>
@@ -25643,13 +25670,13 @@
       <c r="X544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="9" t="s">
         <v>1797</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>1798</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="C545" s="9" t="s">
         <v>1799</v>
       </c>
       <c r="D545" s="18"/>
@@ -25707,13 +25734,13 @@
       <c r="X546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="9" t="s">
+      <c r="A547" s="14" t="s">
         <v>1803</v>
       </c>
-      <c r="B547" s="9" t="s">
+      <c r="B547" s="14" t="s">
         <v>1804</v>
       </c>
-      <c r="C547" s="9" t="s">
+      <c r="C547" s="14" t="s">
         <v>1805</v>
       </c>
       <c r="D547" s="18"/>
@@ -25739,13 +25766,13 @@
       <c r="X547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="14" t="s">
+      <c r="A548" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="B548" s="14" t="s">
+      <c r="B548" s="9" t="s">
         <v>1807</v>
       </c>
-      <c r="C548" s="14" t="s">
+      <c r="C548" s="9" t="s">
         <v>1808</v>
       </c>
       <c r="D548" s="18"/>
@@ -25867,13 +25894,13 @@
       <c r="X551" s="18"/>
     </row>
     <row r="552">
-      <c r="A552" s="9" t="s">
+      <c r="A552" s="14" t="s">
         <v>1818</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" s="14" t="s">
         <v>1819</v>
       </c>
-      <c r="C552" s="9" t="s">
+      <c r="C552" s="14" t="s">
         <v>1820</v>
       </c>
       <c r="D552" s="18"/>
@@ -25963,13 +25990,13 @@
       <c r="X554" s="18"/>
     </row>
     <row r="555">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="B555" s="14" t="s">
+      <c r="B555" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="C555" s="14" t="s">
+      <c r="C555" s="9" t="s">
         <v>1829</v>
       </c>
       <c r="D555" s="18"/>
@@ -26059,13 +26086,13 @@
       <c r="X557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="14" t="s">
+      <c r="A558" s="9" t="s">
         <v>1836</v>
       </c>
-      <c r="B558" s="14" t="s">
+      <c r="B558" s="9" t="s">
         <v>1837</v>
       </c>
-      <c r="C558" s="14" t="s">
+      <c r="C558" s="9" t="s">
         <v>1838</v>
       </c>
       <c r="D558" s="18"/>
@@ -26091,13 +26118,13 @@
       <c r="X558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="9" t="s">
+      <c r="A559" s="14" t="s">
         <v>1839</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="14" t="s">
         <v>1840</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="14" t="s">
         <v>1841</v>
       </c>
       <c r="D559" s="18"/>
@@ -26123,13 +26150,13 @@
       <c r="X559" s="18"/>
     </row>
     <row r="560">
-      <c r="A560" s="9" t="s">
+      <c r="A560" s="14" t="s">
         <v>1842</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="14" t="s">
         <v>1843</v>
       </c>
-      <c r="C560" s="9" t="s">
+      <c r="C560" s="14" t="s">
         <v>1844</v>
       </c>
       <c r="D560" s="18"/>
@@ -26219,13 +26246,13 @@
       <c r="X562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="9" t="s">
         <v>1851</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="9" t="s">
         <v>1852</v>
       </c>
-      <c r="C563" s="14" t="s">
+      <c r="C563" s="9" t="s">
         <v>1853</v>
       </c>
       <c r="D563" s="18"/>
@@ -26251,13 +26278,13 @@
       <c r="X563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="B564" s="14" t="s">
+      <c r="B564" s="9" t="s">
         <v>1855</v>
       </c>
-      <c r="C564" s="14" t="s">
+      <c r="C564" s="9" t="s">
         <v>1856</v>
       </c>
       <c r="D564" s="18"/>
@@ -26283,13 +26310,13 @@
       <c r="X564" s="18"/>
     </row>
     <row r="565">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="14" t="s">
         <v>1857</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="14" t="s">
         <v>1858</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="C565" s="14" t="s">
         <v>1859</v>
       </c>
       <c r="D565" s="18"/>
@@ -26315,13 +26342,13 @@
       <c r="X565" s="18"/>
     </row>
     <row r="566">
-      <c r="A566" s="9" t="s">
+      <c r="A566" s="14" t="s">
         <v>1860</v>
       </c>
-      <c r="B566" s="9" t="s">
+      <c r="B566" s="14" t="s">
         <v>1861</v>
       </c>
-      <c r="C566" s="9" t="s">
+      <c r="C566" s="14" t="s">
         <v>1862</v>
       </c>
       <c r="D566" s="18"/>
@@ -26539,13 +26566,13 @@
       <c r="X572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="14" t="s">
+      <c r="A573" s="9" t="s">
         <v>1881</v>
       </c>
-      <c r="B573" s="14" t="s">
+      <c r="B573" s="9" t="s">
         <v>1882</v>
       </c>
-      <c r="C573" s="14" t="s">
+      <c r="C573" s="9" t="s">
         <v>1883</v>
       </c>
       <c r="D573" s="18"/>
@@ -26571,13 +26598,13 @@
       <c r="X573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="14" t="s">
+      <c r="A574" s="9" t="s">
         <v>1884</v>
       </c>
-      <c r="B574" s="14" t="s">
+      <c r="B574" s="9" t="s">
         <v>1885</v>
       </c>
-      <c r="C574" s="14" t="s">
+      <c r="C574" s="9" t="s">
         <v>1886</v>
       </c>
       <c r="D574" s="18"/>
@@ -26603,13 +26630,13 @@
       <c r="X574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="9" t="s">
+      <c r="A575" s="14" t="s">
         <v>1887</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="14" t="s">
         <v>1888</v>
       </c>
-      <c r="C575" s="9" t="s">
+      <c r="C575" s="14" t="s">
         <v>1889</v>
       </c>
       <c r="D575" s="18"/>
@@ -26635,13 +26662,13 @@
       <c r="X575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="9" t="s">
+      <c r="A576" s="14" t="s">
         <v>1890</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="14" t="s">
         <v>1891</v>
       </c>
-      <c r="C576" s="9" t="s">
+      <c r="C576" s="14" t="s">
         <v>1892</v>
       </c>
       <c r="D576" s="18"/>
@@ -26699,13 +26726,13 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="9" t="s">
         <v>1896</v>
       </c>
-      <c r="B578" s="14" t="s">
+      <c r="B578" s="9" t="s">
         <v>1897</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C578" s="9" t="s">
         <v>1898</v>
       </c>
       <c r="D578" s="18"/>
@@ -26763,13 +26790,13 @@
       <c r="X579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="9" t="s">
+      <c r="A580" s="14" t="s">
         <v>1902</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="14" t="s">
         <v>1903</v>
       </c>
-      <c r="C580" s="9" t="s">
+      <c r="C580" s="14" t="s">
         <v>1904</v>
       </c>
       <c r="D580" s="18"/>
@@ -26795,13 +26822,13 @@
       <c r="X580" s="18"/>
     </row>
     <row r="581">
-      <c r="A581" s="14" t="s">
+      <c r="A581" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="B581" s="14" t="s">
+      <c r="B581" s="9" t="s">
         <v>1906</v>
       </c>
-      <c r="C581" s="14" t="s">
+      <c r="C581" s="9" t="s">
         <v>1907</v>
       </c>
       <c r="D581" s="18"/>
@@ -26827,13 +26854,13 @@
       <c r="X581" s="18"/>
     </row>
     <row r="582">
-      <c r="A582" s="14" t="s">
+      <c r="A582" s="9" t="s">
         <v>1908</v>
       </c>
-      <c r="B582" s="14" t="s">
+      <c r="B582" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="C582" s="14" t="s">
+      <c r="C582" s="9" t="s">
         <v>1910</v>
       </c>
       <c r="D582" s="18"/>
@@ -26923,13 +26950,13 @@
       <c r="X584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="14" t="s">
         <v>1918</v>
       </c>
-      <c r="C585" s="9" t="s">
+      <c r="C585" s="14" t="s">
         <v>1919</v>
       </c>
       <c r="D585" s="18"/>
@@ -27019,13 +27046,13 @@
       <c r="X587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="9" t="s">
+      <c r="A588" s="14" t="s">
         <v>1926</v>
       </c>
-      <c r="B588" s="9" t="s">
+      <c r="B588" s="14" t="s">
         <v>1927</v>
       </c>
-      <c r="C588" s="9" t="s">
+      <c r="C588" s="14" t="s">
         <v>1928</v>
       </c>
       <c r="D588" s="18"/>
@@ -27083,13 +27110,13 @@
       <c r="X589" s="18"/>
     </row>
     <row r="590">
-      <c r="A590" s="14" t="s">
+      <c r="A590" s="9" t="s">
         <v>1932</v>
       </c>
-      <c r="B590" s="14" t="s">
+      <c r="B590" s="9" t="s">
         <v>1933</v>
       </c>
-      <c r="C590" s="14" t="s">
+      <c r="C590" s="9" t="s">
         <v>1934</v>
       </c>
       <c r="D590" s="18"/>
@@ -27115,13 +27142,13 @@
       <c r="X590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="14" t="s">
+      <c r="A591" s="9" t="s">
         <v>1935</v>
       </c>
-      <c r="B591" s="14" t="s">
+      <c r="B591" s="9" t="s">
         <v>1936</v>
       </c>
-      <c r="C591" s="14" t="s">
+      <c r="C591" s="9" t="s">
         <v>1937</v>
       </c>
       <c r="D591" s="18"/>
@@ -27147,13 +27174,13 @@
       <c r="X591" s="18"/>
     </row>
     <row r="592">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="14" t="s">
         <v>1938</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="14" t="s">
         <v>1939</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="14" t="s">
         <v>1940</v>
       </c>
       <c r="D592" s="18"/>
@@ -27179,13 +27206,13 @@
       <c r="X592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="14" t="s">
         <v>1941</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="14" t="s">
         <v>1942</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="14" t="s">
         <v>1943</v>
       </c>
       <c r="D593" s="18"/>
@@ -27307,13 +27334,13 @@
       <c r="X596" s="18"/>
     </row>
     <row r="597">
-      <c r="A597" s="14" t="s">
+      <c r="A597" s="9" t="s">
         <v>1953</v>
       </c>
-      <c r="B597" s="14" t="s">
+      <c r="B597" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="C597" s="14" t="s">
+      <c r="C597" s="9" t="s">
         <v>1955</v>
       </c>
       <c r="D597" s="18"/>
@@ -27345,7 +27372,7 @@
       <c r="B598" s="9" t="s">
         <v>1957</v>
       </c>
-      <c r="C598" s="14" t="s">
+      <c r="C598" s="9" t="s">
         <v>1958</v>
       </c>
       <c r="D598" s="18"/>
@@ -27403,10 +27430,10 @@
       <c r="X599" s="18"/>
     </row>
     <row r="600">
-      <c r="A600" s="14" t="s">
+      <c r="A600" s="9" t="s">
         <v>1962</v>
       </c>
-      <c r="B600" s="14" t="s">
+      <c r="B600" s="9" t="s">
         <v>1963</v>
       </c>
       <c r="C600" s="14" t="s">
@@ -27435,13 +27462,13 @@
       <c r="X600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1965</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1966</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1967</v>
       </c>
       <c r="D601" s="18"/>
@@ -27499,13 +27526,13 @@
       <c r="X602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="14" t="s">
+      <c r="A603" s="9" t="s">
         <v>1971</v>
       </c>
-      <c r="B603" s="14" t="s">
+      <c r="B603" s="9" t="s">
         <v>1972</v>
       </c>
-      <c r="C603" s="14" t="s">
+      <c r="C603" s="9" t="s">
         <v>1973</v>
       </c>
       <c r="D603" s="18"/>
@@ -27563,13 +27590,13 @@
       <c r="X604" s="18"/>
     </row>
     <row r="605">
-      <c r="A605" s="9" t="s">
+      <c r="A605" s="14" t="s">
         <v>1977</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" s="14" t="s">
         <v>1978</v>
       </c>
-      <c r="C605" s="9" t="s">
+      <c r="C605" s="14" t="s">
         <v>1979</v>
       </c>
       <c r="D605" s="18"/>
@@ -27595,13 +27622,13 @@
       <c r="X605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="14" t="s">
         <v>1981</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="C606" s="14" t="s">
         <v>1982</v>
       </c>
       <c r="D606" s="18"/>
@@ -27723,13 +27750,13 @@
       <c r="X609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="20" t="s">
+      <c r="A610" s="9" t="s">
         <v>1992</v>
       </c>
-      <c r="B610" s="20" t="s">
+      <c r="B610" s="9" t="s">
         <v>1993</v>
       </c>
-      <c r="C610" s="10" t="s">
+      <c r="C610" s="9" t="s">
         <v>1994</v>
       </c>
       <c r="D610" s="18"/>
@@ -27787,13 +27814,13 @@
       <c r="X611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="14" t="s">
+      <c r="A612" s="20" t="s">
         <v>1998</v>
       </c>
-      <c r="B612" s="14" t="s">
+      <c r="B612" s="20" t="s">
         <v>1999</v>
       </c>
-      <c r="C612" s="14" t="s">
+      <c r="C612" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="D612" s="18"/>
@@ -27883,13 +27910,13 @@
       <c r="X614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="14" t="s">
+      <c r="A615" s="9" t="s">
         <v>2007</v>
       </c>
-      <c r="B615" s="14" t="s">
+      <c r="B615" s="9" t="s">
         <v>2008</v>
       </c>
-      <c r="C615" s="14" t="s">
+      <c r="C615" s="9" t="s">
         <v>2009</v>
       </c>
       <c r="D615" s="18"/>
@@ -27947,13 +27974,13 @@
       <c r="X616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="s">
+      <c r="A617" s="14" t="s">
         <v>2013</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="14" t="s">
         <v>2014</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="14" t="s">
         <v>2015</v>
       </c>
       <c r="D617" s="18"/>
@@ -28045,13 +28072,13 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="9" t="s">
+      <c r="A624" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="14" t="s">
         <v>2035</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="C624" s="14" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -28067,24 +28094,24 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="14" t="s">
+      <c r="A626" s="9" t="s">
         <v>2040</v>
       </c>
-      <c r="B626" s="14" t="s">
+      <c r="B626" s="9" t="s">
         <v>2041</v>
       </c>
-      <c r="C626" s="14" t="s">
+      <c r="C626" s="9" t="s">
         <v>2042</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="14" t="s">
+      <c r="A627" s="9" t="s">
         <v>2043</v>
       </c>
-      <c r="B627" s="14" t="s">
+      <c r="B627" s="9" t="s">
         <v>2044</v>
       </c>
-      <c r="C627" s="14" t="s">
+      <c r="C627" s="9" t="s">
         <v>2045</v>
       </c>
     </row>
@@ -28100,24 +28127,24 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="9" t="s">
+      <c r="A629" s="14" t="s">
         <v>2049</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="14" t="s">
         <v>2050</v>
       </c>
-      <c r="C629" s="9" t="s">
+      <c r="C629" s="14" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="9" t="s">
+      <c r="A630" s="14" t="s">
         <v>2052</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="14" t="s">
         <v>2053</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C630" s="14" t="s">
         <v>2054</v>
       </c>
     </row>
@@ -28125,7 +28152,7 @@
       <c r="A631" s="9" t="s">
         <v>2055</v>
       </c>
-      <c r="B631" s="14" t="s">
+      <c r="B631" s="9" t="s">
         <v>2056</v>
       </c>
       <c r="C631" s="9" t="s">
@@ -28133,46 +28160,46 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="14" t="s">
+      <c r="A632" s="9" t="s">
         <v>2058</v>
       </c>
-      <c r="B632" s="14" t="s">
+      <c r="B632" s="9" t="s">
         <v>2059</v>
       </c>
-      <c r="C632" s="14" t="s">
+      <c r="C632" s="9" t="s">
         <v>2060</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="14" t="s">
+      <c r="A633" s="9" t="s">
         <v>2061</v>
       </c>
       <c r="B633" s="14" t="s">
         <v>2062</v>
       </c>
-      <c r="C633" s="14" t="s">
+      <c r="C633" s="9" t="s">
         <v>2063</v>
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="9" t="s">
+      <c r="A634" s="14" t="s">
         <v>2064</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="14" t="s">
         <v>2065</v>
       </c>
-      <c r="C634" s="9" t="s">
+      <c r="C634" s="14" t="s">
         <v>2066</v>
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="9" t="s">
+      <c r="A635" s="14" t="s">
         <v>2067</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" s="14" t="s">
         <v>2068</v>
       </c>
-      <c r="C635" s="9" t="s">
+      <c r="C635" s="14" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -28199,10 +28226,10 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="20" t="s">
+      <c r="A638" s="9" t="s">
         <v>2076</v>
       </c>
-      <c r="B638" s="20" t="s">
+      <c r="B638" s="9" t="s">
         <v>2077</v>
       </c>
       <c r="C638" s="9" t="s">
@@ -28221,10 +28248,10 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="9" t="s">
+      <c r="A640" s="20" t="s">
         <v>2082</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="20" t="s">
         <v>2083</v>
       </c>
       <c r="C640" s="9" t="s">
@@ -28254,24 +28281,24 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="14" t="s">
+      <c r="A643" s="9" t="s">
         <v>2091</v>
       </c>
-      <c r="B643" s="14" t="s">
+      <c r="B643" s="9" t="s">
         <v>2092</v>
       </c>
-      <c r="C643" s="14" t="s">
+      <c r="C643" s="9" t="s">
         <v>2093</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="14" t="s">
+      <c r="A644" s="9" t="s">
         <v>2094</v>
       </c>
-      <c r="B644" s="14" t="s">
+      <c r="B644" s="9" t="s">
         <v>2095</v>
       </c>
-      <c r="C644" s="14" t="s">
+      <c r="C644" s="9" t="s">
         <v>2096</v>
       </c>
     </row>
@@ -28287,13 +28314,13 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2100</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2101</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2102</v>
       </c>
     </row>
@@ -28320,13 +28347,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="9" t="s">
+      <c r="A649" s="14" t="s">
         <v>2109</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="14" t="s">
         <v>2110</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="14" t="s">
         <v>2111</v>
       </c>
     </row>
@@ -28342,13 +28369,13 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="14" t="s">
+      <c r="A651" s="9" t="s">
         <v>2115</v>
       </c>
-      <c r="B651" s="14" t="s">
+      <c r="B651" s="9" t="s">
         <v>2116</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C651" s="9" t="s">
         <v>2117</v>
       </c>
     </row>
@@ -28430,13 +28457,13 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="9" t="s">
+      <c r="A659" s="14" t="s">
         <v>2139</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="14" t="s">
         <v>2140</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="14" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -28452,13 +28479,13 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="14" t="s">
+      <c r="A661" s="9" t="s">
         <v>2145</v>
       </c>
-      <c r="B661" s="14" t="s">
+      <c r="B661" s="9" t="s">
         <v>2146</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C661" s="9" t="s">
         <v>2147</v>
       </c>
     </row>
@@ -28485,24 +28512,24 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="14" t="s">
+      <c r="A664" s="9" t="s">
         <v>2154</v>
       </c>
-      <c r="B664" s="14" t="s">
+      <c r="B664" s="9" t="s">
         <v>2155</v>
       </c>
-      <c r="C664" s="14" t="s">
+      <c r="C664" s="9" t="s">
         <v>2156</v>
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="9" t="s">
+      <c r="A665" s="14" t="s">
         <v>2157</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="14" t="s">
         <v>2158</v>
       </c>
-      <c r="C665" s="9" t="s">
+      <c r="C665" s="14" t="s">
         <v>2159</v>
       </c>
     </row>
@@ -28518,35 +28545,35 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="14" t="s">
+      <c r="A667" s="9" t="s">
         <v>2163</v>
       </c>
-      <c r="B667" s="14" t="s">
+      <c r="B667" s="9" t="s">
         <v>2164</v>
       </c>
-      <c r="C667" s="14" t="s">
+      <c r="C667" s="9" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="9" t="s">
+      <c r="A668" s="14" t="s">
         <v>2166</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="14" t="s">
         <v>2167</v>
       </c>
-      <c r="C668" s="9" t="s">
+      <c r="C668" s="14" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="14" t="s">
         <v>2169</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="14" t="s">
         <v>2170</v>
       </c>
-      <c r="C669" s="9" t="s">
+      <c r="C669" s="14" t="s">
         <v>2171</v>
       </c>
     </row>
@@ -28595,24 +28622,24 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="14" t="s">
+      <c r="A674" s="9" t="s">
         <v>2184</v>
       </c>
-      <c r="B674" s="14" t="s">
+      <c r="B674" s="9" t="s">
         <v>2185</v>
       </c>
-      <c r="C674" s="14" t="s">
+      <c r="C674" s="9" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="14" t="s">
+      <c r="A675" s="9" t="s">
         <v>2187</v>
       </c>
-      <c r="B675" s="14" t="s">
+      <c r="B675" s="9" t="s">
         <v>2188</v>
       </c>
-      <c r="C675" s="14" t="s">
+      <c r="C675" s="9" t="s">
         <v>2189</v>
       </c>
     </row>
@@ -28628,24 +28655,24 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="9" t="s">
+      <c r="A677" s="14" t="s">
         <v>2193</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="14" t="s">
         <v>2194</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="14" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="14" t="s">
         <v>2196</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="14" t="s">
         <v>2197</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="14" t="s">
         <v>2198</v>
       </c>
     </row>
@@ -28672,13 +28699,13 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="14" t="s">
+      <c r="A681" s="9" t="s">
         <v>2205</v>
       </c>
-      <c r="B681" s="14" t="s">
+      <c r="B681" s="9" t="s">
         <v>2206</v>
       </c>
-      <c r="C681" s="14" t="s">
+      <c r="C681" s="9" t="s">
         <v>2207</v>
       </c>
     </row>
@@ -28694,13 +28721,13 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2212</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2213</v>
       </c>
     </row>
@@ -28716,13 +28743,13 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="14" t="s">
+      <c r="A685" s="9" t="s">
         <v>2217</v>
       </c>
-      <c r="B685" s="14" t="s">
+      <c r="B685" s="9" t="s">
         <v>2218</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="9" t="s">
         <v>2219</v>
       </c>
     </row>
@@ -28738,24 +28765,24 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="9" t="s">
+      <c r="A687" s="14" t="s">
         <v>2223</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="14" t="s">
         <v>2224</v>
       </c>
-      <c r="C687" s="9" t="s">
+      <c r="C687" s="14" t="s">
         <v>2225</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="9" t="s">
         <v>2226</v>
       </c>
-      <c r="B688" s="14" t="s">
+      <c r="B688" s="9" t="s">
         <v>2227</v>
       </c>
-      <c r="C688" s="14" t="s">
+      <c r="C688" s="9" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -28771,13 +28798,13 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="9" t="s">
+      <c r="A690" s="14" t="s">
         <v>2232</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="14" t="s">
         <v>2233</v>
       </c>
-      <c r="C690" s="9" t="s">
+      <c r="C690" s="14" t="s">
         <v>2234</v>
       </c>
     </row>
@@ -28793,24 +28820,24 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2238</v>
       </c>
-      <c r="B692" s="14" t="s">
+      <c r="B692" s="9" t="s">
         <v>2239</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2240</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="14" t="s">
+      <c r="A693" s="9" t="s">
         <v>2241</v>
       </c>
-      <c r="B693" s="14" t="s">
+      <c r="B693" s="9" t="s">
         <v>2242</v>
       </c>
-      <c r="C693" s="14" t="s">
+      <c r="C693" s="9" t="s">
         <v>2243</v>
       </c>
     </row>
@@ -28826,24 +28853,24 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="9" t="s">
+      <c r="A695" s="14" t="s">
         <v>2247</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="14" t="s">
         <v>2248</v>
       </c>
-      <c r="C695" s="9" t="s">
+      <c r="C695" s="14" t="s">
         <v>2249</v>
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="14" t="s">
         <v>2251</v>
       </c>
-      <c r="C696" s="9" t="s">
+      <c r="C696" s="14" t="s">
         <v>2252</v>
       </c>
     </row>
@@ -28859,24 +28886,24 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="14" t="s">
+      <c r="A698" s="9" t="s">
         <v>2256</v>
       </c>
-      <c r="B698" s="14" t="s">
+      <c r="B698" s="9" t="s">
         <v>2257</v>
       </c>
-      <c r="C698" s="14" t="s">
+      <c r="C698" s="9" t="s">
         <v>2258</v>
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="14" t="s">
+      <c r="A699" s="9" t="s">
         <v>2259</v>
       </c>
-      <c r="B699" s="14" t="s">
+      <c r="B699" s="9" t="s">
         <v>2260</v>
       </c>
-      <c r="C699" s="14" t="s">
+      <c r="C699" s="9" t="s">
         <v>2261</v>
       </c>
     </row>
@@ -28892,10 +28919,10 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="9" t="s">
+      <c r="A701" s="14" t="s">
         <v>2265</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="14" t="s">
         <v>2266</v>
       </c>
       <c r="C701" s="14" t="s">
@@ -28903,21 +28930,21 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="9" t="s">
+      <c r="A702" s="14" t="s">
         <v>2268</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="14" t="s">
         <v>2269</v>
       </c>
-      <c r="C702" s="9" t="s">
+      <c r="C702" s="14" t="s">
         <v>2270</v>
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="14" t="s">
+      <c r="A703" s="9" t="s">
         <v>2271</v>
       </c>
-      <c r="B703" s="14" t="s">
+      <c r="B703" s="9" t="s">
         <v>2272</v>
       </c>
       <c r="C703" s="14" t="s">
@@ -28925,10 +28952,10 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="14" t="s">
+      <c r="A704" s="9" t="s">
         <v>2274</v>
       </c>
-      <c r="B704" s="14" t="s">
+      <c r="B704" s="9" t="s">
         <v>2275</v>
       </c>
       <c r="C704" s="9" t="s">
@@ -28942,7 +28969,7 @@
       <c r="B705" s="14" t="s">
         <v>2278</v>
       </c>
-      <c r="C705" s="9" t="s">
+      <c r="C705" s="14" t="s">
         <v>2279</v>
       </c>
     </row>
@@ -28953,15 +28980,15 @@
       <c r="B706" s="14" t="s">
         <v>2281</v>
       </c>
-      <c r="C706" s="14" t="s">
+      <c r="C706" s="9" t="s">
         <v>2282</v>
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="9" t="s">
+      <c r="A707" s="14" t="s">
         <v>2283</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="14" t="s">
         <v>2284</v>
       </c>
       <c r="C707" s="9" t="s">
@@ -28969,13 +28996,13 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="9" t="s">
+      <c r="A708" s="14" t="s">
         <v>2286</v>
       </c>
       <c r="B708" s="14" t="s">
         <v>2287</v>
       </c>
-      <c r="C708" s="9" t="s">
+      <c r="C708" s="14" t="s">
         <v>2288</v>
       </c>
     </row>
@@ -28994,7 +29021,7 @@
       <c r="A710" s="9" t="s">
         <v>2292</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="14" t="s">
         <v>2293</v>
       </c>
       <c r="C710" s="9" t="s">
@@ -29019,18 +29046,18 @@
       <c r="B712" s="9" t="s">
         <v>2299</v>
       </c>
-      <c r="C712" s="14" t="s">
+      <c r="C712" s="9" t="s">
         <v>2300</v>
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="14" t="s">
+      <c r="A713" s="9" t="s">
         <v>2301</v>
       </c>
-      <c r="B713" s="14" t="s">
+      <c r="B713" s="9" t="s">
         <v>2302</v>
       </c>
-      <c r="C713" s="14" t="s">
+      <c r="C713" s="9" t="s">
         <v>2303</v>
       </c>
     </row>
@@ -29041,7 +29068,7 @@
       <c r="B714" s="9" t="s">
         <v>2305</v>
       </c>
-      <c r="C714" s="9" t="s">
+      <c r="C714" s="14" t="s">
         <v>2306</v>
       </c>
     </row>
@@ -29063,7 +29090,7 @@
       <c r="B716" s="9" t="s">
         <v>2311</v>
       </c>
-      <c r="C716" s="14" t="s">
+      <c r="C716" s="9" t="s">
         <v>2312</v>
       </c>
     </row>
@@ -29074,7 +29101,7 @@
       <c r="B717" s="14" t="s">
         <v>2314</v>
       </c>
-      <c r="C717" s="9" t="s">
+      <c r="C717" s="14" t="s">
         <v>2315</v>
       </c>
     </row>
@@ -29083,29 +29110,29 @@
         <v>2316</v>
       </c>
       <c r="B718" s="9" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C718" s="9" t="s">
         <v>2317</v>
       </c>
+      <c r="C718" s="14" t="s">
+        <v>2318</v>
+      </c>
     </row>
     <row r="719">
-      <c r="A719" s="9" t="s">
-        <v>2318</v>
-      </c>
-      <c r="B719" s="9" t="s">
+      <c r="A719" s="14" t="s">
         <v>2319</v>
       </c>
+      <c r="B719" s="14" t="s">
+        <v>2320</v>
+      </c>
       <c r="C719" s="9" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="9" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>2322</v>
+        <v>2191</v>
       </c>
       <c r="C720" s="9" t="s">
         <v>2323</v>
@@ -29129,29 +29156,29 @@
       <c r="B722" s="9" t="s">
         <v>2328</v>
       </c>
-      <c r="C722" s="14" t="s">
+      <c r="C722" s="9" t="s">
         <v>2329</v>
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="14" t="s">
+      <c r="A723" s="9" t="s">
         <v>2330</v>
       </c>
-      <c r="B723" s="14" t="s">
+      <c r="B723" s="9" t="s">
         <v>2331</v>
       </c>
-      <c r="C723" s="14" t="s">
+      <c r="C723" s="9" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="14" t="s">
+      <c r="A724" s="9" t="s">
         <v>2333</v>
       </c>
       <c r="B724" s="9" t="s">
         <v>2334</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29162,12 +29189,12 @@
       <c r="B725" s="14" t="s">
         <v>2337</v>
       </c>
-      <c r="C725" s="9" t="s">
+      <c r="C725" s="14" t="s">
         <v>2338</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="9" t="s">
+      <c r="A726" s="14" t="s">
         <v>2339</v>
       </c>
       <c r="B726" s="9" t="s">
@@ -29178,13 +29205,13 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="9" t="s">
+      <c r="A727" s="14" t="s">
         <v>2342</v>
       </c>
-      <c r="B727" s="9" t="s">
+      <c r="B727" s="14" t="s">
         <v>2343</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C727" s="9" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -29200,10 +29227,10 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="14" t="s">
+      <c r="A729" s="9" t="s">
         <v>2348</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="9" t="s">
         <v>2349</v>
       </c>
       <c r="C729" s="14" t="s">
@@ -29222,21 +29249,21 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="9" t="s">
+      <c r="A731" s="14" t="s">
         <v>2354</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="14" t="s">
         <v>2355</v>
       </c>
-      <c r="C731" s="9" t="s">
+      <c r="C731" s="14" t="s">
         <v>2356</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="14" t="s">
+      <c r="A732" s="9" t="s">
         <v>2357</v>
       </c>
-      <c r="B732" s="14" t="s">
+      <c r="B732" s="9" t="s">
         <v>2358</v>
       </c>
       <c r="C732" s="9" t="s">
@@ -29255,10 +29282,10 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="9" t="s">
+      <c r="A734" s="14" t="s">
         <v>2363</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="14" t="s">
         <v>2364</v>
       </c>
       <c r="C734" s="9" t="s">
@@ -29277,13 +29304,13 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="14" t="s">
+      <c r="A736" s="9" t="s">
         <v>2369</v>
       </c>
-      <c r="B736" s="14" t="s">
+      <c r="B736" s="9" t="s">
         <v>2370</v>
       </c>
-      <c r="C736" s="14" t="s">
+      <c r="C736" s="9" t="s">
         <v>2371</v>
       </c>
     </row>
@@ -29316,15 +29343,15 @@
       <c r="B739" s="9" t="s">
         <v>2379</v>
       </c>
-      <c r="C739" s="14" t="s">
+      <c r="C739" s="9" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="9" t="s">
+      <c r="A740" s="14" t="s">
         <v>2381</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="14" t="s">
         <v>2382</v>
       </c>
       <c r="C740" s="14" t="s">
@@ -29332,21 +29359,21 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="14" t="s">
+      <c r="A741" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="14" t="s">
+      <c r="B741" s="9" t="s">
         <v>2385</v>
       </c>
-      <c r="C741" s="9" t="s">
+      <c r="C741" s="14" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="14" t="s">
+      <c r="A742" s="9" t="s">
         <v>2387</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2388</v>
       </c>
       <c r="C742" s="14" t="s">
@@ -29354,10 +29381,10 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="9" t="s">
+      <c r="A743" s="14" t="s">
         <v>2390</v>
       </c>
-      <c r="B743" s="9" t="s">
+      <c r="B743" s="14" t="s">
         <v>2391</v>
       </c>
       <c r="C743" s="9" t="s">
@@ -29376,13 +29403,13 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="14" t="s">
+      <c r="A745" s="9" t="s">
         <v>2396</v>
       </c>
-      <c r="B745" s="14" t="s">
+      <c r="B745" s="9" t="s">
         <v>2397</v>
       </c>
-      <c r="C745" s="14" t="s">
+      <c r="C745" s="9" t="s">
         <v>2398</v>
       </c>
     </row>
@@ -29426,7 +29453,7 @@
       <c r="B749" s="14" t="s">
         <v>2409</v>
       </c>
-      <c r="C749" s="9" t="s">
+      <c r="C749" s="14" t="s">
         <v>2410</v>
       </c>
     </row>
@@ -29434,10 +29461,10 @@
       <c r="A750" s="14" t="s">
         <v>2411</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="14" t="s">
         <v>2412</v>
       </c>
-      <c r="C750" s="9" t="s">
+      <c r="C750" s="14" t="s">
         <v>2413</v>
       </c>
     </row>
@@ -29453,21 +29480,21 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="9" t="s">
+      <c r="A752" s="14" t="s">
         <v>2417</v>
       </c>
       <c r="B752" s="9" t="s">
         <v>2418</v>
       </c>
-      <c r="C752" s="14" t="s">
+      <c r="C752" s="9" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="9" t="s">
+      <c r="A753" s="14" t="s">
         <v>2420</v>
       </c>
-      <c r="B753" s="9" t="s">
+      <c r="B753" s="14" t="s">
         <v>2421</v>
       </c>
       <c r="C753" s="9" t="s">
@@ -29475,10 +29502,10 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="14" t="s">
+      <c r="A754" s="9" t="s">
         <v>2423</v>
       </c>
-      <c r="B754" s="14" t="s">
+      <c r="B754" s="9" t="s">
         <v>2424</v>
       </c>
       <c r="C754" s="14" t="s">
@@ -29492,7 +29519,7 @@
       <c r="B755" s="9" t="s">
         <v>2427</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2428</v>
       </c>
     </row>
@@ -29503,15 +29530,15 @@
       <c r="B756" s="14" t="s">
         <v>2430</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2431</v>
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="14" t="s">
+      <c r="A757" s="9" t="s">
         <v>2432</v>
       </c>
-      <c r="B757" s="14" t="s">
+      <c r="B757" s="9" t="s">
         <v>2433</v>
       </c>
       <c r="C757" s="14" t="s">
@@ -29519,10 +29546,10 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="14" t="s">
         <v>2435</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="14" t="s">
         <v>2436</v>
       </c>
       <c r="C758" s="9" t="s">
@@ -29536,7 +29563,7 @@
       <c r="B759" s="14" t="s">
         <v>2439</v>
       </c>
-      <c r="C759" s="9" t="s">
+      <c r="C759" s="14" t="s">
         <v>2440</v>
       </c>
     </row>
@@ -29552,10 +29579,10 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="9" t="s">
+      <c r="A761" s="14" t="s">
         <v>2444</v>
       </c>
-      <c r="B761" s="9" t="s">
+      <c r="B761" s="14" t="s">
         <v>2445</v>
       </c>
       <c r="C761" s="9" t="s">
@@ -29569,7 +29596,7 @@
       <c r="B762" s="9" t="s">
         <v>2448</v>
       </c>
-      <c r="C762" s="14" t="s">
+      <c r="C762" s="9" t="s">
         <v>2449</v>
       </c>
     </row>
@@ -29591,7 +29618,7 @@
       <c r="B764" s="9" t="s">
         <v>2454</v>
       </c>
-      <c r="C764" s="9" t="s">
+      <c r="C764" s="14" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -29602,59 +29629,59 @@
       <c r="B765" s="9" t="s">
         <v>2457</v>
       </c>
-      <c r="C765" s="14" t="s">
+      <c r="C765" s="9" t="s">
         <v>2458</v>
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="14" t="s">
+      <c r="A766" s="9" t="s">
         <v>2459</v>
       </c>
-      <c r="B766" s="14" t="s">
+      <c r="B766" s="9" t="s">
         <v>2460</v>
       </c>
-      <c r="C766" s="14" t="s">
+      <c r="C766" s="9" t="s">
         <v>2461</v>
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="14" t="s">
+      <c r="A767" s="9" t="s">
         <v>2462</v>
       </c>
-      <c r="B767" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C767" s="9" t="s">
+      <c r="B767" s="9" t="s">
         <v>2463</v>
+      </c>
+      <c r="C767" s="14" t="s">
+        <v>2464</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="14" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B768" s="14" t="s">
-        <v>2465</v>
-      </c>
-      <c r="C768" s="9" t="s">
         <v>2466</v>
       </c>
+      <c r="C768" s="14" t="s">
+        <v>2467</v>
+      </c>
     </row>
     <row r="769">
-      <c r="A769" s="9" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B769" s="9" t="s">
+      <c r="A769" s="14" t="s">
         <v>2468</v>
       </c>
-      <c r="C769" s="14" t="s">
+      <c r="B769" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="C769" s="9" t="s">
         <v>2469</v>
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="9" t="s">
+      <c r="A770" s="14" t="s">
         <v>2470</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="14" t="s">
         <v>2471</v>
       </c>
       <c r="C770" s="9" t="s">
@@ -29662,10 +29689,10 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="14" t="s">
+      <c r="A771" s="9" t="s">
         <v>2473</v>
       </c>
-      <c r="B771" s="14" t="s">
+      <c r="B771" s="9" t="s">
         <v>2474</v>
       </c>
       <c r="C771" s="14" t="s">
@@ -29679,7 +29706,7 @@
       <c r="B772" s="9" t="s">
         <v>2477</v>
       </c>
-      <c r="C772" s="14" t="s">
+      <c r="C772" s="9" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -29695,10 +29722,10 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="14" t="s">
+      <c r="A774" s="9" t="s">
         <v>2482</v>
       </c>
-      <c r="B774" s="14" t="s">
+      <c r="B774" s="9" t="s">
         <v>2483</v>
       </c>
       <c r="C774" s="14" t="s">
@@ -29706,16 +29733,31 @@
       </c>
     </row>
     <row r="775">
-      <c r="B775" s="22"/>
-      <c r="C775" s="22"/>
+      <c r="A775" s="14" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B775" s="14" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C775" s="14" t="s">
+        <v>2487</v>
+      </c>
     </row>
     <row r="776">
-      <c r="B776" s="22"/>
-      <c r="C776" s="22"/>
+      <c r="A776" s="14" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B776" s="14" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C776" s="14" t="s">
+        <v>2490</v>
+      </c>
     </row>
     <row r="777">
-      <c r="B777" s="22"/>
-      <c r="C777" s="22"/>
+      <c r="A777" s="14"/>
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
     </row>
     <row r="778">
       <c r="B778" s="22"/>
@@ -30618,10 +30660,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$774">
-    <sortState ref="A1:C774">
-      <sortCondition ref="A1:A774"/>
-      <sortCondition ref="B1:B774"/>
+  <autoFilter ref="$A$1:$C$777">
+    <sortState ref="A1:C777">
+      <sortCondition ref="A1:A777"/>
+      <sortCondition ref="B1:B777"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$806</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$807</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="2580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="2583">
   <si>
     <t>Word</t>
   </si>
@@ -294,7 +294,7 @@
     <t>anglothite</t>
   </si>
   <si>
-    <t>англокисх</t>
+    <t>англокиш</t>
   </si>
   <si>
     <t>past tense (-lo, -cho)</t>
@@ -432,7 +432,7 @@
     <t>grandmother, grandma</t>
   </si>
   <si>
-    <t>бабусхка</t>
+    <t>бабушка</t>
   </si>
   <si>
     <t>more (mot)</t>
@@ -687,7 +687,7 @@
     <t>to sneak, to creep, to lurk</t>
   </si>
   <si>
-    <t>босхят</t>
+    <t>бошят</t>
   </si>
   <si>
     <t>D</t>
@@ -846,7 +846,7 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>брэлсхэвэя</t>
+    <t>брэлшэвэя</t>
   </si>
   <si>
     <t>L</t>
@@ -882,7 +882,7 @@
     <t>to smile, to grin</t>
   </si>
   <si>
-    <t>брэсхя</t>
+    <t>брэшя</t>
   </si>
   <si>
     <t>N</t>
@@ -1017,7 +1017,7 @@
     <t>future</t>
   </si>
   <si>
-    <t>будусхчэе</t>
+    <t>будушчэе</t>
   </si>
   <si>
     <t>V</t>
@@ -1308,7 +1308,7 @@
     <t>spear</t>
   </si>
   <si>
-    <t>дасха</t>
+    <t>даша</t>
   </si>
   <si>
     <t>dasko</t>
@@ -1344,7 +1344,7 @@
     <t>grandfather, grandpa</t>
   </si>
   <si>
-    <t>дэдусхка</t>
+    <t>дэдушка</t>
   </si>
   <si>
     <t>defitsniy</t>
@@ -1374,6 +1374,24 @@
     <t>дэргацят</t>
   </si>
   <si>
+    <t>desya</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>дэся</t>
+  </si>
+  <si>
+    <t>desyararl</t>
+  </si>
+  <si>
+    <t>decade, 10 years</t>
+  </si>
+  <si>
+    <t>дэсярарл</t>
+  </si>
+  <si>
     <t>digatsya</t>
   </si>
   <si>
@@ -1398,7 +1416,7 @@
     <t>distinite</t>
   </si>
   <si>
-    <t>дистинкисх</t>
+    <t>дистинкиш</t>
   </si>
   <si>
     <t>dob</t>
@@ -1686,7 +1704,7 @@
     <t>shield</t>
   </si>
   <si>
-    <t>эйсхтэм</t>
+    <t>эйштэм</t>
   </si>
   <si>
     <t>farsk</t>
@@ -1767,7 +1785,7 @@
     <t>to feel, to touch</t>
   </si>
   <si>
-    <t>фйсхат</t>
+    <t>фйшат</t>
   </si>
   <si>
     <t>foden</t>
@@ -1830,7 +1848,7 @@
     <t>to warp</t>
   </si>
   <si>
-    <t>форокосхят</t>
+    <t>форокошят</t>
   </si>
   <si>
     <t>foron</t>
@@ -1866,7 +1884,7 @@
     <t>to kick</t>
   </si>
   <si>
-    <t>фрэйсхят</t>
+    <t>фрэйшят</t>
   </si>
   <si>
     <t>furkeyl</t>
@@ -1929,7 +1947,7 @@
     <t>peace, quiet, still, calm</t>
   </si>
   <si>
-    <t>фесха</t>
+    <t>феша</t>
   </si>
   <si>
     <t>fyetsat</t>
@@ -2379,7 +2397,7 @@
     <t>safe, secure, okay</t>
   </si>
   <si>
-    <t>хоросхо</t>
+    <t>хорошо</t>
   </si>
   <si>
     <t>hoska</t>
@@ -2505,7 +2523,7 @@
     <t>anti, against</t>
   </si>
   <si>
-    <t>исхав</t>
+    <t>ишав</t>
   </si>
   <si>
     <t>isheym</t>
@@ -2514,7 +2532,7 @@
     <t>mean, meaning of</t>
   </si>
   <si>
-    <t>исхэйм</t>
+    <t>ишэйм</t>
   </si>
   <si>
     <t>isik</t>
@@ -2829,7 +2847,7 @@
     <t>quastarine</t>
   </si>
   <si>
-    <t>кастаркисх</t>
+    <t>кастаркиш</t>
   </si>
   <si>
     <t>katalizator</t>
@@ -2928,7 +2946,7 @@
     <t>solar system</t>
   </si>
   <si>
-    <t>кхадиятй</t>
+    <t>кшадиятй</t>
   </si>
   <si>
     <t>khamiymashka</t>
@@ -2937,7 +2955,7 @@
     <t>detector</t>
   </si>
   <si>
-    <t>кхамймасхка</t>
+    <t>кшамймашка</t>
   </si>
   <si>
     <t>khamojan</t>
@@ -2946,7 +2964,7 @@
     <t>purpose, usage, use</t>
   </si>
   <si>
-    <t>кхаможан</t>
+    <t>кшаможан</t>
   </si>
   <si>
     <t>khamyat</t>
@@ -2955,7 +2973,7 @@
     <t>to detect</t>
   </si>
   <si>
-    <t>кхамят</t>
+    <t>кшамят</t>
   </si>
   <si>
     <t>khan</t>
@@ -2964,7 +2982,7 @@
     <t>student, apprentice, learner</t>
   </si>
   <si>
-    <t>кхан</t>
+    <t>кшан</t>
   </si>
   <si>
     <t>khaviko</t>
@@ -2973,7 +2991,7 @@
     <t>empire, nation, country</t>
   </si>
   <si>
-    <t>кхавико</t>
+    <t>кшавико</t>
   </si>
   <si>
     <t>khnaba</t>
@@ -2982,7 +3000,7 @@
     <t>sandwich, burger</t>
   </si>
   <si>
-    <t>кхнаба</t>
+    <t>кшнаба</t>
   </si>
   <si>
     <t>khnabsi</t>
@@ -2991,7 +3009,7 @@
     <t>bread</t>
   </si>
   <si>
-    <t>кхнабси</t>
+    <t>кшнабси</t>
   </si>
   <si>
     <t>khneskiya</t>
@@ -3000,7 +3018,7 @@
     <t>mission, quest, assignment, job</t>
   </si>
   <si>
-    <t>кхнэския</t>
+    <t>кшнэския</t>
   </si>
   <si>
     <t>khnolot</t>
@@ -3009,7 +3027,7 @@
     <t>cold</t>
   </si>
   <si>
-    <t>кхнолот</t>
+    <t>кшнолот</t>
   </si>
   <si>
     <t>khnomo</t>
@@ -3018,7 +3036,7 @@
     <t>evil, dark, grim</t>
   </si>
   <si>
-    <t>кхномо</t>
+    <t>кшномо</t>
   </si>
   <si>
     <t>khnorota</t>
@@ -3027,7 +3045,7 @@
     <t>corporation, company</t>
   </si>
   <si>
-    <t>кхнорота</t>
+    <t>кшнорота</t>
   </si>
   <si>
     <t>khnula</t>
@@ -3036,7 +3054,7 @@
     <t>mud, dirt, grime, slop</t>
   </si>
   <si>
-    <t>кхнула</t>
+    <t>кшнула</t>
   </si>
   <si>
     <t>khnulavat</t>
@@ -3045,7 +3063,7 @@
     <t>to defile, to make dirty, to violate</t>
   </si>
   <si>
-    <t>кхнулават</t>
+    <t>кшнулават</t>
   </si>
   <si>
     <t>khochya</t>
@@ -3054,7 +3072,7 @@
     <t>to destroy, to crumble</t>
   </si>
   <si>
-    <t>кхочя</t>
+    <t>кшочя</t>
   </si>
   <si>
     <t>khomit</t>
@@ -3063,7 +3081,7 @@
     <t>to use</t>
   </si>
   <si>
-    <t>кхомит</t>
+    <t>кшомит</t>
   </si>
   <si>
     <t>khtiysni</t>
@@ -3072,7 +3090,7 @@
     <t>penis, male reproductive organs</t>
   </si>
   <si>
-    <t>кхтйсни</t>
+    <t>кштйсни</t>
   </si>
   <si>
     <t>kishem</t>
@@ -3081,7 +3099,7 @@
     <t>crystal, gem</t>
   </si>
   <si>
-    <t>кисхэм</t>
+    <t>кишэм</t>
   </si>
   <si>
     <t>kiyna</t>
@@ -3243,7 +3261,7 @@
     <t>lightning</t>
   </si>
   <si>
-    <t>колосхэм</t>
+    <t>колошэм</t>
   </si>
   <si>
     <t>komiy</t>
@@ -3312,7 +3330,7 @@
     <t>horse</t>
   </si>
   <si>
-    <t>косхан</t>
+    <t>кошан</t>
   </si>
   <si>
     <t>koshana</t>
@@ -3321,7 +3339,7 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>косхана</t>
+    <t>кошана</t>
   </si>
   <si>
     <t>koslama</t>
@@ -3393,6 +3411,15 @@
     <t>крэлица</t>
   </si>
   <si>
+    <t>krepkiy</t>
+  </si>
+  <si>
+    <t>sturdy, strong</t>
+  </si>
+  <si>
+    <t>крэпкй</t>
+  </si>
+  <si>
     <t>kvartira</t>
   </si>
   <si>
@@ -3903,7 +3930,7 @@
     <t>machine</t>
   </si>
   <si>
-    <t>масхканйн</t>
+    <t>машканйн</t>
   </si>
   <si>
     <t>mejeli</t>
@@ -4011,7 +4038,7 @@
     <t>to appear</t>
   </si>
   <si>
-    <t>мисханя</t>
+    <t>мишаня</t>
   </si>
   <si>
     <t>miy</t>
@@ -4092,7 +4119,7 @@
     <t>camera</t>
   </si>
   <si>
-    <t>монмасхка</t>
+    <t>монмашка</t>
   </si>
   <si>
     <t>monot</t>
@@ -4275,7 +4302,7 @@
     <t>to protect, to defend</t>
   </si>
   <si>
-    <t>начэсхнат</t>
+    <t>начэшнат</t>
   </si>
   <si>
     <t>nachkol</t>
@@ -4320,7 +4347,7 @@
     <t>nalastite</t>
   </si>
   <si>
-    <t>налакисх</t>
+    <t>налакиш</t>
   </si>
   <si>
     <t>nalon</t>
@@ -4365,7 +4392,7 @@
     <t>cloth</t>
   </si>
   <si>
-    <t>насхэта</t>
+    <t>нашэта</t>
   </si>
   <si>
     <t>navek</t>
@@ -4491,7 +4518,7 @@
     <t>controller, driving wheel, joystick</t>
   </si>
   <si>
-    <t>нокарисх</t>
+    <t>нокариш</t>
   </si>
   <si>
     <t>noklavin</t>
@@ -4743,7 +4770,7 @@
     <t>bug, insect</t>
   </si>
   <si>
-    <t>окодосх</t>
+    <t>окодош</t>
   </si>
   <si>
     <t>oleym</t>
@@ -4995,7 +5022,7 @@
     <t>scanner</t>
   </si>
   <si>
-    <t>пэлитмасхка</t>
+    <t>пэлитмашка</t>
   </si>
   <si>
     <t>pelnorom</t>
@@ -5022,7 +5049,7 @@
     <t>crime</t>
   </si>
   <si>
-    <t>пэсхкэдия</t>
+    <t>пэшкэдия</t>
   </si>
   <si>
     <t>peshkediyo</t>
@@ -5031,7 +5058,7 @@
     <t>criminal</t>
   </si>
   <si>
-    <t>пэсхкэдйо</t>
+    <t>пэшкэдйо</t>
   </si>
   <si>
     <t>petika</t>
@@ -5535,7 +5562,7 @@
     <t>previous, last</t>
   </si>
   <si>
-    <t>рисх</t>
+    <t>риш</t>
   </si>
   <si>
     <t>riy</t>
@@ -5580,7 +5607,7 @@
     <t>yesterday</t>
   </si>
   <si>
-    <t>рйсхдю</t>
+    <t>рйшдю</t>
   </si>
   <si>
     <t>rlato</t>
@@ -5886,7 +5913,7 @@
     <t>terrain, land</t>
   </si>
   <si>
-    <t>сэйсхим</t>
+    <t>сэйшим</t>
   </si>
   <si>
     <t>seyta</t>
@@ -5904,7 +5931,7 @@
     <t>to kill</t>
   </si>
   <si>
-    <t>схакят</t>
+    <t>шакят</t>
   </si>
   <si>
     <t>shara</t>
@@ -5913,7 +5940,7 @@
     <t>metal</t>
   </si>
   <si>
-    <t>схара</t>
+    <t>шара</t>
   </si>
   <si>
     <t>shelm</t>
@@ -5922,7 +5949,7 @@
     <t>mask</t>
   </si>
   <si>
-    <t>схэлм</t>
+    <t>шэлм</t>
   </si>
   <si>
     <t>shem</t>
@@ -5931,25 +5958,7 @@
     <t>how</t>
   </si>
   <si>
-    <t>схэм</t>
-  </si>
-  <si>
-    <t>shesel</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>схэсэл</t>
-  </si>
-  <si>
-    <t>sheselrarl</t>
-  </si>
-  <si>
-    <t>decade, 10 years</t>
-  </si>
-  <si>
-    <t>схэсэлрарл</t>
+    <t>шэм</t>
   </si>
   <si>
     <t>shevya</t>
@@ -5958,7 +5967,7 @@
     <t>to care</t>
   </si>
   <si>
-    <t>схэвя</t>
+    <t>шэвя</t>
   </si>
   <si>
     <t>sheynata</t>
@@ -5967,7 +5976,7 @@
     <t>rainy weather</t>
   </si>
   <si>
-    <t>схэйната</t>
+    <t>шэйната</t>
   </si>
   <si>
     <t>sheynatahilm</t>
@@ -5976,7 +5985,7 @@
     <t>bathroom, shower room</t>
   </si>
   <si>
-    <t>схэйнатахилм</t>
+    <t>шэйнатахилм</t>
   </si>
   <si>
     <t>sidit</t>
@@ -6003,7 +6012,7 @@
     <t>silartite</t>
   </si>
   <si>
-    <t>силаркисх</t>
+    <t>силаркиш</t>
   </si>
   <si>
     <t>sinya</t>
@@ -6516,7 +6525,7 @@
     <t>skin</t>
   </si>
   <si>
-    <t>тэсхэм</t>
+    <t>тэшэм</t>
   </si>
   <si>
     <t>teviysla</t>
@@ -6561,7 +6570,7 @@
     <t>three</t>
   </si>
   <si>
-    <t>тинсха</t>
+    <t>тинша</t>
   </si>
   <si>
     <t>tivargat</t>
@@ -6840,7 +6849,7 @@
     <t>town</t>
   </si>
   <si>
-    <t>валасхэм</t>
+    <t>валашэм</t>
   </si>
   <si>
     <t>vampir</t>
@@ -6876,7 +6885,7 @@
     <t>sword</t>
   </si>
   <si>
-    <t>васхэм</t>
+    <t>вашэм</t>
   </si>
   <si>
     <t>vat</t>
@@ -7011,7 +7020,7 @@
     <t>wine, beer, ale, alchoholic drink</t>
   </si>
   <si>
-    <t>винцха</t>
+    <t>винтша</t>
   </si>
   <si>
     <t>virikojan</t>
@@ -7065,7 +7074,7 @@
     <t>flight</t>
   </si>
   <si>
-    <t>влэйсхо</t>
+    <t>влэйшо</t>
   </si>
   <si>
     <t>vleyshyat</t>
@@ -7074,7 +7083,7 @@
     <t>to fly</t>
   </si>
   <si>
-    <t>влэйсхят</t>
+    <t>влэйшят</t>
   </si>
   <si>
     <t>vlik</t>
@@ -7278,7 +7287,7 @@
     <t>evening</t>
   </si>
   <si>
-    <t>восха</t>
+    <t>воша</t>
   </si>
   <si>
     <t>vost</t>
@@ -7440,7 +7449,7 @@
     <t>gift, present</t>
   </si>
   <si>
-    <t>ясха</t>
+    <t>яша</t>
   </si>
   <si>
     <t>yeda</t>
@@ -7566,7 +7575,7 @@
     <t>noodles</t>
   </si>
   <si>
-    <t>ййгала</t>
+    <t>йийгала</t>
   </si>
   <si>
     <t>yiyn</t>
@@ -7575,7 +7584,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>ййн</t>
+    <t>йийн</t>
   </si>
   <si>
     <t>yofeln</t>
@@ -7647,7 +7656,7 @@
     <t>computer</t>
   </si>
   <si>
-    <t>замасхка</t>
+    <t>замашка</t>
   </si>
   <si>
     <t>zamorozit</t>
@@ -11601,13 +11610,13 @@
       <c r="X96" s="18"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="9" t="s">
         <v>458</v>
       </c>
       <c r="D97" s="18"/>
@@ -11633,13 +11642,13 @@
       <c r="X97" s="18"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="9" t="s">
         <v>461</v>
       </c>
       <c r="D98" s="18"/>
@@ -11697,13 +11706,13 @@
       <c r="X99" s="18"/>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="14" t="s">
         <v>467</v>
       </c>
       <c r="D100" s="18"/>
@@ -11729,13 +11738,13 @@
       <c r="X100" s="18"/>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="14" t="s">
         <v>470</v>
       </c>
       <c r="D101" s="18"/>
@@ -11761,13 +11770,13 @@
       <c r="X101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="9" t="s">
         <v>473</v>
       </c>
       <c r="D102" s="18"/>
@@ -11793,13 +11802,13 @@
       <c r="X102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="9" t="s">
         <v>476</v>
       </c>
       <c r="D103" s="18"/>
@@ -11857,13 +11866,13 @@
       <c r="X104" s="18"/>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D105" s="18"/>
@@ -11889,13 +11898,13 @@
       <c r="X105" s="18"/>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D106" s="18"/>
@@ -12017,13 +12026,13 @@
       <c r="X109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="9" t="s">
         <v>497</v>
       </c>
       <c r="D110" s="18"/>
@@ -12049,13 +12058,13 @@
       <c r="X110" s="18"/>
     </row>
     <row r="111">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="9" t="s">
         <v>500</v>
       </c>
       <c r="D111" s="18"/>
@@ -12081,13 +12090,13 @@
       <c r="X111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="14" t="s">
         <v>503</v>
       </c>
       <c r="D112" s="18"/>
@@ -12113,13 +12122,13 @@
       <c r="X112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="14" t="s">
         <v>506</v>
       </c>
       <c r="D113" s="18"/>
@@ -12145,13 +12154,13 @@
       <c r="X113" s="18"/>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="9" t="s">
         <v>509</v>
       </c>
       <c r="D114" s="18"/>
@@ -12241,13 +12250,13 @@
       <c r="X116" s="18"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="9" t="s">
         <v>518</v>
       </c>
       <c r="D117" s="18"/>
@@ -12273,13 +12282,13 @@
       <c r="X117" s="18"/>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="14" t="s">
         <v>521</v>
       </c>
       <c r="D118" s="18"/>
@@ -12305,13 +12314,13 @@
       <c r="X118" s="18"/>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="14" t="s">
         <v>524</v>
       </c>
       <c r="D119" s="18"/>
@@ -12369,13 +12378,13 @@
       <c r="X120" s="18"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="9" t="s">
         <v>530</v>
       </c>
       <c r="D121" s="18"/>
@@ -12401,13 +12410,13 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="9" t="s">
         <v>533</v>
       </c>
       <c r="D122" s="18"/>
@@ -12433,13 +12442,13 @@
       <c r="X122" s="18"/>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="14" t="s">
         <v>536</v>
       </c>
       <c r="D123" s="18"/>
@@ -12497,13 +12506,13 @@
       <c r="X124" s="18"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="9" t="s">
         <v>542</v>
       </c>
       <c r="D125" s="18"/>
@@ -12529,13 +12538,13 @@
       <c r="X125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="14" t="s">
         <v>545</v>
       </c>
       <c r="D126" s="18"/>
@@ -12561,13 +12570,13 @@
       <c r="X126" s="18"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="14" t="s">
         <v>548</v>
       </c>
       <c r="D127" s="18"/>
@@ -12625,13 +12634,13 @@
       <c r="X128" s="18"/>
     </row>
     <row r="129">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="9" t="s">
         <v>554</v>
       </c>
       <c r="D129" s="18"/>
@@ -12753,13 +12762,13 @@
       <c r="X132" s="18"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="14" t="s">
         <v>566</v>
       </c>
       <c r="D133" s="18"/>
@@ -12785,13 +12794,13 @@
       <c r="X133" s="18"/>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="9" t="s">
         <v>569</v>
       </c>
       <c r="D134" s="18"/>
@@ -12881,13 +12890,13 @@
       <c r="X136" s="18"/>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="9" t="s">
         <v>578</v>
       </c>
       <c r="D137" s="18"/>
@@ -12977,13 +12986,13 @@
       <c r="X139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="14" t="s">
         <v>587</v>
       </c>
       <c r="D140" s="18"/>
@@ -13009,13 +13018,13 @@
       <c r="X140" s="18"/>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="14" t="s">
         <v>590</v>
       </c>
       <c r="D141" s="18"/>
@@ -13041,13 +13050,13 @@
       <c r="X141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="9" t="s">
         <v>593</v>
       </c>
       <c r="D142" s="18"/>
@@ -13073,13 +13082,13 @@
       <c r="X142" s="18"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="9" t="s">
         <v>596</v>
       </c>
       <c r="D143" s="18"/>
@@ -13105,13 +13114,13 @@
       <c r="X143" s="18"/>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="14" t="s">
         <v>599</v>
       </c>
       <c r="D144" s="18"/>
@@ -13137,13 +13146,13 @@
       <c r="X144" s="18"/>
     </row>
     <row r="145">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="14" t="s">
         <v>602</v>
       </c>
       <c r="D145" s="18"/>
@@ -13233,13 +13242,13 @@
       <c r="X147" s="18"/>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="9" t="s">
         <v>611</v>
       </c>
       <c r="D148" s="18"/>
@@ -13265,7 +13274,7 @@
       <c r="X148" s="18"/>
     </row>
     <row r="149">
-      <c r="A149" s="26" t="s">
+      <c r="A149" s="9" t="s">
         <v>612</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -13329,7 +13338,7 @@
       <c r="X150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="26" t="s">
         <v>618</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -13361,13 +13370,13 @@
       <c r="X151" s="18"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="14" t="s">
         <v>623</v>
       </c>
       <c r="D152" s="18"/>
@@ -13393,13 +13402,13 @@
       <c r="X152" s="18"/>
     </row>
     <row r="153">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="9" t="s">
         <v>626</v>
       </c>
       <c r="D153" s="18"/>
@@ -13425,13 +13434,13 @@
       <c r="X153" s="18"/>
     </row>
     <row r="154">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="9" t="s">
         <v>629</v>
       </c>
       <c r="D154" s="18"/>
@@ -13489,13 +13498,13 @@
       <c r="X155" s="18"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="14" t="s">
         <v>635</v>
       </c>
       <c r="D156" s="18"/>
@@ -13553,13 +13562,13 @@
       <c r="X157" s="18"/>
     </row>
     <row r="158">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="9" t="s">
         <v>641</v>
       </c>
       <c r="D158" s="18"/>
@@ -13617,13 +13626,13 @@
       <c r="X159" s="18"/>
     </row>
     <row r="160">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="14" t="s">
         <v>647</v>
       </c>
       <c r="D160" s="18"/>
@@ -13681,13 +13690,13 @@
       <c r="X161" s="18"/>
     </row>
     <row r="162">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="9" t="s">
         <v>653</v>
       </c>
       <c r="D162" s="18"/>
@@ -13713,13 +13722,13 @@
       <c r="X162" s="18"/>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="14" t="s">
         <v>656</v>
       </c>
       <c r="D163" s="18"/>
@@ -13745,13 +13754,13 @@
       <c r="X163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="14" t="s">
         <v>659</v>
       </c>
       <c r="D164" s="18"/>
@@ -13777,13 +13786,13 @@
       <c r="X164" s="18"/>
     </row>
     <row r="165">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="9" t="s">
         <v>662</v>
       </c>
       <c r="D165" s="18"/>
@@ -13969,13 +13978,13 @@
       <c r="X170" s="18"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="14" t="s">
         <v>680</v>
       </c>
       <c r="D171" s="18"/>
@@ -14033,13 +14042,13 @@
       <c r="X172" s="18"/>
     </row>
     <row r="173">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="9" t="s">
         <v>686</v>
       </c>
       <c r="D173" s="18"/>
@@ -14129,13 +14138,13 @@
       <c r="X175" s="18"/>
     </row>
     <row r="176">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="C176" s="9" t="s">
         <v>695</v>
       </c>
       <c r="D176" s="18"/>
@@ -14161,13 +14170,13 @@
       <c r="X176" s="18"/>
     </row>
     <row r="177">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="14" t="s">
         <v>698</v>
       </c>
       <c r="D177" s="18"/>
@@ -14225,13 +14234,13 @@
       <c r="X178" s="18"/>
     </row>
     <row r="179">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C179" s="14" t="s">
+      <c r="C179" s="9" t="s">
         <v>704</v>
       </c>
       <c r="D179" s="18"/>
@@ -14289,13 +14298,13 @@
       <c r="X180" s="18"/>
     </row>
     <row r="181">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="14" t="s">
         <v>710</v>
       </c>
       <c r="D181" s="18"/>
@@ -14353,13 +14362,13 @@
       <c r="X182" s="18"/>
     </row>
     <row r="183">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="9" t="s">
         <v>716</v>
       </c>
       <c r="D183" s="18"/>
@@ -14449,13 +14458,13 @@
       <c r="X185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="14" t="s">
         <v>725</v>
       </c>
       <c r="D186" s="18"/>
@@ -14481,13 +14490,13 @@
       <c r="X186" s="18"/>
     </row>
     <row r="187">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="14" t="s">
         <v>728</v>
       </c>
       <c r="D187" s="18"/>
@@ -14673,13 +14682,13 @@
       <c r="X192" s="18"/>
     </row>
     <row r="193">
-      <c r="A193" s="14" t="s">
+      <c r="A193" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B193" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C193" s="9" t="s">
         <v>746</v>
       </c>
       <c r="D193" s="18"/>
@@ -14737,13 +14746,13 @@
       <c r="X194" s="18"/>
     </row>
     <row r="195">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="14" t="s">
         <v>752</v>
       </c>
       <c r="D195" s="18"/>
@@ -14769,13 +14778,13 @@
       <c r="X195" s="18"/>
     </row>
     <row r="196">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="9" t="s">
         <v>755</v>
       </c>
       <c r="D196" s="18"/>
@@ -14833,13 +14842,13 @@
       <c r="X197" s="18"/>
     </row>
     <row r="198">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="14" t="s">
         <v>761</v>
       </c>
       <c r="D198" s="18"/>
@@ -14897,13 +14906,13 @@
       <c r="X199" s="18"/>
     </row>
     <row r="200">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="9" t="s">
         <v>767</v>
       </c>
       <c r="D200" s="18"/>
@@ -14993,13 +15002,13 @@
       <c r="X202" s="18"/>
     </row>
     <row r="203">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C203" s="14" t="s">
+      <c r="C203" s="9" t="s">
         <v>776</v>
       </c>
       <c r="D203" s="18"/>
@@ -15121,13 +15130,13 @@
       <c r="X206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="14" t="s">
         <v>788</v>
       </c>
       <c r="D207" s="18"/>
@@ -15185,13 +15194,13 @@
       <c r="X208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C209" s="9" t="s">
         <v>794</v>
       </c>
       <c r="D209" s="18"/>
@@ -15217,13 +15226,13 @@
       <c r="X209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="14" t="s">
         <v>797</v>
       </c>
       <c r="D210" s="18"/>
@@ -15281,13 +15290,13 @@
       <c r="X211" s="18"/>
     </row>
     <row r="212">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C212" s="14" t="s">
+      <c r="C212" s="9" t="s">
         <v>803</v>
       </c>
       <c r="D212" s="18"/>
@@ -15409,13 +15418,13 @@
       <c r="X215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="14" t="s">
         <v>815</v>
       </c>
       <c r="D216" s="18"/>
@@ -15441,13 +15450,13 @@
       <c r="X216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="14" t="s">
         <v>818</v>
       </c>
       <c r="D217" s="18"/>
@@ -15473,13 +15482,13 @@
       <c r="X217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C218" s="9" t="s">
         <v>821</v>
       </c>
       <c r="D218" s="18"/>
@@ -15665,13 +15674,13 @@
       <c r="X223" s="18"/>
     </row>
     <row r="224">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="14" t="s">
         <v>839</v>
       </c>
       <c r="D224" s="18"/>
@@ -15729,13 +15738,13 @@
       <c r="X225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C226" s="9" t="s">
         <v>845</v>
       </c>
       <c r="D226" s="18"/>
@@ -15985,13 +15994,13 @@
       <c r="X233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="14" t="s">
         <v>869</v>
       </c>
       <c r="D234" s="18"/>
@@ -16017,13 +16026,13 @@
       <c r="X234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="C235" s="9" t="s">
         <v>872</v>
       </c>
       <c r="D235" s="18"/>
@@ -16081,13 +16090,13 @@
       <c r="X236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="14" t="s">
         <v>876</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="14" t="s">
         <v>877</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="14" t="s">
         <v>878</v>
       </c>
       <c r="D237" s="18"/>
@@ -16113,13 +16122,13 @@
       <c r="X237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="9" t="s">
         <v>881</v>
       </c>
       <c r="D238" s="18"/>
@@ -16177,13 +16186,13 @@
       <c r="X239" s="18"/>
     </row>
     <row r="240">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="14" t="s">
         <v>885</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="14" t="s">
         <v>887</v>
       </c>
       <c r="D240" s="18"/>
@@ -16337,13 +16346,13 @@
       <c r="X244" s="18"/>
     </row>
     <row r="245">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C245" s="9" t="s">
         <v>902</v>
       </c>
       <c r="D245" s="18"/>
@@ -16401,13 +16410,13 @@
       <c r="X246" s="18"/>
     </row>
     <row r="247">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="14" t="s">
         <v>908</v>
       </c>
       <c r="D247" s="18"/>
@@ -16465,13 +16474,13 @@
       <c r="X248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="C249" s="9" t="s">
         <v>914</v>
       </c>
       <c r="D249" s="18"/>
@@ -16529,13 +16538,13 @@
       <c r="X250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="14" t="s">
         <v>918</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="14" t="s">
         <v>920</v>
       </c>
       <c r="D251" s="18"/>
@@ -16561,13 +16570,13 @@
       <c r="X251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C252" s="9" t="s">
         <v>923</v>
       </c>
       <c r="D252" s="18"/>
@@ -16593,13 +16602,13 @@
       <c r="X252" s="18"/>
     </row>
     <row r="253">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="C253" s="14" t="s">
+      <c r="C253" s="9" t="s">
         <v>926</v>
       </c>
       <c r="D253" s="18"/>
@@ -16689,13 +16698,13 @@
       <c r="X255" s="18"/>
     </row>
     <row r="256">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="14" t="s">
         <v>935</v>
       </c>
       <c r="D256" s="18"/>
@@ -16753,13 +16762,13 @@
       <c r="X257" s="18"/>
     </row>
     <row r="258">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="C258" s="9" t="s">
         <v>941</v>
       </c>
       <c r="D258" s="18"/>
@@ -16785,13 +16794,13 @@
       <c r="X258" s="18"/>
     </row>
     <row r="259">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="C259" s="14" t="s">
         <v>944</v>
       </c>
       <c r="D259" s="18"/>
@@ -16817,13 +16826,13 @@
       <c r="X259" s="18"/>
     </row>
     <row r="260">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" s="14" t="s">
         <v>947</v>
       </c>
       <c r="D260" s="18"/>
@@ -16849,13 +16858,13 @@
       <c r="X260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C261" s="9" t="s">
         <v>950</v>
       </c>
       <c r="D261" s="18"/>
@@ -16913,13 +16922,13 @@
       <c r="X262" s="18"/>
     </row>
     <row r="263">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="14" t="s">
         <v>956</v>
       </c>
       <c r="D263" s="18"/>
@@ -16945,13 +16954,13 @@
       <c r="X263" s="18"/>
     </row>
     <row r="264">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C264" s="9" t="s">
         <v>959</v>
       </c>
       <c r="D264" s="18"/>
@@ -17073,13 +17082,13 @@
       <c r="X267" s="18"/>
     </row>
     <row r="268">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="14" t="s">
         <v>971</v>
       </c>
       <c r="D268" s="18"/>
@@ -17201,10 +17210,10 @@
       <c r="X271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="20" t="s">
+      <c r="A272" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="B272" s="20" t="s">
+      <c r="B272" s="9" t="s">
         <v>982</v>
       </c>
       <c r="C272" s="9" t="s">
@@ -17233,13 +17242,13 @@
       <c r="X272" s="18"/>
     </row>
     <row r="273">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="C273" s="9" t="s">
         <v>986</v>
       </c>
       <c r="D273" s="18"/>
@@ -17265,13 +17274,13 @@
       <c r="X273" s="18"/>
     </row>
     <row r="274">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="20" t="s">
         <v>988</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C274" s="9" t="s">
         <v>989</v>
       </c>
       <c r="D274" s="18"/>
@@ -17553,13 +17562,13 @@
       <c r="X282" s="18"/>
     </row>
     <row r="283">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="14" t="s">
         <v>1016</v>
       </c>
       <c r="D283" s="18"/>
@@ -17649,13 +17658,13 @@
       <c r="X285" s="18"/>
     </row>
     <row r="286">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="C286" s="9" t="s">
+      <c r="C286" s="14" t="s">
         <v>1025</v>
       </c>
       <c r="D286" s="18"/>
@@ -17713,13 +17722,13 @@
       <c r="X287" s="18"/>
     </row>
     <row r="288">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B288" s="14" t="s">
+      <c r="B288" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="C288" s="14" t="s">
+      <c r="C288" s="9" t="s">
         <v>1031</v>
       </c>
       <c r="D288" s="18"/>
@@ -17745,13 +17754,13 @@
       <c r="X288" s="18"/>
     </row>
     <row r="289">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="C289" s="14" t="s">
+      <c r="C289" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="D289" s="18"/>
@@ -17809,13 +17818,13 @@
       <c r="X290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C291" s="14" t="s">
         <v>1040</v>
       </c>
       <c r="D291" s="18"/>
@@ -17841,13 +17850,13 @@
       <c r="X291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="C292" s="14" t="s">
         <v>1043</v>
       </c>
       <c r="D292" s="18"/>
@@ -17937,13 +17946,13 @@
       <c r="X294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B295" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="C295" s="9" t="s">
         <v>1052</v>
       </c>
       <c r="D295" s="18"/>
@@ -18001,13 +18010,13 @@
       <c r="X296" s="18"/>
     </row>
     <row r="297">
-      <c r="A297" s="20" t="s">
+      <c r="A297" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="B297" s="20" t="s">
+      <c r="B297" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="C297" s="9" t="s">
+      <c r="C297" s="14" t="s">
         <v>1058</v>
       </c>
       <c r="D297" s="18"/>
@@ -18033,7 +18042,7 @@
       <c r="X297" s="18"/>
     </row>
     <row r="298">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="9" t="s">
         <v>1059</v>
       </c>
       <c r="B298" s="9" t="s">
@@ -18065,10 +18074,10 @@
       <c r="X298" s="18"/>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="20" t="s">
         <v>1062</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="20" t="s">
         <v>1063</v>
       </c>
       <c r="C299" s="9" t="s">
@@ -18100,10 +18109,10 @@
       <c r="A300" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C300" s="9" t="s">
         <v>1067</v>
       </c>
       <c r="D300" s="18"/>
@@ -18225,13 +18234,13 @@
       <c r="X303" s="18"/>
     </row>
     <row r="304">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="C304" s="9" t="s">
+      <c r="C304" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="D304" s="18"/>
@@ -18257,13 +18266,13 @@
       <c r="X304" s="18"/>
     </row>
     <row r="305">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="B305" s="14" t="s">
+      <c r="B305" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="C305" s="14" t="s">
+      <c r="C305" s="9" t="s">
         <v>1082</v>
       </c>
       <c r="D305" s="18"/>
@@ -18321,13 +18330,13 @@
       <c r="X306" s="18"/>
     </row>
     <row r="307">
-      <c r="A307" s="20" t="s">
+      <c r="A307" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B307" s="20" t="s">
+      <c r="B307" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="C307" s="9" t="s">
+      <c r="C307" s="14" t="s">
         <v>1088</v>
       </c>
       <c r="D307" s="18"/>
@@ -18353,14 +18362,14 @@
       <c r="X307" s="18"/>
     </row>
     <row r="308">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="B308" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C308" s="14" t="s">
+      <c r="B308" s="9" t="s">
         <v>1090</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="D308" s="18"/>
       <c r="E308" s="18"/>
@@ -18386,13 +18395,13 @@
     </row>
     <row r="309">
       <c r="A309" s="20" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D309" s="18"/>
       <c r="E309" s="18"/>
@@ -18417,13 +18426,13 @@
       <c r="X309" s="18"/>
     </row>
     <row r="310">
-      <c r="A310" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B310" s="9" t="s">
+      <c r="A310" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="C310" s="9" t="s">
+      <c r="B310" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C310" s="14" t="s">
         <v>1096</v>
       </c>
       <c r="D310" s="18"/>
@@ -18449,13 +18458,13 @@
       <c r="X310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="14" t="s">
+      <c r="A311" s="20" t="s">
         <v>1097</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="B311" s="20" t="s">
         <v>1098</v>
       </c>
-      <c r="C311" s="14" t="s">
+      <c r="C311" s="9" t="s">
         <v>1099</v>
       </c>
       <c r="D311" s="18"/>
@@ -18481,13 +18490,13 @@
       <c r="X311" s="18"/>
     </row>
     <row r="312">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C312" s="9" t="s">
         <v>1102</v>
       </c>
       <c r="D312" s="18"/>
@@ -18545,13 +18554,13 @@
       <c r="X313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="9" t="s">
+      <c r="A314" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="C314" s="9" t="s">
+      <c r="C314" s="14" t="s">
         <v>1108</v>
       </c>
       <c r="D314" s="18"/>
@@ -18577,13 +18586,13 @@
       <c r="X314" s="18"/>
     </row>
     <row r="315">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="14" t="s">
         <v>1109</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="14" t="s">
         <v>1110</v>
       </c>
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="14" t="s">
         <v>1111</v>
       </c>
       <c r="D315" s="18"/>
@@ -18609,13 +18618,13 @@
       <c r="X315" s="18"/>
     </row>
     <row r="316">
-      <c r="A316" s="14" t="s">
+      <c r="A316" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="B316" s="14" t="s">
+      <c r="B316" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="C316" s="14" t="s">
+      <c r="C316" s="9" t="s">
         <v>1114</v>
       </c>
       <c r="D316" s="18"/>
@@ -18641,13 +18650,13 @@
       <c r="X316" s="18"/>
     </row>
     <row r="317">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="C317" s="9" t="s">
         <v>1117</v>
       </c>
       <c r="D317" s="18"/>
@@ -18673,13 +18682,13 @@
       <c r="X317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="C318" s="9" t="s">
+      <c r="C318" s="14" t="s">
         <v>1120</v>
       </c>
       <c r="D318" s="18"/>
@@ -18737,14 +18746,14 @@
       <c r="X319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="14" t="s">
+      <c r="A320" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="B320" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C320" s="14" t="s">
+      <c r="B320" s="9" t="s">
         <v>1125</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>1126</v>
       </c>
       <c r="D320" s="18"/>
       <c r="E320" s="18"/>
@@ -18770,13 +18779,13 @@
     </row>
     <row r="321">
       <c r="A321" s="14" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D321" s="18"/>
       <c r="E321" s="18"/>
@@ -18802,10 +18811,10 @@
     </row>
     <row r="322">
       <c r="A322" s="14" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>1130</v>
+        <v>202</v>
       </c>
       <c r="C322" s="14" t="s">
         <v>1131</v>
@@ -18865,13 +18874,13 @@
       <c r="X323" s="18"/>
     </row>
     <row r="324">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="14" t="s">
         <v>1137</v>
       </c>
       <c r="D324" s="18"/>
@@ -18961,13 +18970,13 @@
       <c r="X326" s="18"/>
     </row>
     <row r="327">
-      <c r="A327" s="14" t="s">
+      <c r="A327" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="B327" s="14" t="s">
+      <c r="B327" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="C327" s="9" t="s">
         <v>1146</v>
       </c>
       <c r="D327" s="18"/>
@@ -18993,13 +19002,13 @@
       <c r="X327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="14" t="s">
         <v>1149</v>
       </c>
       <c r="D328" s="18"/>
@@ -19025,13 +19034,13 @@
       <c r="X328" s="18"/>
     </row>
     <row r="329">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="14" t="s">
         <v>1152</v>
       </c>
       <c r="D329" s="18"/>
@@ -19057,13 +19066,13 @@
       <c r="X329" s="18"/>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="C330" s="9" t="s">
+      <c r="C330" s="14" t="s">
         <v>1155</v>
       </c>
       <c r="D330" s="18"/>
@@ -19089,13 +19098,13 @@
       <c r="X330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="14" t="s">
+      <c r="A331" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="B331" s="14" t="s">
+      <c r="B331" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="C331" s="14" t="s">
+      <c r="C331" s="9" t="s">
         <v>1158</v>
       </c>
       <c r="D331" s="18"/>
@@ -19121,13 +19130,13 @@
       <c r="X331" s="18"/>
     </row>
     <row r="332">
-      <c r="A332" s="14" t="s">
+      <c r="A332" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="B332" s="14" t="s">
+      <c r="B332" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="C332" s="14" t="s">
+      <c r="C332" s="9" t="s">
         <v>1161</v>
       </c>
       <c r="D332" s="18"/>
@@ -19153,13 +19162,13 @@
       <c r="X332" s="18"/>
     </row>
     <row r="333">
-      <c r="A333" s="14" t="s">
+      <c r="A333" s="9" t="s">
         <v>1162</v>
       </c>
-      <c r="B333" s="14" t="s">
+      <c r="B333" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="C333" s="14" t="s">
+      <c r="C333" s="9" t="s">
         <v>1164</v>
       </c>
       <c r="D333" s="18"/>
@@ -19217,13 +19226,13 @@
       <c r="X334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C335" s="14" t="s">
         <v>1170</v>
       </c>
       <c r="D335" s="18"/>
@@ -19249,13 +19258,13 @@
       <c r="X335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="14" t="s">
         <v>1171</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="14" t="s">
         <v>1172</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C336" s="14" t="s">
         <v>1173</v>
       </c>
       <c r="D336" s="18"/>
@@ -19313,13 +19322,13 @@
       <c r="X337" s="18"/>
     </row>
     <row r="338">
-      <c r="A338" s="14" t="s">
+      <c r="A338" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="B338" s="14" t="s">
+      <c r="B338" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="C338" s="14" t="s">
+      <c r="C338" s="9" t="s">
         <v>1179</v>
       </c>
       <c r="D338" s="18"/>
@@ -19345,13 +19354,13 @@
       <c r="X338" s="18"/>
     </row>
     <row r="339">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="9" t="s">
         <v>1180</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C339" s="9" t="s">
         <v>1182</v>
       </c>
       <c r="D339" s="18"/>
@@ -19377,13 +19386,13 @@
       <c r="X339" s="18"/>
     </row>
     <row r="340">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="14" t="s">
         <v>1185</v>
       </c>
       <c r="D340" s="18"/>
@@ -19409,13 +19418,13 @@
       <c r="X340" s="18"/>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="14" t="s">
         <v>1188</v>
       </c>
       <c r="D341" s="18"/>
@@ -19473,13 +19482,13 @@
       <c r="X342" s="18"/>
     </row>
     <row r="343">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="9" t="s">
         <v>1192</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="C343" s="9" t="s">
         <v>1194</v>
       </c>
       <c r="D343" s="18"/>
@@ -19505,13 +19514,13 @@
       <c r="X343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="9" t="s">
         <v>1195</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="C344" s="14" t="s">
+      <c r="C344" s="9" t="s">
         <v>1197</v>
       </c>
       <c r="D344" s="18"/>
@@ -19537,13 +19546,13 @@
       <c r="X344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="14" t="s">
         <v>1200</v>
       </c>
       <c r="D345" s="18"/>
@@ -19569,13 +19578,13 @@
       <c r="X345" s="18"/>
     </row>
     <row r="346">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="14" t="s">
         <v>1202</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C346" s="14" t="s">
         <v>1203</v>
       </c>
       <c r="D346" s="18"/>
@@ -19601,13 +19610,13 @@
       <c r="X346" s="18"/>
     </row>
     <row r="347">
-      <c r="A347" s="20" t="s">
+      <c r="A347" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="B347" s="20" t="s">
+      <c r="B347" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C347" s="14" t="s">
         <v>1206</v>
       </c>
       <c r="D347" s="18"/>
@@ -19697,10 +19706,10 @@
       <c r="X349" s="18"/>
     </row>
     <row r="350">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="20" t="s">
         <v>1213</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="20" t="s">
         <v>1214</v>
       </c>
       <c r="C350" s="9" t="s">
@@ -19729,10 +19738,10 @@
       <c r="X350" s="18"/>
     </row>
     <row r="351">
-      <c r="A351" s="20" t="s">
+      <c r="A351" s="9" t="s">
         <v>1216</v>
       </c>
-      <c r="B351" s="20" t="s">
+      <c r="B351" s="9" t="s">
         <v>1217</v>
       </c>
       <c r="C351" s="9" t="s">
@@ -19761,7 +19770,7 @@
       <c r="X351" s="18"/>
     </row>
     <row r="352">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="9" t="s">
         <v>1219</v>
       </c>
       <c r="B352" s="9" t="s">
@@ -19825,10 +19834,10 @@
       <c r="X353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="9" t="s">
+      <c r="A354" s="20" t="s">
         <v>1225</v>
       </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="20" t="s">
         <v>1226</v>
       </c>
       <c r="C354" s="9" t="s">
@@ -19857,7 +19866,7 @@
       <c r="X354" s="18"/>
     </row>
     <row r="355">
-      <c r="A355" s="9" t="s">
+      <c r="A355" s="14" t="s">
         <v>1228</v>
       </c>
       <c r="B355" s="9" t="s">
@@ -19985,13 +19994,13 @@
       <c r="X358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="C359" s="14" t="s">
+      <c r="C359" s="9" t="s">
         <v>1242</v>
       </c>
       <c r="D359" s="18"/>
@@ -20177,13 +20186,13 @@
       <c r="X364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="14" t="s">
         <v>1258</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="C365" s="9" t="s">
+      <c r="C365" s="14" t="s">
         <v>1260</v>
       </c>
       <c r="D365" s="18"/>
@@ -20305,13 +20314,13 @@
       <c r="X368" s="18"/>
     </row>
     <row r="369">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="C369" s="14" t="s">
+      <c r="C369" s="9" t="s">
         <v>1272</v>
       </c>
       <c r="D369" s="18"/>
@@ -20433,13 +20442,13 @@
       <c r="X372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="9" t="s">
         <v>1284</v>
       </c>
       <c r="D373" s="18"/>
@@ -20465,13 +20474,13 @@
       <c r="X373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="9" t="s">
         <v>1286</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="9" t="s">
         <v>1287</v>
       </c>
       <c r="D374" s="18"/>
@@ -20497,13 +20506,13 @@
       <c r="X374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C375" s="14" t="s">
         <v>1290</v>
       </c>
       <c r="D375" s="18"/>
@@ -20561,13 +20570,13 @@
       <c r="X376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="20" t="s">
+      <c r="A377" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="B377" s="20" t="s">
+      <c r="B377" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="C377" s="9" t="s">
+      <c r="C377" s="14" t="s">
         <v>1296</v>
       </c>
       <c r="D377" s="18"/>
@@ -20593,13 +20602,13 @@
       <c r="X377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="C378" s="14" t="s">
+      <c r="C378" s="9" t="s">
         <v>1299</v>
       </c>
       <c r="D378" s="18"/>
@@ -20657,10 +20666,10 @@
       <c r="X379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="20" t="s">
         <v>1303</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="20" t="s">
         <v>1304</v>
       </c>
       <c r="C380" s="9" t="s">
@@ -20689,13 +20698,13 @@
       <c r="X380" s="18"/>
     </row>
     <row r="381">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="14" t="s">
         <v>1307</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="14" t="s">
         <v>1308</v>
       </c>
       <c r="D381" s="18"/>
@@ -20817,13 +20826,13 @@
       <c r="X384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="14" t="s">
         <v>1318</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="14" t="s">
         <v>1320</v>
       </c>
       <c r="D385" s="18"/>
@@ -20945,13 +20954,13 @@
       <c r="X388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="9" t="s">
         <v>1332</v>
       </c>
       <c r="D389" s="18"/>
@@ -20977,13 +20986,13 @@
       <c r="X389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="14" t="s">
+      <c r="A390" s="9" t="s">
         <v>1333</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="C390" s="14" t="s">
+      <c r="C390" s="9" t="s">
         <v>1335</v>
       </c>
       <c r="D390" s="18"/>
@@ -21041,13 +21050,13 @@
       <c r="X391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="14" t="s">
         <v>1341</v>
       </c>
       <c r="D392" s="18"/>
@@ -21137,13 +21146,13 @@
       <c r="X394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="9" t="s">
         <v>1348</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="9" t="s">
         <v>1349</v>
       </c>
-      <c r="C395" s="14" t="s">
+      <c r="C395" s="9" t="s">
         <v>1350</v>
       </c>
       <c r="D395" s="18"/>
@@ -21169,13 +21178,13 @@
       <c r="X395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="14" t="s">
         <v>1351</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="14" t="s">
         <v>1352</v>
       </c>
-      <c r="C396" s="9" t="s">
+      <c r="C396" s="14" t="s">
         <v>1353</v>
       </c>
       <c r="D396" s="18"/>
@@ -21233,13 +21242,13 @@
       <c r="X397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="14" t="s">
         <v>1358</v>
       </c>
-      <c r="C398" s="9" t="s">
+      <c r="C398" s="14" t="s">
         <v>1359</v>
       </c>
       <c r="D398" s="18"/>
@@ -21297,13 +21306,13 @@
       <c r="X399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="B400" s="14" t="s">
+      <c r="B400" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="C400" s="14" t="s">
+      <c r="C400" s="9" t="s">
         <v>1365</v>
       </c>
       <c r="D400" s="18"/>
@@ -21329,13 +21338,13 @@
       <c r="X400" s="18"/>
     </row>
     <row r="401">
-      <c r="A401" s="14" t="s">
+      <c r="A401" s="9" t="s">
         <v>1366</v>
       </c>
-      <c r="B401" s="14" t="s">
+      <c r="B401" s="9" t="s">
         <v>1367</v>
       </c>
-      <c r="C401" s="14" t="s">
+      <c r="C401" s="9" t="s">
         <v>1368</v>
       </c>
       <c r="D401" s="18"/>
@@ -21393,13 +21402,13 @@
       <c r="X402" s="18"/>
     </row>
     <row r="403">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="14" t="s">
         <v>1372</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="14" t="s">
         <v>1373</v>
       </c>
-      <c r="C403" s="9" t="s">
+      <c r="C403" s="14" t="s">
         <v>1374</v>
       </c>
       <c r="D403" s="18"/>
@@ -21425,13 +21434,13 @@
       <c r="X403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="14" t="s">
         <v>1375</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="14" t="s">
         <v>1376</v>
       </c>
-      <c r="C404" s="9" t="s">
+      <c r="C404" s="14" t="s">
         <v>1377</v>
       </c>
       <c r="D404" s="18"/>
@@ -21457,13 +21466,13 @@
       <c r="X404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="C405" s="14" t="s">
+      <c r="C405" s="9" t="s">
         <v>1380</v>
       </c>
       <c r="D405" s="18"/>
@@ -21521,14 +21530,14 @@
       <c r="X406" s="18"/>
     </row>
     <row r="407">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="B407" s="14" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C407" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>1385</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>1386</v>
       </c>
       <c r="D407" s="18"/>
       <c r="E407" s="18"/>
@@ -21554,13 +21563,13 @@
     </row>
     <row r="408">
       <c r="A408" s="14" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D408" s="18"/>
       <c r="E408" s="18"/>
@@ -21586,13 +21595,13 @@
     </row>
     <row r="409">
       <c r="A409" s="9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B409" s="14" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C409" s="14" t="s">
         <v>1390</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>1392</v>
       </c>
       <c r="D409" s="18"/>
       <c r="E409" s="18"/>
@@ -21617,14 +21626,14 @@
       <c r="X409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B410" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1393</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>1394</v>
       </c>
       <c r="D410" s="18"/>
       <c r="E410" s="18"/>
@@ -21649,13 +21658,13 @@
       <c r="X410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="9" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B411" s="9" t="s">
+      <c r="A411" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="C411" s="9" t="s">
+      <c r="B411" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C411" s="14" t="s">
         <v>1396</v>
       </c>
       <c r="D411" s="18"/>
@@ -21681,7 +21690,7 @@
       <c r="X411" s="18"/>
     </row>
     <row r="412">
-      <c r="A412" s="14" t="s">
+      <c r="A412" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="B412" s="14" t="s">
@@ -21745,13 +21754,13 @@
       <c r="X413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="14" t="s">
+      <c r="A414" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="B414" s="14" t="s">
+      <c r="B414" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="C414" s="14" t="s">
+      <c r="C414" s="9" t="s">
         <v>1405</v>
       </c>
       <c r="D414" s="18"/>
@@ -21809,13 +21818,13 @@
       <c r="X415" s="18"/>
     </row>
     <row r="416">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="C416" s="14" t="s">
+      <c r="C416" s="9" t="s">
         <v>1411</v>
       </c>
       <c r="D416" s="18"/>
@@ -21873,13 +21882,13 @@
       <c r="X417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="14" t="s">
         <v>1416</v>
       </c>
-      <c r="C418" s="9" t="s">
+      <c r="C418" s="14" t="s">
         <v>1417</v>
       </c>
       <c r="D418" s="18"/>
@@ -21908,10 +21917,10 @@
       <c r="A419" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="C419" s="9" t="s">
+      <c r="C419" s="14" t="s">
         <v>1420</v>
       </c>
       <c r="D419" s="18"/>
@@ -21937,13 +21946,13 @@
       <c r="X419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C420" s="14" t="s">
         <v>1423</v>
       </c>
       <c r="D420" s="18"/>
@@ -21969,10 +21978,10 @@
       <c r="X420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="20" t="s">
+      <c r="A421" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="B421" s="20" t="s">
+      <c r="B421" s="9" t="s">
         <v>1425</v>
       </c>
       <c r="C421" s="9" t="s">
@@ -22001,7 +22010,7 @@
       <c r="X421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="27" t="s">
+      <c r="A422" s="14" t="s">
         <v>1427</v>
       </c>
       <c r="B422" s="9" t="s">
@@ -22065,13 +22074,13 @@
       <c r="X423" s="18"/>
     </row>
     <row r="424">
-      <c r="A424" s="14" t="s">
+      <c r="A424" s="20" t="s">
         <v>1433</v>
       </c>
-      <c r="B424" s="14" t="s">
+      <c r="B424" s="20" t="s">
         <v>1434</v>
       </c>
-      <c r="C424" s="14" t="s">
+      <c r="C424" s="9" t="s">
         <v>1435</v>
       </c>
       <c r="D424" s="18"/>
@@ -22097,13 +22106,13 @@
       <c r="X424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="14" t="s">
+      <c r="A425" s="27" t="s">
         <v>1436</v>
       </c>
-      <c r="B425" s="14" t="s">
+      <c r="B425" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="C425" s="14" t="s">
+      <c r="C425" s="9" t="s">
         <v>1438</v>
       </c>
       <c r="D425" s="18"/>
@@ -22129,13 +22138,13 @@
       <c r="X425" s="18"/>
     </row>
     <row r="426">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="B426" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="C426" s="14" t="s">
+      <c r="C426" s="9" t="s">
         <v>1441</v>
       </c>
       <c r="D426" s="18"/>
@@ -22193,13 +22202,13 @@
       <c r="X427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="9" t="s">
+      <c r="A428" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="C428" s="9" t="s">
+      <c r="C428" s="14" t="s">
         <v>1447</v>
       </c>
       <c r="D428" s="18"/>
@@ -22225,13 +22234,13 @@
       <c r="X428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="C429" s="9" t="s">
+      <c r="C429" s="14" t="s">
         <v>1450</v>
       </c>
       <c r="D429" s="18"/>
@@ -22257,13 +22266,13 @@
       <c r="X429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="14" t="s">
         <v>1451</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="C430" s="9" t="s">
+      <c r="C430" s="14" t="s">
         <v>1453</v>
       </c>
       <c r="D430" s="18"/>
@@ -22289,13 +22298,13 @@
       <c r="X430" s="18"/>
     </row>
     <row r="431">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" s="9" t="s">
         <v>1456</v>
       </c>
       <c r="D431" s="18"/>
@@ -22321,13 +22330,13 @@
       <c r="X431" s="18"/>
     </row>
     <row r="432">
-      <c r="A432" s="14" t="s">
+      <c r="A432" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="B432" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="C432" s="14" t="s">
+      <c r="C432" s="9" t="s">
         <v>1459</v>
       </c>
       <c r="D432" s="18"/>
@@ -22385,13 +22394,13 @@
       <c r="X433" s="18"/>
     </row>
     <row r="434">
-      <c r="A434" s="9" t="s">
+      <c r="A434" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="C434" s="9" t="s">
+      <c r="C434" s="14" t="s">
         <v>1465</v>
       </c>
       <c r="D434" s="18"/>
@@ -22417,13 +22426,13 @@
       <c r="X434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C435" s="14" t="s">
         <v>1468</v>
       </c>
       <c r="D435" s="18"/>
@@ -22449,13 +22458,13 @@
       <c r="X435" s="18"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="C436" s="14" t="s">
+      <c r="C436" s="9" t="s">
         <v>1471</v>
       </c>
       <c r="D436" s="18"/>
@@ -22545,13 +22554,13 @@
       <c r="X438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="C439" s="9" t="s">
+      <c r="C439" s="14" t="s">
         <v>1480</v>
       </c>
       <c r="D439" s="18"/>
@@ -22737,13 +22746,13 @@
       <c r="X444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="14" t="s">
+      <c r="A445" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="B445" s="14" t="s">
+      <c r="B445" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="C445" s="14" t="s">
+      <c r="C445" s="9" t="s">
         <v>1498</v>
       </c>
       <c r="D445" s="18"/>
@@ -22769,13 +22778,13 @@
       <c r="X445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="B446" s="14" t="s">
+      <c r="B446" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="C446" s="14" t="s">
+      <c r="C446" s="9" t="s">
         <v>1501</v>
       </c>
       <c r="D446" s="18"/>
@@ -22929,13 +22938,13 @@
       <c r="X450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="9" t="s">
+      <c r="A451" s="14" t="s">
         <v>1514</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="14" t="s">
         <v>1515</v>
       </c>
-      <c r="C451" s="9" t="s">
+      <c r="C451" s="14" t="s">
         <v>1516</v>
       </c>
       <c r="D451" s="18"/>
@@ -22961,13 +22970,13 @@
       <c r="X451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="C452" s="9" t="s">
+      <c r="C452" s="14" t="s">
         <v>1519</v>
       </c>
       <c r="D452" s="18"/>
@@ -23057,13 +23066,13 @@
       <c r="X454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="C455" s="14" t="s">
+      <c r="C455" s="9" t="s">
         <v>1528</v>
       </c>
       <c r="D455" s="18"/>
@@ -23089,13 +23098,13 @@
       <c r="X455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="C456" s="14" t="s">
+      <c r="C456" s="9" t="s">
         <v>1531</v>
       </c>
       <c r="D456" s="18"/>
@@ -23121,13 +23130,13 @@
       <c r="X456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="C457" s="14" t="s">
+      <c r="C457" s="9" t="s">
         <v>1534</v>
       </c>
       <c r="D457" s="18"/>
@@ -23217,13 +23226,13 @@
       <c r="X459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="9" t="s">
+      <c r="A460" s="14" t="s">
         <v>1541</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="C460" s="9" t="s">
+      <c r="C460" s="14" t="s">
         <v>1543</v>
       </c>
       <c r="D460" s="18"/>
@@ -23377,13 +23386,13 @@
       <c r="X464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="C465" s="9" t="s">
+      <c r="C465" s="14" t="s">
         <v>1558</v>
       </c>
       <c r="D465" s="18"/>
@@ -23409,10 +23418,10 @@
       <c r="X465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="20" t="s">
+      <c r="A466" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="B466" s="20" t="s">
+      <c r="B466" s="9" t="s">
         <v>1560</v>
       </c>
       <c r="C466" s="9" t="s">
@@ -23441,13 +23450,13 @@
       <c r="X466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="14" t="s">
         <v>1562</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="C467" s="9" t="s">
+      <c r="C467" s="14" t="s">
         <v>1564</v>
       </c>
       <c r="D467" s="18"/>
@@ -23473,13 +23482,13 @@
       <c r="X467" s="18"/>
     </row>
     <row r="468">
-      <c r="A468" s="14" t="s">
+      <c r="A468" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="C468" s="14" t="s">
+      <c r="C468" s="9" t="s">
         <v>1567</v>
       </c>
       <c r="D468" s="18"/>
@@ -23505,10 +23514,10 @@
       <c r="X468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="9" t="s">
+      <c r="A469" s="20" t="s">
         <v>1568</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="20" t="s">
         <v>1569</v>
       </c>
       <c r="C469" s="9" t="s">
@@ -23601,13 +23610,13 @@
       <c r="X471" s="18"/>
     </row>
     <row r="472">
-      <c r="A472" s="14" t="s">
+      <c r="A472" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="C472" s="14" t="s">
+      <c r="C472" s="9" t="s">
         <v>1579</v>
       </c>
       <c r="D472" s="18"/>
@@ -23633,13 +23642,13 @@
       <c r="X472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="14" t="s">
+      <c r="A473" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="C473" s="14" t="s">
+      <c r="C473" s="9" t="s">
         <v>1582</v>
       </c>
       <c r="D473" s="18"/>
@@ -23697,13 +23706,13 @@
       <c r="X474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="9" t="s">
+      <c r="A475" s="14" t="s">
         <v>1586</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="14" t="s">
         <v>1587</v>
       </c>
-      <c r="C475" s="9" t="s">
+      <c r="C475" s="14" t="s">
         <v>1588</v>
       </c>
       <c r="D475" s="18"/>
@@ -23729,13 +23738,13 @@
       <c r="X475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="9" t="s">
+      <c r="A476" s="14" t="s">
         <v>1589</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="14" t="s">
         <v>1590</v>
       </c>
-      <c r="C476" s="9" t="s">
+      <c r="C476" s="14" t="s">
         <v>1591</v>
       </c>
       <c r="D476" s="18"/>
@@ -23857,13 +23866,13 @@
       <c r="X479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="14" t="s">
         <v>1601</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="14" t="s">
         <v>1602</v>
       </c>
-      <c r="C480" s="9" t="s">
+      <c r="C480" s="14" t="s">
         <v>1603</v>
       </c>
       <c r="D480" s="18"/>
@@ -23889,13 +23898,13 @@
       <c r="X480" s="18"/>
     </row>
     <row r="481">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="C481" s="14" t="s">
+      <c r="C481" s="9" t="s">
         <v>1606</v>
       </c>
       <c r="D481" s="18"/>
@@ -23921,13 +23930,13 @@
       <c r="X481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="C482" s="14" t="s">
+      <c r="C482" s="9" t="s">
         <v>1609</v>
       </c>
       <c r="D482" s="18"/>
@@ -23953,13 +23962,13 @@
       <c r="X482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C483" s="9" t="s">
         <v>1612</v>
       </c>
       <c r="D483" s="18"/>
@@ -23985,13 +23994,13 @@
       <c r="X483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="14" t="s">
         <v>1613</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="14" t="s">
         <v>1614</v>
       </c>
-      <c r="C484" s="9" t="s">
+      <c r="C484" s="14" t="s">
         <v>1615</v>
       </c>
       <c r="D484" s="18"/>
@@ -24017,7 +24026,7 @@
       <c r="X484" s="18"/>
     </row>
     <row r="485">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="14" t="s">
         <v>1616</v>
       </c>
       <c r="B485" s="14" t="s">
@@ -24081,13 +24090,13 @@
       <c r="X486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C487" s="9" t="s">
         <v>1624</v>
       </c>
       <c r="D487" s="18"/>
@@ -24113,7 +24122,7 @@
       <c r="X487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="14" t="s">
+      <c r="A488" s="9" t="s">
         <v>1625</v>
       </c>
       <c r="B488" s="14" t="s">
@@ -24273,13 +24282,13 @@
       <c r="X492" s="18"/>
     </row>
     <row r="493">
-      <c r="A493" s="9" t="s">
+      <c r="A493" s="14" t="s">
         <v>1640</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="14" t="s">
         <v>1641</v>
       </c>
-      <c r="C493" s="9" t="s">
+      <c r="C493" s="14" t="s">
         <v>1642</v>
       </c>
       <c r="D493" s="18"/>
@@ -24305,13 +24314,13 @@
       <c r="X493" s="18"/>
     </row>
     <row r="494">
-      <c r="A494" s="9" t="s">
+      <c r="A494" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="C494" s="9" t="s">
+      <c r="C494" s="14" t="s">
         <v>1645</v>
       </c>
       <c r="D494" s="18"/>
@@ -24401,13 +24410,13 @@
       <c r="X496" s="18"/>
     </row>
     <row r="497">
-      <c r="A497" s="14" t="s">
+      <c r="A497" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="9" t="s">
         <v>1653</v>
       </c>
-      <c r="C497" s="14" t="s">
+      <c r="C497" s="9" t="s">
         <v>1654</v>
       </c>
       <c r="D497" s="18"/>
@@ -24465,13 +24474,13 @@
       <c r="X498" s="18"/>
     </row>
     <row r="499">
-      <c r="A499" s="14" t="s">
+      <c r="A499" s="9" t="s">
         <v>1658</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="B499" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="C499" s="14" t="s">
+      <c r="C499" s="9" t="s">
         <v>1660</v>
       </c>
       <c r="D499" s="18"/>
@@ -24497,13 +24506,13 @@
       <c r="X499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="14" t="s">
         <v>1661</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="14" t="s">
         <v>1662</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C500" s="14" t="s">
         <v>1663</v>
       </c>
       <c r="D500" s="18"/>
@@ -24561,13 +24570,13 @@
       <c r="X501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="14" t="s">
         <v>1667</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="14" t="s">
         <v>1668</v>
       </c>
-      <c r="C502" s="9" t="s">
+      <c r="C502" s="14" t="s">
         <v>1669</v>
       </c>
       <c r="D502" s="18"/>
@@ -24657,13 +24666,13 @@
       <c r="X504" s="18"/>
     </row>
     <row r="505">
-      <c r="A505" s="14" t="s">
+      <c r="A505" s="9" t="s">
         <v>1676</v>
       </c>
-      <c r="B505" s="14" t="s">
+      <c r="B505" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="C505" s="14" t="s">
+      <c r="C505" s="9" t="s">
         <v>1678</v>
       </c>
       <c r="D505" s="18"/>
@@ -24817,13 +24826,13 @@
       <c r="X509" s="18"/>
     </row>
     <row r="510">
-      <c r="A510" s="9" t="s">
+      <c r="A510" s="14" t="s">
         <v>1691</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="14" t="s">
         <v>1692</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="C510" s="14" t="s">
         <v>1693</v>
       </c>
       <c r="D510" s="18"/>
@@ -24945,13 +24954,13 @@
       <c r="X513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="14" t="s">
         <v>1703</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="14" t="s">
         <v>1704</v>
       </c>
-      <c r="C514" s="9" t="s">
+      <c r="C514" s="14" t="s">
         <v>1705</v>
       </c>
       <c r="D514" s="18"/>
@@ -24977,13 +24986,13 @@
       <c r="X514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="14" t="s">
+      <c r="A515" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="B515" s="14" t="s">
+      <c r="B515" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="C515" s="14" t="s">
+      <c r="C515" s="9" t="s">
         <v>1708</v>
       </c>
       <c r="D515" s="18"/>
@@ -25009,13 +25018,13 @@
       <c r="X515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="14" t="s">
+      <c r="A516" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="B516" s="14" t="s">
+      <c r="B516" s="9" t="s">
         <v>1710</v>
       </c>
-      <c r="C516" s="14" t="s">
+      <c r="C516" s="9" t="s">
         <v>1711</v>
       </c>
       <c r="D516" s="18"/>
@@ -25041,13 +25050,13 @@
       <c r="X516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="14" t="s">
+      <c r="A517" s="9" t="s">
         <v>1712</v>
       </c>
-      <c r="B517" s="14" t="s">
+      <c r="B517" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="C517" s="14" t="s">
+      <c r="C517" s="9" t="s">
         <v>1714</v>
       </c>
       <c r="D517" s="18"/>
@@ -25137,13 +25146,13 @@
       <c r="X519" s="18"/>
     </row>
     <row r="520">
-      <c r="A520" s="9" t="s">
+      <c r="A520" s="14" t="s">
         <v>1721</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="14" t="s">
         <v>1722</v>
       </c>
-      <c r="C520" s="9" t="s">
+      <c r="C520" s="14" t="s">
         <v>1723</v>
       </c>
       <c r="D520" s="18"/>
@@ -25201,13 +25210,13 @@
       <c r="X521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="14" t="s">
         <v>1727</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="14" t="s">
         <v>1728</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C522" s="14" t="s">
         <v>1729</v>
       </c>
       <c r="D522" s="18"/>
@@ -25233,13 +25242,13 @@
       <c r="X522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="9" t="s">
         <v>1730</v>
       </c>
-      <c r="B523" s="14" t="s">
+      <c r="B523" s="9" t="s">
         <v>1731</v>
       </c>
-      <c r="C523" s="14" t="s">
+      <c r="C523" s="9" t="s">
         <v>1732</v>
       </c>
       <c r="D523" s="18"/>
@@ -25393,13 +25402,13 @@
       <c r="X527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="14" t="s">
+      <c r="A528" s="9" t="s">
         <v>1745</v>
       </c>
-      <c r="B528" s="14" t="s">
+      <c r="B528" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="C528" s="14" t="s">
+      <c r="C528" s="9" t="s">
         <v>1747</v>
       </c>
       <c r="D528" s="18"/>
@@ -25649,13 +25658,13 @@
       <c r="X535" s="18"/>
     </row>
     <row r="536">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="14" t="s">
         <v>1769</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="14" t="s">
         <v>1770</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C536" s="14" t="s">
         <v>1771</v>
       </c>
       <c r="D536" s="18"/>
@@ -25681,13 +25690,13 @@
       <c r="X536" s="18"/>
     </row>
     <row r="537">
-      <c r="A537" s="9" t="s">
+      <c r="A537" s="14" t="s">
         <v>1772</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="14" t="s">
         <v>1773</v>
       </c>
-      <c r="C537" s="9" t="s">
+      <c r="C537" s="14" t="s">
         <v>1774</v>
       </c>
       <c r="D537" s="18"/>
@@ -25713,13 +25722,13 @@
       <c r="X537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="14" t="s">
         <v>1775</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="14" t="s">
         <v>1776</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="14" t="s">
         <v>1777</v>
       </c>
       <c r="D538" s="18"/>
@@ -25745,13 +25754,13 @@
       <c r="X538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="9" t="s">
         <v>1778</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="C539" s="14" t="s">
+      <c r="C539" s="9" t="s">
         <v>1780</v>
       </c>
       <c r="D539" s="18"/>
@@ -25777,13 +25786,13 @@
       <c r="X539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="14" t="s">
+      <c r="A540" s="9" t="s">
         <v>1781</v>
       </c>
-      <c r="B540" s="14" t="s">
+      <c r="B540" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="C540" s="14" t="s">
+      <c r="C540" s="9" t="s">
         <v>1783</v>
       </c>
       <c r="D540" s="18"/>
@@ -25809,13 +25818,13 @@
       <c r="X540" s="18"/>
     </row>
     <row r="541">
-      <c r="A541" s="14" t="s">
+      <c r="A541" s="9" t="s">
         <v>1784</v>
       </c>
-      <c r="B541" s="14" t="s">
+      <c r="B541" s="9" t="s">
         <v>1785</v>
       </c>
-      <c r="C541" s="14" t="s">
+      <c r="C541" s="9" t="s">
         <v>1786</v>
       </c>
       <c r="D541" s="18"/>
@@ -25905,13 +25914,13 @@
       <c r="X543" s="18"/>
     </row>
     <row r="544">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="14" t="s">
         <v>1793</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="14" t="s">
         <v>1794</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C544" s="14" t="s">
         <v>1795</v>
       </c>
       <c r="D544" s="18"/>
@@ -25969,13 +25978,13 @@
       <c r="X545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="9" t="s">
+      <c r="A546" s="14" t="s">
         <v>1799</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="14" t="s">
         <v>1800</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="C546" s="14" t="s">
         <v>1801</v>
       </c>
       <c r="D546" s="18"/>
@@ -26033,13 +26042,13 @@
       <c r="X547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="9" t="s">
+      <c r="A548" s="14" t="s">
         <v>1805</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="14" t="s">
         <v>1806</v>
       </c>
-      <c r="C548" s="9" t="s">
+      <c r="C548" s="14" t="s">
         <v>1807</v>
       </c>
       <c r="D548" s="18"/>
@@ -26193,13 +26202,13 @@
       <c r="X552" s="18"/>
     </row>
     <row r="553">
-      <c r="A553" s="14" t="s">
+      <c r="A553" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="B553" s="14" t="s">
+      <c r="B553" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="C553" s="14" t="s">
+      <c r="C553" s="9" t="s">
         <v>1822</v>
       </c>
       <c r="D553" s="18"/>
@@ -26225,13 +26234,13 @@
       <c r="X553" s="18"/>
     </row>
     <row r="554">
-      <c r="A554" s="14" t="s">
+      <c r="A554" s="9" t="s">
         <v>1823</v>
       </c>
-      <c r="B554" s="14" t="s">
+      <c r="B554" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="C554" s="14" t="s">
+      <c r="C554" s="9" t="s">
         <v>1825</v>
       </c>
       <c r="D554" s="18"/>
@@ -26257,13 +26266,13 @@
       <c r="X554" s="18"/>
     </row>
     <row r="555">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="B555" s="14" t="s">
+      <c r="B555" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="C555" s="14" t="s">
+      <c r="C555" s="9" t="s">
         <v>1828</v>
       </c>
       <c r="D555" s="18"/>
@@ -26289,13 +26298,13 @@
       <c r="X555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="9" t="s">
+      <c r="A556" s="14" t="s">
         <v>1829</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="14" t="s">
         <v>1830</v>
       </c>
-      <c r="C556" s="9" t="s">
+      <c r="C556" s="14" t="s">
         <v>1831</v>
       </c>
       <c r="D556" s="18"/>
@@ -26321,13 +26330,13 @@
       <c r="X556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="9" t="s">
+      <c r="A557" s="14" t="s">
         <v>1832</v>
       </c>
-      <c r="B557" s="9" t="s">
+      <c r="B557" s="14" t="s">
         <v>1833</v>
       </c>
-      <c r="C557" s="9" t="s">
+      <c r="C557" s="14" t="s">
         <v>1834</v>
       </c>
       <c r="D557" s="18"/>
@@ -26353,13 +26362,13 @@
       <c r="X557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="9" t="s">
+      <c r="A558" s="14" t="s">
         <v>1835</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="14" t="s">
         <v>1836</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C558" s="14" t="s">
         <v>1837</v>
       </c>
       <c r="D558" s="18"/>
@@ -26385,13 +26394,13 @@
       <c r="X558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="14" t="s">
+      <c r="A559" s="9" t="s">
         <v>1838</v>
       </c>
-      <c r="B559" s="14" t="s">
+      <c r="B559" s="9" t="s">
         <v>1839</v>
       </c>
-      <c r="C559" s="14" t="s">
+      <c r="C559" s="9" t="s">
         <v>1840</v>
       </c>
       <c r="D559" s="18"/>
@@ -26449,13 +26458,13 @@
       <c r="X560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="14" t="s">
+      <c r="A561" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="B561" s="14" t="s">
+      <c r="B561" s="9" t="s">
         <v>1845</v>
       </c>
-      <c r="C561" s="14" t="s">
+      <c r="C561" s="9" t="s">
         <v>1846</v>
       </c>
       <c r="D561" s="18"/>
@@ -26513,13 +26522,13 @@
       <c r="X562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="9" t="s">
         <v>1851</v>
       </c>
-      <c r="C563" s="14" t="s">
+      <c r="C563" s="9" t="s">
         <v>1852</v>
       </c>
       <c r="D563" s="18"/>
@@ -26577,13 +26586,13 @@
       <c r="X564" s="18"/>
     </row>
     <row r="565">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="14" t="s">
         <v>1857</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="C565" s="14" t="s">
         <v>1858</v>
       </c>
       <c r="D565" s="18"/>
@@ -26641,13 +26650,13 @@
       <c r="X566" s="18"/>
     </row>
     <row r="567">
-      <c r="A567" s="9" t="s">
+      <c r="A567" s="14" t="s">
         <v>1862</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B567" s="14" t="s">
         <v>1863</v>
       </c>
-      <c r="C567" s="9" t="s">
+      <c r="C567" s="14" t="s">
         <v>1864</v>
       </c>
       <c r="D567" s="18"/>
@@ -26705,13 +26714,13 @@
       <c r="X568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="14" t="s">
         <v>1868</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" s="14" t="s">
         <v>1869</v>
       </c>
-      <c r="C569" s="9" t="s">
+      <c r="C569" s="14" t="s">
         <v>1870</v>
       </c>
       <c r="D569" s="18"/>
@@ -26737,13 +26746,13 @@
       <c r="X569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="14" t="s">
+      <c r="A570" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="B570" s="14" t="s">
+      <c r="B570" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="C570" s="14" t="s">
+      <c r="C570" s="9" t="s">
         <v>1873</v>
       </c>
       <c r="D570" s="18"/>
@@ -26897,13 +26906,13 @@
       <c r="X574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="14" t="s">
+      <c r="A575" s="9" t="s">
         <v>1886</v>
       </c>
-      <c r="B575" s="14" t="s">
+      <c r="B575" s="9" t="s">
         <v>1887</v>
       </c>
-      <c r="C575" s="14" t="s">
+      <c r="C575" s="9" t="s">
         <v>1888</v>
       </c>
       <c r="D575" s="18"/>
@@ -26929,13 +26938,13 @@
       <c r="X575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="9" t="s">
+      <c r="A576" s="14" t="s">
         <v>1889</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="14" t="s">
         <v>1890</v>
       </c>
-      <c r="C576" s="9" t="s">
+      <c r="C576" s="14" t="s">
         <v>1891</v>
       </c>
       <c r="D576" s="18"/>
@@ -26993,13 +27002,13 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="14" t="s">
         <v>1895</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="14" t="s">
         <v>1896</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="14" t="s">
         <v>1897</v>
       </c>
       <c r="D578" s="18"/>
@@ -27057,13 +27066,13 @@
       <c r="X579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="14" t="s">
+      <c r="A580" s="9" t="s">
         <v>1901</v>
       </c>
-      <c r="B580" s="14" t="s">
+      <c r="B580" s="9" t="s">
         <v>1902</v>
       </c>
-      <c r="C580" s="14" t="s">
+      <c r="C580" s="9" t="s">
         <v>1903</v>
       </c>
       <c r="D580" s="18"/>
@@ -27121,13 +27130,13 @@
       <c r="X581" s="18"/>
     </row>
     <row r="582">
-      <c r="A582" s="14" t="s">
+      <c r="A582" s="9" t="s">
         <v>1907</v>
       </c>
-      <c r="B582" s="14" t="s">
+      <c r="B582" s="9" t="s">
         <v>1908</v>
       </c>
-      <c r="C582" s="14" t="s">
+      <c r="C582" s="9" t="s">
         <v>1909</v>
       </c>
       <c r="D582" s="18"/>
@@ -27217,13 +27226,13 @@
       <c r="X584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="C585" s="9" t="s">
+      <c r="C585" s="14" t="s">
         <v>1918</v>
       </c>
       <c r="D585" s="18"/>
@@ -27249,13 +27258,13 @@
       <c r="X585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="14" t="s">
         <v>1919</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="14" t="s">
         <v>1920</v>
       </c>
-      <c r="C586" s="9" t="s">
+      <c r="C586" s="14" t="s">
         <v>1921</v>
       </c>
       <c r="D586" s="18"/>
@@ -27313,13 +27322,13 @@
       <c r="X587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="14" t="s">
+      <c r="A588" s="9" t="s">
         <v>1925</v>
       </c>
-      <c r="B588" s="14" t="s">
+      <c r="B588" s="9" t="s">
         <v>1926</v>
       </c>
-      <c r="C588" s="14" t="s">
+      <c r="C588" s="9" t="s">
         <v>1927</v>
       </c>
       <c r="D588" s="18"/>
@@ -27345,13 +27354,13 @@
       <c r="X588" s="18"/>
     </row>
     <row r="589">
-      <c r="A589" s="14" t="s">
+      <c r="A589" s="9" t="s">
         <v>1928</v>
       </c>
-      <c r="B589" s="14" t="s">
+      <c r="B589" s="9" t="s">
         <v>1929</v>
       </c>
-      <c r="C589" s="14" t="s">
+      <c r="C589" s="9" t="s">
         <v>1930</v>
       </c>
       <c r="D589" s="18"/>
@@ -27409,13 +27418,13 @@
       <c r="X590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="9" t="s">
+      <c r="A591" s="14" t="s">
         <v>1934</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="14" t="s">
         <v>1935</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="C591" s="14" t="s">
         <v>1936</v>
       </c>
       <c r="D591" s="18"/>
@@ -27441,13 +27450,13 @@
       <c r="X591" s="18"/>
     </row>
     <row r="592">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="14" t="s">
         <v>1937</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="14" t="s">
         <v>1938</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="14" t="s">
         <v>1939</v>
       </c>
       <c r="D592" s="18"/>
@@ -27633,13 +27642,13 @@
       <c r="X597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="14" t="s">
+      <c r="A598" s="9" t="s">
         <v>1955</v>
       </c>
-      <c r="B598" s="14" t="s">
+      <c r="B598" s="9" t="s">
         <v>1956</v>
       </c>
-      <c r="C598" s="14" t="s">
+      <c r="C598" s="9" t="s">
         <v>1957</v>
       </c>
       <c r="D598" s="18"/>
@@ -27665,13 +27674,13 @@
       <c r="X598" s="18"/>
     </row>
     <row r="599">
-      <c r="A599" s="14" t="s">
+      <c r="A599" s="9" t="s">
         <v>1958</v>
       </c>
-      <c r="B599" s="14" t="s">
+      <c r="B599" s="9" t="s">
         <v>1959</v>
       </c>
-      <c r="C599" s="14" t="s">
+      <c r="C599" s="9" t="s">
         <v>1960</v>
       </c>
       <c r="D599" s="18"/>
@@ -27729,13 +27738,13 @@
       <c r="X600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1964</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1965</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1966</v>
       </c>
       <c r="D601" s="18"/>
@@ -27761,13 +27770,13 @@
       <c r="X601" s="18"/>
     </row>
     <row r="602">
-      <c r="A602" s="9" t="s">
+      <c r="A602" s="14" t="s">
         <v>1967</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" s="14" t="s">
         <v>1968</v>
       </c>
-      <c r="C602" s="9" t="s">
+      <c r="C602" s="14" t="s">
         <v>1969</v>
       </c>
       <c r="D602" s="18"/>
@@ -27793,13 +27802,13 @@
       <c r="X602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="14" t="s">
+      <c r="A603" s="9" t="s">
         <v>1970</v>
       </c>
-      <c r="B603" s="14" t="s">
+      <c r="B603" s="9" t="s">
         <v>1971</v>
       </c>
-      <c r="C603" s="14" t="s">
+      <c r="C603" s="9" t="s">
         <v>1972</v>
       </c>
       <c r="D603" s="18"/>
@@ -28017,13 +28026,13 @@
       <c r="X609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="9" t="s">
+      <c r="A610" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="14" t="s">
         <v>1992</v>
       </c>
-      <c r="C610" s="9" t="s">
+      <c r="C610" s="14" t="s">
         <v>1993</v>
       </c>
       <c r="D610" s="18"/>
@@ -28049,13 +28058,13 @@
       <c r="X610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="14" t="s">
+      <c r="A611" s="9" t="s">
         <v>1994</v>
       </c>
-      <c r="B611" s="14" t="s">
+      <c r="B611" s="9" t="s">
         <v>1995</v>
       </c>
-      <c r="C611" s="14" t="s">
+      <c r="C611" s="9" t="s">
         <v>1996</v>
       </c>
       <c r="D611" s="18"/>
@@ -28081,13 +28090,13 @@
       <c r="X611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="9" t="s">
+      <c r="A612" s="14" t="s">
         <v>1997</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="14" t="s">
         <v>1998</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="C612" s="14" t="s">
         <v>1999</v>
       </c>
       <c r="D612" s="18"/>
@@ -28177,13 +28186,13 @@
       <c r="X614" s="18"/>
     </row>
     <row r="615">
-      <c r="A615" s="14" t="s">
+      <c r="A615" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="B615" s="14" t="s">
+      <c r="B615" s="9" t="s">
         <v>2007</v>
       </c>
-      <c r="C615" s="14" t="s">
+      <c r="C615" s="9" t="s">
         <v>2008</v>
       </c>
       <c r="D615" s="18"/>
@@ -28241,13 +28250,13 @@
       <c r="X616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="s">
+      <c r="A617" s="14" t="s">
         <v>2012</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="14" t="s">
         <v>2013</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="14" t="s">
         <v>2014</v>
       </c>
       <c r="D617" s="18"/>
@@ -28317,21 +28326,21 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="14" t="s">
+      <c r="A622" s="9" t="s">
         <v>2027</v>
       </c>
-      <c r="B622" s="14" t="s">
+      <c r="B622" s="9" t="s">
         <v>2028</v>
       </c>
-      <c r="C622" s="14" t="s">
+      <c r="C622" s="9" t="s">
         <v>2029</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="9" t="s">
+      <c r="A623" s="14" t="s">
         <v>2030</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" s="14" t="s">
         <v>2031</v>
       </c>
       <c r="C623" s="14" t="s">
@@ -28339,10 +28348,10 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="14" t="s">
+      <c r="A624" s="9" t="s">
         <v>2033</v>
       </c>
-      <c r="B624" s="14" t="s">
+      <c r="B624" s="9" t="s">
         <v>2034</v>
       </c>
       <c r="C624" s="14" t="s">
@@ -28361,24 +28370,24 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="9" t="s">
+      <c r="A626" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="14" t="s">
         <v>2040</v>
       </c>
-      <c r="C626" s="9" t="s">
+      <c r="C626" s="14" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="14" t="s">
+      <c r="A627" s="9" t="s">
         <v>2042</v>
       </c>
-      <c r="B627" s="14" t="s">
+      <c r="B627" s="9" t="s">
         <v>2043</v>
       </c>
-      <c r="C627" s="14" t="s">
+      <c r="C627" s="9" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -28405,13 +28414,13 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="9" t="s">
+      <c r="A630" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="14" t="s">
         <v>2052</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C630" s="14" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -28460,57 +28469,57 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="20" t="s">
+      <c r="A635" s="9" t="s">
         <v>2066</v>
       </c>
-      <c r="B635" s="20" t="s">
+      <c r="B635" s="9" t="s">
         <v>2067</v>
       </c>
-      <c r="C635" s="10" t="s">
+      <c r="C635" s="9" t="s">
         <v>2068</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="9" t="s">
+      <c r="A636" s="20" t="s">
         <v>2069</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="20" t="s">
         <v>2070</v>
       </c>
-      <c r="C636" s="9" t="s">
+      <c r="C636" s="10" t="s">
         <v>2071</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="14" t="s">
+      <c r="A637" s="9" t="s">
         <v>2072</v>
       </c>
-      <c r="B637" s="14" t="s">
+      <c r="B637" s="9" t="s">
         <v>2073</v>
       </c>
-      <c r="C637" s="14" t="s">
+      <c r="C637" s="9" t="s">
         <v>2074</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="14" t="s">
         <v>2075</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="14" t="s">
         <v>2076</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="14" t="s">
         <v>2077</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="14" t="s">
+      <c r="A639" s="9" t="s">
         <v>2078</v>
       </c>
-      <c r="B639" s="14" t="s">
+      <c r="B639" s="9" t="s">
         <v>2079</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="9" t="s">
         <v>2080</v>
       </c>
     </row>
@@ -28537,79 +28546,79 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="14" t="s">
         <v>2088</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="14" t="s">
         <v>2089</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="14" t="s">
+      <c r="A643" s="9" t="s">
         <v>2090</v>
       </c>
-      <c r="B643" s="14" t="s">
+      <c r="B643" s="9" t="s">
         <v>2091</v>
       </c>
-      <c r="C643" s="14" t="s">
+      <c r="C643" s="9" t="s">
         <v>2092</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="14" t="s">
         <v>2093</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="14" t="s">
         <v>2094</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="14" t="s">
         <v>2095</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="14" t="s">
+      <c r="A645" s="9" t="s">
         <v>2096</v>
       </c>
-      <c r="B645" s="14" t="s">
+      <c r="B645" s="9" t="s">
         <v>2097</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="9" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2099</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2100</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="14" t="s">
+      <c r="A647" s="9" t="s">
         <v>2102</v>
       </c>
-      <c r="B647" s="14" t="s">
+      <c r="B647" s="9" t="s">
         <v>2103</v>
       </c>
-      <c r="C647" s="14" t="s">
+      <c r="C647" s="9" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="14" t="s">
         <v>2106</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="14" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -28636,13 +28645,13 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="14" t="s">
+      <c r="A651" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="B651" s="14" t="s">
+      <c r="B651" s="9" t="s">
         <v>2115</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C651" s="9" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -28669,13 +28678,13 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="14" t="s">
         <v>2123</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="14" t="s">
         <v>2124</v>
       </c>
-      <c r="C654" s="9" t="s">
+      <c r="C654" s="14" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -28694,7 +28703,7 @@
       <c r="A656" s="9" t="s">
         <v>2129</v>
       </c>
-      <c r="B656" s="14" t="s">
+      <c r="B656" s="9" t="s">
         <v>2130</v>
       </c>
       <c r="C656" s="9" t="s">
@@ -28702,13 +28711,13 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="14" t="s">
+      <c r="A657" s="9" t="s">
         <v>2132</v>
       </c>
       <c r="B657" s="14" t="s">
         <v>2133</v>
       </c>
-      <c r="C657" s="14" t="s">
+      <c r="C657" s="9" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -28724,13 +28733,13 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="9" t="s">
+      <c r="A659" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="14" t="s">
         <v>2139</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="14" t="s">
         <v>2140</v>
       </c>
     </row>
@@ -28768,10 +28777,10 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="20" t="s">
+      <c r="A663" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="B663" s="20" t="s">
+      <c r="B663" s="9" t="s">
         <v>2151</v>
       </c>
       <c r="C663" s="9" t="s">
@@ -28779,10 +28788,10 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="9" t="s">
+      <c r="A664" s="20" t="s">
         <v>2153</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="20" t="s">
         <v>2154</v>
       </c>
       <c r="C664" s="9" t="s">
@@ -28823,13 +28832,13 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="14" t="s">
+      <c r="A668" s="9" t="s">
         <v>2165</v>
       </c>
-      <c r="B668" s="14" t="s">
+      <c r="B668" s="9" t="s">
         <v>2166</v>
       </c>
-      <c r="C668" s="14" t="s">
+      <c r="C668" s="9" t="s">
         <v>2167</v>
       </c>
     </row>
@@ -28856,35 +28865,35 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="9" t="s">
+      <c r="A671" s="14" t="s">
         <v>2174</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="14" t="s">
         <v>2175</v>
       </c>
-      <c r="C671" s="9" t="s">
+      <c r="C671" s="14" t="s">
         <v>2176</v>
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="14" t="s">
+      <c r="A672" s="9" t="s">
         <v>2177</v>
       </c>
-      <c r="B672" s="14" t="s">
+      <c r="B672" s="9" t="s">
         <v>2178</v>
       </c>
-      <c r="C672" s="14" t="s">
+      <c r="C672" s="9" t="s">
         <v>2179</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="9" t="s">
+      <c r="A673" s="14" t="s">
         <v>2180</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="14" t="s">
         <v>2181</v>
       </c>
-      <c r="C673" s="9" t="s">
+      <c r="C673" s="14" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -28911,90 +28920,90 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="14" t="s">
+      <c r="A676" s="9" t="s">
         <v>2189</v>
       </c>
-      <c r="B676" s="14" t="s">
+      <c r="B676" s="9" t="s">
         <v>2190</v>
       </c>
-      <c r="C676" s="14" t="s">
+      <c r="C676" s="9" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="9" t="s">
+      <c r="A677" s="14" t="s">
         <v>2192</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="14" t="s">
         <v>2193</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="14" t="s">
         <v>2194</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="14" t="s">
+      <c r="A678" s="9" t="s">
         <v>2195</v>
       </c>
-      <c r="B678" s="14" t="s">
+      <c r="B678" s="9" t="s">
         <v>2196</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="9" t="s">
         <v>2197</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="9" t="s">
+      <c r="A679" s="14" t="s">
         <v>2198</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" s="14" t="s">
         <v>2199</v>
       </c>
-      <c r="C679" s="9" t="s">
+      <c r="C679" s="14" t="s">
         <v>2200</v>
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="14" t="s">
+      <c r="A680" s="9" t="s">
         <v>2201</v>
       </c>
-      <c r="B680" s="14" t="s">
+      <c r="B680" s="9" t="s">
         <v>2202</v>
       </c>
-      <c r="C680" s="14" t="s">
+      <c r="C680" s="9" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="9" t="s">
+      <c r="A681" s="14" t="s">
         <v>2204</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="14" t="s">
         <v>2205</v>
       </c>
-      <c r="C681" s="9" t="s">
+      <c r="C681" s="14" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="14" t="s">
+      <c r="A682" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="B682" s="14" t="s">
+      <c r="B682" s="9" t="s">
         <v>2208</v>
       </c>
-      <c r="C682" s="14" t="s">
+      <c r="C682" s="9" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2212</v>
       </c>
     </row>
@@ -29021,35 +29030,35 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="9" t="s">
         <v>2219</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2220</v>
       </c>
-      <c r="C686" s="14" t="s">
+      <c r="C686" s="9" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="9" t="s">
+      <c r="A687" s="14" t="s">
         <v>2222</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="14" t="s">
         <v>2223</v>
       </c>
-      <c r="C687" s="9" t="s">
+      <c r="C687" s="14" t="s">
         <v>2224</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="9" t="s">
         <v>2225</v>
       </c>
-      <c r="B688" s="14" t="s">
+      <c r="B688" s="9" t="s">
         <v>2226</v>
       </c>
-      <c r="C688" s="14" t="s">
+      <c r="C688" s="9" t="s">
         <v>2227</v>
       </c>
     </row>
@@ -29076,24 +29085,24 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="9" t="s">
+      <c r="A691" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="14" t="s">
         <v>2235</v>
       </c>
-      <c r="C691" s="9" t="s">
+      <c r="C691" s="14" t="s">
         <v>2236</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2237</v>
       </c>
-      <c r="B692" s="14" t="s">
+      <c r="B692" s="9" t="s">
         <v>2238</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2239</v>
       </c>
     </row>
@@ -29109,13 +29118,13 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="14" t="s">
         <v>2243</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="C694" s="9" t="s">
+      <c r="C694" s="14" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -29175,13 +29184,13 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="14" t="s">
+      <c r="A700" s="9" t="s">
         <v>2261</v>
       </c>
-      <c r="B700" s="14" t="s">
+      <c r="B700" s="9" t="s">
         <v>2262</v>
       </c>
-      <c r="C700" s="14" t="s">
+      <c r="C700" s="9" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -29208,13 +29217,13 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="9" t="s">
+      <c r="A703" s="14" t="s">
         <v>2270</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B703" s="14" t="s">
         <v>2271</v>
       </c>
-      <c r="C703" s="9" t="s">
+      <c r="C703" s="14" t="s">
         <v>2272</v>
       </c>
     </row>
@@ -29230,24 +29239,24 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="14" t="s">
+      <c r="A705" s="9" t="s">
         <v>2276</v>
       </c>
-      <c r="B705" s="14" t="s">
+      <c r="B705" s="9" t="s">
         <v>2277</v>
       </c>
-      <c r="C705" s="14" t="s">
+      <c r="C705" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="9" t="s">
+      <c r="A706" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="14" t="s">
         <v>2280</v>
       </c>
-      <c r="C706" s="9" t="s">
+      <c r="C706" s="14" t="s">
         <v>2281</v>
       </c>
     </row>
@@ -29263,24 +29272,24 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="14" t="s">
+      <c r="A708" s="9" t="s">
         <v>2285</v>
       </c>
-      <c r="B708" s="14" t="s">
+      <c r="B708" s="9" t="s">
         <v>2286</v>
       </c>
-      <c r="C708" s="14" t="s">
+      <c r="C708" s="9" t="s">
         <v>2287</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="9" t="s">
+      <c r="A709" s="14" t="s">
         <v>2288</v>
       </c>
-      <c r="B709" s="9" t="s">
+      <c r="B709" s="14" t="s">
         <v>2289</v>
       </c>
-      <c r="C709" s="9" t="s">
+      <c r="C709" s="14" t="s">
         <v>2290</v>
       </c>
     </row>
@@ -29307,24 +29316,24 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="14" t="s">
+      <c r="A712" s="9" t="s">
         <v>2297</v>
       </c>
-      <c r="B712" s="14" t="s">
+      <c r="B712" s="9" t="s">
         <v>2298</v>
       </c>
-      <c r="C712" s="14" t="s">
+      <c r="C712" s="9" t="s">
         <v>2299</v>
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="9" t="s">
+      <c r="A713" s="14" t="s">
         <v>2300</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" s="14" t="s">
         <v>2301</v>
       </c>
-      <c r="C713" s="9" t="s">
+      <c r="C713" s="14" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -29340,24 +29349,24 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="14" t="s">
+      <c r="A715" s="9" t="s">
         <v>2306</v>
       </c>
-      <c r="B715" s="14" t="s">
+      <c r="B715" s="9" t="s">
         <v>2307</v>
       </c>
-      <c r="C715" s="14" t="s">
+      <c r="C715" s="9" t="s">
         <v>2308</v>
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="14" t="s">
         <v>2309</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="14" t="s">
         <v>2310</v>
       </c>
-      <c r="C716" s="9" t="s">
+      <c r="C716" s="14" t="s">
         <v>2311</v>
       </c>
     </row>
@@ -29384,13 +29393,13 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="14" t="s">
+      <c r="A719" s="9" t="s">
         <v>2318</v>
       </c>
-      <c r="B719" s="14" t="s">
+      <c r="B719" s="9" t="s">
         <v>2319</v>
       </c>
-      <c r="C719" s="14" t="s">
+      <c r="C719" s="9" t="s">
         <v>2320</v>
       </c>
     </row>
@@ -29417,13 +29426,13 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="9" t="s">
+      <c r="A722" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="14" t="s">
         <v>2328</v>
       </c>
-      <c r="C722" s="9" t="s">
+      <c r="C722" s="14" t="s">
         <v>2329</v>
       </c>
     </row>
@@ -29450,13 +29459,13 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="14" t="s">
+      <c r="A725" s="9" t="s">
         <v>2336</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="9" t="s">
         <v>2337</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2338</v>
       </c>
     </row>
@@ -29494,10 +29503,10 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="9" t="s">
+      <c r="A729" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="14" t="s">
         <v>2349</v>
       </c>
       <c r="C729" s="14" t="s">
@@ -29511,18 +29520,18 @@
       <c r="B730" s="9" t="s">
         <v>2352</v>
       </c>
-      <c r="C730" s="9" t="s">
+      <c r="C730" s="14" t="s">
         <v>2353</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="14" t="s">
+      <c r="A731" s="9" t="s">
         <v>2354</v>
       </c>
-      <c r="B731" s="14" t="s">
+      <c r="B731" s="9" t="s">
         <v>2355</v>
       </c>
-      <c r="C731" s="14" t="s">
+      <c r="C731" s="9" t="s">
         <v>2356</v>
       </c>
     </row>
@@ -29533,7 +29542,7 @@
       <c r="B732" s="14" t="s">
         <v>2358</v>
       </c>
-      <c r="C732" s="9" t="s">
+      <c r="C732" s="14" t="s">
         <v>2359</v>
       </c>
     </row>
@@ -29555,18 +29564,18 @@
       <c r="B734" s="14" t="s">
         <v>2364</v>
       </c>
-      <c r="C734" s="14" t="s">
+      <c r="C734" s="9" t="s">
         <v>2365</v>
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="9" t="s">
+      <c r="A735" s="14" t="s">
         <v>2366</v>
       </c>
-      <c r="B735" s="9" t="s">
+      <c r="B735" s="14" t="s">
         <v>2367</v>
       </c>
-      <c r="C735" s="9" t="s">
+      <c r="C735" s="14" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -29574,7 +29583,7 @@
       <c r="A736" s="9" t="s">
         <v>2369</v>
       </c>
-      <c r="B736" s="14" t="s">
+      <c r="B736" s="9" t="s">
         <v>2370</v>
       </c>
       <c r="C736" s="9" t="s">
@@ -29585,7 +29594,7 @@
       <c r="A737" s="9" t="s">
         <v>2372</v>
       </c>
-      <c r="B737" s="9" t="s">
+      <c r="B737" s="14" t="s">
         <v>2373</v>
       </c>
       <c r="C737" s="9" t="s">
@@ -29621,15 +29630,15 @@
       <c r="B740" s="9" t="s">
         <v>2382</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2383</v>
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="14" t="s">
+      <c r="A741" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="14" t="s">
+      <c r="B741" s="9" t="s">
         <v>2385</v>
       </c>
       <c r="C741" s="14" t="s">
@@ -29637,32 +29646,32 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="9" t="s">
+      <c r="A742" s="14" t="s">
         <v>2387</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="14" t="s">
         <v>2388</v>
       </c>
-      <c r="C742" s="9" t="s">
+      <c r="C742" s="14" t="s">
         <v>2389</v>
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="14" t="s">
+      <c r="A743" s="9" t="s">
         <v>2390</v>
       </c>
-      <c r="B743" s="14" t="s">
+      <c r="B743" s="9" t="s">
         <v>2391</v>
       </c>
-      <c r="C743" s="14" t="s">
+      <c r="C743" s="9" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="9" t="s">
+      <c r="A744" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" s="14" t="s">
         <v>2394</v>
       </c>
       <c r="C744" s="14" t="s">
@@ -29670,33 +29679,33 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="14" t="s">
+      <c r="A745" s="9" t="s">
         <v>2396</v>
       </c>
-      <c r="B745" s="14" t="s">
+      <c r="B745" s="9" t="s">
         <v>2397</v>
       </c>
-      <c r="C745" s="9" t="s">
+      <c r="C745" s="14" t="s">
         <v>2398</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2399</v>
       </c>
-      <c r="B746" s="9" t="s">
-        <v>2262</v>
+      <c r="B746" s="14" t="s">
+        <v>2400</v>
       </c>
       <c r="C746" s="9" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="9" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="B747" s="9" t="s">
-        <v>2402</v>
+        <v>2265</v>
       </c>
       <c r="C747" s="9" t="s">
         <v>2403</v>
@@ -29731,15 +29740,15 @@
       <c r="B750" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="C750" s="14" t="s">
+      <c r="C750" s="9" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="14" t="s">
+      <c r="A751" s="9" t="s">
         <v>2413</v>
       </c>
-      <c r="B751" s="14" t="s">
+      <c r="B751" s="9" t="s">
         <v>2414</v>
       </c>
       <c r="C751" s="14" t="s">
@@ -29750,10 +29759,10 @@
       <c r="A752" s="14" t="s">
         <v>2416</v>
       </c>
-      <c r="B752" s="9" t="s">
+      <c r="B752" s="14" t="s">
         <v>2417</v>
       </c>
-      <c r="C752" s="9" t="s">
+      <c r="C752" s="14" t="s">
         <v>2418</v>
       </c>
     </row>
@@ -29761,7 +29770,7 @@
       <c r="A753" s="14" t="s">
         <v>2419</v>
       </c>
-      <c r="B753" s="14" t="s">
+      <c r="B753" s="9" t="s">
         <v>2420</v>
       </c>
       <c r="C753" s="9" t="s">
@@ -29769,10 +29778,10 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="9" t="s">
+      <c r="A754" s="14" t="s">
         <v>2422</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="14" t="s">
         <v>2423</v>
       </c>
       <c r="C754" s="9" t="s">
@@ -29786,7 +29795,7 @@
       <c r="B755" s="9" t="s">
         <v>2426</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2427</v>
       </c>
     </row>
@@ -29797,29 +29806,29 @@
       <c r="B756" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="14" t="s">
+      <c r="A757" s="9" t="s">
         <v>2431</v>
       </c>
-      <c r="B757" s="14" t="s">
+      <c r="B757" s="9" t="s">
         <v>2432</v>
       </c>
-      <c r="C757" s="14" t="s">
+      <c r="C757" s="9" t="s">
         <v>2433</v>
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="14" t="s">
         <v>2434</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="14" t="s">
         <v>2435</v>
       </c>
-      <c r="C758" s="9" t="s">
+      <c r="C758" s="14" t="s">
         <v>2436</v>
       </c>
     </row>
@@ -29835,10 +29844,10 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="14" t="s">
+      <c r="A760" s="9" t="s">
         <v>2440</v>
       </c>
-      <c r="B760" s="14" t="s">
+      <c r="B760" s="9" t="s">
         <v>2441</v>
       </c>
       <c r="C760" s="9" t="s">
@@ -29846,10 +29855,10 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="9" t="s">
+      <c r="A761" s="14" t="s">
         <v>2443</v>
       </c>
-      <c r="B761" s="9" t="s">
+      <c r="B761" s="14" t="s">
         <v>2444</v>
       </c>
       <c r="C761" s="9" t="s">
@@ -29879,43 +29888,43 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2452</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="C764" s="14" t="s">
+      <c r="C764" s="9" t="s">
         <v>2454</v>
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="9" t="s">
+      <c r="A765" s="14" t="s">
         <v>2455</v>
       </c>
-      <c r="B765" s="9" t="s">
+      <c r="B765" s="14" t="s">
         <v>2456</v>
       </c>
-      <c r="C765" s="9" t="s">
+      <c r="C765" s="14" t="s">
         <v>2457</v>
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="14" t="s">
+      <c r="A766" s="9" t="s">
         <v>2458</v>
       </c>
-      <c r="B766" s="14" t="s">
+      <c r="B766" s="9" t="s">
         <v>2459</v>
       </c>
-      <c r="C766" s="14" t="s">
+      <c r="C766" s="9" t="s">
         <v>2460</v>
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="9" t="s">
+      <c r="A767" s="14" t="s">
         <v>2461</v>
       </c>
-      <c r="B767" s="9" t="s">
+      <c r="B767" s="14" t="s">
         <v>2462</v>
       </c>
       <c r="C767" s="14" t="s">
@@ -29923,10 +29932,10 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="14" t="s">
+      <c r="A768" s="9" t="s">
         <v>2464</v>
       </c>
-      <c r="B768" s="14" t="s">
+      <c r="B768" s="9" t="s">
         <v>2465</v>
       </c>
       <c r="C768" s="14" t="s">
@@ -29934,10 +29943,10 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="9" t="s">
+      <c r="A769" s="14" t="s">
         <v>2467</v>
       </c>
-      <c r="B769" s="9" t="s">
+      <c r="B769" s="14" t="s">
         <v>2468</v>
       </c>
       <c r="C769" s="14" t="s">
@@ -29945,13 +29954,13 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="14" t="s">
+      <c r="A770" s="9" t="s">
         <v>2470</v>
       </c>
-      <c r="B770" s="14" t="s">
+      <c r="B770" s="9" t="s">
         <v>2471</v>
       </c>
-      <c r="C770" s="9" t="s">
+      <c r="C770" s="14" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -29962,29 +29971,29 @@
       <c r="B771" s="14" t="s">
         <v>2474</v>
       </c>
-      <c r="C771" s="14" t="s">
+      <c r="C771" s="9" t="s">
         <v>2475</v>
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="14" t="s">
         <v>2477</v>
       </c>
-      <c r="C772" s="9" t="s">
+      <c r="C772" s="14" t="s">
         <v>2478</v>
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="14" t="s">
+      <c r="A773" s="9" t="s">
         <v>2479</v>
       </c>
-      <c r="B773" s="14" t="s">
+      <c r="B773" s="9" t="s">
         <v>2480</v>
       </c>
-      <c r="C773" s="14" t="s">
+      <c r="C773" s="9" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -30039,7 +30048,7 @@
       <c r="B778" s="14" t="s">
         <v>2495</v>
       </c>
-      <c r="C778" s="9" t="s">
+      <c r="C778" s="14" t="s">
         <v>2496</v>
       </c>
     </row>
@@ -30047,7 +30056,7 @@
       <c r="A779" s="14" t="s">
         <v>2497</v>
       </c>
-      <c r="B779" s="9" t="s">
+      <c r="B779" s="14" t="s">
         <v>2498</v>
       </c>
       <c r="C779" s="9" t="s">
@@ -30058,7 +30067,7 @@
       <c r="A780" s="14" t="s">
         <v>2500</v>
       </c>
-      <c r="B780" s="14" t="s">
+      <c r="B780" s="9" t="s">
         <v>2501</v>
       </c>
       <c r="C780" s="9" t="s">
@@ -30066,13 +30075,13 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="9" t="s">
+      <c r="A781" s="14" t="s">
         <v>2503</v>
       </c>
-      <c r="B781" s="9" t="s">
+      <c r="B781" s="14" t="s">
         <v>2504</v>
       </c>
-      <c r="C781" s="14" t="s">
+      <c r="C781" s="9" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -30083,26 +30092,26 @@
       <c r="B782" s="9" t="s">
         <v>2507</v>
       </c>
-      <c r="C782" s="9" t="s">
+      <c r="C782" s="14" t="s">
         <v>2508</v>
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="14" t="s">
+      <c r="A783" s="9" t="s">
         <v>2509</v>
       </c>
-      <c r="B783" s="14" t="s">
+      <c r="B783" s="9" t="s">
         <v>2510</v>
       </c>
-      <c r="C783" s="14" t="s">
+      <c r="C783" s="9" t="s">
         <v>2511</v>
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="9" t="s">
+      <c r="A784" s="14" t="s">
         <v>2512</v>
       </c>
-      <c r="B784" s="9" t="s">
+      <c r="B784" s="14" t="s">
         <v>2513</v>
       </c>
       <c r="C784" s="14" t="s">
@@ -30110,13 +30119,13 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="14" t="s">
+      <c r="A785" s="9" t="s">
         <v>2515</v>
       </c>
-      <c r="B785" s="14" t="s">
+      <c r="B785" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="C785" s="9" t="s">
+      <c r="C785" s="14" t="s">
         <v>2517</v>
       </c>
     </row>
@@ -30127,26 +30136,26 @@
       <c r="B786" s="14" t="s">
         <v>2519</v>
       </c>
-      <c r="C786" s="14" t="s">
+      <c r="C786" s="9" t="s">
         <v>2520</v>
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="9" t="s">
+      <c r="A787" s="14" t="s">
         <v>2521</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="14" t="s">
         <v>2522</v>
       </c>
-      <c r="C787" s="9" t="s">
+      <c r="C787" s="14" t="s">
         <v>2523</v>
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="14" t="s">
+      <c r="A788" s="9" t="s">
         <v>2524</v>
       </c>
-      <c r="B788" s="14" t="s">
+      <c r="B788" s="9" t="s">
         <v>2525</v>
       </c>
       <c r="C788" s="9" t="s">
@@ -30154,10 +30163,10 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="9" t="s">
+      <c r="A789" s="14" t="s">
         <v>2527</v>
       </c>
-      <c r="B789" s="9" t="s">
+      <c r="B789" s="14" t="s">
         <v>2528</v>
       </c>
       <c r="C789" s="9" t="s">
@@ -30182,7 +30191,7 @@
       <c r="B791" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="C791" s="14" t="s">
+      <c r="C791" s="9" t="s">
         <v>2535</v>
       </c>
     </row>
@@ -30193,7 +30202,7 @@
       <c r="B792" s="9" t="s">
         <v>2537</v>
       </c>
-      <c r="C792" s="9" t="s">
+      <c r="C792" s="14" t="s">
         <v>2538</v>
       </c>
     </row>
@@ -30215,15 +30224,15 @@
       <c r="B794" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="C794" s="14" t="s">
+      <c r="C794" s="9" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="14" t="s">
+      <c r="A795" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B795" s="14" t="s">
+      <c r="B795" s="9" t="s">
         <v>2546</v>
       </c>
       <c r="C795" s="14" t="s">
@@ -30235,31 +30244,31 @@
         <v>2548</v>
       </c>
       <c r="B796" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="C796" s="9" t="s">
         <v>2549</v>
+      </c>
+      <c r="C796" s="14" t="s">
+        <v>2550</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="14" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B797" s="14" t="s">
-        <v>2551</v>
+        <v>832</v>
       </c>
       <c r="C797" s="9" t="s">
         <v>2552</v>
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="9" t="s">
+      <c r="A798" s="14" t="s">
         <v>2553</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B798" s="14" t="s">
         <v>2554</v>
       </c>
-      <c r="C798" s="14" t="s">
+      <c r="C798" s="9" t="s">
         <v>2555</v>
       </c>
     </row>
@@ -30270,7 +30279,7 @@
       <c r="B799" s="9" t="s">
         <v>2557</v>
       </c>
-      <c r="C799" s="9" t="s">
+      <c r="C799" s="14" t="s">
         <v>2558</v>
       </c>
     </row>
@@ -30281,7 +30290,7 @@
       <c r="B800" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="C800" s="14" t="s">
+      <c r="C800" s="9" t="s">
         <v>2561</v>
       </c>
     </row>
@@ -30292,18 +30301,18 @@
       <c r="B801" s="9" t="s">
         <v>2563</v>
       </c>
-      <c r="C801" s="9" t="s">
+      <c r="C801" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="14" t="s">
+      <c r="A802" s="9" t="s">
         <v>2565</v>
       </c>
-      <c r="B802" s="14" t="s">
+      <c r="B802" s="9" t="s">
         <v>2566</v>
       </c>
-      <c r="C802" s="14" t="s">
+      <c r="C802" s="9" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -30352,8 +30361,15 @@
       </c>
     </row>
     <row r="807">
-      <c r="B807" s="22"/>
-      <c r="C807" s="22"/>
+      <c r="A807" s="14" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B807" s="14" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C807" s="14" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="808">
       <c r="B808" s="22"/>
@@ -31136,10 +31152,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$806">
-    <sortState ref="A1:C806">
-      <sortCondition ref="A1:A806"/>
-      <sortCondition ref="B1:B806"/>
+  <autoFilter ref="$A$1:$C$807">
+    <sortState ref="A1:C807">
+      <sortCondition ref="A1:A807"/>
+      <sortCondition ref="B1:B807"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -1374,22 +1374,22 @@
     <t>дэргацят</t>
   </si>
   <si>
-    <t>desya</t>
+    <t>desyat</t>
   </si>
   <si>
     <t>ten</t>
   </si>
   <si>
-    <t>дэся</t>
-  </si>
-  <si>
-    <t>desyararl</t>
+    <t>дэсят</t>
+  </si>
+  <si>
+    <t>desyatrarl</t>
   </si>
   <si>
     <t>decade, 10 years</t>
   </si>
   <si>
-    <t>дэсярарл</t>
+    <t>дэсятрарл</t>
   </si>
   <si>
     <t>digatsya</t>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$807</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$810</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="2583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="2591">
   <si>
     <t>Word</t>
   </si>
@@ -81,7 +81,7 @@
     <t>if ends with syllable, add -cho. if ends with -t, -t becomes -cho</t>
   </si>
   <si>
-    <t>suit</t>
+    <t>motor</t>
   </si>
   <si>
     <t>na kaelm felatae mol agelovor = i food collected from factory = i got my food from the factory</t>
@@ -6006,6 +6006,15 @@
     <t>сифэнмуже</t>
   </si>
   <si>
+    <t>sikol</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>сикол</t>
+  </si>
+  <si>
     <t>silarkish</t>
   </si>
   <si>
@@ -6645,6 +6654,15 @@
     <t>тона</t>
   </si>
   <si>
+    <t>tonasikol</t>
+  </si>
+  <si>
+    <t>bicycle, bike</t>
+  </si>
+  <si>
+    <t>тонасикол</t>
+  </si>
+  <si>
     <t>tort</t>
   </si>
   <si>
@@ -7170,10 +7188,16 @@
     <t>vlunst</t>
   </si>
   <si>
-    <t>motor</t>
-  </si>
-  <si>
     <t>влунст</t>
+  </si>
+  <si>
+    <t>vlunstsikol</t>
+  </si>
+  <si>
+    <t>motorcycle, motorbike, dirt bike</t>
+  </si>
+  <si>
+    <t>влунстсикол</t>
   </si>
   <si>
     <t>vlyevlir</t>
@@ -8349,12 +8373,12 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="21" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"galon porsk")</f>
-        <v>galon porsk</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"vlunst")</f>
+        <v>vlunst</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hazmat suit")</f>
-        <v>hazmat suit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"motor")</f>
+        <v>motor</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>35</v>
@@ -8395,12 +8419,12 @@
         <v>40</v>
       </c>
       <c r="G6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"porsk")</f>
-        <v>porsk</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"vlunstsikol")</f>
+        <v>vlunstsikol</v>
       </c>
       <c r="H6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"suit, full body suit")</f>
-        <v>suit, full body suit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"motorcycle, motorbike, dirt bike")</f>
+        <v>motorcycle, motorbike, dirt bike</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>41</v>
@@ -28122,13 +28146,13 @@
       <c r="X612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="9" t="s">
+      <c r="A613" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" s="14" t="s">
         <v>2001</v>
       </c>
-      <c r="C613" s="9" t="s">
+      <c r="C613" s="14" t="s">
         <v>2002</v>
       </c>
       <c r="D613" s="18"/>
@@ -28218,13 +28242,13 @@
       <c r="X615" s="18"/>
     </row>
     <row r="616">
-      <c r="A616" s="14" t="s">
+      <c r="A616" s="9" t="s">
         <v>2009</v>
       </c>
-      <c r="B616" s="14" t="s">
+      <c r="B616" s="9" t="s">
         <v>2010</v>
       </c>
-      <c r="C616" s="14" t="s">
+      <c r="C616" s="9" t="s">
         <v>2011</v>
       </c>
       <c r="D616" s="18"/>
@@ -28282,13 +28306,13 @@
       <c r="X617" s="18"/>
     </row>
     <row r="618">
-      <c r="A618" s="9" t="s">
+      <c r="A618" s="14" t="s">
         <v>2015</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="14" t="s">
         <v>2016</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="C618" s="14" t="s">
         <v>2017</v>
       </c>
     </row>
@@ -28337,21 +28361,21 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="14" t="s">
+      <c r="A623" s="9" t="s">
         <v>2030</v>
       </c>
-      <c r="B623" s="14" t="s">
+      <c r="B623" s="9" t="s">
         <v>2031</v>
       </c>
-      <c r="C623" s="14" t="s">
+      <c r="C623" s="9" t="s">
         <v>2032</v>
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="9" t="s">
+      <c r="A624" s="14" t="s">
         <v>2033</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="14" t="s">
         <v>2034</v>
       </c>
       <c r="C624" s="14" t="s">
@@ -28359,10 +28383,10 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="14" t="s">
+      <c r="A625" s="9" t="s">
         <v>2036</v>
       </c>
-      <c r="B625" s="14" t="s">
+      <c r="B625" s="9" t="s">
         <v>2037</v>
       </c>
       <c r="C625" s="14" t="s">
@@ -28381,24 +28405,24 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="9" t="s">
+      <c r="A627" s="14" t="s">
         <v>2042</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="14" t="s">
         <v>2043</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="C627" s="14" t="s">
         <v>2044</v>
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="14" t="s">
+      <c r="A628" s="9" t="s">
         <v>2045</v>
       </c>
-      <c r="B628" s="14" t="s">
+      <c r="B628" s="9" t="s">
         <v>2046</v>
       </c>
-      <c r="C628" s="14" t="s">
+      <c r="C628" s="9" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -28425,13 +28449,13 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="9" t="s">
+      <c r="A631" s="14" t="s">
         <v>2054</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" s="14" t="s">
         <v>2055</v>
       </c>
-      <c r="C631" s="9" t="s">
+      <c r="C631" s="14" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -28480,57 +28504,57 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="20" t="s">
+      <c r="A636" s="9" t="s">
         <v>2069</v>
       </c>
-      <c r="B636" s="20" t="s">
+      <c r="B636" s="9" t="s">
         <v>2070</v>
       </c>
-      <c r="C636" s="10" t="s">
+      <c r="C636" s="9" t="s">
         <v>2071</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="9" t="s">
+      <c r="A637" s="20" t="s">
         <v>2072</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" s="20" t="s">
         <v>2073</v>
       </c>
-      <c r="C637" s="9" t="s">
+      <c r="C637" s="10" t="s">
         <v>2074</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="14" t="s">
+      <c r="A638" s="9" t="s">
         <v>2075</v>
       </c>
-      <c r="B638" s="14" t="s">
+      <c r="B638" s="9" t="s">
         <v>2076</v>
       </c>
-      <c r="C638" s="14" t="s">
+      <c r="C638" s="9" t="s">
         <v>2077</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="9" t="s">
+      <c r="A639" s="14" t="s">
         <v>2078</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="14" t="s">
         <v>2079</v>
       </c>
-      <c r="C639" s="9" t="s">
+      <c r="C639" s="14" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="14" t="s">
+      <c r="A640" s="9" t="s">
         <v>2081</v>
       </c>
-      <c r="B640" s="14" t="s">
+      <c r="B640" s="9" t="s">
         <v>2082</v>
       </c>
-      <c r="C640" s="14" t="s">
+      <c r="C640" s="9" t="s">
         <v>2083</v>
       </c>
     </row>
@@ -28557,79 +28581,79 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="9" t="s">
+      <c r="A643" s="14" t="s">
         <v>2090</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" s="14" t="s">
         <v>2091</v>
       </c>
-      <c r="C643" s="9" t="s">
+      <c r="C643" s="14" t="s">
         <v>2092</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="14" t="s">
+      <c r="A644" s="9" t="s">
         <v>2093</v>
       </c>
-      <c r="B644" s="14" t="s">
+      <c r="B644" s="9" t="s">
         <v>2094</v>
       </c>
-      <c r="C644" s="14" t="s">
+      <c r="C644" s="9" t="s">
         <v>2095</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="9" t="s">
+      <c r="A645" s="14" t="s">
         <v>2096</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="14" t="s">
         <v>2097</v>
       </c>
-      <c r="C645" s="9" t="s">
+      <c r="C645" s="14" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="14" t="s">
+      <c r="A646" s="9" t="s">
         <v>2099</v>
       </c>
-      <c r="B646" s="14" t="s">
+      <c r="B646" s="9" t="s">
         <v>2100</v>
       </c>
-      <c r="C646" s="14" t="s">
+      <c r="C646" s="9" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="9" t="s">
+      <c r="A647" s="14" t="s">
         <v>2102</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="14" t="s">
         <v>2103</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="14" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="14" t="s">
+      <c r="A648" s="9" t="s">
         <v>2105</v>
       </c>
-      <c r="B648" s="14" t="s">
+      <c r="B648" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="C648" s="14" t="s">
+      <c r="C648" s="9" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="9" t="s">
+      <c r="A649" s="14" t="s">
         <v>2108</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="14" t="s">
         <v>2109</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="14" t="s">
         <v>2110</v>
       </c>
     </row>
@@ -28656,13 +28680,13 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="14" t="s">
+      <c r="A652" s="9" t="s">
         <v>2117</v>
       </c>
-      <c r="B652" s="14" t="s">
+      <c r="B652" s="9" t="s">
         <v>2118</v>
       </c>
-      <c r="C652" s="14" t="s">
+      <c r="C652" s="9" t="s">
         <v>2119</v>
       </c>
     </row>
@@ -28689,13 +28713,13 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="9" t="s">
+      <c r="A655" s="14" t="s">
         <v>2126</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="14" t="s">
         <v>2127</v>
       </c>
-      <c r="C655" s="9" t="s">
+      <c r="C655" s="14" t="s">
         <v>2128</v>
       </c>
     </row>
@@ -28714,7 +28738,7 @@
       <c r="A657" s="9" t="s">
         <v>2132</v>
       </c>
-      <c r="B657" s="14" t="s">
+      <c r="B657" s="9" t="s">
         <v>2133</v>
       </c>
       <c r="C657" s="9" t="s">
@@ -28722,13 +28746,13 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="14" t="s">
+      <c r="A658" s="9" t="s">
         <v>2135</v>
       </c>
       <c r="B658" s="14" t="s">
         <v>2136</v>
       </c>
-      <c r="C658" s="14" t="s">
+      <c r="C658" s="9" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -28744,13 +28768,13 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="9" t="s">
+      <c r="A660" s="14" t="s">
         <v>2141</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="14" t="s">
         <v>2142</v>
       </c>
-      <c r="C660" s="9" t="s">
+      <c r="C660" s="14" t="s">
         <v>2143</v>
       </c>
     </row>
@@ -28788,10 +28812,10 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="20" t="s">
+      <c r="A664" s="9" t="s">
         <v>2153</v>
       </c>
-      <c r="B664" s="20" t="s">
+      <c r="B664" s="9" t="s">
         <v>2154</v>
       </c>
       <c r="C664" s="9" t="s">
@@ -28799,10 +28823,10 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="9" t="s">
+      <c r="A665" s="20" t="s">
         <v>2156</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="20" t="s">
         <v>2157</v>
       </c>
       <c r="C665" s="9" t="s">
@@ -28843,13 +28867,13 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="14" t="s">
+      <c r="A669" s="9" t="s">
         <v>2168</v>
       </c>
-      <c r="B669" s="14" t="s">
+      <c r="B669" s="9" t="s">
         <v>2169</v>
       </c>
-      <c r="C669" s="14" t="s">
+      <c r="C669" s="9" t="s">
         <v>2170</v>
       </c>
     </row>
@@ -28876,35 +28900,35 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="9" t="s">
+      <c r="A672" s="14" t="s">
         <v>2177</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="14" t="s">
         <v>2178</v>
       </c>
-      <c r="C672" s="9" t="s">
+      <c r="C672" s="14" t="s">
         <v>2179</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="14" t="s">
+      <c r="A673" s="9" t="s">
         <v>2180</v>
       </c>
-      <c r="B673" s="14" t="s">
+      <c r="B673" s="9" t="s">
         <v>2181</v>
       </c>
-      <c r="C673" s="14" t="s">
+      <c r="C673" s="9" t="s">
         <v>2182</v>
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="9" t="s">
+      <c r="A674" s="14" t="s">
         <v>2183</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" s="14" t="s">
         <v>2184</v>
       </c>
-      <c r="C674" s="9" t="s">
+      <c r="C674" s="14" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -28931,101 +28955,101 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="14" t="s">
+      <c r="A677" s="9" t="s">
         <v>2192</v>
       </c>
-      <c r="B677" s="14" t="s">
+      <c r="B677" s="9" t="s">
         <v>2193</v>
       </c>
-      <c r="C677" s="14" t="s">
+      <c r="C677" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="14" t="s">
         <v>2195</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="14" t="s">
         <v>2196</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="14" t="s">
         <v>2197</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="14" t="s">
+      <c r="A679" s="9" t="s">
         <v>2198</v>
       </c>
-      <c r="B679" s="14" t="s">
+      <c r="B679" s="9" t="s">
         <v>2199</v>
       </c>
-      <c r="C679" s="14" t="s">
+      <c r="C679" s="9" t="s">
         <v>2200</v>
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="9" t="s">
+      <c r="A680" s="14" t="s">
         <v>2201</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="14" t="s">
         <v>2202</v>
       </c>
-      <c r="C680" s="9" t="s">
+      <c r="C680" s="14" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="14" t="s">
+      <c r="A681" s="9" t="s">
         <v>2204</v>
       </c>
-      <c r="B681" s="14" t="s">
+      <c r="B681" s="9" t="s">
         <v>2205</v>
       </c>
-      <c r="C681" s="14" t="s">
+      <c r="C681" s="9" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="9" t="s">
+      <c r="A682" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="C682" s="9" t="s">
+      <c r="C682" s="14" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="14" t="s">
+      <c r="A683" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="B683" s="14" t="s">
+      <c r="B683" s="9" t="s">
         <v>2211</v>
       </c>
-      <c r="C683" s="14" t="s">
+      <c r="C683" s="9" t="s">
         <v>2212</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="14" t="s">
         <v>2214</v>
       </c>
-      <c r="C684" s="9" t="s">
+      <c r="C684" s="14" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="14" t="s">
         <v>2216</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="14" t="s">
         <v>2217</v>
       </c>
-      <c r="C685" s="9" t="s">
+      <c r="C685" s="14" t="s">
         <v>2218</v>
       </c>
     </row>
@@ -29041,13 +29065,13 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="14" t="s">
+      <c r="A687" s="9" t="s">
         <v>2222</v>
       </c>
-      <c r="B687" s="14" t="s">
+      <c r="B687" s="9" t="s">
         <v>2223</v>
       </c>
-      <c r="C687" s="14" t="s">
+      <c r="C687" s="9" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -29074,13 +29098,13 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="14" t="s">
+      <c r="A690" s="9" t="s">
         <v>2231</v>
       </c>
-      <c r="B690" s="14" t="s">
+      <c r="B690" s="9" t="s">
         <v>2232</v>
       </c>
-      <c r="C690" s="14" t="s">
+      <c r="C690" s="9" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -29096,13 +29120,13 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="14" t="s">
         <v>2237</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="14" t="s">
         <v>2238</v>
       </c>
-      <c r="C692" s="9" t="s">
+      <c r="C692" s="14" t="s">
         <v>2239</v>
       </c>
     </row>
@@ -29118,35 +29142,35 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="14" t="s">
+      <c r="A694" s="9" t="s">
         <v>2243</v>
       </c>
-      <c r="B694" s="14" t="s">
+      <c r="B694" s="9" t="s">
         <v>2244</v>
       </c>
-      <c r="C694" s="14" t="s">
+      <c r="C694" s="9" t="s">
         <v>2245</v>
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="9" t="s">
+      <c r="A695" s="14" t="s">
         <v>2246</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="14" t="s">
         <v>2247</v>
       </c>
-      <c r="C695" s="9" t="s">
+      <c r="C695" s="14" t="s">
         <v>2248</v>
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="14" t="s">
         <v>2249</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="C696" s="9" t="s">
+      <c r="C696" s="14" t="s">
         <v>2251</v>
       </c>
     </row>
@@ -29195,24 +29219,24 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="14" t="s">
+      <c r="A701" s="9" t="s">
         <v>2264</v>
       </c>
-      <c r="B701" s="14" t="s">
+      <c r="B701" s="9" t="s">
         <v>2265</v>
       </c>
-      <c r="C701" s="14" t="s">
+      <c r="C701" s="9" t="s">
         <v>2266</v>
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="14" t="s">
+      <c r="A702" s="9" t="s">
         <v>2267</v>
       </c>
-      <c r="B702" s="14" t="s">
+      <c r="B702" s="9" t="s">
         <v>2268</v>
       </c>
-      <c r="C702" s="14" t="s">
+      <c r="C702" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
@@ -29228,35 +29252,35 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="9" t="s">
+      <c r="A704" s="14" t="s">
         <v>2273</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="14" t="s">
         <v>2274</v>
       </c>
-      <c r="C704" s="9" t="s">
+      <c r="C704" s="14" t="s">
         <v>2275</v>
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="9" t="s">
+      <c r="A705" s="14" t="s">
         <v>2276</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="14" t="s">
         <v>2277</v>
       </c>
-      <c r="C705" s="9" t="s">
+      <c r="C705" s="14" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="14" t="s">
+      <c r="A706" s="9" t="s">
         <v>2279</v>
       </c>
-      <c r="B706" s="14" t="s">
+      <c r="B706" s="9" t="s">
         <v>2280</v>
       </c>
-      <c r="C706" s="14" t="s">
+      <c r="C706" s="9" t="s">
         <v>2281</v>
       </c>
     </row>
@@ -29272,24 +29296,24 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="9" t="s">
+      <c r="A708" s="14" t="s">
         <v>2285</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="14" t="s">
         <v>2286</v>
       </c>
-      <c r="C708" s="9" t="s">
+      <c r="C708" s="14" t="s">
         <v>2287</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="14" t="s">
+      <c r="A709" s="9" t="s">
         <v>2288</v>
       </c>
-      <c r="B709" s="14" t="s">
+      <c r="B709" s="9" t="s">
         <v>2289</v>
       </c>
-      <c r="C709" s="14" t="s">
+      <c r="C709" s="9" t="s">
         <v>2290</v>
       </c>
     </row>
@@ -29305,13 +29329,13 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="9" t="s">
+      <c r="A711" s="14" t="s">
         <v>2294</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="14" t="s">
         <v>2295</v>
       </c>
-      <c r="C711" s="9" t="s">
+      <c r="C711" s="14" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29327,13 +29351,13 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="14" t="s">
+      <c r="A713" s="9" t="s">
         <v>2300</v>
       </c>
-      <c r="B713" s="14" t="s">
+      <c r="B713" s="9" t="s">
         <v>2301</v>
       </c>
-      <c r="C713" s="14" t="s">
+      <c r="C713" s="9" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -29349,24 +29373,24 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="9" t="s">
+      <c r="A715" s="14" t="s">
         <v>2306</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" s="14" t="s">
         <v>2307</v>
       </c>
-      <c r="C715" s="9" t="s">
+      <c r="C715" s="14" t="s">
         <v>2308</v>
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="14" t="s">
+      <c r="A716" s="9" t="s">
         <v>2309</v>
       </c>
-      <c r="B716" s="14" t="s">
+      <c r="B716" s="9" t="s">
         <v>2310</v>
       </c>
-      <c r="C716" s="14" t="s">
+      <c r="C716" s="9" t="s">
         <v>2311</v>
       </c>
     </row>
@@ -29382,13 +29406,13 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="9" t="s">
+      <c r="A718" s="14" t="s">
         <v>2315</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="14" t="s">
         <v>2316</v>
       </c>
-      <c r="C718" s="9" t="s">
+      <c r="C718" s="14" t="s">
         <v>2317</v>
       </c>
     </row>
@@ -29404,24 +29428,24 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="14" t="s">
+      <c r="A720" s="9" t="s">
         <v>2321</v>
       </c>
-      <c r="B720" s="14" t="s">
+      <c r="B720" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="14" t="s">
+      <c r="A721" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="B721" s="14" t="s">
+      <c r="B721" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="C721" s="14" t="s">
+      <c r="C721" s="9" t="s">
         <v>2326</v>
       </c>
     </row>
@@ -29437,24 +29461,24 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="9" t="s">
+      <c r="A723" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="B723" s="9" t="s">
+      <c r="B723" s="14" t="s">
         <v>2331</v>
       </c>
-      <c r="C723" s="9" t="s">
+      <c r="C723" s="14" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="14" t="s">
         <v>2334</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29470,24 +29494,24 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="14" t="s">
+      <c r="A726" s="9" t="s">
         <v>2339</v>
       </c>
-      <c r="B726" s="14" t="s">
+      <c r="B726" s="9" t="s">
         <v>2340</v>
       </c>
-      <c r="C726" s="14" t="s">
+      <c r="C726" s="9" t="s">
         <v>2341</v>
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="14" t="s">
+      <c r="A727" s="9" t="s">
         <v>2342</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="9" t="s">
         <v>2343</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C727" s="9" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -29514,10 +29538,10 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="9" t="s">
+      <c r="A730" s="14" t="s">
         <v>2351</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="14" t="s">
         <v>2352</v>
       </c>
       <c r="C730" s="14" t="s">
@@ -29525,21 +29549,21 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="9" t="s">
+      <c r="A731" s="14" t="s">
         <v>2354</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="14" t="s">
         <v>2355</v>
       </c>
-      <c r="C731" s="9" t="s">
+      <c r="C731" s="14" t="s">
         <v>2356</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="14" t="s">
+      <c r="A732" s="9" t="s">
         <v>2357</v>
       </c>
-      <c r="B732" s="14" t="s">
+      <c r="B732" s="9" t="s">
         <v>2358</v>
       </c>
       <c r="C732" s="14" t="s">
@@ -29547,10 +29571,10 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="14" t="s">
+      <c r="A733" s="9" t="s">
         <v>2360</v>
       </c>
-      <c r="B733" s="14" t="s">
+      <c r="B733" s="9" t="s">
         <v>2361</v>
       </c>
       <c r="C733" s="9" t="s">
@@ -29564,7 +29588,7 @@
       <c r="B734" s="14" t="s">
         <v>2364</v>
       </c>
-      <c r="C734" s="9" t="s">
+      <c r="C734" s="14" t="s">
         <v>2365</v>
       </c>
     </row>
@@ -29575,15 +29599,15 @@
       <c r="B735" s="14" t="s">
         <v>2367</v>
       </c>
-      <c r="C735" s="14" t="s">
+      <c r="C735" s="9" t="s">
         <v>2368</v>
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="9" t="s">
+      <c r="A736" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" s="14" t="s">
         <v>2370</v>
       </c>
       <c r="C736" s="9" t="s">
@@ -29591,13 +29615,13 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="9" t="s">
+      <c r="A737" s="14" t="s">
         <v>2372</v>
       </c>
       <c r="B737" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C737" s="9" t="s">
+      <c r="C737" s="14" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -29616,7 +29640,7 @@
       <c r="A739" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" s="14" t="s">
         <v>2379</v>
       </c>
       <c r="C739" s="9" t="s">
@@ -29641,18 +29665,18 @@
       <c r="B741" s="9" t="s">
         <v>2385</v>
       </c>
-      <c r="C741" s="14" t="s">
+      <c r="C741" s="9" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="14" t="s">
+      <c r="A742" s="9" t="s">
         <v>2387</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2388</v>
       </c>
-      <c r="C742" s="14" t="s">
+      <c r="C742" s="9" t="s">
         <v>2389</v>
       </c>
     </row>
@@ -29661,53 +29685,53 @@
         <v>2390</v>
       </c>
       <c r="B743" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C743" s="14" t="s">
         <v>2391</v>
-      </c>
-      <c r="C743" s="9" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="14" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B744" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="B744" s="14" t="s">
+      <c r="C744" s="14" t="s">
         <v>2394</v>
       </c>
-      <c r="C744" s="14" t="s">
+    </row>
+    <row r="745">
+      <c r="A745" s="14" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="9" t="s">
+      <c r="B745" s="14" t="s">
         <v>2396</v>
       </c>
-      <c r="B745" s="9" t="s">
+      <c r="C745" s="14" t="s">
         <v>2397</v>
       </c>
-      <c r="C745" s="14" t="s">
+    </row>
+    <row r="746">
+      <c r="A746" s="9" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="14" t="s">
+      <c r="B746" s="9" t="s">
         <v>2399</v>
       </c>
-      <c r="B746" s="14" t="s">
+      <c r="C746" s="9" t="s">
         <v>2400</v>
       </c>
-      <c r="C746" s="9" t="s">
+    </row>
+    <row r="747">
+      <c r="A747" s="14" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="9" t="s">
+      <c r="B747" s="14" t="s">
         <v>2402</v>
       </c>
-      <c r="B747" s="9" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C747" s="9" t="s">
+      <c r="C747" s="14" t="s">
         <v>2403</v>
       </c>
     </row>
@@ -29718,15 +29742,15 @@
       <c r="B748" s="9" t="s">
         <v>2405</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2406</v>
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="9" t="s">
+      <c r="A749" s="14" t="s">
         <v>2407</v>
       </c>
-      <c r="B749" s="9" t="s">
+      <c r="B749" s="14" t="s">
         <v>2408</v>
       </c>
       <c r="C749" s="9" t="s">
@@ -29738,545 +29762,545 @@
         <v>2410</v>
       </c>
       <c r="B750" s="9" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C750" s="9" t="s">
         <v>2411</v>
-      </c>
-      <c r="C750" s="9" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="9" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B751" s="9" t="s">
         <v>2413</v>
       </c>
-      <c r="B751" s="9" t="s">
+      <c r="C751" s="9" t="s">
         <v>2414</v>
       </c>
-      <c r="C751" s="14" t="s">
+    </row>
+    <row r="752">
+      <c r="A752" s="9" t="s">
         <v>2415</v>
       </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="14" t="s">
+      <c r="B752" s="9" t="s">
         <v>2416</v>
       </c>
-      <c r="B752" s="14" t="s">
+      <c r="C752" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="C752" s="14" t="s">
+    </row>
+    <row r="753">
+      <c r="A753" s="9" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="14" t="s">
+      <c r="B753" s="9" t="s">
         <v>2419</v>
       </c>
-      <c r="B753" s="9" t="s">
+      <c r="C753" s="9" t="s">
         <v>2420</v>
       </c>
-      <c r="C753" s="9" t="s">
+    </row>
+    <row r="754">
+      <c r="A754" s="9" t="s">
         <v>2421</v>
       </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="14" t="s">
+      <c r="B754" s="9" t="s">
         <v>2422</v>
       </c>
-      <c r="B754" s="14" t="s">
+      <c r="C754" s="14" t="s">
         <v>2423</v>
       </c>
-      <c r="C754" s="9" t="s">
+    </row>
+    <row r="755">
+      <c r="A755" s="14" t="s">
         <v>2424</v>
       </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="9" t="s">
+      <c r="B755" s="14" t="s">
         <v>2425</v>
       </c>
-      <c r="B755" s="9" t="s">
+      <c r="C755" s="14" t="s">
         <v>2426</v>
       </c>
-      <c r="C755" s="9" t="s">
+    </row>
+    <row r="756">
+      <c r="A756" s="14" t="s">
         <v>2427</v>
       </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="9" t="s">
+      <c r="B756" s="9" t="s">
         <v>2428</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="C756" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="C756" s="14" t="s">
+    </row>
+    <row r="757">
+      <c r="A757" s="14" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="9" t="s">
+      <c r="B757" s="14" t="s">
         <v>2431</v>
       </c>
-      <c r="B757" s="9" t="s">
+      <c r="C757" s="9" t="s">
         <v>2432</v>
       </c>
-      <c r="C757" s="9" t="s">
+    </row>
+    <row r="758">
+      <c r="A758" s="9" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="14" t="s">
+      <c r="B758" s="9" t="s">
         <v>2434</v>
       </c>
-      <c r="B758" s="14" t="s">
+      <c r="C758" s="9" t="s">
         <v>2435</v>
-      </c>
-      <c r="C758" s="14" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="9" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B759" s="9" t="s">
         <v>2437</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="C759" s="14" t="s">
         <v>2438</v>
-      </c>
-      <c r="C759" s="9" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B760" s="9" t="s">
         <v>2440</v>
       </c>
-      <c r="B760" s="9" t="s">
+      <c r="C760" s="9" t="s">
         <v>2441</v>
-      </c>
-      <c r="C760" s="9" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="14" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B761" s="14" t="s">
         <v>2443</v>
       </c>
-      <c r="B761" s="14" t="s">
+      <c r="C761" s="14" t="s">
         <v>2444</v>
-      </c>
-      <c r="C761" s="9" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="9" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B762" s="9" t="s">
         <v>2446</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="C762" s="9" t="s">
         <v>2447</v>
-      </c>
-      <c r="C762" s="9" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="9" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B763" s="9" t="s">
         <v>2449</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="C763" s="9" t="s">
         <v>2450</v>
       </c>
-      <c r="C763" s="9" t="s">
+    </row>
+    <row r="764">
+      <c r="A764" s="14" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="9" t="s">
+      <c r="B764" s="14" t="s">
         <v>2452</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="C764" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="C764" s="9" t="s">
+    </row>
+    <row r="765">
+      <c r="A765" s="9" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="14" t="s">
+      <c r="B765" s="9" t="s">
         <v>2455</v>
       </c>
-      <c r="B765" s="14" t="s">
+      <c r="C765" s="9" t="s">
         <v>2456</v>
-      </c>
-      <c r="C765" s="14" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="9" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B766" s="9" t="s">
         <v>2458</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="C766" s="9" t="s">
         <v>2459</v>
       </c>
-      <c r="C766" s="9" t="s">
+    </row>
+    <row r="767">
+      <c r="A767" s="9" t="s">
         <v>2460</v>
       </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="14" t="s">
+      <c r="B767" s="9" t="s">
         <v>2461</v>
       </c>
-      <c r="B767" s="14" t="s">
+      <c r="C767" s="9" t="s">
         <v>2462</v>
       </c>
-      <c r="C767" s="14" t="s">
+    </row>
+    <row r="768">
+      <c r="A768" s="14" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="9" t="s">
+      <c r="B768" s="14" t="s">
         <v>2464</v>
       </c>
-      <c r="B768" s="9" t="s">
+      <c r="C768" s="14" t="s">
         <v>2465</v>
       </c>
-      <c r="C768" s="14" t="s">
+    </row>
+    <row r="769">
+      <c r="A769" s="9" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="14" t="s">
+      <c r="B769" s="9" t="s">
         <v>2467</v>
       </c>
-      <c r="B769" s="14" t="s">
+      <c r="C769" s="9" t="s">
         <v>2468</v>
       </c>
-      <c r="C769" s="14" t="s">
+    </row>
+    <row r="770">
+      <c r="A770" s="14" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="9" t="s">
+      <c r="B770" s="14" t="s">
         <v>2470</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="C770" s="14" t="s">
         <v>2471</v>
       </c>
-      <c r="C770" s="14" t="s">
+    </row>
+    <row r="771">
+      <c r="A771" s="9" t="s">
         <v>2472</v>
       </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="14" t="s">
+      <c r="B771" s="9" t="s">
         <v>2473</v>
       </c>
-      <c r="B771" s="14" t="s">
+      <c r="C771" s="14" t="s">
         <v>2474</v>
-      </c>
-      <c r="C771" s="9" t="s">
-        <v>2475</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="14" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B772" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="B772" s="14" t="s">
+      <c r="C772" s="14" t="s">
         <v>2477</v>
-      </c>
-      <c r="C772" s="14" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="9" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B773" s="9" t="s">
         <v>2479</v>
       </c>
-      <c r="B773" s="9" t="s">
+      <c r="C773" s="14" t="s">
         <v>2480</v>
-      </c>
-      <c r="C773" s="9" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="14" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B774" s="14" t="s">
         <v>2482</v>
       </c>
-      <c r="B774" s="14" t="s">
+      <c r="C774" s="9" t="s">
         <v>2483</v>
-      </c>
-      <c r="C774" s="14" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="14" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B775" s="14" t="s">
         <v>2485</v>
       </c>
-      <c r="B775" s="14" t="s">
+      <c r="C775" s="14" t="s">
         <v>2486</v>
       </c>
-      <c r="C775" s="14" t="s">
+    </row>
+    <row r="776">
+      <c r="A776" s="9" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="14" t="s">
+      <c r="B776" s="9" t="s">
         <v>2488</v>
       </c>
-      <c r="B776" s="14" t="s">
+      <c r="C776" s="9" t="s">
         <v>2489</v>
-      </c>
-      <c r="C776" s="14" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="14" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B777" s="14" t="s">
         <v>2491</v>
       </c>
-      <c r="B777" s="14" t="s">
+      <c r="C777" s="14" t="s">
         <v>2492</v>
-      </c>
-      <c r="C777" s="14" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="14" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B778" s="14" t="s">
         <v>2494</v>
       </c>
-      <c r="B778" s="14" t="s">
+      <c r="C778" s="14" t="s">
         <v>2495</v>
-      </c>
-      <c r="C778" s="14" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="14" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B779" s="14" t="s">
         <v>2497</v>
       </c>
-      <c r="B779" s="14" t="s">
+      <c r="C779" s="14" t="s">
         <v>2498</v>
-      </c>
-      <c r="C779" s="9" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="14" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B780" s="14" t="s">
         <v>2500</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2501</v>
-      </c>
-      <c r="C780" s="9" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="14" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B781" s="14" t="s">
         <v>2503</v>
       </c>
-      <c r="B781" s="14" t="s">
+      <c r="C781" s="14" t="s">
         <v>2504</v>
       </c>
-      <c r="C781" s="9" t="s">
+    </row>
+    <row r="782">
+      <c r="A782" s="14" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="9" t="s">
+      <c r="B782" s="14" t="s">
         <v>2506</v>
       </c>
-      <c r="B782" s="9" t="s">
+      <c r="C782" s="9" t="s">
         <v>2507</v>
       </c>
-      <c r="C782" s="14" t="s">
+    </row>
+    <row r="783">
+      <c r="A783" s="14" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="9" t="s">
+      <c r="B783" s="9" t="s">
         <v>2509</v>
       </c>
-      <c r="B783" s="9" t="s">
+      <c r="C783" s="9" t="s">
         <v>2510</v>
-      </c>
-      <c r="C783" s="9" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="14" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B784" s="14" t="s">
         <v>2512</v>
       </c>
-      <c r="B784" s="14" t="s">
+      <c r="C784" s="9" t="s">
         <v>2513</v>
-      </c>
-      <c r="C784" s="14" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="9" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B785" s="9" t="s">
         <v>2515</v>
       </c>
-      <c r="B785" s="9" t="s">
+      <c r="C785" s="14" t="s">
         <v>2516</v>
       </c>
-      <c r="C785" s="14" t="s">
+    </row>
+    <row r="786">
+      <c r="A786" s="9" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="14" t="s">
+      <c r="B786" s="9" t="s">
         <v>2518</v>
       </c>
-      <c r="B786" s="14" t="s">
+      <c r="C786" s="9" t="s">
         <v>2519</v>
-      </c>
-      <c r="C786" s="9" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="14" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B787" s="14" t="s">
         <v>2521</v>
       </c>
-      <c r="B787" s="14" t="s">
+      <c r="C787" s="14" t="s">
         <v>2522</v>
-      </c>
-      <c r="C787" s="14" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B788" s="9" t="s">
         <v>2524</v>
       </c>
-      <c r="B788" s="9" t="s">
+      <c r="C788" s="14" t="s">
         <v>2525</v>
-      </c>
-      <c r="C788" s="9" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="14" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B789" s="14" t="s">
         <v>2527</v>
       </c>
-      <c r="B789" s="14" t="s">
+      <c r="C789" s="9" t="s">
         <v>2528</v>
       </c>
-      <c r="C789" s="9" t="s">
+    </row>
+    <row r="790">
+      <c r="A790" s="14" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="9" t="s">
+      <c r="B790" s="14" t="s">
         <v>2530</v>
       </c>
-      <c r="B790" s="9" t="s">
+      <c r="C790" s="14" t="s">
         <v>2531</v>
-      </c>
-      <c r="C790" s="9" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="9" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B791" s="9" t="s">
         <v>2533</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="C791" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="C791" s="9" t="s">
+    </row>
+    <row r="792">
+      <c r="A792" s="14" t="s">
         <v>2535</v>
       </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="9" t="s">
+      <c r="B792" s="14" t="s">
         <v>2536</v>
       </c>
-      <c r="B792" s="9" t="s">
+      <c r="C792" s="9" t="s">
         <v>2537</v>
-      </c>
-      <c r="C792" s="14" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="9" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B793" s="9" t="s">
         <v>2539</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="C793" s="9" t="s">
         <v>2540</v>
-      </c>
-      <c r="C793" s="9" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="9" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B794" s="9" t="s">
         <v>2542</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="C794" s="9" t="s">
         <v>2543</v>
-      </c>
-      <c r="C794" s="9" t="s">
-        <v>2544</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="9" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B795" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="C795" s="14" t="s">
         <v>2546</v>
       </c>
-      <c r="C795" s="14" t="s">
+    </row>
+    <row r="796">
+      <c r="A796" s="9" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="14" t="s">
+      <c r="B796" s="9" t="s">
         <v>2548</v>
       </c>
-      <c r="B796" s="14" t="s">
+      <c r="C796" s="9" t="s">
         <v>2549</v>
       </c>
-      <c r="C796" s="14" t="s">
+    </row>
+    <row r="797">
+      <c r="A797" s="9" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="14" t="s">
+      <c r="B797" s="9" t="s">
         <v>2551</v>
-      </c>
-      <c r="B797" s="14" t="s">
-        <v>832</v>
       </c>
       <c r="C797" s="9" t="s">
         <v>2552</v>
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="14" t="s">
+      <c r="A798" s="9" t="s">
         <v>2553</v>
       </c>
-      <c r="B798" s="14" t="s">
+      <c r="B798" s="9" t="s">
         <v>2554</v>
       </c>
-      <c r="C798" s="9" t="s">
+      <c r="C798" s="14" t="s">
         <v>2555</v>
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="9" t="s">
+      <c r="A799" s="14" t="s">
         <v>2556</v>
       </c>
-      <c r="B799" s="9" t="s">
+      <c r="B799" s="14" t="s">
         <v>2557</v>
       </c>
       <c r="C799" s="14" t="s">
@@ -30284,104 +30308,125 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="9" t="s">
+      <c r="A800" s="14" t="s">
         <v>2559</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="C800" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="C800" s="9" t="s">
+    </row>
+    <row r="801">
+      <c r="A801" s="14" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="9" t="s">
+      <c r="B801" s="14" t="s">
         <v>2562</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="C801" s="9" t="s">
         <v>2563</v>
-      </c>
-      <c r="C801" s="14" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="9" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B802" s="9" t="s">
         <v>2565</v>
       </c>
-      <c r="B802" s="9" t="s">
+      <c r="C802" s="14" t="s">
         <v>2566</v>
       </c>
-      <c r="C802" s="9" t="s">
+    </row>
+    <row r="803">
+      <c r="A803" s="9" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="14" t="s">
+      <c r="B803" s="9" t="s">
         <v>2568</v>
       </c>
-      <c r="B803" s="14" t="s">
+      <c r="C803" s="9" t="s">
         <v>2569</v>
       </c>
-      <c r="C803" s="14" t="s">
+    </row>
+    <row r="804">
+      <c r="A804" s="9" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="14" t="s">
+      <c r="B804" s="9" t="s">
         <v>2571</v>
       </c>
-      <c r="B804" s="14" t="s">
+      <c r="C804" s="14" t="s">
         <v>2572</v>
       </c>
-      <c r="C804" s="14" t="s">
+    </row>
+    <row r="805">
+      <c r="A805" s="9" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="14" t="s">
+      <c r="B805" s="9" t="s">
         <v>2574</v>
       </c>
-      <c r="B805" s="14" t="s">
+      <c r="C805" s="9" t="s">
         <v>2575</v>
-      </c>
-      <c r="C805" s="14" t="s">
-        <v>2576</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="14" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B806" s="14" t="s">
         <v>2577</v>
       </c>
-      <c r="B806" s="14" t="s">
+      <c r="C806" s="14" t="s">
         <v>2578</v>
-      </c>
-      <c r="C806" s="14" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="14" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B807" s="14" t="s">
         <v>2580</v>
       </c>
-      <c r="B807" s="14" t="s">
+      <c r="C807" s="14" t="s">
         <v>2581</v>
       </c>
-      <c r="C807" s="14" t="s">
+    </row>
+    <row r="808">
+      <c r="A808" s="14" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="808">
-      <c r="B808" s="22"/>
-      <c r="C808" s="22"/>
+      <c r="B808" s="14" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C808" s="14" t="s">
+        <v>2584</v>
+      </c>
     </row>
     <row r="809">
-      <c r="B809" s="22"/>
-      <c r="C809" s="22"/>
+      <c r="A809" s="14" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B809" s="14" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C809" s="14" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="810">
-      <c r="B810" s="22"/>
-      <c r="C810" s="22"/>
+      <c r="A810" s="14" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B810" s="14" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C810" s="14" t="s">
+        <v>2590</v>
+      </c>
     </row>
     <row r="811">
       <c r="B811" s="22"/>
@@ -31152,10 +31197,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$807">
-    <sortState ref="A1:C807">
-      <sortCondition ref="A1:A807"/>
-      <sortCondition ref="B1:B807"/>
+  <autoFilter ref="$A$1:$C$810">
+    <sortState ref="A1:C810">
+      <sortCondition ref="A1:A810"/>
+      <sortCondition ref="B1:B810"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$812</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="2598">
   <si>
     <t>Word</t>
   </si>
@@ -6078,6 +6078,15 @@
     <t>скадзосит</t>
   </si>
   <si>
+    <t>skahem</t>
+  </si>
+  <si>
+    <t>the sky</t>
+  </si>
+  <si>
+    <t>скахэм</t>
+  </si>
+  <si>
     <t>skan</t>
   </si>
   <si>
@@ -6402,6 +6411,15 @@
     <t>сволоч</t>
   </si>
   <si>
+    <t>syatsla</t>
+  </si>
+  <si>
+    <t>snake, serpent</t>
+  </si>
+  <si>
+    <t>сяцла</t>
+  </si>
+  <si>
     <t>syero</t>
   </si>
   <si>
@@ -7735,15 +7753,6 @@
   </si>
   <si>
     <t>злямкия</t>
-  </si>
-  <si>
-    <t>zmeya</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>змэя</t>
   </si>
   <si>
     <t>znomo</t>
@@ -28766,13 +28775,13 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="9" t="s">
+      <c r="A620" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="14" t="s">
         <v>2022</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C620" s="14" t="s">
         <v>2023</v>
       </c>
     </row>
@@ -28810,21 +28819,21 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="14" t="s">
+      <c r="A624" s="9" t="s">
         <v>2033</v>
       </c>
-      <c r="B624" s="14" t="s">
+      <c r="B624" s="9" t="s">
         <v>2034</v>
       </c>
-      <c r="C624" s="14" t="s">
+      <c r="C624" s="9" t="s">
         <v>2035</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="14" t="s">
         <v>2037</v>
       </c>
       <c r="C625" s="14" t="s">
@@ -28832,10 +28841,10 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="14" t="s">
+      <c r="A626" s="9" t="s">
         <v>2039</v>
       </c>
-      <c r="B626" s="14" t="s">
+      <c r="B626" s="9" t="s">
         <v>2040</v>
       </c>
       <c r="C626" s="14" t="s">
@@ -28854,24 +28863,24 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="9" t="s">
+      <c r="A628" s="14" t="s">
         <v>2045</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="14" t="s">
         <v>2046</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C628" s="14" t="s">
         <v>2047</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="14" t="s">
+      <c r="A629" s="9" t="s">
         <v>2048</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2049</v>
       </c>
-      <c r="C629" s="14" t="s">
+      <c r="C629" s="9" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -28898,13 +28907,13 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="9" t="s">
+      <c r="A632" s="14" t="s">
         <v>2057</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="14" t="s">
         <v>2058</v>
       </c>
-      <c r="C632" s="9" t="s">
+      <c r="C632" s="14" t="s">
         <v>2059</v>
       </c>
     </row>
@@ -28953,57 +28962,57 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="20" t="s">
+      <c r="A637" s="9" t="s">
         <v>2072</v>
       </c>
-      <c r="B637" s="20" t="s">
+      <c r="B637" s="9" t="s">
         <v>2073</v>
       </c>
-      <c r="C637" s="10" t="s">
+      <c r="C637" s="9" t="s">
         <v>2074</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="20" t="s">
         <v>2075</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="20" t="s">
         <v>2076</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="10" t="s">
         <v>2077</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="14" t="s">
+      <c r="A639" s="9" t="s">
         <v>2078</v>
       </c>
-      <c r="B639" s="14" t="s">
+      <c r="B639" s="9" t="s">
         <v>2079</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="9" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="9" t="s">
+      <c r="A640" s="14" t="s">
         <v>2081</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="14" t="s">
         <v>2082</v>
       </c>
-      <c r="C640" s="9" t="s">
+      <c r="C640" s="14" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="14" t="s">
+      <c r="A641" s="9" t="s">
         <v>2084</v>
       </c>
-      <c r="B641" s="14" t="s">
+      <c r="B641" s="9" t="s">
         <v>2085</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="9" t="s">
         <v>2086</v>
       </c>
     </row>
@@ -29030,79 +29039,79 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="14" t="s">
         <v>2093</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="14" t="s">
         <v>2094</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="14" t="s">
         <v>2095</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="14" t="s">
+      <c r="A645" s="9" t="s">
         <v>2096</v>
       </c>
-      <c r="B645" s="14" t="s">
+      <c r="B645" s="9" t="s">
         <v>2097</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="9" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2099</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2100</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="14" t="s">
+      <c r="A647" s="9" t="s">
         <v>2102</v>
       </c>
-      <c r="B647" s="14" t="s">
+      <c r="B647" s="9" t="s">
         <v>2103</v>
       </c>
-      <c r="C647" s="14" t="s">
+      <c r="C647" s="9" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="14" t="s">
         <v>2106</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="14" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="14" t="s">
+      <c r="A649" s="9" t="s">
         <v>2108</v>
       </c>
-      <c r="B649" s="14" t="s">
+      <c r="B649" s="9" t="s">
         <v>2109</v>
       </c>
-      <c r="C649" s="14" t="s">
+      <c r="C649" s="9" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="9" t="s">
+      <c r="A650" s="14" t="s">
         <v>2111</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B650" s="14" t="s">
         <v>2112</v>
       </c>
-      <c r="C650" s="9" t="s">
+      <c r="C650" s="14" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -29129,13 +29138,13 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="14" t="s">
+      <c r="A653" s="9" t="s">
         <v>2120</v>
       </c>
-      <c r="B653" s="14" t="s">
+      <c r="B653" s="9" t="s">
         <v>2121</v>
       </c>
-      <c r="C653" s="14" t="s">
+      <c r="C653" s="9" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -29162,24 +29171,24 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="9" t="s">
+      <c r="A656" s="14" t="s">
         <v>2129</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="14" t="s">
         <v>2130</v>
       </c>
-      <c r="C656" s="9" t="s">
+      <c r="C656" s="14" t="s">
         <v>2131</v>
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="9" t="s">
+      <c r="A657" s="14" t="s">
         <v>2132</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="14" t="s">
         <v>2133</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="14" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -29187,7 +29196,7 @@
       <c r="A658" s="9" t="s">
         <v>2135</v>
       </c>
-      <c r="B658" s="14" t="s">
+      <c r="B658" s="9" t="s">
         <v>2136</v>
       </c>
       <c r="C658" s="9" t="s">
@@ -29195,46 +29204,46 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="14" t="s">
+      <c r="A659" s="9" t="s">
         <v>2138</v>
       </c>
-      <c r="B659" s="14" t="s">
+      <c r="B659" s="9" t="s">
         <v>2139</v>
       </c>
-      <c r="C659" s="14" t="s">
+      <c r="C659" s="9" t="s">
         <v>2140</v>
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="14" t="s">
+      <c r="A660" s="9" t="s">
         <v>2141</v>
       </c>
       <c r="B660" s="14" t="s">
         <v>2142</v>
       </c>
-      <c r="C660" s="14" t="s">
+      <c r="C660" s="9" t="s">
         <v>2143</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="9" t="s">
+      <c r="A661" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="14" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="9" t="s">
+      <c r="A662" s="14" t="s">
         <v>2147</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="14" t="s">
         <v>2148</v>
       </c>
-      <c r="C662" s="9" t="s">
+      <c r="C662" s="14" t="s">
         <v>2149</v>
       </c>
     </row>
@@ -29261,10 +29270,10 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="20" t="s">
+      <c r="A665" s="9" t="s">
         <v>2156</v>
       </c>
-      <c r="B665" s="20" t="s">
+      <c r="B665" s="9" t="s">
         <v>2157</v>
       </c>
       <c r="C665" s="9" t="s">
@@ -29283,10 +29292,10 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="9" t="s">
+      <c r="A667" s="20" t="s">
         <v>2162</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="20" t="s">
         <v>2163</v>
       </c>
       <c r="C667" s="9" t="s">
@@ -29316,24 +29325,24 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="14" t="s">
+      <c r="A670" s="9" t="s">
         <v>2171</v>
       </c>
-      <c r="B670" s="14" t="s">
+      <c r="B670" s="9" t="s">
         <v>2172</v>
       </c>
-      <c r="C670" s="14" t="s">
+      <c r="C670" s="9" t="s">
         <v>2173</v>
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="14" t="s">
+      <c r="A671" s="9" t="s">
         <v>2174</v>
       </c>
-      <c r="B671" s="14" t="s">
+      <c r="B671" s="9" t="s">
         <v>2175</v>
       </c>
-      <c r="C671" s="14" t="s">
+      <c r="C671" s="9" t="s">
         <v>2176</v>
       </c>
     </row>
@@ -29349,13 +29358,13 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="9" t="s">
+      <c r="A673" s="14" t="s">
         <v>2180</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="14" t="s">
         <v>2181</v>
       </c>
-      <c r="C673" s="9" t="s">
+      <c r="C673" s="14" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -29382,13 +29391,13 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="14" t="s">
         <v>2189</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="14" t="s">
         <v>2190</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="14" t="s">
         <v>2191</v>
       </c>
     </row>
@@ -29404,13 +29413,13 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="14" t="s">
+      <c r="A678" s="9" t="s">
         <v>2195</v>
       </c>
-      <c r="B678" s="14" t="s">
+      <c r="B678" s="9" t="s">
         <v>2196</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="9" t="s">
         <v>2197</v>
       </c>
     </row>
@@ -29481,35 +29490,35 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="14" t="s">
+      <c r="A685" s="9" t="s">
         <v>2216</v>
       </c>
-      <c r="B685" s="14" t="s">
+      <c r="B685" s="9" t="s">
         <v>2217</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="9" t="s">
         <v>2218</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="14" t="s">
         <v>2219</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="14" t="s">
         <v>2220</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C686" s="14" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="9" t="s">
+      <c r="A687" s="14" t="s">
         <v>2222</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="14" t="s">
         <v>2223</v>
       </c>
-      <c r="C687" s="9" t="s">
+      <c r="C687" s="14" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -29525,13 +29534,13 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="14" t="s">
+      <c r="A689" s="9" t="s">
         <v>2228</v>
       </c>
-      <c r="B689" s="14" t="s">
+      <c r="B689" s="9" t="s">
         <v>2229</v>
       </c>
-      <c r="C689" s="14" t="s">
+      <c r="C689" s="9" t="s">
         <v>2230</v>
       </c>
     </row>
@@ -29558,13 +29567,13 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2237</v>
       </c>
-      <c r="B692" s="14" t="s">
+      <c r="B692" s="9" t="s">
         <v>2238</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2239</v>
       </c>
     </row>
@@ -29580,13 +29589,13 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="14" t="s">
         <v>2243</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="C694" s="9" t="s">
+      <c r="C694" s="14" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -29602,35 +29611,35 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="14" t="s">
+      <c r="A696" s="9" t="s">
         <v>2249</v>
       </c>
-      <c r="B696" s="14" t="s">
+      <c r="B696" s="9" t="s">
         <v>2250</v>
       </c>
-      <c r="C696" s="14" t="s">
+      <c r="C696" s="9" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="9" t="s">
+      <c r="A697" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="14" t="s">
         <v>2253</v>
       </c>
-      <c r="C697" s="9" t="s">
+      <c r="C697" s="14" t="s">
         <v>2254</v>
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="9" t="s">
+      <c r="A698" s="14" t="s">
         <v>2255</v>
       </c>
-      <c r="B698" s="9" t="s">
+      <c r="B698" s="14" t="s">
         <v>2256</v>
       </c>
-      <c r="C698" s="9" t="s">
+      <c r="C698" s="14" t="s">
         <v>2257</v>
       </c>
     </row>
@@ -29679,24 +29688,24 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="14" t="s">
+      <c r="A703" s="9" t="s">
         <v>2270</v>
       </c>
-      <c r="B703" s="14" t="s">
+      <c r="B703" s="9" t="s">
         <v>2271</v>
       </c>
-      <c r="C703" s="14" t="s">
+      <c r="C703" s="9" t="s">
         <v>2272</v>
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="14" t="s">
+      <c r="A704" s="9" t="s">
         <v>2273</v>
       </c>
-      <c r="B704" s="14" t="s">
+      <c r="B704" s="9" t="s">
         <v>2274</v>
       </c>
-      <c r="C704" s="14" t="s">
+      <c r="C704" s="9" t="s">
         <v>2275</v>
       </c>
     </row>
@@ -29712,35 +29721,35 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="9" t="s">
+      <c r="A706" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="14" t="s">
         <v>2280</v>
       </c>
-      <c r="C706" s="9" t="s">
+      <c r="C706" s="14" t="s">
         <v>2281</v>
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="9" t="s">
+      <c r="A707" s="14" t="s">
         <v>2282</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="14" t="s">
         <v>2283</v>
       </c>
-      <c r="C707" s="9" t="s">
+      <c r="C707" s="14" t="s">
         <v>2284</v>
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="14" t="s">
+      <c r="A708" s="9" t="s">
         <v>2285</v>
       </c>
-      <c r="B708" s="14" t="s">
+      <c r="B708" s="9" t="s">
         <v>2286</v>
       </c>
-      <c r="C708" s="14" t="s">
+      <c r="C708" s="9" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -29756,24 +29765,24 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="9" t="s">
+      <c r="A710" s="14" t="s">
         <v>2291</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="14" t="s">
         <v>2292</v>
       </c>
-      <c r="C710" s="9" t="s">
+      <c r="C710" s="14" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="14" t="s">
+      <c r="A711" s="9" t="s">
         <v>2294</v>
       </c>
-      <c r="B711" s="14" t="s">
+      <c r="B711" s="9" t="s">
         <v>2295</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="9" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29789,13 +29798,13 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="9" t="s">
+      <c r="A713" s="14" t="s">
         <v>2300</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" s="14" t="s">
         <v>2301</v>
       </c>
-      <c r="C713" s="9" t="s">
+      <c r="C713" s="14" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -29811,13 +29820,13 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="14" t="s">
+      <c r="A715" s="9" t="s">
         <v>2306</v>
       </c>
-      <c r="B715" s="14" t="s">
+      <c r="B715" s="9" t="s">
         <v>2307</v>
       </c>
-      <c r="C715" s="14" t="s">
+      <c r="C715" s="9" t="s">
         <v>2308</v>
       </c>
     </row>
@@ -29833,24 +29842,24 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="9" t="s">
+      <c r="A717" s="14" t="s">
         <v>2312</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="14" t="s">
         <v>2313</v>
       </c>
-      <c r="C717" s="9" t="s">
+      <c r="C717" s="14" t="s">
         <v>2314</v>
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="14" t="s">
+      <c r="A718" s="9" t="s">
         <v>2315</v>
       </c>
-      <c r="B718" s="14" t="s">
+      <c r="B718" s="9" t="s">
         <v>2316</v>
       </c>
-      <c r="C718" s="14" t="s">
+      <c r="C718" s="9" t="s">
         <v>2317</v>
       </c>
     </row>
@@ -29866,13 +29875,13 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="9" t="s">
+      <c r="A720" s="14" t="s">
         <v>2321</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="14" t="s">
         <v>2322</v>
       </c>
-      <c r="C720" s="9" t="s">
+      <c r="C720" s="14" t="s">
         <v>2323</v>
       </c>
     </row>
@@ -29888,24 +29897,24 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="14" t="s">
+      <c r="A722" s="9" t="s">
         <v>2327</v>
       </c>
-      <c r="B722" s="14" t="s">
+      <c r="B722" s="9" t="s">
         <v>2328</v>
       </c>
-      <c r="C722" s="14" t="s">
+      <c r="C722" s="9" t="s">
         <v>2329</v>
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="14" t="s">
+      <c r="A723" s="9" t="s">
         <v>2330</v>
       </c>
-      <c r="B723" s="14" t="s">
+      <c r="B723" s="9" t="s">
         <v>2331</v>
       </c>
-      <c r="C723" s="14" t="s">
+      <c r="C723" s="9" t="s">
         <v>2332</v>
       </c>
     </row>
@@ -29921,24 +29930,24 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="9" t="s">
+      <c r="A725" s="14" t="s">
         <v>2336</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" s="14" t="s">
         <v>2337</v>
       </c>
-      <c r="C725" s="9" t="s">
+      <c r="C725" s="14" t="s">
         <v>2338</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="9" t="s">
+      <c r="A726" s="14" t="s">
         <v>2339</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" s="14" t="s">
         <v>2340</v>
       </c>
-      <c r="C726" s="9" t="s">
+      <c r="C726" s="14" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -29954,24 +29963,24 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="14" t="s">
+      <c r="A728" s="9" t="s">
         <v>2345</v>
       </c>
-      <c r="B728" s="14" t="s">
+      <c r="B728" s="9" t="s">
         <v>2346</v>
       </c>
-      <c r="C728" s="14" t="s">
+      <c r="C728" s="9" t="s">
         <v>2347</v>
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="14" t="s">
+      <c r="A729" s="9" t="s">
         <v>2348</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="9" t="s">
         <v>2349</v>
       </c>
-      <c r="C729" s="14" t="s">
+      <c r="C729" s="9" t="s">
         <v>2350</v>
       </c>
     </row>
@@ -29998,10 +30007,10 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="14" t="s">
         <v>2357</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="14" t="s">
         <v>2358</v>
       </c>
       <c r="C732" s="14" t="s">
@@ -30009,21 +30018,21 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="9" t="s">
+      <c r="A733" s="14" t="s">
         <v>2360</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" s="14" t="s">
         <v>2361</v>
       </c>
-      <c r="C733" s="9" t="s">
+      <c r="C733" s="14" t="s">
         <v>2362</v>
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="14" t="s">
+      <c r="A734" s="9" t="s">
         <v>2363</v>
       </c>
-      <c r="B734" s="14" t="s">
+      <c r="B734" s="9" t="s">
         <v>2364</v>
       </c>
       <c r="C734" s="14" t="s">
@@ -30031,10 +30040,10 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="14" t="s">
+      <c r="A735" s="9" t="s">
         <v>2366</v>
       </c>
-      <c r="B735" s="14" t="s">
+      <c r="B735" s="9" t="s">
         <v>2367</v>
       </c>
       <c r="C735" s="9" t="s">
@@ -30048,7 +30057,7 @@
       <c r="B736" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="C736" s="9" t="s">
+      <c r="C736" s="14" t="s">
         <v>2371</v>
       </c>
     </row>
@@ -30059,15 +30068,15 @@
       <c r="B737" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C737" s="14" t="s">
+      <c r="C737" s="9" t="s">
         <v>2374</v>
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="9" t="s">
+      <c r="A738" s="14" t="s">
         <v>2375</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" s="14" t="s">
         <v>2376</v>
       </c>
       <c r="C738" s="9" t="s">
@@ -30075,13 +30084,13 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="9" t="s">
+      <c r="A739" s="14" t="s">
         <v>2378</v>
       </c>
       <c r="B739" s="14" t="s">
         <v>2379</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -30100,7 +30109,7 @@
       <c r="A741" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="14" t="s">
         <v>2385</v>
       </c>
       <c r="C741" s="9" t="s">
@@ -30125,26 +30134,26 @@
       <c r="B743" s="9" t="s">
         <v>2391</v>
       </c>
-      <c r="C743" s="14" t="s">
+      <c r="C743" s="9" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="14" t="s">
+      <c r="A744" s="9" t="s">
         <v>2393</v>
       </c>
-      <c r="B744" s="14" t="s">
+      <c r="B744" s="9" t="s">
         <v>2394</v>
       </c>
-      <c r="C744" s="14" t="s">
+      <c r="C744" s="9" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="14" t="s">
+      <c r="A745" s="9" t="s">
         <v>2396</v>
       </c>
-      <c r="B745" s="14" t="s">
+      <c r="B745" s="9" t="s">
         <v>2397</v>
       </c>
       <c r="C745" s="14" t="s">
@@ -30152,13 +30161,13 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2399</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="14" t="s">
         <v>2400</v>
       </c>
-      <c r="C746" s="9" t="s">
+      <c r="C746" s="14" t="s">
         <v>2401</v>
       </c>
     </row>
@@ -30180,7 +30189,7 @@
       <c r="B748" s="9" t="s">
         <v>2406</v>
       </c>
-      <c r="C748" s="14" t="s">
+      <c r="C748" s="9" t="s">
         <v>2407</v>
       </c>
     </row>
@@ -30191,7 +30200,7 @@
       <c r="B749" s="14" t="s">
         <v>2409</v>
       </c>
-      <c r="C749" s="9" t="s">
+      <c r="C749" s="14" t="s">
         <v>2410</v>
       </c>
     </row>
@@ -30200,29 +30209,29 @@
         <v>2411</v>
       </c>
       <c r="B750" s="9" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C750" s="9" t="s">
         <v>2412</v>
       </c>
+      <c r="C750" s="14" t="s">
+        <v>2413</v>
+      </c>
     </row>
     <row r="751">
-      <c r="A751" s="9" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B751" s="9" t="s">
+      <c r="A751" s="14" t="s">
         <v>2414</v>
       </c>
+      <c r="B751" s="14" t="s">
+        <v>2415</v>
+      </c>
       <c r="C751" s="9" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="9" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B752" s="9" t="s">
-        <v>2417</v>
+        <v>2277</v>
       </c>
       <c r="C752" s="9" t="s">
         <v>2418</v>
@@ -30246,29 +30255,29 @@
       <c r="B754" s="9" t="s">
         <v>2423</v>
       </c>
-      <c r="C754" s="14" t="s">
+      <c r="C754" s="9" t="s">
         <v>2424</v>
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="14" t="s">
+      <c r="A755" s="9" t="s">
         <v>2425</v>
       </c>
-      <c r="B755" s="14" t="s">
+      <c r="B755" s="9" t="s">
         <v>2426</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2427</v>
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="14" t="s">
+      <c r="A756" s="9" t="s">
         <v>2428</v>
       </c>
       <c r="B756" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2430</v>
       </c>
     </row>
@@ -30279,12 +30288,12 @@
       <c r="B757" s="14" t="s">
         <v>2432</v>
       </c>
-      <c r="C757" s="9" t="s">
+      <c r="C757" s="14" t="s">
         <v>2433</v>
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="14" t="s">
         <v>2434</v>
       </c>
       <c r="B758" s="9" t="s">
@@ -30295,13 +30304,13 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="9" t="s">
+      <c r="A759" s="14" t="s">
         <v>2437</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="B759" s="14" t="s">
         <v>2438</v>
       </c>
-      <c r="C759" s="14" t="s">
+      <c r="C759" s="9" t="s">
         <v>2439</v>
       </c>
     </row>
@@ -30317,10 +30326,10 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="14" t="s">
+      <c r="A761" s="9" t="s">
         <v>2443</v>
       </c>
-      <c r="B761" s="14" t="s">
+      <c r="B761" s="9" t="s">
         <v>2444</v>
       </c>
       <c r="C761" s="14" t="s">
@@ -30339,21 +30348,21 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="9" t="s">
+      <c r="A763" s="14" t="s">
         <v>2449</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="14" t="s">
         <v>2450</v>
       </c>
-      <c r="C763" s="9" t="s">
+      <c r="C763" s="14" t="s">
         <v>2451</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2452</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2453</v>
       </c>
       <c r="C764" s="9" t="s">
@@ -30372,10 +30381,10 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="9" t="s">
+      <c r="A766" s="14" t="s">
         <v>2458</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="14" t="s">
         <v>2459</v>
       </c>
       <c r="C766" s="9" t="s">
@@ -30394,13 +30403,13 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="14" t="s">
+      <c r="A768" s="9" t="s">
         <v>2464</v>
       </c>
-      <c r="B768" s="14" t="s">
+      <c r="B768" s="9" t="s">
         <v>2465</v>
       </c>
-      <c r="C768" s="14" t="s">
+      <c r="C768" s="9" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -30433,7 +30442,7 @@
       <c r="B771" s="9" t="s">
         <v>2474</v>
       </c>
-      <c r="C771" s="14" t="s">
+      <c r="C771" s="9" t="s">
         <v>2475</v>
       </c>
     </row>
@@ -30466,15 +30475,15 @@
       <c r="B774" s="14" t="s">
         <v>2483</v>
       </c>
-      <c r="C774" s="9" t="s">
+      <c r="C774" s="14" t="s">
         <v>2484</v>
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="14" t="s">
+      <c r="A775" s="9" t="s">
         <v>2485</v>
       </c>
-      <c r="B775" s="14" t="s">
+      <c r="B775" s="9" t="s">
         <v>2486</v>
       </c>
       <c r="C775" s="14" t="s">
@@ -30482,10 +30491,10 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="9" t="s">
+      <c r="A776" s="14" t="s">
         <v>2488</v>
       </c>
-      <c r="B776" s="9" t="s">
+      <c r="B776" s="14" t="s">
         <v>2489</v>
       </c>
       <c r="C776" s="9" t="s">
@@ -30504,13 +30513,13 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="14" t="s">
+      <c r="A778" s="9" t="s">
         <v>2494</v>
       </c>
-      <c r="B778" s="14" t="s">
+      <c r="B778" s="9" t="s">
         <v>2495</v>
       </c>
-      <c r="C778" s="14" t="s">
+      <c r="C778" s="9" t="s">
         <v>2496</v>
       </c>
     </row>
@@ -30554,7 +30563,7 @@
       <c r="B782" s="14" t="s">
         <v>2507</v>
       </c>
-      <c r="C782" s="9" t="s">
+      <c r="C782" s="14" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -30562,10 +30571,10 @@
       <c r="A783" s="14" t="s">
         <v>2509</v>
       </c>
-      <c r="B783" s="9" t="s">
+      <c r="B783" s="14" t="s">
         <v>2510</v>
       </c>
-      <c r="C783" s="9" t="s">
+      <c r="C783" s="14" t="s">
         <v>2511</v>
       </c>
     </row>
@@ -30581,21 +30590,21 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="9" t="s">
+      <c r="A785" s="14" t="s">
         <v>2515</v>
       </c>
       <c r="B785" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="C785" s="14" t="s">
+      <c r="C785" s="9" t="s">
         <v>2517</v>
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="9" t="s">
+      <c r="A786" s="14" t="s">
         <v>2518</v>
       </c>
-      <c r="B786" s="9" t="s">
+      <c r="B786" s="14" t="s">
         <v>2519</v>
       </c>
       <c r="C786" s="9" t="s">
@@ -30603,10 +30612,10 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="14" t="s">
+      <c r="A787" s="9" t="s">
         <v>2521</v>
       </c>
-      <c r="B787" s="14" t="s">
+      <c r="B787" s="9" t="s">
         <v>2522</v>
       </c>
       <c r="C787" s="14" t="s">
@@ -30620,7 +30629,7 @@
       <c r="B788" s="9" t="s">
         <v>2525</v>
       </c>
-      <c r="C788" s="14" t="s">
+      <c r="C788" s="9" t="s">
         <v>2526</v>
       </c>
     </row>
@@ -30631,15 +30640,15 @@
       <c r="B789" s="14" t="s">
         <v>2528</v>
       </c>
-      <c r="C789" s="9" t="s">
+      <c r="C789" s="14" t="s">
         <v>2529</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="14" t="s">
+      <c r="A790" s="9" t="s">
         <v>2530</v>
       </c>
-      <c r="B790" s="14" t="s">
+      <c r="B790" s="9" t="s">
         <v>2531</v>
       </c>
       <c r="C790" s="14" t="s">
@@ -30647,10 +30656,10 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="9" t="s">
+      <c r="A791" s="14" t="s">
         <v>2533</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="B791" s="14" t="s">
         <v>2534</v>
       </c>
       <c r="C791" s="9" t="s">
@@ -30664,7 +30673,7 @@
       <c r="B792" s="14" t="s">
         <v>2537</v>
       </c>
-      <c r="C792" s="9" t="s">
+      <c r="C792" s="14" t="s">
         <v>2538</v>
       </c>
     </row>
@@ -30680,10 +30689,10 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="9" t="s">
+      <c r="A794" s="14" t="s">
         <v>2542</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="B794" s="14" t="s">
         <v>2543</v>
       </c>
       <c r="C794" s="9" t="s">
@@ -30697,7 +30706,7 @@
       <c r="B795" s="9" t="s">
         <v>2546</v>
       </c>
-      <c r="C795" s="14" t="s">
+      <c r="C795" s="9" t="s">
         <v>2547</v>
       </c>
     </row>
@@ -30719,7 +30728,7 @@
       <c r="B797" s="9" t="s">
         <v>2552</v>
       </c>
-      <c r="C797" s="9" t="s">
+      <c r="C797" s="14" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -30730,59 +30739,59 @@
       <c r="B798" s="9" t="s">
         <v>2555</v>
       </c>
-      <c r="C798" s="14" t="s">
+      <c r="C798" s="9" t="s">
         <v>2556</v>
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="14" t="s">
+      <c r="A799" s="9" t="s">
         <v>2557</v>
       </c>
-      <c r="B799" s="14" t="s">
+      <c r="B799" s="9" t="s">
         <v>2558</v>
       </c>
-      <c r="C799" s="14" t="s">
+      <c r="C799" s="9" t="s">
         <v>2559</v>
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="14" t="s">
+      <c r="A800" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="B800" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="C800" s="9" t="s">
+      <c r="B800" s="9" t="s">
         <v>2561</v>
+      </c>
+      <c r="C800" s="14" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="14" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B801" s="14" t="s">
-        <v>2563</v>
-      </c>
-      <c r="C801" s="9" t="s">
         <v>2564</v>
       </c>
+      <c r="C801" s="14" t="s">
+        <v>2565</v>
+      </c>
     </row>
     <row r="802">
-      <c r="A802" s="9" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B802" s="9" t="s">
+      <c r="A802" s="14" t="s">
         <v>2566</v>
       </c>
-      <c r="C802" s="14" t="s">
+      <c r="B802" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="C802" s="9" t="s">
         <v>2567</v>
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="9" t="s">
+      <c r="A803" s="14" t="s">
         <v>2568</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="14" t="s">
         <v>2569</v>
       </c>
       <c r="C803" s="9" t="s">
@@ -30801,13 +30810,13 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="14" t="s">
+      <c r="A805" s="9" t="s">
         <v>2574</v>
       </c>
-      <c r="B805" s="14" t="s">
+      <c r="B805" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="C805" s="14" t="s">
+      <c r="C805" s="9" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -30818,18 +30827,18 @@
       <c r="B806" s="9" t="s">
         <v>2578</v>
       </c>
-      <c r="C806" s="9" t="s">
+      <c r="C806" s="14" t="s">
         <v>2579</v>
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="14" t="s">
+      <c r="A807" s="9" t="s">
         <v>2580</v>
       </c>
-      <c r="B807" s="14" t="s">
+      <c r="B807" s="9" t="s">
         <v>2581</v>
       </c>
-      <c r="C807" s="14" t="s">
+      <c r="C807" s="9" t="s">
         <v>2582</v>
       </c>
     </row>
@@ -30878,8 +30887,15 @@
       </c>
     </row>
     <row r="812">
-      <c r="B812" s="22"/>
-      <c r="C812" s="22"/>
+      <c r="A812" s="14" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B812" s="14" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C812" s="14" t="s">
+        <v>2597</v>
+      </c>
     </row>
     <row r="813">
       <c r="B813" s="22"/>
@@ -31642,10 +31658,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$811">
-    <sortState ref="A1:C811">
-      <sortCondition ref="A1:A811"/>
-      <sortCondition ref="B1:B811"/>
+  <autoFilter ref="$A$1:$C$812">
+    <sortState ref="A1:C812">
+      <sortCondition ref="A1:A812"/>
+      <sortCondition ref="B1:B812"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$812</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$813</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="2598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="2601">
   <si>
     <t>Word</t>
   </si>
@@ -5356,6 +5356,15 @@
   </si>
   <si>
     <t>причявит</t>
+  </si>
+  <si>
+    <t>prikleshiy</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>приклешй</t>
   </si>
   <si>
     <t>prikodya</t>
@@ -26257,13 +26266,13 @@
       <c r="X539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="9" t="s">
+      <c r="A540" s="14" t="s">
         <v>1781</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C540" s="14" t="s">
         <v>1783</v>
       </c>
       <c r="D540" s="18"/>
@@ -26321,13 +26330,13 @@
       <c r="X541" s="18"/>
     </row>
     <row r="542">
-      <c r="A542" s="14" t="s">
+      <c r="A542" s="9" t="s">
         <v>1787</v>
       </c>
-      <c r="B542" s="14" t="s">
+      <c r="B542" s="9" t="s">
         <v>1788</v>
       </c>
-      <c r="C542" s="14" t="s">
+      <c r="C542" s="9" t="s">
         <v>1789</v>
       </c>
       <c r="D542" s="18"/>
@@ -26481,13 +26490,13 @@
       <c r="X546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="9" t="s">
+      <c r="A547" s="14" t="s">
         <v>1802</v>
       </c>
-      <c r="B547" s="9" t="s">
+      <c r="B547" s="14" t="s">
         <v>1803</v>
       </c>
-      <c r="C547" s="9" t="s">
+      <c r="C547" s="14" t="s">
         <v>1804</v>
       </c>
       <c r="D547" s="18"/>
@@ -26513,13 +26522,13 @@
       <c r="X547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="14" t="s">
+      <c r="A548" s="9" t="s">
         <v>1805</v>
       </c>
-      <c r="B548" s="14" t="s">
+      <c r="B548" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="C548" s="14" t="s">
+      <c r="C548" s="9" t="s">
         <v>1807</v>
       </c>
       <c r="D548" s="18"/>
@@ -26545,13 +26554,13 @@
       <c r="X548" s="18"/>
     </row>
     <row r="549">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="14" t="s">
         <v>1808</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="C549" s="9" t="s">
+      <c r="C549" s="14" t="s">
         <v>1810</v>
       </c>
       <c r="D549" s="18"/>
@@ -26769,13 +26778,13 @@
       <c r="X555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="14" t="s">
+      <c r="A556" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="B556" s="14" t="s">
+      <c r="B556" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="C556" s="14" t="s">
+      <c r="C556" s="9" t="s">
         <v>1831</v>
       </c>
       <c r="D556" s="18"/>
@@ -26865,13 +26874,13 @@
       <c r="X558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="9" t="s">
+      <c r="A559" s="14" t="s">
         <v>1838</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="14" t="s">
         <v>1839</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="14" t="s">
         <v>1840</v>
       </c>
       <c r="D559" s="18"/>
@@ -26961,13 +26970,13 @@
       <c r="X561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="14" t="s">
+      <c r="A562" s="9" t="s">
         <v>1847</v>
       </c>
-      <c r="B562" s="14" t="s">
+      <c r="B562" s="9" t="s">
         <v>1848</v>
       </c>
-      <c r="C562" s="14" t="s">
+      <c r="C562" s="9" t="s">
         <v>1849</v>
       </c>
       <c r="D562" s="18"/>
@@ -26993,13 +27002,13 @@
       <c r="X562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="9" t="s">
+      <c r="A563" s="14" t="s">
         <v>1850</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" s="14" t="s">
         <v>1851</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="C563" s="14" t="s">
         <v>1852</v>
       </c>
       <c r="D563" s="18"/>
@@ -27025,13 +27034,13 @@
       <c r="X563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="9" t="s">
         <v>1853</v>
       </c>
-      <c r="B564" s="14" t="s">
+      <c r="B564" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="C564" s="14" t="s">
+      <c r="C564" s="9" t="s">
         <v>1855</v>
       </c>
       <c r="D564" s="18"/>
@@ -27153,13 +27162,13 @@
       <c r="X567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="9" t="s">
+      <c r="A568" s="14" t="s">
         <v>1865</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="14" t="s">
         <v>1866</v>
       </c>
-      <c r="C568" s="9" t="s">
+      <c r="C568" s="14" t="s">
         <v>1867</v>
       </c>
       <c r="D568" s="18"/>
@@ -27185,13 +27194,13 @@
       <c r="X568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="14" t="s">
+      <c r="A569" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="B569" s="14" t="s">
+      <c r="B569" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="C569" s="14" t="s">
+      <c r="C569" s="9" t="s">
         <v>1870</v>
       </c>
       <c r="D569" s="18"/>
@@ -27217,13 +27226,13 @@
       <c r="X569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="14" t="s">
         <v>1871</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="C570" s="14" t="s">
         <v>1873</v>
       </c>
       <c r="D570" s="18"/>
@@ -27313,13 +27322,13 @@
       <c r="X572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="14" t="s">
+      <c r="A573" s="9" t="s">
         <v>1880</v>
       </c>
-      <c r="B573" s="14" t="s">
+      <c r="B573" s="9" t="s">
         <v>1881</v>
       </c>
-      <c r="C573" s="14" t="s">
+      <c r="C573" s="9" t="s">
         <v>1882</v>
       </c>
       <c r="D573" s="18"/>
@@ -27345,13 +27354,13 @@
       <c r="X573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="9" t="s">
+      <c r="A574" s="14" t="s">
         <v>1883</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="14" t="s">
         <v>1884</v>
       </c>
-      <c r="C574" s="9" t="s">
+      <c r="C574" s="14" t="s">
         <v>1885</v>
       </c>
       <c r="D574" s="18"/>
@@ -27409,13 +27418,13 @@
       <c r="X575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="14" t="s">
+      <c r="A576" s="9" t="s">
         <v>1889</v>
       </c>
-      <c r="B576" s="14" t="s">
+      <c r="B576" s="9" t="s">
         <v>1890</v>
       </c>
-      <c r="C576" s="14" t="s">
+      <c r="C576" s="9" t="s">
         <v>1891</v>
       </c>
       <c r="D576" s="18"/>
@@ -27441,13 +27450,13 @@
       <c r="X576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="9" t="s">
+      <c r="A577" s="14" t="s">
         <v>1892</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" s="14" t="s">
         <v>1893</v>
       </c>
-      <c r="C577" s="9" t="s">
+      <c r="C577" s="14" t="s">
         <v>1894</v>
       </c>
       <c r="D577" s="18"/>
@@ -27473,13 +27482,13 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="9" t="s">
         <v>1895</v>
       </c>
-      <c r="B578" s="14" t="s">
+      <c r="B578" s="9" t="s">
         <v>1896</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C578" s="9" t="s">
         <v>1897</v>
       </c>
       <c r="D578" s="18"/>
@@ -27505,13 +27514,13 @@
       <c r="X578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="9" t="s">
+      <c r="A579" s="14" t="s">
         <v>1898</v>
       </c>
-      <c r="B579" s="9" t="s">
+      <c r="B579" s="14" t="s">
         <v>1899</v>
       </c>
-      <c r="C579" s="9" t="s">
+      <c r="C579" s="14" t="s">
         <v>1900</v>
       </c>
       <c r="D579" s="18"/>
@@ -27633,13 +27642,13 @@
       <c r="X582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="14" t="s">
+      <c r="A583" s="9" t="s">
         <v>1910</v>
       </c>
-      <c r="B583" s="14" t="s">
+      <c r="B583" s="9" t="s">
         <v>1911</v>
       </c>
-      <c r="C583" s="14" t="s">
+      <c r="C583" s="9" t="s">
         <v>1912</v>
       </c>
       <c r="D583" s="18"/>
@@ -27665,13 +27674,13 @@
       <c r="X583" s="18"/>
     </row>
     <row r="584">
-      <c r="A584" s="9" t="s">
+      <c r="A584" s="14" t="s">
         <v>1913</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="14" t="s">
         <v>1914</v>
       </c>
-      <c r="C584" s="9" t="s">
+      <c r="C584" s="14" t="s">
         <v>1915</v>
       </c>
       <c r="D584" s="18"/>
@@ -27697,13 +27706,13 @@
       <c r="X584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="14" t="s">
+      <c r="A585" s="9" t="s">
         <v>1916</v>
       </c>
-      <c r="B585" s="14" t="s">
+      <c r="B585" s="9" t="s">
         <v>1917</v>
       </c>
-      <c r="C585" s="14" t="s">
+      <c r="C585" s="9" t="s">
         <v>1918</v>
       </c>
       <c r="D585" s="18"/>
@@ -27761,13 +27770,13 @@
       <c r="X586" s="18"/>
     </row>
     <row r="587">
-      <c r="A587" s="9" t="s">
+      <c r="A587" s="14" t="s">
         <v>1922</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="14" t="s">
         <v>1923</v>
       </c>
-      <c r="C587" s="9" t="s">
+      <c r="C587" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="D587" s="18"/>
@@ -27889,13 +27898,13 @@
       <c r="X590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="14" t="s">
+      <c r="A591" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="B591" s="14" t="s">
+      <c r="B591" s="9" t="s">
         <v>1935</v>
       </c>
-      <c r="C591" s="14" t="s">
+      <c r="C591" s="9" t="s">
         <v>1936</v>
       </c>
       <c r="D591" s="18"/>
@@ -27953,13 +27962,13 @@
       <c r="X592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="14" t="s">
         <v>1940</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="14" t="s">
         <v>1941</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="14" t="s">
         <v>1942</v>
       </c>
       <c r="D593" s="18"/>
@@ -28209,13 +28218,13 @@
       <c r="X600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="14" t="s">
+      <c r="A601" s="9" t="s">
         <v>1964</v>
       </c>
-      <c r="B601" s="14" t="s">
+      <c r="B601" s="9" t="s">
         <v>1965</v>
       </c>
-      <c r="C601" s="14" t="s">
+      <c r="C601" s="9" t="s">
         <v>1966</v>
       </c>
       <c r="D601" s="18"/>
@@ -28273,13 +28282,13 @@
       <c r="X602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="s">
+      <c r="A603" s="14" t="s">
         <v>1970</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="C603" s="9" t="s">
+      <c r="C603" s="14" t="s">
         <v>1972</v>
       </c>
       <c r="D603" s="18"/>
@@ -28369,13 +28378,13 @@
       <c r="X605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="14" t="s">
+      <c r="A606" s="9" t="s">
         <v>1979</v>
       </c>
-      <c r="B606" s="14" t="s">
+      <c r="B606" s="9" t="s">
         <v>1980</v>
       </c>
-      <c r="C606" s="14" t="s">
+      <c r="C606" s="9" t="s">
         <v>1981</v>
       </c>
       <c r="D606" s="18"/>
@@ -28529,13 +28538,13 @@
       <c r="X610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="9" t="s">
+      <c r="A611" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="14" t="s">
         <v>1995</v>
       </c>
-      <c r="C611" s="9" t="s">
+      <c r="C611" s="14" t="s">
         <v>1996</v>
       </c>
       <c r="D611" s="18"/>
@@ -28561,13 +28570,13 @@
       <c r="X611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="14" t="s">
+      <c r="A612" s="9" t="s">
         <v>1997</v>
       </c>
-      <c r="B612" s="14" t="s">
+      <c r="B612" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="C612" s="14" t="s">
+      <c r="C612" s="9" t="s">
         <v>1999</v>
       </c>
       <c r="D612" s="18"/>
@@ -28625,13 +28634,13 @@
       <c r="X613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="9" t="s">
+      <c r="A614" s="14" t="s">
         <v>2003</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="14" t="s">
         <v>2004</v>
       </c>
-      <c r="C614" s="9" t="s">
+      <c r="C614" s="14" t="s">
         <v>2005</v>
       </c>
       <c r="D614" s="18"/>
@@ -28721,13 +28730,13 @@
       <c r="X616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="14" t="s">
+      <c r="A617" s="9" t="s">
         <v>2012</v>
       </c>
-      <c r="B617" s="14" t="s">
+      <c r="B617" s="9" t="s">
         <v>2013</v>
       </c>
-      <c r="C617" s="14" t="s">
+      <c r="C617" s="9" t="s">
         <v>2014</v>
       </c>
       <c r="D617" s="18"/>
@@ -28764,35 +28773,35 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="9" t="s">
+      <c r="A619" s="14" t="s">
         <v>2018</v>
       </c>
-      <c r="B619" s="9" t="s">
+      <c r="B619" s="14" t="s">
         <v>2019</v>
       </c>
-      <c r="C619" s="9" t="s">
+      <c r="C619" s="14" t="s">
         <v>2020</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="14" t="s">
+      <c r="A620" s="9" t="s">
         <v>2021</v>
       </c>
-      <c r="B620" s="14" t="s">
+      <c r="B620" s="9" t="s">
         <v>2022</v>
       </c>
-      <c r="C620" s="14" t="s">
+      <c r="C620" s="9" t="s">
         <v>2023</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="9" t="s">
+      <c r="A621" s="14" t="s">
         <v>2024</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="14" t="s">
         <v>2025</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="14" t="s">
         <v>2026</v>
       </c>
     </row>
@@ -28830,21 +28839,21 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="14" t="s">
+      <c r="A625" s="9" t="s">
         <v>2036</v>
       </c>
-      <c r="B625" s="14" t="s">
+      <c r="B625" s="9" t="s">
         <v>2037</v>
       </c>
-      <c r="C625" s="14" t="s">
+      <c r="C625" s="9" t="s">
         <v>2038</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="9" t="s">
+      <c r="A626" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="14" t="s">
         <v>2040</v>
       </c>
       <c r="C626" s="14" t="s">
@@ -28852,10 +28861,10 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="14" t="s">
+      <c r="A627" s="9" t="s">
         <v>2042</v>
       </c>
-      <c r="B627" s="14" t="s">
+      <c r="B627" s="9" t="s">
         <v>2043</v>
       </c>
       <c r="C627" s="14" t="s">
@@ -28874,24 +28883,24 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="9" t="s">
+      <c r="A629" s="14" t="s">
         <v>2048</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="14" t="s">
         <v>2049</v>
       </c>
-      <c r="C629" s="9" t="s">
+      <c r="C629" s="14" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="14" t="s">
+      <c r="A630" s="9" t="s">
         <v>2051</v>
       </c>
-      <c r="B630" s="14" t="s">
+      <c r="B630" s="9" t="s">
         <v>2052</v>
       </c>
-      <c r="C630" s="14" t="s">
+      <c r="C630" s="9" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -28918,13 +28927,13 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="9" t="s">
+      <c r="A633" s="14" t="s">
         <v>2060</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" s="14" t="s">
         <v>2061</v>
       </c>
-      <c r="C633" s="9" t="s">
+      <c r="C633" s="14" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -28973,57 +28982,57 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="20" t="s">
+      <c r="A638" s="9" t="s">
         <v>2075</v>
       </c>
-      <c r="B638" s="20" t="s">
+      <c r="B638" s="9" t="s">
         <v>2076</v>
       </c>
-      <c r="C638" s="10" t="s">
+      <c r="C638" s="9" t="s">
         <v>2077</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="9" t="s">
+      <c r="A639" s="20" t="s">
         <v>2078</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="20" t="s">
         <v>2079</v>
       </c>
-      <c r="C639" s="9" t="s">
+      <c r="C639" s="10" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="14" t="s">
+      <c r="A640" s="9" t="s">
         <v>2081</v>
       </c>
-      <c r="B640" s="14" t="s">
+      <c r="B640" s="9" t="s">
         <v>2082</v>
       </c>
-      <c r="C640" s="14" t="s">
+      <c r="C640" s="9" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="9" t="s">
+      <c r="A641" s="14" t="s">
         <v>2084</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="14" t="s">
         <v>2085</v>
       </c>
-      <c r="C641" s="9" t="s">
+      <c r="C641" s="14" t="s">
         <v>2086</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="14" t="s">
+      <c r="A642" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="B642" s="14" t="s">
+      <c r="B642" s="9" t="s">
         <v>2088</v>
       </c>
-      <c r="C642" s="14" t="s">
+      <c r="C642" s="9" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -29050,79 +29059,79 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="9" t="s">
+      <c r="A645" s="14" t="s">
         <v>2096</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="14" t="s">
         <v>2097</v>
       </c>
-      <c r="C645" s="9" t="s">
+      <c r="C645" s="14" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="14" t="s">
+      <c r="A646" s="9" t="s">
         <v>2099</v>
       </c>
-      <c r="B646" s="14" t="s">
+      <c r="B646" s="9" t="s">
         <v>2100</v>
       </c>
-      <c r="C646" s="14" t="s">
+      <c r="C646" s="9" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="9" t="s">
+      <c r="A647" s="14" t="s">
         <v>2102</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="14" t="s">
         <v>2103</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="14" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="14" t="s">
+      <c r="A648" s="9" t="s">
         <v>2105</v>
       </c>
-      <c r="B648" s="14" t="s">
+      <c r="B648" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="C648" s="14" t="s">
+      <c r="C648" s="9" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="9" t="s">
+      <c r="A649" s="14" t="s">
         <v>2108</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="14" t="s">
         <v>2109</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="14" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="14" t="s">
+      <c r="A650" s="9" t="s">
         <v>2111</v>
       </c>
-      <c r="B650" s="14" t="s">
+      <c r="B650" s="9" t="s">
         <v>2112</v>
       </c>
-      <c r="C650" s="14" t="s">
+      <c r="C650" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="9" t="s">
+      <c r="A651" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="B651" s="9" t="s">
+      <c r="B651" s="14" t="s">
         <v>2115</v>
       </c>
-      <c r="C651" s="9" t="s">
+      <c r="C651" s="14" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -29149,13 +29158,13 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="14" t="s">
+      <c r="A654" s="9" t="s">
         <v>2123</v>
       </c>
-      <c r="B654" s="14" t="s">
+      <c r="B654" s="9" t="s">
         <v>2124</v>
       </c>
-      <c r="C654" s="14" t="s">
+      <c r="C654" s="9" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -29193,13 +29202,13 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="9" t="s">
+      <c r="A658" s="14" t="s">
         <v>2135</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="14" t="s">
         <v>2136</v>
       </c>
-      <c r="C658" s="9" t="s">
+      <c r="C658" s="14" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -29218,7 +29227,7 @@
       <c r="A660" s="9" t="s">
         <v>2141</v>
       </c>
-      <c r="B660" s="14" t="s">
+      <c r="B660" s="9" t="s">
         <v>2142</v>
       </c>
       <c r="C660" s="9" t="s">
@@ -29226,13 +29235,13 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="14" t="s">
+      <c r="A661" s="9" t="s">
         <v>2144</v>
       </c>
       <c r="B661" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C661" s="9" t="s">
         <v>2146</v>
       </c>
     </row>
@@ -29248,13 +29257,13 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="9" t="s">
+      <c r="A663" s="14" t="s">
         <v>2150</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="14" t="s">
         <v>2151</v>
       </c>
-      <c r="C663" s="9" t="s">
+      <c r="C663" s="14" t="s">
         <v>2152</v>
       </c>
     </row>
@@ -29292,10 +29301,10 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="20" t="s">
+      <c r="A667" s="9" t="s">
         <v>2162</v>
       </c>
-      <c r="B667" s="20" t="s">
+      <c r="B667" s="9" t="s">
         <v>2163</v>
       </c>
       <c r="C667" s="9" t="s">
@@ -29303,10 +29312,10 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="9" t="s">
+      <c r="A668" s="20" t="s">
         <v>2165</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="20" t="s">
         <v>2166</v>
       </c>
       <c r="C668" s="9" t="s">
@@ -29347,13 +29356,13 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="14" t="s">
+      <c r="A672" s="9" t="s">
         <v>2177</v>
       </c>
-      <c r="B672" s="14" t="s">
+      <c r="B672" s="9" t="s">
         <v>2178</v>
       </c>
-      <c r="C672" s="14" t="s">
+      <c r="C672" s="9" t="s">
         <v>2179</v>
       </c>
     </row>
@@ -29380,35 +29389,35 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="9" t="s">
+      <c r="A675" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="14" t="s">
         <v>2187</v>
       </c>
-      <c r="C675" s="9" t="s">
+      <c r="C675" s="14" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="14" t="s">
+      <c r="A676" s="9" t="s">
         <v>2189</v>
       </c>
-      <c r="B676" s="14" t="s">
+      <c r="B676" s="9" t="s">
         <v>2190</v>
       </c>
-      <c r="C676" s="14" t="s">
+      <c r="C676" s="9" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="9" t="s">
+      <c r="A677" s="14" t="s">
         <v>2192</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="14" t="s">
         <v>2193</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="14" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -29435,79 +29444,79 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="14" t="s">
+      <c r="A680" s="9" t="s">
         <v>2201</v>
       </c>
-      <c r="B680" s="14" t="s">
+      <c r="B680" s="9" t="s">
         <v>2202</v>
       </c>
-      <c r="C680" s="14" t="s">
+      <c r="C680" s="9" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="9" t="s">
+      <c r="A681" s="14" t="s">
         <v>2204</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="14" t="s">
         <v>2205</v>
       </c>
-      <c r="C681" s="9" t="s">
+      <c r="C681" s="14" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="14" t="s">
+      <c r="A682" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="B682" s="14" t="s">
+      <c r="B682" s="9" t="s">
         <v>2208</v>
       </c>
-      <c r="C682" s="14" t="s">
+      <c r="C682" s="9" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2212</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="14" t="s">
+      <c r="A684" s="9" t="s">
         <v>2213</v>
       </c>
-      <c r="B684" s="14" t="s">
+      <c r="B684" s="9" t="s">
         <v>2214</v>
       </c>
-      <c r="C684" s="14" t="s">
+      <c r="C684" s="9" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="14" t="s">
         <v>2216</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="14" t="s">
         <v>2217</v>
       </c>
-      <c r="C685" s="9" t="s">
+      <c r="C685" s="14" t="s">
         <v>2218</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="9" t="s">
         <v>2219</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2220</v>
       </c>
-      <c r="C686" s="14" t="s">
+      <c r="C686" s="9" t="s">
         <v>2221</v>
       </c>
     </row>
@@ -29523,13 +29532,13 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="9" t="s">
+      <c r="A688" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="14" t="s">
         <v>2226</v>
       </c>
-      <c r="C688" s="9" t="s">
+      <c r="C688" s="14" t="s">
         <v>2227</v>
       </c>
     </row>
@@ -29556,35 +29565,35 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="14" t="s">
+      <c r="A691" s="9" t="s">
         <v>2234</v>
       </c>
-      <c r="B691" s="14" t="s">
+      <c r="B691" s="9" t="s">
         <v>2235</v>
       </c>
-      <c r="C691" s="14" t="s">
+      <c r="C691" s="9" t="s">
         <v>2236</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="14" t="s">
         <v>2237</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="14" t="s">
         <v>2238</v>
       </c>
-      <c r="C692" s="9" t="s">
+      <c r="C692" s="14" t="s">
         <v>2239</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="14" t="s">
+      <c r="A693" s="9" t="s">
         <v>2240</v>
       </c>
-      <c r="B693" s="14" t="s">
+      <c r="B693" s="9" t="s">
         <v>2241</v>
       </c>
-      <c r="C693" s="14" t="s">
+      <c r="C693" s="9" t="s">
         <v>2242</v>
       </c>
     </row>
@@ -29611,24 +29620,24 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="14" t="s">
         <v>2249</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="C696" s="9" t="s">
+      <c r="C696" s="14" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="14" t="s">
+      <c r="A697" s="9" t="s">
         <v>2252</v>
       </c>
-      <c r="B697" s="14" t="s">
+      <c r="B697" s="9" t="s">
         <v>2253</v>
       </c>
-      <c r="C697" s="14" t="s">
+      <c r="C697" s="9" t="s">
         <v>2254</v>
       </c>
     </row>
@@ -29644,13 +29653,13 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="9" t="s">
+      <c r="A699" s="14" t="s">
         <v>2258</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="14" t="s">
         <v>2259</v>
       </c>
-      <c r="C699" s="9" t="s">
+      <c r="C699" s="14" t="s">
         <v>2260</v>
       </c>
     </row>
@@ -29710,13 +29719,13 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="14" t="s">
+      <c r="A705" s="9" t="s">
         <v>2276</v>
       </c>
-      <c r="B705" s="14" t="s">
+      <c r="B705" s="9" t="s">
         <v>2277</v>
       </c>
-      <c r="C705" s="14" t="s">
+      <c r="C705" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
@@ -29743,13 +29752,13 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="9" t="s">
+      <c r="A708" s="14" t="s">
         <v>2285</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="14" t="s">
         <v>2286</v>
       </c>
-      <c r="C708" s="9" t="s">
+      <c r="C708" s="14" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -29765,24 +29774,24 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="14" t="s">
+      <c r="A710" s="9" t="s">
         <v>2291</v>
       </c>
-      <c r="B710" s="14" t="s">
+      <c r="B710" s="9" t="s">
         <v>2292</v>
       </c>
-      <c r="C710" s="14" t="s">
+      <c r="C710" s="9" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="9" t="s">
+      <c r="A711" s="14" t="s">
         <v>2294</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="14" t="s">
         <v>2295</v>
       </c>
-      <c r="C711" s="9" t="s">
+      <c r="C711" s="14" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29798,24 +29807,24 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="14" t="s">
+      <c r="A713" s="9" t="s">
         <v>2300</v>
       </c>
-      <c r="B713" s="14" t="s">
+      <c r="B713" s="9" t="s">
         <v>2301</v>
       </c>
-      <c r="C713" s="14" t="s">
+      <c r="C713" s="9" t="s">
         <v>2302</v>
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="9" t="s">
+      <c r="A714" s="14" t="s">
         <v>2303</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" s="14" t="s">
         <v>2304</v>
       </c>
-      <c r="C714" s="9" t="s">
+      <c r="C714" s="14" t="s">
         <v>2305</v>
       </c>
     </row>
@@ -29842,24 +29851,24 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="14" t="s">
+      <c r="A717" s="9" t="s">
         <v>2312</v>
       </c>
-      <c r="B717" s="14" t="s">
+      <c r="B717" s="9" t="s">
         <v>2313</v>
       </c>
-      <c r="C717" s="14" t="s">
+      <c r="C717" s="9" t="s">
         <v>2314</v>
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="9" t="s">
+      <c r="A718" s="14" t="s">
         <v>2315</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="14" t="s">
         <v>2316</v>
       </c>
-      <c r="C718" s="9" t="s">
+      <c r="C718" s="14" t="s">
         <v>2317</v>
       </c>
     </row>
@@ -29875,24 +29884,24 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="14" t="s">
+      <c r="A720" s="9" t="s">
         <v>2321</v>
       </c>
-      <c r="B720" s="14" t="s">
+      <c r="B720" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="9" t="s">
+      <c r="A721" s="14" t="s">
         <v>2324</v>
       </c>
-      <c r="B721" s="9" t="s">
+      <c r="B721" s="14" t="s">
         <v>2325</v>
       </c>
-      <c r="C721" s="9" t="s">
+      <c r="C721" s="14" t="s">
         <v>2326</v>
       </c>
     </row>
@@ -29919,13 +29928,13 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="14" t="s">
+      <c r="A724" s="9" t="s">
         <v>2333</v>
       </c>
-      <c r="B724" s="14" t="s">
+      <c r="B724" s="9" t="s">
         <v>2334</v>
       </c>
-      <c r="C724" s="14" t="s">
+      <c r="C724" s="9" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29952,13 +29961,13 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="9" t="s">
+      <c r="A727" s="14" t="s">
         <v>2342</v>
       </c>
-      <c r="B727" s="9" t="s">
+      <c r="B727" s="14" t="s">
         <v>2343</v>
       </c>
-      <c r="C727" s="9" t="s">
+      <c r="C727" s="14" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -29985,13 +29994,13 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="14" t="s">
+      <c r="A730" s="9" t="s">
         <v>2351</v>
       </c>
-      <c r="B730" s="14" t="s">
+      <c r="B730" s="9" t="s">
         <v>2352</v>
       </c>
-      <c r="C730" s="14" t="s">
+      <c r="C730" s="9" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -30029,10 +30038,10 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="9" t="s">
+      <c r="A734" s="14" t="s">
         <v>2363</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="14" t="s">
         <v>2364</v>
       </c>
       <c r="C734" s="14" t="s">
@@ -30046,18 +30055,18 @@
       <c r="B735" s="9" t="s">
         <v>2367</v>
       </c>
-      <c r="C735" s="9" t="s">
+      <c r="C735" s="14" t="s">
         <v>2368</v>
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="14" t="s">
+      <c r="A736" s="9" t="s">
         <v>2369</v>
       </c>
-      <c r="B736" s="14" t="s">
+      <c r="B736" s="9" t="s">
         <v>2370</v>
       </c>
-      <c r="C736" s="14" t="s">
+      <c r="C736" s="9" t="s">
         <v>2371</v>
       </c>
     </row>
@@ -30068,7 +30077,7 @@
       <c r="B737" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C737" s="9" t="s">
+      <c r="C737" s="14" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -30090,18 +30099,18 @@
       <c r="B739" s="14" t="s">
         <v>2379</v>
       </c>
-      <c r="C739" s="14" t="s">
+      <c r="C739" s="9" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="9" t="s">
+      <c r="A740" s="14" t="s">
         <v>2381</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="14" t="s">
         <v>2382</v>
       </c>
-      <c r="C740" s="9" t="s">
+      <c r="C740" s="14" t="s">
         <v>2383</v>
       </c>
     </row>
@@ -30109,7 +30118,7 @@
       <c r="A741" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="14" t="s">
+      <c r="B741" s="9" t="s">
         <v>2385</v>
       </c>
       <c r="C741" s="9" t="s">
@@ -30120,7 +30129,7 @@
       <c r="A742" s="9" t="s">
         <v>2387</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="14" t="s">
         <v>2388</v>
       </c>
       <c r="C742" s="9" t="s">
@@ -30156,15 +30165,15 @@
       <c r="B745" s="9" t="s">
         <v>2397</v>
       </c>
-      <c r="C745" s="14" t="s">
+      <c r="C745" s="9" t="s">
         <v>2398</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="14" t="s">
+      <c r="A746" s="9" t="s">
         <v>2399</v>
       </c>
-      <c r="B746" s="14" t="s">
+      <c r="B746" s="9" t="s">
         <v>2400</v>
       </c>
       <c r="C746" s="14" t="s">
@@ -30183,32 +30192,32 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="14" t="s">
         <v>2405</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="14" t="s">
         <v>2406</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2407</v>
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="14" t="s">
+      <c r="A749" s="9" t="s">
         <v>2408</v>
       </c>
-      <c r="B749" s="14" t="s">
+      <c r="B749" s="9" t="s">
         <v>2409</v>
       </c>
-      <c r="C749" s="14" t="s">
+      <c r="C749" s="9" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="14" t="s">
         <v>2411</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="14" t="s">
         <v>2412</v>
       </c>
       <c r="C750" s="14" t="s">
@@ -30216,33 +30225,33 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="14" t="s">
+      <c r="A751" s="9" t="s">
         <v>2414</v>
       </c>
-      <c r="B751" s="14" t="s">
+      <c r="B751" s="9" t="s">
         <v>2415</v>
       </c>
-      <c r="C751" s="9" t="s">
+      <c r="C751" s="14" t="s">
         <v>2416</v>
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="9" t="s">
+      <c r="A752" s="14" t="s">
         <v>2417</v>
       </c>
-      <c r="B752" s="9" t="s">
-        <v>2277</v>
+      <c r="B752" s="14" t="s">
+        <v>2418</v>
       </c>
       <c r="C752" s="9" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="9" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B753" s="9" t="s">
-        <v>2420</v>
+        <v>2280</v>
       </c>
       <c r="C753" s="9" t="s">
         <v>2421</v>
@@ -30277,15 +30286,15 @@
       <c r="B756" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="C756" s="14" t="s">
+      <c r="C756" s="9" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="14" t="s">
+      <c r="A757" s="9" t="s">
         <v>2431</v>
       </c>
-      <c r="B757" s="14" t="s">
+      <c r="B757" s="9" t="s">
         <v>2432</v>
       </c>
       <c r="C757" s="14" t="s">
@@ -30296,10 +30305,10 @@
       <c r="A758" s="14" t="s">
         <v>2434</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="14" t="s">
         <v>2435</v>
       </c>
-      <c r="C758" s="9" t="s">
+      <c r="C758" s="14" t="s">
         <v>2436</v>
       </c>
     </row>
@@ -30307,7 +30316,7 @@
       <c r="A759" s="14" t="s">
         <v>2437</v>
       </c>
-      <c r="B759" s="14" t="s">
+      <c r="B759" s="9" t="s">
         <v>2438</v>
       </c>
       <c r="C759" s="9" t="s">
@@ -30315,10 +30324,10 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="9" t="s">
+      <c r="A760" s="14" t="s">
         <v>2440</v>
       </c>
-      <c r="B760" s="9" t="s">
+      <c r="B760" s="14" t="s">
         <v>2441</v>
       </c>
       <c r="C760" s="9" t="s">
@@ -30332,7 +30341,7 @@
       <c r="B761" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="C761" s="14" t="s">
+      <c r="C761" s="9" t="s">
         <v>2445</v>
       </c>
     </row>
@@ -30343,29 +30352,29 @@
       <c r="B762" s="9" t="s">
         <v>2447</v>
       </c>
-      <c r="C762" s="9" t="s">
+      <c r="C762" s="14" t="s">
         <v>2448</v>
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="14" t="s">
+      <c r="A763" s="9" t="s">
         <v>2449</v>
       </c>
-      <c r="B763" s="14" t="s">
+      <c r="B763" s="9" t="s">
         <v>2450</v>
       </c>
-      <c r="C763" s="14" t="s">
+      <c r="C763" s="9" t="s">
         <v>2451</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="9" t="s">
+      <c r="A764" s="14" t="s">
         <v>2452</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B764" s="14" t="s">
         <v>2453</v>
       </c>
-      <c r="C764" s="9" t="s">
+      <c r="C764" s="14" t="s">
         <v>2454</v>
       </c>
     </row>
@@ -30381,10 +30390,10 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="14" t="s">
+      <c r="A766" s="9" t="s">
         <v>2458</v>
       </c>
-      <c r="B766" s="14" t="s">
+      <c r="B766" s="9" t="s">
         <v>2459</v>
       </c>
       <c r="C766" s="9" t="s">
@@ -30392,10 +30401,10 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="9" t="s">
+      <c r="A767" s="14" t="s">
         <v>2461</v>
       </c>
-      <c r="B767" s="9" t="s">
+      <c r="B767" s="14" t="s">
         <v>2462</v>
       </c>
       <c r="C767" s="9" t="s">
@@ -30425,43 +30434,43 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="14" t="s">
+      <c r="A770" s="9" t="s">
         <v>2470</v>
       </c>
-      <c r="B770" s="14" t="s">
+      <c r="B770" s="9" t="s">
         <v>2471</v>
       </c>
-      <c r="C770" s="14" t="s">
+      <c r="C770" s="9" t="s">
         <v>2472</v>
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="9" t="s">
+      <c r="A771" s="14" t="s">
         <v>2473</v>
       </c>
-      <c r="B771" s="9" t="s">
+      <c r="B771" s="14" t="s">
         <v>2474</v>
       </c>
-      <c r="C771" s="9" t="s">
+      <c r="C771" s="14" t="s">
         <v>2475</v>
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="14" t="s">
+      <c r="A772" s="9" t="s">
         <v>2476</v>
       </c>
-      <c r="B772" s="14" t="s">
+      <c r="B772" s="9" t="s">
         <v>2477</v>
       </c>
-      <c r="C772" s="14" t="s">
+      <c r="C772" s="9" t="s">
         <v>2478</v>
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="9" t="s">
+      <c r="A773" s="14" t="s">
         <v>2479</v>
       </c>
-      <c r="B773" s="9" t="s">
+      <c r="B773" s="14" t="s">
         <v>2480</v>
       </c>
       <c r="C773" s="14" t="s">
@@ -30469,10 +30478,10 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="14" t="s">
+      <c r="A774" s="9" t="s">
         <v>2482</v>
       </c>
-      <c r="B774" s="14" t="s">
+      <c r="B774" s="9" t="s">
         <v>2483</v>
       </c>
       <c r="C774" s="14" t="s">
@@ -30480,10 +30489,10 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="9" t="s">
+      <c r="A775" s="14" t="s">
         <v>2485</v>
       </c>
-      <c r="B775" s="9" t="s">
+      <c r="B775" s="14" t="s">
         <v>2486</v>
       </c>
       <c r="C775" s="14" t="s">
@@ -30491,13 +30500,13 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="14" t="s">
+      <c r="A776" s="9" t="s">
         <v>2488</v>
       </c>
-      <c r="B776" s="14" t="s">
+      <c r="B776" s="9" t="s">
         <v>2489</v>
       </c>
-      <c r="C776" s="9" t="s">
+      <c r="C776" s="14" t="s">
         <v>2490</v>
       </c>
     </row>
@@ -30508,29 +30517,29 @@
       <c r="B777" s="14" t="s">
         <v>2492</v>
       </c>
-      <c r="C777" s="14" t="s">
+      <c r="C777" s="9" t="s">
         <v>2493</v>
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="9" t="s">
+      <c r="A778" s="14" t="s">
         <v>2494</v>
       </c>
-      <c r="B778" s="9" t="s">
+      <c r="B778" s="14" t="s">
         <v>2495</v>
       </c>
-      <c r="C778" s="9" t="s">
+      <c r="C778" s="14" t="s">
         <v>2496</v>
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="14" t="s">
+      <c r="A779" s="9" t="s">
         <v>2497</v>
       </c>
-      <c r="B779" s="14" t="s">
+      <c r="B779" s="9" t="s">
         <v>2498</v>
       </c>
-      <c r="C779" s="14" t="s">
+      <c r="C779" s="9" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -30585,7 +30594,7 @@
       <c r="B784" s="14" t="s">
         <v>2513</v>
       </c>
-      <c r="C784" s="9" t="s">
+      <c r="C784" s="14" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -30593,7 +30602,7 @@
       <c r="A785" s="14" t="s">
         <v>2515</v>
       </c>
-      <c r="B785" s="9" t="s">
+      <c r="B785" s="14" t="s">
         <v>2516</v>
       </c>
       <c r="C785" s="9" t="s">
@@ -30604,7 +30613,7 @@
       <c r="A786" s="14" t="s">
         <v>2518</v>
       </c>
-      <c r="B786" s="14" t="s">
+      <c r="B786" s="9" t="s">
         <v>2519</v>
       </c>
       <c r="C786" s="9" t="s">
@@ -30612,13 +30621,13 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="9" t="s">
+      <c r="A787" s="14" t="s">
         <v>2521</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="14" t="s">
         <v>2522</v>
       </c>
-      <c r="C787" s="14" t="s">
+      <c r="C787" s="9" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -30629,26 +30638,26 @@
       <c r="B788" s="9" t="s">
         <v>2525</v>
       </c>
-      <c r="C788" s="9" t="s">
+      <c r="C788" s="14" t="s">
         <v>2526</v>
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="14" t="s">
+      <c r="A789" s="9" t="s">
         <v>2527</v>
       </c>
-      <c r="B789" s="14" t="s">
+      <c r="B789" s="9" t="s">
         <v>2528</v>
       </c>
-      <c r="C789" s="14" t="s">
+      <c r="C789" s="9" t="s">
         <v>2529</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="9" t="s">
+      <c r="A790" s="14" t="s">
         <v>2530</v>
       </c>
-      <c r="B790" s="9" t="s">
+      <c r="B790" s="14" t="s">
         <v>2531</v>
       </c>
       <c r="C790" s="14" t="s">
@@ -30656,13 +30665,13 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="14" t="s">
+      <c r="A791" s="9" t="s">
         <v>2533</v>
       </c>
-      <c r="B791" s="14" t="s">
+      <c r="B791" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="C791" s="9" t="s">
+      <c r="C791" s="14" t="s">
         <v>2535</v>
       </c>
     </row>
@@ -30673,26 +30682,26 @@
       <c r="B792" s="14" t="s">
         <v>2537</v>
       </c>
-      <c r="C792" s="14" t="s">
+      <c r="C792" s="9" t="s">
         <v>2538</v>
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="9" t="s">
+      <c r="A793" s="14" t="s">
         <v>2539</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B793" s="14" t="s">
         <v>2540</v>
       </c>
-      <c r="C793" s="9" t="s">
+      <c r="C793" s="14" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="14" t="s">
+      <c r="A794" s="9" t="s">
         <v>2542</v>
       </c>
-      <c r="B794" s="14" t="s">
+      <c r="B794" s="9" t="s">
         <v>2543</v>
       </c>
       <c r="C794" s="9" t="s">
@@ -30700,10 +30709,10 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="9" t="s">
+      <c r="A795" s="14" t="s">
         <v>2545</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="14" t="s">
         <v>2546</v>
       </c>
       <c r="C795" s="9" t="s">
@@ -30728,7 +30737,7 @@
       <c r="B797" s="9" t="s">
         <v>2552</v>
       </c>
-      <c r="C797" s="14" t="s">
+      <c r="C797" s="9" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -30739,7 +30748,7 @@
       <c r="B798" s="9" t="s">
         <v>2555</v>
       </c>
-      <c r="C798" s="9" t="s">
+      <c r="C798" s="14" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -30761,15 +30770,15 @@
       <c r="B800" s="9" t="s">
         <v>2561</v>
       </c>
-      <c r="C800" s="14" t="s">
+      <c r="C800" s="9" t="s">
         <v>2562</v>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="14" t="s">
+      <c r="A801" s="9" t="s">
         <v>2563</v>
       </c>
-      <c r="B801" s="14" t="s">
+      <c r="B801" s="9" t="s">
         <v>2564</v>
       </c>
       <c r="C801" s="14" t="s">
@@ -30781,31 +30790,31 @@
         <v>2566</v>
       </c>
       <c r="B802" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="C802" s="9" t="s">
         <v>2567</v>
+      </c>
+      <c r="C802" s="14" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="14" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B803" s="14" t="s">
-        <v>2569</v>
+        <v>832</v>
       </c>
       <c r="C803" s="9" t="s">
         <v>2570</v>
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="9" t="s">
+      <c r="A804" s="14" t="s">
         <v>2571</v>
       </c>
-      <c r="B804" s="9" t="s">
+      <c r="B804" s="14" t="s">
         <v>2572</v>
       </c>
-      <c r="C804" s="14" t="s">
+      <c r="C804" s="9" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -30816,7 +30825,7 @@
       <c r="B805" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="C805" s="9" t="s">
+      <c r="C805" s="14" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -30827,7 +30836,7 @@
       <c r="B806" s="9" t="s">
         <v>2578</v>
       </c>
-      <c r="C806" s="14" t="s">
+      <c r="C806" s="9" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -30838,18 +30847,18 @@
       <c r="B807" s="9" t="s">
         <v>2581</v>
       </c>
-      <c r="C807" s="9" t="s">
+      <c r="C807" s="14" t="s">
         <v>2582</v>
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="14" t="s">
+      <c r="A808" s="9" t="s">
         <v>2583</v>
       </c>
-      <c r="B808" s="14" t="s">
+      <c r="B808" s="9" t="s">
         <v>2584</v>
       </c>
-      <c r="C808" s="14" t="s">
+      <c r="C808" s="9" t="s">
         <v>2585</v>
       </c>
     </row>
@@ -30898,8 +30907,15 @@
       </c>
     </row>
     <row r="813">
-      <c r="B813" s="22"/>
-      <c r="C813" s="22"/>
+      <c r="A813" s="14" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B813" s="14" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C813" s="14" t="s">
+        <v>2600</v>
+      </c>
     </row>
     <row r="814">
       <c r="B814" s="22"/>
@@ -31658,10 +31674,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$812">
-    <sortState ref="A1:C812">
-      <sortCondition ref="A1:A812"/>
-      <sortCondition ref="B1:B812"/>
+  <autoFilter ref="$A$1:$C$813">
+    <sortState ref="A1:C813">
+      <sortCondition ref="A1:A813"/>
+      <sortCondition ref="B1:B813"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -3708,16 +3708,7 @@
     <t>лужайка</t>
   </si>
   <si>
-    <t>lumenek</t>
-  </si>
-  <si>
-    <t>know, understand</t>
-  </si>
-  <si>
-    <t>лумэнэк</t>
-  </si>
-  <si>
-    <t>lumenov</t>
+    <t>lumenekiyo</t>
   </si>
   <si>
     <t>knowledge, information</t>
@@ -7762,6 +7753,15 @@
   </si>
   <si>
     <t>злямкия</t>
+  </si>
+  <si>
+    <t>znat</t>
+  </si>
+  <si>
+    <t>to know, to understand</t>
+  </si>
+  <si>
+    <t>знат</t>
   </si>
   <si>
     <t>znomo</t>
@@ -9702,8 +9702,8 @@
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lumenov")</f>
-        <v>lumenov</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lumenekiyo")</f>
+        <v>lumenekiyo</v>
       </c>
       <c r="H35" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"knowledge, information")</f>
@@ -20538,13 +20538,13 @@
       <c r="X360" s="18"/>
     </row>
     <row r="361">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="14" t="s">
         <v>1246</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="C361" s="9" t="s">
+      <c r="C361" s="14" t="s">
         <v>1248</v>
       </c>
       <c r="D361" s="18"/>
@@ -20570,13 +20570,13 @@
       <c r="X361" s="18"/>
     </row>
     <row r="362">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="9" t="s">
         <v>1249</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="C362" s="14" t="s">
+      <c r="C362" s="9" t="s">
         <v>1251</v>
       </c>
       <c r="D362" s="18"/>
@@ -20634,13 +20634,13 @@
       <c r="X363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="14" t="s">
         <v>1256</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C364" s="14" t="s">
         <v>1257</v>
       </c>
       <c r="D364" s="18"/>
@@ -20666,13 +20666,13 @@
       <c r="X364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="C365" s="14" t="s">
+      <c r="C365" s="9" t="s">
         <v>1260</v>
       </c>
       <c r="D365" s="18"/>
@@ -20858,13 +20858,13 @@
       <c r="X370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="14" t="s">
         <v>1276</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="14" t="s">
         <v>1277</v>
       </c>
-      <c r="C371" s="9" t="s">
+      <c r="C371" s="14" t="s">
         <v>1278</v>
       </c>
       <c r="D371" s="18"/>
@@ -20890,13 +20890,13 @@
       <c r="X371" s="18"/>
     </row>
     <row r="372">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="9" t="s">
         <v>1281</v>
       </c>
       <c r="D372" s="18"/>
@@ -20954,13 +20954,13 @@
       <c r="X373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C374" s="14" t="s">
         <v>1287</v>
       </c>
       <c r="D374" s="18"/>
@@ -21050,13 +21050,13 @@
       <c r="X376" s="18"/>
     </row>
     <row r="377">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="C377" s="14" t="s">
+      <c r="C377" s="9" t="s">
         <v>1296</v>
       </c>
       <c r="D377" s="18"/>
@@ -21082,13 +21082,13 @@
       <c r="X377" s="18"/>
     </row>
     <row r="378">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C378" s="14" t="s">
         <v>1299</v>
       </c>
       <c r="D378" s="18"/>
@@ -21114,13 +21114,13 @@
       <c r="X378" s="18"/>
     </row>
     <row r="379">
-      <c r="A379" s="14" t="s">
+      <c r="A379" s="20" t="s">
         <v>1300</v>
       </c>
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="20" t="s">
         <v>1301</v>
       </c>
-      <c r="C379" s="14" t="s">
+      <c r="C379" s="9" t="s">
         <v>1302</v>
       </c>
       <c r="D379" s="18"/>
@@ -21146,13 +21146,13 @@
       <c r="X379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="20" t="s">
+      <c r="A380" s="14" t="s">
         <v>1303</v>
       </c>
-      <c r="B380" s="20" t="s">
+      <c r="B380" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="C380" s="9" t="s">
+      <c r="C380" s="14" t="s">
         <v>1305</v>
       </c>
       <c r="D380" s="18"/>
@@ -21210,13 +21210,13 @@
       <c r="X381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="9" t="s">
         <v>1311</v>
       </c>
       <c r="D382" s="18"/>
@@ -21274,13 +21274,13 @@
       <c r="X383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="14" t="s">
         <v>1315</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="14" t="s">
         <v>1316</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="14" t="s">
         <v>1317</v>
       </c>
       <c r="D384" s="18"/>
@@ -21306,13 +21306,13 @@
       <c r="X384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="C385" s="14" t="s">
+      <c r="C385" s="9" t="s">
         <v>1320</v>
       </c>
       <c r="D385" s="18"/>
@@ -21498,13 +21498,13 @@
       <c r="X390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="14" t="s">
         <v>1336</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="C391" s="9" t="s">
+      <c r="C391" s="14" t="s">
         <v>1338</v>
       </c>
       <c r="D391" s="18"/>
@@ -21562,13 +21562,13 @@
       <c r="X392" s="18"/>
     </row>
     <row r="393">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="9" t="s">
         <v>1342</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="9" t="s">
         <v>1343</v>
       </c>
-      <c r="C393" s="14" t="s">
+      <c r="C393" s="9" t="s">
         <v>1344</v>
       </c>
       <c r="D393" s="18"/>
@@ -21626,13 +21626,13 @@
       <c r="X394" s="18"/>
     </row>
     <row r="395">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="14" t="s">
         <v>1348</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="14" t="s">
         <v>1349</v>
       </c>
-      <c r="C395" s="9" t="s">
+      <c r="C395" s="14" t="s">
         <v>1350</v>
       </c>
       <c r="D395" s="18"/>
@@ -21658,13 +21658,13 @@
       <c r="X395" s="18"/>
     </row>
     <row r="396">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="9" t="s">
         <v>1352</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C396" s="9" t="s">
         <v>1353</v>
       </c>
       <c r="D396" s="18"/>
@@ -21690,13 +21690,13 @@
       <c r="X396" s="18"/>
     </row>
     <row r="397">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="14" t="s">
         <v>1354</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="C397" s="9" t="s">
+      <c r="C397" s="14" t="s">
         <v>1356</v>
       </c>
       <c r="D397" s="18"/>
@@ -21722,13 +21722,13 @@
       <c r="X397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="14" t="s">
+      <c r="A398" s="9" t="s">
         <v>1357</v>
       </c>
-      <c r="B398" s="14" t="s">
+      <c r="B398" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="C398" s="14" t="s">
+      <c r="C398" s="9" t="s">
         <v>1359</v>
       </c>
       <c r="D398" s="18"/>
@@ -21850,13 +21850,13 @@
       <c r="X401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="14" t="s">
         <v>1369</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="14" t="s">
         <v>1370</v>
       </c>
-      <c r="C402" s="9" t="s">
+      <c r="C402" s="14" t="s">
         <v>1371</v>
       </c>
       <c r="D402" s="18"/>
@@ -21914,13 +21914,13 @@
       <c r="X403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="C404" s="14" t="s">
+      <c r="C404" s="9" t="s">
         <v>1377</v>
       </c>
       <c r="D404" s="18"/>
@@ -22010,13 +22010,13 @@
       <c r="X406" s="18"/>
     </row>
     <row r="407">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="14" t="s">
         <v>1384</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="C407" s="9" t="s">
+      <c r="C407" s="14" t="s">
         <v>1386</v>
       </c>
       <c r="D407" s="18"/>
@@ -22042,13 +22042,13 @@
       <c r="X407" s="18"/>
     </row>
     <row r="408">
-      <c r="A408" s="14" t="s">
+      <c r="A408" s="9" t="s">
         <v>1387</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="B408" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="C408" s="14" t="s">
+      <c r="C408" s="9" t="s">
         <v>1389</v>
       </c>
       <c r="D408" s="18"/>
@@ -22074,14 +22074,14 @@
       <c r="X408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C409" s="14" t="s">
         <v>1391</v>
-      </c>
-      <c r="C409" s="9" t="s">
-        <v>1392</v>
       </c>
       <c r="D409" s="18"/>
       <c r="E409" s="18"/>
@@ -22107,13 +22107,13 @@
     </row>
     <row r="410">
       <c r="A410" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C410" s="14" t="s">
         <v>1393</v>
-      </c>
-      <c r="B410" s="14" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C410" s="14" t="s">
-        <v>1394</v>
       </c>
       <c r="D410" s="18"/>
       <c r="E410" s="18"/>
@@ -22138,8 +22138,8 @@
       <c r="X410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="14" t="s">
-        <v>1395</v>
+      <c r="A411" s="9" t="s">
+        <v>1394</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>1395</v>
@@ -22173,10 +22173,10 @@
       <c r="A412" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="C412" s="14" t="s">
+      <c r="C412" s="9" t="s">
         <v>1399</v>
       </c>
       <c r="D412" s="18"/>
@@ -22234,13 +22234,13 @@
       <c r="X413" s="18"/>
     </row>
     <row r="414">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="C414" s="9" t="s">
+      <c r="C414" s="14" t="s">
         <v>1405</v>
       </c>
       <c r="D414" s="18"/>
@@ -22266,13 +22266,13 @@
       <c r="X414" s="18"/>
     </row>
     <row r="415">
-      <c r="A415" s="14" t="s">
+      <c r="A415" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="B415" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="C415" s="14" t="s">
+      <c r="C415" s="9" t="s">
         <v>1408</v>
       </c>
       <c r="D415" s="18"/>
@@ -22298,13 +22298,13 @@
       <c r="X415" s="18"/>
     </row>
     <row r="416">
-      <c r="A416" s="9" t="s">
+      <c r="A416" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="14" t="s">
         <v>1410</v>
       </c>
-      <c r="C416" s="9" t="s">
+      <c r="C416" s="14" t="s">
         <v>1411</v>
       </c>
       <c r="D416" s="18"/>
@@ -22426,13 +22426,13 @@
       <c r="X419" s="18"/>
     </row>
     <row r="420">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C420" s="9" t="s">
         <v>1423</v>
       </c>
       <c r="D420" s="18"/>
@@ -22458,7 +22458,7 @@
       <c r="X420" s="18"/>
     </row>
     <row r="421">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="14" t="s">
         <v>1424</v>
       </c>
       <c r="B421" s="9" t="s">
@@ -22490,7 +22490,7 @@
       <c r="X421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="14" t="s">
+      <c r="A422" s="9" t="s">
         <v>1427</v>
       </c>
       <c r="B422" s="9" t="s">
@@ -22522,10 +22522,10 @@
       <c r="X422" s="18"/>
     </row>
     <row r="423">
-      <c r="A423" s="9" t="s">
+      <c r="A423" s="20" t="s">
         <v>1430</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="20" t="s">
         <v>1431</v>
       </c>
       <c r="C423" s="9" t="s">
@@ -22554,10 +22554,10 @@
       <c r="X423" s="18"/>
     </row>
     <row r="424">
-      <c r="A424" s="20" t="s">
+      <c r="A424" s="27" t="s">
         <v>1433</v>
       </c>
-      <c r="B424" s="20" t="s">
+      <c r="B424" s="9" t="s">
         <v>1434</v>
       </c>
       <c r="C424" s="9" t="s">
@@ -22586,7 +22586,7 @@
       <c r="X424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="27" t="s">
+      <c r="A425" s="9" t="s">
         <v>1436</v>
       </c>
       <c r="B425" s="9" t="s">
@@ -22618,13 +22618,13 @@
       <c r="X425" s="18"/>
     </row>
     <row r="426">
-      <c r="A426" s="9" t="s">
+      <c r="A426" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="14" t="s">
         <v>1440</v>
       </c>
-      <c r="C426" s="9" t="s">
+      <c r="C426" s="14" t="s">
         <v>1441</v>
       </c>
       <c r="D426" s="18"/>
@@ -22746,13 +22746,13 @@
       <c r="X429" s="18"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="9" t="s">
         <v>1453</v>
       </c>
       <c r="D430" s="18"/>
@@ -22842,13 +22842,13 @@
       <c r="X432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="14" t="s">
         <v>1460</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="C433" s="9" t="s">
+      <c r="C433" s="14" t="s">
         <v>1462</v>
       </c>
       <c r="D433" s="18"/>
@@ -22906,13 +22906,13 @@
       <c r="X434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C435" s="9" t="s">
         <v>1468</v>
       </c>
       <c r="D435" s="18"/>
@@ -23002,13 +23002,13 @@
       <c r="X437" s="18"/>
     </row>
     <row r="438">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="14" t="s">
         <v>1476</v>
       </c>
-      <c r="C438" s="9" t="s">
+      <c r="C438" s="14" t="s">
         <v>1477</v>
       </c>
       <c r="D438" s="18"/>
@@ -23034,13 +23034,13 @@
       <c r="X438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="14" t="s">
+      <c r="A439" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="B439" s="14" t="s">
+      <c r="B439" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="C439" s="14" t="s">
+      <c r="C439" s="9" t="s">
         <v>1480</v>
       </c>
       <c r="D439" s="18"/>
@@ -23290,13 +23290,13 @@
       <c r="X446" s="18"/>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="C447" s="9" t="s">
+      <c r="C447" s="14" t="s">
         <v>1504</v>
       </c>
       <c r="D447" s="18"/>
@@ -23354,13 +23354,13 @@
       <c r="X448" s="18"/>
     </row>
     <row r="449">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="B449" s="9" t="s">
         <v>1509</v>
       </c>
-      <c r="C449" s="14" t="s">
+      <c r="C449" s="9" t="s">
         <v>1510</v>
       </c>
       <c r="D449" s="18"/>
@@ -23386,13 +23386,13 @@
       <c r="X449" s="18"/>
     </row>
     <row r="450">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="14" t="s">
         <v>1511</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="C450" s="9" t="s">
+      <c r="C450" s="14" t="s">
         <v>1513</v>
       </c>
       <c r="D450" s="18"/>
@@ -23450,13 +23450,13 @@
       <c r="X451" s="18"/>
     </row>
     <row r="452">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="B452" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="C452" s="14" t="s">
+      <c r="C452" s="9" t="s">
         <v>1519</v>
       </c>
       <c r="D452" s="18"/>
@@ -23610,13 +23610,13 @@
       <c r="X456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="C457" s="9" t="s">
+      <c r="C457" s="14" t="s">
         <v>1534</v>
       </c>
       <c r="D457" s="18"/>
@@ -23770,13 +23770,13 @@
       <c r="X461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="14" t="s">
+      <c r="A462" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="B462" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="C462" s="14" t="s">
+      <c r="C462" s="9" t="s">
         <v>1549</v>
       </c>
       <c r="D462" s="18"/>
@@ -23802,13 +23802,13 @@
       <c r="X462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="14" t="s">
         <v>1551</v>
       </c>
-      <c r="C463" s="9" t="s">
+      <c r="C463" s="14" t="s">
         <v>1552</v>
       </c>
       <c r="D463" s="18"/>
@@ -23866,13 +23866,13 @@
       <c r="X464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="14" t="s">
+      <c r="A465" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="C465" s="14" t="s">
+      <c r="C465" s="9" t="s">
         <v>1558</v>
       </c>
       <c r="D465" s="18"/>
@@ -23898,13 +23898,13 @@
       <c r="X465" s="18"/>
     </row>
     <row r="466">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="C466" s="9" t="s">
+      <c r="C466" s="14" t="s">
         <v>1561</v>
       </c>
       <c r="D466" s="18"/>
@@ -23930,13 +23930,13 @@
       <c r="X466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="C467" s="14" t="s">
+      <c r="C467" s="9" t="s">
         <v>1564</v>
       </c>
       <c r="D467" s="18"/>
@@ -23962,10 +23962,10 @@
       <c r="X467" s="18"/>
     </row>
     <row r="468">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="20" t="s">
         <v>1565</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="20" t="s">
         <v>1566</v>
       </c>
       <c r="C468" s="9" t="s">
@@ -23994,10 +23994,10 @@
       <c r="X468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="20" t="s">
+      <c r="A469" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="B469" s="20" t="s">
+      <c r="B469" s="9" t="s">
         <v>1569</v>
       </c>
       <c r="C469" s="9" t="s">
@@ -24026,13 +24026,13 @@
       <c r="X469" s="18"/>
     </row>
     <row r="470">
-      <c r="A470" s="9" t="s">
+      <c r="A470" s="14" t="s">
         <v>1571</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="C470" s="9" t="s">
+      <c r="C470" s="14" t="s">
         <v>1573</v>
       </c>
       <c r="D470" s="18"/>
@@ -24058,13 +24058,13 @@
       <c r="X470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="14" t="s">
+      <c r="A471" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="C471" s="14" t="s">
+      <c r="C471" s="9" t="s">
         <v>1576</v>
       </c>
       <c r="D471" s="18"/>
@@ -24122,13 +24122,13 @@
       <c r="X472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="9" t="s">
+      <c r="A473" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="C473" s="9" t="s">
+      <c r="C473" s="14" t="s">
         <v>1582</v>
       </c>
       <c r="D473" s="18"/>
@@ -24250,13 +24250,13 @@
       <c r="X476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="14" t="s">
+      <c r="A477" s="9" t="s">
         <v>1592</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="9" t="s">
         <v>1593</v>
       </c>
-      <c r="C477" s="14" t="s">
+      <c r="C477" s="9" t="s">
         <v>1594</v>
       </c>
       <c r="D477" s="18"/>
@@ -24314,13 +24314,13 @@
       <c r="X478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="9" t="s">
+      <c r="A479" s="14" t="s">
         <v>1598</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="14" t="s">
         <v>1599</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C479" s="14" t="s">
         <v>1600</v>
       </c>
       <c r="D479" s="18"/>
@@ -24346,13 +24346,13 @@
       <c r="X479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="14" t="s">
+      <c r="A480" s="9" t="s">
         <v>1601</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="9" t="s">
         <v>1602</v>
       </c>
-      <c r="C480" s="14" t="s">
+      <c r="C480" s="9" t="s">
         <v>1603</v>
       </c>
       <c r="D480" s="18"/>
@@ -24442,13 +24442,13 @@
       <c r="X482" s="18"/>
     </row>
     <row r="483">
-      <c r="A483" s="9" t="s">
+      <c r="A483" s="14" t="s">
         <v>1610</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="14" t="s">
         <v>1611</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C483" s="14" t="s">
         <v>1612</v>
       </c>
       <c r="D483" s="18"/>
@@ -24538,13 +24538,13 @@
       <c r="X485" s="18"/>
     </row>
     <row r="486">
-      <c r="A486" s="14" t="s">
+      <c r="A486" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="C486" s="14" t="s">
+      <c r="C486" s="9" t="s">
         <v>1621</v>
       </c>
       <c r="D486" s="18"/>
@@ -24573,10 +24573,10 @@
       <c r="A487" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="14" t="s">
         <v>1623</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C487" s="14" t="s">
         <v>1624</v>
       </c>
       <c r="D487" s="18"/>
@@ -24602,7 +24602,7 @@
       <c r="X487" s="18"/>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="14" t="s">
         <v>1625</v>
       </c>
       <c r="B488" s="14" t="s">
@@ -24826,13 +24826,13 @@
       <c r="X494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="9" t="s">
         <v>1648</v>
       </c>
       <c r="D495" s="18"/>
@@ -24890,13 +24890,13 @@
       <c r="X496" s="18"/>
     </row>
     <row r="497">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="14" t="s">
         <v>1652</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="14" t="s">
         <v>1653</v>
       </c>
-      <c r="C497" s="9" t="s">
+      <c r="C497" s="14" t="s">
         <v>1654</v>
       </c>
       <c r="D497" s="18"/>
@@ -24922,13 +24922,13 @@
       <c r="X497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="14" t="s">
+      <c r="A498" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="B498" s="14" t="s">
+      <c r="B498" s="9" t="s">
         <v>1656</v>
       </c>
-      <c r="C498" s="14" t="s">
+      <c r="C498" s="9" t="s">
         <v>1657</v>
       </c>
       <c r="D498" s="18"/>
@@ -24954,13 +24954,13 @@
       <c r="X498" s="18"/>
     </row>
     <row r="499">
-      <c r="A499" s="9" t="s">
+      <c r="A499" s="14" t="s">
         <v>1658</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="14" t="s">
         <v>1659</v>
       </c>
-      <c r="C499" s="9" t="s">
+      <c r="C499" s="14" t="s">
         <v>1660</v>
       </c>
       <c r="D499" s="18"/>
@@ -25050,13 +25050,13 @@
       <c r="X501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>1668</v>
       </c>
-      <c r="C502" s="14" t="s">
+      <c r="C502" s="9" t="s">
         <v>1669</v>
       </c>
       <c r="D502" s="18"/>
@@ -25082,13 +25082,13 @@
       <c r="X502" s="18"/>
     </row>
     <row r="503">
-      <c r="A503" s="9" t="s">
+      <c r="A503" s="14" t="s">
         <v>1670</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="14" t="s">
         <v>1671</v>
       </c>
-      <c r="C503" s="9" t="s">
+      <c r="C503" s="14" t="s">
         <v>1672</v>
       </c>
       <c r="D503" s="18"/>
@@ -25114,13 +25114,13 @@
       <c r="X503" s="18"/>
     </row>
     <row r="504">
-      <c r="A504" s="14" t="s">
+      <c r="A504" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="B504" s="9" t="s">
         <v>1674</v>
       </c>
-      <c r="C504" s="14" t="s">
+      <c r="C504" s="9" t="s">
         <v>1675</v>
       </c>
       <c r="D504" s="18"/>
@@ -25178,13 +25178,13 @@
       <c r="X505" s="18"/>
     </row>
     <row r="506">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="14" t="s">
         <v>1679</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="14" t="s">
         <v>1680</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="14" t="s">
         <v>1681</v>
       </c>
       <c r="D506" s="18"/>
@@ -25242,13 +25242,13 @@
       <c r="X507" s="18"/>
     </row>
     <row r="508">
-      <c r="A508" s="14" t="s">
+      <c r="A508" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="B508" s="14" t="s">
+      <c r="B508" s="9" t="s">
         <v>1686</v>
       </c>
-      <c r="C508" s="14" t="s">
+      <c r="C508" s="9" t="s">
         <v>1687</v>
       </c>
       <c r="D508" s="18"/>
@@ -25274,13 +25274,13 @@
       <c r="X508" s="18"/>
     </row>
     <row r="509">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="14" t="s">
         <v>1688</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="14" t="s">
         <v>1689</v>
       </c>
-      <c r="C509" s="9" t="s">
+      <c r="C509" s="14" t="s">
         <v>1690</v>
       </c>
       <c r="D509" s="18"/>
@@ -25338,13 +25338,13 @@
       <c r="X510" s="18"/>
     </row>
     <row r="511">
-      <c r="A511" s="14" t="s">
+      <c r="A511" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="B511" s="14" t="s">
+      <c r="B511" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="C511" s="14" t="s">
+      <c r="C511" s="9" t="s">
         <v>1696</v>
       </c>
       <c r="D511" s="18"/>
@@ -25402,13 +25402,13 @@
       <c r="X512" s="18"/>
     </row>
     <row r="513">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="14" t="s">
         <v>1700</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="14" t="s">
         <v>1701</v>
       </c>
-      <c r="C513" s="9" t="s">
+      <c r="C513" s="14" t="s">
         <v>1702</v>
       </c>
       <c r="D513" s="18"/>
@@ -25434,13 +25434,13 @@
       <c r="X513" s="18"/>
     </row>
     <row r="514">
-      <c r="A514" s="14" t="s">
+      <c r="A514" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="B514" s="14" t="s">
+      <c r="B514" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="C514" s="14" t="s">
+      <c r="C514" s="9" t="s">
         <v>1705</v>
       </c>
       <c r="D514" s="18"/>
@@ -25530,13 +25530,13 @@
       <c r="X516" s="18"/>
     </row>
     <row r="517">
-      <c r="A517" s="9" t="s">
+      <c r="A517" s="14" t="s">
         <v>1712</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="14" t="s">
         <v>1713</v>
       </c>
-      <c r="C517" s="9" t="s">
+      <c r="C517" s="14" t="s">
         <v>1714</v>
       </c>
       <c r="D517" s="18"/>
@@ -25690,13 +25690,13 @@
       <c r="X521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="14" t="s">
+      <c r="A522" s="9" t="s">
         <v>1727</v>
       </c>
-      <c r="B522" s="14" t="s">
+      <c r="B522" s="9" t="s">
         <v>1728</v>
       </c>
-      <c r="C522" s="14" t="s">
+      <c r="C522" s="9" t="s">
         <v>1729</v>
       </c>
       <c r="D522" s="18"/>
@@ -25722,13 +25722,13 @@
       <c r="X522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="9" t="s">
+      <c r="A523" s="14" t="s">
         <v>1730</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="14" t="s">
         <v>1731</v>
       </c>
-      <c r="C523" s="9" t="s">
+      <c r="C523" s="14" t="s">
         <v>1732</v>
       </c>
       <c r="D523" s="18"/>
@@ -25754,13 +25754,13 @@
       <c r="X523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="14" t="s">
+      <c r="A524" s="9" t="s">
         <v>1733</v>
       </c>
-      <c r="B524" s="14" t="s">
+      <c r="B524" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="C524" s="14" t="s">
+      <c r="C524" s="9" t="s">
         <v>1735</v>
       </c>
       <c r="D524" s="18"/>
@@ -25786,13 +25786,13 @@
       <c r="X524" s="18"/>
     </row>
     <row r="525">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="14" t="s">
         <v>1736</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="14" t="s">
         <v>1737</v>
       </c>
-      <c r="C525" s="9" t="s">
+      <c r="C525" s="14" t="s">
         <v>1738</v>
       </c>
       <c r="D525" s="18"/>
@@ -25850,13 +25850,13 @@
       <c r="X526" s="18"/>
     </row>
     <row r="527">
-      <c r="A527" s="14" t="s">
+      <c r="A527" s="9" t="s">
         <v>1742</v>
       </c>
-      <c r="B527" s="14" t="s">
+      <c r="B527" s="9" t="s">
         <v>1743</v>
       </c>
-      <c r="C527" s="14" t="s">
+      <c r="C527" s="9" t="s">
         <v>1744</v>
       </c>
       <c r="D527" s="18"/>
@@ -25882,13 +25882,13 @@
       <c r="X527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="9" t="s">
+      <c r="A528" s="14" t="s">
         <v>1745</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C528" s="14" t="s">
         <v>1747</v>
       </c>
       <c r="D528" s="18"/>
@@ -26202,13 +26202,13 @@
       <c r="X537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="9" t="s">
         <v>1776</v>
       </c>
-      <c r="C538" s="14" t="s">
+      <c r="C538" s="9" t="s">
         <v>1777</v>
       </c>
       <c r="D538" s="18"/>
@@ -26234,13 +26234,13 @@
       <c r="X538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="9" t="s">
+      <c r="A539" s="14" t="s">
         <v>1778</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B539" s="14" t="s">
         <v>1779</v>
       </c>
-      <c r="C539" s="9" t="s">
+      <c r="C539" s="14" t="s">
         <v>1780</v>
       </c>
       <c r="D539" s="18"/>
@@ -26266,13 +26266,13 @@
       <c r="X539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="14" t="s">
+      <c r="A540" s="9" t="s">
         <v>1781</v>
       </c>
-      <c r="B540" s="14" t="s">
+      <c r="B540" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="C540" s="14" t="s">
+      <c r="C540" s="9" t="s">
         <v>1783</v>
       </c>
       <c r="D540" s="18"/>
@@ -26330,13 +26330,13 @@
       <c r="X541" s="18"/>
     </row>
     <row r="542">
-      <c r="A542" s="9" t="s">
+      <c r="A542" s="14" t="s">
         <v>1787</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="14" t="s">
         <v>1788</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C542" s="14" t="s">
         <v>1789</v>
       </c>
       <c r="D542" s="18"/>
@@ -26490,13 +26490,13 @@
       <c r="X546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="14" t="s">
+      <c r="A547" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="B547" s="14" t="s">
+      <c r="B547" s="9" t="s">
         <v>1803</v>
       </c>
-      <c r="C547" s="14" t="s">
+      <c r="C547" s="9" t="s">
         <v>1804</v>
       </c>
       <c r="D547" s="18"/>
@@ -26522,13 +26522,13 @@
       <c r="X547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="9" t="s">
+      <c r="A548" s="14" t="s">
         <v>1805</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="14" t="s">
         <v>1806</v>
       </c>
-      <c r="C548" s="9" t="s">
+      <c r="C548" s="14" t="s">
         <v>1807</v>
       </c>
       <c r="D548" s="18"/>
@@ -26554,13 +26554,13 @@
       <c r="X548" s="18"/>
     </row>
     <row r="549">
-      <c r="A549" s="14" t="s">
+      <c r="A549" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="B549" s="14" t="s">
+      <c r="B549" s="9" t="s">
         <v>1809</v>
       </c>
-      <c r="C549" s="14" t="s">
+      <c r="C549" s="9" t="s">
         <v>1810</v>
       </c>
       <c r="D549" s="18"/>
@@ -26778,13 +26778,13 @@
       <c r="X555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="9" t="s">
+      <c r="A556" s="14" t="s">
         <v>1829</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="14" t="s">
         <v>1830</v>
       </c>
-      <c r="C556" s="9" t="s">
+      <c r="C556" s="14" t="s">
         <v>1831</v>
       </c>
       <c r="D556" s="18"/>
@@ -26874,13 +26874,13 @@
       <c r="X558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="14" t="s">
+      <c r="A559" s="9" t="s">
         <v>1838</v>
       </c>
-      <c r="B559" s="14" t="s">
+      <c r="B559" s="9" t="s">
         <v>1839</v>
       </c>
-      <c r="C559" s="14" t="s">
+      <c r="C559" s="9" t="s">
         <v>1840</v>
       </c>
       <c r="D559" s="18"/>
@@ -26970,13 +26970,13 @@
       <c r="X561" s="18"/>
     </row>
     <row r="562">
-      <c r="A562" s="9" t="s">
+      <c r="A562" s="14" t="s">
         <v>1847</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" s="14" t="s">
         <v>1848</v>
       </c>
-      <c r="C562" s="9" t="s">
+      <c r="C562" s="14" t="s">
         <v>1849</v>
       </c>
       <c r="D562" s="18"/>
@@ -27002,13 +27002,13 @@
       <c r="X562" s="18"/>
     </row>
     <row r="563">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="9" t="s">
         <v>1851</v>
       </c>
-      <c r="C563" s="14" t="s">
+      <c r="C563" s="9" t="s">
         <v>1852</v>
       </c>
       <c r="D563" s="18"/>
@@ -27034,13 +27034,13 @@
       <c r="X563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="9" t="s">
+      <c r="A564" s="14" t="s">
         <v>1853</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="14" t="s">
         <v>1854</v>
       </c>
-      <c r="C564" s="9" t="s">
+      <c r="C564" s="14" t="s">
         <v>1855</v>
       </c>
       <c r="D564" s="18"/>
@@ -27162,13 +27162,13 @@
       <c r="X567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="14" t="s">
+      <c r="A568" s="9" t="s">
         <v>1865</v>
       </c>
-      <c r="B568" s="14" t="s">
+      <c r="B568" s="9" t="s">
         <v>1866</v>
       </c>
-      <c r="C568" s="14" t="s">
+      <c r="C568" s="9" t="s">
         <v>1867</v>
       </c>
       <c r="D568" s="18"/>
@@ -27194,13 +27194,13 @@
       <c r="X568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="14" t="s">
         <v>1868</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" s="14" t="s">
         <v>1869</v>
       </c>
-      <c r="C569" s="9" t="s">
+      <c r="C569" s="14" t="s">
         <v>1870</v>
       </c>
       <c r="D569" s="18"/>
@@ -27226,13 +27226,13 @@
       <c r="X569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="14" t="s">
+      <c r="A570" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="B570" s="14" t="s">
+      <c r="B570" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="C570" s="14" t="s">
+      <c r="C570" s="9" t="s">
         <v>1873</v>
       </c>
       <c r="D570" s="18"/>
@@ -27322,13 +27322,13 @@
       <c r="X572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="9" t="s">
+      <c r="A573" s="14" t="s">
         <v>1880</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="14" t="s">
         <v>1881</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" s="14" t="s">
         <v>1882</v>
       </c>
       <c r="D573" s="18"/>
@@ -27354,13 +27354,13 @@
       <c r="X573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="14" t="s">
+      <c r="A574" s="9" t="s">
         <v>1883</v>
       </c>
-      <c r="B574" s="14" t="s">
+      <c r="B574" s="9" t="s">
         <v>1884</v>
       </c>
-      <c r="C574" s="14" t="s">
+      <c r="C574" s="9" t="s">
         <v>1885</v>
       </c>
       <c r="D574" s="18"/>
@@ -27418,13 +27418,13 @@
       <c r="X575" s="18"/>
     </row>
     <row r="576">
-      <c r="A576" s="9" t="s">
+      <c r="A576" s="14" t="s">
         <v>1889</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="14" t="s">
         <v>1890</v>
       </c>
-      <c r="C576" s="9" t="s">
+      <c r="C576" s="14" t="s">
         <v>1891</v>
       </c>
       <c r="D576" s="18"/>
@@ -27450,13 +27450,13 @@
       <c r="X576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="14" t="s">
+      <c r="A577" s="9" t="s">
         <v>1892</v>
       </c>
-      <c r="B577" s="14" t="s">
+      <c r="B577" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="C577" s="14" t="s">
+      <c r="C577" s="9" t="s">
         <v>1894</v>
       </c>
       <c r="D577" s="18"/>
@@ -27482,13 +27482,13 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="14" t="s">
         <v>1895</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="14" t="s">
         <v>1896</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="14" t="s">
         <v>1897</v>
       </c>
       <c r="D578" s="18"/>
@@ -27514,13 +27514,13 @@
       <c r="X578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="14" t="s">
+      <c r="A579" s="9" t="s">
         <v>1898</v>
       </c>
-      <c r="B579" s="14" t="s">
+      <c r="B579" s="9" t="s">
         <v>1899</v>
       </c>
-      <c r="C579" s="14" t="s">
+      <c r="C579" s="9" t="s">
         <v>1900</v>
       </c>
       <c r="D579" s="18"/>
@@ -27642,13 +27642,13 @@
       <c r="X582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="9" t="s">
+      <c r="A583" s="14" t="s">
         <v>1910</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" s="14" t="s">
         <v>1911</v>
       </c>
-      <c r="C583" s="9" t="s">
+      <c r="C583" s="14" t="s">
         <v>1912</v>
       </c>
       <c r="D583" s="18"/>
@@ -27674,13 +27674,13 @@
       <c r="X583" s="18"/>
     </row>
     <row r="584">
-      <c r="A584" s="14" t="s">
+      <c r="A584" s="9" t="s">
         <v>1913</v>
       </c>
-      <c r="B584" s="14" t="s">
+      <c r="B584" s="9" t="s">
         <v>1914</v>
       </c>
-      <c r="C584" s="14" t="s">
+      <c r="C584" s="9" t="s">
         <v>1915</v>
       </c>
       <c r="D584" s="18"/>
@@ -27706,13 +27706,13 @@
       <c r="X584" s="18"/>
     </row>
     <row r="585">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="C585" s="9" t="s">
+      <c r="C585" s="14" t="s">
         <v>1918</v>
       </c>
       <c r="D585" s="18"/>
@@ -27770,13 +27770,13 @@
       <c r="X586" s="18"/>
     </row>
     <row r="587">
-      <c r="A587" s="14" t="s">
+      <c r="A587" s="9" t="s">
         <v>1922</v>
       </c>
-      <c r="B587" s="14" t="s">
+      <c r="B587" s="9" t="s">
         <v>1923</v>
       </c>
-      <c r="C587" s="14" t="s">
+      <c r="C587" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="D587" s="18"/>
@@ -27898,13 +27898,13 @@
       <c r="X590" s="18"/>
     </row>
     <row r="591">
-      <c r="A591" s="9" t="s">
+      <c r="A591" s="14" t="s">
         <v>1934</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="14" t="s">
         <v>1935</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="C591" s="14" t="s">
         <v>1936</v>
       </c>
       <c r="D591" s="18"/>
@@ -27962,13 +27962,13 @@
       <c r="X592" s="18"/>
     </row>
     <row r="593">
-      <c r="A593" s="14" t="s">
+      <c r="A593" s="9" t="s">
         <v>1940</v>
       </c>
-      <c r="B593" s="14" t="s">
+      <c r="B593" s="9" t="s">
         <v>1941</v>
       </c>
-      <c r="C593" s="14" t="s">
+      <c r="C593" s="9" t="s">
         <v>1942</v>
       </c>
       <c r="D593" s="18"/>
@@ -28218,13 +28218,13 @@
       <c r="X600" s="18"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1964</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1965</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1966</v>
       </c>
       <c r="D601" s="18"/>
@@ -28282,13 +28282,13 @@
       <c r="X602" s="18"/>
     </row>
     <row r="603">
-      <c r="A603" s="14" t="s">
+      <c r="A603" s="9" t="s">
         <v>1970</v>
       </c>
-      <c r="B603" s="14" t="s">
+      <c r="B603" s="9" t="s">
         <v>1971</v>
       </c>
-      <c r="C603" s="14" t="s">
+      <c r="C603" s="9" t="s">
         <v>1972</v>
       </c>
       <c r="D603" s="18"/>
@@ -28378,13 +28378,13 @@
       <c r="X605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="C606" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="D606" s="18"/>
@@ -28538,13 +28538,13 @@
       <c r="X610" s="18"/>
     </row>
     <row r="611">
-      <c r="A611" s="14" t="s">
+      <c r="A611" s="9" t="s">
         <v>1994</v>
       </c>
-      <c r="B611" s="14" t="s">
+      <c r="B611" s="9" t="s">
         <v>1995</v>
       </c>
-      <c r="C611" s="14" t="s">
+      <c r="C611" s="9" t="s">
         <v>1996</v>
       </c>
       <c r="D611" s="18"/>
@@ -28570,13 +28570,13 @@
       <c r="X611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="9" t="s">
+      <c r="A612" s="14" t="s">
         <v>1997</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="14" t="s">
         <v>1998</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="C612" s="14" t="s">
         <v>1999</v>
       </c>
       <c r="D612" s="18"/>
@@ -28634,13 +28634,13 @@
       <c r="X613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="14" t="s">
+      <c r="A614" s="9" t="s">
         <v>2003</v>
       </c>
-      <c r="B614" s="14" t="s">
+      <c r="B614" s="9" t="s">
         <v>2004</v>
       </c>
-      <c r="C614" s="14" t="s">
+      <c r="C614" s="9" t="s">
         <v>2005</v>
       </c>
       <c r="D614" s="18"/>
@@ -28730,13 +28730,13 @@
       <c r="X616" s="18"/>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="s">
+      <c r="A617" s="14" t="s">
         <v>2012</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="14" t="s">
         <v>2013</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="14" t="s">
         <v>2014</v>
       </c>
       <c r="D617" s="18"/>
@@ -28773,35 +28773,35 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="14" t="s">
+      <c r="A619" s="9" t="s">
         <v>2018</v>
       </c>
-      <c r="B619" s="14" t="s">
+      <c r="B619" s="9" t="s">
         <v>2019</v>
       </c>
-      <c r="C619" s="14" t="s">
+      <c r="C619" s="9" t="s">
         <v>2020</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="9" t="s">
+      <c r="A620" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="14" t="s">
         <v>2022</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C620" s="14" t="s">
         <v>2023</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="14" t="s">
+      <c r="A621" s="9" t="s">
         <v>2024</v>
       </c>
-      <c r="B621" s="14" t="s">
+      <c r="B621" s="9" t="s">
         <v>2025</v>
       </c>
-      <c r="C621" s="14" t="s">
+      <c r="C621" s="9" t="s">
         <v>2026</v>
       </c>
     </row>
@@ -28839,21 +28839,21 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="14" t="s">
         <v>2037</v>
       </c>
-      <c r="C625" s="9" t="s">
+      <c r="C625" s="14" t="s">
         <v>2038</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="14" t="s">
+      <c r="A626" s="9" t="s">
         <v>2039</v>
       </c>
-      <c r="B626" s="14" t="s">
+      <c r="B626" s="9" t="s">
         <v>2040</v>
       </c>
       <c r="C626" s="14" t="s">
@@ -28861,10 +28861,10 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="9" t="s">
+      <c r="A627" s="14" t="s">
         <v>2042</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="14" t="s">
         <v>2043</v>
       </c>
       <c r="C627" s="14" t="s">
@@ -28883,24 +28883,24 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="14" t="s">
+      <c r="A629" s="9" t="s">
         <v>2048</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2049</v>
       </c>
-      <c r="C629" s="14" t="s">
+      <c r="C629" s="9" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="9" t="s">
+      <c r="A630" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="14" t="s">
         <v>2052</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C630" s="14" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -28927,13 +28927,13 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="14" t="s">
+      <c r="A633" s="9" t="s">
         <v>2060</v>
       </c>
-      <c r="B633" s="14" t="s">
+      <c r="B633" s="9" t="s">
         <v>2061</v>
       </c>
-      <c r="C633" s="14" t="s">
+      <c r="C633" s="9" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -28982,57 +28982,57 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="20" t="s">
         <v>2075</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="20" t="s">
         <v>2076</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="10" t="s">
         <v>2077</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="20" t="s">
+      <c r="A639" s="9" t="s">
         <v>2078</v>
       </c>
-      <c r="B639" s="20" t="s">
+      <c r="B639" s="9" t="s">
         <v>2079</v>
       </c>
-      <c r="C639" s="10" t="s">
+      <c r="C639" s="9" t="s">
         <v>2080</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="9" t="s">
+      <c r="A640" s="14" t="s">
         <v>2081</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="14" t="s">
         <v>2082</v>
       </c>
-      <c r="C640" s="9" t="s">
+      <c r="C640" s="14" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="14" t="s">
+      <c r="A641" s="9" t="s">
         <v>2084</v>
       </c>
-      <c r="B641" s="14" t="s">
+      <c r="B641" s="9" t="s">
         <v>2085</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="9" t="s">
         <v>2086</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="14" t="s">
         <v>2088</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="14" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -29059,79 +29059,79 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="14" t="s">
+      <c r="A645" s="9" t="s">
         <v>2096</v>
       </c>
-      <c r="B645" s="14" t="s">
+      <c r="B645" s="9" t="s">
         <v>2097</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="9" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2099</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2100</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="14" t="s">
+      <c r="A647" s="9" t="s">
         <v>2102</v>
       </c>
-      <c r="B647" s="14" t="s">
+      <c r="B647" s="9" t="s">
         <v>2103</v>
       </c>
-      <c r="C647" s="14" t="s">
+      <c r="C647" s="9" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="14" t="s">
         <v>2106</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="14" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="14" t="s">
+      <c r="A649" s="9" t="s">
         <v>2108</v>
       </c>
-      <c r="B649" s="14" t="s">
+      <c r="B649" s="9" t="s">
         <v>2109</v>
       </c>
-      <c r="C649" s="14" t="s">
+      <c r="C649" s="9" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="9" t="s">
+      <c r="A650" s="14" t="s">
         <v>2111</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B650" s="14" t="s">
         <v>2112</v>
       </c>
-      <c r="C650" s="9" t="s">
+      <c r="C650" s="14" t="s">
         <v>2113</v>
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="14" t="s">
+      <c r="A651" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="B651" s="14" t="s">
+      <c r="B651" s="9" t="s">
         <v>2115</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C651" s="9" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -29158,13 +29158,13 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="14" t="s">
         <v>2123</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="14" t="s">
         <v>2124</v>
       </c>
-      <c r="C654" s="9" t="s">
+      <c r="C654" s="14" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -29202,13 +29202,13 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="14" t="s">
+      <c r="A658" s="9" t="s">
         <v>2135</v>
       </c>
-      <c r="B658" s="14" t="s">
+      <c r="B658" s="9" t="s">
         <v>2136</v>
       </c>
-      <c r="C658" s="14" t="s">
+      <c r="C658" s="9" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -29227,7 +29227,7 @@
       <c r="A660" s="9" t="s">
         <v>2141</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="14" t="s">
         <v>2142</v>
       </c>
       <c r="C660" s="9" t="s">
@@ -29235,13 +29235,13 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="9" t="s">
+      <c r="A661" s="14" t="s">
         <v>2144</v>
       </c>
       <c r="B661" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="14" t="s">
         <v>2146</v>
       </c>
     </row>
@@ -29257,13 +29257,13 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="14" t="s">
+      <c r="A663" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="B663" s="14" t="s">
+      <c r="B663" s="9" t="s">
         <v>2151</v>
       </c>
-      <c r="C663" s="14" t="s">
+      <c r="C663" s="9" t="s">
         <v>2152</v>
       </c>
     </row>
@@ -29301,10 +29301,10 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="9" t="s">
+      <c r="A667" s="20" t="s">
         <v>2162</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="20" t="s">
         <v>2163</v>
       </c>
       <c r="C667" s="9" t="s">
@@ -29312,10 +29312,10 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="20" t="s">
+      <c r="A668" s="9" t="s">
         <v>2165</v>
       </c>
-      <c r="B668" s="20" t="s">
+      <c r="B668" s="9" t="s">
         <v>2166</v>
       </c>
       <c r="C668" s="9" t="s">
@@ -29356,13 +29356,13 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="9" t="s">
+      <c r="A672" s="14" t="s">
         <v>2177</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="14" t="s">
         <v>2178</v>
       </c>
-      <c r="C672" s="9" t="s">
+      <c r="C672" s="14" t="s">
         <v>2179</v>
       </c>
     </row>
@@ -29389,35 +29389,35 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="14" t="s">
+      <c r="A675" s="9" t="s">
         <v>2186</v>
       </c>
-      <c r="B675" s="14" t="s">
+      <c r="B675" s="9" t="s">
         <v>2187</v>
       </c>
-      <c r="C675" s="14" t="s">
+      <c r="C675" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="14" t="s">
         <v>2189</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="14" t="s">
         <v>2190</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="14" t="s">
         <v>2191</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="14" t="s">
+      <c r="A677" s="9" t="s">
         <v>2192</v>
       </c>
-      <c r="B677" s="14" t="s">
+      <c r="B677" s="9" t="s">
         <v>2193</v>
       </c>
-      <c r="C677" s="14" t="s">
+      <c r="C677" s="9" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -29444,79 +29444,79 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="9" t="s">
+      <c r="A680" s="14" t="s">
         <v>2201</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="14" t="s">
         <v>2202</v>
       </c>
-      <c r="C680" s="9" t="s">
+      <c r="C680" s="14" t="s">
         <v>2203</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="14" t="s">
+      <c r="A681" s="9" t="s">
         <v>2204</v>
       </c>
-      <c r="B681" s="14" t="s">
+      <c r="B681" s="9" t="s">
         <v>2205</v>
       </c>
-      <c r="C681" s="14" t="s">
+      <c r="C681" s="9" t="s">
         <v>2206</v>
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="9" t="s">
+      <c r="A682" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="C682" s="9" t="s">
+      <c r="C682" s="14" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="14" t="s">
+      <c r="A683" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="B683" s="14" t="s">
+      <c r="B683" s="9" t="s">
         <v>2211</v>
       </c>
-      <c r="C683" s="14" t="s">
+      <c r="C683" s="9" t="s">
         <v>2212</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="14" t="s">
         <v>2214</v>
       </c>
-      <c r="C684" s="9" t="s">
+      <c r="C684" s="14" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="14" t="s">
+      <c r="A685" s="9" t="s">
         <v>2216</v>
       </c>
-      <c r="B685" s="14" t="s">
+      <c r="B685" s="9" t="s">
         <v>2217</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="9" t="s">
         <v>2218</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="14" t="s">
         <v>2219</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="14" t="s">
         <v>2220</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C686" s="14" t="s">
         <v>2221</v>
       </c>
     </row>
@@ -29532,13 +29532,13 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="9" t="s">
         <v>2225</v>
       </c>
-      <c r="B688" s="14" t="s">
+      <c r="B688" s="9" t="s">
         <v>2226</v>
       </c>
-      <c r="C688" s="14" t="s">
+      <c r="C688" s="9" t="s">
         <v>2227</v>
       </c>
     </row>
@@ -29565,35 +29565,35 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="9" t="s">
+      <c r="A691" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="14" t="s">
         <v>2235</v>
       </c>
-      <c r="C691" s="9" t="s">
+      <c r="C691" s="14" t="s">
         <v>2236</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2237</v>
       </c>
-      <c r="B692" s="14" t="s">
+      <c r="B692" s="9" t="s">
         <v>2238</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2239</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="9" t="s">
+      <c r="A693" s="14" t="s">
         <v>2240</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="14" t="s">
         <v>2241</v>
       </c>
-      <c r="C693" s="9" t="s">
+      <c r="C693" s="14" t="s">
         <v>2242</v>
       </c>
     </row>
@@ -29620,24 +29620,24 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="14" t="s">
+      <c r="A696" s="9" t="s">
         <v>2249</v>
       </c>
-      <c r="B696" s="14" t="s">
+      <c r="B696" s="9" t="s">
         <v>2250</v>
       </c>
-      <c r="C696" s="14" t="s">
+      <c r="C696" s="9" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="9" t="s">
+      <c r="A697" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="14" t="s">
         <v>2253</v>
       </c>
-      <c r="C697" s="9" t="s">
+      <c r="C697" s="14" t="s">
         <v>2254</v>
       </c>
     </row>
@@ -29653,13 +29653,13 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="14" t="s">
+      <c r="A699" s="9" t="s">
         <v>2258</v>
       </c>
-      <c r="B699" s="14" t="s">
+      <c r="B699" s="9" t="s">
         <v>2259</v>
       </c>
-      <c r="C699" s="14" t="s">
+      <c r="C699" s="9" t="s">
         <v>2260</v>
       </c>
     </row>
@@ -29719,13 +29719,13 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="9" t="s">
+      <c r="A705" s="14" t="s">
         <v>2276</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="14" t="s">
         <v>2277</v>
       </c>
-      <c r="C705" s="9" t="s">
+      <c r="C705" s="14" t="s">
         <v>2278</v>
       </c>
     </row>
@@ -29752,13 +29752,13 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="14" t="s">
+      <c r="A708" s="9" t="s">
         <v>2285</v>
       </c>
-      <c r="B708" s="14" t="s">
+      <c r="B708" s="9" t="s">
         <v>2286</v>
       </c>
-      <c r="C708" s="14" t="s">
+      <c r="C708" s="9" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -29774,24 +29774,24 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="9" t="s">
+      <c r="A710" s="14" t="s">
         <v>2291</v>
       </c>
-      <c r="B710" s="9" t="s">
+      <c r="B710" s="14" t="s">
         <v>2292</v>
       </c>
-      <c r="C710" s="9" t="s">
+      <c r="C710" s="14" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="14" t="s">
+      <c r="A711" s="9" t="s">
         <v>2294</v>
       </c>
-      <c r="B711" s="14" t="s">
+      <c r="B711" s="9" t="s">
         <v>2295</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="9" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29807,24 +29807,24 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="9" t="s">
+      <c r="A713" s="14" t="s">
         <v>2300</v>
       </c>
-      <c r="B713" s="9" t="s">
+      <c r="B713" s="14" t="s">
         <v>2301</v>
       </c>
-      <c r="C713" s="9" t="s">
+      <c r="C713" s="14" t="s">
         <v>2302</v>
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="14" t="s">
+      <c r="A714" s="9" t="s">
         <v>2303</v>
       </c>
-      <c r="B714" s="14" t="s">
+      <c r="B714" s="9" t="s">
         <v>2304</v>
       </c>
-      <c r="C714" s="14" t="s">
+      <c r="C714" s="9" t="s">
         <v>2305</v>
       </c>
     </row>
@@ -29851,24 +29851,24 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="9" t="s">
+      <c r="A717" s="14" t="s">
         <v>2312</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="14" t="s">
         <v>2313</v>
       </c>
-      <c r="C717" s="9" t="s">
+      <c r="C717" s="14" t="s">
         <v>2314</v>
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="14" t="s">
+      <c r="A718" s="9" t="s">
         <v>2315</v>
       </c>
-      <c r="B718" s="14" t="s">
+      <c r="B718" s="9" t="s">
         <v>2316</v>
       </c>
-      <c r="C718" s="14" t="s">
+      <c r="C718" s="9" t="s">
         <v>2317</v>
       </c>
     </row>
@@ -29884,24 +29884,24 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="9" t="s">
+      <c r="A720" s="14" t="s">
         <v>2321</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="14" t="s">
         <v>2322</v>
       </c>
-      <c r="C720" s="9" t="s">
+      <c r="C720" s="14" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="14" t="s">
+      <c r="A721" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="B721" s="14" t="s">
+      <c r="B721" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="C721" s="14" t="s">
+      <c r="C721" s="9" t="s">
         <v>2326</v>
       </c>
     </row>
@@ -29928,13 +29928,13 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="14" t="s">
         <v>2334</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29961,13 +29961,13 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="14" t="s">
+      <c r="A727" s="9" t="s">
         <v>2342</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="9" t="s">
         <v>2343</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C727" s="9" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -29994,13 +29994,13 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="9" t="s">
+      <c r="A730" s="14" t="s">
         <v>2351</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="14" t="s">
         <v>2352</v>
       </c>
-      <c r="C730" s="9" t="s">
+      <c r="C730" s="14" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -30038,10 +30038,10 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="14" t="s">
+      <c r="A734" s="9" t="s">
         <v>2363</v>
       </c>
-      <c r="B734" s="14" t="s">
+      <c r="B734" s="9" t="s">
         <v>2364</v>
       </c>
       <c r="C734" s="14" t="s">
@@ -30055,18 +30055,18 @@
       <c r="B735" s="9" t="s">
         <v>2367</v>
       </c>
-      <c r="C735" s="14" t="s">
+      <c r="C735" s="9" t="s">
         <v>2368</v>
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="9" t="s">
+      <c r="A736" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="C736" s="9" t="s">
+      <c r="C736" s="14" t="s">
         <v>2371</v>
       </c>
     </row>
@@ -30077,7 +30077,7 @@
       <c r="B737" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C737" s="14" t="s">
+      <c r="C737" s="9" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -30099,18 +30099,18 @@
       <c r="B739" s="14" t="s">
         <v>2379</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2381</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2382</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2383</v>
       </c>
     </row>
@@ -30118,7 +30118,7 @@
       <c r="A741" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="14" t="s">
         <v>2385</v>
       </c>
       <c r="C741" s="9" t="s">
@@ -30129,7 +30129,7 @@
       <c r="A742" s="9" t="s">
         <v>2387</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2388</v>
       </c>
       <c r="C742" s="9" t="s">
@@ -30165,15 +30165,15 @@
       <c r="B745" s="9" t="s">
         <v>2397</v>
       </c>
-      <c r="C745" s="9" t="s">
+      <c r="C745" s="14" t="s">
         <v>2398</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2399</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="14" t="s">
         <v>2400</v>
       </c>
       <c r="C746" s="14" t="s">
@@ -30192,32 +30192,32 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="14" t="s">
+      <c r="A748" s="9" t="s">
         <v>2405</v>
       </c>
-      <c r="B748" s="14" t="s">
+      <c r="B748" s="9" t="s">
         <v>2406</v>
       </c>
-      <c r="C748" s="14" t="s">
+      <c r="C748" s="9" t="s">
         <v>2407</v>
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="9" t="s">
+      <c r="A749" s="14" t="s">
         <v>2408</v>
       </c>
-      <c r="B749" s="9" t="s">
+      <c r="B749" s="14" t="s">
         <v>2409</v>
       </c>
-      <c r="C749" s="9" t="s">
+      <c r="C749" s="14" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="14" t="s">
+      <c r="A750" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="B750" s="14" t="s">
+      <c r="B750" s="9" t="s">
         <v>2412</v>
       </c>
       <c r="C750" s="14" t="s">
@@ -30225,33 +30225,33 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="9" t="s">
+      <c r="A751" s="14" t="s">
         <v>2414</v>
       </c>
-      <c r="B751" s="9" t="s">
+      <c r="B751" s="14" t="s">
         <v>2415</v>
       </c>
-      <c r="C751" s="14" t="s">
+      <c r="C751" s="9" t="s">
         <v>2416</v>
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="14" t="s">
+      <c r="A752" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="B752" s="14" t="s">
+      <c r="B752" s="9" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C752" s="9" t="s">
         <v>2418</v>
-      </c>
-      <c r="C752" s="9" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="9" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B753" s="9" t="s">
         <v>2420</v>
-      </c>
-      <c r="B753" s="9" t="s">
-        <v>2280</v>
       </c>
       <c r="C753" s="9" t="s">
         <v>2421</v>
@@ -30286,15 +30286,15 @@
       <c r="B756" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="9" t="s">
+      <c r="A757" s="14" t="s">
         <v>2431</v>
       </c>
-      <c r="B757" s="9" t="s">
+      <c r="B757" s="14" t="s">
         <v>2432</v>
       </c>
       <c r="C757" s="14" t="s">
@@ -30305,10 +30305,10 @@
       <c r="A758" s="14" t="s">
         <v>2434</v>
       </c>
-      <c r="B758" s="14" t="s">
+      <c r="B758" s="9" t="s">
         <v>2435</v>
       </c>
-      <c r="C758" s="14" t="s">
+      <c r="C758" s="9" t="s">
         <v>2436</v>
       </c>
     </row>
@@ -30316,7 +30316,7 @@
       <c r="A759" s="14" t="s">
         <v>2437</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="B759" s="14" t="s">
         <v>2438</v>
       </c>
       <c r="C759" s="9" t="s">
@@ -30324,10 +30324,10 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="14" t="s">
+      <c r="A760" s="9" t="s">
         <v>2440</v>
       </c>
-      <c r="B760" s="14" t="s">
+      <c r="B760" s="9" t="s">
         <v>2441</v>
       </c>
       <c r="C760" s="9" t="s">
@@ -30341,7 +30341,7 @@
       <c r="B761" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="C761" s="9" t="s">
+      <c r="C761" s="14" t="s">
         <v>2445</v>
       </c>
     </row>
@@ -30352,29 +30352,29 @@
       <c r="B762" s="9" t="s">
         <v>2447</v>
       </c>
-      <c r="C762" s="14" t="s">
+      <c r="C762" s="9" t="s">
         <v>2448</v>
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="9" t="s">
+      <c r="A763" s="14" t="s">
         <v>2449</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="14" t="s">
         <v>2450</v>
       </c>
-      <c r="C763" s="9" t="s">
+      <c r="C763" s="14" t="s">
         <v>2451</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2452</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="C764" s="14" t="s">
+      <c r="C764" s="9" t="s">
         <v>2454</v>
       </c>
     </row>
@@ -30390,10 +30390,10 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="9" t="s">
+      <c r="A766" s="14" t="s">
         <v>2458</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="14" t="s">
         <v>2459</v>
       </c>
       <c r="C766" s="9" t="s">
@@ -30401,10 +30401,10 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="14" t="s">
+      <c r="A767" s="9" t="s">
         <v>2461</v>
       </c>
-      <c r="B767" s="14" t="s">
+      <c r="B767" s="9" t="s">
         <v>2462</v>
       </c>
       <c r="C767" s="9" t="s">
@@ -30434,43 +30434,43 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="9" t="s">
+      <c r="A770" s="14" t="s">
         <v>2470</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="14" t="s">
         <v>2471</v>
       </c>
-      <c r="C770" s="9" t="s">
+      <c r="C770" s="14" t="s">
         <v>2472</v>
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="14" t="s">
+      <c r="A771" s="9" t="s">
         <v>2473</v>
       </c>
-      <c r="B771" s="14" t="s">
+      <c r="B771" s="9" t="s">
         <v>2474</v>
       </c>
-      <c r="C771" s="14" t="s">
+      <c r="C771" s="9" t="s">
         <v>2475</v>
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="14" t="s">
         <v>2477</v>
       </c>
-      <c r="C772" s="9" t="s">
+      <c r="C772" s="14" t="s">
         <v>2478</v>
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="14" t="s">
+      <c r="A773" s="9" t="s">
         <v>2479</v>
       </c>
-      <c r="B773" s="14" t="s">
+      <c r="B773" s="9" t="s">
         <v>2480</v>
       </c>
       <c r="C773" s="14" t="s">
@@ -30478,10 +30478,10 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="9" t="s">
+      <c r="A774" s="14" t="s">
         <v>2482</v>
       </c>
-      <c r="B774" s="9" t="s">
+      <c r="B774" s="14" t="s">
         <v>2483</v>
       </c>
       <c r="C774" s="14" t="s">
@@ -30489,10 +30489,10 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="14" t="s">
+      <c r="A775" s="9" t="s">
         <v>2485</v>
       </c>
-      <c r="B775" s="14" t="s">
+      <c r="B775" s="9" t="s">
         <v>2486</v>
       </c>
       <c r="C775" s="14" t="s">
@@ -30500,13 +30500,13 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="9" t="s">
+      <c r="A776" s="14" t="s">
         <v>2488</v>
       </c>
-      <c r="B776" s="9" t="s">
+      <c r="B776" s="14" t="s">
         <v>2489</v>
       </c>
-      <c r="C776" s="14" t="s">
+      <c r="C776" s="9" t="s">
         <v>2490</v>
       </c>
     </row>
@@ -30517,29 +30517,29 @@
       <c r="B777" s="14" t="s">
         <v>2492</v>
       </c>
-      <c r="C777" s="9" t="s">
+      <c r="C777" s="14" t="s">
         <v>2493</v>
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="14" t="s">
+      <c r="A778" s="9" t="s">
         <v>2494</v>
       </c>
-      <c r="B778" s="14" t="s">
+      <c r="B778" s="9" t="s">
         <v>2495</v>
       </c>
-      <c r="C778" s="14" t="s">
+      <c r="C778" s="9" t="s">
         <v>2496</v>
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="9" t="s">
+      <c r="A779" s="14" t="s">
         <v>2497</v>
       </c>
-      <c r="B779" s="9" t="s">
+      <c r="B779" s="14" t="s">
         <v>2498</v>
       </c>
-      <c r="C779" s="9" t="s">
+      <c r="C779" s="14" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -30594,7 +30594,7 @@
       <c r="B784" s="14" t="s">
         <v>2513</v>
       </c>
-      <c r="C784" s="14" t="s">
+      <c r="C784" s="9" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -30602,7 +30602,7 @@
       <c r="A785" s="14" t="s">
         <v>2515</v>
       </c>
-      <c r="B785" s="14" t="s">
+      <c r="B785" s="9" t="s">
         <v>2516</v>
       </c>
       <c r="C785" s="9" t="s">
@@ -30613,7 +30613,7 @@
       <c r="A786" s="14" t="s">
         <v>2518</v>
       </c>
-      <c r="B786" s="9" t="s">
+      <c r="B786" s="14" t="s">
         <v>2519</v>
       </c>
       <c r="C786" s="9" t="s">
@@ -30621,13 +30621,13 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="14" t="s">
+      <c r="A787" s="9" t="s">
         <v>2521</v>
       </c>
-      <c r="B787" s="14" t="s">
+      <c r="B787" s="9" t="s">
         <v>2522</v>
       </c>
-      <c r="C787" s="9" t="s">
+      <c r="C787" s="14" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -30638,26 +30638,26 @@
       <c r="B788" s="9" t="s">
         <v>2525</v>
       </c>
-      <c r="C788" s="14" t="s">
+      <c r="C788" s="9" t="s">
         <v>2526</v>
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="9" t="s">
+      <c r="A789" s="14" t="s">
         <v>2527</v>
       </c>
-      <c r="B789" s="9" t="s">
+      <c r="B789" s="14" t="s">
         <v>2528</v>
       </c>
-      <c r="C789" s="9" t="s">
+      <c r="C789" s="14" t="s">
         <v>2529</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="14" t="s">
+      <c r="A790" s="9" t="s">
         <v>2530</v>
       </c>
-      <c r="B790" s="14" t="s">
+      <c r="B790" s="9" t="s">
         <v>2531</v>
       </c>
       <c r="C790" s="14" t="s">
@@ -30665,13 +30665,13 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="9" t="s">
+      <c r="A791" s="14" t="s">
         <v>2533</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="B791" s="14" t="s">
         <v>2534</v>
       </c>
-      <c r="C791" s="14" t="s">
+      <c r="C791" s="9" t="s">
         <v>2535</v>
       </c>
     </row>
@@ -30682,26 +30682,26 @@
       <c r="B792" s="14" t="s">
         <v>2537</v>
       </c>
-      <c r="C792" s="9" t="s">
+      <c r="C792" s="14" t="s">
         <v>2538</v>
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="14" t="s">
+      <c r="A793" s="9" t="s">
         <v>2539</v>
       </c>
-      <c r="B793" s="14" t="s">
+      <c r="B793" s="9" t="s">
         <v>2540</v>
       </c>
-      <c r="C793" s="14" t="s">
+      <c r="C793" s="9" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="9" t="s">
+      <c r="A794" s="14" t="s">
         <v>2542</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="B794" s="14" t="s">
         <v>2543</v>
       </c>
       <c r="C794" s="9" t="s">
@@ -30709,10 +30709,10 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="14" t="s">
+      <c r="A795" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B795" s="14" t="s">
+      <c r="B795" s="9" t="s">
         <v>2546</v>
       </c>
       <c r="C795" s="9" t="s">
@@ -30737,7 +30737,7 @@
       <c r="B797" s="9" t="s">
         <v>2552</v>
       </c>
-      <c r="C797" s="9" t="s">
+      <c r="C797" s="14" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -30748,7 +30748,7 @@
       <c r="B798" s="9" t="s">
         <v>2555</v>
       </c>
-      <c r="C798" s="14" t="s">
+      <c r="C798" s="9" t="s">
         <v>2556</v>
       </c>
     </row>
@@ -30770,15 +30770,15 @@
       <c r="B800" s="9" t="s">
         <v>2561</v>
       </c>
-      <c r="C800" s="9" t="s">
+      <c r="C800" s="14" t="s">
         <v>2562</v>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="9" t="s">
+      <c r="A801" s="14" t="s">
         <v>2563</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="B801" s="14" t="s">
         <v>2564</v>
       </c>
       <c r="C801" s="14" t="s">
@@ -30790,31 +30790,31 @@
         <v>2566</v>
       </c>
       <c r="B802" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="C802" s="9" t="s">
         <v>2567</v>
-      </c>
-      <c r="C802" s="14" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="14" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B803" s="14" t="s">
         <v>2569</v>
-      </c>
-      <c r="B803" s="14" t="s">
-        <v>832</v>
       </c>
       <c r="C803" s="9" t="s">
         <v>2570</v>
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="14" t="s">
+      <c r="A804" s="9" t="s">
         <v>2571</v>
       </c>
-      <c r="B804" s="14" t="s">
+      <c r="B804" s="9" t="s">
         <v>2572</v>
       </c>
-      <c r="C804" s="9" t="s">
+      <c r="C804" s="14" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -30825,7 +30825,7 @@
       <c r="B805" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="C805" s="14" t="s">
+      <c r="C805" s="9" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -30836,7 +30836,7 @@
       <c r="B806" s="9" t="s">
         <v>2578</v>
       </c>
-      <c r="C806" s="9" t="s">
+      <c r="C806" s="14" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -30847,7 +30847,7 @@
       <c r="B807" s="9" t="s">
         <v>2581</v>
       </c>
-      <c r="C807" s="14" t="s">
+      <c r="C807" s="9" t="s">
         <v>2582</v>
       </c>
     </row>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -5355,7 +5355,7 @@
     <t>stuck</t>
   </si>
   <si>
-    <t>приклешй</t>
+    <t>приклэшй</t>
   </si>
   <si>
     <t>prikodya</t>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$848</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$849</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="2719">
   <si>
     <t>Word</t>
   </si>
@@ -7033,6 +7033,15 @@
   </si>
   <si>
     <t>цдобрама</t>
+  </si>
+  <si>
+    <t>tsija</t>
+  </si>
+  <si>
+    <t>an inch</t>
+  </si>
+  <si>
+    <t>цижа</t>
   </si>
   <si>
     <t>tsonoye</t>
@@ -29900,24 +29909,24 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2343</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="14" t="s">
         <v>2344</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2345</v>
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="14" t="s">
+      <c r="A725" s="9" t="s">
         <v>2346</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="9" t="s">
         <v>2347</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2348</v>
       </c>
     </row>
@@ -29933,13 +29942,13 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="9" t="s">
+      <c r="A727" s="14" t="s">
         <v>2352</v>
       </c>
-      <c r="B727" s="9" t="s">
+      <c r="B727" s="14" t="s">
         <v>2353</v>
       </c>
-      <c r="C727" s="9" t="s">
+      <c r="C727" s="14" t="s">
         <v>2354</v>
       </c>
     </row>
@@ -29966,24 +29975,24 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="14" t="s">
+      <c r="A730" s="9" t="s">
         <v>2361</v>
       </c>
-      <c r="B730" s="14" t="s">
+      <c r="B730" s="9" t="s">
         <v>2362</v>
       </c>
-      <c r="C730" s="14" t="s">
+      <c r="C730" s="9" t="s">
         <v>2363</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="9" t="s">
+      <c r="A731" s="14" t="s">
         <v>2364</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="14" t="s">
         <v>2365</v>
       </c>
-      <c r="C731" s="9" t="s">
+      <c r="C731" s="14" t="s">
         <v>2366</v>
       </c>
     </row>
@@ -30010,13 +30019,13 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="14" t="s">
+      <c r="A734" s="9" t="s">
         <v>2373</v>
       </c>
-      <c r="B734" s="14" t="s">
+      <c r="B734" s="9" t="s">
         <v>2374</v>
       </c>
-      <c r="C734" s="14" t="s">
+      <c r="C734" s="9" t="s">
         <v>2375</v>
       </c>
     </row>
@@ -30065,24 +30074,24 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="9" t="s">
+      <c r="A739" s="14" t="s">
         <v>2388</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" s="14" t="s">
         <v>2389</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2390</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2391</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2392</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2393</v>
       </c>
     </row>
@@ -30098,13 +30107,13 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="9" t="s">
+      <c r="A742" s="14" t="s">
         <v>2397</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="14" t="s">
         <v>2398</v>
       </c>
-      <c r="C742" s="9" t="s">
+      <c r="C742" s="14" t="s">
         <v>2399</v>
       </c>
     </row>
@@ -30153,24 +30162,24 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="14" t="s">
+      <c r="A747" s="9" t="s">
         <v>2412</v>
       </c>
-      <c r="B747" s="14" t="s">
+      <c r="B747" s="9" t="s">
         <v>2413</v>
       </c>
-      <c r="C747" s="14" t="s">
+      <c r="C747" s="9" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="14" t="s">
         <v>2415</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="14" t="s">
         <v>2416</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2417</v>
       </c>
     </row>
@@ -30208,13 +30217,13 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="14" t="s">
+      <c r="A752" s="9" t="s">
         <v>2427</v>
       </c>
-      <c r="B752" s="14" t="s">
+      <c r="B752" s="9" t="s">
         <v>2428</v>
       </c>
-      <c r="C752" s="14" t="s">
+      <c r="C752" s="9" t="s">
         <v>2429</v>
       </c>
     </row>
@@ -30252,13 +30261,13 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="9" t="s">
+      <c r="A756" s="14" t="s">
         <v>2439</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="14" t="s">
         <v>2440</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2441</v>
       </c>
     </row>
@@ -30285,13 +30294,13 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="14" t="s">
+      <c r="A759" s="9" t="s">
         <v>2448</v>
       </c>
-      <c r="B759" s="14" t="s">
+      <c r="B759" s="9" t="s">
         <v>2449</v>
       </c>
-      <c r="C759" s="14" t="s">
+      <c r="C759" s="9" t="s">
         <v>2450</v>
       </c>
     </row>
@@ -30329,10 +30338,10 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="9" t="s">
+      <c r="A763" s="14" t="s">
         <v>2460</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="14" t="s">
         <v>2461</v>
       </c>
       <c r="C763" s="14" t="s">
@@ -30346,18 +30355,18 @@
       <c r="B764" s="9" t="s">
         <v>2464</v>
       </c>
-      <c r="C764" s="9" t="s">
+      <c r="C764" s="14" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="14" t="s">
+      <c r="A765" s="9" t="s">
         <v>2466</v>
       </c>
-      <c r="B765" s="14" t="s">
+      <c r="B765" s="9" t="s">
         <v>2467</v>
       </c>
-      <c r="C765" s="14" t="s">
+      <c r="C765" s="9" t="s">
         <v>2468</v>
       </c>
     </row>
@@ -30368,7 +30377,7 @@
       <c r="B766" s="14" t="s">
         <v>2470</v>
       </c>
-      <c r="C766" s="9" t="s">
+      <c r="C766" s="14" t="s">
         <v>2471</v>
       </c>
     </row>
@@ -30390,18 +30399,18 @@
       <c r="B768" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="C768" s="14" t="s">
+      <c r="C768" s="9" t="s">
         <v>2477</v>
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="9" t="s">
+      <c r="A769" s="14" t="s">
         <v>2478</v>
       </c>
-      <c r="B769" s="9" t="s">
+      <c r="B769" s="14" t="s">
         <v>2479</v>
       </c>
-      <c r="C769" s="9" t="s">
+      <c r="C769" s="14" t="s">
         <v>2480</v>
       </c>
     </row>
@@ -30409,7 +30418,7 @@
       <c r="A770" s="9" t="s">
         <v>2481</v>
       </c>
-      <c r="B770" s="14" t="s">
+      <c r="B770" s="9" t="s">
         <v>2482</v>
       </c>
       <c r="C770" s="9" t="s">
@@ -30420,7 +30429,7 @@
       <c r="A771" s="9" t="s">
         <v>2484</v>
       </c>
-      <c r="B771" s="9" t="s">
+      <c r="B771" s="14" t="s">
         <v>2485</v>
       </c>
       <c r="C771" s="9" t="s">
@@ -30456,15 +30465,15 @@
       <c r="B774" s="9" t="s">
         <v>2494</v>
       </c>
-      <c r="C774" s="14" t="s">
+      <c r="C774" s="9" t="s">
         <v>2495</v>
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="14" t="s">
+      <c r="A775" s="9" t="s">
         <v>2496</v>
       </c>
-      <c r="B775" s="14" t="s">
+      <c r="B775" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="C775" s="14" t="s">
@@ -30483,32 +30492,32 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="9" t="s">
+      <c r="A777" s="14" t="s">
         <v>2502</v>
       </c>
-      <c r="B777" s="9" t="s">
+      <c r="B777" s="14" t="s">
         <v>2503</v>
       </c>
-      <c r="C777" s="9" t="s">
+      <c r="C777" s="14" t="s">
         <v>2504</v>
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="14" t="s">
+      <c r="A778" s="9" t="s">
         <v>2505</v>
       </c>
-      <c r="B778" s="14" t="s">
+      <c r="B778" s="9" t="s">
         <v>2506</v>
       </c>
-      <c r="C778" s="14" t="s">
+      <c r="C778" s="9" t="s">
         <v>2507</v>
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="9" t="s">
+      <c r="A779" s="14" t="s">
         <v>2508</v>
       </c>
-      <c r="B779" s="9" t="s">
+      <c r="B779" s="14" t="s">
         <v>2509</v>
       </c>
       <c r="C779" s="14" t="s">
@@ -30516,33 +30525,33 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="14" t="s">
+      <c r="A780" s="9" t="s">
         <v>2511</v>
       </c>
-      <c r="B780" s="14" t="s">
+      <c r="B780" s="9" t="s">
         <v>2512</v>
       </c>
-      <c r="C780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2513</v>
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="9" t="s">
+      <c r="A781" s="14" t="s">
         <v>2514</v>
       </c>
-      <c r="B781" s="9" t="s">
-        <v>2374</v>
+      <c r="B781" s="14" t="s">
+        <v>2515</v>
       </c>
       <c r="C781" s="9" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="9" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>2517</v>
+        <v>2377</v>
       </c>
       <c r="C782" s="9" t="s">
         <v>2518</v>
@@ -30577,15 +30586,15 @@
       <c r="B785" s="9" t="s">
         <v>2526</v>
       </c>
-      <c r="C785" s="14" t="s">
+      <c r="C785" s="9" t="s">
         <v>2527</v>
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="14" t="s">
+      <c r="A786" s="9" t="s">
         <v>2528</v>
       </c>
-      <c r="B786" s="14" t="s">
+      <c r="B786" s="9" t="s">
         <v>2529</v>
       </c>
       <c r="C786" s="14" t="s">
@@ -30596,10 +30605,10 @@
       <c r="A787" s="14" t="s">
         <v>2531</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="14" t="s">
         <v>2532</v>
       </c>
-      <c r="C787" s="9" t="s">
+      <c r="C787" s="14" t="s">
         <v>2533</v>
       </c>
     </row>
@@ -30607,7 +30616,7 @@
       <c r="A788" s="14" t="s">
         <v>2534</v>
       </c>
-      <c r="B788" s="14" t="s">
+      <c r="B788" s="9" t="s">
         <v>2535</v>
       </c>
       <c r="C788" s="9" t="s">
@@ -30615,10 +30624,10 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="9" t="s">
+      <c r="A789" s="14" t="s">
         <v>2537</v>
       </c>
-      <c r="B789" s="9" t="s">
+      <c r="B789" s="14" t="s">
         <v>2538</v>
       </c>
       <c r="C789" s="9" t="s">
@@ -30632,7 +30641,7 @@
       <c r="B790" s="9" t="s">
         <v>2541</v>
       </c>
-      <c r="C790" s="14" t="s">
+      <c r="C790" s="9" t="s">
         <v>2542</v>
       </c>
     </row>
@@ -30643,29 +30652,29 @@
       <c r="B791" s="9" t="s">
         <v>2544</v>
       </c>
-      <c r="C791" s="9" t="s">
+      <c r="C791" s="14" t="s">
         <v>2545</v>
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="14" t="s">
+      <c r="A792" s="9" t="s">
         <v>2546</v>
       </c>
-      <c r="B792" s="14" t="s">
+      <c r="B792" s="9" t="s">
         <v>2547</v>
       </c>
-      <c r="C792" s="14" t="s">
+      <c r="C792" s="9" t="s">
         <v>2548</v>
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="9" t="s">
+      <c r="A793" s="14" t="s">
         <v>2549</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B793" s="14" t="s">
         <v>2550</v>
       </c>
-      <c r="C793" s="9" t="s">
+      <c r="C793" s="14" t="s">
         <v>2551</v>
       </c>
     </row>
@@ -30681,10 +30690,10 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="14" t="s">
+      <c r="A795" s="9" t="s">
         <v>2555</v>
       </c>
-      <c r="B795" s="14" t="s">
+      <c r="B795" s="9" t="s">
         <v>2556</v>
       </c>
       <c r="C795" s="9" t="s">
@@ -30692,10 +30701,10 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="9" t="s">
+      <c r="A796" s="14" t="s">
         <v>2558</v>
       </c>
-      <c r="B796" s="9" t="s">
+      <c r="B796" s="14" t="s">
         <v>2559</v>
       </c>
       <c r="C796" s="9" t="s">
@@ -30736,43 +30745,43 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="14" t="s">
+      <c r="A800" s="9" t="s">
         <v>2570</v>
       </c>
-      <c r="B800" s="14" t="s">
+      <c r="B800" s="9" t="s">
         <v>2571</v>
       </c>
-      <c r="C800" s="14" t="s">
+      <c r="C800" s="9" t="s">
         <v>2572</v>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="9" t="s">
+      <c r="A801" s="14" t="s">
         <v>2573</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="B801" s="14" t="s">
         <v>2574</v>
       </c>
-      <c r="C801" s="9" t="s">
+      <c r="C801" s="14" t="s">
         <v>2575</v>
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="14" t="s">
+      <c r="A802" s="9" t="s">
         <v>2576</v>
       </c>
-      <c r="B802" s="14" t="s">
+      <c r="B802" s="9" t="s">
         <v>2577</v>
       </c>
-      <c r="C802" s="14" t="s">
+      <c r="C802" s="9" t="s">
         <v>2578</v>
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="9" t="s">
+      <c r="A803" s="14" t="s">
         <v>2579</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="14" t="s">
         <v>2580</v>
       </c>
       <c r="C803" s="14" t="s">
@@ -30780,10 +30789,10 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="14" t="s">
+      <c r="A804" s="9" t="s">
         <v>2582</v>
       </c>
-      <c r="B804" s="14" t="s">
+      <c r="B804" s="9" t="s">
         <v>2583</v>
       </c>
       <c r="C804" s="14" t="s">
@@ -30791,10 +30800,10 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="9" t="s">
+      <c r="A805" s="14" t="s">
         <v>2585</v>
       </c>
-      <c r="B805" s="9" t="s">
+      <c r="B805" s="14" t="s">
         <v>2586</v>
       </c>
       <c r="C805" s="14" t="s">
@@ -30802,10 +30811,10 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="14" t="s">
+      <c r="A806" s="9" t="s">
         <v>2588</v>
       </c>
-      <c r="B806" s="14" t="s">
+      <c r="B806" s="9" t="s">
         <v>2589</v>
       </c>
       <c r="C806" s="14" t="s">
@@ -30819,7 +30828,7 @@
       <c r="B807" s="14" t="s">
         <v>2592</v>
       </c>
-      <c r="C807" s="9" t="s">
+      <c r="C807" s="14" t="s">
         <v>2593</v>
       </c>
     </row>
@@ -30830,29 +30839,29 @@
       <c r="B808" s="14" t="s">
         <v>2595</v>
       </c>
-      <c r="C808" s="14" t="s">
+      <c r="C808" s="9" t="s">
         <v>2596</v>
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="9" t="s">
+      <c r="A809" s="14" t="s">
         <v>2597</v>
       </c>
-      <c r="B809" s="9" t="s">
+      <c r="B809" s="14" t="s">
         <v>2598</v>
       </c>
-      <c r="C809" s="9" t="s">
+      <c r="C809" s="14" t="s">
         <v>2599</v>
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="14" t="s">
+      <c r="A810" s="9" t="s">
         <v>2600</v>
       </c>
-      <c r="B810" s="14" t="s">
+      <c r="B810" s="9" t="s">
         <v>2601</v>
       </c>
-      <c r="C810" s="14" t="s">
+      <c r="C810" s="9" t="s">
         <v>2602</v>
       </c>
     </row>
@@ -30918,7 +30927,7 @@
       <c r="B816" s="14" t="s">
         <v>2619</v>
       </c>
-      <c r="C816" s="9" t="s">
+      <c r="C816" s="14" t="s">
         <v>2620</v>
       </c>
     </row>
@@ -30926,7 +30935,7 @@
       <c r="A817" s="14" t="s">
         <v>2621</v>
       </c>
-      <c r="B817" s="9" t="s">
+      <c r="B817" s="14" t="s">
         <v>2622</v>
       </c>
       <c r="C817" s="9" t="s">
@@ -30937,7 +30946,7 @@
       <c r="A818" s="14" t="s">
         <v>2624</v>
       </c>
-      <c r="B818" s="14" t="s">
+      <c r="B818" s="9" t="s">
         <v>2625</v>
       </c>
       <c r="C818" s="9" t="s">
@@ -30945,13 +30954,13 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="9" t="s">
+      <c r="A819" s="14" t="s">
         <v>2627</v>
       </c>
-      <c r="B819" s="9" t="s">
+      <c r="B819" s="14" t="s">
         <v>2628</v>
       </c>
-      <c r="C819" s="14" t="s">
+      <c r="C819" s="9" t="s">
         <v>2629</v>
       </c>
     </row>
@@ -30962,26 +30971,26 @@
       <c r="B820" s="9" t="s">
         <v>2631</v>
       </c>
-      <c r="C820" s="9" t="s">
+      <c r="C820" s="14" t="s">
         <v>2632</v>
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="14" t="s">
+      <c r="A821" s="9" t="s">
         <v>2633</v>
       </c>
-      <c r="B821" s="14" t="s">
+      <c r="B821" s="9" t="s">
         <v>2634</v>
       </c>
-      <c r="C821" s="14" t="s">
+      <c r="C821" s="9" t="s">
         <v>2635</v>
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="9" t="s">
+      <c r="A822" s="14" t="s">
         <v>2636</v>
       </c>
-      <c r="B822" s="9" t="s">
+      <c r="B822" s="14" t="s">
         <v>2637</v>
       </c>
       <c r="C822" s="14" t="s">
@@ -30989,13 +30998,13 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="14" t="s">
+      <c r="A823" s="9" t="s">
         <v>2639</v>
       </c>
-      <c r="B823" s="14" t="s">
+      <c r="B823" s="9" t="s">
         <v>2640</v>
       </c>
-      <c r="C823" s="9" t="s">
+      <c r="C823" s="14" t="s">
         <v>2641</v>
       </c>
     </row>
@@ -31006,26 +31015,26 @@
       <c r="B824" s="14" t="s">
         <v>2643</v>
       </c>
-      <c r="C824" s="14" t="s">
+      <c r="C824" s="9" t="s">
         <v>2644</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="9" t="s">
+      <c r="A825" s="14" t="s">
         <v>2645</v>
       </c>
-      <c r="B825" s="9" t="s">
+      <c r="B825" s="14" t="s">
         <v>2646</v>
       </c>
-      <c r="C825" s="9" t="s">
+      <c r="C825" s="14" t="s">
         <v>2647</v>
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="14" t="s">
+      <c r="A826" s="9" t="s">
         <v>2648</v>
       </c>
-      <c r="B826" s="14" t="s">
+      <c r="B826" s="9" t="s">
         <v>2649</v>
       </c>
       <c r="C826" s="9" t="s">
@@ -31033,10 +31042,10 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="9" t="s">
+      <c r="A827" s="14" t="s">
         <v>2651</v>
       </c>
-      <c r="B827" s="9" t="s">
+      <c r="B827" s="14" t="s">
         <v>2652</v>
       </c>
       <c r="C827" s="9" t="s">
@@ -31061,7 +31070,7 @@
       <c r="B829" s="9" t="s">
         <v>2658</v>
       </c>
-      <c r="C829" s="14" t="s">
+      <c r="C829" s="9" t="s">
         <v>2659</v>
       </c>
     </row>
@@ -31072,7 +31081,7 @@
       <c r="B830" s="9" t="s">
         <v>2661</v>
       </c>
-      <c r="C830" s="9" t="s">
+      <c r="C830" s="14" t="s">
         <v>2662</v>
       </c>
     </row>
@@ -31094,15 +31103,15 @@
       <c r="B832" s="9" t="s">
         <v>2667</v>
       </c>
-      <c r="C832" s="14" t="s">
+      <c r="C832" s="9" t="s">
         <v>2668</v>
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="14" t="s">
+      <c r="A833" s="9" t="s">
         <v>2669</v>
       </c>
-      <c r="B833" s="14" t="s">
+      <c r="B833" s="9" t="s">
         <v>2670</v>
       </c>
       <c r="C833" s="14" t="s">
@@ -31125,18 +31134,18 @@
         <v>2675</v>
       </c>
       <c r="B835" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="C835" s="9" t="s">
         <v>2676</v>
+      </c>
+      <c r="C835" s="14" t="s">
+        <v>2677</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="14" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="B836" s="14" t="s">
-        <v>2678</v>
+        <v>858</v>
       </c>
       <c r="C836" s="9" t="s">
         <v>2679</v>
@@ -31149,15 +31158,15 @@
       <c r="B837" s="14" t="s">
         <v>2681</v>
       </c>
-      <c r="C837" s="14" t="s">
+      <c r="C837" s="9" t="s">
         <v>2682</v>
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="9" t="s">
+      <c r="A838" s="14" t="s">
         <v>2683</v>
       </c>
-      <c r="B838" s="9" t="s">
+      <c r="B838" s="14" t="s">
         <v>2684</v>
       </c>
       <c r="C838" s="14" t="s">
@@ -31165,10 +31174,10 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="14" t="s">
+      <c r="A839" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="B839" s="14" t="s">
+      <c r="B839" s="9" t="s">
         <v>2687</v>
       </c>
       <c r="C839" s="14" t="s">
@@ -31176,13 +31185,13 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="9" t="s">
+      <c r="A840" s="14" t="s">
         <v>2689</v>
       </c>
-      <c r="B840" s="9" t="s">
+      <c r="B840" s="14" t="s">
         <v>2690</v>
       </c>
-      <c r="C840" s="9" t="s">
+      <c r="C840" s="14" t="s">
         <v>2691</v>
       </c>
     </row>
@@ -31193,7 +31202,7 @@
       <c r="B841" s="9" t="s">
         <v>2693</v>
       </c>
-      <c r="C841" s="14" t="s">
+      <c r="C841" s="9" t="s">
         <v>2694</v>
       </c>
     </row>
@@ -31204,7 +31213,7 @@
       <c r="B842" s="9" t="s">
         <v>2696</v>
       </c>
-      <c r="C842" s="9" t="s">
+      <c r="C842" s="14" t="s">
         <v>2697</v>
       </c>
     </row>
@@ -31220,13 +31229,13 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="14" t="s">
+      <c r="A844" s="9" t="s">
         <v>2701</v>
       </c>
-      <c r="B844" s="14" t="s">
+      <c r="B844" s="9" t="s">
         <v>2702</v>
       </c>
-      <c r="C844" s="14" t="s">
+      <c r="C844" s="9" t="s">
         <v>2703</v>
       </c>
     </row>
@@ -31275,8 +31284,15 @@
       </c>
     </row>
     <row r="849">
-      <c r="B849" s="22"/>
-      <c r="C849" s="22"/>
+      <c r="A849" s="14" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B849" s="14" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C849" s="14" t="s">
+        <v>2718</v>
+      </c>
     </row>
     <row r="850">
       <c r="B850" s="22"/>
@@ -31891,10 +31907,10 @@
       <c r="C1002" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$848">
-    <sortState ref="A1:C848">
-      <sortCondition ref="A1:A848"/>
-      <sortCondition ref="B1:B848"/>
+  <autoFilter ref="$A$1:$C$849">
+    <sortState ref="A1:C849">
+      <sortCondition ref="A1:A849"/>
+      <sortCondition ref="B1:B849"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$849</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$851</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="2721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="2727">
   <si>
     <t>Word</t>
   </si>
@@ -648,6 +648,15 @@
     <t>/ʤ/</t>
   </si>
   <si>
+    <t>boroda</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>борода</t>
+  </si>
+  <si>
     <t>borog</t>
   </si>
   <si>
@@ -666,6 +675,15 @@
     <t>бороцлодска</t>
   </si>
   <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>cyrillic</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
     <t>borotsorfak</t>
   </si>
   <si>
@@ -675,13 +693,13 @@
     <t>бороцорфак</t>
   </si>
   <si>
-    <t>Letter</t>
-  </si>
-  <si>
-    <t>cyrillic</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Аа</t>
+  </si>
+  <si>
+    <t>ahak, ахак</t>
   </si>
   <si>
     <t>borotsya</t>
@@ -693,13 +711,13 @@
     <t>бороця</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Аа</t>
-  </si>
-  <si>
-    <t>ahak, ахак</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Бб</t>
+  </si>
+  <si>
+    <t>biy, бй</t>
   </si>
   <si>
     <t>bosenk</t>
@@ -711,13 +729,13 @@
     <t>босэнк</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Бб</t>
-  </si>
-  <si>
-    <t>biy, бй</t>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Чч</t>
+  </si>
+  <si>
+    <t>cherslyosiba, чэрслёсиба</t>
   </si>
   <si>
     <t>boshyat</t>
@@ -729,13 +747,13 @@
     <t>бошят</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Чч</t>
-  </si>
-  <si>
-    <t>cherslyosiba, чэрслёсиба</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Дд</t>
+  </si>
+  <si>
+    <t>daska, даска</t>
   </si>
   <si>
     <t>boska</t>
@@ -747,13 +765,13 @@
     <t>боска</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Дд</t>
-  </si>
-  <si>
-    <t>daska, даска</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Ээ</t>
+  </si>
+  <si>
+    <t>evnen, эвнэн</t>
   </si>
   <si>
     <t>bramat</t>
@@ -765,13 +783,13 @@
     <t>брамат</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Ээ</t>
-  </si>
-  <si>
-    <t>evnen, эвнэн</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Фф</t>
+  </si>
+  <si>
+    <t>femk, фэмк</t>
   </si>
   <si>
     <t>braslivat</t>
@@ -783,13 +801,13 @@
     <t>брасливат</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Фф</t>
-  </si>
-  <si>
-    <t>femk, фэмк</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Гг</t>
+  </si>
+  <si>
+    <t>gost, гост</t>
   </si>
   <si>
     <t>bratsa</t>
@@ -801,13 +819,13 @@
     <t>браца</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Гг</t>
-  </si>
-  <si>
-    <t>gost, гост</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Хх</t>
+  </si>
+  <si>
+    <t>hov, хов</t>
   </si>
   <si>
     <t>braykyat</t>
@@ -819,13 +837,13 @@
     <t>брайкят</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Хх</t>
-  </si>
-  <si>
-    <t>hov, хов</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Ии</t>
+  </si>
+  <si>
+    <t>ili, или</t>
   </si>
   <si>
     <t>brega</t>
@@ -837,13 +855,10 @@
     <t>брэга</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Ии</t>
-  </si>
-  <si>
-    <t>ili, или</t>
+    <t>Жж</t>
+  </si>
+  <si>
+    <t>ijor, ижор</t>
   </si>
   <si>
     <t>brel</t>
@@ -855,10 +870,13 @@
     <t>брэл</t>
   </si>
   <si>
-    <t>Жж</t>
-  </si>
-  <si>
-    <t>ijor, ижор</t>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Кк</t>
+  </si>
+  <si>
+    <t>ketsa, кэтса</t>
   </si>
   <si>
     <t>brelen</t>
@@ -870,13 +888,13 @@
     <t>брэлэн</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Кк</t>
-  </si>
-  <si>
-    <t>ketsa, кэтса</t>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>КШ, кш</t>
+  </si>
+  <si>
+    <t>khnorotal, кшноротао</t>
   </si>
   <si>
     <t>brelsheveya</t>
@@ -888,13 +906,13 @@
     <t>брэлшэвэя</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>КШ, кш</t>
-  </si>
-  <si>
-    <t>khnorotal, кшноротао</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Лл</t>
+  </si>
+  <si>
+    <t>losik, лосик</t>
   </si>
   <si>
     <t>breltoya</t>
@@ -906,13 +924,13 @@
     <t>брэлтоя</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Лл</t>
-  </si>
-  <si>
-    <t>losik, лосик</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Мм</t>
+  </si>
+  <si>
+    <t>miy, мй</t>
   </si>
   <si>
     <t>breshya</t>
@@ -924,13 +942,13 @@
     <t>брэшя</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Мм</t>
-  </si>
-  <si>
-    <t>miy, мй</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Нн</t>
+  </si>
+  <si>
+    <t>na, на</t>
   </si>
   <si>
     <t>bretyat</t>
@@ -942,13 +960,13 @@
     <t>брэтят</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Нн</t>
-  </si>
-  <si>
-    <t>na, на</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Оо</t>
+  </si>
+  <si>
+    <t>ojan, ойан</t>
   </si>
   <si>
     <t>breyk</t>
@@ -960,13 +978,10 @@
     <t>брэйк</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Оо</t>
-  </si>
-  <si>
-    <t>ojan, ойан</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Пп</t>
   </si>
   <si>
     <t>briy</t>
@@ -978,10 +993,7 @@
     <t>брй</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Пп</t>
+    <t>Рр</t>
   </si>
   <si>
     <t>briyno</t>
@@ -993,7 +1005,10 @@
     <t>брйно</t>
   </si>
   <si>
-    <t>Рр</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Сс</t>
   </si>
   <si>
     <t>brochyek</t>
@@ -1005,10 +1020,10 @@
     <t>брочек</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Сс</t>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Шш</t>
   </si>
   <si>
     <t>brogadaskit</t>
@@ -1020,10 +1035,10 @@
     <t>брогадаскит</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Шш</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Тт</t>
   </si>
   <si>
     <t>brosya</t>
@@ -1035,10 +1050,10 @@
     <t>брося</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Тт</t>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Цц</t>
   </si>
   <si>
     <t>broylev</t>
@@ -1050,10 +1065,7 @@
     <t>бройлэв</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>Цц</t>
+    <t>Уу</t>
   </si>
   <si>
     <t>broylevlodska</t>
@@ -1065,7 +1077,13 @@
     <t>бройлэвлодска</t>
   </si>
   <si>
-    <t>Уу</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Вв</t>
+  </si>
+  <si>
+    <t>vat, ват</t>
   </si>
   <si>
     <t>budushcheye</t>
@@ -1077,13 +1095,13 @@
     <t>будушчэе</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Вв</t>
-  </si>
-  <si>
-    <t>vat, ват</t>
+    <t>Y, IY</t>
+  </si>
+  <si>
+    <t>Йй</t>
+  </si>
+  <si>
+    <t>biy, бй | yiyn, йийн</t>
   </si>
   <si>
     <t>bukya</t>
@@ -1095,13 +1113,13 @@
     <t>букя</t>
   </si>
   <si>
-    <t>Y, IY</t>
-  </si>
-  <si>
-    <t>Йй</t>
-  </si>
-  <si>
-    <t>biy, бй | yiyn, йийн</t>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>Яя</t>
+  </si>
+  <si>
+    <t>dagya, дагя</t>
   </si>
   <si>
     <t>bulava</t>
@@ -1113,13 +1131,13 @@
     <t>булава</t>
   </si>
   <si>
-    <t>YA</t>
-  </si>
-  <si>
-    <t>Яя</t>
-  </si>
-  <si>
-    <t>dagya, дагя</t>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Ее</t>
+  </si>
+  <si>
+    <t>yev, ев</t>
   </si>
   <si>
     <t>byedniy</t>
@@ -1131,13 +1149,13 @@
     <t>беднй</t>
   </si>
   <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Ее</t>
-  </si>
-  <si>
-    <t>yev, ев</t>
+    <t>YO</t>
+  </si>
+  <si>
+    <t>Ёё</t>
+  </si>
+  <si>
+    <t>byortolm, бётоум</t>
   </si>
   <si>
     <t>byejat</t>
@@ -1149,25 +1167,25 @@
     <t>бежат</t>
   </si>
   <si>
-    <t>YO</t>
-  </si>
-  <si>
-    <t>Ёё</t>
-  </si>
-  <si>
-    <t>byortolm, бётоум</t>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Юю</t>
+  </si>
+  <si>
+    <t>myutor, мютор</t>
   </si>
   <si>
     <t>to run, to sprint</t>
   </si>
   <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Юю</t>
-  </si>
-  <si>
-    <t>myutor, мютор</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Зз</t>
+  </si>
+  <si>
+    <t>zikofal, зикофао</t>
   </si>
   <si>
     <t>byortomya</t>
@@ -1179,15 +1197,6 @@
     <t>бёртомя</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Зз</t>
-  </si>
-  <si>
-    <t>zikofal, зикофао</t>
-  </si>
-  <si>
     <t>chaja</t>
   </si>
   <si>
@@ -6049,6 +6058,15 @@
   </si>
   <si>
     <t>сдоба</t>
+  </si>
+  <si>
+    <t>sdojagiy</t>
+  </si>
+  <si>
+    <t>muscular</t>
+  </si>
+  <si>
+    <t>сдожагй</t>
   </si>
   <si>
     <t>sdovalit</t>
@@ -10073,13 +10091,13 @@
       <c r="X38" s="17"/>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="14" t="s">
         <v>216</v>
       </c>
       <c r="D39" s="9"/>
@@ -10181,13 +10199,13 @@
       <c r="X41" s="17"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>231</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -10257,13 +10275,13 @@
       <c r="X43" s="17"/>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="14" t="s">
         <v>243</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -10333,13 +10351,13 @@
       <c r="X45" s="17"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>255</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -10409,13 +10427,13 @@
       <c r="X47" s="17"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="14" t="s">
         <v>267</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -10447,13 +10465,13 @@
       <c r="X48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -10485,13 +10503,13 @@
       <c r="X49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="14" t="s">
         <v>279</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -10561,13 +10579,13 @@
       <c r="X51" s="17"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>290</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -10675,13 +10693,13 @@
       <c r="X54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="14" t="s">
         <v>308</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -10859,13 +10877,13 @@
       <c r="X59" s="17"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="9" t="s">
         <v>334</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -10895,13 +10913,13 @@
       <c r="X60" s="17"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="14" t="s">
         <v>339</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -11078,13 +11096,13 @@
       <c r="X65" s="17"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="9" t="s">
         <v>365</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -11192,23 +11210,23 @@
       <c r="X68" s="17"/>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>377</v>
+      <c r="B69" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -11231,13 +11249,13 @@
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>388</v>
@@ -11297,13 +11315,13 @@
       <c r="X71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="9" t="s">
         <v>396</v>
       </c>
       <c r="G72" s="17"/>
@@ -11550,13 +11568,13 @@
       <c r="X79" s="17"/>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="14" t="s">
         <v>420</v>
       </c>
       <c r="D80" s="17"/>
@@ -11582,13 +11600,13 @@
       <c r="X80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="9" t="s">
         <v>423</v>
       </c>
       <c r="D81" s="17"/>
@@ -11646,13 +11664,13 @@
       <c r="X82" s="17"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="14" t="s">
         <v>429</v>
       </c>
       <c r="D83" s="17"/>
@@ -11678,13 +11696,13 @@
       <c r="X83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>432</v>
       </c>
       <c r="D84" s="17"/>
@@ -11774,13 +11792,13 @@
       <c r="X86" s="17"/>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="14" t="s">
         <v>441</v>
       </c>
       <c r="D87" s="17"/>
@@ -11902,13 +11920,13 @@
       <c r="X90" s="17"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="9" t="s">
         <v>453</v>
       </c>
       <c r="D91" s="17"/>
@@ -11934,13 +11952,13 @@
       <c r="X91" s="17"/>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="14" t="s">
         <v>456</v>
       </c>
       <c r="D92" s="17"/>
@@ -11966,13 +11984,13 @@
       <c r="X92" s="17"/>
     </row>
     <row r="93">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="9" t="s">
         <v>459</v>
       </c>
       <c r="D93" s="17"/>
@@ -11998,13 +12016,13 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="14" t="s">
         <v>462</v>
       </c>
       <c r="D94" s="17"/>
@@ -12030,13 +12048,13 @@
       <c r="X94" s="17"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="9" t="s">
         <v>465</v>
       </c>
       <c r="D95" s="17"/>
@@ -12094,13 +12112,13 @@
       <c r="X96" s="17"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="14" t="s">
         <v>471</v>
       </c>
       <c r="D97" s="17"/>
@@ -12126,13 +12144,13 @@
       <c r="X97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="9" t="s">
         <v>474</v>
       </c>
       <c r="D98" s="17"/>
@@ -12158,13 +12176,13 @@
       <c r="X98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="14" t="s">
         <v>477</v>
       </c>
       <c r="D99" s="17"/>
@@ -12254,13 +12272,13 @@
       <c r="X101" s="17"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="9" t="s">
         <v>486</v>
       </c>
       <c r="D102" s="17"/>
@@ -12350,13 +12368,13 @@
       <c r="X104" s="17"/>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="14" t="s">
         <v>495</v>
       </c>
       <c r="D105" s="17"/>
@@ -12414,13 +12432,13 @@
       <c r="X106" s="17"/>
     </row>
     <row r="107">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="9" t="s">
         <v>501</v>
       </c>
       <c r="D107" s="17"/>
@@ -12510,13 +12528,13 @@
       <c r="X109" s="17"/>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="14" t="s">
         <v>510</v>
       </c>
       <c r="D110" s="17"/>
@@ -12670,13 +12688,13 @@
       <c r="X114" s="17"/>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="9" t="s">
         <v>525</v>
       </c>
       <c r="D115" s="17"/>
@@ -12766,13 +12784,13 @@
       <c r="X117" s="17"/>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="14" t="s">
         <v>534</v>
       </c>
       <c r="D118" s="17"/>
@@ -12830,13 +12848,13 @@
       <c r="X119" s="17"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="9" t="s">
         <v>540</v>
       </c>
       <c r="D120" s="17"/>
@@ -12862,13 +12880,13 @@
       <c r="X120" s="17"/>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="14" t="s">
         <v>543</v>
       </c>
       <c r="D121" s="17"/>
@@ -12894,13 +12912,13 @@
       <c r="X121" s="17"/>
     </row>
     <row r="122">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="9" t="s">
         <v>546</v>
       </c>
       <c r="D122" s="17"/>
@@ -12958,13 +12976,13 @@
       <c r="X123" s="17"/>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="14" t="s">
         <v>552</v>
       </c>
       <c r="D124" s="17"/>
@@ -13054,13 +13072,13 @@
       <c r="X126" s="17"/>
     </row>
     <row r="127">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="9" t="s">
         <v>561</v>
       </c>
       <c r="D127" s="17"/>
@@ -13118,13 +13136,13 @@
       <c r="X128" s="17"/>
     </row>
     <row r="129">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="14" t="s">
         <v>567</v>
       </c>
       <c r="D129" s="17"/>
@@ -13150,13 +13168,13 @@
       <c r="X129" s="17"/>
     </row>
     <row r="130">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="9" t="s">
         <v>570</v>
       </c>
       <c r="D130" s="17"/>
@@ -13214,13 +13232,13 @@
       <c r="X131" s="17"/>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="14" t="s">
         <v>576</v>
       </c>
       <c r="D132" s="17"/>
@@ -13310,13 +13328,13 @@
       <c r="X134" s="17"/>
     </row>
     <row r="135">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="9" t="s">
         <v>585</v>
       </c>
       <c r="D135" s="17"/>
@@ -13342,13 +13360,13 @@
       <c r="X135" s="17"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="14" t="s">
         <v>588</v>
       </c>
       <c r="D136" s="17"/>
@@ -13374,13 +13392,13 @@
       <c r="X136" s="17"/>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" s="9" t="s">
         <v>591</v>
       </c>
       <c r="D137" s="17"/>
@@ -13406,13 +13424,13 @@
       <c r="X137" s="17"/>
     </row>
     <row r="138">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="14" t="s">
         <v>594</v>
       </c>
       <c r="D138" s="17"/>
@@ -13470,13 +13488,13 @@
       <c r="X139" s="17"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" s="9" t="s">
         <v>600</v>
       </c>
       <c r="D140" s="17"/>
@@ -13502,13 +13520,13 @@
       <c r="X140" s="17"/>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="14" t="s">
         <v>603</v>
       </c>
       <c r="D141" s="17"/>
@@ -13534,13 +13552,13 @@
       <c r="X141" s="17"/>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="9" t="s">
         <v>606</v>
       </c>
       <c r="D142" s="17"/>
@@ -13662,13 +13680,13 @@
       <c r="X145" s="17"/>
     </row>
     <row r="146">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D146" s="17"/>
@@ -13726,13 +13744,13 @@
       <c r="X147" s="17"/>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="9" t="s">
         <v>624</v>
       </c>
       <c r="D148" s="17"/>
@@ -13790,13 +13808,13 @@
       <c r="X149" s="17"/>
     </row>
     <row r="150">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="14" t="s">
         <v>630</v>
       </c>
       <c r="D150" s="17"/>
@@ -13918,13 +13936,13 @@
       <c r="X153" s="17"/>
     </row>
     <row r="154">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="9" t="s">
         <v>642</v>
       </c>
       <c r="D154" s="17"/>
@@ -13950,13 +13968,13 @@
       <c r="X154" s="17"/>
     </row>
     <row r="155">
-      <c r="A155" s="36" t="s">
+      <c r="A155" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="14" t="s">
         <v>645</v>
       </c>
       <c r="D155" s="17"/>
@@ -13982,13 +14000,13 @@
       <c r="X155" s="17"/>
     </row>
     <row r="156">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="9" t="s">
         <v>648</v>
       </c>
       <c r="D156" s="17"/>
@@ -14014,13 +14032,13 @@
       <c r="X156" s="17"/>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="14" t="s">
         <v>651</v>
       </c>
       <c r="D157" s="17"/>
@@ -14078,13 +14096,13 @@
       <c r="X158" s="17"/>
     </row>
     <row r="159">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="9" t="s">
         <v>657</v>
       </c>
       <c r="D159" s="17"/>
@@ -14174,13 +14192,13 @@
       <c r="X161" s="17"/>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="14" t="s">
         <v>666</v>
       </c>
       <c r="D162" s="17"/>
@@ -14206,13 +14224,13 @@
       <c r="X162" s="17"/>
     </row>
     <row r="163">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" s="9" t="s">
         <v>669</v>
       </c>
       <c r="D163" s="17"/>
@@ -14302,13 +14320,13 @@
       <c r="X165" s="17"/>
     </row>
     <row r="166">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="14" t="s">
         <v>678</v>
       </c>
       <c r="D166" s="17"/>
@@ -14334,13 +14352,13 @@
       <c r="X166" s="17"/>
     </row>
     <row r="167">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C167" s="9" t="s">
         <v>681</v>
       </c>
       <c r="D167" s="17"/>
@@ -14430,13 +14448,13 @@
       <c r="X169" s="17"/>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="14" t="s">
         <v>690</v>
       </c>
       <c r="D170" s="17"/>
@@ -14494,13 +14512,13 @@
       <c r="X171" s="17"/>
     </row>
     <row r="172">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="9" t="s">
         <v>696</v>
       </c>
       <c r="D172" s="17"/>
@@ -14526,13 +14544,13 @@
       <c r="X172" s="17"/>
     </row>
     <row r="173">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="14" t="s">
         <v>699</v>
       </c>
       <c r="D173" s="17"/>
@@ -14558,13 +14576,13 @@
       <c r="X173" s="17"/>
     </row>
     <row r="174">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" s="9" t="s">
         <v>702</v>
       </c>
       <c r="D174" s="17"/>
@@ -14590,13 +14608,13 @@
       <c r="X174" s="17"/>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="14" t="s">
         <v>705</v>
       </c>
       <c r="D175" s="17"/>
@@ -14622,13 +14640,13 @@
       <c r="X175" s="17"/>
     </row>
     <row r="176">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C176" s="14" t="s">
+      <c r="C176" s="9" t="s">
         <v>708</v>
       </c>
       <c r="D176" s="17"/>
@@ -14654,13 +14672,13 @@
       <c r="X176" s="17"/>
     </row>
     <row r="177">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="14" t="s">
         <v>711</v>
       </c>
       <c r="D177" s="17"/>
@@ -14750,13 +14768,13 @@
       <c r="X179" s="17"/>
     </row>
     <row r="180">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C180" s="9" t="s">
         <v>720</v>
       </c>
       <c r="D180" s="17"/>
@@ -14782,13 +14800,13 @@
       <c r="X180" s="17"/>
     </row>
     <row r="181">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="14" t="s">
         <v>723</v>
       </c>
       <c r="D181" s="17"/>
@@ -14814,13 +14832,13 @@
       <c r="X181" s="17"/>
     </row>
     <row r="182">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C182" s="9" t="s">
         <v>726</v>
       </c>
       <c r="D182" s="17"/>
@@ -14878,13 +14896,13 @@
       <c r="X183" s="17"/>
     </row>
     <row r="184">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="14" t="s">
         <v>732</v>
       </c>
       <c r="D184" s="17"/>
@@ -14910,13 +14928,13 @@
       <c r="X184" s="17"/>
     </row>
     <row r="185">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" s="9" t="s">
         <v>735</v>
       </c>
       <c r="D185" s="17"/>
@@ -15006,13 +15024,13 @@
       <c r="X187" s="17"/>
     </row>
     <row r="188">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="14" t="s">
         <v>744</v>
       </c>
       <c r="D188" s="17"/>
@@ -15038,13 +15056,13 @@
       <c r="X188" s="17"/>
     </row>
     <row r="189">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C189" s="9" t="s">
         <v>747</v>
       </c>
       <c r="D189" s="17"/>
@@ -15166,13 +15184,13 @@
       <c r="X192" s="17"/>
     </row>
     <row r="193">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="14" t="s">
         <v>759</v>
       </c>
       <c r="D193" s="17"/>
@@ -15358,13 +15376,13 @@
       <c r="X198" s="17"/>
     </row>
     <row r="199">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C199" s="9" t="s">
         <v>777</v>
       </c>
       <c r="D199" s="17"/>
@@ -15390,13 +15408,13 @@
       <c r="X199" s="17"/>
     </row>
     <row r="200">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="14" t="s">
         <v>780</v>
       </c>
       <c r="D200" s="17"/>
@@ -15422,13 +15440,13 @@
       <c r="X200" s="17"/>
     </row>
     <row r="201">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="C201" s="9" t="s">
         <v>783</v>
       </c>
       <c r="D201" s="17"/>
@@ -15454,13 +15472,13 @@
       <c r="X201" s="17"/>
     </row>
     <row r="202">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="14" t="s">
         <v>786</v>
       </c>
       <c r="D202" s="17"/>
@@ -15550,13 +15568,13 @@
       <c r="X204" s="17"/>
     </row>
     <row r="205">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="C205" s="14" t="s">
+      <c r="C205" s="9" t="s">
         <v>795</v>
       </c>
       <c r="D205" s="17"/>
@@ -15582,13 +15600,13 @@
       <c r="X205" s="17"/>
     </row>
     <row r="206">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="14" t="s">
         <v>798</v>
       </c>
       <c r="D206" s="17"/>
@@ -15614,13 +15632,13 @@
       <c r="X206" s="17"/>
     </row>
     <row r="207">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C207" s="9" t="s">
         <v>801</v>
       </c>
       <c r="D207" s="17"/>
@@ -15774,13 +15792,13 @@
       <c r="X211" s="17"/>
     </row>
     <row r="212">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="14" t="s">
         <v>816</v>
       </c>
       <c r="D212" s="17"/>
@@ -15838,13 +15856,13 @@
       <c r="X213" s="17"/>
     </row>
     <row r="214">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="C214" s="14" t="s">
+      <c r="C214" s="9" t="s">
         <v>822</v>
       </c>
       <c r="D214" s="17"/>
@@ -15902,13 +15920,13 @@
       <c r="X215" s="17"/>
     </row>
     <row r="216">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="14" t="s">
         <v>828</v>
       </c>
       <c r="D216" s="17"/>
@@ -15934,13 +15952,13 @@
       <c r="X216" s="17"/>
     </row>
     <row r="217">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C217" s="9" t="s">
         <v>831</v>
       </c>
       <c r="D217" s="17"/>
@@ -15969,10 +15987,10 @@
       <c r="A218" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="B218" s="37" t="s">
+      <c r="B218" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="C218" s="37" t="s">
+      <c r="C218" s="14" t="s">
         <v>834</v>
       </c>
       <c r="D218" s="17"/>
@@ -16001,10 +16019,10 @@
       <c r="A219" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C219" s="37" t="s">
         <v>837</v>
       </c>
       <c r="D219" s="17"/>
@@ -16126,13 +16144,13 @@
       <c r="X222" s="17"/>
     </row>
     <row r="223">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="14" t="s">
         <v>849</v>
       </c>
       <c r="D223" s="17"/>
@@ -16190,13 +16208,13 @@
       <c r="X224" s="17"/>
     </row>
     <row r="225">
-      <c r="A225" s="14" t="s">
+      <c r="A225" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="B225" s="14" t="s">
+      <c r="B225" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="C225" s="14" t="s">
+      <c r="C225" s="9" t="s">
         <v>855</v>
       </c>
       <c r="D225" s="17"/>
@@ -16222,13 +16240,13 @@
       <c r="X225" s="17"/>
     </row>
     <row r="226">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="14" t="s">
         <v>857</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="14" t="s">
         <v>858</v>
       </c>
       <c r="D226" s="17"/>
@@ -16254,13 +16272,13 @@
       <c r="X226" s="17"/>
     </row>
     <row r="227">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="C227" s="9" t="s">
         <v>861</v>
       </c>
       <c r="D227" s="17"/>
@@ -16286,13 +16304,13 @@
       <c r="X227" s="17"/>
     </row>
     <row r="228">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="14" t="s">
         <v>863</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="14" t="s">
         <v>864</v>
       </c>
       <c r="D228" s="17"/>
@@ -16318,13 +16336,13 @@
       <c r="X228" s="17"/>
     </row>
     <row r="229">
-      <c r="A229" s="14" t="s">
+      <c r="A229" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="C229" s="14" t="s">
+      <c r="C229" s="9" t="s">
         <v>867</v>
       </c>
       <c r="D229" s="17"/>
@@ -16350,13 +16368,13 @@
       <c r="X229" s="17"/>
     </row>
     <row r="230">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="14" t="s">
         <v>870</v>
       </c>
       <c r="D230" s="17"/>
@@ -16414,13 +16432,13 @@
       <c r="X231" s="17"/>
     </row>
     <row r="232">
-      <c r="A232" s="14" t="s">
+      <c r="A232" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="C232" s="14" t="s">
+      <c r="C232" s="9" t="s">
         <v>876</v>
       </c>
       <c r="D232" s="17"/>
@@ -16446,13 +16464,13 @@
       <c r="X232" s="17"/>
     </row>
     <row r="233">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="14" t="s">
         <v>877</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="14" t="s">
         <v>879</v>
       </c>
       <c r="D233" s="17"/>
@@ -16478,13 +16496,13 @@
       <c r="X233" s="17"/>
     </row>
     <row r="234">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="C234" s="9" t="s">
         <v>882</v>
       </c>
       <c r="D234" s="17"/>
@@ -16510,13 +16528,13 @@
       <c r="X234" s="17"/>
     </row>
     <row r="235">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="14" t="s">
         <v>885</v>
       </c>
       <c r="D235" s="17"/>
@@ -16542,13 +16560,13 @@
       <c r="X235" s="17"/>
     </row>
     <row r="236">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C236" s="9" t="s">
         <v>888</v>
       </c>
       <c r="D236" s="17"/>
@@ -16574,13 +16592,13 @@
       <c r="X236" s="17"/>
     </row>
     <row r="237">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="14" t="s">
         <v>891</v>
       </c>
       <c r="D237" s="17"/>
@@ -16606,13 +16624,13 @@
       <c r="X237" s="17"/>
     </row>
     <row r="238">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="9" t="s">
         <v>894</v>
       </c>
       <c r="D238" s="17"/>
@@ -16638,13 +16656,13 @@
       <c r="X238" s="17"/>
     </row>
     <row r="239">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" s="14" t="s">
         <v>897</v>
       </c>
       <c r="D239" s="17"/>
@@ -16702,13 +16720,13 @@
       <c r="X240" s="17"/>
     </row>
     <row r="241">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="C241" s="9" t="s">
         <v>903</v>
       </c>
       <c r="D241" s="17"/>
@@ -16734,13 +16752,13 @@
       <c r="X241" s="17"/>
     </row>
     <row r="242">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="14" t="s">
         <v>905</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="14" t="s">
         <v>906</v>
       </c>
       <c r="D242" s="17"/>
@@ -16798,13 +16816,13 @@
       <c r="X243" s="17"/>
     </row>
     <row r="244">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="C244" s="9" t="s">
         <v>912</v>
       </c>
       <c r="D244" s="17"/>
@@ -16830,13 +16848,13 @@
       <c r="X244" s="17"/>
     </row>
     <row r="245">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="14" t="s">
         <v>913</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="14" t="s">
         <v>914</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" s="14" t="s">
         <v>915</v>
       </c>
       <c r="D245" s="17"/>
@@ -17022,13 +17040,13 @@
       <c r="X250" s="17"/>
     </row>
     <row r="251">
-      <c r="A251" s="14" t="s">
+      <c r="A251" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="C251" s="9" t="s">
         <v>933</v>
       </c>
       <c r="D251" s="17"/>
@@ -17054,13 +17072,13 @@
       <c r="X251" s="17"/>
     </row>
     <row r="252">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="14" t="s">
         <v>936</v>
       </c>
       <c r="D252" s="17"/>
@@ -17150,13 +17168,13 @@
       <c r="X254" s="17"/>
     </row>
     <row r="255">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="C255" s="9" t="s">
         <v>945</v>
       </c>
       <c r="D255" s="17"/>
@@ -17182,13 +17200,13 @@
       <c r="X255" s="17"/>
     </row>
     <row r="256">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="14" t="s">
         <v>947</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="14" t="s">
         <v>948</v>
       </c>
       <c r="D256" s="17"/>
@@ -17246,13 +17264,13 @@
       <c r="X257" s="17"/>
     </row>
     <row r="258">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="C258" s="9" t="s">
         <v>954</v>
       </c>
       <c r="D258" s="17"/>
@@ -17374,13 +17392,13 @@
       <c r="X261" s="17"/>
     </row>
     <row r="262">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="C262" s="14" t="s">
         <v>966</v>
       </c>
       <c r="D262" s="17"/>
@@ -17406,13 +17424,13 @@
       <c r="X262" s="17"/>
     </row>
     <row r="263">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="C263" s="9" t="s">
         <v>969</v>
       </c>
       <c r="D263" s="17"/>
@@ -17470,13 +17488,13 @@
       <c r="X264" s="17"/>
     </row>
     <row r="265">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="C265" s="14" t="s">
         <v>975</v>
       </c>
       <c r="D265" s="17"/>
@@ -17502,13 +17520,13 @@
       <c r="X265" s="17"/>
     </row>
     <row r="266">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="C266" s="9" t="s">
         <v>978</v>
       </c>
       <c r="D266" s="17"/>
@@ -17534,13 +17552,13 @@
       <c r="X266" s="17"/>
     </row>
     <row r="267">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="14" t="s">
         <v>980</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="14" t="s">
         <v>981</v>
       </c>
       <c r="D267" s="17"/>
@@ -17566,13 +17584,13 @@
       <c r="X267" s="17"/>
     </row>
     <row r="268">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="C268" s="9" t="s">
         <v>984</v>
       </c>
       <c r="D268" s="17"/>
@@ -17598,13 +17616,13 @@
       <c r="X268" s="17"/>
     </row>
     <row r="269">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="14" t="s">
         <v>987</v>
       </c>
       <c r="D269" s="17"/>
@@ -17662,13 +17680,13 @@
       <c r="X270" s="17"/>
     </row>
     <row r="271">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C271" s="9" t="s">
         <v>993</v>
       </c>
       <c r="D271" s="17"/>
@@ -17694,13 +17712,13 @@
       <c r="X271" s="17"/>
     </row>
     <row r="272">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="14" t="s">
         <v>996</v>
       </c>
       <c r="D272" s="17"/>
@@ -17726,13 +17744,13 @@
       <c r="X272" s="17"/>
     </row>
     <row r="273">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="C273" s="9" t="s">
         <v>999</v>
       </c>
       <c r="D273" s="17"/>
@@ -17758,13 +17776,13 @@
       <c r="X273" s="17"/>
     </row>
     <row r="274">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="14" t="s">
         <v>1000</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="14" t="s">
         <v>1001</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="14" t="s">
         <v>1002</v>
       </c>
       <c r="D274" s="17"/>
@@ -17918,10 +17936,10 @@
       <c r="X278" s="17"/>
     </row>
     <row r="279">
-      <c r="A279" s="19" t="s">
+      <c r="A279" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="B279" s="19" t="s">
+      <c r="B279" s="9" t="s">
         <v>1016</v>
       </c>
       <c r="C279" s="9" t="s">
@@ -17950,13 +17968,13 @@
       <c r="X279" s="17"/>
     </row>
     <row r="280">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="19" t="s">
         <v>1018</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="19" t="s">
         <v>1019</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="C280" s="9" t="s">
         <v>1020</v>
       </c>
       <c r="D280" s="17"/>
@@ -18270,13 +18288,13 @@
       <c r="X289" s="17"/>
     </row>
     <row r="290">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="C290" s="9" t="s">
+      <c r="C290" s="14" t="s">
         <v>1050</v>
       </c>
       <c r="D290" s="17"/>
@@ -18302,13 +18320,13 @@
       <c r="X290" s="17"/>
     </row>
     <row r="291">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B291" s="14" t="s">
+      <c r="B291" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="C291" s="14" t="s">
+      <c r="C291" s="9" t="s">
         <v>1053</v>
       </c>
       <c r="D291" s="17"/>
@@ -18334,13 +18352,13 @@
       <c r="X291" s="17"/>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="C292" s="9" t="s">
+      <c r="C292" s="14" t="s">
         <v>1056</v>
       </c>
       <c r="D292" s="17"/>
@@ -18430,13 +18448,13 @@
       <c r="X294" s="17"/>
     </row>
     <row r="295">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="B295" s="14" t="s">
+      <c r="B295" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="C295" s="9" t="s">
         <v>1065</v>
       </c>
       <c r="D295" s="17"/>
@@ -18526,13 +18544,13 @@
       <c r="X297" s="17"/>
     </row>
     <row r="298">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="C298" s="9" t="s">
+      <c r="C298" s="14" t="s">
         <v>1074</v>
       </c>
       <c r="D298" s="17"/>
@@ -18654,13 +18672,13 @@
       <c r="X301" s="17"/>
     </row>
     <row r="302">
-      <c r="A302" s="14" t="s">
+      <c r="A302" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="C302" s="14" t="s">
+      <c r="C302" s="9" t="s">
         <v>1086</v>
       </c>
       <c r="D302" s="17"/>
@@ -18686,13 +18704,13 @@
       <c r="X302" s="17"/>
     </row>
     <row r="303">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C303" s="14" t="s">
         <v>1089</v>
       </c>
       <c r="D303" s="17"/>
@@ -18718,10 +18736,10 @@
       <c r="X303" s="17"/>
     </row>
     <row r="304">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="B304" s="19" t="s">
+      <c r="B304" s="9" t="s">
         <v>1091</v>
       </c>
       <c r="C304" s="9" t="s">
@@ -18750,10 +18768,10 @@
       <c r="X304" s="17"/>
     </row>
     <row r="305">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="19" t="s">
         <v>1093</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="19" t="s">
         <v>1094</v>
       </c>
       <c r="C305" s="9" t="s">
@@ -18782,7 +18800,7 @@
       <c r="X305" s="17"/>
     </row>
     <row r="306">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="14" t="s">
         <v>1096</v>
       </c>
       <c r="B306" s="9" t="s">
@@ -18814,13 +18832,13 @@
       <c r="X306" s="17"/>
     </row>
     <row r="307">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="C307" s="9" t="s">
         <v>1101</v>
       </c>
       <c r="D307" s="17"/>
@@ -18846,13 +18864,13 @@
       <c r="X307" s="17"/>
     </row>
     <row r="308">
-      <c r="A308" s="9" t="s">
+      <c r="A308" s="14" t="s">
         <v>1102</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="C308" s="9" t="s">
+      <c r="C308" s="14" t="s">
         <v>1104</v>
       </c>
       <c r="D308" s="17"/>
@@ -18878,13 +18896,13 @@
       <c r="X308" s="17"/>
     </row>
     <row r="309">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="C309" s="9" t="s">
         <v>1107</v>
       </c>
       <c r="D309" s="17"/>
@@ -18974,13 +18992,13 @@
       <c r="X311" s="17"/>
     </row>
     <row r="312">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="14" t="s">
         <v>1116</v>
       </c>
       <c r="D312" s="17"/>
@@ -19038,13 +19056,13 @@
       <c r="X313" s="17"/>
     </row>
     <row r="314">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="B314" s="14" t="s">
+      <c r="B314" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C314" s="9" t="s">
         <v>1122</v>
       </c>
       <c r="D314" s="17"/>
@@ -19070,13 +19088,13 @@
       <c r="X314" s="17"/>
     </row>
     <row r="315">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="14" t="s">
         <v>1125</v>
       </c>
       <c r="D315" s="17"/>
@@ -19102,10 +19120,10 @@
       <c r="X315" s="17"/>
     </row>
     <row r="316">
-      <c r="A316" s="19" t="s">
+      <c r="A316" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="B316" s="19" t="s">
+      <c r="B316" s="9" t="s">
         <v>1127</v>
       </c>
       <c r="C316" s="9" t="s">
@@ -19134,14 +19152,14 @@
       <c r="X316" s="17"/>
     </row>
     <row r="317">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="B317" s="14" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C317" s="14" t="s">
+      <c r="B317" s="19" t="s">
         <v>1130</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>1131</v>
       </c>
       <c r="D317" s="17"/>
       <c r="E317" s="17"/>
@@ -19167,7 +19185,7 @@
     </row>
     <row r="318">
       <c r="A318" s="14" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B318" s="14" t="s">
         <v>1132</v>
@@ -19198,13 +19216,13 @@
       <c r="X318" s="17"/>
     </row>
     <row r="319">
-      <c r="A319" s="19" t="s">
+      <c r="A319" s="14" t="s">
         <v>1134</v>
       </c>
-      <c r="B319" s="19" t="s">
+      <c r="B319" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="14" t="s">
         <v>1136</v>
       </c>
       <c r="D319" s="17"/>
@@ -19230,10 +19248,10 @@
       <c r="X319" s="17"/>
     </row>
     <row r="320">
-      <c r="A320" s="9" t="s">
+      <c r="A320" s="19" t="s">
         <v>1137</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="19" t="s">
         <v>1138</v>
       </c>
       <c r="C320" s="9" t="s">
@@ -19262,13 +19280,13 @@
       <c r="X320" s="17"/>
     </row>
     <row r="321">
-      <c r="A321" s="14" t="s">
+      <c r="A321" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="B321" s="14" t="s">
+      <c r="B321" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="C321" s="14" t="s">
+      <c r="C321" s="9" t="s">
         <v>1142</v>
       </c>
       <c r="D321" s="17"/>
@@ -19358,13 +19376,13 @@
       <c r="X323" s="17"/>
     </row>
     <row r="324">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="14" t="s">
         <v>1151</v>
       </c>
       <c r="D324" s="17"/>
@@ -19422,13 +19440,13 @@
       <c r="X325" s="17"/>
     </row>
     <row r="326">
-      <c r="A326" s="14" t="s">
+      <c r="A326" s="9" t="s">
         <v>1155</v>
       </c>
-      <c r="B326" s="14" t="s">
+      <c r="B326" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="C326" s="14" t="s">
+      <c r="C326" s="9" t="s">
         <v>1157</v>
       </c>
       <c r="D326" s="17"/>
@@ -19486,13 +19504,13 @@
       <c r="X327" s="17"/>
     </row>
     <row r="328">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="14" t="s">
         <v>1162</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="14" t="s">
         <v>1163</v>
       </c>
       <c r="D328" s="17"/>
@@ -19518,13 +19536,13 @@
       <c r="X328" s="17"/>
     </row>
     <row r="329">
-      <c r="A329" s="14" t="s">
+      <c r="A329" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B329" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="C329" s="14" t="s">
+      <c r="C329" s="9" t="s">
         <v>1166</v>
       </c>
       <c r="D329" s="17"/>
@@ -19554,10 +19572,10 @@
         <v>1167</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>221</v>
+        <v>1168</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D330" s="17"/>
       <c r="E330" s="17"/>
@@ -19583,10 +19601,10 @@
     </row>
     <row r="331">
       <c r="A331" s="14" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>1170</v>
+        <v>221</v>
       </c>
       <c r="C331" s="14" t="s">
         <v>1171</v>
@@ -19710,13 +19728,13 @@
       <c r="X334" s="17"/>
     </row>
     <row r="335">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B335" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C335" s="14" t="s">
         <v>1183</v>
       </c>
       <c r="D335" s="17"/>
@@ -19742,13 +19760,13 @@
       <c r="X335" s="17"/>
     </row>
     <row r="336">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="C336" s="9" t="s">
         <v>1186</v>
       </c>
       <c r="D336" s="17"/>
@@ -19838,13 +19856,13 @@
       <c r="X338" s="17"/>
     </row>
     <row r="339">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="14" t="s">
         <v>1194</v>
       </c>
-      <c r="C339" s="9" t="s">
+      <c r="C339" s="14" t="s">
         <v>1195</v>
       </c>
       <c r="D339" s="17"/>
@@ -19934,13 +19952,13 @@
       <c r="X341" s="17"/>
     </row>
     <row r="342">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C342" s="9" t="s">
         <v>1204</v>
       </c>
       <c r="D342" s="17"/>
@@ -20062,13 +20080,13 @@
       <c r="X345" s="17"/>
     </row>
     <row r="346">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="14" t="s">
         <v>1214</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C346" s="14" t="s">
         <v>1216</v>
       </c>
       <c r="D346" s="17"/>
@@ -20126,13 +20144,13 @@
       <c r="X347" s="17"/>
     </row>
     <row r="348">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="9" t="s">
         <v>1220</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="C348" s="14" t="s">
+      <c r="C348" s="9" t="s">
         <v>1222</v>
       </c>
       <c r="D348" s="17"/>
@@ -20222,13 +20240,13 @@
       <c r="X350" s="17"/>
     </row>
     <row r="351">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="14" t="s">
         <v>1229</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="14" t="s">
         <v>1230</v>
       </c>
-      <c r="C351" s="9" t="s">
+      <c r="C351" s="14" t="s">
         <v>1231</v>
       </c>
       <c r="D351" s="17"/>
@@ -20286,13 +20304,13 @@
       <c r="X352" s="17"/>
     </row>
     <row r="353">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="9" t="s">
         <v>1236</v>
       </c>
-      <c r="C353" s="14" t="s">
+      <c r="C353" s="9" t="s">
         <v>1237</v>
       </c>
       <c r="D353" s="17"/>
@@ -20382,13 +20400,13 @@
       <c r="X355" s="17"/>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="14" t="s">
         <v>1244</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="14" t="s">
         <v>1246</v>
       </c>
       <c r="D356" s="17"/>
@@ -20446,10 +20464,10 @@
       <c r="X357" s="17"/>
     </row>
     <row r="358">
-      <c r="A358" s="19" t="s">
+      <c r="A358" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="B358" s="19" t="s">
+      <c r="B358" s="9" t="s">
         <v>1251</v>
       </c>
       <c r="C358" s="9" t="s">
@@ -20478,10 +20496,10 @@
       <c r="X358" s="17"/>
     </row>
     <row r="359">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="19" t="s">
         <v>1253</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="19" t="s">
         <v>1254</v>
       </c>
       <c r="C359" s="9" t="s">
@@ -20574,10 +20592,10 @@
       <c r="X361" s="17"/>
     </row>
     <row r="362">
-      <c r="A362" s="19" t="s">
+      <c r="A362" s="9" t="s">
         <v>1262</v>
       </c>
-      <c r="B362" s="19" t="s">
+      <c r="B362" s="9" t="s">
         <v>1263</v>
       </c>
       <c r="C362" s="9" t="s">
@@ -20606,10 +20624,10 @@
       <c r="X362" s="17"/>
     </row>
     <row r="363">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="19" t="s">
         <v>1265</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="19" t="s">
         <v>1266</v>
       </c>
       <c r="C363" s="9" t="s">
@@ -20638,7 +20656,7 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="14" t="s">
         <v>1268</v>
       </c>
       <c r="B364" s="9" t="s">
@@ -20798,13 +20816,13 @@
       <c r="X368" s="17"/>
     </row>
     <row r="369">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="C369" s="14" t="s">
+      <c r="C369" s="9" t="s">
         <v>1285</v>
       </c>
       <c r="D369" s="17"/>
@@ -20830,13 +20848,13 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C370" s="14" t="s">
         <v>1288</v>
       </c>
       <c r="D370" s="17"/>
@@ -20894,13 +20912,13 @@
       <c r="X371" s="17"/>
     </row>
     <row r="372">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="9" t="s">
         <v>1294</v>
       </c>
       <c r="D372" s="17"/>
@@ -20958,13 +20976,13 @@
       <c r="X373" s="17"/>
     </row>
     <row r="374">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C374" s="14" t="s">
         <v>1300</v>
       </c>
       <c r="D374" s="17"/>
@@ -21150,13 +21168,13 @@
       <c r="X379" s="17"/>
     </row>
     <row r="380">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="C380" s="14" t="s">
+      <c r="C380" s="9" t="s">
         <v>1318</v>
       </c>
       <c r="D380" s="17"/>
@@ -21182,13 +21200,13 @@
       <c r="X380" s="17"/>
     </row>
     <row r="381">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="14" t="s">
         <v>1320</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="14" t="s">
         <v>1321</v>
       </c>
       <c r="D381" s="17"/>
@@ -21246,13 +21264,13 @@
       <c r="X382" s="17"/>
     </row>
     <row r="383">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="C383" s="14" t="s">
+      <c r="C383" s="9" t="s">
         <v>1327</v>
       </c>
       <c r="D383" s="17"/>
@@ -21342,13 +21360,13 @@
       <c r="X385" s="17"/>
     </row>
     <row r="386">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="14" t="s">
         <v>1334</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="C386" s="9" t="s">
+      <c r="C386" s="14" t="s">
         <v>1336</v>
       </c>
       <c r="D386" s="17"/>
@@ -21374,13 +21392,13 @@
       <c r="X386" s="17"/>
     </row>
     <row r="387">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="C387" s="14" t="s">
+      <c r="C387" s="9" t="s">
         <v>1339</v>
       </c>
       <c r="D387" s="17"/>
@@ -21406,13 +21424,13 @@
       <c r="X387" s="17"/>
     </row>
     <row r="388">
-      <c r="A388" s="19" t="s">
+      <c r="A388" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="B388" s="19" t="s">
+      <c r="B388" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="14" t="s">
         <v>1342</v>
       </c>
       <c r="D388" s="17"/>
@@ -21438,13 +21456,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="19" t="s">
         <v>1343</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="19" t="s">
         <v>1344</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="9" t="s">
         <v>1345</v>
       </c>
       <c r="D389" s="17"/>
@@ -21534,13 +21552,13 @@
       <c r="X391" s="17"/>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="14" t="s">
         <v>1352</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="14" t="s">
         <v>1353</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="14" t="s">
         <v>1354</v>
       </c>
       <c r="D392" s="17"/>
@@ -21598,13 +21616,13 @@
       <c r="X393" s="17"/>
     </row>
     <row r="394">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C394" s="9" t="s">
         <v>1360</v>
       </c>
       <c r="D394" s="17"/>
@@ -21630,13 +21648,13 @@
       <c r="X394" s="17"/>
     </row>
     <row r="395">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="14" t="s">
         <v>1362</v>
       </c>
-      <c r="C395" s="9" t="s">
+      <c r="C395" s="14" t="s">
         <v>1363</v>
       </c>
       <c r="D395" s="17"/>
@@ -21822,13 +21840,13 @@
       <c r="X400" s="17"/>
     </row>
     <row r="401">
-      <c r="A401" s="14" t="s">
+      <c r="A401" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="B401" s="14" t="s">
+      <c r="B401" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="C401" s="14" t="s">
+      <c r="C401" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D401" s="17"/>
@@ -21886,13 +21904,13 @@
       <c r="X402" s="17"/>
     </row>
     <row r="403">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="14" t="s">
         <v>1386</v>
       </c>
-      <c r="C403" s="9" t="s">
+      <c r="C403" s="14" t="s">
         <v>1387</v>
       </c>
       <c r="D403" s="17"/>
@@ -21982,13 +22000,13 @@
       <c r="X405" s="17"/>
     </row>
     <row r="406">
-      <c r="A406" s="14" t="s">
+      <c r="A406" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="B406" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="C406" s="14" t="s">
+      <c r="C406" s="9" t="s">
         <v>1396</v>
       </c>
       <c r="D406" s="17"/>
@@ -22046,13 +22064,13 @@
       <c r="X407" s="17"/>
     </row>
     <row r="408">
-      <c r="A408" s="9" t="s">
+      <c r="A408" s="14" t="s">
         <v>1400</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="C408" s="9" t="s">
+      <c r="C408" s="14" t="s">
         <v>1402</v>
       </c>
       <c r="D408" s="17"/>
@@ -22078,13 +22096,13 @@
       <c r="X408" s="17"/>
     </row>
     <row r="409">
-      <c r="A409" s="14" t="s">
+      <c r="A409" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="B409" s="14" t="s">
+      <c r="B409" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="C409" s="14" t="s">
+      <c r="C409" s="9" t="s">
         <v>1405</v>
       </c>
       <c r="D409" s="17"/>
@@ -22110,13 +22128,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C410" s="14" t="s">
         <v>1408</v>
       </c>
       <c r="D410" s="17"/>
@@ -22238,13 +22256,13 @@
       <c r="X413" s="17"/>
     </row>
     <row r="414">
-      <c r="A414" s="14" t="s">
+      <c r="A414" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="B414" s="14" t="s">
+      <c r="B414" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="C414" s="14" t="s">
+      <c r="C414" s="9" t="s">
         <v>1420</v>
       </c>
       <c r="D414" s="17"/>
@@ -22302,13 +22320,13 @@
       <c r="X415" s="17"/>
     </row>
     <row r="416">
-      <c r="A416" s="9" t="s">
+      <c r="A416" s="14" t="s">
         <v>1424</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="C416" s="9" t="s">
+      <c r="C416" s="14" t="s">
         <v>1426</v>
       </c>
       <c r="D416" s="17"/>
@@ -22398,13 +22416,13 @@
       <c r="X418" s="17"/>
     </row>
     <row r="419">
-      <c r="A419" s="14" t="s">
+      <c r="A419" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="B419" s="14" t="s">
+      <c r="B419" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="C419" s="14" t="s">
+      <c r="C419" s="9" t="s">
         <v>1435</v>
       </c>
       <c r="D419" s="17"/>
@@ -22430,13 +22448,13 @@
       <c r="X419" s="17"/>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="14" t="s">
         <v>1436</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="14" t="s">
         <v>1437</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C420" s="14" t="s">
         <v>1438</v>
       </c>
       <c r="D420" s="17"/>
@@ -22462,14 +22480,14 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="B421" s="14" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C421" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>1440</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>1441</v>
       </c>
       <c r="D421" s="17"/>
       <c r="E421" s="17"/>
@@ -22495,13 +22513,13 @@
     </row>
     <row r="422">
       <c r="A422" s="14" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D422" s="17"/>
       <c r="E422" s="17"/>
@@ -22526,8 +22544,8 @@
       <c r="X422" s="17"/>
     </row>
     <row r="423">
-      <c r="A423" s="9" t="s">
-        <v>1443</v>
+      <c r="A423" s="14" t="s">
+        <v>1444</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>1444</v>
@@ -22558,7 +22576,7 @@
       <c r="X423" s="17"/>
     </row>
     <row r="424">
-      <c r="A424" s="14" t="s">
+      <c r="A424" s="9" t="s">
         <v>1446</v>
       </c>
       <c r="B424" s="14" t="s">
@@ -22622,13 +22640,13 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="9" t="s">
+      <c r="A426" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="14" t="s">
         <v>1453</v>
       </c>
-      <c r="C426" s="9" t="s">
+      <c r="C426" s="14" t="s">
         <v>1454</v>
       </c>
       <c r="D426" s="17"/>
@@ -22686,13 +22704,13 @@
       <c r="X427" s="17"/>
     </row>
     <row r="428">
-      <c r="A428" s="14" t="s">
+      <c r="A428" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="B428" s="14" t="s">
+      <c r="B428" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="C428" s="14" t="s">
+      <c r="C428" s="9" t="s">
         <v>1460</v>
       </c>
       <c r="D428" s="17"/>
@@ -22718,13 +22736,13 @@
       <c r="X428" s="17"/>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="14" t="s">
         <v>1462</v>
       </c>
-      <c r="C429" s="9" t="s">
+      <c r="C429" s="14" t="s">
         <v>1463</v>
       </c>
       <c r="D429" s="17"/>
@@ -22750,13 +22768,13 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="9" t="s">
         <v>1466</v>
       </c>
       <c r="D430" s="17"/>
@@ -22846,13 +22864,13 @@
       <c r="X432" s="17"/>
     </row>
     <row r="433">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="14" t="s">
         <v>1474</v>
       </c>
-      <c r="C433" s="9" t="s">
+      <c r="C433" s="14" t="s">
         <v>1475</v>
       </c>
       <c r="D433" s="17"/>
@@ -22878,13 +22896,13 @@
       <c r="X433" s="17"/>
     </row>
     <row r="434">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="C434" s="14" t="s">
+      <c r="C434" s="9" t="s">
         <v>1478</v>
       </c>
       <c r="D434" s="17"/>
@@ -22910,13 +22928,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C435" s="14" t="s">
         <v>1481</v>
       </c>
       <c r="D435" s="17"/>
@@ -22942,7 +22960,7 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1482</v>
       </c>
       <c r="B436" s="9" t="s">
@@ -22974,7 +22992,7 @@
       <c r="X436" s="17"/>
     </row>
     <row r="437">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="14" t="s">
         <v>1485</v>
       </c>
       <c r="B437" s="9" t="s">
@@ -23006,10 +23024,10 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="19" t="s">
+      <c r="A438" s="9" t="s">
         <v>1488</v>
       </c>
-      <c r="B438" s="19" t="s">
+      <c r="B438" s="9" t="s">
         <v>1489</v>
       </c>
       <c r="C438" s="9" t="s">
@@ -23038,10 +23056,10 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="38" t="s">
+      <c r="A439" s="19" t="s">
         <v>1491</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="19" t="s">
         <v>1492</v>
       </c>
       <c r="C439" s="9" t="s">
@@ -23070,7 +23088,7 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="9" t="s">
+      <c r="A440" s="38" t="s">
         <v>1494</v>
       </c>
       <c r="B440" s="9" t="s">
@@ -23102,13 +23120,13 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="B441" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="C441" s="14" t="s">
+      <c r="C441" s="9" t="s">
         <v>1499</v>
       </c>
       <c r="D441" s="17"/>
@@ -23262,13 +23280,13 @@
       <c r="X445" s="17"/>
     </row>
     <row r="446">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="14" t="s">
         <v>1512</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="C446" s="9" t="s">
+      <c r="C446" s="14" t="s">
         <v>1514</v>
       </c>
       <c r="D446" s="17"/>
@@ -23358,13 +23376,13 @@
       <c r="X448" s="17"/>
     </row>
     <row r="449">
-      <c r="A449" s="14" t="s">
+      <c r="A449" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="B449" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="C449" s="14" t="s">
+      <c r="C449" s="9" t="s">
         <v>1523</v>
       </c>
       <c r="D449" s="17"/>
@@ -23422,13 +23440,13 @@
       <c r="X450" s="17"/>
     </row>
     <row r="451">
-      <c r="A451" s="9" t="s">
+      <c r="A451" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="C451" s="9" t="s">
+      <c r="C451" s="14" t="s">
         <v>1529</v>
       </c>
       <c r="D451" s="17"/>
@@ -23486,13 +23504,13 @@
       <c r="X452" s="17"/>
     </row>
     <row r="453">
-      <c r="A453" s="14" t="s">
+      <c r="A453" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="C453" s="14" t="s">
+      <c r="C453" s="9" t="s">
         <v>1535</v>
       </c>
       <c r="D453" s="17"/>
@@ -23518,13 +23536,13 @@
       <c r="X453" s="17"/>
     </row>
     <row r="454">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="C454" s="9" t="s">
+      <c r="C454" s="14" t="s">
         <v>1538</v>
       </c>
       <c r="D454" s="17"/>
@@ -23550,13 +23568,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="C455" s="14" t="s">
+      <c r="C455" s="9" t="s">
         <v>1541</v>
       </c>
       <c r="D455" s="17"/>
@@ -23582,13 +23600,13 @@
       <c r="X455" s="17"/>
     </row>
     <row r="456">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="C456" s="9" t="s">
+      <c r="C456" s="14" t="s">
         <v>1544</v>
       </c>
       <c r="D456" s="17"/>
@@ -23838,13 +23856,13 @@
       <c r="X463" s="17"/>
     </row>
     <row r="464">
-      <c r="A464" s="14" t="s">
+      <c r="A464" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="9" t="s">
         <v>1567</v>
       </c>
-      <c r="C464" s="14" t="s">
+      <c r="C464" s="9" t="s">
         <v>1568</v>
       </c>
       <c r="D464" s="17"/>
@@ -23902,13 +23920,13 @@
       <c r="X465" s="17"/>
     </row>
     <row r="466">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="14" t="s">
         <v>1573</v>
       </c>
-      <c r="C466" s="9" t="s">
+      <c r="C466" s="14" t="s">
         <v>1574</v>
       </c>
       <c r="D466" s="17"/>
@@ -23934,13 +23952,13 @@
       <c r="X466" s="17"/>
     </row>
     <row r="467">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="C467" s="14" t="s">
+      <c r="C467" s="9" t="s">
         <v>1577</v>
       </c>
       <c r="D467" s="17"/>
@@ -23998,13 +24016,13 @@
       <c r="X468" s="17"/>
     </row>
     <row r="469">
-      <c r="A469" s="9" t="s">
+      <c r="A469" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="14" t="s">
         <v>1582</v>
       </c>
-      <c r="C469" s="9" t="s">
+      <c r="C469" s="14" t="s">
         <v>1583</v>
       </c>
       <c r="D469" s="17"/>
@@ -24158,13 +24176,13 @@
       <c r="X473" s="17"/>
     </row>
     <row r="474">
-      <c r="A474" s="14" t="s">
+      <c r="A474" s="9" t="s">
         <v>1596</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="C474" s="14" t="s">
+      <c r="C474" s="9" t="s">
         <v>1598</v>
       </c>
       <c r="D474" s="17"/>
@@ -24318,13 +24336,13 @@
       <c r="X478" s="17"/>
     </row>
     <row r="479">
-      <c r="A479" s="9" t="s">
+      <c r="A479" s="14" t="s">
         <v>1611</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C479" s="14" t="s">
         <v>1613</v>
       </c>
       <c r="D479" s="17"/>
@@ -24350,13 +24368,13 @@
       <c r="X479" s="17"/>
     </row>
     <row r="480">
-      <c r="A480" s="14" t="s">
+      <c r="A480" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="C480" s="14" t="s">
+      <c r="C480" s="9" t="s">
         <v>1616</v>
       </c>
       <c r="D480" s="17"/>
@@ -24414,13 +24432,13 @@
       <c r="X481" s="17"/>
     </row>
     <row r="482">
-      <c r="A482" s="9" t="s">
+      <c r="A482" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="B482" s="9" t="s">
+      <c r="B482" s="14" t="s">
         <v>1621</v>
       </c>
-      <c r="C482" s="9" t="s">
+      <c r="C482" s="14" t="s">
         <v>1622</v>
       </c>
       <c r="D482" s="17"/>
@@ -24446,13 +24464,13 @@
       <c r="X482" s="17"/>
     </row>
     <row r="483">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C483" s="9" t="s">
         <v>1625</v>
       </c>
       <c r="D483" s="17"/>
@@ -24478,13 +24496,13 @@
       <c r="X483" s="17"/>
     </row>
     <row r="484">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="C484" s="9" t="s">
+      <c r="C484" s="14" t="s">
         <v>1628</v>
       </c>
       <c r="D484" s="17"/>
@@ -24510,10 +24528,10 @@
       <c r="X484" s="17"/>
     </row>
     <row r="485">
-      <c r="A485" s="19" t="s">
+      <c r="A485" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="B485" s="19" t="s">
+      <c r="B485" s="9" t="s">
         <v>1630</v>
       </c>
       <c r="C485" s="9" t="s">
@@ -24542,10 +24560,10 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="19" t="s">
         <v>1632</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="19" t="s">
         <v>1633</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -24574,13 +24592,13 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C487" s="9" t="s">
         <v>1637</v>
       </c>
       <c r="D487" s="17"/>
@@ -24606,13 +24624,13 @@
       <c r="X487" s="17"/>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="14" t="s">
         <v>1638</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="14" t="s">
         <v>1639</v>
       </c>
-      <c r="C488" s="9" t="s">
+      <c r="C488" s="14" t="s">
         <v>1640</v>
       </c>
       <c r="D488" s="17"/>
@@ -24670,13 +24688,13 @@
       <c r="X489" s="17"/>
     </row>
     <row r="490">
-      <c r="A490" s="14" t="s">
+      <c r="A490" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="B490" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="C490" s="14" t="s">
+      <c r="C490" s="9" t="s">
         <v>1646</v>
       </c>
       <c r="D490" s="17"/>
@@ -24798,13 +24816,13 @@
       <c r="X493" s="17"/>
     </row>
     <row r="494">
-      <c r="A494" s="9" t="s">
+      <c r="A494" s="14" t="s">
         <v>1656</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="14" t="s">
         <v>1657</v>
       </c>
-      <c r="C494" s="9" t="s">
+      <c r="C494" s="14" t="s">
         <v>1658</v>
       </c>
       <c r="D494" s="17"/>
@@ -24830,13 +24848,13 @@
       <c r="X494" s="17"/>
     </row>
     <row r="495">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="9" t="s">
         <v>1661</v>
       </c>
       <c r="D495" s="17"/>
@@ -24894,13 +24912,13 @@
       <c r="X496" s="17"/>
     </row>
     <row r="497">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="14" t="s">
         <v>1665</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="14" t="s">
         <v>1666</v>
       </c>
-      <c r="C497" s="9" t="s">
+      <c r="C497" s="14" t="s">
         <v>1667</v>
       </c>
       <c r="D497" s="17"/>
@@ -24958,13 +24976,13 @@
       <c r="X498" s="17"/>
     </row>
     <row r="499">
-      <c r="A499" s="14" t="s">
+      <c r="A499" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="B499" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="C499" s="14" t="s">
+      <c r="C499" s="9" t="s">
         <v>1673</v>
       </c>
       <c r="D499" s="17"/>
@@ -24990,13 +25008,13 @@
       <c r="X499" s="17"/>
     </row>
     <row r="500">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="14" t="s">
         <v>1674</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="14" t="s">
         <v>1675</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C500" s="14" t="s">
         <v>1676</v>
       </c>
       <c r="D500" s="17"/>
@@ -25054,13 +25072,13 @@
       <c r="X501" s="17"/>
     </row>
     <row r="502">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="9" t="s">
         <v>1680</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="C502" s="14" t="s">
+      <c r="C502" s="9" t="s">
         <v>1682</v>
       </c>
       <c r="D502" s="17"/>
@@ -25150,13 +25168,13 @@
       <c r="X504" s="17"/>
     </row>
     <row r="505">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="14" t="s">
         <v>1689</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="14" t="s">
         <v>1690</v>
       </c>
-      <c r="C505" s="9" t="s">
+      <c r="C505" s="14" t="s">
         <v>1691</v>
       </c>
       <c r="D505" s="17"/>
@@ -25185,10 +25203,10 @@
       <c r="A506" s="9" t="s">
         <v>1692</v>
       </c>
-      <c r="B506" s="14" t="s">
+      <c r="B506" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="C506" s="14" t="s">
+      <c r="C506" s="9" t="s">
         <v>1694</v>
       </c>
       <c r="D506" s="17"/>
@@ -25214,7 +25232,7 @@
       <c r="X506" s="17"/>
     </row>
     <row r="507">
-      <c r="A507" s="14" t="s">
+      <c r="A507" s="9" t="s">
         <v>1695</v>
       </c>
       <c r="B507" s="14" t="s">
@@ -25438,13 +25456,13 @@
       <c r="X513" s="17"/>
     </row>
     <row r="514">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="14" t="s">
         <v>1716</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="14" t="s">
         <v>1717</v>
       </c>
-      <c r="C514" s="9" t="s">
+      <c r="C514" s="14" t="s">
         <v>1718</v>
       </c>
       <c r="D514" s="17"/>
@@ -25502,13 +25520,13 @@
       <c r="X515" s="17"/>
     </row>
     <row r="516">
-      <c r="A516" s="14" t="s">
+      <c r="A516" s="9" t="s">
         <v>1722</v>
       </c>
-      <c r="B516" s="14" t="s">
+      <c r="B516" s="9" t="s">
         <v>1723</v>
       </c>
-      <c r="C516" s="14" t="s">
+      <c r="C516" s="9" t="s">
         <v>1724</v>
       </c>
       <c r="D516" s="17"/>
@@ -25566,13 +25584,13 @@
       <c r="X517" s="17"/>
     </row>
     <row r="518">
-      <c r="A518" s="9" t="s">
+      <c r="A518" s="14" t="s">
         <v>1728</v>
       </c>
-      <c r="B518" s="9" t="s">
+      <c r="B518" s="14" t="s">
         <v>1729</v>
       </c>
-      <c r="C518" s="9" t="s">
+      <c r="C518" s="14" t="s">
         <v>1730</v>
       </c>
       <c r="D518" s="17"/>
@@ -25598,13 +25616,13 @@
       <c r="X518" s="17"/>
     </row>
     <row r="519">
-      <c r="A519" s="14" t="s">
+      <c r="A519" s="9" t="s">
         <v>1731</v>
       </c>
-      <c r="B519" s="14" t="s">
+      <c r="B519" s="9" t="s">
         <v>1732</v>
       </c>
-      <c r="C519" s="14" t="s">
+      <c r="C519" s="9" t="s">
         <v>1733</v>
       </c>
       <c r="D519" s="17"/>
@@ -25694,13 +25712,13 @@
       <c r="X521" s="17"/>
     </row>
     <row r="522">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="14" t="s">
         <v>1740</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="14" t="s">
         <v>1741</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C522" s="14" t="s">
         <v>1742</v>
       </c>
       <c r="D522" s="17"/>
@@ -25726,13 +25744,13 @@
       <c r="X522" s="17"/>
     </row>
     <row r="523">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="9" t="s">
         <v>1743</v>
       </c>
-      <c r="B523" s="14" t="s">
+      <c r="B523" s="9" t="s">
         <v>1744</v>
       </c>
-      <c r="C523" s="14" t="s">
+      <c r="C523" s="9" t="s">
         <v>1745</v>
       </c>
       <c r="D523" s="17"/>
@@ -25758,13 +25776,13 @@
       <c r="X523" s="17"/>
     </row>
     <row r="524">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="14" t="s">
         <v>1747</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="14" t="s">
         <v>1748</v>
       </c>
       <c r="D524" s="17"/>
@@ -25822,13 +25840,13 @@
       <c r="X525" s="17"/>
     </row>
     <row r="526">
-      <c r="A526" s="14" t="s">
+      <c r="A526" s="9" t="s">
         <v>1752</v>
       </c>
-      <c r="B526" s="14" t="s">
+      <c r="B526" s="9" t="s">
         <v>1753</v>
       </c>
-      <c r="C526" s="14" t="s">
+      <c r="C526" s="9" t="s">
         <v>1754</v>
       </c>
       <c r="D526" s="17"/>
@@ -25886,13 +25904,13 @@
       <c r="X527" s="17"/>
     </row>
     <row r="528">
-      <c r="A528" s="9" t="s">
+      <c r="A528" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="14" t="s">
         <v>1759</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C528" s="14" t="s">
         <v>1760</v>
       </c>
       <c r="D528" s="17"/>
@@ -25918,13 +25936,13 @@
       <c r="X528" s="17"/>
     </row>
     <row r="529">
-      <c r="A529" s="14" t="s">
+      <c r="A529" s="9" t="s">
         <v>1761</v>
       </c>
-      <c r="B529" s="14" t="s">
+      <c r="B529" s="9" t="s">
         <v>1762</v>
       </c>
-      <c r="C529" s="14" t="s">
+      <c r="C529" s="9" t="s">
         <v>1763</v>
       </c>
       <c r="D529" s="17"/>
@@ -25982,13 +26000,13 @@
       <c r="X530" s="17"/>
     </row>
     <row r="531">
-      <c r="A531" s="9" t="s">
+      <c r="A531" s="14" t="s">
         <v>1767</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="C531" s="9" t="s">
+      <c r="C531" s="14" t="s">
         <v>1769</v>
       </c>
       <c r="D531" s="17"/>
@@ -26046,13 +26064,13 @@
       <c r="X532" s="17"/>
     </row>
     <row r="533">
-      <c r="A533" s="14" t="s">
+      <c r="A533" s="9" t="s">
         <v>1773</v>
       </c>
-      <c r="B533" s="14" t="s">
+      <c r="B533" s="9" t="s">
         <v>1774</v>
       </c>
-      <c r="C533" s="14" t="s">
+      <c r="C533" s="9" t="s">
         <v>1775</v>
       </c>
       <c r="D533" s="17"/>
@@ -26078,13 +26096,13 @@
       <c r="X533" s="17"/>
     </row>
     <row r="534">
-      <c r="A534" s="9" t="s">
+      <c r="A534" s="14" t="s">
         <v>1776</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="14" t="s">
         <v>1777</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C534" s="14" t="s">
         <v>1778</v>
       </c>
       <c r="D534" s="17"/>
@@ -26174,13 +26192,13 @@
       <c r="X536" s="17"/>
     </row>
     <row r="537">
-      <c r="A537" s="14" t="s">
+      <c r="A537" s="9" t="s">
         <v>1785</v>
       </c>
-      <c r="B537" s="14" t="s">
+      <c r="B537" s="9" t="s">
         <v>1786</v>
       </c>
-      <c r="C537" s="14" t="s">
+      <c r="C537" s="9" t="s">
         <v>1787</v>
       </c>
       <c r="D537" s="17"/>
@@ -26334,13 +26352,13 @@
       <c r="X541" s="17"/>
     </row>
     <row r="542">
-      <c r="A542" s="9" t="s">
+      <c r="A542" s="14" t="s">
         <v>1800</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="14" t="s">
         <v>1801</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C542" s="14" t="s">
         <v>1802</v>
       </c>
       <c r="D542" s="17"/>
@@ -26366,13 +26384,13 @@
       <c r="X542" s="17"/>
     </row>
     <row r="543">
-      <c r="A543" s="14" t="s">
+      <c r="A543" s="9" t="s">
         <v>1803</v>
       </c>
-      <c r="B543" s="14" t="s">
+      <c r="B543" s="9" t="s">
         <v>1804</v>
       </c>
-      <c r="C543" s="14" t="s">
+      <c r="C543" s="9" t="s">
         <v>1805</v>
       </c>
       <c r="D543" s="17"/>
@@ -26398,13 +26416,13 @@
       <c r="X543" s="17"/>
     </row>
     <row r="544">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="14" t="s">
         <v>1806</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C544" s="14" t="s">
         <v>1808</v>
       </c>
       <c r="D544" s="17"/>
@@ -26430,13 +26448,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="9" t="s">
         <v>1809</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>1810</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="C545" s="9" t="s">
         <v>1811</v>
       </c>
       <c r="D545" s="17"/>
@@ -26494,13 +26512,13 @@
       <c r="X546" s="17"/>
     </row>
     <row r="547">
-      <c r="A547" s="9" t="s">
+      <c r="A547" s="14" t="s">
         <v>1815</v>
       </c>
-      <c r="B547" s="9" t="s">
+      <c r="B547" s="14" t="s">
         <v>1816</v>
       </c>
-      <c r="C547" s="9" t="s">
+      <c r="C547" s="14" t="s">
         <v>1817</v>
       </c>
       <c r="D547" s="17"/>
@@ -26526,13 +26544,13 @@
       <c r="X547" s="17"/>
     </row>
     <row r="548">
-      <c r="A548" s="14" t="s">
+      <c r="A548" s="9" t="s">
         <v>1818</v>
       </c>
-      <c r="B548" s="14" t="s">
+      <c r="B548" s="9" t="s">
         <v>1819</v>
       </c>
-      <c r="C548" s="14" t="s">
+      <c r="C548" s="9" t="s">
         <v>1820</v>
       </c>
       <c r="D548" s="17"/>
@@ -26846,13 +26864,13 @@
       <c r="X557" s="17"/>
     </row>
     <row r="558">
-      <c r="A558" s="9" t="s">
+      <c r="A558" s="14" t="s">
         <v>1848</v>
       </c>
-      <c r="B558" s="9" t="s">
+      <c r="B558" s="14" t="s">
         <v>1849</v>
       </c>
-      <c r="C558" s="9" t="s">
+      <c r="C558" s="14" t="s">
         <v>1850</v>
       </c>
       <c r="D558" s="17"/>
@@ -26878,14 +26896,14 @@
       <c r="X558" s="17"/>
     </row>
     <row r="559">
-      <c r="A559" s="14" t="s">
+      <c r="A559" s="9" t="s">
         <v>1851</v>
       </c>
-      <c r="B559" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C559" s="14" t="s">
+      <c r="B559" s="9" t="s">
         <v>1852</v>
+      </c>
+      <c r="C559" s="9" t="s">
+        <v>1853</v>
       </c>
       <c r="D559" s="17"/>
       <c r="E559" s="17"/>
@@ -26911,10 +26929,10 @@
     </row>
     <row r="560">
       <c r="A560" s="14" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B560" s="14" t="s">
-        <v>1854</v>
+        <v>20</v>
       </c>
       <c r="C560" s="14" t="s">
         <v>1855</v>
@@ -26942,13 +26960,13 @@
       <c r="X560" s="17"/>
     </row>
     <row r="561">
-      <c r="A561" s="9" t="s">
+      <c r="A561" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="B561" s="9" t="s">
+      <c r="B561" s="14" t="s">
         <v>1857</v>
       </c>
-      <c r="C561" s="9" t="s">
+      <c r="C561" s="14" t="s">
         <v>1858</v>
       </c>
       <c r="D561" s="17"/>
@@ -27006,13 +27024,13 @@
       <c r="X562" s="17"/>
     </row>
     <row r="563">
-      <c r="A563" s="14" t="s">
+      <c r="A563" s="9" t="s">
         <v>1862</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="B563" s="9" t="s">
         <v>1863</v>
       </c>
-      <c r="C563" s="14" t="s">
+      <c r="C563" s="9" t="s">
         <v>1864</v>
       </c>
       <c r="D563" s="17"/>
@@ -27166,13 +27184,13 @@
       <c r="X567" s="17"/>
     </row>
     <row r="568">
-      <c r="A568" s="9" t="s">
+      <c r="A568" s="14" t="s">
         <v>1877</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="14" t="s">
         <v>1878</v>
       </c>
-      <c r="C568" s="9" t="s">
+      <c r="C568" s="14" t="s">
         <v>1879</v>
       </c>
       <c r="D568" s="17"/>
@@ -27198,13 +27216,13 @@
       <c r="X568" s="17"/>
     </row>
     <row r="569">
-      <c r="A569" s="14" t="s">
+      <c r="A569" s="9" t="s">
         <v>1880</v>
       </c>
-      <c r="B569" s="14" t="s">
+      <c r="B569" s="9" t="s">
         <v>1881</v>
       </c>
-      <c r="C569" s="14" t="s">
+      <c r="C569" s="9" t="s">
         <v>1882</v>
       </c>
       <c r="D569" s="17"/>
@@ -27230,13 +27248,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="14" t="s">
         <v>1883</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="14" t="s">
         <v>1884</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="C570" s="14" t="s">
         <v>1885</v>
       </c>
       <c r="D570" s="17"/>
@@ -27454,13 +27472,13 @@
       <c r="X576" s="17"/>
     </row>
     <row r="577">
-      <c r="A577" s="14" t="s">
+      <c r="A577" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="B577" s="14" t="s">
+      <c r="B577" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="C577" s="14" t="s">
+      <c r="C577" s="9" t="s">
         <v>1906</v>
       </c>
       <c r="D577" s="17"/>
@@ -27582,13 +27600,13 @@
       <c r="X580" s="17"/>
     </row>
     <row r="581">
-      <c r="A581" s="9" t="s">
+      <c r="A581" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="C581" s="9" t="s">
+      <c r="C581" s="14" t="s">
         <v>1918</v>
       </c>
       <c r="D581" s="17"/>
@@ -27678,13 +27696,13 @@
       <c r="X583" s="17"/>
     </row>
     <row r="584">
-      <c r="A584" s="14" t="s">
+      <c r="A584" s="9" t="s">
         <v>1925</v>
       </c>
-      <c r="B584" s="14" t="s">
+      <c r="B584" s="9" t="s">
         <v>1926</v>
       </c>
-      <c r="C584" s="14" t="s">
+      <c r="C584" s="9" t="s">
         <v>1927</v>
       </c>
       <c r="D584" s="17"/>
@@ -27710,13 +27728,13 @@
       <c r="X584" s="17"/>
     </row>
     <row r="585">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="14" t="s">
         <v>1928</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="14" t="s">
         <v>1929</v>
       </c>
-      <c r="C585" s="9" t="s">
+      <c r="C585" s="14" t="s">
         <v>1930</v>
       </c>
       <c r="D585" s="17"/>
@@ -27742,13 +27760,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="14" t="s">
+      <c r="A586" s="9" t="s">
         <v>1931</v>
       </c>
-      <c r="B586" s="14" t="s">
+      <c r="B586" s="9" t="s">
         <v>1932</v>
       </c>
-      <c r="C586" s="14" t="s">
+      <c r="C586" s="9" t="s">
         <v>1933</v>
       </c>
       <c r="D586" s="17"/>
@@ -27870,13 +27888,13 @@
       <c r="X589" s="17"/>
     </row>
     <row r="590">
-      <c r="A590" s="9" t="s">
+      <c r="A590" s="14" t="s">
         <v>1943</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="14" t="s">
         <v>1944</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="C590" s="14" t="s">
         <v>1945</v>
       </c>
       <c r="D590" s="17"/>
@@ -27902,13 +27920,13 @@
       <c r="X590" s="17"/>
     </row>
     <row r="591">
-      <c r="A591" s="14" t="s">
+      <c r="A591" s="9" t="s">
         <v>1946</v>
       </c>
-      <c r="B591" s="14" t="s">
+      <c r="B591" s="9" t="s">
         <v>1947</v>
       </c>
-      <c r="C591" s="14" t="s">
+      <c r="C591" s="9" t="s">
         <v>1948</v>
       </c>
       <c r="D591" s="17"/>
@@ -27934,13 +27952,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="14" t="s">
         <v>1949</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="14" t="s">
         <v>1950</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="14" t="s">
         <v>1951</v>
       </c>
       <c r="D592" s="17"/>
@@ -28030,13 +28048,13 @@
       <c r="X594" s="17"/>
     </row>
     <row r="595">
-      <c r="A595" s="14" t="s">
+      <c r="A595" s="9" t="s">
         <v>1958</v>
       </c>
-      <c r="B595" s="14" t="s">
+      <c r="B595" s="9" t="s">
         <v>1959</v>
       </c>
-      <c r="C595" s="14" t="s">
+      <c r="C595" s="9" t="s">
         <v>1960</v>
       </c>
       <c r="D595" s="17"/>
@@ -28062,13 +28080,13 @@
       <c r="X595" s="17"/>
     </row>
     <row r="596">
-      <c r="A596" s="9" t="s">
+      <c r="A596" s="14" t="s">
         <v>1961</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="14" t="s">
         <v>1962</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="C596" s="14" t="s">
         <v>1963</v>
       </c>
       <c r="D596" s="17"/>
@@ -28126,13 +28144,13 @@
       <c r="X597" s="17"/>
     </row>
     <row r="598">
-      <c r="A598" s="14" t="s">
+      <c r="A598" s="9" t="s">
         <v>1967</v>
       </c>
-      <c r="B598" s="14" t="s">
+      <c r="B598" s="9" t="s">
         <v>1968</v>
       </c>
-      <c r="C598" s="14" t="s">
+      <c r="C598" s="9" t="s">
         <v>1969</v>
       </c>
       <c r="D598" s="17"/>
@@ -28158,13 +28176,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="s">
+      <c r="A599" s="14" t="s">
         <v>1970</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="14" t="s">
         <v>1971</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="C599" s="14" t="s">
         <v>1972</v>
       </c>
       <c r="D599" s="17"/>
@@ -28190,13 +28208,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="14" t="s">
+      <c r="A600" s="9" t="s">
         <v>1973</v>
       </c>
-      <c r="B600" s="14" t="s">
+      <c r="B600" s="9" t="s">
         <v>1974</v>
       </c>
-      <c r="C600" s="14" t="s">
+      <c r="C600" s="9" t="s">
         <v>1975</v>
       </c>
       <c r="D600" s="17"/>
@@ -28222,13 +28240,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1976</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1977</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1978</v>
       </c>
       <c r="D601" s="17"/>
@@ -28350,13 +28368,13 @@
       <c r="X604" s="17"/>
     </row>
     <row r="605">
-      <c r="A605" s="14" t="s">
+      <c r="A605" s="9" t="s">
         <v>1988</v>
       </c>
-      <c r="B605" s="14" t="s">
+      <c r="B605" s="9" t="s">
         <v>1989</v>
       </c>
-      <c r="C605" s="14" t="s">
+      <c r="C605" s="9" t="s">
         <v>1990</v>
       </c>
       <c r="D605" s="17"/>
@@ -28382,13 +28400,13 @@
       <c r="X605" s="17"/>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="14" t="s">
         <v>1992</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="C606" s="14" t="s">
         <v>1993</v>
       </c>
       <c r="D606" s="17"/>
@@ -28414,13 +28432,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="14" t="s">
+      <c r="A607" s="9" t="s">
         <v>1994</v>
       </c>
-      <c r="B607" s="14" t="s">
+      <c r="B607" s="9" t="s">
         <v>1995</v>
       </c>
-      <c r="C607" s="14" t="s">
+      <c r="C607" s="9" t="s">
         <v>1996</v>
       </c>
       <c r="D607" s="17"/>
@@ -28478,13 +28496,13 @@
       <c r="X608" s="17"/>
     </row>
     <row r="609">
-      <c r="A609" s="9" t="s">
+      <c r="A609" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="14" t="s">
         <v>2001</v>
       </c>
-      <c r="C609" s="9" t="s">
+      <c r="C609" s="14" t="s">
         <v>2002</v>
       </c>
       <c r="D609" s="17"/>
@@ -28606,13 +28624,13 @@
       <c r="X612" s="17"/>
     </row>
     <row r="613">
-      <c r="A613" s="14" t="s">
+      <c r="A613" s="9" t="s">
         <v>2012</v>
       </c>
-      <c r="B613" s="14" t="s">
+      <c r="B613" s="9" t="s">
         <v>2013</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="9" t="s">
         <v>2014</v>
       </c>
       <c r="D613" s="17"/>
@@ -28670,13 +28688,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="s">
+      <c r="A615" s="14" t="s">
         <v>2018</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="14" t="s">
         <v>2019</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="C615" s="14" t="s">
         <v>2020</v>
       </c>
       <c r="D615" s="17"/>
@@ -28702,13 +28720,13 @@
       <c r="X615" s="17"/>
     </row>
     <row r="616">
-      <c r="A616" s="9" t="s">
+      <c r="A616" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="14" t="s">
         <v>2022</v>
       </c>
-      <c r="C616" s="9" t="s">
+      <c r="C616" s="14" t="s">
         <v>2023</v>
       </c>
       <c r="D616" s="17"/>
@@ -28766,13 +28784,13 @@
       <c r="X617" s="17"/>
     </row>
     <row r="618">
-      <c r="A618" s="14" t="s">
+      <c r="A618" s="9" t="s">
         <v>2027</v>
       </c>
-      <c r="B618" s="14" t="s">
+      <c r="B618" s="9" t="s">
         <v>2028</v>
       </c>
-      <c r="C618" s="14" t="s">
+      <c r="C618" s="9" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -28788,13 +28806,13 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="9" t="s">
+      <c r="A620" s="14" t="s">
         <v>2033</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="14" t="s">
         <v>2034</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C620" s="14" t="s">
         <v>2035</v>
       </c>
     </row>
@@ -28810,24 +28828,24 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="14" t="s">
+      <c r="A622" s="9" t="s">
         <v>2039</v>
       </c>
-      <c r="B622" s="14" t="s">
+      <c r="B622" s="9" t="s">
         <v>2040</v>
       </c>
-      <c r="C622" s="14" t="s">
+      <c r="C622" s="9" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="14" t="s">
+      <c r="A623" s="9" t="s">
         <v>2042</v>
       </c>
-      <c r="B623" s="14" t="s">
+      <c r="B623" s="9" t="s">
         <v>2043</v>
       </c>
-      <c r="C623" s="14" t="s">
+      <c r="C623" s="9" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -28843,24 +28861,24 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="14" t="s">
         <v>2048</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="14" t="s">
         <v>2049</v>
       </c>
-      <c r="C625" s="9" t="s">
+      <c r="C625" s="14" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="9" t="s">
+      <c r="A626" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="14" t="s">
         <v>2052</v>
       </c>
-      <c r="C626" s="9" t="s">
+      <c r="C626" s="14" t="s">
         <v>2053</v>
       </c>
     </row>
@@ -28876,24 +28894,24 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="14" t="s">
+      <c r="A628" s="9" t="s">
         <v>2057</v>
       </c>
-      <c r="B628" s="14" t="s">
+      <c r="B628" s="9" t="s">
         <v>2058</v>
       </c>
-      <c r="C628" s="14" t="s">
+      <c r="C628" s="9" t="s">
         <v>2059</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="14" t="s">
+      <c r="A629" s="9" t="s">
         <v>2060</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2061</v>
       </c>
-      <c r="C629" s="14" t="s">
+      <c r="C629" s="9" t="s">
         <v>2062</v>
       </c>
     </row>
@@ -28942,13 +28960,13 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="9" t="s">
+      <c r="A634" s="14" t="s">
         <v>2075</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="14" t="s">
         <v>2076</v>
       </c>
-      <c r="C634" s="9" t="s">
+      <c r="C634" s="14" t="s">
         <v>2077</v>
       </c>
     </row>
@@ -28964,35 +28982,35 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="14" t="s">
+      <c r="A636" s="9" t="s">
         <v>2081</v>
       </c>
-      <c r="B636" s="14" t="s">
+      <c r="B636" s="9" t="s">
         <v>2082</v>
       </c>
-      <c r="C636" s="14" t="s">
+      <c r="C636" s="9" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="9" t="s">
+      <c r="A637" s="14" t="s">
         <v>2084</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" s="14" t="s">
         <v>2085</v>
       </c>
-      <c r="C637" s="9" t="s">
+      <c r="C637" s="14" t="s">
         <v>2086</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="14" t="s">
         <v>2088</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="14" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -29008,35 +29026,35 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="14" t="s">
+      <c r="A640" s="9" t="s">
         <v>2093</v>
       </c>
-      <c r="B640" s="14" t="s">
+      <c r="B640" s="9" t="s">
         <v>2094</v>
       </c>
-      <c r="C640" s="14" t="s">
+      <c r="C640" s="9" t="s">
         <v>2095</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="14" t="s">
+      <c r="A641" s="9" t="s">
         <v>2096</v>
       </c>
-      <c r="B641" s="14" t="s">
+      <c r="B641" s="9" t="s">
         <v>2097</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="9" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="14" t="s">
         <v>2099</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="14" t="s">
         <v>2100</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="14" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -29052,35 +29070,35 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="14" t="s">
+      <c r="A644" s="9" t="s">
         <v>2105</v>
       </c>
-      <c r="B644" s="14" t="s">
+      <c r="B644" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="C644" s="14" t="s">
+      <c r="C644" s="9" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="9" t="s">
+      <c r="A645" s="14" t="s">
         <v>2108</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="14" t="s">
         <v>2109</v>
       </c>
-      <c r="C645" s="9" t="s">
+      <c r="C645" s="14" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2111</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2112</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2113</v>
       </c>
     </row>
@@ -29107,13 +29125,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="14" t="s">
+      <c r="A649" s="9" t="s">
         <v>2120</v>
       </c>
-      <c r="B649" s="14" t="s">
+      <c r="B649" s="9" t="s">
         <v>2121</v>
       </c>
-      <c r="C649" s="14" t="s">
+      <c r="C649" s="9" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -29124,7 +29142,7 @@
       <c r="B650" s="9" t="s">
         <v>2124</v>
       </c>
-      <c r="C650" s="14" t="s">
+      <c r="C650" s="9" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -29140,10 +29158,10 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="14" t="s">
+      <c r="A652" s="9" t="s">
         <v>2129</v>
       </c>
-      <c r="B652" s="14" t="s">
+      <c r="B652" s="9" t="s">
         <v>2130</v>
       </c>
       <c r="C652" s="14" t="s">
@@ -29151,13 +29169,13 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="9" t="s">
+      <c r="A653" s="14" t="s">
         <v>2132</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="14" t="s">
         <v>2133</v>
       </c>
-      <c r="C653" s="9" t="s">
+      <c r="C653" s="14" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -29173,13 +29191,13 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="14" t="s">
+      <c r="A655" s="9" t="s">
         <v>2138</v>
       </c>
-      <c r="B655" s="14" t="s">
+      <c r="B655" s="9" t="s">
         <v>2139</v>
       </c>
-      <c r="C655" s="14" t="s">
+      <c r="C655" s="9" t="s">
         <v>2140</v>
       </c>
     </row>
@@ -29195,24 +29213,24 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="9" t="s">
+      <c r="A657" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="14" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="9" t="s">
+      <c r="A658" s="14" t="s">
         <v>2147</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="14" t="s">
         <v>2148</v>
       </c>
-      <c r="C658" s="9" t="s">
+      <c r="C658" s="14" t="s">
         <v>2149</v>
       </c>
     </row>
@@ -29250,13 +29268,13 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="19" t="s">
+      <c r="A662" s="9" t="s">
         <v>2159</v>
       </c>
-      <c r="B662" s="19" t="s">
+      <c r="B662" s="9" t="s">
         <v>2160</v>
       </c>
-      <c r="C662" s="10" t="s">
+      <c r="C662" s="9" t="s">
         <v>2161</v>
       </c>
     </row>
@@ -29272,13 +29290,13 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="14" t="s">
+      <c r="A664" s="19" t="s">
         <v>2165</v>
       </c>
-      <c r="B664" s="14" t="s">
+      <c r="B664" s="19" t="s">
         <v>2166</v>
       </c>
-      <c r="C664" s="14" t="s">
+      <c r="C664" s="10" t="s">
         <v>2167</v>
       </c>
     </row>
@@ -29305,13 +29323,13 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="14" t="s">
+      <c r="A667" s="9" t="s">
         <v>2174</v>
       </c>
-      <c r="B667" s="14" t="s">
+      <c r="B667" s="9" t="s">
         <v>2175</v>
       </c>
-      <c r="C667" s="14" t="s">
+      <c r="C667" s="9" t="s">
         <v>2176</v>
       </c>
     </row>
@@ -29327,13 +29345,13 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="14" t="s">
         <v>2180</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="14" t="s">
         <v>2181</v>
       </c>
-      <c r="C669" s="9" t="s">
+      <c r="C669" s="14" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -29404,13 +29422,13 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="14" t="s">
         <v>2201</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="14" t="s">
         <v>2202</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="14" t="s">
         <v>2203</v>
       </c>
     </row>
@@ -29426,24 +29444,24 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="14" t="s">
+      <c r="A678" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="B678" s="14" t="s">
+      <c r="B678" s="9" t="s">
         <v>2208</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="9" t="s">
         <v>2209</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="14" t="s">
+      <c r="A679" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="B679" s="14" t="s">
+      <c r="B679" s="9" t="s">
         <v>2211</v>
       </c>
-      <c r="C679" s="14" t="s">
+      <c r="C679" s="9" t="s">
         <v>2212</v>
       </c>
     </row>
@@ -29470,24 +29488,24 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="9" t="s">
+      <c r="A682" s="14" t="s">
         <v>2219</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="14" t="s">
         <v>2220</v>
       </c>
-      <c r="C682" s="9" t="s">
+      <c r="C682" s="14" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2222</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2223</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -29517,7 +29535,7 @@
       <c r="A686" s="9" t="s">
         <v>2231</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2232</v>
       </c>
       <c r="C686" s="9" t="s">
@@ -29525,46 +29543,46 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="14" t="s">
+      <c r="A687" s="9" t="s">
         <v>2234</v>
       </c>
-      <c r="B687" s="14" t="s">
+      <c r="B687" s="9" t="s">
         <v>2235</v>
       </c>
-      <c r="C687" s="14" t="s">
+      <c r="C687" s="9" t="s">
         <v>2236</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="9" t="s">
         <v>2237</v>
       </c>
       <c r="B688" s="14" t="s">
         <v>2238</v>
       </c>
-      <c r="C688" s="14" t="s">
+      <c r="C688" s="9" t="s">
         <v>2239</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="9" t="s">
+      <c r="A689" s="14" t="s">
         <v>2240</v>
       </c>
-      <c r="B689" s="9" t="s">
+      <c r="B689" s="14" t="s">
         <v>2241</v>
       </c>
-      <c r="C689" s="9" t="s">
+      <c r="C689" s="14" t="s">
         <v>2242</v>
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="9" t="s">
+      <c r="A690" s="14" t="s">
         <v>2243</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="C690" s="9" t="s">
+      <c r="C690" s="14" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -29591,10 +29609,10 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="19" t="s">
+      <c r="A693" s="9" t="s">
         <v>2252</v>
       </c>
-      <c r="B693" s="19" t="s">
+      <c r="B693" s="9" t="s">
         <v>2253</v>
       </c>
       <c r="C693" s="9" t="s">
@@ -29613,10 +29631,10 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="9" t="s">
+      <c r="A695" s="19" t="s">
         <v>2258</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="19" t="s">
         <v>2259</v>
       </c>
       <c r="C695" s="9" t="s">
@@ -29646,24 +29664,24 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="14" t="s">
+      <c r="A698" s="9" t="s">
         <v>2267</v>
       </c>
-      <c r="B698" s="14" t="s">
+      <c r="B698" s="9" t="s">
         <v>2268</v>
       </c>
-      <c r="C698" s="14" t="s">
+      <c r="C698" s="9" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="14" t="s">
+      <c r="A699" s="9" t="s">
         <v>2270</v>
       </c>
-      <c r="B699" s="14" t="s">
+      <c r="B699" s="9" t="s">
         <v>2271</v>
       </c>
-      <c r="C699" s="14" t="s">
+      <c r="C699" s="9" t="s">
         <v>2272</v>
       </c>
     </row>
@@ -29690,13 +29708,13 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="9" t="s">
+      <c r="A702" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="14" t="s">
         <v>2280</v>
       </c>
-      <c r="C702" s="9" t="s">
+      <c r="C702" s="14" t="s">
         <v>2281</v>
       </c>
     </row>
@@ -29723,13 +29741,13 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="9" t="s">
+      <c r="A705" s="14" t="s">
         <v>2288</v>
       </c>
-      <c r="B705" s="9" t="s">
+      <c r="B705" s="14" t="s">
         <v>2289</v>
       </c>
-      <c r="C705" s="9" t="s">
+      <c r="C705" s="14" t="s">
         <v>2290</v>
       </c>
     </row>
@@ -29745,13 +29763,13 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="14" t="s">
+      <c r="A707" s="9" t="s">
         <v>2294</v>
       </c>
-      <c r="B707" s="14" t="s">
+      <c r="B707" s="9" t="s">
         <v>2295</v>
       </c>
-      <c r="C707" s="14" t="s">
+      <c r="C707" s="9" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29822,35 +29840,35 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="14" t="s">
+      <c r="A714" s="9" t="s">
         <v>2315</v>
       </c>
-      <c r="B714" s="14" t="s">
+      <c r="B714" s="9" t="s">
         <v>2316</v>
       </c>
-      <c r="C714" s="14" t="s">
+      <c r="C714" s="9" t="s">
         <v>2317</v>
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="9" t="s">
+      <c r="A715" s="14" t="s">
         <v>2318</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" s="14" t="s">
         <v>2319</v>
       </c>
-      <c r="C715" s="9" t="s">
+      <c r="C715" s="14" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="14" t="s">
         <v>2321</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="14" t="s">
         <v>2322</v>
       </c>
-      <c r="C716" s="9" t="s">
+      <c r="C716" s="14" t="s">
         <v>2323</v>
       </c>
     </row>
@@ -29866,13 +29884,13 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="14" t="s">
+      <c r="A718" s="9" t="s">
         <v>2327</v>
       </c>
-      <c r="B718" s="14" t="s">
+      <c r="B718" s="9" t="s">
         <v>2328</v>
       </c>
-      <c r="C718" s="14" t="s">
+      <c r="C718" s="9" t="s">
         <v>2329</v>
       </c>
     </row>
@@ -29899,13 +29917,13 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="14" t="s">
+      <c r="A721" s="9" t="s">
         <v>2336</v>
       </c>
-      <c r="B721" s="14" t="s">
+      <c r="B721" s="9" t="s">
         <v>2337</v>
       </c>
-      <c r="C721" s="14" t="s">
+      <c r="C721" s="9" t="s">
         <v>2338</v>
       </c>
     </row>
@@ -29943,13 +29961,13 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="9" t="s">
+      <c r="A725" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" s="14" t="s">
         <v>2349</v>
       </c>
-      <c r="C725" s="9" t="s">
+      <c r="C725" s="14" t="s">
         <v>2350</v>
       </c>
     </row>
@@ -29965,35 +29983,35 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="14" t="s">
+      <c r="A727" s="9" t="s">
         <v>2354</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="9" t="s">
         <v>2355</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C727" s="9" t="s">
         <v>2356</v>
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="9" t="s">
+      <c r="A728" s="14" t="s">
         <v>2357</v>
       </c>
-      <c r="B728" s="9" t="s">
+      <c r="B728" s="14" t="s">
         <v>2358</v>
       </c>
-      <c r="C728" s="9" t="s">
+      <c r="C728" s="14" t="s">
         <v>2359</v>
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="9" t="s">
+      <c r="A729" s="14" t="s">
         <v>2360</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="14" t="s">
         <v>2361</v>
       </c>
-      <c r="C729" s="9" t="s">
+      <c r="C729" s="14" t="s">
         <v>2362</v>
       </c>
     </row>
@@ -30009,13 +30027,13 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="14" t="s">
+      <c r="A731" s="9" t="s">
         <v>2366</v>
       </c>
-      <c r="B731" s="14" t="s">
+      <c r="B731" s="9" t="s">
         <v>2367</v>
       </c>
-      <c r="C731" s="14" t="s">
+      <c r="C731" s="9" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -30031,13 +30049,13 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="9" t="s">
+      <c r="A733" s="14" t="s">
         <v>2372</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C733" s="9" t="s">
+      <c r="C733" s="14" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -30053,24 +30071,24 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="14" t="s">
+      <c r="A735" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="B735" s="14" t="s">
+      <c r="B735" s="9" t="s">
         <v>2379</v>
       </c>
-      <c r="C735" s="14" t="s">
+      <c r="C735" s="9" t="s">
         <v>2380</v>
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="14" t="s">
+      <c r="A736" s="9" t="s">
         <v>2381</v>
       </c>
-      <c r="B736" s="14" t="s">
+      <c r="B736" s="9" t="s">
         <v>2382</v>
       </c>
-      <c r="C736" s="14" t="s">
+      <c r="C736" s="9" t="s">
         <v>2383</v>
       </c>
     </row>
@@ -30108,13 +30126,13 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="9" t="s">
+      <c r="A740" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="14" t="s">
         <v>2394</v>
       </c>
-      <c r="C740" s="9" t="s">
+      <c r="C740" s="14" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -30130,35 +30148,35 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="14" t="s">
+      <c r="A742" s="9" t="s">
         <v>2399</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2400</v>
       </c>
-      <c r="C742" s="14" t="s">
+      <c r="C742" s="9" t="s">
         <v>2401</v>
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="9" t="s">
+      <c r="A743" s="14" t="s">
         <v>2402</v>
       </c>
-      <c r="B743" s="9" t="s">
+      <c r="B743" s="14" t="s">
         <v>2403</v>
       </c>
-      <c r="C743" s="9" t="s">
+      <c r="C743" s="14" t="s">
         <v>2404</v>
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="9" t="s">
+      <c r="A744" s="14" t="s">
         <v>2405</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" s="14" t="s">
         <v>2406</v>
       </c>
-      <c r="C744" s="9" t="s">
+      <c r="C744" s="14" t="s">
         <v>2407</v>
       </c>
     </row>
@@ -30196,13 +30214,13 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="14" t="s">
+      <c r="A748" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="B748" s="14" t="s">
+      <c r="B748" s="9" t="s">
         <v>2418</v>
       </c>
-      <c r="C748" s="14" t="s">
+      <c r="C748" s="9" t="s">
         <v>2419</v>
       </c>
     </row>
@@ -30218,13 +30236,13 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="14" t="s">
         <v>2423</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="14" t="s">
         <v>2424</v>
       </c>
-      <c r="C750" s="9" t="s">
+      <c r="C750" s="14" t="s">
         <v>2425</v>
       </c>
     </row>
@@ -30251,24 +30269,24 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="14" t="s">
+      <c r="A753" s="9" t="s">
         <v>2432</v>
       </c>
-      <c r="B753" s="14" t="s">
+      <c r="B753" s="9" t="s">
         <v>2433</v>
       </c>
-      <c r="C753" s="14" t="s">
+      <c r="C753" s="9" t="s">
         <v>2434</v>
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="14" t="s">
+      <c r="A754" s="9" t="s">
         <v>2435</v>
       </c>
-      <c r="B754" s="14" t="s">
+      <c r="B754" s="9" t="s">
         <v>2436</v>
       </c>
-      <c r="C754" s="14" t="s">
+      <c r="C754" s="9" t="s">
         <v>2437</v>
       </c>
     </row>
@@ -30295,24 +30313,24 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="9" t="s">
+      <c r="A757" s="14" t="s">
         <v>2444</v>
       </c>
-      <c r="B757" s="9" t="s">
+      <c r="B757" s="14" t="s">
         <v>2445</v>
       </c>
-      <c r="C757" s="9" t="s">
+      <c r="C757" s="14" t="s">
         <v>2446</v>
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="14" t="s">
         <v>2447</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="14" t="s">
         <v>2448</v>
       </c>
-      <c r="C758" s="9" t="s">
+      <c r="C758" s="14" t="s">
         <v>2449</v>
       </c>
     </row>
@@ -30328,24 +30346,24 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="14" t="s">
+      <c r="A760" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="B760" s="14" t="s">
+      <c r="B760" s="9" t="s">
         <v>2454</v>
       </c>
-      <c r="C760" s="14" t="s">
+      <c r="C760" s="9" t="s">
         <v>2455</v>
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="14" t="s">
+      <c r="A761" s="9" t="s">
         <v>2456</v>
       </c>
-      <c r="B761" s="14" t="s">
+      <c r="B761" s="9" t="s">
         <v>2457</v>
       </c>
-      <c r="C761" s="14" t="s">
+      <c r="C761" s="9" t="s">
         <v>2458</v>
       </c>
     </row>
@@ -30372,10 +30390,10 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="9" t="s">
+      <c r="A764" s="14" t="s">
         <v>2465</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B764" s="14" t="s">
         <v>2466</v>
       </c>
       <c r="C764" s="14" t="s">
@@ -30383,21 +30401,21 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="9" t="s">
+      <c r="A765" s="14" t="s">
         <v>2468</v>
       </c>
-      <c r="B765" s="9" t="s">
+      <c r="B765" s="14" t="s">
         <v>2469</v>
       </c>
-      <c r="C765" s="9" t="s">
+      <c r="C765" s="14" t="s">
         <v>2470</v>
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="14" t="s">
+      <c r="A766" s="9" t="s">
         <v>2471</v>
       </c>
-      <c r="B766" s="14" t="s">
+      <c r="B766" s="9" t="s">
         <v>2472</v>
       </c>
       <c r="C766" s="14" t="s">
@@ -30405,10 +30423,10 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="14" t="s">
+      <c r="A767" s="9" t="s">
         <v>2474</v>
       </c>
-      <c r="B767" s="14" t="s">
+      <c r="B767" s="9" t="s">
         <v>2475</v>
       </c>
       <c r="C767" s="9" t="s">
@@ -30422,7 +30440,7 @@
       <c r="B768" s="14" t="s">
         <v>2478</v>
       </c>
-      <c r="C768" s="9" t="s">
+      <c r="C768" s="14" t="s">
         <v>2479</v>
       </c>
     </row>
@@ -30433,15 +30451,15 @@
       <c r="B769" s="14" t="s">
         <v>2481</v>
       </c>
-      <c r="C769" s="14" t="s">
+      <c r="C769" s="9" t="s">
         <v>2482</v>
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="9" t="s">
+      <c r="A770" s="14" t="s">
         <v>2483</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="14" t="s">
         <v>2484</v>
       </c>
       <c r="C770" s="9" t="s">
@@ -30449,13 +30467,13 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="9" t="s">
+      <c r="A771" s="14" t="s">
         <v>2486</v>
       </c>
       <c r="B771" s="14" t="s">
         <v>2487</v>
       </c>
-      <c r="C771" s="9" t="s">
+      <c r="C771" s="14" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -30474,7 +30492,7 @@
       <c r="A773" s="9" t="s">
         <v>2492</v>
       </c>
-      <c r="B773" s="9" t="s">
+      <c r="B773" s="14" t="s">
         <v>2493</v>
       </c>
       <c r="C773" s="9" t="s">
@@ -30499,26 +30517,26 @@
       <c r="B775" s="9" t="s">
         <v>2499</v>
       </c>
-      <c r="C775" s="14" t="s">
+      <c r="C775" s="9" t="s">
         <v>2500</v>
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="14" t="s">
+      <c r="A776" s="9" t="s">
         <v>2501</v>
       </c>
-      <c r="B776" s="14" t="s">
+      <c r="B776" s="9" t="s">
         <v>2502</v>
       </c>
-      <c r="C776" s="14" t="s">
+      <c r="C776" s="9" t="s">
         <v>2503</v>
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="14" t="s">
+      <c r="A777" s="9" t="s">
         <v>2504</v>
       </c>
-      <c r="B777" s="14" t="s">
+      <c r="B777" s="9" t="s">
         <v>2505</v>
       </c>
       <c r="C777" s="14" t="s">
@@ -30526,13 +30544,13 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="9" t="s">
+      <c r="A778" s="14" t="s">
         <v>2507</v>
       </c>
-      <c r="B778" s="9" t="s">
+      <c r="B778" s="14" t="s">
         <v>2508</v>
       </c>
-      <c r="C778" s="9" t="s">
+      <c r="C778" s="14" t="s">
         <v>2509</v>
       </c>
     </row>
@@ -30554,7 +30572,7 @@
       <c r="B780" s="9" t="s">
         <v>2514</v>
       </c>
-      <c r="C780" s="14" t="s">
+      <c r="C780" s="9" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30565,7 +30583,7 @@
       <c r="B781" s="14" t="s">
         <v>2517</v>
       </c>
-      <c r="C781" s="9" t="s">
+      <c r="C781" s="14" t="s">
         <v>2518</v>
       </c>
     </row>
@@ -30574,29 +30592,29 @@
         <v>2519</v>
       </c>
       <c r="B782" s="9" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C782" s="9" t="s">
         <v>2520</v>
       </c>
+      <c r="C782" s="14" t="s">
+        <v>2521</v>
+      </c>
     </row>
     <row r="783">
-      <c r="A783" s="9" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B783" s="9" t="s">
+      <c r="A783" s="14" t="s">
         <v>2522</v>
       </c>
+      <c r="B783" s="14" t="s">
+        <v>2523</v>
+      </c>
       <c r="C783" s="9" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="9" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>2525</v>
+        <v>2385</v>
       </c>
       <c r="C784" s="9" t="s">
         <v>2526</v>
@@ -30620,29 +30638,29 @@
       <c r="B786" s="9" t="s">
         <v>2531</v>
       </c>
-      <c r="C786" s="14" t="s">
+      <c r="C786" s="9" t="s">
         <v>2532</v>
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="14" t="s">
+      <c r="A787" s="9" t="s">
         <v>2533</v>
       </c>
-      <c r="B787" s="14" t="s">
+      <c r="B787" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="C787" s="14" t="s">
+      <c r="C787" s="9" t="s">
         <v>2535</v>
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="14" t="s">
+      <c r="A788" s="9" t="s">
         <v>2536</v>
       </c>
       <c r="B788" s="9" t="s">
         <v>2537</v>
       </c>
-      <c r="C788" s="9" t="s">
+      <c r="C788" s="14" t="s">
         <v>2538</v>
       </c>
     </row>
@@ -30653,12 +30671,12 @@
       <c r="B789" s="14" t="s">
         <v>2540</v>
       </c>
-      <c r="C789" s="9" t="s">
+      <c r="C789" s="14" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="9" t="s">
+      <c r="A790" s="14" t="s">
         <v>2542</v>
       </c>
       <c r="B790" s="9" t="s">
@@ -30669,13 +30687,13 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="9" t="s">
+      <c r="A791" s="14" t="s">
         <v>2545</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="B791" s="14" t="s">
         <v>2546</v>
       </c>
-      <c r="C791" s="14" t="s">
+      <c r="C791" s="9" t="s">
         <v>2547</v>
       </c>
     </row>
@@ -30691,10 +30709,10 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="14" t="s">
+      <c r="A793" s="9" t="s">
         <v>2551</v>
       </c>
-      <c r="B793" s="14" t="s">
+      <c r="B793" s="9" t="s">
         <v>2552</v>
       </c>
       <c r="C793" s="14" t="s">
@@ -30713,21 +30731,21 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="9" t="s">
+      <c r="A795" s="14" t="s">
         <v>2557</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="14" t="s">
         <v>2558</v>
       </c>
-      <c r="C795" s="9" t="s">
+      <c r="C795" s="14" t="s">
         <v>2559</v>
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="14" t="s">
+      <c r="A796" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="B796" s="14" t="s">
+      <c r="B796" s="9" t="s">
         <v>2561</v>
       </c>
       <c r="C796" s="9" t="s">
@@ -30746,10 +30764,10 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="9" t="s">
+      <c r="A798" s="14" t="s">
         <v>2566</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B798" s="14" t="s">
         <v>2567</v>
       </c>
       <c r="C798" s="9" t="s">
@@ -30779,13 +30797,13 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="14" t="s">
+      <c r="A801" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="B801" s="14" t="s">
+      <c r="B801" s="9" t="s">
         <v>2576</v>
       </c>
-      <c r="C801" s="14" t="s">
+      <c r="C801" s="9" t="s">
         <v>2577</v>
       </c>
     </row>
@@ -30818,7 +30836,7 @@
       <c r="B804" s="9" t="s">
         <v>2585</v>
       </c>
-      <c r="C804" s="14" t="s">
+      <c r="C804" s="9" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -30856,13 +30874,13 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="14" t="s">
+      <c r="A808" s="9" t="s">
         <v>2596</v>
       </c>
-      <c r="B808" s="14" t="s">
+      <c r="B808" s="9" t="s">
         <v>2597</v>
       </c>
-      <c r="C808" s="9" t="s">
+      <c r="C808" s="14" t="s">
         <v>2598</v>
       </c>
     </row>
@@ -30878,10 +30896,10 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="9" t="s">
+      <c r="A810" s="14" t="s">
         <v>2602</v>
       </c>
-      <c r="B810" s="9" t="s">
+      <c r="B810" s="14" t="s">
         <v>2603</v>
       </c>
       <c r="C810" s="9" t="s">
@@ -30900,13 +30918,13 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="14" t="s">
+      <c r="A812" s="9" t="s">
         <v>2608</v>
       </c>
-      <c r="B812" s="14" t="s">
+      <c r="B812" s="9" t="s">
         <v>2609</v>
       </c>
-      <c r="C812" s="14" t="s">
+      <c r="C812" s="9" t="s">
         <v>2610</v>
       </c>
     </row>
@@ -30961,7 +30979,7 @@
       <c r="B817" s="14" t="s">
         <v>2624</v>
       </c>
-      <c r="C817" s="9" t="s">
+      <c r="C817" s="14" t="s">
         <v>2625</v>
       </c>
     </row>
@@ -30969,10 +30987,10 @@
       <c r="A818" s="14" t="s">
         <v>2626</v>
       </c>
-      <c r="B818" s="9" t="s">
+      <c r="B818" s="14" t="s">
         <v>2627</v>
       </c>
-      <c r="C818" s="9" t="s">
+      <c r="C818" s="14" t="s">
         <v>2628</v>
       </c>
     </row>
@@ -30988,21 +31006,21 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="9" t="s">
+      <c r="A820" s="14" t="s">
         <v>2632</v>
       </c>
       <c r="B820" s="9" t="s">
         <v>2633</v>
       </c>
-      <c r="C820" s="14" t="s">
+      <c r="C820" s="9" t="s">
         <v>2634</v>
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="9" t="s">
+      <c r="A821" s="14" t="s">
         <v>2635</v>
       </c>
-      <c r="B821" s="9" t="s">
+      <c r="B821" s="14" t="s">
         <v>2636</v>
       </c>
       <c r="C821" s="9" t="s">
@@ -31010,10 +31028,10 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="14" t="s">
+      <c r="A822" s="9" t="s">
         <v>2638</v>
       </c>
-      <c r="B822" s="14" t="s">
+      <c r="B822" s="9" t="s">
         <v>2639</v>
       </c>
       <c r="C822" s="14" t="s">
@@ -31027,7 +31045,7 @@
       <c r="B823" s="9" t="s">
         <v>2642</v>
       </c>
-      <c r="C823" s="14" t="s">
+      <c r="C823" s="9" t="s">
         <v>2643</v>
       </c>
     </row>
@@ -31038,15 +31056,15 @@
       <c r="B824" s="14" t="s">
         <v>2645</v>
       </c>
-      <c r="C824" s="9" t="s">
+      <c r="C824" s="14" t="s">
         <v>2646</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="14" t="s">
+      <c r="A825" s="9" t="s">
         <v>2647</v>
       </c>
-      <c r="B825" s="14" t="s">
+      <c r="B825" s="9" t="s">
         <v>2648</v>
       </c>
       <c r="C825" s="14" t="s">
@@ -31054,10 +31072,10 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="9" t="s">
+      <c r="A826" s="14" t="s">
         <v>2650</v>
       </c>
-      <c r="B826" s="9" t="s">
+      <c r="B826" s="14" t="s">
         <v>2651</v>
       </c>
       <c r="C826" s="9" t="s">
@@ -31071,7 +31089,7 @@
       <c r="B827" s="14" t="s">
         <v>2654</v>
       </c>
-      <c r="C827" s="9" t="s">
+      <c r="C827" s="14" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -31087,10 +31105,10 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="9" t="s">
+      <c r="A829" s="14" t="s">
         <v>2659</v>
       </c>
-      <c r="B829" s="9" t="s">
+      <c r="B829" s="14" t="s">
         <v>2660</v>
       </c>
       <c r="C829" s="9" t="s">
@@ -31104,7 +31122,7 @@
       <c r="B830" s="9" t="s">
         <v>2663</v>
       </c>
-      <c r="C830" s="14" t="s">
+      <c r="C830" s="9" t="s">
         <v>2664</v>
       </c>
     </row>
@@ -31126,7 +31144,7 @@
       <c r="B832" s="9" t="s">
         <v>2669</v>
       </c>
-      <c r="C832" s="9" t="s">
+      <c r="C832" s="14" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -31137,26 +31155,26 @@
       <c r="B833" s="9" t="s">
         <v>2672</v>
       </c>
-      <c r="C833" s="14" t="s">
+      <c r="C833" s="9" t="s">
         <v>2673</v>
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="14" t="s">
+      <c r="A834" s="9" t="s">
         <v>2674</v>
       </c>
-      <c r="B834" s="14" t="s">
+      <c r="B834" s="9" t="s">
         <v>2675</v>
       </c>
-      <c r="C834" s="14" t="s">
+      <c r="C834" s="9" t="s">
         <v>2676</v>
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="14" t="s">
+      <c r="A835" s="9" t="s">
         <v>2677</v>
       </c>
-      <c r="B835" s="14" t="s">
+      <c r="B835" s="9" t="s">
         <v>2678</v>
       </c>
       <c r="C835" s="14" t="s">
@@ -31168,42 +31186,42 @@
         <v>2680</v>
       </c>
       <c r="B836" s="14" t="s">
-        <v>860</v>
-      </c>
-      <c r="C836" s="9" t="s">
         <v>2681</v>
+      </c>
+      <c r="C836" s="14" t="s">
+        <v>2682</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="14" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B837" s="14" t="s">
-        <v>2683</v>
-      </c>
-      <c r="C837" s="9" t="s">
         <v>2684</v>
+      </c>
+      <c r="C837" s="14" t="s">
+        <v>2685</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="14" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="B838" s="14" t="s">
-        <v>2686</v>
-      </c>
-      <c r="C838" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C838" s="9" t="s">
         <v>2687</v>
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="9" t="s">
+      <c r="A839" s="14" t="s">
         <v>2688</v>
       </c>
-      <c r="B839" s="9" t="s">
+      <c r="B839" s="14" t="s">
         <v>2689</v>
       </c>
-      <c r="C839" s="14" t="s">
+      <c r="C839" s="9" t="s">
         <v>2690</v>
       </c>
     </row>
@@ -31225,15 +31243,15 @@
       <c r="B841" s="9" t="s">
         <v>2695</v>
       </c>
-      <c r="C841" s="9" t="s">
+      <c r="C841" s="14" t="s">
         <v>2696</v>
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="9" t="s">
+      <c r="A842" s="14" t="s">
         <v>2697</v>
       </c>
-      <c r="B842" s="9" t="s">
+      <c r="B842" s="14" t="s">
         <v>2698</v>
       </c>
       <c r="C842" s="14" t="s">
@@ -31258,29 +31276,29 @@
       <c r="B844" s="9" t="s">
         <v>2704</v>
       </c>
-      <c r="C844" s="9" t="s">
+      <c r="C844" s="14" t="s">
         <v>2705</v>
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="14" t="s">
+      <c r="A845" s="9" t="s">
         <v>2706</v>
       </c>
-      <c r="B845" s="14" t="s">
+      <c r="B845" s="9" t="s">
         <v>2707</v>
       </c>
-      <c r="C845" s="14" t="s">
+      <c r="C845" s="9" t="s">
         <v>2708</v>
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="14" t="s">
+      <c r="A846" s="9" t="s">
         <v>2709</v>
       </c>
-      <c r="B846" s="14" t="s">
+      <c r="B846" s="9" t="s">
         <v>2710</v>
       </c>
-      <c r="C846" s="14" t="s">
+      <c r="C846" s="9" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -31318,12 +31336,26 @@
       </c>
     </row>
     <row r="850">
-      <c r="B850" s="24"/>
-      <c r="C850" s="24"/>
+      <c r="A850" s="14" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B850" s="14" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C850" s="14" t="s">
+        <v>2723</v>
+      </c>
     </row>
     <row r="851">
-      <c r="B851" s="24"/>
-      <c r="C851" s="24"/>
+      <c r="A851" s="14" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B851" s="14" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C851" s="14" t="s">
+        <v>2726</v>
+      </c>
     </row>
     <row r="852">
       <c r="B852" s="24"/>
@@ -31930,10 +31962,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$849">
-    <sortState ref="A1:C849">
-      <sortCondition ref="A1:A849"/>
-      <sortCondition ref="B1:B849"/>
+  <autoFilter ref="$A$1:$C$851">
+    <sortState ref="A1:C851">
+      <sortCondition ref="A1:A851"/>
+      <sortCondition ref="B1:B851"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$851</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$853</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="2727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="2733">
   <si>
     <t>Word</t>
   </si>
@@ -3756,6 +3756,15 @@
     <t>лонс</t>
   </si>
   <si>
+    <t>lopelat</t>
+  </si>
+  <si>
+    <t>to circle, to surround, to go around, to loop</t>
+  </si>
+  <si>
+    <t>лопелат</t>
+  </si>
+  <si>
     <t>lorn</t>
   </si>
   <si>
@@ -6238,6 +6247,15 @@
   </si>
   <si>
     <t>шэйнатахилм</t>
+  </si>
+  <si>
+    <t>shlyapa</t>
+  </si>
+  <si>
+    <t>hat, headwear</t>
+  </si>
+  <si>
+    <t>шляпа</t>
   </si>
   <si>
     <t>shtorm</t>
@@ -20432,13 +20450,13 @@
       <c r="X356" s="17"/>
     </row>
     <row r="357">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="C357" s="14" t="s">
         <v>1249</v>
       </c>
       <c r="D357" s="17"/>
@@ -20496,10 +20514,10 @@
       <c r="X358" s="17"/>
     </row>
     <row r="359">
-      <c r="A359" s="19" t="s">
+      <c r="A359" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="B359" s="19" t="s">
+      <c r="B359" s="9" t="s">
         <v>1254</v>
       </c>
       <c r="C359" s="9" t="s">
@@ -20528,10 +20546,10 @@
       <c r="X359" s="17"/>
     </row>
     <row r="360">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="19" t="s">
         <v>1256</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="19" t="s">
         <v>1257</v>
       </c>
       <c r="C360" s="9" t="s">
@@ -20624,10 +20642,10 @@
       <c r="X362" s="17"/>
     </row>
     <row r="363">
-      <c r="A363" s="19" t="s">
+      <c r="A363" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="B363" s="19" t="s">
+      <c r="B363" s="9" t="s">
         <v>1266</v>
       </c>
       <c r="C363" s="9" t="s">
@@ -20656,10 +20674,10 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="19" t="s">
         <v>1268</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="19" t="s">
         <v>1269</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -20688,7 +20706,7 @@
       <c r="X364" s="17"/>
     </row>
     <row r="365">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="14" t="s">
         <v>1271</v>
       </c>
       <c r="B365" s="9" t="s">
@@ -20848,13 +20866,13 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="9" t="s">
         <v>1286</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C370" s="9" t="s">
         <v>1288</v>
       </c>
       <c r="D370" s="17"/>
@@ -20880,13 +20898,13 @@
       <c r="X370" s="17"/>
     </row>
     <row r="371">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="C371" s="9" t="s">
+      <c r="C371" s="14" t="s">
         <v>1291</v>
       </c>
       <c r="D371" s="17"/>
@@ -20944,13 +20962,13 @@
       <c r="X372" s="17"/>
     </row>
     <row r="373">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="9" t="s">
         <v>1297</v>
       </c>
       <c r="D373" s="17"/>
@@ -21008,13 +21026,13 @@
       <c r="X374" s="17"/>
     </row>
     <row r="375">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="14" t="s">
         <v>1301</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="14" t="s">
         <v>1302</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C375" s="14" t="s">
         <v>1303</v>
       </c>
       <c r="D375" s="17"/>
@@ -21200,13 +21218,13 @@
       <c r="X380" s="17"/>
     </row>
     <row r="381">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="C381" s="14" t="s">
+      <c r="C381" s="9" t="s">
         <v>1321</v>
       </c>
       <c r="D381" s="17"/>
@@ -21232,13 +21250,13 @@
       <c r="X381" s="17"/>
     </row>
     <row r="382">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="14" t="s">
         <v>1322</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="14" t="s">
         <v>1323</v>
       </c>
-      <c r="C382" s="9" t="s">
+      <c r="C382" s="14" t="s">
         <v>1324</v>
       </c>
       <c r="D382" s="17"/>
@@ -21296,13 +21314,13 @@
       <c r="X383" s="17"/>
     </row>
     <row r="384">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="C384" s="14" t="s">
+      <c r="C384" s="9" t="s">
         <v>1330</v>
       </c>
       <c r="D384" s="17"/>
@@ -21392,13 +21410,13 @@
       <c r="X386" s="17"/>
     </row>
     <row r="387">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="14" t="s">
         <v>1338</v>
       </c>
-      <c r="C387" s="9" t="s">
+      <c r="C387" s="14" t="s">
         <v>1339</v>
       </c>
       <c r="D387" s="17"/>
@@ -21424,13 +21442,13 @@
       <c r="X387" s="17"/>
     </row>
     <row r="388">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="9" t="s">
         <v>1341</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C388" s="9" t="s">
         <v>1342</v>
       </c>
       <c r="D388" s="17"/>
@@ -21456,13 +21474,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="19" t="s">
+      <c r="A389" s="14" t="s">
         <v>1343</v>
       </c>
-      <c r="B389" s="19" t="s">
+      <c r="B389" s="14" t="s">
         <v>1344</v>
       </c>
-      <c r="C389" s="9" t="s">
+      <c r="C389" s="14" t="s">
         <v>1345</v>
       </c>
       <c r="D389" s="17"/>
@@ -21488,13 +21506,13 @@
       <c r="X389" s="17"/>
     </row>
     <row r="390">
-      <c r="A390" s="14" t="s">
+      <c r="A390" s="19" t="s">
         <v>1346</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="19" t="s">
         <v>1347</v>
       </c>
-      <c r="C390" s="14" t="s">
+      <c r="C390" s="9" t="s">
         <v>1348</v>
       </c>
       <c r="D390" s="17"/>
@@ -21584,13 +21602,13 @@
       <c r="X392" s="17"/>
     </row>
     <row r="393">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="14" t="s">
         <v>1356</v>
       </c>
-      <c r="C393" s="9" t="s">
+      <c r="C393" s="14" t="s">
         <v>1357</v>
       </c>
       <c r="D393" s="17"/>
@@ -21648,13 +21666,13 @@
       <c r="X394" s="17"/>
     </row>
     <row r="395">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="9" t="s">
         <v>1361</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="C395" s="14" t="s">
+      <c r="C395" s="9" t="s">
         <v>1363</v>
       </c>
       <c r="D395" s="17"/>
@@ -21680,13 +21698,13 @@
       <c r="X395" s="17"/>
     </row>
     <row r="396">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="14" t="s">
         <v>1364</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="14" t="s">
         <v>1365</v>
       </c>
-      <c r="C396" s="9" t="s">
+      <c r="C396" s="14" t="s">
         <v>1366</v>
       </c>
       <c r="D396" s="17"/>
@@ -21872,13 +21890,13 @@
       <c r="X401" s="17"/>
     </row>
     <row r="402">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="C402" s="14" t="s">
+      <c r="C402" s="9" t="s">
         <v>1384</v>
       </c>
       <c r="D402" s="17"/>
@@ -21936,13 +21954,13 @@
       <c r="X403" s="17"/>
     </row>
     <row r="404">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="14" t="s">
         <v>1388</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="C404" s="9" t="s">
+      <c r="C404" s="14" t="s">
         <v>1390</v>
       </c>
       <c r="D404" s="17"/>
@@ -22032,13 +22050,13 @@
       <c r="X406" s="17"/>
     </row>
     <row r="407">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>1398</v>
       </c>
-      <c r="C407" s="14" t="s">
+      <c r="C407" s="9" t="s">
         <v>1399</v>
       </c>
       <c r="D407" s="17"/>
@@ -22096,13 +22114,13 @@
       <c r="X408" s="17"/>
     </row>
     <row r="409">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="C409" s="9" t="s">
+      <c r="C409" s="14" t="s">
         <v>1405</v>
       </c>
       <c r="D409" s="17"/>
@@ -22128,13 +22146,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="14" t="s">
+      <c r="A410" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B410" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="C410" s="14" t="s">
+      <c r="C410" s="9" t="s">
         <v>1408</v>
       </c>
       <c r="D410" s="17"/>
@@ -22160,13 +22178,13 @@
       <c r="X410" s="17"/>
     </row>
     <row r="411">
-      <c r="A411" s="9" t="s">
+      <c r="A411" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="14" t="s">
         <v>1410</v>
       </c>
-      <c r="C411" s="9" t="s">
+      <c r="C411" s="14" t="s">
         <v>1411</v>
       </c>
       <c r="D411" s="17"/>
@@ -22288,13 +22306,13 @@
       <c r="X414" s="17"/>
     </row>
     <row r="415">
-      <c r="A415" s="14" t="s">
+      <c r="A415" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="B415" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="C415" s="14" t="s">
+      <c r="C415" s="9" t="s">
         <v>1423</v>
       </c>
       <c r="D415" s="17"/>
@@ -22352,13 +22370,13 @@
       <c r="X416" s="17"/>
     </row>
     <row r="417">
-      <c r="A417" s="9" t="s">
+      <c r="A417" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="14" t="s">
         <v>1428</v>
       </c>
-      <c r="C417" s="9" t="s">
+      <c r="C417" s="14" t="s">
         <v>1429</v>
       </c>
       <c r="D417" s="17"/>
@@ -22448,13 +22466,13 @@
       <c r="X419" s="17"/>
     </row>
     <row r="420">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C420" s="9" t="s">
         <v>1438</v>
       </c>
       <c r="D420" s="17"/>
@@ -22480,13 +22498,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="14" t="s">
         <v>1440</v>
       </c>
-      <c r="C421" s="9" t="s">
+      <c r="C421" s="14" t="s">
         <v>1441</v>
       </c>
       <c r="D421" s="17"/>
@@ -22512,14 +22530,14 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="14" t="s">
+      <c r="A422" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="B422" s="14" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C422" s="14" t="s">
+      <c r="B422" s="9" t="s">
         <v>1443</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>1444</v>
       </c>
       <c r="D422" s="17"/>
       <c r="E422" s="17"/>
@@ -22545,13 +22563,13 @@
     </row>
     <row r="423">
       <c r="A423" s="14" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D423" s="17"/>
       <c r="E423" s="17"/>
@@ -22576,8 +22594,8 @@
       <c r="X423" s="17"/>
     </row>
     <row r="424">
-      <c r="A424" s="9" t="s">
-        <v>1446</v>
+      <c r="A424" s="14" t="s">
+        <v>1447</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>1447</v>
@@ -22608,7 +22626,7 @@
       <c r="X424" s="17"/>
     </row>
     <row r="425">
-      <c r="A425" s="14" t="s">
+      <c r="A425" s="9" t="s">
         <v>1449</v>
       </c>
       <c r="B425" s="14" t="s">
@@ -22672,13 +22690,13 @@
       <c r="X426" s="17"/>
     </row>
     <row r="427">
-      <c r="A427" s="9" t="s">
+      <c r="A427" s="14" t="s">
         <v>1455</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="14" t="s">
         <v>1456</v>
       </c>
-      <c r="C427" s="9" t="s">
+      <c r="C427" s="14" t="s">
         <v>1457</v>
       </c>
       <c r="D427" s="17"/>
@@ -22736,13 +22754,13 @@
       <c r="X428" s="17"/>
     </row>
     <row r="429">
-      <c r="A429" s="14" t="s">
+      <c r="A429" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="B429" s="14" t="s">
+      <c r="B429" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="C429" s="14" t="s">
+      <c r="C429" s="9" t="s">
         <v>1463</v>
       </c>
       <c r="D429" s="17"/>
@@ -22768,13 +22786,13 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="14" t="s">
         <v>1465</v>
       </c>
-      <c r="C430" s="9" t="s">
+      <c r="C430" s="14" t="s">
         <v>1466</v>
       </c>
       <c r="D430" s="17"/>
@@ -22800,13 +22818,13 @@
       <c r="X430" s="17"/>
     </row>
     <row r="431">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="9" t="s">
         <v>1468</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" s="9" t="s">
         <v>1469</v>
       </c>
       <c r="D431" s="17"/>
@@ -22896,13 +22914,13 @@
       <c r="X433" s="17"/>
     </row>
     <row r="434">
-      <c r="A434" s="9" t="s">
+      <c r="A434" s="14" t="s">
         <v>1476</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="C434" s="9" t="s">
+      <c r="C434" s="14" t="s">
         <v>1478</v>
       </c>
       <c r="D434" s="17"/>
@@ -22928,13 +22946,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C435" s="9" t="s">
         <v>1481</v>
       </c>
       <c r="D435" s="17"/>
@@ -22960,13 +22978,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="14" t="s">
         <v>1482</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="C436" s="9" t="s">
+      <c r="C436" s="14" t="s">
         <v>1484</v>
       </c>
       <c r="D436" s="17"/>
@@ -22992,7 +23010,7 @@
       <c r="X436" s="17"/>
     </row>
     <row r="437">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="9" t="s">
         <v>1485</v>
       </c>
       <c r="B437" s="9" t="s">
@@ -23024,7 +23042,7 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="14" t="s">
         <v>1488</v>
       </c>
       <c r="B438" s="9" t="s">
@@ -23056,10 +23074,10 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="19" t="s">
+      <c r="A439" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="B439" s="19" t="s">
+      <c r="B439" s="9" t="s">
         <v>1492</v>
       </c>
       <c r="C439" s="9" t="s">
@@ -23088,10 +23106,10 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="38" t="s">
+      <c r="A440" s="19" t="s">
         <v>1494</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="19" t="s">
         <v>1495</v>
       </c>
       <c r="C440" s="9" t="s">
@@ -23120,7 +23138,7 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="38" t="s">
         <v>1497</v>
       </c>
       <c r="B441" s="9" t="s">
@@ -23152,13 +23170,13 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="C442" s="14" t="s">
+      <c r="C442" s="9" t="s">
         <v>1502</v>
       </c>
       <c r="D442" s="17"/>
@@ -23312,13 +23330,13 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="14" t="s">
         <v>1515</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="14" t="s">
         <v>1516</v>
       </c>
-      <c r="C447" s="9" t="s">
+      <c r="C447" s="14" t="s">
         <v>1517</v>
       </c>
       <c r="D447" s="17"/>
@@ -23408,13 +23426,13 @@
       <c r="X449" s="17"/>
     </row>
     <row r="450">
-      <c r="A450" s="14" t="s">
+      <c r="A450" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="B450" s="14" t="s">
+      <c r="B450" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="C450" s="14" t="s">
+      <c r="C450" s="9" t="s">
         <v>1526</v>
       </c>
       <c r="D450" s="17"/>
@@ -23472,13 +23490,13 @@
       <c r="X451" s="17"/>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="14" t="s">
         <v>1530</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="14" t="s">
         <v>1531</v>
       </c>
-      <c r="C452" s="9" t="s">
+      <c r="C452" s="14" t="s">
         <v>1532</v>
       </c>
       <c r="D452" s="17"/>
@@ -23536,13 +23554,13 @@
       <c r="X453" s="17"/>
     </row>
     <row r="454">
-      <c r="A454" s="14" t="s">
+      <c r="A454" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="C454" s="14" t="s">
+      <c r="C454" s="9" t="s">
         <v>1538</v>
       </c>
       <c r="D454" s="17"/>
@@ -23568,13 +23586,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="14" t="s">
         <v>1540</v>
       </c>
-      <c r="C455" s="9" t="s">
+      <c r="C455" s="14" t="s">
         <v>1541</v>
       </c>
       <c r="D455" s="17"/>
@@ -23600,13 +23618,13 @@
       <c r="X455" s="17"/>
     </row>
     <row r="456">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="C456" s="14" t="s">
+      <c r="C456" s="9" t="s">
         <v>1544</v>
       </c>
       <c r="D456" s="17"/>
@@ -23632,13 +23650,13 @@
       <c r="X456" s="17"/>
     </row>
     <row r="457">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="14" t="s">
         <v>1546</v>
       </c>
-      <c r="C457" s="9" t="s">
+      <c r="C457" s="14" t="s">
         <v>1547</v>
       </c>
       <c r="D457" s="17"/>
@@ -23888,13 +23906,13 @@
       <c r="X464" s="17"/>
     </row>
     <row r="465">
-      <c r="A465" s="14" t="s">
+      <c r="A465" s="9" t="s">
         <v>1569</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="C465" s="14" t="s">
+      <c r="C465" s="9" t="s">
         <v>1571</v>
       </c>
       <c r="D465" s="17"/>
@@ -23952,13 +23970,13 @@
       <c r="X466" s="17"/>
     </row>
     <row r="467">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="14" t="s">
         <v>1575</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="14" t="s">
         <v>1576</v>
       </c>
-      <c r="C467" s="9" t="s">
+      <c r="C467" s="14" t="s">
         <v>1577</v>
       </c>
       <c r="D467" s="17"/>
@@ -23984,13 +24002,13 @@
       <c r="X467" s="17"/>
     </row>
     <row r="468">
-      <c r="A468" s="14" t="s">
+      <c r="A468" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="C468" s="14" t="s">
+      <c r="C468" s="9" t="s">
         <v>1580</v>
       </c>
       <c r="D468" s="17"/>
@@ -24048,13 +24066,13 @@
       <c r="X469" s="17"/>
     </row>
     <row r="470">
-      <c r="A470" s="9" t="s">
+      <c r="A470" s="14" t="s">
         <v>1584</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B470" s="14" t="s">
         <v>1585</v>
       </c>
-      <c r="C470" s="9" t="s">
+      <c r="C470" s="14" t="s">
         <v>1586</v>
       </c>
       <c r="D470" s="17"/>
@@ -24208,13 +24226,13 @@
       <c r="X474" s="17"/>
     </row>
     <row r="475">
-      <c r="A475" s="14" t="s">
+      <c r="A475" s="9" t="s">
         <v>1599</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="9" t="s">
         <v>1600</v>
       </c>
-      <c r="C475" s="14" t="s">
+      <c r="C475" s="9" t="s">
         <v>1601</v>
       </c>
       <c r="D475" s="17"/>
@@ -24368,13 +24386,13 @@
       <c r="X479" s="17"/>
     </row>
     <row r="480">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="14" t="s">
         <v>1614</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="14" t="s">
         <v>1615</v>
       </c>
-      <c r="C480" s="9" t="s">
+      <c r="C480" s="14" t="s">
         <v>1616</v>
       </c>
       <c r="D480" s="17"/>
@@ -24400,13 +24418,13 @@
       <c r="X480" s="17"/>
     </row>
     <row r="481">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="C481" s="14" t="s">
+      <c r="C481" s="9" t="s">
         <v>1619</v>
       </c>
       <c r="D481" s="17"/>
@@ -24464,13 +24482,13 @@
       <c r="X482" s="17"/>
     </row>
     <row r="483">
-      <c r="A483" s="9" t="s">
+      <c r="A483" s="14" t="s">
         <v>1623</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C483" s="14" t="s">
         <v>1625</v>
       </c>
       <c r="D483" s="17"/>
@@ -24496,13 +24514,13 @@
       <c r="X483" s="17"/>
     </row>
     <row r="484">
-      <c r="A484" s="14" t="s">
+      <c r="A484" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="C484" s="14" t="s">
+      <c r="C484" s="9" t="s">
         <v>1628</v>
       </c>
       <c r="D484" s="17"/>
@@ -24528,13 +24546,13 @@
       <c r="X484" s="17"/>
     </row>
     <row r="485">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="14" t="s">
         <v>1629</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="14" t="s">
         <v>1630</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C485" s="14" t="s">
         <v>1631</v>
       </c>
       <c r="D485" s="17"/>
@@ -24560,10 +24578,10 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="19" t="s">
+      <c r="A486" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="B486" s="19" t="s">
+      <c r="B486" s="9" t="s">
         <v>1633</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -24592,10 +24610,10 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="9" t="s">
+      <c r="A487" s="19" t="s">
         <v>1635</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="19" t="s">
         <v>1636</v>
       </c>
       <c r="C487" s="9" t="s">
@@ -24624,13 +24642,13 @@
       <c r="X487" s="17"/>
     </row>
     <row r="488">
-      <c r="A488" s="14" t="s">
+      <c r="A488" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="9" t="s">
         <v>1639</v>
       </c>
-      <c r="C488" s="14" t="s">
+      <c r="C488" s="9" t="s">
         <v>1640</v>
       </c>
       <c r="D488" s="17"/>
@@ -24656,13 +24674,13 @@
       <c r="X488" s="17"/>
     </row>
     <row r="489">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="14" t="s">
         <v>1641</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="14" t="s">
         <v>1642</v>
       </c>
-      <c r="C489" s="9" t="s">
+      <c r="C489" s="14" t="s">
         <v>1643</v>
       </c>
       <c r="D489" s="17"/>
@@ -24720,13 +24738,13 @@
       <c r="X490" s="17"/>
     </row>
     <row r="491">
-      <c r="A491" s="14" t="s">
+      <c r="A491" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="B491" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="C491" s="14" t="s">
+      <c r="C491" s="9" t="s">
         <v>1649</v>
       </c>
       <c r="D491" s="17"/>
@@ -24848,13 +24866,13 @@
       <c r="X494" s="17"/>
     </row>
     <row r="495">
-      <c r="A495" s="9" t="s">
+      <c r="A495" s="14" t="s">
         <v>1659</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="14" t="s">
         <v>1660</v>
       </c>
-      <c r="C495" s="9" t="s">
+      <c r="C495" s="14" t="s">
         <v>1661</v>
       </c>
       <c r="D495" s="17"/>
@@ -24880,13 +24898,13 @@
       <c r="X495" s="17"/>
     </row>
     <row r="496">
-      <c r="A496" s="14" t="s">
+      <c r="A496" s="9" t="s">
         <v>1662</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="C496" s="14" t="s">
+      <c r="C496" s="9" t="s">
         <v>1664</v>
       </c>
       <c r="D496" s="17"/>
@@ -24944,13 +24962,13 @@
       <c r="X497" s="17"/>
     </row>
     <row r="498">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="14" t="s">
         <v>1668</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="14" t="s">
         <v>1669</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C498" s="14" t="s">
         <v>1670</v>
       </c>
       <c r="D498" s="17"/>
@@ -25008,13 +25026,13 @@
       <c r="X499" s="17"/>
     </row>
     <row r="500">
-      <c r="A500" s="14" t="s">
+      <c r="A500" s="9" t="s">
         <v>1674</v>
       </c>
-      <c r="B500" s="14" t="s">
+      <c r="B500" s="9" t="s">
         <v>1675</v>
       </c>
-      <c r="C500" s="14" t="s">
+      <c r="C500" s="9" t="s">
         <v>1676</v>
       </c>
       <c r="D500" s="17"/>
@@ -25040,13 +25058,13 @@
       <c r="X500" s="17"/>
     </row>
     <row r="501">
-      <c r="A501" s="9" t="s">
+      <c r="A501" s="14" t="s">
         <v>1677</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="14" t="s">
         <v>1678</v>
       </c>
-      <c r="C501" s="9" t="s">
+      <c r="C501" s="14" t="s">
         <v>1679</v>
       </c>
       <c r="D501" s="17"/>
@@ -25104,13 +25122,13 @@
       <c r="X502" s="17"/>
     </row>
     <row r="503">
-      <c r="A503" s="14" t="s">
+      <c r="A503" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="B503" s="14" t="s">
+      <c r="B503" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="C503" s="14" t="s">
+      <c r="C503" s="9" t="s">
         <v>1685</v>
       </c>
       <c r="D503" s="17"/>
@@ -25200,13 +25218,13 @@
       <c r="X505" s="17"/>
     </row>
     <row r="506">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="14" t="s">
         <v>1692</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="14" t="s">
         <v>1693</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="14" t="s">
         <v>1694</v>
       </c>
       <c r="D506" s="17"/>
@@ -25235,10 +25253,10 @@
       <c r="A507" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="B507" s="14" t="s">
+      <c r="B507" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="C507" s="14" t="s">
+      <c r="C507" s="9" t="s">
         <v>1697</v>
       </c>
       <c r="D507" s="17"/>
@@ -25264,7 +25282,7 @@
       <c r="X507" s="17"/>
     </row>
     <row r="508">
-      <c r="A508" s="14" t="s">
+      <c r="A508" s="9" t="s">
         <v>1698</v>
       </c>
       <c r="B508" s="14" t="s">
@@ -25488,13 +25506,13 @@
       <c r="X514" s="17"/>
     </row>
     <row r="515">
-      <c r="A515" s="9" t="s">
+      <c r="A515" s="14" t="s">
         <v>1719</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="C515" s="9" t="s">
+      <c r="C515" s="14" t="s">
         <v>1721</v>
       </c>
       <c r="D515" s="17"/>
@@ -25552,13 +25570,13 @@
       <c r="X516" s="17"/>
     </row>
     <row r="517">
-      <c r="A517" s="14" t="s">
+      <c r="A517" s="9" t="s">
         <v>1725</v>
       </c>
-      <c r="B517" s="14" t="s">
+      <c r="B517" s="9" t="s">
         <v>1726</v>
       </c>
-      <c r="C517" s="14" t="s">
+      <c r="C517" s="9" t="s">
         <v>1727</v>
       </c>
       <c r="D517" s="17"/>
@@ -25616,13 +25634,13 @@
       <c r="X518" s="17"/>
     </row>
     <row r="519">
-      <c r="A519" s="9" t="s">
+      <c r="A519" s="14" t="s">
         <v>1731</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="14" t="s">
         <v>1732</v>
       </c>
-      <c r="C519" s="9" t="s">
+      <c r="C519" s="14" t="s">
         <v>1733</v>
       </c>
       <c r="D519" s="17"/>
@@ -25648,13 +25666,13 @@
       <c r="X519" s="17"/>
     </row>
     <row r="520">
-      <c r="A520" s="14" t="s">
+      <c r="A520" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="B520" s="14" t="s">
+      <c r="B520" s="9" t="s">
         <v>1735</v>
       </c>
-      <c r="C520" s="14" t="s">
+      <c r="C520" s="9" t="s">
         <v>1736</v>
       </c>
       <c r="D520" s="17"/>
@@ -25744,13 +25762,13 @@
       <c r="X522" s="17"/>
     </row>
     <row r="523">
-      <c r="A523" s="9" t="s">
+      <c r="A523" s="14" t="s">
         <v>1743</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="14" t="s">
         <v>1744</v>
       </c>
-      <c r="C523" s="9" t="s">
+      <c r="C523" s="14" t="s">
         <v>1745</v>
       </c>
       <c r="D523" s="17"/>
@@ -25776,13 +25794,13 @@
       <c r="X523" s="17"/>
     </row>
     <row r="524">
-      <c r="A524" s="14" t="s">
+      <c r="A524" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="B524" s="14" t="s">
+      <c r="B524" s="9" t="s">
         <v>1747</v>
       </c>
-      <c r="C524" s="14" t="s">
+      <c r="C524" s="9" t="s">
         <v>1748</v>
       </c>
       <c r="D524" s="17"/>
@@ -25808,13 +25826,13 @@
       <c r="X524" s="17"/>
     </row>
     <row r="525">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="14" t="s">
         <v>1749</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="14" t="s">
         <v>1750</v>
       </c>
-      <c r="C525" s="9" t="s">
+      <c r="C525" s="14" t="s">
         <v>1751</v>
       </c>
       <c r="D525" s="17"/>
@@ -25872,13 +25890,13 @@
       <c r="X526" s="17"/>
     </row>
     <row r="527">
-      <c r="A527" s="14" t="s">
+      <c r="A527" s="9" t="s">
         <v>1755</v>
       </c>
-      <c r="B527" s="14" t="s">
+      <c r="B527" s="9" t="s">
         <v>1756</v>
       </c>
-      <c r="C527" s="14" t="s">
+      <c r="C527" s="9" t="s">
         <v>1757</v>
       </c>
       <c r="D527" s="17"/>
@@ -25936,13 +25954,13 @@
       <c r="X528" s="17"/>
     </row>
     <row r="529">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="14" t="s">
         <v>1761</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="14" t="s">
         <v>1762</v>
       </c>
-      <c r="C529" s="9" t="s">
+      <c r="C529" s="14" t="s">
         <v>1763</v>
       </c>
       <c r="D529" s="17"/>
@@ -25968,13 +25986,13 @@
       <c r="X529" s="17"/>
     </row>
     <row r="530">
-      <c r="A530" s="14" t="s">
+      <c r="A530" s="9" t="s">
         <v>1764</v>
       </c>
-      <c r="B530" s="14" t="s">
+      <c r="B530" s="9" t="s">
         <v>1765</v>
       </c>
-      <c r="C530" s="14" t="s">
+      <c r="C530" s="9" t="s">
         <v>1766</v>
       </c>
       <c r="D530" s="17"/>
@@ -26032,13 +26050,13 @@
       <c r="X531" s="17"/>
     </row>
     <row r="532">
-      <c r="A532" s="9" t="s">
+      <c r="A532" s="14" t="s">
         <v>1770</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="14" t="s">
         <v>1771</v>
       </c>
-      <c r="C532" s="9" t="s">
+      <c r="C532" s="14" t="s">
         <v>1772</v>
       </c>
       <c r="D532" s="17"/>
@@ -26096,13 +26114,13 @@
       <c r="X533" s="17"/>
     </row>
     <row r="534">
-      <c r="A534" s="14" t="s">
+      <c r="A534" s="9" t="s">
         <v>1776</v>
       </c>
-      <c r="B534" s="14" t="s">
+      <c r="B534" s="9" t="s">
         <v>1777</v>
       </c>
-      <c r="C534" s="14" t="s">
+      <c r="C534" s="9" t="s">
         <v>1778</v>
       </c>
       <c r="D534" s="17"/>
@@ -26128,13 +26146,13 @@
       <c r="X534" s="17"/>
     </row>
     <row r="535">
-      <c r="A535" s="9" t="s">
+      <c r="A535" s="14" t="s">
         <v>1779</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="C535" s="9" t="s">
+      <c r="C535" s="14" t="s">
         <v>1781</v>
       </c>
       <c r="D535" s="17"/>
@@ -26224,13 +26242,13 @@
       <c r="X537" s="17"/>
     </row>
     <row r="538">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="9" t="s">
         <v>1788</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="9" t="s">
         <v>1789</v>
       </c>
-      <c r="C538" s="14" t="s">
+      <c r="C538" s="9" t="s">
         <v>1790</v>
       </c>
       <c r="D538" s="17"/>
@@ -26384,13 +26402,13 @@
       <c r="X542" s="17"/>
     </row>
     <row r="543">
-      <c r="A543" s="9" t="s">
+      <c r="A543" s="14" t="s">
         <v>1803</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="14" t="s">
         <v>1804</v>
       </c>
-      <c r="C543" s="9" t="s">
+      <c r="C543" s="14" t="s">
         <v>1805</v>
       </c>
       <c r="D543" s="17"/>
@@ -26416,13 +26434,13 @@
       <c r="X543" s="17"/>
     </row>
     <row r="544">
-      <c r="A544" s="14" t="s">
+      <c r="A544" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="B544" s="14" t="s">
+      <c r="B544" s="9" t="s">
         <v>1807</v>
       </c>
-      <c r="C544" s="14" t="s">
+      <c r="C544" s="9" t="s">
         <v>1808</v>
       </c>
       <c r="D544" s="17"/>
@@ -26448,13 +26466,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="9" t="s">
+      <c r="A545" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="14" t="s">
         <v>1810</v>
       </c>
-      <c r="C545" s="9" t="s">
+      <c r="C545" s="14" t="s">
         <v>1811</v>
       </c>
       <c r="D545" s="17"/>
@@ -26480,13 +26498,13 @@
       <c r="X545" s="17"/>
     </row>
     <row r="546">
-      <c r="A546" s="14" t="s">
+      <c r="A546" s="9" t="s">
         <v>1812</v>
       </c>
-      <c r="B546" s="14" t="s">
+      <c r="B546" s="9" t="s">
         <v>1813</v>
       </c>
-      <c r="C546" s="14" t="s">
+      <c r="C546" s="9" t="s">
         <v>1814</v>
       </c>
       <c r="D546" s="17"/>
@@ -26544,13 +26562,13 @@
       <c r="X547" s="17"/>
     </row>
     <row r="548">
-      <c r="A548" s="9" t="s">
+      <c r="A548" s="14" t="s">
         <v>1818</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="14" t="s">
         <v>1819</v>
       </c>
-      <c r="C548" s="9" t="s">
+      <c r="C548" s="14" t="s">
         <v>1820</v>
       </c>
       <c r="D548" s="17"/>
@@ -26576,13 +26594,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="14" t="s">
+      <c r="A549" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="B549" s="14" t="s">
+      <c r="B549" s="9" t="s">
         <v>1822</v>
       </c>
-      <c r="C549" s="14" t="s">
+      <c r="C549" s="9" t="s">
         <v>1823</v>
       </c>
       <c r="D549" s="17"/>
@@ -26896,13 +26914,13 @@
       <c r="X558" s="17"/>
     </row>
     <row r="559">
-      <c r="A559" s="9" t="s">
+      <c r="A559" s="14" t="s">
         <v>1851</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="14" t="s">
         <v>1852</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="14" t="s">
         <v>1853</v>
       </c>
       <c r="D559" s="17"/>
@@ -26928,14 +26946,14 @@
       <c r="X559" s="17"/>
     </row>
     <row r="560">
-      <c r="A560" s="14" t="s">
+      <c r="A560" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="B560" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C560" s="14" t="s">
+      <c r="B560" s="9" t="s">
         <v>1855</v>
+      </c>
+      <c r="C560" s="9" t="s">
+        <v>1856</v>
       </c>
       <c r="D560" s="17"/>
       <c r="E560" s="17"/>
@@ -26961,10 +26979,10 @@
     </row>
     <row r="561">
       <c r="A561" s="14" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>1857</v>
+        <v>20</v>
       </c>
       <c r="C561" s="14" t="s">
         <v>1858</v>
@@ -26992,13 +27010,13 @@
       <c r="X561" s="17"/>
     </row>
     <row r="562">
-      <c r="A562" s="9" t="s">
+      <c r="A562" s="14" t="s">
         <v>1859</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B562" s="14" t="s">
         <v>1860</v>
       </c>
-      <c r="C562" s="9" t="s">
+      <c r="C562" s="14" t="s">
         <v>1861</v>
       </c>
       <c r="D562" s="17"/>
@@ -27056,13 +27074,13 @@
       <c r="X563" s="17"/>
     </row>
     <row r="564">
-      <c r="A564" s="14" t="s">
+      <c r="A564" s="9" t="s">
         <v>1865</v>
       </c>
-      <c r="B564" s="14" t="s">
+      <c r="B564" s="9" t="s">
         <v>1866</v>
       </c>
-      <c r="C564" s="14" t="s">
+      <c r="C564" s="9" t="s">
         <v>1867</v>
       </c>
       <c r="D564" s="17"/>
@@ -27216,13 +27234,13 @@
       <c r="X568" s="17"/>
     </row>
     <row r="569">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="14" t="s">
         <v>1880</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B569" s="14" t="s">
         <v>1881</v>
       </c>
-      <c r="C569" s="9" t="s">
+      <c r="C569" s="14" t="s">
         <v>1882</v>
       </c>
       <c r="D569" s="17"/>
@@ -27248,13 +27266,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="14" t="s">
+      <c r="A570" s="9" t="s">
         <v>1883</v>
       </c>
-      <c r="B570" s="14" t="s">
+      <c r="B570" s="9" t="s">
         <v>1884</v>
       </c>
-      <c r="C570" s="14" t="s">
+      <c r="C570" s="9" t="s">
         <v>1885</v>
       </c>
       <c r="D570" s="17"/>
@@ -27280,13 +27298,13 @@
       <c r="X570" s="17"/>
     </row>
     <row r="571">
-      <c r="A571" s="9" t="s">
+      <c r="A571" s="14" t="s">
         <v>1886</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B571" s="14" t="s">
         <v>1887</v>
       </c>
-      <c r="C571" s="9" t="s">
+      <c r="C571" s="14" t="s">
         <v>1888</v>
       </c>
       <c r="D571" s="17"/>
@@ -27504,13 +27522,13 @@
       <c r="X577" s="17"/>
     </row>
     <row r="578">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="9" t="s">
         <v>1907</v>
       </c>
-      <c r="B578" s="14" t="s">
+      <c r="B578" s="9" t="s">
         <v>1908</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C578" s="9" t="s">
         <v>1909</v>
       </c>
       <c r="D578" s="17"/>
@@ -27632,13 +27650,13 @@
       <c r="X581" s="17"/>
     </row>
     <row r="582">
-      <c r="A582" s="9" t="s">
+      <c r="A582" s="14" t="s">
         <v>1919</v>
       </c>
-      <c r="B582" s="9" t="s">
+      <c r="B582" s="14" t="s">
         <v>1920</v>
       </c>
-      <c r="C582" s="9" t="s">
+      <c r="C582" s="14" t="s">
         <v>1921</v>
       </c>
       <c r="D582" s="17"/>
@@ -27728,13 +27746,13 @@
       <c r="X584" s="17"/>
     </row>
     <row r="585">
-      <c r="A585" s="14" t="s">
+      <c r="A585" s="9" t="s">
         <v>1928</v>
       </c>
-      <c r="B585" s="14" t="s">
+      <c r="B585" s="9" t="s">
         <v>1929</v>
       </c>
-      <c r="C585" s="14" t="s">
+      <c r="C585" s="9" t="s">
         <v>1930</v>
       </c>
       <c r="D585" s="17"/>
@@ -27760,13 +27778,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="14" t="s">
         <v>1931</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="14" t="s">
         <v>1932</v>
       </c>
-      <c r="C586" s="9" t="s">
+      <c r="C586" s="14" t="s">
         <v>1933</v>
       </c>
       <c r="D586" s="17"/>
@@ -27792,13 +27810,13 @@
       <c r="X586" s="17"/>
     </row>
     <row r="587">
-      <c r="A587" s="14" t="s">
+      <c r="A587" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="B587" s="14" t="s">
+      <c r="B587" s="9" t="s">
         <v>1935</v>
       </c>
-      <c r="C587" s="14" t="s">
+      <c r="C587" s="9" t="s">
         <v>1936</v>
       </c>
       <c r="D587" s="17"/>
@@ -27920,13 +27938,13 @@
       <c r="X590" s="17"/>
     </row>
     <row r="591">
-      <c r="A591" s="9" t="s">
+      <c r="A591" s="14" t="s">
         <v>1946</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="14" t="s">
         <v>1947</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="C591" s="14" t="s">
         <v>1948</v>
       </c>
       <c r="D591" s="17"/>
@@ -27952,13 +27970,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="14" t="s">
+      <c r="A592" s="9" t="s">
         <v>1949</v>
       </c>
-      <c r="B592" s="14" t="s">
+      <c r="B592" s="9" t="s">
         <v>1950</v>
       </c>
-      <c r="C592" s="14" t="s">
+      <c r="C592" s="9" t="s">
         <v>1951</v>
       </c>
       <c r="D592" s="17"/>
@@ -27984,13 +28002,13 @@
       <c r="X592" s="17"/>
     </row>
     <row r="593">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="14" t="s">
         <v>1952</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="14" t="s">
         <v>1953</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="14" t="s">
         <v>1954</v>
       </c>
       <c r="D593" s="17"/>
@@ -28080,13 +28098,13 @@
       <c r="X595" s="17"/>
     </row>
     <row r="596">
-      <c r="A596" s="14" t="s">
+      <c r="A596" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="B596" s="14" t="s">
+      <c r="B596" s="9" t="s">
         <v>1962</v>
       </c>
-      <c r="C596" s="14" t="s">
+      <c r="C596" s="9" t="s">
         <v>1963</v>
       </c>
       <c r="D596" s="17"/>
@@ -28112,13 +28130,13 @@
       <c r="X596" s="17"/>
     </row>
     <row r="597">
-      <c r="A597" s="9" t="s">
+      <c r="A597" s="14" t="s">
         <v>1964</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" s="14" t="s">
         <v>1965</v>
       </c>
-      <c r="C597" s="9" t="s">
+      <c r="C597" s="14" t="s">
         <v>1966</v>
       </c>
       <c r="D597" s="17"/>
@@ -28176,13 +28194,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="14" t="s">
+      <c r="A599" s="9" t="s">
         <v>1970</v>
       </c>
-      <c r="B599" s="14" t="s">
+      <c r="B599" s="9" t="s">
         <v>1971</v>
       </c>
-      <c r="C599" s="14" t="s">
+      <c r="C599" s="9" t="s">
         <v>1972</v>
       </c>
       <c r="D599" s="17"/>
@@ -28208,13 +28226,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="9" t="s">
+      <c r="A600" s="14" t="s">
         <v>1973</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="14" t="s">
         <v>1974</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="C600" s="14" t="s">
         <v>1975</v>
       </c>
       <c r="D600" s="17"/>
@@ -28240,13 +28258,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="14" t="s">
+      <c r="A601" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="B601" s="14" t="s">
+      <c r="B601" s="9" t="s">
         <v>1977</v>
       </c>
-      <c r="C601" s="14" t="s">
+      <c r="C601" s="9" t="s">
         <v>1978</v>
       </c>
       <c r="D601" s="17"/>
@@ -28272,13 +28290,13 @@
       <c r="X601" s="17"/>
     </row>
     <row r="602">
-      <c r="A602" s="9" t="s">
+      <c r="A602" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="B602" s="9" t="s">
+      <c r="B602" s="14" t="s">
         <v>1980</v>
       </c>
-      <c r="C602" s="9" t="s">
+      <c r="C602" s="14" t="s">
         <v>1981</v>
       </c>
       <c r="D602" s="17"/>
@@ -28400,13 +28418,13 @@
       <c r="X605" s="17"/>
     </row>
     <row r="606">
-      <c r="A606" s="14" t="s">
+      <c r="A606" s="9" t="s">
         <v>1991</v>
       </c>
-      <c r="B606" s="14" t="s">
+      <c r="B606" s="9" t="s">
         <v>1992</v>
       </c>
-      <c r="C606" s="14" t="s">
+      <c r="C606" s="9" t="s">
         <v>1993</v>
       </c>
       <c r="D606" s="17"/>
@@ -28432,13 +28450,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="9" t="s">
+      <c r="A607" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="14" t="s">
         <v>1995</v>
       </c>
-      <c r="C607" s="9" t="s">
+      <c r="C607" s="14" t="s">
         <v>1996</v>
       </c>
       <c r="D607" s="17"/>
@@ -28464,13 +28482,13 @@
       <c r="X607" s="17"/>
     </row>
     <row r="608">
-      <c r="A608" s="14" t="s">
+      <c r="A608" s="9" t="s">
         <v>1997</v>
       </c>
-      <c r="B608" s="14" t="s">
+      <c r="B608" s="9" t="s">
         <v>1998</v>
       </c>
-      <c r="C608" s="14" t="s">
+      <c r="C608" s="9" t="s">
         <v>1999</v>
       </c>
       <c r="D608" s="17"/>
@@ -28528,13 +28546,13 @@
       <c r="X609" s="17"/>
     </row>
     <row r="610">
-      <c r="A610" s="9" t="s">
+      <c r="A610" s="14" t="s">
         <v>2003</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="14" t="s">
         <v>2004</v>
       </c>
-      <c r="C610" s="9" t="s">
+      <c r="C610" s="14" t="s">
         <v>2005</v>
       </c>
       <c r="D610" s="17"/>
@@ -28656,13 +28674,13 @@
       <c r="X613" s="17"/>
     </row>
     <row r="614">
-      <c r="A614" s="14" t="s">
+      <c r="A614" s="9" t="s">
         <v>2015</v>
       </c>
-      <c r="B614" s="14" t="s">
+      <c r="B614" s="9" t="s">
         <v>2016</v>
       </c>
-      <c r="C614" s="14" t="s">
+      <c r="C614" s="9" t="s">
         <v>2017</v>
       </c>
       <c r="D614" s="17"/>
@@ -28752,13 +28770,13 @@
       <c r="X616" s="17"/>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="s">
+      <c r="A617" s="14" t="s">
         <v>2024</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="14" t="s">
         <v>2025</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="14" t="s">
         <v>2026</v>
       </c>
       <c r="D617" s="17"/>
@@ -28806,24 +28824,24 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="14" t="s">
+      <c r="A620" s="9" t="s">
         <v>2033</v>
       </c>
-      <c r="B620" s="14" t="s">
+      <c r="B620" s="9" t="s">
         <v>2034</v>
       </c>
-      <c r="C620" s="14" t="s">
+      <c r="C620" s="9" t="s">
         <v>2035</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="9" t="s">
+      <c r="A621" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="14" t="s">
         <v>2037</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="14" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -28850,13 +28868,13 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="14" t="s">
+      <c r="A624" s="9" t="s">
         <v>2045</v>
       </c>
-      <c r="B624" s="14" t="s">
+      <c r="B624" s="9" t="s">
         <v>2046</v>
       </c>
-      <c r="C624" s="14" t="s">
+      <c r="C624" s="9" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -28883,13 +28901,13 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="9" t="s">
+      <c r="A627" s="14" t="s">
         <v>2054</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="14" t="s">
         <v>2055</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="C627" s="14" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -28916,13 +28934,13 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="14" t="s">
+      <c r="A630" s="9" t="s">
         <v>2063</v>
       </c>
-      <c r="B630" s="14" t="s">
+      <c r="B630" s="9" t="s">
         <v>2064</v>
       </c>
-      <c r="C630" s="14" t="s">
+      <c r="C630" s="9" t="s">
         <v>2065</v>
       </c>
     </row>
@@ -28982,13 +29000,13 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="9" t="s">
+      <c r="A636" s="14" t="s">
         <v>2081</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="14" t="s">
         <v>2082</v>
       </c>
-      <c r="C636" s="9" t="s">
+      <c r="C636" s="14" t="s">
         <v>2083</v>
       </c>
     </row>
@@ -29004,35 +29022,35 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="14" t="s">
+      <c r="A638" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="B638" s="14" t="s">
+      <c r="B638" s="9" t="s">
         <v>2088</v>
       </c>
-      <c r="C638" s="14" t="s">
+      <c r="C638" s="9" t="s">
         <v>2089</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="9" t="s">
+      <c r="A639" s="14" t="s">
         <v>2090</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="14" t="s">
         <v>2091</v>
       </c>
-      <c r="C639" s="9" t="s">
+      <c r="C639" s="14" t="s">
         <v>2092</v>
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="9" t="s">
+      <c r="A640" s="14" t="s">
         <v>2093</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="14" t="s">
         <v>2094</v>
       </c>
-      <c r="C640" s="9" t="s">
+      <c r="C640" s="14" t="s">
         <v>2095</v>
       </c>
     </row>
@@ -29048,35 +29066,35 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="14" t="s">
+      <c r="A642" s="9" t="s">
         <v>2099</v>
       </c>
-      <c r="B642" s="14" t="s">
+      <c r="B642" s="9" t="s">
         <v>2100</v>
       </c>
-      <c r="C642" s="14" t="s">
+      <c r="C642" s="9" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="14" t="s">
+      <c r="A643" s="9" t="s">
         <v>2102</v>
       </c>
-      <c r="B643" s="14" t="s">
+      <c r="B643" s="9" t="s">
         <v>2103</v>
       </c>
-      <c r="C643" s="14" t="s">
+      <c r="C643" s="9" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="14" t="s">
         <v>2106</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="14" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -29092,35 +29110,35 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="14" t="s">
+      <c r="A646" s="9" t="s">
         <v>2111</v>
       </c>
-      <c r="B646" s="14" t="s">
+      <c r="B646" s="9" t="s">
         <v>2112</v>
       </c>
-      <c r="C646" s="14" t="s">
+      <c r="C646" s="9" t="s">
         <v>2113</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="9" t="s">
+      <c r="A647" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="14" t="s">
         <v>2115</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="14" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="14" t="s">
         <v>2118</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="14" t="s">
         <v>2119</v>
       </c>
     </row>
@@ -29147,13 +29165,13 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="14" t="s">
+      <c r="A651" s="9" t="s">
         <v>2126</v>
       </c>
-      <c r="B651" s="14" t="s">
+      <c r="B651" s="9" t="s">
         <v>2127</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C651" s="9" t="s">
         <v>2128</v>
       </c>
     </row>
@@ -29164,7 +29182,7 @@
       <c r="B652" s="9" t="s">
         <v>2130</v>
       </c>
-      <c r="C652" s="14" t="s">
+      <c r="C652" s="9" t="s">
         <v>2131</v>
       </c>
     </row>
@@ -29180,10 +29198,10 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="14" t="s">
+      <c r="A654" s="9" t="s">
         <v>2135</v>
       </c>
-      <c r="B654" s="14" t="s">
+      <c r="B654" s="9" t="s">
         <v>2136</v>
       </c>
       <c r="C654" s="14" t="s">
@@ -29191,13 +29209,13 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="9" t="s">
+      <c r="A655" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="14" t="s">
         <v>2139</v>
       </c>
-      <c r="C655" s="9" t="s">
+      <c r="C655" s="14" t="s">
         <v>2140</v>
       </c>
     </row>
@@ -29213,13 +29231,13 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="14" t="s">
+      <c r="A657" s="9" t="s">
         <v>2144</v>
       </c>
-      <c r="B657" s="14" t="s">
+      <c r="B657" s="9" t="s">
         <v>2145</v>
       </c>
-      <c r="C657" s="14" t="s">
+      <c r="C657" s="9" t="s">
         <v>2146</v>
       </c>
     </row>
@@ -29235,24 +29253,24 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="9" t="s">
+      <c r="A659" s="14" t="s">
         <v>2150</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="14" t="s">
         <v>2151</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="14" t="s">
         <v>2152</v>
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="9" t="s">
+      <c r="A660" s="14" t="s">
         <v>2153</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="14" t="s">
         <v>2154</v>
       </c>
-      <c r="C660" s="9" t="s">
+      <c r="C660" s="14" t="s">
         <v>2155</v>
       </c>
     </row>
@@ -29290,13 +29308,13 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="19" t="s">
+      <c r="A664" s="9" t="s">
         <v>2165</v>
       </c>
-      <c r="B664" s="19" t="s">
+      <c r="B664" s="9" t="s">
         <v>2166</v>
       </c>
-      <c r="C664" s="10" t="s">
+      <c r="C664" s="9" t="s">
         <v>2167</v>
       </c>
     </row>
@@ -29312,13 +29330,13 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="14" t="s">
+      <c r="A666" s="19" t="s">
         <v>2171</v>
       </c>
-      <c r="B666" s="14" t="s">
+      <c r="B666" s="19" t="s">
         <v>2172</v>
       </c>
-      <c r="C666" s="14" t="s">
+      <c r="C666" s="10" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -29345,13 +29363,13 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="14" t="s">
+      <c r="A669" s="9" t="s">
         <v>2180</v>
       </c>
-      <c r="B669" s="14" t="s">
+      <c r="B669" s="9" t="s">
         <v>2181</v>
       </c>
-      <c r="C669" s="14" t="s">
+      <c r="C669" s="9" t="s">
         <v>2182</v>
       </c>
     </row>
@@ -29367,13 +29385,13 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="9" t="s">
+      <c r="A671" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="14" t="s">
         <v>2187</v>
       </c>
-      <c r="C671" s="9" t="s">
+      <c r="C671" s="14" t="s">
         <v>2188</v>
       </c>
     </row>
@@ -29444,13 +29462,13 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="14" t="s">
         <v>2209</v>
       </c>
     </row>
@@ -29466,24 +29484,24 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="14" t="s">
+      <c r="A680" s="9" t="s">
         <v>2213</v>
       </c>
-      <c r="B680" s="14" t="s">
+      <c r="B680" s="9" t="s">
         <v>2214</v>
       </c>
-      <c r="C680" s="14" t="s">
+      <c r="C680" s="9" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="14" t="s">
+      <c r="A681" s="9" t="s">
         <v>2216</v>
       </c>
-      <c r="B681" s="14" t="s">
+      <c r="B681" s="9" t="s">
         <v>2217</v>
       </c>
-      <c r="C681" s="14" t="s">
+      <c r="C681" s="9" t="s">
         <v>2218</v>
       </c>
     </row>
@@ -29510,24 +29528,24 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="14" t="s">
         <v>2226</v>
       </c>
-      <c r="C684" s="9" t="s">
+      <c r="C684" s="14" t="s">
         <v>2227</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="14" t="s">
         <v>2228</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="14" t="s">
         <v>2229</v>
       </c>
-      <c r="C685" s="9" t="s">
+      <c r="C685" s="14" t="s">
         <v>2230</v>
       </c>
     </row>
@@ -29557,7 +29575,7 @@
       <c r="A688" s="9" t="s">
         <v>2237</v>
       </c>
-      <c r="B688" s="14" t="s">
+      <c r="B688" s="9" t="s">
         <v>2238</v>
       </c>
       <c r="C688" s="9" t="s">
@@ -29565,46 +29583,46 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="14" t="s">
+      <c r="A689" s="9" t="s">
         <v>2240</v>
       </c>
-      <c r="B689" s="14" t="s">
+      <c r="B689" s="9" t="s">
         <v>2241</v>
       </c>
-      <c r="C689" s="14" t="s">
+      <c r="C689" s="9" t="s">
         <v>2242</v>
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="14" t="s">
+      <c r="A690" s="9" t="s">
         <v>2243</v>
       </c>
       <c r="B690" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="C690" s="14" t="s">
+      <c r="C690" s="9" t="s">
         <v>2245</v>
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="9" t="s">
+      <c r="A691" s="14" t="s">
         <v>2246</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="14" t="s">
         <v>2247</v>
       </c>
-      <c r="C691" s="9" t="s">
+      <c r="C691" s="14" t="s">
         <v>2248</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="14" t="s">
         <v>2249</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="C692" s="9" t="s">
+      <c r="C692" s="14" t="s">
         <v>2251</v>
       </c>
     </row>
@@ -29631,10 +29649,10 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="19" t="s">
+      <c r="A695" s="9" t="s">
         <v>2258</v>
       </c>
-      <c r="B695" s="19" t="s">
+      <c r="B695" s="9" t="s">
         <v>2259</v>
       </c>
       <c r="C695" s="9" t="s">
@@ -29653,10 +29671,10 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="9" t="s">
+      <c r="A697" s="19" t="s">
         <v>2264</v>
       </c>
-      <c r="B697" s="9" t="s">
+      <c r="B697" s="19" t="s">
         <v>2265</v>
       </c>
       <c r="C697" s="9" t="s">
@@ -29686,24 +29704,24 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="14" t="s">
+      <c r="A700" s="9" t="s">
         <v>2273</v>
       </c>
-      <c r="B700" s="14" t="s">
+      <c r="B700" s="9" t="s">
         <v>2274</v>
       </c>
-      <c r="C700" s="14" t="s">
+      <c r="C700" s="9" t="s">
         <v>2275</v>
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="14" t="s">
+      <c r="A701" s="9" t="s">
         <v>2276</v>
       </c>
-      <c r="B701" s="14" t="s">
+      <c r="B701" s="9" t="s">
         <v>2277</v>
       </c>
-      <c r="C701" s="14" t="s">
+      <c r="C701" s="9" t="s">
         <v>2278</v>
       </c>
     </row>
@@ -29730,13 +29748,13 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="9" t="s">
+      <c r="A704" s="14" t="s">
         <v>2285</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="14" t="s">
         <v>2286</v>
       </c>
-      <c r="C704" s="9" t="s">
+      <c r="C704" s="14" t="s">
         <v>2287</v>
       </c>
     </row>
@@ -29763,13 +29781,13 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="9" t="s">
+      <c r="A707" s="14" t="s">
         <v>2294</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="14" t="s">
         <v>2295</v>
       </c>
-      <c r="C707" s="9" t="s">
+      <c r="C707" s="14" t="s">
         <v>2296</v>
       </c>
     </row>
@@ -29785,13 +29803,13 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="14" t="s">
+      <c r="A709" s="9" t="s">
         <v>2300</v>
       </c>
-      <c r="B709" s="14" t="s">
+      <c r="B709" s="9" t="s">
         <v>2301</v>
       </c>
-      <c r="C709" s="14" t="s">
+      <c r="C709" s="9" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -29862,35 +29880,35 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="14" t="s">
+      <c r="A716" s="9" t="s">
         <v>2321</v>
       </c>
-      <c r="B716" s="14" t="s">
+      <c r="B716" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="C716" s="14" t="s">
+      <c r="C716" s="9" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="9" t="s">
+      <c r="A717" s="14" t="s">
         <v>2324</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="14" t="s">
         <v>2325</v>
       </c>
-      <c r="C717" s="9" t="s">
+      <c r="C717" s="14" t="s">
         <v>2326</v>
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="9" t="s">
+      <c r="A718" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="14" t="s">
         <v>2328</v>
       </c>
-      <c r="C718" s="9" t="s">
+      <c r="C718" s="14" t="s">
         <v>2329</v>
       </c>
     </row>
@@ -29906,13 +29924,13 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="14" t="s">
+      <c r="A720" s="9" t="s">
         <v>2333</v>
       </c>
-      <c r="B720" s="14" t="s">
+      <c r="B720" s="9" t="s">
         <v>2334</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29939,13 +29957,13 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="14" t="s">
+      <c r="A723" s="9" t="s">
         <v>2342</v>
       </c>
-      <c r="B723" s="14" t="s">
+      <c r="B723" s="9" t="s">
         <v>2343</v>
       </c>
-      <c r="C723" s="14" t="s">
+      <c r="C723" s="9" t="s">
         <v>2344</v>
       </c>
     </row>
@@ -29983,13 +30001,13 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="9" t="s">
+      <c r="A727" s="14" t="s">
         <v>2354</v>
       </c>
-      <c r="B727" s="9" t="s">
+      <c r="B727" s="14" t="s">
         <v>2355</v>
       </c>
-      <c r="C727" s="9" t="s">
+      <c r="C727" s="14" t="s">
         <v>2356</v>
       </c>
     </row>
@@ -30005,35 +30023,35 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="14" t="s">
+      <c r="A729" s="9" t="s">
         <v>2360</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="9" t="s">
         <v>2361</v>
       </c>
-      <c r="C729" s="14" t="s">
+      <c r="C729" s="9" t="s">
         <v>2362</v>
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="9" t="s">
+      <c r="A730" s="14" t="s">
         <v>2363</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="14" t="s">
         <v>2364</v>
       </c>
-      <c r="C730" s="9" t="s">
+      <c r="C730" s="14" t="s">
         <v>2365</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="9" t="s">
+      <c r="A731" s="14" t="s">
         <v>2366</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="14" t="s">
         <v>2367</v>
       </c>
-      <c r="C731" s="9" t="s">
+      <c r="C731" s="14" t="s">
         <v>2368</v>
       </c>
     </row>
@@ -30049,13 +30067,13 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="14" t="s">
+      <c r="A733" s="9" t="s">
         <v>2372</v>
       </c>
-      <c r="B733" s="14" t="s">
+      <c r="B733" s="9" t="s">
         <v>2373</v>
       </c>
-      <c r="C733" s="14" t="s">
+      <c r="C733" s="9" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -30071,13 +30089,13 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="9" t="s">
+      <c r="A735" s="14" t="s">
         <v>2378</v>
       </c>
-      <c r="B735" s="9" t="s">
+      <c r="B735" s="14" t="s">
         <v>2379</v>
       </c>
-      <c r="C735" s="9" t="s">
+      <c r="C735" s="14" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -30093,24 +30111,24 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="14" t="s">
+      <c r="A737" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="B737" s="14" t="s">
+      <c r="B737" s="9" t="s">
         <v>2385</v>
       </c>
-      <c r="C737" s="14" t="s">
+      <c r="C737" s="9" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="14" t="s">
+      <c r="A738" s="9" t="s">
         <v>2387</v>
       </c>
-      <c r="B738" s="14" t="s">
+      <c r="B738" s="9" t="s">
         <v>2388</v>
       </c>
-      <c r="C738" s="14" t="s">
+      <c r="C738" s="9" t="s">
         <v>2389</v>
       </c>
     </row>
@@ -30148,13 +30166,13 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="9" t="s">
+      <c r="A742" s="14" t="s">
         <v>2399</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="14" t="s">
         <v>2400</v>
       </c>
-      <c r="C742" s="9" t="s">
+      <c r="C742" s="14" t="s">
         <v>2401</v>
       </c>
     </row>
@@ -30170,35 +30188,35 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="14" t="s">
+      <c r="A744" s="9" t="s">
         <v>2405</v>
       </c>
-      <c r="B744" s="14" t="s">
+      <c r="B744" s="9" t="s">
         <v>2406</v>
       </c>
-      <c r="C744" s="14" t="s">
+      <c r="C744" s="9" t="s">
         <v>2407</v>
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="9" t="s">
+      <c r="A745" s="14" t="s">
         <v>2408</v>
       </c>
-      <c r="B745" s="9" t="s">
+      <c r="B745" s="14" t="s">
         <v>2409</v>
       </c>
-      <c r="C745" s="9" t="s">
+      <c r="C745" s="14" t="s">
         <v>2410</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2411</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="14" t="s">
         <v>2412</v>
       </c>
-      <c r="C746" s="9" t="s">
+      <c r="C746" s="14" t="s">
         <v>2413</v>
       </c>
     </row>
@@ -30236,13 +30254,13 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="14" t="s">
+      <c r="A750" s="9" t="s">
         <v>2423</v>
       </c>
-      <c r="B750" s="14" t="s">
+      <c r="B750" s="9" t="s">
         <v>2424</v>
       </c>
-      <c r="C750" s="14" t="s">
+      <c r="C750" s="9" t="s">
         <v>2425</v>
       </c>
     </row>
@@ -30258,13 +30276,13 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="9" t="s">
+      <c r="A752" s="14" t="s">
         <v>2429</v>
       </c>
-      <c r="B752" s="9" t="s">
+      <c r="B752" s="14" t="s">
         <v>2430</v>
       </c>
-      <c r="C752" s="9" t="s">
+      <c r="C752" s="14" t="s">
         <v>2431</v>
       </c>
     </row>
@@ -30291,24 +30309,24 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="14" t="s">
+      <c r="A755" s="9" t="s">
         <v>2438</v>
       </c>
-      <c r="B755" s="14" t="s">
+      <c r="B755" s="9" t="s">
         <v>2439</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="14" t="s">
+      <c r="A756" s="9" t="s">
         <v>2441</v>
       </c>
-      <c r="B756" s="14" t="s">
+      <c r="B756" s="9" t="s">
         <v>2442</v>
       </c>
-      <c r="C756" s="14" t="s">
+      <c r="C756" s="9" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -30335,24 +30353,24 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="9" t="s">
+      <c r="A759" s="14" t="s">
         <v>2450</v>
       </c>
-      <c r="B759" s="9" t="s">
+      <c r="B759" s="14" t="s">
         <v>2451</v>
       </c>
-      <c r="C759" s="9" t="s">
+      <c r="C759" s="14" t="s">
         <v>2452</v>
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="9" t="s">
+      <c r="A760" s="14" t="s">
         <v>2453</v>
       </c>
-      <c r="B760" s="9" t="s">
+      <c r="B760" s="14" t="s">
         <v>2454</v>
       </c>
-      <c r="C760" s="9" t="s">
+      <c r="C760" s="14" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -30368,24 +30386,24 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="14" t="s">
+      <c r="A762" s="9" t="s">
         <v>2459</v>
       </c>
-      <c r="B762" s="14" t="s">
+      <c r="B762" s="9" t="s">
         <v>2460</v>
       </c>
-      <c r="C762" s="14" t="s">
+      <c r="C762" s="9" t="s">
         <v>2461</v>
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="14" t="s">
+      <c r="A763" s="9" t="s">
         <v>2462</v>
       </c>
-      <c r="B763" s="14" t="s">
+      <c r="B763" s="9" t="s">
         <v>2463</v>
       </c>
-      <c r="C763" s="14" t="s">
+      <c r="C763" s="9" t="s">
         <v>2464</v>
       </c>
     </row>
@@ -30412,10 +30430,10 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="9" t="s">
+      <c r="A766" s="14" t="s">
         <v>2471</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="14" t="s">
         <v>2472</v>
       </c>
       <c r="C766" s="14" t="s">
@@ -30423,21 +30441,21 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="9" t="s">
+      <c r="A767" s="14" t="s">
         <v>2474</v>
       </c>
-      <c r="B767" s="9" t="s">
+      <c r="B767" s="14" t="s">
         <v>2475</v>
       </c>
-      <c r="C767" s="9" t="s">
+      <c r="C767" s="14" t="s">
         <v>2476</v>
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="14" t="s">
+      <c r="A768" s="9" t="s">
         <v>2477</v>
       </c>
-      <c r="B768" s="14" t="s">
+      <c r="B768" s="9" t="s">
         <v>2478</v>
       </c>
       <c r="C768" s="14" t="s">
@@ -30445,10 +30463,10 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="14" t="s">
+      <c r="A769" s="9" t="s">
         <v>2480</v>
       </c>
-      <c r="B769" s="14" t="s">
+      <c r="B769" s="9" t="s">
         <v>2481</v>
       </c>
       <c r="C769" s="9" t="s">
@@ -30462,7 +30480,7 @@
       <c r="B770" s="14" t="s">
         <v>2484</v>
       </c>
-      <c r="C770" s="9" t="s">
+      <c r="C770" s="14" t="s">
         <v>2485</v>
       </c>
     </row>
@@ -30473,15 +30491,15 @@
       <c r="B771" s="14" t="s">
         <v>2487</v>
       </c>
-      <c r="C771" s="14" t="s">
+      <c r="C771" s="9" t="s">
         <v>2488</v>
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="14" t="s">
         <v>2489</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="14" t="s">
         <v>2490</v>
       </c>
       <c r="C772" s="9" t="s">
@@ -30489,13 +30507,13 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="9" t="s">
+      <c r="A773" s="14" t="s">
         <v>2492</v>
       </c>
       <c r="B773" s="14" t="s">
         <v>2493</v>
       </c>
-      <c r="C773" s="9" t="s">
+      <c r="C773" s="14" t="s">
         <v>2494</v>
       </c>
     </row>
@@ -30514,7 +30532,7 @@
       <c r="A775" s="9" t="s">
         <v>2498</v>
       </c>
-      <c r="B775" s="9" t="s">
+      <c r="B775" s="14" t="s">
         <v>2499</v>
       </c>
       <c r="C775" s="9" t="s">
@@ -30539,26 +30557,26 @@
       <c r="B777" s="9" t="s">
         <v>2505</v>
       </c>
-      <c r="C777" s="14" t="s">
+      <c r="C777" s="9" t="s">
         <v>2506</v>
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="14" t="s">
+      <c r="A778" s="9" t="s">
         <v>2507</v>
       </c>
-      <c r="B778" s="14" t="s">
+      <c r="B778" s="9" t="s">
         <v>2508</v>
       </c>
-      <c r="C778" s="14" t="s">
+      <c r="C778" s="9" t="s">
         <v>2509</v>
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="14" t="s">
+      <c r="A779" s="9" t="s">
         <v>2510</v>
       </c>
-      <c r="B779" s="14" t="s">
+      <c r="B779" s="9" t="s">
         <v>2511</v>
       </c>
       <c r="C779" s="14" t="s">
@@ -30566,13 +30584,13 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="9" t="s">
+      <c r="A780" s="14" t="s">
         <v>2513</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="B780" s="14" t="s">
         <v>2514</v>
       </c>
-      <c r="C780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30594,7 +30612,7 @@
       <c r="B782" s="9" t="s">
         <v>2520</v>
       </c>
-      <c r="C782" s="14" t="s">
+      <c r="C782" s="9" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -30605,7 +30623,7 @@
       <c r="B783" s="14" t="s">
         <v>2523</v>
       </c>
-      <c r="C783" s="9" t="s">
+      <c r="C783" s="14" t="s">
         <v>2524</v>
       </c>
     </row>
@@ -30614,29 +30632,29 @@
         <v>2525</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C784" s="9" t="s">
         <v>2526</v>
       </c>
+      <c r="C784" s="14" t="s">
+        <v>2527</v>
+      </c>
     </row>
     <row r="785">
-      <c r="A785" s="9" t="s">
-        <v>2527</v>
-      </c>
-      <c r="B785" s="9" t="s">
+      <c r="A785" s="14" t="s">
         <v>2528</v>
       </c>
+      <c r="B785" s="14" t="s">
+        <v>2529</v>
+      </c>
       <c r="C785" s="9" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="9" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>2531</v>
+        <v>2391</v>
       </c>
       <c r="C786" s="9" t="s">
         <v>2532</v>
@@ -30660,29 +30678,29 @@
       <c r="B788" s="9" t="s">
         <v>2537</v>
       </c>
-      <c r="C788" s="14" t="s">
+      <c r="C788" s="9" t="s">
         <v>2538</v>
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="14" t="s">
+      <c r="A789" s="9" t="s">
         <v>2539</v>
       </c>
-      <c r="B789" s="14" t="s">
+      <c r="B789" s="9" t="s">
         <v>2540</v>
       </c>
-      <c r="C789" s="14" t="s">
+      <c r="C789" s="9" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="14" t="s">
+      <c r="A790" s="9" t="s">
         <v>2542</v>
       </c>
       <c r="B790" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="C790" s="9" t="s">
+      <c r="C790" s="14" t="s">
         <v>2544</v>
       </c>
     </row>
@@ -30693,12 +30711,12 @@
       <c r="B791" s="14" t="s">
         <v>2546</v>
       </c>
-      <c r="C791" s="9" t="s">
+      <c r="C791" s="14" t="s">
         <v>2547</v>
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="9" t="s">
+      <c r="A792" s="14" t="s">
         <v>2548</v>
       </c>
       <c r="B792" s="9" t="s">
@@ -30709,13 +30727,13 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="9" t="s">
+      <c r="A793" s="14" t="s">
         <v>2551</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B793" s="14" t="s">
         <v>2552</v>
       </c>
-      <c r="C793" s="14" t="s">
+      <c r="C793" s="9" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -30731,10 +30749,10 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="14" t="s">
+      <c r="A795" s="9" t="s">
         <v>2557</v>
       </c>
-      <c r="B795" s="14" t="s">
+      <c r="B795" s="9" t="s">
         <v>2558</v>
       </c>
       <c r="C795" s="14" t="s">
@@ -30753,21 +30771,21 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="9" t="s">
+      <c r="A797" s="14" t="s">
         <v>2563</v>
       </c>
-      <c r="B797" s="9" t="s">
+      <c r="B797" s="14" t="s">
         <v>2564</v>
       </c>
-      <c r="C797" s="9" t="s">
+      <c r="C797" s="14" t="s">
         <v>2565</v>
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="14" t="s">
+      <c r="A798" s="9" t="s">
         <v>2566</v>
       </c>
-      <c r="B798" s="14" t="s">
+      <c r="B798" s="9" t="s">
         <v>2567</v>
       </c>
       <c r="C798" s="9" t="s">
@@ -30786,10 +30804,10 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="9" t="s">
+      <c r="A800" s="14" t="s">
         <v>2572</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="14" t="s">
         <v>2573</v>
       </c>
       <c r="C800" s="9" t="s">
@@ -30819,13 +30837,13 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="14" t="s">
+      <c r="A803" s="9" t="s">
         <v>2581</v>
       </c>
-      <c r="B803" s="14" t="s">
+      <c r="B803" s="9" t="s">
         <v>2582</v>
       </c>
-      <c r="C803" s="14" t="s">
+      <c r="C803" s="9" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -30858,7 +30876,7 @@
       <c r="B806" s="9" t="s">
         <v>2591</v>
       </c>
-      <c r="C806" s="14" t="s">
+      <c r="C806" s="9" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -30896,13 +30914,13 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="14" t="s">
+      <c r="A810" s="9" t="s">
         <v>2602</v>
       </c>
-      <c r="B810" s="14" t="s">
+      <c r="B810" s="9" t="s">
         <v>2603</v>
       </c>
-      <c r="C810" s="9" t="s">
+      <c r="C810" s="14" t="s">
         <v>2604</v>
       </c>
     </row>
@@ -30918,10 +30936,10 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="9" t="s">
+      <c r="A812" s="14" t="s">
         <v>2608</v>
       </c>
-      <c r="B812" s="9" t="s">
+      <c r="B812" s="14" t="s">
         <v>2609</v>
       </c>
       <c r="C812" s="9" t="s">
@@ -30940,13 +30958,13 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="14" t="s">
+      <c r="A814" s="9" t="s">
         <v>2614</v>
       </c>
-      <c r="B814" s="14" t="s">
+      <c r="B814" s="9" t="s">
         <v>2615</v>
       </c>
-      <c r="C814" s="14" t="s">
+      <c r="C814" s="9" t="s">
         <v>2616</v>
       </c>
     </row>
@@ -31001,7 +31019,7 @@
       <c r="B819" s="14" t="s">
         <v>2630</v>
       </c>
-      <c r="C819" s="9" t="s">
+      <c r="C819" s="14" t="s">
         <v>2631</v>
       </c>
     </row>
@@ -31009,10 +31027,10 @@
       <c r="A820" s="14" t="s">
         <v>2632</v>
       </c>
-      <c r="B820" s="9" t="s">
+      <c r="B820" s="14" t="s">
         <v>2633</v>
       </c>
-      <c r="C820" s="9" t="s">
+      <c r="C820" s="14" t="s">
         <v>2634</v>
       </c>
     </row>
@@ -31028,21 +31046,21 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="9" t="s">
+      <c r="A822" s="14" t="s">
         <v>2638</v>
       </c>
       <c r="B822" s="9" t="s">
         <v>2639</v>
       </c>
-      <c r="C822" s="14" t="s">
+      <c r="C822" s="9" t="s">
         <v>2640</v>
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="9" t="s">
+      <c r="A823" s="14" t="s">
         <v>2641</v>
       </c>
-      <c r="B823" s="9" t="s">
+      <c r="B823" s="14" t="s">
         <v>2642</v>
       </c>
       <c r="C823" s="9" t="s">
@@ -31050,10 +31068,10 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="14" t="s">
+      <c r="A824" s="9" t="s">
         <v>2644</v>
       </c>
-      <c r="B824" s="14" t="s">
+      <c r="B824" s="9" t="s">
         <v>2645</v>
       </c>
       <c r="C824" s="14" t="s">
@@ -31067,7 +31085,7 @@
       <c r="B825" s="9" t="s">
         <v>2648</v>
       </c>
-      <c r="C825" s="14" t="s">
+      <c r="C825" s="9" t="s">
         <v>2649</v>
       </c>
     </row>
@@ -31078,15 +31096,15 @@
       <c r="B826" s="14" t="s">
         <v>2651</v>
       </c>
-      <c r="C826" s="9" t="s">
+      <c r="C826" s="14" t="s">
         <v>2652</v>
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="14" t="s">
+      <c r="A827" s="9" t="s">
         <v>2653</v>
       </c>
-      <c r="B827" s="14" t="s">
+      <c r="B827" s="9" t="s">
         <v>2654</v>
       </c>
       <c r="C827" s="14" t="s">
@@ -31094,10 +31112,10 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="9" t="s">
+      <c r="A828" s="14" t="s">
         <v>2656</v>
       </c>
-      <c r="B828" s="9" t="s">
+      <c r="B828" s="14" t="s">
         <v>2657</v>
       </c>
       <c r="C828" s="9" t="s">
@@ -31111,7 +31129,7 @@
       <c r="B829" s="14" t="s">
         <v>2660</v>
       </c>
-      <c r="C829" s="9" t="s">
+      <c r="C829" s="14" t="s">
         <v>2661</v>
       </c>
     </row>
@@ -31127,10 +31145,10 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="9" t="s">
+      <c r="A831" s="14" t="s">
         <v>2665</v>
       </c>
-      <c r="B831" s="9" t="s">
+      <c r="B831" s="14" t="s">
         <v>2666</v>
       </c>
       <c r="C831" s="9" t="s">
@@ -31144,7 +31162,7 @@
       <c r="B832" s="9" t="s">
         <v>2669</v>
       </c>
-      <c r="C832" s="14" t="s">
+      <c r="C832" s="9" t="s">
         <v>2670</v>
       </c>
     </row>
@@ -31166,7 +31184,7 @@
       <c r="B834" s="9" t="s">
         <v>2675</v>
       </c>
-      <c r="C834" s="9" t="s">
+      <c r="C834" s="14" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -31177,26 +31195,26 @@
       <c r="B835" s="9" t="s">
         <v>2678</v>
       </c>
-      <c r="C835" s="14" t="s">
+      <c r="C835" s="9" t="s">
         <v>2679</v>
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="14" t="s">
+      <c r="A836" s="9" t="s">
         <v>2680</v>
       </c>
-      <c r="B836" s="14" t="s">
+      <c r="B836" s="9" t="s">
         <v>2681</v>
       </c>
-      <c r="C836" s="14" t="s">
+      <c r="C836" s="9" t="s">
         <v>2682</v>
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="14" t="s">
+      <c r="A837" s="9" t="s">
         <v>2683</v>
       </c>
-      <c r="B837" s="14" t="s">
+      <c r="B837" s="9" t="s">
         <v>2684</v>
       </c>
       <c r="C837" s="14" t="s">
@@ -31208,42 +31226,42 @@
         <v>2686</v>
       </c>
       <c r="B838" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C838" s="9" t="s">
         <v>2687</v>
+      </c>
+      <c r="C838" s="14" t="s">
+        <v>2688</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="14" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="B839" s="14" t="s">
-        <v>2689</v>
-      </c>
-      <c r="C839" s="9" t="s">
         <v>2690</v>
+      </c>
+      <c r="C839" s="14" t="s">
+        <v>2691</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="14" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B840" s="14" t="s">
-        <v>2692</v>
-      </c>
-      <c r="C840" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C840" s="9" t="s">
         <v>2693</v>
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="9" t="s">
+      <c r="A841" s="14" t="s">
         <v>2694</v>
       </c>
-      <c r="B841" s="9" t="s">
+      <c r="B841" s="14" t="s">
         <v>2695</v>
       </c>
-      <c r="C841" s="14" t="s">
+      <c r="C841" s="9" t="s">
         <v>2696</v>
       </c>
     </row>
@@ -31265,15 +31283,15 @@
       <c r="B843" s="9" t="s">
         <v>2701</v>
       </c>
-      <c r="C843" s="9" t="s">
+      <c r="C843" s="14" t="s">
         <v>2702</v>
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="9" t="s">
+      <c r="A844" s="14" t="s">
         <v>2703</v>
       </c>
-      <c r="B844" s="9" t="s">
+      <c r="B844" s="14" t="s">
         <v>2704</v>
       </c>
       <c r="C844" s="14" t="s">
@@ -31298,29 +31316,29 @@
       <c r="B846" s="9" t="s">
         <v>2710</v>
       </c>
-      <c r="C846" s="9" t="s">
+      <c r="C846" s="14" t="s">
         <v>2711</v>
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="14" t="s">
+      <c r="A847" s="9" t="s">
         <v>2712</v>
       </c>
-      <c r="B847" s="14" t="s">
+      <c r="B847" s="9" t="s">
         <v>2713</v>
       </c>
-      <c r="C847" s="14" t="s">
+      <c r="C847" s="9" t="s">
         <v>2714</v>
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="14" t="s">
+      <c r="A848" s="9" t="s">
         <v>2715</v>
       </c>
-      <c r="B848" s="14" t="s">
+      <c r="B848" s="9" t="s">
         <v>2716</v>
       </c>
-      <c r="C848" s="14" t="s">
+      <c r="C848" s="9" t="s">
         <v>2717</v>
       </c>
     </row>
@@ -31358,12 +31376,26 @@
       </c>
     </row>
     <row r="852">
-      <c r="B852" s="24"/>
-      <c r="C852" s="24"/>
+      <c r="A852" s="14" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B852" s="14" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C852" s="14" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="853">
-      <c r="B853" s="24"/>
-      <c r="C853" s="24"/>
+      <c r="A853" s="14" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B853" s="14" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C853" s="14" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="854">
       <c r="B854" s="24"/>
@@ -31962,10 +31994,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$851">
-    <sortState ref="A1:C851">
-      <sortCondition ref="A1:A851"/>
-      <sortCondition ref="B1:B851"/>
+  <autoFilter ref="$A$1:$C$853">
+    <sortState ref="A1:C853">
+      <sortCondition ref="A1:A853"/>
+      <sortCondition ref="B1:B853"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$853</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$856</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="2733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="2742">
   <si>
     <t>Word</t>
   </si>
@@ -1251,6 +1251,15 @@
     <t>чэсэвй</t>
   </si>
   <si>
+    <t>chevakat</t>
+  </si>
+  <si>
+    <t>to cleave, to sever, to cut, to chop</t>
+  </si>
+  <si>
+    <t>чэвакат</t>
+  </si>
+  <si>
     <t>chkatoniy</t>
   </si>
   <si>
@@ -6447,6 +6456,15 @@
     <t>слйкят</t>
   </si>
   <si>
+    <t>slyenyat</t>
+  </si>
+  <si>
+    <t>to cut, to slice, to slit</t>
+  </si>
+  <si>
+    <t>сленкат</t>
+  </si>
+  <si>
     <t>smiyat</t>
   </si>
   <si>
@@ -8140,6 +8158,15 @@
   </si>
   <si>
     <t>злобра</t>
+  </si>
+  <si>
+    <t>zlomat</t>
+  </si>
+  <si>
+    <t>to slash, to cut, to hew</t>
+  </si>
+  <si>
+    <t>зломат</t>
   </si>
   <si>
     <t>zlyamkiya</t>
@@ -11618,13 +11645,13 @@
       <c r="X80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="14" t="s">
         <v>423</v>
       </c>
       <c r="D81" s="17"/>
@@ -11650,13 +11677,13 @@
       <c r="X81" s="17"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="9" t="s">
         <v>426</v>
       </c>
       <c r="D82" s="17"/>
@@ -11714,13 +11741,13 @@
       <c r="X83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="14" t="s">
         <v>432</v>
       </c>
       <c r="D84" s="17"/>
@@ -11746,13 +11773,13 @@
       <c r="X84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="9" t="s">
         <v>435</v>
       </c>
       <c r="D85" s="17"/>
@@ -11842,13 +11869,13 @@
       <c r="X87" s="17"/>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="14" t="s">
         <v>444</v>
       </c>
       <c r="D88" s="17"/>
@@ -11970,13 +11997,13 @@
       <c r="X91" s="17"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="9" t="s">
         <v>456</v>
       </c>
       <c r="D92" s="17"/>
@@ -12002,13 +12029,13 @@
       <c r="X92" s="17"/>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="14" t="s">
         <v>459</v>
       </c>
       <c r="D93" s="17"/>
@@ -12034,13 +12061,13 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="9" t="s">
         <v>462</v>
       </c>
       <c r="D94" s="17"/>
@@ -12066,13 +12093,13 @@
       <c r="X94" s="17"/>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="14" t="s">
         <v>465</v>
       </c>
       <c r="D95" s="17"/>
@@ -12098,13 +12125,13 @@
       <c r="X95" s="17"/>
     </row>
     <row r="96">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="9" t="s">
         <v>468</v>
       </c>
       <c r="D96" s="17"/>
@@ -12162,13 +12189,13 @@
       <c r="X97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="14" t="s">
         <v>474</v>
       </c>
       <c r="D98" s="17"/>
@@ -12194,13 +12221,13 @@
       <c r="X98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="9" t="s">
         <v>477</v>
       </c>
       <c r="D99" s="17"/>
@@ -12226,13 +12253,13 @@
       <c r="X99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="14" t="s">
         <v>480</v>
       </c>
       <c r="D100" s="17"/>
@@ -12322,13 +12349,13 @@
       <c r="X102" s="17"/>
     </row>
     <row r="103">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="9" t="s">
         <v>489</v>
       </c>
       <c r="D103" s="17"/>
@@ -12418,13 +12445,13 @@
       <c r="X105" s="17"/>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="14" t="s">
         <v>498</v>
       </c>
       <c r="D106" s="17"/>
@@ -12482,13 +12509,13 @@
       <c r="X107" s="17"/>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="9" t="s">
         <v>504</v>
       </c>
       <c r="D108" s="17"/>
@@ -12578,13 +12605,13 @@
       <c r="X110" s="17"/>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="14" t="s">
         <v>513</v>
       </c>
       <c r="D111" s="17"/>
@@ -12738,13 +12765,13 @@
       <c r="X115" s="17"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="9" t="s">
         <v>528</v>
       </c>
       <c r="D116" s="17"/>
@@ -12834,13 +12861,13 @@
       <c r="X118" s="17"/>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="14" t="s">
         <v>537</v>
       </c>
       <c r="D119" s="17"/>
@@ -12898,13 +12925,13 @@
       <c r="X120" s="17"/>
     </row>
     <row r="121">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="9" t="s">
         <v>543</v>
       </c>
       <c r="D121" s="17"/>
@@ -12930,13 +12957,13 @@
       <c r="X121" s="17"/>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="14" t="s">
         <v>546</v>
       </c>
       <c r="D122" s="17"/>
@@ -12962,13 +12989,13 @@
       <c r="X122" s="17"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="9" t="s">
         <v>549</v>
       </c>
       <c r="D123" s="17"/>
@@ -13026,13 +13053,13 @@
       <c r="X124" s="17"/>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="14" t="s">
         <v>555</v>
       </c>
       <c r="D125" s="17"/>
@@ -13122,13 +13149,13 @@
       <c r="X127" s="17"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D128" s="17"/>
@@ -13186,13 +13213,13 @@
       <c r="X129" s="17"/>
     </row>
     <row r="130">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="14" t="s">
         <v>570</v>
       </c>
       <c r="D130" s="17"/>
@@ -13218,13 +13245,13 @@
       <c r="X130" s="17"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="9" t="s">
         <v>573</v>
       </c>
       <c r="D131" s="17"/>
@@ -13282,13 +13309,13 @@
       <c r="X132" s="17"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="14" t="s">
         <v>579</v>
       </c>
       <c r="D133" s="17"/>
@@ -13378,13 +13405,13 @@
       <c r="X135" s="17"/>
     </row>
     <row r="136">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" s="9" t="s">
         <v>588</v>
       </c>
       <c r="D136" s="17"/>
@@ -13410,13 +13437,13 @@
       <c r="X136" s="17"/>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="14" t="s">
         <v>591</v>
       </c>
       <c r="D137" s="17"/>
@@ -13442,13 +13469,13 @@
       <c r="X137" s="17"/>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="9" t="s">
         <v>594</v>
       </c>
       <c r="D138" s="17"/>
@@ -13474,13 +13501,13 @@
       <c r="X138" s="17"/>
     </row>
     <row r="139">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="14" t="s">
         <v>597</v>
       </c>
       <c r="D139" s="17"/>
@@ -13538,13 +13565,13 @@
       <c r="X140" s="17"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="9" t="s">
         <v>603</v>
       </c>
       <c r="D141" s="17"/>
@@ -13570,13 +13597,13 @@
       <c r="X141" s="17"/>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="14" t="s">
         <v>606</v>
       </c>
       <c r="D142" s="17"/>
@@ -13602,13 +13629,13 @@
       <c r="X142" s="17"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="9" t="s">
         <v>609</v>
       </c>
       <c r="D143" s="17"/>
@@ -13730,13 +13757,13 @@
       <c r="X146" s="17"/>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="14" t="s">
         <v>621</v>
       </c>
       <c r="D147" s="17"/>
@@ -13794,13 +13821,13 @@
       <c r="X148" s="17"/>
     </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="9" t="s">
         <v>627</v>
       </c>
       <c r="D149" s="17"/>
@@ -13858,13 +13885,13 @@
       <c r="X150" s="17"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="14" t="s">
         <v>633</v>
       </c>
       <c r="D151" s="17"/>
@@ -13986,13 +14013,13 @@
       <c r="X154" s="17"/>
     </row>
     <row r="155">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="9" t="s">
         <v>645</v>
       </c>
       <c r="D155" s="17"/>
@@ -14018,13 +14045,13 @@
       <c r="X155" s="17"/>
     </row>
     <row r="156">
-      <c r="A156" s="36" t="s">
+      <c r="A156" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="14" t="s">
         <v>648</v>
       </c>
       <c r="D156" s="17"/>
@@ -14050,13 +14077,13 @@
       <c r="X156" s="17"/>
     </row>
     <row r="157">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="9" t="s">
         <v>651</v>
       </c>
       <c r="D157" s="17"/>
@@ -14082,13 +14109,13 @@
       <c r="X157" s="17"/>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="14" t="s">
         <v>654</v>
       </c>
       <c r="D158" s="17"/>
@@ -14146,13 +14173,13 @@
       <c r="X159" s="17"/>
     </row>
     <row r="160">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="9" t="s">
         <v>660</v>
       </c>
       <c r="D160" s="17"/>
@@ -14242,13 +14269,13 @@
       <c r="X162" s="17"/>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="14" t="s">
         <v>669</v>
       </c>
       <c r="D163" s="17"/>
@@ -14274,13 +14301,13 @@
       <c r="X163" s="17"/>
     </row>
     <row r="164">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="9" t="s">
         <v>672</v>
       </c>
       <c r="D164" s="17"/>
@@ -14370,13 +14397,13 @@
       <c r="X166" s="17"/>
     </row>
     <row r="167">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="14" t="s">
         <v>681</v>
       </c>
       <c r="D167" s="17"/>
@@ -14402,13 +14429,13 @@
       <c r="X167" s="17"/>
     </row>
     <row r="168">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="9" t="s">
         <v>684</v>
       </c>
       <c r="D168" s="17"/>
@@ -14498,13 +14525,13 @@
       <c r="X170" s="17"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="14" t="s">
         <v>693</v>
       </c>
       <c r="D171" s="17"/>
@@ -14562,13 +14589,13 @@
       <c r="X172" s="17"/>
     </row>
     <row r="173">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="9" t="s">
         <v>699</v>
       </c>
       <c r="D173" s="17"/>
@@ -14594,13 +14621,13 @@
       <c r="X173" s="17"/>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="14" t="s">
         <v>702</v>
       </c>
       <c r="D174" s="17"/>
@@ -14626,13 +14653,13 @@
       <c r="X174" s="17"/>
     </row>
     <row r="175">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C175" s="14" t="s">
+      <c r="C175" s="9" t="s">
         <v>705</v>
       </c>
       <c r="D175" s="17"/>
@@ -14658,13 +14685,13 @@
       <c r="X175" s="17"/>
     </row>
     <row r="176">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="14" t="s">
         <v>708</v>
       </c>
       <c r="D176" s="17"/>
@@ -14690,13 +14717,13 @@
       <c r="X176" s="17"/>
     </row>
     <row r="177">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="C177" s="9" t="s">
         <v>711</v>
       </c>
       <c r="D177" s="17"/>
@@ -14722,13 +14749,13 @@
       <c r="X177" s="17"/>
     </row>
     <row r="178">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="14" t="s">
         <v>714</v>
       </c>
       <c r="D178" s="17"/>
@@ -14818,13 +14845,13 @@
       <c r="X180" s="17"/>
     </row>
     <row r="181">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" s="9" t="s">
         <v>723</v>
       </c>
       <c r="D181" s="17"/>
@@ -14850,13 +14877,13 @@
       <c r="X181" s="17"/>
     </row>
     <row r="182">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="14" t="s">
         <v>726</v>
       </c>
       <c r="D182" s="17"/>
@@ -14882,13 +14909,13 @@
       <c r="X182" s="17"/>
     </row>
     <row r="183">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="9" t="s">
         <v>729</v>
       </c>
       <c r="D183" s="17"/>
@@ -14946,13 +14973,13 @@
       <c r="X184" s="17"/>
     </row>
     <row r="185">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="14" t="s">
         <v>735</v>
       </c>
       <c r="D185" s="17"/>
@@ -14978,13 +15005,13 @@
       <c r="X185" s="17"/>
     </row>
     <row r="186">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C186" s="9" t="s">
         <v>738</v>
       </c>
       <c r="D186" s="17"/>
@@ -15074,13 +15101,13 @@
       <c r="X188" s="17"/>
     </row>
     <row r="189">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="14" t="s">
         <v>747</v>
       </c>
       <c r="D189" s="17"/>
@@ -15106,13 +15133,13 @@
       <c r="X189" s="17"/>
     </row>
     <row r="190">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C190" s="9" t="s">
         <v>750</v>
       </c>
       <c r="D190" s="17"/>
@@ -15234,13 +15261,13 @@
       <c r="X193" s="17"/>
     </row>
     <row r="194">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="14" t="s">
         <v>762</v>
       </c>
       <c r="D194" s="17"/>
@@ -15426,13 +15453,13 @@
       <c r="X199" s="17"/>
     </row>
     <row r="200">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="9" t="s">
         <v>780</v>
       </c>
       <c r="D200" s="17"/>
@@ -15458,13 +15485,13 @@
       <c r="X200" s="17"/>
     </row>
     <row r="201">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="14" t="s">
         <v>783</v>
       </c>
       <c r="D201" s="17"/>
@@ -15490,13 +15517,13 @@
       <c r="X201" s="17"/>
     </row>
     <row r="202">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C202" s="9" t="s">
         <v>786</v>
       </c>
       <c r="D202" s="17"/>
@@ -15522,13 +15549,13 @@
       <c r="X202" s="17"/>
     </row>
     <row r="203">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="14" t="s">
         <v>789</v>
       </c>
       <c r="D203" s="17"/>
@@ -15618,13 +15645,13 @@
       <c r="X205" s="17"/>
     </row>
     <row r="206">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" s="9" t="s">
         <v>798</v>
       </c>
       <c r="D206" s="17"/>
@@ -15650,13 +15677,13 @@
       <c r="X206" s="17"/>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="14" t="s">
         <v>801</v>
       </c>
       <c r="D207" s="17"/>
@@ -15682,13 +15709,13 @@
       <c r="X207" s="17"/>
     </row>
     <row r="208">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C208" s="9" t="s">
         <v>804</v>
       </c>
       <c r="D208" s="17"/>
@@ -15842,13 +15869,13 @@
       <c r="X212" s="17"/>
     </row>
     <row r="213">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="14" t="s">
         <v>819</v>
       </c>
       <c r="D213" s="17"/>
@@ -15906,13 +15933,13 @@
       <c r="X214" s="17"/>
     </row>
     <row r="215">
-      <c r="A215" s="14" t="s">
+      <c r="A215" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C215" s="9" t="s">
         <v>825</v>
       </c>
       <c r="D215" s="17"/>
@@ -15970,13 +15997,13 @@
       <c r="X216" s="17"/>
     </row>
     <row r="217">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="14" t="s">
         <v>831</v>
       </c>
       <c r="D217" s="17"/>
@@ -16002,13 +16029,13 @@
       <c r="X217" s="17"/>
     </row>
     <row r="218">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C218" s="9" t="s">
         <v>834</v>
       </c>
       <c r="D218" s="17"/>
@@ -16037,10 +16064,10 @@
       <c r="A219" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="C219" s="37" t="s">
+      <c r="C219" s="14" t="s">
         <v>837</v>
       </c>
       <c r="D219" s="17"/>
@@ -16069,10 +16096,10 @@
       <c r="A220" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="C220" s="37" t="s">
         <v>840</v>
       </c>
       <c r="D220" s="17"/>
@@ -16194,13 +16221,13 @@
       <c r="X223" s="17"/>
     </row>
     <row r="224">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="14" t="s">
         <v>852</v>
       </c>
       <c r="D224" s="17"/>
@@ -16258,13 +16285,13 @@
       <c r="X225" s="17"/>
     </row>
     <row r="226">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C226" s="9" t="s">
         <v>858</v>
       </c>
       <c r="D226" s="17"/>
@@ -16290,13 +16317,13 @@
       <c r="X226" s="17"/>
     </row>
     <row r="227">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="14" t="s">
         <v>861</v>
       </c>
       <c r="D227" s="17"/>
@@ -16322,13 +16349,13 @@
       <c r="X227" s="17"/>
     </row>
     <row r="228">
-      <c r="A228" s="14" t="s">
+      <c r="A228" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="C228" s="9" t="s">
         <v>864</v>
       </c>
       <c r="D228" s="17"/>
@@ -16354,13 +16381,13 @@
       <c r="X228" s="17"/>
     </row>
     <row r="229">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="14" t="s">
         <v>865</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="14" t="s">
         <v>867</v>
       </c>
       <c r="D229" s="17"/>
@@ -16386,13 +16413,13 @@
       <c r="X229" s="17"/>
     </row>
     <row r="230">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="C230" s="9" t="s">
         <v>870</v>
       </c>
       <c r="D230" s="17"/>
@@ -16418,13 +16445,13 @@
       <c r="X230" s="17"/>
     </row>
     <row r="231">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="14" t="s">
         <v>873</v>
       </c>
       <c r="D231" s="17"/>
@@ -16482,13 +16509,13 @@
       <c r="X232" s="17"/>
     </row>
     <row r="233">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C233" s="9" t="s">
         <v>879</v>
       </c>
       <c r="D233" s="17"/>
@@ -16514,13 +16541,13 @@
       <c r="X233" s="17"/>
     </row>
     <row r="234">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="14" t="s">
         <v>882</v>
       </c>
       <c r="D234" s="17"/>
@@ -16546,13 +16573,13 @@
       <c r="X234" s="17"/>
     </row>
     <row r="235">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="C235" s="9" t="s">
         <v>885</v>
       </c>
       <c r="D235" s="17"/>
@@ -16578,13 +16605,13 @@
       <c r="X235" s="17"/>
     </row>
     <row r="236">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" s="14" t="s">
         <v>888</v>
       </c>
       <c r="D236" s="17"/>
@@ -16610,13 +16637,13 @@
       <c r="X236" s="17"/>
     </row>
     <row r="237">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="9" t="s">
         <v>891</v>
       </c>
       <c r="D237" s="17"/>
@@ -16642,13 +16669,13 @@
       <c r="X237" s="17"/>
     </row>
     <row r="238">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="14" t="s">
         <v>892</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="14" t="s">
         <v>894</v>
       </c>
       <c r="D238" s="17"/>
@@ -16674,13 +16701,13 @@
       <c r="X238" s="17"/>
     </row>
     <row r="239">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="C239" s="9" t="s">
         <v>897</v>
       </c>
       <c r="D239" s="17"/>
@@ -16706,13 +16733,13 @@
       <c r="X239" s="17"/>
     </row>
     <row r="240">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="14" t="s">
         <v>900</v>
       </c>
       <c r="D240" s="17"/>
@@ -16770,13 +16797,13 @@
       <c r="X241" s="17"/>
     </row>
     <row r="242">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C242" s="9" t="s">
         <v>906</v>
       </c>
       <c r="D242" s="17"/>
@@ -16802,13 +16829,13 @@
       <c r="X242" s="17"/>
     </row>
     <row r="243">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="14" t="s">
         <v>909</v>
       </c>
       <c r="D243" s="17"/>
@@ -16866,13 +16893,13 @@
       <c r="X244" s="17"/>
     </row>
     <row r="245">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C245" s="9" t="s">
         <v>915</v>
       </c>
       <c r="D245" s="17"/>
@@ -16898,13 +16925,13 @@
       <c r="X245" s="17"/>
     </row>
     <row r="246">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="14" t="s">
         <v>917</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" s="14" t="s">
         <v>918</v>
       </c>
       <c r="D246" s="17"/>
@@ -17090,13 +17117,13 @@
       <c r="X251" s="17"/>
     </row>
     <row r="252">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C252" s="9" t="s">
         <v>936</v>
       </c>
       <c r="D252" s="17"/>
@@ -17122,13 +17149,13 @@
       <c r="X252" s="17"/>
     </row>
     <row r="253">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="14" t="s">
         <v>939</v>
       </c>
       <c r="D253" s="17"/>
@@ -17218,13 +17245,13 @@
       <c r="X255" s="17"/>
     </row>
     <row r="256">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="C256" s="9" t="s">
         <v>948</v>
       </c>
       <c r="D256" s="17"/>
@@ -17250,13 +17277,13 @@
       <c r="X256" s="17"/>
     </row>
     <row r="257">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" s="14" t="s">
         <v>951</v>
       </c>
       <c r="D257" s="17"/>
@@ -17314,13 +17341,13 @@
       <c r="X258" s="17"/>
     </row>
     <row r="259">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C259" s="9" t="s">
         <v>957</v>
       </c>
       <c r="D259" s="17"/>
@@ -17442,13 +17469,13 @@
       <c r="X262" s="17"/>
     </row>
     <row r="263">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="14" t="s">
         <v>969</v>
       </c>
       <c r="D263" s="17"/>
@@ -17474,13 +17501,13 @@
       <c r="X263" s="17"/>
     </row>
     <row r="264">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C264" s="9" t="s">
         <v>972</v>
       </c>
       <c r="D264" s="17"/>
@@ -17538,13 +17565,13 @@
       <c r="X265" s="17"/>
     </row>
     <row r="266">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="14" t="s">
         <v>976</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="14" t="s">
         <v>977</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="14" t="s">
         <v>978</v>
       </c>
       <c r="D266" s="17"/>
@@ -17570,13 +17597,13 @@
       <c r="X266" s="17"/>
     </row>
     <row r="267">
-      <c r="A267" s="14" t="s">
+      <c r="A267" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C267" s="9" t="s">
         <v>981</v>
       </c>
       <c r="D267" s="17"/>
@@ -17602,13 +17629,13 @@
       <c r="X267" s="17"/>
     </row>
     <row r="268">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="14" t="s">
         <v>983</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="14" t="s">
         <v>984</v>
       </c>
       <c r="D268" s="17"/>
@@ -17634,13 +17661,13 @@
       <c r="X268" s="17"/>
     </row>
     <row r="269">
-      <c r="A269" s="14" t="s">
+      <c r="A269" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C269" s="9" t="s">
         <v>987</v>
       </c>
       <c r="D269" s="17"/>
@@ -17666,13 +17693,13 @@
       <c r="X269" s="17"/>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="14" t="s">
         <v>990</v>
       </c>
       <c r="D270" s="17"/>
@@ -17730,13 +17757,13 @@
       <c r="X271" s="17"/>
     </row>
     <row r="272">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C272" s="9" t="s">
         <v>996</v>
       </c>
       <c r="D272" s="17"/>
@@ -17762,13 +17789,13 @@
       <c r="X272" s="17"/>
     </row>
     <row r="273">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="C273" s="9" t="s">
+      <c r="C273" s="14" t="s">
         <v>999</v>
       </c>
       <c r="D273" s="17"/>
@@ -17794,13 +17821,13 @@
       <c r="X273" s="17"/>
     </row>
     <row r="274">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C274" s="9" t="s">
         <v>1002</v>
       </c>
       <c r="D274" s="17"/>
@@ -17826,13 +17853,13 @@
       <c r="X274" s="17"/>
     </row>
     <row r="275">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="14" t="s">
         <v>1003</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="C275" s="14" t="s">
         <v>1005</v>
       </c>
       <c r="D275" s="17"/>
@@ -17986,10 +18013,10 @@
       <c r="X279" s="17"/>
     </row>
     <row r="280">
-      <c r="A280" s="19" t="s">
+      <c r="A280" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="B280" s="19" t="s">
+      <c r="B280" s="9" t="s">
         <v>1019</v>
       </c>
       <c r="C280" s="9" t="s">
@@ -18018,13 +18045,13 @@
       <c r="X280" s="17"/>
     </row>
     <row r="281">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="C281" s="9" t="s">
         <v>1023</v>
       </c>
       <c r="D281" s="17"/>
@@ -18338,13 +18365,13 @@
       <c r="X290" s="17"/>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C291" s="14" t="s">
         <v>1053</v>
       </c>
       <c r="D291" s="17"/>
@@ -18370,13 +18397,13 @@
       <c r="X291" s="17"/>
     </row>
     <row r="292">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="C292" s="14" t="s">
+      <c r="C292" s="9" t="s">
         <v>1056</v>
       </c>
       <c r="D292" s="17"/>
@@ -18402,13 +18429,13 @@
       <c r="X292" s="17"/>
     </row>
     <row r="293">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C293" s="14" t="s">
         <v>1059</v>
       </c>
       <c r="D293" s="17"/>
@@ -18498,13 +18525,13 @@
       <c r="X295" s="17"/>
     </row>
     <row r="296">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="9" t="s">
         <v>1068</v>
       </c>
       <c r="D296" s="17"/>
@@ -18594,13 +18621,13 @@
       <c r="X298" s="17"/>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="C299" s="9" t="s">
+      <c r="C299" s="14" t="s">
         <v>1077</v>
       </c>
       <c r="D299" s="17"/>
@@ -18722,13 +18749,13 @@
       <c r="X302" s="17"/>
     </row>
     <row r="303">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B303" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C303" s="9" t="s">
         <v>1089</v>
       </c>
       <c r="D303" s="17"/>
@@ -18754,13 +18781,13 @@
       <c r="X303" s="17"/>
     </row>
     <row r="304">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="C304" s="9" t="s">
+      <c r="C304" s="14" t="s">
         <v>1092</v>
       </c>
       <c r="D304" s="17"/>
@@ -18786,10 +18813,10 @@
       <c r="X304" s="17"/>
     </row>
     <row r="305">
-      <c r="A305" s="19" t="s">
+      <c r="A305" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="B305" s="19" t="s">
+      <c r="B305" s="9" t="s">
         <v>1094</v>
       </c>
       <c r="C305" s="9" t="s">
@@ -18818,10 +18845,10 @@
       <c r="X305" s="17"/>
     </row>
     <row r="306">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="19" t="s">
         <v>1096</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="19" t="s">
         <v>1097</v>
       </c>
       <c r="C306" s="9" t="s">
@@ -18850,7 +18877,7 @@
       <c r="X306" s="17"/>
     </row>
     <row r="307">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="14" t="s">
         <v>1099</v>
       </c>
       <c r="B307" s="9" t="s">
@@ -18882,13 +18909,13 @@
       <c r="X307" s="17"/>
     </row>
     <row r="308">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="C308" s="14" t="s">
+      <c r="C308" s="9" t="s">
         <v>1104</v>
       </c>
       <c r="D308" s="17"/>
@@ -18914,13 +18941,13 @@
       <c r="X308" s="17"/>
     </row>
     <row r="309">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="14" t="s">
         <v>1106</v>
       </c>
-      <c r="C309" s="9" t="s">
+      <c r="C309" s="14" t="s">
         <v>1107</v>
       </c>
       <c r="D309" s="17"/>
@@ -18946,13 +18973,13 @@
       <c r="X309" s="17"/>
     </row>
     <row r="310">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="B310" s="14" t="s">
+      <c r="B310" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C310" s="9" t="s">
         <v>1110</v>
       </c>
       <c r="D310" s="17"/>
@@ -19042,13 +19069,13 @@
       <c r="X312" s="17"/>
     </row>
     <row r="313">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="C313" s="9" t="s">
+      <c r="C313" s="14" t="s">
         <v>1119</v>
       </c>
       <c r="D313" s="17"/>
@@ -19106,13 +19133,13 @@
       <c r="X314" s="17"/>
     </row>
     <row r="315">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C315" s="9" t="s">
         <v>1125</v>
       </c>
       <c r="D315" s="17"/>
@@ -19138,13 +19165,13 @@
       <c r="X315" s="17"/>
     </row>
     <row r="316">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="C316" s="9" t="s">
+      <c r="C316" s="14" t="s">
         <v>1128</v>
       </c>
       <c r="D316" s="17"/>
@@ -19170,10 +19197,10 @@
       <c r="X316" s="17"/>
     </row>
     <row r="317">
-      <c r="A317" s="19" t="s">
+      <c r="A317" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="B317" s="19" t="s">
+      <c r="B317" s="9" t="s">
         <v>1130</v>
       </c>
       <c r="C317" s="9" t="s">
@@ -19202,14 +19229,14 @@
       <c r="X317" s="17"/>
     </row>
     <row r="318">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="19" t="s">
         <v>1132</v>
       </c>
-      <c r="B318" s="14" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C318" s="14" t="s">
+      <c r="B318" s="19" t="s">
         <v>1133</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>1134</v>
       </c>
       <c r="D318" s="17"/>
       <c r="E318" s="17"/>
@@ -19235,7 +19262,7 @@
     </row>
     <row r="319">
       <c r="A319" s="14" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B319" s="14" t="s">
         <v>1135</v>
@@ -19266,13 +19293,13 @@
       <c r="X319" s="17"/>
     </row>
     <row r="320">
-      <c r="A320" s="19" t="s">
+      <c r="A320" s="14" t="s">
         <v>1137</v>
       </c>
-      <c r="B320" s="19" t="s">
+      <c r="B320" s="14" t="s">
         <v>1138</v>
       </c>
-      <c r="C320" s="9" t="s">
+      <c r="C320" s="14" t="s">
         <v>1139</v>
       </c>
       <c r="D320" s="17"/>
@@ -19298,10 +19325,10 @@
       <c r="X320" s="17"/>
     </row>
     <row r="321">
-      <c r="A321" s="9" t="s">
+      <c r="A321" s="19" t="s">
         <v>1140</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="19" t="s">
         <v>1141</v>
       </c>
       <c r="C321" s="9" t="s">
@@ -19330,13 +19357,13 @@
       <c r="X321" s="17"/>
     </row>
     <row r="322">
-      <c r="A322" s="14" t="s">
+      <c r="A322" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="B322" s="14" t="s">
+      <c r="B322" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="C322" s="14" t="s">
+      <c r="C322" s="9" t="s">
         <v>1145</v>
       </c>
       <c r="D322" s="17"/>
@@ -19426,13 +19453,13 @@
       <c r="X324" s="17"/>
     </row>
     <row r="325">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="14" t="s">
         <v>1152</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="C325" s="14" t="s">
         <v>1154</v>
       </c>
       <c r="D325" s="17"/>
@@ -19490,13 +19517,13 @@
       <c r="X326" s="17"/>
     </row>
     <row r="327">
-      <c r="A327" s="14" t="s">
+      <c r="A327" s="9" t="s">
         <v>1158</v>
       </c>
-      <c r="B327" s="14" t="s">
+      <c r="B327" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="C327" s="9" t="s">
         <v>1160</v>
       </c>
       <c r="D327" s="17"/>
@@ -19554,13 +19581,13 @@
       <c r="X328" s="17"/>
     </row>
     <row r="329">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="14" t="s">
         <v>1165</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="14" t="s">
         <v>1166</v>
       </c>
       <c r="D329" s="17"/>
@@ -19586,13 +19613,13 @@
       <c r="X329" s="17"/>
     </row>
     <row r="330">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="9" t="s">
         <v>1167</v>
       </c>
-      <c r="B330" s="14" t="s">
+      <c r="B330" s="9" t="s">
         <v>1168</v>
       </c>
-      <c r="C330" s="14" t="s">
+      <c r="C330" s="9" t="s">
         <v>1169</v>
       </c>
       <c r="D330" s="17"/>
@@ -19622,10 +19649,10 @@
         <v>1170</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>221</v>
+        <v>1171</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D331" s="17"/>
       <c r="E331" s="17"/>
@@ -19651,10 +19678,10 @@
     </row>
     <row r="332">
       <c r="A332" s="14" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1173</v>
+        <v>221</v>
       </c>
       <c r="C332" s="14" t="s">
         <v>1174</v>
@@ -19778,13 +19805,13 @@
       <c r="X335" s="17"/>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="C336" s="14" t="s">
         <v>1186</v>
       </c>
       <c r="D336" s="17"/>
@@ -19810,13 +19837,13 @@
       <c r="X336" s="17"/>
     </row>
     <row r="337">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B337" s="9" t="s">
         <v>1188</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="C337" s="9" t="s">
         <v>1189</v>
       </c>
       <c r="D337" s="17"/>
@@ -19906,13 +19933,13 @@
       <c r="X339" s="17"/>
     </row>
     <row r="340">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="14" t="s">
         <v>1197</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="14" t="s">
         <v>1198</v>
       </c>
       <c r="D340" s="17"/>
@@ -20002,13 +20029,13 @@
       <c r="X342" s="17"/>
     </row>
     <row r="343">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="C343" s="9" t="s">
         <v>1207</v>
       </c>
       <c r="D343" s="17"/>
@@ -20130,13 +20157,13 @@
       <c r="X346" s="17"/>
     </row>
     <row r="347">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="14" t="s">
         <v>1217</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="C347" s="9" t="s">
+      <c r="C347" s="14" t="s">
         <v>1219</v>
       </c>
       <c r="D347" s="17"/>
@@ -20194,13 +20221,13 @@
       <c r="X348" s="17"/>
     </row>
     <row r="349">
-      <c r="A349" s="14" t="s">
+      <c r="A349" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="B349" s="14" t="s">
+      <c r="B349" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="C349" s="9" t="s">
         <v>1225</v>
       </c>
       <c r="D349" s="17"/>
@@ -20290,13 +20317,13 @@
       <c r="X351" s="17"/>
     </row>
     <row r="352">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="14" t="s">
         <v>1232</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="C352" s="9" t="s">
+      <c r="C352" s="14" t="s">
         <v>1234</v>
       </c>
       <c r="D352" s="17"/>
@@ -20354,13 +20381,13 @@
       <c r="X353" s="17"/>
     </row>
     <row r="354">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="9" t="s">
         <v>1239</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="9" t="s">
         <v>1240</v>
       </c>
       <c r="D354" s="17"/>
@@ -20482,13 +20509,13 @@
       <c r="X357" s="17"/>
     </row>
     <row r="358">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="14" t="s">
         <v>1250</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C358" s="14" t="s">
         <v>1252</v>
       </c>
       <c r="D358" s="17"/>
@@ -20546,10 +20573,10 @@
       <c r="X359" s="17"/>
     </row>
     <row r="360">
-      <c r="A360" s="19" t="s">
+      <c r="A360" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="B360" s="19" t="s">
+      <c r="B360" s="9" t="s">
         <v>1257</v>
       </c>
       <c r="C360" s="9" t="s">
@@ -20578,10 +20605,10 @@
       <c r="X360" s="17"/>
     </row>
     <row r="361">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="19" t="s">
         <v>1260</v>
       </c>
       <c r="C361" s="9" t="s">
@@ -20674,10 +20701,10 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="19" t="s">
+      <c r="A364" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="B364" s="19" t="s">
+      <c r="B364" s="9" t="s">
         <v>1269</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -20706,10 +20733,10 @@
       <c r="X364" s="17"/>
     </row>
     <row r="365">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="19" t="s">
         <v>1271</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="19" t="s">
         <v>1272</v>
       </c>
       <c r="C365" s="9" t="s">
@@ -20738,7 +20765,7 @@
       <c r="X365" s="17"/>
     </row>
     <row r="366">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="14" t="s">
         <v>1274</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -20898,13 +20925,13 @@
       <c r="X370" s="17"/>
     </row>
     <row r="371">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="9" t="s">
         <v>1291</v>
       </c>
       <c r="D371" s="17"/>
@@ -20930,13 +20957,13 @@
       <c r="X371" s="17"/>
     </row>
     <row r="372">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="C372" s="9" t="s">
+      <c r="C372" s="14" t="s">
         <v>1294</v>
       </c>
       <c r="D372" s="17"/>
@@ -20994,13 +21021,13 @@
       <c r="X373" s="17"/>
     </row>
     <row r="374">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="9" t="s">
         <v>1300</v>
       </c>
       <c r="D374" s="17"/>
@@ -21058,13 +21085,13 @@
       <c r="X375" s="17"/>
     </row>
     <row r="376">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="14" t="s">
         <v>1305</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="C376" s="14" t="s">
         <v>1306</v>
       </c>
       <c r="D376" s="17"/>
@@ -21250,13 +21277,13 @@
       <c r="X381" s="17"/>
     </row>
     <row r="382">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="9" t="s">
         <v>1324</v>
       </c>
       <c r="D382" s="17"/>
@@ -21282,13 +21309,13 @@
       <c r="X382" s="17"/>
     </row>
     <row r="383">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="14" t="s">
         <v>1325</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="14" t="s">
         <v>1326</v>
       </c>
-      <c r="C383" s="9" t="s">
+      <c r="C383" s="14" t="s">
         <v>1327</v>
       </c>
       <c r="D383" s="17"/>
@@ -21346,13 +21373,13 @@
       <c r="X384" s="17"/>
     </row>
     <row r="385">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="9" t="s">
         <v>1332</v>
       </c>
-      <c r="C385" s="14" t="s">
+      <c r="C385" s="9" t="s">
         <v>1333</v>
       </c>
       <c r="D385" s="17"/>
@@ -21442,13 +21469,13 @@
       <c r="X387" s="17"/>
     </row>
     <row r="388">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="14" t="s">
         <v>1342</v>
       </c>
       <c r="D388" s="17"/>
@@ -21474,13 +21501,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="9" t="s">
         <v>1343</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="9" t="s">
         <v>1344</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="9" t="s">
         <v>1345</v>
       </c>
       <c r="D389" s="17"/>
@@ -21506,13 +21533,13 @@
       <c r="X389" s="17"/>
     </row>
     <row r="390">
-      <c r="A390" s="19" t="s">
+      <c r="A390" s="14" t="s">
         <v>1346</v>
       </c>
-      <c r="B390" s="19" t="s">
+      <c r="B390" s="14" t="s">
         <v>1347</v>
       </c>
-      <c r="C390" s="9" t="s">
+      <c r="C390" s="14" t="s">
         <v>1348</v>
       </c>
       <c r="D390" s="17"/>
@@ -21538,13 +21565,13 @@
       <c r="X390" s="17"/>
     </row>
     <row r="391">
-      <c r="A391" s="14" t="s">
+      <c r="A391" s="19" t="s">
         <v>1349</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B391" s="19" t="s">
         <v>1350</v>
       </c>
-      <c r="C391" s="14" t="s">
+      <c r="C391" s="9" t="s">
         <v>1351</v>
       </c>
       <c r="D391" s="17"/>
@@ -21634,13 +21661,13 @@
       <c r="X393" s="17"/>
     </row>
     <row r="394">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="14" t="s">
         <v>1358</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="14" t="s">
         <v>1359</v>
       </c>
-      <c r="C394" s="9" t="s">
+      <c r="C394" s="14" t="s">
         <v>1360</v>
       </c>
       <c r="D394" s="17"/>
@@ -21698,13 +21725,13 @@
       <c r="X395" s="17"/>
     </row>
     <row r="396">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C396" s="9" t="s">
         <v>1366</v>
       </c>
       <c r="D396" s="17"/>
@@ -21730,13 +21757,13 @@
       <c r="X396" s="17"/>
     </row>
     <row r="397">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="14" t="s">
         <v>1368</v>
       </c>
-      <c r="C397" s="9" t="s">
+      <c r="C397" s="14" t="s">
         <v>1369</v>
       </c>
       <c r="D397" s="17"/>
@@ -21922,13 +21949,13 @@
       <c r="X402" s="17"/>
     </row>
     <row r="403">
-      <c r="A403" s="14" t="s">
+      <c r="A403" s="9" t="s">
         <v>1385</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="C403" s="14" t="s">
+      <c r="C403" s="9" t="s">
         <v>1387</v>
       </c>
       <c r="D403" s="17"/>
@@ -21986,13 +22013,13 @@
       <c r="X404" s="17"/>
     </row>
     <row r="405">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="14" t="s">
         <v>1392</v>
       </c>
-      <c r="C405" s="9" t="s">
+      <c r="C405" s="14" t="s">
         <v>1393</v>
       </c>
       <c r="D405" s="17"/>
@@ -22082,13 +22109,13 @@
       <c r="X407" s="17"/>
     </row>
     <row r="408">
-      <c r="A408" s="14" t="s">
+      <c r="A408" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="B408" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="C408" s="14" t="s">
+      <c r="C408" s="9" t="s">
         <v>1402</v>
       </c>
       <c r="D408" s="17"/>
@@ -22146,13 +22173,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="14" t="s">
         <v>1407</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C410" s="14" t="s">
         <v>1408</v>
       </c>
       <c r="D410" s="17"/>
@@ -22178,13 +22205,13 @@
       <c r="X410" s="17"/>
     </row>
     <row r="411">
-      <c r="A411" s="14" t="s">
+      <c r="A411" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C411" s="9" t="s">
         <v>1411</v>
       </c>
       <c r="D411" s="17"/>
@@ -22210,13 +22237,13 @@
       <c r="X411" s="17"/>
     </row>
     <row r="412">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="14" t="s">
         <v>1412</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="14" t="s">
         <v>1413</v>
       </c>
-      <c r="C412" s="9" t="s">
+      <c r="C412" s="14" t="s">
         <v>1414</v>
       </c>
       <c r="D412" s="17"/>
@@ -22338,13 +22365,13 @@
       <c r="X415" s="17"/>
     </row>
     <row r="416">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="C416" s="14" t="s">
+      <c r="C416" s="9" t="s">
         <v>1426</v>
       </c>
       <c r="D416" s="17"/>
@@ -22402,13 +22429,13 @@
       <c r="X417" s="17"/>
     </row>
     <row r="418">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="14" t="s">
         <v>1430</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="C418" s="9" t="s">
+      <c r="C418" s="14" t="s">
         <v>1432</v>
       </c>
       <c r="D418" s="17"/>
@@ -22498,13 +22525,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="9" t="s">
         <v>1441</v>
       </c>
       <c r="D421" s="17"/>
@@ -22530,13 +22557,13 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="14" t="s">
         <v>1443</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C422" s="14" t="s">
         <v>1444</v>
       </c>
       <c r="D422" s="17"/>
@@ -22562,14 +22589,14 @@
       <c r="X422" s="17"/>
     </row>
     <row r="423">
-      <c r="A423" s="14" t="s">
+      <c r="A423" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="B423" s="14" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C423" s="14" t="s">
+      <c r="B423" s="9" t="s">
         <v>1446</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>1447</v>
       </c>
       <c r="D423" s="17"/>
       <c r="E423" s="17"/>
@@ -22595,13 +22622,13 @@
     </row>
     <row r="424">
       <c r="A424" s="14" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D424" s="17"/>
       <c r="E424" s="17"/>
@@ -22626,8 +22653,8 @@
       <c r="X424" s="17"/>
     </row>
     <row r="425">
-      <c r="A425" s="9" t="s">
-        <v>1449</v>
+      <c r="A425" s="14" t="s">
+        <v>1450</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>1450</v>
@@ -22658,7 +22685,7 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="9" t="s">
         <v>1452</v>
       </c>
       <c r="B426" s="14" t="s">
@@ -22722,13 +22749,13 @@
       <c r="X427" s="17"/>
     </row>
     <row r="428">
-      <c r="A428" s="9" t="s">
+      <c r="A428" s="14" t="s">
         <v>1458</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="14" t="s">
         <v>1459</v>
       </c>
-      <c r="C428" s="9" t="s">
+      <c r="C428" s="14" t="s">
         <v>1460</v>
       </c>
       <c r="D428" s="17"/>
@@ -22786,13 +22813,13 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="9" t="s">
         <v>1466</v>
       </c>
       <c r="D430" s="17"/>
@@ -22818,13 +22845,13 @@
       <c r="X430" s="17"/>
     </row>
     <row r="431">
-      <c r="A431" s="9" t="s">
+      <c r="A431" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="C431" s="9" t="s">
+      <c r="C431" s="14" t="s">
         <v>1469</v>
       </c>
       <c r="D431" s="17"/>
@@ -22850,13 +22877,13 @@
       <c r="X431" s="17"/>
     </row>
     <row r="432">
-      <c r="A432" s="14" t="s">
+      <c r="A432" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="B432" s="9" t="s">
         <v>1471</v>
       </c>
-      <c r="C432" s="14" t="s">
+      <c r="C432" s="9" t="s">
         <v>1472</v>
       </c>
       <c r="D432" s="17"/>
@@ -22946,13 +22973,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C435" s="14" t="s">
         <v>1481</v>
       </c>
       <c r="D435" s="17"/>
@@ -22978,13 +23005,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1482</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="C436" s="14" t="s">
+      <c r="C436" s="9" t="s">
         <v>1484</v>
       </c>
       <c r="D436" s="17"/>
@@ -23010,13 +23037,13 @@
       <c r="X436" s="17"/>
     </row>
     <row r="437">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="14" t="s">
         <v>1486</v>
       </c>
-      <c r="C437" s="9" t="s">
+      <c r="C437" s="14" t="s">
         <v>1487</v>
       </c>
       <c r="D437" s="17"/>
@@ -23042,7 +23069,7 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="9" t="s">
         <v>1488</v>
       </c>
       <c r="B438" s="9" t="s">
@@ -23074,7 +23101,7 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="14" t="s">
         <v>1491</v>
       </c>
       <c r="B439" s="9" t="s">
@@ -23106,10 +23133,10 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="19" t="s">
+      <c r="A440" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="B440" s="19" t="s">
+      <c r="B440" s="9" t="s">
         <v>1495</v>
       </c>
       <c r="C440" s="9" t="s">
@@ -23138,10 +23165,10 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="38" t="s">
+      <c r="A441" s="19" t="s">
         <v>1497</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="19" t="s">
         <v>1498</v>
       </c>
       <c r="C441" s="9" t="s">
@@ -23170,7 +23197,7 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="38" t="s">
         <v>1500</v>
       </c>
       <c r="B442" s="9" t="s">
@@ -23202,13 +23229,13 @@
       <c r="X442" s="17"/>
     </row>
     <row r="443">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="C443" s="14" t="s">
+      <c r="C443" s="9" t="s">
         <v>1505</v>
       </c>
       <c r="D443" s="17"/>
@@ -23362,13 +23389,13 @@
       <c r="X447" s="17"/>
     </row>
     <row r="448">
-      <c r="A448" s="9" t="s">
+      <c r="A448" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="C448" s="9" t="s">
+      <c r="C448" s="14" t="s">
         <v>1520</v>
       </c>
       <c r="D448" s="17"/>
@@ -23458,13 +23485,13 @@
       <c r="X450" s="17"/>
     </row>
     <row r="451">
-      <c r="A451" s="14" t="s">
+      <c r="A451" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="B451" s="14" t="s">
+      <c r="B451" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="C451" s="14" t="s">
+      <c r="C451" s="9" t="s">
         <v>1529</v>
       </c>
       <c r="D451" s="17"/>
@@ -23522,13 +23549,13 @@
       <c r="X452" s="17"/>
     </row>
     <row r="453">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="C453" s="9" t="s">
+      <c r="C453" s="14" t="s">
         <v>1535</v>
       </c>
       <c r="D453" s="17"/>
@@ -23586,13 +23613,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="C455" s="14" t="s">
+      <c r="C455" s="9" t="s">
         <v>1541</v>
       </c>
       <c r="D455" s="17"/>
@@ -23618,13 +23645,13 @@
       <c r="X455" s="17"/>
     </row>
     <row r="456">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="C456" s="9" t="s">
+      <c r="C456" s="14" t="s">
         <v>1544</v>
       </c>
       <c r="D456" s="17"/>
@@ -23650,13 +23677,13 @@
       <c r="X456" s="17"/>
     </row>
     <row r="457">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="C457" s="14" t="s">
+      <c r="C457" s="9" t="s">
         <v>1547</v>
       </c>
       <c r="D457" s="17"/>
@@ -23682,13 +23709,13 @@
       <c r="X457" s="17"/>
     </row>
     <row r="458">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="14" t="s">
         <v>1549</v>
       </c>
-      <c r="C458" s="9" t="s">
+      <c r="C458" s="14" t="s">
         <v>1550</v>
       </c>
       <c r="D458" s="17"/>
@@ -23938,13 +23965,13 @@
       <c r="X465" s="17"/>
     </row>
     <row r="466">
-      <c r="A466" s="14" t="s">
+      <c r="A466" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="9" t="s">
         <v>1573</v>
       </c>
-      <c r="C466" s="14" t="s">
+      <c r="C466" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="D466" s="17"/>
@@ -24002,13 +24029,13 @@
       <c r="X467" s="17"/>
     </row>
     <row r="468">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="14" t="s">
         <v>1578</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="14" t="s">
         <v>1579</v>
       </c>
-      <c r="C468" s="9" t="s">
+      <c r="C468" s="14" t="s">
         <v>1580</v>
       </c>
       <c r="D468" s="17"/>
@@ -24034,13 +24061,13 @@
       <c r="X468" s="17"/>
     </row>
     <row r="469">
-      <c r="A469" s="14" t="s">
+      <c r="A469" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="B469" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="C469" s="14" t="s">
+      <c r="C469" s="9" t="s">
         <v>1583</v>
       </c>
       <c r="D469" s="17"/>
@@ -24098,13 +24125,13 @@
       <c r="X470" s="17"/>
     </row>
     <row r="471">
-      <c r="A471" s="9" t="s">
+      <c r="A471" s="14" t="s">
         <v>1587</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="C471" s="9" t="s">
+      <c r="C471" s="14" t="s">
         <v>1589</v>
       </c>
       <c r="D471" s="17"/>
@@ -24258,13 +24285,13 @@
       <c r="X475" s="17"/>
     </row>
     <row r="476">
-      <c r="A476" s="14" t="s">
+      <c r="A476" s="9" t="s">
         <v>1602</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="9" t="s">
         <v>1603</v>
       </c>
-      <c r="C476" s="14" t="s">
+      <c r="C476" s="9" t="s">
         <v>1604</v>
       </c>
       <c r="D476" s="17"/>
@@ -24418,13 +24445,13 @@
       <c r="X480" s="17"/>
     </row>
     <row r="481">
-      <c r="A481" s="9" t="s">
+      <c r="A481" s="14" t="s">
         <v>1617</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="14" t="s">
         <v>1618</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C481" s="14" t="s">
         <v>1619</v>
       </c>
       <c r="D481" s="17"/>
@@ -24450,13 +24477,13 @@
       <c r="X481" s="17"/>
     </row>
     <row r="482">
-      <c r="A482" s="14" t="s">
+      <c r="A482" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="C482" s="14" t="s">
+      <c r="C482" s="9" t="s">
         <v>1622</v>
       </c>
       <c r="D482" s="17"/>
@@ -24514,13 +24541,13 @@
       <c r="X483" s="17"/>
     </row>
     <row r="484">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="C484" s="9" t="s">
+      <c r="C484" s="14" t="s">
         <v>1628</v>
       </c>
       <c r="D484" s="17"/>
@@ -24546,13 +24573,13 @@
       <c r="X484" s="17"/>
     </row>
     <row r="485">
-      <c r="A485" s="14" t="s">
+      <c r="A485" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C485" s="9" t="s">
         <v>1631</v>
       </c>
       <c r="D485" s="17"/>
@@ -24578,13 +24605,13 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="14" t="s">
         <v>1633</v>
       </c>
-      <c r="C486" s="9" t="s">
+      <c r="C486" s="14" t="s">
         <v>1634</v>
       </c>
       <c r="D486" s="17"/>
@@ -24610,10 +24637,10 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="19" t="s">
+      <c r="A487" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="B487" s="19" t="s">
+      <c r="B487" s="9" t="s">
         <v>1636</v>
       </c>
       <c r="C487" s="9" t="s">
@@ -24642,10 +24669,10 @@
       <c r="X487" s="17"/>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="19" t="s">
         <v>1638</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="19" t="s">
         <v>1639</v>
       </c>
       <c r="C488" s="9" t="s">
@@ -24674,13 +24701,13 @@
       <c r="X488" s="17"/>
     </row>
     <row r="489">
-      <c r="A489" s="14" t="s">
+      <c r="A489" s="9" t="s">
         <v>1641</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="9" t="s">
         <v>1642</v>
       </c>
-      <c r="C489" s="14" t="s">
+      <c r="C489" s="9" t="s">
         <v>1643</v>
       </c>
       <c r="D489" s="17"/>
@@ -24706,13 +24733,13 @@
       <c r="X489" s="17"/>
     </row>
     <row r="490">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="14" t="s">
         <v>1645</v>
       </c>
-      <c r="C490" s="9" t="s">
+      <c r="C490" s="14" t="s">
         <v>1646</v>
       </c>
       <c r="D490" s="17"/>
@@ -24770,13 +24797,13 @@
       <c r="X491" s="17"/>
     </row>
     <row r="492">
-      <c r="A492" s="14" t="s">
+      <c r="A492" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="9" t="s">
         <v>1651</v>
       </c>
-      <c r="C492" s="14" t="s">
+      <c r="C492" s="9" t="s">
         <v>1652</v>
       </c>
       <c r="D492" s="17"/>
@@ -24898,13 +24925,13 @@
       <c r="X495" s="17"/>
     </row>
     <row r="496">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="14" t="s">
         <v>1662</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="14" t="s">
         <v>1663</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="14" t="s">
         <v>1664</v>
       </c>
       <c r="D496" s="17"/>
@@ -24930,13 +24957,13 @@
       <c r="X496" s="17"/>
     </row>
     <row r="497">
-      <c r="A497" s="14" t="s">
+      <c r="A497" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="C497" s="14" t="s">
+      <c r="C497" s="9" t="s">
         <v>1667</v>
       </c>
       <c r="D497" s="17"/>
@@ -24994,13 +25021,13 @@
       <c r="X498" s="17"/>
     </row>
     <row r="499">
-      <c r="A499" s="9" t="s">
+      <c r="A499" s="14" t="s">
         <v>1671</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="C499" s="9" t="s">
+      <c r="C499" s="14" t="s">
         <v>1673</v>
       </c>
       <c r="D499" s="17"/>
@@ -25058,13 +25085,13 @@
       <c r="X500" s="17"/>
     </row>
     <row r="501">
-      <c r="A501" s="14" t="s">
+      <c r="A501" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="B501" s="14" t="s">
+      <c r="B501" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="C501" s="14" t="s">
+      <c r="C501" s="9" t="s">
         <v>1679</v>
       </c>
       <c r="D501" s="17"/>
@@ -25090,13 +25117,13 @@
       <c r="X501" s="17"/>
     </row>
     <row r="502">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="14" t="s">
         <v>1680</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="14" t="s">
         <v>1681</v>
       </c>
-      <c r="C502" s="9" t="s">
+      <c r="C502" s="14" t="s">
         <v>1682</v>
       </c>
       <c r="D502" s="17"/>
@@ -25154,13 +25181,13 @@
       <c r="X503" s="17"/>
     </row>
     <row r="504">
-      <c r="A504" s="14" t="s">
+      <c r="A504" s="9" t="s">
         <v>1686</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="B504" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="C504" s="14" t="s">
+      <c r="C504" s="9" t="s">
         <v>1688</v>
       </c>
       <c r="D504" s="17"/>
@@ -25250,13 +25277,13 @@
       <c r="X506" s="17"/>
     </row>
     <row r="507">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="14" t="s">
         <v>1695</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="14" t="s">
         <v>1696</v>
       </c>
-      <c r="C507" s="9" t="s">
+      <c r="C507" s="14" t="s">
         <v>1697</v>
       </c>
       <c r="D507" s="17"/>
@@ -25285,10 +25312,10 @@
       <c r="A508" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="B508" s="14" t="s">
+      <c r="B508" s="9" t="s">
         <v>1699</v>
       </c>
-      <c r="C508" s="14" t="s">
+      <c r="C508" s="9" t="s">
         <v>1700</v>
       </c>
       <c r="D508" s="17"/>
@@ -25314,7 +25341,7 @@
       <c r="X508" s="17"/>
     </row>
     <row r="509">
-      <c r="A509" s="14" t="s">
+      <c r="A509" s="9" t="s">
         <v>1701</v>
       </c>
       <c r="B509" s="14" t="s">
@@ -25538,13 +25565,13 @@
       <c r="X515" s="17"/>
     </row>
     <row r="516">
-      <c r="A516" s="9" t="s">
+      <c r="A516" s="14" t="s">
         <v>1722</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="14" t="s">
         <v>1723</v>
       </c>
-      <c r="C516" s="9" t="s">
+      <c r="C516" s="14" t="s">
         <v>1724</v>
       </c>
       <c r="D516" s="17"/>
@@ -25602,13 +25629,13 @@
       <c r="X517" s="17"/>
     </row>
     <row r="518">
-      <c r="A518" s="14" t="s">
+      <c r="A518" s="9" t="s">
         <v>1728</v>
       </c>
-      <c r="B518" s="14" t="s">
+      <c r="B518" s="9" t="s">
         <v>1729</v>
       </c>
-      <c r="C518" s="14" t="s">
+      <c r="C518" s="9" t="s">
         <v>1730</v>
       </c>
       <c r="D518" s="17"/>
@@ -25666,13 +25693,13 @@
       <c r="X519" s="17"/>
     </row>
     <row r="520">
-      <c r="A520" s="9" t="s">
+      <c r="A520" s="14" t="s">
         <v>1734</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="14" t="s">
         <v>1735</v>
       </c>
-      <c r="C520" s="9" t="s">
+      <c r="C520" s="14" t="s">
         <v>1736</v>
       </c>
       <c r="D520" s="17"/>
@@ -25698,13 +25725,13 @@
       <c r="X520" s="17"/>
     </row>
     <row r="521">
-      <c r="A521" s="14" t="s">
+      <c r="A521" s="9" t="s">
         <v>1737</v>
       </c>
-      <c r="B521" s="14" t="s">
+      <c r="B521" s="9" t="s">
         <v>1738</v>
       </c>
-      <c r="C521" s="14" t="s">
+      <c r="C521" s="9" t="s">
         <v>1739</v>
       </c>
       <c r="D521" s="17"/>
@@ -25794,13 +25821,13 @@
       <c r="X523" s="17"/>
     </row>
     <row r="524">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="14" t="s">
         <v>1747</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="14" t="s">
         <v>1748</v>
       </c>
       <c r="D524" s="17"/>
@@ -25826,13 +25853,13 @@
       <c r="X524" s="17"/>
     </row>
     <row r="525">
-      <c r="A525" s="14" t="s">
+      <c r="A525" s="9" t="s">
         <v>1749</v>
       </c>
-      <c r="B525" s="14" t="s">
+      <c r="B525" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="C525" s="14" t="s">
+      <c r="C525" s="9" t="s">
         <v>1751</v>
       </c>
       <c r="D525" s="17"/>
@@ -25858,13 +25885,13 @@
       <c r="X525" s="17"/>
     </row>
     <row r="526">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="14" t="s">
         <v>1752</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="14" t="s">
         <v>1753</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C526" s="14" t="s">
         <v>1754</v>
       </c>
       <c r="D526" s="17"/>
@@ -25922,13 +25949,13 @@
       <c r="X527" s="17"/>
     </row>
     <row r="528">
-      <c r="A528" s="14" t="s">
+      <c r="A528" s="9" t="s">
         <v>1758</v>
       </c>
-      <c r="B528" s="14" t="s">
+      <c r="B528" s="9" t="s">
         <v>1759</v>
       </c>
-      <c r="C528" s="14" t="s">
+      <c r="C528" s="9" t="s">
         <v>1760</v>
       </c>
       <c r="D528" s="17"/>
@@ -25986,13 +26013,13 @@
       <c r="X529" s="17"/>
     </row>
     <row r="530">
-      <c r="A530" s="9" t="s">
+      <c r="A530" s="14" t="s">
         <v>1764</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="14" t="s">
         <v>1765</v>
       </c>
-      <c r="C530" s="9" t="s">
+      <c r="C530" s="14" t="s">
         <v>1766</v>
       </c>
       <c r="D530" s="17"/>
@@ -26018,13 +26045,13 @@
       <c r="X530" s="17"/>
     </row>
     <row r="531">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="9" t="s">
         <v>1767</v>
       </c>
-      <c r="B531" s="14" t="s">
+      <c r="B531" s="9" t="s">
         <v>1768</v>
       </c>
-      <c r="C531" s="14" t="s">
+      <c r="C531" s="9" t="s">
         <v>1769</v>
       </c>
       <c r="D531" s="17"/>
@@ -26082,13 +26109,13 @@
       <c r="X532" s="17"/>
     </row>
     <row r="533">
-      <c r="A533" s="9" t="s">
+      <c r="A533" s="14" t="s">
         <v>1773</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="14" t="s">
         <v>1774</v>
       </c>
-      <c r="C533" s="9" t="s">
+      <c r="C533" s="14" t="s">
         <v>1775</v>
       </c>
       <c r="D533" s="17"/>
@@ -26146,13 +26173,13 @@
       <c r="X534" s="17"/>
     </row>
     <row r="535">
-      <c r="A535" s="14" t="s">
+      <c r="A535" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="B535" s="14" t="s">
+      <c r="B535" s="9" t="s">
         <v>1780</v>
       </c>
-      <c r="C535" s="14" t="s">
+      <c r="C535" s="9" t="s">
         <v>1781</v>
       </c>
       <c r="D535" s="17"/>
@@ -26178,13 +26205,13 @@
       <c r="X535" s="17"/>
     </row>
     <row r="536">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="14" t="s">
         <v>1783</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C536" s="14" t="s">
         <v>1784</v>
       </c>
       <c r="D536" s="17"/>
@@ -26274,13 +26301,13 @@
       <c r="X538" s="17"/>
     </row>
     <row r="539">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="9" t="s">
         <v>1791</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="9" t="s">
         <v>1792</v>
       </c>
-      <c r="C539" s="14" t="s">
+      <c r="C539" s="9" t="s">
         <v>1793</v>
       </c>
       <c r="D539" s="17"/>
@@ -26434,13 +26461,13 @@
       <c r="X543" s="17"/>
     </row>
     <row r="544">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="14" t="s">
         <v>1806</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C544" s="14" t="s">
         <v>1808</v>
       </c>
       <c r="D544" s="17"/>
@@ -26466,13 +26493,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="9" t="s">
         <v>1809</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>1810</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="C545" s="9" t="s">
         <v>1811</v>
       </c>
       <c r="D545" s="17"/>
@@ -26498,13 +26525,13 @@
       <c r="X545" s="17"/>
     </row>
     <row r="546">
-      <c r="A546" s="9" t="s">
+      <c r="A546" s="14" t="s">
         <v>1812</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="14" t="s">
         <v>1813</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="C546" s="14" t="s">
         <v>1814</v>
       </c>
       <c r="D546" s="17"/>
@@ -26530,13 +26557,13 @@
       <c r="X546" s="17"/>
     </row>
     <row r="547">
-      <c r="A547" s="14" t="s">
+      <c r="A547" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="B547" s="14" t="s">
+      <c r="B547" s="9" t="s">
         <v>1816</v>
       </c>
-      <c r="C547" s="14" t="s">
+      <c r="C547" s="9" t="s">
         <v>1817</v>
       </c>
       <c r="D547" s="17"/>
@@ -26594,13 +26621,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="14" t="s">
         <v>1821</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="14" t="s">
         <v>1822</v>
       </c>
-      <c r="C549" s="9" t="s">
+      <c r="C549" s="14" t="s">
         <v>1823</v>
       </c>
       <c r="D549" s="17"/>
@@ -26626,13 +26653,13 @@
       <c r="X549" s="17"/>
     </row>
     <row r="550">
-      <c r="A550" s="14" t="s">
+      <c r="A550" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="B550" s="14" t="s">
+      <c r="B550" s="9" t="s">
         <v>1825</v>
       </c>
-      <c r="C550" s="14" t="s">
+      <c r="C550" s="9" t="s">
         <v>1826</v>
       </c>
       <c r="D550" s="17"/>
@@ -26946,13 +26973,13 @@
       <c r="X559" s="17"/>
     </row>
     <row r="560">
-      <c r="A560" s="9" t="s">
+      <c r="A560" s="14" t="s">
         <v>1854</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="14" t="s">
         <v>1855</v>
       </c>
-      <c r="C560" s="9" t="s">
+      <c r="C560" s="14" t="s">
         <v>1856</v>
       </c>
       <c r="D560" s="17"/>
@@ -26978,14 +27005,14 @@
       <c r="X560" s="17"/>
     </row>
     <row r="561">
-      <c r="A561" s="14" t="s">
+      <c r="A561" s="9" t="s">
         <v>1857</v>
       </c>
-      <c r="B561" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C561" s="14" t="s">
+      <c r="B561" s="9" t="s">
         <v>1858</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>1859</v>
       </c>
       <c r="D561" s="17"/>
       <c r="E561" s="17"/>
@@ -27011,10 +27038,10 @@
     </row>
     <row r="562">
       <c r="A562" s="14" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B562" s="14" t="s">
-        <v>1860</v>
+        <v>20</v>
       </c>
       <c r="C562" s="14" t="s">
         <v>1861</v>
@@ -27042,13 +27069,13 @@
       <c r="X562" s="17"/>
     </row>
     <row r="563">
-      <c r="A563" s="9" t="s">
+      <c r="A563" s="14" t="s">
         <v>1862</v>
       </c>
-      <c r="B563" s="9" t="s">
+      <c r="B563" s="14" t="s">
         <v>1863</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="C563" s="14" t="s">
         <v>1864</v>
       </c>
       <c r="D563" s="17"/>
@@ -27106,13 +27133,13 @@
       <c r="X564" s="17"/>
     </row>
     <row r="565">
-      <c r="A565" s="14" t="s">
+      <c r="A565" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="B565" s="14" t="s">
+      <c r="B565" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="C565" s="14" t="s">
+      <c r="C565" s="9" t="s">
         <v>1870</v>
       </c>
       <c r="D565" s="17"/>
@@ -27266,13 +27293,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="14" t="s">
         <v>1883</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="14" t="s">
         <v>1884</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="C570" s="14" t="s">
         <v>1885</v>
       </c>
       <c r="D570" s="17"/>
@@ -27298,13 +27325,13 @@
       <c r="X570" s="17"/>
     </row>
     <row r="571">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="9" t="s">
         <v>1886</v>
       </c>
-      <c r="B571" s="14" t="s">
+      <c r="B571" s="9" t="s">
         <v>1887</v>
       </c>
-      <c r="C571" s="14" t="s">
+      <c r="C571" s="9" t="s">
         <v>1888</v>
       </c>
       <c r="D571" s="17"/>
@@ -27330,13 +27357,13 @@
       <c r="X571" s="17"/>
     </row>
     <row r="572">
-      <c r="A572" s="9" t="s">
+      <c r="A572" s="14" t="s">
         <v>1889</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="14" t="s">
         <v>1890</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="C572" s="14" t="s">
         <v>1891</v>
       </c>
       <c r="D572" s="17"/>
@@ -27554,13 +27581,13 @@
       <c r="X578" s="17"/>
     </row>
     <row r="579">
-      <c r="A579" s="14" t="s">
+      <c r="A579" s="9" t="s">
         <v>1910</v>
       </c>
-      <c r="B579" s="14" t="s">
+      <c r="B579" s="9" t="s">
         <v>1911</v>
       </c>
-      <c r="C579" s="14" t="s">
+      <c r="C579" s="9" t="s">
         <v>1912</v>
       </c>
       <c r="D579" s="17"/>
@@ -27682,13 +27709,13 @@
       <c r="X582" s="17"/>
     </row>
     <row r="583">
-      <c r="A583" s="9" t="s">
+      <c r="A583" s="14" t="s">
         <v>1922</v>
       </c>
-      <c r="B583" s="9" t="s">
+      <c r="B583" s="14" t="s">
         <v>1923</v>
       </c>
-      <c r="C583" s="9" t="s">
+      <c r="C583" s="14" t="s">
         <v>1924</v>
       </c>
       <c r="D583" s="17"/>
@@ -27778,13 +27805,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="14" t="s">
+      <c r="A586" s="9" t="s">
         <v>1931</v>
       </c>
-      <c r="B586" s="14" t="s">
+      <c r="B586" s="9" t="s">
         <v>1932</v>
       </c>
-      <c r="C586" s="14" t="s">
+      <c r="C586" s="9" t="s">
         <v>1933</v>
       </c>
       <c r="D586" s="17"/>
@@ -27810,13 +27837,13 @@
       <c r="X586" s="17"/>
     </row>
     <row r="587">
-      <c r="A587" s="9" t="s">
+      <c r="A587" s="14" t="s">
         <v>1934</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="14" t="s">
         <v>1935</v>
       </c>
-      <c r="C587" s="9" t="s">
+      <c r="C587" s="14" t="s">
         <v>1936</v>
       </c>
       <c r="D587" s="17"/>
@@ -27842,13 +27869,13 @@
       <c r="X587" s="17"/>
     </row>
     <row r="588">
-      <c r="A588" s="14" t="s">
+      <c r="A588" s="9" t="s">
         <v>1937</v>
       </c>
-      <c r="B588" s="14" t="s">
+      <c r="B588" s="9" t="s">
         <v>1938</v>
       </c>
-      <c r="C588" s="14" t="s">
+      <c r="C588" s="9" t="s">
         <v>1939</v>
       </c>
       <c r="D588" s="17"/>
@@ -27970,13 +27997,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="14" t="s">
         <v>1949</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="14" t="s">
         <v>1950</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="14" t="s">
         <v>1951</v>
       </c>
       <c r="D592" s="17"/>
@@ -28002,13 +28029,13 @@
       <c r="X592" s="17"/>
     </row>
     <row r="593">
-      <c r="A593" s="14" t="s">
+      <c r="A593" s="9" t="s">
         <v>1952</v>
       </c>
-      <c r="B593" s="14" t="s">
+      <c r="B593" s="9" t="s">
         <v>1953</v>
       </c>
-      <c r="C593" s="14" t="s">
+      <c r="C593" s="9" t="s">
         <v>1954</v>
       </c>
       <c r="D593" s="17"/>
@@ -28034,13 +28061,13 @@
       <c r="X593" s="17"/>
     </row>
     <row r="594">
-      <c r="A594" s="9" t="s">
+      <c r="A594" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="14" t="s">
         <v>1956</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="C594" s="14" t="s">
         <v>1957</v>
       </c>
       <c r="D594" s="17"/>
@@ -28130,13 +28157,13 @@
       <c r="X596" s="17"/>
     </row>
     <row r="597">
-      <c r="A597" s="14" t="s">
+      <c r="A597" s="9" t="s">
         <v>1964</v>
       </c>
-      <c r="B597" s="14" t="s">
+      <c r="B597" s="9" t="s">
         <v>1965</v>
       </c>
-      <c r="C597" s="14" t="s">
+      <c r="C597" s="9" t="s">
         <v>1966</v>
       </c>
       <c r="D597" s="17"/>
@@ -28162,13 +28189,13 @@
       <c r="X597" s="17"/>
     </row>
     <row r="598">
-      <c r="A598" s="9" t="s">
+      <c r="A598" s="14" t="s">
         <v>1967</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="14" t="s">
         <v>1968</v>
       </c>
-      <c r="C598" s="9" t="s">
+      <c r="C598" s="14" t="s">
         <v>1969</v>
       </c>
       <c r="D598" s="17"/>
@@ -28226,13 +28253,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="14" t="s">
+      <c r="A600" s="9" t="s">
         <v>1973</v>
       </c>
-      <c r="B600" s="14" t="s">
+      <c r="B600" s="9" t="s">
         <v>1974</v>
       </c>
-      <c r="C600" s="14" t="s">
+      <c r="C600" s="9" t="s">
         <v>1975</v>
       </c>
       <c r="D600" s="17"/>
@@ -28258,13 +28285,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1976</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1977</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1978</v>
       </c>
       <c r="D601" s="17"/>
@@ -28290,13 +28317,13 @@
       <c r="X601" s="17"/>
     </row>
     <row r="602">
-      <c r="A602" s="14" t="s">
+      <c r="A602" s="9" t="s">
         <v>1979</v>
       </c>
-      <c r="B602" s="14" t="s">
+      <c r="B602" s="9" t="s">
         <v>1980</v>
       </c>
-      <c r="C602" s="14" t="s">
+      <c r="C602" s="9" t="s">
         <v>1981</v>
       </c>
       <c r="D602" s="17"/>
@@ -28322,13 +28349,13 @@
       <c r="X602" s="17"/>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="s">
+      <c r="A603" s="14" t="s">
         <v>1982</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="14" t="s">
         <v>1983</v>
       </c>
-      <c r="C603" s="9" t="s">
+      <c r="C603" s="14" t="s">
         <v>1984</v>
       </c>
       <c r="D603" s="17"/>
@@ -28450,13 +28477,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="14" t="s">
+      <c r="A607" s="9" t="s">
         <v>1994</v>
       </c>
-      <c r="B607" s="14" t="s">
+      <c r="B607" s="9" t="s">
         <v>1995</v>
       </c>
-      <c r="C607" s="14" t="s">
+      <c r="C607" s="9" t="s">
         <v>1996</v>
       </c>
       <c r="D607" s="17"/>
@@ -28482,13 +28509,13 @@
       <c r="X607" s="17"/>
     </row>
     <row r="608">
-      <c r="A608" s="9" t="s">
+      <c r="A608" s="14" t="s">
         <v>1997</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="14" t="s">
         <v>1998</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C608" s="14" t="s">
         <v>1999</v>
       </c>
       <c r="D608" s="17"/>
@@ -28514,13 +28541,13 @@
       <c r="X608" s="17"/>
     </row>
     <row r="609">
-      <c r="A609" s="14" t="s">
+      <c r="A609" s="9" t="s">
         <v>2000</v>
       </c>
-      <c r="B609" s="14" t="s">
+      <c r="B609" s="9" t="s">
         <v>2001</v>
       </c>
-      <c r="C609" s="14" t="s">
+      <c r="C609" s="9" t="s">
         <v>2002</v>
       </c>
       <c r="D609" s="17"/>
@@ -28578,13 +28605,13 @@
       <c r="X610" s="17"/>
     </row>
     <row r="611">
-      <c r="A611" s="9" t="s">
+      <c r="A611" s="14" t="s">
         <v>2006</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="14" t="s">
         <v>2007</v>
       </c>
-      <c r="C611" s="9" t="s">
+      <c r="C611" s="14" t="s">
         <v>2008</v>
       </c>
       <c r="D611" s="17"/>
@@ -28706,13 +28733,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="14" t="s">
+      <c r="A615" s="9" t="s">
         <v>2018</v>
       </c>
-      <c r="B615" s="14" t="s">
+      <c r="B615" s="9" t="s">
         <v>2019</v>
       </c>
-      <c r="C615" s="14" t="s">
+      <c r="C615" s="9" t="s">
         <v>2020</v>
       </c>
       <c r="D615" s="17"/>
@@ -28802,13 +28829,13 @@
       <c r="X617" s="17"/>
     </row>
     <row r="618">
-      <c r="A618" s="9" t="s">
+      <c r="A618" s="14" t="s">
         <v>2027</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="14" t="s">
         <v>2028</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="C618" s="14" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -28835,24 +28862,24 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="14" t="s">
+      <c r="A621" s="9" t="s">
         <v>2036</v>
       </c>
-      <c r="B621" s="14" t="s">
+      <c r="B621" s="9" t="s">
         <v>2037</v>
       </c>
-      <c r="C621" s="14" t="s">
+      <c r="C621" s="9" t="s">
         <v>2038</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="9" t="s">
+      <c r="A622" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="14" t="s">
         <v>2040</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="C622" s="14" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -28879,13 +28906,13 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="14" t="s">
+      <c r="A625" s="9" t="s">
         <v>2048</v>
       </c>
-      <c r="B625" s="14" t="s">
+      <c r="B625" s="9" t="s">
         <v>2049</v>
       </c>
-      <c r="C625" s="14" t="s">
+      <c r="C625" s="9" t="s">
         <v>2050</v>
       </c>
     </row>
@@ -28912,13 +28939,13 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="9" t="s">
+      <c r="A628" s="14" t="s">
         <v>2057</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="14" t="s">
         <v>2058</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C628" s="14" t="s">
         <v>2059</v>
       </c>
     </row>
@@ -28945,13 +28972,13 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="14" t="s">
+      <c r="A631" s="9" t="s">
         <v>2066</v>
       </c>
-      <c r="B631" s="14" t="s">
+      <c r="B631" s="9" t="s">
         <v>2067</v>
       </c>
-      <c r="C631" s="14" t="s">
+      <c r="C631" s="9" t="s">
         <v>2068</v>
       </c>
     </row>
@@ -29022,24 +29049,24 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="14" t="s">
         <v>2088</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="14" t="s">
         <v>2089</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="14" t="s">
+      <c r="A639" s="9" t="s">
         <v>2090</v>
       </c>
-      <c r="B639" s="14" t="s">
+      <c r="B639" s="9" t="s">
         <v>2091</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="9" t="s">
         <v>2092</v>
       </c>
     </row>
@@ -29055,13 +29082,13 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="9" t="s">
+      <c r="A641" s="14" t="s">
         <v>2096</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="14" t="s">
         <v>2097</v>
       </c>
-      <c r="C641" s="9" t="s">
+      <c r="C641" s="14" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -29088,13 +29115,13 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="14" t="s">
+      <c r="A644" s="9" t="s">
         <v>2105</v>
       </c>
-      <c r="B644" s="14" t="s">
+      <c r="B644" s="9" t="s">
         <v>2106</v>
       </c>
-      <c r="C644" s="14" t="s">
+      <c r="C644" s="9" t="s">
         <v>2107</v>
       </c>
     </row>
@@ -29110,24 +29137,24 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2111</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2112</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2113</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="14" t="s">
+      <c r="A647" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="B647" s="14" t="s">
+      <c r="B647" s="9" t="s">
         <v>2115</v>
       </c>
-      <c r="C647" s="14" t="s">
+      <c r="C647" s="9" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -29143,13 +29170,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="9" t="s">
+      <c r="A649" s="14" t="s">
         <v>2120</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="14" t="s">
         <v>2121</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="14" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -29187,21 +29214,21 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="14" t="s">
+      <c r="A653" s="9" t="s">
         <v>2132</v>
       </c>
-      <c r="B653" s="14" t="s">
+      <c r="B653" s="9" t="s">
         <v>2133</v>
       </c>
-      <c r="C653" s="14" t="s">
+      <c r="C653" s="9" t="s">
         <v>2134</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="14" t="s">
         <v>2135</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="14" t="s">
         <v>2136</v>
       </c>
       <c r="C654" s="14" t="s">
@@ -29209,10 +29236,10 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="14" t="s">
+      <c r="A655" s="9" t="s">
         <v>2138</v>
       </c>
-      <c r="B655" s="14" t="s">
+      <c r="B655" s="9" t="s">
         <v>2139</v>
       </c>
       <c r="C655" s="14" t="s">
@@ -29231,13 +29258,13 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="9" t="s">
+      <c r="A657" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="14" t="s">
         <v>2145</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="14" t="s">
         <v>2146</v>
       </c>
     </row>
@@ -29253,13 +29280,13 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="14" t="s">
+      <c r="A659" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="B659" s="14" t="s">
+      <c r="B659" s="9" t="s">
         <v>2151</v>
       </c>
-      <c r="C659" s="14" t="s">
+      <c r="C659" s="9" t="s">
         <v>2152</v>
       </c>
     </row>
@@ -29275,24 +29302,24 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="9" t="s">
+      <c r="A661" s="14" t="s">
         <v>2156</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="14" t="s">
         <v>2157</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="14" t="s">
         <v>2158</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="9" t="s">
+      <c r="A662" s="14" t="s">
         <v>2159</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="14" t="s">
         <v>2160</v>
       </c>
-      <c r="C662" s="9" t="s">
+      <c r="C662" s="14" t="s">
         <v>2161</v>
       </c>
     </row>
@@ -29330,13 +29357,13 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="19" t="s">
+      <c r="A666" s="9" t="s">
         <v>2171</v>
       </c>
-      <c r="B666" s="19" t="s">
+      <c r="B666" s="9" t="s">
         <v>2172</v>
       </c>
-      <c r="C666" s="10" t="s">
+      <c r="C666" s="9" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -29352,13 +29379,13 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="14" t="s">
+      <c r="A668" s="19" t="s">
         <v>2177</v>
       </c>
-      <c r="B668" s="14" t="s">
+      <c r="B668" s="19" t="s">
         <v>2178</v>
       </c>
-      <c r="C668" s="14" t="s">
+      <c r="C668" s="10" t="s">
         <v>2179</v>
       </c>
     </row>
@@ -29385,13 +29412,13 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="14" t="s">
+      <c r="A671" s="9" t="s">
         <v>2186</v>
       </c>
-      <c r="B671" s="14" t="s">
+      <c r="B671" s="9" t="s">
         <v>2187</v>
       </c>
-      <c r="C671" s="14" t="s">
+      <c r="C671" s="9" t="s">
         <v>2188</v>
       </c>
     </row>
@@ -29407,13 +29434,13 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="9" t="s">
+      <c r="A673" s="14" t="s">
         <v>2192</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="14" t="s">
         <v>2193</v>
       </c>
-      <c r="C673" s="9" t="s">
+      <c r="C673" s="14" t="s">
         <v>2194</v>
       </c>
     </row>
@@ -29484,13 +29511,13 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="9" t="s">
+      <c r="A680" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="B680" s="9" t="s">
+      <c r="B680" s="14" t="s">
         <v>2214</v>
       </c>
-      <c r="C680" s="9" t="s">
+      <c r="C680" s="14" t="s">
         <v>2215</v>
       </c>
     </row>
@@ -29506,24 +29533,24 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="14" t="s">
+      <c r="A682" s="9" t="s">
         <v>2219</v>
       </c>
-      <c r="B682" s="14" t="s">
+      <c r="B682" s="9" t="s">
         <v>2220</v>
       </c>
-      <c r="C682" s="14" t="s">
+      <c r="C682" s="9" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="14" t="s">
+      <c r="A683" s="9" t="s">
         <v>2222</v>
       </c>
-      <c r="B683" s="14" t="s">
+      <c r="B683" s="9" t="s">
         <v>2223</v>
       </c>
-      <c r="C683" s="14" t="s">
+      <c r="C683" s="9" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -29550,24 +29577,24 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="14" t="s">
         <v>2231</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="14" t="s">
         <v>2232</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C686" s="14" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="9" t="s">
+      <c r="A687" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="14" t="s">
         <v>2235</v>
       </c>
-      <c r="C687" s="9" t="s">
+      <c r="C687" s="14" t="s">
         <v>2236</v>
       </c>
     </row>
@@ -29597,7 +29624,7 @@
       <c r="A690" s="9" t="s">
         <v>2243</v>
       </c>
-      <c r="B690" s="14" t="s">
+      <c r="B690" s="9" t="s">
         <v>2244</v>
       </c>
       <c r="C690" s="9" t="s">
@@ -29605,46 +29632,46 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="14" t="s">
+      <c r="A691" s="9" t="s">
         <v>2246</v>
       </c>
-      <c r="B691" s="14" t="s">
+      <c r="B691" s="9" t="s">
         <v>2247</v>
       </c>
-      <c r="C691" s="14" t="s">
+      <c r="C691" s="9" t="s">
         <v>2248</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2249</v>
       </c>
       <c r="B692" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="9" t="s">
+      <c r="A693" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="B693" s="9" t="s">
+      <c r="B693" s="14" t="s">
         <v>2253</v>
       </c>
-      <c r="C693" s="9" t="s">
+      <c r="C693" s="14" t="s">
         <v>2254</v>
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="14" t="s">
         <v>2255</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="14" t="s">
         <v>2256</v>
       </c>
-      <c r="C694" s="9" t="s">
+      <c r="C694" s="14" t="s">
         <v>2257</v>
       </c>
     </row>
@@ -29671,10 +29698,10 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="19" t="s">
+      <c r="A697" s="9" t="s">
         <v>2264</v>
       </c>
-      <c r="B697" s="19" t="s">
+      <c r="B697" s="9" t="s">
         <v>2265</v>
       </c>
       <c r="C697" s="9" t="s">
@@ -29693,10 +29720,10 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="9" t="s">
+      <c r="A699" s="19" t="s">
         <v>2270</v>
       </c>
-      <c r="B699" s="9" t="s">
+      <c r="B699" s="19" t="s">
         <v>2271</v>
       </c>
       <c r="C699" s="9" t="s">
@@ -29726,24 +29753,24 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="14" t="s">
+      <c r="A702" s="9" t="s">
         <v>2279</v>
       </c>
-      <c r="B702" s="14" t="s">
+      <c r="B702" s="9" t="s">
         <v>2280</v>
       </c>
-      <c r="C702" s="14" t="s">
+      <c r="C702" s="9" t="s">
         <v>2281</v>
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="14" t="s">
+      <c r="A703" s="9" t="s">
         <v>2282</v>
       </c>
-      <c r="B703" s="14" t="s">
+      <c r="B703" s="9" t="s">
         <v>2283</v>
       </c>
-      <c r="C703" s="14" t="s">
+      <c r="C703" s="9" t="s">
         <v>2284</v>
       </c>
     </row>
@@ -29770,13 +29797,13 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="9" t="s">
+      <c r="A706" s="14" t="s">
         <v>2291</v>
       </c>
-      <c r="B706" s="9" t="s">
+      <c r="B706" s="14" t="s">
         <v>2292</v>
       </c>
-      <c r="C706" s="9" t="s">
+      <c r="C706" s="14" t="s">
         <v>2293</v>
       </c>
     </row>
@@ -29803,13 +29830,13 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="9" t="s">
+      <c r="A709" s="14" t="s">
         <v>2300</v>
       </c>
-      <c r="B709" s="9" t="s">
+      <c r="B709" s="14" t="s">
         <v>2301</v>
       </c>
-      <c r="C709" s="9" t="s">
+      <c r="C709" s="14" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -29825,13 +29852,13 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="14" t="s">
+      <c r="A711" s="9" t="s">
         <v>2306</v>
       </c>
-      <c r="B711" s="14" t="s">
+      <c r="B711" s="9" t="s">
         <v>2307</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="9" t="s">
         <v>2308</v>
       </c>
     </row>
@@ -29902,35 +29929,35 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="14" t="s">
+      <c r="A718" s="9" t="s">
         <v>2327</v>
       </c>
-      <c r="B718" s="14" t="s">
+      <c r="B718" s="9" t="s">
         <v>2328</v>
       </c>
-      <c r="C718" s="14" t="s">
+      <c r="C718" s="9" t="s">
         <v>2329</v>
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="9" t="s">
+      <c r="A719" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="B719" s="9" t="s">
+      <c r="B719" s="14" t="s">
         <v>2331</v>
       </c>
-      <c r="C719" s="9" t="s">
+      <c r="C719" s="14" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="9" t="s">
+      <c r="A720" s="14" t="s">
         <v>2333</v>
       </c>
-      <c r="B720" s="9" t="s">
+      <c r="B720" s="14" t="s">
         <v>2334</v>
       </c>
-      <c r="C720" s="9" t="s">
+      <c r="C720" s="14" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -29946,13 +29973,13 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="14" t="s">
+      <c r="A722" s="9" t="s">
         <v>2339</v>
       </c>
-      <c r="B722" s="14" t="s">
+      <c r="B722" s="9" t="s">
         <v>2340</v>
       </c>
-      <c r="C722" s="14" t="s">
+      <c r="C722" s="9" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -29979,13 +30006,13 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="14" t="s">
+      <c r="A725" s="9" t="s">
         <v>2348</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="9" t="s">
         <v>2349</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2350</v>
       </c>
     </row>
@@ -30023,13 +30050,13 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="9" t="s">
+      <c r="A729" s="14" t="s">
         <v>2360</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="14" t="s">
         <v>2361</v>
       </c>
-      <c r="C729" s="9" t="s">
+      <c r="C729" s="14" t="s">
         <v>2362</v>
       </c>
     </row>
@@ -30045,35 +30072,35 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="14" t="s">
+      <c r="A731" s="9" t="s">
         <v>2366</v>
       </c>
-      <c r="B731" s="14" t="s">
+      <c r="B731" s="9" t="s">
         <v>2367</v>
       </c>
-      <c r="C731" s="14" t="s">
+      <c r="C731" s="9" t="s">
         <v>2368</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="14" t="s">
         <v>2370</v>
       </c>
-      <c r="C732" s="9" t="s">
+      <c r="C732" s="14" t="s">
         <v>2371</v>
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="9" t="s">
+      <c r="A733" s="14" t="s">
         <v>2372</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" s="14" t="s">
         <v>2373</v>
       </c>
-      <c r="C733" s="9" t="s">
+      <c r="C733" s="14" t="s">
         <v>2374</v>
       </c>
     </row>
@@ -30089,13 +30116,13 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="14" t="s">
+      <c r="A735" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="B735" s="14" t="s">
+      <c r="B735" s="9" t="s">
         <v>2379</v>
       </c>
-      <c r="C735" s="14" t="s">
+      <c r="C735" s="9" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -30111,13 +30138,13 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="9" t="s">
+      <c r="A737" s="14" t="s">
         <v>2384</v>
       </c>
-      <c r="B737" s="9" t="s">
+      <c r="B737" s="14" t="s">
         <v>2385</v>
       </c>
-      <c r="C737" s="9" t="s">
+      <c r="C737" s="14" t="s">
         <v>2386</v>
       </c>
     </row>
@@ -30133,24 +30160,24 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="14" t="s">
+      <c r="A739" s="9" t="s">
         <v>2390</v>
       </c>
-      <c r="B739" s="14" t="s">
+      <c r="B739" s="9" t="s">
         <v>2391</v>
       </c>
-      <c r="C739" s="14" t="s">
+      <c r="C739" s="9" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2393</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2394</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -30188,13 +30215,13 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="9" t="s">
+      <c r="A744" s="14" t="s">
         <v>2405</v>
       </c>
-      <c r="B744" s="9" t="s">
+      <c r="B744" s="14" t="s">
         <v>2406</v>
       </c>
-      <c r="C744" s="9" t="s">
+      <c r="C744" s="14" t="s">
         <v>2407</v>
       </c>
     </row>
@@ -30210,35 +30237,35 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="14" t="s">
+      <c r="A746" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="B746" s="14" t="s">
+      <c r="B746" s="9" t="s">
         <v>2412</v>
       </c>
-      <c r="C746" s="14" t="s">
+      <c r="C746" s="9" t="s">
         <v>2413</v>
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="9" t="s">
+      <c r="A747" s="14" t="s">
         <v>2414</v>
       </c>
-      <c r="B747" s="9" t="s">
+      <c r="B747" s="14" t="s">
         <v>2415</v>
       </c>
-      <c r="C747" s="9" t="s">
+      <c r="C747" s="14" t="s">
         <v>2416</v>
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="14" t="s">
         <v>2417</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="14" t="s">
         <v>2418</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2419</v>
       </c>
     </row>
@@ -30276,13 +30303,13 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="14" t="s">
+      <c r="A752" s="9" t="s">
         <v>2429</v>
       </c>
-      <c r="B752" s="14" t="s">
+      <c r="B752" s="9" t="s">
         <v>2430</v>
       </c>
-      <c r="C752" s="14" t="s">
+      <c r="C752" s="9" t="s">
         <v>2431</v>
       </c>
     </row>
@@ -30298,13 +30325,13 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="9" t="s">
+      <c r="A754" s="14" t="s">
         <v>2435</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="14" t="s">
         <v>2436</v>
       </c>
-      <c r="C754" s="9" t="s">
+      <c r="C754" s="14" t="s">
         <v>2437</v>
       </c>
     </row>
@@ -30331,24 +30358,24 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="14" t="s">
+      <c r="A757" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="B757" s="14" t="s">
+      <c r="B757" s="9" t="s">
         <v>2445</v>
       </c>
-      <c r="C757" s="14" t="s">
+      <c r="C757" s="9" t="s">
         <v>2446</v>
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="14" t="s">
+      <c r="A758" s="9" t="s">
         <v>2447</v>
       </c>
-      <c r="B758" s="14" t="s">
+      <c r="B758" s="9" t="s">
         <v>2448</v>
       </c>
-      <c r="C758" s="14" t="s">
+      <c r="C758" s="9" t="s">
         <v>2449</v>
       </c>
     </row>
@@ -30375,24 +30402,24 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="9" t="s">
+      <c r="A761" s="14" t="s">
         <v>2456</v>
       </c>
-      <c r="B761" s="9" t="s">
+      <c r="B761" s="14" t="s">
         <v>2457</v>
       </c>
-      <c r="C761" s="9" t="s">
+      <c r="C761" s="14" t="s">
         <v>2458</v>
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="9" t="s">
+      <c r="A762" s="14" t="s">
         <v>2459</v>
       </c>
-      <c r="B762" s="9" t="s">
+      <c r="B762" s="14" t="s">
         <v>2460</v>
       </c>
-      <c r="C762" s="9" t="s">
+      <c r="C762" s="14" t="s">
         <v>2461</v>
       </c>
     </row>
@@ -30408,24 +30435,24 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2465</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2466</v>
       </c>
-      <c r="C764" s="14" t="s">
+      <c r="C764" s="9" t="s">
         <v>2467</v>
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="14" t="s">
+      <c r="A765" s="9" t="s">
         <v>2468</v>
       </c>
-      <c r="B765" s="14" t="s">
+      <c r="B765" s="9" t="s">
         <v>2469</v>
       </c>
-      <c r="C765" s="14" t="s">
+      <c r="C765" s="9" t="s">
         <v>2470</v>
       </c>
     </row>
@@ -30452,10 +30479,10 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="9" t="s">
+      <c r="A768" s="14" t="s">
         <v>2477</v>
       </c>
-      <c r="B768" s="9" t="s">
+      <c r="B768" s="14" t="s">
         <v>2478</v>
       </c>
       <c r="C768" s="14" t="s">
@@ -30463,21 +30490,21 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="9" t="s">
+      <c r="A769" s="14" t="s">
         <v>2480</v>
       </c>
-      <c r="B769" s="9" t="s">
+      <c r="B769" s="14" t="s">
         <v>2481</v>
       </c>
-      <c r="C769" s="9" t="s">
+      <c r="C769" s="14" t="s">
         <v>2482</v>
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="14" t="s">
+      <c r="A770" s="9" t="s">
         <v>2483</v>
       </c>
-      <c r="B770" s="14" t="s">
+      <c r="B770" s="9" t="s">
         <v>2484</v>
       </c>
       <c r="C770" s="14" t="s">
@@ -30485,10 +30512,10 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="14" t="s">
+      <c r="A771" s="9" t="s">
         <v>2486</v>
       </c>
-      <c r="B771" s="14" t="s">
+      <c r="B771" s="9" t="s">
         <v>2487</v>
       </c>
       <c r="C771" s="9" t="s">
@@ -30502,7 +30529,7 @@
       <c r="B772" s="14" t="s">
         <v>2490</v>
       </c>
-      <c r="C772" s="9" t="s">
+      <c r="C772" s="14" t="s">
         <v>2491</v>
       </c>
     </row>
@@ -30513,15 +30540,15 @@
       <c r="B773" s="14" t="s">
         <v>2493</v>
       </c>
-      <c r="C773" s="14" t="s">
+      <c r="C773" s="9" t="s">
         <v>2494</v>
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="9" t="s">
+      <c r="A774" s="14" t="s">
         <v>2495</v>
       </c>
-      <c r="B774" s="9" t="s">
+      <c r="B774" s="14" t="s">
         <v>2496</v>
       </c>
       <c r="C774" s="9" t="s">
@@ -30529,13 +30556,13 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="9" t="s">
+      <c r="A775" s="14" t="s">
         <v>2498</v>
       </c>
       <c r="B775" s="14" t="s">
         <v>2499</v>
       </c>
-      <c r="C775" s="9" t="s">
+      <c r="C775" s="14" t="s">
         <v>2500</v>
       </c>
     </row>
@@ -30554,7 +30581,7 @@
       <c r="A777" s="9" t="s">
         <v>2504</v>
       </c>
-      <c r="B777" s="9" t="s">
+      <c r="B777" s="14" t="s">
         <v>2505</v>
       </c>
       <c r="C777" s="9" t="s">
@@ -30579,26 +30606,26 @@
       <c r="B779" s="9" t="s">
         <v>2511</v>
       </c>
-      <c r="C779" s="14" t="s">
+      <c r="C779" s="9" t="s">
         <v>2512</v>
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="14" t="s">
+      <c r="A780" s="9" t="s">
         <v>2513</v>
       </c>
-      <c r="B780" s="14" t="s">
+      <c r="B780" s="9" t="s">
         <v>2514</v>
       </c>
-      <c r="C780" s="14" t="s">
+      <c r="C780" s="9" t="s">
         <v>2515</v>
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="14" t="s">
+      <c r="A781" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="B781" s="14" t="s">
+      <c r="B781" s="9" t="s">
         <v>2517</v>
       </c>
       <c r="C781" s="14" t="s">
@@ -30606,13 +30633,13 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="9" t="s">
+      <c r="A782" s="14" t="s">
         <v>2519</v>
       </c>
-      <c r="B782" s="9" t="s">
+      <c r="B782" s="14" t="s">
         <v>2520</v>
       </c>
-      <c r="C782" s="9" t="s">
+      <c r="C782" s="14" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -30634,7 +30661,7 @@
       <c r="B784" s="9" t="s">
         <v>2526</v>
       </c>
-      <c r="C784" s="14" t="s">
+      <c r="C784" s="9" t="s">
         <v>2527</v>
       </c>
     </row>
@@ -30645,7 +30672,7 @@
       <c r="B785" s="14" t="s">
         <v>2529</v>
       </c>
-      <c r="C785" s="9" t="s">
+      <c r="C785" s="14" t="s">
         <v>2530</v>
       </c>
     </row>
@@ -30654,29 +30681,29 @@
         <v>2531</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C786" s="9" t="s">
         <v>2532</v>
       </c>
+      <c r="C786" s="14" t="s">
+        <v>2533</v>
+      </c>
     </row>
     <row r="787">
-      <c r="A787" s="9" t="s">
-        <v>2533</v>
-      </c>
-      <c r="B787" s="9" t="s">
+      <c r="A787" s="14" t="s">
         <v>2534</v>
       </c>
+      <c r="B787" s="14" t="s">
+        <v>2535</v>
+      </c>
       <c r="C787" s="9" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="9" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>2537</v>
+        <v>2397</v>
       </c>
       <c r="C788" s="9" t="s">
         <v>2538</v>
@@ -30700,29 +30727,29 @@
       <c r="B790" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="C790" s="14" t="s">
+      <c r="C790" s="9" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="14" t="s">
+      <c r="A791" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B791" s="14" t="s">
+      <c r="B791" s="9" t="s">
         <v>2546</v>
       </c>
-      <c r="C791" s="14" t="s">
+      <c r="C791" s="9" t="s">
         <v>2547</v>
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="14" t="s">
+      <c r="A792" s="9" t="s">
         <v>2548</v>
       </c>
       <c r="B792" s="9" t="s">
         <v>2549</v>
       </c>
-      <c r="C792" s="9" t="s">
+      <c r="C792" s="14" t="s">
         <v>2550</v>
       </c>
     </row>
@@ -30733,12 +30760,12 @@
       <c r="B793" s="14" t="s">
         <v>2552</v>
       </c>
-      <c r="C793" s="9" t="s">
+      <c r="C793" s="14" t="s">
         <v>2553</v>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="9" t="s">
+      <c r="A794" s="14" t="s">
         <v>2554</v>
       </c>
       <c r="B794" s="9" t="s">
@@ -30749,13 +30776,13 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="9" t="s">
+      <c r="A795" s="14" t="s">
         <v>2557</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="14" t="s">
         <v>2558</v>
       </c>
-      <c r="C795" s="14" t="s">
+      <c r="C795" s="9" t="s">
         <v>2559</v>
       </c>
     </row>
@@ -30771,10 +30798,10 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="14" t="s">
+      <c r="A797" s="9" t="s">
         <v>2563</v>
       </c>
-      <c r="B797" s="14" t="s">
+      <c r="B797" s="9" t="s">
         <v>2564</v>
       </c>
       <c r="C797" s="14" t="s">
@@ -30793,21 +30820,21 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="9" t="s">
+      <c r="A799" s="14" t="s">
         <v>2569</v>
       </c>
-      <c r="B799" s="9" t="s">
+      <c r="B799" s="14" t="s">
         <v>2570</v>
       </c>
-      <c r="C799" s="9" t="s">
+      <c r="C799" s="14" t="s">
         <v>2571</v>
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="14" t="s">
+      <c r="A800" s="9" t="s">
         <v>2572</v>
       </c>
-      <c r="B800" s="14" t="s">
+      <c r="B800" s="9" t="s">
         <v>2573</v>
       </c>
       <c r="C800" s="9" t="s">
@@ -30826,10 +30853,10 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="9" t="s">
+      <c r="A802" s="14" t="s">
         <v>2578</v>
       </c>
-      <c r="B802" s="9" t="s">
+      <c r="B802" s="14" t="s">
         <v>2579</v>
       </c>
       <c r="C802" s="9" t="s">
@@ -30859,13 +30886,13 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="14" t="s">
+      <c r="A805" s="9" t="s">
         <v>2587</v>
       </c>
-      <c r="B805" s="14" t="s">
+      <c r="B805" s="9" t="s">
         <v>2588</v>
       </c>
-      <c r="C805" s="14" t="s">
+      <c r="C805" s="9" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -30898,7 +30925,7 @@
       <c r="B808" s="9" t="s">
         <v>2597</v>
       </c>
-      <c r="C808" s="14" t="s">
+      <c r="C808" s="9" t="s">
         <v>2598</v>
       </c>
     </row>
@@ -30936,13 +30963,13 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="14" t="s">
+      <c r="A812" s="9" t="s">
         <v>2608</v>
       </c>
-      <c r="B812" s="14" t="s">
+      <c r="B812" s="9" t="s">
         <v>2609</v>
       </c>
-      <c r="C812" s="9" t="s">
+      <c r="C812" s="14" t="s">
         <v>2610</v>
       </c>
     </row>
@@ -30958,10 +30985,10 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="9" t="s">
+      <c r="A814" s="14" t="s">
         <v>2614</v>
       </c>
-      <c r="B814" s="9" t="s">
+      <c r="B814" s="14" t="s">
         <v>2615</v>
       </c>
       <c r="C814" s="9" t="s">
@@ -30980,13 +31007,13 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="14" t="s">
+      <c r="A816" s="9" t="s">
         <v>2620</v>
       </c>
-      <c r="B816" s="14" t="s">
+      <c r="B816" s="9" t="s">
         <v>2621</v>
       </c>
-      <c r="C816" s="14" t="s">
+      <c r="C816" s="9" t="s">
         <v>2622</v>
       </c>
     </row>
@@ -31041,7 +31068,7 @@
       <c r="B821" s="14" t="s">
         <v>2636</v>
       </c>
-      <c r="C821" s="9" t="s">
+      <c r="C821" s="14" t="s">
         <v>2637</v>
       </c>
     </row>
@@ -31049,10 +31076,10 @@
       <c r="A822" s="14" t="s">
         <v>2638</v>
       </c>
-      <c r="B822" s="9" t="s">
+      <c r="B822" s="14" t="s">
         <v>2639</v>
       </c>
-      <c r="C822" s="9" t="s">
+      <c r="C822" s="14" t="s">
         <v>2640</v>
       </c>
     </row>
@@ -31068,21 +31095,21 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="9" t="s">
+      <c r="A824" s="14" t="s">
         <v>2644</v>
       </c>
       <c r="B824" s="9" t="s">
         <v>2645</v>
       </c>
-      <c r="C824" s="14" t="s">
+      <c r="C824" s="9" t="s">
         <v>2646</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="9" t="s">
+      <c r="A825" s="14" t="s">
         <v>2647</v>
       </c>
-      <c r="B825" s="9" t="s">
+      <c r="B825" s="14" t="s">
         <v>2648</v>
       </c>
       <c r="C825" s="9" t="s">
@@ -31090,10 +31117,10 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="14" t="s">
+      <c r="A826" s="9" t="s">
         <v>2650</v>
       </c>
-      <c r="B826" s="14" t="s">
+      <c r="B826" s="9" t="s">
         <v>2651</v>
       </c>
       <c r="C826" s="14" t="s">
@@ -31107,7 +31134,7 @@
       <c r="B827" s="9" t="s">
         <v>2654</v>
       </c>
-      <c r="C827" s="14" t="s">
+      <c r="C827" s="9" t="s">
         <v>2655</v>
       </c>
     </row>
@@ -31118,15 +31145,15 @@
       <c r="B828" s="14" t="s">
         <v>2657</v>
       </c>
-      <c r="C828" s="9" t="s">
+      <c r="C828" s="14" t="s">
         <v>2658</v>
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="14" t="s">
+      <c r="A829" s="9" t="s">
         <v>2659</v>
       </c>
-      <c r="B829" s="14" t="s">
+      <c r="B829" s="9" t="s">
         <v>2660</v>
       </c>
       <c r="C829" s="14" t="s">
@@ -31134,10 +31161,10 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="9" t="s">
+      <c r="A830" s="14" t="s">
         <v>2662</v>
       </c>
-      <c r="B830" s="9" t="s">
+      <c r="B830" s="14" t="s">
         <v>2663</v>
       </c>
       <c r="C830" s="9" t="s">
@@ -31151,7 +31178,7 @@
       <c r="B831" s="14" t="s">
         <v>2666</v>
       </c>
-      <c r="C831" s="9" t="s">
+      <c r="C831" s="14" t="s">
         <v>2667</v>
       </c>
     </row>
@@ -31167,10 +31194,10 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="9" t="s">
+      <c r="A833" s="14" t="s">
         <v>2671</v>
       </c>
-      <c r="B833" s="9" t="s">
+      <c r="B833" s="14" t="s">
         <v>2672</v>
       </c>
       <c r="C833" s="9" t="s">
@@ -31184,7 +31211,7 @@
       <c r="B834" s="9" t="s">
         <v>2675</v>
       </c>
-      <c r="C834" s="14" t="s">
+      <c r="C834" s="9" t="s">
         <v>2676</v>
       </c>
     </row>
@@ -31206,7 +31233,7 @@
       <c r="B836" s="9" t="s">
         <v>2681</v>
       </c>
-      <c r="C836" s="9" t="s">
+      <c r="C836" s="14" t="s">
         <v>2682</v>
       </c>
     </row>
@@ -31217,26 +31244,26 @@
       <c r="B837" s="9" t="s">
         <v>2684</v>
       </c>
-      <c r="C837" s="14" t="s">
+      <c r="C837" s="9" t="s">
         <v>2685</v>
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="14" t="s">
+      <c r="A838" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="B838" s="14" t="s">
+      <c r="B838" s="9" t="s">
         <v>2687</v>
       </c>
-      <c r="C838" s="14" t="s">
+      <c r="C838" s="9" t="s">
         <v>2688</v>
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="14" t="s">
+      <c r="A839" s="9" t="s">
         <v>2689</v>
       </c>
-      <c r="B839" s="14" t="s">
+      <c r="B839" s="9" t="s">
         <v>2690</v>
       </c>
       <c r="C839" s="14" t="s">
@@ -31248,42 +31275,42 @@
         <v>2692</v>
       </c>
       <c r="B840" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C840" s="9" t="s">
         <v>2693</v>
+      </c>
+      <c r="C840" s="14" t="s">
+        <v>2694</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="14" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B841" s="14" t="s">
-        <v>2695</v>
-      </c>
-      <c r="C841" s="9" t="s">
         <v>2696</v>
+      </c>
+      <c r="C841" s="14" t="s">
+        <v>2697</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="14" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="B842" s="14" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C842" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="C842" s="9" t="s">
         <v>2699</v>
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="9" t="s">
+      <c r="A843" s="14" t="s">
         <v>2700</v>
       </c>
-      <c r="B843" s="9" t="s">
+      <c r="B843" s="14" t="s">
         <v>2701</v>
       </c>
-      <c r="C843" s="14" t="s">
+      <c r="C843" s="9" t="s">
         <v>2702</v>
       </c>
     </row>
@@ -31305,15 +31332,15 @@
       <c r="B845" s="9" t="s">
         <v>2707</v>
       </c>
-      <c r="C845" s="9" t="s">
+      <c r="C845" s="14" t="s">
         <v>2708</v>
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="9" t="s">
+      <c r="A846" s="14" t="s">
         <v>2709</v>
       </c>
-      <c r="B846" s="9" t="s">
+      <c r="B846" s="14" t="s">
         <v>2710</v>
       </c>
       <c r="C846" s="14" t="s">
@@ -31332,21 +31359,21 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="9" t="s">
+      <c r="A848" s="14" t="s">
         <v>2715</v>
       </c>
-      <c r="B848" s="9" t="s">
+      <c r="B848" s="14" t="s">
         <v>2716</v>
       </c>
-      <c r="C848" s="9" t="s">
+      <c r="C848" s="14" t="s">
         <v>2717</v>
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="14" t="s">
+      <c r="A849" s="9" t="s">
         <v>2718</v>
       </c>
-      <c r="B849" s="14" t="s">
+      <c r="B849" s="9" t="s">
         <v>2719</v>
       </c>
       <c r="C849" s="14" t="s">
@@ -31354,24 +31381,24 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="14" t="s">
+      <c r="A850" s="9" t="s">
         <v>2721</v>
       </c>
-      <c r="B850" s="14" t="s">
+      <c r="B850" s="9" t="s">
         <v>2722</v>
       </c>
-      <c r="C850" s="14" t="s">
+      <c r="C850" s="9" t="s">
         <v>2723</v>
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="14" t="s">
+      <c r="A851" s="9" t="s">
         <v>2724</v>
       </c>
-      <c r="B851" s="14" t="s">
+      <c r="B851" s="9" t="s">
         <v>2725</v>
       </c>
-      <c r="C851" s="14" t="s">
+      <c r="C851" s="9" t="s">
         <v>2726</v>
       </c>
     </row>
@@ -31398,16 +31425,37 @@
       </c>
     </row>
     <row r="854">
-      <c r="B854" s="24"/>
-      <c r="C854" s="24"/>
+      <c r="A854" s="14" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B854" s="14" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C854" s="14" t="s">
+        <v>2735</v>
+      </c>
     </row>
     <row r="855">
-      <c r="B855" s="24"/>
-      <c r="C855" s="24"/>
+      <c r="A855" s="14" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B855" s="14" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C855" s="14" t="s">
+        <v>2738</v>
+      </c>
     </row>
     <row r="856">
-      <c r="B856" s="24"/>
-      <c r="C856" s="24"/>
+      <c r="A856" s="14" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B856" s="14" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C856" s="14" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="857">
       <c r="B857" s="24"/>
@@ -31994,10 +32042,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$853">
-    <sortState ref="A1:C853">
-      <sortCondition ref="A1:A853"/>
-      <sortCondition ref="B1:B853"/>
+  <autoFilter ref="$A$1:$C$856">
+    <sortState ref="A1:C856">
+      <sortCondition ref="A1:A856"/>
+      <sortCondition ref="B1:B856"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$856</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$857</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="2744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="2747">
   <si>
     <t>Word</t>
   </si>
@@ -3717,2785 +3717,2785 @@
     <t>лолоска</t>
   </si>
   <si>
-    <t>lom</t>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>лома</t>
+  </si>
+  <si>
+    <t>lomisk</t>
+  </si>
+  <si>
+    <t>air tank, gas tank</t>
+  </si>
+  <si>
+    <t>ломиск</t>
+  </si>
+  <si>
+    <t>lomiyn</t>
+  </si>
+  <si>
+    <t>hall, hallway</t>
+  </si>
+  <si>
+    <t>ломйн</t>
+  </si>
+  <si>
+    <t>lons</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>лонс</t>
+  </si>
+  <si>
+    <t>lopelat</t>
+  </si>
+  <si>
+    <t>to circle, to surround, to go around, to loop</t>
+  </si>
+  <si>
+    <t>лопелат</t>
+  </si>
+  <si>
+    <t>lorn</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>лорн</t>
+  </si>
+  <si>
+    <t>lornin</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>лорнин</t>
+  </si>
+  <si>
+    <t>lornyo</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>лорнё</t>
+  </si>
+  <si>
+    <t>lorov</t>
+  </si>
+  <si>
+    <t>land, ground</t>
+  </si>
+  <si>
+    <t>лоров</t>
+  </si>
+  <si>
+    <t>losik</t>
+  </si>
+  <si>
+    <t>station, outpost</t>
+  </si>
+  <si>
+    <t>лосик</t>
+  </si>
+  <si>
+    <t>lovo</t>
+  </si>
+  <si>
+    <t>operator, driver, crewmember</t>
+  </si>
+  <si>
+    <t>лово</t>
+  </si>
+  <si>
+    <t>loykit</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>лойкит</t>
+  </si>
+  <si>
+    <t>lujayka</t>
+  </si>
+  <si>
+    <t>lawn, garden</t>
+  </si>
+  <si>
+    <t>лужайка</t>
+  </si>
+  <si>
+    <t>lumenekiyo</t>
+  </si>
+  <si>
+    <t>knowledge, information</t>
+  </si>
+  <si>
+    <t>лумэнов</t>
+  </si>
+  <si>
+    <t>lumetsya</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>лумэця</t>
+  </si>
+  <si>
+    <t>lumka</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>лумка</t>
+  </si>
+  <si>
+    <t>lunst</t>
+  </si>
+  <si>
+    <t>garbage, trash</t>
+  </si>
+  <si>
+    <t>лунст</t>
+  </si>
+  <si>
+    <t>lutsya</t>
+  </si>
+  <si>
+    <t>to teach</t>
+  </si>
+  <si>
+    <t>луця</t>
+  </si>
+  <si>
+    <t>lyan</t>
+  </si>
+  <si>
+    <t>bright, shining</t>
+  </si>
+  <si>
+    <t>лян</t>
+  </si>
+  <si>
+    <t>lyaskiy</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>ляскй</t>
+  </si>
+  <si>
+    <t>lyemanyat</t>
+  </si>
+  <si>
+    <t>to build</t>
+  </si>
+  <si>
+    <t>леманят</t>
+  </si>
+  <si>
+    <t>lyoj</t>
+  </si>
+  <si>
+    <t>0.1 fluid ounces, 0.1 fl oz</t>
+  </si>
+  <si>
+    <t>лёж</t>
+  </si>
+  <si>
+    <t>lyosabyo</t>
+  </si>
+  <si>
+    <t>lover, significant other</t>
+  </si>
+  <si>
+    <t>лёсабё</t>
+  </si>
+  <si>
+    <t>lyosibit</t>
+  </si>
+  <si>
+    <t>to love</t>
+  </si>
+  <si>
+    <t>лёсибит</t>
+  </si>
+  <si>
+    <t>maglonak</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>маглонак</t>
+  </si>
+  <si>
+    <t>maglonakin</t>
+  </si>
+  <si>
+    <t>a million meters, 1000 kilometers</t>
+  </si>
+  <si>
+    <t>маглонакин</t>
+  </si>
+  <si>
+    <t>maglopel</t>
+  </si>
+  <si>
+    <t>ton, 1000 kilograms, 1000000 grams</t>
+  </si>
+  <si>
+    <t>маглопэл</t>
+  </si>
+  <si>
+    <t>makiv</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>макив</t>
+  </si>
+  <si>
+    <t>manakon</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>манакон</t>
+  </si>
+  <si>
+    <t>manaktaro</t>
+  </si>
+  <si>
+    <t>villain</t>
+  </si>
+  <si>
+    <t>манактаро</t>
+  </si>
+  <si>
+    <t>manaskev</t>
+  </si>
+  <si>
+    <t>in front, ahead</t>
+  </si>
+  <si>
+    <t>манаскэв</t>
+  </si>
+  <si>
+    <t>mank</t>
+  </si>
+  <si>
+    <t>gear, equipment</t>
+  </si>
+  <si>
+    <t>манк</t>
+  </si>
+  <si>
+    <t>manomovol</t>
+  </si>
+  <si>
+    <t>hotel, inn</t>
+  </si>
+  <si>
+    <t>маномовол</t>
+  </si>
+  <si>
+    <t>manyerta</t>
+  </si>
+  <si>
+    <t>manners, behaviour</t>
+  </si>
+  <si>
+    <t>манерта</t>
+  </si>
+  <si>
+    <t>marfreno</t>
+  </si>
+  <si>
+    <t>marfrenic people</t>
+  </si>
+  <si>
+    <t>марфрэно</t>
+  </si>
+  <si>
+    <t>markav</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>маркав</t>
+  </si>
+  <si>
+    <t>marnin</t>
+  </si>
+  <si>
+    <t>marnine</t>
+  </si>
+  <si>
+    <t>марнин</t>
+  </si>
+  <si>
+    <t>mashkaniyn</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>машканйн</t>
+  </si>
+  <si>
+    <t>maskara</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>маскара</t>
+  </si>
+  <si>
+    <t>mejeli</t>
+  </si>
+  <si>
+    <t>female reproductive organ</t>
+  </si>
+  <si>
+    <t>мэжэли</t>
+  </si>
+  <si>
+    <t>melokara</t>
+  </si>
+  <si>
+    <t>gorgeous, beautiful</t>
+  </si>
+  <si>
+    <t>мэлокара</t>
+  </si>
+  <si>
+    <t>meloma</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>мэлома</t>
+  </si>
+  <si>
+    <t>melsken</t>
+  </si>
+  <si>
+    <t>to approach, to arrive, to enter location</t>
+  </si>
+  <si>
+    <t>мэлскэн</t>
+  </si>
+  <si>
+    <t>merit</t>
+  </si>
+  <si>
+    <t>meat, flesh</t>
+  </si>
+  <si>
+    <t>мэрит</t>
+  </si>
+  <si>
+    <t>metonreyk</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>мэтонрэйк</t>
+  </si>
+  <si>
+    <t>meyrn</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>мэйрн</t>
+  </si>
+  <si>
+    <t>mikya</t>
+  </si>
+  <si>
+    <t>to can, to able</t>
+  </si>
+  <si>
+    <t>микя</t>
+  </si>
+  <si>
+    <t>miln</t>
+  </si>
+  <si>
+    <t>close, near</t>
+  </si>
+  <si>
+    <t>милн</t>
+  </si>
+  <si>
+    <t>miln narin</t>
+  </si>
+  <si>
+    <t>short/close range</t>
+  </si>
+  <si>
+    <t>милн нарин</t>
+  </si>
+  <si>
+    <t>minim</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>миним</t>
+  </si>
+  <si>
+    <t>mishanya</t>
+  </si>
+  <si>
+    <t>to appear</t>
+  </si>
+  <si>
+    <t>мишаня</t>
+  </si>
+  <si>
+    <t>miy</t>
+  </si>
+  <si>
+    <t>i, me, my (genitive, possessive)</t>
+  </si>
+  <si>
+    <t>мй</t>
+  </si>
+  <si>
+    <t>miyko</t>
+  </si>
+  <si>
+    <t>many, much, a lot</t>
+  </si>
+  <si>
+    <t>мйко</t>
+  </si>
+  <si>
+    <t>miyneyn</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>мйнэйн</t>
+  </si>
+  <si>
+    <t>mlada</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>млада</t>
+  </si>
+  <si>
+    <t>mloko</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>млоко</t>
+  </si>
+  <si>
+    <t>mojya</t>
+  </si>
+  <si>
+    <t>to carry</t>
+  </si>
+  <si>
+    <t>можя</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>мол</t>
+  </si>
+  <si>
+    <t>molosin</t>
+  </si>
+  <si>
+    <t>cow, cattle</t>
+  </si>
+  <si>
+    <t>молосин</t>
+  </si>
+  <si>
+    <t>molumba</t>
+  </si>
+  <si>
+    <t>nanopus (monster)</t>
+  </si>
+  <si>
+    <t>молумба</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>мон</t>
+  </si>
+  <si>
+    <t>monmashka</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>монмашка</t>
+  </si>
+  <si>
+    <t>monot</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>монот</t>
+  </si>
+  <si>
+    <t>morigot</t>
+  </si>
+  <si>
+    <t>morigalt</t>
+  </si>
+  <si>
+    <t>моригот</t>
+  </si>
+  <si>
+    <t>moriy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>морй</t>
+  </si>
+  <si>
+    <t>morston</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>морстон</t>
+  </si>
+  <si>
+    <t>motun</t>
+  </si>
+  <si>
+    <t>power, strength</t>
+  </si>
+  <si>
+    <t>мотун</t>
+  </si>
+  <si>
+    <t>mralyat</t>
+  </si>
+  <si>
+    <t>to give, to grant</t>
+  </si>
+  <si>
+    <t>мралят</t>
+  </si>
+  <si>
+    <t>mrel</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>мрэл</t>
+  </si>
+  <si>
+    <t>mreynat</t>
+  </si>
+  <si>
+    <t>to burn</t>
+  </si>
+  <si>
+    <t>мрэйнат</t>
+  </si>
+  <si>
+    <t>mrokek</t>
+  </si>
+  <si>
+    <t>мрокэк</t>
+  </si>
+  <si>
+    <t>mroken</t>
+  </si>
+  <si>
+    <t>мрокэн</t>
+  </si>
+  <si>
+    <t>mronat</t>
+  </si>
+  <si>
+    <t>to cry</t>
+  </si>
+  <si>
+    <t>мронат</t>
+  </si>
+  <si>
+    <t>mrotiys</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>мротйс</t>
+  </si>
+  <si>
+    <t>mrotiysniy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>мротйснй</t>
+  </si>
+  <si>
+    <t>mut</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>мут</t>
+  </si>
+  <si>
+    <t>muva</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>мува</t>
+  </si>
+  <si>
+    <t>myach</t>
+  </si>
+  <si>
+    <t>ball, sphere</t>
+  </si>
+  <si>
+    <t>мяч</t>
+  </si>
+  <si>
+    <t>myano</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>мяно</t>
+  </si>
+  <si>
+    <t>myau</t>
+  </si>
+  <si>
+    <t>meow (noun, interjection)</t>
+  </si>
+  <si>
+    <t>мяу</t>
+  </si>
+  <si>
+    <t>myaukat</t>
+  </si>
+  <si>
+    <t>to meow</t>
+  </si>
+  <si>
+    <t>мяукат</t>
+  </si>
+  <si>
+    <t>myerost</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>мерост</t>
+  </si>
+  <si>
+    <t>myeska</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>меска</t>
+  </si>
+  <si>
+    <t>myuto</t>
+  </si>
+  <si>
+    <t>shy, timid</t>
+  </si>
+  <si>
+    <t>мюто</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>i, me, my (nominative)</t>
+  </si>
+  <si>
+    <t>на</t>
+  </si>
+  <si>
+    <t>nacheshnat</t>
+  </si>
+  <si>
+    <t>to protect, to defend</t>
+  </si>
+  <si>
+    <t>начэшнат</t>
+  </si>
+  <si>
+    <t>nachkol</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>начкол</t>
+  </si>
+  <si>
+    <t>nafrav</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>нафрав</t>
+  </si>
+  <si>
+    <t>nafrav itam</t>
+  </si>
+  <si>
+    <t>warhead</t>
+  </si>
+  <si>
+    <t>нафрав итам</t>
+  </si>
+  <si>
+    <t>nakin</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>накин</t>
+  </si>
+  <si>
+    <t>nalakish</t>
+  </si>
+  <si>
+    <t>nalastite</t>
+  </si>
+  <si>
+    <t>налакиш</t>
+  </si>
+  <si>
+    <t>nalon</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>налон</t>
+  </si>
+  <si>
+    <t>nalto</t>
+  </si>
+  <si>
+    <t>inferior, lesser, worse</t>
+  </si>
+  <si>
+    <t>налто</t>
+  </si>
+  <si>
+    <t>napyacho</t>
+  </si>
+  <si>
+    <t>filled, full</t>
+  </si>
+  <si>
+    <t>напячо</t>
+  </si>
+  <si>
+    <t>napyat</t>
+  </si>
+  <si>
+    <t>to fill</t>
+  </si>
+  <si>
+    <t>напят</t>
+  </si>
+  <si>
+    <t>narin</t>
+  </si>
+  <si>
+    <t>distance, range</t>
+  </si>
+  <si>
+    <t>нарин</t>
+  </si>
+  <si>
+    <t>nasheta</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>нашэта</t>
+  </si>
+  <si>
+    <t>navek</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>навэк</t>
+  </si>
+  <si>
+    <t>nebra</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>нэбра</t>
+  </si>
+  <si>
+    <t>nebradyu</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>нэбрадю</t>
+  </si>
+  <si>
+    <t>netye</t>
+  </si>
+  <si>
+    <t>lever, switch</t>
+  </si>
+  <si>
+    <t>нэте</t>
+  </si>
+  <si>
+    <t>neviysk</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>нэвйск</t>
+  </si>
+  <si>
+    <t>neya</t>
+  </si>
+  <si>
+    <t>i, me (accusative)</t>
+  </si>
+  <si>
+    <t>нэя</t>
+  </si>
+  <si>
+    <t>neygem</t>
+  </si>
+  <si>
+    <t>lightbulb, led, light</t>
+  </si>
+  <si>
+    <t>нэйгэм</t>
+  </si>
+  <si>
+    <t>neyka</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>нэйка</t>
+  </si>
+  <si>
+    <t>nina</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>нина</t>
+  </si>
+  <si>
+    <t>niskagram</t>
+  </si>
+  <si>
+    <t>telekinesis</t>
+  </si>
+  <si>
+    <t>нискаграм</t>
+  </si>
+  <si>
+    <t>niskamra</t>
+  </si>
+  <si>
+    <t>magic, superhuman power</t>
+  </si>
+  <si>
+    <t>нискамра</t>
+  </si>
+  <si>
+    <t>nogen</t>
+  </si>
+  <si>
+    <t>pistol (gun)</t>
+  </si>
+  <si>
+    <t>ногэн</t>
+  </si>
+  <si>
+    <t>nogiy</t>
+  </si>
+  <si>
+    <t>foot, feet</t>
+  </si>
+  <si>
+    <t>ногй</t>
+  </si>
+  <si>
+    <t>nok</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>нок</t>
+  </si>
+  <si>
+    <t>nokarish</t>
+  </si>
+  <si>
+    <t>controller, driving wheel, joystick</t>
+  </si>
+  <si>
+    <t>нокариш</t>
+  </si>
+  <si>
+    <t>noklavin</t>
+  </si>
+  <si>
+    <t>fortress, castle, military base</t>
+  </si>
+  <si>
+    <t>ноклавин</t>
+  </si>
+  <si>
+    <t>noko</t>
+  </si>
+  <si>
+    <t>zero, no</t>
+  </si>
+  <si>
+    <t>ноко</t>
+  </si>
+  <si>
+    <t>nolma</t>
+  </si>
+  <si>
+    <t>mineral, metal, crystal</t>
+  </si>
+  <si>
+    <t>нолма</t>
+  </si>
+  <si>
+    <t>nolv</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>нолв</t>
+  </si>
+  <si>
+    <t>nonula</t>
+  </si>
+  <si>
+    <t>beautiful, pretty</t>
+  </si>
+  <si>
+    <t>нонула</t>
+  </si>
+  <si>
+    <t>noreyg</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>норэйг</t>
+  </si>
+  <si>
+    <t>norom</t>
+  </si>
+  <si>
+    <t>number, count, amount</t>
+  </si>
+  <si>
+    <t>нором</t>
+  </si>
+  <si>
+    <t>nos</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>нос</t>
+  </si>
+  <si>
+    <t>nosa</t>
+  </si>
+  <si>
+    <t>a guard</t>
+  </si>
+  <si>
+    <t>носа</t>
+  </si>
+  <si>
+    <t>nosen</t>
+  </si>
+  <si>
+    <t>soldier, troop, infantry</t>
+  </si>
+  <si>
+    <t>носэн</t>
+  </si>
+  <si>
+    <t>nosen yofeln lodska</t>
+  </si>
+  <si>
+    <t>carrier (ship)</t>
+  </si>
+  <si>
+    <t>носэн ёфэлн лодска</t>
+  </si>
+  <si>
+    <t>nyak</t>
+  </si>
+  <si>
+    <t>a cuss word</t>
+  </si>
+  <si>
+    <t>няк</t>
+  </si>
+  <si>
+    <t>nyavidet</t>
+  </si>
+  <si>
+    <t>to hate</t>
+  </si>
+  <si>
+    <t>нявидэт</t>
+  </si>
+  <si>
+    <t>nyetim</t>
+  </si>
+  <si>
+    <t>desolate, empty, dry</t>
+  </si>
+  <si>
+    <t>нетим</t>
+  </si>
+  <si>
+    <t>nyezlat</t>
+  </si>
+  <si>
+    <t>to lick</t>
+  </si>
+  <si>
+    <t>незлат</t>
+  </si>
+  <si>
+    <t>nyoski</t>
+  </si>
+  <si>
+    <t>lost, missing</t>
+  </si>
+  <si>
+    <t>нёски</t>
+  </si>
+  <si>
+    <t>obi</t>
+  </si>
+  <si>
+    <t>a, an, one</t>
+  </si>
+  <si>
+    <t>оби</t>
+  </si>
+  <si>
+    <t>oborsk</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>оборск</t>
+  </si>
+  <si>
+    <t>obramya</t>
+  </si>
+  <si>
+    <t>to hug</t>
+  </si>
+  <si>
+    <t>обрамя</t>
+  </si>
+  <si>
+    <t>odak</t>
+  </si>
+  <si>
+    <t>blunt, not sharp</t>
+  </si>
+  <si>
+    <t>одак</t>
+  </si>
+  <si>
+    <t>ofitsya</t>
+  </si>
+  <si>
+    <t>official, formal</t>
+  </si>
+  <si>
+    <t>офиця</t>
+  </si>
+  <si>
+    <t>oglaba</t>
+  </si>
+  <si>
+    <t>trouble, problem</t>
+  </si>
+  <si>
+    <t>оглаба</t>
+  </si>
+  <si>
+    <t>ojan</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>ожан</t>
+  </si>
+  <si>
+    <t>oji</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>ожи</t>
+  </si>
+  <si>
+    <t>ojog</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>ожог</t>
+  </si>
+  <si>
+    <t>oklenit</t>
+  </si>
+  <si>
+    <t>to fix, to repair</t>
+  </si>
+  <si>
+    <t>оклэнит</t>
+  </si>
+  <si>
+    <t>okno</t>
+  </si>
+  <si>
+    <t>window, visor</t>
+  </si>
+  <si>
+    <t>окно</t>
+  </si>
+  <si>
+    <t>okodosh</t>
+  </si>
+  <si>
+    <t>bug, insect</t>
+  </si>
+  <si>
+    <t>окодош</t>
+  </si>
+  <si>
+    <t>oleym</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>олэйм</t>
+  </si>
+  <si>
+    <t>olov</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>олов</t>
+  </si>
+  <si>
+    <t>omenorst</t>
+  </si>
+  <si>
+    <t>divination, future sight</t>
+  </si>
+  <si>
+    <t>омэнорст</t>
+  </si>
+  <si>
+    <t>ona</t>
+  </si>
+  <si>
+    <t>she, her (nominative)</t>
+  </si>
+  <si>
+    <t>хан</t>
+  </si>
+  <si>
+    <t>onayi</t>
+  </si>
+  <si>
+    <t>she, her (genitive, possessive)</t>
+  </si>
+  <si>
+    <t>онайи</t>
+  </si>
+  <si>
+    <t>onya</t>
+  </si>
+  <si>
+    <t>she, her (accusative)</t>
+  </si>
+  <si>
+    <t>оня</t>
+  </si>
+  <si>
+    <t>ordelg</t>
+  </si>
+  <si>
+    <t>pebble, small rock</t>
+  </si>
+  <si>
+    <t>ордэлг</t>
+  </si>
+  <si>
+    <t>oret</t>
+  </si>
+  <si>
+    <t>out, outside</t>
+  </si>
+  <si>
+    <t>орэт</t>
+  </si>
+  <si>
+    <t>oretchert</t>
+  </si>
+  <si>
+    <t>assignment, essay, article</t>
+  </si>
+  <si>
+    <t>орэтчэрт</t>
+  </si>
+  <si>
+    <t>orfak</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>орфак</t>
+  </si>
+  <si>
+    <t>orgin</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>оргин</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>cooking oil</t>
+  </si>
+  <si>
+    <t>ори</t>
+  </si>
+  <si>
+    <t>ork</t>
+  </si>
+  <si>
+    <t>ogre, orc, monster (monster)</t>
+  </si>
+  <si>
+    <t>орк</t>
+  </si>
+  <si>
+    <t>orkel</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>оркэл</t>
+  </si>
+  <si>
+    <t>oroskiyna</t>
+  </si>
+  <si>
+    <t>to warn</t>
+  </si>
+  <si>
+    <t>ороскйна</t>
+  </si>
+  <si>
+    <t>oroskiyniyo</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>ороскйнйо</t>
+  </si>
+  <si>
+    <t>ot-</t>
+  </si>
+  <si>
+    <t>opposite for verbs</t>
+  </si>
+  <si>
+    <t>от-</t>
+  </si>
+  <si>
+    <t>otgotidisya</t>
+  </si>
+  <si>
+    <t>to remove, to take off</t>
+  </si>
+  <si>
+    <t>отготидися</t>
+  </si>
+  <si>
+    <t>otvetit</t>
+  </si>
+  <si>
+    <t>to respond</t>
+  </si>
+  <si>
+    <t>отвэтит</t>
+  </si>
+  <si>
+    <t>otveto</t>
+  </si>
+  <si>
+    <t>a response, a reaction</t>
+  </si>
+  <si>
+    <t>отвэто</t>
+  </si>
+  <si>
+    <t>otveto yadro</t>
+  </si>
+  <si>
+    <t>reactor, generator (formal)</t>
+  </si>
+  <si>
+    <t>отвэто ядро</t>
+  </si>
+  <si>
+    <t>ov</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>ов</t>
+  </si>
+  <si>
+    <t>ovig</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>овиг</t>
+  </si>
+  <si>
+    <t>pak</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>пак</t>
+  </si>
+  <si>
+    <t>pakosel</t>
+  </si>
+  <si>
+    <t>appearance, looks</t>
+  </si>
+  <si>
+    <t>пакосэл</t>
+  </si>
+  <si>
+    <t>paskenteyl</t>
+  </si>
+  <si>
+    <t>cylinder</t>
+  </si>
+  <si>
+    <t>паскэнтэйл</t>
+  </si>
+  <si>
+    <t>pastakriy</t>
+  </si>
+  <si>
+    <t>baldric, sling</t>
+  </si>
+  <si>
+    <t>пастакрй</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>пэл</t>
+  </si>
+  <si>
+    <t>pelik</t>
+  </si>
+  <si>
+    <t>emotion, expression</t>
+  </si>
+  <si>
+    <t>пэлик</t>
+  </si>
+  <si>
+    <t>pelit</t>
+  </si>
+  <si>
+    <t>to scan</t>
+  </si>
+  <si>
+    <t>пэлит</t>
+  </si>
+  <si>
+    <t>pelitmashka</t>
+  </si>
+  <si>
+    <t>scanner</t>
+  </si>
+  <si>
+    <t>пэлитмашка</t>
+  </si>
+  <si>
+    <t>pelnorom</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>пэлнором</t>
+  </si>
+  <si>
+    <t>peltivenyat</t>
+  </si>
+  <si>
+    <t>to study, to research</t>
+  </si>
+  <si>
+    <t>пэлтивэнят</t>
+  </si>
+  <si>
+    <t>peshkediya</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>пэшкэдия</t>
+  </si>
+  <si>
+    <t>peshkediyo</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>пэшкэдйо</t>
+  </si>
+  <si>
+    <t>petika</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>пэтика</t>
+  </si>
+  <si>
+    <t>pidya</t>
+  </si>
+  <si>
+    <t>to let, to allow, to permit</t>
+  </si>
+  <si>
+    <t>пидя</t>
+  </si>
+  <si>
+    <t>plachatyu</t>
+  </si>
+  <si>
+    <t>century, 100 years</t>
+  </si>
+  <si>
+    <t>плачатю</t>
+  </si>
+  <si>
+    <t>plomeysel</t>
+  </si>
+  <si>
+    <t>necklace, amulet</t>
+  </si>
+  <si>
+    <t>пломэйсэл</t>
+  </si>
+  <si>
+    <t>plumatyat</t>
+  </si>
+  <si>
+    <t>to fall</t>
+  </si>
+  <si>
+    <t>плуматят</t>
+  </si>
+  <si>
+    <t>pnojya</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>пножя</t>
+  </si>
+  <si>
+    <t>pnovka</t>
+  </si>
+  <si>
+    <t>rifle (gun)</t>
+  </si>
+  <si>
+    <t>пновка</t>
+  </si>
+  <si>
+    <t>pobazit</t>
+  </si>
+  <si>
+    <t>to transform, to turn into</t>
+  </si>
+  <si>
+    <t>побазит</t>
+  </si>
+  <si>
+    <t>pochemu</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>почэму</t>
+  </si>
+  <si>
+    <t>pochka</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>почка</t>
+  </si>
+  <si>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>под</t>
+  </si>
+  <si>
+    <t>poden</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>подэн</t>
+  </si>
+  <si>
+    <t>pogladit</t>
+  </si>
+  <si>
+    <t>to pet, to caress, to soothe</t>
+  </si>
+  <si>
+    <t>погладит</t>
+  </si>
+  <si>
+    <t>pojaluysta</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>пожалуйста</t>
+  </si>
+  <si>
+    <t>pojamits</t>
+  </si>
+  <si>
+    <t>chemise, frock, undergarment</t>
+  </si>
+  <si>
+    <t>пожамиц</t>
+  </si>
+  <si>
+    <t>poji</t>
+  </si>
+  <si>
+    <t>cute, sweet, pretty</t>
+  </si>
+  <si>
+    <t>пожи</t>
+  </si>
+  <si>
+    <t>pojno</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>пожно</t>
+  </si>
+  <si>
+    <t>pokcha</t>
+  </si>
+  <si>
+    <t>rough, hard (adverb)</t>
+  </si>
+  <si>
+    <t>покча</t>
+  </si>
+  <si>
+    <t>poldos</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>полдос</t>
+  </si>
+  <si>
+    <t>poletya</t>
+  </si>
+  <si>
+    <t>to enjoy, to take pleasure in</t>
+  </si>
+  <si>
+    <t>полэтя</t>
+  </si>
+  <si>
+    <t>poleym</t>
+  </si>
+  <si>
+    <t>cloak</t>
+  </si>
+  <si>
+    <t>полэйм</t>
+  </si>
+  <si>
+    <t>polom</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>полом</t>
+  </si>
+  <si>
+    <t>pomelov</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>помэлов</t>
+  </si>
+  <si>
+    <t>pomit</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>помит</t>
+  </si>
+  <si>
+    <t>porsk</t>
+  </si>
+  <si>
+    <t>suit, full body suit</t>
+  </si>
+  <si>
+    <t>порск</t>
+  </si>
+  <si>
+    <t>posim</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>посим</t>
+  </si>
+  <si>
+    <t>poslin</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>послин</t>
+  </si>
+  <si>
+    <t>posnek</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>поснэк</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>пот</t>
+  </si>
+  <si>
+    <t>povtorit</t>
+  </si>
+  <si>
+    <t>to repeat</t>
+  </si>
+  <si>
+    <t>повторит</t>
+  </si>
+  <si>
+    <t>pozvonit</t>
+  </si>
+  <si>
+    <t>to call, to summon</t>
+  </si>
+  <si>
+    <t>позвонит</t>
+  </si>
+  <si>
+    <t>prichat</t>
+  </si>
+  <si>
+    <t>to scream</t>
+  </si>
+  <si>
+    <t>причат</t>
+  </si>
+  <si>
+    <t>prichyavit</t>
+  </si>
+  <si>
+    <t>to hurt</t>
+  </si>
+  <si>
+    <t>причявит</t>
+  </si>
+  <si>
+    <t>prikleshacho</t>
+  </si>
+  <si>
+    <t>приклешачо</t>
+  </si>
+  <si>
+    <t>prikleshat</t>
+  </si>
+  <si>
+    <t>to stick onto</t>
+  </si>
+  <si>
+    <t>приклешат</t>
+  </si>
+  <si>
+    <t>prikodya</t>
+  </si>
+  <si>
+    <t>to come</t>
+  </si>
+  <si>
+    <t>прикодя</t>
+  </si>
+  <si>
+    <t>privyet</t>
+  </si>
+  <si>
+    <t>a greeting; hello, hi</t>
+  </si>
+  <si>
+    <t>привет</t>
+  </si>
+  <si>
+    <t>priygat</t>
+  </si>
+  <si>
+    <t>to jump</t>
+  </si>
+  <si>
+    <t>прйгат</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>but, yet, still</t>
+  </si>
+  <si>
+    <t>про</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
+  <si>
+    <t>just, only, merely</t>
+  </si>
+  <si>
+    <t>прос</t>
+  </si>
+  <si>
+    <t>provikat</t>
+  </si>
+  <si>
+    <t>to punch</t>
+  </si>
+  <si>
+    <t>провикат</t>
+  </si>
+  <si>
+    <t>pugya</t>
+  </si>
+  <si>
+    <t>to scare</t>
+  </si>
+  <si>
+    <t>пугя</t>
+  </si>
+  <si>
+    <t>pyeklo</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>пекло</t>
+  </si>
+  <si>
+    <t>pyotski</t>
+  </si>
+  <si>
+    <t>buttocks</t>
+  </si>
+  <si>
+    <t>пёцки</t>
+  </si>
+  <si>
+    <t>rabota</t>
+  </si>
+  <si>
+    <t>job, occupication, work</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>ralinefeyv</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>ралинэфэйв</t>
+  </si>
+  <si>
+    <t>ranit</t>
+  </si>
+  <si>
+    <t>to injure</t>
+  </si>
+  <si>
+    <t>ранит</t>
+  </si>
+  <si>
+    <t>rarl</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>рарл</t>
+  </si>
+  <si>
+    <t>ratsonachiy</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>рацоначй</t>
+  </si>
+  <si>
+    <t>recha</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>рэча</t>
+  </si>
+  <si>
+    <t>redojan</t>
+  </si>
+  <si>
+    <t>reedian (furry)</t>
+  </si>
+  <si>
+    <t>рэдожан</t>
+  </si>
+  <si>
+    <t>remo</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>рэмо</t>
+  </si>
+  <si>
+    <t>remohilm</t>
+  </si>
+  <si>
+    <t>bathroom, restroom, public bathroom</t>
+  </si>
+  <si>
+    <t>рэмохилм</t>
+  </si>
+  <si>
+    <t>reviyetat</t>
+  </si>
+  <si>
+    <t>to have sex</t>
+  </si>
+  <si>
+    <t>рэвиетат</t>
+  </si>
+  <si>
+    <t>rey</t>
+  </si>
+  <si>
+    <t>you (accusative)</t>
+  </si>
+  <si>
+    <t>рэй</t>
+  </si>
+  <si>
+    <t>reyka</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>рэйка</t>
+  </si>
+  <si>
+    <t>reykon</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>рэйкон</t>
+  </si>
+  <si>
+    <t>reynk</t>
+  </si>
+  <si>
+    <t>class, rank, role</t>
+  </si>
+  <si>
+    <t>рэйнк</t>
+  </si>
+  <si>
+    <t>rish</t>
+  </si>
+  <si>
+    <t>previous, last</t>
+  </si>
+  <si>
+    <t>риш</t>
+  </si>
+  <si>
+    <t>riy</t>
+  </si>
+  <si>
+    <t>you (nominative)</t>
+  </si>
+  <si>
+    <t>рй</t>
+  </si>
+  <si>
+    <t>riyn</t>
+  </si>
+  <si>
+    <t>your (genitive, possessive)</t>
+  </si>
+  <si>
+    <t>рйн</t>
+  </si>
+  <si>
+    <t>riyschat</t>
+  </si>
+  <si>
+    <t>to ride</t>
+  </si>
+  <si>
+    <t>рйсчат</t>
+  </si>
+  <si>
+    <t>riyschiyo</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>рйсчйо</t>
+  </si>
+  <si>
+    <t>riyshdyu</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>рйшдю</t>
+  </si>
+  <si>
+    <t>rlato</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>рлато</t>
+  </si>
+  <si>
+    <t>rliykor</t>
+  </si>
+  <si>
+    <t>faction</t>
+  </si>
+  <si>
+    <t>рлйкор</t>
+  </si>
+  <si>
+    <t>rlobovit</t>
+  </si>
+  <si>
+    <t>to free</t>
+  </si>
+  <si>
+    <t>рлобовит</t>
+  </si>
+  <si>
+    <t>rlotiva</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>рлотива</t>
+  </si>
+  <si>
+    <t>rogevik</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>рогэвик</t>
+  </si>
+  <si>
+    <t>roka</t>
+  </si>
+  <si>
+    <t>structure, frame</t>
+  </si>
+  <si>
+    <t>рока</t>
+  </si>
+  <si>
+    <t>romit</t>
+  </si>
+  <si>
+    <t>to walk</t>
+  </si>
+  <si>
+    <t>ромит</t>
+  </si>
+  <si>
+    <t>ronk</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>ронк</t>
+  </si>
+  <si>
+    <t>ronol</t>
+  </si>
+  <si>
+    <t>ghost, spirit</t>
+  </si>
+  <si>
+    <t>ронол</t>
+  </si>
+  <si>
+    <t>roskyat</t>
+  </si>
+  <si>
+    <t>to find, to search</t>
+  </si>
+  <si>
+    <t>роскят</t>
+  </si>
+  <si>
+    <t>rotat</t>
+  </si>
+  <si>
+    <t>to tilt, to become lopsided</t>
+  </si>
+  <si>
+    <t>ротат</t>
+  </si>
+  <si>
+    <t>roteyn</t>
+  </si>
+  <si>
+    <t>rule, law</t>
+  </si>
+  <si>
+    <t>ротэйн</t>
+  </si>
+  <si>
+    <t>rovek</t>
+  </si>
+  <si>
+    <t>spell, rune</t>
+  </si>
+  <si>
+    <t>ровэк</t>
+  </si>
+  <si>
+    <t>rovinlosik</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>ровинлосик</t>
+  </si>
+  <si>
+    <t>rovit</t>
+  </si>
+  <si>
+    <t>to check, to inspect</t>
+  </si>
+  <si>
+    <t>ровит</t>
+  </si>
+  <si>
+    <t>rozkudat</t>
+  </si>
+  <si>
+    <t>to rape, to sexually assault</t>
+  </si>
+  <si>
+    <t>розкудат</t>
+  </si>
+  <si>
+    <t>rukat</t>
+  </si>
+  <si>
+    <t>battery, energy cell, energy weapon battery</t>
+  </si>
+  <si>
+    <t>рукат</t>
+  </si>
+  <si>
+    <t>rukeyka</t>
+  </si>
+  <si>
+    <t>debris, rubble, crumbled pieces</t>
+  </si>
+  <si>
+    <t>рукэйка</t>
+  </si>
+  <si>
+    <t>rukivta</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>рукивта</t>
+  </si>
+  <si>
+    <t>savlat</t>
+  </si>
+  <si>
+    <t>to analyze, to experiment, to test</t>
+  </si>
+  <si>
+    <t>савлат</t>
+  </si>
+  <si>
+    <t>sayron</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>сайрон</t>
+  </si>
+  <si>
+    <t>sbyejat</t>
+  </si>
+  <si>
+    <t>to escape</t>
+  </si>
+  <si>
+    <t>сбежат</t>
+  </si>
+  <si>
+    <t>sdavat</t>
+  </si>
+  <si>
+    <t>to aim</t>
+  </si>
+  <si>
+    <t>сдават</t>
+  </si>
+  <si>
+    <t>sdoba</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>сдоба</t>
+  </si>
+  <si>
+    <t>sdojagiy</t>
+  </si>
+  <si>
+    <t>muscular</t>
+  </si>
+  <si>
+    <t>сдожагй</t>
+  </si>
+  <si>
+    <t>sdovalit</t>
+  </si>
+  <si>
+    <t>to send</t>
+  </si>
+  <si>
+    <t>сдовалит</t>
+  </si>
+  <si>
+    <t>sejrem</t>
+  </si>
+  <si>
+    <t>meadows, grasslands</t>
+  </si>
+  <si>
+    <t>сэжрэм</t>
+  </si>
+  <si>
+    <t>seleyk</t>
+  </si>
+  <si>
+    <t>gray, grey</t>
+  </si>
+  <si>
+    <t>сэлэйк</t>
+  </si>
+  <si>
+    <t>selin</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>сэлин</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>he, him (nominative)</t>
+  </si>
+  <si>
+    <t>сэн</t>
+  </si>
+  <si>
+    <t>seniy</t>
+  </si>
+  <si>
+    <t>he, him, his (genitive, possessive)</t>
+  </si>
+  <si>
+    <t>сенй</t>
+  </si>
+  <si>
+    <t>senva</t>
+  </si>
+  <si>
+    <t>man, male</t>
+  </si>
+  <si>
+    <t>сэнва</t>
+  </si>
+  <si>
+    <t>sevakin</t>
+  </si>
+  <si>
+    <t>mage, wizard, sorcerer, magic user</t>
+  </si>
+  <si>
+    <t>сэвакин</t>
+  </si>
+  <si>
+    <t>sevenak</t>
+  </si>
+  <si>
+    <t>sea, ocean</t>
+  </si>
+  <si>
+    <t>сэвэнак</t>
+  </si>
+  <si>
+    <t>seyna</t>
+  </si>
+  <si>
+    <t>he, him (accusative)</t>
+  </si>
+  <si>
+    <t>сэйна</t>
+  </si>
+  <si>
+    <t>seyshim</t>
+  </si>
+  <si>
+    <t>terrain, land</t>
+  </si>
+  <si>
+    <t>сэйшим</t>
+  </si>
+  <si>
+    <t>seyta</t>
+  </si>
+  <si>
+    <t>exotic, otherworldly</t>
+  </si>
+  <si>
+    <t>сэйта</t>
+  </si>
+  <si>
+    <t>shakyat</t>
+  </si>
+  <si>
+    <t>to kill</t>
+  </si>
+  <si>
+    <t>шакят</t>
+  </si>
+  <si>
+    <t>shara</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>шара</t>
+  </si>
+  <si>
+    <t>shelm</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>шэлм</t>
+  </si>
+  <si>
+    <t>shem</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>шэм</t>
+  </si>
+  <si>
+    <t>shevya</t>
+  </si>
+  <si>
+    <t>to care</t>
+  </si>
+  <si>
+    <t>шэвя</t>
+  </si>
+  <si>
+    <t>sheynata</t>
+  </si>
+  <si>
+    <t>rainy weather</t>
+  </si>
+  <si>
+    <t>шэйната</t>
+  </si>
+  <si>
+    <t>sheynatahilm</t>
+  </si>
+  <si>
+    <t>bathroom, shower room</t>
+  </si>
+  <si>
+    <t>шэйнатахилм</t>
+  </si>
+  <si>
+    <t>shlyapa</t>
+  </si>
+  <si>
+    <t>hat, headwear</t>
+  </si>
+  <si>
+    <t>шляпа</t>
+  </si>
+  <si>
+    <t>shtorm</t>
+  </si>
+  <si>
+    <t>storm, tempest</t>
+  </si>
+  <si>
+    <t>шторм</t>
+  </si>
+  <si>
+    <t>sidit</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>сидит</t>
+  </si>
+  <si>
+    <t>sifenmujye</t>
+  </si>
+  <si>
+    <t>to surrender, to give up</t>
+  </si>
+  <si>
+    <t>сифэнмуже</t>
+  </si>
+  <si>
+    <t>sikol</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>сикол</t>
+  </si>
+  <si>
+    <t>silarkish</t>
+  </si>
+  <si>
+    <t>silartite</t>
+  </si>
+  <si>
+    <t>силаркиш</t>
+  </si>
+  <si>
+    <t>sinya</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>синя</t>
+  </si>
+  <si>
+    <t>sisak</t>
+  </si>
+  <si>
+    <t>stupid, idiotic</t>
+  </si>
+  <si>
+    <t>сисак</t>
+  </si>
+  <si>
+    <t>siskaka</t>
+  </si>
+  <si>
+    <t>idiot, stupid person, insult</t>
+  </si>
+  <si>
+    <t>сискака</t>
+  </si>
+  <si>
+    <t>siyma</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>сйма</t>
+  </si>
+  <si>
+    <t>siymyazit</t>
+  </si>
+  <si>
+    <t>to clean, to wash</t>
+  </si>
+  <si>
+    <t>сймязит</t>
+  </si>
+  <si>
+    <t>skadzosit</t>
+  </si>
+  <si>
+    <t>to concentrate, to focus</t>
+  </si>
+  <si>
+    <t>скадзосит</t>
+  </si>
+  <si>
+    <t>skafniy</t>
+  </si>
+  <si>
+    <t>scabbard, sheath</t>
+  </si>
+  <si>
+    <t>скафнй</t>
+  </si>
+  <si>
+    <t>skahem</t>
+  </si>
+  <si>
+    <t>the sky</t>
+  </si>
+  <si>
+    <t>скахэм</t>
+  </si>
+  <si>
+    <t>skan</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>скан</t>
+  </si>
+  <si>
+    <t>skojyat</t>
+  </si>
+  <si>
+    <t>to push</t>
+  </si>
+  <si>
+    <t>скожят</t>
+  </si>
+  <si>
+    <t>skomyat</t>
+  </si>
+  <si>
+    <t>to shoot, to fire weapon</t>
+  </si>
+  <si>
+    <t>скомят</t>
+  </si>
+  <si>
+    <t>skotyat</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>скотят</t>
+  </si>
+  <si>
+    <t>skyezat</t>
+  </si>
+  <si>
+    <t>to tell</t>
+  </si>
+  <si>
+    <t>скезат</t>
+  </si>
+  <si>
+    <t>slava</t>
+  </si>
+  <si>
+    <t>glory</t>
+  </si>
+  <si>
+    <t>слава</t>
+  </si>
+  <si>
+    <t>sledyet</t>
+  </si>
+  <si>
+    <t>to follow, to go with</t>
+  </si>
+  <si>
+    <t>слэдет</t>
+  </si>
+  <si>
+    <t>sliykyat</t>
+  </si>
+  <si>
+    <t>to lie down</t>
+  </si>
+  <si>
+    <t>слйкят</t>
+  </si>
+  <si>
+    <t>slyenyat</t>
+  </si>
+  <si>
+    <t>to cut, to slice, to slit</t>
+  </si>
+  <si>
+    <t>сленкат</t>
+  </si>
+  <si>
+    <t>smiyat</t>
+  </si>
+  <si>
+    <t>to take off, to doff</t>
+  </si>
+  <si>
+    <t>смият</t>
+  </si>
+  <si>
+    <t>smotret</t>
+  </si>
+  <si>
+    <t>to stare, to gaze at, to look intensely</t>
+  </si>
+  <si>
+    <t>смотрэт</t>
+  </si>
+  <si>
+    <t>snova</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>снова</t>
+  </si>
+  <si>
+    <t>snyoma</t>
   </si>
   <si>
     <t>snow</t>
   </si>
   <si>
-    <t>лом</t>
-  </si>
-  <si>
-    <t>loma</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>лома</t>
-  </si>
-  <si>
-    <t>lomisk</t>
-  </si>
-  <si>
-    <t>air tank, gas tank</t>
-  </si>
-  <si>
-    <t>ломиск</t>
-  </si>
-  <si>
-    <t>lomiyn</t>
-  </si>
-  <si>
-    <t>hall, hallway</t>
-  </si>
-  <si>
-    <t>ломйн</t>
-  </si>
-  <si>
-    <t>lons</t>
-  </si>
-  <si>
-    <t>sour</t>
-  </si>
-  <si>
-    <t>лонс</t>
-  </si>
-  <si>
-    <t>lopelat</t>
-  </si>
-  <si>
-    <t>to circle, to surround, to go around, to loop</t>
-  </si>
-  <si>
-    <t>лопелат</t>
-  </si>
-  <si>
-    <t>lorn</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>лорн</t>
-  </si>
-  <si>
-    <t>lornin</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>лорнин</t>
-  </si>
-  <si>
-    <t>lornyo</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>лорнё</t>
-  </si>
-  <si>
-    <t>lorov</t>
-  </si>
-  <si>
-    <t>land, ground</t>
-  </si>
-  <si>
-    <t>лоров</t>
-  </si>
-  <si>
-    <t>losik</t>
-  </si>
-  <si>
-    <t>station, outpost</t>
-  </si>
-  <si>
-    <t>лосик</t>
-  </si>
-  <si>
-    <t>lovo</t>
-  </si>
-  <si>
-    <t>operator, driver, crewmember</t>
-  </si>
-  <si>
-    <t>лово</t>
-  </si>
-  <si>
-    <t>loykit</t>
-  </si>
-  <si>
-    <t>to drink</t>
-  </si>
-  <si>
-    <t>лойкит</t>
-  </si>
-  <si>
-    <t>lujayka</t>
-  </si>
-  <si>
-    <t>lawn, garden</t>
-  </si>
-  <si>
-    <t>лужайка</t>
-  </si>
-  <si>
-    <t>lumenekiyo</t>
-  </si>
-  <si>
-    <t>knowledge, information</t>
-  </si>
-  <si>
-    <t>лумэнов</t>
-  </si>
-  <si>
-    <t>lumetsya</t>
-  </si>
-  <si>
-    <t>to learn</t>
-  </si>
-  <si>
-    <t>лумэця</t>
-  </si>
-  <si>
-    <t>lumka</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>лумка</t>
-  </si>
-  <si>
-    <t>lunst</t>
-  </si>
-  <si>
-    <t>garbage, trash</t>
-  </si>
-  <si>
-    <t>лунст</t>
-  </si>
-  <si>
-    <t>lutsya</t>
-  </si>
-  <si>
-    <t>to teach</t>
-  </si>
-  <si>
-    <t>луця</t>
-  </si>
-  <si>
-    <t>lyan</t>
-  </si>
-  <si>
-    <t>bright, shining</t>
-  </si>
-  <si>
-    <t>лян</t>
-  </si>
-  <si>
-    <t>lyaskiy</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>ляскй</t>
-  </si>
-  <si>
-    <t>lyemanyat</t>
-  </si>
-  <si>
-    <t>to build</t>
-  </si>
-  <si>
-    <t>леманят</t>
-  </si>
-  <si>
-    <t>lyoj</t>
-  </si>
-  <si>
-    <t>0.1 fluid ounces, 0.1 fl oz</t>
-  </si>
-  <si>
-    <t>лёж</t>
-  </si>
-  <si>
-    <t>lyosabyo</t>
-  </si>
-  <si>
-    <t>lover, significant other</t>
-  </si>
-  <si>
-    <t>лёсабё</t>
-  </si>
-  <si>
-    <t>lyosibit</t>
-  </si>
-  <si>
-    <t>to love</t>
-  </si>
-  <si>
-    <t>лёсибит</t>
-  </si>
-  <si>
-    <t>maglonak</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
-    <t>маглонак</t>
-  </si>
-  <si>
-    <t>maglonakin</t>
-  </si>
-  <si>
-    <t>a million meters, 1000 kilometers</t>
-  </si>
-  <si>
-    <t>маглонакин</t>
-  </si>
-  <si>
-    <t>maglopel</t>
-  </si>
-  <si>
-    <t>ton, 1000 kilograms, 1000000 grams</t>
-  </si>
-  <si>
-    <t>маглопэл</t>
-  </si>
-  <si>
-    <t>makiv</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>макив</t>
-  </si>
-  <si>
-    <t>manakon</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>манакон</t>
-  </si>
-  <si>
-    <t>manaktaro</t>
-  </si>
-  <si>
-    <t>villain</t>
-  </si>
-  <si>
-    <t>манактаро</t>
-  </si>
-  <si>
-    <t>manaskev</t>
-  </si>
-  <si>
-    <t>in front, ahead</t>
-  </si>
-  <si>
-    <t>манаскэв</t>
-  </si>
-  <si>
-    <t>mank</t>
-  </si>
-  <si>
-    <t>gear, equipment</t>
-  </si>
-  <si>
-    <t>манк</t>
-  </si>
-  <si>
-    <t>manomovol</t>
-  </si>
-  <si>
-    <t>hotel, inn</t>
-  </si>
-  <si>
-    <t>маномовол</t>
-  </si>
-  <si>
-    <t>manyerta</t>
-  </si>
-  <si>
-    <t>manners, behaviour</t>
-  </si>
-  <si>
-    <t>манерта</t>
-  </si>
-  <si>
-    <t>marfreno</t>
-  </si>
-  <si>
-    <t>marfrenic people</t>
-  </si>
-  <si>
-    <t>марфрэно</t>
-  </si>
-  <si>
-    <t>markav</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>маркав</t>
-  </si>
-  <si>
-    <t>marnin</t>
-  </si>
-  <si>
-    <t>marnine</t>
-  </si>
-  <si>
-    <t>марнин</t>
-  </si>
-  <si>
-    <t>mashkaniyn</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>машканйн</t>
-  </si>
-  <si>
-    <t>maskara</t>
-  </si>
-  <si>
-    <t>mascara</t>
-  </si>
-  <si>
-    <t>маскара</t>
-  </si>
-  <si>
-    <t>mejeli</t>
-  </si>
-  <si>
-    <t>female reproductive organ</t>
-  </si>
-  <si>
-    <t>мэжэли</t>
-  </si>
-  <si>
-    <t>melokara</t>
-  </si>
-  <si>
-    <t>gorgeous, beautiful</t>
-  </si>
-  <si>
-    <t>мэлокара</t>
-  </si>
-  <si>
-    <t>meloma</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>мэлома</t>
-  </si>
-  <si>
-    <t>melsken</t>
-  </si>
-  <si>
-    <t>to approach, to arrive, to enter location</t>
-  </si>
-  <si>
-    <t>мэлскэн</t>
-  </si>
-  <si>
-    <t>merit</t>
-  </si>
-  <si>
-    <t>meat, flesh</t>
-  </si>
-  <si>
-    <t>мэрит</t>
-  </si>
-  <si>
-    <t>metonreyk</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>мэтонрэйк</t>
-  </si>
-  <si>
-    <t>meyrn</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>мэйрн</t>
-  </si>
-  <si>
-    <t>mikya</t>
-  </si>
-  <si>
-    <t>to can, to able</t>
-  </si>
-  <si>
-    <t>микя</t>
-  </si>
-  <si>
-    <t>miln</t>
-  </si>
-  <si>
-    <t>close, near</t>
-  </si>
-  <si>
-    <t>милн</t>
-  </si>
-  <si>
-    <t>miln narin</t>
-  </si>
-  <si>
-    <t>short/close range</t>
-  </si>
-  <si>
-    <t>милн нарин</t>
-  </si>
-  <si>
-    <t>minim</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>миним</t>
-  </si>
-  <si>
-    <t>mishanya</t>
-  </si>
-  <si>
-    <t>to appear</t>
-  </si>
-  <si>
-    <t>мишаня</t>
-  </si>
-  <si>
-    <t>miy</t>
-  </si>
-  <si>
-    <t>i, me, my (genitive, possessive)</t>
-  </si>
-  <si>
-    <t>мй</t>
-  </si>
-  <si>
-    <t>miyko</t>
-  </si>
-  <si>
-    <t>many, much, a lot</t>
-  </si>
-  <si>
-    <t>мйко</t>
-  </si>
-  <si>
-    <t>miyneyn</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>мйнэйн</t>
-  </si>
-  <si>
-    <t>mlada</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>млада</t>
-  </si>
-  <si>
-    <t>mloko</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>млоко</t>
-  </si>
-  <si>
-    <t>mojya</t>
-  </si>
-  <si>
-    <t>to carry</t>
-  </si>
-  <si>
-    <t>можя</t>
-  </si>
-  <si>
-    <t>mol</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>мол</t>
-  </si>
-  <si>
-    <t>molosin</t>
-  </si>
-  <si>
-    <t>cow, cattle</t>
-  </si>
-  <si>
-    <t>молосин</t>
-  </si>
-  <si>
-    <t>molumba</t>
-  </si>
-  <si>
-    <t>nanopus (monster)</t>
-  </si>
-  <si>
-    <t>молумба</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>мон</t>
-  </si>
-  <si>
-    <t>monmashka</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>монмашка</t>
-  </si>
-  <si>
-    <t>monot</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>монот</t>
-  </si>
-  <si>
-    <t>morigot</t>
-  </si>
-  <si>
-    <t>morigalt</t>
-  </si>
-  <si>
-    <t>моригот</t>
-  </si>
-  <si>
-    <t>moriy</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>морй</t>
-  </si>
-  <si>
-    <t>morston</t>
-  </si>
-  <si>
-    <t>planet</t>
-  </si>
-  <si>
-    <t>морстон</t>
-  </si>
-  <si>
-    <t>motun</t>
-  </si>
-  <si>
-    <t>power, strength</t>
-  </si>
-  <si>
-    <t>мотун</t>
-  </si>
-  <si>
-    <t>mralyat</t>
-  </si>
-  <si>
-    <t>to give, to grant</t>
-  </si>
-  <si>
-    <t>мралят</t>
-  </si>
-  <si>
-    <t>mrel</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>мрэл</t>
-  </si>
-  <si>
-    <t>mreynat</t>
-  </si>
-  <si>
-    <t>to burn</t>
-  </si>
-  <si>
-    <t>мрэйнат</t>
-  </si>
-  <si>
-    <t>mrokek</t>
-  </si>
-  <si>
-    <t>мрокэк</t>
-  </si>
-  <si>
-    <t>mroken</t>
-  </si>
-  <si>
-    <t>мрокэн</t>
-  </si>
-  <si>
-    <t>mronat</t>
-  </si>
-  <si>
-    <t>to cry</t>
-  </si>
-  <si>
-    <t>мронат</t>
-  </si>
-  <si>
-    <t>mrotiys</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>мротйс</t>
-  </si>
-  <si>
-    <t>mrotiysniy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>мротйснй</t>
-  </si>
-  <si>
-    <t>mut</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>мут</t>
-  </si>
-  <si>
-    <t>muva</t>
-  </si>
-  <si>
-    <t>leg</t>
-  </si>
-  <si>
-    <t>мува</t>
-  </si>
-  <si>
-    <t>myach</t>
-  </si>
-  <si>
-    <t>ball, sphere</t>
-  </si>
-  <si>
-    <t>мяч</t>
-  </si>
-  <si>
-    <t>myano</t>
-  </si>
-  <si>
-    <t>very</t>
-  </si>
-  <si>
-    <t>мяно</t>
-  </si>
-  <si>
-    <t>myau</t>
-  </si>
-  <si>
-    <t>meow (noun, interjection)</t>
-  </si>
-  <si>
-    <t>мяу</t>
-  </si>
-  <si>
-    <t>myaukat</t>
-  </si>
-  <si>
-    <t>to meow</t>
-  </si>
-  <si>
-    <t>мяукат</t>
-  </si>
-  <si>
-    <t>myerost</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>мерост</t>
-  </si>
-  <si>
-    <t>myeska</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>меска</t>
-  </si>
-  <si>
-    <t>myuto</t>
-  </si>
-  <si>
-    <t>shy, timid</t>
-  </si>
-  <si>
-    <t>мюто</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>i, me, my (nominative)</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>nacheshnat</t>
-  </si>
-  <si>
-    <t>to protect, to defend</t>
-  </si>
-  <si>
-    <t>начэшнат</t>
-  </si>
-  <si>
-    <t>nachkol</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>начкол</t>
-  </si>
-  <si>
-    <t>nafrav</t>
-  </si>
-  <si>
-    <t>missile</t>
-  </si>
-  <si>
-    <t>нафрав</t>
-  </si>
-  <si>
-    <t>nafrav itam</t>
-  </si>
-  <si>
-    <t>warhead</t>
-  </si>
-  <si>
-    <t>нафрав итам</t>
-  </si>
-  <si>
-    <t>nakin</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t>накин</t>
-  </si>
-  <si>
-    <t>nalakish</t>
-  </si>
-  <si>
-    <t>nalastite</t>
-  </si>
-  <si>
-    <t>налакиш</t>
-  </si>
-  <si>
-    <t>nalon</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>налон</t>
-  </si>
-  <si>
-    <t>nalto</t>
-  </si>
-  <si>
-    <t>inferior, lesser, worse</t>
-  </si>
-  <si>
-    <t>налто</t>
-  </si>
-  <si>
-    <t>napyacho</t>
-  </si>
-  <si>
-    <t>filled, full</t>
-  </si>
-  <si>
-    <t>напячо</t>
-  </si>
-  <si>
-    <t>napyat</t>
-  </si>
-  <si>
-    <t>to fill</t>
-  </si>
-  <si>
-    <t>напят</t>
-  </si>
-  <si>
-    <t>narin</t>
-  </si>
-  <si>
-    <t>distance, range</t>
-  </si>
-  <si>
-    <t>нарин</t>
-  </si>
-  <si>
-    <t>nasheta</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
-    <t>нашэта</t>
-  </si>
-  <si>
-    <t>navek</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>навэк</t>
-  </si>
-  <si>
-    <t>nebra</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>нэбра</t>
-  </si>
-  <si>
-    <t>nebradyu</t>
-  </si>
-  <si>
-    <t>tomorrow</t>
-  </si>
-  <si>
-    <t>нэбрадю</t>
-  </si>
-  <si>
-    <t>netye</t>
-  </si>
-  <si>
-    <t>lever, switch</t>
-  </si>
-  <si>
-    <t>нэте</t>
-  </si>
-  <si>
-    <t>neviysk</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>нэвйск</t>
-  </si>
-  <si>
-    <t>neya</t>
-  </si>
-  <si>
-    <t>i, me (accusative)</t>
-  </si>
-  <si>
-    <t>нэя</t>
-  </si>
-  <si>
-    <t>neygem</t>
-  </si>
-  <si>
-    <t>lightbulb, led, light</t>
-  </si>
-  <si>
-    <t>нэйгэм</t>
-  </si>
-  <si>
-    <t>neyka</t>
-  </si>
-  <si>
-    <t>brother</t>
-  </si>
-  <si>
-    <t>нэйка</t>
-  </si>
-  <si>
-    <t>nina</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>нина</t>
-  </si>
-  <si>
-    <t>niskagram</t>
-  </si>
-  <si>
-    <t>telekinesis</t>
-  </si>
-  <si>
-    <t>нискаграм</t>
-  </si>
-  <si>
-    <t>niskamra</t>
-  </si>
-  <si>
-    <t>magic, superhuman power</t>
-  </si>
-  <si>
-    <t>нискамра</t>
-  </si>
-  <si>
-    <t>nogen</t>
-  </si>
-  <si>
-    <t>pistol (gun)</t>
-  </si>
-  <si>
-    <t>ногэн</t>
-  </si>
-  <si>
-    <t>nogiy</t>
-  </si>
-  <si>
-    <t>foot, feet</t>
-  </si>
-  <si>
-    <t>ногй</t>
-  </si>
-  <si>
-    <t>nok</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>нок</t>
-  </si>
-  <si>
-    <t>nokarish</t>
-  </si>
-  <si>
-    <t>controller, driving wheel, joystick</t>
-  </si>
-  <si>
-    <t>нокариш</t>
-  </si>
-  <si>
-    <t>noklavin</t>
-  </si>
-  <si>
-    <t>fortress, castle, military base</t>
-  </si>
-  <si>
-    <t>ноклавин</t>
-  </si>
-  <si>
-    <t>noko</t>
-  </si>
-  <si>
-    <t>zero, no</t>
-  </si>
-  <si>
-    <t>ноко</t>
-  </si>
-  <si>
-    <t>nolma</t>
-  </si>
-  <si>
-    <t>mineral, metal, crystal</t>
-  </si>
-  <si>
-    <t>нолма</t>
-  </si>
-  <si>
-    <t>nolv</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>нолв</t>
-  </si>
-  <si>
-    <t>nonula</t>
-  </si>
-  <si>
-    <t>beautiful, pretty</t>
-  </si>
-  <si>
-    <t>нонула</t>
-  </si>
-  <si>
-    <t>noreyg</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>норэйг</t>
-  </si>
-  <si>
-    <t>norom</t>
-  </si>
-  <si>
-    <t>number, count, amount</t>
-  </si>
-  <si>
-    <t>нором</t>
-  </si>
-  <si>
-    <t>nos</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>нос</t>
-  </si>
-  <si>
-    <t>nosa</t>
-  </si>
-  <si>
-    <t>a guard</t>
-  </si>
-  <si>
-    <t>носа</t>
-  </si>
-  <si>
-    <t>nosen</t>
-  </si>
-  <si>
-    <t>soldier, troop, infantry</t>
-  </si>
-  <si>
-    <t>носэн</t>
-  </si>
-  <si>
-    <t>nosen yofeln lodska</t>
-  </si>
-  <si>
-    <t>carrier (ship)</t>
-  </si>
-  <si>
-    <t>носэн ёфэлн лодска</t>
-  </si>
-  <si>
-    <t>nyak</t>
-  </si>
-  <si>
-    <t>a cuss word</t>
-  </si>
-  <si>
-    <t>няк</t>
-  </si>
-  <si>
-    <t>nyavidet</t>
-  </si>
-  <si>
-    <t>to hate</t>
-  </si>
-  <si>
-    <t>нявидэт</t>
-  </si>
-  <si>
-    <t>nyetim</t>
-  </si>
-  <si>
-    <t>desolate, empty, dry</t>
-  </si>
-  <si>
-    <t>нетим</t>
-  </si>
-  <si>
-    <t>nyezlat</t>
-  </si>
-  <si>
-    <t>to lick</t>
-  </si>
-  <si>
-    <t>незлат</t>
-  </si>
-  <si>
-    <t>nyoski</t>
-  </si>
-  <si>
-    <t>lost, missing</t>
-  </si>
-  <si>
-    <t>нёски</t>
-  </si>
-  <si>
-    <t>obi</t>
-  </si>
-  <si>
-    <t>a, an, one</t>
-  </si>
-  <si>
-    <t>оби</t>
-  </si>
-  <si>
-    <t>oborsk</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>оборск</t>
-  </si>
-  <si>
-    <t>obramya</t>
-  </si>
-  <si>
-    <t>to hug</t>
-  </si>
-  <si>
-    <t>обрамя</t>
-  </si>
-  <si>
-    <t>odak</t>
-  </si>
-  <si>
-    <t>blunt, not sharp</t>
-  </si>
-  <si>
-    <t>одак</t>
-  </si>
-  <si>
-    <t>ofitsya</t>
-  </si>
-  <si>
-    <t>official, formal</t>
-  </si>
-  <si>
-    <t>офиця</t>
-  </si>
-  <si>
-    <t>oglaba</t>
-  </si>
-  <si>
-    <t>trouble, problem</t>
-  </si>
-  <si>
-    <t>оглаба</t>
-  </si>
-  <si>
-    <t>ojan</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>ожан</t>
-  </si>
-  <si>
-    <t>oji</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>ожи</t>
-  </si>
-  <si>
-    <t>ojog</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>ожог</t>
-  </si>
-  <si>
-    <t>oklenit</t>
-  </si>
-  <si>
-    <t>to fix, to repair</t>
-  </si>
-  <si>
-    <t>оклэнит</t>
-  </si>
-  <si>
-    <t>okno</t>
-  </si>
-  <si>
-    <t>window, visor</t>
-  </si>
-  <si>
-    <t>окно</t>
-  </si>
-  <si>
-    <t>okodosh</t>
-  </si>
-  <si>
-    <t>bug, insect</t>
-  </si>
-  <si>
-    <t>окодош</t>
-  </si>
-  <si>
-    <t>oleym</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t>олэйм</t>
-  </si>
-  <si>
-    <t>olov</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>олов</t>
-  </si>
-  <si>
-    <t>omenorst</t>
-  </si>
-  <si>
-    <t>divination, future sight</t>
-  </si>
-  <si>
-    <t>омэнорст</t>
-  </si>
-  <si>
-    <t>ona</t>
-  </si>
-  <si>
-    <t>she, her (nominative)</t>
-  </si>
-  <si>
-    <t>хан</t>
-  </si>
-  <si>
-    <t>onayi</t>
-  </si>
-  <si>
-    <t>she, her (genitive, possessive)</t>
-  </si>
-  <si>
-    <t>онайи</t>
-  </si>
-  <si>
-    <t>onya</t>
-  </si>
-  <si>
-    <t>she, her (accusative)</t>
-  </si>
-  <si>
-    <t>оня</t>
-  </si>
-  <si>
-    <t>ordelg</t>
-  </si>
-  <si>
-    <t>pebble, small rock</t>
-  </si>
-  <si>
-    <t>ордэлг</t>
-  </si>
-  <si>
-    <t>oret</t>
-  </si>
-  <si>
-    <t>out, outside</t>
-  </si>
-  <si>
-    <t>орэт</t>
-  </si>
-  <si>
-    <t>oretchert</t>
-  </si>
-  <si>
-    <t>assignment, essay, article</t>
-  </si>
-  <si>
-    <t>орэтчэрт</t>
-  </si>
-  <si>
-    <t>orfak</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>орфак</t>
-  </si>
-  <si>
-    <t>orgin</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>оргин</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>cooking oil</t>
-  </si>
-  <si>
-    <t>ори</t>
-  </si>
-  <si>
-    <t>ork</t>
-  </si>
-  <si>
-    <t>ogre, orc, monster (monster)</t>
-  </si>
-  <si>
-    <t>орк</t>
-  </si>
-  <si>
-    <t>orkel</t>
-  </si>
-  <si>
-    <t>axe</t>
-  </si>
-  <si>
-    <t>оркэл</t>
-  </si>
-  <si>
-    <t>oroskiyna</t>
-  </si>
-  <si>
-    <t>to warn</t>
-  </si>
-  <si>
-    <t>ороскйна</t>
-  </si>
-  <si>
-    <t>oroskiyniyo</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>ороскйнйо</t>
-  </si>
-  <si>
-    <t>ot-</t>
-  </si>
-  <si>
-    <t>opposite for verbs</t>
-  </si>
-  <si>
-    <t>от-</t>
-  </si>
-  <si>
-    <t>otgotidisya</t>
-  </si>
-  <si>
-    <t>to remove, to take off</t>
-  </si>
-  <si>
-    <t>отготидися</t>
-  </si>
-  <si>
-    <t>otvetit</t>
-  </si>
-  <si>
-    <t>to respond</t>
-  </si>
-  <si>
-    <t>отвэтит</t>
-  </si>
-  <si>
-    <t>otveto</t>
-  </si>
-  <si>
-    <t>a response, a reaction</t>
-  </si>
-  <si>
-    <t>отвэто</t>
-  </si>
-  <si>
-    <t>otveto yadro</t>
-  </si>
-  <si>
-    <t>reactor, generator (formal)</t>
-  </si>
-  <si>
-    <t>отвэто ядро</t>
-  </si>
-  <si>
-    <t>ov</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
-    <t>ов</t>
-  </si>
-  <si>
-    <t>ovig</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>овиг</t>
-  </si>
-  <si>
-    <t>pak</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>пак</t>
-  </si>
-  <si>
-    <t>pakosel</t>
-  </si>
-  <si>
-    <t>appearance, looks</t>
-  </si>
-  <si>
-    <t>пакосэл</t>
-  </si>
-  <si>
-    <t>paskenteyl</t>
-  </si>
-  <si>
-    <t>cylinder</t>
-  </si>
-  <si>
-    <t>паскэнтэйл</t>
-  </si>
-  <si>
-    <t>pastakriy</t>
-  </si>
-  <si>
-    <t>baldric, sling</t>
-  </si>
-  <si>
-    <t>пастакрй</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>gram</t>
-  </si>
-  <si>
-    <t>пэл</t>
-  </si>
-  <si>
-    <t>pelik</t>
-  </si>
-  <si>
-    <t>emotion, expression</t>
-  </si>
-  <si>
-    <t>пэлик</t>
-  </si>
-  <si>
-    <t>pelit</t>
-  </si>
-  <si>
-    <t>to scan</t>
-  </si>
-  <si>
-    <t>пэлит</t>
-  </si>
-  <si>
-    <t>pelitmashka</t>
-  </si>
-  <si>
-    <t>scanner</t>
-  </si>
-  <si>
-    <t>пэлитмашка</t>
-  </si>
-  <si>
-    <t>pelnorom</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>пэлнором</t>
-  </si>
-  <si>
-    <t>peltivenyat</t>
-  </si>
-  <si>
-    <t>to study, to research</t>
-  </si>
-  <si>
-    <t>пэлтивэнят</t>
-  </si>
-  <si>
-    <t>peshkediya</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>пэшкэдия</t>
-  </si>
-  <si>
-    <t>peshkediyo</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>пэшкэдйо</t>
-  </si>
-  <si>
-    <t>petika</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>пэтика</t>
-  </si>
-  <si>
-    <t>pidya</t>
-  </si>
-  <si>
-    <t>to let, to allow, to permit</t>
-  </si>
-  <si>
-    <t>пидя</t>
-  </si>
-  <si>
-    <t>plachatyu</t>
-  </si>
-  <si>
-    <t>century, 100 years</t>
-  </si>
-  <si>
-    <t>плачатю</t>
-  </si>
-  <si>
-    <t>plomeysel</t>
-  </si>
-  <si>
-    <t>necklace, amulet</t>
-  </si>
-  <si>
-    <t>пломэйсэл</t>
-  </si>
-  <si>
-    <t>plumatyat</t>
-  </si>
-  <si>
-    <t>to fall</t>
-  </si>
-  <si>
-    <t>плуматят</t>
-  </si>
-  <si>
-    <t>pnojya</t>
-  </si>
-  <si>
-    <t>to read</t>
-  </si>
-  <si>
-    <t>пножя</t>
-  </si>
-  <si>
-    <t>pnovka</t>
-  </si>
-  <si>
-    <t>rifle (gun)</t>
-  </si>
-  <si>
-    <t>пновка</t>
-  </si>
-  <si>
-    <t>pobazit</t>
-  </si>
-  <si>
-    <t>to transform, to turn into</t>
-  </si>
-  <si>
-    <t>побазит</t>
-  </si>
-  <si>
-    <t>pochemu</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>почэму</t>
-  </si>
-  <si>
-    <t>pochka</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>почка</t>
-  </si>
-  <si>
-    <t>pod</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>под</t>
-  </si>
-  <si>
-    <t>poden</t>
-  </si>
-  <si>
-    <t>noon</t>
-  </si>
-  <si>
-    <t>подэн</t>
-  </si>
-  <si>
-    <t>pogladit</t>
-  </si>
-  <si>
-    <t>to pet, to caress, to soothe</t>
-  </si>
-  <si>
-    <t>погладит</t>
-  </si>
-  <si>
-    <t>pojaluysta</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>пожалуйста</t>
-  </si>
-  <si>
-    <t>pojamits</t>
-  </si>
-  <si>
-    <t>chemise, frock, undergarment</t>
-  </si>
-  <si>
-    <t>пожамиц</t>
-  </si>
-  <si>
-    <t>poji</t>
-  </si>
-  <si>
-    <t>cute, sweet, pretty</t>
-  </si>
-  <si>
-    <t>пожи</t>
-  </si>
-  <si>
-    <t>pojno</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>пожно</t>
-  </si>
-  <si>
-    <t>pokcha</t>
-  </si>
-  <si>
-    <t>rough, hard (adverb)</t>
-  </si>
-  <si>
-    <t>покча</t>
-  </si>
-  <si>
-    <t>poldos</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>полдос</t>
-  </si>
-  <si>
-    <t>poletya</t>
-  </si>
-  <si>
-    <t>to enjoy, to take pleasure in</t>
-  </si>
-  <si>
-    <t>полэтя</t>
-  </si>
-  <si>
-    <t>poleym</t>
-  </si>
-  <si>
-    <t>cloak</t>
-  </si>
-  <si>
-    <t>полэйм</t>
-  </si>
-  <si>
-    <t>polom</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>полом</t>
-  </si>
-  <si>
-    <t>pomelov</t>
-  </si>
-  <si>
-    <t>tower</t>
-  </si>
-  <si>
-    <t>помэлов</t>
-  </si>
-  <si>
-    <t>pomit</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>помит</t>
-  </si>
-  <si>
-    <t>porsk</t>
-  </si>
-  <si>
-    <t>suit, full body suit</t>
-  </si>
-  <si>
-    <t>порск</t>
-  </si>
-  <si>
-    <t>posim</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>посим</t>
-  </si>
-  <si>
-    <t>poslin</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>послин</t>
-  </si>
-  <si>
-    <t>posnek</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>поснэк</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>sweat</t>
-  </si>
-  <si>
-    <t>пот</t>
-  </si>
-  <si>
-    <t>povtorit</t>
-  </si>
-  <si>
-    <t>to repeat</t>
-  </si>
-  <si>
-    <t>повторит</t>
-  </si>
-  <si>
-    <t>pozvonit</t>
-  </si>
-  <si>
-    <t>to call, to summon</t>
-  </si>
-  <si>
-    <t>позвонит</t>
-  </si>
-  <si>
-    <t>prichat</t>
-  </si>
-  <si>
-    <t>to scream</t>
-  </si>
-  <si>
-    <t>причат</t>
-  </si>
-  <si>
-    <t>prichyavit</t>
-  </si>
-  <si>
-    <t>to hurt</t>
-  </si>
-  <si>
-    <t>причявит</t>
-  </si>
-  <si>
-    <t>prikleshacho</t>
-  </si>
-  <si>
-    <t>приклешачо</t>
-  </si>
-  <si>
-    <t>prikleshat</t>
-  </si>
-  <si>
-    <t>to stick onto</t>
-  </si>
-  <si>
-    <t>приклешат</t>
-  </si>
-  <si>
-    <t>prikodya</t>
-  </si>
-  <si>
-    <t>to come</t>
-  </si>
-  <si>
-    <t>прикодя</t>
-  </si>
-  <si>
-    <t>privyet</t>
-  </si>
-  <si>
-    <t>a greeting; hello, hi</t>
-  </si>
-  <si>
-    <t>привет</t>
-  </si>
-  <si>
-    <t>priygat</t>
-  </si>
-  <si>
-    <t>to jump</t>
-  </si>
-  <si>
-    <t>прйгат</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>but, yet, still</t>
-  </si>
-  <si>
-    <t>про</t>
-  </si>
-  <si>
-    <t>pros</t>
-  </si>
-  <si>
-    <t>just, only, merely</t>
-  </si>
-  <si>
-    <t>прос</t>
-  </si>
-  <si>
-    <t>provikat</t>
-  </si>
-  <si>
-    <t>to punch</t>
-  </si>
-  <si>
-    <t>провикат</t>
-  </si>
-  <si>
-    <t>pugya</t>
-  </si>
-  <si>
-    <t>to scare</t>
-  </si>
-  <si>
-    <t>пугя</t>
-  </si>
-  <si>
-    <t>pyeklo</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>пекло</t>
-  </si>
-  <si>
-    <t>pyotski</t>
-  </si>
-  <si>
-    <t>buttocks</t>
-  </si>
-  <si>
-    <t>пёцки</t>
-  </si>
-  <si>
-    <t>rabota</t>
-  </si>
-  <si>
-    <t>job, occupication, work</t>
-  </si>
-  <si>
-    <t>работа</t>
-  </si>
-  <si>
-    <t>ralinefeyv</t>
-  </si>
-  <si>
-    <t>hospital</t>
-  </si>
-  <si>
-    <t>ралинэфэйв</t>
-  </si>
-  <si>
-    <t>ranit</t>
-  </si>
-  <si>
-    <t>to injure</t>
-  </si>
-  <si>
-    <t>ранит</t>
-  </si>
-  <si>
-    <t>rarl</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>рарл</t>
-  </si>
-  <si>
-    <t>ratsonachiy</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>рацоначй</t>
-  </si>
-  <si>
-    <t>recha</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>рэча</t>
-  </si>
-  <si>
-    <t>redojan</t>
-  </si>
-  <si>
-    <t>reedian (furry)</t>
-  </si>
-  <si>
-    <t>рэдожан</t>
-  </si>
-  <si>
-    <t>remo</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>рэмо</t>
-  </si>
-  <si>
-    <t>remohilm</t>
-  </si>
-  <si>
-    <t>bathroom, restroom, public bathroom</t>
-  </si>
-  <si>
-    <t>рэмохилм</t>
-  </si>
-  <si>
-    <t>reviyetat</t>
-  </si>
-  <si>
-    <t>to have sex</t>
-  </si>
-  <si>
-    <t>рэвиетат</t>
-  </si>
-  <si>
-    <t>rey</t>
-  </si>
-  <si>
-    <t>you (accusative)</t>
-  </si>
-  <si>
-    <t>рэй</t>
-  </si>
-  <si>
-    <t>reyka</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>рэйка</t>
-  </si>
-  <si>
-    <t>reykon</t>
-  </si>
-  <si>
-    <t>vehicle</t>
-  </si>
-  <si>
-    <t>рэйкон</t>
-  </si>
-  <si>
-    <t>reynk</t>
-  </si>
-  <si>
-    <t>class, rank, role</t>
-  </si>
-  <si>
-    <t>рэйнк</t>
-  </si>
-  <si>
-    <t>rish</t>
-  </si>
-  <si>
-    <t>previous, last</t>
-  </si>
-  <si>
-    <t>риш</t>
-  </si>
-  <si>
-    <t>riy</t>
-  </si>
-  <si>
-    <t>you (nominative)</t>
-  </si>
-  <si>
-    <t>рй</t>
-  </si>
-  <si>
-    <t>riyn</t>
-  </si>
-  <si>
-    <t>your (genitive, possessive)</t>
-  </si>
-  <si>
-    <t>рйн</t>
-  </si>
-  <si>
-    <t>riyschat</t>
-  </si>
-  <si>
-    <t>to ride</t>
-  </si>
-  <si>
-    <t>рйсчат</t>
-  </si>
-  <si>
-    <t>riyschiyo</t>
-  </si>
-  <si>
-    <t>knight</t>
-  </si>
-  <si>
-    <t>рйсчйо</t>
-  </si>
-  <si>
-    <t>riyshdyu</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>рйшдю</t>
-  </si>
-  <si>
-    <t>rlato</t>
-  </si>
-  <si>
-    <t>crew</t>
-  </si>
-  <si>
-    <t>рлато</t>
-  </si>
-  <si>
-    <t>rliykor</t>
-  </si>
-  <si>
-    <t>faction</t>
-  </si>
-  <si>
-    <t>рлйкор</t>
-  </si>
-  <si>
-    <t>rlobovit</t>
-  </si>
-  <si>
-    <t>to free</t>
-  </si>
-  <si>
-    <t>рлобовит</t>
-  </si>
-  <si>
-    <t>rlotiva</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>рлотива</t>
-  </si>
-  <si>
-    <t>rogevik</t>
-  </si>
-  <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>рогэвик</t>
-  </si>
-  <si>
-    <t>roka</t>
-  </si>
-  <si>
-    <t>structure, frame</t>
-  </si>
-  <si>
-    <t>рока</t>
-  </si>
-  <si>
-    <t>romit</t>
-  </si>
-  <si>
-    <t>to walk</t>
-  </si>
-  <si>
-    <t>ромит</t>
-  </si>
-  <si>
-    <t>ronk</t>
-  </si>
-  <si>
-    <t>boot</t>
-  </si>
-  <si>
-    <t>ронк</t>
-  </si>
-  <si>
-    <t>ronol</t>
-  </si>
-  <si>
-    <t>ghost, spirit</t>
-  </si>
-  <si>
-    <t>ронол</t>
-  </si>
-  <si>
-    <t>roskyat</t>
-  </si>
-  <si>
-    <t>to find, to search</t>
-  </si>
-  <si>
-    <t>роскят</t>
-  </si>
-  <si>
-    <t>rotat</t>
-  </si>
-  <si>
-    <t>to tilt, to become lopsided</t>
-  </si>
-  <si>
-    <t>ротат</t>
-  </si>
-  <si>
-    <t>roteyn</t>
-  </si>
-  <si>
-    <t>rule, law</t>
-  </si>
-  <si>
-    <t>ротэйн</t>
-  </si>
-  <si>
-    <t>rovek</t>
-  </si>
-  <si>
-    <t>spell, rune</t>
-  </si>
-  <si>
-    <t>ровэк</t>
-  </si>
-  <si>
-    <t>rovinlosik</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>ровинлосик</t>
-  </si>
-  <si>
-    <t>rovit</t>
-  </si>
-  <si>
-    <t>to check, to inspect</t>
-  </si>
-  <si>
-    <t>ровит</t>
-  </si>
-  <si>
-    <t>rozkudat</t>
-  </si>
-  <si>
-    <t>to rape, to sexually assault</t>
-  </si>
-  <si>
-    <t>розкудат</t>
-  </si>
-  <si>
-    <t>rukat</t>
-  </si>
-  <si>
-    <t>battery, energy cell, energy weapon battery</t>
-  </si>
-  <si>
-    <t>рукат</t>
-  </si>
-  <si>
-    <t>rukeyka</t>
-  </si>
-  <si>
-    <t>debris, rubble, crumbled pieces</t>
-  </si>
-  <si>
-    <t>рукэйка</t>
-  </si>
-  <si>
-    <t>rukivta</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>рукивта</t>
-  </si>
-  <si>
-    <t>savlat</t>
-  </si>
-  <si>
-    <t>to analyze, to experiment, to test</t>
-  </si>
-  <si>
-    <t>савлат</t>
-  </si>
-  <si>
-    <t>sayron</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>сайрон</t>
-  </si>
-  <si>
-    <t>sbyejat</t>
-  </si>
-  <si>
-    <t>to escape</t>
-  </si>
-  <si>
-    <t>сбежат</t>
-  </si>
-  <si>
-    <t>sdavat</t>
-  </si>
-  <si>
-    <t>to aim</t>
-  </si>
-  <si>
-    <t>сдават</t>
-  </si>
-  <si>
-    <t>sdoba</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>сдоба</t>
-  </si>
-  <si>
-    <t>sdojagiy</t>
-  </si>
-  <si>
-    <t>muscular</t>
-  </si>
-  <si>
-    <t>сдожагй</t>
-  </si>
-  <si>
-    <t>sdovalit</t>
-  </si>
-  <si>
-    <t>to send</t>
-  </si>
-  <si>
-    <t>сдовалит</t>
-  </si>
-  <si>
-    <t>sejrem</t>
-  </si>
-  <si>
-    <t>meadows, grasslands</t>
-  </si>
-  <si>
-    <t>сэжрэм</t>
-  </si>
-  <si>
-    <t>seleyk</t>
-  </si>
-  <si>
-    <t>gray, grey</t>
-  </si>
-  <si>
-    <t>сэлэйк</t>
-  </si>
-  <si>
-    <t>selin</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>сэлин</t>
-  </si>
-  <si>
-    <t>sen</t>
-  </si>
-  <si>
-    <t>he, him (nominative)</t>
-  </si>
-  <si>
-    <t>сэн</t>
-  </si>
-  <si>
-    <t>seniy</t>
-  </si>
-  <si>
-    <t>he, him, his (genitive, possessive)</t>
-  </si>
-  <si>
-    <t>сенй</t>
-  </si>
-  <si>
-    <t>senva</t>
-  </si>
-  <si>
-    <t>man, male</t>
-  </si>
-  <si>
-    <t>сэнва</t>
-  </si>
-  <si>
-    <t>sevakin</t>
-  </si>
-  <si>
-    <t>mage, wizard, sorcerer, magic user</t>
-  </si>
-  <si>
-    <t>сэвакин</t>
-  </si>
-  <si>
-    <t>sevenak</t>
-  </si>
-  <si>
-    <t>sea, ocean</t>
-  </si>
-  <si>
-    <t>сэвэнак</t>
-  </si>
-  <si>
-    <t>seyna</t>
-  </si>
-  <si>
-    <t>he, him (accusative)</t>
-  </si>
-  <si>
-    <t>сэйна</t>
-  </si>
-  <si>
-    <t>seyshim</t>
-  </si>
-  <si>
-    <t>terrain, land</t>
-  </si>
-  <si>
-    <t>сэйшим</t>
-  </si>
-  <si>
-    <t>seyta</t>
-  </si>
-  <si>
-    <t>exotic, otherworldly</t>
-  </si>
-  <si>
-    <t>сэйта</t>
-  </si>
-  <si>
-    <t>shakyat</t>
-  </si>
-  <si>
-    <t>to kill</t>
-  </si>
-  <si>
-    <t>шакят</t>
-  </si>
-  <si>
-    <t>shara</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>шара</t>
-  </si>
-  <si>
-    <t>shelm</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>шэлм</t>
-  </si>
-  <si>
-    <t>shem</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>шэм</t>
-  </si>
-  <si>
-    <t>shevya</t>
-  </si>
-  <si>
-    <t>to care</t>
-  </si>
-  <si>
-    <t>шэвя</t>
-  </si>
-  <si>
-    <t>sheynata</t>
-  </si>
-  <si>
-    <t>rainy weather</t>
-  </si>
-  <si>
-    <t>шэйната</t>
-  </si>
-  <si>
-    <t>sheynatahilm</t>
-  </si>
-  <si>
-    <t>bathroom, shower room</t>
-  </si>
-  <si>
-    <t>шэйнатахилм</t>
-  </si>
-  <si>
-    <t>shlyapa</t>
-  </si>
-  <si>
-    <t>hat, headwear</t>
-  </si>
-  <si>
-    <t>шляпа</t>
-  </si>
-  <si>
-    <t>shtorm</t>
-  </si>
-  <si>
-    <t>storm, tempest</t>
-  </si>
-  <si>
-    <t>шторм</t>
-  </si>
-  <si>
-    <t>sidit</t>
-  </si>
-  <si>
-    <t>to sit</t>
-  </si>
-  <si>
-    <t>сидит</t>
-  </si>
-  <si>
-    <t>sifenmujye</t>
-  </si>
-  <si>
-    <t>to surrender, to give up</t>
-  </si>
-  <si>
-    <t>сифэнмуже</t>
-  </si>
-  <si>
-    <t>sikol</t>
-  </si>
-  <si>
-    <t>cycle</t>
-  </si>
-  <si>
-    <t>сикол</t>
-  </si>
-  <si>
-    <t>silarkish</t>
-  </si>
-  <si>
-    <t>silartite</t>
-  </si>
-  <si>
-    <t>силаркиш</t>
-  </si>
-  <si>
-    <t>sinya</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>синя</t>
-  </si>
-  <si>
-    <t>sisak</t>
-  </si>
-  <si>
-    <t>stupid, idiotic</t>
-  </si>
-  <si>
-    <t>сисак</t>
-  </si>
-  <si>
-    <t>siskaka</t>
-  </si>
-  <si>
-    <t>idiot, stupid person, insult</t>
-  </si>
-  <si>
-    <t>сискака</t>
-  </si>
-  <si>
-    <t>siyma</t>
-  </si>
-  <si>
-    <t>sister</t>
-  </si>
-  <si>
-    <t>сйма</t>
-  </si>
-  <si>
-    <t>siymyazit</t>
-  </si>
-  <si>
-    <t>to clean, to wash</t>
-  </si>
-  <si>
-    <t>сймязит</t>
-  </si>
-  <si>
-    <t>skadzosit</t>
-  </si>
-  <si>
-    <t>to concentrate, to focus</t>
-  </si>
-  <si>
-    <t>скадзосит</t>
-  </si>
-  <si>
-    <t>skafniy</t>
-  </si>
-  <si>
-    <t>scabbard, sheath</t>
-  </si>
-  <si>
-    <t>скафнй</t>
-  </si>
-  <si>
-    <t>skahem</t>
-  </si>
-  <si>
-    <t>the sky</t>
-  </si>
-  <si>
-    <t>скахэм</t>
-  </si>
-  <si>
-    <t>skan</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>скан</t>
-  </si>
-  <si>
-    <t>skojyat</t>
-  </si>
-  <si>
-    <t>to push</t>
-  </si>
-  <si>
-    <t>скожят</t>
-  </si>
-  <si>
-    <t>skomyat</t>
-  </si>
-  <si>
-    <t>to shoot, to fire weapon</t>
-  </si>
-  <si>
-    <t>скомят</t>
-  </si>
-  <si>
-    <t>skotyat</t>
-  </si>
-  <si>
-    <t>to write</t>
-  </si>
-  <si>
-    <t>скотят</t>
-  </si>
-  <si>
-    <t>skyezat</t>
-  </si>
-  <si>
-    <t>to tell</t>
-  </si>
-  <si>
-    <t>скезат</t>
-  </si>
-  <si>
-    <t>slava</t>
-  </si>
-  <si>
-    <t>glory</t>
-  </si>
-  <si>
-    <t>слава</t>
-  </si>
-  <si>
-    <t>sledyet</t>
-  </si>
-  <si>
-    <t>to follow, to go with</t>
-  </si>
-  <si>
-    <t>слэдет</t>
-  </si>
-  <si>
-    <t>sliykyat</t>
-  </si>
-  <si>
-    <t>to lie down</t>
-  </si>
-  <si>
-    <t>слйкят</t>
-  </si>
-  <si>
-    <t>slyenyat</t>
-  </si>
-  <si>
-    <t>to cut, to slice, to slit</t>
-  </si>
-  <si>
-    <t>сленкат</t>
-  </si>
-  <si>
-    <t>smiyat</t>
-  </si>
-  <si>
-    <t>to take off, to doff</t>
-  </si>
-  <si>
-    <t>смият</t>
-  </si>
-  <si>
-    <t>smotret</t>
-  </si>
-  <si>
-    <t>to stare, to gaze at, to look intensely</t>
-  </si>
-  <si>
-    <t>смотрэт</t>
-  </si>
-  <si>
-    <t>snova</t>
-  </si>
-  <si>
-    <t>again</t>
-  </si>
-  <si>
-    <t>снова</t>
+    <t>снёма</t>
   </si>
   <si>
     <t>sobaka</t>
@@ -8209,6 +8209,15 @@
   </si>
   <si>
     <t>золото</t>
+  </si>
+  <si>
+    <t>zombiy</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>зомбй</t>
   </si>
   <si>
     <t>zrokno</t>
@@ -20355,13 +20364,13 @@
       <c r="X352" s="17"/>
     </row>
     <row r="353">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="14" t="s">
         <v>1237</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="14" t="s">
         <v>1238</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="C353" s="14" t="s">
         <v>1239</v>
       </c>
       <c r="D353" s="17"/>
@@ -20483,13 +20492,13 @@
       <c r="X356" s="17"/>
     </row>
     <row r="357">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="9" t="s">
         <v>1249</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="C357" s="14" t="s">
+      <c r="C357" s="9" t="s">
         <v>1251</v>
       </c>
       <c r="D357" s="17"/>
@@ -20547,10 +20556,10 @@
       <c r="X358" s="17"/>
     </row>
     <row r="359">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="19" t="s">
         <v>1255</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="19" t="s">
         <v>1256</v>
       </c>
       <c r="C359" s="9" t="s">
@@ -20579,10 +20588,10 @@
       <c r="X359" s="17"/>
     </row>
     <row r="360">
-      <c r="A360" s="19" t="s">
+      <c r="A360" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="B360" s="19" t="s">
+      <c r="B360" s="9" t="s">
         <v>1259</v>
       </c>
       <c r="C360" s="9" t="s">
@@ -20675,10 +20684,10 @@
       <c r="X362" s="17"/>
     </row>
     <row r="363">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="19" t="s">
         <v>1267</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="19" t="s">
         <v>1268</v>
       </c>
       <c r="C363" s="9" t="s">
@@ -20707,10 +20716,10 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="19" t="s">
+      <c r="A364" s="14" t="s">
         <v>1270</v>
       </c>
-      <c r="B364" s="19" t="s">
+      <c r="B364" s="9" t="s">
         <v>1271</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -20739,7 +20748,7 @@
       <c r="X364" s="17"/>
     </row>
     <row r="365">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="9" t="s">
         <v>1273</v>
       </c>
       <c r="B365" s="9" t="s">
@@ -20899,13 +20908,13 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C370" s="14" t="s">
         <v>1290</v>
       </c>
       <c r="D370" s="17"/>
@@ -20931,13 +20940,13 @@
       <c r="X370" s="17"/>
     </row>
     <row r="371">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="9" t="s">
         <v>1293</v>
       </c>
       <c r="D371" s="17"/>
@@ -20995,13 +21004,13 @@
       <c r="X372" s="17"/>
     </row>
     <row r="373">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="C373" s="9" t="s">
+      <c r="C373" s="14" t="s">
         <v>1299</v>
       </c>
       <c r="D373" s="17"/>
@@ -21059,13 +21068,13 @@
       <c r="X374" s="17"/>
     </row>
     <row r="375">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="9" t="s">
         <v>1303</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="9" t="s">
         <v>1304</v>
       </c>
-      <c r="C375" s="14" t="s">
+      <c r="C375" s="9" t="s">
         <v>1305</v>
       </c>
       <c r="D375" s="17"/>
@@ -21251,13 +21260,13 @@
       <c r="X380" s="17"/>
     </row>
     <row r="381">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="14" t="s">
         <v>1321</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="14" t="s">
         <v>1322</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="14" t="s">
         <v>1323</v>
       </c>
       <c r="D381" s="17"/>
@@ -21283,13 +21292,13 @@
       <c r="X381" s="17"/>
     </row>
     <row r="382">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="C382" s="14" t="s">
+      <c r="C382" s="9" t="s">
         <v>1326</v>
       </c>
       <c r="D382" s="17"/>
@@ -21347,13 +21356,13 @@
       <c r="X383" s="17"/>
     </row>
     <row r="384">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="14" t="s">
         <v>1330</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="14" t="s">
         <v>1331</v>
       </c>
-      <c r="C384" s="9" t="s">
+      <c r="C384" s="14" t="s">
         <v>1332</v>
       </c>
       <c r="D384" s="17"/>
@@ -21443,13 +21452,13 @@
       <c r="X386" s="17"/>
     </row>
     <row r="387">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="9" t="s">
         <v>1340</v>
       </c>
-      <c r="C387" s="14" t="s">
+      <c r="C387" s="9" t="s">
         <v>1341</v>
       </c>
       <c r="D387" s="17"/>
@@ -21475,13 +21484,13 @@
       <c r="X387" s="17"/>
     </row>
     <row r="388">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="14" t="s">
         <v>1342</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="14" t="s">
         <v>1343</v>
       </c>
-      <c r="C388" s="9" t="s">
+      <c r="C388" s="14" t="s">
         <v>1344</v>
       </c>
       <c r="D388" s="17"/>
@@ -21507,13 +21516,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="19" t="s">
         <v>1345</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="19" t="s">
         <v>1346</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="9" t="s">
         <v>1347</v>
       </c>
       <c r="D389" s="17"/>
@@ -21539,13 +21548,13 @@
       <c r="X389" s="17"/>
     </row>
     <row r="390">
-      <c r="A390" s="19" t="s">
+      <c r="A390" s="14" t="s">
         <v>1348</v>
       </c>
-      <c r="B390" s="19" t="s">
+      <c r="B390" s="14" t="s">
         <v>1349</v>
       </c>
-      <c r="C390" s="9" t="s">
+      <c r="C390" s="14" t="s">
         <v>1350</v>
       </c>
       <c r="D390" s="17"/>
@@ -21635,13 +21644,13 @@
       <c r="X392" s="17"/>
     </row>
     <row r="393">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="9" t="s">
         <v>1357</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="C393" s="14" t="s">
+      <c r="C393" s="9" t="s">
         <v>1359</v>
       </c>
       <c r="D393" s="17"/>
@@ -21699,13 +21708,13 @@
       <c r="X394" s="17"/>
     </row>
     <row r="395">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="14" t="s">
         <v>1363</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="14" t="s">
         <v>1364</v>
       </c>
-      <c r="C395" s="9" t="s">
+      <c r="C395" s="14" t="s">
         <v>1365</v>
       </c>
       <c r="D395" s="17"/>
@@ -21731,13 +21740,13 @@
       <c r="X395" s="17"/>
     </row>
     <row r="396">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="9" t="s">
         <v>1366</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="9" t="s">
         <v>1367</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C396" s="9" t="s">
         <v>1368</v>
       </c>
       <c r="D396" s="17"/>
@@ -21923,13 +21932,13 @@
       <c r="X401" s="17"/>
     </row>
     <row r="402">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="14" t="s">
         <v>1384</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="C402" s="9" t="s">
+      <c r="C402" s="14" t="s">
         <v>1386</v>
       </c>
       <c r="D402" s="17"/>
@@ -21987,13 +21996,13 @@
       <c r="X403" s="17"/>
     </row>
     <row r="404">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="C404" s="14" t="s">
+      <c r="C404" s="9" t="s">
         <v>1392</v>
       </c>
       <c r="D404" s="17"/>
@@ -22083,13 +22092,13 @@
       <c r="X406" s="17"/>
     </row>
     <row r="407">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="14" t="s">
         <v>1400</v>
       </c>
-      <c r="C407" s="9" t="s">
+      <c r="C407" s="14" t="s">
         <v>1401</v>
       </c>
       <c r="D407" s="17"/>
@@ -22147,13 +22156,13 @@
       <c r="X408" s="17"/>
     </row>
     <row r="409">
-      <c r="A409" s="14" t="s">
+      <c r="A409" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="B409" s="14" t="s">
+      <c r="B409" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="C409" s="14" t="s">
+      <c r="C409" s="9" t="s">
         <v>1407</v>
       </c>
       <c r="D409" s="17"/>
@@ -22179,13 +22188,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1408</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C410" s="14" t="s">
         <v>1410</v>
       </c>
       <c r="D410" s="17"/>
@@ -22211,13 +22220,13 @@
       <c r="X410" s="17"/>
     </row>
     <row r="411">
-      <c r="A411" s="14" t="s">
+      <c r="A411" s="9" t="s">
         <v>1411</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C411" s="9" t="s">
         <v>1413</v>
       </c>
       <c r="D411" s="17"/>
@@ -22339,13 +22348,13 @@
       <c r="X414" s="17"/>
     </row>
     <row r="415">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="14" t="s">
         <v>1423</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="14" t="s">
         <v>1424</v>
       </c>
-      <c r="C415" s="9" t="s">
+      <c r="C415" s="14" t="s">
         <v>1425</v>
       </c>
       <c r="D415" s="17"/>
@@ -22403,13 +22412,13 @@
       <c r="X416" s="17"/>
     </row>
     <row r="417">
-      <c r="A417" s="14" t="s">
+      <c r="A417" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="B417" s="14" t="s">
+      <c r="B417" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="C417" s="14" t="s">
+      <c r="C417" s="9" t="s">
         <v>1431</v>
       </c>
       <c r="D417" s="17"/>
@@ -22499,13 +22508,13 @@
       <c r="X419" s="17"/>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C420" s="14" t="s">
         <v>1440</v>
       </c>
       <c r="D420" s="17"/>
@@ -22531,13 +22540,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="9" t="s">
         <v>1443</v>
       </c>
       <c r="D421" s="17"/>
@@ -22563,14 +22572,14 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="14" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C422" s="14" t="s">
         <v>1445</v>
-      </c>
-      <c r="C422" s="9" t="s">
-        <v>1446</v>
       </c>
       <c r="D422" s="17"/>
       <c r="E422" s="17"/>
@@ -22596,13 +22605,13 @@
     </row>
     <row r="423">
       <c r="A423" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C423" s="14" t="s">
         <v>1447</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C423" s="14" t="s">
-        <v>1448</v>
       </c>
       <c r="D423" s="17"/>
       <c r="E423" s="17"/>
@@ -22627,8 +22636,8 @@
       <c r="X423" s="17"/>
     </row>
     <row r="424">
-      <c r="A424" s="14" t="s">
-        <v>1449</v>
+      <c r="A424" s="9" t="s">
+        <v>1448</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>1449</v>
@@ -22659,7 +22668,7 @@
       <c r="X424" s="17"/>
     </row>
     <row r="425">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="14" t="s">
         <v>1451</v>
       </c>
       <c r="B425" s="14" t="s">
@@ -22723,13 +22732,13 @@
       <c r="X426" s="17"/>
     </row>
     <row r="427">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="B427" s="14" t="s">
+      <c r="B427" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="C427" s="14" t="s">
+      <c r="C427" s="9" t="s">
         <v>1459</v>
       </c>
       <c r="D427" s="17"/>
@@ -22787,13 +22796,13 @@
       <c r="X428" s="17"/>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="C429" s="9" t="s">
+      <c r="C429" s="14" t="s">
         <v>1465</v>
       </c>
       <c r="D429" s="17"/>
@@ -22819,13 +22828,13 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="B430" s="14" t="s">
+      <c r="B430" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="C430" s="14" t="s">
+      <c r="C430" s="9" t="s">
         <v>1468</v>
       </c>
       <c r="D430" s="17"/>
@@ -22851,13 +22860,13 @@
       <c r="X430" s="17"/>
     </row>
     <row r="431">
-      <c r="A431" s="9" t="s">
+      <c r="A431" s="14" t="s">
         <v>1469</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="14" t="s">
         <v>1470</v>
       </c>
-      <c r="C431" s="9" t="s">
+      <c r="C431" s="14" t="s">
         <v>1471</v>
       </c>
       <c r="D431" s="17"/>
@@ -22947,13 +22956,13 @@
       <c r="X433" s="17"/>
     </row>
     <row r="434">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="C434" s="14" t="s">
+      <c r="C434" s="9" t="s">
         <v>1480</v>
       </c>
       <c r="D434" s="17"/>
@@ -22979,13 +22988,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="14" t="s">
         <v>1482</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C435" s="14" t="s">
         <v>1483</v>
       </c>
       <c r="D435" s="17"/>
@@ -23011,13 +23020,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="C436" s="14" t="s">
+      <c r="C436" s="9" t="s">
         <v>1486</v>
       </c>
       <c r="D436" s="17"/>
@@ -23043,7 +23052,7 @@
       <c r="X436" s="17"/>
     </row>
     <row r="437">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="14" t="s">
         <v>1487</v>
       </c>
       <c r="B437" s="9" t="s">
@@ -23075,7 +23084,7 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="9" t="s">
         <v>1490</v>
       </c>
       <c r="B438" s="9" t="s">
@@ -23107,10 +23116,10 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="19" t="s">
         <v>1493</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="19" t="s">
         <v>1494</v>
       </c>
       <c r="C439" s="9" t="s">
@@ -23139,10 +23148,10 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="19" t="s">
+      <c r="A440" s="38" t="s">
         <v>1496</v>
       </c>
-      <c r="B440" s="19" t="s">
+      <c r="B440" s="9" t="s">
         <v>1497</v>
       </c>
       <c r="C440" s="9" t="s">
@@ -23171,7 +23180,7 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="38" t="s">
+      <c r="A441" s="9" t="s">
         <v>1499</v>
       </c>
       <c r="B441" s="9" t="s">
@@ -23203,13 +23212,13 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="C442" s="9" t="s">
+      <c r="C442" s="14" t="s">
         <v>1504</v>
       </c>
       <c r="D442" s="17"/>
@@ -23363,13 +23372,13 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="14" t="s">
+      <c r="A447" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="B447" s="14" t="s">
+      <c r="B447" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="C447" s="14" t="s">
+      <c r="C447" s="9" t="s">
         <v>1519</v>
       </c>
       <c r="D447" s="17"/>
@@ -23459,13 +23468,13 @@
       <c r="X449" s="17"/>
     </row>
     <row r="450">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="14" t="s">
         <v>1526</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="C450" s="9" t="s">
+      <c r="C450" s="14" t="s">
         <v>1528</v>
       </c>
       <c r="D450" s="17"/>
@@ -23523,13 +23532,13 @@
       <c r="X451" s="17"/>
     </row>
     <row r="452">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="B452" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="C452" s="14" t="s">
+      <c r="C452" s="9" t="s">
         <v>1534</v>
       </c>
       <c r="D452" s="17"/>
@@ -23587,13 +23596,13 @@
       <c r="X453" s="17"/>
     </row>
     <row r="454">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="14" t="s">
         <v>1539</v>
       </c>
-      <c r="C454" s="9" t="s">
+      <c r="C454" s="14" t="s">
         <v>1540</v>
       </c>
       <c r="D454" s="17"/>
@@ -23619,13 +23628,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="C455" s="14" t="s">
+      <c r="C455" s="9" t="s">
         <v>1543</v>
       </c>
       <c r="D455" s="17"/>
@@ -23651,13 +23660,13 @@
       <c r="X455" s="17"/>
     </row>
     <row r="456">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="C456" s="9" t="s">
+      <c r="C456" s="14" t="s">
         <v>1546</v>
       </c>
       <c r="D456" s="17"/>
@@ -23683,13 +23692,13 @@
       <c r="X456" s="17"/>
     </row>
     <row r="457">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="C457" s="14" t="s">
+      <c r="C457" s="9" t="s">
         <v>1549</v>
       </c>
       <c r="D457" s="17"/>
@@ -23939,13 +23948,13 @@
       <c r="X464" s="17"/>
     </row>
     <row r="465">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="14" t="s">
         <v>1571</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="C465" s="9" t="s">
+      <c r="C465" s="14" t="s">
         <v>1573</v>
       </c>
       <c r="D465" s="17"/>
@@ -24003,13 +24012,13 @@
       <c r="X466" s="17"/>
     </row>
     <row r="467">
-      <c r="A467" s="14" t="s">
+      <c r="A467" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="C467" s="14" t="s">
+      <c r="C467" s="9" t="s">
         <v>1579</v>
       </c>
       <c r="D467" s="17"/>
@@ -24035,13 +24044,13 @@
       <c r="X467" s="17"/>
     </row>
     <row r="468">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="14" t="s">
         <v>1581</v>
       </c>
-      <c r="C468" s="9" t="s">
+      <c r="C468" s="14" t="s">
         <v>1582</v>
       </c>
       <c r="D468" s="17"/>
@@ -24099,13 +24108,13 @@
       <c r="X469" s="17"/>
     </row>
     <row r="470">
-      <c r="A470" s="14" t="s">
+      <c r="A470" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="B470" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="C470" s="14" t="s">
+      <c r="C470" s="9" t="s">
         <v>1588</v>
       </c>
       <c r="D470" s="17"/>
@@ -24259,13 +24268,13 @@
       <c r="X474" s="17"/>
     </row>
     <row r="475">
-      <c r="A475" s="9" t="s">
+      <c r="A475" s="14" t="s">
         <v>1601</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="14" t="s">
         <v>1602</v>
       </c>
-      <c r="C475" s="9" t="s">
+      <c r="C475" s="14" t="s">
         <v>1603</v>
       </c>
       <c r="D475" s="17"/>
@@ -24419,13 +24428,13 @@
       <c r="X479" s="17"/>
     </row>
     <row r="480">
-      <c r="A480" s="14" t="s">
+      <c r="A480" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="C480" s="14" t="s">
+      <c r="C480" s="9" t="s">
         <v>1618</v>
       </c>
       <c r="D480" s="17"/>
@@ -24451,13 +24460,13 @@
       <c r="X480" s="17"/>
     </row>
     <row r="481">
-      <c r="A481" s="9" t="s">
+      <c r="A481" s="14" t="s">
         <v>1619</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C481" s="14" t="s">
         <v>1621</v>
       </c>
       <c r="D481" s="17"/>
@@ -24515,13 +24524,13 @@
       <c r="X482" s="17"/>
     </row>
     <row r="483">
-      <c r="A483" s="14" t="s">
+      <c r="A483" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C483" s="9" t="s">
         <v>1627</v>
       </c>
       <c r="D483" s="17"/>
@@ -24547,13 +24556,13 @@
       <c r="X483" s="17"/>
     </row>
     <row r="484">
-      <c r="A484" s="9" t="s">
+      <c r="A484" s="14" t="s">
         <v>1628</v>
       </c>
-      <c r="B484" s="9" t="s">
+      <c r="B484" s="14" t="s">
         <v>1629</v>
       </c>
-      <c r="C484" s="9" t="s">
+      <c r="C484" s="14" t="s">
         <v>1630</v>
       </c>
       <c r="D484" s="17"/>
@@ -24579,13 +24588,13 @@
       <c r="X484" s="17"/>
     </row>
     <row r="485">
-      <c r="A485" s="14" t="s">
+      <c r="A485" s="9" t="s">
         <v>1631</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C485" s="9" t="s">
         <v>1633</v>
       </c>
       <c r="D485" s="17"/>
@@ -24611,10 +24620,10 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="19" t="s">
         <v>1634</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="19" t="s">
         <v>1635</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -24643,10 +24652,10 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="19" t="s">
+      <c r="A487" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="B487" s="19" t="s">
+      <c r="B487" s="9" t="s">
         <v>1638</v>
       </c>
       <c r="C487" s="9" t="s">
@@ -24675,13 +24684,13 @@
       <c r="X487" s="17"/>
     </row>
     <row r="488">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="14" t="s">
         <v>1640</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="14" t="s">
         <v>1641</v>
       </c>
-      <c r="C488" s="9" t="s">
+      <c r="C488" s="14" t="s">
         <v>1642</v>
       </c>
       <c r="D488" s="17"/>
@@ -24707,13 +24716,13 @@
       <c r="X488" s="17"/>
     </row>
     <row r="489">
-      <c r="A489" s="14" t="s">
+      <c r="A489" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="C489" s="14" t="s">
+      <c r="C489" s="9" t="s">
         <v>1645</v>
       </c>
       <c r="D489" s="17"/>
@@ -24771,13 +24780,13 @@
       <c r="X490" s="17"/>
     </row>
     <row r="491">
-      <c r="A491" s="9" t="s">
+      <c r="A491" s="14" t="s">
         <v>1649</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="14" t="s">
         <v>1650</v>
       </c>
-      <c r="C491" s="9" t="s">
+      <c r="C491" s="14" t="s">
         <v>1651</v>
       </c>
       <c r="D491" s="17"/>
@@ -24899,13 +24908,13 @@
       <c r="X494" s="17"/>
     </row>
     <row r="495">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="9" t="s">
         <v>1661</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>1662</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="9" t="s">
         <v>1663</v>
       </c>
       <c r="D495" s="17"/>
@@ -24931,13 +24940,13 @@
       <c r="X495" s="17"/>
     </row>
     <row r="496">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="14" t="s">
         <v>1664</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="14" t="s">
         <v>1665</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="14" t="s">
         <v>1666</v>
       </c>
       <c r="D496" s="17"/>
@@ -24995,13 +25004,13 @@
       <c r="X497" s="17"/>
     </row>
     <row r="498">
-      <c r="A498" s="14" t="s">
+      <c r="A498" s="9" t="s">
         <v>1670</v>
       </c>
-      <c r="B498" s="14" t="s">
+      <c r="B498" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="C498" s="14" t="s">
+      <c r="C498" s="9" t="s">
         <v>1672</v>
       </c>
       <c r="D498" s="17"/>
@@ -25059,13 +25068,13 @@
       <c r="X499" s="17"/>
     </row>
     <row r="500">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="14" t="s">
         <v>1676</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="14" t="s">
         <v>1677</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C500" s="14" t="s">
         <v>1678</v>
       </c>
       <c r="D500" s="17"/>
@@ -25091,13 +25100,13 @@
       <c r="X500" s="17"/>
     </row>
     <row r="501">
-      <c r="A501" s="14" t="s">
+      <c r="A501" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="B501" s="14" t="s">
+      <c r="B501" s="9" t="s">
         <v>1680</v>
       </c>
-      <c r="C501" s="14" t="s">
+      <c r="C501" s="9" t="s">
         <v>1681</v>
       </c>
       <c r="D501" s="17"/>
@@ -25155,13 +25164,13 @@
       <c r="X502" s="17"/>
     </row>
     <row r="503">
-      <c r="A503" s="9" t="s">
+      <c r="A503" s="14" t="s">
         <v>1685</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="14" t="s">
         <v>1686</v>
       </c>
-      <c r="C503" s="9" t="s">
+      <c r="C503" s="14" t="s">
         <v>1687</v>
       </c>
       <c r="D503" s="17"/>
@@ -25251,13 +25260,13 @@
       <c r="X505" s="17"/>
     </row>
     <row r="506">
-      <c r="A506" s="14" t="s">
+      <c r="A506" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="B506" s="14" t="s">
+      <c r="B506" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="C506" s="14" t="s">
+      <c r="C506" s="9" t="s">
         <v>1696</v>
       </c>
       <c r="D506" s="17"/>
@@ -25286,10 +25295,10 @@
       <c r="A507" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="14" t="s">
         <v>1698</v>
       </c>
-      <c r="C507" s="9" t="s">
+      <c r="C507" s="14" t="s">
         <v>1699</v>
       </c>
       <c r="D507" s="17"/>
@@ -25315,7 +25324,7 @@
       <c r="X507" s="17"/>
     </row>
     <row r="508">
-      <c r="A508" s="9" t="s">
+      <c r="A508" s="14" t="s">
         <v>1700</v>
       </c>
       <c r="B508" s="14" t="s">
@@ -25539,13 +25548,13 @@
       <c r="X514" s="17"/>
     </row>
     <row r="515">
-      <c r="A515" s="14" t="s">
+      <c r="A515" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="B515" s="14" t="s">
+      <c r="B515" s="9" t="s">
         <v>1722</v>
       </c>
-      <c r="C515" s="14" t="s">
+      <c r="C515" s="9" t="s">
         <v>1723</v>
       </c>
       <c r="D515" s="17"/>
@@ -25603,13 +25612,13 @@
       <c r="X516" s="17"/>
     </row>
     <row r="517">
-      <c r="A517" s="9" t="s">
+      <c r="A517" s="14" t="s">
         <v>1727</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="14" t="s">
         <v>1728</v>
       </c>
-      <c r="C517" s="9" t="s">
+      <c r="C517" s="14" t="s">
         <v>1729</v>
       </c>
       <c r="D517" s="17"/>
@@ -25667,13 +25676,13 @@
       <c r="X518" s="17"/>
     </row>
     <row r="519">
-      <c r="A519" s="14" t="s">
+      <c r="A519" s="9" t="s">
         <v>1733</v>
       </c>
-      <c r="B519" s="14" t="s">
+      <c r="B519" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="C519" s="14" t="s">
+      <c r="C519" s="9" t="s">
         <v>1735</v>
       </c>
       <c r="D519" s="17"/>
@@ -25699,13 +25708,13 @@
       <c r="X519" s="17"/>
     </row>
     <row r="520">
-      <c r="A520" s="9" t="s">
+      <c r="A520" s="14" t="s">
         <v>1736</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B520" s="14" t="s">
         <v>1737</v>
       </c>
-      <c r="C520" s="9" t="s">
+      <c r="C520" s="14" t="s">
         <v>1738</v>
       </c>
       <c r="D520" s="17"/>
@@ -25795,13 +25804,13 @@
       <c r="X522" s="17"/>
     </row>
     <row r="523">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="9" t="s">
         <v>1745</v>
       </c>
-      <c r="B523" s="14" t="s">
+      <c r="B523" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="C523" s="14" t="s">
+      <c r="C523" s="9" t="s">
         <v>1747</v>
       </c>
       <c r="D523" s="17"/>
@@ -25827,13 +25836,13 @@
       <c r="X523" s="17"/>
     </row>
     <row r="524">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="14" t="s">
         <v>1748</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="14" t="s">
         <v>1749</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="14" t="s">
         <v>1750</v>
       </c>
       <c r="D524" s="17"/>
@@ -25859,13 +25868,13 @@
       <c r="X524" s="17"/>
     </row>
     <row r="525">
-      <c r="A525" s="14" t="s">
+      <c r="A525" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="B525" s="14" t="s">
+      <c r="B525" s="9" t="s">
         <v>1752</v>
       </c>
-      <c r="C525" s="14" t="s">
+      <c r="C525" s="9" t="s">
         <v>1753</v>
       </c>
       <c r="D525" s="17"/>
@@ -25923,13 +25932,13 @@
       <c r="X526" s="17"/>
     </row>
     <row r="527">
-      <c r="A527" s="9" t="s">
+      <c r="A527" s="14" t="s">
         <v>1757</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="C527" s="9" t="s">
+      <c r="C527" s="14" t="s">
         <v>1759</v>
       </c>
       <c r="D527" s="17"/>
@@ -25987,13 +25996,13 @@
       <c r="X528" s="17"/>
     </row>
     <row r="529">
-      <c r="A529" s="14" t="s">
+      <c r="A529" s="9" t="s">
         <v>1763</v>
       </c>
-      <c r="B529" s="14" t="s">
+      <c r="B529" s="9" t="s">
         <v>1764</v>
       </c>
-      <c r="C529" s="14" t="s">
+      <c r="C529" s="9" t="s">
         <v>1765</v>
       </c>
       <c r="D529" s="17"/>
@@ -26019,13 +26028,13 @@
       <c r="X529" s="17"/>
     </row>
     <row r="530">
-      <c r="A530" s="9" t="s">
+      <c r="A530" s="14" t="s">
         <v>1766</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="14" t="s">
         <v>1767</v>
       </c>
-      <c r="C530" s="9" t="s">
+      <c r="C530" s="14" t="s">
         <v>1768</v>
       </c>
       <c r="D530" s="17"/>
@@ -26083,13 +26092,13 @@
       <c r="X531" s="17"/>
     </row>
     <row r="532">
-      <c r="A532" s="14" t="s">
+      <c r="A532" s="9" t="s">
         <v>1772</v>
       </c>
-      <c r="B532" s="14" t="s">
+      <c r="B532" s="9" t="s">
         <v>1773</v>
       </c>
-      <c r="C532" s="14" t="s">
+      <c r="C532" s="9" t="s">
         <v>1774</v>
       </c>
       <c r="D532" s="17"/>
@@ -26147,13 +26156,13 @@
       <c r="X533" s="17"/>
     </row>
     <row r="534">
-      <c r="A534" s="9" t="s">
+      <c r="A534" s="14" t="s">
         <v>1778</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="14" t="s">
         <v>1779</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C534" s="14" t="s">
         <v>1780</v>
       </c>
       <c r="D534" s="17"/>
@@ -26179,13 +26188,13 @@
       <c r="X534" s="17"/>
     </row>
     <row r="535">
-      <c r="A535" s="14" t="s">
+      <c r="A535" s="9" t="s">
         <v>1781</v>
       </c>
-      <c r="B535" s="14" t="s">
+      <c r="B535" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="C535" s="14" t="s">
+      <c r="C535" s="9" t="s">
         <v>1783</v>
       </c>
       <c r="D535" s="17"/>
@@ -26275,13 +26284,13 @@
       <c r="X537" s="17"/>
     </row>
     <row r="538">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="14" t="s">
         <v>1790</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="14" t="s">
         <v>1791</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="D538" s="17"/>
@@ -26435,13 +26444,13 @@
       <c r="X542" s="17"/>
     </row>
     <row r="543">
-      <c r="A543" s="14" t="s">
+      <c r="A543" s="9" t="s">
         <v>1805</v>
       </c>
-      <c r="B543" s="14" t="s">
+      <c r="B543" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="C543" s="14" t="s">
+      <c r="C543" s="9" t="s">
         <v>1807</v>
       </c>
       <c r="D543" s="17"/>
@@ -26467,13 +26476,13 @@
       <c r="X543" s="17"/>
     </row>
     <row r="544">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="14" t="s">
         <v>1808</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C544" s="14" t="s">
         <v>1810</v>
       </c>
       <c r="D544" s="17"/>
@@ -26499,13 +26508,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="9" t="s">
         <v>1811</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>1812</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="C545" s="9" t="s">
         <v>1813</v>
       </c>
       <c r="D545" s="17"/>
@@ -26531,13 +26540,13 @@
       <c r="X545" s="17"/>
     </row>
     <row r="546">
-      <c r="A546" s="9" t="s">
+      <c r="A546" s="14" t="s">
         <v>1814</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="14" t="s">
         <v>1815</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="C546" s="14" t="s">
         <v>1816</v>
       </c>
       <c r="D546" s="17"/>
@@ -26595,13 +26604,13 @@
       <c r="X547" s="17"/>
     </row>
     <row r="548">
-      <c r="A548" s="14" t="s">
+      <c r="A548" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="B548" s="14" t="s">
+      <c r="B548" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="C548" s="14" t="s">
+      <c r="C548" s="9" t="s">
         <v>1822</v>
       </c>
       <c r="D548" s="17"/>
@@ -26627,13 +26636,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="14" t="s">
         <v>1824</v>
       </c>
-      <c r="C549" s="9" t="s">
+      <c r="C549" s="14" t="s">
         <v>1825</v>
       </c>
       <c r="D549" s="17"/>
@@ -26947,13 +26956,13 @@
       <c r="X558" s="17"/>
     </row>
     <row r="559">
-      <c r="A559" s="14" t="s">
+      <c r="A559" s="9" t="s">
         <v>1853</v>
       </c>
-      <c r="B559" s="14" t="s">
+      <c r="B559" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="C559" s="14" t="s">
+      <c r="C559" s="9" t="s">
         <v>1855</v>
       </c>
       <c r="D559" s="17"/>
@@ -26979,14 +26988,14 @@
       <c r="X559" s="17"/>
     </row>
     <row r="560">
-      <c r="A560" s="9" t="s">
+      <c r="A560" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="B560" s="9" t="s">
+      <c r="B560" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C560" s="14" t="s">
         <v>1857</v>
-      </c>
-      <c r="C560" s="9" t="s">
-        <v>1858</v>
       </c>
       <c r="D560" s="17"/>
       <c r="E560" s="17"/>
@@ -27012,10 +27021,10 @@
     </row>
     <row r="561">
       <c r="A561" s="14" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B561" s="14" t="s">
         <v>1859</v>
-      </c>
-      <c r="B561" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C561" s="14" t="s">
         <v>1860</v>
@@ -27043,13 +27052,13 @@
       <c r="X561" s="17"/>
     </row>
     <row r="562">
-      <c r="A562" s="14" t="s">
+      <c r="A562" s="9" t="s">
         <v>1861</v>
       </c>
-      <c r="B562" s="14" t="s">
+      <c r="B562" s="9" t="s">
         <v>1862</v>
       </c>
-      <c r="C562" s="14" t="s">
+      <c r="C562" s="9" t="s">
         <v>1863</v>
       </c>
       <c r="D562" s="17"/>
@@ -27107,13 +27116,13 @@
       <c r="X563" s="17"/>
     </row>
     <row r="564">
-      <c r="A564" s="9" t="s">
+      <c r="A564" s="14" t="s">
         <v>1867</v>
       </c>
-      <c r="B564" s="9" t="s">
+      <c r="B564" s="14" t="s">
         <v>1868</v>
       </c>
-      <c r="C564" s="9" t="s">
+      <c r="C564" s="14" t="s">
         <v>1869</v>
       </c>
       <c r="D564" s="17"/>
@@ -27267,13 +27276,13 @@
       <c r="X568" s="17"/>
     </row>
     <row r="569">
-      <c r="A569" s="14" t="s">
+      <c r="A569" s="9" t="s">
         <v>1882</v>
       </c>
-      <c r="B569" s="14" t="s">
+      <c r="B569" s="9" t="s">
         <v>1883</v>
       </c>
-      <c r="C569" s="14" t="s">
+      <c r="C569" s="9" t="s">
         <v>1884</v>
       </c>
       <c r="D569" s="17"/>
@@ -27299,13 +27308,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="14" t="s">
         <v>1885</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="14" t="s">
         <v>1886</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="C570" s="14" t="s">
         <v>1887</v>
       </c>
       <c r="D570" s="17"/>
@@ -27331,13 +27340,13 @@
       <c r="X570" s="17"/>
     </row>
     <row r="571">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="9" t="s">
         <v>1888</v>
       </c>
-      <c r="B571" s="14" t="s">
+      <c r="B571" s="9" t="s">
         <v>1889</v>
       </c>
-      <c r="C571" s="14" t="s">
+      <c r="C571" s="9" t="s">
         <v>1890</v>
       </c>
       <c r="D571" s="17"/>
@@ -27555,13 +27564,13 @@
       <c r="X577" s="17"/>
     </row>
     <row r="578">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="14" t="s">
         <v>1909</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="14" t="s">
         <v>1910</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="14" t="s">
         <v>1911</v>
       </c>
       <c r="D578" s="17"/>
@@ -27683,13 +27692,13 @@
       <c r="X581" s="17"/>
     </row>
     <row r="582">
-      <c r="A582" s="14" t="s">
+      <c r="A582" s="9" t="s">
         <v>1921</v>
       </c>
-      <c r="B582" s="14" t="s">
+      <c r="B582" s="9" t="s">
         <v>1922</v>
       </c>
-      <c r="C582" s="14" t="s">
+      <c r="C582" s="9" t="s">
         <v>1923</v>
       </c>
       <c r="D582" s="17"/>
@@ -27779,13 +27788,13 @@
       <c r="X584" s="17"/>
     </row>
     <row r="585">
-      <c r="A585" s="9" t="s">
+      <c r="A585" s="14" t="s">
         <v>1930</v>
       </c>
-      <c r="B585" s="9" t="s">
+      <c r="B585" s="14" t="s">
         <v>1931</v>
       </c>
-      <c r="C585" s="9" t="s">
+      <c r="C585" s="14" t="s">
         <v>1932</v>
       </c>
       <c r="D585" s="17"/>
@@ -27811,13 +27820,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="14" t="s">
+      <c r="A586" s="9" t="s">
         <v>1933</v>
       </c>
-      <c r="B586" s="14" t="s">
+      <c r="B586" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="C586" s="14" t="s">
+      <c r="C586" s="9" t="s">
         <v>1935</v>
       </c>
       <c r="D586" s="17"/>
@@ -27843,13 +27852,13 @@
       <c r="X586" s="17"/>
     </row>
     <row r="587">
-      <c r="A587" s="9" t="s">
+      <c r="A587" s="14" t="s">
         <v>1936</v>
       </c>
-      <c r="B587" s="9" t="s">
+      <c r="B587" s="14" t="s">
         <v>1937</v>
       </c>
-      <c r="C587" s="9" t="s">
+      <c r="C587" s="14" t="s">
         <v>1938</v>
       </c>
       <c r="D587" s="17"/>
@@ -27971,13 +27980,13 @@
       <c r="X590" s="17"/>
     </row>
     <row r="591">
-      <c r="A591" s="14" t="s">
+      <c r="A591" s="9" t="s">
         <v>1948</v>
       </c>
-      <c r="B591" s="14" t="s">
+      <c r="B591" s="9" t="s">
         <v>1949</v>
       </c>
-      <c r="C591" s="14" t="s">
+      <c r="C591" s="9" t="s">
         <v>1950</v>
       </c>
       <c r="D591" s="17"/>
@@ -28003,13 +28012,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="9" t="s">
+      <c r="A592" s="14" t="s">
         <v>1951</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="14" t="s">
         <v>1952</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="14" t="s">
         <v>1953</v>
       </c>
       <c r="D592" s="17"/>
@@ -28035,13 +28044,13 @@
       <c r="X592" s="17"/>
     </row>
     <row r="593">
-      <c r="A593" s="14" t="s">
+      <c r="A593" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="B593" s="14" t="s">
+      <c r="B593" s="9" t="s">
         <v>1955</v>
       </c>
-      <c r="C593" s="14" t="s">
+      <c r="C593" s="9" t="s">
         <v>1956</v>
       </c>
       <c r="D593" s="17"/>
@@ -28131,13 +28140,13 @@
       <c r="X595" s="17"/>
     </row>
     <row r="596">
-      <c r="A596" s="9" t="s">
+      <c r="A596" s="14" t="s">
         <v>1963</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="14" t="s">
         <v>1964</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="C596" s="14" t="s">
         <v>1965</v>
       </c>
       <c r="D596" s="17"/>
@@ -28163,13 +28172,13 @@
       <c r="X596" s="17"/>
     </row>
     <row r="597">
-      <c r="A597" s="14" t="s">
+      <c r="A597" s="9" t="s">
         <v>1966</v>
       </c>
-      <c r="B597" s="14" t="s">
+      <c r="B597" s="9" t="s">
         <v>1967</v>
       </c>
-      <c r="C597" s="14" t="s">
+      <c r="C597" s="9" t="s">
         <v>1968</v>
       </c>
       <c r="D597" s="17"/>
@@ -28227,13 +28236,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="s">
+      <c r="A599" s="14" t="s">
         <v>1972</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="14" t="s">
         <v>1973</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="C599" s="14" t="s">
         <v>1974</v>
       </c>
       <c r="D599" s="17"/>
@@ -28259,13 +28268,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="14" t="s">
+      <c r="A600" s="9" t="s">
         <v>1975</v>
       </c>
-      <c r="B600" s="14" t="s">
+      <c r="B600" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="C600" s="14" t="s">
+      <c r="C600" s="9" t="s">
         <v>1977</v>
       </c>
       <c r="D600" s="17"/>
@@ -28291,13 +28300,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1978</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1980</v>
       </c>
       <c r="D601" s="17"/>
@@ -28323,13 +28332,13 @@
       <c r="X601" s="17"/>
     </row>
     <row r="602">
-      <c r="A602" s="14" t="s">
+      <c r="A602" s="9" t="s">
         <v>1981</v>
       </c>
-      <c r="B602" s="14" t="s">
+      <c r="B602" s="9" t="s">
         <v>1982</v>
       </c>
-      <c r="C602" s="14" t="s">
+      <c r="C602" s="9" t="s">
         <v>1983</v>
       </c>
       <c r="D602" s="17"/>
@@ -28451,13 +28460,13 @@
       <c r="X605" s="17"/>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="14" t="s">
         <v>1993</v>
       </c>
-      <c r="B606" s="9" t="s">
+      <c r="B606" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="C606" s="9" t="s">
+      <c r="C606" s="14" t="s">
         <v>1995</v>
       </c>
       <c r="D606" s="17"/>
@@ -28483,13 +28492,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="14" t="s">
+      <c r="A607" s="9" t="s">
         <v>1996</v>
       </c>
-      <c r="B607" s="14" t="s">
+      <c r="B607" s="9" t="s">
         <v>1997</v>
       </c>
-      <c r="C607" s="14" t="s">
+      <c r="C607" s="9" t="s">
         <v>1998</v>
       </c>
       <c r="D607" s="17"/>
@@ -28515,13 +28524,13 @@
       <c r="X607" s="17"/>
     </row>
     <row r="608">
-      <c r="A608" s="9" t="s">
+      <c r="A608" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C608" s="14" t="s">
         <v>2001</v>
       </c>
       <c r="D608" s="17"/>
@@ -28579,13 +28588,13 @@
       <c r="X609" s="17"/>
     </row>
     <row r="610">
-      <c r="A610" s="14" t="s">
+      <c r="A610" s="9" t="s">
         <v>2005</v>
       </c>
-      <c r="B610" s="14" t="s">
+      <c r="B610" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="C610" s="14" t="s">
+      <c r="C610" s="9" t="s">
         <v>2007</v>
       </c>
       <c r="D610" s="17"/>
@@ -28643,13 +28652,13 @@
       <c r="X611" s="17"/>
     </row>
     <row r="612">
-      <c r="A612" s="9" t="s">
+      <c r="A612" s="14" t="s">
         <v>2011</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="14" t="s">
         <v>2012</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="C612" s="14" t="s">
         <v>2013</v>
       </c>
       <c r="D612" s="17"/>
@@ -28675,13 +28684,13 @@
       <c r="X612" s="17"/>
     </row>
     <row r="613">
-      <c r="A613" s="14" t="s">
+      <c r="A613" s="9" t="s">
         <v>2014</v>
       </c>
-      <c r="B613" s="14" t="s">
+      <c r="B613" s="9" t="s">
         <v>2015</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="9" t="s">
         <v>2016</v>
       </c>
       <c r="D613" s="17"/>
@@ -28739,13 +28748,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="s">
+      <c r="A615" s="14" t="s">
         <v>2020</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="C615" s="14" t="s">
         <v>2022</v>
       </c>
       <c r="D615" s="17"/>
@@ -28835,13 +28844,13 @@
       <c r="X617" s="17"/>
     </row>
     <row r="618">
-      <c r="A618" s="14" t="s">
+      <c r="A618" s="9" t="s">
         <v>2029</v>
       </c>
-      <c r="B618" s="14" t="s">
+      <c r="B618" s="9" t="s">
         <v>2030</v>
       </c>
-      <c r="C618" s="14" t="s">
+      <c r="C618" s="9" t="s">
         <v>2031</v>
       </c>
     </row>
@@ -28868,24 +28877,24 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="9" t="s">
+      <c r="A621" s="14" t="s">
         <v>2038</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="14" t="s">
         <v>2040</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="14" t="s">
+      <c r="A622" s="9" t="s">
         <v>2041</v>
       </c>
-      <c r="B622" s="14" t="s">
+      <c r="B622" s="9" t="s">
         <v>2042</v>
       </c>
-      <c r="C622" s="14" t="s">
+      <c r="C622" s="9" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -28912,13 +28921,13 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="14" t="s">
         <v>2050</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="C625" s="9" t="s">
+      <c r="C625" s="14" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -28945,13 +28954,13 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="14" t="s">
+      <c r="A628" s="9" t="s">
         <v>2059</v>
       </c>
-      <c r="B628" s="14" t="s">
+      <c r="B628" s="9" t="s">
         <v>2060</v>
       </c>
-      <c r="C628" s="14" t="s">
+      <c r="C628" s="9" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -28978,13 +28987,13 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="9" t="s">
+      <c r="A631" s="14" t="s">
         <v>2068</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" s="14" t="s">
         <v>2069</v>
       </c>
-      <c r="C631" s="9" t="s">
+      <c r="C631" s="14" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -29055,24 +29064,24 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="14" t="s">
+      <c r="A638" s="9" t="s">
         <v>2089</v>
       </c>
-      <c r="B638" s="14" t="s">
+      <c r="B638" s="9" t="s">
         <v>2090</v>
       </c>
-      <c r="C638" s="14" t="s">
+      <c r="C638" s="9" t="s">
         <v>2091</v>
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="9" t="s">
+      <c r="A639" s="14" t="s">
         <v>2092</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="14" t="s">
         <v>2093</v>
       </c>
-      <c r="C639" s="9" t="s">
+      <c r="C639" s="14" t="s">
         <v>2094</v>
       </c>
     </row>
@@ -29088,13 +29097,13 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="14" t="s">
+      <c r="A641" s="9" t="s">
         <v>2098</v>
       </c>
-      <c r="B641" s="14" t="s">
+      <c r="B641" s="9" t="s">
         <v>2099</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C641" s="9" t="s">
         <v>2100</v>
       </c>
     </row>
@@ -29121,13 +29130,13 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="9" t="s">
+      <c r="A644" s="14" t="s">
         <v>2107</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="14" t="s">
         <v>2108</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="14" t="s">
         <v>2109</v>
       </c>
     </row>
@@ -29143,24 +29152,24 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="14" t="s">
+      <c r="A646" s="9" t="s">
         <v>2113</v>
       </c>
-      <c r="B646" s="14" t="s">
+      <c r="B646" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="C646" s="14" t="s">
+      <c r="C646" s="9" t="s">
         <v>2115</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="9" t="s">
+      <c r="A647" s="14" t="s">
         <v>2116</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="14" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -29176,13 +29185,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="14" t="s">
+      <c r="A649" s="9" t="s">
         <v>2122</v>
       </c>
-      <c r="B649" s="14" t="s">
+      <c r="B649" s="9" t="s">
         <v>2123</v>
       </c>
-      <c r="C649" s="14" t="s">
+      <c r="C649" s="9" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -29220,21 +29229,21 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="9" t="s">
+      <c r="A653" s="14" t="s">
         <v>2134</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="14" t="s">
         <v>2135</v>
       </c>
-      <c r="C653" s="9" t="s">
+      <c r="C653" s="14" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="14" t="s">
+      <c r="A654" s="9" t="s">
         <v>2137</v>
       </c>
-      <c r="B654" s="14" t="s">
+      <c r="B654" s="9" t="s">
         <v>2138</v>
       </c>
       <c r="C654" s="14" t="s">
@@ -29242,10 +29251,10 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="9" t="s">
+      <c r="A655" s="14" t="s">
         <v>2140</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="14" t="s">
         <v>2141</v>
       </c>
       <c r="C655" s="14" t="s">
@@ -29275,24 +29284,24 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="14" t="s">
+      <c r="A658" s="9" t="s">
         <v>2149</v>
       </c>
-      <c r="B658" s="14" t="s">
+      <c r="B658" s="9" t="s">
         <v>2150</v>
       </c>
-      <c r="C658" s="14" t="s">
+      <c r="C658" s="9" t="s">
         <v>2151</v>
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="9" t="s">
+      <c r="A659" s="14" t="s">
         <v>2152</v>
       </c>
-      <c r="B659" s="9" t="s">
+      <c r="B659" s="14" t="s">
         <v>2153</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="14" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -29308,13 +29317,13 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="14" t="s">
+      <c r="A661" s="9" t="s">
         <v>2158</v>
       </c>
-      <c r="B661" s="14" t="s">
+      <c r="B661" s="9" t="s">
         <v>2159</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C661" s="9" t="s">
         <v>2160</v>
       </c>
     </row>
@@ -31464,8 +31473,15 @@
       </c>
     </row>
     <row r="857">
-      <c r="B857" s="24"/>
-      <c r="C857" s="24"/>
+      <c r="A857" s="14" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B857" s="14" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C857" s="14" t="s">
+        <v>2746</v>
+      </c>
     </row>
     <row r="858">
       <c r="B858" s="24"/>
@@ -32048,10 +32064,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$856">
-    <sortState ref="A1:C856">
-      <sortCondition ref="A1:A856"/>
-      <sortCondition ref="B1:B856"/>
+  <autoFilter ref="$A$1:$C$857">
+    <sortState ref="A1:C857">
+      <sortCondition ref="A1:A857"/>
+      <sortCondition ref="B1:B857"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$857</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$865</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="2747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="2771">
   <si>
     <t>Word</t>
   </si>
@@ -477,6 +477,21 @@
     <t>add -mot</t>
   </si>
   <si>
+    <t>bedro</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>бэдро</t>
+  </si>
+  <si>
+    <t>add -taes</t>
+  </si>
+  <si>
+    <t>The cold winter is near, a snowstorm will come. Come in my warm house, my friend. Welcome! Come here, sing and dance, eat and drink. That is my plan. We have water, beer, and milk fresh from the cow. Oh, and warm soup!</t>
+  </si>
+  <si>
     <t>belekiyva</t>
   </si>
   <si>
@@ -486,12 +501,6 @@
     <t>бэлэкйва</t>
   </si>
   <si>
-    <t>add -taes</t>
-  </si>
-  <si>
-    <t>The cold winter is near, a snowstorm will come. Come in my warm house, my friend. Welcome! Come here, sing and dance, eat and drink. That is my plan. We have water, beer, and milk fresh from the cow. Oh, and warm soup!</t>
-  </si>
-  <si>
     <t>belok</t>
   </si>
   <si>
@@ -501,6 +510,9 @@
     <t>бэлок</t>
   </si>
   <si>
+    <t>Za krepkiy doynaro borotsyacho kiyna seniy manakonas, seniy knizyo valashem hosyaliy leyn joklun slava.</t>
+  </si>
+  <si>
     <t>biva</t>
   </si>
   <si>
@@ -510,7 +522,16 @@
     <t>бива</t>
   </si>
   <si>
-    <t>Za krepkiy doynaro borotsyacho kiyna seniy manakonas, seniy knizyo valashem hosyaliy leyn joklun slava.</t>
+    <t>U</t>
+  </si>
+  <si>
+    <t>/u/</t>
+  </si>
+  <si>
+    <t>Always pronounce as OO</t>
+  </si>
+  <si>
+    <t>За крэпкй дойнаро бороцячо кйна сэнй манаконас, сэнй книзё валашэм хосялй лэйн жоклун слава.</t>
   </si>
   <si>
     <t>biy</t>
@@ -522,16 +543,16 @@
     <t>бй</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>/u/</t>
-  </si>
-  <si>
-    <t>Always pronounce as OO</t>
-  </si>
-  <si>
-    <t>За крэпкй дойнаро бороцячо кйна сэнй манаконас, сэнй книзё валашэм хосялй лэйн жоклун слава.</t>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>/i/</t>
+  </si>
+  <si>
+    <t>Always pronounce as EE</t>
+  </si>
+  <si>
+    <t>The strong warrior fought bravely against his foes, wielding his sharp sword with great might.</t>
   </si>
   <si>
     <t>biyt</t>
@@ -543,16 +564,16 @@
     <t>бйт</t>
   </si>
   <si>
-    <t>IY</t>
-  </si>
-  <si>
-    <t>/i/</t>
-  </si>
-  <si>
-    <t>Always pronounce as EE</t>
-  </si>
-  <si>
-    <t>The strong warrior fought bravely against his foes, wielding his sharp sword with great might.</t>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>/ɛɪ/</t>
+  </si>
+  <si>
+    <t>Always pronounce as EI, AY, ae, AE</t>
+  </si>
+  <si>
+    <t>Za kiyna lodskaro toyacho skan za drasa sevenak.</t>
   </si>
   <si>
     <t>blavotoyat</t>
@@ -564,16 +585,16 @@
     <t>блавотоят</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>/ɛɪ/</t>
-  </si>
-  <si>
-    <t>Always pronounce as EI, AY, ae, AE</t>
-  </si>
-  <si>
-    <t>Za kiyna lodskaro toyacho skan za drasa sevenak.</t>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>/ɾ/</t>
+  </si>
+  <si>
+    <t>"ɾ" (try pronouncing L right after pronouncing R)</t>
+  </si>
+  <si>
+    <t>За кйна лодскаро тоячо скан за драса сэвэнак.</t>
   </si>
   <si>
     <t>bleyshom</t>
@@ -585,16 +606,16 @@
     <t>блейшом</t>
   </si>
   <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>/ɾ/</t>
-  </si>
-  <si>
-    <t>"ɾ" (try pronouncing L right after pronouncing R)</t>
-  </si>
-  <si>
-    <t>За кйна лодскаро тоячо скан за драса сэвэнак.</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>/r/</t>
+  </si>
+  <si>
+    <t>trilled</t>
+  </si>
+  <si>
+    <t>The brave sailor sailed across the wide sea.</t>
   </si>
   <si>
     <t>blyova</t>
@@ -606,16 +627,10 @@
     <t>блёва</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>/r/</t>
-  </si>
-  <si>
-    <t>trilled</t>
-  </si>
-  <si>
-    <t>The brave sailor sailed across the wide sea.</t>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>/ɖ͡ʐ/</t>
   </si>
   <si>
     <t>bolom</t>
@@ -627,10 +642,10 @@
     <t>болом</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>/ɖ͡ʐ/</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>/ʤ/</t>
   </si>
   <si>
     <t>boreyv</t>
@@ -642,12 +657,6 @@
     <t>борэйв</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>/ʤ/</t>
-  </si>
-  <si>
     <t>boroda</t>
   </si>
   <si>
@@ -666,6 +675,15 @@
     <t>борог</t>
   </si>
   <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>cyrillic</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
     <t>borotslodska</t>
   </si>
   <si>
@@ -675,13 +693,13 @@
     <t>бороцлодска</t>
   </si>
   <si>
-    <t>Letter</t>
-  </si>
-  <si>
-    <t>cyrillic</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Аа</t>
+  </si>
+  <si>
+    <t>ahak, ахак</t>
   </si>
   <si>
     <t>borotsorfak</t>
@@ -693,13 +711,13 @@
     <t>бороцорфак</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Аа</t>
-  </si>
-  <si>
-    <t>ahak, ахак</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Бб</t>
+  </si>
+  <si>
+    <t>biy, бй</t>
   </si>
   <si>
     <t>borotsya</t>
@@ -711,13 +729,13 @@
     <t>бороця</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Бб</t>
-  </si>
-  <si>
-    <t>biy, бй</t>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Чч</t>
+  </si>
+  <si>
+    <t>cherslyosiba, чэрслёсиба</t>
   </si>
   <si>
     <t>bosenk</t>
@@ -729,13 +747,13 @@
     <t>босэнк</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Чч</t>
-  </si>
-  <si>
-    <t>cherslyosiba, чэрслёсиба</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Дд</t>
+  </si>
+  <si>
+    <t>daska, даска</t>
   </si>
   <si>
     <t>boshyat</t>
@@ -747,13 +765,13 @@
     <t>бошят</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Дд</t>
-  </si>
-  <si>
-    <t>daska, даска</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Ээ</t>
+  </si>
+  <si>
+    <t>evnen, эвнэн</t>
   </si>
   <si>
     <t>boska</t>
@@ -765,13 +783,13 @@
     <t>боска</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Ээ</t>
-  </si>
-  <si>
-    <t>evnen, эвнэн</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Фф</t>
+  </si>
+  <si>
+    <t>femk, фэмк</t>
   </si>
   <si>
     <t>bramat</t>
@@ -783,13 +801,13 @@
     <t>брамат</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Фф</t>
-  </si>
-  <si>
-    <t>femk, фэмк</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Гг</t>
+  </si>
+  <si>
+    <t>gost, гост</t>
   </si>
   <si>
     <t>braslivat</t>
@@ -801,13 +819,13 @@
     <t>брасливат</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Гг</t>
-  </si>
-  <si>
-    <t>gost, гост</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Хх</t>
+  </si>
+  <si>
+    <t>hov, хов</t>
   </si>
   <si>
     <t>bratsa</t>
@@ -819,13 +837,13 @@
     <t>браца</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Хх</t>
-  </si>
-  <si>
-    <t>hov, хов</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Ии</t>
+  </si>
+  <si>
+    <t>ili, или</t>
   </si>
   <si>
     <t>braykyat</t>
@@ -837,13 +855,10 @@
     <t>брайкят</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Ии</t>
-  </si>
-  <si>
-    <t>ili, или</t>
+    <t>Жж</t>
+  </si>
+  <si>
+    <t>ijor, ижор</t>
   </si>
   <si>
     <t>brega</t>
@@ -855,10 +870,13 @@
     <t>брэга</t>
   </si>
   <si>
-    <t>Жж</t>
-  </si>
-  <si>
-    <t>ijor, ижор</t>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Кк</t>
+  </si>
+  <si>
+    <t>ketsa, кэтса</t>
   </si>
   <si>
     <t>brel</t>
@@ -870,13 +888,13 @@
     <t>брэл</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Кк</t>
-  </si>
-  <si>
-    <t>ketsa, кэтса</t>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>КШ, кш</t>
+  </si>
+  <si>
+    <t>khnorotal, кшноротао</t>
   </si>
   <si>
     <t>brelen</t>
@@ -888,13 +906,13 @@
     <t>брэлэн</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>КШ, кш</t>
-  </si>
-  <si>
-    <t>khnorotal, кшноротао</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Лл</t>
+  </si>
+  <si>
+    <t>losik, лосик</t>
   </si>
   <si>
     <t>brelsheveya</t>
@@ -906,13 +924,13 @@
     <t>брэлшэвэя</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Лл</t>
-  </si>
-  <si>
-    <t>losik, лосик</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Мм</t>
+  </si>
+  <si>
+    <t>miy, мй</t>
   </si>
   <si>
     <t>breltoya</t>
@@ -924,13 +942,13 @@
     <t>брэлтоя</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Мм</t>
-  </si>
-  <si>
-    <t>miy, мй</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Нн</t>
+  </si>
+  <si>
+    <t>na, на</t>
   </si>
   <si>
     <t>breshya</t>
@@ -942,13 +960,13 @@
     <t>брэшя</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Нн</t>
-  </si>
-  <si>
-    <t>na, на</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Оо</t>
+  </si>
+  <si>
+    <t>ojan, ойан</t>
   </si>
   <si>
     <t>bretyat</t>
@@ -960,13 +978,10 @@
     <t>брэтят</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Оо</t>
-  </si>
-  <si>
-    <t>ojan, ойан</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Пп</t>
   </si>
   <si>
     <t>breyk</t>
@@ -978,10 +993,7 @@
     <t>брэйк</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Пп</t>
+    <t>Рр</t>
   </si>
   <si>
     <t>briy</t>
@@ -993,7 +1005,10 @@
     <t>брй</t>
   </si>
   <si>
-    <t>Рр</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Сс</t>
   </si>
   <si>
     <t>briyno</t>
@@ -1005,10 +1020,10 @@
     <t>брйно</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Сс</t>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Шш</t>
   </si>
   <si>
     <t>brochyek</t>
@@ -1020,10 +1035,10 @@
     <t>брочек</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Шш</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Тт</t>
   </si>
   <si>
     <t>brogadaskit</t>
@@ -1035,10 +1050,10 @@
     <t>брогадаскит</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Тт</t>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Цц</t>
   </si>
   <si>
     <t>brosya</t>
@@ -1050,10 +1065,7 @@
     <t>брося</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>Цц</t>
+    <t>Уу</t>
   </si>
   <si>
     <t>broylev</t>
@@ -1065,7 +1077,13 @@
     <t>бройлэв</t>
   </si>
   <si>
-    <t>Уу</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Вв</t>
+  </si>
+  <si>
+    <t>vat, ват</t>
   </si>
   <si>
     <t>broylevlodska</t>
@@ -1077,13 +1095,13 @@
     <t>бройлэвлодска</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Вв</t>
-  </si>
-  <si>
-    <t>vat, ват</t>
+    <t>Y, IY</t>
+  </si>
+  <si>
+    <t>Йй</t>
+  </si>
+  <si>
+    <t>biy, бй | yiyn, йийн</t>
   </si>
   <si>
     <t>budushcheye</t>
@@ -1095,13 +1113,13 @@
     <t>будушчэе</t>
   </si>
   <si>
-    <t>Y, IY</t>
-  </si>
-  <si>
-    <t>Йй</t>
-  </si>
-  <si>
-    <t>biy, бй | yiyn, йийн</t>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>Яя</t>
+  </si>
+  <si>
+    <t>dagya, дагя</t>
   </si>
   <si>
     <t>bukya</t>
@@ -1113,13 +1131,13 @@
     <t>букя</t>
   </si>
   <si>
-    <t>YA</t>
-  </si>
-  <si>
-    <t>Яя</t>
-  </si>
-  <si>
-    <t>dagya, дагя</t>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Ее</t>
+  </si>
+  <si>
+    <t>yev, ев</t>
   </si>
   <si>
     <t>bulava</t>
@@ -1131,13 +1149,13 @@
     <t>булава</t>
   </si>
   <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Ее</t>
-  </si>
-  <si>
-    <t>yev, ев</t>
+    <t>YO</t>
+  </si>
+  <si>
+    <t>Ёё</t>
+  </si>
+  <si>
+    <t>byortolm, бётоум</t>
   </si>
   <si>
     <t>byedniy</t>
@@ -1149,13 +1167,13 @@
     <t>беднй</t>
   </si>
   <si>
-    <t>YO</t>
-  </si>
-  <si>
-    <t>Ёё</t>
-  </si>
-  <si>
-    <t>byortolm, бётоум</t>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Юю</t>
+  </si>
+  <si>
+    <t>myutor, мютор</t>
   </si>
   <si>
     <t>byejat</t>
@@ -1167,13 +1185,13 @@
     <t>бежат</t>
   </si>
   <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Юю</t>
-  </si>
-  <si>
-    <t>myutor, мютор</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Зз</t>
+  </si>
+  <si>
+    <t>zikofal, зикофао</t>
   </si>
   <si>
     <t>byortomya</t>
@@ -1185,15 +1203,6 @@
     <t>бёртомя</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Зз</t>
-  </si>
-  <si>
-    <t>zikofal, зикофао</t>
-  </si>
-  <si>
     <t>chaja</t>
   </si>
   <si>
@@ -1203,6 +1212,15 @@
     <t>чажа</t>
   </si>
   <si>
+    <t>chekyuyva</t>
+  </si>
+  <si>
+    <t>chainmail, maille</t>
+  </si>
+  <si>
+    <t>чэкюва</t>
+  </si>
+  <si>
     <t>chem</t>
   </si>
   <si>
@@ -1266,6 +1284,15 @@
     <t>чкатонй</t>
   </si>
   <si>
+    <t>chloskos</t>
+  </si>
+  <si>
+    <t>chlorine</t>
+  </si>
+  <si>
+    <t>члоскос</t>
+  </si>
+  <si>
     <t>chnuskovat</t>
   </si>
   <si>
@@ -1284,6 +1311,15 @@
     <t>чобтия</t>
   </si>
   <si>
+    <t>chochiy</t>
+  </si>
+  <si>
+    <t>derogatory insult directed to women; slut, thot</t>
+  </si>
+  <si>
+    <t>чочй</t>
+  </si>
+  <si>
     <t>chozniyka</t>
   </si>
   <si>
@@ -1503,7 +1539,7 @@
     <t>dob</t>
   </si>
   <si>
-    <t>bar</t>
+    <t>bar of metal</t>
   </si>
   <si>
     <t>доб</t>
@@ -1878,6 +1914,15 @@
     <t>фйшат</t>
   </si>
   <si>
+    <t>flaba</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>флаба</t>
+  </si>
+  <si>
     <t>foden</t>
   </si>
   <si>
@@ -2463,13 +2508,13 @@
     <t>хожа</t>
   </si>
   <si>
-    <t>holov</t>
+    <t>holova</t>
   </si>
   <si>
     <t>void, space</t>
   </si>
   <si>
-    <t>холов</t>
+    <t>холова</t>
   </si>
   <si>
     <t>honava</t>
@@ -4683,6 +4728,15 @@
     <t>нискамра</t>
   </si>
   <si>
+    <t>nodoya</t>
+  </si>
+  <si>
+    <t>belly, stomach, bowel</t>
+  </si>
+  <si>
+    <t>нодоя</t>
+  </si>
+  <si>
     <t>nogen</t>
   </si>
   <si>
@@ -4980,13 +5034,13 @@
     <t>олэйм</t>
   </si>
   <si>
-    <t>olov</t>
+    <t>olv</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>олов</t>
+    <t>олв</t>
   </si>
   <si>
     <t>omenorst</t>
@@ -5670,6 +5724,15 @@
     <t>пекло</t>
   </si>
   <si>
+    <t>pyotsa</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>пёца</t>
+  </si>
+  <si>
     <t>pyotski</t>
   </si>
   <si>
@@ -7191,6 +7254,15 @@
     <t>тувиге</t>
   </si>
   <si>
+    <t>ukelin</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>укэлин</t>
+  </si>
+  <si>
     <t>umeret</t>
   </si>
   <si>
@@ -7509,91 +7581,91 @@
     <t>vlo</t>
   </si>
   <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>вло</t>
+  </si>
+  <si>
+    <t>vlo za fyadkaziy</t>
+  </si>
+  <si>
+    <t>what the hell, wtf (cuss)</t>
+  </si>
+  <si>
+    <t>вло за фядказй</t>
+  </si>
+  <si>
+    <t>vlom</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>влом</t>
+  </si>
+  <si>
+    <t>vlonorik</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>влонорик</t>
+  </si>
+  <si>
+    <t>vlos</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>влос</t>
+  </si>
+  <si>
+    <t>vlot</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>влот</t>
+  </si>
+  <si>
+    <t>vlunst</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>влунст</t>
+  </si>
+  <si>
+    <t>vlunstsikol</t>
+  </si>
+  <si>
+    <t>motorcycle, motorbike, dirt bike</t>
+  </si>
+  <si>
+    <t>влунстсикол</t>
+  </si>
+  <si>
+    <t>vlyevlir</t>
+  </si>
+  <si>
+    <t>elevator, lift</t>
+  </si>
+  <si>
+    <t>влевлир</t>
+  </si>
+  <si>
+    <t>vlyu</t>
+  </si>
+  <si>
     <t>who</t>
   </si>
   <si>
-    <t>вло</t>
-  </si>
-  <si>
-    <t>vlo za fyadkaziy</t>
-  </si>
-  <si>
-    <t>what the hell, wtf (cuss)</t>
-  </si>
-  <si>
-    <t>вло за фядказй</t>
-  </si>
-  <si>
-    <t>vlom</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>влом</t>
-  </si>
-  <si>
-    <t>vlonorik</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>влонорик</t>
-  </si>
-  <si>
-    <t>vlos</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>влос</t>
-  </si>
-  <si>
-    <t>vlot</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>влот</t>
-  </si>
-  <si>
-    <t>vlun</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>влун</t>
-  </si>
-  <si>
-    <t>vlunst</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>влунст</t>
-  </si>
-  <si>
-    <t>vlunstsikol</t>
-  </si>
-  <si>
-    <t>motorcycle, motorbike, dirt bike</t>
-  </si>
-  <si>
-    <t>влунстсикол</t>
-  </si>
-  <si>
-    <t>vlyevlir</t>
-  </si>
-  <si>
-    <t>elevator, lift</t>
-  </si>
-  <si>
-    <t>влевлир</t>
   </si>
   <si>
     <t>vnikyat</t>
@@ -9847,13 +9919,13 @@
       <c r="X30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -9887,13 +9959,13 @@
       <c r="X31" s="17"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>175</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -9967,13 +10039,13 @@
       <c r="X33" s="17"/>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>189</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -10007,13 +10079,13 @@
       <c r="X34" s="17"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -10083,13 +10155,13 @@
       <c r="X36" s="17"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -10119,13 +10191,13 @@
       <c r="X37" s="17"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="9" t="s">
         <v>213</v>
       </c>
       <c r="D38" s="9"/>
@@ -10183,13 +10255,13 @@
       <c r="X39" s="17"/>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="14" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -10297,13 +10369,13 @@
       <c r="X42" s="17"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="9" t="s">
         <v>237</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -10373,13 +10445,13 @@
       <c r="X44" s="17"/>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="14" t="s">
         <v>249</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -10449,13 +10521,13 @@
       <c r="X46" s="17"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -10525,13 +10597,13 @@
       <c r="X48" s="17"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="14" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -10563,13 +10635,13 @@
       <c r="X49" s="17"/>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>279</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -10601,13 +10673,13 @@
       <c r="X50" s="17"/>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="14" t="s">
         <v>284</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -10677,13 +10749,13 @@
       <c r="X52" s="17"/>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -10791,13 +10863,13 @@
       <c r="X55" s="17"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="14" t="s">
         <v>314</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -10973,13 +11045,13 @@
       <c r="X60" s="17"/>
     </row>
     <row r="61">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="9" t="s">
         <v>339</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -11009,13 +11081,13 @@
       <c r="X61" s="17"/>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="14" t="s">
         <v>344</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -11194,13 +11266,13 @@
       <c r="X66" s="17"/>
     </row>
     <row r="67">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="9" t="s">
         <v>371</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -11270,13 +11342,13 @@
       <c r="X68" s="17"/>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="14" t="s">
         <v>383</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -11375,13 +11447,13 @@
       <c r="X71" s="17"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="9" t="s">
         <v>398</v>
       </c>
       <c r="G72" s="17"/>
@@ -11660,13 +11732,13 @@
       <c r="X80" s="17"/>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="14" t="s">
         <v>425</v>
       </c>
       <c r="D81" s="17"/>
@@ -11756,13 +11828,13 @@
       <c r="X83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="14" t="s">
         <v>434</v>
       </c>
       <c r="D84" s="17"/>
@@ -11788,13 +11860,13 @@
       <c r="X84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="9" t="s">
         <v>437</v>
       </c>
       <c r="D85" s="17"/>
@@ -11916,13 +11988,13 @@
       <c r="X88" s="17"/>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="14" t="s">
         <v>449</v>
       </c>
       <c r="D89" s="17"/>
@@ -11948,13 +12020,13 @@
       <c r="X89" s="17"/>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="14" t="s">
         <v>452</v>
       </c>
       <c r="D90" s="17"/>
@@ -11980,13 +12052,13 @@
       <c r="X90" s="17"/>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="14" t="s">
         <v>455</v>
       </c>
       <c r="D91" s="17"/>
@@ -12012,13 +12084,13 @@
       <c r="X91" s="17"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="9" t="s">
         <v>458</v>
       </c>
       <c r="D92" s="17"/>
@@ -12076,13 +12148,13 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="9" t="s">
         <v>464</v>
       </c>
       <c r="D94" s="17"/>
@@ -12172,13 +12244,13 @@
       <c r="X96" s="17"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="9" t="s">
         <v>473</v>
       </c>
       <c r="D97" s="17"/>
@@ -12204,13 +12276,13 @@
       <c r="X97" s="17"/>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="14" t="s">
         <v>476</v>
       </c>
       <c r="D98" s="17"/>
@@ -12236,13 +12308,13 @@
       <c r="X98" s="17"/>
     </row>
     <row r="99">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="9" t="s">
         <v>479</v>
       </c>
       <c r="D99" s="17"/>
@@ -12268,13 +12340,13 @@
       <c r="X99" s="17"/>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D100" s="17"/>
@@ -12300,13 +12372,13 @@
       <c r="X100" s="17"/>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D101" s="17"/>
@@ -12396,13 +12468,13 @@
       <c r="X103" s="17"/>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="9" t="s">
         <v>494</v>
       </c>
       <c r="D104" s="17"/>
@@ -12428,13 +12500,13 @@
       <c r="X104" s="17"/>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="9" t="s">
         <v>497</v>
       </c>
       <c r="D105" s="17"/>
@@ -12492,13 +12564,13 @@
       <c r="X106" s="17"/>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="14" t="s">
         <v>503</v>
       </c>
       <c r="D107" s="17"/>
@@ -12588,13 +12660,13 @@
       <c r="X109" s="17"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="9" t="s">
         <v>512</v>
       </c>
       <c r="D110" s="17"/>
@@ -12652,13 +12724,13 @@
       <c r="X111" s="17"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="14" t="s">
         <v>518</v>
       </c>
       <c r="D112" s="17"/>
@@ -12684,13 +12756,13 @@
       <c r="X112" s="17"/>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="14" t="s">
         <v>521</v>
       </c>
       <c r="D113" s="17"/>
@@ -12716,13 +12788,13 @@
       <c r="X113" s="17"/>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="14" t="s">
         <v>524</v>
       </c>
       <c r="D114" s="17"/>
@@ -12780,13 +12852,13 @@
       <c r="X115" s="17"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" s="9" t="s">
         <v>530</v>
       </c>
       <c r="D116" s="17"/>
@@ -12812,13 +12884,13 @@
       <c r="X116" s="17"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="9" t="s">
         <v>533</v>
       </c>
       <c r="D117" s="17"/>
@@ -12844,13 +12916,13 @@
       <c r="X117" s="17"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="9" t="s">
         <v>536</v>
       </c>
       <c r="D118" s="17"/>
@@ -12908,13 +12980,13 @@
       <c r="X119" s="17"/>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="14" t="s">
         <v>542</v>
       </c>
       <c r="D120" s="17"/>
@@ -12972,13 +13044,13 @@
       <c r="X121" s="17"/>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="14" t="s">
         <v>548</v>
       </c>
       <c r="D122" s="17"/>
@@ -13004,13 +13076,13 @@
       <c r="X122" s="17"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D123" s="17"/>
@@ -13036,13 +13108,13 @@
       <c r="X123" s="17"/>
     </row>
     <row r="124">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" s="9" t="s">
         <v>554</v>
       </c>
       <c r="D124" s="17"/>
@@ -13068,13 +13140,13 @@
       <c r="X124" s="17"/>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="14" t="s">
         <v>557</v>
       </c>
       <c r="D125" s="17"/>
@@ -13132,13 +13204,13 @@
       <c r="X126" s="17"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="14" t="s">
         <v>563</v>
       </c>
       <c r="D127" s="17"/>
@@ -13196,13 +13268,13 @@
       <c r="X128" s="17"/>
     </row>
     <row r="129">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="9" t="s">
         <v>569</v>
       </c>
       <c r="D129" s="17"/>
@@ -13260,13 +13332,13 @@
       <c r="X130" s="17"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="9" t="s">
         <v>575</v>
       </c>
       <c r="D131" s="17"/>
@@ -13324,13 +13396,13 @@
       <c r="X132" s="17"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="14" t="s">
         <v>581</v>
       </c>
       <c r="D133" s="17"/>
@@ -13388,13 +13460,13 @@
       <c r="X134" s="17"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="14" t="s">
         <v>587</v>
       </c>
       <c r="D135" s="17"/>
@@ -13484,13 +13556,13 @@
       <c r="X137" s="17"/>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="9" t="s">
         <v>596</v>
       </c>
       <c r="D138" s="17"/>
@@ -13548,13 +13620,13 @@
       <c r="X139" s="17"/>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="14" t="s">
         <v>602</v>
       </c>
       <c r="D140" s="17"/>
@@ -13580,13 +13652,13 @@
       <c r="X140" s="17"/>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="9" t="s">
         <v>605</v>
       </c>
       <c r="D141" s="17"/>
@@ -13612,13 +13684,13 @@
       <c r="X141" s="17"/>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="14" t="s">
         <v>608</v>
       </c>
       <c r="D142" s="17"/>
@@ -13644,13 +13716,13 @@
       <c r="X142" s="17"/>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" s="9" t="s">
         <v>611</v>
       </c>
       <c r="D143" s="17"/>
@@ -13676,13 +13748,13 @@
       <c r="X143" s="17"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C144" s="14" t="s">
+      <c r="C144" s="9" t="s">
         <v>614</v>
       </c>
       <c r="D144" s="17"/>
@@ -13740,13 +13812,13 @@
       <c r="X145" s="17"/>
     </row>
     <row r="146">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="9" t="s">
         <v>620</v>
       </c>
       <c r="D146" s="17"/>
@@ -13772,13 +13844,13 @@
       <c r="X146" s="17"/>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="14" t="s">
         <v>623</v>
       </c>
       <c r="D147" s="17"/>
@@ -13804,13 +13876,13 @@
       <c r="X147" s="17"/>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="14" t="s">
         <v>626</v>
       </c>
       <c r="D148" s="17"/>
@@ -13900,13 +13972,13 @@
       <c r="X150" s="17"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="14" t="s">
         <v>635</v>
       </c>
       <c r="D151" s="17"/>
@@ -13996,13 +14068,13 @@
       <c r="X153" s="17"/>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="14" t="s">
         <v>644</v>
       </c>
       <c r="D154" s="17"/>
@@ -14060,7 +14132,7 @@
       <c r="X155" s="17"/>
     </row>
     <row r="156">
-      <c r="A156" s="36" t="s">
+      <c r="A156" s="9" t="s">
         <v>648</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -14092,13 +14164,13 @@
       <c r="X156" s="17"/>
     </row>
     <row r="157">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="9" t="s">
         <v>653</v>
       </c>
       <c r="D157" s="17"/>
@@ -14220,13 +14292,13 @@
       <c r="X160" s="17"/>
     </row>
     <row r="161">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C161" s="9" t="s">
         <v>665</v>
       </c>
       <c r="D161" s="17"/>
@@ -14316,13 +14388,13 @@
       <c r="X163" s="17"/>
     </row>
     <row r="164">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" s="9" t="s">
         <v>674</v>
       </c>
       <c r="D164" s="17"/>
@@ -14412,13 +14484,13 @@
       <c r="X166" s="17"/>
     </row>
     <row r="167">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="14" t="s">
         <v>683</v>
       </c>
       <c r="D167" s="17"/>
@@ -14444,13 +14516,13 @@
       <c r="X167" s="17"/>
     </row>
     <row r="168">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="9" t="s">
         <v>686</v>
       </c>
       <c r="D168" s="17"/>
@@ -14540,13 +14612,13 @@
       <c r="X170" s="17"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="14" t="s">
         <v>695</v>
       </c>
       <c r="D171" s="17"/>
@@ -14572,10 +14644,10 @@
       <c r="X171" s="17"/>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="19" t="s">
         <v>697</v>
       </c>
       <c r="C172" s="9" t="s">
@@ -14636,13 +14708,13 @@
       <c r="X173" s="17"/>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="14" t="s">
         <v>704</v>
       </c>
       <c r="D174" s="17"/>
@@ -14732,13 +14804,13 @@
       <c r="X176" s="17"/>
     </row>
     <row r="177">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="C177" s="14" t="s">
+      <c r="C177" s="9" t="s">
         <v>713</v>
       </c>
       <c r="D177" s="17"/>
@@ -14764,13 +14836,13 @@
       <c r="X177" s="17"/>
     </row>
     <row r="178">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="14" t="s">
         <v>716</v>
       </c>
       <c r="D178" s="17"/>
@@ -14828,13 +14900,13 @@
       <c r="X179" s="17"/>
     </row>
     <row r="180">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="14" t="s">
         <v>722</v>
       </c>
       <c r="D180" s="17"/>
@@ -14860,13 +14932,13 @@
       <c r="X180" s="17"/>
     </row>
     <row r="181">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" s="9" t="s">
         <v>725</v>
       </c>
       <c r="D181" s="17"/>
@@ -14892,13 +14964,13 @@
       <c r="X181" s="17"/>
     </row>
     <row r="182">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="14" t="s">
         <v>728</v>
       </c>
       <c r="D182" s="17"/>
@@ -14924,13 +14996,13 @@
       <c r="X182" s="17"/>
     </row>
     <row r="183">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" s="9" t="s">
         <v>731</v>
       </c>
       <c r="D183" s="17"/>
@@ -14956,13 +15028,13 @@
       <c r="X183" s="17"/>
     </row>
     <row r="184">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="C184" s="9" t="s">
         <v>734</v>
       </c>
       <c r="D184" s="17"/>
@@ -15052,13 +15124,13 @@
       <c r="X186" s="17"/>
     </row>
     <row r="187">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C187" s="9" t="s">
         <v>743</v>
       </c>
       <c r="D187" s="17"/>
@@ -15116,13 +15188,13 @@
       <c r="X188" s="17"/>
     </row>
     <row r="189">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="14" t="s">
         <v>749</v>
       </c>
       <c r="D189" s="17"/>
@@ -15148,13 +15220,13 @@
       <c r="X189" s="17"/>
     </row>
     <row r="190">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C190" s="14" t="s">
+      <c r="C190" s="9" t="s">
         <v>752</v>
       </c>
       <c r="D190" s="17"/>
@@ -15308,13 +15380,13 @@
       <c r="X194" s="17"/>
     </row>
     <row r="195">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="14" t="s">
         <v>767</v>
       </c>
       <c r="D195" s="17"/>
@@ -15340,13 +15412,13 @@
       <c r="X195" s="17"/>
     </row>
     <row r="196">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="14" t="s">
         <v>770</v>
       </c>
       <c r="D196" s="17"/>
@@ -15372,13 +15444,13 @@
       <c r="X196" s="17"/>
     </row>
     <row r="197">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="14" t="s">
         <v>773</v>
       </c>
       <c r="D197" s="17"/>
@@ -15404,13 +15476,13 @@
       <c r="X197" s="17"/>
     </row>
     <row r="198">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="14" t="s">
         <v>776</v>
       </c>
       <c r="D198" s="17"/>
@@ -15468,13 +15540,13 @@
       <c r="X199" s="17"/>
     </row>
     <row r="200">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="C200" s="14" t="s">
+      <c r="C200" s="9" t="s">
         <v>782</v>
       </c>
       <c r="D200" s="17"/>
@@ -15532,13 +15604,13 @@
       <c r="X201" s="17"/>
     </row>
     <row r="202">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C202" s="9" t="s">
         <v>788</v>
       </c>
       <c r="D202" s="17"/>
@@ -15628,13 +15700,13 @@
       <c r="X204" s="17"/>
     </row>
     <row r="205">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="14" t="s">
         <v>797</v>
       </c>
       <c r="D205" s="17"/>
@@ -15660,13 +15732,13 @@
       <c r="X205" s="17"/>
     </row>
     <row r="206">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" s="9" t="s">
         <v>800</v>
       </c>
       <c r="D206" s="17"/>
@@ -15692,13 +15764,13 @@
       <c r="X206" s="17"/>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="14" t="s">
         <v>803</v>
       </c>
       <c r="D207" s="17"/>
@@ -15724,13 +15796,13 @@
       <c r="X207" s="17"/>
     </row>
     <row r="208">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C208" s="9" t="s">
         <v>806</v>
       </c>
       <c r="D208" s="17"/>
@@ -15756,13 +15828,13 @@
       <c r="X208" s="17"/>
     </row>
     <row r="209">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C209" s="9" t="s">
         <v>809</v>
       </c>
       <c r="D209" s="17"/>
@@ -15788,13 +15860,13 @@
       <c r="X209" s="17"/>
     </row>
     <row r="210">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C210" s="9" t="s">
         <v>812</v>
       </c>
       <c r="D210" s="17"/>
@@ -15852,13 +15924,13 @@
       <c r="X211" s="17"/>
     </row>
     <row r="212">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="C212" s="14" t="s">
+      <c r="C212" s="9" t="s">
         <v>818</v>
       </c>
       <c r="D212" s="17"/>
@@ -15884,13 +15956,13 @@
       <c r="X212" s="17"/>
     </row>
     <row r="213">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="14" t="s">
         <v>821</v>
       </c>
       <c r="D213" s="17"/>
@@ -15916,13 +15988,13 @@
       <c r="X213" s="17"/>
     </row>
     <row r="214">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="14" t="s">
         <v>824</v>
       </c>
       <c r="D214" s="17"/>
@@ -16012,13 +16084,13 @@
       <c r="X216" s="17"/>
     </row>
     <row r="217">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="14" t="s">
         <v>833</v>
       </c>
       <c r="D217" s="17"/>
@@ -16044,13 +16116,13 @@
       <c r="X217" s="17"/>
     </row>
     <row r="218">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C218" s="9" t="s">
         <v>836</v>
       </c>
       <c r="D218" s="17"/>
@@ -16076,13 +16148,13 @@
       <c r="X218" s="17"/>
     </row>
     <row r="219">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C219" s="37" t="s">
+      <c r="C219" s="9" t="s">
         <v>839</v>
       </c>
       <c r="D219" s="17"/>
@@ -16172,13 +16244,13 @@
       <c r="X221" s="17"/>
     </row>
     <row r="222">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="C222" s="9" t="s">
         <v>848</v>
       </c>
       <c r="D222" s="17"/>
@@ -16236,13 +16308,13 @@
       <c r="X223" s="17"/>
     </row>
     <row r="224">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="37" t="s">
         <v>854</v>
       </c>
       <c r="D224" s="17"/>
@@ -16268,13 +16340,13 @@
       <c r="X224" s="17"/>
     </row>
     <row r="225">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="14" t="s">
         <v>857</v>
       </c>
       <c r="D225" s="17"/>
@@ -16332,13 +16404,13 @@
       <c r="X226" s="17"/>
     </row>
     <row r="227">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="14" t="s">
         <v>863</v>
       </c>
       <c r="D227" s="17"/>
@@ -16428,13 +16500,13 @@
       <c r="X229" s="17"/>
     </row>
     <row r="230">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="C230" s="9" t="s">
         <v>872</v>
       </c>
       <c r="D230" s="17"/>
@@ -16460,13 +16532,13 @@
       <c r="X230" s="17"/>
     </row>
     <row r="231">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="14" t="s">
         <v>873</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="14" t="s">
         <v>875</v>
       </c>
       <c r="D231" s="17"/>
@@ -16652,13 +16724,13 @@
       <c r="X236" s="17"/>
     </row>
     <row r="237">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="9" t="s">
         <v>893</v>
       </c>
       <c r="D237" s="17"/>
@@ -16684,13 +16756,13 @@
       <c r="X237" s="17"/>
     </row>
     <row r="238">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="14" t="s">
         <v>894</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" s="14" t="s">
         <v>896</v>
       </c>
       <c r="D238" s="17"/>
@@ -16716,13 +16788,13 @@
       <c r="X238" s="17"/>
     </row>
     <row r="239">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="C239" s="9" t="s">
         <v>899</v>
       </c>
       <c r="D239" s="17"/>
@@ -16748,13 +16820,13 @@
       <c r="X239" s="17"/>
     </row>
     <row r="240">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="14" t="s">
         <v>902</v>
       </c>
       <c r="D240" s="17"/>
@@ -16876,13 +16948,13 @@
       <c r="X243" s="17"/>
     </row>
     <row r="244">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="14" t="s">
         <v>913</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" s="14" t="s">
         <v>914</v>
       </c>
       <c r="D244" s="17"/>
@@ -16908,13 +16980,13 @@
       <c r="X244" s="17"/>
     </row>
     <row r="245">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C245" s="9" t="s">
         <v>917</v>
       </c>
       <c r="D245" s="17"/>
@@ -16972,13 +17044,13 @@
       <c r="X246" s="17"/>
     </row>
     <row r="247">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" s="14" t="s">
         <v>923</v>
       </c>
       <c r="D247" s="17"/>
@@ -17068,13 +17140,13 @@
       <c r="X249" s="17"/>
     </row>
     <row r="250">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="14" t="s">
         <v>932</v>
       </c>
       <c r="D250" s="17"/>
@@ -17132,13 +17204,13 @@
       <c r="X251" s="17"/>
     </row>
     <row r="252">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C252" s="9" t="s">
         <v>938</v>
       </c>
       <c r="D252" s="17"/>
@@ -17260,13 +17332,13 @@
       <c r="X255" s="17"/>
     </row>
     <row r="256">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="C256" s="9" t="s">
         <v>950</v>
       </c>
       <c r="D256" s="17"/>
@@ -17292,13 +17364,13 @@
       <c r="X256" s="17"/>
     </row>
     <row r="257">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="14" t="s">
         <v>951</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" s="14" t="s">
         <v>953</v>
       </c>
       <c r="D257" s="17"/>
@@ -17356,13 +17428,13 @@
       <c r="X258" s="17"/>
     </row>
     <row r="259">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C259" s="9" t="s">
         <v>959</v>
       </c>
       <c r="D259" s="17"/>
@@ -17388,13 +17460,13 @@
       <c r="X259" s="17"/>
     </row>
     <row r="260">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="C260" s="9" t="s">
         <v>962</v>
       </c>
       <c r="D260" s="17"/>
@@ -17452,13 +17524,13 @@
       <c r="X261" s="17"/>
     </row>
     <row r="262">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C262" s="9" t="s">
         <v>968</v>
       </c>
       <c r="D262" s="17"/>
@@ -17580,13 +17652,13 @@
       <c r="X265" s="17"/>
     </row>
     <row r="266">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="14" t="s">
         <v>979</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="14" t="s">
         <v>980</v>
       </c>
       <c r="D266" s="17"/>
@@ -17708,13 +17780,13 @@
       <c r="X269" s="17"/>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="14" t="s">
         <v>992</v>
       </c>
       <c r="D270" s="17"/>
@@ -17932,13 +18004,13 @@
       <c r="X276" s="17"/>
     </row>
     <row r="277">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="C277" s="9" t="s">
+      <c r="C277" s="14" t="s">
         <v>1013</v>
       </c>
       <c r="D277" s="17"/>
@@ -17996,13 +18068,13 @@
       <c r="X278" s="17"/>
     </row>
     <row r="279">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" s="14" t="s">
         <v>1019</v>
       </c>
       <c r="D279" s="17"/>
@@ -18028,10 +18100,10 @@
       <c r="X279" s="17"/>
     </row>
     <row r="280">
-      <c r="A280" s="19" t="s">
+      <c r="A280" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="B280" s="19" t="s">
+      <c r="B280" s="9" t="s">
         <v>1021</v>
       </c>
       <c r="C280" s="9" t="s">
@@ -18060,13 +18132,13 @@
       <c r="X280" s="17"/>
     </row>
     <row r="281">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="C281" s="9" t="s">
         <v>1025</v>
       </c>
       <c r="D281" s="17"/>
@@ -18092,13 +18164,13 @@
       <c r="X281" s="17"/>
     </row>
     <row r="282">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C282" s="9" t="s">
         <v>1028</v>
       </c>
       <c r="D282" s="17"/>
@@ -18124,13 +18196,13 @@
       <c r="X282" s="17"/>
     </row>
     <row r="283">
-      <c r="A283" s="14" t="s">
+      <c r="A283" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C283" s="9" t="s">
         <v>1031</v>
       </c>
       <c r="D283" s="17"/>
@@ -18156,13 +18228,13 @@
       <c r="X283" s="17"/>
     </row>
     <row r="284">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C284" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="D284" s="17"/>
@@ -18188,13 +18260,13 @@
       <c r="X284" s="17"/>
     </row>
     <row r="285">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="19" t="s">
         <v>1035</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="19" t="s">
         <v>1036</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="9" t="s">
         <v>1037</v>
       </c>
       <c r="D285" s="17"/>
@@ -18380,13 +18452,13 @@
       <c r="X290" s="17"/>
     </row>
     <row r="291">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="C291" s="9" t="s">
+      <c r="C291" s="14" t="s">
         <v>1055</v>
       </c>
       <c r="D291" s="17"/>
@@ -18444,13 +18516,13 @@
       <c r="X292" s="17"/>
     </row>
     <row r="293">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="14" t="s">
         <v>1060</v>
       </c>
-      <c r="C293" s="9" t="s">
+      <c r="C293" s="14" t="s">
         <v>1061</v>
       </c>
       <c r="D293" s="17"/>
@@ -18476,13 +18548,13 @@
       <c r="X293" s="17"/>
     </row>
     <row r="294">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="C294" s="9" t="s">
+      <c r="C294" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="D294" s="17"/>
@@ -18508,13 +18580,13 @@
       <c r="X294" s="17"/>
     </row>
     <row r="295">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C295" s="14" t="s">
         <v>1067</v>
       </c>
       <c r="D295" s="17"/>
@@ -18540,13 +18612,13 @@
       <c r="X295" s="17"/>
     </row>
     <row r="296">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="9" t="s">
         <v>1068</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="9" t="s">
         <v>1069</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="D296" s="17"/>
@@ -18604,13 +18676,13 @@
       <c r="X297" s="17"/>
     </row>
     <row r="298">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B298" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="C298" s="9" t="s">
         <v>1076</v>
       </c>
       <c r="D298" s="17"/>
@@ -18700,13 +18772,13 @@
       <c r="X300" s="17"/>
     </row>
     <row r="301">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="C301" s="9" t="s">
+      <c r="C301" s="14" t="s">
         <v>1085</v>
       </c>
       <c r="D301" s="17"/>
@@ -18732,13 +18804,13 @@
       <c r="X301" s="17"/>
     </row>
     <row r="302">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="C302" s="9" t="s">
+      <c r="C302" s="14" t="s">
         <v>1088</v>
       </c>
       <c r="D302" s="17"/>
@@ -18828,10 +18900,10 @@
       <c r="X304" s="17"/>
     </row>
     <row r="305">
-      <c r="A305" s="19" t="s">
+      <c r="A305" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="B305" s="19" t="s">
+      <c r="B305" s="9" t="s">
         <v>1096</v>
       </c>
       <c r="C305" s="9" t="s">
@@ -18860,7 +18932,7 @@
       <c r="X305" s="17"/>
     </row>
     <row r="306">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="9" t="s">
         <v>1098</v>
       </c>
       <c r="B306" s="9" t="s">
@@ -18988,13 +19060,13 @@
       <c r="X309" s="17"/>
     </row>
     <row r="310">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="B310" s="14" t="s">
+      <c r="B310" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C310" s="9" t="s">
         <v>1112</v>
       </c>
       <c r="D310" s="17"/>
@@ -19023,10 +19095,10 @@
       <c r="A311" s="14" t="s">
         <v>1113</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="B311" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="C311" s="14" t="s">
+      <c r="C311" s="9" t="s">
         <v>1115</v>
       </c>
       <c r="D311" s="17"/>
@@ -19052,13 +19124,13 @@
       <c r="X311" s="17"/>
     </row>
     <row r="312">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C312" s="9" t="s">
         <v>1118</v>
       </c>
       <c r="D312" s="17"/>
@@ -19084,13 +19156,13 @@
       <c r="X312" s="17"/>
     </row>
     <row r="313">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="C313" s="9" t="s">
+      <c r="C313" s="14" t="s">
         <v>1121</v>
       </c>
       <c r="D313" s="17"/>
@@ -19180,13 +19252,13 @@
       <c r="X315" s="17"/>
     </row>
     <row r="316">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="14" t="s">
         <v>1129</v>
       </c>
-      <c r="C316" s="9" t="s">
+      <c r="C316" s="14" t="s">
         <v>1130</v>
       </c>
       <c r="D316" s="17"/>
@@ -19212,13 +19284,13 @@
       <c r="X316" s="17"/>
     </row>
     <row r="317">
-      <c r="A317" s="19" t="s">
+      <c r="A317" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="B317" s="19" t="s">
+      <c r="B317" s="14" t="s">
         <v>1132</v>
       </c>
-      <c r="C317" s="9" t="s">
+      <c r="C317" s="14" t="s">
         <v>1133</v>
       </c>
       <c r="D317" s="17"/>
@@ -19244,14 +19316,14 @@
       <c r="X317" s="17"/>
     </row>
     <row r="318">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="B318" s="14" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C318" s="14" t="s">
+      <c r="B318" s="9" t="s">
         <v>1135</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>1136</v>
       </c>
       <c r="D318" s="17"/>
       <c r="E318" s="17"/>
@@ -19276,14 +19348,14 @@
       <c r="X318" s="17"/>
     </row>
     <row r="319">
-      <c r="A319" s="14" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B319" s="14" t="s">
+      <c r="A319" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="B319" s="9" t="s">
         <v>1138</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>1139</v>
       </c>
       <c r="D319" s="17"/>
       <c r="E319" s="17"/>
@@ -19308,14 +19380,14 @@
       <c r="X319" s="17"/>
     </row>
     <row r="320">
-      <c r="A320" s="19" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B320" s="19" t="s">
+      <c r="A320" s="14" t="s">
         <v>1140</v>
       </c>
-      <c r="C320" s="9" t="s">
+      <c r="B320" s="14" t="s">
         <v>1141</v>
+      </c>
+      <c r="C320" s="14" t="s">
+        <v>1142</v>
       </c>
       <c r="D320" s="17"/>
       <c r="E320" s="17"/>
@@ -19341,13 +19413,13 @@
     </row>
     <row r="321">
       <c r="A321" s="9" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D321" s="17"/>
       <c r="E321" s="17"/>
@@ -19372,14 +19444,14 @@
       <c r="X321" s="17"/>
     </row>
     <row r="322">
-      <c r="A322" s="14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B322" s="14" t="s">
+      <c r="A322" s="19" t="s">
         <v>1146</v>
       </c>
-      <c r="C322" s="14" t="s">
+      <c r="B322" s="19" t="s">
         <v>1147</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>1148</v>
       </c>
       <c r="D322" s="17"/>
       <c r="E322" s="17"/>
@@ -19405,7 +19477,7 @@
     </row>
     <row r="323">
       <c r="A323" s="14" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B323" s="14" t="s">
         <v>1149</v>
@@ -19468,10 +19540,10 @@
       <c r="X324" s="17"/>
     </row>
     <row r="325">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="19" t="s">
         <v>1154</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="19" t="s">
         <v>1155</v>
       </c>
       <c r="C325" s="9" t="s">
@@ -19596,13 +19668,13 @@
       <c r="X328" s="17"/>
     </row>
     <row r="329">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="14" t="s">
         <v>1166</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="14" t="s">
         <v>1167</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="14" t="s">
         <v>1168</v>
       </c>
       <c r="D329" s="17"/>
@@ -19628,13 +19700,13 @@
       <c r="X329" s="17"/>
     </row>
     <row r="330">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="9" t="s">
         <v>1169</v>
       </c>
-      <c r="B330" s="14" t="s">
+      <c r="B330" s="9" t="s">
         <v>1170</v>
       </c>
-      <c r="C330" s="14" t="s">
+      <c r="C330" s="9" t="s">
         <v>1171</v>
       </c>
       <c r="D330" s="17"/>
@@ -19660,14 +19732,14 @@
       <c r="X330" s="17"/>
     </row>
     <row r="331">
-      <c r="A331" s="14" t="s">
+      <c r="A331" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="B331" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C331" s="14" t="s">
+      <c r="B331" s="9" t="s">
         <v>1173</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>1174</v>
       </c>
       <c r="D331" s="17"/>
       <c r="E331" s="17"/>
@@ -19693,13 +19765,13 @@
     </row>
     <row r="332">
       <c r="A332" s="14" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D332" s="17"/>
       <c r="E332" s="17"/>
@@ -19725,13 +19797,13 @@
     </row>
     <row r="333">
       <c r="A333" s="14" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D333" s="17"/>
       <c r="E333" s="17"/>
@@ -19756,14 +19828,14 @@
       <c r="X333" s="17"/>
     </row>
     <row r="334">
-      <c r="A334" s="14" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B334" s="14" t="s">
+      <c r="A334" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="C334" s="14" t="s">
+      <c r="B334" s="9" t="s">
         <v>1182</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>1183</v>
       </c>
       <c r="D334" s="17"/>
       <c r="E334" s="17"/>
@@ -19789,13 +19861,13 @@
     </row>
     <row r="335">
       <c r="A335" s="14" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D335" s="17"/>
       <c r="E335" s="17"/>
@@ -19820,13 +19892,13 @@
       <c r="X335" s="17"/>
     </row>
     <row r="336">
-      <c r="A336" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B336" s="9" t="s">
+      <c r="A336" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="C336" s="9" t="s">
+      <c r="B336" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>1188</v>
       </c>
       <c r="D336" s="17"/>
@@ -19948,13 +20020,13 @@
       <c r="X339" s="17"/>
     </row>
     <row r="340">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="14" t="s">
         <v>1200</v>
       </c>
       <c r="D340" s="17"/>
@@ -20012,13 +20084,13 @@
       <c r="X341" s="17"/>
     </row>
     <row r="342">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="14" t="s">
         <v>1204</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="14" t="s">
         <v>1206</v>
       </c>
       <c r="D342" s="17"/>
@@ -20108,13 +20180,13 @@
       <c r="X344" s="17"/>
     </row>
     <row r="345">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="9" t="s">
         <v>1213</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="9" t="s">
         <v>1214</v>
       </c>
-      <c r="C345" s="14" t="s">
+      <c r="C345" s="9" t="s">
         <v>1215</v>
       </c>
       <c r="D345" s="17"/>
@@ -20140,13 +20212,13 @@
       <c r="X345" s="17"/>
     </row>
     <row r="346">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="9" t="s">
         <v>1216</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="9" t="s">
         <v>1217</v>
       </c>
-      <c r="C346" s="14" t="s">
+      <c r="C346" s="9" t="s">
         <v>1218</v>
       </c>
       <c r="D346" s="17"/>
@@ -20204,13 +20276,13 @@
       <c r="X347" s="17"/>
     </row>
     <row r="348">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="14" t="s">
         <v>1222</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="14" t="s">
         <v>1223</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="C348" s="14" t="s">
         <v>1224</v>
       </c>
       <c r="D348" s="17"/>
@@ -20364,13 +20436,13 @@
       <c r="X352" s="17"/>
     </row>
     <row r="353">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="9" t="s">
         <v>1238</v>
       </c>
-      <c r="C353" s="14" t="s">
+      <c r="C353" s="9" t="s">
         <v>1239</v>
       </c>
       <c r="D353" s="17"/>
@@ -20524,13 +20596,13 @@
       <c r="X357" s="17"/>
     </row>
     <row r="358">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="14" t="s">
         <v>1252</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="14" t="s">
         <v>1253</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C358" s="14" t="s">
         <v>1254</v>
       </c>
       <c r="D358" s="17"/>
@@ -20556,13 +20628,13 @@
       <c r="X358" s="17"/>
     </row>
     <row r="359">
-      <c r="A359" s="19" t="s">
+      <c r="A359" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="B359" s="19" t="s">
+      <c r="B359" s="14" t="s">
         <v>1256</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="C359" s="14" t="s">
         <v>1257</v>
       </c>
       <c r="D359" s="17"/>
@@ -20588,13 +20660,13 @@
       <c r="X359" s="17"/>
     </row>
     <row r="360">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="14" t="s">
         <v>1258</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="C360" s="9" t="s">
+      <c r="C360" s="14" t="s">
         <v>1260</v>
       </c>
       <c r="D360" s="17"/>
@@ -20620,13 +20692,13 @@
       <c r="X360" s="17"/>
     </row>
     <row r="361">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="14" t="s">
         <v>1261</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="14" t="s">
         <v>1262</v>
       </c>
-      <c r="C361" s="9" t="s">
+      <c r="C361" s="14" t="s">
         <v>1263</v>
       </c>
       <c r="D361" s="17"/>
@@ -20684,10 +20756,10 @@
       <c r="X362" s="17"/>
     </row>
     <row r="363">
-      <c r="A363" s="19" t="s">
+      <c r="A363" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="B363" s="19" t="s">
+      <c r="B363" s="9" t="s">
         <v>1268</v>
       </c>
       <c r="C363" s="9" t="s">
@@ -20716,10 +20788,10 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="19" t="s">
         <v>1270</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="19" t="s">
         <v>1271</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -20844,10 +20916,10 @@
       <c r="X367" s="17"/>
     </row>
     <row r="368">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="19" t="s">
         <v>1283</v>
       </c>
       <c r="C368" s="9" t="s">
@@ -20876,7 +20948,7 @@
       <c r="X368" s="17"/>
     </row>
     <row r="369">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="14" t="s">
         <v>1285</v>
       </c>
       <c r="B369" s="9" t="s">
@@ -20908,13 +20980,13 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="9" t="s">
         <v>1288</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C370" s="9" t="s">
         <v>1290</v>
       </c>
       <c r="D370" s="17"/>
@@ -21004,13 +21076,13 @@
       <c r="X372" s="17"/>
     </row>
     <row r="373">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="9" t="s">
         <v>1299</v>
       </c>
       <c r="D373" s="17"/>
@@ -21036,13 +21108,13 @@
       <c r="X373" s="17"/>
     </row>
     <row r="374">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="9" t="s">
         <v>1302</v>
       </c>
       <c r="D374" s="17"/>
@@ -21068,13 +21140,13 @@
       <c r="X374" s="17"/>
     </row>
     <row r="375">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="14" t="s">
         <v>1303</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C375" s="14" t="s">
         <v>1305</v>
       </c>
       <c r="D375" s="17"/>
@@ -21164,13 +21236,13 @@
       <c r="X377" s="17"/>
     </row>
     <row r="378">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="14" t="s">
         <v>1312</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="14" t="s">
         <v>1313</v>
       </c>
-      <c r="C378" s="9" t="s">
+      <c r="C378" s="14" t="s">
         <v>1314</v>
       </c>
       <c r="D378" s="17"/>
@@ -21196,13 +21268,13 @@
       <c r="X378" s="17"/>
     </row>
     <row r="379">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="14" t="s">
         <v>1315</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="14" t="s">
         <v>1316</v>
       </c>
-      <c r="C379" s="9" t="s">
+      <c r="C379" s="14" t="s">
         <v>1317</v>
       </c>
       <c r="D379" s="17"/>
@@ -21260,13 +21332,13 @@
       <c r="X380" s="17"/>
     </row>
     <row r="381">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="C381" s="14" t="s">
+      <c r="C381" s="9" t="s">
         <v>1323</v>
       </c>
       <c r="D381" s="17"/>
@@ -21356,13 +21428,13 @@
       <c r="X383" s="17"/>
     </row>
     <row r="384">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="C384" s="14" t="s">
+      <c r="C384" s="9" t="s">
         <v>1332</v>
       </c>
       <c r="D384" s="17"/>
@@ -21388,13 +21460,13 @@
       <c r="X384" s="17"/>
     </row>
     <row r="385">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="9" t="s">
         <v>1333</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="C385" s="14" t="s">
+      <c r="C385" s="9" t="s">
         <v>1335</v>
       </c>
       <c r="D385" s="17"/>
@@ -21484,13 +21556,13 @@
       <c r="X387" s="17"/>
     </row>
     <row r="388">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="9" t="s">
         <v>1342</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="9" t="s">
         <v>1343</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C388" s="9" t="s">
         <v>1344</v>
       </c>
       <c r="D388" s="17"/>
@@ -21516,13 +21588,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="19" t="s">
+      <c r="A389" s="14" t="s">
         <v>1345</v>
       </c>
-      <c r="B389" s="19" t="s">
+      <c r="B389" s="14" t="s">
         <v>1346</v>
       </c>
-      <c r="C389" s="9" t="s">
+      <c r="C389" s="14" t="s">
         <v>1347</v>
       </c>
       <c r="D389" s="17"/>
@@ -21612,13 +21684,13 @@
       <c r="X391" s="17"/>
     </row>
     <row r="392">
-      <c r="A392" s="14" t="s">
+      <c r="A392" s="9" t="s">
         <v>1354</v>
       </c>
-      <c r="B392" s="14" t="s">
+      <c r="B392" s="9" t="s">
         <v>1355</v>
       </c>
-      <c r="C392" s="14" t="s">
+      <c r="C392" s="9" t="s">
         <v>1356</v>
       </c>
       <c r="D392" s="17"/>
@@ -21644,13 +21716,13 @@
       <c r="X392" s="17"/>
     </row>
     <row r="393">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="14" t="s">
         <v>1358</v>
       </c>
-      <c r="C393" s="9" t="s">
+      <c r="C393" s="14" t="s">
         <v>1359</v>
       </c>
       <c r="D393" s="17"/>
@@ -21676,10 +21748,10 @@
       <c r="X393" s="17"/>
     </row>
     <row r="394">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="19" t="s">
         <v>1360</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="19" t="s">
         <v>1361</v>
       </c>
       <c r="C394" s="9" t="s">
@@ -21740,13 +21812,13 @@
       <c r="X395" s="17"/>
     </row>
     <row r="396">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="14" t="s">
         <v>1366</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="14" t="s">
         <v>1367</v>
       </c>
-      <c r="C396" s="9" t="s">
+      <c r="C396" s="14" t="s">
         <v>1368</v>
       </c>
       <c r="D396" s="17"/>
@@ -21772,13 +21844,13 @@
       <c r="X396" s="17"/>
     </row>
     <row r="397">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="14" t="s">
         <v>1369</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="14" t="s">
         <v>1370</v>
       </c>
-      <c r="C397" s="9" t="s">
+      <c r="C397" s="14" t="s">
         <v>1371</v>
       </c>
       <c r="D397" s="17"/>
@@ -21868,13 +21940,13 @@
       <c r="X399" s="17"/>
     </row>
     <row r="400">
-      <c r="A400" s="9" t="s">
+      <c r="A400" s="14" t="s">
         <v>1378</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="14" t="s">
         <v>1379</v>
       </c>
-      <c r="C400" s="9" t="s">
+      <c r="C400" s="14" t="s">
         <v>1380</v>
       </c>
       <c r="D400" s="17"/>
@@ -21932,13 +22004,13 @@
       <c r="X401" s="17"/>
     </row>
     <row r="402">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="9" t="s">
         <v>1385</v>
       </c>
-      <c r="C402" s="14" t="s">
+      <c r="C402" s="9" t="s">
         <v>1386</v>
       </c>
       <c r="D402" s="17"/>
@@ -21964,13 +22036,13 @@
       <c r="X402" s="17"/>
     </row>
     <row r="403">
-      <c r="A403" s="14" t="s">
+      <c r="A403" s="9" t="s">
         <v>1387</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="C403" s="14" t="s">
+      <c r="C403" s="9" t="s">
         <v>1389</v>
       </c>
       <c r="D403" s="17"/>
@@ -22188,13 +22260,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="14" t="s">
+      <c r="A410" s="9" t="s">
         <v>1408</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B410" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="C410" s="14" t="s">
+      <c r="C410" s="9" t="s">
         <v>1410</v>
       </c>
       <c r="D410" s="17"/>
@@ -22252,13 +22324,13 @@
       <c r="X411" s="17"/>
     </row>
     <row r="412">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="14" t="s">
         <v>1414</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="C412" s="9" t="s">
+      <c r="C412" s="14" t="s">
         <v>1416</v>
       </c>
       <c r="D412" s="17"/>
@@ -22284,13 +22356,13 @@
       <c r="X412" s="17"/>
     </row>
     <row r="413">
-      <c r="A413" s="9" t="s">
+      <c r="A413" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="C413" s="9" t="s">
+      <c r="C413" s="14" t="s">
         <v>1419</v>
       </c>
       <c r="D413" s="17"/>
@@ -22380,13 +22452,13 @@
       <c r="X415" s="17"/>
     </row>
     <row r="416">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="9" t="s">
         <v>1426</v>
       </c>
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="C416" s="14" t="s">
+      <c r="C416" s="9" t="s">
         <v>1428</v>
       </c>
       <c r="D416" s="17"/>
@@ -22540,13 +22612,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="C421" s="9" t="s">
+      <c r="C421" s="14" t="s">
         <v>1443</v>
       </c>
       <c r="D421" s="17"/>
@@ -22572,14 +22644,14 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="14" t="s">
+      <c r="A422" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="B422" s="14" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C422" s="14" t="s">
+      <c r="B422" s="9" t="s">
         <v>1445</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>1446</v>
       </c>
       <c r="D422" s="17"/>
       <c r="E422" s="17"/>
@@ -22604,14 +22676,14 @@
       <c r="X422" s="17"/>
     </row>
     <row r="423">
-      <c r="A423" s="14" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C423" s="14" t="s">
+      <c r="A423" s="9" t="s">
         <v>1447</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>1449</v>
       </c>
       <c r="D423" s="17"/>
       <c r="E423" s="17"/>
@@ -22637,13 +22709,13 @@
     </row>
     <row r="424">
       <c r="A424" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B424" s="14" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C424" s="14" t="s">
         <v>1450</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>1452</v>
       </c>
       <c r="D424" s="17"/>
       <c r="E424" s="17"/>
@@ -22669,13 +22741,13 @@
     </row>
     <row r="425">
       <c r="A425" s="14" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D425" s="17"/>
       <c r="E425" s="17"/>
@@ -22700,14 +22772,14 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="14" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C426" s="14" t="s">
+      <c r="A426" s="9" t="s">
         <v>1456</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>1458</v>
       </c>
       <c r="D426" s="17"/>
       <c r="E426" s="17"/>
@@ -22732,14 +22804,14 @@
       <c r="X426" s="17"/>
     </row>
     <row r="427">
-      <c r="A427" s="9" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B427" s="9" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C427" s="9" t="s">
+      <c r="A427" s="14" t="s">
         <v>1459</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C427" s="14" t="s">
+        <v>1460</v>
       </c>
       <c r="D427" s="17"/>
       <c r="E427" s="17"/>
@@ -22764,13 +22836,13 @@
       <c r="X427" s="17"/>
     </row>
     <row r="428">
-      <c r="A428" s="9" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B428" s="9" t="s">
+      <c r="A428" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="C428" s="9" t="s">
+      <c r="B428" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C428" s="14" t="s">
         <v>1462</v>
       </c>
       <c r="D428" s="17"/>
@@ -22796,7 +22868,7 @@
       <c r="X428" s="17"/>
     </row>
     <row r="429">
-      <c r="A429" s="14" t="s">
+      <c r="A429" s="9" t="s">
         <v>1463</v>
       </c>
       <c r="B429" s="14" t="s">
@@ -22828,13 +22900,13 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="14" t="s">
         <v>1467</v>
       </c>
-      <c r="C430" s="9" t="s">
+      <c r="C430" s="14" t="s">
         <v>1468</v>
       </c>
       <c r="D430" s="17"/>
@@ -22892,13 +22964,13 @@
       <c r="X431" s="17"/>
     </row>
     <row r="432">
-      <c r="A432" s="14" t="s">
+      <c r="A432" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="B432" s="14" t="s">
+      <c r="B432" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="C432" s="14" t="s">
+      <c r="C432" s="9" t="s">
         <v>1474</v>
       </c>
       <c r="D432" s="17"/>
@@ -22924,13 +22996,13 @@
       <c r="X432" s="17"/>
     </row>
     <row r="433">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="9" t="s">
         <v>1475</v>
       </c>
-      <c r="B433" s="14" t="s">
+      <c r="B433" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="C433" s="14" t="s">
+      <c r="C433" s="9" t="s">
         <v>1477</v>
       </c>
       <c r="D433" s="17"/>
@@ -22956,13 +23028,13 @@
       <c r="X433" s="17"/>
     </row>
     <row r="434">
-      <c r="A434" s="9" t="s">
+      <c r="A434" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="C434" s="9" t="s">
+      <c r="C434" s="14" t="s">
         <v>1480</v>
       </c>
       <c r="D434" s="17"/>
@@ -22988,13 +23060,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="9" t="s">
         <v>1482</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C435" s="9" t="s">
         <v>1483</v>
       </c>
       <c r="D435" s="17"/>
@@ -23020,13 +23092,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="14" t="s">
         <v>1484</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="C436" s="9" t="s">
+      <c r="C436" s="14" t="s">
         <v>1486</v>
       </c>
       <c r="D436" s="17"/>
@@ -23055,10 +23127,10 @@
       <c r="A437" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="14" t="s">
         <v>1488</v>
       </c>
-      <c r="C437" s="9" t="s">
+      <c r="C437" s="14" t="s">
         <v>1489</v>
       </c>
       <c r="D437" s="17"/>
@@ -23084,13 +23156,13 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="14" t="s">
         <v>1490</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="C438" s="9" t="s">
+      <c r="C438" s="14" t="s">
         <v>1492</v>
       </c>
       <c r="D438" s="17"/>
@@ -23116,10 +23188,10 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="19" t="s">
+      <c r="A439" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="B439" s="19" t="s">
+      <c r="B439" s="9" t="s">
         <v>1494</v>
       </c>
       <c r="C439" s="9" t="s">
@@ -23148,13 +23220,13 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="38" t="s">
+      <c r="A440" s="14" t="s">
         <v>1496</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="14" t="s">
         <v>1497</v>
       </c>
-      <c r="C440" s="9" t="s">
+      <c r="C440" s="14" t="s">
         <v>1498</v>
       </c>
       <c r="D440" s="17"/>
@@ -23215,10 +23287,10 @@
       <c r="A442" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="C442" s="14" t="s">
+      <c r="C442" s="9" t="s">
         <v>1504</v>
       </c>
       <c r="D442" s="17"/>
@@ -23244,13 +23316,13 @@
       <c r="X442" s="17"/>
     </row>
     <row r="443">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="B443" s="14" t="s">
+      <c r="B443" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="C443" s="14" t="s">
+      <c r="C443" s="9" t="s">
         <v>1507</v>
       </c>
       <c r="D443" s="17"/>
@@ -23276,13 +23348,13 @@
       <c r="X443" s="17"/>
     </row>
     <row r="444">
-      <c r="A444" s="14" t="s">
+      <c r="A444" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="B444" s="14" t="s">
+      <c r="B444" s="19" t="s">
         <v>1509</v>
       </c>
-      <c r="C444" s="14" t="s">
+      <c r="C444" s="9" t="s">
         <v>1510</v>
       </c>
       <c r="D444" s="17"/>
@@ -23308,13 +23380,13 @@
       <c r="X444" s="17"/>
     </row>
     <row r="445">
-      <c r="A445" s="14" t="s">
+      <c r="A445" s="38" t="s">
         <v>1511</v>
       </c>
-      <c r="B445" s="14" t="s">
+      <c r="B445" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="C445" s="14" t="s">
+      <c r="C445" s="9" t="s">
         <v>1513</v>
       </c>
       <c r="D445" s="17"/>
@@ -23340,13 +23412,13 @@
       <c r="X445" s="17"/>
     </row>
     <row r="446">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="B446" s="14" t="s">
+      <c r="B446" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="C446" s="14" t="s">
+      <c r="C446" s="9" t="s">
         <v>1516</v>
       </c>
       <c r="D446" s="17"/>
@@ -23372,13 +23444,13 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="C447" s="9" t="s">
+      <c r="C447" s="14" t="s">
         <v>1519</v>
       </c>
       <c r="D447" s="17"/>
@@ -23404,13 +23476,13 @@
       <c r="X447" s="17"/>
     </row>
     <row r="448">
-      <c r="A448" s="9" t="s">
+      <c r="A448" s="14" t="s">
         <v>1520</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="14" t="s">
         <v>1521</v>
       </c>
-      <c r="C448" s="9" t="s">
+      <c r="C448" s="14" t="s">
         <v>1522</v>
       </c>
       <c r="D448" s="17"/>
@@ -23436,13 +23508,13 @@
       <c r="X448" s="17"/>
     </row>
     <row r="449">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="C449" s="9" t="s">
+      <c r="C449" s="14" t="s">
         <v>1525</v>
       </c>
       <c r="D449" s="17"/>
@@ -23596,13 +23668,13 @@
       <c r="X453" s="17"/>
     </row>
     <row r="454">
-      <c r="A454" s="14" t="s">
+      <c r="A454" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="C454" s="14" t="s">
+      <c r="C454" s="9" t="s">
         <v>1540</v>
       </c>
       <c r="D454" s="17"/>
@@ -23628,13 +23700,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="14" t="s">
         <v>1541</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="14" t="s">
         <v>1542</v>
       </c>
-      <c r="C455" s="9" t="s">
+      <c r="C455" s="14" t="s">
         <v>1543</v>
       </c>
       <c r="D455" s="17"/>
@@ -23756,13 +23828,13 @@
       <c r="X458" s="17"/>
     </row>
     <row r="459">
-      <c r="A459" s="9" t="s">
+      <c r="A459" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="14" t="s">
         <v>1554</v>
       </c>
-      <c r="C459" s="9" t="s">
+      <c r="C459" s="14" t="s">
         <v>1555</v>
       </c>
       <c r="D459" s="17"/>
@@ -23820,13 +23892,13 @@
       <c r="X460" s="17"/>
     </row>
     <row r="461">
-      <c r="A461" s="9" t="s">
+      <c r="A461" s="14" t="s">
         <v>1559</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="C461" s="9" t="s">
+      <c r="C461" s="14" t="s">
         <v>1561</v>
       </c>
       <c r="D461" s="17"/>
@@ -23980,13 +24052,13 @@
       <c r="X465" s="17"/>
     </row>
     <row r="466">
-      <c r="A466" s="14" t="s">
+      <c r="A466" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="C466" s="14" t="s">
+      <c r="C466" s="9" t="s">
         <v>1576</v>
       </c>
       <c r="D466" s="17"/>
@@ -24044,13 +24116,13 @@
       <c r="X467" s="17"/>
     </row>
     <row r="468">
-      <c r="A468" s="14" t="s">
+      <c r="A468" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="C468" s="14" t="s">
+      <c r="C468" s="9" t="s">
         <v>1582</v>
       </c>
       <c r="D468" s="17"/>
@@ -24076,13 +24148,13 @@
       <c r="X468" s="17"/>
     </row>
     <row r="469">
-      <c r="A469" s="14" t="s">
+      <c r="A469" s="9" t="s">
         <v>1583</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="B469" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="C469" s="14" t="s">
+      <c r="C469" s="9" t="s">
         <v>1585</v>
       </c>
       <c r="D469" s="17"/>
@@ -24140,13 +24212,13 @@
       <c r="X470" s="17"/>
     </row>
     <row r="471">
-      <c r="A471" s="9" t="s">
+      <c r="A471" s="14" t="s">
         <v>1589</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="14" t="s">
         <v>1590</v>
       </c>
-      <c r="C471" s="9" t="s">
+      <c r="C471" s="14" t="s">
         <v>1591</v>
       </c>
       <c r="D471" s="17"/>
@@ -24172,13 +24244,13 @@
       <c r="X471" s="17"/>
     </row>
     <row r="472">
-      <c r="A472" s="9" t="s">
+      <c r="A472" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="14" t="s">
         <v>1593</v>
       </c>
-      <c r="C472" s="9" t="s">
+      <c r="C472" s="14" t="s">
         <v>1594</v>
       </c>
       <c r="D472" s="17"/>
@@ -24236,13 +24308,13 @@
       <c r="X473" s="17"/>
     </row>
     <row r="474">
-      <c r="A474" s="9" t="s">
+      <c r="A474" s="14" t="s">
         <v>1598</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="14" t="s">
         <v>1599</v>
       </c>
-      <c r="C474" s="9" t="s">
+      <c r="C474" s="14" t="s">
         <v>1600</v>
       </c>
       <c r="D474" s="17"/>
@@ -24300,13 +24372,13 @@
       <c r="X475" s="17"/>
     </row>
     <row r="476">
-      <c r="A476" s="14" t="s">
+      <c r="A476" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="C476" s="14" t="s">
+      <c r="C476" s="9" t="s">
         <v>1606</v>
       </c>
       <c r="D476" s="17"/>
@@ -24332,13 +24404,13 @@
       <c r="X476" s="17"/>
     </row>
     <row r="477">
-      <c r="A477" s="14" t="s">
+      <c r="A477" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="C477" s="14" t="s">
+      <c r="C477" s="9" t="s">
         <v>1609</v>
       </c>
       <c r="D477" s="17"/>
@@ -24364,13 +24436,13 @@
       <c r="X477" s="17"/>
     </row>
     <row r="478">
-      <c r="A478" s="14" t="s">
+      <c r="A478" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="B478" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="C478" s="14" t="s">
+      <c r="C478" s="9" t="s">
         <v>1612</v>
       </c>
       <c r="D478" s="17"/>
@@ -24396,13 +24468,13 @@
       <c r="X478" s="17"/>
     </row>
     <row r="479">
-      <c r="A479" s="14" t="s">
+      <c r="A479" s="9" t="s">
         <v>1613</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="C479" s="14" t="s">
+      <c r="C479" s="9" t="s">
         <v>1615</v>
       </c>
       <c r="D479" s="17"/>
@@ -24524,13 +24596,13 @@
       <c r="X482" s="17"/>
     </row>
     <row r="483">
-      <c r="A483" s="9" t="s">
+      <c r="A483" s="14" t="s">
         <v>1625</v>
       </c>
-      <c r="B483" s="9" t="s">
+      <c r="B483" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C483" s="14" t="s">
         <v>1627</v>
       </c>
       <c r="D483" s="17"/>
@@ -24588,13 +24660,13 @@
       <c r="X484" s="17"/>
     </row>
     <row r="485">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="14" t="s">
         <v>1631</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C485" s="14" t="s">
         <v>1633</v>
       </c>
       <c r="D485" s="17"/>
@@ -24620,10 +24692,10 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="19" t="s">
+      <c r="A486" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="B486" s="19" t="s">
+      <c r="B486" s="9" t="s">
         <v>1635</v>
       </c>
       <c r="C486" s="9" t="s">
@@ -24652,13 +24724,13 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="9" t="s">
+      <c r="A487" s="14" t="s">
         <v>1637</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="14" t="s">
         <v>1638</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C487" s="14" t="s">
         <v>1639</v>
       </c>
       <c r="D487" s="17"/>
@@ -24748,13 +24820,13 @@
       <c r="X489" s="17"/>
     </row>
     <row r="490">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="14" t="s">
         <v>1646</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="14" t="s">
         <v>1647</v>
       </c>
-      <c r="C490" s="9" t="s">
+      <c r="C490" s="14" t="s">
         <v>1648</v>
       </c>
       <c r="D490" s="17"/>
@@ -24780,13 +24852,13 @@
       <c r="X490" s="17"/>
     </row>
     <row r="491">
-      <c r="A491" s="14" t="s">
+      <c r="A491" s="9" t="s">
         <v>1649</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="B491" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="C491" s="14" t="s">
+      <c r="C491" s="9" t="s">
         <v>1651</v>
       </c>
       <c r="D491" s="17"/>
@@ -24812,13 +24884,13 @@
       <c r="X491" s="17"/>
     </row>
     <row r="492">
-      <c r="A492" s="14" t="s">
+      <c r="A492" s="19" t="s">
         <v>1652</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="19" t="s">
         <v>1653</v>
       </c>
-      <c r="C492" s="14" t="s">
+      <c r="C492" s="9" t="s">
         <v>1654</v>
       </c>
       <c r="D492" s="17"/>
@@ -24844,13 +24916,13 @@
       <c r="X492" s="17"/>
     </row>
     <row r="493">
-      <c r="A493" s="14" t="s">
+      <c r="A493" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="B493" s="9" t="s">
         <v>1656</v>
       </c>
-      <c r="C493" s="14" t="s">
+      <c r="C493" s="9" t="s">
         <v>1657</v>
       </c>
       <c r="D493" s="17"/>
@@ -24940,13 +25012,13 @@
       <c r="X495" s="17"/>
     </row>
     <row r="496">
-      <c r="A496" s="14" t="s">
+      <c r="A496" s="9" t="s">
         <v>1664</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="C496" s="14" t="s">
+      <c r="C496" s="9" t="s">
         <v>1666</v>
       </c>
       <c r="D496" s="17"/>
@@ -25004,13 +25076,13 @@
       <c r="X497" s="17"/>
     </row>
     <row r="498">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="14" t="s">
         <v>1670</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="14" t="s">
         <v>1671</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C498" s="14" t="s">
         <v>1672</v>
       </c>
       <c r="D498" s="17"/>
@@ -25036,13 +25108,13 @@
       <c r="X498" s="17"/>
     </row>
     <row r="499">
-      <c r="A499" s="9" t="s">
+      <c r="A499" s="14" t="s">
         <v>1673</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="14" t="s">
         <v>1674</v>
       </c>
-      <c r="C499" s="9" t="s">
+      <c r="C499" s="14" t="s">
         <v>1675</v>
       </c>
       <c r="D499" s="17"/>
@@ -25132,13 +25204,13 @@
       <c r="X501" s="17"/>
     </row>
     <row r="502">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="14" t="s">
         <v>1682</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="14" t="s">
         <v>1683</v>
       </c>
-      <c r="C502" s="9" t="s">
+      <c r="C502" s="14" t="s">
         <v>1684</v>
       </c>
       <c r="D502" s="17"/>
@@ -25196,13 +25268,13 @@
       <c r="X503" s="17"/>
     </row>
     <row r="504">
-      <c r="A504" s="14" t="s">
+      <c r="A504" s="9" t="s">
         <v>1688</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="B504" s="9" t="s">
         <v>1689</v>
       </c>
-      <c r="C504" s="14" t="s">
+      <c r="C504" s="9" t="s">
         <v>1690</v>
       </c>
       <c r="D504" s="17"/>
@@ -25228,13 +25300,13 @@
       <c r="X504" s="17"/>
     </row>
     <row r="505">
-      <c r="A505" s="14" t="s">
+      <c r="A505" s="9" t="s">
         <v>1691</v>
       </c>
-      <c r="B505" s="14" t="s">
+      <c r="B505" s="9" t="s">
         <v>1692</v>
       </c>
-      <c r="C505" s="14" t="s">
+      <c r="C505" s="9" t="s">
         <v>1693</v>
       </c>
       <c r="D505" s="17"/>
@@ -25260,13 +25332,13 @@
       <c r="X505" s="17"/>
     </row>
     <row r="506">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="14" t="s">
         <v>1694</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="14" t="s">
         <v>1695</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="14" t="s">
         <v>1696</v>
       </c>
       <c r="D506" s="17"/>
@@ -25295,10 +25367,10 @@
       <c r="A507" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="B507" s="14" t="s">
+      <c r="B507" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="C507" s="14" t="s">
+      <c r="C507" s="9" t="s">
         <v>1699</v>
       </c>
       <c r="D507" s="17"/>
@@ -25324,13 +25396,13 @@
       <c r="X507" s="17"/>
     </row>
     <row r="508">
-      <c r="A508" s="14" t="s">
+      <c r="A508" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="B508" s="14" t="s">
+      <c r="B508" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="C508" s="14" t="s">
+      <c r="C508" s="9" t="s">
         <v>1702</v>
       </c>
       <c r="D508" s="17"/>
@@ -25452,13 +25524,13 @@
       <c r="X511" s="17"/>
     </row>
     <row r="512">
-      <c r="A512" s="14" t="s">
+      <c r="A512" s="9" t="s">
         <v>1712</v>
       </c>
-      <c r="B512" s="14" t="s">
+      <c r="B512" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="C512" s="14" t="s">
+      <c r="C512" s="9" t="s">
         <v>1714</v>
       </c>
       <c r="D512" s="17"/>
@@ -25484,7 +25556,7 @@
       <c r="X512" s="17"/>
     </row>
     <row r="513">
-      <c r="A513" s="14" t="s">
+      <c r="A513" s="9" t="s">
         <v>1715</v>
       </c>
       <c r="B513" s="14" t="s">
@@ -25548,13 +25620,13 @@
       <c r="X514" s="17"/>
     </row>
     <row r="515">
-      <c r="A515" s="9" t="s">
+      <c r="A515" s="14" t="s">
         <v>1721</v>
       </c>
-      <c r="B515" s="9" t="s">
+      <c r="B515" s="14" t="s">
         <v>1722</v>
       </c>
-      <c r="C515" s="9" t="s">
+      <c r="C515" s="14" t="s">
         <v>1723</v>
       </c>
       <c r="D515" s="17"/>
@@ -25580,13 +25652,13 @@
       <c r="X515" s="17"/>
     </row>
     <row r="516">
-      <c r="A516" s="9" t="s">
+      <c r="A516" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="B516" s="9" t="s">
+      <c r="B516" s="14" t="s">
         <v>1725</v>
       </c>
-      <c r="C516" s="9" t="s">
+      <c r="C516" s="14" t="s">
         <v>1726</v>
       </c>
       <c r="D516" s="17"/>
@@ -25676,13 +25748,13 @@
       <c r="X518" s="17"/>
     </row>
     <row r="519">
-      <c r="A519" s="9" t="s">
+      <c r="A519" s="14" t="s">
         <v>1733</v>
       </c>
-      <c r="B519" s="9" t="s">
+      <c r="B519" s="14" t="s">
         <v>1734</v>
       </c>
-      <c r="C519" s="9" t="s">
+      <c r="C519" s="14" t="s">
         <v>1735</v>
       </c>
       <c r="D519" s="17"/>
@@ -25740,13 +25812,13 @@
       <c r="X520" s="17"/>
     </row>
     <row r="521">
-      <c r="A521" s="14" t="s">
+      <c r="A521" s="9" t="s">
         <v>1739</v>
       </c>
-      <c r="B521" s="14" t="s">
+      <c r="B521" s="9" t="s">
         <v>1740</v>
       </c>
-      <c r="C521" s="14" t="s">
+      <c r="C521" s="9" t="s">
         <v>1741</v>
       </c>
       <c r="D521" s="17"/>
@@ -25772,13 +25844,13 @@
       <c r="X521" s="17"/>
     </row>
     <row r="522">
-      <c r="A522" s="14" t="s">
+      <c r="A522" s="9" t="s">
         <v>1742</v>
       </c>
-      <c r="B522" s="14" t="s">
+      <c r="B522" s="9" t="s">
         <v>1743</v>
       </c>
-      <c r="C522" s="14" t="s">
+      <c r="C522" s="9" t="s">
         <v>1744</v>
       </c>
       <c r="D522" s="17"/>
@@ -25804,13 +25876,13 @@
       <c r="X522" s="17"/>
     </row>
     <row r="523">
-      <c r="A523" s="9" t="s">
+      <c r="A523" s="14" t="s">
         <v>1745</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="C523" s="9" t="s">
+      <c r="C523" s="14" t="s">
         <v>1747</v>
       </c>
       <c r="D523" s="17"/>
@@ -25900,13 +25972,13 @@
       <c r="X525" s="17"/>
     </row>
     <row r="526">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="14" t="s">
         <v>1754</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="14" t="s">
         <v>1755</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C526" s="14" t="s">
         <v>1756</v>
       </c>
       <c r="D526" s="17"/>
@@ -26060,13 +26132,13 @@
       <c r="X530" s="17"/>
     </row>
     <row r="531">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="9" t="s">
         <v>1769</v>
       </c>
-      <c r="B531" s="14" t="s">
+      <c r="B531" s="9" t="s">
         <v>1770</v>
       </c>
-      <c r="C531" s="14" t="s">
+      <c r="C531" s="9" t="s">
         <v>1771</v>
       </c>
       <c r="D531" s="17"/>
@@ -26124,13 +26196,13 @@
       <c r="X532" s="17"/>
     </row>
     <row r="533">
-      <c r="A533" s="9" t="s">
+      <c r="A533" s="14" t="s">
         <v>1775</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="14" t="s">
         <v>1776</v>
       </c>
-      <c r="C533" s="9" t="s">
+      <c r="C533" s="14" t="s">
         <v>1777</v>
       </c>
       <c r="D533" s="17"/>
@@ -26220,13 +26292,13 @@
       <c r="X535" s="17"/>
     </row>
     <row r="536">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="14" t="s">
         <v>1784</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="14" t="s">
         <v>1785</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C536" s="14" t="s">
         <v>1786</v>
       </c>
       <c r="D536" s="17"/>
@@ -26252,13 +26324,13 @@
       <c r="X536" s="17"/>
     </row>
     <row r="537">
-      <c r="A537" s="9" t="s">
+      <c r="A537" s="14" t="s">
         <v>1787</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="14" t="s">
         <v>1788</v>
       </c>
-      <c r="C537" s="9" t="s">
+      <c r="C537" s="14" t="s">
         <v>1789</v>
       </c>
       <c r="D537" s="17"/>
@@ -26284,13 +26356,13 @@
       <c r="X537" s="17"/>
     </row>
     <row r="538">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="9" t="s">
         <v>1790</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="9" t="s">
         <v>1791</v>
       </c>
-      <c r="C538" s="14" t="s">
+      <c r="C538" s="9" t="s">
         <v>1792</v>
       </c>
       <c r="D538" s="17"/>
@@ -26316,13 +26388,13 @@
       <c r="X538" s="17"/>
     </row>
     <row r="539">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="9" t="s">
         <v>1793</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="9" t="s">
         <v>1794</v>
       </c>
-      <c r="C539" s="14" t="s">
+      <c r="C539" s="9" t="s">
         <v>1795</v>
       </c>
       <c r="D539" s="17"/>
@@ -26380,13 +26452,13 @@
       <c r="X540" s="17"/>
     </row>
     <row r="541">
-      <c r="A541" s="14" t="s">
+      <c r="A541" s="9" t="s">
         <v>1799</v>
       </c>
-      <c r="B541" s="14" t="s">
+      <c r="B541" s="9" t="s">
         <v>1800</v>
       </c>
-      <c r="C541" s="14" t="s">
+      <c r="C541" s="9" t="s">
         <v>1801</v>
       </c>
       <c r="D541" s="17"/>
@@ -26412,13 +26484,13 @@
       <c r="X541" s="17"/>
     </row>
     <row r="542">
-      <c r="A542" s="14" t="s">
+      <c r="A542" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="B542" s="14" t="s">
+      <c r="B542" s="9" t="s">
         <v>1803</v>
       </c>
-      <c r="C542" s="14" t="s">
+      <c r="C542" s="9" t="s">
         <v>1804</v>
       </c>
       <c r="D542" s="17"/>
@@ -26508,13 +26580,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="9" t="s">
+      <c r="A545" s="14" t="s">
         <v>1811</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B545" s="14" t="s">
         <v>1812</v>
       </c>
-      <c r="C545" s="9" t="s">
+      <c r="C545" s="14" t="s">
         <v>1813</v>
       </c>
       <c r="D545" s="17"/>
@@ -26604,13 +26676,13 @@
       <c r="X547" s="17"/>
     </row>
     <row r="548">
-      <c r="A548" s="9" t="s">
+      <c r="A548" s="14" t="s">
         <v>1820</v>
       </c>
-      <c r="B548" s="9" t="s">
+      <c r="B548" s="14" t="s">
         <v>1821</v>
       </c>
-      <c r="C548" s="9" t="s">
+      <c r="C548" s="14" t="s">
         <v>1822</v>
       </c>
       <c r="D548" s="17"/>
@@ -26636,13 +26708,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="14" t="s">
+      <c r="A549" s="9" t="s">
         <v>1823</v>
       </c>
-      <c r="B549" s="14" t="s">
+      <c r="B549" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="C549" s="14" t="s">
+      <c r="C549" s="9" t="s">
         <v>1825</v>
       </c>
       <c r="D549" s="17"/>
@@ -26700,13 +26772,13 @@
       <c r="X550" s="17"/>
     </row>
     <row r="551">
-      <c r="A551" s="14" t="s">
+      <c r="A551" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="B551" s="14" t="s">
+      <c r="B551" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="C551" s="14" t="s">
+      <c r="C551" s="9" t="s">
         <v>1831</v>
       </c>
       <c r="D551" s="17"/>
@@ -26796,13 +26868,13 @@
       <c r="X553" s="17"/>
     </row>
     <row r="554">
-      <c r="A554" s="14" t="s">
+      <c r="A554" s="9" t="s">
         <v>1838</v>
       </c>
-      <c r="B554" s="14" t="s">
+      <c r="B554" s="9" t="s">
         <v>1839</v>
       </c>
-      <c r="C554" s="14" t="s">
+      <c r="C554" s="9" t="s">
         <v>1840</v>
       </c>
       <c r="D554" s="17"/>
@@ -26956,13 +27028,13 @@
       <c r="X558" s="17"/>
     </row>
     <row r="559">
-      <c r="A559" s="9" t="s">
+      <c r="A559" s="14" t="s">
         <v>1853</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="14" t="s">
         <v>1854</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="14" t="s">
         <v>1855</v>
       </c>
       <c r="D559" s="17"/>
@@ -26992,10 +27064,10 @@
         <v>1856</v>
       </c>
       <c r="B560" s="14" t="s">
-        <v>20</v>
+        <v>1857</v>
       </c>
       <c r="C560" s="14" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D560" s="17"/>
       <c r="E560" s="17"/>
@@ -27021,13 +27093,13 @@
     </row>
     <row r="561">
       <c r="A561" s="14" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B561" s="14" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C561" s="14" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D561" s="17"/>
       <c r="E561" s="17"/>
@@ -27052,14 +27124,14 @@
       <c r="X561" s="17"/>
     </row>
     <row r="562">
-      <c r="A562" s="9" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B562" s="9" t="s">
+      <c r="A562" s="14" t="s">
         <v>1862</v>
       </c>
-      <c r="C562" s="9" t="s">
+      <c r="B562" s="14" t="s">
         <v>1863</v>
+      </c>
+      <c r="C562" s="14" t="s">
+        <v>1864</v>
       </c>
       <c r="D562" s="17"/>
       <c r="E562" s="17"/>
@@ -27084,14 +27156,14 @@
       <c r="X562" s="17"/>
     </row>
     <row r="563">
-      <c r="A563" s="9" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B563" s="9" t="s">
+      <c r="A563" s="14" t="s">
         <v>1865</v>
       </c>
-      <c r="C563" s="9" t="s">
+      <c r="B563" s="14" t="s">
         <v>1866</v>
+      </c>
+      <c r="C563" s="14" t="s">
+        <v>1867</v>
       </c>
       <c r="D563" s="17"/>
       <c r="E563" s="17"/>
@@ -27117,13 +27189,13 @@
     </row>
     <row r="564">
       <c r="A564" s="14" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B564" s="14" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C564" s="14" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D564" s="17"/>
       <c r="E564" s="17"/>
@@ -27148,14 +27220,14 @@
       <c r="X564" s="17"/>
     </row>
     <row r="565">
-      <c r="A565" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B565" s="14" t="s">
+      <c r="A565" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="C565" s="14" t="s">
+      <c r="B565" s="9" t="s">
         <v>1872</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>1873</v>
       </c>
       <c r="D565" s="17"/>
       <c r="E565" s="17"/>
@@ -27181,10 +27253,10 @@
     </row>
     <row r="566">
       <c r="A566" s="14" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B566" s="14" t="s">
-        <v>1874</v>
+        <v>20</v>
       </c>
       <c r="C566" s="14" t="s">
         <v>1875</v>
@@ -27244,13 +27316,13 @@
       <c r="X567" s="17"/>
     </row>
     <row r="568">
-      <c r="A568" s="14" t="s">
+      <c r="A568" s="9" t="s">
         <v>1879</v>
       </c>
-      <c r="B568" s="14" t="s">
+      <c r="B568" s="9" t="s">
         <v>1880</v>
       </c>
-      <c r="C568" s="14" t="s">
+      <c r="C568" s="9" t="s">
         <v>1881</v>
       </c>
       <c r="D568" s="17"/>
@@ -27340,13 +27412,13 @@
       <c r="X570" s="17"/>
     </row>
     <row r="571">
-      <c r="A571" s="9" t="s">
+      <c r="A571" s="14" t="s">
         <v>1888</v>
       </c>
-      <c r="B571" s="9" t="s">
+      <c r="B571" s="14" t="s">
         <v>1889</v>
       </c>
-      <c r="C571" s="9" t="s">
+      <c r="C571" s="14" t="s">
         <v>1890</v>
       </c>
       <c r="D571" s="17"/>
@@ -27372,13 +27444,13 @@
       <c r="X571" s="17"/>
     </row>
     <row r="572">
-      <c r="A572" s="9" t="s">
+      <c r="A572" s="14" t="s">
         <v>1891</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="14" t="s">
         <v>1892</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="C572" s="14" t="s">
         <v>1893</v>
       </c>
       <c r="D572" s="17"/>
@@ -27404,13 +27476,13 @@
       <c r="X572" s="17"/>
     </row>
     <row r="573">
-      <c r="A573" s="9" t="s">
+      <c r="A573" s="14" t="s">
         <v>1894</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="14" t="s">
         <v>1895</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" s="14" t="s">
         <v>1896</v>
       </c>
       <c r="D573" s="17"/>
@@ -27436,13 +27508,13 @@
       <c r="X573" s="17"/>
     </row>
     <row r="574">
-      <c r="A574" s="9" t="s">
+      <c r="A574" s="14" t="s">
         <v>1897</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="14" t="s">
         <v>1898</v>
       </c>
-      <c r="C574" s="9" t="s">
+      <c r="C574" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="D574" s="17"/>
@@ -27500,13 +27572,13 @@
       <c r="X575" s="17"/>
     </row>
     <row r="576">
-      <c r="A576" s="9" t="s">
+      <c r="A576" s="14" t="s">
         <v>1903</v>
       </c>
-      <c r="B576" s="9" t="s">
+      <c r="B576" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="C576" s="9" t="s">
+      <c r="C576" s="14" t="s">
         <v>1905</v>
       </c>
       <c r="D576" s="17"/>
@@ -27532,13 +27604,13 @@
       <c r="X576" s="17"/>
     </row>
     <row r="577">
-      <c r="A577" s="9" t="s">
+      <c r="A577" s="14" t="s">
         <v>1906</v>
       </c>
-      <c r="B577" s="9" t="s">
+      <c r="B577" s="14" t="s">
         <v>1907</v>
       </c>
-      <c r="C577" s="9" t="s">
+      <c r="C577" s="14" t="s">
         <v>1908</v>
       </c>
       <c r="D577" s="17"/>
@@ -27564,13 +27636,13 @@
       <c r="X577" s="17"/>
     </row>
     <row r="578">
-      <c r="A578" s="14" t="s">
+      <c r="A578" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="B578" s="14" t="s">
+      <c r="B578" s="9" t="s">
         <v>1910</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C578" s="9" t="s">
         <v>1911</v>
       </c>
       <c r="D578" s="17"/>
@@ -27596,13 +27668,13 @@
       <c r="X578" s="17"/>
     </row>
     <row r="579">
-      <c r="A579" s="14" t="s">
+      <c r="A579" s="9" t="s">
         <v>1912</v>
       </c>
-      <c r="B579" s="14" t="s">
+      <c r="B579" s="9" t="s">
         <v>1913</v>
       </c>
-      <c r="C579" s="14" t="s">
+      <c r="C579" s="9" t="s">
         <v>1914</v>
       </c>
       <c r="D579" s="17"/>
@@ -27628,13 +27700,13 @@
       <c r="X579" s="17"/>
     </row>
     <row r="580">
-      <c r="A580" s="14" t="s">
+      <c r="A580" s="9" t="s">
         <v>1915</v>
       </c>
-      <c r="B580" s="14" t="s">
+      <c r="B580" s="9" t="s">
         <v>1916</v>
       </c>
-      <c r="C580" s="14" t="s">
+      <c r="C580" s="9" t="s">
         <v>1917</v>
       </c>
       <c r="D580" s="17"/>
@@ -27660,13 +27732,13 @@
       <c r="X580" s="17"/>
     </row>
     <row r="581">
-      <c r="A581" s="14" t="s">
+      <c r="A581" s="9" t="s">
         <v>1918</v>
       </c>
-      <c r="B581" s="14" t="s">
+      <c r="B581" s="9" t="s">
         <v>1919</v>
       </c>
-      <c r="C581" s="14" t="s">
+      <c r="C581" s="9" t="s">
         <v>1920</v>
       </c>
       <c r="D581" s="17"/>
@@ -27820,13 +27892,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="14" t="s">
         <v>1933</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="14" t="s">
         <v>1934</v>
       </c>
-      <c r="C586" s="9" t="s">
+      <c r="C586" s="14" t="s">
         <v>1935</v>
       </c>
       <c r="D586" s="17"/>
@@ -27916,13 +27988,13 @@
       <c r="X588" s="17"/>
     </row>
     <row r="589">
-      <c r="A589" s="14" t="s">
+      <c r="A589" s="9" t="s">
         <v>1942</v>
       </c>
-      <c r="B589" s="14" t="s">
+      <c r="B589" s="9" t="s">
         <v>1943</v>
       </c>
-      <c r="C589" s="14" t="s">
+      <c r="C589" s="9" t="s">
         <v>1944</v>
       </c>
       <c r="D589" s="17"/>
@@ -27948,13 +28020,13 @@
       <c r="X589" s="17"/>
     </row>
     <row r="590">
-      <c r="A590" s="14" t="s">
+      <c r="A590" s="9" t="s">
         <v>1945</v>
       </c>
-      <c r="B590" s="14" t="s">
+      <c r="B590" s="9" t="s">
         <v>1946</v>
       </c>
-      <c r="C590" s="14" t="s">
+      <c r="C590" s="9" t="s">
         <v>1947</v>
       </c>
       <c r="D590" s="17"/>
@@ -28076,13 +28148,13 @@
       <c r="X593" s="17"/>
     </row>
     <row r="594">
-      <c r="A594" s="9" t="s">
+      <c r="A594" s="14" t="s">
         <v>1957</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="14" t="s">
         <v>1958</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="C594" s="14" t="s">
         <v>1959</v>
       </c>
       <c r="D594" s="17"/>
@@ -28108,13 +28180,13 @@
       <c r="X594" s="17"/>
     </row>
     <row r="595">
-      <c r="A595" s="9" t="s">
+      <c r="A595" s="14" t="s">
         <v>1960</v>
       </c>
-      <c r="B595" s="9" t="s">
+      <c r="B595" s="14" t="s">
         <v>1961</v>
       </c>
-      <c r="C595" s="9" t="s">
+      <c r="C595" s="14" t="s">
         <v>1962</v>
       </c>
       <c r="D595" s="17"/>
@@ -28172,13 +28244,13 @@
       <c r="X596" s="17"/>
     </row>
     <row r="597">
-      <c r="A597" s="9" t="s">
+      <c r="A597" s="14" t="s">
         <v>1966</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" s="14" t="s">
         <v>1967</v>
       </c>
-      <c r="C597" s="9" t="s">
+      <c r="C597" s="14" t="s">
         <v>1968</v>
       </c>
       <c r="D597" s="17"/>
@@ -28300,13 +28372,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="14" t="s">
+      <c r="A601" s="9" t="s">
         <v>1978</v>
       </c>
-      <c r="B601" s="14" t="s">
+      <c r="B601" s="9" t="s">
         <v>1979</v>
       </c>
-      <c r="C601" s="14" t="s">
+      <c r="C601" s="9" t="s">
         <v>1980</v>
       </c>
       <c r="D601" s="17"/>
@@ -28364,13 +28436,13 @@
       <c r="X602" s="17"/>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="s">
+      <c r="A603" s="14" t="s">
         <v>1984</v>
       </c>
-      <c r="B603" s="9" t="s">
+      <c r="B603" s="14" t="s">
         <v>1985</v>
       </c>
-      <c r="C603" s="9" t="s">
+      <c r="C603" s="14" t="s">
         <v>1986</v>
       </c>
       <c r="D603" s="17"/>
@@ -28556,13 +28628,13 @@
       <c r="X608" s="17"/>
     </row>
     <row r="609">
-      <c r="A609" s="14" t="s">
+      <c r="A609" s="9" t="s">
         <v>2002</v>
       </c>
-      <c r="B609" s="14" t="s">
+      <c r="B609" s="9" t="s">
         <v>2003</v>
       </c>
-      <c r="C609" s="14" t="s">
+      <c r="C609" s="9" t="s">
         <v>2004</v>
       </c>
       <c r="D609" s="17"/>
@@ -28652,13 +28724,13 @@
       <c r="X611" s="17"/>
     </row>
     <row r="612">
-      <c r="A612" s="14" t="s">
+      <c r="A612" s="9" t="s">
         <v>2011</v>
       </c>
-      <c r="B612" s="14" t="s">
+      <c r="B612" s="9" t="s">
         <v>2012</v>
       </c>
-      <c r="C612" s="14" t="s">
+      <c r="C612" s="9" t="s">
         <v>2013</v>
       </c>
       <c r="D612" s="17"/>
@@ -28684,13 +28756,13 @@
       <c r="X612" s="17"/>
     </row>
     <row r="613">
-      <c r="A613" s="9" t="s">
+      <c r="A613" s="14" t="s">
         <v>2014</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" s="14" t="s">
         <v>2015</v>
       </c>
-      <c r="C613" s="9" t="s">
+      <c r="C613" s="14" t="s">
         <v>2016</v>
       </c>
       <c r="D613" s="17"/>
@@ -28812,13 +28884,13 @@
       <c r="X616" s="17"/>
     </row>
     <row r="617">
-      <c r="A617" s="14" t="s">
+      <c r="A617" s="9" t="s">
         <v>2026</v>
       </c>
-      <c r="B617" s="14" t="s">
+      <c r="B617" s="9" t="s">
         <v>2027</v>
       </c>
-      <c r="C617" s="14" t="s">
+      <c r="C617" s="9" t="s">
         <v>2028</v>
       </c>
       <c r="D617" s="17"/>
@@ -28855,13 +28927,13 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="9" t="s">
+      <c r="A619" s="14" t="s">
         <v>2032</v>
       </c>
-      <c r="B619" s="9" t="s">
+      <c r="B619" s="14" t="s">
         <v>2033</v>
       </c>
-      <c r="C619" s="9" t="s">
+      <c r="C619" s="14" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -28877,90 +28949,90 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="14" t="s">
+      <c r="A621" s="9" t="s">
         <v>2038</v>
       </c>
-      <c r="B621" s="14" t="s">
+      <c r="B621" s="9" t="s">
         <v>2039</v>
       </c>
-      <c r="C621" s="14" t="s">
+      <c r="C621" s="9" t="s">
         <v>2040</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="9" t="s">
+      <c r="A622" s="14" t="s">
         <v>2041</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="14" t="s">
         <v>2042</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="C622" s="14" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="9" t="s">
+      <c r="A623" s="14" t="s">
         <v>2044</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" s="14" t="s">
         <v>2045</v>
       </c>
-      <c r="C623" s="9" t="s">
+      <c r="C623" s="14" t="s">
         <v>2046</v>
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="9" t="s">
+      <c r="A624" s="14" t="s">
         <v>2047</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="14" t="s">
         <v>2048</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="C624" s="14" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="14" t="s">
+      <c r="A625" s="9" t="s">
         <v>2050</v>
       </c>
-      <c r="B625" s="14" t="s">
+      <c r="B625" s="9" t="s">
         <v>2051</v>
       </c>
-      <c r="C625" s="14" t="s">
+      <c r="C625" s="9" t="s">
         <v>2052</v>
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="14" t="s">
+      <c r="A626" s="9" t="s">
         <v>2053</v>
       </c>
-      <c r="B626" s="14" t="s">
+      <c r="B626" s="9" t="s">
         <v>2054</v>
       </c>
-      <c r="C626" s="14" t="s">
+      <c r="C626" s="9" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="14" t="s">
+      <c r="A627" s="9" t="s">
         <v>2056</v>
       </c>
-      <c r="B627" s="14" t="s">
+      <c r="B627" s="9" t="s">
         <v>2057</v>
       </c>
-      <c r="C627" s="14" t="s">
+      <c r="C627" s="9" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="9" t="s">
+      <c r="A628" s="14" t="s">
         <v>2059</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="14" t="s">
         <v>2060</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C628" s="14" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -28987,13 +29059,13 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="14" t="s">
+      <c r="A631" s="9" t="s">
         <v>2068</v>
       </c>
-      <c r="B631" s="14" t="s">
+      <c r="B631" s="9" t="s">
         <v>2069</v>
       </c>
-      <c r="C631" s="14" t="s">
+      <c r="C631" s="9" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -29031,46 +29103,46 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="14" t="s">
+      <c r="A635" s="9" t="s">
         <v>2080</v>
       </c>
-      <c r="B635" s="14" t="s">
+      <c r="B635" s="9" t="s">
         <v>2081</v>
       </c>
-      <c r="C635" s="14" t="s">
+      <c r="C635" s="9" t="s">
         <v>2082</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="14" t="s">
+      <c r="A636" s="9" t="s">
         <v>2083</v>
       </c>
-      <c r="B636" s="14" t="s">
+      <c r="B636" s="9" t="s">
         <v>2084</v>
       </c>
-      <c r="C636" s="14" t="s">
+      <c r="C636" s="9" t="s">
         <v>2085</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="14" t="s">
+      <c r="A637" s="9" t="s">
         <v>2086</v>
       </c>
-      <c r="B637" s="14" t="s">
+      <c r="B637" s="9" t="s">
         <v>2087</v>
       </c>
-      <c r="C637" s="14" t="s">
+      <c r="C637" s="9" t="s">
         <v>2088</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="9" t="s">
+      <c r="A638" s="14" t="s">
         <v>2089</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="14" t="s">
         <v>2090</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="14" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -29097,35 +29169,35 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="9" t="s">
+      <c r="A641" s="14" t="s">
         <v>2098</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="14" t="s">
         <v>2099</v>
       </c>
-      <c r="C641" s="9" t="s">
+      <c r="C641" s="14" t="s">
         <v>2100</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="14" t="s">
         <v>2101</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="14" t="s">
         <v>2102</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="14" t="s">
         <v>2103</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="9" t="s">
+      <c r="A643" s="14" t="s">
         <v>2104</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="C643" s="9" t="s">
+      <c r="C643" s="14" t="s">
         <v>2106</v>
       </c>
     </row>
@@ -29141,24 +29213,24 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="14" t="s">
+      <c r="A645" s="9" t="s">
         <v>2110</v>
       </c>
-      <c r="B645" s="14" t="s">
+      <c r="B645" s="9" t="s">
         <v>2111</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="9" t="s">
         <v>2112</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2113</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -29174,13 +29246,13 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="14" t="s">
+      <c r="A648" s="9" t="s">
         <v>2119</v>
       </c>
-      <c r="B648" s="14" t="s">
+      <c r="B648" s="9" t="s">
         <v>2120</v>
       </c>
-      <c r="C648" s="14" t="s">
+      <c r="C648" s="9" t="s">
         <v>2121</v>
       </c>
     </row>
@@ -29207,43 +29279,43 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="9" t="s">
+      <c r="A651" s="14" t="s">
         <v>2128</v>
       </c>
-      <c r="B651" s="9" t="s">
+      <c r="B651" s="14" t="s">
         <v>2129</v>
       </c>
-      <c r="C651" s="9" t="s">
+      <c r="C651" s="14" t="s">
         <v>2130</v>
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="9" t="s">
+      <c r="A652" s="14" t="s">
         <v>2131</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="14" t="s">
         <v>2132</v>
       </c>
-      <c r="C652" s="9" t="s">
+      <c r="C652" s="14" t="s">
         <v>2133</v>
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="14" t="s">
+      <c r="A653" s="9" t="s">
         <v>2134</v>
       </c>
-      <c r="B653" s="14" t="s">
+      <c r="B653" s="9" t="s">
         <v>2135</v>
       </c>
-      <c r="C653" s="14" t="s">
+      <c r="C653" s="9" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="14" t="s">
         <v>2137</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="14" t="s">
         <v>2138</v>
       </c>
       <c r="C654" s="14" t="s">
@@ -29262,24 +29334,24 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="14" t="s">
+      <c r="A656" s="9" t="s">
         <v>2143</v>
       </c>
-      <c r="B656" s="14" t="s">
+      <c r="B656" s="9" t="s">
         <v>2144</v>
       </c>
-      <c r="C656" s="14" t="s">
+      <c r="C656" s="9" t="s">
         <v>2145</v>
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="14" t="s">
+      <c r="A657" s="9" t="s">
         <v>2146</v>
       </c>
-      <c r="B657" s="14" t="s">
+      <c r="B657" s="9" t="s">
         <v>2147</v>
       </c>
-      <c r="C657" s="14" t="s">
+      <c r="C657" s="9" t="s">
         <v>2148</v>
       </c>
     </row>
@@ -29295,13 +29367,13 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="14" t="s">
+      <c r="A659" s="9" t="s">
         <v>2152</v>
       </c>
-      <c r="B659" s="14" t="s">
+      <c r="B659" s="9" t="s">
         <v>2153</v>
       </c>
-      <c r="C659" s="14" t="s">
+      <c r="C659" s="9" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -29323,7 +29395,7 @@
       <c r="B661" s="9" t="s">
         <v>2159</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="14" t="s">
         <v>2160</v>
       </c>
     </row>
@@ -29339,24 +29411,24 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="9" t="s">
+      <c r="A663" s="14" t="s">
         <v>2164</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="14" t="s">
         <v>2165</v>
       </c>
-      <c r="C663" s="9" t="s">
+      <c r="C663" s="14" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="9" t="s">
+      <c r="A664" s="14" t="s">
         <v>2167</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="14" t="s">
         <v>2168</v>
       </c>
-      <c r="C664" s="9" t="s">
+      <c r="C664" s="14" t="s">
         <v>2169</v>
       </c>
     </row>
@@ -29372,57 +29444,57 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="9" t="s">
+      <c r="A666" s="14" t="s">
         <v>2173</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="14" t="s">
         <v>2174</v>
       </c>
-      <c r="C666" s="9" t="s">
+      <c r="C666" s="14" t="s">
         <v>2175</v>
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="9" t="s">
+      <c r="A667" s="14" t="s">
         <v>2176</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="14" t="s">
         <v>2177</v>
       </c>
-      <c r="C667" s="9" t="s">
+      <c r="C667" s="14" t="s">
         <v>2178</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="19" t="s">
+      <c r="A668" s="9" t="s">
         <v>2179</v>
       </c>
-      <c r="B668" s="19" t="s">
+      <c r="B668" s="9" t="s">
         <v>2180</v>
       </c>
-      <c r="C668" s="10" t="s">
+      <c r="C668" s="9" t="s">
         <v>2181</v>
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="14" t="s">
         <v>2182</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="14" t="s">
         <v>2183</v>
       </c>
-      <c r="C669" s="9" t="s">
+      <c r="C669" s="14" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="14" t="s">
+      <c r="A670" s="9" t="s">
         <v>2185</v>
       </c>
-      <c r="B670" s="14" t="s">
+      <c r="B670" s="9" t="s">
         <v>2186</v>
       </c>
-      <c r="C670" s="14" t="s">
+      <c r="C670" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
@@ -29438,90 +29510,90 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="14" t="s">
+      <c r="A672" s="9" t="s">
         <v>2191</v>
       </c>
-      <c r="B672" s="14" t="s">
+      <c r="B672" s="9" t="s">
         <v>2192</v>
       </c>
-      <c r="C672" s="14" t="s">
+      <c r="C672" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="14" t="s">
+      <c r="A673" s="9" t="s">
         <v>2194</v>
       </c>
-      <c r="B673" s="14" t="s">
+      <c r="B673" s="9" t="s">
         <v>2195</v>
       </c>
-      <c r="C673" s="14" t="s">
+      <c r="C673" s="9" t="s">
         <v>2196</v>
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="14" t="s">
+      <c r="A674" s="9" t="s">
         <v>2197</v>
       </c>
-      <c r="B674" s="14" t="s">
+      <c r="B674" s="9" t="s">
         <v>2198</v>
       </c>
-      <c r="C674" s="14" t="s">
+      <c r="C674" s="9" t="s">
         <v>2199</v>
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="9" t="s">
+      <c r="A675" s="19" t="s">
         <v>2200</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="19" t="s">
         <v>2201</v>
       </c>
-      <c r="C675" s="9" t="s">
+      <c r="C675" s="10" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="14" t="s">
+      <c r="A676" s="9" t="s">
         <v>2203</v>
       </c>
-      <c r="B676" s="14" t="s">
+      <c r="B676" s="9" t="s">
         <v>2204</v>
       </c>
-      <c r="C676" s="14" t="s">
+      <c r="C676" s="9" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="9" t="s">
+      <c r="A677" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="14" t="s">
         <v>2208</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="14" t="s">
+      <c r="A678" s="9" t="s">
         <v>2209</v>
       </c>
-      <c r="B678" s="14" t="s">
+      <c r="B678" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="9" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="9" t="s">
+      <c r="A679" s="14" t="s">
         <v>2212</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="C679" s="9" t="s">
+      <c r="C679" s="14" t="s">
         <v>2214</v>
       </c>
     </row>
@@ -29537,13 +29609,13 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="9" t="s">
+      <c r="A681" s="14" t="s">
         <v>2218</v>
       </c>
-      <c r="B681" s="9" t="s">
+      <c r="B681" s="14" t="s">
         <v>2219</v>
       </c>
-      <c r="C681" s="9" t="s">
+      <c r="C681" s="14" t="s">
         <v>2220</v>
       </c>
     </row>
@@ -29559,24 +29631,24 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2224</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="14" t="s">
+      <c r="A684" s="9" t="s">
         <v>2227</v>
       </c>
-      <c r="B684" s="14" t="s">
+      <c r="B684" s="9" t="s">
         <v>2228</v>
       </c>
-      <c r="C684" s="14" t="s">
+      <c r="C684" s="9" t="s">
         <v>2229</v>
       </c>
     </row>
@@ -29592,13 +29664,13 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="9" t="s">
         <v>2233</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2234</v>
       </c>
-      <c r="C686" s="14" t="s">
+      <c r="C686" s="9" t="s">
         <v>2235</v>
       </c>
     </row>
@@ -29647,24 +29719,24 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="9" t="s">
+      <c r="A691" s="14" t="s">
         <v>2248</v>
       </c>
-      <c r="B691" s="9" t="s">
+      <c r="B691" s="14" t="s">
         <v>2249</v>
       </c>
-      <c r="C691" s="9" t="s">
+      <c r="C691" s="14" t="s">
         <v>2250</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="14" t="s">
         <v>2251</v>
       </c>
       <c r="B692" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="C692" s="9" t="s">
+      <c r="C692" s="14" t="s">
         <v>2253</v>
       </c>
     </row>
@@ -29735,10 +29807,10 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="19" t="s">
+      <c r="A699" s="9" t="s">
         <v>2272</v>
       </c>
-      <c r="B699" s="19" t="s">
+      <c r="B699" s="14" t="s">
         <v>2273</v>
       </c>
       <c r="C699" s="9" t="s">
@@ -29746,24 +29818,24 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="9" t="s">
+      <c r="A700" s="14" t="s">
         <v>2275</v>
       </c>
-      <c r="B700" s="9" t="s">
+      <c r="B700" s="14" t="s">
         <v>2276</v>
       </c>
-      <c r="C700" s="9" t="s">
+      <c r="C700" s="14" t="s">
         <v>2277</v>
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="9" t="s">
+      <c r="A701" s="14" t="s">
         <v>2278</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="C701" s="9" t="s">
+      <c r="C701" s="14" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -29790,46 +29862,46 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="14" t="s">
+      <c r="A704" s="9" t="s">
         <v>2287</v>
       </c>
-      <c r="B704" s="14" t="s">
+      <c r="B704" s="9" t="s">
         <v>2288</v>
       </c>
-      <c r="C704" s="14" t="s">
+      <c r="C704" s="9" t="s">
         <v>2289</v>
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="14" t="s">
+      <c r="A705" s="9" t="s">
         <v>2290</v>
       </c>
-      <c r="B705" s="14" t="s">
+      <c r="B705" s="9" t="s">
         <v>2291</v>
       </c>
-      <c r="C705" s="14" t="s">
+      <c r="C705" s="9" t="s">
         <v>2292</v>
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="14" t="s">
+      <c r="A706" s="19" t="s">
         <v>2293</v>
       </c>
-      <c r="B706" s="14" t="s">
+      <c r="B706" s="19" t="s">
         <v>2294</v>
       </c>
-      <c r="C706" s="14" t="s">
+      <c r="C706" s="9" t="s">
         <v>2295</v>
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="14" t="s">
+      <c r="A707" s="9" t="s">
         <v>2296</v>
       </c>
-      <c r="B707" s="14" t="s">
+      <c r="B707" s="9" t="s">
         <v>2297</v>
       </c>
-      <c r="C707" s="14" t="s">
+      <c r="C707" s="9" t="s">
         <v>2298</v>
       </c>
     </row>
@@ -29845,13 +29917,13 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="14" t="s">
+      <c r="A709" s="9" t="s">
         <v>2302</v>
       </c>
-      <c r="B709" s="14" t="s">
+      <c r="B709" s="9" t="s">
         <v>2303</v>
       </c>
-      <c r="C709" s="14" t="s">
+      <c r="C709" s="9" t="s">
         <v>2304</v>
       </c>
     </row>
@@ -29867,24 +29939,24 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="9" t="s">
+      <c r="A711" s="14" t="s">
         <v>2308</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="14" t="s">
         <v>2309</v>
       </c>
-      <c r="C711" s="9" t="s">
+      <c r="C711" s="14" t="s">
         <v>2310</v>
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="9" t="s">
+      <c r="A712" s="14" t="s">
         <v>2311</v>
       </c>
-      <c r="B712" s="9" t="s">
+      <c r="B712" s="14" t="s">
         <v>2312</v>
       </c>
-      <c r="C712" s="9" t="s">
+      <c r="C712" s="14" t="s">
         <v>2313</v>
       </c>
     </row>
@@ -29900,46 +29972,46 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="9" t="s">
+      <c r="A714" s="14" t="s">
         <v>2317</v>
       </c>
-      <c r="B714" s="9" t="s">
+      <c r="B714" s="14" t="s">
         <v>2318</v>
       </c>
-      <c r="C714" s="9" t="s">
+      <c r="C714" s="14" t="s">
         <v>2319</v>
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="14" t="s">
+      <c r="A715" s="9" t="s">
         <v>2320</v>
       </c>
-      <c r="B715" s="14" t="s">
+      <c r="B715" s="9" t="s">
         <v>2321</v>
       </c>
-      <c r="C715" s="14" t="s">
+      <c r="C715" s="9" t="s">
         <v>2322</v>
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="14" t="s">
         <v>2323</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="14" t="s">
         <v>2324</v>
       </c>
-      <c r="C716" s="9" t="s">
+      <c r="C716" s="14" t="s">
         <v>2325</v>
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="14" t="s">
+      <c r="A717" s="9" t="s">
         <v>2326</v>
       </c>
-      <c r="B717" s="14" t="s">
+      <c r="B717" s="9" t="s">
         <v>2327</v>
       </c>
-      <c r="C717" s="14" t="s">
+      <c r="C717" s="9" t="s">
         <v>2328</v>
       </c>
     </row>
@@ -29955,13 +30027,13 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="14" t="s">
+      <c r="A719" s="9" t="s">
         <v>2332</v>
       </c>
-      <c r="B719" s="14" t="s">
+      <c r="B719" s="9" t="s">
         <v>2333</v>
       </c>
-      <c r="C719" s="14" t="s">
+      <c r="C719" s="9" t="s">
         <v>2334</v>
       </c>
     </row>
@@ -29988,13 +30060,13 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="9" t="s">
+      <c r="A722" s="14" t="s">
         <v>2341</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="14" t="s">
         <v>2342</v>
       </c>
-      <c r="C722" s="9" t="s">
+      <c r="C722" s="14" t="s">
         <v>2343</v>
       </c>
     </row>
@@ -30054,57 +30126,57 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="14" t="s">
+      <c r="A728" s="9" t="s">
         <v>2359</v>
       </c>
-      <c r="B728" s="14" t="s">
+      <c r="B728" s="9" t="s">
         <v>2360</v>
       </c>
-      <c r="C728" s="14" t="s">
+      <c r="C728" s="9" t="s">
         <v>2361</v>
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="14" t="s">
+      <c r="A729" s="9" t="s">
         <v>2362</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="9" t="s">
         <v>2363</v>
       </c>
-      <c r="C729" s="14" t="s">
+      <c r="C729" s="9" t="s">
         <v>2364</v>
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="14" t="s">
+      <c r="A730" s="9" t="s">
         <v>2365</v>
       </c>
-      <c r="B730" s="14" t="s">
+      <c r="B730" s="9" t="s">
         <v>2366</v>
       </c>
-      <c r="C730" s="14" t="s">
+      <c r="C730" s="9" t="s">
         <v>2367</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="9" t="s">
+      <c r="A731" s="14" t="s">
         <v>2368</v>
       </c>
-      <c r="B731" s="9" t="s">
+      <c r="B731" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="C731" s="9" t="s">
+      <c r="C731" s="14" t="s">
         <v>2370</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="14" t="s">
+      <c r="A732" s="9" t="s">
         <v>2371</v>
       </c>
-      <c r="B732" s="14" t="s">
+      <c r="B732" s="9" t="s">
         <v>2372</v>
       </c>
-      <c r="C732" s="14" t="s">
+      <c r="C732" s="9" t="s">
         <v>2373</v>
       </c>
     </row>
@@ -30120,35 +30192,35 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="9" t="s">
+      <c r="A734" s="14" t="s">
         <v>2377</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="14" t="s">
         <v>2378</v>
       </c>
-      <c r="C734" s="9" t="s">
+      <c r="C734" s="14" t="s">
         <v>2379</v>
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="9" t="s">
+      <c r="A735" s="14" t="s">
         <v>2380</v>
       </c>
-      <c r="B735" s="9" t="s">
+      <c r="B735" s="14" t="s">
         <v>2381</v>
       </c>
-      <c r="C735" s="9" t="s">
+      <c r="C735" s="14" t="s">
         <v>2382</v>
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="9" t="s">
+      <c r="A736" s="14" t="s">
         <v>2383</v>
       </c>
-      <c r="B736" s="9" t="s">
+      <c r="B736" s="14" t="s">
         <v>2384</v>
       </c>
-      <c r="C736" s="9" t="s">
+      <c r="C736" s="14" t="s">
         <v>2385</v>
       </c>
     </row>
@@ -30175,57 +30247,57 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="9" t="s">
+      <c r="A739" s="14" t="s">
         <v>2392</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2394</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="9" t="s">
+      <c r="A740" s="14" t="s">
         <v>2395</v>
       </c>
-      <c r="B740" s="9" t="s">
+      <c r="B740" s="14" t="s">
         <v>2396</v>
       </c>
-      <c r="C740" s="9" t="s">
+      <c r="C740" s="14" t="s">
         <v>2397</v>
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="14" t="s">
+      <c r="A741" s="9" t="s">
         <v>2398</v>
       </c>
-      <c r="B741" s="14" t="s">
+      <c r="B741" s="9" t="s">
         <v>2399</v>
       </c>
-      <c r="C741" s="14" t="s">
+      <c r="C741" s="9" t="s">
         <v>2400</v>
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="14" t="s">
+      <c r="A742" s="9" t="s">
         <v>2401</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2402</v>
       </c>
-      <c r="C742" s="14" t="s">
+      <c r="C742" s="9" t="s">
         <v>2403</v>
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="14" t="s">
+      <c r="A743" s="9" t="s">
         <v>2404</v>
       </c>
-      <c r="B743" s="14" t="s">
+      <c r="B743" s="9" t="s">
         <v>2405</v>
       </c>
-      <c r="C743" s="14" t="s">
+      <c r="C743" s="9" t="s">
         <v>2406</v>
       </c>
     </row>
@@ -30241,134 +30313,134 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="14" t="s">
+      <c r="A745" s="9" t="s">
         <v>2410</v>
       </c>
-      <c r="B745" s="14" t="s">
+      <c r="B745" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="C745" s="14" t="s">
+      <c r="C745" s="9" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2413</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="14" t="s">
         <v>2414</v>
       </c>
-      <c r="C746" s="9" t="s">
+      <c r="C746" s="14" t="s">
         <v>2415</v>
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="14" t="s">
+      <c r="A747" s="9" t="s">
         <v>2416</v>
       </c>
-      <c r="B747" s="14" t="s">
+      <c r="B747" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="C747" s="14" t="s">
+      <c r="C747" s="9" t="s">
         <v>2418</v>
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="14" t="s">
+      <c r="A748" s="9" t="s">
         <v>2419</v>
       </c>
-      <c r="B748" s="14" t="s">
+      <c r="B748" s="9" t="s">
         <v>2420</v>
       </c>
-      <c r="C748" s="14" t="s">
+      <c r="C748" s="9" t="s">
         <v>2421</v>
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="9" t="s">
+      <c r="A749" s="14" t="s">
         <v>2422</v>
       </c>
-      <c r="B749" s="9" t="s">
+      <c r="B749" s="14" t="s">
         <v>2423</v>
       </c>
-      <c r="C749" s="9" t="s">
+      <c r="C749" s="14" t="s">
         <v>2424</v>
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="14" t="s">
         <v>2425</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="14" t="s">
         <v>2426</v>
       </c>
-      <c r="C750" s="9" t="s">
+      <c r="C750" s="14" t="s">
         <v>2427</v>
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="9" t="s">
+      <c r="A751" s="14" t="s">
         <v>2428</v>
       </c>
-      <c r="B751" s="9" t="s">
+      <c r="B751" s="14" t="s">
         <v>2429</v>
       </c>
-      <c r="C751" s="9" t="s">
+      <c r="C751" s="14" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="9" t="s">
+      <c r="A752" s="14" t="s">
         <v>2431</v>
       </c>
-      <c r="B752" s="9" t="s">
+      <c r="B752" s="14" t="s">
         <v>2432</v>
       </c>
-      <c r="C752" s="9" t="s">
+      <c r="C752" s="14" t="s">
         <v>2433</v>
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="9" t="s">
+      <c r="A753" s="14" t="s">
         <v>2434</v>
       </c>
-      <c r="B753" s="9" t="s">
+      <c r="B753" s="14" t="s">
         <v>2435</v>
       </c>
-      <c r="C753" s="9" t="s">
+      <c r="C753" s="14" t="s">
         <v>2436</v>
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="14" t="s">
+      <c r="A754" s="9" t="s">
         <v>2437</v>
       </c>
-      <c r="B754" s="14" t="s">
+      <c r="B754" s="9" t="s">
         <v>2438</v>
       </c>
-      <c r="C754" s="14" t="s">
+      <c r="C754" s="9" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="9" t="s">
+      <c r="A755" s="14" t="s">
         <v>2440</v>
       </c>
-      <c r="B755" s="9" t="s">
+      <c r="B755" s="14" t="s">
         <v>2441</v>
       </c>
-      <c r="C755" s="9" t="s">
+      <c r="C755" s="14" t="s">
         <v>2442</v>
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="9" t="s">
+      <c r="A756" s="14" t="s">
         <v>2443</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="14" t="s">
         <v>2444</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2445</v>
       </c>
     </row>
@@ -30395,35 +30467,35 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="14" t="s">
+      <c r="A759" s="9" t="s">
         <v>2452</v>
       </c>
-      <c r="B759" s="14" t="s">
+      <c r="B759" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="C759" s="14" t="s">
+      <c r="C759" s="9" t="s">
         <v>2454</v>
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="14" t="s">
+      <c r="A760" s="9" t="s">
         <v>2455</v>
       </c>
-      <c r="B760" s="14" t="s">
+      <c r="B760" s="9" t="s">
         <v>2456</v>
       </c>
-      <c r="C760" s="14" t="s">
+      <c r="C760" s="9" t="s">
         <v>2457</v>
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="14" t="s">
+      <c r="A761" s="9" t="s">
         <v>2458</v>
       </c>
-      <c r="B761" s="14" t="s">
+      <c r="B761" s="9" t="s">
         <v>2459</v>
       </c>
-      <c r="C761" s="14" t="s">
+      <c r="C761" s="9" t="s">
         <v>2460</v>
       </c>
     </row>
@@ -30472,13 +30544,13 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="14" t="s">
+      <c r="A766" s="9" t="s">
         <v>2473</v>
       </c>
-      <c r="B766" s="14" t="s">
+      <c r="B766" s="9" t="s">
         <v>2474</v>
       </c>
-      <c r="C766" s="14" t="s">
+      <c r="C766" s="9" t="s">
         <v>2475</v>
       </c>
     </row>
@@ -30516,10 +30588,10 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="9" t="s">
+      <c r="A770" s="14" t="s">
         <v>2485</v>
       </c>
-      <c r="B770" s="9" t="s">
+      <c r="B770" s="14" t="s">
         <v>2486</v>
       </c>
       <c r="C770" s="14" t="s">
@@ -30538,21 +30610,21 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="14" t="s">
+      <c r="A772" s="9" t="s">
         <v>2491</v>
       </c>
-      <c r="B772" s="14" t="s">
+      <c r="B772" s="9" t="s">
         <v>2492</v>
       </c>
-      <c r="C772" s="14" t="s">
+      <c r="C772" s="9" t="s">
         <v>2493</v>
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="14" t="s">
+      <c r="A773" s="9" t="s">
         <v>2494</v>
       </c>
-      <c r="B773" s="14" t="s">
+      <c r="B773" s="9" t="s">
         <v>2495</v>
       </c>
       <c r="C773" s="9" t="s">
@@ -30566,7 +30638,7 @@
       <c r="B774" s="14" t="s">
         <v>2498</v>
       </c>
-      <c r="C774" s="9" t="s">
+      <c r="C774" s="14" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -30582,24 +30654,24 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="9" t="s">
+      <c r="A776" s="14" t="s">
         <v>2503</v>
       </c>
-      <c r="B776" s="9" t="s">
+      <c r="B776" s="14" t="s">
         <v>2504</v>
       </c>
-      <c r="C776" s="9" t="s">
+      <c r="C776" s="14" t="s">
         <v>2505</v>
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="9" t="s">
+      <c r="A777" s="14" t="s">
         <v>2506</v>
       </c>
       <c r="B777" s="14" t="s">
         <v>2507</v>
       </c>
-      <c r="C777" s="9" t="s">
+      <c r="C777" s="14" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -30610,7 +30682,7 @@
       <c r="B778" s="9" t="s">
         <v>2510</v>
       </c>
-      <c r="C778" s="9" t="s">
+      <c r="C778" s="14" t="s">
         <v>2511</v>
       </c>
     </row>
@@ -30626,24 +30698,24 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="9" t="s">
+      <c r="A780" s="14" t="s">
         <v>2515</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="B780" s="14" t="s">
         <v>2516</v>
       </c>
-      <c r="C780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2517</v>
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="9" t="s">
+      <c r="A781" s="14" t="s">
         <v>2518</v>
       </c>
-      <c r="B781" s="9" t="s">
+      <c r="B781" s="14" t="s">
         <v>2519</v>
       </c>
-      <c r="C781" s="14" t="s">
+      <c r="C781" s="9" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -30654,7 +30726,7 @@
       <c r="B782" s="14" t="s">
         <v>2522</v>
       </c>
-      <c r="C782" s="14" t="s">
+      <c r="C782" s="9" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -30681,13 +30753,13 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="14" t="s">
+      <c r="A785" s="9" t="s">
         <v>2530</v>
       </c>
       <c r="B785" s="14" t="s">
         <v>2531</v>
       </c>
-      <c r="C785" s="14" t="s">
+      <c r="C785" s="9" t="s">
         <v>2532</v>
       </c>
     </row>
@@ -30698,15 +30770,15 @@
       <c r="B786" s="9" t="s">
         <v>2534</v>
       </c>
-      <c r="C786" s="14" t="s">
+      <c r="C786" s="9" t="s">
         <v>2535</v>
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="14" t="s">
+      <c r="A787" s="9" t="s">
         <v>2536</v>
       </c>
-      <c r="B787" s="14" t="s">
+      <c r="B787" s="9" t="s">
         <v>2537</v>
       </c>
       <c r="C787" s="9" t="s">
@@ -30718,95 +30790,95 @@
         <v>2539</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>2399</v>
-      </c>
-      <c r="C788" s="9" t="s">
         <v>2540</v>
       </c>
+      <c r="C788" s="14" t="s">
+        <v>2541</v>
+      </c>
     </row>
     <row r="789">
-      <c r="A789" s="9" t="s">
-        <v>2541</v>
-      </c>
-      <c r="B789" s="9" t="s">
+      <c r="A789" s="14" t="s">
         <v>2542</v>
       </c>
-      <c r="C789" s="9" t="s">
+      <c r="B789" s="14" t="s">
         <v>2543</v>
       </c>
+      <c r="C789" s="14" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="790">
-      <c r="A790" s="9" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B790" s="9" t="s">
+      <c r="A790" s="14" t="s">
         <v>2545</v>
       </c>
-      <c r="C790" s="9" t="s">
+      <c r="B790" s="14" t="s">
         <v>2546</v>
+      </c>
+      <c r="C790" s="14" t="s">
+        <v>2547</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="9" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C791" s="9" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="9" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C792" s="14" t="s">
         <v>2552</v>
+      </c>
+      <c r="C792" s="9" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="14" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="B793" s="14" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C793" s="14" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="14" t="s">
-        <v>2556</v>
+      <c r="A794" s="9" t="s">
+        <v>2557</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>2557</v>
-      </c>
-      <c r="C794" s="9" t="s">
         <v>2558</v>
+      </c>
+      <c r="C794" s="14" t="s">
+        <v>2559</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="14" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B795" s="14" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C795" s="9" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="9" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>2563</v>
+        <v>2423</v>
       </c>
       <c r="C796" s="9" t="s">
         <v>2564</v>
@@ -30819,7 +30891,7 @@
       <c r="B797" s="9" t="s">
         <v>2566</v>
       </c>
-      <c r="C797" s="14" t="s">
+      <c r="C797" s="9" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -30835,13 +30907,13 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="14" t="s">
+      <c r="A799" s="9" t="s">
         <v>2571</v>
       </c>
-      <c r="B799" s="14" t="s">
+      <c r="B799" s="9" t="s">
         <v>2572</v>
       </c>
-      <c r="C799" s="14" t="s">
+      <c r="C799" s="9" t="s">
         <v>2573</v>
       </c>
     </row>
@@ -30852,18 +30924,18 @@
       <c r="B800" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="C800" s="9" t="s">
+      <c r="C800" s="14" t="s">
         <v>2576</v>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="9" t="s">
+      <c r="A801" s="14" t="s">
         <v>2577</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="B801" s="14" t="s">
         <v>2578</v>
       </c>
-      <c r="C801" s="9" t="s">
+      <c r="C801" s="14" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -30871,7 +30943,7 @@
       <c r="A802" s="14" t="s">
         <v>2580</v>
       </c>
-      <c r="B802" s="14" t="s">
+      <c r="B802" s="9" t="s">
         <v>2581</v>
       </c>
       <c r="C802" s="9" t="s">
@@ -30879,10 +30951,10 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="9" t="s">
+      <c r="A803" s="14" t="s">
         <v>2583</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="14" t="s">
         <v>2584</v>
       </c>
       <c r="C803" s="9" t="s">
@@ -30907,7 +30979,7 @@
       <c r="B805" s="9" t="s">
         <v>2590</v>
       </c>
-      <c r="C805" s="9" t="s">
+      <c r="C805" s="14" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -30945,35 +31017,35 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="14" t="s">
+      <c r="A809" s="9" t="s">
         <v>2601</v>
       </c>
-      <c r="B809" s="14" t="s">
+      <c r="B809" s="9" t="s">
         <v>2602</v>
       </c>
-      <c r="C809" s="14" t="s">
+      <c r="C809" s="9" t="s">
         <v>2603</v>
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="9" t="s">
+      <c r="A810" s="14" t="s">
         <v>2604</v>
       </c>
-      <c r="B810" s="9" t="s">
+      <c r="B810" s="14" t="s">
         <v>2605</v>
       </c>
-      <c r="C810" s="14" t="s">
+      <c r="C810" s="9" t="s">
         <v>2606</v>
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="14" t="s">
+      <c r="A811" s="9" t="s">
         <v>2607</v>
       </c>
-      <c r="B811" s="14" t="s">
+      <c r="B811" s="9" t="s">
         <v>2608</v>
       </c>
-      <c r="C811" s="14" t="s">
+      <c r="C811" s="9" t="s">
         <v>2609</v>
       </c>
     </row>
@@ -30984,26 +31056,26 @@
       <c r="B812" s="9" t="s">
         <v>2611</v>
       </c>
-      <c r="C812" s="14" t="s">
+      <c r="C812" s="9" t="s">
         <v>2612</v>
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="14" t="s">
+      <c r="A813" s="9" t="s">
         <v>2613</v>
       </c>
-      <c r="B813" s="14" t="s">
+      <c r="B813" s="9" t="s">
         <v>2614</v>
       </c>
-      <c r="C813" s="14" t="s">
+      <c r="C813" s="9" t="s">
         <v>2615</v>
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="14" t="s">
+      <c r="A814" s="9" t="s">
         <v>2616</v>
       </c>
-      <c r="B814" s="14" t="s">
+      <c r="B814" s="9" t="s">
         <v>2617</v>
       </c>
       <c r="C814" s="9" t="s">
@@ -31044,10 +31116,10 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="14" t="s">
+      <c r="A818" s="9" t="s">
         <v>2628</v>
       </c>
-      <c r="B818" s="14" t="s">
+      <c r="B818" s="9" t="s">
         <v>2629</v>
       </c>
       <c r="C818" s="14" t="s">
@@ -31066,10 +31138,10 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="14" t="s">
+      <c r="A820" s="9" t="s">
         <v>2634</v>
       </c>
-      <c r="B820" s="14" t="s">
+      <c r="B820" s="9" t="s">
         <v>2635</v>
       </c>
       <c r="C820" s="14" t="s">
@@ -31094,7 +31166,7 @@
       <c r="B822" s="14" t="s">
         <v>2641</v>
       </c>
-      <c r="C822" s="14" t="s">
+      <c r="C822" s="9" t="s">
         <v>2642</v>
       </c>
     </row>
@@ -31105,12 +31177,12 @@
       <c r="B823" s="14" t="s">
         <v>2644</v>
       </c>
-      <c r="C823" s="9" t="s">
+      <c r="C823" s="14" t="s">
         <v>2645</v>
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="14" t="s">
+      <c r="A824" s="9" t="s">
         <v>2646</v>
       </c>
       <c r="B824" s="9" t="s">
@@ -31127,15 +31199,15 @@
       <c r="B825" s="14" t="s">
         <v>2650</v>
       </c>
-      <c r="C825" s="9" t="s">
+      <c r="C825" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="9" t="s">
+      <c r="A826" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="B826" s="9" t="s">
+      <c r="B826" s="14" t="s">
         <v>2653</v>
       </c>
       <c r="C826" s="14" t="s">
@@ -31143,13 +31215,13 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="9" t="s">
+      <c r="A827" s="14" t="s">
         <v>2655</v>
       </c>
-      <c r="B827" s="9" t="s">
+      <c r="B827" s="14" t="s">
         <v>2656</v>
       </c>
-      <c r="C827" s="9" t="s">
+      <c r="C827" s="14" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -31165,10 +31237,10 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="9" t="s">
+      <c r="A829" s="14" t="s">
         <v>2661</v>
       </c>
-      <c r="B829" s="9" t="s">
+      <c r="B829" s="14" t="s">
         <v>2662</v>
       </c>
       <c r="C829" s="14" t="s">
@@ -31182,7 +31254,7 @@
       <c r="B830" s="14" t="s">
         <v>2665</v>
       </c>
-      <c r="C830" s="9" t="s">
+      <c r="C830" s="14" t="s">
         <v>2666</v>
       </c>
     </row>
@@ -31193,12 +31265,12 @@
       <c r="B831" s="14" t="s">
         <v>2668</v>
       </c>
-      <c r="C831" s="14" t="s">
+      <c r="C831" s="9" t="s">
         <v>2669</v>
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="9" t="s">
+      <c r="A832" s="14" t="s">
         <v>2670</v>
       </c>
       <c r="B832" s="9" t="s">
@@ -31226,7 +31298,7 @@
       <c r="B834" s="9" t="s">
         <v>2677</v>
       </c>
-      <c r="C834" s="9" t="s">
+      <c r="C834" s="14" t="s">
         <v>2678</v>
       </c>
     </row>
@@ -31242,10 +31314,10 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="9" t="s">
+      <c r="A836" s="14" t="s">
         <v>2682</v>
       </c>
-      <c r="B836" s="9" t="s">
+      <c r="B836" s="14" t="s">
         <v>2683</v>
       </c>
       <c r="C836" s="14" t="s">
@@ -31259,15 +31331,15 @@
       <c r="B837" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="C837" s="9" t="s">
+      <c r="C837" s="14" t="s">
         <v>2687</v>
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="9" t="s">
+      <c r="A838" s="14" t="s">
         <v>2688</v>
       </c>
-      <c r="B838" s="9" t="s">
+      <c r="B838" s="14" t="s">
         <v>2689</v>
       </c>
       <c r="C838" s="9" t="s">
@@ -31275,10 +31347,10 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="9" t="s">
+      <c r="A839" s="14" t="s">
         <v>2691</v>
       </c>
-      <c r="B839" s="9" t="s">
+      <c r="B839" s="14" t="s">
         <v>2692</v>
       </c>
       <c r="C839" s="14" t="s">
@@ -31286,13 +31358,13 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="14" t="s">
+      <c r="A840" s="9" t="s">
         <v>2694</v>
       </c>
-      <c r="B840" s="14" t="s">
+      <c r="B840" s="9" t="s">
         <v>2695</v>
       </c>
-      <c r="C840" s="14" t="s">
+      <c r="C840" s="9" t="s">
         <v>2696</v>
       </c>
     </row>
@@ -31303,114 +31375,114 @@
       <c r="B841" s="14" t="s">
         <v>2698</v>
       </c>
-      <c r="C841" s="14" t="s">
+      <c r="C841" s="9" t="s">
         <v>2699</v>
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="14" t="s">
+      <c r="A842" s="9" t="s">
         <v>2700</v>
       </c>
-      <c r="B842" s="14" t="s">
-        <v>865</v>
+      <c r="B842" s="9" t="s">
+        <v>2701</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="14" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B843" s="14" t="s">
+      <c r="A843" s="9" t="s">
         <v>2703</v>
       </c>
+      <c r="B843" s="9" t="s">
+        <v>2704</v>
+      </c>
       <c r="C843" s="9" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="14" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B844" s="14" t="s">
+      <c r="A844" s="9" t="s">
         <v>2706</v>
       </c>
+      <c r="B844" s="9" t="s">
+        <v>2707</v>
+      </c>
       <c r="C844" s="14" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="9" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="B845" s="9" t="s">
-        <v>2709</v>
-      </c>
-      <c r="C845" s="14" t="s">
         <v>2710</v>
       </c>
+      <c r="C845" s="9" t="s">
+        <v>2711</v>
+      </c>
     </row>
     <row r="846">
-      <c r="A846" s="14" t="s">
-        <v>2711</v>
-      </c>
-      <c r="B846" s="14" t="s">
+      <c r="A846" s="9" t="s">
         <v>2712</v>
       </c>
-      <c r="C846" s="14" t="s">
+      <c r="B846" s="9" t="s">
         <v>2713</v>
+      </c>
+      <c r="C846" s="9" t="s">
+        <v>2714</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="9" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="B847" s="9" t="s">
-        <v>2715</v>
-      </c>
-      <c r="C847" s="9" t="s">
         <v>2716</v>
+      </c>
+      <c r="C847" s="14" t="s">
+        <v>2717</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="14" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="B848" s="14" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="C848" s="14" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="9" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B849" s="9" t="s">
+      <c r="A849" s="14" t="s">
         <v>2721</v>
       </c>
+      <c r="B849" s="14" t="s">
+        <v>2722</v>
+      </c>
       <c r="C849" s="14" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="9" t="s">
-        <v>2723</v>
-      </c>
-      <c r="B850" s="9" t="s">
+      <c r="A850" s="14" t="s">
         <v>2724</v>
+      </c>
+      <c r="B850" s="14" t="s">
+        <v>880</v>
       </c>
       <c r="C850" s="9" t="s">
         <v>2725</v>
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="9" t="s">
+      <c r="A851" s="14" t="s">
         <v>2726</v>
       </c>
-      <c r="B851" s="9" t="s">
+      <c r="B851" s="14" t="s">
         <v>2727</v>
       </c>
       <c r="C851" s="9" t="s">
@@ -31429,10 +31501,10 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="14" t="s">
+      <c r="A853" s="9" t="s">
         <v>2732</v>
       </c>
-      <c r="B853" s="14" t="s">
+      <c r="B853" s="9" t="s">
         <v>2733</v>
       </c>
       <c r="C853" s="14" t="s">
@@ -31451,13 +31523,13 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="14" t="s">
+      <c r="A855" s="9" t="s">
         <v>2738</v>
       </c>
-      <c r="B855" s="14" t="s">
+      <c r="B855" s="9" t="s">
         <v>2739</v>
       </c>
-      <c r="C855" s="14" t="s">
+      <c r="C855" s="9" t="s">
         <v>2740</v>
       </c>
     </row>
@@ -31473,10 +31545,10 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="14" t="s">
+      <c r="A857" s="9" t="s">
         <v>2744</v>
       </c>
-      <c r="B857" s="14" t="s">
+      <c r="B857" s="9" t="s">
         <v>2745</v>
       </c>
       <c r="C857" s="14" t="s">
@@ -31484,36 +31556,92 @@
       </c>
     </row>
     <row r="858">
-      <c r="B858" s="24"/>
-      <c r="C858" s="24"/>
+      <c r="A858" s="9" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B858" s="9" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C858" s="9" t="s">
+        <v>2749</v>
+      </c>
     </row>
     <row r="859">
-      <c r="B859" s="24"/>
-      <c r="C859" s="24"/>
+      <c r="A859" s="9" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B859" s="9" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C859" s="9" t="s">
+        <v>2752</v>
+      </c>
     </row>
     <row r="860">
-      <c r="B860" s="24"/>
-      <c r="C860" s="24"/>
+      <c r="A860" s="14" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B860" s="14" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C860" s="14" t="s">
+        <v>2755</v>
+      </c>
     </row>
     <row r="861">
-      <c r="B861" s="24"/>
-      <c r="C861" s="24"/>
+      <c r="A861" s="14" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B861" s="14" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C861" s="14" t="s">
+        <v>2758</v>
+      </c>
     </row>
     <row r="862">
-      <c r="B862" s="24"/>
-      <c r="C862" s="24"/>
+      <c r="A862" s="14" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B862" s="14" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C862" s="14" t="s">
+        <v>2761</v>
+      </c>
     </row>
     <row r="863">
-      <c r="B863" s="24"/>
-      <c r="C863" s="24"/>
+      <c r="A863" s="14" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B863" s="14" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C863" s="14" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="864">
-      <c r="B864" s="24"/>
-      <c r="C864" s="24"/>
+      <c r="A864" s="14" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B864" s="14" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C864" s="14" t="s">
+        <v>2767</v>
+      </c>
     </row>
     <row r="865">
-      <c r="B865" s="24"/>
-      <c r="C865" s="24"/>
+      <c r="A865" s="14" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B865" s="14" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C865" s="14" t="s">
+        <v>2770</v>
+      </c>
     </row>
     <row r="866">
       <c r="B866" s="24"/>
@@ -32064,10 +32192,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$857">
-    <sortState ref="A1:C857">
-      <sortCondition ref="A1:A857"/>
-      <sortCondition ref="B1:B857"/>
+  <autoFilter ref="$A$1:$C$865">
+    <sortState ref="A1:C865">
+      <sortCondition ref="A1:A865"/>
+      <sortCondition ref="B1:B865"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -5832,13 +5832,13 @@
     <t>рэвиетат</t>
   </si>
   <si>
-    <t>rey</t>
+    <t>reya</t>
   </si>
   <si>
     <t>you (accusative)</t>
   </si>
   <si>
-    <t>рэй</t>
+    <t>рея</t>
   </si>
   <si>
     <t>reyka</t>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$865</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$866</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="2771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="2774">
   <si>
     <t>Word</t>
   </si>
@@ -1251,2479 +1251,2488 @@
     <t>chert</t>
   </si>
   <si>
+    <t>shit, crap</t>
+  </si>
+  <si>
+    <t>чэрт</t>
+  </si>
+  <si>
+    <t>cheseviy</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>чэсэвй</t>
+  </si>
+  <si>
+    <t>chevakat</t>
+  </si>
+  <si>
+    <t>to cleave, to sever, to cut, to chop</t>
+  </si>
+  <si>
+    <t>чэвакат</t>
+  </si>
+  <si>
+    <t>chkatoniy</t>
+  </si>
+  <si>
+    <t>thunder, sound of lightning</t>
+  </si>
+  <si>
+    <t>чкатонй</t>
+  </si>
+  <si>
+    <t>chloskos</t>
+  </si>
+  <si>
+    <t>chlorine</t>
+  </si>
+  <si>
+    <t>члоскос</t>
+  </si>
+  <si>
+    <t>chnuskovat</t>
+  </si>
+  <si>
+    <t>to smell</t>
+  </si>
+  <si>
+    <t>чнусковат</t>
+  </si>
+  <si>
+    <t>chobtiya</t>
+  </si>
+  <si>
+    <t>to cover</t>
+  </si>
+  <si>
+    <t>чобтия</t>
+  </si>
+  <si>
+    <t>chochiy</t>
+  </si>
+  <si>
+    <t>derogatory insult directed to women; slut, thot</t>
+  </si>
+  <si>
+    <t>чочй</t>
+  </si>
+  <si>
+    <t>chozniyka</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>чознйка</t>
+  </si>
+  <si>
+    <t>chuska</t>
+  </si>
+  <si>
+    <t>to bore, to be bored</t>
+  </si>
+  <si>
+    <t>чуска</t>
+  </si>
+  <si>
+    <t>chyakivit</t>
+  </si>
+  <si>
+    <t>to shake</t>
+  </si>
+  <si>
+    <t>чякивит</t>
+  </si>
+  <si>
+    <t>chyuvlyek</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>чювлек</t>
+  </si>
+  <si>
+    <t>dagla</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>дагла</t>
+  </si>
+  <si>
+    <t>dagya</t>
+  </si>
+  <si>
+    <t>to change</t>
+  </si>
+  <si>
+    <t>дагя</t>
+  </si>
+  <si>
+    <t>dakast</t>
+  </si>
+  <si>
+    <t>dakasti, dakastus (monster, undead)</t>
+  </si>
+  <si>
+    <t>дакаст</t>
+  </si>
+  <si>
+    <t>damov</t>
+  </si>
+  <si>
+    <t>to cook</t>
+  </si>
+  <si>
+    <t>дамов</t>
+  </si>
+  <si>
+    <t>damovo</t>
+  </si>
+  <si>
+    <t>a cook</t>
+  </si>
+  <si>
+    <t>дамово</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>дан</t>
+  </si>
+  <si>
+    <t>daneygem</t>
+  </si>
+  <si>
+    <t>flashlight, torch</t>
+  </si>
+  <si>
+    <t>данэйгэм</t>
+  </si>
+  <si>
+    <t>dasha</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>даша</t>
+  </si>
+  <si>
+    <t>dasko</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>даско</t>
+  </si>
+  <si>
+    <t>daskon</t>
+  </si>
+  <si>
+    <t>harbor, docking bay</t>
+  </si>
+  <si>
+    <t>даскон</t>
+  </si>
+  <si>
+    <t>davektsam</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>давэкцам</t>
+  </si>
+  <si>
+    <t>dedushka</t>
+  </si>
+  <si>
+    <t>grandfather, grandpa</t>
+  </si>
+  <si>
+    <t>дэдушка</t>
+  </si>
+  <si>
+    <t>defitsniy</t>
+  </si>
+  <si>
+    <t>rare, scarce</t>
+  </si>
+  <si>
+    <t>дэфицнй</t>
+  </si>
+  <si>
+    <t>delat</t>
+  </si>
+  <si>
+    <t>to do, act</t>
+  </si>
+  <si>
+    <t>дэлат</t>
+  </si>
+  <si>
+    <t>dergatsyat</t>
+  </si>
+  <si>
+    <t>to masturbate</t>
+  </si>
+  <si>
+    <t>дэргацят</t>
+  </si>
+  <si>
+    <t>desyat</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>дэсят</t>
+  </si>
+  <si>
+    <t>desyatrarl</t>
+  </si>
+  <si>
+    <t>decade, 10 years</t>
+  </si>
+  <si>
+    <t>дэсятрарл</t>
+  </si>
+  <si>
+    <t>digatsya</t>
+  </si>
+  <si>
+    <t>to move</t>
+  </si>
+  <si>
+    <t>дигаця</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>piece, fragment, part</t>
+  </si>
+  <si>
+    <t>диск</t>
+  </si>
+  <si>
+    <t>distinkish</t>
+  </si>
+  <si>
+    <t>distinite</t>
+  </si>
+  <si>
+    <t>дистинкиш</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>bar of metal</t>
+  </si>
+  <si>
+    <t>доб</t>
+  </si>
+  <si>
+    <t>doljen</t>
+  </si>
+  <si>
+    <t>to should</t>
+  </si>
+  <si>
+    <t>должэн</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
+    <t>house, home</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>donomyet</t>
+  </si>
+  <si>
+    <t>to disintegrate, to turn into dust</t>
+  </si>
+  <si>
+    <t>дономет</t>
+  </si>
+  <si>
+    <t>dopoga</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>допога</t>
+  </si>
+  <si>
+    <t>doriya</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>дория</t>
+  </si>
+  <si>
+    <t>dorom</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>дором</t>
+  </si>
+  <si>
+    <t>doteska</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>дотэска</t>
+  </si>
+  <si>
+    <t>dovat</t>
+  </si>
+  <si>
+    <t>to stop</t>
+  </si>
+  <si>
+    <t>доват</t>
+  </si>
+  <si>
+    <t>doyna</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>дойна</t>
+  </si>
+  <si>
+    <t>doynalodska</t>
+  </si>
+  <si>
+    <t>warship, any ship used for war</t>
+  </si>
+  <si>
+    <t>дойналодска</t>
+  </si>
+  <si>
+    <t>doynaro</t>
+  </si>
+  <si>
+    <t>warrior, fighter</t>
+  </si>
+  <si>
+    <t>дойнаро</t>
+  </si>
+  <si>
+    <t>drasa</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>драса</t>
+  </si>
+  <si>
+    <t>drikenig</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>дрикэниг</t>
+  </si>
+  <si>
+    <t>drin</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>дрин</t>
+  </si>
+  <si>
+    <t>drosel</t>
+  </si>
+  <si>
+    <t>reactor, generator</t>
+  </si>
+  <si>
+    <t>дросэл</t>
+  </si>
+  <si>
+    <t>drozhat</t>
+  </si>
+  <si>
+    <t>to shake, to shudder, to shiver</t>
+  </si>
+  <si>
+    <t>дрозхат</t>
+  </si>
+  <si>
+    <t>dumat</t>
+  </si>
+  <si>
+    <t>to think</t>
+  </si>
+  <si>
+    <t>думат</t>
+  </si>
+  <si>
+    <t>dutska</t>
+  </si>
+  <si>
+    <t>feces, poop</t>
+  </si>
+  <si>
+    <t>дуцка</t>
+  </si>
+  <si>
+    <t>dyatsya</t>
+  </si>
+  <si>
+    <t>to hope</t>
+  </si>
+  <si>
+    <t>дяця</t>
+  </si>
+  <si>
+    <t>dyu</t>
+  </si>
+  <si>
+    <t>day, day cycle</t>
+  </si>
+  <si>
+    <t>дю</t>
+  </si>
+  <si>
+    <t>dyuk</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>дюк</t>
+  </si>
+  <si>
+    <t>ekemiv</t>
+  </si>
+  <si>
+    <t>grenade</t>
+  </si>
+  <si>
+    <t>экэмив</t>
+  </si>
+  <si>
+    <t>eksit</t>
+  </si>
+  <si>
+    <t>to exite</t>
+  </si>
+  <si>
+    <t>эксит</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>all, every</t>
+  </si>
+  <si>
+    <t>элэв</t>
+  </si>
+  <si>
+    <t>eleytav</t>
+  </si>
+  <si>
+    <t>amethyst</t>
+  </si>
+  <si>
+    <t>элэйтав</t>
+  </si>
+  <si>
+    <t>elino</t>
+  </si>
+  <si>
+    <t>elinar</t>
+  </si>
+  <si>
+    <t>элино</t>
+  </si>
+  <si>
+    <t>elmej</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>элмэж</t>
+  </si>
+  <si>
+    <t>emya</t>
+  </si>
+  <si>
+    <t>to like</t>
+  </si>
+  <si>
+    <t>эмя</t>
+  </si>
+  <si>
+    <t>entsya</t>
+  </si>
+  <si>
+    <t>to enter</t>
+  </si>
+  <si>
+    <t>энця</t>
+  </si>
+  <si>
+    <t>eron</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>эрон</t>
+  </si>
+  <si>
+    <t>eyrin</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>эйрин</t>
+  </si>
+  <si>
+    <t>eyshtem</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>эйштэм</t>
+  </si>
+  <si>
+    <t>farsk</t>
+  </si>
+  <si>
+    <t>patrol</t>
+  </si>
+  <si>
+    <t>фарск</t>
+  </si>
+  <si>
+    <t>femel</t>
+  </si>
+  <si>
+    <t>enchantom, elf</t>
+  </si>
+  <si>
+    <t>фэмэл</t>
+  </si>
+  <si>
+    <t>femkya</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>фэмкя</t>
+  </si>
+  <si>
+    <t>feto</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>фэто</t>
+  </si>
+  <si>
+    <t>fetra</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>фэтра</t>
+  </si>
+  <si>
+    <t>fileni</t>
+  </si>
+  <si>
+    <t>softly (adverb)</t>
+  </si>
+  <si>
+    <t>филэни</t>
+  </si>
+  <si>
+    <t>fistiyn</t>
+  </si>
+  <si>
+    <t>phystine</t>
+  </si>
+  <si>
+    <t>фистйн</t>
+  </si>
+  <si>
+    <t>fiylma</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>фйлма</t>
+  </si>
+  <si>
+    <t>fiyshat</t>
+  </si>
+  <si>
+    <t>to feel, to touch</t>
+  </si>
+  <si>
+    <t>фйшат</t>
+  </si>
+  <si>
+    <t>flaba</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>флаба</t>
+  </si>
+  <si>
+    <t>foden</t>
+  </si>
+  <si>
+    <t>present, now</t>
+  </si>
+  <si>
+    <t>фодэн</t>
+  </si>
+  <si>
+    <t>foglyo</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>фоглё</t>
+  </si>
+  <si>
+    <t>fogor</t>
+  </si>
+  <si>
+    <t>base, root</t>
+  </si>
+  <si>
+    <t>фогор</t>
+  </si>
+  <si>
+    <t>foka</t>
+  </si>
+  <si>
+    <t>is false</t>
+  </si>
+  <si>
+    <t>фока</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>форд</t>
+  </si>
+  <si>
+    <t>fornyo</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>форнё</t>
+  </si>
+  <si>
+    <t>forokoshyat</t>
+  </si>
+  <si>
+    <t>to warp</t>
+  </si>
+  <si>
+    <t>форокошят</t>
+  </si>
+  <si>
+    <t>foron</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>форон</t>
+  </si>
+  <si>
+    <t>fresenk</t>
+  </si>
+  <si>
+    <t>fresenite</t>
+  </si>
+  <si>
+    <t>фрэсэнк</t>
+  </si>
+  <si>
+    <t>freyn</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>фрэйн</t>
+  </si>
+  <si>
+    <t>freyshyat</t>
+  </si>
+  <si>
+    <t>to kick</t>
+  </si>
+  <si>
+    <t>фрэйшят</t>
+  </si>
+  <si>
+    <t>furkeyl</t>
+  </si>
+  <si>
+    <t>symbol, icon, logo</t>
+  </si>
+  <si>
+    <t>фуркэйл</t>
+  </si>
+  <si>
+    <t>furnuska</t>
+  </si>
+  <si>
+    <t>energy, plasma</t>
+  </si>
+  <si>
+    <t>фурнуска</t>
+  </si>
+  <si>
+    <t>fusko</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>фуско</t>
+  </si>
+  <si>
+    <t>fyadkaziy</t>
+  </si>
+  <si>
+    <t>bullshit</t>
+  </si>
+  <si>
+    <t>фядказй</t>
+  </si>
+  <si>
+    <t>fyej</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>феж</t>
+  </si>
+  <si>
+    <t>fyepya</t>
+  </si>
+  <si>
+    <t>to receive, to collect, to get, to gain</t>
+  </si>
+  <si>
+    <t>фепя</t>
+  </si>
+  <si>
+    <t>fyesha</t>
+  </si>
+  <si>
+    <t>peace, quiet, still, calm</t>
+  </si>
+  <si>
+    <t>феша</t>
+  </si>
+  <si>
+    <t>fyetsat</t>
+  </si>
+  <si>
+    <t>to throw</t>
+  </si>
+  <si>
+    <t>фецат</t>
+  </si>
+  <si>
+    <t>gadren</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>гадрэн</t>
+  </si>
+  <si>
+    <t>gadska</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>гадска</t>
+  </si>
+  <si>
+    <t>galavet</t>
+  </si>
+  <si>
+    <t>to sing</t>
+  </si>
+  <si>
+    <t>галавет</t>
+  </si>
+  <si>
+    <t>galon</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>галон</t>
+  </si>
+  <si>
+    <t>galon porsk</t>
+  </si>
+  <si>
+    <t>hazmat suit</t>
+  </si>
+  <si>
+    <t>галон порск</t>
+  </si>
+  <si>
+    <t>garel</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>гарэл</t>
+  </si>
+  <si>
+    <t>geld</t>
+  </si>
+  <si>
+    <t>letter, rune, glyph</t>
+  </si>
+  <si>
+    <t>гэлд</t>
+  </si>
+  <si>
+    <t>geliychat</t>
+  </si>
+  <si>
+    <t>to shout, to yell</t>
+  </si>
+  <si>
+    <t>гэлйчат</t>
+  </si>
+  <si>
+    <t>gimidacha</t>
+  </si>
+  <si>
+    <t>module, addon, extension</t>
+  </si>
+  <si>
+    <t>гимидача</t>
+  </si>
+  <si>
+    <t>gitara</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>гитара</t>
+  </si>
+  <si>
+    <t>godiy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>годй</t>
+  </si>
+  <si>
+    <t>gojest</t>
+  </si>
+  <si>
+    <t>us fl oz, fluid ounce</t>
+  </si>
+  <si>
+    <t>гожэст</t>
+  </si>
+  <si>
+    <t>gomyet</t>
+  </si>
+  <si>
+    <t>to boil</t>
+  </si>
+  <si>
+    <t>гомет</t>
+  </si>
+  <si>
+    <t>goreym</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>горэйм</t>
+  </si>
+  <si>
+    <t>gorin</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>горин</t>
+  </si>
+  <si>
+    <t>gorst</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>горст</t>
+  </si>
+  <si>
+    <t>gos</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>гос</t>
+  </si>
+  <si>
+    <t>gosin</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>госин</t>
+  </si>
+  <si>
+    <t>goskom</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>госком</t>
+  </si>
+  <si>
+    <t>gosteyn</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>гостэйн</t>
+  </si>
+  <si>
+    <t>gotidisya</t>
+  </si>
+  <si>
+    <t>to add, to join</t>
+  </si>
+  <si>
+    <t>готидися</t>
+  </si>
+  <si>
+    <t>gotivyet</t>
+  </si>
+  <si>
+    <t>to prepare, to ready</t>
+  </si>
+  <si>
+    <t>готивет</t>
+  </si>
+  <si>
+    <t>goveyn</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>говэйн</t>
+  </si>
+  <si>
+    <t>govya</t>
+  </si>
+  <si>
+    <t>to glow</t>
+  </si>
+  <si>
+    <t>говя</t>
+  </si>
+  <si>
+    <t>gralatin</t>
+  </si>
+  <si>
+    <t>graltite</t>
+  </si>
+  <si>
+    <t>гралатин</t>
+  </si>
+  <si>
+    <t>gulva</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>гулва</t>
+  </si>
+  <si>
+    <t>gunon</t>
+  </si>
+  <si>
+    <t>linen</t>
+  </si>
+  <si>
+    <t>гунон</t>
+  </si>
+  <si>
+    <t>gurk</t>
+  </si>
+  <si>
+    <t>natural oil</t>
+  </si>
+  <si>
+    <t>гурк</t>
+  </si>
+  <si>
+    <t>gyelat</t>
+  </si>
+  <si>
+    <t>to steal</t>
+  </si>
+  <si>
+    <t>гелат</t>
+  </si>
+  <si>
+    <t>gyoch</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>гёч</t>
+  </si>
+  <si>
+    <t>hakin</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>хакин</t>
+  </si>
+  <si>
+    <t>hakin narin</t>
+  </si>
+  <si>
+    <t>long range</t>
+  </si>
+  <si>
+    <t>хакин нарин</t>
+  </si>
+  <si>
+    <t>hakintoya</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>хакинтоя</t>
+  </si>
+  <si>
+    <t>hamiya</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>хамия</t>
+  </si>
+  <si>
+    <t>hanakin</t>
+  </si>
+  <si>
+    <t>airlock</t>
+  </si>
+  <si>
+    <t>ханакин</t>
+  </si>
+  <si>
+    <t>heka</t>
+  </si>
+  <si>
+    <t>dirty, unclean, not clean</t>
+  </si>
+  <si>
+    <t>хэка</t>
+  </si>
+  <si>
+    <t>hemreviyta</t>
+  </si>
+  <si>
+    <t>attractive, sexy</t>
+  </si>
+  <si>
+    <t>хэмрэвйта</t>
+  </si>
+  <si>
+    <t>hestol</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>хэстол</t>
+  </si>
+  <si>
+    <t>hev</t>
+  </si>
+  <si>
+    <t>we, us (nominative)</t>
+  </si>
+  <si>
+    <t>хэв</t>
+  </si>
+  <si>
+    <t>heyjok</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>хэйжок</t>
+  </si>
+  <si>
+    <t>hilim</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>хилим</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>хив</t>
+  </si>
+  <si>
+    <t>hiynach</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>хйнач</t>
+  </si>
+  <si>
+    <t>hiystiv</t>
+  </si>
+  <si>
+    <t>explosion</t>
+  </si>
+  <si>
+    <t>хйстив</t>
+  </si>
+  <si>
+    <t>hiystivya</t>
+  </si>
+  <si>
+    <t>to explode</t>
+  </si>
+  <si>
+    <t>хйстивя</t>
+  </si>
+  <si>
+    <t>hoja</t>
+  </si>
+  <si>
+    <t>pig, boar, hog</t>
+  </si>
+  <si>
+    <t>хожа</t>
+  </si>
+  <si>
+    <t>holova</t>
+  </si>
+  <si>
+    <t>void, space</t>
+  </si>
+  <si>
+    <t>холова</t>
+  </si>
+  <si>
+    <t>honava</t>
+  </si>
+  <si>
+    <t>woman, female</t>
+  </si>
+  <si>
+    <t>хонва</t>
+  </si>
+  <si>
+    <t>horosho</t>
+  </si>
+  <si>
+    <t>safe, secure, okay</t>
+  </si>
+  <si>
+    <t>хорошо</t>
+  </si>
+  <si>
+    <t>hoska</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>хоска</t>
+  </si>
+  <si>
+    <t>hosom</t>
+  </si>
+  <si>
+    <t>the truth, correct</t>
+  </si>
+  <si>
+    <t>хосом</t>
+  </si>
+  <si>
+    <t>hosya</t>
+  </si>
+  <si>
+    <t>to hold, to have</t>
+  </si>
+  <si>
+    <t>хося</t>
+  </si>
+  <si>
+    <t>hotyet</t>
+  </si>
+  <si>
+    <t>to lift</t>
+  </si>
+  <si>
+    <t>хотет</t>
+  </si>
+  <si>
+    <t>hovya</t>
+  </si>
+  <si>
+    <t>we, us (accusative)</t>
+  </si>
+  <si>
+    <t>ховя</t>
+  </si>
+  <si>
+    <t>huva</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>хува</t>
+  </si>
+  <si>
+    <t>igej</t>
+  </si>
+  <si>
+    <t>immune, unaffected</t>
+  </si>
+  <si>
+    <t>игэж</t>
+  </si>
+  <si>
+    <t>ijek</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>ижэк</t>
+  </si>
+  <si>
+    <t>ijyat</t>
+  </si>
+  <si>
+    <t>to turn on</t>
+  </si>
+  <si>
+    <t>ижят</t>
+  </si>
+  <si>
+    <t>ilgrin</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>илгрин</t>
+  </si>
+  <si>
+    <t>ili</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>или</t>
+  </si>
+  <si>
+    <t>illisin</t>
+  </si>
+  <si>
+    <t>illisinion</t>
+  </si>
+  <si>
+    <t>иллисин</t>
+  </si>
+  <si>
+    <t>imnak</t>
+  </si>
+  <si>
+    <t>a clone</t>
+  </si>
+  <si>
+    <t>имнак</t>
+  </si>
+  <si>
+    <t>iretem</t>
+  </si>
+  <si>
+    <t>tundra</t>
+  </si>
+  <si>
+    <t>ирэтэм</t>
+  </si>
+  <si>
+    <t>ishav</t>
+  </si>
+  <si>
+    <t>anti, against</t>
+  </si>
+  <si>
+    <t>ишав</t>
+  </si>
+  <si>
+    <t>isheym</t>
+  </si>
+  <si>
+    <t>mean, meaning of</t>
+  </si>
+  <si>
+    <t>ишэйм</t>
+  </si>
+  <si>
+    <t>isik</t>
+  </si>
+  <si>
+    <t>smart, intelligent</t>
+  </si>
+  <si>
+    <t>исик</t>
+  </si>
+  <si>
+    <t>isnik</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>исник</t>
+  </si>
+  <si>
+    <t>istit</t>
+  </si>
+  <si>
+    <t>to appear like, to seem</t>
+  </si>
+  <si>
+    <t>истит</t>
+  </si>
+  <si>
+    <t>itam</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>итам</t>
+  </si>
+  <si>
+    <t>iteviyan</t>
+  </si>
+  <si>
+    <t>scenery, sight</t>
+  </si>
+  <si>
+    <t>итэвиян</t>
+  </si>
+  <si>
+    <t>itevya</t>
+  </si>
+  <si>
+    <t>to see, to look</t>
+  </si>
+  <si>
+    <t>итэвя</t>
+  </si>
+  <si>
+    <t>izobramej</t>
+  </si>
+  <si>
+    <t>image, picture</t>
+  </si>
+  <si>
+    <t>изобрамэж</t>
+  </si>
+  <si>
+    <t>jaga</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>жага</t>
+  </si>
+  <si>
+    <t>jaken</t>
+  </si>
+  <si>
+    <t>taiga, snowy forest</t>
+  </si>
+  <si>
+    <t>жакэн</t>
+  </si>
+  <si>
+    <t>jakot</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>жакот</t>
+  </si>
+  <si>
+    <t>japrya</t>
+  </si>
+  <si>
+    <t>to hail, to bow</t>
+  </si>
+  <si>
+    <t>жапря</t>
+  </si>
+  <si>
+    <t>jatya</t>
+  </si>
+  <si>
+    <t>to listen, to hear</t>
+  </si>
+  <si>
+    <t>жатя</t>
+  </si>
+  <si>
+    <t>jazkiy</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>жазкй</t>
+  </si>
+  <si>
+    <t>jazkyat</t>
+  </si>
+  <si>
+    <t>to win</t>
+  </si>
+  <si>
+    <t>жазкят</t>
+  </si>
+  <si>
+    <t>jebat</t>
+  </si>
+  <si>
+    <t>to wait, to stay, to remain</t>
+  </si>
+  <si>
+    <t>жэбат</t>
+  </si>
+  <si>
+    <t>jebya</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
+    <t>жэбя</t>
+  </si>
+  <si>
+    <t>jenerev</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>жэнэрэв</t>
+  </si>
+  <si>
+    <t>jenruk</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>жэнрук</t>
+  </si>
+  <si>
+    <t>jevanit</t>
+  </si>
+  <si>
+    <t>to drive</t>
+  </si>
+  <si>
+    <t>жэванит</t>
+  </si>
+  <si>
+    <t>jireyk</t>
+  </si>
+  <si>
+    <t>laser (weapon), thin hot beam of light</t>
+  </si>
+  <si>
+    <t>жирэйк</t>
+  </si>
+  <si>
+    <t>jiysni</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>жйсни</t>
+  </si>
+  <si>
+    <t>joglod</t>
+  </si>
+  <si>
+    <t>god, deity</t>
+  </si>
+  <si>
+    <t>жоглод</t>
+  </si>
+  <si>
+    <t>joklun</t>
+  </si>
+  <si>
+    <t>great, mighty</t>
+  </si>
+  <si>
+    <t>жоклун</t>
+  </si>
+  <si>
+    <t>joklunlodska</t>
+  </si>
+  <si>
+    <t>battleship, capital ship</t>
+  </si>
+  <si>
+    <t>жоклунлодска</t>
+  </si>
+  <si>
+    <t>jolon</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>жолон</t>
+  </si>
+  <si>
+    <t>jonosk</t>
+  </si>
+  <si>
+    <t>road, street</t>
+  </si>
+  <si>
+    <t>жоноск</t>
+  </si>
+  <si>
+    <t>jorol</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>жорол</t>
+  </si>
+  <si>
+    <t>jovev</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>жовэв</t>
+  </si>
+  <si>
+    <t>jovoma</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>жовома</t>
+  </si>
+  <si>
+    <t>jromlya</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>жромля</t>
+  </si>
+  <si>
+    <t>kagrav</t>
+  </si>
+  <si>
+    <t>spicy</t>
+  </si>
+  <si>
+    <t>каграв</t>
+  </si>
+  <si>
+    <t>kanek</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>канэк</t>
+  </si>
+  <si>
+    <t>karjen</t>
+  </si>
+  <si>
+    <t>gadget, trinket, unknown thing</t>
+  </si>
+  <si>
+    <t>каржэн</t>
+  </si>
+  <si>
+    <t>kastarkish</t>
+  </si>
+  <si>
+    <t>quastarine</t>
+  </si>
+  <si>
+    <t>кастаркиш</t>
+  </si>
+  <si>
+    <t>katalizator</t>
+  </si>
+  <si>
+    <t>potion base, brewing base, catalyst</t>
+  </si>
+  <si>
+    <t>катализатор</t>
+  </si>
+  <si>
+    <t>katoji</t>
+  </si>
+  <si>
+    <t>turret, mounted gun</t>
+  </si>
+  <si>
+    <t>катожи</t>
+  </si>
+  <si>
+    <t>katokol</t>
+  </si>
+  <si>
+    <t>staff, stick, pole</t>
+  </si>
+  <si>
+    <t>катокол</t>
+  </si>
+  <si>
+    <t>kelomit</t>
+  </si>
+  <si>
+    <t>to need, to require</t>
+  </si>
+  <si>
+    <t>кэломит</t>
+  </si>
+  <si>
+    <t>keravat</t>
+  </si>
+  <si>
+    <t>to kiss</t>
+  </si>
+  <si>
+    <t>кэрават</t>
+  </si>
+  <si>
+    <t>kerem</t>
+  </si>
+  <si>
+    <t>surcoat, tabard</t>
+  </si>
+  <si>
+    <t>кэрэм</t>
+  </si>
+  <si>
+    <t>ketsya</t>
+  </si>
+  <si>
+    <t>to wait</t>
+  </si>
+  <si>
+    <t>кэця</t>
+  </si>
+  <si>
+    <t>keyda</t>
+  </si>
+  <si>
+    <t>being fat</t>
+  </si>
+  <si>
+    <t>кэйда</t>
+  </si>
+  <si>
+    <t>keymo</t>
+  </si>
+  <si>
+    <t>king, emperor</t>
+  </si>
+  <si>
+    <t>кэймо</t>
+  </si>
+  <si>
+    <t>keynka</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>кэйнка</t>
+  </si>
+  <si>
+    <t>keyrin</t>
+  </si>
+  <si>
+    <t>galaxy</t>
+  </si>
+  <si>
+    <t>кэйрин</t>
+  </si>
+  <si>
+    <t>khadiyatiy</t>
+  </si>
+  <si>
+    <t>solar system</t>
+  </si>
+  <si>
+    <t>кшадиятй</t>
+  </si>
+  <si>
+    <t>khamiymashka</t>
+  </si>
+  <si>
+    <t>detector</t>
+  </si>
+  <si>
+    <t>кшамймашка</t>
+  </si>
+  <si>
+    <t>khamojan</t>
+  </si>
+  <si>
+    <t>purpose, usage, use</t>
+  </si>
+  <si>
+    <t>кшаможан</t>
+  </si>
+  <si>
+    <t>khamyat</t>
+  </si>
+  <si>
+    <t>to detect</t>
+  </si>
+  <si>
+    <t>кшамят</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>student, apprentice, learner</t>
+  </si>
+  <si>
+    <t>кшан</t>
+  </si>
+  <si>
+    <t>khaviko</t>
+  </si>
+  <si>
+    <t>empire, nation, country</t>
+  </si>
+  <si>
+    <t>кшавико</t>
+  </si>
+  <si>
+    <t>khnaba</t>
+  </si>
+  <si>
+    <t>sandwich, burger</t>
+  </si>
+  <si>
+    <t>кшнаба</t>
+  </si>
+  <si>
+    <t>khnabsi</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>кшнабси</t>
+  </si>
+  <si>
+    <t>khneskiya</t>
+  </si>
+  <si>
+    <t>mission, quest, assignment, job</t>
+  </si>
+  <si>
+    <t>кшнэския</t>
+  </si>
+  <si>
+    <t>khnolot</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>кшнолот</t>
+  </si>
+  <si>
+    <t>khnomo</t>
+  </si>
+  <si>
+    <t>evil, dark, grim</t>
+  </si>
+  <si>
+    <t>кшномо</t>
+  </si>
+  <si>
+    <t>khnorota</t>
+  </si>
+  <si>
+    <t>corporation, company</t>
+  </si>
+  <si>
+    <t>кшнорота</t>
+  </si>
+  <si>
+    <t>khnula</t>
+  </si>
+  <si>
+    <t>mud, dirt, grime, slop</t>
+  </si>
+  <si>
+    <t>кшнула</t>
+  </si>
+  <si>
+    <t>khnulavat</t>
+  </si>
+  <si>
+    <t>to defile, to make dirty, to violate</t>
+  </si>
+  <si>
+    <t>кшнулават</t>
+  </si>
+  <si>
+    <t>khochya</t>
+  </si>
+  <si>
+    <t>to destroy, to crumble</t>
+  </si>
+  <si>
+    <t>кшочя</t>
+  </si>
+  <si>
+    <t>khomit</t>
+  </si>
+  <si>
+    <t>to use</t>
+  </si>
+  <si>
+    <t>кшомит</t>
+  </si>
+  <si>
+    <t>khtiysni</t>
+  </si>
+  <si>
+    <t>penis, male reproductive organs</t>
+  </si>
+  <si>
+    <t>кштйсни</t>
+  </si>
+  <si>
+    <t>kishem</t>
+  </si>
+  <si>
+    <t>crystal, gem</t>
+  </si>
+  <si>
+    <t>кишэм</t>
+  </si>
+  <si>
+    <t>kiyna</t>
+  </si>
+  <si>
+    <t>brave, bold, courageous</t>
+  </si>
+  <si>
+    <t>кйна</t>
+  </si>
+  <si>
+    <t>kiyntya</t>
+  </si>
+  <si>
+    <t>crown, helmet</t>
+  </si>
+  <si>
+    <t>кйнтя</t>
+  </si>
+  <si>
+    <t>klavom</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>клавом</t>
+  </si>
+  <si>
+    <t>kliyj</t>
+  </si>
+  <si>
+    <t>cell (biology)</t>
+  </si>
+  <si>
+    <t>клйж</t>
+  </si>
+  <si>
+    <t>kliyjbosenk</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>клйжбосэнк</t>
+  </si>
+  <si>
+    <t>klobo</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>клобо</t>
+  </si>
+  <si>
+    <t>klod</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>клод</t>
+  </si>
+  <si>
+    <t>klom</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>клом</t>
+  </si>
+  <si>
+    <t>klosis</t>
+  </si>
+  <si>
+    <t>golem</t>
+  </si>
+  <si>
+    <t>клосис</t>
+  </si>
+  <si>
+    <t>klov</t>
+  </si>
+  <si>
+    <t>hard (adjective, not for verbs)</t>
+  </si>
+  <si>
+    <t>клов</t>
+  </si>
+  <si>
+    <t>kniyga</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>кнйга</t>
+  </si>
+  <si>
+    <t>knizyo</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>книзё</t>
+  </si>
+  <si>
+    <t>knopka</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>кнопка</t>
+  </si>
+  <si>
+    <t>koda</t>
+  </si>
+  <si>
+    <t>some, unknown amount</t>
+  </si>
+  <si>
+    <t>кода</t>
+  </si>
+  <si>
+    <t>kodyet</t>
+  </si>
+  <si>
+    <t>to turn off</t>
+  </si>
+  <si>
+    <t>кодет</t>
+  </si>
+  <si>
+    <t>kofregad</t>
+  </si>
+  <si>
+    <t>elemental</t>
+  </si>
+  <si>
+    <t>кофрэгад</t>
+  </si>
+  <si>
+    <t>kohel</t>
+  </si>
+  <si>
+    <t>kohl (black makeup thing)</t>
+  </si>
+  <si>
+    <t>кохэл</t>
+  </si>
+  <si>
+    <t>kojnok</t>
+  </si>
+  <si>
+    <t>bettle</t>
+  </si>
+  <si>
+    <t>кожнок</t>
+  </si>
+  <si>
+    <t>kol</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>кол</t>
+  </si>
+  <si>
+    <t>koloshem</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>колошэм</t>
+  </si>
+  <si>
+    <t>komiy</t>
+  </si>
+  <si>
+    <t>hand radio, walkie talkie, handheld transceiver</t>
+  </si>
+  <si>
+    <t>комй</t>
+  </si>
+  <si>
+    <t>komnata</t>
+  </si>
+  <si>
+    <t>room, chamber, lodgings, dwelling, apartment</t>
+  </si>
+  <si>
+    <t>комната</t>
+  </si>
+  <si>
+    <t>kopit</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>копит</t>
+  </si>
+  <si>
+    <t>korab</t>
+  </si>
+  <si>
+    <t>spacecraft, spaceship, ship</t>
+  </si>
+  <si>
+    <t>кораб</t>
+  </si>
+  <si>
+    <t>korin</t>
+  </si>
+  <si>
+    <t>корин</t>
+  </si>
+  <si>
+    <t>korobka</t>
+  </si>
+  <si>
+    <t>chest, box, kist</t>
+  </si>
+  <si>
+    <t>коробка</t>
+  </si>
+  <si>
+    <t>korust</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>коруст</t>
+  </si>
+  <si>
+    <t>korustiyn</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>корустйн</t>
+  </si>
+  <si>
+    <t>koshan</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>кошан</t>
+  </si>
+  <si>
+    <t>koshana</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>кошана</t>
+  </si>
+  <si>
+    <t>koslama</t>
+  </si>
+  <si>
+    <t>to cuss, to swear</t>
+  </si>
+  <si>
+    <t>кослама</t>
+  </si>
+  <si>
+    <t>kosma</t>
+  </si>
+  <si>
+    <t>neshozic orc</t>
+  </si>
+  <si>
+    <t>косма</t>
+  </si>
+  <si>
+    <t>kosoril</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>косорил</t>
+  </si>
+  <si>
+    <t>kot</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>кот</t>
+  </si>
+  <si>
+    <t>krasnet</t>
+  </si>
+  <si>
+    <t>to blush, fluster</t>
+  </si>
+  <si>
+    <t>краснэт</t>
+  </si>
+  <si>
+    <t>krat</t>
+  </si>
+  <si>
+    <t>place, location</t>
+  </si>
+  <si>
+    <t>крат</t>
+  </si>
+  <si>
+    <t>kray</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>край</t>
+  </si>
+  <si>
+    <t>krelitsa</t>
+  </si>
+  <si>
+    <t>крэлица</t>
+  </si>
+  <si>
+    <t>krepkiy</t>
+  </si>
+  <si>
+    <t>sturdy, strong</t>
+  </si>
+  <si>
+    <t>крэпкй</t>
+  </si>
+  <si>
+    <t>kvartira</t>
+  </si>
+  <si>
+    <t>an apartment</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>lakdat</t>
+  </si>
+  <si>
+    <t>to connect, to link together, to attach</t>
+  </si>
+  <si>
+    <t>лакдат</t>
+  </si>
+  <si>
+    <t>lamk</t>
+  </si>
+  <si>
+    <t>reason, cause of</t>
+  </si>
+  <si>
+    <t>ламк</t>
+  </si>
+  <si>
+    <t>lanakon</t>
+  </si>
+  <si>
+    <t>ally, teammate</t>
+  </si>
+  <si>
+    <t>ланакон</t>
+  </si>
+  <si>
+    <t>lanik</t>
+  </si>
+  <si>
+    <t>shine, direct a light towards</t>
+  </si>
+  <si>
+    <t>ланик</t>
+  </si>
+  <si>
+    <t>lano</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>лано</t>
+  </si>
+  <si>
+    <t>latas</t>
+  </si>
+  <si>
+    <t>beam, bolt of lightning, laser (general term)</t>
+  </si>
+  <si>
+    <t>латас</t>
+  </si>
+  <si>
+    <t>latso</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>лацо</t>
+  </si>
+  <si>
+    <t>lenharsav</t>
+  </si>
+  <si>
+    <t>fortification</t>
+  </si>
+  <si>
+    <t>лэнхарсав</t>
+  </si>
+  <si>
+    <t>lerov</t>
+  </si>
+  <si>
+    <t>empty, nothing there</t>
+  </si>
+  <si>
+    <t>лэров</t>
+  </si>
+  <si>
+    <t>lesjo</t>
+  </si>
+  <si>
+    <t>soft (adjective, not for verbs)</t>
+  </si>
+  <si>
+    <t>лэсжо</t>
+  </si>
+  <si>
+    <t>lesnoy</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>лэсной</t>
+  </si>
+  <si>
+    <t>leyn</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>лэйн</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>лин</t>
+  </si>
+  <si>
+    <t>linikav</t>
+  </si>
+  <si>
+    <t>shop, store</t>
+  </si>
+  <si>
+    <t>линикав</t>
+  </si>
+  <si>
+    <t>linya</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
-    <t>чэрт</t>
-  </si>
-  <si>
-    <t>cheseviy</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>чэсэвй</t>
-  </si>
-  <si>
-    <t>chevakat</t>
-  </si>
-  <si>
-    <t>to cleave, to sever, to cut, to chop</t>
-  </si>
-  <si>
-    <t>чэвакат</t>
-  </si>
-  <si>
-    <t>chkatoniy</t>
-  </si>
-  <si>
-    <t>thunder, sound of lightning</t>
-  </si>
-  <si>
-    <t>чкатонй</t>
-  </si>
-  <si>
-    <t>chloskos</t>
-  </si>
-  <si>
-    <t>chlorine</t>
-  </si>
-  <si>
-    <t>члоскос</t>
-  </si>
-  <si>
-    <t>chnuskovat</t>
-  </si>
-  <si>
-    <t>to smell</t>
-  </si>
-  <si>
-    <t>чнусковат</t>
-  </si>
-  <si>
-    <t>chobtiya</t>
-  </si>
-  <si>
-    <t>to cover</t>
-  </si>
-  <si>
-    <t>чобтия</t>
-  </si>
-  <si>
-    <t>chochiy</t>
-  </si>
-  <si>
-    <t>derogatory insult directed to women; slut, thot</t>
-  </si>
-  <si>
-    <t>чочй</t>
-  </si>
-  <si>
-    <t>chozniyka</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>чознйка</t>
-  </si>
-  <si>
-    <t>chuska</t>
-  </si>
-  <si>
-    <t>to bore, to be bored</t>
-  </si>
-  <si>
-    <t>чуска</t>
-  </si>
-  <si>
-    <t>chyakivit</t>
-  </si>
-  <si>
-    <t>to shake</t>
-  </si>
-  <si>
-    <t>чякивит</t>
-  </si>
-  <si>
-    <t>chyuvlyek</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>чювлек</t>
-  </si>
-  <si>
-    <t>dagla</t>
-  </si>
-  <si>
-    <t>salty</t>
-  </si>
-  <si>
-    <t>дагла</t>
-  </si>
-  <si>
-    <t>dagya</t>
-  </si>
-  <si>
-    <t>to change</t>
-  </si>
-  <si>
-    <t>дагя</t>
-  </si>
-  <si>
-    <t>dakast</t>
-  </si>
-  <si>
-    <t>dakasti, dakastus (monster, undead)</t>
-  </si>
-  <si>
-    <t>дакаст</t>
-  </si>
-  <si>
-    <t>damov</t>
-  </si>
-  <si>
-    <t>to cook</t>
-  </si>
-  <si>
-    <t>дамов</t>
-  </si>
-  <si>
-    <t>damovo</t>
-  </si>
-  <si>
-    <t>a cook</t>
-  </si>
-  <si>
-    <t>дамово</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>дан</t>
-  </si>
-  <si>
-    <t>daneygem</t>
-  </si>
-  <si>
-    <t>flashlight, torch</t>
-  </si>
-  <si>
-    <t>данэйгэм</t>
-  </si>
-  <si>
-    <t>dasha</t>
-  </si>
-  <si>
-    <t>spear</t>
-  </si>
-  <si>
-    <t>даша</t>
-  </si>
-  <si>
-    <t>dasko</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>даско</t>
-  </si>
-  <si>
-    <t>daskon</t>
-  </si>
-  <si>
-    <t>harbor, docking bay</t>
-  </si>
-  <si>
-    <t>даскон</t>
-  </si>
-  <si>
-    <t>davektsam</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>давэкцам</t>
-  </si>
-  <si>
-    <t>dedushka</t>
-  </si>
-  <si>
-    <t>grandfather, grandpa</t>
-  </si>
-  <si>
-    <t>дэдушка</t>
-  </si>
-  <si>
-    <t>defitsniy</t>
-  </si>
-  <si>
-    <t>rare, scarce</t>
-  </si>
-  <si>
-    <t>дэфицнй</t>
-  </si>
-  <si>
-    <t>delat</t>
-  </si>
-  <si>
-    <t>to do, act</t>
-  </si>
-  <si>
-    <t>дэлат</t>
-  </si>
-  <si>
-    <t>dergatsyat</t>
-  </si>
-  <si>
-    <t>to masturbate</t>
-  </si>
-  <si>
-    <t>дэргацят</t>
-  </si>
-  <si>
-    <t>desyat</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>дэсят</t>
-  </si>
-  <si>
-    <t>desyatrarl</t>
-  </si>
-  <si>
-    <t>decade, 10 years</t>
-  </si>
-  <si>
-    <t>дэсятрарл</t>
-  </si>
-  <si>
-    <t>digatsya</t>
-  </si>
-  <si>
-    <t>to move</t>
-  </si>
-  <si>
-    <t>дигаця</t>
-  </si>
-  <si>
-    <t>disk</t>
-  </si>
-  <si>
-    <t>piece, fragment, part</t>
-  </si>
-  <si>
-    <t>диск</t>
-  </si>
-  <si>
-    <t>distinkish</t>
-  </si>
-  <si>
-    <t>distinite</t>
-  </si>
-  <si>
-    <t>дистинкиш</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>bar of metal</t>
-  </si>
-  <si>
-    <t>доб</t>
-  </si>
-  <si>
-    <t>doljen</t>
-  </si>
-  <si>
-    <t>to should</t>
-  </si>
-  <si>
-    <t>должэн</t>
-  </si>
-  <si>
-    <t>dom</t>
-  </si>
-  <si>
-    <t>house, home</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>donomyet</t>
-  </si>
-  <si>
-    <t>to disintegrate, to turn into dust</t>
-  </si>
-  <si>
-    <t>дономет</t>
-  </si>
-  <si>
-    <t>dopoga</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>допога</t>
-  </si>
-  <si>
-    <t>doriya</t>
-  </si>
-  <si>
-    <t>north</t>
-  </si>
-  <si>
-    <t>дория</t>
-  </si>
-  <si>
-    <t>dorom</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>дором</t>
-  </si>
-  <si>
-    <t>doteska</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>дотэска</t>
-  </si>
-  <si>
-    <t>dovat</t>
-  </si>
-  <si>
-    <t>to stop</t>
-  </si>
-  <si>
-    <t>доват</t>
-  </si>
-  <si>
-    <t>doyna</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>дойна</t>
-  </si>
-  <si>
-    <t>doynalodska</t>
-  </si>
-  <si>
-    <t>warship, any ship used for war</t>
-  </si>
-  <si>
-    <t>дойналодска</t>
-  </si>
-  <si>
-    <t>doynaro</t>
-  </si>
-  <si>
-    <t>warrior, fighter</t>
-  </si>
-  <si>
-    <t>дойнаро</t>
-  </si>
-  <si>
-    <t>drasa</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>драса</t>
-  </si>
-  <si>
-    <t>drikenig</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>дрикэниг</t>
-  </si>
-  <si>
-    <t>drin</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>дрин</t>
-  </si>
-  <si>
-    <t>drosel</t>
-  </si>
-  <si>
-    <t>reactor, generator</t>
-  </si>
-  <si>
-    <t>дросэл</t>
-  </si>
-  <si>
-    <t>drozhat</t>
-  </si>
-  <si>
-    <t>to shake, to shudder, to shiver</t>
-  </si>
-  <si>
-    <t>дрозхат</t>
-  </si>
-  <si>
-    <t>dumat</t>
-  </si>
-  <si>
-    <t>to think</t>
-  </si>
-  <si>
-    <t>думат</t>
-  </si>
-  <si>
-    <t>dutska</t>
-  </si>
-  <si>
-    <t>feces, poop</t>
-  </si>
-  <si>
-    <t>дуцка</t>
-  </si>
-  <si>
-    <t>dyatsya</t>
-  </si>
-  <si>
-    <t>to hope</t>
-  </si>
-  <si>
-    <t>дяця</t>
-  </si>
-  <si>
-    <t>dyu</t>
-  </si>
-  <si>
-    <t>day, day cycle</t>
-  </si>
-  <si>
-    <t>дю</t>
-  </si>
-  <si>
-    <t>dyuk</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>дюк</t>
-  </si>
-  <si>
-    <t>ekemiv</t>
-  </si>
-  <si>
-    <t>grenade</t>
-  </si>
-  <si>
-    <t>экэмив</t>
-  </si>
-  <si>
-    <t>eksit</t>
-  </si>
-  <si>
-    <t>to exite</t>
-  </si>
-  <si>
-    <t>эксит</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>all, every</t>
-  </si>
-  <si>
-    <t>элэв</t>
-  </si>
-  <si>
-    <t>eleytav</t>
-  </si>
-  <si>
-    <t>amethyst</t>
-  </si>
-  <si>
-    <t>элэйтав</t>
-  </si>
-  <si>
-    <t>elino</t>
-  </si>
-  <si>
-    <t>elinar</t>
-  </si>
-  <si>
-    <t>элино</t>
-  </si>
-  <si>
-    <t>elmej</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>элмэж</t>
-  </si>
-  <si>
-    <t>emya</t>
-  </si>
-  <si>
-    <t>to like</t>
-  </si>
-  <si>
-    <t>эмя</t>
-  </si>
-  <si>
-    <t>entsya</t>
-  </si>
-  <si>
-    <t>to enter</t>
-  </si>
-  <si>
-    <t>энця</t>
-  </si>
-  <si>
-    <t>eron</t>
-  </si>
-  <si>
-    <t>pipe</t>
-  </si>
-  <si>
-    <t>эрон</t>
-  </si>
-  <si>
-    <t>eyrin</t>
-  </si>
-  <si>
-    <t>east</t>
-  </si>
-  <si>
-    <t>эйрин</t>
-  </si>
-  <si>
-    <t>eyshtem</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>эйштэм</t>
-  </si>
-  <si>
-    <t>farsk</t>
-  </si>
-  <si>
-    <t>patrol</t>
-  </si>
-  <si>
-    <t>фарск</t>
-  </si>
-  <si>
-    <t>femel</t>
-  </si>
-  <si>
-    <t>enchantom, elf</t>
-  </si>
-  <si>
-    <t>фэмэл</t>
-  </si>
-  <si>
-    <t>femkya</t>
-  </si>
-  <si>
-    <t>to close</t>
-  </si>
-  <si>
-    <t>фэмкя</t>
-  </si>
-  <si>
-    <t>feto</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>фэто</t>
-  </si>
-  <si>
-    <t>fetra</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>фэтра</t>
-  </si>
-  <si>
-    <t>fileni</t>
-  </si>
-  <si>
-    <t>softly (adverb)</t>
-  </si>
-  <si>
-    <t>филэни</t>
-  </si>
-  <si>
-    <t>fistiyn</t>
-  </si>
-  <si>
-    <t>phystine</t>
-  </si>
-  <si>
-    <t>фистйн</t>
-  </si>
-  <si>
-    <t>fiylma</t>
-  </si>
-  <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>фйлма</t>
-  </si>
-  <si>
-    <t>fiyshat</t>
-  </si>
-  <si>
-    <t>to feel, to touch</t>
-  </si>
-  <si>
-    <t>фйшат</t>
-  </si>
-  <si>
-    <t>flaba</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>флаба</t>
-  </si>
-  <si>
-    <t>foden</t>
-  </si>
-  <si>
-    <t>present, now</t>
-  </si>
-  <si>
-    <t>фодэн</t>
-  </si>
-  <si>
-    <t>foglyo</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
-    <t>фоглё</t>
-  </si>
-  <si>
-    <t>fogor</t>
-  </si>
-  <si>
-    <t>base, root</t>
-  </si>
-  <si>
-    <t>фогор</t>
-  </si>
-  <si>
-    <t>foka</t>
-  </si>
-  <si>
-    <t>is false</t>
-  </si>
-  <si>
-    <t>фока</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>форд</t>
-  </si>
-  <si>
-    <t>fornyo</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>форнё</t>
-  </si>
-  <si>
-    <t>forokoshyat</t>
-  </si>
-  <si>
-    <t>to warp</t>
-  </si>
-  <si>
-    <t>форокошят</t>
-  </si>
-  <si>
-    <t>foron</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>форон</t>
-  </si>
-  <si>
-    <t>fresenk</t>
-  </si>
-  <si>
-    <t>fresenite</t>
-  </si>
-  <si>
-    <t>фрэсэнк</t>
-  </si>
-  <si>
-    <t>freyn</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>фрэйн</t>
-  </si>
-  <si>
-    <t>freyshyat</t>
-  </si>
-  <si>
-    <t>to kick</t>
-  </si>
-  <si>
-    <t>фрэйшят</t>
-  </si>
-  <si>
-    <t>furkeyl</t>
-  </si>
-  <si>
-    <t>symbol, icon, logo</t>
-  </si>
-  <si>
-    <t>фуркэйл</t>
-  </si>
-  <si>
-    <t>furnuska</t>
-  </si>
-  <si>
-    <t>energy, plasma</t>
-  </si>
-  <si>
-    <t>фурнуска</t>
-  </si>
-  <si>
-    <t>fusko</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>фуско</t>
-  </si>
-  <si>
-    <t>fyadkaziy</t>
-  </si>
-  <si>
-    <t>bullshit</t>
-  </si>
-  <si>
-    <t>фядказй</t>
-  </si>
-  <si>
-    <t>fyej</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>феж</t>
-  </si>
-  <si>
-    <t>fyepya</t>
-  </si>
-  <si>
-    <t>to receive, to collect, to get, to gain</t>
-  </si>
-  <si>
-    <t>фепя</t>
-  </si>
-  <si>
-    <t>fyesha</t>
-  </si>
-  <si>
-    <t>peace, quiet, still, calm</t>
-  </si>
-  <si>
-    <t>феша</t>
-  </si>
-  <si>
-    <t>fyetsat</t>
-  </si>
-  <si>
-    <t>to throw</t>
-  </si>
-  <si>
-    <t>фецат</t>
-  </si>
-  <si>
-    <t>gadren</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>гадрэн</t>
-  </si>
-  <si>
-    <t>gadska</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>гадска</t>
-  </si>
-  <si>
-    <t>galavet</t>
-  </si>
-  <si>
-    <t>to sing</t>
-  </si>
-  <si>
-    <t>галавет</t>
-  </si>
-  <si>
-    <t>galon</t>
-  </si>
-  <si>
-    <t>rubber</t>
-  </si>
-  <si>
-    <t>галон</t>
-  </si>
-  <si>
-    <t>galon porsk</t>
-  </si>
-  <si>
-    <t>hazmat suit</t>
-  </si>
-  <si>
-    <t>галон порск</t>
-  </si>
-  <si>
-    <t>garel</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>гарэл</t>
-  </si>
-  <si>
-    <t>geld</t>
-  </si>
-  <si>
-    <t>letter, rune, glyph</t>
-  </si>
-  <si>
-    <t>гэлд</t>
-  </si>
-  <si>
-    <t>geliychat</t>
-  </si>
-  <si>
-    <t>to shout, to yell</t>
-  </si>
-  <si>
-    <t>гэлйчат</t>
-  </si>
-  <si>
-    <t>gimidacha</t>
-  </si>
-  <si>
-    <t>module, addon, extension</t>
-  </si>
-  <si>
-    <t>гимидача</t>
-  </si>
-  <si>
-    <t>gitara</t>
-  </si>
-  <si>
-    <t>guitar</t>
-  </si>
-  <si>
-    <t>гитара</t>
-  </si>
-  <si>
-    <t>godiy</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>годй</t>
-  </si>
-  <si>
-    <t>gojest</t>
-  </si>
-  <si>
-    <t>us fl oz, fluid ounce</t>
-  </si>
-  <si>
-    <t>гожэст</t>
-  </si>
-  <si>
-    <t>gomyet</t>
-  </si>
-  <si>
-    <t>to boil</t>
-  </si>
-  <si>
-    <t>гомет</t>
-  </si>
-  <si>
-    <t>goreym</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>горэйм</t>
-  </si>
-  <si>
-    <t>gorin</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>горин</t>
-  </si>
-  <si>
-    <t>gorst</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>горст</t>
-  </si>
-  <si>
-    <t>gos</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>гос</t>
-  </si>
-  <si>
-    <t>gosin</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>госин</t>
-  </si>
-  <si>
-    <t>goskom</t>
-  </si>
-  <si>
-    <t>soup</t>
-  </si>
-  <si>
-    <t>госком</t>
-  </si>
-  <si>
-    <t>gosteyn</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>гостэйн</t>
-  </si>
-  <si>
-    <t>gotidisya</t>
-  </si>
-  <si>
-    <t>to add, to join</t>
-  </si>
-  <si>
-    <t>готидися</t>
-  </si>
-  <si>
-    <t>gotivyet</t>
-  </si>
-  <si>
-    <t>to prepare, to ready</t>
-  </si>
-  <si>
-    <t>готивет</t>
-  </si>
-  <si>
-    <t>goveyn</t>
-  </si>
-  <si>
-    <t>hill</t>
-  </si>
-  <si>
-    <t>говэйн</t>
-  </si>
-  <si>
-    <t>govya</t>
-  </si>
-  <si>
-    <t>to glow</t>
-  </si>
-  <si>
-    <t>говя</t>
-  </si>
-  <si>
-    <t>gralatin</t>
-  </si>
-  <si>
-    <t>graltite</t>
-  </si>
-  <si>
-    <t>гралатин</t>
-  </si>
-  <si>
-    <t>gulva</t>
-  </si>
-  <si>
-    <t>cave</t>
-  </si>
-  <si>
-    <t>гулва</t>
-  </si>
-  <si>
-    <t>gunon</t>
-  </si>
-  <si>
-    <t>linen</t>
-  </si>
-  <si>
-    <t>гунон</t>
-  </si>
-  <si>
-    <t>gurk</t>
-  </si>
-  <si>
-    <t>natural oil</t>
-  </si>
-  <si>
-    <t>гурк</t>
-  </si>
-  <si>
-    <t>gyelat</t>
-  </si>
-  <si>
-    <t>to steal</t>
-  </si>
-  <si>
-    <t>гелат</t>
-  </si>
-  <si>
-    <t>gyoch</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>гёч</t>
-  </si>
-  <si>
-    <t>hakin</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>хакин</t>
-  </si>
-  <si>
-    <t>hakin narin</t>
-  </si>
-  <si>
-    <t>long range</t>
-  </si>
-  <si>
-    <t>хакин нарин</t>
-  </si>
-  <si>
-    <t>hakintoya</t>
-  </si>
-  <si>
-    <t>teleport</t>
-  </si>
-  <si>
-    <t>хакинтоя</t>
-  </si>
-  <si>
-    <t>hamiya</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>хамия</t>
-  </si>
-  <si>
-    <t>hanakin</t>
-  </si>
-  <si>
-    <t>airlock</t>
-  </si>
-  <si>
-    <t>ханакин</t>
-  </si>
-  <si>
-    <t>heka</t>
-  </si>
-  <si>
-    <t>dirty, unclean, not clean</t>
-  </si>
-  <si>
-    <t>хэка</t>
-  </si>
-  <si>
-    <t>hemreviyta</t>
-  </si>
-  <si>
-    <t>attractive, sexy</t>
-  </si>
-  <si>
-    <t>хэмрэвйта</t>
-  </si>
-  <si>
-    <t>hestol</t>
-  </si>
-  <si>
-    <t>glove</t>
-  </si>
-  <si>
-    <t>хэстол</t>
-  </si>
-  <si>
-    <t>hev</t>
-  </si>
-  <si>
-    <t>we, us (nominative)</t>
-  </si>
-  <si>
-    <t>хэв</t>
-  </si>
-  <si>
-    <t>heyjok</t>
-  </si>
-  <si>
-    <t>cannon</t>
-  </si>
-  <si>
-    <t>хэйжок</t>
-  </si>
-  <si>
-    <t>hilim</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>хилим</t>
-  </si>
-  <si>
-    <t>hiv</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>хив</t>
-  </si>
-  <si>
-    <t>hiynach</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>хйнач</t>
-  </si>
-  <si>
-    <t>hiystiv</t>
-  </si>
-  <si>
-    <t>explosion</t>
-  </si>
-  <si>
-    <t>хйстив</t>
-  </si>
-  <si>
-    <t>hiystivya</t>
-  </si>
-  <si>
-    <t>to explode</t>
-  </si>
-  <si>
-    <t>хйстивя</t>
-  </si>
-  <si>
-    <t>hoja</t>
-  </si>
-  <si>
-    <t>pig, boar, hog</t>
-  </si>
-  <si>
-    <t>хожа</t>
-  </si>
-  <si>
-    <t>holova</t>
-  </si>
-  <si>
-    <t>void, space</t>
-  </si>
-  <si>
-    <t>холова</t>
-  </si>
-  <si>
-    <t>honava</t>
-  </si>
-  <si>
-    <t>woman, female</t>
-  </si>
-  <si>
-    <t>хонва</t>
-  </si>
-  <si>
-    <t>horosho</t>
-  </si>
-  <si>
-    <t>safe, secure, okay</t>
-  </si>
-  <si>
-    <t>хорошо</t>
-  </si>
-  <si>
-    <t>hoska</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>хоска</t>
-  </si>
-  <si>
-    <t>hosom</t>
-  </si>
-  <si>
-    <t>the truth, correct</t>
-  </si>
-  <si>
-    <t>хосом</t>
-  </si>
-  <si>
-    <t>hosya</t>
-  </si>
-  <si>
-    <t>to hold, to have</t>
-  </si>
-  <si>
-    <t>хося</t>
-  </si>
-  <si>
-    <t>hotyet</t>
-  </si>
-  <si>
-    <t>to lift</t>
-  </si>
-  <si>
-    <t>хотет</t>
-  </si>
-  <si>
-    <t>hovya</t>
-  </si>
-  <si>
-    <t>we, us (accusative)</t>
-  </si>
-  <si>
-    <t>ховя</t>
-  </si>
-  <si>
-    <t>huva</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>хува</t>
-  </si>
-  <si>
-    <t>igej</t>
-  </si>
-  <si>
-    <t>immune, unaffected</t>
-  </si>
-  <si>
-    <t>игэж</t>
-  </si>
-  <si>
-    <t>ijek</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>ижэк</t>
-  </si>
-  <si>
-    <t>ijyat</t>
-  </si>
-  <si>
-    <t>to turn on</t>
-  </si>
-  <si>
-    <t>ижят</t>
-  </si>
-  <si>
-    <t>ilgrin</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>илгрин</t>
-  </si>
-  <si>
-    <t>ili</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>или</t>
-  </si>
-  <si>
-    <t>illisin</t>
-  </si>
-  <si>
-    <t>illisinion</t>
-  </si>
-  <si>
-    <t>иллисин</t>
-  </si>
-  <si>
-    <t>imnak</t>
-  </si>
-  <si>
-    <t>a clone</t>
-  </si>
-  <si>
-    <t>имнак</t>
-  </si>
-  <si>
-    <t>iretem</t>
-  </si>
-  <si>
-    <t>tundra</t>
-  </si>
-  <si>
-    <t>ирэтэм</t>
-  </si>
-  <si>
-    <t>ishav</t>
-  </si>
-  <si>
-    <t>anti, against</t>
-  </si>
-  <si>
-    <t>ишав</t>
-  </si>
-  <si>
-    <t>isheym</t>
-  </si>
-  <si>
-    <t>mean, meaning of</t>
-  </si>
-  <si>
-    <t>ишэйм</t>
-  </si>
-  <si>
-    <t>isik</t>
-  </si>
-  <si>
-    <t>smart, intelligent</t>
-  </si>
-  <si>
-    <t>исик</t>
-  </si>
-  <si>
-    <t>isnik</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>исник</t>
-  </si>
-  <si>
-    <t>istit</t>
-  </si>
-  <si>
-    <t>to appear like, to seem</t>
-  </si>
-  <si>
-    <t>истит</t>
-  </si>
-  <si>
-    <t>itam</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>итам</t>
-  </si>
-  <si>
-    <t>iteviyan</t>
-  </si>
-  <si>
-    <t>scenery, sight</t>
-  </si>
-  <si>
-    <t>итэвиян</t>
-  </si>
-  <si>
-    <t>itevya</t>
-  </si>
-  <si>
-    <t>to see, to look</t>
-  </si>
-  <si>
-    <t>итэвя</t>
-  </si>
-  <si>
-    <t>izobramej</t>
-  </si>
-  <si>
-    <t>image, picture</t>
-  </si>
-  <si>
-    <t>изобрамэж</t>
-  </si>
-  <si>
-    <t>jaga</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>жага</t>
-  </si>
-  <si>
-    <t>jaken</t>
-  </si>
-  <si>
-    <t>taiga, snowy forest</t>
-  </si>
-  <si>
-    <t>жакэн</t>
-  </si>
-  <si>
-    <t>jakot</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>жакот</t>
-  </si>
-  <si>
-    <t>japrya</t>
-  </si>
-  <si>
-    <t>to hail, to bow</t>
-  </si>
-  <si>
-    <t>жапря</t>
-  </si>
-  <si>
-    <t>jatya</t>
-  </si>
-  <si>
-    <t>to listen, to hear</t>
-  </si>
-  <si>
-    <t>жатя</t>
-  </si>
-  <si>
-    <t>jazkiy</t>
-  </si>
-  <si>
-    <t>victor</t>
-  </si>
-  <si>
-    <t>жазкй</t>
-  </si>
-  <si>
-    <t>jazkyat</t>
-  </si>
-  <si>
-    <t>to win</t>
-  </si>
-  <si>
-    <t>жазкят</t>
-  </si>
-  <si>
-    <t>jebat</t>
-  </si>
-  <si>
-    <t>to wait, to stay, to remain</t>
-  </si>
-  <si>
-    <t>жэбат</t>
-  </si>
-  <si>
-    <t>jebya</t>
-  </si>
-  <si>
-    <t>dirt</t>
-  </si>
-  <si>
-    <t>жэбя</t>
-  </si>
-  <si>
-    <t>jenerev</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>жэнэрэв</t>
-  </si>
-  <si>
-    <t>jenruk</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
-    <t>жэнрук</t>
-  </si>
-  <si>
-    <t>jevanit</t>
-  </si>
-  <si>
-    <t>to drive</t>
-  </si>
-  <si>
-    <t>жэванит</t>
-  </si>
-  <si>
-    <t>jireyk</t>
-  </si>
-  <si>
-    <t>laser (weapon), thin hot beam of light</t>
-  </si>
-  <si>
-    <t>жирэйк</t>
-  </si>
-  <si>
-    <t>jiysni</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>жйсни</t>
-  </si>
-  <si>
-    <t>joglod</t>
-  </si>
-  <si>
-    <t>god, deity</t>
-  </si>
-  <si>
-    <t>жоглод</t>
-  </si>
-  <si>
-    <t>joklun</t>
-  </si>
-  <si>
-    <t>great, mighty</t>
-  </si>
-  <si>
-    <t>жоклун</t>
-  </si>
-  <si>
-    <t>joklunlodska</t>
-  </si>
-  <si>
-    <t>battleship, capital ship</t>
-  </si>
-  <si>
-    <t>жоклунлодска</t>
-  </si>
-  <si>
-    <t>jolon</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>жолон</t>
-  </si>
-  <si>
-    <t>jonosk</t>
-  </si>
-  <si>
-    <t>road, street</t>
-  </si>
-  <si>
-    <t>жоноск</t>
-  </si>
-  <si>
-    <t>jorol</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>жорол</t>
-  </si>
-  <si>
-    <t>jovev</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>жовэв</t>
-  </si>
-  <si>
-    <t>jovoma</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>жовома</t>
-  </si>
-  <si>
-    <t>jromlya</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>жромля</t>
-  </si>
-  <si>
-    <t>kagrav</t>
-  </si>
-  <si>
-    <t>spicy</t>
-  </si>
-  <si>
-    <t>каграв</t>
-  </si>
-  <si>
-    <t>kanek</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>канэк</t>
-  </si>
-  <si>
-    <t>karjen</t>
-  </si>
-  <si>
-    <t>gadget, trinket, unknown thing</t>
-  </si>
-  <si>
-    <t>каржэн</t>
-  </si>
-  <si>
-    <t>kastarkish</t>
-  </si>
-  <si>
-    <t>quastarine</t>
-  </si>
-  <si>
-    <t>кастаркиш</t>
-  </si>
-  <si>
-    <t>katalizator</t>
-  </si>
-  <si>
-    <t>potion base, brewing base, catalyst</t>
-  </si>
-  <si>
-    <t>катализатор</t>
-  </si>
-  <si>
-    <t>katoji</t>
-  </si>
-  <si>
-    <t>turret, mounted gun</t>
-  </si>
-  <si>
-    <t>катожи</t>
-  </si>
-  <si>
-    <t>katokol</t>
-  </si>
-  <si>
-    <t>staff, stick, pole</t>
-  </si>
-  <si>
-    <t>катокол</t>
-  </si>
-  <si>
-    <t>kelomit</t>
-  </si>
-  <si>
-    <t>to need, to require</t>
-  </si>
-  <si>
-    <t>кэломит</t>
-  </si>
-  <si>
-    <t>keravat</t>
-  </si>
-  <si>
-    <t>to kiss</t>
-  </si>
-  <si>
-    <t>кэрават</t>
-  </si>
-  <si>
-    <t>kerem</t>
-  </si>
-  <si>
-    <t>surcoat, tabard</t>
-  </si>
-  <si>
-    <t>кэрэм</t>
-  </si>
-  <si>
-    <t>ketsya</t>
-  </si>
-  <si>
-    <t>to wait</t>
-  </si>
-  <si>
-    <t>кэця</t>
-  </si>
-  <si>
-    <t>keyda</t>
-  </si>
-  <si>
-    <t>being fat</t>
-  </si>
-  <si>
-    <t>кэйда</t>
-  </si>
-  <si>
-    <t>keymo</t>
-  </si>
-  <si>
-    <t>king, emperor</t>
-  </si>
-  <si>
-    <t>кэймо</t>
-  </si>
-  <si>
-    <t>keynka</t>
-  </si>
-  <si>
-    <t>excuse</t>
-  </si>
-  <si>
-    <t>кэйнка</t>
-  </si>
-  <si>
-    <t>keyrin</t>
-  </si>
-  <si>
-    <t>galaxy</t>
-  </si>
-  <si>
-    <t>кэйрин</t>
-  </si>
-  <si>
-    <t>khadiyatiy</t>
-  </si>
-  <si>
-    <t>solar system</t>
-  </si>
-  <si>
-    <t>кшадиятй</t>
-  </si>
-  <si>
-    <t>khamiymashka</t>
-  </si>
-  <si>
-    <t>detector</t>
-  </si>
-  <si>
-    <t>кшамймашка</t>
-  </si>
-  <si>
-    <t>khamojan</t>
-  </si>
-  <si>
-    <t>purpose, usage, use</t>
-  </si>
-  <si>
-    <t>кшаможан</t>
-  </si>
-  <si>
-    <t>khamyat</t>
-  </si>
-  <si>
-    <t>to detect</t>
-  </si>
-  <si>
-    <t>кшамят</t>
-  </si>
-  <si>
-    <t>khan</t>
-  </si>
-  <si>
-    <t>student, apprentice, learner</t>
-  </si>
-  <si>
-    <t>кшан</t>
-  </si>
-  <si>
-    <t>khaviko</t>
-  </si>
-  <si>
-    <t>empire, nation, country</t>
-  </si>
-  <si>
-    <t>кшавико</t>
-  </si>
-  <si>
-    <t>khnaba</t>
-  </si>
-  <si>
-    <t>sandwich, burger</t>
-  </si>
-  <si>
-    <t>кшнаба</t>
-  </si>
-  <si>
-    <t>khnabsi</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>кшнабси</t>
-  </si>
-  <si>
-    <t>khneskiya</t>
-  </si>
-  <si>
-    <t>mission, quest, assignment, job</t>
-  </si>
-  <si>
-    <t>кшнэския</t>
-  </si>
-  <si>
-    <t>khnolot</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>кшнолот</t>
-  </si>
-  <si>
-    <t>khnomo</t>
-  </si>
-  <si>
-    <t>evil, dark, grim</t>
-  </si>
-  <si>
-    <t>кшномо</t>
-  </si>
-  <si>
-    <t>khnorota</t>
-  </si>
-  <si>
-    <t>corporation, company</t>
-  </si>
-  <si>
-    <t>кшнорота</t>
-  </si>
-  <si>
-    <t>khnula</t>
-  </si>
-  <si>
-    <t>mud, dirt, grime, slop</t>
-  </si>
-  <si>
-    <t>кшнула</t>
-  </si>
-  <si>
-    <t>khnulavat</t>
-  </si>
-  <si>
-    <t>to defile, to make dirty, to violate</t>
-  </si>
-  <si>
-    <t>кшнулават</t>
-  </si>
-  <si>
-    <t>khochya</t>
-  </si>
-  <si>
-    <t>to destroy, to crumble</t>
-  </si>
-  <si>
-    <t>кшочя</t>
-  </si>
-  <si>
-    <t>khomit</t>
-  </si>
-  <si>
-    <t>to use</t>
-  </si>
-  <si>
-    <t>кшомит</t>
-  </si>
-  <si>
-    <t>khtiysni</t>
-  </si>
-  <si>
-    <t>penis, male reproductive organs</t>
-  </si>
-  <si>
-    <t>кштйсни</t>
-  </si>
-  <si>
-    <t>kishem</t>
-  </si>
-  <si>
-    <t>crystal, gem</t>
-  </si>
-  <si>
-    <t>кишэм</t>
-  </si>
-  <si>
-    <t>kiyna</t>
-  </si>
-  <si>
-    <t>brave, bold, courageous</t>
-  </si>
-  <si>
-    <t>кйна</t>
-  </si>
-  <si>
-    <t>kiyntya</t>
-  </si>
-  <si>
-    <t>crown, helmet</t>
-  </si>
-  <si>
-    <t>кйнтя</t>
-  </si>
-  <si>
-    <t>klavom</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>клавом</t>
-  </si>
-  <si>
-    <t>kliyj</t>
-  </si>
-  <si>
-    <t>cell (biology)</t>
-  </si>
-  <si>
-    <t>клйж</t>
-  </si>
-  <si>
-    <t>kliyjbosenk</t>
-  </si>
-  <si>
-    <t>dna</t>
-  </si>
-  <si>
-    <t>клйжбосэнк</t>
-  </si>
-  <si>
-    <t>klobo</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>клобо</t>
-  </si>
-  <si>
-    <t>klod</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>клод</t>
-  </si>
-  <si>
-    <t>klom</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>клом</t>
-  </si>
-  <si>
-    <t>klosis</t>
-  </si>
-  <si>
-    <t>golem</t>
-  </si>
-  <si>
-    <t>клосис</t>
-  </si>
-  <si>
-    <t>klov</t>
-  </si>
-  <si>
-    <t>hard (adjective, not for verbs)</t>
-  </si>
-  <si>
-    <t>клов</t>
-  </si>
-  <si>
-    <t>kniyga</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>кнйга</t>
-  </si>
-  <si>
-    <t>knizyo</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>книзё</t>
-  </si>
-  <si>
-    <t>knopka</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>кнопка</t>
-  </si>
-  <si>
-    <t>koda</t>
-  </si>
-  <si>
-    <t>some, unknown amount</t>
-  </si>
-  <si>
-    <t>кода</t>
-  </si>
-  <si>
-    <t>kodyet</t>
-  </si>
-  <si>
-    <t>to turn off</t>
-  </si>
-  <si>
-    <t>кодет</t>
-  </si>
-  <si>
-    <t>kofregad</t>
-  </si>
-  <si>
-    <t>elemental</t>
-  </si>
-  <si>
-    <t>кофрэгад</t>
-  </si>
-  <si>
-    <t>kohel</t>
-  </si>
-  <si>
-    <t>kohl (black makeup thing)</t>
-  </si>
-  <si>
-    <t>кохэл</t>
-  </si>
-  <si>
-    <t>kojnok</t>
-  </si>
-  <si>
-    <t>bettle</t>
-  </si>
-  <si>
-    <t>кожнок</t>
-  </si>
-  <si>
-    <t>kol</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>кол</t>
-  </si>
-  <si>
-    <t>koloshem</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>колошэм</t>
-  </si>
-  <si>
-    <t>komiy</t>
-  </si>
-  <si>
-    <t>hand radio, walkie talkie, handheld transceiver</t>
-  </si>
-  <si>
-    <t>комй</t>
-  </si>
-  <si>
-    <t>komnata</t>
-  </si>
-  <si>
-    <t>room, chamber, lodgings, dwelling, apartment</t>
-  </si>
-  <si>
-    <t>комната</t>
-  </si>
-  <si>
-    <t>kopit</t>
-  </si>
-  <si>
-    <t>to buy</t>
-  </si>
-  <si>
-    <t>копит</t>
-  </si>
-  <si>
-    <t>korab</t>
-  </si>
-  <si>
-    <t>spacecraft, spaceship, ship</t>
-  </si>
-  <si>
-    <t>кораб</t>
-  </si>
-  <si>
-    <t>korin</t>
-  </si>
-  <si>
-    <t>корин</t>
-  </si>
-  <si>
-    <t>korobka</t>
-  </si>
-  <si>
-    <t>chest, box, kist</t>
-  </si>
-  <si>
-    <t>коробка</t>
-  </si>
-  <si>
-    <t>korust</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>коруст</t>
-  </si>
-  <si>
-    <t>korustiyn</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>корустйн</t>
-  </si>
-  <si>
-    <t>koshan</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>кошан</t>
-  </si>
-  <si>
-    <t>koshana</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>кошана</t>
-  </si>
-  <si>
-    <t>koslama</t>
-  </si>
-  <si>
-    <t>to cuss, to swear</t>
-  </si>
-  <si>
-    <t>кослама</t>
-  </si>
-  <si>
-    <t>kosma</t>
-  </si>
-  <si>
-    <t>neshozic orc</t>
-  </si>
-  <si>
-    <t>косма</t>
-  </si>
-  <si>
-    <t>kosoril</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>косорил</t>
-  </si>
-  <si>
-    <t>kot</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>кот</t>
-  </si>
-  <si>
-    <t>krasnet</t>
-  </si>
-  <si>
-    <t>to blush, fluster</t>
-  </si>
-  <si>
-    <t>краснэт</t>
-  </si>
-  <si>
-    <t>krat</t>
-  </si>
-  <si>
-    <t>place, location</t>
-  </si>
-  <si>
-    <t>крат</t>
-  </si>
-  <si>
-    <t>kray</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>край</t>
-  </si>
-  <si>
-    <t>krelitsa</t>
-  </si>
-  <si>
-    <t>крэлица</t>
-  </si>
-  <si>
-    <t>krepkiy</t>
-  </si>
-  <si>
-    <t>sturdy, strong</t>
-  </si>
-  <si>
-    <t>крэпкй</t>
-  </si>
-  <si>
-    <t>kvartira</t>
-  </si>
-  <si>
-    <t>an apartment</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>lakdat</t>
-  </si>
-  <si>
-    <t>to connect, to link together, to attach</t>
-  </si>
-  <si>
-    <t>лакдат</t>
-  </si>
-  <si>
-    <t>lamk</t>
-  </si>
-  <si>
-    <t>reason, cause of</t>
-  </si>
-  <si>
-    <t>ламк</t>
-  </si>
-  <si>
-    <t>lanakon</t>
-  </si>
-  <si>
-    <t>ally, teammate</t>
-  </si>
-  <si>
-    <t>ланакон</t>
-  </si>
-  <si>
-    <t>lanik</t>
-  </si>
-  <si>
-    <t>shine, direct a light towards</t>
-  </si>
-  <si>
-    <t>ланик</t>
-  </si>
-  <si>
-    <t>lano</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>лано</t>
-  </si>
-  <si>
-    <t>latas</t>
-  </si>
-  <si>
-    <t>beam, bolt of lightning, laser (general term)</t>
-  </si>
-  <si>
-    <t>латас</t>
-  </si>
-  <si>
-    <t>latso</t>
-  </si>
-  <si>
-    <t>leader</t>
-  </si>
-  <si>
-    <t>лацо</t>
-  </si>
-  <si>
-    <t>lenharsav</t>
-  </si>
-  <si>
-    <t>fortification</t>
-  </si>
-  <si>
-    <t>лэнхарсав</t>
-  </si>
-  <si>
-    <t>lerov</t>
-  </si>
-  <si>
-    <t>empty, nothing there</t>
-  </si>
-  <si>
-    <t>лэров</t>
-  </si>
-  <si>
-    <t>lesjo</t>
-  </si>
-  <si>
-    <t>soft (adjective, not for verbs)</t>
-  </si>
-  <si>
-    <t>лэсжо</t>
-  </si>
-  <si>
-    <t>lesnoy</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>лэсной</t>
-  </si>
-  <si>
-    <t>leyn</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>лэйн</t>
-  </si>
-  <si>
-    <t>lin</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>лин</t>
-  </si>
-  <si>
-    <t>linikav</t>
-  </si>
-  <si>
-    <t>shop, store</t>
-  </si>
-  <si>
-    <t>линикав</t>
+    <t>линя</t>
   </si>
   <si>
     <t>lis</t>
@@ -20436,13 +20445,13 @@
       <c r="X352" s="17"/>
     </row>
     <row r="353">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="14" t="s">
         <v>1237</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="14" t="s">
         <v>1238</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="C353" s="14" t="s">
         <v>1239</v>
       </c>
       <c r="D353" s="17"/>
@@ -20468,13 +20477,13 @@
       <c r="X353" s="17"/>
     </row>
     <row r="354">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="9" t="s">
         <v>1240</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="9" t="s">
         <v>1242</v>
       </c>
       <c r="D354" s="17"/>
@@ -20564,13 +20573,13 @@
       <c r="X356" s="17"/>
     </row>
     <row r="357">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="14" t="s">
         <v>1249</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="14" t="s">
         <v>1250</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="C357" s="14" t="s">
         <v>1251</v>
       </c>
       <c r="D357" s="17"/>
@@ -20596,13 +20605,13 @@
       <c r="X357" s="17"/>
     </row>
     <row r="358">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="9" t="s">
         <v>1253</v>
       </c>
-      <c r="C358" s="14" t="s">
+      <c r="C358" s="9" t="s">
         <v>1254</v>
       </c>
       <c r="D358" s="17"/>
@@ -20724,13 +20733,13 @@
       <c r="X361" s="17"/>
     </row>
     <row r="362">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="14" t="s">
         <v>1264</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="14" t="s">
         <v>1265</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="14" t="s">
         <v>1266</v>
       </c>
       <c r="D362" s="17"/>
@@ -20788,10 +20797,10 @@
       <c r="X363" s="17"/>
     </row>
     <row r="364">
-      <c r="A364" s="19" t="s">
+      <c r="A364" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="B364" s="19" t="s">
+      <c r="B364" s="9" t="s">
         <v>1271</v>
       </c>
       <c r="C364" s="9" t="s">
@@ -20820,10 +20829,10 @@
       <c r="X364" s="17"/>
     </row>
     <row r="365">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="19" t="s">
         <v>1273</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="19" t="s">
         <v>1274</v>
       </c>
       <c r="C365" s="9" t="s">
@@ -20916,10 +20925,10 @@
       <c r="X367" s="17"/>
     </row>
     <row r="368">
-      <c r="A368" s="19" t="s">
+      <c r="A368" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="B368" s="19" t="s">
+      <c r="B368" s="9" t="s">
         <v>1283</v>
       </c>
       <c r="C368" s="9" t="s">
@@ -20948,10 +20957,10 @@
       <c r="X368" s="17"/>
     </row>
     <row r="369">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="19" t="s">
         <v>1285</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="19" t="s">
         <v>1286</v>
       </c>
       <c r="C369" s="9" t="s">
@@ -20980,7 +20989,7 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="14" t="s">
         <v>1288</v>
       </c>
       <c r="B370" s="9" t="s">
@@ -21140,13 +21149,13 @@
       <c r="X374" s="17"/>
     </row>
     <row r="375">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="9" t="s">
         <v>1303</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="9" t="s">
         <v>1304</v>
       </c>
-      <c r="C375" s="14" t="s">
+      <c r="C375" s="9" t="s">
         <v>1305</v>
       </c>
       <c r="D375" s="17"/>
@@ -21172,13 +21181,13 @@
       <c r="X375" s="17"/>
     </row>
     <row r="376">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="14" t="s">
         <v>1307</v>
       </c>
-      <c r="C376" s="9" t="s">
+      <c r="C376" s="14" t="s">
         <v>1308</v>
       </c>
       <c r="D376" s="17"/>
@@ -21236,13 +21245,13 @@
       <c r="X377" s="17"/>
     </row>
     <row r="378">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="C378" s="14" t="s">
+      <c r="C378" s="9" t="s">
         <v>1314</v>
       </c>
       <c r="D378" s="17"/>
@@ -21300,13 +21309,13 @@
       <c r="X379" s="17"/>
     </row>
     <row r="380">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="14" t="s">
         <v>1318</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="14" t="s">
         <v>1319</v>
       </c>
-      <c r="C380" s="9" t="s">
+      <c r="C380" s="14" t="s">
         <v>1320</v>
       </c>
       <c r="D380" s="17"/>
@@ -21492,13 +21501,13 @@
       <c r="X385" s="17"/>
     </row>
     <row r="386">
-      <c r="A386" s="14" t="s">
+      <c r="A386" s="9" t="s">
         <v>1336</v>
       </c>
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="C386" s="14" t="s">
+      <c r="C386" s="9" t="s">
         <v>1338</v>
       </c>
       <c r="D386" s="17"/>
@@ -21524,13 +21533,13 @@
       <c r="X386" s="17"/>
     </row>
     <row r="387">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="14" t="s">
         <v>1340</v>
       </c>
-      <c r="C387" s="9" t="s">
+      <c r="C387" s="14" t="s">
         <v>1341</v>
       </c>
       <c r="D387" s="17"/>
@@ -21588,13 +21597,13 @@
       <c r="X388" s="17"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="9" t="s">
         <v>1345</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="9" t="s">
         <v>1346</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C389" s="9" t="s">
         <v>1347</v>
       </c>
       <c r="D389" s="17"/>
@@ -21684,13 +21693,13 @@
       <c r="X391" s="17"/>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="14" t="s">
         <v>1354</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="14" t="s">
         <v>1355</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="14" t="s">
         <v>1356</v>
       </c>
       <c r="D392" s="17"/>
@@ -21716,13 +21725,13 @@
       <c r="X392" s="17"/>
     </row>
     <row r="393">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="9" t="s">
         <v>1357</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="C393" s="14" t="s">
+      <c r="C393" s="9" t="s">
         <v>1359</v>
       </c>
       <c r="D393" s="17"/>
@@ -21748,13 +21757,13 @@
       <c r="X393" s="17"/>
     </row>
     <row r="394">
-      <c r="A394" s="19" t="s">
+      <c r="A394" s="14" t="s">
         <v>1360</v>
       </c>
-      <c r="B394" s="19" t="s">
+      <c r="B394" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="C394" s="9" t="s">
+      <c r="C394" s="14" t="s">
         <v>1362</v>
       </c>
       <c r="D394" s="17"/>
@@ -21780,13 +21789,13 @@
       <c r="X394" s="17"/>
     </row>
     <row r="395">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="19" t="s">
         <v>1363</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="19" t="s">
         <v>1364</v>
       </c>
-      <c r="C395" s="14" t="s">
+      <c r="C395" s="9" t="s">
         <v>1365</v>
       </c>
       <c r="D395" s="17"/>
@@ -21876,13 +21885,13 @@
       <c r="X397" s="17"/>
     </row>
     <row r="398">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="14" t="s">
         <v>1372</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="14" t="s">
         <v>1373</v>
       </c>
-      <c r="C398" s="9" t="s">
+      <c r="C398" s="14" t="s">
         <v>1374</v>
       </c>
       <c r="D398" s="17"/>
@@ -21940,13 +21949,13 @@
       <c r="X399" s="17"/>
     </row>
     <row r="400">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="B400" s="14" t="s">
+      <c r="B400" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="C400" s="14" t="s">
+      <c r="C400" s="9" t="s">
         <v>1380</v>
       </c>
       <c r="D400" s="17"/>
@@ -21972,13 +21981,13 @@
       <c r="X400" s="17"/>
     </row>
     <row r="401">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="14" t="s">
         <v>1382</v>
       </c>
-      <c r="C401" s="9" t="s">
+      <c r="C401" s="14" t="s">
         <v>1383</v>
       </c>
       <c r="D401" s="17"/>
@@ -22164,13 +22173,13 @@
       <c r="X406" s="17"/>
     </row>
     <row r="407">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="9" t="s">
         <v>1399</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="C407" s="14" t="s">
+      <c r="C407" s="9" t="s">
         <v>1401</v>
       </c>
       <c r="D407" s="17"/>
@@ -22228,13 +22237,13 @@
       <c r="X408" s="17"/>
     </row>
     <row r="409">
-      <c r="A409" s="9" t="s">
+      <c r="A409" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="B409" s="9" t="s">
+      <c r="B409" s="14" t="s">
         <v>1406</v>
       </c>
-      <c r="C409" s="9" t="s">
+      <c r="C409" s="14" t="s">
         <v>1407</v>
       </c>
       <c r="D409" s="17"/>
@@ -22324,13 +22333,13 @@
       <c r="X411" s="17"/>
     </row>
     <row r="412">
-      <c r="A412" s="14" t="s">
+      <c r="A412" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="B412" s="14" t="s">
+      <c r="B412" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="C412" s="14" t="s">
+      <c r="C412" s="9" t="s">
         <v>1416</v>
       </c>
       <c r="D412" s="17"/>
@@ -22388,13 +22397,13 @@
       <c r="X413" s="17"/>
     </row>
     <row r="414">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="14" t="s">
         <v>1420</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="14" t="s">
         <v>1421</v>
       </c>
-      <c r="C414" s="9" t="s">
+      <c r="C414" s="14" t="s">
         <v>1422</v>
       </c>
       <c r="D414" s="17"/>
@@ -22420,13 +22429,13 @@
       <c r="X414" s="17"/>
     </row>
     <row r="415">
-      <c r="A415" s="14" t="s">
+      <c r="A415" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="B415" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="C415" s="14" t="s">
+      <c r="C415" s="9" t="s">
         <v>1425</v>
       </c>
       <c r="D415" s="17"/>
@@ -22452,13 +22461,13 @@
       <c r="X415" s="17"/>
     </row>
     <row r="416">
-      <c r="A416" s="9" t="s">
+      <c r="A416" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="C416" s="9" t="s">
+      <c r="C416" s="14" t="s">
         <v>1428</v>
       </c>
       <c r="D416" s="17"/>
@@ -22580,13 +22589,13 @@
       <c r="X419" s="17"/>
     </row>
     <row r="420">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B420" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C420" s="9" t="s">
         <v>1440</v>
       </c>
       <c r="D420" s="17"/>
@@ -22644,13 +22653,13 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C422" s="14" t="s">
         <v>1446</v>
       </c>
       <c r="D422" s="17"/>
@@ -22740,13 +22749,13 @@
       <c r="X424" s="17"/>
     </row>
     <row r="425">
-      <c r="A425" s="14" t="s">
+      <c r="A425" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="B425" s="14" t="s">
+      <c r="B425" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="C425" s="14" t="s">
+      <c r="C425" s="9" t="s">
         <v>1455</v>
       </c>
       <c r="D425" s="17"/>
@@ -22772,13 +22781,13 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="9" t="s">
+      <c r="A426" s="14" t="s">
         <v>1456</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="14" t="s">
         <v>1457</v>
       </c>
-      <c r="C426" s="9" t="s">
+      <c r="C426" s="14" t="s">
         <v>1458</v>
       </c>
       <c r="D426" s="17"/>
@@ -22804,14 +22813,14 @@
       <c r="X426" s="17"/>
     </row>
     <row r="427">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="B427" s="14" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C427" s="14" t="s">
+      <c r="B427" s="9" t="s">
         <v>1460</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>1461</v>
       </c>
       <c r="D427" s="17"/>
       <c r="E427" s="17"/>
@@ -22837,13 +22846,13 @@
     </row>
     <row r="428">
       <c r="A428" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D428" s="17"/>
       <c r="E428" s="17"/>
@@ -22868,8 +22877,8 @@
       <c r="X428" s="17"/>
     </row>
     <row r="429">
-      <c r="A429" s="9" t="s">
-        <v>1463</v>
+      <c r="A429" s="14" t="s">
+        <v>1464</v>
       </c>
       <c r="B429" s="14" t="s">
         <v>1464</v>
@@ -22900,7 +22909,7 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="9" t="s">
         <v>1466</v>
       </c>
       <c r="B430" s="14" t="s">
@@ -22964,13 +22973,13 @@
       <c r="X431" s="17"/>
     </row>
     <row r="432">
-      <c r="A432" s="9" t="s">
+      <c r="A432" s="14" t="s">
         <v>1472</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="C432" s="9" t="s">
+      <c r="C432" s="14" t="s">
         <v>1474</v>
       </c>
       <c r="D432" s="17"/>
@@ -23028,13 +23037,13 @@
       <c r="X433" s="17"/>
     </row>
     <row r="434">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="B434" s="14" t="s">
+      <c r="B434" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="C434" s="14" t="s">
+      <c r="C434" s="9" t="s">
         <v>1480</v>
       </c>
       <c r="D434" s="17"/>
@@ -23060,13 +23069,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="14" t="s">
         <v>1482</v>
       </c>
-      <c r="C435" s="9" t="s">
+      <c r="C435" s="14" t="s">
         <v>1483</v>
       </c>
       <c r="D435" s="17"/>
@@ -23092,13 +23101,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="B436" s="14" t="s">
+      <c r="B436" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="C436" s="14" t="s">
+      <c r="C436" s="9" t="s">
         <v>1486</v>
       </c>
       <c r="D436" s="17"/>
@@ -23188,13 +23197,13 @@
       <c r="X438" s="17"/>
     </row>
     <row r="439">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="C439" s="9" t="s">
+      <c r="C439" s="14" t="s">
         <v>1495</v>
       </c>
       <c r="D439" s="17"/>
@@ -23220,13 +23229,13 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="14" t="s">
+      <c r="A440" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="B440" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="C440" s="14" t="s">
+      <c r="C440" s="9" t="s">
         <v>1498</v>
       </c>
       <c r="D440" s="17"/>
@@ -23252,13 +23261,13 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="14" t="s">
         <v>1499</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="14" t="s">
         <v>1500</v>
       </c>
-      <c r="C441" s="9" t="s">
+      <c r="C441" s="14" t="s">
         <v>1501</v>
       </c>
       <c r="D441" s="17"/>
@@ -23284,7 +23293,7 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="9" t="s">
         <v>1502</v>
       </c>
       <c r="B442" s="9" t="s">
@@ -23316,7 +23325,7 @@
       <c r="X442" s="17"/>
     </row>
     <row r="443">
-      <c r="A443" s="9" t="s">
+      <c r="A443" s="14" t="s">
         <v>1505</v>
       </c>
       <c r="B443" s="9" t="s">
@@ -23348,10 +23357,10 @@
       <c r="X443" s="17"/>
     </row>
     <row r="444">
-      <c r="A444" s="19" t="s">
+      <c r="A444" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="B444" s="19" t="s">
+      <c r="B444" s="9" t="s">
         <v>1509</v>
       </c>
       <c r="C444" s="9" t="s">
@@ -23380,10 +23389,10 @@
       <c r="X444" s="17"/>
     </row>
     <row r="445">
-      <c r="A445" s="38" t="s">
+      <c r="A445" s="19" t="s">
         <v>1511</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="19" t="s">
         <v>1512</v>
       </c>
       <c r="C445" s="9" t="s">
@@ -23412,7 +23421,7 @@
       <c r="X445" s="17"/>
     </row>
     <row r="446">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="38" t="s">
         <v>1514</v>
       </c>
       <c r="B446" s="9" t="s">
@@ -23444,13 +23453,13 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="14" t="s">
+      <c r="A447" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="B447" s="14" t="s">
+      <c r="B447" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="C447" s="14" t="s">
+      <c r="C447" s="9" t="s">
         <v>1519</v>
       </c>
       <c r="D447" s="17"/>
@@ -23604,13 +23613,13 @@
       <c r="X451" s="17"/>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="C452" s="9" t="s">
+      <c r="C452" s="14" t="s">
         <v>1534</v>
       </c>
       <c r="D452" s="17"/>
@@ -23700,13 +23709,13 @@
       <c r="X454" s="17"/>
     </row>
     <row r="455">
-      <c r="A455" s="14" t="s">
+      <c r="A455" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="C455" s="14" t="s">
+      <c r="C455" s="9" t="s">
         <v>1543</v>
       </c>
       <c r="D455" s="17"/>
@@ -23764,13 +23773,13 @@
       <c r="X456" s="17"/>
     </row>
     <row r="457">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="14" t="s">
         <v>1547</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="14" t="s">
         <v>1548</v>
       </c>
-      <c r="C457" s="9" t="s">
+      <c r="C457" s="14" t="s">
         <v>1549</v>
       </c>
       <c r="D457" s="17"/>
@@ -23828,13 +23837,13 @@
       <c r="X458" s="17"/>
     </row>
     <row r="459">
-      <c r="A459" s="14" t="s">
+      <c r="A459" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="B459" s="14" t="s">
+      <c r="B459" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="C459" s="14" t="s">
+      <c r="C459" s="9" t="s">
         <v>1555</v>
       </c>
       <c r="D459" s="17"/>
@@ -23860,13 +23869,13 @@
       <c r="X459" s="17"/>
     </row>
     <row r="460">
-      <c r="A460" s="9" t="s">
+      <c r="A460" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="14" t="s">
         <v>1557</v>
       </c>
-      <c r="C460" s="9" t="s">
+      <c r="C460" s="14" t="s">
         <v>1558</v>
       </c>
       <c r="D460" s="17"/>
@@ -23892,13 +23901,13 @@
       <c r="X460" s="17"/>
     </row>
     <row r="461">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="C461" s="14" t="s">
+      <c r="C461" s="9" t="s">
         <v>1561</v>
       </c>
       <c r="D461" s="17"/>
@@ -23924,13 +23933,13 @@
       <c r="X461" s="17"/>
     </row>
     <row r="462">
-      <c r="A462" s="9" t="s">
+      <c r="A462" s="14" t="s">
         <v>1562</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="14" t="s">
         <v>1563</v>
       </c>
-      <c r="C462" s="9" t="s">
+      <c r="C462" s="14" t="s">
         <v>1564</v>
       </c>
       <c r="D462" s="17"/>
@@ -24020,13 +24029,13 @@
       <c r="X464" s="17"/>
     </row>
     <row r="465">
-      <c r="A465" s="14" t="s">
+      <c r="A465" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="C465" s="14" t="s">
+      <c r="C465" s="9" t="s">
         <v>1573</v>
       </c>
       <c r="D465" s="17"/>
@@ -24052,13 +24061,13 @@
       <c r="X465" s="17"/>
     </row>
     <row r="466">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="14" t="s">
         <v>1574</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="14" t="s">
         <v>1575</v>
       </c>
-      <c r="C466" s="9" t="s">
+      <c r="C466" s="14" t="s">
         <v>1576</v>
       </c>
       <c r="D466" s="17"/>
@@ -24212,13 +24221,13 @@
       <c r="X470" s="17"/>
     </row>
     <row r="471">
-      <c r="A471" s="14" t="s">
+      <c r="A471" s="9" t="s">
         <v>1589</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="9" t="s">
         <v>1590</v>
       </c>
-      <c r="C471" s="14" t="s">
+      <c r="C471" s="9" t="s">
         <v>1591</v>
       </c>
       <c r="D471" s="17"/>
@@ -24276,13 +24285,13 @@
       <c r="X472" s="17"/>
     </row>
     <row r="473">
-      <c r="A473" s="9" t="s">
+      <c r="A473" s="14" t="s">
         <v>1595</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="14" t="s">
         <v>1596</v>
       </c>
-      <c r="C473" s="9" t="s">
+      <c r="C473" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D473" s="17"/>
@@ -24308,13 +24317,13 @@
       <c r="X473" s="17"/>
     </row>
     <row r="474">
-      <c r="A474" s="14" t="s">
+      <c r="A474" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="9" t="s">
         <v>1599</v>
       </c>
-      <c r="C474" s="14" t="s">
+      <c r="C474" s="9" t="s">
         <v>1600</v>
       </c>
       <c r="D474" s="17"/>
@@ -24372,13 +24381,13 @@
       <c r="X475" s="17"/>
     </row>
     <row r="476">
-      <c r="A476" s="9" t="s">
+      <c r="A476" s="14" t="s">
         <v>1604</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="14" t="s">
         <v>1605</v>
       </c>
-      <c r="C476" s="9" t="s">
+      <c r="C476" s="14" t="s">
         <v>1606</v>
       </c>
       <c r="D476" s="17"/>
@@ -24532,13 +24541,13 @@
       <c r="X480" s="17"/>
     </row>
     <row r="481">
-      <c r="A481" s="14" t="s">
+      <c r="A481" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="C481" s="14" t="s">
+      <c r="C481" s="9" t="s">
         <v>1621</v>
       </c>
       <c r="D481" s="17"/>
@@ -24692,13 +24701,13 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="14" t="s">
         <v>1634</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="14" t="s">
         <v>1635</v>
       </c>
-      <c r="C486" s="9" t="s">
+      <c r="C486" s="14" t="s">
         <v>1636</v>
       </c>
       <c r="D486" s="17"/>
@@ -24724,13 +24733,13 @@
       <c r="X486" s="17"/>
     </row>
     <row r="487">
-      <c r="A487" s="14" t="s">
+      <c r="A487" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C487" s="9" t="s">
         <v>1639</v>
       </c>
       <c r="D487" s="17"/>
@@ -24788,13 +24797,13 @@
       <c r="X488" s="17"/>
     </row>
     <row r="489">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="C489" s="9" t="s">
+      <c r="C489" s="14" t="s">
         <v>1645</v>
       </c>
       <c r="D489" s="17"/>
@@ -24820,13 +24829,13 @@
       <c r="X489" s="17"/>
     </row>
     <row r="490">
-      <c r="A490" s="14" t="s">
+      <c r="A490" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="B490" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="C490" s="14" t="s">
+      <c r="C490" s="9" t="s">
         <v>1648</v>
       </c>
       <c r="D490" s="17"/>
@@ -24852,13 +24861,13 @@
       <c r="X490" s="17"/>
     </row>
     <row r="491">
-      <c r="A491" s="9" t="s">
+      <c r="A491" s="14" t="s">
         <v>1649</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="14" t="s">
         <v>1650</v>
       </c>
-      <c r="C491" s="9" t="s">
+      <c r="C491" s="14" t="s">
         <v>1651</v>
       </c>
       <c r="D491" s="17"/>
@@ -24884,10 +24893,10 @@
       <c r="X491" s="17"/>
     </row>
     <row r="492">
-      <c r="A492" s="19" t="s">
+      <c r="A492" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="B492" s="19" t="s">
+      <c r="B492" s="9" t="s">
         <v>1653</v>
       </c>
       <c r="C492" s="9" t="s">
@@ -24916,10 +24925,10 @@
       <c r="X492" s="17"/>
     </row>
     <row r="493">
-      <c r="A493" s="9" t="s">
+      <c r="A493" s="19" t="s">
         <v>1655</v>
       </c>
-      <c r="B493" s="9" t="s">
+      <c r="B493" s="19" t="s">
         <v>1656</v>
       </c>
       <c r="C493" s="9" t="s">
@@ -24948,13 +24957,13 @@
       <c r="X493" s="17"/>
     </row>
     <row r="494">
-      <c r="A494" s="14" t="s">
+      <c r="A494" s="9" t="s">
         <v>1658</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B494" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="C494" s="14" t="s">
+      <c r="C494" s="9" t="s">
         <v>1660</v>
       </c>
       <c r="D494" s="17"/>
@@ -24980,13 +24989,13 @@
       <c r="X494" s="17"/>
     </row>
     <row r="495">
-      <c r="A495" s="9" t="s">
+      <c r="A495" s="14" t="s">
         <v>1661</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="14" t="s">
         <v>1662</v>
       </c>
-      <c r="C495" s="9" t="s">
+      <c r="C495" s="14" t="s">
         <v>1663</v>
       </c>
       <c r="D495" s="17"/>
@@ -25044,13 +25053,13 @@
       <c r="X496" s="17"/>
     </row>
     <row r="497">
-      <c r="A497" s="14" t="s">
+      <c r="A497" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="9" t="s">
         <v>1668</v>
       </c>
-      <c r="C497" s="14" t="s">
+      <c r="C497" s="9" t="s">
         <v>1669</v>
       </c>
       <c r="D497" s="17"/>
@@ -25172,13 +25181,13 @@
       <c r="X500" s="17"/>
     </row>
     <row r="501">
-      <c r="A501" s="9" t="s">
+      <c r="A501" s="14" t="s">
         <v>1679</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="14" t="s">
         <v>1680</v>
       </c>
-      <c r="C501" s="9" t="s">
+      <c r="C501" s="14" t="s">
         <v>1681</v>
       </c>
       <c r="D501" s="17"/>
@@ -25204,13 +25213,13 @@
       <c r="X501" s="17"/>
     </row>
     <row r="502">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="9" t="s">
         <v>1682</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="C502" s="14" t="s">
+      <c r="C502" s="9" t="s">
         <v>1684</v>
       </c>
       <c r="D502" s="17"/>
@@ -25268,13 +25277,13 @@
       <c r="X503" s="17"/>
     </row>
     <row r="504">
-      <c r="A504" s="9" t="s">
+      <c r="A504" s="14" t="s">
         <v>1688</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="14" t="s">
         <v>1689</v>
       </c>
-      <c r="C504" s="9" t="s">
+      <c r="C504" s="14" t="s">
         <v>1690</v>
       </c>
       <c r="D504" s="17"/>
@@ -25332,13 +25341,13 @@
       <c r="X505" s="17"/>
     </row>
     <row r="506">
-      <c r="A506" s="14" t="s">
+      <c r="A506" s="9" t="s">
         <v>1694</v>
       </c>
-      <c r="B506" s="14" t="s">
+      <c r="B506" s="9" t="s">
         <v>1695</v>
       </c>
-      <c r="C506" s="14" t="s">
+      <c r="C506" s="9" t="s">
         <v>1696</v>
       </c>
       <c r="D506" s="17"/>
@@ -25364,13 +25373,13 @@
       <c r="X506" s="17"/>
     </row>
     <row r="507">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="14" t="s">
         <v>1697</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="14" t="s">
         <v>1698</v>
       </c>
-      <c r="C507" s="9" t="s">
+      <c r="C507" s="14" t="s">
         <v>1699</v>
       </c>
       <c r="D507" s="17"/>
@@ -25428,13 +25437,13 @@
       <c r="X508" s="17"/>
     </row>
     <row r="509">
-      <c r="A509" s="14" t="s">
+      <c r="A509" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="B509" s="14" t="s">
+      <c r="B509" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="C509" s="14" t="s">
+      <c r="C509" s="9" t="s">
         <v>1705</v>
       </c>
       <c r="D509" s="17"/>
@@ -25524,13 +25533,13 @@
       <c r="X511" s="17"/>
     </row>
     <row r="512">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="14" t="s">
         <v>1712</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="14" t="s">
         <v>1713</v>
       </c>
-      <c r="C512" s="9" t="s">
+      <c r="C512" s="14" t="s">
         <v>1714</v>
       </c>
       <c r="D512" s="17"/>
@@ -25559,10 +25568,10 @@
       <c r="A513" s="9" t="s">
         <v>1715</v>
       </c>
-      <c r="B513" s="14" t="s">
+      <c r="B513" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="C513" s="14" t="s">
+      <c r="C513" s="9" t="s">
         <v>1717</v>
       </c>
       <c r="D513" s="17"/>
@@ -25588,7 +25597,7 @@
       <c r="X513" s="17"/>
     </row>
     <row r="514">
-      <c r="A514" s="14" t="s">
+      <c r="A514" s="9" t="s">
         <v>1718</v>
       </c>
       <c r="B514" s="14" t="s">
@@ -25812,13 +25821,13 @@
       <c r="X520" s="17"/>
     </row>
     <row r="521">
-      <c r="A521" s="9" t="s">
+      <c r="A521" s="14" t="s">
         <v>1739</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B521" s="14" t="s">
         <v>1740</v>
       </c>
-      <c r="C521" s="9" t="s">
+      <c r="C521" s="14" t="s">
         <v>1741</v>
       </c>
       <c r="D521" s="17"/>
@@ -25876,13 +25885,13 @@
       <c r="X522" s="17"/>
     </row>
     <row r="523">
-      <c r="A523" s="14" t="s">
+      <c r="A523" s="9" t="s">
         <v>1745</v>
       </c>
-      <c r="B523" s="14" t="s">
+      <c r="B523" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="C523" s="14" t="s">
+      <c r="C523" s="9" t="s">
         <v>1747</v>
       </c>
       <c r="D523" s="17"/>
@@ -25940,13 +25949,13 @@
       <c r="X524" s="17"/>
     </row>
     <row r="525">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="14" t="s">
         <v>1751</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="14" t="s">
         <v>1752</v>
       </c>
-      <c r="C525" s="9" t="s">
+      <c r="C525" s="14" t="s">
         <v>1753</v>
       </c>
       <c r="D525" s="17"/>
@@ -25972,13 +25981,13 @@
       <c r="X525" s="17"/>
     </row>
     <row r="526">
-      <c r="A526" s="14" t="s">
+      <c r="A526" s="9" t="s">
         <v>1754</v>
       </c>
-      <c r="B526" s="14" t="s">
+      <c r="B526" s="9" t="s">
         <v>1755</v>
       </c>
-      <c r="C526" s="14" t="s">
+      <c r="C526" s="9" t="s">
         <v>1756</v>
       </c>
       <c r="D526" s="17"/>
@@ -26068,13 +26077,13 @@
       <c r="X528" s="17"/>
     </row>
     <row r="529">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="14" t="s">
         <v>1763</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="14" t="s">
         <v>1764</v>
       </c>
-      <c r="C529" s="9" t="s">
+      <c r="C529" s="14" t="s">
         <v>1765</v>
       </c>
       <c r="D529" s="17"/>
@@ -26100,13 +26109,13 @@
       <c r="X529" s="17"/>
     </row>
     <row r="530">
-      <c r="A530" s="14" t="s">
+      <c r="A530" s="9" t="s">
         <v>1766</v>
       </c>
-      <c r="B530" s="14" t="s">
+      <c r="B530" s="9" t="s">
         <v>1767</v>
       </c>
-      <c r="C530" s="14" t="s">
+      <c r="C530" s="9" t="s">
         <v>1768</v>
       </c>
       <c r="D530" s="17"/>
@@ -26132,13 +26141,13 @@
       <c r="X530" s="17"/>
     </row>
     <row r="531">
-      <c r="A531" s="9" t="s">
+      <c r="A531" s="14" t="s">
         <v>1769</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="14" t="s">
         <v>1770</v>
       </c>
-      <c r="C531" s="9" t="s">
+      <c r="C531" s="14" t="s">
         <v>1771</v>
       </c>
       <c r="D531" s="17"/>
@@ -26196,13 +26205,13 @@
       <c r="X532" s="17"/>
     </row>
     <row r="533">
-      <c r="A533" s="14" t="s">
+      <c r="A533" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="B533" s="14" t="s">
+      <c r="B533" s="9" t="s">
         <v>1776</v>
       </c>
-      <c r="C533" s="14" t="s">
+      <c r="C533" s="9" t="s">
         <v>1777</v>
       </c>
       <c r="D533" s="17"/>
@@ -26260,13 +26269,13 @@
       <c r="X534" s="17"/>
     </row>
     <row r="535">
-      <c r="A535" s="9" t="s">
+      <c r="A535" s="14" t="s">
         <v>1781</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="C535" s="9" t="s">
+      <c r="C535" s="14" t="s">
         <v>1783</v>
       </c>
       <c r="D535" s="17"/>
@@ -26292,13 +26301,13 @@
       <c r="X535" s="17"/>
     </row>
     <row r="536">
-      <c r="A536" s="14" t="s">
+      <c r="A536" s="9" t="s">
         <v>1784</v>
       </c>
-      <c r="B536" s="14" t="s">
+      <c r="B536" s="9" t="s">
         <v>1785</v>
       </c>
-      <c r="C536" s="14" t="s">
+      <c r="C536" s="9" t="s">
         <v>1786</v>
       </c>
       <c r="D536" s="17"/>
@@ -26356,13 +26365,13 @@
       <c r="X537" s="17"/>
     </row>
     <row r="538">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="14" t="s">
         <v>1790</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="14" t="s">
         <v>1791</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="D538" s="17"/>
@@ -26420,13 +26429,13 @@
       <c r="X539" s="17"/>
     </row>
     <row r="540">
-      <c r="A540" s="14" t="s">
+      <c r="A540" s="9" t="s">
         <v>1796</v>
       </c>
-      <c r="B540" s="14" t="s">
+      <c r="B540" s="9" t="s">
         <v>1797</v>
       </c>
-      <c r="C540" s="14" t="s">
+      <c r="C540" s="9" t="s">
         <v>1798</v>
       </c>
       <c r="D540" s="17"/>
@@ -26452,13 +26461,13 @@
       <c r="X540" s="17"/>
     </row>
     <row r="541">
-      <c r="A541" s="9" t="s">
+      <c r="A541" s="14" t="s">
         <v>1799</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="14" t="s">
         <v>1800</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="C541" s="14" t="s">
         <v>1801</v>
       </c>
       <c r="D541" s="17"/>
@@ -26548,13 +26557,13 @@
       <c r="X543" s="17"/>
     </row>
     <row r="544">
-      <c r="A544" s="14" t="s">
+      <c r="A544" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="B544" s="14" t="s">
+      <c r="B544" s="9" t="s">
         <v>1809</v>
       </c>
-      <c r="C544" s="14" t="s">
+      <c r="C544" s="9" t="s">
         <v>1810</v>
       </c>
       <c r="D544" s="17"/>
@@ -26708,13 +26717,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="9" t="s">
+      <c r="A549" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="B549" s="9" t="s">
+      <c r="B549" s="14" t="s">
         <v>1824</v>
       </c>
-      <c r="C549" s="9" t="s">
+      <c r="C549" s="14" t="s">
         <v>1825</v>
       </c>
       <c r="D549" s="17"/>
@@ -26740,13 +26749,13 @@
       <c r="X549" s="17"/>
     </row>
     <row r="550">
-      <c r="A550" s="14" t="s">
+      <c r="A550" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="B550" s="14" t="s">
+      <c r="B550" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="C550" s="14" t="s">
+      <c r="C550" s="9" t="s">
         <v>1828</v>
       </c>
       <c r="D550" s="17"/>
@@ -26772,13 +26781,13 @@
       <c r="X550" s="17"/>
     </row>
     <row r="551">
-      <c r="A551" s="9" t="s">
+      <c r="A551" s="14" t="s">
         <v>1829</v>
       </c>
-      <c r="B551" s="9" t="s">
+      <c r="B551" s="14" t="s">
         <v>1830</v>
       </c>
-      <c r="C551" s="9" t="s">
+      <c r="C551" s="14" t="s">
         <v>1831</v>
       </c>
       <c r="D551" s="17"/>
@@ -26804,13 +26813,13 @@
       <c r="X551" s="17"/>
     </row>
     <row r="552">
-      <c r="A552" s="14" t="s">
+      <c r="A552" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="B552" s="14" t="s">
+      <c r="B552" s="9" t="s">
         <v>1833</v>
       </c>
-      <c r="C552" s="14" t="s">
+      <c r="C552" s="9" t="s">
         <v>1834</v>
       </c>
       <c r="D552" s="17"/>
@@ -26868,13 +26877,13 @@
       <c r="X553" s="17"/>
     </row>
     <row r="554">
-      <c r="A554" s="9" t="s">
+      <c r="A554" s="14" t="s">
         <v>1838</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" s="14" t="s">
         <v>1839</v>
       </c>
-      <c r="C554" s="9" t="s">
+      <c r="C554" s="14" t="s">
         <v>1840</v>
       </c>
       <c r="D554" s="17"/>
@@ -26900,13 +26909,13 @@
       <c r="X554" s="17"/>
     </row>
     <row r="555">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="9" t="s">
         <v>1841</v>
       </c>
-      <c r="B555" s="14" t="s">
+      <c r="B555" s="9" t="s">
         <v>1842</v>
       </c>
-      <c r="C555" s="14" t="s">
+      <c r="C555" s="9" t="s">
         <v>1843</v>
       </c>
       <c r="D555" s="17"/>
@@ -27220,13 +27229,13 @@
       <c r="X564" s="17"/>
     </row>
     <row r="565">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="14" t="s">
         <v>1871</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="C565" s="14" t="s">
         <v>1873</v>
       </c>
       <c r="D565" s="17"/>
@@ -27252,14 +27261,14 @@
       <c r="X565" s="17"/>
     </row>
     <row r="566">
-      <c r="A566" s="14" t="s">
+      <c r="A566" s="9" t="s">
         <v>1874</v>
       </c>
-      <c r="B566" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C566" s="14" t="s">
+      <c r="B566" s="9" t="s">
         <v>1875</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>1876</v>
       </c>
       <c r="D566" s="17"/>
       <c r="E566" s="17"/>
@@ -27285,10 +27294,10 @@
     </row>
     <row r="567">
       <c r="A567" s="14" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>1877</v>
+        <v>20</v>
       </c>
       <c r="C567" s="14" t="s">
         <v>1878</v>
@@ -27316,13 +27325,13 @@
       <c r="X567" s="17"/>
     </row>
     <row r="568">
-      <c r="A568" s="9" t="s">
+      <c r="A568" s="14" t="s">
         <v>1879</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="14" t="s">
         <v>1880</v>
       </c>
-      <c r="C568" s="9" t="s">
+      <c r="C568" s="14" t="s">
         <v>1881</v>
       </c>
       <c r="D568" s="17"/>
@@ -27380,13 +27389,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="14" t="s">
+      <c r="A570" s="9" t="s">
         <v>1885</v>
       </c>
-      <c r="B570" s="14" t="s">
+      <c r="B570" s="9" t="s">
         <v>1886</v>
       </c>
-      <c r="C570" s="14" t="s">
+      <c r="C570" s="9" t="s">
         <v>1887</v>
       </c>
       <c r="D570" s="17"/>
@@ -27540,13 +27549,13 @@
       <c r="X574" s="17"/>
     </row>
     <row r="575">
-      <c r="A575" s="9" t="s">
+      <c r="A575" s="14" t="s">
         <v>1900</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="14" t="s">
         <v>1901</v>
       </c>
-      <c r="C575" s="9" t="s">
+      <c r="C575" s="14" t="s">
         <v>1902</v>
       </c>
       <c r="D575" s="17"/>
@@ -27572,13 +27581,13 @@
       <c r="X575" s="17"/>
     </row>
     <row r="576">
-      <c r="A576" s="14" t="s">
+      <c r="A576" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="B576" s="14" t="s">
+      <c r="B576" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="C576" s="14" t="s">
+      <c r="C576" s="9" t="s">
         <v>1905</v>
       </c>
       <c r="D576" s="17"/>
@@ -27636,13 +27645,13 @@
       <c r="X577" s="17"/>
     </row>
     <row r="578">
-      <c r="A578" s="9" t="s">
+      <c r="A578" s="14" t="s">
         <v>1909</v>
       </c>
-      <c r="B578" s="9" t="s">
+      <c r="B578" s="14" t="s">
         <v>1910</v>
       </c>
-      <c r="C578" s="9" t="s">
+      <c r="C578" s="14" t="s">
         <v>1911</v>
       </c>
       <c r="D578" s="17"/>
@@ -27860,13 +27869,13 @@
       <c r="X584" s="17"/>
     </row>
     <row r="585">
-      <c r="A585" s="14" t="s">
+      <c r="A585" s="9" t="s">
         <v>1930</v>
       </c>
-      <c r="B585" s="14" t="s">
+      <c r="B585" s="9" t="s">
         <v>1931</v>
       </c>
-      <c r="C585" s="14" t="s">
+      <c r="C585" s="9" t="s">
         <v>1932</v>
       </c>
       <c r="D585" s="17"/>
@@ -27988,13 +27997,13 @@
       <c r="X588" s="17"/>
     </row>
     <row r="589">
-      <c r="A589" s="9" t="s">
+      <c r="A589" s="14" t="s">
         <v>1942</v>
       </c>
-      <c r="B589" s="9" t="s">
+      <c r="B589" s="14" t="s">
         <v>1943</v>
       </c>
-      <c r="C589" s="9" t="s">
+      <c r="C589" s="14" t="s">
         <v>1944</v>
       </c>
       <c r="D589" s="17"/>
@@ -28084,13 +28093,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="14" t="s">
+      <c r="A592" s="9" t="s">
         <v>1951</v>
       </c>
-      <c r="B592" s="14" t="s">
+      <c r="B592" s="9" t="s">
         <v>1952</v>
       </c>
-      <c r="C592" s="14" t="s">
+      <c r="C592" s="9" t="s">
         <v>1953</v>
       </c>
       <c r="D592" s="17"/>
@@ -28116,13 +28125,13 @@
       <c r="X592" s="17"/>
     </row>
     <row r="593">
-      <c r="A593" s="9" t="s">
+      <c r="A593" s="14" t="s">
         <v>1954</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="14" t="s">
         <v>1955</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="14" t="s">
         <v>1956</v>
       </c>
       <c r="D593" s="17"/>
@@ -28148,13 +28157,13 @@
       <c r="X593" s="17"/>
     </row>
     <row r="594">
-      <c r="A594" s="14" t="s">
+      <c r="A594" s="9" t="s">
         <v>1957</v>
       </c>
-      <c r="B594" s="14" t="s">
+      <c r="B594" s="9" t="s">
         <v>1958</v>
       </c>
-      <c r="C594" s="14" t="s">
+      <c r="C594" s="9" t="s">
         <v>1959</v>
       </c>
       <c r="D594" s="17"/>
@@ -28276,13 +28285,13 @@
       <c r="X597" s="17"/>
     </row>
     <row r="598">
-      <c r="A598" s="9" t="s">
+      <c r="A598" s="14" t="s">
         <v>1969</v>
       </c>
-      <c r="B598" s="9" t="s">
+      <c r="B598" s="14" t="s">
         <v>1970</v>
       </c>
-      <c r="C598" s="9" t="s">
+      <c r="C598" s="14" t="s">
         <v>1971</v>
       </c>
       <c r="D598" s="17"/>
@@ -28308,13 +28317,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="14" t="s">
+      <c r="A599" s="9" t="s">
         <v>1972</v>
       </c>
-      <c r="B599" s="14" t="s">
+      <c r="B599" s="9" t="s">
         <v>1973</v>
       </c>
-      <c r="C599" s="14" t="s">
+      <c r="C599" s="9" t="s">
         <v>1974</v>
       </c>
       <c r="D599" s="17"/>
@@ -28340,13 +28349,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="9" t="s">
+      <c r="A600" s="14" t="s">
         <v>1975</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="14" t="s">
         <v>1976</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="C600" s="14" t="s">
         <v>1977</v>
       </c>
       <c r="D600" s="17"/>
@@ -28436,13 +28445,13 @@
       <c r="X602" s="17"/>
     </row>
     <row r="603">
-      <c r="A603" s="14" t="s">
+      <c r="A603" s="9" t="s">
         <v>1984</v>
       </c>
-      <c r="B603" s="14" t="s">
+      <c r="B603" s="9" t="s">
         <v>1985</v>
       </c>
-      <c r="C603" s="14" t="s">
+      <c r="C603" s="9" t="s">
         <v>1986</v>
       </c>
       <c r="D603" s="17"/>
@@ -28468,13 +28477,13 @@
       <c r="X603" s="17"/>
     </row>
     <row r="604">
-      <c r="A604" s="9" t="s">
+      <c r="A604" s="14" t="s">
         <v>1987</v>
       </c>
-      <c r="B604" s="9" t="s">
+      <c r="B604" s="14" t="s">
         <v>1988</v>
       </c>
-      <c r="C604" s="9" t="s">
+      <c r="C604" s="14" t="s">
         <v>1989</v>
       </c>
       <c r="D604" s="17"/>
@@ -28532,13 +28541,13 @@
       <c r="X605" s="17"/>
     </row>
     <row r="606">
-      <c r="A606" s="14" t="s">
+      <c r="A606" s="9" t="s">
         <v>1993</v>
       </c>
-      <c r="B606" s="14" t="s">
+      <c r="B606" s="9" t="s">
         <v>1994</v>
       </c>
-      <c r="C606" s="14" t="s">
+      <c r="C606" s="9" t="s">
         <v>1995</v>
       </c>
       <c r="D606" s="17"/>
@@ -28564,13 +28573,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="9" t="s">
+      <c r="A607" s="14" t="s">
         <v>1996</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="14" t="s">
         <v>1997</v>
       </c>
-      <c r="C607" s="9" t="s">
+      <c r="C607" s="14" t="s">
         <v>1998</v>
       </c>
       <c r="D607" s="17"/>
@@ -28596,13 +28605,13 @@
       <c r="X607" s="17"/>
     </row>
     <row r="608">
-      <c r="A608" s="14" t="s">
+      <c r="A608" s="9" t="s">
         <v>1999</v>
       </c>
-      <c r="B608" s="14" t="s">
+      <c r="B608" s="9" t="s">
         <v>2000</v>
       </c>
-      <c r="C608" s="14" t="s">
+      <c r="C608" s="9" t="s">
         <v>2001</v>
       </c>
       <c r="D608" s="17"/>
@@ -28628,13 +28637,13 @@
       <c r="X608" s="17"/>
     </row>
     <row r="609">
-      <c r="A609" s="9" t="s">
+      <c r="A609" s="14" t="s">
         <v>2002</v>
       </c>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="14" t="s">
         <v>2003</v>
       </c>
-      <c r="C609" s="9" t="s">
+      <c r="C609" s="14" t="s">
         <v>2004</v>
       </c>
       <c r="D609" s="17"/>
@@ -28756,13 +28765,13 @@
       <c r="X612" s="17"/>
     </row>
     <row r="613">
-      <c r="A613" s="14" t="s">
+      <c r="A613" s="9" t="s">
         <v>2014</v>
       </c>
-      <c r="B613" s="14" t="s">
+      <c r="B613" s="9" t="s">
         <v>2015</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="9" t="s">
         <v>2016</v>
       </c>
       <c r="D613" s="17"/>
@@ -28788,13 +28797,13 @@
       <c r="X613" s="17"/>
     </row>
     <row r="614">
-      <c r="A614" s="9" t="s">
+      <c r="A614" s="14" t="s">
         <v>2017</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="14" t="s">
         <v>2018</v>
       </c>
-      <c r="C614" s="9" t="s">
+      <c r="C614" s="14" t="s">
         <v>2019</v>
       </c>
       <c r="D614" s="17"/>
@@ -28820,13 +28829,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="14" t="s">
+      <c r="A615" s="9" t="s">
         <v>2020</v>
       </c>
-      <c r="B615" s="14" t="s">
+      <c r="B615" s="9" t="s">
         <v>2021</v>
       </c>
-      <c r="C615" s="14" t="s">
+      <c r="C615" s="9" t="s">
         <v>2022</v>
       </c>
       <c r="D615" s="17"/>
@@ -28884,13 +28893,13 @@
       <c r="X616" s="17"/>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="s">
+      <c r="A617" s="14" t="s">
         <v>2026</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="14" t="s">
         <v>2027</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="14" t="s">
         <v>2028</v>
       </c>
       <c r="D617" s="17"/>
@@ -28927,24 +28936,24 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="14" t="s">
+      <c r="A619" s="9" t="s">
         <v>2032</v>
       </c>
-      <c r="B619" s="14" t="s">
+      <c r="B619" s="9" t="s">
         <v>2033</v>
       </c>
-      <c r="C619" s="14" t="s">
+      <c r="C619" s="9" t="s">
         <v>2034</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="9" t="s">
+      <c r="A620" s="14" t="s">
         <v>2035</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="14" t="s">
         <v>2036</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C620" s="14" t="s">
         <v>2037</v>
       </c>
     </row>
@@ -28960,13 +28969,13 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="14" t="s">
+      <c r="A622" s="9" t="s">
         <v>2041</v>
       </c>
-      <c r="B622" s="14" t="s">
+      <c r="B622" s="9" t="s">
         <v>2042</v>
       </c>
-      <c r="C622" s="14" t="s">
+      <c r="C622" s="9" t="s">
         <v>2043</v>
       </c>
     </row>
@@ -28993,13 +29002,13 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="9" t="s">
+      <c r="A625" s="14" t="s">
         <v>2050</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="C625" s="9" t="s">
+      <c r="C625" s="14" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -29026,24 +29035,24 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="14" t="s">
+      <c r="A628" s="9" t="s">
         <v>2059</v>
       </c>
-      <c r="B628" s="14" t="s">
+      <c r="B628" s="9" t="s">
         <v>2060</v>
       </c>
-      <c r="C628" s="14" t="s">
+      <c r="C628" s="9" t="s">
         <v>2061</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="9" t="s">
+      <c r="A629" s="14" t="s">
         <v>2062</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="14" t="s">
         <v>2063</v>
       </c>
-      <c r="C629" s="9" t="s">
+      <c r="C629" s="14" t="s">
         <v>2064</v>
       </c>
     </row>
@@ -29070,13 +29079,13 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="14" t="s">
+      <c r="A632" s="9" t="s">
         <v>2071</v>
       </c>
-      <c r="B632" s="14" t="s">
+      <c r="B632" s="9" t="s">
         <v>2072</v>
       </c>
-      <c r="C632" s="14" t="s">
+      <c r="C632" s="9" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -29103,13 +29112,13 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="9" t="s">
+      <c r="A635" s="14" t="s">
         <v>2080</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" s="14" t="s">
         <v>2081</v>
       </c>
-      <c r="C635" s="9" t="s">
+      <c r="C635" s="14" t="s">
         <v>2082</v>
       </c>
     </row>
@@ -29136,13 +29145,13 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="14" t="s">
+      <c r="A638" s="9" t="s">
         <v>2089</v>
       </c>
-      <c r="B638" s="14" t="s">
+      <c r="B638" s="9" t="s">
         <v>2090</v>
       </c>
-      <c r="C638" s="14" t="s">
+      <c r="C638" s="9" t="s">
         <v>2091</v>
       </c>
     </row>
@@ -29213,24 +29222,24 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="9" t="s">
+      <c r="A645" s="14" t="s">
         <v>2110</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="14" t="s">
         <v>2111</v>
       </c>
-      <c r="C645" s="9" t="s">
+      <c r="C645" s="14" t="s">
         <v>2112</v>
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="14" t="s">
+      <c r="A646" s="9" t="s">
         <v>2113</v>
       </c>
-      <c r="B646" s="14" t="s">
+      <c r="B646" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="C646" s="14" t="s">
+      <c r="C646" s="9" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -29246,13 +29255,13 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="9" t="s">
+      <c r="A648" s="14" t="s">
         <v>2119</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="14" t="s">
         <v>2120</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="14" t="s">
         <v>2121</v>
       </c>
     </row>
@@ -29279,13 +29288,13 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="14" t="s">
+      <c r="A651" s="9" t="s">
         <v>2128</v>
       </c>
-      <c r="B651" s="14" t="s">
+      <c r="B651" s="9" t="s">
         <v>2129</v>
       </c>
-      <c r="C651" s="14" t="s">
+      <c r="C651" s="9" t="s">
         <v>2130</v>
       </c>
     </row>
@@ -29301,24 +29310,24 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="9" t="s">
+      <c r="A653" s="14" t="s">
         <v>2134</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="14" t="s">
         <v>2135</v>
       </c>
-      <c r="C653" s="9" t="s">
+      <c r="C653" s="14" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="14" t="s">
+      <c r="A654" s="9" t="s">
         <v>2137</v>
       </c>
-      <c r="B654" s="14" t="s">
+      <c r="B654" s="9" t="s">
         <v>2138</v>
       </c>
-      <c r="C654" s="14" t="s">
+      <c r="C654" s="9" t="s">
         <v>2139</v>
       </c>
     </row>
@@ -29334,13 +29343,13 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="9" t="s">
+      <c r="A656" s="14" t="s">
         <v>2143</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="C656" s="9" t="s">
+      <c r="C656" s="14" t="s">
         <v>2145</v>
       </c>
     </row>
@@ -29378,21 +29387,21 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="14" t="s">
+      <c r="A660" s="9" t="s">
         <v>2155</v>
       </c>
-      <c r="B660" s="14" t="s">
+      <c r="B660" s="9" t="s">
         <v>2156</v>
       </c>
-      <c r="C660" s="14" t="s">
+      <c r="C660" s="9" t="s">
         <v>2157</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="9" t="s">
+      <c r="A661" s="14" t="s">
         <v>2158</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="14" t="s">
         <v>2159</v>
       </c>
       <c r="C661" s="14" t="s">
@@ -29400,10 +29409,10 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="14" t="s">
+      <c r="A662" s="9" t="s">
         <v>2161</v>
       </c>
-      <c r="B662" s="14" t="s">
+      <c r="B662" s="9" t="s">
         <v>2162</v>
       </c>
       <c r="C662" s="14" t="s">
@@ -29433,24 +29442,24 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="9" t="s">
+      <c r="A665" s="14" t="s">
         <v>2170</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="14" t="s">
         <v>2171</v>
       </c>
-      <c r="C665" s="9" t="s">
+      <c r="C665" s="14" t="s">
         <v>2172</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="14" t="s">
+      <c r="A666" s="9" t="s">
         <v>2173</v>
       </c>
-      <c r="B666" s="14" t="s">
+      <c r="B666" s="9" t="s">
         <v>2174</v>
       </c>
-      <c r="C666" s="14" t="s">
+      <c r="C666" s="9" t="s">
         <v>2175</v>
       </c>
     </row>
@@ -29466,35 +29475,35 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="9" t="s">
+      <c r="A668" s="14" t="s">
         <v>2179</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="14" t="s">
         <v>2180</v>
       </c>
-      <c r="C668" s="9" t="s">
+      <c r="C668" s="14" t="s">
         <v>2181</v>
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="14" t="s">
+      <c r="A669" s="9" t="s">
         <v>2182</v>
       </c>
-      <c r="B669" s="14" t="s">
+      <c r="B669" s="9" t="s">
         <v>2183</v>
       </c>
-      <c r="C669" s="14" t="s">
+      <c r="C669" s="9" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="9" t="s">
+      <c r="A670" s="14" t="s">
         <v>2185</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="C670" s="9" t="s">
+      <c r="C670" s="14" t="s">
         <v>2187</v>
       </c>
     </row>
@@ -29543,57 +29552,57 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="19" t="s">
+      <c r="A675" s="9" t="s">
         <v>2200</v>
       </c>
-      <c r="B675" s="19" t="s">
+      <c r="B675" s="9" t="s">
         <v>2201</v>
       </c>
-      <c r="C675" s="10" t="s">
+      <c r="C675" s="9" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="9" t="s">
+      <c r="A676" s="19" t="s">
         <v>2203</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="19" t="s">
         <v>2204</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="10" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="14" t="s">
+      <c r="A677" s="9" t="s">
         <v>2206</v>
       </c>
-      <c r="B677" s="14" t="s">
+      <c r="B677" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="C677" s="14" t="s">
+      <c r="C677" s="9" t="s">
         <v>2208</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="14" t="s">
         <v>2209</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="14" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="14" t="s">
+      <c r="A679" s="9" t="s">
         <v>2212</v>
       </c>
-      <c r="B679" s="14" t="s">
+      <c r="B679" s="9" t="s">
         <v>2213</v>
       </c>
-      <c r="C679" s="14" t="s">
+      <c r="C679" s="9" t="s">
         <v>2214</v>
       </c>
     </row>
@@ -29620,79 +29629,79 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="9" t="s">
+      <c r="A682" s="14" t="s">
         <v>2221</v>
       </c>
-      <c r="B682" s="9" t="s">
+      <c r="B682" s="14" t="s">
         <v>2222</v>
       </c>
-      <c r="C682" s="9" t="s">
+      <c r="C682" s="14" t="s">
         <v>2223</v>
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="14" t="s">
+      <c r="A683" s="9" t="s">
         <v>2224</v>
       </c>
-      <c r="B683" s="14" t="s">
+      <c r="B683" s="9" t="s">
         <v>2225</v>
       </c>
-      <c r="C683" s="14" t="s">
+      <c r="C683" s="9" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="14" t="s">
         <v>2227</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="14" t="s">
         <v>2228</v>
       </c>
-      <c r="C684" s="9" t="s">
+      <c r="C684" s="14" t="s">
         <v>2229</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="14" t="s">
+      <c r="A685" s="9" t="s">
         <v>2230</v>
       </c>
-      <c r="B685" s="14" t="s">
+      <c r="B685" s="9" t="s">
         <v>2231</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="9" t="s">
         <v>2232</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="14" t="s">
         <v>2233</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C686" s="14" t="s">
         <v>2235</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="14" t="s">
+      <c r="A687" s="9" t="s">
         <v>2236</v>
       </c>
-      <c r="B687" s="14" t="s">
+      <c r="B687" s="9" t="s">
         <v>2237</v>
       </c>
-      <c r="C687" s="14" t="s">
+      <c r="C687" s="9" t="s">
         <v>2238</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="9" t="s">
+      <c r="A688" s="14" t="s">
         <v>2239</v>
       </c>
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="14" t="s">
         <v>2240</v>
       </c>
-      <c r="C688" s="9" t="s">
+      <c r="C688" s="14" t="s">
         <v>2241</v>
       </c>
     </row>
@@ -29719,13 +29728,13 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="14" t="s">
+      <c r="A691" s="9" t="s">
         <v>2248</v>
       </c>
-      <c r="B691" s="14" t="s">
+      <c r="B691" s="9" t="s">
         <v>2249</v>
       </c>
-      <c r="C691" s="14" t="s">
+      <c r="C691" s="9" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -29763,13 +29772,13 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="9" t="s">
+      <c r="A695" s="14" t="s">
         <v>2260</v>
       </c>
-      <c r="B695" s="9" t="s">
+      <c r="B695" s="14" t="s">
         <v>2261</v>
       </c>
-      <c r="C695" s="9" t="s">
+      <c r="C695" s="14" t="s">
         <v>2262</v>
       </c>
     </row>
@@ -29810,7 +29819,7 @@
       <c r="A699" s="9" t="s">
         <v>2272</v>
       </c>
-      <c r="B699" s="14" t="s">
+      <c r="B699" s="9" t="s">
         <v>2273</v>
       </c>
       <c r="C699" s="9" t="s">
@@ -29818,13 +29827,13 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="14" t="s">
+      <c r="A700" s="9" t="s">
         <v>2275</v>
       </c>
       <c r="B700" s="14" t="s">
         <v>2276</v>
       </c>
-      <c r="C700" s="14" t="s">
+      <c r="C700" s="9" t="s">
         <v>2277</v>
       </c>
     </row>
@@ -29840,13 +29849,13 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="9" t="s">
+      <c r="A702" s="14" t="s">
         <v>2281</v>
       </c>
-      <c r="B702" s="9" t="s">
+      <c r="B702" s="14" t="s">
         <v>2282</v>
       </c>
-      <c r="C702" s="9" t="s">
+      <c r="C702" s="14" t="s">
         <v>2283</v>
       </c>
     </row>
@@ -29884,10 +29893,10 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="19" t="s">
+      <c r="A706" s="9" t="s">
         <v>2293</v>
       </c>
-      <c r="B706" s="19" t="s">
+      <c r="B706" s="9" t="s">
         <v>2294</v>
       </c>
       <c r="C706" s="9" t="s">
@@ -29895,10 +29904,10 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="9" t="s">
+      <c r="A707" s="19" t="s">
         <v>2296</v>
       </c>
-      <c r="B707" s="9" t="s">
+      <c r="B707" s="19" t="s">
         <v>2297</v>
       </c>
       <c r="C707" s="9" t="s">
@@ -29939,13 +29948,13 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="14" t="s">
+      <c r="A711" s="9" t="s">
         <v>2308</v>
       </c>
-      <c r="B711" s="14" t="s">
+      <c r="B711" s="9" t="s">
         <v>2309</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="9" t="s">
         <v>2310</v>
       </c>
     </row>
@@ -29983,35 +29992,35 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="9" t="s">
+      <c r="A715" s="14" t="s">
         <v>2320</v>
       </c>
-      <c r="B715" s="9" t="s">
+      <c r="B715" s="14" t="s">
         <v>2321</v>
       </c>
-      <c r="C715" s="9" t="s">
+      <c r="C715" s="14" t="s">
         <v>2322</v>
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="14" t="s">
+      <c r="A716" s="9" t="s">
         <v>2323</v>
       </c>
-      <c r="B716" s="14" t="s">
+      <c r="B716" s="9" t="s">
         <v>2324</v>
       </c>
-      <c r="C716" s="14" t="s">
+      <c r="C716" s="9" t="s">
         <v>2325</v>
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="9" t="s">
+      <c r="A717" s="14" t="s">
         <v>2326</v>
       </c>
-      <c r="B717" s="9" t="s">
+      <c r="B717" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="C717" s="9" t="s">
+      <c r="C717" s="14" t="s">
         <v>2328</v>
       </c>
     </row>
@@ -30038,79 +30047,79 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="14" t="s">
+      <c r="A720" s="9" t="s">
         <v>2335</v>
       </c>
-      <c r="B720" s="14" t="s">
+      <c r="B720" s="9" t="s">
         <v>2336</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2337</v>
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="9" t="s">
+      <c r="A721" s="14" t="s">
         <v>2338</v>
       </c>
-      <c r="B721" s="9" t="s">
+      <c r="B721" s="14" t="s">
         <v>2339</v>
       </c>
-      <c r="C721" s="9" t="s">
+      <c r="C721" s="14" t="s">
         <v>2340</v>
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="14" t="s">
+      <c r="A722" s="9" t="s">
         <v>2341</v>
       </c>
-      <c r="B722" s="14" t="s">
+      <c r="B722" s="9" t="s">
         <v>2342</v>
       </c>
-      <c r="C722" s="14" t="s">
+      <c r="C722" s="9" t="s">
         <v>2343</v>
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="9" t="s">
+      <c r="A723" s="14" t="s">
         <v>2344</v>
       </c>
-      <c r="B723" s="9" t="s">
+      <c r="B723" s="14" t="s">
         <v>2345</v>
       </c>
-      <c r="C723" s="9" t="s">
+      <c r="C723" s="14" t="s">
         <v>2346</v>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="14" t="s">
+      <c r="A724" s="9" t="s">
         <v>2347</v>
       </c>
-      <c r="B724" s="14" t="s">
+      <c r="B724" s="9" t="s">
         <v>2348</v>
       </c>
-      <c r="C724" s="14" t="s">
+      <c r="C724" s="9" t="s">
         <v>2349</v>
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="9" t="s">
+      <c r="A725" s="14" t="s">
         <v>2350</v>
       </c>
-      <c r="B725" s="9" t="s">
+      <c r="B725" s="14" t="s">
         <v>2351</v>
       </c>
-      <c r="C725" s="9" t="s">
+      <c r="C725" s="14" t="s">
         <v>2352</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="14" t="s">
+      <c r="A726" s="9" t="s">
         <v>2353</v>
       </c>
-      <c r="B726" s="14" t="s">
+      <c r="B726" s="9" t="s">
         <v>2354</v>
       </c>
-      <c r="C726" s="14" t="s">
+      <c r="C726" s="9" t="s">
         <v>2355</v>
       </c>
     </row>
@@ -30126,13 +30135,13 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="9" t="s">
+      <c r="A728" s="14" t="s">
         <v>2359</v>
       </c>
-      <c r="B728" s="9" t="s">
+      <c r="B728" s="14" t="s">
         <v>2360</v>
       </c>
-      <c r="C728" s="9" t="s">
+      <c r="C728" s="14" t="s">
         <v>2361</v>
       </c>
     </row>
@@ -30159,35 +30168,35 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="14" t="s">
+      <c r="A731" s="9" t="s">
         <v>2368</v>
       </c>
-      <c r="B731" s="14" t="s">
+      <c r="B731" s="9" t="s">
         <v>2369</v>
       </c>
-      <c r="C731" s="14" t="s">
+      <c r="C731" s="9" t="s">
         <v>2370</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="14" t="s">
         <v>2371</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="14" t="s">
         <v>2372</v>
       </c>
-      <c r="C732" s="9" t="s">
+      <c r="C732" s="14" t="s">
         <v>2373</v>
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="14" t="s">
+      <c r="A733" s="9" t="s">
         <v>2374</v>
       </c>
-      <c r="B733" s="14" t="s">
+      <c r="B733" s="9" t="s">
         <v>2375</v>
       </c>
-      <c r="C733" s="14" t="s">
+      <c r="C733" s="9" t="s">
         <v>2376</v>
       </c>
     </row>
@@ -30236,24 +30245,24 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="9" t="s">
+      <c r="A738" s="14" t="s">
         <v>2389</v>
       </c>
-      <c r="B738" s="9" t="s">
+      <c r="B738" s="14" t="s">
         <v>2390</v>
       </c>
-      <c r="C738" s="9" t="s">
+      <c r="C738" s="14" t="s">
         <v>2391</v>
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="14" t="s">
+      <c r="A739" s="9" t="s">
         <v>2392</v>
       </c>
-      <c r="B739" s="14" t="s">
+      <c r="B739" s="9" t="s">
         <v>2393</v>
       </c>
-      <c r="C739" s="14" t="s">
+      <c r="C739" s="9" t="s">
         <v>2394</v>
       </c>
     </row>
@@ -30269,13 +30278,13 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="9" t="s">
+      <c r="A741" s="14" t="s">
         <v>2398</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="14" t="s">
         <v>2399</v>
       </c>
-      <c r="C741" s="9" t="s">
+      <c r="C741" s="14" t="s">
         <v>2400</v>
       </c>
     </row>
@@ -30302,46 +30311,46 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="14" t="s">
+      <c r="A744" s="9" t="s">
         <v>2407</v>
       </c>
-      <c r="B744" s="14" t="s">
+      <c r="B744" s="9" t="s">
         <v>2408</v>
       </c>
-      <c r="C744" s="14" t="s">
+      <c r="C744" s="9" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="9" t="s">
+      <c r="A745" s="14" t="s">
         <v>2410</v>
       </c>
-      <c r="B745" s="9" t="s">
+      <c r="B745" s="14" t="s">
         <v>2411</v>
       </c>
-      <c r="C745" s="9" t="s">
+      <c r="C745" s="14" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="14" t="s">
+      <c r="A746" s="9" t="s">
         <v>2413</v>
       </c>
-      <c r="B746" s="14" t="s">
+      <c r="B746" s="9" t="s">
         <v>2414</v>
       </c>
-      <c r="C746" s="14" t="s">
+      <c r="C746" s="9" t="s">
         <v>2415</v>
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="9" t="s">
+      <c r="A747" s="14" t="s">
         <v>2416</v>
       </c>
-      <c r="B747" s="9" t="s">
+      <c r="B747" s="14" t="s">
         <v>2417</v>
       </c>
-      <c r="C747" s="9" t="s">
+      <c r="C747" s="14" t="s">
         <v>2418</v>
       </c>
     </row>
@@ -30357,13 +30366,13 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="14" t="s">
+      <c r="A749" s="9" t="s">
         <v>2422</v>
       </c>
-      <c r="B749" s="14" t="s">
+      <c r="B749" s="9" t="s">
         <v>2423</v>
       </c>
-      <c r="C749" s="14" t="s">
+      <c r="C749" s="9" t="s">
         <v>2424</v>
       </c>
     </row>
@@ -30412,24 +30421,24 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="9" t="s">
+      <c r="A754" s="14" t="s">
         <v>2437</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="14" t="s">
         <v>2438</v>
       </c>
-      <c r="C754" s="9" t="s">
+      <c r="C754" s="14" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="14" t="s">
+      <c r="A755" s="9" t="s">
         <v>2440</v>
       </c>
-      <c r="B755" s="14" t="s">
+      <c r="B755" s="9" t="s">
         <v>2441</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2442</v>
       </c>
     </row>
@@ -30445,13 +30454,13 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="9" t="s">
+      <c r="A757" s="14" t="s">
         <v>2446</v>
       </c>
-      <c r="B757" s="9" t="s">
+      <c r="B757" s="14" t="s">
         <v>2447</v>
       </c>
-      <c r="C757" s="9" t="s">
+      <c r="C757" s="14" t="s">
         <v>2448</v>
       </c>
     </row>
@@ -30500,24 +30509,24 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="14" t="s">
+      <c r="A762" s="9" t="s">
         <v>2461</v>
       </c>
-      <c r="B762" s="14" t="s">
+      <c r="B762" s="9" t="s">
         <v>2462</v>
       </c>
-      <c r="C762" s="14" t="s">
+      <c r="C762" s="9" t="s">
         <v>2463</v>
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="9" t="s">
+      <c r="A763" s="14" t="s">
         <v>2464</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="14" t="s">
         <v>2465</v>
       </c>
-      <c r="C763" s="9" t="s">
+      <c r="C763" s="14" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -30555,13 +30564,13 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="14" t="s">
+      <c r="A767" s="9" t="s">
         <v>2476</v>
       </c>
-      <c r="B767" s="14" t="s">
+      <c r="B767" s="9" t="s">
         <v>2477</v>
       </c>
-      <c r="C767" s="14" t="s">
+      <c r="C767" s="9" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -30599,13 +30608,13 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="9" t="s">
+      <c r="A771" s="14" t="s">
         <v>2488</v>
       </c>
-      <c r="B771" s="9" t="s">
+      <c r="B771" s="14" t="s">
         <v>2489</v>
       </c>
-      <c r="C771" s="9" t="s">
+      <c r="C771" s="14" t="s">
         <v>2490</v>
       </c>
     </row>
@@ -30632,13 +30641,13 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="14" t="s">
+      <c r="A774" s="9" t="s">
         <v>2497</v>
       </c>
-      <c r="B774" s="14" t="s">
+      <c r="B774" s="9" t="s">
         <v>2498</v>
       </c>
-      <c r="C774" s="14" t="s">
+      <c r="C774" s="9" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -30676,10 +30685,10 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="9" t="s">
+      <c r="A778" s="14" t="s">
         <v>2509</v>
       </c>
-      <c r="B778" s="9" t="s">
+      <c r="B778" s="14" t="s">
         <v>2510</v>
       </c>
       <c r="C778" s="14" t="s">
@@ -30693,18 +30702,18 @@
       <c r="B779" s="9" t="s">
         <v>2513</v>
       </c>
-      <c r="C779" s="9" t="s">
+      <c r="C779" s="14" t="s">
         <v>2514</v>
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="14" t="s">
+      <c r="A780" s="9" t="s">
         <v>2515</v>
       </c>
-      <c r="B780" s="14" t="s">
+      <c r="B780" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="C780" s="14" t="s">
+      <c r="C780" s="9" t="s">
         <v>2517</v>
       </c>
     </row>
@@ -30715,7 +30724,7 @@
       <c r="B781" s="14" t="s">
         <v>2519</v>
       </c>
-      <c r="C781" s="9" t="s">
+      <c r="C781" s="14" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -30737,18 +30746,18 @@
       <c r="B783" s="14" t="s">
         <v>2525</v>
       </c>
-      <c r="C783" s="14" t="s">
+      <c r="C783" s="9" t="s">
         <v>2526</v>
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="9" t="s">
+      <c r="A784" s="14" t="s">
         <v>2527</v>
       </c>
-      <c r="B784" s="9" t="s">
+      <c r="B784" s="14" t="s">
         <v>2528</v>
       </c>
-      <c r="C784" s="9" t="s">
+      <c r="C784" s="14" t="s">
         <v>2529</v>
       </c>
     </row>
@@ -30756,7 +30765,7 @@
       <c r="A785" s="9" t="s">
         <v>2530</v>
       </c>
-      <c r="B785" s="14" t="s">
+      <c r="B785" s="9" t="s">
         <v>2531</v>
       </c>
       <c r="C785" s="9" t="s">
@@ -30767,7 +30776,7 @@
       <c r="A786" s="9" t="s">
         <v>2533</v>
       </c>
-      <c r="B786" s="9" t="s">
+      <c r="B786" s="14" t="s">
         <v>2534</v>
       </c>
       <c r="C786" s="9" t="s">
@@ -30792,15 +30801,15 @@
       <c r="B788" s="9" t="s">
         <v>2540</v>
       </c>
-      <c r="C788" s="14" t="s">
+      <c r="C788" s="9" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="14" t="s">
+      <c r="A789" s="9" t="s">
         <v>2542</v>
       </c>
-      <c r="B789" s="14" t="s">
+      <c r="B789" s="9" t="s">
         <v>2543</v>
       </c>
       <c r="C789" s="14" t="s">
@@ -30819,13 +30828,13 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="9" t="s">
+      <c r="A791" s="14" t="s">
         <v>2548</v>
       </c>
-      <c r="B791" s="9" t="s">
+      <c r="B791" s="14" t="s">
         <v>2549</v>
       </c>
-      <c r="C791" s="9" t="s">
+      <c r="C791" s="14" t="s">
         <v>2550</v>
       </c>
     </row>
@@ -30841,21 +30850,21 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="14" t="s">
+      <c r="A793" s="9" t="s">
         <v>2554</v>
       </c>
-      <c r="B793" s="14" t="s">
+      <c r="B793" s="9" t="s">
         <v>2555</v>
       </c>
-      <c r="C793" s="14" t="s">
+      <c r="C793" s="9" t="s">
         <v>2556</v>
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="9" t="s">
+      <c r="A794" s="14" t="s">
         <v>2557</v>
       </c>
-      <c r="B794" s="9" t="s">
+      <c r="B794" s="14" t="s">
         <v>2558</v>
       </c>
       <c r="C794" s="14" t="s">
@@ -30863,33 +30872,33 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="14" t="s">
+      <c r="A795" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="B795" s="14" t="s">
+      <c r="B795" s="9" t="s">
         <v>2561</v>
       </c>
-      <c r="C795" s="9" t="s">
+      <c r="C795" s="14" t="s">
         <v>2562</v>
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="9" t="s">
+      <c r="A796" s="14" t="s">
         <v>2563</v>
       </c>
-      <c r="B796" s="9" t="s">
-        <v>2423</v>
+      <c r="B796" s="14" t="s">
+        <v>2564</v>
       </c>
       <c r="C796" s="9" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="9" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>2566</v>
+        <v>2426</v>
       </c>
       <c r="C797" s="9" t="s">
         <v>2567</v>
@@ -30924,15 +30933,15 @@
       <c r="B800" s="9" t="s">
         <v>2575</v>
       </c>
-      <c r="C800" s="14" t="s">
+      <c r="C800" s="9" t="s">
         <v>2576</v>
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="14" t="s">
+      <c r="A801" s="9" t="s">
         <v>2577</v>
       </c>
-      <c r="B801" s="14" t="s">
+      <c r="B801" s="9" t="s">
         <v>2578</v>
       </c>
       <c r="C801" s="14" t="s">
@@ -30943,10 +30952,10 @@
       <c r="A802" s="14" t="s">
         <v>2580</v>
       </c>
-      <c r="B802" s="9" t="s">
+      <c r="B802" s="14" t="s">
         <v>2581</v>
       </c>
-      <c r="C802" s="9" t="s">
+      <c r="C802" s="14" t="s">
         <v>2582</v>
       </c>
     </row>
@@ -30954,7 +30963,7 @@
       <c r="A803" s="14" t="s">
         <v>2583</v>
       </c>
-      <c r="B803" s="14" t="s">
+      <c r="B803" s="9" t="s">
         <v>2584</v>
       </c>
       <c r="C803" s="9" t="s">
@@ -30962,10 +30971,10 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="9" t="s">
+      <c r="A804" s="14" t="s">
         <v>2586</v>
       </c>
-      <c r="B804" s="9" t="s">
+      <c r="B804" s="14" t="s">
         <v>2587</v>
       </c>
       <c r="C804" s="9" t="s">
@@ -30979,7 +30988,7 @@
       <c r="B805" s="9" t="s">
         <v>2590</v>
       </c>
-      <c r="C805" s="14" t="s">
+      <c r="C805" s="9" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -30990,29 +30999,29 @@
       <c r="B806" s="9" t="s">
         <v>2593</v>
       </c>
-      <c r="C806" s="9" t="s">
+      <c r="C806" s="14" t="s">
         <v>2594</v>
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="14" t="s">
+      <c r="A807" s="9" t="s">
         <v>2595</v>
       </c>
-      <c r="B807" s="14" t="s">
+      <c r="B807" s="9" t="s">
         <v>2596</v>
       </c>
-      <c r="C807" s="14" t="s">
+      <c r="C807" s="9" t="s">
         <v>2597</v>
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="9" t="s">
+      <c r="A808" s="14" t="s">
         <v>2598</v>
       </c>
-      <c r="B808" s="9" t="s">
+      <c r="B808" s="14" t="s">
         <v>2599</v>
       </c>
-      <c r="C808" s="9" t="s">
+      <c r="C808" s="14" t="s">
         <v>2600</v>
       </c>
     </row>
@@ -31028,10 +31037,10 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="14" t="s">
+      <c r="A810" s="9" t="s">
         <v>2604</v>
       </c>
-      <c r="B810" s="14" t="s">
+      <c r="B810" s="9" t="s">
         <v>2605</v>
       </c>
       <c r="C810" s="9" t="s">
@@ -31039,10 +31048,10 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="9" t="s">
+      <c r="A811" s="14" t="s">
         <v>2607</v>
       </c>
-      <c r="B811" s="9" t="s">
+      <c r="B811" s="14" t="s">
         <v>2608</v>
       </c>
       <c r="C811" s="9" t="s">
@@ -31083,43 +31092,43 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="14" t="s">
+      <c r="A815" s="9" t="s">
         <v>2619</v>
       </c>
-      <c r="B815" s="14" t="s">
+      <c r="B815" s="9" t="s">
         <v>2620</v>
       </c>
-      <c r="C815" s="14" t="s">
+      <c r="C815" s="9" t="s">
         <v>2621</v>
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="9" t="s">
+      <c r="A816" s="14" t="s">
         <v>2622</v>
       </c>
-      <c r="B816" s="9" t="s">
+      <c r="B816" s="14" t="s">
         <v>2623</v>
       </c>
-      <c r="C816" s="9" t="s">
+      <c r="C816" s="14" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="14" t="s">
+      <c r="A817" s="9" t="s">
         <v>2625</v>
       </c>
-      <c r="B817" s="14" t="s">
+      <c r="B817" s="9" t="s">
         <v>2626</v>
       </c>
-      <c r="C817" s="14" t="s">
+      <c r="C817" s="9" t="s">
         <v>2627</v>
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="9" t="s">
+      <c r="A818" s="14" t="s">
         <v>2628</v>
       </c>
-      <c r="B818" s="9" t="s">
+      <c r="B818" s="14" t="s">
         <v>2629</v>
       </c>
       <c r="C818" s="14" t="s">
@@ -31127,10 +31136,10 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="14" t="s">
+      <c r="A819" s="9" t="s">
         <v>2631</v>
       </c>
-      <c r="B819" s="14" t="s">
+      <c r="B819" s="9" t="s">
         <v>2632</v>
       </c>
       <c r="C819" s="14" t="s">
@@ -31138,10 +31147,10 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="9" t="s">
+      <c r="A820" s="14" t="s">
         <v>2634</v>
       </c>
-      <c r="B820" s="9" t="s">
+      <c r="B820" s="14" t="s">
         <v>2635</v>
       </c>
       <c r="C820" s="14" t="s">
@@ -31149,10 +31158,10 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="14" t="s">
+      <c r="A821" s="9" t="s">
         <v>2637</v>
       </c>
-      <c r="B821" s="14" t="s">
+      <c r="B821" s="9" t="s">
         <v>2638</v>
       </c>
       <c r="C821" s="14" t="s">
@@ -31166,7 +31175,7 @@
       <c r="B822" s="14" t="s">
         <v>2641</v>
       </c>
-      <c r="C822" s="9" t="s">
+      <c r="C822" s="14" t="s">
         <v>2642</v>
       </c>
     </row>
@@ -31177,29 +31186,29 @@
       <c r="B823" s="14" t="s">
         <v>2644</v>
       </c>
-      <c r="C823" s="14" t="s">
+      <c r="C823" s="9" t="s">
         <v>2645</v>
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="9" t="s">
+      <c r="A824" s="14" t="s">
         <v>2646</v>
       </c>
-      <c r="B824" s="9" t="s">
+      <c r="B824" s="14" t="s">
         <v>2647</v>
       </c>
-      <c r="C824" s="9" t="s">
+      <c r="C824" s="14" t="s">
         <v>2648</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="14" t="s">
+      <c r="A825" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="B825" s="14" t="s">
+      <c r="B825" s="9" t="s">
         <v>2650</v>
       </c>
-      <c r="C825" s="14" t="s">
+      <c r="C825" s="9" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -31265,7 +31274,7 @@
       <c r="B831" s="14" t="s">
         <v>2668</v>
       </c>
-      <c r="C831" s="9" t="s">
+      <c r="C831" s="14" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -31273,7 +31282,7 @@
       <c r="A832" s="14" t="s">
         <v>2670</v>
       </c>
-      <c r="B832" s="9" t="s">
+      <c r="B832" s="14" t="s">
         <v>2671</v>
       </c>
       <c r="C832" s="9" t="s">
@@ -31284,7 +31293,7 @@
       <c r="A833" s="14" t="s">
         <v>2673</v>
       </c>
-      <c r="B833" s="14" t="s">
+      <c r="B833" s="9" t="s">
         <v>2674</v>
       </c>
       <c r="C833" s="9" t="s">
@@ -31292,13 +31301,13 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="9" t="s">
+      <c r="A834" s="14" t="s">
         <v>2676</v>
       </c>
-      <c r="B834" s="9" t="s">
+      <c r="B834" s="14" t="s">
         <v>2677</v>
       </c>
-      <c r="C834" s="14" t="s">
+      <c r="C834" s="9" t="s">
         <v>2678</v>
       </c>
     </row>
@@ -31309,26 +31318,26 @@
       <c r="B835" s="9" t="s">
         <v>2680</v>
       </c>
-      <c r="C835" s="9" t="s">
+      <c r="C835" s="14" t="s">
         <v>2681</v>
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="14" t="s">
+      <c r="A836" s="9" t="s">
         <v>2682</v>
       </c>
-      <c r="B836" s="14" t="s">
+      <c r="B836" s="9" t="s">
         <v>2683</v>
       </c>
-      <c r="C836" s="14" t="s">
+      <c r="C836" s="9" t="s">
         <v>2684</v>
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="9" t="s">
+      <c r="A837" s="14" t="s">
         <v>2685</v>
       </c>
-      <c r="B837" s="9" t="s">
+      <c r="B837" s="14" t="s">
         <v>2686</v>
       </c>
       <c r="C837" s="14" t="s">
@@ -31336,13 +31345,13 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="14" t="s">
+      <c r="A838" s="9" t="s">
         <v>2688</v>
       </c>
-      <c r="B838" s="14" t="s">
+      <c r="B838" s="9" t="s">
         <v>2689</v>
       </c>
-      <c r="C838" s="9" t="s">
+      <c r="C838" s="14" t="s">
         <v>2690</v>
       </c>
     </row>
@@ -31353,26 +31362,26 @@
       <c r="B839" s="14" t="s">
         <v>2692</v>
       </c>
-      <c r="C839" s="14" t="s">
+      <c r="C839" s="9" t="s">
         <v>2693</v>
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="9" t="s">
+      <c r="A840" s="14" t="s">
         <v>2694</v>
       </c>
-      <c r="B840" s="9" t="s">
+      <c r="B840" s="14" t="s">
         <v>2695</v>
       </c>
-      <c r="C840" s="9" t="s">
+      <c r="C840" s="14" t="s">
         <v>2696</v>
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="14" t="s">
+      <c r="A841" s="9" t="s">
         <v>2697</v>
       </c>
-      <c r="B841" s="14" t="s">
+      <c r="B841" s="9" t="s">
         <v>2698</v>
       </c>
       <c r="C841" s="9" t="s">
@@ -31380,10 +31389,10 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="9" t="s">
+      <c r="A842" s="14" t="s">
         <v>2700</v>
       </c>
-      <c r="B842" s="9" t="s">
+      <c r="B842" s="14" t="s">
         <v>2701</v>
       </c>
       <c r="C842" s="9" t="s">
@@ -31408,7 +31417,7 @@
       <c r="B844" s="9" t="s">
         <v>2707</v>
       </c>
-      <c r="C844" s="14" t="s">
+      <c r="C844" s="9" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -31419,7 +31428,7 @@
       <c r="B845" s="9" t="s">
         <v>2710</v>
       </c>
-      <c r="C845" s="9" t="s">
+      <c r="C845" s="14" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -31441,15 +31450,15 @@
       <c r="B847" s="9" t="s">
         <v>2716</v>
       </c>
-      <c r="C847" s="14" t="s">
+      <c r="C847" s="9" t="s">
         <v>2717</v>
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="14" t="s">
+      <c r="A848" s="9" t="s">
         <v>2718</v>
       </c>
-      <c r="B848" s="14" t="s">
+      <c r="B848" s="9" t="s">
         <v>2719</v>
       </c>
       <c r="C848" s="14" t="s">
@@ -31472,18 +31481,18 @@
         <v>2724</v>
       </c>
       <c r="B850" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="C850" s="9" t="s">
         <v>2725</v>
+      </c>
+      <c r="C850" s="14" t="s">
+        <v>2726</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="14" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="B851" s="14" t="s">
-        <v>2727</v>
+        <v>880</v>
       </c>
       <c r="C851" s="9" t="s">
         <v>2728</v>
@@ -31496,15 +31505,15 @@
       <c r="B852" s="14" t="s">
         <v>2730</v>
       </c>
-      <c r="C852" s="14" t="s">
+      <c r="C852" s="9" t="s">
         <v>2731</v>
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="9" t="s">
+      <c r="A853" s="14" t="s">
         <v>2732</v>
       </c>
-      <c r="B853" s="9" t="s">
+      <c r="B853" s="14" t="s">
         <v>2733</v>
       </c>
       <c r="C853" s="14" t="s">
@@ -31512,10 +31521,10 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="14" t="s">
+      <c r="A854" s="9" t="s">
         <v>2735</v>
       </c>
-      <c r="B854" s="14" t="s">
+      <c r="B854" s="9" t="s">
         <v>2736</v>
       </c>
       <c r="C854" s="14" t="s">
@@ -31523,32 +31532,32 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="9" t="s">
+      <c r="A855" s="14" t="s">
         <v>2738</v>
       </c>
-      <c r="B855" s="9" t="s">
+      <c r="B855" s="14" t="s">
         <v>2739</v>
       </c>
-      <c r="C855" s="9" t="s">
+      <c r="C855" s="14" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="14" t="s">
+      <c r="A856" s="9" t="s">
         <v>2741</v>
       </c>
-      <c r="B856" s="14" t="s">
+      <c r="B856" s="9" t="s">
         <v>2742</v>
       </c>
-      <c r="C856" s="14" t="s">
+      <c r="C856" s="9" t="s">
         <v>2743</v>
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="9" t="s">
+      <c r="A857" s="14" t="s">
         <v>2744</v>
       </c>
-      <c r="B857" s="9" t="s">
+      <c r="B857" s="14" t="s">
         <v>2745</v>
       </c>
       <c r="C857" s="14" t="s">
@@ -31562,7 +31571,7 @@
       <c r="B858" s="9" t="s">
         <v>2748</v>
       </c>
-      <c r="C858" s="9" t="s">
+      <c r="C858" s="14" t="s">
         <v>2749</v>
       </c>
     </row>
@@ -31578,13 +31587,13 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="14" t="s">
+      <c r="A860" s="9" t="s">
         <v>2753</v>
       </c>
-      <c r="B860" s="14" t="s">
+      <c r="B860" s="9" t="s">
         <v>2754</v>
       </c>
-      <c r="C860" s="14" t="s">
+      <c r="C860" s="9" t="s">
         <v>2755</v>
       </c>
     </row>
@@ -31644,8 +31653,15 @@
       </c>
     </row>
     <row r="866">
-      <c r="B866" s="24"/>
-      <c r="C866" s="24"/>
+      <c r="A866" s="14" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B866" s="14" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C866" s="14" t="s">
+        <v>2773</v>
+      </c>
     </row>
     <row r="867">
       <c r="B867" s="24"/>
@@ -32192,10 +32208,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$865">
-    <sortState ref="A1:C865">
-      <sortCondition ref="A1:A865"/>
-      <sortCondition ref="B1:B865"/>
+  <autoFilter ref="$A$1:$C$866">
+    <sortState ref="A1:C866">
+      <sortCondition ref="A1:A866"/>
+      <sortCondition ref="B1:B866"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -1248,103 +1248,103 @@
     <t>чэрся</t>
   </si>
   <si>
-    <t>chert</t>
+    <t>cheseviy</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>чэсэвй</t>
+  </si>
+  <si>
+    <t>chevakat</t>
+  </si>
+  <si>
+    <t>to cleave, to sever, to cut, to chop</t>
+  </si>
+  <si>
+    <t>чэвакат</t>
+  </si>
+  <si>
+    <t>chkatoniy</t>
+  </si>
+  <si>
+    <t>thunder, sound of lightning</t>
+  </si>
+  <si>
+    <t>чкатонй</t>
+  </si>
+  <si>
+    <t>chloskos</t>
+  </si>
+  <si>
+    <t>chlorine</t>
+  </si>
+  <si>
+    <t>члоскос</t>
+  </si>
+  <si>
+    <t>chnuskovat</t>
+  </si>
+  <si>
+    <t>to smell</t>
+  </si>
+  <si>
+    <t>чнусковат</t>
+  </si>
+  <si>
+    <t>chobtiya</t>
+  </si>
+  <si>
+    <t>to cover</t>
+  </si>
+  <si>
+    <t>чобтия</t>
+  </si>
+  <si>
+    <t>chochiy</t>
+  </si>
+  <si>
+    <t>derogatory insult directed to women; slut, thot</t>
+  </si>
+  <si>
+    <t>чочй</t>
+  </si>
+  <si>
+    <t>chozniyka</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>чознйка</t>
+  </si>
+  <si>
+    <t>chuska</t>
+  </si>
+  <si>
+    <t>to bore, to be bored</t>
+  </si>
+  <si>
+    <t>чуска</t>
+  </si>
+  <si>
+    <t>chyakivit</t>
+  </si>
+  <si>
+    <t>to shake</t>
+  </si>
+  <si>
+    <t>чякивит</t>
+  </si>
+  <si>
+    <t>chyert</t>
   </si>
   <si>
     <t>shit, crap</t>
   </si>
   <si>
-    <t>чэрт</t>
-  </si>
-  <si>
-    <t>cheseviy</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>чэсэвй</t>
-  </si>
-  <si>
-    <t>chevakat</t>
-  </si>
-  <si>
-    <t>to cleave, to sever, to cut, to chop</t>
-  </si>
-  <si>
-    <t>чэвакат</t>
-  </si>
-  <si>
-    <t>chkatoniy</t>
-  </si>
-  <si>
-    <t>thunder, sound of lightning</t>
-  </si>
-  <si>
-    <t>чкатонй</t>
-  </si>
-  <si>
-    <t>chloskos</t>
-  </si>
-  <si>
-    <t>chlorine</t>
-  </si>
-  <si>
-    <t>члоскос</t>
-  </si>
-  <si>
-    <t>chnuskovat</t>
-  </si>
-  <si>
-    <t>to smell</t>
-  </si>
-  <si>
-    <t>чнусковат</t>
-  </si>
-  <si>
-    <t>chobtiya</t>
-  </si>
-  <si>
-    <t>to cover</t>
-  </si>
-  <si>
-    <t>чобтия</t>
-  </si>
-  <si>
-    <t>chochiy</t>
-  </si>
-  <si>
-    <t>derogatory insult directed to women; slut, thot</t>
-  </si>
-  <si>
-    <t>чочй</t>
-  </si>
-  <si>
-    <t>chozniyka</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>чознйка</t>
-  </si>
-  <si>
-    <t>chuska</t>
-  </si>
-  <si>
-    <t>to bore, to be bored</t>
-  </si>
-  <si>
-    <t>чуска</t>
-  </si>
-  <si>
-    <t>chyakivit</t>
-  </si>
-  <si>
-    <t>to shake</t>
-  </si>
-  <si>
-    <t>чякивит</t>
+    <t>черт</t>
   </si>
   <si>
     <t>chyuvlyek</t>
@@ -11837,13 +11837,13 @@
       <c r="X83" s="17"/>
     </row>
     <row r="84">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>434</v>
       </c>
       <c r="D84" s="17"/>
@@ -11869,13 +11869,13 @@
       <c r="X84" s="17"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="14" t="s">
         <v>437</v>
       </c>
       <c r="D85" s="17"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$866</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$867</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="2774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="2777">
   <si>
     <t>Word</t>
   </si>
@@ -5758,6 +5758,15 @@
   </si>
   <si>
     <t>работа</t>
+  </si>
+  <si>
+    <t>rabotat</t>
+  </si>
+  <si>
+    <t>to work (with labor), to run, to execute</t>
+  </si>
+  <si>
+    <t>работат</t>
   </si>
   <si>
     <t>ralinefeyv</t>
@@ -27709,13 +27718,13 @@
       <c r="X579" s="17"/>
     </row>
     <row r="580">
-      <c r="A580" s="9" t="s">
+      <c r="A580" s="14" t="s">
         <v>1915</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="C580" s="9" t="s">
+      <c r="C580" s="14" t="s">
         <v>1917</v>
       </c>
       <c r="D580" s="17"/>
@@ -27901,13 +27910,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="14" t="s">
+      <c r="A586" s="9" t="s">
         <v>1933</v>
       </c>
-      <c r="B586" s="14" t="s">
+      <c r="B586" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="C586" s="14" t="s">
+      <c r="C586" s="9" t="s">
         <v>1935</v>
       </c>
       <c r="D586" s="17"/>
@@ -28029,13 +28038,13 @@
       <c r="X589" s="17"/>
     </row>
     <row r="590">
-      <c r="A590" s="9" t="s">
+      <c r="A590" s="14" t="s">
         <v>1945</v>
       </c>
-      <c r="B590" s="9" t="s">
+      <c r="B590" s="14" t="s">
         <v>1946</v>
       </c>
-      <c r="C590" s="9" t="s">
+      <c r="C590" s="14" t="s">
         <v>1947</v>
       </c>
       <c r="D590" s="17"/>
@@ -28125,13 +28134,13 @@
       <c r="X592" s="17"/>
     </row>
     <row r="593">
-      <c r="A593" s="14" t="s">
+      <c r="A593" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="B593" s="14" t="s">
+      <c r="B593" s="9" t="s">
         <v>1955</v>
       </c>
-      <c r="C593" s="14" t="s">
+      <c r="C593" s="9" t="s">
         <v>1956</v>
       </c>
       <c r="D593" s="17"/>
@@ -28157,13 +28166,13 @@
       <c r="X593" s="17"/>
     </row>
     <row r="594">
-      <c r="A594" s="9" t="s">
+      <c r="A594" s="14" t="s">
         <v>1957</v>
       </c>
-      <c r="B594" s="9" t="s">
+      <c r="B594" s="14" t="s">
         <v>1958</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="C594" s="14" t="s">
         <v>1959</v>
       </c>
       <c r="D594" s="17"/>
@@ -28189,13 +28198,13 @@
       <c r="X594" s="17"/>
     </row>
     <row r="595">
-      <c r="A595" s="14" t="s">
+      <c r="A595" s="9" t="s">
         <v>1960</v>
       </c>
-      <c r="B595" s="14" t="s">
+      <c r="B595" s="9" t="s">
         <v>1961</v>
       </c>
-      <c r="C595" s="14" t="s">
+      <c r="C595" s="9" t="s">
         <v>1962</v>
       </c>
       <c r="D595" s="17"/>
@@ -28317,13 +28326,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="s">
+      <c r="A599" s="14" t="s">
         <v>1972</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="14" t="s">
         <v>1973</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="C599" s="14" t="s">
         <v>1974</v>
       </c>
       <c r="D599" s="17"/>
@@ -28349,13 +28358,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="14" t="s">
+      <c r="A600" s="9" t="s">
         <v>1975</v>
       </c>
-      <c r="B600" s="14" t="s">
+      <c r="B600" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="C600" s="14" t="s">
+      <c r="C600" s="9" t="s">
         <v>1977</v>
       </c>
       <c r="D600" s="17"/>
@@ -28381,13 +28390,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="s">
+      <c r="A601" s="14" t="s">
         <v>1978</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="14" t="s">
         <v>1980</v>
       </c>
       <c r="D601" s="17"/>
@@ -28477,13 +28486,13 @@
       <c r="X603" s="17"/>
     </row>
     <row r="604">
-      <c r="A604" s="14" t="s">
+      <c r="A604" s="9" t="s">
         <v>1987</v>
       </c>
-      <c r="B604" s="14" t="s">
+      <c r="B604" s="9" t="s">
         <v>1988</v>
       </c>
-      <c r="C604" s="14" t="s">
+      <c r="C604" s="9" t="s">
         <v>1989</v>
       </c>
       <c r="D604" s="17"/>
@@ -28509,13 +28518,13 @@
       <c r="X604" s="17"/>
     </row>
     <row r="605">
-      <c r="A605" s="9" t="s">
+      <c r="A605" s="14" t="s">
         <v>1990</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" s="14" t="s">
         <v>1991</v>
       </c>
-      <c r="C605" s="9" t="s">
+      <c r="C605" s="14" t="s">
         <v>1992</v>
       </c>
       <c r="D605" s="17"/>
@@ -28573,13 +28582,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="14" t="s">
+      <c r="A607" s="9" t="s">
         <v>1996</v>
       </c>
-      <c r="B607" s="14" t="s">
+      <c r="B607" s="9" t="s">
         <v>1997</v>
       </c>
-      <c r="C607" s="14" t="s">
+      <c r="C607" s="9" t="s">
         <v>1998</v>
       </c>
       <c r="D607" s="17"/>
@@ -28605,13 +28614,13 @@
       <c r="X607" s="17"/>
     </row>
     <row r="608">
-      <c r="A608" s="9" t="s">
+      <c r="A608" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C608" s="14" t="s">
         <v>2001</v>
       </c>
       <c r="D608" s="17"/>
@@ -28637,13 +28646,13 @@
       <c r="X608" s="17"/>
     </row>
     <row r="609">
-      <c r="A609" s="14" t="s">
+      <c r="A609" s="9" t="s">
         <v>2002</v>
       </c>
-      <c r="B609" s="14" t="s">
+      <c r="B609" s="9" t="s">
         <v>2003</v>
       </c>
-      <c r="C609" s="14" t="s">
+      <c r="C609" s="9" t="s">
         <v>2004</v>
       </c>
       <c r="D609" s="17"/>
@@ -28669,13 +28678,13 @@
       <c r="X609" s="17"/>
     </row>
     <row r="610">
-      <c r="A610" s="9" t="s">
+      <c r="A610" s="14" t="s">
         <v>2005</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="14" t="s">
         <v>2006</v>
       </c>
-      <c r="C610" s="9" t="s">
+      <c r="C610" s="14" t="s">
         <v>2007</v>
       </c>
       <c r="D610" s="17"/>
@@ -28797,13 +28806,13 @@
       <c r="X613" s="17"/>
     </row>
     <row r="614">
-      <c r="A614" s="14" t="s">
+      <c r="A614" s="9" t="s">
         <v>2017</v>
       </c>
-      <c r="B614" s="14" t="s">
+      <c r="B614" s="9" t="s">
         <v>2018</v>
       </c>
-      <c r="C614" s="14" t="s">
+      <c r="C614" s="9" t="s">
         <v>2019</v>
       </c>
       <c r="D614" s="17"/>
@@ -28829,13 +28838,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="s">
+      <c r="A615" s="14" t="s">
         <v>2020</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="C615" s="14" t="s">
         <v>2022</v>
       </c>
       <c r="D615" s="17"/>
@@ -28861,13 +28870,13 @@
       <c r="X615" s="17"/>
     </row>
     <row r="616">
-      <c r="A616" s="14" t="s">
+      <c r="A616" s="9" t="s">
         <v>2023</v>
       </c>
-      <c r="B616" s="14" t="s">
+      <c r="B616" s="9" t="s">
         <v>2024</v>
       </c>
-      <c r="C616" s="14" t="s">
+      <c r="C616" s="9" t="s">
         <v>2025</v>
       </c>
       <c r="D616" s="17"/>
@@ -28925,13 +28934,13 @@
       <c r="X617" s="17"/>
     </row>
     <row r="618">
-      <c r="A618" s="9" t="s">
+      <c r="A618" s="14" t="s">
         <v>2029</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="14" t="s">
         <v>2030</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="C618" s="14" t="s">
         <v>2031</v>
       </c>
     </row>
@@ -28947,24 +28956,24 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="14" t="s">
+      <c r="A620" s="9" t="s">
         <v>2035</v>
       </c>
-      <c r="B620" s="14" t="s">
+      <c r="B620" s="9" t="s">
         <v>2036</v>
       </c>
-      <c r="C620" s="14" t="s">
+      <c r="C620" s="9" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="9" t="s">
+      <c r="A621" s="14" t="s">
         <v>2038</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="14" t="s">
         <v>2039</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="14" t="s">
         <v>2040</v>
       </c>
     </row>
@@ -28980,13 +28989,13 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="14" t="s">
+      <c r="A623" s="9" t="s">
         <v>2044</v>
       </c>
-      <c r="B623" s="14" t="s">
+      <c r="B623" s="9" t="s">
         <v>2045</v>
       </c>
-      <c r="C623" s="14" t="s">
+      <c r="C623" s="9" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -29013,13 +29022,13 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="9" t="s">
+      <c r="A626" s="14" t="s">
         <v>2053</v>
       </c>
-      <c r="B626" s="9" t="s">
+      <c r="B626" s="14" t="s">
         <v>2054</v>
       </c>
-      <c r="C626" s="9" t="s">
+      <c r="C626" s="14" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -29046,24 +29055,24 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="14" t="s">
+      <c r="A629" s="9" t="s">
         <v>2062</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2063</v>
       </c>
-      <c r="C629" s="14" t="s">
+      <c r="C629" s="9" t="s">
         <v>2064</v>
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="9" t="s">
+      <c r="A630" s="14" t="s">
         <v>2065</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="14" t="s">
         <v>2066</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C630" s="14" t="s">
         <v>2067</v>
       </c>
     </row>
@@ -29090,13 +29099,13 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="14" t="s">
+      <c r="A633" s="9" t="s">
         <v>2074</v>
       </c>
-      <c r="B633" s="14" t="s">
+      <c r="B633" s="9" t="s">
         <v>2075</v>
       </c>
-      <c r="C633" s="14" t="s">
+      <c r="C633" s="9" t="s">
         <v>2076</v>
       </c>
     </row>
@@ -29123,13 +29132,13 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="9" t="s">
+      <c r="A636" s="14" t="s">
         <v>2083</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="14" t="s">
         <v>2084</v>
       </c>
-      <c r="C636" s="9" t="s">
+      <c r="C636" s="14" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -29156,13 +29165,13 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="14" t="s">
+      <c r="A639" s="9" t="s">
         <v>2092</v>
       </c>
-      <c r="B639" s="14" t="s">
+      <c r="B639" s="9" t="s">
         <v>2093</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="9" t="s">
         <v>2094</v>
       </c>
     </row>
@@ -29233,24 +29242,24 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="9" t="s">
+      <c r="A646" s="14" t="s">
         <v>2113</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="14" t="s">
         <v>2114</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="14" t="s">
         <v>2115</v>
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="14" t="s">
+      <c r="A647" s="9" t="s">
         <v>2116</v>
       </c>
-      <c r="B647" s="14" t="s">
+      <c r="B647" s="9" t="s">
         <v>2117</v>
       </c>
-      <c r="C647" s="14" t="s">
+      <c r="C647" s="9" t="s">
         <v>2118</v>
       </c>
     </row>
@@ -29266,13 +29275,13 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="9" t="s">
+      <c r="A649" s="14" t="s">
         <v>2122</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="14" t="s">
         <v>2123</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="14" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -29299,13 +29308,13 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="14" t="s">
+      <c r="A652" s="9" t="s">
         <v>2131</v>
       </c>
-      <c r="B652" s="14" t="s">
+      <c r="B652" s="9" t="s">
         <v>2132</v>
       </c>
-      <c r="C652" s="14" t="s">
+      <c r="C652" s="9" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -29321,24 +29330,24 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="9" t="s">
+      <c r="A654" s="14" t="s">
         <v>2137</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="14" t="s">
         <v>2138</v>
       </c>
-      <c r="C654" s="9" t="s">
+      <c r="C654" s="14" t="s">
         <v>2139</v>
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="14" t="s">
+      <c r="A655" s="9" t="s">
         <v>2140</v>
       </c>
-      <c r="B655" s="14" t="s">
+      <c r="B655" s="9" t="s">
         <v>2141</v>
       </c>
-      <c r="C655" s="14" t="s">
+      <c r="C655" s="9" t="s">
         <v>2142</v>
       </c>
     </row>
@@ -29354,13 +29363,13 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="9" t="s">
+      <c r="A657" s="14" t="s">
         <v>2146</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="14" t="s">
         <v>2147</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="14" t="s">
         <v>2148</v>
       </c>
     </row>
@@ -29398,21 +29407,21 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="14" t="s">
+      <c r="A661" s="9" t="s">
         <v>2158</v>
       </c>
-      <c r="B661" s="14" t="s">
+      <c r="B661" s="9" t="s">
         <v>2159</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C661" s="9" t="s">
         <v>2160</v>
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="9" t="s">
+      <c r="A662" s="14" t="s">
         <v>2161</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="14" t="s">
         <v>2162</v>
       </c>
       <c r="C662" s="14" t="s">
@@ -29420,10 +29429,10 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="14" t="s">
+      <c r="A663" s="9" t="s">
         <v>2164</v>
       </c>
-      <c r="B663" s="14" t="s">
+      <c r="B663" s="9" t="s">
         <v>2165</v>
       </c>
       <c r="C663" s="14" t="s">
@@ -29453,24 +29462,24 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="9" t="s">
+      <c r="A666" s="14" t="s">
         <v>2173</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="14" t="s">
         <v>2174</v>
       </c>
-      <c r="C666" s="9" t="s">
+      <c r="C666" s="14" t="s">
         <v>2175</v>
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="14" t="s">
+      <c r="A667" s="9" t="s">
         <v>2176</v>
       </c>
-      <c r="B667" s="14" t="s">
+      <c r="B667" s="9" t="s">
         <v>2177</v>
       </c>
-      <c r="C667" s="14" t="s">
+      <c r="C667" s="9" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -29486,35 +29495,35 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="9" t="s">
+      <c r="A669" s="14" t="s">
         <v>2182</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="14" t="s">
         <v>2183</v>
       </c>
-      <c r="C669" s="9" t="s">
+      <c r="C669" s="14" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="14" t="s">
+      <c r="A670" s="9" t="s">
         <v>2185</v>
       </c>
-      <c r="B670" s="14" t="s">
+      <c r="B670" s="9" t="s">
         <v>2186</v>
       </c>
-      <c r="C670" s="14" t="s">
+      <c r="C670" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="9" t="s">
+      <c r="A671" s="14" t="s">
         <v>2188</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="14" t="s">
         <v>2189</v>
       </c>
-      <c r="C671" s="9" t="s">
+      <c r="C671" s="14" t="s">
         <v>2190</v>
       </c>
     </row>
@@ -29563,57 +29572,57 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="19" t="s">
+      <c r="A676" s="9" t="s">
         <v>2203</v>
       </c>
-      <c r="B676" s="19" t="s">
+      <c r="B676" s="9" t="s">
         <v>2204</v>
       </c>
-      <c r="C676" s="10" t="s">
+      <c r="C676" s="9" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="9" t="s">
+      <c r="A677" s="19" t="s">
         <v>2206</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="19" t="s">
         <v>2207</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="10" t="s">
         <v>2208</v>
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="14" t="s">
+      <c r="A678" s="9" t="s">
         <v>2209</v>
       </c>
-      <c r="B678" s="14" t="s">
+      <c r="B678" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="9" t="s">
         <v>2211</v>
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="9" t="s">
+      <c r="A679" s="14" t="s">
         <v>2212</v>
       </c>
-      <c r="B679" s="9" t="s">
+      <c r="B679" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="C679" s="9" t="s">
+      <c r="C679" s="14" t="s">
         <v>2214</v>
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="14" t="s">
+      <c r="A680" s="9" t="s">
         <v>2215</v>
       </c>
-      <c r="B680" s="14" t="s">
+      <c r="B680" s="9" t="s">
         <v>2216</v>
       </c>
-      <c r="C680" s="14" t="s">
+      <c r="C680" s="9" t="s">
         <v>2217</v>
       </c>
     </row>
@@ -29640,79 +29649,79 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="9" t="s">
+      <c r="A683" s="14" t="s">
         <v>2224</v>
       </c>
-      <c r="B683" s="9" t="s">
+      <c r="B683" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="C683" s="9" t="s">
+      <c r="C683" s="14" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="14" t="s">
+      <c r="A684" s="9" t="s">
         <v>2227</v>
       </c>
-      <c r="B684" s="14" t="s">
+      <c r="B684" s="9" t="s">
         <v>2228</v>
       </c>
-      <c r="C684" s="14" t="s">
+      <c r="C684" s="9" t="s">
         <v>2229</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="9" t="s">
+      <c r="A685" s="14" t="s">
         <v>2230</v>
       </c>
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="14" t="s">
         <v>2231</v>
       </c>
-      <c r="C685" s="9" t="s">
+      <c r="C685" s="14" t="s">
         <v>2232</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="14" t="s">
+      <c r="A686" s="9" t="s">
         <v>2233</v>
       </c>
-      <c r="B686" s="14" t="s">
+      <c r="B686" s="9" t="s">
         <v>2234</v>
       </c>
-      <c r="C686" s="14" t="s">
+      <c r="C686" s="9" t="s">
         <v>2235</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="9" t="s">
+      <c r="A687" s="14" t="s">
         <v>2236</v>
       </c>
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="14" t="s">
         <v>2237</v>
       </c>
-      <c r="C687" s="9" t="s">
+      <c r="C687" s="14" t="s">
         <v>2238</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="9" t="s">
         <v>2239</v>
       </c>
-      <c r="B688" s="14" t="s">
+      <c r="B688" s="9" t="s">
         <v>2240</v>
       </c>
-      <c r="C688" s="14" t="s">
+      <c r="C688" s="9" t="s">
         <v>2241</v>
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="9" t="s">
+      <c r="A689" s="14" t="s">
         <v>2242</v>
       </c>
-      <c r="B689" s="9" t="s">
+      <c r="B689" s="14" t="s">
         <v>2243</v>
       </c>
-      <c r="C689" s="9" t="s">
+      <c r="C689" s="14" t="s">
         <v>2244</v>
       </c>
     </row>
@@ -29739,13 +29748,13 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="14" t="s">
+      <c r="A692" s="9" t="s">
         <v>2251</v>
       </c>
-      <c r="B692" s="14" t="s">
+      <c r="B692" s="9" t="s">
         <v>2252</v>
       </c>
-      <c r="C692" s="14" t="s">
+      <c r="C692" s="9" t="s">
         <v>2253</v>
       </c>
     </row>
@@ -29783,13 +29792,13 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="14" t="s">
         <v>2263</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="14" t="s">
         <v>2264</v>
       </c>
-      <c r="C696" s="9" t="s">
+      <c r="C696" s="14" t="s">
         <v>2265</v>
       </c>
     </row>
@@ -29830,7 +29839,7 @@
       <c r="A700" s="9" t="s">
         <v>2275</v>
       </c>
-      <c r="B700" s="14" t="s">
+      <c r="B700" s="9" t="s">
         <v>2276</v>
       </c>
       <c r="C700" s="9" t="s">
@@ -29838,13 +29847,13 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="14" t="s">
+      <c r="A701" s="9" t="s">
         <v>2278</v>
       </c>
       <c r="B701" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="C701" s="14" t="s">
+      <c r="C701" s="9" t="s">
         <v>2280</v>
       </c>
     </row>
@@ -29860,13 +29869,13 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="9" t="s">
+      <c r="A703" s="14" t="s">
         <v>2284</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B703" s="14" t="s">
         <v>2285</v>
       </c>
-      <c r="C703" s="9" t="s">
+      <c r="C703" s="14" t="s">
         <v>2286</v>
       </c>
     </row>
@@ -29904,10 +29913,10 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="19" t="s">
+      <c r="A707" s="9" t="s">
         <v>2296</v>
       </c>
-      <c r="B707" s="19" t="s">
+      <c r="B707" s="9" t="s">
         <v>2297</v>
       </c>
       <c r="C707" s="9" t="s">
@@ -29915,10 +29924,10 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="9" t="s">
+      <c r="A708" s="19" t="s">
         <v>2299</v>
       </c>
-      <c r="B708" s="9" t="s">
+      <c r="B708" s="19" t="s">
         <v>2300</v>
       </c>
       <c r="C708" s="9" t="s">
@@ -29959,13 +29968,13 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="14" t="s">
+      <c r="A712" s="9" t="s">
         <v>2311</v>
       </c>
-      <c r="B712" s="14" t="s">
+      <c r="B712" s="9" t="s">
         <v>2312</v>
       </c>
-      <c r="C712" s="14" t="s">
+      <c r="C712" s="9" t="s">
         <v>2313</v>
       </c>
     </row>
@@ -30003,35 +30012,35 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="14" t="s">
         <v>2323</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="14" t="s">
         <v>2324</v>
       </c>
-      <c r="C716" s="9" t="s">
+      <c r="C716" s="14" t="s">
         <v>2325</v>
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="14" t="s">
+      <c r="A717" s="9" t="s">
         <v>2326</v>
       </c>
-      <c r="B717" s="14" t="s">
+      <c r="B717" s="9" t="s">
         <v>2327</v>
       </c>
-      <c r="C717" s="14" t="s">
+      <c r="C717" s="9" t="s">
         <v>2328</v>
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="9" t="s">
+      <c r="A718" s="14" t="s">
         <v>2329</v>
       </c>
-      <c r="B718" s="9" t="s">
+      <c r="B718" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="C718" s="9" t="s">
+      <c r="C718" s="14" t="s">
         <v>2331</v>
       </c>
     </row>
@@ -30058,79 +30067,79 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="14" t="s">
+      <c r="A721" s="9" t="s">
         <v>2338</v>
       </c>
-      <c r="B721" s="14" t="s">
+      <c r="B721" s="9" t="s">
         <v>2339</v>
       </c>
-      <c r="C721" s="14" t="s">
+      <c r="C721" s="9" t="s">
         <v>2340</v>
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="9" t="s">
+      <c r="A722" s="14" t="s">
         <v>2341</v>
       </c>
-      <c r="B722" s="9" t="s">
+      <c r="B722" s="14" t="s">
         <v>2342</v>
       </c>
-      <c r="C722" s="9" t="s">
+      <c r="C722" s="14" t="s">
         <v>2343</v>
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="14" t="s">
+      <c r="A723" s="9" t="s">
         <v>2344</v>
       </c>
-      <c r="B723" s="14" t="s">
+      <c r="B723" s="9" t="s">
         <v>2345</v>
       </c>
-      <c r="C723" s="14" t="s">
+      <c r="C723" s="9" t="s">
         <v>2346</v>
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2347</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="14" t="s">
         <v>2348</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2349</v>
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="14" t="s">
+      <c r="A725" s="9" t="s">
         <v>2350</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="9" t="s">
         <v>2351</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2352</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="9" t="s">
+      <c r="A726" s="14" t="s">
         <v>2353</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" s="14" t="s">
         <v>2354</v>
       </c>
-      <c r="C726" s="9" t="s">
+      <c r="C726" s="14" t="s">
         <v>2355</v>
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="14" t="s">
+      <c r="A727" s="9" t="s">
         <v>2356</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="9" t="s">
         <v>2357</v>
       </c>
-      <c r="C727" s="14" t="s">
+      <c r="C727" s="9" t="s">
         <v>2358</v>
       </c>
     </row>
@@ -30146,13 +30155,13 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="9" t="s">
+      <c r="A729" s="14" t="s">
         <v>2362</v>
       </c>
-      <c r="B729" s="9" t="s">
+      <c r="B729" s="14" t="s">
         <v>2363</v>
       </c>
-      <c r="C729" s="9" t="s">
+      <c r="C729" s="14" t="s">
         <v>2364</v>
       </c>
     </row>
@@ -30179,35 +30188,35 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="14" t="s">
+      <c r="A732" s="9" t="s">
         <v>2371</v>
       </c>
-      <c r="B732" s="14" t="s">
+      <c r="B732" s="9" t="s">
         <v>2372</v>
       </c>
-      <c r="C732" s="14" t="s">
+      <c r="C732" s="9" t="s">
         <v>2373</v>
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="9" t="s">
+      <c r="A733" s="14" t="s">
         <v>2374</v>
       </c>
-      <c r="B733" s="9" t="s">
+      <c r="B733" s="14" t="s">
         <v>2375</v>
       </c>
-      <c r="C733" s="9" t="s">
+      <c r="C733" s="14" t="s">
         <v>2376</v>
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="14" t="s">
+      <c r="A734" s="9" t="s">
         <v>2377</v>
       </c>
-      <c r="B734" s="14" t="s">
+      <c r="B734" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="C734" s="14" t="s">
+      <c r="C734" s="9" t="s">
         <v>2379</v>
       </c>
     </row>
@@ -30256,24 +30265,24 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="9" t="s">
+      <c r="A739" s="14" t="s">
         <v>2392</v>
       </c>
-      <c r="B739" s="9" t="s">
+      <c r="B739" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="C739" s="9" t="s">
+      <c r="C739" s="14" t="s">
         <v>2394</v>
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2395</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2396</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2397</v>
       </c>
     </row>
@@ -30289,13 +30298,13 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="9" t="s">
+      <c r="A742" s="14" t="s">
         <v>2401</v>
       </c>
-      <c r="B742" s="9" t="s">
+      <c r="B742" s="14" t="s">
         <v>2402</v>
       </c>
-      <c r="C742" s="9" t="s">
+      <c r="C742" s="14" t="s">
         <v>2403</v>
       </c>
     </row>
@@ -30322,46 +30331,46 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="14" t="s">
+      <c r="A745" s="9" t="s">
         <v>2410</v>
       </c>
-      <c r="B745" s="14" t="s">
+      <c r="B745" s="9" t="s">
         <v>2411</v>
       </c>
-      <c r="C745" s="14" t="s">
+      <c r="C745" s="9" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="14" t="s">
         <v>2413</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="14" t="s">
         <v>2414</v>
       </c>
-      <c r="C746" s="9" t="s">
+      <c r="C746" s="14" t="s">
         <v>2415</v>
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="14" t="s">
+      <c r="A747" s="9" t="s">
         <v>2416</v>
       </c>
-      <c r="B747" s="14" t="s">
+      <c r="B747" s="9" t="s">
         <v>2417</v>
       </c>
-      <c r="C747" s="14" t="s">
+      <c r="C747" s="9" t="s">
         <v>2418</v>
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="9" t="s">
+      <c r="A748" s="14" t="s">
         <v>2419</v>
       </c>
-      <c r="B748" s="9" t="s">
+      <c r="B748" s="14" t="s">
         <v>2420</v>
       </c>
-      <c r="C748" s="9" t="s">
+      <c r="C748" s="14" t="s">
         <v>2421</v>
       </c>
     </row>
@@ -30377,13 +30386,13 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="14" t="s">
+      <c r="A750" s="9" t="s">
         <v>2425</v>
       </c>
-      <c r="B750" s="14" t="s">
+      <c r="B750" s="9" t="s">
         <v>2426</v>
       </c>
-      <c r="C750" s="14" t="s">
+      <c r="C750" s="9" t="s">
         <v>2427</v>
       </c>
     </row>
@@ -30432,24 +30441,24 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="9" t="s">
+      <c r="A755" s="14" t="s">
         <v>2440</v>
       </c>
-      <c r="B755" s="9" t="s">
+      <c r="B755" s="14" t="s">
         <v>2441</v>
       </c>
-      <c r="C755" s="9" t="s">
+      <c r="C755" s="14" t="s">
         <v>2442</v>
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="14" t="s">
+      <c r="A756" s="9" t="s">
         <v>2443</v>
       </c>
-      <c r="B756" s="14" t="s">
+      <c r="B756" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="C756" s="14" t="s">
+      <c r="C756" s="9" t="s">
         <v>2445</v>
       </c>
     </row>
@@ -30465,13 +30474,13 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="9" t="s">
+      <c r="A758" s="14" t="s">
         <v>2449</v>
       </c>
-      <c r="B758" s="9" t="s">
+      <c r="B758" s="14" t="s">
         <v>2450</v>
       </c>
-      <c r="C758" s="9" t="s">
+      <c r="C758" s="14" t="s">
         <v>2451</v>
       </c>
     </row>
@@ -30520,24 +30529,24 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="14" t="s">
+      <c r="A763" s="9" t="s">
         <v>2464</v>
       </c>
-      <c r="B763" s="14" t="s">
+      <c r="B763" s="9" t="s">
         <v>2465</v>
       </c>
-      <c r="C763" s="14" t="s">
+      <c r="C763" s="9" t="s">
         <v>2466</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="9" t="s">
+      <c r="A764" s="14" t="s">
         <v>2467</v>
       </c>
-      <c r="B764" s="9" t="s">
+      <c r="B764" s="14" t="s">
         <v>2468</v>
       </c>
-      <c r="C764" s="9" t="s">
+      <c r="C764" s="14" t="s">
         <v>2469</v>
       </c>
     </row>
@@ -30575,13 +30584,13 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="14" t="s">
+      <c r="A768" s="9" t="s">
         <v>2479</v>
       </c>
-      <c r="B768" s="14" t="s">
+      <c r="B768" s="9" t="s">
         <v>2480</v>
       </c>
-      <c r="C768" s="14" t="s">
+      <c r="C768" s="9" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -30619,13 +30628,13 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="14" t="s">
         <v>2491</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="14" t="s">
         <v>2492</v>
       </c>
-      <c r="C772" s="9" t="s">
+      <c r="C772" s="14" t="s">
         <v>2493</v>
       </c>
     </row>
@@ -30652,13 +30661,13 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="14" t="s">
+      <c r="A775" s="9" t="s">
         <v>2500</v>
       </c>
-      <c r="B775" s="14" t="s">
+      <c r="B775" s="9" t="s">
         <v>2501</v>
       </c>
-      <c r="C775" s="14" t="s">
+      <c r="C775" s="9" t="s">
         <v>2502</v>
       </c>
     </row>
@@ -30696,10 +30705,10 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="9" t="s">
+      <c r="A779" s="14" t="s">
         <v>2512</v>
       </c>
-      <c r="B779" s="9" t="s">
+      <c r="B779" s="14" t="s">
         <v>2513</v>
       </c>
       <c r="C779" s="14" t="s">
@@ -30713,18 +30722,18 @@
       <c r="B780" s="9" t="s">
         <v>2516</v>
       </c>
-      <c r="C780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2517</v>
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="14" t="s">
+      <c r="A781" s="9" t="s">
         <v>2518</v>
       </c>
-      <c r="B781" s="14" t="s">
+      <c r="B781" s="9" t="s">
         <v>2519</v>
       </c>
-      <c r="C781" s="14" t="s">
+      <c r="C781" s="9" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -30735,7 +30744,7 @@
       <c r="B782" s="14" t="s">
         <v>2522</v>
       </c>
-      <c r="C782" s="9" t="s">
+      <c r="C782" s="14" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -30757,18 +30766,18 @@
       <c r="B784" s="14" t="s">
         <v>2528</v>
       </c>
-      <c r="C784" s="14" t="s">
+      <c r="C784" s="9" t="s">
         <v>2529</v>
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="9" t="s">
+      <c r="A785" s="14" t="s">
         <v>2530</v>
       </c>
-      <c r="B785" s="9" t="s">
+      <c r="B785" s="14" t="s">
         <v>2531</v>
       </c>
-      <c r="C785" s="9" t="s">
+      <c r="C785" s="14" t="s">
         <v>2532</v>
       </c>
     </row>
@@ -30776,7 +30785,7 @@
       <c r="A786" s="9" t="s">
         <v>2533</v>
       </c>
-      <c r="B786" s="14" t="s">
+      <c r="B786" s="9" t="s">
         <v>2534</v>
       </c>
       <c r="C786" s="9" t="s">
@@ -30787,7 +30796,7 @@
       <c r="A787" s="9" t="s">
         <v>2536</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="14" t="s">
         <v>2537</v>
       </c>
       <c r="C787" s="9" t="s">
@@ -30812,15 +30821,15 @@
       <c r="B789" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="C789" s="14" t="s">
+      <c r="C789" s="9" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="14" t="s">
+      <c r="A790" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B790" s="14" t="s">
+      <c r="B790" s="9" t="s">
         <v>2546</v>
       </c>
       <c r="C790" s="14" t="s">
@@ -30839,13 +30848,13 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="9" t="s">
+      <c r="A792" s="14" t="s">
         <v>2551</v>
       </c>
-      <c r="B792" s="9" t="s">
+      <c r="B792" s="14" t="s">
         <v>2552</v>
       </c>
-      <c r="C792" s="9" t="s">
+      <c r="C792" s="14" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -30861,21 +30870,21 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="14" t="s">
+      <c r="A794" s="9" t="s">
         <v>2557</v>
       </c>
-      <c r="B794" s="14" t="s">
+      <c r="B794" s="9" t="s">
         <v>2558</v>
       </c>
-      <c r="C794" s="14" t="s">
+      <c r="C794" s="9" t="s">
         <v>2559</v>
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="9" t="s">
+      <c r="A795" s="14" t="s">
         <v>2560</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="14" t="s">
         <v>2561</v>
       </c>
       <c r="C795" s="14" t="s">
@@ -30883,33 +30892,33 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="14" t="s">
+      <c r="A796" s="9" t="s">
         <v>2563</v>
       </c>
-      <c r="B796" s="14" t="s">
+      <c r="B796" s="9" t="s">
         <v>2564</v>
       </c>
-      <c r="C796" s="9" t="s">
+      <c r="C796" s="14" t="s">
         <v>2565</v>
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="9" t="s">
+      <c r="A797" s="14" t="s">
         <v>2566</v>
       </c>
-      <c r="B797" s="9" t="s">
-        <v>2426</v>
+      <c r="B797" s="14" t="s">
+        <v>2567</v>
       </c>
       <c r="C797" s="9" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="9" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>2569</v>
+        <v>2429</v>
       </c>
       <c r="C798" s="9" t="s">
         <v>2570</v>
@@ -30944,15 +30953,15 @@
       <c r="B801" s="9" t="s">
         <v>2578</v>
       </c>
-      <c r="C801" s="14" t="s">
+      <c r="C801" s="9" t="s">
         <v>2579</v>
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="14" t="s">
+      <c r="A802" s="9" t="s">
         <v>2580</v>
       </c>
-      <c r="B802" s="14" t="s">
+      <c r="B802" s="9" t="s">
         <v>2581</v>
       </c>
       <c r="C802" s="14" t="s">
@@ -30963,10 +30972,10 @@
       <c r="A803" s="14" t="s">
         <v>2583</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="14" t="s">
         <v>2584</v>
       </c>
-      <c r="C803" s="9" t="s">
+      <c r="C803" s="14" t="s">
         <v>2585</v>
       </c>
     </row>
@@ -30974,7 +30983,7 @@
       <c r="A804" s="14" t="s">
         <v>2586</v>
       </c>
-      <c r="B804" s="14" t="s">
+      <c r="B804" s="9" t="s">
         <v>2587</v>
       </c>
       <c r="C804" s="9" t="s">
@@ -30982,10 +30991,10 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="9" t="s">
+      <c r="A805" s="14" t="s">
         <v>2589</v>
       </c>
-      <c r="B805" s="9" t="s">
+      <c r="B805" s="14" t="s">
         <v>2590</v>
       </c>
       <c r="C805" s="9" t="s">
@@ -30999,7 +31008,7 @@
       <c r="B806" s="9" t="s">
         <v>2593</v>
       </c>
-      <c r="C806" s="14" t="s">
+      <c r="C806" s="9" t="s">
         <v>2594</v>
       </c>
     </row>
@@ -31010,29 +31019,29 @@
       <c r="B807" s="9" t="s">
         <v>2596</v>
       </c>
-      <c r="C807" s="9" t="s">
+      <c r="C807" s="14" t="s">
         <v>2597</v>
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="14" t="s">
+      <c r="A808" s="9" t="s">
         <v>2598</v>
       </c>
-      <c r="B808" s="14" t="s">
+      <c r="B808" s="9" t="s">
         <v>2599</v>
       </c>
-      <c r="C808" s="14" t="s">
+      <c r="C808" s="9" t="s">
         <v>2600</v>
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="9" t="s">
+      <c r="A809" s="14" t="s">
         <v>2601</v>
       </c>
-      <c r="B809" s="9" t="s">
+      <c r="B809" s="14" t="s">
         <v>2602</v>
       </c>
-      <c r="C809" s="9" t="s">
+      <c r="C809" s="14" t="s">
         <v>2603</v>
       </c>
     </row>
@@ -31048,10 +31057,10 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="14" t="s">
+      <c r="A811" s="9" t="s">
         <v>2607</v>
       </c>
-      <c r="B811" s="14" t="s">
+      <c r="B811" s="9" t="s">
         <v>2608</v>
       </c>
       <c r="C811" s="9" t="s">
@@ -31059,10 +31068,10 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="9" t="s">
+      <c r="A812" s="14" t="s">
         <v>2610</v>
       </c>
-      <c r="B812" s="9" t="s">
+      <c r="B812" s="14" t="s">
         <v>2611</v>
       </c>
       <c r="C812" s="9" t="s">
@@ -31103,43 +31112,43 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="14" t="s">
+      <c r="A816" s="9" t="s">
         <v>2622</v>
       </c>
-      <c r="B816" s="14" t="s">
+      <c r="B816" s="9" t="s">
         <v>2623</v>
       </c>
-      <c r="C816" s="14" t="s">
+      <c r="C816" s="9" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="9" t="s">
+      <c r="A817" s="14" t="s">
         <v>2625</v>
       </c>
-      <c r="B817" s="9" t="s">
+      <c r="B817" s="14" t="s">
         <v>2626</v>
       </c>
-      <c r="C817" s="9" t="s">
+      <c r="C817" s="14" t="s">
         <v>2627</v>
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="14" t="s">
+      <c r="A818" s="9" t="s">
         <v>2628</v>
       </c>
-      <c r="B818" s="14" t="s">
+      <c r="B818" s="9" t="s">
         <v>2629</v>
       </c>
-      <c r="C818" s="14" t="s">
+      <c r="C818" s="9" t="s">
         <v>2630</v>
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="9" t="s">
+      <c r="A819" s="14" t="s">
         <v>2631</v>
       </c>
-      <c r="B819" s="9" t="s">
+      <c r="B819" s="14" t="s">
         <v>2632</v>
       </c>
       <c r="C819" s="14" t="s">
@@ -31147,10 +31156,10 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="14" t="s">
+      <c r="A820" s="9" t="s">
         <v>2634</v>
       </c>
-      <c r="B820" s="14" t="s">
+      <c r="B820" s="9" t="s">
         <v>2635</v>
       </c>
       <c r="C820" s="14" t="s">
@@ -31158,10 +31167,10 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="9" t="s">
+      <c r="A821" s="14" t="s">
         <v>2637</v>
       </c>
-      <c r="B821" s="9" t="s">
+      <c r="B821" s="14" t="s">
         <v>2638</v>
       </c>
       <c r="C821" s="14" t="s">
@@ -31169,10 +31178,10 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="14" t="s">
+      <c r="A822" s="9" t="s">
         <v>2640</v>
       </c>
-      <c r="B822" s="14" t="s">
+      <c r="B822" s="9" t="s">
         <v>2641</v>
       </c>
       <c r="C822" s="14" t="s">
@@ -31186,7 +31195,7 @@
       <c r="B823" s="14" t="s">
         <v>2644</v>
       </c>
-      <c r="C823" s="9" t="s">
+      <c r="C823" s="14" t="s">
         <v>2645</v>
       </c>
     </row>
@@ -31197,29 +31206,29 @@
       <c r="B824" s="14" t="s">
         <v>2647</v>
       </c>
-      <c r="C824" s="14" t="s">
+      <c r="C824" s="9" t="s">
         <v>2648</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="9" t="s">
+      <c r="A825" s="14" t="s">
         <v>2649</v>
       </c>
-      <c r="B825" s="9" t="s">
+      <c r="B825" s="14" t="s">
         <v>2650</v>
       </c>
-      <c r="C825" s="9" t="s">
+      <c r="C825" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="14" t="s">
+      <c r="A826" s="9" t="s">
         <v>2652</v>
       </c>
-      <c r="B826" s="14" t="s">
+      <c r="B826" s="9" t="s">
         <v>2653</v>
       </c>
-      <c r="C826" s="14" t="s">
+      <c r="C826" s="9" t="s">
         <v>2654</v>
       </c>
     </row>
@@ -31285,7 +31294,7 @@
       <c r="B832" s="14" t="s">
         <v>2671</v>
       </c>
-      <c r="C832" s="9" t="s">
+      <c r="C832" s="14" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -31293,7 +31302,7 @@
       <c r="A833" s="14" t="s">
         <v>2673</v>
       </c>
-      <c r="B833" s="9" t="s">
+      <c r="B833" s="14" t="s">
         <v>2674</v>
       </c>
       <c r="C833" s="9" t="s">
@@ -31304,7 +31313,7 @@
       <c r="A834" s="14" t="s">
         <v>2676</v>
       </c>
-      <c r="B834" s="14" t="s">
+      <c r="B834" s="9" t="s">
         <v>2677</v>
       </c>
       <c r="C834" s="9" t="s">
@@ -31312,13 +31321,13 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="9" t="s">
+      <c r="A835" s="14" t="s">
         <v>2679</v>
       </c>
-      <c r="B835" s="9" t="s">
+      <c r="B835" s="14" t="s">
         <v>2680</v>
       </c>
-      <c r="C835" s="14" t="s">
+      <c r="C835" s="9" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -31329,26 +31338,26 @@
       <c r="B836" s="9" t="s">
         <v>2683</v>
       </c>
-      <c r="C836" s="9" t="s">
+      <c r="C836" s="14" t="s">
         <v>2684</v>
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="14" t="s">
+      <c r="A837" s="9" t="s">
         <v>2685</v>
       </c>
-      <c r="B837" s="14" t="s">
+      <c r="B837" s="9" t="s">
         <v>2686</v>
       </c>
-      <c r="C837" s="14" t="s">
+      <c r="C837" s="9" t="s">
         <v>2687</v>
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="9" t="s">
+      <c r="A838" s="14" t="s">
         <v>2688</v>
       </c>
-      <c r="B838" s="9" t="s">
+      <c r="B838" s="14" t="s">
         <v>2689</v>
       </c>
       <c r="C838" s="14" t="s">
@@ -31356,13 +31365,13 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="14" t="s">
+      <c r="A839" s="9" t="s">
         <v>2691</v>
       </c>
-      <c r="B839" s="14" t="s">
+      <c r="B839" s="9" t="s">
         <v>2692</v>
       </c>
-      <c r="C839" s="9" t="s">
+      <c r="C839" s="14" t="s">
         <v>2693</v>
       </c>
     </row>
@@ -31373,26 +31382,26 @@
       <c r="B840" s="14" t="s">
         <v>2695</v>
       </c>
-      <c r="C840" s="14" t="s">
+      <c r="C840" s="9" t="s">
         <v>2696</v>
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="9" t="s">
+      <c r="A841" s="14" t="s">
         <v>2697</v>
       </c>
-      <c r="B841" s="9" t="s">
+      <c r="B841" s="14" t="s">
         <v>2698</v>
       </c>
-      <c r="C841" s="9" t="s">
+      <c r="C841" s="14" t="s">
         <v>2699</v>
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="14" t="s">
+      <c r="A842" s="9" t="s">
         <v>2700</v>
       </c>
-      <c r="B842" s="14" t="s">
+      <c r="B842" s="9" t="s">
         <v>2701</v>
       </c>
       <c r="C842" s="9" t="s">
@@ -31400,10 +31409,10 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="9" t="s">
+      <c r="A843" s="14" t="s">
         <v>2703</v>
       </c>
-      <c r="B843" s="9" t="s">
+      <c r="B843" s="14" t="s">
         <v>2704</v>
       </c>
       <c r="C843" s="9" t="s">
@@ -31428,7 +31437,7 @@
       <c r="B845" s="9" t="s">
         <v>2710</v>
       </c>
-      <c r="C845" s="14" t="s">
+      <c r="C845" s="9" t="s">
         <v>2711</v>
       </c>
     </row>
@@ -31439,7 +31448,7 @@
       <c r="B846" s="9" t="s">
         <v>2713</v>
       </c>
-      <c r="C846" s="9" t="s">
+      <c r="C846" s="14" t="s">
         <v>2714</v>
       </c>
     </row>
@@ -31461,15 +31470,15 @@
       <c r="B848" s="9" t="s">
         <v>2719</v>
       </c>
-      <c r="C848" s="14" t="s">
+      <c r="C848" s="9" t="s">
         <v>2720</v>
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="14" t="s">
+      <c r="A849" s="9" t="s">
         <v>2721</v>
       </c>
-      <c r="B849" s="14" t="s">
+      <c r="B849" s="9" t="s">
         <v>2722</v>
       </c>
       <c r="C849" s="14" t="s">
@@ -31492,18 +31501,18 @@
         <v>2727</v>
       </c>
       <c r="B851" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="C851" s="9" t="s">
         <v>2728</v>
+      </c>
+      <c r="C851" s="14" t="s">
+        <v>2729</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="14" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="B852" s="14" t="s">
-        <v>2730</v>
+        <v>880</v>
       </c>
       <c r="C852" s="9" t="s">
         <v>2731</v>
@@ -31516,15 +31525,15 @@
       <c r="B853" s="14" t="s">
         <v>2733</v>
       </c>
-      <c r="C853" s="14" t="s">
+      <c r="C853" s="9" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="9" t="s">
+      <c r="A854" s="14" t="s">
         <v>2735</v>
       </c>
-      <c r="B854" s="9" t="s">
+      <c r="B854" s="14" t="s">
         <v>2736</v>
       </c>
       <c r="C854" s="14" t="s">
@@ -31532,10 +31541,10 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="14" t="s">
+      <c r="A855" s="9" t="s">
         <v>2738</v>
       </c>
-      <c r="B855" s="14" t="s">
+      <c r="B855" s="9" t="s">
         <v>2739</v>
       </c>
       <c r="C855" s="14" t="s">
@@ -31543,32 +31552,32 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="9" t="s">
+      <c r="A856" s="14" t="s">
         <v>2741</v>
       </c>
-      <c r="B856" s="9" t="s">
+      <c r="B856" s="14" t="s">
         <v>2742</v>
       </c>
-      <c r="C856" s="9" t="s">
+      <c r="C856" s="14" t="s">
         <v>2743</v>
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="14" t="s">
+      <c r="A857" s="9" t="s">
         <v>2744</v>
       </c>
-      <c r="B857" s="14" t="s">
+      <c r="B857" s="9" t="s">
         <v>2745</v>
       </c>
-      <c r="C857" s="14" t="s">
+      <c r="C857" s="9" t="s">
         <v>2746</v>
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="9" t="s">
+      <c r="A858" s="14" t="s">
         <v>2747</v>
       </c>
-      <c r="B858" s="9" t="s">
+      <c r="B858" s="14" t="s">
         <v>2748</v>
       </c>
       <c r="C858" s="14" t="s">
@@ -31582,7 +31591,7 @@
       <c r="B859" s="9" t="s">
         <v>2751</v>
       </c>
-      <c r="C859" s="9" t="s">
+      <c r="C859" s="14" t="s">
         <v>2752</v>
       </c>
     </row>
@@ -31598,13 +31607,13 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="14" t="s">
+      <c r="A861" s="9" t="s">
         <v>2756</v>
       </c>
-      <c r="B861" s="14" t="s">
+      <c r="B861" s="9" t="s">
         <v>2757</v>
       </c>
-      <c r="C861" s="14" t="s">
+      <c r="C861" s="9" t="s">
         <v>2758</v>
       </c>
     </row>
@@ -31664,8 +31673,15 @@
       </c>
     </row>
     <row r="867">
-      <c r="B867" s="24"/>
-      <c r="C867" s="24"/>
+      <c r="A867" s="14" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B867" s="14" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C867" s="14" t="s">
+        <v>2776</v>
+      </c>
     </row>
     <row r="868">
       <c r="B868" s="24"/>
@@ -32208,10 +32224,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$866">
-    <sortState ref="A1:C866">
-      <sortCondition ref="A1:A866"/>
-      <sortCondition ref="B1:B866"/>
+  <autoFilter ref="$A$1:$C$867">
+    <sortState ref="A1:C867">
+      <sortCondition ref="A1:A867"/>
+      <sortCondition ref="B1:B867"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -4182,6 +4182,15 @@
     <t>мэтонрэйк</t>
   </si>
   <si>
+    <t>meya</t>
+  </si>
+  <si>
+    <t>i, me (accusative)</t>
+  </si>
+  <si>
+    <t>мэя</t>
+  </si>
+  <si>
     <t>meyrn</t>
   </si>
   <si>
@@ -4687,15 +4696,6 @@
   </si>
   <si>
     <t>нэвйск</t>
-  </si>
-  <si>
-    <t>neya</t>
-  </si>
-  <si>
-    <t>i, me (accusative)</t>
-  </si>
-  <si>
-    <t>нэя</t>
   </si>
   <si>
     <t>neygem</t>
@@ -22093,13 +22093,13 @@
       <c r="X402" s="17"/>
     </row>
     <row r="403">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="C403" s="9" t="s">
+      <c r="C403" s="14" t="s">
         <v>1391</v>
       </c>
       <c r="D403" s="17"/>
@@ -22253,13 +22253,13 @@
       <c r="X407" s="17"/>
     </row>
     <row r="408">
-      <c r="A408" s="14" t="s">
+      <c r="A408" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="B408" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="C408" s="14" t="s">
+      <c r="C408" s="9" t="s">
         <v>1406</v>
       </c>
       <c r="D408" s="17"/>
@@ -22317,13 +22317,13 @@
       <c r="X409" s="17"/>
     </row>
     <row r="410">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="14" t="s">
         <v>1410</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="14" t="s">
         <v>1411</v>
       </c>
-      <c r="C410" s="9" t="s">
+      <c r="C410" s="14" t="s">
         <v>1412</v>
       </c>
       <c r="D410" s="17"/>
@@ -22413,13 +22413,13 @@
       <c r="X412" s="17"/>
     </row>
     <row r="413">
-      <c r="A413" s="14" t="s">
+      <c r="A413" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="C413" s="14" t="s">
+      <c r="C413" s="9" t="s">
         <v>1421</v>
       </c>
       <c r="D413" s="17"/>
@@ -22477,13 +22477,13 @@
       <c r="X414" s="17"/>
     </row>
     <row r="415">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="C415" s="9" t="s">
+      <c r="C415" s="14" t="s">
         <v>1427</v>
       </c>
       <c r="D415" s="17"/>
@@ -22509,13 +22509,13 @@
       <c r="X415" s="17"/>
     </row>
     <row r="416">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="B416" s="14" t="s">
+      <c r="B416" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="C416" s="14" t="s">
+      <c r="C416" s="9" t="s">
         <v>1430</v>
       </c>
       <c r="D416" s="17"/>
@@ -22541,13 +22541,13 @@
       <c r="X416" s="17"/>
     </row>
     <row r="417">
-      <c r="A417" s="9" t="s">
+      <c r="A417" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="14" t="s">
         <v>1432</v>
       </c>
-      <c r="C417" s="9" t="s">
+      <c r="C417" s="14" t="s">
         <v>1433</v>
       </c>
       <c r="D417" s="17"/>
@@ -22669,13 +22669,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="9" t="s">
         <v>1445</v>
       </c>
       <c r="D421" s="17"/>
@@ -22733,13 +22733,13 @@
       <c r="X422" s="17"/>
     </row>
     <row r="423">
-      <c r="A423" s="9" t="s">
+      <c r="A423" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="C423" s="9" t="s">
+      <c r="C423" s="14" t="s">
         <v>1451</v>
       </c>
       <c r="D423" s="17"/>
@@ -22829,13 +22829,13 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="B426" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="C426" s="14" t="s">
+      <c r="C426" s="9" t="s">
         <v>1460</v>
       </c>
       <c r="D426" s="17"/>
@@ -22861,13 +22861,13 @@
       <c r="X426" s="17"/>
     </row>
     <row r="427">
-      <c r="A427" s="9" t="s">
+      <c r="A427" s="14" t="s">
         <v>1461</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="14" t="s">
         <v>1462</v>
       </c>
-      <c r="C427" s="9" t="s">
+      <c r="C427" s="14" t="s">
         <v>1463</v>
       </c>
       <c r="D427" s="17"/>
@@ -22893,14 +22893,14 @@
       <c r="X427" s="17"/>
     </row>
     <row r="428">
-      <c r="A428" s="14" t="s">
+      <c r="A428" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="B428" s="14" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C428" s="14" t="s">
+      <c r="B428" s="9" t="s">
         <v>1465</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>1466</v>
       </c>
       <c r="D428" s="17"/>
       <c r="E428" s="17"/>
@@ -22926,13 +22926,13 @@
     </row>
     <row r="429">
       <c r="A429" s="14" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D429" s="17"/>
       <c r="E429" s="17"/>
@@ -22957,8 +22957,8 @@
       <c r="X429" s="17"/>
     </row>
     <row r="430">
-      <c r="A430" s="9" t="s">
-        <v>1468</v>
+      <c r="A430" s="14" t="s">
+        <v>1469</v>
       </c>
       <c r="B430" s="14" t="s">
         <v>1469</v>
@@ -22989,7 +22989,7 @@
       <c r="X430" s="17"/>
     </row>
     <row r="431">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="9" t="s">
         <v>1471</v>
       </c>
       <c r="B431" s="14" t="s">
@@ -23053,13 +23053,13 @@
       <c r="X432" s="17"/>
     </row>
     <row r="433">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="14" t="s">
         <v>1478</v>
       </c>
-      <c r="C433" s="9" t="s">
+      <c r="C433" s="14" t="s">
         <v>1479</v>
       </c>
       <c r="D433" s="17"/>
@@ -23117,13 +23117,13 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C435" s="9" t="s">
         <v>1485</v>
       </c>
       <c r="D435" s="17"/>
@@ -23149,13 +23149,13 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="14" t="s">
         <v>1486</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="C436" s="9" t="s">
+      <c r="C436" s="14" t="s">
         <v>1488</v>
       </c>
       <c r="D436" s="17"/>
@@ -23181,13 +23181,13 @@
       <c r="X436" s="17"/>
     </row>
     <row r="437">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="9" t="s">
         <v>1489</v>
       </c>
-      <c r="B437" s="14" t="s">
+      <c r="B437" s="9" t="s">
         <v>1490</v>
       </c>
-      <c r="C437" s="14" t="s">
+      <c r="C437" s="9" t="s">
         <v>1491</v>
       </c>
       <c r="D437" s="17"/>
@@ -23277,13 +23277,13 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="9" t="s">
+      <c r="A440" s="14" t="s">
         <v>1498</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="14" t="s">
         <v>1499</v>
       </c>
-      <c r="C440" s="9" t="s">
+      <c r="C440" s="14" t="s">
         <v>1500</v>
       </c>
       <c r="D440" s="17"/>
@@ -23309,13 +23309,13 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="B441" s="9" t="s">
         <v>1502</v>
       </c>
-      <c r="C441" s="14" t="s">
+      <c r="C441" s="9" t="s">
         <v>1503</v>
       </c>
       <c r="D441" s="17"/>
@@ -23341,13 +23341,13 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="C442" s="9" t="s">
+      <c r="C442" s="14" t="s">
         <v>1506</v>
       </c>
       <c r="D442" s="17"/>
@@ -23373,7 +23373,7 @@
       <c r="X442" s="17"/>
     </row>
     <row r="443">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="9" t="s">
         <v>1507</v>
       </c>
       <c r="B443" s="9" t="s">
@@ -23405,7 +23405,7 @@
       <c r="X443" s="17"/>
     </row>
     <row r="444">
-      <c r="A444" s="9" t="s">
+      <c r="A444" s="14" t="s">
         <v>1510</v>
       </c>
       <c r="B444" s="9" t="s">
@@ -23437,10 +23437,10 @@
       <c r="X444" s="17"/>
     </row>
     <row r="445">
-      <c r="A445" s="19" t="s">
+      <c r="A445" s="9" t="s">
         <v>1513</v>
       </c>
-      <c r="B445" s="19" t="s">
+      <c r="B445" s="9" t="s">
         <v>1514</v>
       </c>
       <c r="C445" s="9" t="s">
@@ -23469,10 +23469,10 @@
       <c r="X445" s="17"/>
     </row>
     <row r="446">
-      <c r="A446" s="38" t="s">
+      <c r="A446" s="19" t="s">
         <v>1516</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="19" t="s">
         <v>1517</v>
       </c>
       <c r="C446" s="9" t="s">
@@ -23501,7 +23501,7 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="38" t="s">
         <v>1519</v>
       </c>
       <c r="B447" s="9" t="s">
@@ -23533,13 +23533,13 @@
       <c r="X447" s="17"/>
     </row>
     <row r="448">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="C448" s="14" t="s">
+      <c r="C448" s="9" t="s">
         <v>1524</v>
       </c>
       <c r="D448" s="17"/>
@@ -23693,13 +23693,13 @@
       <c r="X452" s="17"/>
     </row>
     <row r="453">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="C453" s="9" t="s">
+      <c r="C453" s="14" t="s">
         <v>1539</v>
       </c>
       <c r="D453" s="17"/>
@@ -23789,13 +23789,13 @@
       <c r="X455" s="17"/>
     </row>
     <row r="456">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="C456" s="14" t="s">
+      <c r="C456" s="9" t="s">
         <v>1548</v>
       </c>
       <c r="D456" s="17"/>
@@ -23853,13 +23853,13 @@
       <c r="X457" s="17"/>
     </row>
     <row r="458">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="C458" s="9" t="s">
+      <c r="C458" s="14" t="s">
         <v>1554</v>
       </c>
       <c r="D458" s="17"/>
@@ -23917,13 +23917,13 @@
       <c r="X459" s="17"/>
     </row>
     <row r="460">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="B460" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="C460" s="14" t="s">
+      <c r="C460" s="9" t="s">
         <v>1560</v>
       </c>
       <c r="D460" s="17"/>

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$875</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="2801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="2804">
   <si>
     <t>Word</t>
   </si>
@@ -75,7 +75,7 @@
     <t>after word</t>
   </si>
   <si>
-    <t>pet</t>
+    <t>play</t>
   </si>
   <si>
     <t>na kaelm felatae mol agelovor = i food collected from factory = i got my food from the factory</t>
@@ -2980,6 +2980,15 @@
   </si>
   <si>
     <t>жромля</t>
+  </si>
+  <si>
+    <t>juksya</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>жукся</t>
   </si>
   <si>
     <t>kagrav</t>
@@ -9055,12 +9064,12 @@
         <v>33</v>
       </c>
       <c r="G5" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"pyetsyo")</f>
-        <v>pyetsyo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"juksya")</f>
+        <v>juksya</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"a pet, a domesticated animal")</f>
-        <v>a pet, a domesticated animal</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to play")</f>
+        <v>to play</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>34</v>
@@ -9098,14 +9107,8 @@
         <v>39</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pogladit")</f>
-        <v>pogladit</v>
-      </c>
-      <c r="H6" s="17" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to pet, to caress, to soothe")</f>
-        <v>to pet, to caress, to soothe</v>
-      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="9" t="s">
         <v>40</v>
       </c>
@@ -17917,13 +17920,13 @@
       <c r="X270" s="17"/>
     </row>
     <row r="271">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" s="14" t="s">
         <v>997</v>
       </c>
       <c r="D271" s="17"/>
@@ -17949,13 +17952,13 @@
       <c r="X271" s="17"/>
     </row>
     <row r="272">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C272" s="9" t="s">
         <v>1000</v>
       </c>
       <c r="D272" s="17"/>
@@ -18013,13 +18016,13 @@
       <c r="X273" s="17"/>
     </row>
     <row r="274">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="14" t="s">
         <v>1006</v>
       </c>
       <c r="D274" s="17"/>
@@ -18045,13 +18048,13 @@
       <c r="X274" s="17"/>
     </row>
     <row r="275">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="C275" s="14" t="s">
+      <c r="C275" s="9" t="s">
         <v>1009</v>
       </c>
       <c r="D275" s="17"/>
@@ -18077,13 +18080,13 @@
       <c r="X275" s="17"/>
     </row>
     <row r="276">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C276" s="9" t="s">
+      <c r="C276" s="14" t="s">
         <v>1012</v>
       </c>
       <c r="D276" s="17"/>
@@ -18109,13 +18112,13 @@
       <c r="X276" s="17"/>
     </row>
     <row r="277">
-      <c r="A277" s="14" t="s">
+      <c r="A277" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="C277" s="14" t="s">
+      <c r="C277" s="9" t="s">
         <v>1015</v>
       </c>
       <c r="D277" s="17"/>
@@ -18141,13 +18144,13 @@
       <c r="X277" s="17"/>
     </row>
     <row r="278">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="C278" s="9" t="s">
+      <c r="C278" s="14" t="s">
         <v>1018</v>
       </c>
       <c r="D278" s="17"/>
@@ -18205,13 +18208,13 @@
       <c r="X279" s="17"/>
     </row>
     <row r="280">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="C280" s="9" t="s">
         <v>1024</v>
       </c>
       <c r="D280" s="17"/>
@@ -18237,13 +18240,13 @@
       <c r="X280" s="17"/>
     </row>
     <row r="281">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="C281" s="9" t="s">
+      <c r="C281" s="14" t="s">
         <v>1027</v>
       </c>
       <c r="D281" s="17"/>
@@ -18269,13 +18272,13 @@
       <c r="X281" s="17"/>
     </row>
     <row r="282">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C282" s="9" t="s">
         <v>1030</v>
       </c>
       <c r="D282" s="17"/>
@@ -18301,13 +18304,13 @@
       <c r="X282" s="17"/>
     </row>
     <row r="283">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="C283" s="9" t="s">
+      <c r="C283" s="14" t="s">
         <v>1033</v>
       </c>
       <c r="D283" s="17"/>
@@ -18461,10 +18464,10 @@
       <c r="X287" s="17"/>
     </row>
     <row r="288">
-      <c r="A288" s="19" t="s">
+      <c r="A288" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="B288" s="19" t="s">
+      <c r="B288" s="9" t="s">
         <v>1047</v>
       </c>
       <c r="C288" s="9" t="s">
@@ -18493,13 +18496,13 @@
       <c r="X288" s="17"/>
     </row>
     <row r="289">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="C289" s="14" t="s">
+      <c r="C289" s="9" t="s">
         <v>1051</v>
       </c>
       <c r="D289" s="17"/>
@@ -18813,13 +18816,13 @@
       <c r="X298" s="17"/>
     </row>
     <row r="299">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="C299" s="9" t="s">
+      <c r="C299" s="14" t="s">
         <v>1081</v>
       </c>
       <c r="D299" s="17"/>
@@ -18845,13 +18848,13 @@
       <c r="X299" s="17"/>
     </row>
     <row r="300">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C300" s="9" t="s">
         <v>1084</v>
       </c>
       <c r="D300" s="17"/>
@@ -18877,13 +18880,13 @@
       <c r="X300" s="17"/>
     </row>
     <row r="301">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="C301" s="9" t="s">
+      <c r="C301" s="14" t="s">
         <v>1087</v>
       </c>
       <c r="D301" s="17"/>
@@ -18973,13 +18976,13 @@
       <c r="X303" s="17"/>
     </row>
     <row r="304">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="C304" s="14" t="s">
+      <c r="C304" s="9" t="s">
         <v>1096</v>
       </c>
       <c r="D304" s="17"/>
@@ -19069,13 +19072,13 @@
       <c r="X306" s="17"/>
     </row>
     <row r="307">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="14" t="s">
         <v>1104</v>
       </c>
-      <c r="C307" s="9" t="s">
+      <c r="C307" s="14" t="s">
         <v>1105</v>
       </c>
       <c r="D307" s="17"/>
@@ -19197,13 +19200,13 @@
       <c r="X310" s="17"/>
     </row>
     <row r="311">
-      <c r="A311" s="14" t="s">
+      <c r="A311" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="B311" s="14" t="s">
+      <c r="B311" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="C311" s="14" t="s">
+      <c r="C311" s="9" t="s">
         <v>1117</v>
       </c>
       <c r="D311" s="17"/>
@@ -19229,13 +19232,13 @@
       <c r="X311" s="17"/>
     </row>
     <row r="312">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="C312" s="9" t="s">
+      <c r="C312" s="14" t="s">
         <v>1120</v>
       </c>
       <c r="D312" s="17"/>
@@ -19261,10 +19264,10 @@
       <c r="X312" s="17"/>
     </row>
     <row r="313">
-      <c r="A313" s="19" t="s">
+      <c r="A313" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="B313" s="19" t="s">
+      <c r="B313" s="9" t="s">
         <v>1122</v>
       </c>
       <c r="C313" s="9" t="s">
@@ -19293,10 +19296,10 @@
       <c r="X313" s="17"/>
     </row>
     <row r="314">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="19" t="s">
         <v>1125</v>
       </c>
       <c r="C314" s="9" t="s">
@@ -19325,13 +19328,13 @@
       <c r="X314" s="17"/>
     </row>
     <row r="315">
-      <c r="A315" s="38" t="s">
+      <c r="A315" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="B315" s="14" t="s">
+      <c r="B315" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C315" s="9" t="s">
         <v>1129</v>
       </c>
       <c r="D315" s="17"/>
@@ -19357,13 +19360,13 @@
       <c r="X315" s="17"/>
     </row>
     <row r="316">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="38" t="s">
         <v>1130</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="C316" s="9" t="s">
+      <c r="C316" s="14" t="s">
         <v>1132</v>
       </c>
       <c r="D316" s="17"/>
@@ -19389,13 +19392,13 @@
       <c r="X316" s="17"/>
     </row>
     <row r="317">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="C317" s="9" t="s">
         <v>1135</v>
       </c>
       <c r="D317" s="17"/>
@@ -19421,13 +19424,13 @@
       <c r="X317" s="17"/>
     </row>
     <row r="318">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="14" t="s">
         <v>1137</v>
       </c>
-      <c r="C318" s="9" t="s">
+      <c r="C318" s="14" t="s">
         <v>1138</v>
       </c>
       <c r="D318" s="17"/>
@@ -19453,13 +19456,13 @@
       <c r="X318" s="17"/>
     </row>
     <row r="319">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="B319" s="14" t="s">
+      <c r="B319" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="C319" s="9" t="s">
         <v>1141</v>
       </c>
       <c r="D319" s="17"/>
@@ -19549,13 +19552,13 @@
       <c r="X321" s="17"/>
     </row>
     <row r="322">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="C322" s="9" t="s">
+      <c r="C322" s="14" t="s">
         <v>1150</v>
       </c>
       <c r="D322" s="17"/>
@@ -19613,13 +19616,13 @@
       <c r="X323" s="17"/>
     </row>
     <row r="324">
-      <c r="A324" s="14" t="s">
+      <c r="A324" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="B324" s="14" t="s">
+      <c r="B324" s="9" t="s">
         <v>1155</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="C324" s="9" t="s">
         <v>1156</v>
       </c>
       <c r="D324" s="17"/>
@@ -19645,13 +19648,13 @@
       <c r="X324" s="17"/>
     </row>
     <row r="325">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="14" t="s">
         <v>1158</v>
       </c>
-      <c r="C325" s="9" t="s">
+      <c r="C325" s="14" t="s">
         <v>1159</v>
       </c>
       <c r="D325" s="17"/>
@@ -19677,10 +19680,10 @@
       <c r="X325" s="17"/>
     </row>
     <row r="326">
-      <c r="A326" s="19" t="s">
+      <c r="A326" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="B326" s="19" t="s">
+      <c r="B326" s="9" t="s">
         <v>1161</v>
       </c>
       <c r="C326" s="9" t="s">
@@ -19709,14 +19712,14 @@
       <c r="X326" s="17"/>
     </row>
     <row r="327">
-      <c r="A327" s="14" t="s">
+      <c r="A327" s="19" t="s">
         <v>1163</v>
       </c>
-      <c r="B327" s="14" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C327" s="14" t="s">
+      <c r="B327" s="19" t="s">
         <v>1164</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>1165</v>
       </c>
       <c r="D327" s="17"/>
       <c r="E327" s="17"/>
@@ -19742,7 +19745,7 @@
     </row>
     <row r="328">
       <c r="A328" s="14" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B328" s="14" t="s">
         <v>1166</v>
@@ -19773,13 +19776,13 @@
       <c r="X328" s="17"/>
     </row>
     <row r="329">
-      <c r="A329" s="19" t="s">
+      <c r="A329" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="B329" s="19" t="s">
+      <c r="B329" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="C329" s="9" t="s">
+      <c r="C329" s="14" t="s">
         <v>1170</v>
       </c>
       <c r="D329" s="17"/>
@@ -19805,10 +19808,10 @@
       <c r="X329" s="17"/>
     </row>
     <row r="330">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="19" t="s">
         <v>1171</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="19" t="s">
         <v>1172</v>
       </c>
       <c r="C330" s="9" t="s">
@@ -19837,13 +19840,13 @@
       <c r="X330" s="17"/>
     </row>
     <row r="331">
-      <c r="A331" s="14" t="s">
+      <c r="A331" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="B331" s="14" t="s">
+      <c r="B331" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="C331" s="14" t="s">
+      <c r="C331" s="9" t="s">
         <v>1176</v>
       </c>
       <c r="D331" s="17"/>
@@ -19933,13 +19936,13 @@
       <c r="X333" s="17"/>
     </row>
     <row r="334">
-      <c r="A334" s="9" t="s">
+      <c r="A334" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="B334" s="9" t="s">
+      <c r="B334" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="C334" s="9" t="s">
+      <c r="C334" s="14" t="s">
         <v>1185</v>
       </c>
       <c r="D334" s="17"/>
@@ -19997,13 +20000,13 @@
       <c r="X335" s="17"/>
     </row>
     <row r="336">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="C336" s="9" t="s">
         <v>1191</v>
       </c>
       <c r="D336" s="17"/>
@@ -20061,13 +20064,13 @@
       <c r="X337" s="17"/>
     </row>
     <row r="338">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="C338" s="14" t="s">
         <v>1197</v>
       </c>
       <c r="D338" s="17"/>
@@ -20093,13 +20096,13 @@
       <c r="X338" s="17"/>
     </row>
     <row r="339">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="9" t="s">
         <v>1198</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C339" s="9" t="s">
         <v>1200</v>
       </c>
       <c r="D339" s="17"/>
@@ -20129,10 +20132,10 @@
         <v>1201</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>226</v>
+        <v>1202</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D340" s="17"/>
       <c r="E340" s="17"/>
@@ -20158,10 +20161,10 @@
     </row>
     <row r="341">
       <c r="A341" s="14" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>1204</v>
+        <v>226</v>
       </c>
       <c r="C341" s="14" t="s">
         <v>1205</v>
@@ -20285,13 +20288,13 @@
       <c r="X344" s="17"/>
     </row>
     <row r="345">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="14" t="s">
         <v>1215</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="14" t="s">
         <v>1216</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="14" t="s">
         <v>1217</v>
       </c>
       <c r="D345" s="17"/>
@@ -20317,13 +20320,13 @@
       <c r="X345" s="17"/>
     </row>
     <row r="346">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="9" t="s">
         <v>1218</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="9" t="s">
         <v>1219</v>
       </c>
-      <c r="C346" s="14" t="s">
+      <c r="C346" s="9" t="s">
         <v>1220</v>
       </c>
       <c r="D346" s="17"/>
@@ -20413,13 +20416,13 @@
       <c r="X348" s="17"/>
     </row>
     <row r="349">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="14" t="s">
         <v>1227</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="C349" s="9" t="s">
+      <c r="C349" s="14" t="s">
         <v>1229</v>
       </c>
       <c r="D349" s="17"/>
@@ -20509,13 +20512,13 @@
       <c r="X351" s="17"/>
     </row>
     <row r="352">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="9" t="s">
         <v>1236</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="C352" s="14" t="s">
+      <c r="C352" s="9" t="s">
         <v>1238</v>
       </c>
       <c r="D352" s="17"/>
@@ -20637,13 +20640,13 @@
       <c r="X355" s="17"/>
     </row>
     <row r="356">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="14" t="s">
         <v>1249</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="14" t="s">
         <v>1250</v>
       </c>
       <c r="D356" s="17"/>
@@ -20669,13 +20672,13 @@
       <c r="X356" s="17"/>
     </row>
     <row r="357">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="9" t="s">
         <v>1252</v>
       </c>
-      <c r="C357" s="14" t="s">
+      <c r="C357" s="9" t="s">
         <v>1253</v>
       </c>
       <c r="D357" s="17"/>
@@ -20701,13 +20704,13 @@
       <c r="X357" s="17"/>
     </row>
     <row r="358">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="14" t="s">
         <v>1254</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="C358" s="14" t="s">
         <v>1256</v>
       </c>
       <c r="D358" s="17"/>
@@ -20733,13 +20736,13 @@
       <c r="X358" s="17"/>
     </row>
     <row r="359">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="C359" s="14" t="s">
+      <c r="C359" s="9" t="s">
         <v>1259</v>
       </c>
       <c r="D359" s="17"/>
@@ -20829,13 +20832,13 @@
       <c r="X361" s="17"/>
     </row>
     <row r="362">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="14" t="s">
         <v>1266</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="14" t="s">
         <v>1267</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="14" t="s">
         <v>1268</v>
       </c>
       <c r="D362" s="17"/>
@@ -20861,13 +20864,13 @@
       <c r="X362" s="17"/>
     </row>
     <row r="363">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="9" t="s">
         <v>1269</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="C363" s="14" t="s">
+      <c r="C363" s="9" t="s">
         <v>1271</v>
       </c>
       <c r="D363" s="17"/>
@@ -20989,13 +20992,13 @@
       <c r="X366" s="17"/>
     </row>
     <row r="367">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="14" t="s">
         <v>1282</v>
       </c>
-      <c r="C367" s="9" t="s">
+      <c r="C367" s="14" t="s">
         <v>1283</v>
       </c>
       <c r="D367" s="17"/>
@@ -21053,10 +21056,10 @@
       <c r="X368" s="17"/>
     </row>
     <row r="369">
-      <c r="A369" s="19" t="s">
+      <c r="A369" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="B369" s="19" t="s">
+      <c r="B369" s="9" t="s">
         <v>1288</v>
       </c>
       <c r="C369" s="9" t="s">
@@ -21085,10 +21088,10 @@
       <c r="X369" s="17"/>
     </row>
     <row r="370">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="19" t="s">
         <v>1291</v>
       </c>
       <c r="C370" s="9" t="s">
@@ -21181,10 +21184,10 @@
       <c r="X372" s="17"/>
     </row>
     <row r="373">
-      <c r="A373" s="19" t="s">
+      <c r="A373" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="B373" s="19" t="s">
+      <c r="B373" s="9" t="s">
         <v>1300</v>
       </c>
       <c r="C373" s="9" t="s">
@@ -21213,10 +21216,10 @@
       <c r="X373" s="17"/>
     </row>
     <row r="374">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="19" t="s">
         <v>1303</v>
       </c>
       <c r="C374" s="9" t="s">
@@ -21245,7 +21248,7 @@
       <c r="X374" s="17"/>
     </row>
     <row r="375">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="14" t="s">
         <v>1305</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -21405,13 +21408,13 @@
       <c r="X379" s="17"/>
     </row>
     <row r="380">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="C380" s="14" t="s">
+      <c r="C380" s="9" t="s">
         <v>1322</v>
       </c>
       <c r="D380" s="17"/>
@@ -21437,13 +21440,13 @@
       <c r="X380" s="17"/>
     </row>
     <row r="381">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="14" t="s">
         <v>1323</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="14" t="s">
         <v>1324</v>
       </c>
-      <c r="C381" s="9" t="s">
+      <c r="C381" s="14" t="s">
         <v>1325</v>
       </c>
       <c r="D381" s="17"/>
@@ -21501,13 +21504,13 @@
       <c r="X382" s="17"/>
     </row>
     <row r="383">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="C383" s="14" t="s">
+      <c r="C383" s="9" t="s">
         <v>1331</v>
       </c>
       <c r="D383" s="17"/>
@@ -21565,13 +21568,13 @@
       <c r="X384" s="17"/>
     </row>
     <row r="385">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="14" t="s">
         <v>1336</v>
       </c>
-      <c r="C385" s="9" t="s">
+      <c r="C385" s="14" t="s">
         <v>1337</v>
       </c>
       <c r="D385" s="17"/>
@@ -21757,13 +21760,13 @@
       <c r="X390" s="17"/>
     </row>
     <row r="391">
-      <c r="A391" s="14" t="s">
+      <c r="A391" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B391" s="9" t="s">
         <v>1354</v>
       </c>
-      <c r="C391" s="14" t="s">
+      <c r="C391" s="9" t="s">
         <v>1355</v>
       </c>
       <c r="D391" s="17"/>
@@ -21789,13 +21792,13 @@
       <c r="X391" s="17"/>
     </row>
     <row r="392">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="14" t="s">
         <v>1356</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="14" t="s">
         <v>1357</v>
       </c>
-      <c r="C392" s="9" t="s">
+      <c r="C392" s="14" t="s">
         <v>1358</v>
       </c>
       <c r="D392" s="17"/>
@@ -21853,13 +21856,13 @@
       <c r="X393" s="17"/>
     </row>
     <row r="394">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C394" s="9" t="s">
         <v>1364</v>
       </c>
       <c r="D394" s="17"/>
@@ -21949,13 +21952,13 @@
       <c r="X396" s="17"/>
     </row>
     <row r="397">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="14" t="s">
         <v>1372</v>
       </c>
-      <c r="C397" s="9" t="s">
+      <c r="C397" s="14" t="s">
         <v>1373</v>
       </c>
       <c r="D397" s="17"/>
@@ -21981,13 +21984,13 @@
       <c r="X397" s="17"/>
     </row>
     <row r="398">
-      <c r="A398" s="14" t="s">
+      <c r="A398" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="B398" s="14" t="s">
+      <c r="B398" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="C398" s="14" t="s">
+      <c r="C398" s="9" t="s">
         <v>1376</v>
       </c>
       <c r="D398" s="17"/>
@@ -22013,13 +22016,13 @@
       <c r="X398" s="17"/>
     </row>
     <row r="399">
-      <c r="A399" s="19" t="s">
+      <c r="A399" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="B399" s="19" t="s">
+      <c r="B399" s="14" t="s">
         <v>1378</v>
       </c>
-      <c r="C399" s="9" t="s">
+      <c r="C399" s="14" t="s">
         <v>1379</v>
       </c>
       <c r="D399" s="17"/>
@@ -22045,13 +22048,13 @@
       <c r="X399" s="17"/>
     </row>
     <row r="400">
-      <c r="A400" s="14" t="s">
+      <c r="A400" s="19" t="s">
         <v>1380</v>
       </c>
-      <c r="B400" s="14" t="s">
+      <c r="B400" s="19" t="s">
         <v>1381</v>
       </c>
-      <c r="C400" s="14" t="s">
+      <c r="C400" s="9" t="s">
         <v>1382</v>
       </c>
       <c r="D400" s="17"/>
@@ -22141,13 +22144,13 @@
       <c r="X402" s="17"/>
     </row>
     <row r="403">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="C403" s="9" t="s">
+      <c r="C403" s="14" t="s">
         <v>1391</v>
       </c>
       <c r="D403" s="17"/>
@@ -22205,13 +22208,13 @@
       <c r="X404" s="17"/>
     </row>
     <row r="405">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="C405" s="14" t="s">
+      <c r="C405" s="9" t="s">
         <v>1397</v>
       </c>
       <c r="D405" s="17"/>
@@ -22237,13 +22240,13 @@
       <c r="X405" s="17"/>
     </row>
     <row r="406">
-      <c r="A406" s="9" t="s">
+      <c r="A406" s="14" t="s">
         <v>1398</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="C406" s="9" t="s">
+      <c r="C406" s="14" t="s">
         <v>1400</v>
       </c>
       <c r="D406" s="17"/>
@@ -22269,13 +22272,13 @@
       <c r="X406" s="17"/>
     </row>
     <row r="407">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="C407" s="14" t="s">
+      <c r="C407" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="D407" s="17"/>
@@ -22301,13 +22304,13 @@
       <c r="X407" s="17"/>
     </row>
     <row r="408">
-      <c r="A408" s="9" t="s">
+      <c r="A408" s="14" t="s">
         <v>1404</v>
       </c>
-      <c r="B408" s="9" t="s">
+      <c r="B408" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="C408" s="9" t="s">
+      <c r="C408" s="14" t="s">
         <v>1406</v>
       </c>
       <c r="D408" s="17"/>
@@ -22461,13 +22464,13 @@
       <c r="X412" s="17"/>
     </row>
     <row r="413">
-      <c r="A413" s="14" t="s">
+      <c r="A413" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="C413" s="14" t="s">
+      <c r="C413" s="9" t="s">
         <v>1421</v>
       </c>
       <c r="D413" s="17"/>
@@ -22525,13 +22528,13 @@
       <c r="X414" s="17"/>
     </row>
     <row r="415">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="14" t="s">
         <v>1426</v>
       </c>
-      <c r="C415" s="9" t="s">
+      <c r="C415" s="14" t="s">
         <v>1427</v>
       </c>
       <c r="D415" s="17"/>
@@ -22621,13 +22624,13 @@
       <c r="X417" s="17"/>
     </row>
     <row r="418">
-      <c r="A418" s="14" t="s">
+      <c r="A418" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="B418" s="14" t="s">
+      <c r="B418" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="C418" s="14" t="s">
+      <c r="C418" s="9" t="s">
         <v>1436</v>
       </c>
       <c r="D418" s="17"/>
@@ -22685,13 +22688,13 @@
       <c r="X419" s="17"/>
     </row>
     <row r="420">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="14" t="s">
         <v>1440</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="C420" s="9" t="s">
+      <c r="C420" s="14" t="s">
         <v>1442</v>
       </c>
       <c r="D420" s="17"/>
@@ -22717,13 +22720,13 @@
       <c r="X420" s="17"/>
     </row>
     <row r="421">
-      <c r="A421" s="14" t="s">
+      <c r="A421" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B421" s="14" t="s">
+      <c r="B421" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="9" t="s">
         <v>1445</v>
       </c>
       <c r="D421" s="17"/>
@@ -22749,13 +22752,13 @@
       <c r="X421" s="17"/>
     </row>
     <row r="422">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C422" s="14" t="s">
         <v>1448</v>
       </c>
       <c r="D422" s="17"/>
@@ -22877,13 +22880,13 @@
       <c r="X425" s="17"/>
     </row>
     <row r="426">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="B426" s="14" t="s">
+      <c r="B426" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="C426" s="14" t="s">
+      <c r="C426" s="9" t="s">
         <v>1460</v>
       </c>
       <c r="D426" s="17"/>
@@ -22941,13 +22944,13 @@
       <c r="X427" s="17"/>
     </row>
     <row r="428">
-      <c r="A428" s="9" t="s">
+      <c r="A428" s="14" t="s">
         <v>1464</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="14" t="s">
         <v>1465</v>
       </c>
-      <c r="C428" s="9" t="s">
+      <c r="C428" s="14" t="s">
         <v>1466</v>
       </c>
       <c r="D428" s="17"/>
@@ -23037,13 +23040,13 @@
       <c r="X430" s="17"/>
     </row>
     <row r="431">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B431" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" s="9" t="s">
         <v>1475</v>
       </c>
       <c r="D431" s="17"/>
@@ -23069,13 +23072,13 @@
       <c r="X431" s="17"/>
     </row>
     <row r="432">
-      <c r="A432" s="9" t="s">
+      <c r="A432" s="14" t="s">
         <v>1476</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="C432" s="9" t="s">
+      <c r="C432" s="14" t="s">
         <v>1478</v>
       </c>
       <c r="D432" s="17"/>
@@ -23101,14 +23104,14 @@
       <c r="X432" s="17"/>
     </row>
     <row r="433">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="B433" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C433" s="14" t="s">
+      <c r="B433" s="9" t="s">
         <v>1480</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>1481</v>
       </c>
       <c r="D433" s="17"/>
       <c r="E433" s="17"/>
@@ -23134,13 +23137,13 @@
     </row>
     <row r="434">
       <c r="A434" s="14" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D434" s="17"/>
       <c r="E434" s="17"/>
@@ -23165,8 +23168,8 @@
       <c r="X434" s="17"/>
     </row>
     <row r="435">
-      <c r="A435" s="9" t="s">
-        <v>1483</v>
+      <c r="A435" s="14" t="s">
+        <v>1484</v>
       </c>
       <c r="B435" s="14" t="s">
         <v>1484</v>
@@ -23197,7 +23200,7 @@
       <c r="X435" s="17"/>
     </row>
     <row r="436">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="9" t="s">
         <v>1486</v>
       </c>
       <c r="B436" s="14" t="s">
@@ -23261,13 +23264,13 @@
       <c r="X437" s="17"/>
     </row>
     <row r="438">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="C438" s="9" t="s">
+      <c r="C438" s="14" t="s">
         <v>1494</v>
       </c>
       <c r="D438" s="17"/>
@@ -23325,13 +23328,13 @@
       <c r="X439" s="17"/>
     </row>
     <row r="440">
-      <c r="A440" s="14" t="s">
+      <c r="A440" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="B440" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="C440" s="14" t="s">
+      <c r="C440" s="9" t="s">
         <v>1500</v>
       </c>
       <c r="D440" s="17"/>
@@ -23357,13 +23360,13 @@
       <c r="X440" s="17"/>
     </row>
     <row r="441">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="C441" s="9" t="s">
+      <c r="C441" s="14" t="s">
         <v>1503</v>
       </c>
       <c r="D441" s="17"/>
@@ -23389,13 +23392,13 @@
       <c r="X441" s="17"/>
     </row>
     <row r="442">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="B442" s="14" t="s">
+      <c r="B442" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="C442" s="14" t="s">
+      <c r="C442" s="9" t="s">
         <v>1506</v>
       </c>
       <c r="D442" s="17"/>
@@ -23485,13 +23488,13 @@
       <c r="X444" s="17"/>
     </row>
     <row r="445">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="14" t="s">
         <v>1514</v>
       </c>
-      <c r="C445" s="9" t="s">
+      <c r="C445" s="14" t="s">
         <v>1515</v>
       </c>
       <c r="D445" s="17"/>
@@ -23517,13 +23520,13 @@
       <c r="X445" s="17"/>
     </row>
     <row r="446">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="B446" s="14" t="s">
+      <c r="B446" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="C446" s="14" t="s">
+      <c r="C446" s="9" t="s">
         <v>1518</v>
       </c>
       <c r="D446" s="17"/>
@@ -23549,13 +23552,13 @@
       <c r="X446" s="17"/>
     </row>
     <row r="447">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="14" t="s">
         <v>1520</v>
       </c>
-      <c r="C447" s="9" t="s">
+      <c r="C447" s="14" t="s">
         <v>1521</v>
       </c>
       <c r="D447" s="17"/>
@@ -23581,7 +23584,7 @@
       <c r="X447" s="17"/>
     </row>
     <row r="448">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="9" t="s">
         <v>1522</v>
       </c>
       <c r="B448" s="9" t="s">
@@ -23613,7 +23616,7 @@
       <c r="X448" s="17"/>
     </row>
     <row r="449">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="14" t="s">
         <v>1525</v>
       </c>
       <c r="B449" s="9" t="s">
@@ -23645,10 +23648,10 @@
       <c r="X449" s="17"/>
     </row>
     <row r="450">
-      <c r="A450" s="19" t="s">
+      <c r="A450" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="B450" s="19" t="s">
+      <c r="B450" s="9" t="s">
         <v>1529</v>
       </c>
       <c r="C450" s="9" t="s">
@@ -23677,10 +23680,10 @@
       <c r="X450" s="17"/>
     </row>
     <row r="451">
-      <c r="A451" s="39" t="s">
+      <c r="A451" s="19" t="s">
         <v>1531</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="19" t="s">
         <v>1532</v>
       </c>
       <c r="C451" s="9" t="s">
@@ -23709,7 +23712,7 @@
       <c r="X451" s="17"/>
     </row>
     <row r="452">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="39" t="s">
         <v>1534</v>
       </c>
       <c r="B452" s="9" t="s">
@@ -23741,13 +23744,13 @@
       <c r="X452" s="17"/>
     </row>
     <row r="453">
-      <c r="A453" s="14" t="s">
+      <c r="A453" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="C453" s="14" t="s">
+      <c r="C453" s="9" t="s">
         <v>1539</v>
       </c>
       <c r="D453" s="17"/>
@@ -23901,13 +23904,13 @@
       <c r="X457" s="17"/>
     </row>
     <row r="458">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="14" t="s">
         <v>1553</v>
       </c>
-      <c r="C458" s="9" t="s">
+      <c r="C458" s="14" t="s">
         <v>1554</v>
       </c>
       <c r="D458" s="17"/>
@@ -23997,13 +24000,13 @@
       <c r="X460" s="17"/>
     </row>
     <row r="461">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="C461" s="14" t="s">
+      <c r="C461" s="9" t="s">
         <v>1563</v>
       </c>
       <c r="D461" s="17"/>
@@ -24061,13 +24064,13 @@
       <c r="X462" s="17"/>
     </row>
     <row r="463">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="14" t="s">
         <v>1567</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="14" t="s">
         <v>1568</v>
       </c>
-      <c r="C463" s="9" t="s">
+      <c r="C463" s="14" t="s">
         <v>1569</v>
       </c>
       <c r="D463" s="17"/>
@@ -24157,13 +24160,13 @@
       <c r="X465" s="17"/>
     </row>
     <row r="466">
-      <c r="A466" s="14" t="s">
+      <c r="A466" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="C466" s="14" t="s">
+      <c r="C466" s="9" t="s">
         <v>1578</v>
       </c>
       <c r="D466" s="17"/>
@@ -24189,13 +24192,13 @@
       <c r="X466" s="17"/>
     </row>
     <row r="467">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="14" t="s">
         <v>1579</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="C467" s="9" t="s">
+      <c r="C467" s="14" t="s">
         <v>1581</v>
       </c>
       <c r="D467" s="17"/>
@@ -24285,13 +24288,13 @@
       <c r="X469" s="17"/>
     </row>
     <row r="470">
-      <c r="A470" s="14" t="s">
+      <c r="A470" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="B470" s="9" t="s">
         <v>1589</v>
       </c>
-      <c r="C470" s="14" t="s">
+      <c r="C470" s="9" t="s">
         <v>1590</v>
       </c>
       <c r="D470" s="17"/>
@@ -24317,13 +24320,13 @@
       <c r="X470" s="17"/>
     </row>
     <row r="471">
-      <c r="A471" s="9" t="s">
+      <c r="A471" s="14" t="s">
         <v>1591</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B471" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="C471" s="9" t="s">
+      <c r="C471" s="14" t="s">
         <v>1593</v>
       </c>
       <c r="D471" s="17"/>
@@ -24477,13 +24480,13 @@
       <c r="X475" s="17"/>
     </row>
     <row r="476">
-      <c r="A476" s="14" t="s">
+      <c r="A476" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="C476" s="14" t="s">
+      <c r="C476" s="9" t="s">
         <v>1608</v>
       </c>
       <c r="D476" s="17"/>
@@ -24541,13 +24544,13 @@
       <c r="X477" s="17"/>
     </row>
     <row r="478">
-      <c r="A478" s="9" t="s">
+      <c r="A478" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="14" t="s">
         <v>1613</v>
       </c>
-      <c r="C478" s="9" t="s">
+      <c r="C478" s="14" t="s">
         <v>1614</v>
       </c>
       <c r="D478" s="17"/>
@@ -24573,13 +24576,13 @@
       <c r="X478" s="17"/>
     </row>
     <row r="479">
-      <c r="A479" s="14" t="s">
+      <c r="A479" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="C479" s="14" t="s">
+      <c r="C479" s="9" t="s">
         <v>1617</v>
       </c>
       <c r="D479" s="17"/>
@@ -24637,13 +24640,13 @@
       <c r="X480" s="17"/>
     </row>
     <row r="481">
-      <c r="A481" s="9" t="s">
+      <c r="A481" s="14" t="s">
         <v>1621</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="14" t="s">
         <v>1622</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C481" s="14" t="s">
         <v>1623</v>
       </c>
       <c r="D481" s="17"/>
@@ -24797,13 +24800,13 @@
       <c r="X485" s="17"/>
     </row>
     <row r="486">
-      <c r="A486" s="14" t="s">
+      <c r="A486" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="9" t="s">
         <v>1637</v>
       </c>
-      <c r="C486" s="14" t="s">
+      <c r="C486" s="9" t="s">
         <v>1638</v>
       </c>
       <c r="D486" s="17"/>
@@ -24957,13 +24960,13 @@
       <c r="X490" s="17"/>
     </row>
     <row r="491">
-      <c r="A491" s="9" t="s">
+      <c r="A491" s="14" t="s">
         <v>1651</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="14" t="s">
         <v>1652</v>
       </c>
-      <c r="C491" s="9" t="s">
+      <c r="C491" s="14" t="s">
         <v>1653</v>
       </c>
       <c r="D491" s="17"/>
@@ -24989,13 +24992,13 @@
       <c r="X491" s="17"/>
     </row>
     <row r="492">
-      <c r="A492" s="14" t="s">
+      <c r="A492" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="C492" s="14" t="s">
+      <c r="C492" s="9" t="s">
         <v>1656</v>
       </c>
       <c r="D492" s="17"/>
@@ -25053,13 +25056,13 @@
       <c r="X493" s="17"/>
     </row>
     <row r="494">
-      <c r="A494" s="9" t="s">
+      <c r="A494" s="14" t="s">
         <v>1660</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="14" t="s">
         <v>1661</v>
       </c>
-      <c r="C494" s="9" t="s">
+      <c r="C494" s="14" t="s">
         <v>1662</v>
       </c>
       <c r="D494" s="17"/>
@@ -25085,13 +25088,13 @@
       <c r="X494" s="17"/>
     </row>
     <row r="495">
-      <c r="A495" s="14" t="s">
+      <c r="A495" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="9" t="s">
         <v>1664</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="9" t="s">
         <v>1665</v>
       </c>
       <c r="D495" s="17"/>
@@ -25117,13 +25120,13 @@
       <c r="X495" s="17"/>
     </row>
     <row r="496">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="14" t="s">
         <v>1666</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="14" t="s">
         <v>1667</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="14" t="s">
         <v>1668</v>
       </c>
       <c r="D496" s="17"/>
@@ -25149,10 +25152,10 @@
       <c r="X496" s="17"/>
     </row>
     <row r="497">
-      <c r="A497" s="19" t="s">
+      <c r="A497" s="9" t="s">
         <v>1669</v>
       </c>
-      <c r="B497" s="19" t="s">
+      <c r="B497" s="9" t="s">
         <v>1670</v>
       </c>
       <c r="C497" s="9" t="s">
@@ -25181,10 +25184,10 @@
       <c r="X497" s="17"/>
     </row>
     <row r="498">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="19" t="s">
         <v>1672</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="19" t="s">
         <v>1673</v>
       </c>
       <c r="C498" s="9" t="s">
@@ -25213,13 +25216,13 @@
       <c r="X498" s="17"/>
     </row>
     <row r="499">
-      <c r="A499" s="14" t="s">
+      <c r="A499" s="9" t="s">
         <v>1675</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="B499" s="9" t="s">
         <v>1676</v>
       </c>
-      <c r="C499" s="14" t="s">
+      <c r="C499" s="9" t="s">
         <v>1677</v>
       </c>
       <c r="D499" s="17"/>
@@ -25245,13 +25248,13 @@
       <c r="X499" s="17"/>
     </row>
     <row r="500">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="14" t="s">
         <v>1678</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="14" t="s">
         <v>1679</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C500" s="14" t="s">
         <v>1680</v>
       </c>
       <c r="D500" s="17"/>
@@ -25309,13 +25312,13 @@
       <c r="X501" s="17"/>
     </row>
     <row r="502">
-      <c r="A502" s="14" t="s">
+      <c r="A502" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="C502" s="14" t="s">
+      <c r="C502" s="9" t="s">
         <v>1686</v>
       </c>
       <c r="D502" s="17"/>
@@ -25437,13 +25440,13 @@
       <c r="X505" s="17"/>
     </row>
     <row r="506">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="14" t="s">
         <v>1696</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="14" t="s">
         <v>1697</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="14" t="s">
         <v>1698</v>
       </c>
       <c r="D506" s="17"/>
@@ -25469,13 +25472,13 @@
       <c r="X506" s="17"/>
     </row>
     <row r="507">
-      <c r="A507" s="14" t="s">
+      <c r="A507" s="9" t="s">
         <v>1699</v>
       </c>
-      <c r="B507" s="14" t="s">
+      <c r="B507" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="C507" s="14" t="s">
+      <c r="C507" s="9" t="s">
         <v>1701</v>
       </c>
       <c r="D507" s="17"/>
@@ -25533,13 +25536,13 @@
       <c r="X508" s="17"/>
     </row>
     <row r="509">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="14" t="s">
         <v>1705</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="14" t="s">
         <v>1706</v>
       </c>
-      <c r="C509" s="9" t="s">
+      <c r="C509" s="14" t="s">
         <v>1707</v>
       </c>
       <c r="D509" s="17"/>
@@ -25597,13 +25600,13 @@
       <c r="X510" s="17"/>
     </row>
     <row r="511">
-      <c r="A511" s="14" t="s">
+      <c r="A511" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="B511" s="14" t="s">
+      <c r="B511" s="9" t="s">
         <v>1712</v>
       </c>
-      <c r="C511" s="14" t="s">
+      <c r="C511" s="9" t="s">
         <v>1713</v>
       </c>
       <c r="D511" s="17"/>
@@ -25629,13 +25632,13 @@
       <c r="X511" s="17"/>
     </row>
     <row r="512">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="14" t="s">
         <v>1714</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="14" t="s">
         <v>1715</v>
       </c>
-      <c r="C512" s="9" t="s">
+      <c r="C512" s="14" t="s">
         <v>1716</v>
       </c>
       <c r="D512" s="17"/>
@@ -25693,13 +25696,13 @@
       <c r="X513" s="17"/>
     </row>
     <row r="514">
-      <c r="A514" s="14" t="s">
+      <c r="A514" s="9" t="s">
         <v>1720</v>
       </c>
-      <c r="B514" s="14" t="s">
+      <c r="B514" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="C514" s="14" t="s">
+      <c r="C514" s="9" t="s">
         <v>1722</v>
       </c>
       <c r="D514" s="17"/>
@@ -25789,13 +25792,13 @@
       <c r="X516" s="17"/>
     </row>
     <row r="517">
-      <c r="A517" s="9" t="s">
+      <c r="A517" s="14" t="s">
         <v>1729</v>
       </c>
-      <c r="B517" s="9" t="s">
+      <c r="B517" s="14" t="s">
         <v>1730</v>
       </c>
-      <c r="C517" s="9" t="s">
+      <c r="C517" s="14" t="s">
         <v>1731</v>
       </c>
       <c r="D517" s="17"/>
@@ -25824,10 +25827,10 @@
       <c r="A518" s="9" t="s">
         <v>1732</v>
       </c>
-      <c r="B518" s="14" t="s">
+      <c r="B518" s="9" t="s">
         <v>1733</v>
       </c>
-      <c r="C518" s="14" t="s">
+      <c r="C518" s="9" t="s">
         <v>1734</v>
       </c>
       <c r="D518" s="17"/>
@@ -25853,7 +25856,7 @@
       <c r="X518" s="17"/>
     </row>
     <row r="519">
-      <c r="A519" s="14" t="s">
+      <c r="A519" s="9" t="s">
         <v>1735</v>
       </c>
       <c r="B519" s="14" t="s">
@@ -26077,13 +26080,13 @@
       <c r="X525" s="17"/>
     </row>
     <row r="526">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="14" t="s">
         <v>1757</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C526" s="14" t="s">
         <v>1758</v>
       </c>
       <c r="D526" s="17"/>
@@ -26141,13 +26144,13 @@
       <c r="X527" s="17"/>
     </row>
     <row r="528">
-      <c r="A528" s="14" t="s">
+      <c r="A528" s="9" t="s">
         <v>1762</v>
       </c>
-      <c r="B528" s="14" t="s">
+      <c r="B528" s="9" t="s">
         <v>1763</v>
       </c>
-      <c r="C528" s="14" t="s">
+      <c r="C528" s="9" t="s">
         <v>1764</v>
       </c>
       <c r="D528" s="17"/>
@@ -26205,13 +26208,13 @@
       <c r="X529" s="17"/>
     </row>
     <row r="530">
-      <c r="A530" s="9" t="s">
+      <c r="A530" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="14" t="s">
         <v>1769</v>
       </c>
-      <c r="C530" s="9" t="s">
+      <c r="C530" s="14" t="s">
         <v>1770</v>
       </c>
       <c r="D530" s="17"/>
@@ -26237,13 +26240,13 @@
       <c r="X530" s="17"/>
     </row>
     <row r="531">
-      <c r="A531" s="14" t="s">
+      <c r="A531" s="9" t="s">
         <v>1771</v>
       </c>
-      <c r="B531" s="14" t="s">
+      <c r="B531" s="9" t="s">
         <v>1772</v>
       </c>
-      <c r="C531" s="14" t="s">
+      <c r="C531" s="9" t="s">
         <v>1773</v>
       </c>
       <c r="D531" s="17"/>
@@ -26333,13 +26336,13 @@
       <c r="X533" s="17"/>
     </row>
     <row r="534">
-      <c r="A534" s="9" t="s">
+      <c r="A534" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="14" t="s">
         <v>1781</v>
       </c>
-      <c r="C534" s="9" t="s">
+      <c r="C534" s="14" t="s">
         <v>1782</v>
       </c>
       <c r="D534" s="17"/>
@@ -26365,13 +26368,13 @@
       <c r="X534" s="17"/>
     </row>
     <row r="535">
-      <c r="A535" s="14" t="s">
+      <c r="A535" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="B535" s="14" t="s">
+      <c r="B535" s="9" t="s">
         <v>1784</v>
       </c>
-      <c r="C535" s="14" t="s">
+      <c r="C535" s="9" t="s">
         <v>1785</v>
       </c>
       <c r="D535" s="17"/>
@@ -26397,13 +26400,13 @@
       <c r="X535" s="17"/>
     </row>
     <row r="536">
-      <c r="A536" s="9" t="s">
+      <c r="A536" s="14" t="s">
         <v>1786</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="14" t="s">
         <v>1787</v>
       </c>
-      <c r="C536" s="9" t="s">
+      <c r="C536" s="14" t="s">
         <v>1788</v>
       </c>
       <c r="D536" s="17"/>
@@ -26461,13 +26464,13 @@
       <c r="X537" s="17"/>
     </row>
     <row r="538">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="9" t="s">
         <v>1792</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="9" t="s">
         <v>1793</v>
       </c>
-      <c r="C538" s="14" t="s">
+      <c r="C538" s="9" t="s">
         <v>1794</v>
       </c>
       <c r="D538" s="17"/>
@@ -26525,13 +26528,13 @@
       <c r="X539" s="17"/>
     </row>
     <row r="540">
-      <c r="A540" s="9" t="s">
+      <c r="A540" s="14" t="s">
         <v>1798</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="14" t="s">
         <v>1799</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C540" s="14" t="s">
         <v>1800</v>
       </c>
       <c r="D540" s="17"/>
@@ -26557,13 +26560,13 @@
       <c r="X540" s="17"/>
     </row>
     <row r="541">
-      <c r="A541" s="14" t="s">
+      <c r="A541" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="B541" s="14" t="s">
+      <c r="B541" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="C541" s="14" t="s">
+      <c r="C541" s="9" t="s">
         <v>1803</v>
       </c>
       <c r="D541" s="17"/>
@@ -26621,13 +26624,13 @@
       <c r="X542" s="17"/>
     </row>
     <row r="543">
-      <c r="A543" s="9" t="s">
+      <c r="A543" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="14" t="s">
         <v>1808</v>
       </c>
-      <c r="C543" s="9" t="s">
+      <c r="C543" s="14" t="s">
         <v>1809</v>
       </c>
       <c r="D543" s="17"/>
@@ -26685,13 +26688,13 @@
       <c r="X544" s="17"/>
     </row>
     <row r="545">
-      <c r="A545" s="14" t="s">
+      <c r="A545" s="9" t="s">
         <v>1813</v>
       </c>
-      <c r="B545" s="14" t="s">
+      <c r="B545" s="9" t="s">
         <v>1814</v>
       </c>
-      <c r="C545" s="14" t="s">
+      <c r="C545" s="9" t="s">
         <v>1815</v>
       </c>
       <c r="D545" s="17"/>
@@ -26717,13 +26720,13 @@
       <c r="X545" s="17"/>
     </row>
     <row r="546">
-      <c r="A546" s="9" t="s">
+      <c r="A546" s="14" t="s">
         <v>1816</v>
       </c>
-      <c r="B546" s="9" t="s">
+      <c r="B546" s="14" t="s">
         <v>1817</v>
       </c>
-      <c r="C546" s="9" t="s">
+      <c r="C546" s="14" t="s">
         <v>1818</v>
       </c>
       <c r="D546" s="17"/>
@@ -26813,13 +26816,13 @@
       <c r="X548" s="17"/>
     </row>
     <row r="549">
-      <c r="A549" s="14" t="s">
+      <c r="A549" s="9" t="s">
         <v>1825</v>
       </c>
-      <c r="B549" s="14" t="s">
+      <c r="B549" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="C549" s="14" t="s">
+      <c r="C549" s="9" t="s">
         <v>1827</v>
       </c>
       <c r="D549" s="17"/>
@@ -26973,13 +26976,13 @@
       <c r="X553" s="17"/>
     </row>
     <row r="554">
-      <c r="A554" s="9" t="s">
+      <c r="A554" s="14" t="s">
         <v>1840</v>
       </c>
-      <c r="B554" s="9" t="s">
+      <c r="B554" s="14" t="s">
         <v>1841</v>
       </c>
-      <c r="C554" s="9" t="s">
+      <c r="C554" s="14" t="s">
         <v>1842</v>
       </c>
       <c r="D554" s="17"/>
@@ -27005,13 +27008,13 @@
       <c r="X554" s="17"/>
     </row>
     <row r="555">
-      <c r="A555" s="14" t="s">
+      <c r="A555" s="9" t="s">
         <v>1843</v>
       </c>
-      <c r="B555" s="14" t="s">
+      <c r="B555" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="C555" s="14" t="s">
+      <c r="C555" s="9" t="s">
         <v>1845</v>
       </c>
       <c r="D555" s="17"/>
@@ -27037,13 +27040,13 @@
       <c r="X555" s="17"/>
     </row>
     <row r="556">
-      <c r="A556" s="9" t="s">
+      <c r="A556" s="14" t="s">
         <v>1846</v>
       </c>
-      <c r="B556" s="9" t="s">
+      <c r="B556" s="14" t="s">
         <v>1847</v>
       </c>
-      <c r="C556" s="9" t="s">
+      <c r="C556" s="14" t="s">
         <v>1848</v>
       </c>
       <c r="D556" s="17"/>
@@ -27069,13 +27072,13 @@
       <c r="X556" s="17"/>
     </row>
     <row r="557">
-      <c r="A557" s="14" t="s">
+      <c r="A557" s="9" t="s">
         <v>1849</v>
       </c>
-      <c r="B557" s="14" t="s">
+      <c r="B557" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="C557" s="14" t="s">
+      <c r="C557" s="9" t="s">
         <v>1851</v>
       </c>
       <c r="D557" s="17"/>
@@ -27133,13 +27136,13 @@
       <c r="X558" s="17"/>
     </row>
     <row r="559">
-      <c r="A559" s="9" t="s">
+      <c r="A559" s="14" t="s">
         <v>1855</v>
       </c>
-      <c r="B559" s="9" t="s">
+      <c r="B559" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="C559" s="9" t="s">
+      <c r="C559" s="14" t="s">
         <v>1857</v>
       </c>
       <c r="D559" s="17"/>
@@ -27165,13 +27168,13 @@
       <c r="X559" s="17"/>
     </row>
     <row r="560">
-      <c r="A560" s="14" t="s">
+      <c r="A560" s="9" t="s">
         <v>1858</v>
       </c>
-      <c r="B560" s="14" t="s">
+      <c r="B560" s="9" t="s">
         <v>1859</v>
       </c>
-      <c r="C560" s="14" t="s">
+      <c r="C560" s="9" t="s">
         <v>1860</v>
       </c>
       <c r="D560" s="17"/>
@@ -27485,13 +27488,13 @@
       <c r="X569" s="17"/>
     </row>
     <row r="570">
-      <c r="A570" s="9" t="s">
+      <c r="A570" s="14" t="s">
         <v>1888</v>
       </c>
-      <c r="B570" s="9" t="s">
+      <c r="B570" s="14" t="s">
         <v>1889</v>
       </c>
-      <c r="C570" s="9" t="s">
+      <c r="C570" s="14" t="s">
         <v>1890</v>
       </c>
       <c r="D570" s="17"/>
@@ -27517,13 +27520,13 @@
       <c r="X570" s="17"/>
     </row>
     <row r="571">
-      <c r="A571" s="14" t="s">
+      <c r="A571" s="9" t="s">
         <v>1891</v>
       </c>
-      <c r="B571" s="14" t="s">
+      <c r="B571" s="9" t="s">
         <v>1892</v>
       </c>
-      <c r="C571" s="14" t="s">
+      <c r="C571" s="9" t="s">
         <v>1893</v>
       </c>
       <c r="D571" s="17"/>
@@ -27581,13 +27584,13 @@
       <c r="X572" s="17"/>
     </row>
     <row r="573">
-      <c r="A573" s="9" t="s">
+      <c r="A573" s="14" t="s">
         <v>1897</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="14" t="s">
         <v>1898</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" s="14" t="s">
         <v>1899</v>
       </c>
       <c r="D573" s="17"/>
@@ -27645,13 +27648,13 @@
       <c r="X574" s="17"/>
     </row>
     <row r="575">
-      <c r="A575" s="14" t="s">
+      <c r="A575" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="B575" s="14" t="s">
+      <c r="B575" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="C575" s="14" t="s">
+      <c r="C575" s="9" t="s">
         <v>1905</v>
       </c>
       <c r="D575" s="17"/>
@@ -27805,13 +27808,13 @@
       <c r="X579" s="17"/>
     </row>
     <row r="580">
-      <c r="A580" s="9" t="s">
+      <c r="A580" s="14" t="s">
         <v>1918</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="14" t="s">
         <v>1919</v>
       </c>
-      <c r="C580" s="9" t="s">
+      <c r="C580" s="14" t="s">
         <v>1920</v>
       </c>
       <c r="D580" s="17"/>
@@ -27837,13 +27840,13 @@
       <c r="X580" s="17"/>
     </row>
     <row r="581">
-      <c r="A581" s="14" t="s">
+      <c r="A581" s="9" t="s">
         <v>1921</v>
       </c>
-      <c r="B581" s="14" t="s">
+      <c r="B581" s="9" t="s">
         <v>1922</v>
       </c>
-      <c r="C581" s="14" t="s">
+      <c r="C581" s="9" t="s">
         <v>1923</v>
       </c>
       <c r="D581" s="17"/>
@@ -27933,13 +27936,13 @@
       <c r="X583" s="17"/>
     </row>
     <row r="584">
-      <c r="A584" s="9" t="s">
+      <c r="A584" s="14" t="s">
         <v>1930</v>
       </c>
-      <c r="B584" s="9" t="s">
+      <c r="B584" s="14" t="s">
         <v>1931</v>
       </c>
-      <c r="C584" s="9" t="s">
+      <c r="C584" s="14" t="s">
         <v>1932</v>
       </c>
       <c r="D584" s="17"/>
@@ -27965,13 +27968,13 @@
       <c r="X584" s="17"/>
     </row>
     <row r="585">
-      <c r="A585" s="14" t="s">
+      <c r="A585" s="9" t="s">
         <v>1933</v>
       </c>
-      <c r="B585" s="14" t="s">
+      <c r="B585" s="9" t="s">
         <v>1934</v>
       </c>
-      <c r="C585" s="14" t="s">
+      <c r="C585" s="9" t="s">
         <v>1935</v>
       </c>
       <c r="D585" s="17"/>
@@ -27997,13 +28000,13 @@
       <c r="X585" s="17"/>
     </row>
     <row r="586">
-      <c r="A586" s="9" t="s">
+      <c r="A586" s="14" t="s">
         <v>1936</v>
       </c>
-      <c r="B586" s="9" t="s">
+      <c r="B586" s="14" t="s">
         <v>1937</v>
       </c>
-      <c r="C586" s="9" t="s">
+      <c r="C586" s="14" t="s">
         <v>1938</v>
       </c>
       <c r="D586" s="17"/>
@@ -28189,13 +28192,13 @@
       <c r="X591" s="17"/>
     </row>
     <row r="592">
-      <c r="A592" s="14" t="s">
+      <c r="A592" s="9" t="s">
         <v>1954</v>
       </c>
-      <c r="B592" s="14" t="s">
+      <c r="B592" s="9" t="s">
         <v>1955</v>
       </c>
-      <c r="C592" s="14" t="s">
+      <c r="C592" s="9" t="s">
         <v>1956</v>
       </c>
       <c r="D592" s="17"/>
@@ -28317,13 +28320,13 @@
       <c r="X595" s="17"/>
     </row>
     <row r="596">
-      <c r="A596" s="9" t="s">
+      <c r="A596" s="14" t="s">
         <v>1966</v>
       </c>
-      <c r="B596" s="9" t="s">
+      <c r="B596" s="14" t="s">
         <v>1967</v>
       </c>
-      <c r="C596" s="9" t="s">
+      <c r="C596" s="14" t="s">
         <v>1968</v>
       </c>
       <c r="D596" s="17"/>
@@ -28413,13 +28416,13 @@
       <c r="X598" s="17"/>
     </row>
     <row r="599">
-      <c r="A599" s="14" t="s">
+      <c r="A599" s="9" t="s">
         <v>1975</v>
       </c>
-      <c r="B599" s="14" t="s">
+      <c r="B599" s="9" t="s">
         <v>1976</v>
       </c>
-      <c r="C599" s="14" t="s">
+      <c r="C599" s="9" t="s">
         <v>1977</v>
       </c>
       <c r="D599" s="17"/>
@@ -28445,13 +28448,13 @@
       <c r="X599" s="17"/>
     </row>
     <row r="600">
-      <c r="A600" s="9" t="s">
+      <c r="A600" s="14" t="s">
         <v>1978</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="14" t="s">
         <v>1979</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="C600" s="14" t="s">
         <v>1980</v>
       </c>
       <c r="D600" s="17"/>
@@ -28477,13 +28480,13 @@
       <c r="X600" s="17"/>
     </row>
     <row r="601">
-      <c r="A601" s="14" t="s">
+      <c r="A601" s="9" t="s">
         <v>1981</v>
       </c>
-      <c r="B601" s="14" t="s">
+      <c r="B601" s="9" t="s">
         <v>1982</v>
       </c>
-      <c r="C601" s="14" t="s">
+      <c r="C601" s="9" t="s">
         <v>1983</v>
       </c>
       <c r="D601" s="17"/>
@@ -28605,13 +28608,13 @@
       <c r="X604" s="17"/>
     </row>
     <row r="605">
-      <c r="A605" s="9" t="s">
+      <c r="A605" s="14" t="s">
         <v>1993</v>
       </c>
-      <c r="B605" s="9" t="s">
+      <c r="B605" s="14" t="s">
         <v>1994</v>
       </c>
-      <c r="C605" s="9" t="s">
+      <c r="C605" s="14" t="s">
         <v>1995</v>
       </c>
       <c r="D605" s="17"/>
@@ -28637,13 +28640,13 @@
       <c r="X605" s="17"/>
     </row>
     <row r="606">
-      <c r="A606" s="14" t="s">
+      <c r="A606" s="9" t="s">
         <v>1996</v>
       </c>
-      <c r="B606" s="14" t="s">
+      <c r="B606" s="9" t="s">
         <v>1997</v>
       </c>
-      <c r="C606" s="14" t="s">
+      <c r="C606" s="9" t="s">
         <v>1998</v>
       </c>
       <c r="D606" s="17"/>
@@ -28669,13 +28672,13 @@
       <c r="X606" s="17"/>
     </row>
     <row r="607">
-      <c r="A607" s="9" t="s">
+      <c r="A607" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="C607" s="9" t="s">
+      <c r="C607" s="14" t="s">
         <v>2001</v>
       </c>
       <c r="D607" s="17"/>
@@ -28765,13 +28768,13 @@
       <c r="X609" s="17"/>
     </row>
     <row r="610">
-      <c r="A610" s="14" t="s">
+      <c r="A610" s="9" t="s">
         <v>2008</v>
       </c>
-      <c r="B610" s="14" t="s">
+      <c r="B610" s="9" t="s">
         <v>2009</v>
       </c>
-      <c r="C610" s="14" t="s">
+      <c r="C610" s="9" t="s">
         <v>2010</v>
       </c>
       <c r="D610" s="17"/>
@@ -28797,13 +28800,13 @@
       <c r="X610" s="17"/>
     </row>
     <row r="611">
-      <c r="A611" s="9" t="s">
+      <c r="A611" s="14" t="s">
         <v>2011</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="14" t="s">
         <v>2012</v>
       </c>
-      <c r="C611" s="9" t="s">
+      <c r="C611" s="14" t="s">
         <v>2013</v>
       </c>
       <c r="D611" s="17"/>
@@ -28861,13 +28864,13 @@
       <c r="X612" s="17"/>
     </row>
     <row r="613">
-      <c r="A613" s="14" t="s">
+      <c r="A613" s="9" t="s">
         <v>2017</v>
       </c>
-      <c r="B613" s="14" t="s">
+      <c r="B613" s="9" t="s">
         <v>2018</v>
       </c>
-      <c r="C613" s="14" t="s">
+      <c r="C613" s="9" t="s">
         <v>2019</v>
       </c>
       <c r="D613" s="17"/>
@@ -28893,13 +28896,13 @@
       <c r="X613" s="17"/>
     </row>
     <row r="614">
-      <c r="A614" s="9" t="s">
+      <c r="A614" s="14" t="s">
         <v>2020</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="14" t="s">
         <v>2021</v>
       </c>
-      <c r="C614" s="9" t="s">
+      <c r="C614" s="14" t="s">
         <v>2022</v>
       </c>
       <c r="D614" s="17"/>
@@ -28925,13 +28928,13 @@
       <c r="X614" s="17"/>
     </row>
     <row r="615">
-      <c r="A615" s="14" t="s">
+      <c r="A615" s="9" t="s">
         <v>2023</v>
       </c>
-      <c r="B615" s="14" t="s">
+      <c r="B615" s="9" t="s">
         <v>2024</v>
       </c>
-      <c r="C615" s="14" t="s">
+      <c r="C615" s="9" t="s">
         <v>2025</v>
       </c>
       <c r="D615" s="17"/>
@@ -28957,13 +28960,13 @@
       <c r="X615" s="17"/>
     </row>
     <row r="616">
-      <c r="A616" s="9" t="s">
+      <c r="A616" s="14" t="s">
         <v>2026</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="14" t="s">
         <v>2027</v>
       </c>
-      <c r="C616" s="9" t="s">
+      <c r="C616" s="14" t="s">
         <v>2028</v>
       </c>
       <c r="D616" s="17"/>
@@ -29043,35 +29046,35 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="14" t="s">
+      <c r="A620" s="9" t="s">
         <v>2038</v>
       </c>
-      <c r="B620" s="14" t="s">
+      <c r="B620" s="9" t="s">
         <v>2039</v>
       </c>
-      <c r="C620" s="14" t="s">
+      <c r="C620" s="9" t="s">
         <v>2040</v>
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="9" t="s">
+      <c r="A621" s="14" t="s">
         <v>2041</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="14" t="s">
         <v>2042</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="14" t="s">
         <v>2043</v>
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="14" t="s">
+      <c r="A622" s="9" t="s">
         <v>2044</v>
       </c>
-      <c r="B622" s="14" t="s">
+      <c r="B622" s="9" t="s">
         <v>2045</v>
       </c>
-      <c r="C622" s="14" t="s">
+      <c r="C622" s="9" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -29087,13 +29090,13 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="9" t="s">
+      <c r="A624" s="14" t="s">
         <v>2050</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="14" t="s">
         <v>2051</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="C624" s="14" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -29109,24 +29112,24 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="14" t="s">
+      <c r="A626" s="9" t="s">
         <v>2056</v>
       </c>
-      <c r="B626" s="14" t="s">
+      <c r="B626" s="9" t="s">
         <v>2057</v>
       </c>
-      <c r="C626" s="14" t="s">
+      <c r="C626" s="9" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="9" t="s">
+      <c r="A627" s="14" t="s">
         <v>2059</v>
       </c>
-      <c r="B627" s="9" t="s">
+      <c r="B627" s="14" t="s">
         <v>2060</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="C627" s="14" t="s">
         <v>2061</v>
       </c>
     </row>
@@ -29142,13 +29145,13 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="14" t="s">
+      <c r="A629" s="9" t="s">
         <v>2065</v>
       </c>
-      <c r="B629" s="14" t="s">
+      <c r="B629" s="9" t="s">
         <v>2066</v>
       </c>
-      <c r="C629" s="14" t="s">
+      <c r="C629" s="9" t="s">
         <v>2067</v>
       </c>
     </row>
@@ -29175,13 +29178,13 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="9" t="s">
+      <c r="A632" s="14" t="s">
         <v>2074</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="14" t="s">
         <v>2075</v>
       </c>
-      <c r="C632" s="9" t="s">
+      <c r="C632" s="14" t="s">
         <v>2076</v>
       </c>
     </row>
@@ -29208,24 +29211,24 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="14" t="s">
+      <c r="A635" s="9" t="s">
         <v>2083</v>
       </c>
-      <c r="B635" s="14" t="s">
+      <c r="B635" s="9" t="s">
         <v>2084</v>
       </c>
-      <c r="C635" s="14" t="s">
+      <c r="C635" s="9" t="s">
         <v>2085</v>
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="9" t="s">
+      <c r="A636" s="14" t="s">
         <v>2086</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="14" t="s">
         <v>2087</v>
       </c>
-      <c r="C636" s="9" t="s">
+      <c r="C636" s="14" t="s">
         <v>2088</v>
       </c>
     </row>
@@ -29252,13 +29255,13 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="14" t="s">
+      <c r="A639" s="9" t="s">
         <v>2095</v>
       </c>
-      <c r="B639" s="14" t="s">
+      <c r="B639" s="9" t="s">
         <v>2096</v>
       </c>
-      <c r="C639" s="14" t="s">
+      <c r="C639" s="9" t="s">
         <v>2097</v>
       </c>
     </row>
@@ -29285,13 +29288,13 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="9" t="s">
+      <c r="A642" s="14" t="s">
         <v>2104</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="14" t="s">
         <v>2105</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="14" t="s">
         <v>2106</v>
       </c>
     </row>
@@ -29318,13 +29321,13 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="14" t="s">
+      <c r="A645" s="9" t="s">
         <v>2113</v>
       </c>
-      <c r="B645" s="14" t="s">
+      <c r="B645" s="9" t="s">
         <v>2114</v>
       </c>
-      <c r="C645" s="14" t="s">
+      <c r="C645" s="9" t="s">
         <v>2115</v>
       </c>
     </row>
@@ -29395,24 +29398,24 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="9" t="s">
+      <c r="A652" s="14" t="s">
         <v>2134</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="14" t="s">
         <v>2135</v>
       </c>
-      <c r="C652" s="9" t="s">
+      <c r="C652" s="14" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="14" t="s">
+      <c r="A653" s="9" t="s">
         <v>2137</v>
       </c>
-      <c r="B653" s="14" t="s">
+      <c r="B653" s="9" t="s">
         <v>2138</v>
       </c>
-      <c r="C653" s="14" t="s">
+      <c r="C653" s="9" t="s">
         <v>2139</v>
       </c>
     </row>
@@ -29428,13 +29431,13 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="9" t="s">
+      <c r="A655" s="14" t="s">
         <v>2143</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="14" t="s">
         <v>2144</v>
       </c>
-      <c r="C655" s="9" t="s">
+      <c r="C655" s="14" t="s">
         <v>2145</v>
       </c>
     </row>
@@ -29461,13 +29464,13 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="14" t="s">
+      <c r="A658" s="9" t="s">
         <v>2152</v>
       </c>
-      <c r="B658" s="14" t="s">
+      <c r="B658" s="9" t="s">
         <v>2153</v>
       </c>
-      <c r="C658" s="14" t="s">
+      <c r="C658" s="9" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -29483,24 +29486,24 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="9" t="s">
+      <c r="A660" s="14" t="s">
         <v>2158</v>
       </c>
-      <c r="B660" s="9" t="s">
+      <c r="B660" s="14" t="s">
         <v>2159</v>
       </c>
-      <c r="C660" s="9" t="s">
+      <c r="C660" s="14" t="s">
         <v>2160</v>
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="14" t="s">
+      <c r="A661" s="9" t="s">
         <v>2161</v>
       </c>
-      <c r="B661" s="14" t="s">
+      <c r="B661" s="9" t="s">
         <v>2162</v>
       </c>
-      <c r="C661" s="14" t="s">
+      <c r="C661" s="9" t="s">
         <v>2163</v>
       </c>
     </row>
@@ -29516,13 +29519,13 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="9" t="s">
+      <c r="A663" s="14" t="s">
         <v>2167</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="14" t="s">
         <v>2168</v>
       </c>
-      <c r="C663" s="9" t="s">
+      <c r="C663" s="14" t="s">
         <v>2169</v>
       </c>
     </row>
@@ -29560,21 +29563,21 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="14" t="s">
+      <c r="A667" s="9" t="s">
         <v>2179</v>
       </c>
-      <c r="B667" s="14" t="s">
+      <c r="B667" s="9" t="s">
         <v>2180</v>
       </c>
-      <c r="C667" s="14" t="s">
+      <c r="C667" s="9" t="s">
         <v>2181</v>
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="9" t="s">
+      <c r="A668" s="14" t="s">
         <v>2182</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="14" t="s">
         <v>2183</v>
       </c>
       <c r="C668" s="14" t="s">
@@ -29582,10 +29585,10 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="14" t="s">
+      <c r="A669" s="9" t="s">
         <v>2185</v>
       </c>
-      <c r="B669" s="14" t="s">
+      <c r="B669" s="9" t="s">
         <v>2186</v>
       </c>
       <c r="C669" s="14" t="s">
@@ -29615,24 +29618,24 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="9" t="s">
+      <c r="A672" s="14" t="s">
         <v>2194</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="14" t="s">
         <v>2195</v>
       </c>
-      <c r="C672" s="9" t="s">
+      <c r="C672" s="14" t="s">
         <v>2196</v>
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="14" t="s">
+      <c r="A673" s="9" t="s">
         <v>2197</v>
       </c>
-      <c r="B673" s="14" t="s">
+      <c r="B673" s="9" t="s">
         <v>2198</v>
       </c>
-      <c r="C673" s="14" t="s">
+      <c r="C673" s="9" t="s">
         <v>2199</v>
       </c>
     </row>
@@ -29648,24 +29651,24 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="9" t="s">
+      <c r="A675" s="14" t="s">
         <v>2203</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="14" t="s">
         <v>2204</v>
       </c>
-      <c r="C675" s="9" t="s">
+      <c r="C675" s="14" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="14" t="s">
+      <c r="A676" s="9" t="s">
         <v>2206</v>
       </c>
-      <c r="B676" s="14" t="s">
+      <c r="B676" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="C676" s="14" t="s">
+      <c r="C676" s="9" t="s">
         <v>2208</v>
       </c>
     </row>
@@ -29681,13 +29684,13 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="9" t="s">
+      <c r="A678" s="14" t="s">
         <v>2212</v>
       </c>
-      <c r="B678" s="9" t="s">
+      <c r="B678" s="14" t="s">
         <v>2213</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="14" t="s">
         <v>2214</v>
       </c>
     </row>
@@ -29736,57 +29739,57 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="19" t="s">
+      <c r="A683" s="9" t="s">
         <v>2227</v>
       </c>
-      <c r="B683" s="19" t="s">
+      <c r="B683" s="9" t="s">
         <v>2228</v>
       </c>
-      <c r="C683" s="10" t="s">
+      <c r="C683" s="9" t="s">
         <v>2229</v>
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="9" t="s">
+      <c r="A684" s="19" t="s">
         <v>2230</v>
       </c>
-      <c r="B684" s="9" t="s">
+      <c r="B684" s="19" t="s">
         <v>2231</v>
       </c>
-      <c r="C684" s="9" t="s">
+      <c r="C684" s="10" t="s">
         <v>2232</v>
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="14" t="s">
+      <c r="A685" s="9" t="s">
         <v>2233</v>
       </c>
-      <c r="B685" s="14" t="s">
+      <c r="B685" s="9" t="s">
         <v>2234</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="9" t="s">
         <v>2235</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="9" t="s">
+      <c r="A686" s="14" t="s">
         <v>2236</v>
       </c>
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="14" t="s">
         <v>2237</v>
       </c>
-      <c r="C686" s="9" t="s">
+      <c r="C686" s="14" t="s">
         <v>2238</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="14" t="s">
+      <c r="A687" s="9" t="s">
         <v>2239</v>
       </c>
-      <c r="B687" s="14" t="s">
+      <c r="B687" s="9" t="s">
         <v>2240</v>
       </c>
-      <c r="C687" s="14" t="s">
+      <c r="C687" s="9" t="s">
         <v>2241</v>
       </c>
     </row>
@@ -29813,79 +29816,79 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="9" t="s">
+      <c r="A690" s="14" t="s">
         <v>2248</v>
       </c>
-      <c r="B690" s="9" t="s">
+      <c r="B690" s="14" t="s">
         <v>2249</v>
       </c>
-      <c r="C690" s="9" t="s">
+      <c r="C690" s="14" t="s">
         <v>2250</v>
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="14" t="s">
+      <c r="A691" s="9" t="s">
         <v>2251</v>
       </c>
-      <c r="B691" s="14" t="s">
+      <c r="B691" s="9" t="s">
         <v>2252</v>
       </c>
-      <c r="C691" s="14" t="s">
+      <c r="C691" s="9" t="s">
         <v>2253</v>
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="9" t="s">
+      <c r="A692" s="14" t="s">
         <v>2254</v>
       </c>
-      <c r="B692" s="9" t="s">
+      <c r="B692" s="14" t="s">
         <v>2255</v>
       </c>
-      <c r="C692" s="9" t="s">
+      <c r="C692" s="14" t="s">
         <v>2256</v>
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="14" t="s">
+      <c r="A693" s="9" t="s">
         <v>2257</v>
       </c>
-      <c r="B693" s="14" t="s">
+      <c r="B693" s="9" t="s">
         <v>2258</v>
       </c>
-      <c r="C693" s="14" t="s">
+      <c r="C693" s="9" t="s">
         <v>2259</v>
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="9" t="s">
+      <c r="A694" s="14" t="s">
         <v>2260</v>
       </c>
-      <c r="B694" s="9" t="s">
+      <c r="B694" s="14" t="s">
         <v>2261</v>
       </c>
-      <c r="C694" s="9" t="s">
+      <c r="C694" s="14" t="s">
         <v>2262</v>
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="14" t="s">
+      <c r="A695" s="9" t="s">
         <v>2263</v>
       </c>
-      <c r="B695" s="14" t="s">
+      <c r="B695" s="9" t="s">
         <v>2264</v>
       </c>
-      <c r="C695" s="14" t="s">
+      <c r="C695" s="9" t="s">
         <v>2265</v>
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="9" t="s">
+      <c r="A696" s="14" t="s">
         <v>2266</v>
       </c>
-      <c r="B696" s="9" t="s">
+      <c r="B696" s="14" t="s">
         <v>2267</v>
       </c>
-      <c r="C696" s="9" t="s">
+      <c r="C696" s="14" t="s">
         <v>2268</v>
       </c>
     </row>
@@ -29912,13 +29915,13 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="14" t="s">
+      <c r="A699" s="9" t="s">
         <v>2275</v>
       </c>
-      <c r="B699" s="14" t="s">
+      <c r="B699" s="9" t="s">
         <v>2276</v>
       </c>
-      <c r="C699" s="14" t="s">
+      <c r="C699" s="9" t="s">
         <v>2277</v>
       </c>
     </row>
@@ -29967,13 +29970,13 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="9" t="s">
+      <c r="A704" s="14" t="s">
         <v>2290</v>
       </c>
-      <c r="B704" s="9" t="s">
+      <c r="B704" s="14" t="s">
         <v>2291</v>
       </c>
-      <c r="C704" s="9" t="s">
+      <c r="C704" s="14" t="s">
         <v>2292</v>
       </c>
     </row>
@@ -30014,7 +30017,7 @@
       <c r="A708" s="9" t="s">
         <v>2302</v>
       </c>
-      <c r="B708" s="14" t="s">
+      <c r="B708" s="9" t="s">
         <v>2303</v>
       </c>
       <c r="C708" s="9" t="s">
@@ -30022,13 +30025,13 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="14" t="s">
+      <c r="A709" s="9" t="s">
         <v>2305</v>
       </c>
       <c r="B709" s="14" t="s">
         <v>2306</v>
       </c>
-      <c r="C709" s="14" t="s">
+      <c r="C709" s="9" t="s">
         <v>2307</v>
       </c>
     </row>
@@ -30044,13 +30047,13 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="9" t="s">
+      <c r="A711" s="14" t="s">
         <v>2311</v>
       </c>
-      <c r="B711" s="9" t="s">
+      <c r="B711" s="14" t="s">
         <v>2312</v>
       </c>
-      <c r="C711" s="9" t="s">
+      <c r="C711" s="14" t="s">
         <v>2313</v>
       </c>
     </row>
@@ -30088,10 +30091,10 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="19" t="s">
+      <c r="A715" s="9" t="s">
         <v>2323</v>
       </c>
-      <c r="B715" s="19" t="s">
+      <c r="B715" s="9" t="s">
         <v>2324</v>
       </c>
       <c r="C715" s="9" t="s">
@@ -30099,10 +30102,10 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="9" t="s">
+      <c r="A716" s="19" t="s">
         <v>2326</v>
       </c>
-      <c r="B716" s="9" t="s">
+      <c r="B716" s="19" t="s">
         <v>2327</v>
       </c>
       <c r="C716" s="9" t="s">
@@ -30143,13 +30146,13 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="14" t="s">
+      <c r="A720" s="9" t="s">
         <v>2338</v>
       </c>
-      <c r="B720" s="14" t="s">
+      <c r="B720" s="9" t="s">
         <v>2339</v>
       </c>
-      <c r="C720" s="14" t="s">
+      <c r="C720" s="9" t="s">
         <v>2340</v>
       </c>
     </row>
@@ -30187,35 +30190,35 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="9" t="s">
+      <c r="A724" s="14" t="s">
         <v>2350</v>
       </c>
-      <c r="B724" s="9" t="s">
+      <c r="B724" s="14" t="s">
         <v>2351</v>
       </c>
-      <c r="C724" s="9" t="s">
+      <c r="C724" s="14" t="s">
         <v>2352</v>
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="14" t="s">
+      <c r="A725" s="9" t="s">
         <v>2353</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="9" t="s">
         <v>2354</v>
       </c>
-      <c r="C725" s="14" t="s">
+      <c r="C725" s="9" t="s">
         <v>2355</v>
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="9" t="s">
+      <c r="A726" s="14" t="s">
         <v>2356</v>
       </c>
-      <c r="B726" s="9" t="s">
+      <c r="B726" s="14" t="s">
         <v>2357</v>
       </c>
-      <c r="C726" s="9" t="s">
+      <c r="C726" s="14" t="s">
         <v>2358</v>
       </c>
     </row>
@@ -30242,79 +30245,79 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="14" t="s">
+      <c r="A729" s="9" t="s">
         <v>2365</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="9" t="s">
         <v>2366</v>
       </c>
-      <c r="C729" s="14" t="s">
+      <c r="C729" s="9" t="s">
         <v>2367</v>
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="9" t="s">
+      <c r="A730" s="14" t="s">
         <v>2368</v>
       </c>
-      <c r="B730" s="9" t="s">
+      <c r="B730" s="14" t="s">
         <v>2369</v>
       </c>
-      <c r="C730" s="9" t="s">
+      <c r="C730" s="14" t="s">
         <v>2370</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="14" t="s">
+      <c r="A731" s="9" t="s">
         <v>2371</v>
       </c>
-      <c r="B731" s="14" t="s">
+      <c r="B731" s="9" t="s">
         <v>2372</v>
       </c>
-      <c r="C731" s="14" t="s">
+      <c r="C731" s="9" t="s">
         <v>2373</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="9" t="s">
+      <c r="A732" s="14" t="s">
         <v>2374</v>
       </c>
-      <c r="B732" s="9" t="s">
+      <c r="B732" s="14" t="s">
         <v>2375</v>
       </c>
-      <c r="C732" s="9" t="s">
+      <c r="C732" s="14" t="s">
         <v>2376</v>
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="14" t="s">
+      <c r="A733" s="9" t="s">
         <v>2377</v>
       </c>
-      <c r="B733" s="14" t="s">
+      <c r="B733" s="9" t="s">
         <v>2378</v>
       </c>
-      <c r="C733" s="14" t="s">
+      <c r="C733" s="9" t="s">
         <v>2379</v>
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="9" t="s">
+      <c r="A734" s="14" t="s">
         <v>2380</v>
       </c>
-      <c r="B734" s="9" t="s">
+      <c r="B734" s="14" t="s">
         <v>2381</v>
       </c>
-      <c r="C734" s="9" t="s">
+      <c r="C734" s="14" t="s">
         <v>2382</v>
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="14" t="s">
+      <c r="A735" s="9" t="s">
         <v>2383</v>
       </c>
-      <c r="B735" s="14" t="s">
+      <c r="B735" s="9" t="s">
         <v>2384</v>
       </c>
-      <c r="C735" s="14" t="s">
+      <c r="C735" s="9" t="s">
         <v>2385</v>
       </c>
     </row>
@@ -30330,13 +30333,13 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="9" t="s">
+      <c r="A737" s="14" t="s">
         <v>2389</v>
       </c>
-      <c r="B737" s="9" t="s">
+      <c r="B737" s="14" t="s">
         <v>2390</v>
       </c>
-      <c r="C737" s="9" t="s">
+      <c r="C737" s="14" t="s">
         <v>2391</v>
       </c>
     </row>
@@ -30363,35 +30366,35 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="14" t="s">
+      <c r="A740" s="9" t="s">
         <v>2398</v>
       </c>
-      <c r="B740" s="14" t="s">
+      <c r="B740" s="9" t="s">
         <v>2399</v>
       </c>
-      <c r="C740" s="14" t="s">
+      <c r="C740" s="9" t="s">
         <v>2400</v>
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="9" t="s">
+      <c r="A741" s="14" t="s">
         <v>2401</v>
       </c>
-      <c r="B741" s="9" t="s">
+      <c r="B741" s="14" t="s">
         <v>2402</v>
       </c>
-      <c r="C741" s="9" t="s">
+      <c r="C741" s="14" t="s">
         <v>2403</v>
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="14" t="s">
+      <c r="A742" s="9" t="s">
         <v>2404</v>
       </c>
-      <c r="B742" s="14" t="s">
+      <c r="B742" s="9" t="s">
         <v>2405</v>
       </c>
-      <c r="C742" s="14" t="s">
+      <c r="C742" s="9" t="s">
         <v>2406</v>
       </c>
     </row>
@@ -30440,24 +30443,24 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="9" t="s">
+      <c r="A747" s="14" t="s">
         <v>2419</v>
       </c>
-      <c r="B747" s="9" t="s">
+      <c r="B747" s="14" t="s">
         <v>2420</v>
       </c>
-      <c r="C747" s="9" t="s">
+      <c r="C747" s="14" t="s">
         <v>2421</v>
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="14" t="s">
+      <c r="A748" s="9" t="s">
         <v>2422</v>
       </c>
-      <c r="B748" s="14" t="s">
+      <c r="B748" s="9" t="s">
         <v>2423</v>
       </c>
-      <c r="C748" s="14" t="s">
+      <c r="C748" s="9" t="s">
         <v>2424</v>
       </c>
     </row>
@@ -30473,13 +30476,13 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="14" t="s">
         <v>2428</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="B750" s="14" t="s">
         <v>2429</v>
       </c>
-      <c r="C750" s="9" t="s">
+      <c r="C750" s="14" t="s">
         <v>2430</v>
       </c>
     </row>
@@ -30506,46 +30509,46 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="14" t="s">
+      <c r="A753" s="9" t="s">
         <v>2437</v>
       </c>
-      <c r="B753" s="14" t="s">
+      <c r="B753" s="9" t="s">
         <v>2438</v>
       </c>
-      <c r="C753" s="14" t="s">
+      <c r="C753" s="9" t="s">
         <v>2439</v>
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="9" t="s">
+      <c r="A754" s="14" t="s">
         <v>2440</v>
       </c>
-      <c r="B754" s="9" t="s">
+      <c r="B754" s="14" t="s">
         <v>2441</v>
       </c>
-      <c r="C754" s="9" t="s">
+      <c r="C754" s="14" t="s">
         <v>2442</v>
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="14" t="s">
+      <c r="A755" s="9" t="s">
         <v>2443</v>
       </c>
-      <c r="B755" s="14" t="s">
+      <c r="B755" s="9" t="s">
         <v>2444</v>
       </c>
-      <c r="C755" s="14" t="s">
+      <c r="C755" s="9" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="9" t="s">
+      <c r="A756" s="14" t="s">
         <v>2446</v>
       </c>
-      <c r="B756" s="9" t="s">
+      <c r="B756" s="14" t="s">
         <v>2447</v>
       </c>
-      <c r="C756" s="9" t="s">
+      <c r="C756" s="14" t="s">
         <v>2448</v>
       </c>
     </row>
@@ -30561,13 +30564,13 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="14" t="s">
+      <c r="A758" s="9" t="s">
         <v>2452</v>
       </c>
-      <c r="B758" s="14" t="s">
+      <c r="B758" s="9" t="s">
         <v>2453</v>
       </c>
-      <c r="C758" s="14" t="s">
+      <c r="C758" s="9" t="s">
         <v>2454</v>
       </c>
     </row>
@@ -30616,24 +30619,24 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="9" t="s">
+      <c r="A763" s="14" t="s">
         <v>2467</v>
       </c>
-      <c r="B763" s="9" t="s">
+      <c r="B763" s="14" t="s">
         <v>2468</v>
       </c>
-      <c r="C763" s="9" t="s">
+      <c r="C763" s="14" t="s">
         <v>2469</v>
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="14" t="s">
+      <c r="A764" s="9" t="s">
         <v>2470</v>
       </c>
-      <c r="B764" s="14" t="s">
+      <c r="B764" s="9" t="s">
         <v>2471</v>
       </c>
-      <c r="C764" s="14" t="s">
+      <c r="C764" s="9" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -30649,13 +30652,13 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="9" t="s">
+      <c r="A766" s="14" t="s">
         <v>2476</v>
       </c>
-      <c r="B766" s="9" t="s">
+      <c r="B766" s="14" t="s">
         <v>2477</v>
       </c>
-      <c r="C766" s="9" t="s">
+      <c r="C766" s="14" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -30704,24 +30707,24 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="14" t="s">
+      <c r="A771" s="9" t="s">
         <v>2491</v>
       </c>
-      <c r="B771" s="14" t="s">
+      <c r="B771" s="9" t="s">
         <v>2492</v>
       </c>
-      <c r="C771" s="14" t="s">
+      <c r="C771" s="9" t="s">
         <v>2493</v>
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="9" t="s">
+      <c r="A772" s="14" t="s">
         <v>2494</v>
       </c>
-      <c r="B772" s="9" t="s">
+      <c r="B772" s="14" t="s">
         <v>2495</v>
       </c>
-      <c r="C772" s="9" t="s">
+      <c r="C772" s="14" t="s">
         <v>2496</v>
       </c>
     </row>
@@ -30759,13 +30762,13 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="14" t="s">
+      <c r="A776" s="9" t="s">
         <v>2506</v>
       </c>
-      <c r="B776" s="14" t="s">
+      <c r="B776" s="9" t="s">
         <v>2507</v>
       </c>
-      <c r="C776" s="14" t="s">
+      <c r="C776" s="9" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -30803,13 +30806,13 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="9" t="s">
+      <c r="A780" s="14" t="s">
         <v>2518</v>
       </c>
-      <c r="B780" s="9" t="s">
+      <c r="B780" s="14" t="s">
         <v>2519</v>
       </c>
-      <c r="C780" s="9" t="s">
+      <c r="C780" s="14" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -30836,13 +30839,13 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="14" t="s">
+      <c r="A783" s="9" t="s">
         <v>2527</v>
       </c>
-      <c r="B783" s="14" t="s">
+      <c r="B783" s="9" t="s">
         <v>2528</v>
       </c>
-      <c r="C783" s="14" t="s">
+      <c r="C783" s="9" t="s">
         <v>2529</v>
       </c>
     </row>
@@ -30880,10 +30883,10 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="9" t="s">
+      <c r="A787" s="14" t="s">
         <v>2539</v>
       </c>
-      <c r="B787" s="9" t="s">
+      <c r="B787" s="14" t="s">
         <v>2540</v>
       </c>
       <c r="C787" s="14" t="s">
@@ -30897,18 +30900,18 @@
       <c r="B788" s="9" t="s">
         <v>2543</v>
       </c>
-      <c r="C788" s="9" t="s">
+      <c r="C788" s="14" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="14" t="s">
+      <c r="A789" s="9" t="s">
         <v>2545</v>
       </c>
-      <c r="B789" s="14" t="s">
+      <c r="B789" s="9" t="s">
         <v>2546</v>
       </c>
-      <c r="C789" s="14" t="s">
+      <c r="C789" s="9" t="s">
         <v>2547</v>
       </c>
     </row>
@@ -30919,7 +30922,7 @@
       <c r="B790" s="14" t="s">
         <v>2549</v>
       </c>
-      <c r="C790" s="9" t="s">
+      <c r="C790" s="14" t="s">
         <v>2550</v>
       </c>
     </row>
@@ -30941,18 +30944,18 @@
       <c r="B792" s="14" t="s">
         <v>2555</v>
       </c>
-      <c r="C792" s="14" t="s">
+      <c r="C792" s="9" t="s">
         <v>2556</v>
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="9" t="s">
+      <c r="A793" s="14" t="s">
         <v>2557</v>
       </c>
-      <c r="B793" s="9" t="s">
+      <c r="B793" s="14" t="s">
         <v>2558</v>
       </c>
-      <c r="C793" s="9" t="s">
+      <c r="C793" s="14" t="s">
         <v>2559</v>
       </c>
     </row>
@@ -30960,7 +30963,7 @@
       <c r="A794" s="9" t="s">
         <v>2560</v>
       </c>
-      <c r="B794" s="14" t="s">
+      <c r="B794" s="9" t="s">
         <v>2561</v>
       </c>
       <c r="C794" s="9" t="s">
@@ -30971,7 +30974,7 @@
       <c r="A795" s="9" t="s">
         <v>2563</v>
       </c>
-      <c r="B795" s="9" t="s">
+      <c r="B795" s="14" t="s">
         <v>2564</v>
       </c>
       <c r="C795" s="9" t="s">
@@ -30996,15 +30999,15 @@
       <c r="B797" s="9" t="s">
         <v>2570</v>
       </c>
-      <c r="C797" s="14" t="s">
+      <c r="C797" s="9" t="s">
         <v>2571</v>
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="14" t="s">
+      <c r="A798" s="9" t="s">
         <v>2572</v>
       </c>
-      <c r="B798" s="14" t="s">
+      <c r="B798" s="9" t="s">
         <v>2573</v>
       </c>
       <c r="C798" s="14" t="s">
@@ -31023,13 +31026,13 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="9" t="s">
+      <c r="A800" s="14" t="s">
         <v>2578</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="14" t="s">
         <v>2579</v>
       </c>
-      <c r="C800" s="9" t="s">
+      <c r="C800" s="14" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -31045,21 +31048,21 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="14" t="s">
+      <c r="A802" s="9" t="s">
         <v>2584</v>
       </c>
-      <c r="B802" s="14" t="s">
+      <c r="B802" s="9" t="s">
         <v>2585</v>
       </c>
-      <c r="C802" s="14" t="s">
+      <c r="C802" s="9" t="s">
         <v>2586</v>
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="9" t="s">
+      <c r="A803" s="14" t="s">
         <v>2587</v>
       </c>
-      <c r="B803" s="9" t="s">
+      <c r="B803" s="14" t="s">
         <v>2588</v>
       </c>
       <c r="C803" s="14" t="s">
@@ -31067,33 +31070,33 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="14" t="s">
+      <c r="A804" s="9" t="s">
         <v>2590</v>
       </c>
-      <c r="B804" s="14" t="s">
+      <c r="B804" s="9" t="s">
         <v>2591</v>
       </c>
-      <c r="C804" s="9" t="s">
+      <c r="C804" s="14" t="s">
         <v>2592</v>
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="9" t="s">
+      <c r="A805" s="14" t="s">
         <v>2593</v>
       </c>
-      <c r="B805" s="9" t="s">
-        <v>2453</v>
+      <c r="B805" s="14" t="s">
+        <v>2594</v>
       </c>
       <c r="C805" s="9" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="9" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>2596</v>
+        <v>2456</v>
       </c>
       <c r="C806" s="9" t="s">
         <v>2597</v>
@@ -31128,15 +31131,15 @@
       <c r="B809" s="9" t="s">
         <v>2605</v>
       </c>
-      <c r="C809" s="14" t="s">
+      <c r="C809" s="9" t="s">
         <v>2606</v>
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="14" t="s">
+      <c r="A810" s="9" t="s">
         <v>2607</v>
       </c>
-      <c r="B810" s="14" t="s">
+      <c r="B810" s="9" t="s">
         <v>2608</v>
       </c>
       <c r="C810" s="14" t="s">
@@ -31147,10 +31150,10 @@
       <c r="A811" s="14" t="s">
         <v>2610</v>
       </c>
-      <c r="B811" s="9" t="s">
+      <c r="B811" s="14" t="s">
         <v>2611</v>
       </c>
-      <c r="C811" s="9" t="s">
+      <c r="C811" s="14" t="s">
         <v>2612</v>
       </c>
     </row>
@@ -31158,7 +31161,7 @@
       <c r="A812" s="14" t="s">
         <v>2613</v>
       </c>
-      <c r="B812" s="14" t="s">
+      <c r="B812" s="9" t="s">
         <v>2614</v>
       </c>
       <c r="C812" s="9" t="s">
@@ -31166,10 +31169,10 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="9" t="s">
+      <c r="A813" s="14" t="s">
         <v>2616</v>
       </c>
-      <c r="B813" s="9" t="s">
+      <c r="B813" s="14" t="s">
         <v>2617</v>
       </c>
       <c r="C813" s="9" t="s">
@@ -31183,7 +31186,7 @@
       <c r="B814" s="9" t="s">
         <v>2620</v>
       </c>
-      <c r="C814" s="14" t="s">
+      <c r="C814" s="9" t="s">
         <v>2621</v>
       </c>
     </row>
@@ -31194,29 +31197,29 @@
       <c r="B815" s="9" t="s">
         <v>2623</v>
       </c>
-      <c r="C815" s="9" t="s">
+      <c r="C815" s="14" t="s">
         <v>2624</v>
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="14" t="s">
+      <c r="A816" s="9" t="s">
         <v>2625</v>
       </c>
-      <c r="B816" s="14" t="s">
+      <c r="B816" s="9" t="s">
         <v>2626</v>
       </c>
-      <c r="C816" s="14" t="s">
+      <c r="C816" s="9" t="s">
         <v>2627</v>
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="9" t="s">
+      <c r="A817" s="14" t="s">
         <v>2628</v>
       </c>
-      <c r="B817" s="9" t="s">
+      <c r="B817" s="14" t="s">
         <v>2629</v>
       </c>
-      <c r="C817" s="9" t="s">
+      <c r="C817" s="14" t="s">
         <v>2630</v>
       </c>
     </row>
@@ -31232,10 +31235,10 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="14" t="s">
+      <c r="A819" s="9" t="s">
         <v>2634</v>
       </c>
-      <c r="B819" s="14" t="s">
+      <c r="B819" s="9" t="s">
         <v>2635</v>
       </c>
       <c r="C819" s="9" t="s">
@@ -31243,10 +31246,10 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="9" t="s">
+      <c r="A820" s="14" t="s">
         <v>2637</v>
       </c>
-      <c r="B820" s="9" t="s">
+      <c r="B820" s="14" t="s">
         <v>2638</v>
       </c>
       <c r="C820" s="9" t="s">
@@ -31287,43 +31290,43 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="14" t="s">
+      <c r="A824" s="9" t="s">
         <v>2649</v>
       </c>
-      <c r="B824" s="14" t="s">
+      <c r="B824" s="9" t="s">
         <v>2650</v>
       </c>
-      <c r="C824" s="14" t="s">
+      <c r="C824" s="9" t="s">
         <v>2651</v>
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="9" t="s">
+      <c r="A825" s="14" t="s">
         <v>2652</v>
       </c>
-      <c r="B825" s="9" t="s">
+      <c r="B825" s="14" t="s">
         <v>2653</v>
       </c>
-      <c r="C825" s="9" t="s">
+      <c r="C825" s="14" t="s">
         <v>2654</v>
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="14" t="s">
+      <c r="A826" s="9" t="s">
         <v>2655</v>
       </c>
-      <c r="B826" s="14" t="s">
+      <c r="B826" s="9" t="s">
         <v>2656</v>
       </c>
-      <c r="C826" s="14" t="s">
+      <c r="C826" s="9" t="s">
         <v>2657</v>
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="9" t="s">
+      <c r="A827" s="14" t="s">
         <v>2658</v>
       </c>
-      <c r="B827" s="9" t="s">
+      <c r="B827" s="14" t="s">
         <v>2659</v>
       </c>
       <c r="C827" s="14" t="s">
@@ -31331,10 +31334,10 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="14" t="s">
+      <c r="A828" s="9" t="s">
         <v>2661</v>
       </c>
-      <c r="B828" s="14" t="s">
+      <c r="B828" s="9" t="s">
         <v>2662</v>
       </c>
       <c r="C828" s="14" t="s">
@@ -31342,10 +31345,10 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="9" t="s">
+      <c r="A829" s="14" t="s">
         <v>2664</v>
       </c>
-      <c r="B829" s="9" t="s">
+      <c r="B829" s="14" t="s">
         <v>2665</v>
       </c>
       <c r="C829" s="14" t="s">
@@ -31353,10 +31356,10 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="14" t="s">
+      <c r="A830" s="9" t="s">
         <v>2667</v>
       </c>
-      <c r="B830" s="14" t="s">
+      <c r="B830" s="9" t="s">
         <v>2668</v>
       </c>
       <c r="C830" s="14" t="s">
@@ -31370,7 +31373,7 @@
       <c r="B831" s="14" t="s">
         <v>2671</v>
       </c>
-      <c r="C831" s="9" t="s">
+      <c r="C831" s="14" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -31381,29 +31384,29 @@
       <c r="B832" s="14" t="s">
         <v>2674</v>
       </c>
-      <c r="C832" s="14" t="s">
+      <c r="C832" s="9" t="s">
         <v>2675</v>
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="9" t="s">
+      <c r="A833" s="14" t="s">
         <v>2676</v>
       </c>
-      <c r="B833" s="9" t="s">
+      <c r="B833" s="14" t="s">
         <v>2677</v>
       </c>
-      <c r="C833" s="9" t="s">
+      <c r="C833" s="14" t="s">
         <v>2678</v>
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="14" t="s">
+      <c r="A834" s="9" t="s">
         <v>2679</v>
       </c>
-      <c r="B834" s="14" t="s">
+      <c r="B834" s="9" t="s">
         <v>2680</v>
       </c>
-      <c r="C834" s="14" t="s">
+      <c r="C834" s="9" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -31469,7 +31472,7 @@
       <c r="B840" s="14" t="s">
         <v>2698</v>
       </c>
-      <c r="C840" s="9" t="s">
+      <c r="C840" s="14" t="s">
         <v>2699</v>
       </c>
     </row>
@@ -31477,7 +31480,7 @@
       <c r="A841" s="14" t="s">
         <v>2700</v>
       </c>
-      <c r="B841" s="9" t="s">
+      <c r="B841" s="14" t="s">
         <v>2701</v>
       </c>
       <c r="C841" s="9" t="s">
@@ -31488,7 +31491,7 @@
       <c r="A842" s="14" t="s">
         <v>2703</v>
       </c>
-      <c r="B842" s="14" t="s">
+      <c r="B842" s="9" t="s">
         <v>2704</v>
       </c>
       <c r="C842" s="9" t="s">
@@ -31496,13 +31499,13 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="9" t="s">
+      <c r="A843" s="14" t="s">
         <v>2706</v>
       </c>
-      <c r="B843" s="9" t="s">
+      <c r="B843" s="14" t="s">
         <v>2707</v>
       </c>
-      <c r="C843" s="14" t="s">
+      <c r="C843" s="9" t="s">
         <v>2708</v>
       </c>
     </row>
@@ -31513,26 +31516,26 @@
       <c r="B844" s="9" t="s">
         <v>2710</v>
       </c>
-      <c r="C844" s="9" t="s">
+      <c r="C844" s="14" t="s">
         <v>2711</v>
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="14" t="s">
+      <c r="A845" s="9" t="s">
         <v>2712</v>
       </c>
-      <c r="B845" s="14" t="s">
+      <c r="B845" s="9" t="s">
         <v>2713</v>
       </c>
-      <c r="C845" s="14" t="s">
+      <c r="C845" s="9" t="s">
         <v>2714</v>
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="9" t="s">
+      <c r="A846" s="14" t="s">
         <v>2715</v>
       </c>
-      <c r="B846" s="9" t="s">
+      <c r="B846" s="14" t="s">
         <v>2716</v>
       </c>
       <c r="C846" s="14" t="s">
@@ -31540,13 +31543,13 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="14" t="s">
+      <c r="A847" s="9" t="s">
         <v>2718</v>
       </c>
-      <c r="B847" s="14" t="s">
+      <c r="B847" s="9" t="s">
         <v>2719</v>
       </c>
-      <c r="C847" s="9" t="s">
+      <c r="C847" s="14" t="s">
         <v>2720</v>
       </c>
     </row>
@@ -31557,26 +31560,26 @@
       <c r="B848" s="14" t="s">
         <v>2722</v>
       </c>
-      <c r="C848" s="14" t="s">
+      <c r="C848" s="9" t="s">
         <v>2723</v>
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="9" t="s">
+      <c r="A849" s="14" t="s">
         <v>2724</v>
       </c>
-      <c r="B849" s="9" t="s">
+      <c r="B849" s="14" t="s">
         <v>2725</v>
       </c>
-      <c r="C849" s="9" t="s">
+      <c r="C849" s="14" t="s">
         <v>2726</v>
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="14" t="s">
+      <c r="A850" s="9" t="s">
         <v>2727</v>
       </c>
-      <c r="B850" s="14" t="s">
+      <c r="B850" s="9" t="s">
         <v>2728</v>
       </c>
       <c r="C850" s="9" t="s">
@@ -31584,10 +31587,10 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="9" t="s">
+      <c r="A851" s="14" t="s">
         <v>2730</v>
       </c>
-      <c r="B851" s="9" t="s">
+      <c r="B851" s="14" t="s">
         <v>2731</v>
       </c>
       <c r="C851" s="9" t="s">
@@ -31612,7 +31615,7 @@
       <c r="B853" s="9" t="s">
         <v>2737</v>
       </c>
-      <c r="C853" s="14" t="s">
+      <c r="C853" s="9" t="s">
         <v>2738</v>
       </c>
     </row>
@@ -31623,7 +31626,7 @@
       <c r="B854" s="9" t="s">
         <v>2740</v>
       </c>
-      <c r="C854" s="9" t="s">
+      <c r="C854" s="14" t="s">
         <v>2741</v>
       </c>
     </row>
@@ -31645,15 +31648,15 @@
       <c r="B856" s="9" t="s">
         <v>2746</v>
       </c>
-      <c r="C856" s="14" t="s">
+      <c r="C856" s="9" t="s">
         <v>2747</v>
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="14" t="s">
+      <c r="A857" s="9" t="s">
         <v>2748</v>
       </c>
-      <c r="B857" s="14" t="s">
+      <c r="B857" s="9" t="s">
         <v>2749</v>
       </c>
       <c r="C857" s="14" t="s">
@@ -31676,18 +31679,18 @@
         <v>2754</v>
       </c>
       <c r="B859" s="14" t="s">
-        <v>891</v>
-      </c>
-      <c r="C859" s="9" t="s">
         <v>2755</v>
+      </c>
+      <c r="C859" s="14" t="s">
+        <v>2756</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="14" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="B860" s="14" t="s">
-        <v>2757</v>
+        <v>891</v>
       </c>
       <c r="C860" s="9" t="s">
         <v>2758</v>
@@ -31700,15 +31703,15 @@
       <c r="B861" s="14" t="s">
         <v>2760</v>
       </c>
-      <c r="C861" s="14" t="s">
+      <c r="C861" s="9" t="s">
         <v>2761</v>
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="9" t="s">
+      <c r="A862" s="14" t="s">
         <v>2762</v>
       </c>
-      <c r="B862" s="9" t="s">
+      <c r="B862" s="14" t="s">
         <v>2763</v>
       </c>
       <c r="C862" s="14" t="s">
@@ -31716,10 +31719,10 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="14" t="s">
+      <c r="A863" s="9" t="s">
         <v>2765</v>
       </c>
-      <c r="B863" s="14" t="s">
+      <c r="B863" s="9" t="s">
         <v>2766</v>
       </c>
       <c r="C863" s="14" t="s">
@@ -31727,32 +31730,32 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="9" t="s">
+      <c r="A864" s="14" t="s">
         <v>2768</v>
       </c>
-      <c r="B864" s="9" t="s">
+      <c r="B864" s="14" t="s">
         <v>2769</v>
       </c>
-      <c r="C864" s="9" t="s">
+      <c r="C864" s="14" t="s">
         <v>2770</v>
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="14" t="s">
+      <c r="A865" s="9" t="s">
         <v>2771</v>
       </c>
-      <c r="B865" s="14" t="s">
+      <c r="B865" s="9" t="s">
         <v>2772</v>
       </c>
-      <c r="C865" s="14" t="s">
+      <c r="C865" s="9" t="s">
         <v>2773</v>
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="9" t="s">
+      <c r="A866" s="14" t="s">
         <v>2774</v>
       </c>
-      <c r="B866" s="9" t="s">
+      <c r="B866" s="14" t="s">
         <v>2775</v>
       </c>
       <c r="C866" s="14" t="s">
@@ -31766,7 +31769,7 @@
       <c r="B867" s="9" t="s">
         <v>2778</v>
       </c>
-      <c r="C867" s="9" t="s">
+      <c r="C867" s="14" t="s">
         <v>2779</v>
       </c>
     </row>
@@ -31782,13 +31785,13 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="14" t="s">
+      <c r="A869" s="9" t="s">
         <v>2783</v>
       </c>
-      <c r="B869" s="14" t="s">
+      <c r="B869" s="9" t="s">
         <v>2784</v>
       </c>
-      <c r="C869" s="14" t="s">
+      <c r="C869" s="9" t="s">
         <v>2785</v>
       </c>
     </row>
@@ -31848,8 +31851,15 @@
       </c>
     </row>
     <row r="875">
-      <c r="B875" s="24"/>
-      <c r="C875" s="24"/>
+      <c r="A875" s="14" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B875" s="14" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C875" s="14" t="s">
+        <v>2803</v>
+      </c>
     </row>
     <row r="876">
       <c r="B876" s="24"/>
@@ -32360,10 +32370,10 @@
       <c r="C1002" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$874">
-    <sortState ref="A1:C874">
-      <sortCondition ref="A1:A874"/>
-      <sortCondition ref="B1:B874"/>
+  <autoFilter ref="$A$1:$C$875">
+    <sortState ref="A1:C875">
+      <sortCondition ref="A1:A875"/>
+      <sortCondition ref="B1:B875"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$877</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$878</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="2811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="2814">
   <si>
     <t>Word</t>
   </si>
@@ -75,7 +75,7 @@
     <t>after word</t>
   </si>
   <si>
-    <t>river</t>
+    <t>beach</t>
   </si>
   <si>
     <t>na kaelm felatae mol agelovor = i food collected from factory = i got my food from the factory</t>
@@ -6199,6 +6199,15 @@
   </si>
   <si>
     <t>сайрон</t>
+  </si>
+  <si>
+    <t>sbyaska</t>
+  </si>
+  <si>
+    <t>beach, strand, coast, shore</t>
+  </si>
+  <si>
+    <t>сбяска</t>
   </si>
   <si>
     <t>sbyejat</t>
@@ -9086,16 +9095,16 @@
         <v>33</v>
       </c>
       <c r="G5" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"lovo")</f>
-        <v>lovo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"sbyaska")</f>
+        <v>sbyaska</v>
       </c>
       <c r="H5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"operator, driver, crewmember")</f>
-        <v>operator, driver, crewmember</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"beach, strand, coast, shore")</f>
+        <v>beach, strand, coast, shore</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"лово")</f>
-        <v>лово</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"сбяска")</f>
+        <v>сбяска</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>34</v>
@@ -9132,18 +9141,9 @@
         <v>39</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yiv")</f>
-        <v>yiv</v>
-      </c>
-      <c r="H6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"river, stream")</f>
-        <v>river, stream</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"йив")</f>
-        <v>йив</v>
-      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="10" t="s">
         <v>40</v>
       </c>
@@ -29190,13 +29190,13 @@
       <c r="I628" s="8"/>
     </row>
     <row r="629">
-      <c r="A629" s="10" t="s">
+      <c r="A629" s="15" t="s">
         <v>2065</v>
       </c>
-      <c r="B629" s="10" t="s">
+      <c r="B629" s="15" t="s">
         <v>2066</v>
       </c>
-      <c r="C629" s="10" t="s">
+      <c r="C629" s="15" t="s">
         <v>2067</v>
       </c>
       <c r="I629" s="8"/>
@@ -29214,13 +29214,13 @@
       <c r="I630" s="8"/>
     </row>
     <row r="631">
-      <c r="A631" s="15" t="s">
+      <c r="A631" s="10" t="s">
         <v>2071</v>
       </c>
-      <c r="B631" s="15" t="s">
+      <c r="B631" s="10" t="s">
         <v>2072</v>
       </c>
-      <c r="C631" s="15" t="s">
+      <c r="C631" s="10" t="s">
         <v>2073</v>
       </c>
       <c r="I631" s="8"/>
@@ -29250,13 +29250,13 @@
       <c r="I633" s="8"/>
     </row>
     <row r="634">
-      <c r="A634" s="10" t="s">
+      <c r="A634" s="15" t="s">
         <v>2080</v>
       </c>
-      <c r="B634" s="10" t="s">
+      <c r="B634" s="15" t="s">
         <v>2081</v>
       </c>
-      <c r="C634" s="10" t="s">
+      <c r="C634" s="15" t="s">
         <v>2082</v>
       </c>
       <c r="I634" s="8"/>
@@ -29286,25 +29286,25 @@
       <c r="I636" s="8"/>
     </row>
     <row r="637">
-      <c r="A637" s="15" t="s">
+      <c r="A637" s="10" t="s">
         <v>2089</v>
       </c>
-      <c r="B637" s="15" t="s">
+      <c r="B637" s="10" t="s">
         <v>2090</v>
       </c>
-      <c r="C637" s="15" t="s">
+      <c r="C637" s="10" t="s">
         <v>2091</v>
       </c>
       <c r="I637" s="8"/>
     </row>
     <row r="638">
-      <c r="A638" s="10" t="s">
+      <c r="A638" s="15" t="s">
         <v>2092</v>
       </c>
-      <c r="B638" s="10" t="s">
+      <c r="B638" s="15" t="s">
         <v>2093</v>
       </c>
-      <c r="C638" s="10" t="s">
+      <c r="C638" s="15" t="s">
         <v>2094</v>
       </c>
       <c r="I638" s="8"/>
@@ -29334,13 +29334,13 @@
       <c r="I640" s="8"/>
     </row>
     <row r="641">
-      <c r="A641" s="15" t="s">
+      <c r="A641" s="10" t="s">
         <v>2101</v>
       </c>
-      <c r="B641" s="15" t="s">
+      <c r="B641" s="10" t="s">
         <v>2102</v>
       </c>
-      <c r="C641" s="15" t="s">
+      <c r="C641" s="10" t="s">
         <v>2103</v>
       </c>
       <c r="I641" s="8"/>
@@ -29370,13 +29370,13 @@
       <c r="I643" s="8"/>
     </row>
     <row r="644">
-      <c r="A644" s="10" t="s">
+      <c r="A644" s="15" t="s">
         <v>2110</v>
       </c>
-      <c r="B644" s="10" t="s">
+      <c r="B644" s="15" t="s">
         <v>2111</v>
       </c>
-      <c r="C644" s="10" t="s">
+      <c r="C644" s="15" t="s">
         <v>2112</v>
       </c>
       <c r="I644" s="8"/>
@@ -29406,13 +29406,13 @@
       <c r="I646" s="8"/>
     </row>
     <row r="647">
-      <c r="A647" s="15" t="s">
+      <c r="A647" s="10" t="s">
         <v>2119</v>
       </c>
-      <c r="B647" s="15" t="s">
+      <c r="B647" s="10" t="s">
         <v>2120</v>
       </c>
-      <c r="C647" s="15" t="s">
+      <c r="C647" s="10" t="s">
         <v>2121</v>
       </c>
       <c r="I647" s="8"/>
@@ -29490,25 +29490,25 @@
       <c r="I653" s="8"/>
     </row>
     <row r="654">
-      <c r="A654" s="10" t="s">
+      <c r="A654" s="15" t="s">
         <v>2140</v>
       </c>
-      <c r="B654" s="10" t="s">
+      <c r="B654" s="15" t="s">
         <v>2141</v>
       </c>
-      <c r="C654" s="10" t="s">
+      <c r="C654" s="15" t="s">
         <v>2142</v>
       </c>
       <c r="I654" s="8"/>
     </row>
     <row r="655">
-      <c r="A655" s="15" t="s">
+      <c r="A655" s="10" t="s">
         <v>2143</v>
       </c>
-      <c r="B655" s="15" t="s">
+      <c r="B655" s="10" t="s">
         <v>2144</v>
       </c>
-      <c r="C655" s="15" t="s">
+      <c r="C655" s="10" t="s">
         <v>2145</v>
       </c>
       <c r="I655" s="8"/>
@@ -29526,13 +29526,13 @@
       <c r="I656" s="8"/>
     </row>
     <row r="657">
-      <c r="A657" s="10" t="s">
+      <c r="A657" s="15" t="s">
         <v>2149</v>
       </c>
-      <c r="B657" s="10" t="s">
+      <c r="B657" s="15" t="s">
         <v>2150</v>
       </c>
-      <c r="C657" s="10" t="s">
+      <c r="C657" s="15" t="s">
         <v>2151</v>
       </c>
       <c r="I657" s="8"/>
@@ -29562,13 +29562,13 @@
       <c r="I659" s="8"/>
     </row>
     <row r="660">
-      <c r="A660" s="15" t="s">
+      <c r="A660" s="10" t="s">
         <v>2158</v>
       </c>
-      <c r="B660" s="15" t="s">
+      <c r="B660" s="10" t="s">
         <v>2159</v>
       </c>
-      <c r="C660" s="15" t="s">
+      <c r="C660" s="10" t="s">
         <v>2160</v>
       </c>
       <c r="I660" s="8"/>
@@ -29586,25 +29586,25 @@
       <c r="I661" s="8"/>
     </row>
     <row r="662">
-      <c r="A662" s="10" t="s">
+      <c r="A662" s="15" t="s">
         <v>2164</v>
       </c>
-      <c r="B662" s="10" t="s">
+      <c r="B662" s="15" t="s">
         <v>2165</v>
       </c>
-      <c r="C662" s="10" t="s">
+      <c r="C662" s="15" t="s">
         <v>2166</v>
       </c>
       <c r="I662" s="8"/>
     </row>
     <row r="663">
-      <c r="A663" s="15" t="s">
+      <c r="A663" s="10" t="s">
         <v>2167</v>
       </c>
-      <c r="B663" s="15" t="s">
+      <c r="B663" s="10" t="s">
         <v>2168</v>
       </c>
-      <c r="C663" s="15" t="s">
+      <c r="C663" s="10" t="s">
         <v>2169</v>
       </c>
       <c r="I663" s="8"/>
@@ -29622,13 +29622,13 @@
       <c r="I664" s="8"/>
     </row>
     <row r="665">
-      <c r="A665" s="10" t="s">
+      <c r="A665" s="15" t="s">
         <v>2173</v>
       </c>
-      <c r="B665" s="10" t="s">
+      <c r="B665" s="15" t="s">
         <v>2174</v>
       </c>
-      <c r="C665" s="10" t="s">
+      <c r="C665" s="15" t="s">
         <v>2175</v>
       </c>
       <c r="I665" s="8"/>
@@ -29670,22 +29670,22 @@
       <c r="I668" s="8"/>
     </row>
     <row r="669">
-      <c r="A669" s="15" t="s">
+      <c r="A669" s="10" t="s">
         <v>2185</v>
       </c>
-      <c r="B669" s="15" t="s">
+      <c r="B669" s="10" t="s">
         <v>2186</v>
       </c>
-      <c r="C669" s="15" t="s">
+      <c r="C669" s="10" t="s">
         <v>2187</v>
       </c>
       <c r="I669" s="8"/>
     </row>
     <row r="670">
-      <c r="A670" s="10" t="s">
+      <c r="A670" s="15" t="s">
         <v>2188</v>
       </c>
-      <c r="B670" s="10" t="s">
+      <c r="B670" s="15" t="s">
         <v>2189</v>
       </c>
       <c r="C670" s="15" t="s">
@@ -29694,10 +29694,10 @@
       <c r="I670" s="8"/>
     </row>
     <row r="671">
-      <c r="A671" s="15" t="s">
+      <c r="A671" s="10" t="s">
         <v>2191</v>
       </c>
-      <c r="B671" s="15" t="s">
+      <c r="B671" s="10" t="s">
         <v>2192</v>
       </c>
       <c r="C671" s="15" t="s">
@@ -29730,25 +29730,25 @@
       <c r="I673" s="8"/>
     </row>
     <row r="674">
-      <c r="A674" s="10" t="s">
+      <c r="A674" s="15" t="s">
         <v>2200</v>
       </c>
-      <c r="B674" s="10" t="s">
+      <c r="B674" s="15" t="s">
         <v>2201</v>
       </c>
-      <c r="C674" s="10" t="s">
+      <c r="C674" s="15" t="s">
         <v>2202</v>
       </c>
       <c r="I674" s="8"/>
     </row>
     <row r="675">
-      <c r="A675" s="15" t="s">
+      <c r="A675" s="10" t="s">
         <v>2203</v>
       </c>
-      <c r="B675" s="15" t="s">
+      <c r="B675" s="10" t="s">
         <v>2204</v>
       </c>
-      <c r="C675" s="15" t="s">
+      <c r="C675" s="10" t="s">
         <v>2205</v>
       </c>
       <c r="I675" s="8"/>
@@ -29766,25 +29766,25 @@
       <c r="I676" s="8"/>
     </row>
     <row r="677">
-      <c r="A677" s="10" t="s">
+      <c r="A677" s="15" t="s">
         <v>2209</v>
       </c>
-      <c r="B677" s="10" t="s">
+      <c r="B677" s="15" t="s">
         <v>2210</v>
       </c>
-      <c r="C677" s="10" t="s">
+      <c r="C677" s="15" t="s">
         <v>2211</v>
       </c>
       <c r="I677" s="8"/>
     </row>
     <row r="678">
-      <c r="A678" s="15" t="s">
+      <c r="A678" s="10" t="s">
         <v>2212</v>
       </c>
-      <c r="B678" s="15" t="s">
+      <c r="B678" s="10" t="s">
         <v>2213</v>
       </c>
-      <c r="C678" s="15" t="s">
+      <c r="C678" s="10" t="s">
         <v>2214</v>
       </c>
       <c r="I678" s="8"/>
@@ -29802,13 +29802,13 @@
       <c r="I679" s="8"/>
     </row>
     <row r="680">
-      <c r="A680" s="10" t="s">
+      <c r="A680" s="15" t="s">
         <v>2218</v>
       </c>
-      <c r="B680" s="10" t="s">
+      <c r="B680" s="15" t="s">
         <v>2219</v>
       </c>
-      <c r="C680" s="10" t="s">
+      <c r="C680" s="15" t="s">
         <v>2220</v>
       </c>
       <c r="I680" s="8"/>
@@ -29862,61 +29862,61 @@
       <c r="I684" s="8"/>
     </row>
     <row r="685">
-      <c r="A685" s="20" t="s">
+      <c r="A685" s="10" t="s">
         <v>2233</v>
       </c>
-      <c r="B685" s="20" t="s">
+      <c r="B685" s="10" t="s">
         <v>2234</v>
       </c>
-      <c r="C685" s="14" t="s">
+      <c r="C685" s="10" t="s">
         <v>2235</v>
       </c>
       <c r="I685" s="8"/>
     </row>
     <row r="686">
-      <c r="A686" s="10" t="s">
+      <c r="A686" s="20" t="s">
         <v>2236</v>
       </c>
-      <c r="B686" s="10" t="s">
+      <c r="B686" s="20" t="s">
         <v>2237</v>
       </c>
-      <c r="C686" s="10" t="s">
+      <c r="C686" s="14" t="s">
         <v>2238</v>
       </c>
       <c r="I686" s="8"/>
     </row>
     <row r="687">
-      <c r="A687" s="15" t="s">
+      <c r="A687" s="10" t="s">
         <v>2239</v>
       </c>
-      <c r="B687" s="15" t="s">
+      <c r="B687" s="10" t="s">
         <v>2240</v>
       </c>
-      <c r="C687" s="15" t="s">
+      <c r="C687" s="10" t="s">
         <v>2241</v>
       </c>
       <c r="I687" s="8"/>
     </row>
     <row r="688">
-      <c r="A688" s="10" t="s">
+      <c r="A688" s="15" t="s">
         <v>2242</v>
       </c>
-      <c r="B688" s="10" t="s">
+      <c r="B688" s="15" t="s">
         <v>2243</v>
       </c>
-      <c r="C688" s="10" t="s">
+      <c r="C688" s="15" t="s">
         <v>2244</v>
       </c>
       <c r="I688" s="8"/>
     </row>
     <row r="689">
-      <c r="A689" s="15" t="s">
+      <c r="A689" s="10" t="s">
         <v>2245</v>
       </c>
-      <c r="B689" s="15" t="s">
+      <c r="B689" s="10" t="s">
         <v>2246</v>
       </c>
-      <c r="C689" s="15" t="s">
+      <c r="C689" s="10" t="s">
         <v>2247</v>
       </c>
       <c r="I689" s="8"/>
@@ -29946,85 +29946,85 @@
       <c r="I691" s="8"/>
     </row>
     <row r="692">
-      <c r="A692" s="10" t="s">
+      <c r="A692" s="15" t="s">
         <v>2254</v>
       </c>
-      <c r="B692" s="10" t="s">
+      <c r="B692" s="15" t="s">
         <v>2255</v>
       </c>
-      <c r="C692" s="10" t="s">
+      <c r="C692" s="15" t="s">
         <v>2256</v>
       </c>
       <c r="I692" s="8"/>
     </row>
     <row r="693">
-      <c r="A693" s="15" t="s">
+      <c r="A693" s="10" t="s">
         <v>2257</v>
       </c>
-      <c r="B693" s="15" t="s">
+      <c r="B693" s="10" t="s">
         <v>2258</v>
       </c>
-      <c r="C693" s="15" t="s">
+      <c r="C693" s="10" t="s">
         <v>2259</v>
       </c>
       <c r="I693" s="8"/>
     </row>
     <row r="694">
-      <c r="A694" s="10" t="s">
+      <c r="A694" s="15" t="s">
         <v>2260</v>
       </c>
-      <c r="B694" s="10" t="s">
+      <c r="B694" s="15" t="s">
         <v>2261</v>
       </c>
-      <c r="C694" s="10" t="s">
+      <c r="C694" s="15" t="s">
         <v>2262</v>
       </c>
       <c r="I694" s="8"/>
     </row>
     <row r="695">
-      <c r="A695" s="15" t="s">
+      <c r="A695" s="10" t="s">
         <v>2263</v>
       </c>
-      <c r="B695" s="15" t="s">
+      <c r="B695" s="10" t="s">
         <v>2264</v>
       </c>
-      <c r="C695" s="15" t="s">
+      <c r="C695" s="10" t="s">
         <v>2265</v>
       </c>
       <c r="I695" s="8"/>
     </row>
     <row r="696">
-      <c r="A696" s="10" t="s">
+      <c r="A696" s="15" t="s">
         <v>2266</v>
       </c>
-      <c r="B696" s="10" t="s">
+      <c r="B696" s="15" t="s">
         <v>2267</v>
       </c>
-      <c r="C696" s="10" t="s">
+      <c r="C696" s="15" t="s">
         <v>2268</v>
       </c>
       <c r="I696" s="8"/>
     </row>
     <row r="697">
-      <c r="A697" s="15" t="s">
+      <c r="A697" s="10" t="s">
         <v>2269</v>
       </c>
-      <c r="B697" s="15" t="s">
+      <c r="B697" s="10" t="s">
         <v>2270</v>
       </c>
-      <c r="C697" s="15" t="s">
+      <c r="C697" s="10" t="s">
         <v>2271</v>
       </c>
       <c r="I697" s="8"/>
     </row>
     <row r="698">
-      <c r="A698" s="10" t="s">
+      <c r="A698" s="15" t="s">
         <v>2272</v>
       </c>
-      <c r="B698" s="10" t="s">
+      <c r="B698" s="15" t="s">
         <v>2273</v>
       </c>
-      <c r="C698" s="10" t="s">
+      <c r="C698" s="15" t="s">
         <v>2274</v>
       </c>
       <c r="I698" s="8"/>
@@ -30054,13 +30054,13 @@
       <c r="I700" s="8"/>
     </row>
     <row r="701">
-      <c r="A701" s="15" t="s">
+      <c r="A701" s="10" t="s">
         <v>2281</v>
       </c>
-      <c r="B701" s="15" t="s">
+      <c r="B701" s="10" t="s">
         <v>2282</v>
       </c>
-      <c r="C701" s="15" t="s">
+      <c r="C701" s="10" t="s">
         <v>2283</v>
       </c>
       <c r="I701" s="8"/>
@@ -30114,13 +30114,13 @@
       <c r="I705" s="8"/>
     </row>
     <row r="706">
-      <c r="A706" s="10" t="s">
+      <c r="A706" s="15" t="s">
         <v>2296</v>
       </c>
-      <c r="B706" s="10" t="s">
+      <c r="B706" s="15" t="s">
         <v>2297</v>
       </c>
-      <c r="C706" s="10" t="s">
+      <c r="C706" s="15" t="s">
         <v>2298</v>
       </c>
       <c r="I706" s="8"/>
@@ -30165,7 +30165,7 @@
       <c r="A710" s="10" t="s">
         <v>2308</v>
       </c>
-      <c r="B710" s="15" t="s">
+      <c r="B710" s="10" t="s">
         <v>2309</v>
       </c>
       <c r="C710" s="10" t="s">
@@ -30174,13 +30174,13 @@
       <c r="I710" s="8"/>
     </row>
     <row r="711">
-      <c r="A711" s="15" t="s">
+      <c r="A711" s="10" t="s">
         <v>2311</v>
       </c>
       <c r="B711" s="15" t="s">
         <v>2312</v>
       </c>
-      <c r="C711" s="15" t="s">
+      <c r="C711" s="10" t="s">
         <v>2313</v>
       </c>
       <c r="I711" s="8"/>
@@ -30198,13 +30198,13 @@
       <c r="I712" s="8"/>
     </row>
     <row r="713">
-      <c r="A713" s="10" t="s">
+      <c r="A713" s="15" t="s">
         <v>2317</v>
       </c>
-      <c r="B713" s="10" t="s">
+      <c r="B713" s="15" t="s">
         <v>2318</v>
       </c>
-      <c r="C713" s="10" t="s">
+      <c r="C713" s="15" t="s">
         <v>2319</v>
       </c>
       <c r="I713" s="8"/>
@@ -30246,10 +30246,10 @@
       <c r="I716" s="8"/>
     </row>
     <row r="717">
-      <c r="A717" s="20" t="s">
+      <c r="A717" s="10" t="s">
         <v>2329</v>
       </c>
-      <c r="B717" s="20" t="s">
+      <c r="B717" s="10" t="s">
         <v>2330</v>
       </c>
       <c r="C717" s="10" t="s">
@@ -30258,10 +30258,10 @@
       <c r="I717" s="8"/>
     </row>
     <row r="718">
-      <c r="A718" s="10" t="s">
+      <c r="A718" s="20" t="s">
         <v>2332</v>
       </c>
-      <c r="B718" s="10" t="s">
+      <c r="B718" s="20" t="s">
         <v>2333</v>
       </c>
       <c r="C718" s="10" t="s">
@@ -30306,13 +30306,13 @@
       <c r="I721" s="8"/>
     </row>
     <row r="722">
-      <c r="A722" s="15" t="s">
+      <c r="A722" s="10" t="s">
         <v>2344</v>
       </c>
-      <c r="B722" s="15" t="s">
+      <c r="B722" s="10" t="s">
         <v>2345</v>
       </c>
-      <c r="C722" s="15" t="s">
+      <c r="C722" s="10" t="s">
         <v>2346</v>
       </c>
       <c r="I722" s="8"/>
@@ -30354,37 +30354,37 @@
       <c r="I725" s="8"/>
     </row>
     <row r="726">
-      <c r="A726" s="10" t="s">
+      <c r="A726" s="15" t="s">
         <v>2356</v>
       </c>
-      <c r="B726" s="10" t="s">
+      <c r="B726" s="15" t="s">
         <v>2357</v>
       </c>
-      <c r="C726" s="10" t="s">
+      <c r="C726" s="15" t="s">
         <v>2358</v>
       </c>
       <c r="I726" s="8"/>
     </row>
     <row r="727">
-      <c r="A727" s="15" t="s">
+      <c r="A727" s="10" t="s">
         <v>2359</v>
       </c>
-      <c r="B727" s="15" t="s">
+      <c r="B727" s="10" t="s">
         <v>2360</v>
       </c>
-      <c r="C727" s="15" t="s">
+      <c r="C727" s="10" t="s">
         <v>2361</v>
       </c>
       <c r="I727" s="8"/>
     </row>
     <row r="728">
-      <c r="A728" s="10" t="s">
+      <c r="A728" s="15" t="s">
         <v>2362</v>
       </c>
-      <c r="B728" s="10" t="s">
+      <c r="B728" s="15" t="s">
         <v>2363</v>
       </c>
-      <c r="C728" s="10" t="s">
+      <c r="C728" s="15" t="s">
         <v>2364</v>
       </c>
       <c r="I728" s="8"/>
@@ -30414,85 +30414,85 @@
       <c r="I730" s="8"/>
     </row>
     <row r="731">
-      <c r="A731" s="15" t="s">
+      <c r="A731" s="10" t="s">
         <v>2371</v>
       </c>
-      <c r="B731" s="15" t="s">
+      <c r="B731" s="10" t="s">
         <v>2372</v>
       </c>
-      <c r="C731" s="15" t="s">
+      <c r="C731" s="10" t="s">
         <v>2373</v>
       </c>
       <c r="I731" s="8"/>
     </row>
     <row r="732">
-      <c r="A732" s="10" t="s">
+      <c r="A732" s="15" t="s">
         <v>2374</v>
       </c>
-      <c r="B732" s="10" t="s">
+      <c r="B732" s="15" t="s">
         <v>2375</v>
       </c>
-      <c r="C732" s="10" t="s">
+      <c r="C732" s="15" t="s">
         <v>2376</v>
       </c>
       <c r="I732" s="8"/>
     </row>
     <row r="733">
-      <c r="A733" s="15" t="s">
+      <c r="A733" s="10" t="s">
         <v>2377</v>
       </c>
-      <c r="B733" s="15" t="s">
+      <c r="B733" s="10" t="s">
         <v>2378</v>
       </c>
-      <c r="C733" s="15" t="s">
+      <c r="C733" s="10" t="s">
         <v>2379</v>
       </c>
       <c r="I733" s="8"/>
     </row>
     <row r="734">
-      <c r="A734" s="10" t="s">
+      <c r="A734" s="15" t="s">
         <v>2380</v>
       </c>
-      <c r="B734" s="10" t="s">
+      <c r="B734" s="15" t="s">
         <v>2381</v>
       </c>
-      <c r="C734" s="10" t="s">
+      <c r="C734" s="15" t="s">
         <v>2382</v>
       </c>
       <c r="I734" s="8"/>
     </row>
     <row r="735">
-      <c r="A735" s="15" t="s">
+      <c r="A735" s="10" t="s">
         <v>2383</v>
       </c>
-      <c r="B735" s="15" t="s">
+      <c r="B735" s="10" t="s">
         <v>2384</v>
       </c>
-      <c r="C735" s="15" t="s">
+      <c r="C735" s="10" t="s">
         <v>2385</v>
       </c>
       <c r="I735" s="8"/>
     </row>
     <row r="736">
-      <c r="A736" s="10" t="s">
+      <c r="A736" s="15" t="s">
         <v>2386</v>
       </c>
-      <c r="B736" s="10" t="s">
+      <c r="B736" s="15" t="s">
         <v>2387</v>
       </c>
-      <c r="C736" s="10" t="s">
+      <c r="C736" s="15" t="s">
         <v>2388</v>
       </c>
       <c r="I736" s="8"/>
     </row>
     <row r="737">
-      <c r="A737" s="15" t="s">
+      <c r="A737" s="10" t="s">
         <v>2389</v>
       </c>
-      <c r="B737" s="15" t="s">
+      <c r="B737" s="10" t="s">
         <v>2390</v>
       </c>
-      <c r="C737" s="15" t="s">
+      <c r="C737" s="10" t="s">
         <v>2391</v>
       </c>
       <c r="I737" s="8"/>
@@ -30510,13 +30510,13 @@
       <c r="I738" s="8"/>
     </row>
     <row r="739">
-      <c r="A739" s="10" t="s">
+      <c r="A739" s="15" t="s">
         <v>2395</v>
       </c>
-      <c r="B739" s="10" t="s">
+      <c r="B739" s="15" t="s">
         <v>2396</v>
       </c>
-      <c r="C739" s="10" t="s">
+      <c r="C739" s="15" t="s">
         <v>2397</v>
       </c>
       <c r="I739" s="8"/>
@@ -30546,37 +30546,37 @@
       <c r="I741" s="8"/>
     </row>
     <row r="742">
-      <c r="A742" s="15" t="s">
+      <c r="A742" s="10" t="s">
         <v>2404</v>
       </c>
-      <c r="B742" s="15" t="s">
+      <c r="B742" s="10" t="s">
         <v>2405</v>
       </c>
-      <c r="C742" s="15" t="s">
+      <c r="C742" s="10" t="s">
         <v>2406</v>
       </c>
       <c r="I742" s="8"/>
     </row>
     <row r="743">
-      <c r="A743" s="10" t="s">
+      <c r="A743" s="15" t="s">
         <v>2407</v>
       </c>
-      <c r="B743" s="10" t="s">
+      <c r="B743" s="15" t="s">
         <v>2408</v>
       </c>
-      <c r="C743" s="10" t="s">
+      <c r="C743" s="15" t="s">
         <v>2409</v>
       </c>
       <c r="I743" s="8"/>
     </row>
     <row r="744">
-      <c r="A744" s="15" t="s">
+      <c r="A744" s="10" t="s">
         <v>2410</v>
       </c>
-      <c r="B744" s="15" t="s">
+      <c r="B744" s="10" t="s">
         <v>2411</v>
       </c>
-      <c r="C744" s="15" t="s">
+      <c r="C744" s="10" t="s">
         <v>2412</v>
       </c>
       <c r="I744" s="8"/>
@@ -30630,25 +30630,25 @@
       <c r="I748" s="8"/>
     </row>
     <row r="749">
-      <c r="A749" s="10" t="s">
+      <c r="A749" s="15" t="s">
         <v>2425</v>
       </c>
-      <c r="B749" s="10" t="s">
+      <c r="B749" s="15" t="s">
         <v>2426</v>
       </c>
-      <c r="C749" s="10" t="s">
+      <c r="C749" s="15" t="s">
         <v>2427</v>
       </c>
       <c r="I749" s="8"/>
     </row>
     <row r="750">
-      <c r="A750" s="15" t="s">
+      <c r="A750" s="10" t="s">
         <v>2428</v>
       </c>
-      <c r="B750" s="15" t="s">
+      <c r="B750" s="10" t="s">
         <v>2429</v>
       </c>
-      <c r="C750" s="15" t="s">
+      <c r="C750" s="10" t="s">
         <v>2430</v>
       </c>
       <c r="I750" s="8"/>
@@ -30666,13 +30666,13 @@
       <c r="I751" s="8"/>
     </row>
     <row r="752">
-      <c r="A752" s="10" t="s">
+      <c r="A752" s="15" t="s">
         <v>2434</v>
       </c>
-      <c r="B752" s="10" t="s">
+      <c r="B752" s="15" t="s">
         <v>2435</v>
       </c>
-      <c r="C752" s="10" t="s">
+      <c r="C752" s="15" t="s">
         <v>2436</v>
       </c>
       <c r="I752" s="8"/>
@@ -30702,49 +30702,49 @@
       <c r="I754" s="8"/>
     </row>
     <row r="755">
-      <c r="A755" s="15" t="s">
+      <c r="A755" s="10" t="s">
         <v>2443</v>
       </c>
-      <c r="B755" s="15" t="s">
+      <c r="B755" s="10" t="s">
         <v>2444</v>
       </c>
-      <c r="C755" s="15" t="s">
+      <c r="C755" s="10" t="s">
         <v>2445</v>
       </c>
       <c r="I755" s="8"/>
     </row>
     <row r="756">
-      <c r="A756" s="10" t="s">
+      <c r="A756" s="15" t="s">
         <v>2446</v>
       </c>
-      <c r="B756" s="10" t="s">
+      <c r="B756" s="15" t="s">
         <v>2447</v>
       </c>
-      <c r="C756" s="10" t="s">
+      <c r="C756" s="15" t="s">
         <v>2448</v>
       </c>
       <c r="I756" s="8"/>
     </row>
     <row r="757">
-      <c r="A757" s="15" t="s">
+      <c r="A757" s="10" t="s">
         <v>2449</v>
       </c>
-      <c r="B757" s="15" t="s">
+      <c r="B757" s="10" t="s">
         <v>2450</v>
       </c>
-      <c r="C757" s="15" t="s">
+      <c r="C757" s="10" t="s">
         <v>2451</v>
       </c>
       <c r="I757" s="8"/>
     </row>
     <row r="758">
-      <c r="A758" s="10" t="s">
+      <c r="A758" s="15" t="s">
         <v>2452</v>
       </c>
-      <c r="B758" s="10" t="s">
+      <c r="B758" s="15" t="s">
         <v>2453</v>
       </c>
-      <c r="C758" s="10" t="s">
+      <c r="C758" s="15" t="s">
         <v>2454</v>
       </c>
       <c r="I758" s="8"/>
@@ -30762,13 +30762,13 @@
       <c r="I759" s="8"/>
     </row>
     <row r="760">
-      <c r="A760" s="15" t="s">
+      <c r="A760" s="10" t="s">
         <v>2458</v>
       </c>
-      <c r="B760" s="15" t="s">
+      <c r="B760" s="10" t="s">
         <v>2459</v>
       </c>
-      <c r="C760" s="15" t="s">
+      <c r="C760" s="10" t="s">
         <v>2460</v>
       </c>
       <c r="I760" s="8"/>
@@ -30822,25 +30822,25 @@
       <c r="I764" s="8"/>
     </row>
     <row r="765">
-      <c r="A765" s="10" t="s">
+      <c r="A765" s="15" t="s">
         <v>2473</v>
       </c>
-      <c r="B765" s="10" t="s">
+      <c r="B765" s="15" t="s">
         <v>2474</v>
       </c>
-      <c r="C765" s="10" t="s">
+      <c r="C765" s="15" t="s">
         <v>2475</v>
       </c>
       <c r="I765" s="8"/>
     </row>
     <row r="766">
-      <c r="A766" s="15" t="s">
+      <c r="A766" s="10" t="s">
         <v>2476</v>
       </c>
-      <c r="B766" s="15" t="s">
+      <c r="B766" s="10" t="s">
         <v>2477</v>
       </c>
-      <c r="C766" s="15" t="s">
+      <c r="C766" s="10" t="s">
         <v>2478</v>
       </c>
       <c r="I766" s="8"/>
@@ -30858,13 +30858,13 @@
       <c r="I767" s="8"/>
     </row>
     <row r="768">
-      <c r="A768" s="10" t="s">
+      <c r="A768" s="15" t="s">
         <v>2482</v>
       </c>
-      <c r="B768" s="10" t="s">
+      <c r="B768" s="15" t="s">
         <v>2483</v>
       </c>
-      <c r="C768" s="10" t="s">
+      <c r="C768" s="15" t="s">
         <v>2484</v>
       </c>
       <c r="I768" s="8"/>
@@ -30918,25 +30918,25 @@
       <c r="I772" s="8"/>
     </row>
     <row r="773">
-      <c r="A773" s="15" t="s">
+      <c r="A773" s="10" t="s">
         <v>2497</v>
       </c>
-      <c r="B773" s="15" t="s">
+      <c r="B773" s="10" t="s">
         <v>2498</v>
       </c>
-      <c r="C773" s="15" t="s">
+      <c r="C773" s="10" t="s">
         <v>2499</v>
       </c>
       <c r="I773" s="8"/>
     </row>
     <row r="774">
-      <c r="A774" s="10" t="s">
+      <c r="A774" s="15" t="s">
         <v>2500</v>
       </c>
-      <c r="B774" s="10" t="s">
+      <c r="B774" s="15" t="s">
         <v>2501</v>
       </c>
-      <c r="C774" s="10" t="s">
+      <c r="C774" s="15" t="s">
         <v>2502</v>
       </c>
       <c r="I774" s="8"/>
@@ -30978,13 +30978,13 @@
       <c r="I777" s="8"/>
     </row>
     <row r="778">
-      <c r="A778" s="15" t="s">
+      <c r="A778" s="10" t="s">
         <v>2512</v>
       </c>
-      <c r="B778" s="15" t="s">
+      <c r="B778" s="10" t="s">
         <v>2513</v>
       </c>
-      <c r="C778" s="15" t="s">
+      <c r="C778" s="10" t="s">
         <v>2514</v>
       </c>
       <c r="I778" s="8"/>
@@ -31026,13 +31026,13 @@
       <c r="I781" s="8"/>
     </row>
     <row r="782">
-      <c r="A782" s="10" t="s">
+      <c r="A782" s="15" t="s">
         <v>2524</v>
       </c>
-      <c r="B782" s="10" t="s">
+      <c r="B782" s="15" t="s">
         <v>2525</v>
       </c>
-      <c r="C782" s="10" t="s">
+      <c r="C782" s="15" t="s">
         <v>2526</v>
       </c>
       <c r="I782" s="8"/>
@@ -31062,13 +31062,13 @@
       <c r="I784" s="8"/>
     </row>
     <row r="785">
-      <c r="A785" s="15" t="s">
+      <c r="A785" s="10" t="s">
         <v>2533</v>
       </c>
-      <c r="B785" s="15" t="s">
+      <c r="B785" s="10" t="s">
         <v>2534</v>
       </c>
-      <c r="C785" s="15" t="s">
+      <c r="C785" s="10" t="s">
         <v>2535</v>
       </c>
       <c r="I785" s="8"/>
@@ -31110,10 +31110,10 @@
       <c r="I788" s="8"/>
     </row>
     <row r="789">
-      <c r="A789" s="10" t="s">
+      <c r="A789" s="15" t="s">
         <v>2545</v>
       </c>
-      <c r="B789" s="10" t="s">
+      <c r="B789" s="15" t="s">
         <v>2546</v>
       </c>
       <c r="C789" s="15" t="s">
@@ -31128,19 +31128,19 @@
       <c r="B790" s="10" t="s">
         <v>2549</v>
       </c>
-      <c r="C790" s="10" t="s">
+      <c r="C790" s="15" t="s">
         <v>2550</v>
       </c>
       <c r="I790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="15" t="s">
+      <c r="A791" s="10" t="s">
         <v>2551</v>
       </c>
-      <c r="B791" s="15" t="s">
+      <c r="B791" s="10" t="s">
         <v>2552</v>
       </c>
-      <c r="C791" s="15" t="s">
+      <c r="C791" s="10" t="s">
         <v>2553</v>
       </c>
       <c r="I791" s="8"/>
@@ -31152,7 +31152,7 @@
       <c r="B792" s="15" t="s">
         <v>2555</v>
       </c>
-      <c r="C792" s="10" t="s">
+      <c r="C792" s="15" t="s">
         <v>2556</v>
       </c>
       <c r="I792" s="8"/>
@@ -31176,19 +31176,19 @@
       <c r="B794" s="15" t="s">
         <v>2561</v>
       </c>
-      <c r="C794" s="15" t="s">
+      <c r="C794" s="10" t="s">
         <v>2562</v>
       </c>
       <c r="I794" s="8"/>
     </row>
     <row r="795">
-      <c r="A795" s="10" t="s">
+      <c r="A795" s="15" t="s">
         <v>2563</v>
       </c>
-      <c r="B795" s="10" t="s">
+      <c r="B795" s="15" t="s">
         <v>2564</v>
       </c>
-      <c r="C795" s="10" t="s">
+      <c r="C795" s="15" t="s">
         <v>2565</v>
       </c>
       <c r="I795" s="8"/>
@@ -31197,7 +31197,7 @@
       <c r="A796" s="10" t="s">
         <v>2566</v>
       </c>
-      <c r="B796" s="15" t="s">
+      <c r="B796" s="10" t="s">
         <v>2567</v>
       </c>
       <c r="C796" s="10" t="s">
@@ -31209,7 +31209,7 @@
       <c r="A797" s="10" t="s">
         <v>2569</v>
       </c>
-      <c r="B797" s="10" t="s">
+      <c r="B797" s="15" t="s">
         <v>2570</v>
       </c>
       <c r="C797" s="10" t="s">
@@ -31236,16 +31236,16 @@
       <c r="B799" s="10" t="s">
         <v>2576</v>
       </c>
-      <c r="C799" s="15" t="s">
+      <c r="C799" s="10" t="s">
         <v>2577</v>
       </c>
       <c r="I799" s="8"/>
     </row>
     <row r="800">
-      <c r="A800" s="15" t="s">
+      <c r="A800" s="10" t="s">
         <v>2578</v>
       </c>
-      <c r="B800" s="15" t="s">
+      <c r="B800" s="10" t="s">
         <v>2579</v>
       </c>
       <c r="C800" s="15" t="s">
@@ -31266,13 +31266,13 @@
       <c r="I801" s="8"/>
     </row>
     <row r="802">
-      <c r="A802" s="10" t="s">
+      <c r="A802" s="15" t="s">
         <v>2584</v>
       </c>
-      <c r="B802" s="10" t="s">
+      <c r="B802" s="15" t="s">
         <v>2585</v>
       </c>
-      <c r="C802" s="10" t="s">
+      <c r="C802" s="15" t="s">
         <v>2586</v>
       </c>
       <c r="I802" s="8"/>
@@ -31290,22 +31290,22 @@
       <c r="I803" s="8"/>
     </row>
     <row r="804">
-      <c r="A804" s="15" t="s">
+      <c r="A804" s="10" t="s">
         <v>2590</v>
       </c>
-      <c r="B804" s="15" t="s">
+      <c r="B804" s="10" t="s">
         <v>2591</v>
       </c>
-      <c r="C804" s="15" t="s">
+      <c r="C804" s="10" t="s">
         <v>2592</v>
       </c>
       <c r="I804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="10" t="s">
+      <c r="A805" s="15" t="s">
         <v>2593</v>
       </c>
-      <c r="B805" s="10" t="s">
+      <c r="B805" s="15" t="s">
         <v>2594</v>
       </c>
       <c r="C805" s="15" t="s">
@@ -31314,35 +31314,35 @@
       <c r="I805" s="8"/>
     </row>
     <row r="806">
-      <c r="A806" s="15" t="s">
+      <c r="A806" s="10" t="s">
         <v>2596</v>
       </c>
-      <c r="B806" s="15" t="s">
+      <c r="B806" s="10" t="s">
         <v>2597</v>
       </c>
-      <c r="C806" s="10" t="s">
+      <c r="C806" s="15" t="s">
         <v>2598</v>
       </c>
       <c r="I806" s="8"/>
     </row>
     <row r="807">
-      <c r="A807" s="10" t="s">
+      <c r="A807" s="15" t="s">
         <v>2599</v>
       </c>
-      <c r="B807" s="10" t="s">
-        <v>2459</v>
+      <c r="B807" s="15" t="s">
+        <v>2600</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="I807" s="8"/>
     </row>
     <row r="808">
       <c r="A808" s="10" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="B808" s="10" t="s">
-        <v>2602</v>
+        <v>2462</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>2603</v>
@@ -31380,16 +31380,16 @@
       <c r="B811" s="10" t="s">
         <v>2611</v>
       </c>
-      <c r="C811" s="15" t="s">
+      <c r="C811" s="10" t="s">
         <v>2612</v>
       </c>
       <c r="I811" s="8"/>
     </row>
     <row r="812">
-      <c r="A812" s="15" t="s">
+      <c r="A812" s="10" t="s">
         <v>2613</v>
       </c>
-      <c r="B812" s="15" t="s">
+      <c r="B812" s="10" t="s">
         <v>2614</v>
       </c>
       <c r="C812" s="15" t="s">
@@ -31401,10 +31401,10 @@
       <c r="A813" s="15" t="s">
         <v>2616</v>
       </c>
-      <c r="B813" s="10" t="s">
+      <c r="B813" s="15" t="s">
         <v>2617</v>
       </c>
-      <c r="C813" s="10" t="s">
+      <c r="C813" s="15" t="s">
         <v>2618</v>
       </c>
       <c r="I813" s="8"/>
@@ -31413,7 +31413,7 @@
       <c r="A814" s="15" t="s">
         <v>2619</v>
       </c>
-      <c r="B814" s="15" t="s">
+      <c r="B814" s="10" t="s">
         <v>2620</v>
       </c>
       <c r="C814" s="10" t="s">
@@ -31422,10 +31422,10 @@
       <c r="I814" s="8"/>
     </row>
     <row r="815">
-      <c r="A815" s="10" t="s">
+      <c r="A815" s="15" t="s">
         <v>2622</v>
       </c>
-      <c r="B815" s="10" t="s">
+      <c r="B815" s="15" t="s">
         <v>2623</v>
       </c>
       <c r="C815" s="10" t="s">
@@ -31440,7 +31440,7 @@
       <c r="B816" s="10" t="s">
         <v>2626</v>
       </c>
-      <c r="C816" s="15" t="s">
+      <c r="C816" s="10" t="s">
         <v>2627</v>
       </c>
       <c r="I816" s="8"/>
@@ -31452,31 +31452,31 @@
       <c r="B817" s="10" t="s">
         <v>2629</v>
       </c>
-      <c r="C817" s="10" t="s">
+      <c r="C817" s="15" t="s">
         <v>2630</v>
       </c>
       <c r="I817" s="8"/>
     </row>
     <row r="818">
-      <c r="A818" s="15" t="s">
+      <c r="A818" s="10" t="s">
         <v>2631</v>
       </c>
-      <c r="B818" s="15" t="s">
+      <c r="B818" s="10" t="s">
         <v>2632</v>
       </c>
-      <c r="C818" s="15" t="s">
+      <c r="C818" s="10" t="s">
         <v>2633</v>
       </c>
       <c r="I818" s="8"/>
     </row>
     <row r="819">
-      <c r="A819" s="10" t="s">
+      <c r="A819" s="15" t="s">
         <v>2634</v>
       </c>
-      <c r="B819" s="10" t="s">
+      <c r="B819" s="15" t="s">
         <v>2635</v>
       </c>
-      <c r="C819" s="10" t="s">
+      <c r="C819" s="15" t="s">
         <v>2636</v>
       </c>
       <c r="I819" s="8"/>
@@ -31494,10 +31494,10 @@
       <c r="I820" s="8"/>
     </row>
     <row r="821">
-      <c r="A821" s="15" t="s">
+      <c r="A821" s="10" t="s">
         <v>2640</v>
       </c>
-      <c r="B821" s="15" t="s">
+      <c r="B821" s="10" t="s">
         <v>2641</v>
       </c>
       <c r="C821" s="10" t="s">
@@ -31506,10 +31506,10 @@
       <c r="I821" s="8"/>
     </row>
     <row r="822">
-      <c r="A822" s="10" t="s">
+      <c r="A822" s="15" t="s">
         <v>2643</v>
       </c>
-      <c r="B822" s="10" t="s">
+      <c r="B822" s="15" t="s">
         <v>2644</v>
       </c>
       <c r="C822" s="10" t="s">
@@ -31554,46 +31554,46 @@
       <c r="I825" s="8"/>
     </row>
     <row r="826">
-      <c r="A826" s="15" t="s">
+      <c r="A826" s="10" t="s">
         <v>2655</v>
       </c>
-      <c r="B826" s="15" t="s">
+      <c r="B826" s="10" t="s">
         <v>2656</v>
       </c>
-      <c r="C826" s="15" t="s">
+      <c r="C826" s="10" t="s">
         <v>2657</v>
       </c>
       <c r="I826" s="8"/>
     </row>
     <row r="827">
-      <c r="A827" s="10" t="s">
+      <c r="A827" s="15" t="s">
         <v>2658</v>
       </c>
-      <c r="B827" s="10" t="s">
+      <c r="B827" s="15" t="s">
         <v>2659</v>
       </c>
-      <c r="C827" s="10" t="s">
+      <c r="C827" s="15" t="s">
         <v>2660</v>
       </c>
       <c r="I827" s="8"/>
     </row>
     <row r="828">
-      <c r="A828" s="15" t="s">
+      <c r="A828" s="10" t="s">
         <v>2661</v>
       </c>
-      <c r="B828" s="15" t="s">
+      <c r="B828" s="10" t="s">
         <v>2662</v>
       </c>
-      <c r="C828" s="15" t="s">
+      <c r="C828" s="10" t="s">
         <v>2663</v>
       </c>
       <c r="I828" s="8"/>
     </row>
     <row r="829">
-      <c r="A829" s="10" t="s">
+      <c r="A829" s="15" t="s">
         <v>2664</v>
       </c>
-      <c r="B829" s="10" t="s">
+      <c r="B829" s="15" t="s">
         <v>2665</v>
       </c>
       <c r="C829" s="15" t="s">
@@ -31602,10 +31602,10 @@
       <c r="I829" s="8"/>
     </row>
     <row r="830">
-      <c r="A830" s="15" t="s">
+      <c r="A830" s="10" t="s">
         <v>2667</v>
       </c>
-      <c r="B830" s="15" t="s">
+      <c r="B830" s="10" t="s">
         <v>2668</v>
       </c>
       <c r="C830" s="15" t="s">
@@ -31614,10 +31614,10 @@
       <c r="I830" s="8"/>
     </row>
     <row r="831">
-      <c r="A831" s="10" t="s">
+      <c r="A831" s="15" t="s">
         <v>2670</v>
       </c>
-      <c r="B831" s="10" t="s">
+      <c r="B831" s="15" t="s">
         <v>2671</v>
       </c>
       <c r="C831" s="15" t="s">
@@ -31626,10 +31626,10 @@
       <c r="I831" s="8"/>
     </row>
     <row r="832">
-      <c r="A832" s="15" t="s">
+      <c r="A832" s="10" t="s">
         <v>2673</v>
       </c>
-      <c r="B832" s="15" t="s">
+      <c r="B832" s="10" t="s">
         <v>2674</v>
       </c>
       <c r="C832" s="15" t="s">
@@ -31644,7 +31644,7 @@
       <c r="B833" s="15" t="s">
         <v>2677</v>
       </c>
-      <c r="C833" s="10" t="s">
+      <c r="C833" s="15" t="s">
         <v>2678</v>
       </c>
       <c r="I833" s="8"/>
@@ -31656,31 +31656,31 @@
       <c r="B834" s="15" t="s">
         <v>2680</v>
       </c>
-      <c r="C834" s="15" t="s">
+      <c r="C834" s="10" t="s">
         <v>2681</v>
       </c>
       <c r="I834" s="8"/>
     </row>
     <row r="835">
-      <c r="A835" s="10" t="s">
+      <c r="A835" s="15" t="s">
         <v>2682</v>
       </c>
-      <c r="B835" s="10" t="s">
+      <c r="B835" s="15" t="s">
         <v>2683</v>
       </c>
-      <c r="C835" s="10" t="s">
+      <c r="C835" s="15" t="s">
         <v>2684</v>
       </c>
       <c r="I835" s="8"/>
     </row>
     <row r="836">
-      <c r="A836" s="15" t="s">
+      <c r="A836" s="10" t="s">
         <v>2685</v>
       </c>
-      <c r="B836" s="15" t="s">
+      <c r="B836" s="10" t="s">
         <v>2686</v>
       </c>
-      <c r="C836" s="15" t="s">
+      <c r="C836" s="10" t="s">
         <v>2687</v>
       </c>
       <c r="I836" s="8"/>
@@ -31752,7 +31752,7 @@
       <c r="B842" s="15" t="s">
         <v>2704</v>
       </c>
-      <c r="C842" s="10" t="s">
+      <c r="C842" s="15" t="s">
         <v>2705</v>
       </c>
       <c r="I842" s="8"/>
@@ -31761,7 +31761,7 @@
       <c r="A843" s="15" t="s">
         <v>2706</v>
       </c>
-      <c r="B843" s="10" t="s">
+      <c r="B843" s="15" t="s">
         <v>2707</v>
       </c>
       <c r="C843" s="10" t="s">
@@ -31773,7 +31773,7 @@
       <c r="A844" s="15" t="s">
         <v>2709</v>
       </c>
-      <c r="B844" s="15" t="s">
+      <c r="B844" s="10" t="s">
         <v>2710</v>
       </c>
       <c r="C844" s="10" t="s">
@@ -31782,13 +31782,13 @@
       <c r="I844" s="8"/>
     </row>
     <row r="845">
-      <c r="A845" s="10" t="s">
+      <c r="A845" s="15" t="s">
         <v>2712</v>
       </c>
-      <c r="B845" s="10" t="s">
+      <c r="B845" s="15" t="s">
         <v>2713</v>
       </c>
-      <c r="C845" s="15" t="s">
+      <c r="C845" s="10" t="s">
         <v>2714</v>
       </c>
       <c r="I845" s="8"/>
@@ -31800,28 +31800,28 @@
       <c r="B846" s="10" t="s">
         <v>2716</v>
       </c>
-      <c r="C846" s="10" t="s">
+      <c r="C846" s="15" t="s">
         <v>2717</v>
       </c>
       <c r="I846" s="8"/>
     </row>
     <row r="847">
-      <c r="A847" s="15" t="s">
+      <c r="A847" s="10" t="s">
         <v>2718</v>
       </c>
-      <c r="B847" s="15" t="s">
+      <c r="B847" s="10" t="s">
         <v>2719</v>
       </c>
-      <c r="C847" s="15" t="s">
+      <c r="C847" s="10" t="s">
         <v>2720</v>
       </c>
       <c r="I847" s="8"/>
     </row>
     <row r="848">
-      <c r="A848" s="10" t="s">
+      <c r="A848" s="15" t="s">
         <v>2721</v>
       </c>
-      <c r="B848" s="10" t="s">
+      <c r="B848" s="15" t="s">
         <v>2722</v>
       </c>
       <c r="C848" s="15" t="s">
@@ -31830,10 +31830,10 @@
       <c r="I848" s="8"/>
     </row>
     <row r="849">
-      <c r="A849" s="15" t="s">
+      <c r="A849" s="10" t="s">
         <v>2724</v>
       </c>
-      <c r="B849" s="15" t="s">
+      <c r="B849" s="10" t="s">
         <v>2725</v>
       </c>
       <c r="C849" s="15" t="s">
@@ -31848,7 +31848,7 @@
       <c r="B850" s="15" t="s">
         <v>2728</v>
       </c>
-      <c r="C850" s="10" t="s">
+      <c r="C850" s="15" t="s">
         <v>2729</v>
       </c>
       <c r="I850" s="8"/>
@@ -31860,28 +31860,28 @@
       <c r="B851" s="15" t="s">
         <v>2731</v>
       </c>
-      <c r="C851" s="15" t="s">
+      <c r="C851" s="10" t="s">
         <v>2732</v>
       </c>
       <c r="I851" s="8"/>
     </row>
     <row r="852">
-      <c r="A852" s="10" t="s">
+      <c r="A852" s="15" t="s">
         <v>2733</v>
       </c>
-      <c r="B852" s="10" t="s">
+      <c r="B852" s="15" t="s">
         <v>2734</v>
       </c>
-      <c r="C852" s="10" t="s">
+      <c r="C852" s="15" t="s">
         <v>2735</v>
       </c>
       <c r="I852" s="8"/>
     </row>
     <row r="853">
-      <c r="A853" s="15" t="s">
+      <c r="A853" s="10" t="s">
         <v>2736</v>
       </c>
-      <c r="B853" s="15" t="s">
+      <c r="B853" s="10" t="s">
         <v>2737</v>
       </c>
       <c r="C853" s="10" t="s">
@@ -31890,10 +31890,10 @@
       <c r="I853" s="8"/>
     </row>
     <row r="854">
-      <c r="A854" s="10" t="s">
+      <c r="A854" s="15" t="s">
         <v>2739</v>
       </c>
-      <c r="B854" s="10" t="s">
+      <c r="B854" s="15" t="s">
         <v>2740</v>
       </c>
       <c r="C854" s="10" t="s">
@@ -31920,7 +31920,7 @@
       <c r="B856" s="10" t="s">
         <v>2746</v>
       </c>
-      <c r="C856" s="15" t="s">
+      <c r="C856" s="10" t="s">
         <v>2747</v>
       </c>
       <c r="I856" s="8"/>
@@ -31932,7 +31932,7 @@
       <c r="B857" s="10" t="s">
         <v>2749</v>
       </c>
-      <c r="C857" s="10" t="s">
+      <c r="C857" s="15" t="s">
         <v>2750</v>
       </c>
       <c r="I857" s="8"/>
@@ -31956,16 +31956,16 @@
       <c r="B859" s="10" t="s">
         <v>2755</v>
       </c>
-      <c r="C859" s="15" t="s">
+      <c r="C859" s="10" t="s">
         <v>2756</v>
       </c>
       <c r="I859" s="8"/>
     </row>
     <row r="860">
-      <c r="A860" s="15" t="s">
+      <c r="A860" s="10" t="s">
         <v>2757</v>
       </c>
-      <c r="B860" s="15" t="s">
+      <c r="B860" s="10" t="s">
         <v>2758</v>
       </c>
       <c r="C860" s="15" t="s">
@@ -31992,7 +31992,7 @@
       <c r="B862" s="15" t="s">
         <v>2764</v>
       </c>
-      <c r="C862" s="10" t="s">
+      <c r="C862" s="15" t="s">
         <v>2765</v>
       </c>
       <c r="I862" s="8"/>
@@ -32016,16 +32016,16 @@
       <c r="B864" s="15" t="s">
         <v>2770</v>
       </c>
-      <c r="C864" s="15" t="s">
+      <c r="C864" s="10" t="s">
         <v>2771</v>
       </c>
       <c r="I864" s="8"/>
     </row>
     <row r="865">
-      <c r="A865" s="10" t="s">
+      <c r="A865" s="15" t="s">
         <v>2772</v>
       </c>
-      <c r="B865" s="10" t="s">
+      <c r="B865" s="15" t="s">
         <v>2773</v>
       </c>
       <c r="C865" s="15" t="s">
@@ -32034,10 +32034,10 @@
       <c r="I865" s="8"/>
     </row>
     <row r="866">
-      <c r="A866" s="15" t="s">
+      <c r="A866" s="10" t="s">
         <v>2775</v>
       </c>
-      <c r="B866" s="15" t="s">
+      <c r="B866" s="10" t="s">
         <v>2776</v>
       </c>
       <c r="C866" s="15" t="s">
@@ -32046,34 +32046,34 @@
       <c r="I866" s="8"/>
     </row>
     <row r="867">
-      <c r="A867" s="10" t="s">
+      <c r="A867" s="15" t="s">
         <v>2778</v>
       </c>
-      <c r="B867" s="10" t="s">
+      <c r="B867" s="15" t="s">
         <v>2779</v>
       </c>
-      <c r="C867" s="10" t="s">
+      <c r="C867" s="15" t="s">
         <v>2780</v>
       </c>
       <c r="I867" s="8"/>
     </row>
     <row r="868">
-      <c r="A868" s="15" t="s">
+      <c r="A868" s="10" t="s">
         <v>2781</v>
       </c>
-      <c r="B868" s="15" t="s">
+      <c r="B868" s="10" t="s">
         <v>2782</v>
       </c>
-      <c r="C868" s="15" t="s">
+      <c r="C868" s="10" t="s">
         <v>2783</v>
       </c>
       <c r="I868" s="8"/>
     </row>
     <row r="869">
-      <c r="A869" s="10" t="s">
+      <c r="A869" s="15" t="s">
         <v>2784</v>
       </c>
-      <c r="B869" s="10" t="s">
+      <c r="B869" s="15" t="s">
         <v>2785</v>
       </c>
       <c r="C869" s="15" t="s">
@@ -32088,7 +32088,7 @@
       <c r="B870" s="10" t="s">
         <v>2788</v>
       </c>
-      <c r="C870" s="10" t="s">
+      <c r="C870" s="15" t="s">
         <v>2789</v>
       </c>
       <c r="I870" s="8"/>
@@ -32106,13 +32106,13 @@
       <c r="I871" s="8"/>
     </row>
     <row r="872">
-      <c r="A872" s="15" t="s">
+      <c r="A872" s="10" t="s">
         <v>2793</v>
       </c>
-      <c r="B872" s="15" t="s">
+      <c r="B872" s="10" t="s">
         <v>2794</v>
       </c>
-      <c r="C872" s="15" t="s">
+      <c r="C872" s="10" t="s">
         <v>2795</v>
       </c>
       <c r="I872" s="8"/>
@@ -32178,8 +32178,15 @@
       <c r="I877" s="8"/>
     </row>
     <row r="878">
-      <c r="B878" s="8"/>
-      <c r="C878" s="8"/>
+      <c r="A878" s="15" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B878" s="15" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C878" s="15" t="s">
+        <v>2813</v>
+      </c>
       <c r="I878" s="8"/>
     </row>
     <row r="879">
@@ -32803,10 +32810,10 @@
       <c r="I1002" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$877">
-    <sortState ref="A1:C877">
-      <sortCondition ref="A1:A877"/>
-      <sortCondition ref="B1:B877"/>
+  <autoFilter ref="$A$1:$C$878">
+    <sortState ref="A1:C878">
+      <sortCondition ref="A1:A878"/>
+      <sortCondition ref="B1:B878"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">

--- a/Conlangs/Sci-Fi Languages.xlsx
+++ b/Conlangs/Sci-Fi Languages.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Kagalarian" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$879</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Kagalarian!$A$1:$C$880</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="2820">
   <si>
     <t>Word</t>
   </si>
@@ -75,7 +75,7 @@
     <t>after word</t>
   </si>
   <si>
-    <t>other</t>
+    <t>live</t>
   </si>
   <si>
     <t>na kaelm felatae mol agelovor = i food collected from factory = i got my food from the factory</t>
@@ -366,6 +366,21 @@
     <t>if the word ends with a sylllable, add -mem. if the word ends with a -t, replace with -dem</t>
   </si>
   <si>
+    <t>zyejiy</t>
+  </si>
+  <si>
+    <t>alive (adjective)</t>
+  </si>
+  <si>
+    <t>зежй</t>
+  </si>
+  <si>
+    <t>gerund (-iyo)</t>
+  </si>
+  <si>
+    <t>if the word ends with a sylllable, add -lyo. if the word ends with a -t, replace with -chyo</t>
+  </si>
+  <si>
     <t>elev</t>
   </si>
   <si>
@@ -375,10 +390,10 @@
     <t>элэв</t>
   </si>
   <si>
-    <t>gerund (-iyo)</t>
-  </si>
-  <si>
-    <t>if the word ends with a sylllable, add -lyo. if the word ends with a -t, replace with -chyo</t>
+    <t>future tense (volya)</t>
+  </si>
+  <si>
+    <t>before verb</t>
   </si>
   <si>
     <t>lanakon</t>
@@ -390,10 +405,10 @@
     <t>ланакон</t>
   </si>
   <si>
-    <t>future tense (volya)</t>
-  </si>
-  <si>
-    <t>before verb</t>
+    <t>singular (ob)</t>
+  </si>
+  <si>
+    <t>before noun</t>
   </si>
   <si>
     <t>eleytav</t>
@@ -405,10 +420,16 @@
     <t>элэйтав</t>
   </si>
   <si>
-    <t>singular (ob)</t>
-  </si>
-  <si>
-    <t>before noun</t>
+    <t>plural (-as)</t>
+  </si>
+  <si>
+    <t>add -as</t>
+  </si>
+  <si>
+    <t>Shitty sentences ripped from reddit</t>
+  </si>
+  <si>
+    <t>Za khnolot zima miln biy, obi lomshtorm volya prikodya. Prikodya vye miy velo dom, miy boreyv. Brelsheveya! Prikodya syero, galavet oji tantsevat, yetosya oji loykit. Za miy zamsel biy. Hev syevyel oji vintsha hosyaliy, oji mloko mol molosinas. O, oji velo goskom!</t>
   </si>
   <si>
     <t>kvartira</t>
@@ -420,16 +441,7 @@
     <t>квартира</t>
   </si>
   <si>
-    <t>plural (-as)</t>
-  </si>
-  <si>
-    <t>add -as</t>
-  </si>
-  <si>
-    <t>Shitty sentences ripped from reddit</t>
-  </si>
-  <si>
-    <t>Za khnolot zima miln biy, obi lomshtorm volya prikodya. Prikodya vye miy velo dom, miy boreyv. Brelsheveya! Prikodya syero, galavet oji tantsevat, yetosya oji loykit. Za miy zamsel biy. Hev syevyel oji vintsha hosyaliy, oji mloko mol molosinas. O, oji velo goskom!</t>
+    <t>add -us</t>
   </si>
   <si>
     <t>tsija</t>
@@ -441,7 +453,13 @@
     <t>цижа</t>
   </si>
   <si>
-    <t>add -us</t>
+    <t>person of/occupation (-o)</t>
+  </si>
+  <si>
+    <t>add -o</t>
+  </si>
+  <si>
+    <t>За кшнолот зима милн бй, оби ломшторм воля прикодя. Прикодя ве мй вэло дом, мй борэйв. Брелшэвя! Прикодя серо, галавет ожи танцэват, етося ожи лойкит. За мй замсел бй. Хэв севел ожи винтша хосялй, ожи млоко мол молосинас. О, ожи вело госком!</t>
   </si>
   <si>
     <t>oji</t>
@@ -453,13 +471,10 @@
     <t>ожи</t>
   </si>
   <si>
-    <t>person of/occupation (-o)</t>
-  </si>
-  <si>
-    <t>add -o</t>
-  </si>
-  <si>
-    <t>За кшнолот зима милн бй, оби ломшторм воля прикодя. Прикодя ве мй вэло дом, мй борэйв. Брелшэвя! Прикодя серо, галавет ожи танцэват, етося ожи лойкит. За мй замсел бй. Хэв севел ожи винтша хосялй, ожи млоко мол молосинас. О, ожи вело госком!</t>
+    <t>ize/ed/ized (-niy)</t>
+  </si>
+  <si>
+    <t>add -niy</t>
   </si>
   <si>
     <t>anglokish</t>
@@ -471,10 +486,13 @@
     <t>англокиш</t>
   </si>
   <si>
-    <t>ize/ed/ized (-niy)</t>
-  </si>
-  <si>
-    <t>add -niy</t>
+    <t>more (mot)</t>
+  </si>
+  <si>
+    <t>add -mot</t>
+  </si>
+  <si>
+    <t>The cold winter is near, a snowstorm will come. Come in my warm house, my friend. Welcome! Come here, sing and dance, eat and drink. That is my plan. We have water, beer, and milk fresh from the cow. Oh, and warm soup!</t>
   </si>
   <si>
     <t>vuk</t>
@@ -486,13 +504,7 @@
     <t>вук</t>
   </si>
   <si>
-    <t>more (mot)</t>
-  </si>
-  <si>
-    <t>add -mot</t>
-  </si>
-  <si>
-    <t>The cold winter is near, a snowstorm will come. Come in my warm house, my friend. Welcome! Come here, sing and dance, eat and drink. That is my plan. We have water, beer, and milk fresh from the cow. Oh, and warm soup!</t>
+    <t>add -taes</t>
   </si>
   <si>
     <t>nalon</t>
@@ -504,7 +516,7 @@
     <t>налон</t>
   </si>
   <si>
-    <t>add -taes</t>
+    <t>Za krepkiy doynaro borotsyacho kiyna seniy manakonas, seniy knizyo valashem hosyaliy leyn joklun slava.</t>
   </si>
   <si>
     <t>obetsa</t>
@@ -516,7 +528,7 @@
     <t>обэца</t>
   </si>
   <si>
-    <t>Za krepkiy doynaro borotsyacho kiyna seniy manakonas, seniy knizyo valashem hosyaliy leyn joklun slava.</t>
+    <t>За крэпкй дойнаро бороцячо кйна сэнй манаконас, сэнй книзё валашэм хосялй лэйн жоклун слава.</t>
   </si>
   <si>
     <t>ishav</t>
@@ -528,7 +540,16 @@
     <t>ишав</t>
   </si>
   <si>
-    <t>За крэпкй дойнаро бороцячо кйна сэнй манаконас, сэнй книзё валашэм хосялй лэйн жоклун слава.</t>
+    <t>U</t>
+  </si>
+  <si>
+    <t>/u/</t>
+  </si>
+  <si>
+    <t>Always pronounce as OO</t>
+  </si>
+  <si>
+    <t>The strong warrior fought bravely against his foes, wielding his sharp sword with great might.</t>
   </si>
   <si>
     <t>pakosel</t>
@@ -540,16 +561,16 @@
     <t>пакосэл</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>/u/</t>
-  </si>
-  <si>
-    <t>Always pronounce as OO</t>
-  </si>
-  <si>
-    <t>The strong warrior fought bravely against his foes, wielding his sharp sword with great might.</t>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>/i/</t>
+  </si>
+  <si>
+    <t>Always pronounce as EE</t>
+  </si>
+  <si>
+    <t>Za kiyna lodskaro toyacho skan za drasa sevenak.</t>
   </si>
   <si>
     <t>gadren</t>
@@ -561,16 +582,16 @@
     <t>гадрэн</t>
   </si>
   <si>
-    <t>IY</t>
-  </si>
-  <si>
-    <t>/i/</t>
-  </si>
-  <si>
-    <t>Always pronounce as EE</t>
-  </si>
-  <si>
-    <t>Za kiyna lodskaro toyacho skan za drasa sevenak.</t>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>/ɛɪ/</t>
+  </si>
+  <si>
+    <t>Always pronounce as EI, AY, ae, AE</t>
+  </si>
+  <si>
+    <t>За кйна лодскаро тоячо скан за драса сэвэнак.</t>
   </si>
   <si>
     <t>aroth</t>
@@ -582,16 +603,16 @@
     <t>аротх</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>/ɛɪ/</t>
-  </si>
-  <si>
-    <t>Always pronounce as EI, AY, ae, AE</t>
-  </si>
-  <si>
-    <t>За кйна лодскаро тоячо скан за драса сэвэнак.</t>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>/ɾ/</t>
+  </si>
+  <si>
+    <t>"ɾ" (try pronouncing L right after pronouncing R)</t>
+  </si>
+  <si>
+    <t>The brave sailor sailed across the wide sea.</t>
   </si>
   <si>
     <t>recha</t>
@@ -603,16 +624,13 @@
     <t>рэча</t>
   </si>
   <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>/ɾ/</t>
-  </si>
-  <si>
-    <t>"ɾ" (try pronouncing L right after pronouncing R)</t>
-  </si>
-  <si>
-    <t>The brave sailor sailed across the wide sea.</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>/r/</t>
+  </si>
+  <si>
+    <t>trilled</t>
   </si>
   <si>
     <t>armank</t>
@@ -624,13 +642,10 @@
     <t>арманк</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>/r/</t>
-  </si>
-  <si>
-    <t>trilled</t>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>/ɖ͡ʐ/</t>
   </si>
   <si>
     <t>briyno</t>
@@ -642,10 +657,10 @@
     <t>брйно</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>/ɖ͡ʐ/</t>
+    <t>J</t>
+  </si>
+  <si>
+    <t>/ʤ/</t>
   </si>
   <si>
     <t>arsenk</t>
@@ -657,12 +672,6 @@
     <t>арсэнк</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>/ʤ/</t>
-  </si>
-  <si>
     <t>orfak</t>
   </si>
   <si>
@@ -681,6 +690,15 @@
     <t>орэтчэрт</t>
   </si>
   <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>cyrillic</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
     <t>biva</t>
   </si>
   <si>
@@ -690,13 +708,13 @@
     <t>бива</t>
   </si>
   <si>
-    <t>Letter</t>
-  </si>
-  <si>
-    <t>cyrillic</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Аа</t>
+  </si>
+  <si>
+    <t>ahak, ахак</t>
   </si>
   <si>
     <t>hemreviyta</t>
@@ -708,13 +726,13 @@
     <t>хэмрэвйта</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Аа</t>
-  </si>
-  <si>
-    <t>ahak, ахак</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Бб</t>
+  </si>
+  <si>
+    <t>biy, бй</t>
   </si>
   <si>
     <t>avtitiy</t>
@@ -726,13 +744,13 @@
     <t>автитй</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Бб</t>
-  </si>
-  <si>
-    <t>biy, бй</t>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Чч</t>
+  </si>
+  <si>
+    <t>cherslyosiba, чэрслёсиба</t>
   </si>
   <si>
     <t>flaba</t>
@@ -744,13 +762,13 @@
     <t>флаба</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>Чч</t>
-  </si>
-  <si>
-    <t>cherslyosiba, чэрслёсиба</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Дд</t>
+  </si>
+  <si>
+    <t>daska, даска</t>
   </si>
   <si>
     <t>orkel</t>
@@ -762,13 +780,13 @@
     <t>оркэл</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Дд</t>
-  </si>
-  <si>
-    <t>daska, даска</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Ээ</t>
+  </si>
+  <si>
+    <t>evnen, эвнэн</t>
   </si>
   <si>
     <t>lorn</t>
@@ -780,13 +798,13 @@
     <t>лорн</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Ээ</t>
-  </si>
-  <si>
-    <t>evnen, эвнэн</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Фф</t>
+  </si>
+  <si>
+    <t>femk, фэмк</t>
   </si>
   <si>
     <t>lornyo</t>
@@ -798,13 +816,13 @@
     <t>лорнё</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Фф</t>
-  </si>
-  <si>
-    <t>femk, фэмк</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Гг</t>
+  </si>
+  <si>
+    <t>gost, гост</t>
   </si>
   <si>
     <t>byedniy</t>
@@ -816,13 +834,13 @@
     <t>беднй</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Гг</t>
-  </si>
-  <si>
-    <t>gost, гост</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Хх</t>
+  </si>
+  <si>
+    <t>hov, хов</t>
   </si>
   <si>
     <t>pastakriy</t>
@@ -834,13 +852,13 @@
     <t>пастакрй</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Хх</t>
-  </si>
-  <si>
-    <t>hov, хов</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Ии</t>
+  </si>
+  <si>
+    <t>ili, или</t>
   </si>
   <si>
     <t>myach</t>
@@ -852,13 +870,10 @@
     <t>мяч</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Ии</t>
-  </si>
-  <si>
-    <t>ili, или</t>
+    <t>Жж</t>
+  </si>
+  <si>
+    <t>ijor, ижор</t>
   </si>
   <si>
     <t>dob</t>
@@ -870,10 +885,13 @@
     <t>доб</t>
   </si>
   <si>
-    <t>Жж</t>
-  </si>
-  <si>
-    <t>ijor, ижор</t>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Кк</t>
+  </si>
+  <si>
+    <t>ketsa, кэтса</t>
   </si>
   <si>
     <t>fogor</t>
@@ -885,13 +903,13 @@
     <t>фогор</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Кк</t>
-  </si>
-  <si>
-    <t>ketsa, кэтса</t>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>КШ, кш</t>
+  </si>
+  <si>
+    <t>khnorotal, кшноротао</t>
   </si>
   <si>
     <t>svoloch</t>
@@ -903,13 +921,13 @@
     <t>сволоч</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>КШ, кш</t>
-  </si>
-  <si>
-    <t>khnorotal, кшноротао</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Лл</t>
+  </si>
+  <si>
+    <t>losik, лосик</t>
   </si>
   <si>
     <t>remohilm</t>
@@ -921,13 +939,13 @@
     <t>рэмохилм</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Лл</t>
-  </si>
-  <si>
-    <t>losik, лосик</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Мм</t>
+  </si>
+  <si>
+    <t>miy, мй</t>
   </si>
   <si>
     <t>sheynatahilm</t>
@@ -939,13 +957,13 @@
     <t>шэйнатахилм</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Мм</t>
-  </si>
-  <si>
-    <t>miy, мй</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Нн</t>
+  </si>
+  <si>
+    <t>na, на</t>
   </si>
   <si>
     <t>rukat</t>
@@ -957,13 +975,13 @@
     <t>рукат</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Нн</t>
-  </si>
-  <si>
-    <t>na, на</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Оо</t>
+  </si>
+  <si>
+    <t>ojan, ойан</t>
   </si>
   <si>
     <t>broylev</t>
@@ -975,13 +993,10 @@
     <t>бройлэв</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Оо</t>
-  </si>
-  <si>
-    <t>ojan, ойан</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Пп</t>
   </si>
   <si>
     <t>joklunlodska</t>
@@ -993,10 +1008,7 @@
     <t>жоклунлодска</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Пп</t>
+    <t>Рр</t>
   </si>
   <si>
     <t>sbyaska</t>
@@ -1008,7 +1020,10 @@
     <t>сбяска</t>
   </si>
   <si>
-    <t>Рр</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Сс</t>
   </si>
   <si>
     <t>latas</t>
@@ -1020,10 +1035,10 @@
     <t>латас</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Сс</t>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Шш</t>
   </si>
   <si>
     <t>boroda</t>
@@ -1035,10 +1050,10 @@
     <t>борода</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Шш</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Тт</t>
   </si>
   <si>
     <t>nonula</t>
@@ -1050,10 +1065,10 @@
     <t>нонула</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Тт</t>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Цц</t>
   </si>
   <si>
     <t>loma</t>
@@ -1065,10 +1080,7 @@
     <t>лома</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>Цц</t>
+    <t>Уу</t>
   </si>
   <si>
     <t>keyda</t>
@@ -1080,7 +1092,13 @@
     <t>кэйда</t>
   </si>
   <si>
-    <t>Уу</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Вв</t>
+  </si>
+  <si>
+    <t>vat, ват</t>
   </si>
   <si>
     <t>nodoya</t>
@@ -1092,13 +1110,13 @@
     <t>нодоя</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Вв</t>
-  </si>
-  <si>
-    <t>vat, ват</t>
+    <t>Y, IY</t>
+  </si>
+  <si>
+    <t>Йй</t>
+  </si>
+  <si>
+    <t>biy, бй | yiyn, йийн</t>
   </si>
   <si>
     <t>stamiy</t>
@@ -1110,13 +1128,13 @@
     <t>стамй</t>
   </si>
   <si>
-    <t>Y, IY</t>
-  </si>
-  <si>
-    <t>Йй</t>
-  </si>
-  <si>
-    <t>biy, бй | yiyn, йийн</t>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>Яя</t>
+  </si>
+  <si>
+    <t>dagya, дагя</t>
   </si>
   <si>
     <t>kojnok</t>
@@ -1128,13 +1146,13 @@
     <t>кожнок</t>
   </si>
   <si>
-    <t>YA</t>
-  </si>
-  <si>
-    <t>Яя</t>
-  </si>
-  <si>
-    <t>dagya, дагя</t>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Ее</t>
+  </si>
+  <si>
+    <t>yev, ев</t>
   </si>
   <si>
     <t>styoza</t>
@@ -1146,13 +1164,13 @@
     <t>стёза</t>
   </si>
   <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Ее</t>
-  </si>
-  <si>
-    <t>yev, ев</t>
+    <t>YO</t>
+  </si>
+  <si>
+    <t>Ёё</t>
+  </si>
+  <si>
+    <t>byortolm, бётоум</t>
   </si>
   <si>
     <t>tonasikol</t>
@@ -1164,13 +1182,13 @@
     <t>тонасикол</t>
   </si>
   <si>
-    <t>YO</t>
-  </si>
-  <si>
-    <t>Ёё</t>
-  </si>
-  <si>
-    <t>byortolm, бётоум</t>
+    <t>YU</t>
+  </si>
+  <si>
+    <t>Юю</t>
+  </si>
+  <si>
+    <t>myutor, мютор</t>
   </si>
   <si>
     <t>vost</t>
@@ -1182,13 +1200,13 @@
     <t>вост</t>
   </si>
   <si>
-    <t>YU</t>
-  </si>
-  <si>
-    <t>Юю</t>
-  </si>
-  <si>
-    <t>myutor, мютор</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Зз</t>
+  </si>
+  <si>
+    <t>zikofal, зикофао</t>
   </si>
   <si>
     <t>brochyek</t>
@@ -1198,15 +1216,6 @@
   </si>
   <si>
     <t>брочек</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Зз</t>
-  </si>
-  <si>
-    <t>zikofal, зикофао</t>
   </si>
   <si>
     <t>ovig</t>
@@ -9104,16 +9113,16 @@
         <v>33</v>
       </c>
       <c r="G5" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"obetsa")</f>
-        <v>obetsa</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1002, REGEXMATCH(B2:B1002, H3)), 2, TRUE)"),"zyejiy")</f>
+        <v>zyejiy</v>
       </c>
       <c r="H5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"another (adjective, adverb)")</f>
-        <v>another (adjective, adverb)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alive (adjective)")</f>
+        <v>alive (adjective)</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"обэца")</f>
-        <v>обэца</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"зежй")</f>
+        <v>зежй</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>34</v>
@@ -9151,16 +9160,16 @@
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"neyka")</f>
-        <v>neyka</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zyejit")</f>
+        <v>zyejit</v>
       </c>
       <c r="H6" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"brother")</f>
-        <v>brother</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"to live")</f>
+        <v>to live</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"нэйка")</f>
-        <v>нэйка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"зежит")</f>
+        <v>зежит</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>40</v>
@@ -9199,18 +9208,9 @@
       <c r="F7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"etsa")</f>
-        <v>etsa</v>
-      </c>
-      <c r="H7" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"else, other")</f>
-        <v>else, other</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"еца")</f>
-        <v>еца</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="10" t="s">
         <v>46</v>
       </c>
@@ -9246,18 +9246,9 @@
         <v>39</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seyta")</f>
-        <v>seyta</v>
-      </c>
-      <c r="H8" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"exotic, otherworldly")</f>
-        <v>exotic, otherworldly</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"сэйта")</f>
-        <v>сэйта</v>
-      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -9293,18 +9284,9 @@
       <c r="F9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"babushka")</f>
-        <v>babushka</v>
-      </c>
-      <c r="H9" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"grandmother, grandma")</f>
-        <v>grandmother, grandma</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"бабушка")</f>
-        <v>бабушка</v>
-      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -9340,18 +9322,9 @@
       <c r="F10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lyosabyo")</f>
-        <v>lyosabyo</v>
-      </c>
-      <c r="H10" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lover, significant other")</f>
-        <v>lover, significant other</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"лёсабё")</f>
-        <v>лёсабё</v>
-      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="10" t="s">
         <v>62</v>
       </c>
@@ -9387,18 +9360,9 @@
       <c r="F11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"meloma")</f>
-        <v>meloma</v>
-      </c>
-      <c r="H11" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mother")</f>
-        <v>mother</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"мэлома")</f>
-        <v>мэлома</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="10" t="s">
         <v>68</v>
       </c>
@@ -9785,13 +9749,13 @@
       <c r="X21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -9857,13 +9821,13 @@
       <c r="X23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -9936,13 +9900,13 @@
       <c r="X25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="15" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -9976,13 +9940,13 @@
       <c r="X26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -10013,13 +9977,13 @@
       <c r="X27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -10053,13 +10017,13 @@
       <c r="X28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -10124,13 +10088,13 @@
       <c r="X30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="15" t="s">
         <v>170</v>
       </c>
       <c r="D31" s="30"/>
@@ -10198,13 +10162,13 @@
       <c r="X32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -10238,13 +10202,13 @@
       <c r="X33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="15" t="s">
         <v>188</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -10318,13 +10282,13 @@
       <c r="X35" s="18"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="10" t="s">
         <v>202</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -10356,13 +10320,13 @@
       <c r="X36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="15" t="s">
         <v>208</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -10392,13 +10356,13 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -10428,13 +10392,13 @@
       <c r="X38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="15" t="s">
         <v>218</v>
       </c>
       <c r="D39" s="10"/>
@@ -10460,13 +10424,13 @@
       <c r="X39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D40" s="10"/>
@@ -10568,13 +10532,13 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="15" t="s">
         <v>236</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -10606,13 +10570,13 @@
       <c r="X43" s="18"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="10" t="s">
         <v>242</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -10682,13 +10646,13 @@
       <c r="X45" s="18"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="15" t="s">
         <v>254</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -10720,10 +10684,10 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -10758,13 +10722,13 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -11062,13 +11026,13 @@
       <c r="X55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="15" t="s">
         <v>313</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -11174,13 +11138,13 @@
       <c r="X58" s="18"/>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="10" t="s">
         <v>330</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -11318,13 +11282,13 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="15" t="s">
         <v>349</v>
       </c>
       <c r="D63" s="15" t="s">
@@ -11353,13 +11317,13 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="10" t="s">
         <v>354</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -11427,13 +11391,13 @@
       <c r="X65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="15" t="s">
         <v>364</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -11465,13 +11429,13 @@
       <c r="X66" s="18"/>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="10" t="s">
         <v>370</v>
       </c>
       <c r="D67" s="15" t="s">
@@ -11579,13 +11543,13 @@
       <c r="X69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -11655,13 +11619,13 @@
       <c r="X71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="10" t="s">
         <v>400</v>
       </c>
       <c r="G72" s="18"/>
@@ -11713,13 +11677,13 @@
       <c r="X73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D74" s="18"/>
@@ -11841,13 +11805,13 @@
       <c r="X77" s="18"/>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="10" t="s">
         <v>418</v>
       </c>
       <c r="D78" s="18"/>
@@ -11937,13 +11901,13 @@
       <c r="X80" s="18"/>
     </row>
     <row r="81">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D81" s="18"/>
@@ -12001,13 +11965,13 @@
       <c r="X82" s="18"/>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D83" s="18"/>
@@ -12033,13 +11997,13 @@
       <c r="X83" s="18"/>
     </row>
     <row r="84">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D84" s="18"/>
@@ -12097,13 +12061,13 @@
       <c r="X85" s="18"/>
     </row>
     <row r="86">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="10" t="s">
         <v>442</v>
       </c>
       <c r="D86" s="18"/>
@@ -12225,13 +12189,13 @@
       <c r="X89" s="18"/>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="15" t="s">
         <v>454</v>
       </c>
       <c r="D90" s="18"/>
@@ -12257,13 +12221,13 @@
       <c r="X90" s="18"/>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="10" t="s">
         <v>457</v>
       </c>
       <c r="D91" s="18"/>
@@ -12388,10 +12352,10 @@
       <c r="A95" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="15" t="s">
         <v>469</v>
       </c>
       <c r="D95" s="18"/>
@@ -12420,10 +12384,10 @@
       <c r="A96" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="10" t="s">
         <v>472</v>
       </c>
       <c r="D96" s="18"/>
@@ -12449,13 +12413,13 @@
       <c r="X96" s="18"/>
     </row>
     <row r="97">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="15" t="s">
         <v>475</v>
       </c>
       <c r="D97" s="18"/>
@@ -12545,13 +12509,13 @@
       <c r="X99" s="18"/>
     </row>
     <row r="100">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="10" t="s">
         <v>484</v>
       </c>
       <c r="D100" s="18"/>
@@ -12577,13 +12541,13 @@
       <c r="X100" s="18"/>
     </row>
     <row r="101">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="15" t="s">
         <v>487</v>
       </c>
       <c r="D101" s="18"/>
@@ -12609,13 +12573,13 @@
       <c r="X101" s="18"/>
     </row>
     <row r="102">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D102" s="18"/>
@@ -12641,13 +12605,13 @@
       <c r="X102" s="18"/>
     </row>
     <row r="103">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="15" t="s">
         <v>493</v>
       </c>
       <c r="D103" s="18"/>
@@ -12705,13 +12669,13 @@
       <c r="X104" s="18"/>
     </row>
     <row r="105">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="10" t="s">
         <v>499</v>
       </c>
       <c r="D105" s="18"/>
@@ -12801,13 +12765,13 @@
       <c r="X107" s="18"/>
     </row>
     <row r="108">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="15" t="s">
         <v>508</v>
       </c>
       <c r="D108" s="18"/>
@@ -12865,13 +12829,13 @@
       <c r="X109" s="18"/>
     </row>
     <row r="110">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="10" t="s">
         <v>514</v>
       </c>
       <c r="D110" s="18"/>
@@ -12897,13 +12861,13 @@
       <c r="X110" s="18"/>
     </row>
     <row r="111">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="15" t="s">
         <v>517</v>
       </c>
       <c r="D111" s="18"/>
@@ -12929,13 +12893,13 @@
       <c r="X111" s="18"/>
     </row>
     <row r="112">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="10" t="s">
         <v>520</v>
       </c>
       <c r="D112" s="18"/>
@@ -12961,13 +12925,13 @@
       <c r="X112" s="18"/>
     </row>
     <row r="113">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="15" t="s">
         <v>523</v>
       </c>
       <c r="D113" s="18"/>
@@ -12993,13 +12957,13 @@
       <c r="X113" s="18"/>
     </row>
     <row r="114">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="10" t="s">
         <v>526</v>
       </c>
       <c r="D114" s="18"/>
@@ -13249,13 +13213,13 @@
       <c r="X121" s="18"/>
     </row>
     <row r="122">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D122" s="18"/>
@@ -13313,13 +13277,13 @@
       <c r="X123" s="18"/>
     </row>
     <row r="124">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="10" t="s">
         <v>556</v>
       </c>
       <c r="D124" s="18"/>
@@ -13377,13 +13341,13 @@
       <c r="X125" s="18"/>
     </row>
     <row r="126">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="15" t="s">
         <v>562</v>
       </c>
       <c r="D126" s="18"/>
@@ -13473,13 +13437,13 @@
       <c r="X128" s="18"/>
     </row>
     <row r="129">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="10" t="s">
         <v>571</v>
       </c>
       <c r="D129" s="18"/>
@@ -13537,10 +13501,10 @@
       <c r="X130" s="18"/>
     </row>
     <row r="131">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="15" t="s">
         <v>576</v>
       </c>
       <c r="C131" s="15" t="s">
@@ -13569,10 +13533,10 @@
       <c r="X131" s="18"/>
     </row>
     <row r="132">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="10" t="s">
         <v>579</v>
       </c>
       <c r="C132" s="15" t="s">
@@ -13665,13 +13629,13 @@
       <c r="X134" s="18"/>
     </row>
     <row r="135">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="15" t="s">
         <v>589</v>
       </c>
       <c r="D135" s="18"/>
@@ -13697,13 +13661,13 @@
       <c r="X135" s="18"/>
     </row>
     <row r="136">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="10" t="s">
         <v>592</v>
       </c>
       <c r="D136" s="18"/>
@@ -13729,10 +13693,10 @@
       <c r="X136" s="18"/>
     </row>
     <row r="137">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="15" t="s">
         <v>594</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -13761,13 +13725,13 @@
       <c r="X137" s="18"/>
     </row>
     <row r="138">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="15" t="s">
         <v>598</v>
       </c>
       <c r="D138" s="18"/>
@@ -13799,7 +13763,7 @@
       <c r="B139" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="10" t="s">
         <v>601</v>
       </c>
       <c r="D139" s="18"/>
@@ -13825,13 +13789,13 @@
       <c r="X139" s="18"/>
     </row>
     <row r="140">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="15" t="s">
         <v>604</v>
       </c>
       <c r="D140" s="18"/>
@@ -13889,13 +13853,13 @@
       <c r="X141" s="18"/>
     </row>
     <row r="142">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="10" t="s">
         <v>610</v>
       </c>
       <c r="D142" s="18"/>
@@ -14017,13 +13981,13 @@
       <c r="X145" s="18"/>
     </row>
     <row r="146">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="15" t="s">
         <v>622</v>
       </c>
       <c r="D146" s="18"/>
@@ -14145,13 +14109,13 @@
       <c r="X149" s="18"/>
     </row>
     <row r="150">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="10" t="s">
         <v>634</v>
       </c>
       <c r="D150" s="18"/>
@@ -14177,13 +14141,13 @@
       <c r="X150" s="18"/>
     </row>
     <row r="151">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="15" t="s">
         <v>637</v>
       </c>
       <c r="D151" s="18"/>
@@ -14241,13 +14205,13 @@
       <c r="X152" s="18"/>
     </row>
     <row r="153">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="10" t="s">
         <v>643</v>
       </c>
       <c r="D153" s="18"/>
@@ -14373,10 +14337,10 @@
         <v>653</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>226</v>
+        <v>654</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
@@ -14402,10 +14366,10 @@
     </row>
     <row r="158">
       <c r="A158" s="15" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>656</v>
+        <v>226</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>657</v>
@@ -14433,13 +14397,13 @@
       <c r="X158" s="18"/>
     </row>
     <row r="159">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="15" t="s">
         <v>660</v>
       </c>
       <c r="D159" s="18"/>
@@ -14593,13 +14557,13 @@
       <c r="X163" s="18"/>
     </row>
     <row r="164">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="10" t="s">
         <v>675</v>
       </c>
       <c r="D164" s="18"/>
@@ -14625,13 +14589,13 @@
       <c r="X164" s="18"/>
     </row>
     <row r="165">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="15" t="s">
         <v>678</v>
       </c>
       <c r="D165" s="18"/>
@@ -14721,13 +14685,13 @@
       <c r="X167" s="18"/>
     </row>
     <row r="168">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="10" t="s">
         <v>687</v>
       </c>
       <c r="D168" s="18"/>
@@ -14849,13 +14813,13 @@
       <c r="X171" s="18"/>
     </row>
     <row r="172">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="15" t="s">
         <v>699</v>
       </c>
       <c r="D172" s="18"/>
@@ -14913,13 +14877,13 @@
       <c r="X173" s="18"/>
     </row>
     <row r="174">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="10" t="s">
         <v>705</v>
       </c>
       <c r="D174" s="18"/>
@@ -14945,13 +14909,13 @@
       <c r="X174" s="18"/>
     </row>
     <row r="175">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="15" t="s">
         <v>708</v>
       </c>
       <c r="D175" s="18"/>
@@ -15041,13 +15005,13 @@
       <c r="X177" s="18"/>
     </row>
     <row r="178">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" s="10" t="s">
         <v>717</v>
       </c>
       <c r="D178" s="18"/>
@@ -15105,13 +15069,13 @@
       <c r="X179" s="18"/>
     </row>
     <row r="180">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="15" t="s">
         <v>723</v>
       </c>
       <c r="D180" s="18"/>
@@ -15137,13 +15101,13 @@
       <c r="X180" s="18"/>
     </row>
     <row r="181">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="10" t="s">
         <v>726</v>
       </c>
       <c r="D181" s="18"/>
@@ -15233,13 +15197,13 @@
       <c r="X183" s="18"/>
     </row>
     <row r="184">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="15" t="s">
         <v>735</v>
       </c>
       <c r="D184" s="18"/>
@@ -15265,13 +15229,13 @@
       <c r="X184" s="18"/>
     </row>
     <row r="185">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="C185" s="15" t="s">
+      <c r="C185" s="10" t="s">
         <v>738</v>
       </c>
       <c r="D185" s="18"/>
@@ -15297,13 +15261,13 @@
       <c r="X185" s="18"/>
     </row>
     <row r="186">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="15" t="s">
         <v>741</v>
       </c>
       <c r="D186" s="18"/>
@@ -15361,13 +15325,13 @@
       <c r="X187" s="18"/>
     </row>
     <row r="188">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C188" s="10" t="s">
         <v>747</v>
       </c>
       <c r="D188" s="18"/>
@@ -15457,13 +15421,13 @@
       <c r="X190" s="18"/>
     </row>
     <row r="191">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="15" t="s">
         <v>756</v>
       </c>
       <c r="D191" s="18"/>
@@ -15489,13 +15453,13 @@
       <c r="X191" s="18"/>
     </row>
     <row r="192">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" s="10" t="s">
         <v>759</v>
       </c>
       <c r="D192" s="18"/>
@@ -15585,13 +15549,13 @@
       <c r="X194" s="18"/>
     </row>
     <row r="195">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="15" t="s">
         <v>768</v>
       </c>
       <c r="D195" s="18"/>
@@ -15681,13 +15645,13 @@
       <c r="X197" s="18"/>
     </row>
     <row r="198">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="10" t="s">
         <v>776</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="10" t="s">
         <v>777</v>
       </c>
       <c r="D198" s="18"/>
@@ -15841,13 +15805,13 @@
       <c r="X202" s="18"/>
     </row>
     <row r="203">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="15" t="s">
         <v>792</v>
       </c>
       <c r="D203" s="18"/>
@@ -15937,13 +15901,13 @@
       <c r="X205" s="18"/>
     </row>
     <row r="206">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="10" t="s">
         <v>801</v>
       </c>
       <c r="D206" s="18"/>
@@ -15969,13 +15933,13 @@
       <c r="X206" s="18"/>
     </row>
     <row r="207">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="15" t="s">
         <v>804</v>
       </c>
       <c r="D207" s="18"/>
@@ -16033,10 +15997,10 @@
       <c r="X208" s="18"/>
     </row>
     <row r="209">
-      <c r="A209" s="15" t="s">
+      <c r="A209" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="10" t="s">
         <v>809</v>
       </c>
       <c r="C209" s="10" t="s">
@@ -16065,10 +16029,10 @@
       <c r="X209" s="18"/>
     </row>
     <row r="210">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="15" t="s">
         <v>812</v>
       </c>
       <c r="C210" s="10" t="s">
@@ -16097,13 +16061,13 @@
       <c r="X210" s="18"/>
     </row>
     <row r="211">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="10" t="s">
         <v>815</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="10" t="s">
         <v>816</v>
       </c>
       <c r="D211" s="18"/>
@@ -16257,13 +16221,13 @@
       <c r="X215" s="18"/>
     </row>
     <row r="216">
-      <c r="A216" s="10" t="s">
+      <c r="A216" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="15" t="s">
         <v>831</v>
       </c>
       <c r="D216" s="18"/>
@@ -16289,13 +16253,13 @@
       <c r="X216" s="18"/>
     </row>
     <row r="217">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C217" s="10" t="s">
         <v>834</v>
       </c>
       <c r="D217" s="18"/>
@@ -16321,13 +16285,13 @@
       <c r="X217" s="18"/>
     </row>
     <row r="218">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="15" t="s">
         <v>837</v>
       </c>
       <c r="D218" s="18"/>
@@ -16449,13 +16413,13 @@
       <c r="X221" s="18"/>
     </row>
     <row r="222">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C222" s="10" t="s">
         <v>849</v>
       </c>
       <c r="D222" s="18"/>
@@ -16577,13 +16541,13 @@
       <c r="X225" s="18"/>
     </row>
     <row r="226">
-      <c r="A226" s="10" t="s">
+      <c r="A226" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="15" t="s">
         <v>861</v>
       </c>
       <c r="D226" s="18"/>
@@ -16641,13 +16605,13 @@
       <c r="X227" s="18"/>
     </row>
     <row r="228">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="10" t="s">
         <v>867</v>
       </c>
       <c r="D228" s="18"/>
@@ -16673,13 +16637,13 @@
       <c r="X228" s="18"/>
     </row>
     <row r="229">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="B229" s="20" t="s">
+      <c r="B229" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C229" s="15" t="s">
         <v>870</v>
       </c>
       <c r="D229" s="18"/>
@@ -16705,10 +16669,10 @@
       <c r="X229" s="18"/>
     </row>
     <row r="230">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="20" t="s">
         <v>872</v>
       </c>
       <c r="C230" s="10" t="s">
@@ -16775,7 +16739,7 @@
       <c r="B232" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="10" t="s">
         <v>879</v>
       </c>
       <c r="D232" s="18"/>
@@ -16807,7 +16771,7 @@
       <c r="B233" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="C233" s="10" t="s">
+      <c r="C233" s="15" t="s">
         <v>882</v>
       </c>
       <c r="D233" s="18"/>
@@ -16833,13 +16797,13 @@
       <c r="X233" s="18"/>
     </row>
     <row r="234">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="10" t="s">
         <v>885</v>
       </c>
       <c r="D234" s="18"/>
@@ -16865,13 +16829,13 @@
       <c r="X234" s="18"/>
     </row>
     <row r="235">
-      <c r="A235" s="10" t="s">
+      <c r="A235" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="C235" s="10" t="s">
+      <c r="C235" s="15" t="s">
         <v>888</v>
       </c>
       <c r="D235" s="18"/>
@@ -16929,13 +16893,13 @@
       <c r="X236" s="18"/>
     </row>
     <row r="237">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="C237" s="10" t="s">
         <v>894</v>
       </c>
       <c r="D237" s="18"/>
@@ -16961,13 +16925,13 @@
       <c r="X237" s="18"/>
     </row>
     <row r="238">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C238" s="15" t="s">
         <v>897</v>
       </c>
       <c r="D238" s="18"/>
@@ -17089,13 +17053,13 @@
       <c r="X241" s="18"/>
     </row>
     <row r="242">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="10" t="s">
         <v>908</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="10" t="s">
         <v>909</v>
       </c>
       <c r="D242" s="18"/>
@@ -17121,13 +17085,13 @@
       <c r="X242" s="18"/>
     </row>
     <row r="243">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C243" s="15" t="s">
         <v>912</v>
       </c>
       <c r="D243" s="18"/>
@@ -17313,13 +17277,13 @@
       <c r="X248" s="18"/>
     </row>
     <row r="249">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="10" t="s">
         <v>930</v>
       </c>
       <c r="D249" s="18"/>
@@ -17345,13 +17309,13 @@
       <c r="X249" s="18"/>
     </row>
     <row r="250">
-      <c r="A250" s="10" t="s">
+      <c r="A250" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C250" s="10" t="s">
+      <c r="C250" s="15" t="s">
         <v>933</v>
       </c>
       <c r="D250" s="18"/>
@@ -17377,13 +17341,13 @@
       <c r="X250" s="18"/>
     </row>
     <row r="251">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="10" t="s">
         <v>936</v>
       </c>
       <c r="D251" s="18"/>
@@ -17409,13 +17373,13 @@
       <c r="X251" s="18"/>
     </row>
     <row r="252">
-      <c r="A252" s="10" t="s">
+      <c r="A252" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C252" s="10" t="s">
+      <c r="C252" s="15" t="s">
         <v>939</v>
       </c>
       <c r="D252" s="18"/>
@@ -17447,7 +17411,7 @@
       <c r="B253" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="10" t="s">
         <v>942</v>
       </c>
       <c r="D253" s="18"/>
@@ -17479,7 +17443,7 @@
       <c r="B254" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="C254" s="10" t="s">
+      <c r="C254" s="15" t="s">
         <v>945</v>
       </c>
       <c r="D254" s="18"/>
@@ -17505,13 +17469,13 @@
       <c r="X254" s="18"/>
     </row>
     <row r="255">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="10" t="s">
         <v>948</v>
       </c>
       <c r="D255" s="18"/>
@@ -17569,13 +17533,13 @@
       <c r="X256" s="18"/>
     </row>
     <row r="257">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="C257" s="10" t="s">
+      <c r="C257" s="15" t="s">
         <v>954</v>
       </c>
       <c r="D257" s="18"/>
@@ -17639,7 +17603,7 @@
       <c r="B259" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="10" t="s">
         <v>960</v>
       </c>
       <c r="D259" s="18"/>
@@ -17671,7 +17635,7 @@
       <c r="B260" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="C260" s="10" t="s">
+      <c r="C260" s="15" t="s">
         <v>963</v>
       </c>
       <c r="D260" s="18"/>
@@ -17697,13 +17661,13 @@
       <c r="X260" s="18"/>
     </row>
     <row r="261">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="10" t="s">
         <v>966</v>
       </c>
       <c r="D261" s="18"/>
@@ -17761,13 +17725,13 @@
       <c r="X262" s="18"/>
     </row>
     <row r="263">
-      <c r="A263" s="10" t="s">
+      <c r="A263" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="C263" s="10" t="s">
+      <c r="C263" s="15" t="s">
         <v>972</v>
       </c>
       <c r="D263" s="18"/>
@@ -17825,13 +17789,13 @@
       <c r="X264" s="18"/>
     </row>
     <row r="265">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="10" t="s">
         <v>978</v>
       </c>
       <c r="D265" s="18"/>
@@ -17921,13 +17885,13 @@
       <c r="X267" s="18"/>
     </row>
     <row r="268">
-      <c r="A268" s="10" t="s">
+      <c r="A268" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="C268" s="10" t="s">
+      <c r="C268" s="15" t="s">
         <v>987</v>
       </c>
       <c r="D268" s="18"/>
@@ -17953,13 +17917,13 @@
       <c r="X268" s="18"/>
     </row>
     <row r="269">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="10" t="s">
         <v>990</v>
       </c>
       <c r="D269" s="18"/>
@@ -18049,13 +18013,13 @@
       <c r="X271" s="18"/>
     </row>
     <row r="272">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="C272" s="10" t="s">
+      <c r="C272" s="15" t="s">
         <v>999</v>
       </c>
       <c r="D272" s="18"/>
@@ -18209,13 +18173,13 @@
       <c r="X276" s="18"/>
     </row>
     <row r="277">
-      <c r="A277" s="15" t="s">
+      <c r="A277" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="10" t="s">
         <v>1014</v>
       </c>
       <c r="D277" s="18"/>
@@ -18241,13 +18205,13 @@
       <c r="X277" s="18"/>
     </row>
     <row r="278">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="C278" s="10" t="s">
+      <c r="C278" s="15" t="s">
         <v>1017</v>
       </c>
       <c r="D278" s="18"/>
@@ -18273,13 +18237,13 @@
       <c r="X278" s="18"/>
     </row>
     <row r="279">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="10" t="s">
         <v>1019</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="D279" s="18"/>
@@ -18305,13 +18269,13 @@
       <c r="X279" s="18"/>
     </row>
     <row r="280">
-      <c r="A280" s="10" t="s">
+      <c r="A280" s="15" t="s">
         <v>1021</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="15" t="s">
         <v>1022</v>
       </c>
-      <c r="C280" s="10" t="s">
+      <c r="C280" s="15" t="s">
         <v>1023</v>
       </c>
       <c r="D280" s="18"/>
@@ -18337,13 +18301,13 @@
       <c r="X280" s="18"/>
     </row>
     <row r="281">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="10" t="s">
         <v>1026</v>
       </c>
       <c r="D281" s="18"/>
@@ -18369,13 +18333,13 @@
       <c r="X281" s="18"/>
     </row>
     <row r="282">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="15" t="s">
         <v>1027</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C282" s="10" t="s">
+      <c r="C282" s="15" t="s">
         <v>1029</v>
       </c>
       <c r="D282" s="18"/>
@@ -18465,13 +18429,13 @@
       <c r="X284" s="18"/>
     </row>
     <row r="285">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="B285" s="15" t="s">
+      <c r="B285" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="10" t="s">
         <v>1038</v>
       </c>
       <c r="D285" s="18"/>
@@ -18625,13 +18589,13 @@
       <c r="X289" s="18"/>
     </row>
     <row r="290">
-      <c r="A290" s="10" t="s">
+      <c r="A290" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="C290" s="10" t="s">
+      <c r="C290" s="15" t="s">
         <v>1053</v>
       </c>
       <c r="D290" s="18"/>
@@ -18657,13 +18621,13 @@
       <c r="X290" s="18"/>
     </row>
     <row r="291">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="B291" s="15" t="s">
+      <c r="B291" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="10" t="s">
         <v>1056</v>
       </c>
       <c r="D291" s="18"/>
@@ -18689,13 +18653,13 @@
       <c r="X291" s="18"/>
     </row>
     <row r="292">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="15" t="s">
         <v>1058</v>
       </c>
-      <c r="C292" s="10" t="s">
+      <c r="C292" s="15" t="s">
         <v>1059</v>
       </c>
       <c r="D292" s="18"/>
@@ -18721,13 +18685,13 @@
       <c r="X292" s="18"/>
     </row>
     <row r="293">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B293" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="10" t="s">
         <v>1062</v>
       </c>
       <c r="D293" s="18"/>
@@ -18785,13 +18749,13 @@
       <c r="X294" s="18"/>
     </row>
     <row r="295">
-      <c r="A295" s="10" t="s">
+      <c r="A295" s="15" t="s">
         <v>1066</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="C295" s="10" t="s">
+      <c r="C295" s="15" t="s">
         <v>1068</v>
       </c>
       <c r="D295" s="18"/>
@@ -18817,13 +18781,13 @@
       <c r="X295" s="18"/>
     </row>
     <row r="296">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="B296" s="15" t="s">
+      <c r="B296" s="10" t="s">
         <v>1070</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="10" t="s">
         <v>1071</v>
       </c>
       <c r="D296" s="18"/>
@@ -18945,13 +18909,13 @@
       <c r="X299" s="18"/>
     </row>
     <row r="300">
-      <c r="A300" s="10" t="s">
+      <c r="A300" s="15" t="s">
         <v>1081</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="C300" s="10" t="s">
+      <c r="C300" s="15" t="s">
         <v>1083</v>
       </c>
       <c r="D300" s="18"/>
@@ -18977,13 +18941,13 @@
       <c r="X300" s="18"/>
     </row>
     <row r="301">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="B301" s="10" t="s">
         <v>1085</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C301" s="10" t="s">
         <v>1086</v>
       </c>
       <c r="D301" s="18"/>
@@ -19041,13 +19005,13 @@
       <c r="X302" s="18"/>
     </row>
     <row r="303">
-      <c r="A303" s="10" t="s">
+      <c r="A303" s="15" t="s">
         <v>1090</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="C303" s="10" t="s">
+      <c r="C303" s="15" t="s">
         <v>1092</v>
       </c>
       <c r="D303" s="18"/>
@@ -19105,13 +19069,13 @@
       <c r="X304" s="18"/>
     </row>
     <row r="305">
-      <c r="A305" s="15" t="s">
+      <c r="A305" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B305" s="10" t="s">
         <v>1097</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="10" t="s">
         <v>1098</v>
       </c>
       <c r="D305" s="18"/>
@@ -19137,13 +19101,13 @@
       <c r="X305" s="18"/>
     </row>
     <row r="306">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="15" t="s">
         <v>1099</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="15" t="s">
         <v>1100</v>
       </c>
-      <c r="C306" s="10" t="s">
+      <c r="C306" s="15" t="s">
         <v>1101</v>
       </c>
       <c r="D306" s="18"/>
@@ -19233,13 +19197,13 @@
       <c r="X308" s="18"/>
     </row>
     <row r="309">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="10" t="s">
         <v>1109</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C309" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="D309" s="18"/>
@@ -19297,13 +19261,13 @@
       <c r="X310" s="18"/>
     </row>
     <row r="311">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="15" t="s">
         <v>1114</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="15" t="s">
         <v>1115</v>
       </c>
-      <c r="C311" s="10" t="s">
+      <c r="C311" s="15" t="s">
         <v>1116</v>
       </c>
       <c r="D311" s="18"/>
@@ -19329,13 +19293,13 @@
       <c r="X311" s="18"/>
     </row>
     <row r="312">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="B312" s="15" t="s">
+      <c r="B312" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="10" t="s">
         <v>1119</v>
       </c>
       <c r="D312" s="18"/>
@@ -19361,13 +19325,13 @@
       <c r="X312" s="18"/>
     </row>
     <row r="313">
-      <c r="A313" s="10" t="s">
+      <c r="A313" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="15" t="s">
         <v>1121</v>
       </c>
-      <c r="C313" s="10" t="s">
+      <c r="C313" s="15" t="s">
         <v>1122</v>
       </c>
       <c r="D313" s="18"/>
@@ -19393,7 +19357,7 @@
       <c r="X313" s="18"/>
     </row>
     <row r="314">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="10" t="s">
         <v>1123</v>
       </c>
       <c r="B314" s="10" t="s">
@@ -19428,10 +19392,10 @@
       <c r="A315" s="15" t="s">
         <v>1126</v>
       </c>
-      <c r="B315" s="15" t="s">
+      <c r="B315" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="10" t="s">
         <v>1128</v>
       </c>
       <c r="D315" s="18"/>
@@ -19521,13 +19485,13 @@
       <c r="X317" s="18"/>
     </row>
     <row r="318">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="15" t="s">
         <v>1135</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="15" t="s">
         <v>1136</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="C318" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="D318" s="18"/>
@@ -19585,13 +19549,13 @@
       <c r="X319" s="18"/>
     </row>
     <row r="320">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="B320" s="15" t="s">
+      <c r="B320" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="C320" s="15" t="s">
+      <c r="C320" s="10" t="s">
         <v>1143</v>
       </c>
       <c r="D320" s="18"/>
@@ -19745,13 +19709,13 @@
       <c r="X324" s="18"/>
     </row>
     <row r="325">
-      <c r="A325" s="10" t="s">
+      <c r="A325" s="15" t="s">
         <v>1156</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="15" t="s">
         <v>1157</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="15" t="s">
         <v>1158</v>
       </c>
       <c r="D325" s="18"/>
@@ -19841,13 +19805,13 @@
       <c r="X327" s="18"/>
     </row>
     <row r="328">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="10" t="s">
         <v>1165</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="10" t="s">
         <v>1167</v>
       </c>
       <c r="D328" s="18"/>
@@ -19937,13 +19901,13 @@
       <c r="X330" s="18"/>
     </row>
     <row r="331">
-      <c r="A331" s="10" t="s">
+      <c r="A331" s="15" t="s">
         <v>1174</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="15" t="s">
         <v>1175</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C331" s="15" t="s">
         <v>1176</v>
       </c>
       <c r="D331" s="18"/>
@@ -20033,13 +19997,13 @@
       <c r="X333" s="18"/>
     </row>
     <row r="334">
-      <c r="A334" s="15" t="s">
+      <c r="A334" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="B334" s="15" t="s">
+      <c r="B334" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="C334" s="15" t="s">
+      <c r="C334" s="10" t="s">
         <v>1185</v>
       </c>
       <c r="D334" s="18"/>
@@ -20065,13 +20029,13 @@
       <c r="X334" s="18"/>
     </row>
     <row r="335">
-      <c r="A335" s="10" t="s">
+      <c r="A335" s="15" t="s">
         <v>1186</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="15" t="s">
         <v>1187</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="C335" s="15" t="s">
         <v>1188</v>
       </c>
       <c r="D335" s="18"/>
@@ -20097,13 +20061,13 @@
       <c r="X335" s="18"/>
     </row>
     <row r="336">
-      <c r="A336" s="15" t="s">
+      <c r="A336" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B336" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="C336" s="15" t="s">
+      <c r="C336" s="10" t="s">
         <v>1191</v>
       </c>
       <c r="D336" s="18"/>
@@ -20133,10 +20097,10 @@
         <v>1192</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D337" s="18"/>
       <c r="E337" s="18"/>
@@ -20162,7 +20126,7 @@
     </row>
     <row r="338">
       <c r="A338" s="15" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B338" s="15" t="s">
         <v>1195</v>
@@ -20193,13 +20157,13 @@
       <c r="X338" s="18"/>
     </row>
     <row r="339">
-      <c r="A339" s="10" t="s">
+      <c r="A339" s="15" t="s">
         <v>1197</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="15" t="s">
         <v>1198</v>
       </c>
-      <c r="C339" s="10" t="s">
+      <c r="C339" s="15" t="s">
         <v>1199</v>
       </c>
       <c r="D339" s="18"/>
@@ -20353,7 +20317,7 @@
       <c r="X343" s="18"/>
     </row>
     <row r="344">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="10" t="s">
         <v>1212</v>
       </c>
       <c r="B344" s="10" t="s">
@@ -20385,7 +20349,7 @@
       <c r="X344" s="18"/>
     </row>
     <row r="345">
-      <c r="A345" s="10" t="s">
+      <c r="A345" s="15" t="s">
         <v>1215</v>
       </c>
       <c r="B345" s="10" t="s">
@@ -20673,13 +20637,13 @@
       <c r="X353" s="18"/>
     </row>
     <row r="354">
-      <c r="A354" s="15" t="s">
+      <c r="A354" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="B354" s="15" t="s">
+      <c r="B354" s="10" t="s">
         <v>1243</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="C354" s="10" t="s">
         <v>1244</v>
       </c>
       <c r="D354" s="18"/>
@@ -20801,13 +20765,13 @@
       <c r="X357" s="18"/>
     </row>
     <row r="358">
-      <c r="A358" s="36" t="s">
+      <c r="A358" s="15" t="s">
         <v>1254</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="15" t="s">
         <v>1255</v>
       </c>
-      <c r="C358" s="10" t="s">
+      <c r="C358" s="15" t="s">
         <v>1256</v>
       </c>
       <c r="D358" s="18"/>
@@ -20833,7 +20797,7 @@
       <c r="X358" s="18"/>
     </row>
     <row r="359">
-      <c r="A359" s="10" t="s">
+      <c r="A359" s="36" t="s">
         <v>1257</v>
       </c>
       <c r="B359" s="10" t="s">
@@ -20865,13 +20829,13 @@
       <c r="X359" s="18"/>
     </row>
     <row r="360">
-      <c r="A360" s="15" t="s">
+      <c r="A360" s="10" t="s">
         <v>1260</v>
       </c>
-      <c r="B360" s="15" t="s">
+      <c r="B360" s="10" t="s">
         <v>1261</v>
       </c>
-      <c r="C360" s="15" t="s">
+      <c r="C360" s="10" t="s">
         <v>1262</v>
       </c>
       <c r="D360" s="18"/>
@@ -20993,13 +20957,13 @@
       <c r="X363" s="18"/>
     </row>
     <row r="364">
-      <c r="A364" s="20" t="s">
+      <c r="A364" s="15" t="s">
         <v>1272</v>
       </c>
-      <c r="B364" s="20" t="s">
+      <c r="B364" s="15" t="s">
         <v>1273</v>
       </c>
-      <c r="C364" s="10" t="s">
+      <c r="C364" s="15" t="s">
         <v>1274</v>
       </c>
       <c r="D364" s="18"/>
@@ -21025,10 +20989,10 @@
       <c r="X364" s="18"/>
     </row>
     <row r="365">
-      <c r="A365" s="10" t="s">
+      <c r="A365" s="20" t="s">
         <v>1275</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="20" t="s">
         <v>1276</v>
       </c>
       <c r="C365" s="10" t="s">
@@ -21153,13 +21117,13 @@
       <c r="X368" s="18"/>
     </row>
     <row r="369">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B369" s="10" t="s">
         <v>1288</v>
       </c>
-      <c r="C369" s="15" t="s">
+      <c r="C369" s="10" t="s">
         <v>1289</v>
       </c>
       <c r="D369" s="18"/>
@@ -21185,13 +21149,13 @@
       <c r="X369" s="18"/>
     </row>
     <row r="370">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="15" t="s">
         <v>1290</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="15" t="s">
         <v>1291</v>
       </c>
-      <c r="C370" s="10" t="s">
+      <c r="C370" s="15" t="s">
         <v>1292</v>
       </c>
       <c r="D370" s="18"/>
@@ -21217,13 +21181,13 @@
       <c r="X370" s="18"/>
     </row>
     <row r="371">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="B371" s="15" t="s">
+      <c r="B371" s="10" t="s">
         <v>1294</v>
       </c>
-      <c r="C371" s="15" t="s">
+      <c r="C371" s="10" t="s">
         <v>1295</v>
       </c>
       <c r="D371" s="18"/>
@@ -21281,13 +21245,13 @@
       <c r="X372" s="18"/>
     </row>
     <row r="373">
-      <c r="A373" s="10" t="s">
+      <c r="A373" s="15" t="s">
         <v>1299</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="15" t="s">
         <v>1300</v>
       </c>
-      <c r="C373" s="10" t="s">
+      <c r="C373" s="15" t="s">
         <v>1301</v>
       </c>
       <c r="D373" s="18"/>
@@ -21313,13 +21277,13 @@
       <c r="X373" s="18"/>
     </row>
     <row r="374">
-      <c r="A374" s="15" t="s">
+      <c r="A374" s="10" t="s">
         <v>1302</v>
       </c>
-      <c r="B374" s="15" t="s">
+      <c r="B374" s="10" t="s">
         <v>1303</v>
       </c>
-      <c r="C374" s="15" t="s">
+      <c r="C374" s="10" t="s">
         <v>1304</v>
       </c>
       <c r="D374" s="18"/>
@@ -21345,13 +21309,13 @@
       <c r="X374" s="18"/>
     </row>
     <row r="375">
-      <c r="A375" s="10" t="s">
+      <c r="A375" s="15" t="s">
         <v>1305</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="15" t="s">
         <v>1306</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C375" s="15" t="s">
         <v>1307</v>
       </c>
       <c r="D375" s="18"/>
@@ -21377,13 +21341,13 @@
       <c r="X375" s="18"/>
     </row>
     <row r="376">
-      <c r="A376" s="15" t="s">
+      <c r="A376" s="10" t="s">
         <v>1308</v>
       </c>
-      <c r="B376" s="15" t="s">
+      <c r="B376" s="10" t="s">
         <v>1309</v>
       </c>
-      <c r="C376" s="15" t="s">
+      <c r="C376" s="10" t="s">
         <v>1310</v>
       </c>
       <c r="D376" s="18"/>
@@ -21505,13 +21469,13 @@
       <c r="X379" s="18"/>
     </row>
     <row r="380">
-      <c r="A380" s="10" t="s">
+      <c r="A380" s="15" t="s">
         <v>1320</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="15" t="s">
         <v>1321</v>
       </c>
-      <c r="C380" s="10" t="s">
+      <c r="C380" s="15" t="s">
         <v>1322</v>
       </c>
       <c r="D380" s="18"/>
@@ -21537,13 +21501,13 @@
       <c r="X380" s="18"/>
     </row>
     <row r="381">
-      <c r="A381" s="15" t="s">
+      <c r="A381" s="10" t="s">
         <v>1323</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B381" s="10" t="s">
         <v>1324</v>
       </c>
-      <c r="C381" s="15" t="s">
+      <c r="C381" s="10" t="s">
         <v>1325</v>
       </c>
       <c r="D381" s="18"/>
@@ -21569,13 +21533,13 @@
       <c r="X381" s="18"/>
     </row>
     <row r="382">
-      <c r="A382" s="10" t="s">
+      <c r="A382" s="15" t="s">
         <v>1326</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="15" t="s">
         <v>1327</v>
       </c>
-      <c r="C382" s="10" t="s">
+      <c r="C382" s="15" t="s">
         <v>1328</v>
       </c>
       <c r="D382" s="18"/>
@@ -21633,13 +21597,13 @@
       <c r="X383" s="18"/>
     </row>
     <row r="384">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B384" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="C384" s="15" t="s">
+      <c r="C384" s="10" t="s">
         <v>1334</v>
       </c>
       <c r="D384" s="18"/>
@@ -21665,13 +21629,13 @@
       <c r="X384" s="18"/>
     </row>
     <row r="385">
-      <c r="A385" s="10" t="s">
+      <c r="A385" s="15" t="s">
         <v>1335</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="15" t="s">
         <v>1336</v>
       </c>
-      <c r="C385" s="10" t="s">
+      <c r="C385" s="15" t="s">
         <v>1337</v>
       </c>
       <c r="D385" s="18"/>
@@ -21697,13 +21661,13 @@
       <c r="X385" s="18"/>
     </row>
     <row r="386">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="C386" s="15" t="s">
+      <c r="C386" s="10" t="s">
         <v>1340</v>
       </c>
       <c r="D386" s="18"/>
@@ -21729,13 +21693,13 @@
       <c r="X386" s="18"/>
     </row>
     <row r="387">
-      <c r="A387" s="10" t="s">
+      <c r="A387" s="15" t="s">
         <v>1341</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="15" t="s">
         <v>1342</v>
       </c>
-      <c r="C387" s="10" t="s">
+      <c r="C387" s="15" t="s">
         <v>1343</v>
       </c>
       <c r="D387" s="18"/>
@@ -21761,13 +21725,13 @@
       <c r="X387" s="18"/>
     </row>
     <row r="388">
-      <c r="A388" s="15" t="s">
+      <c r="A388" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="B388" s="15" t="s">
+      <c r="B388" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="C388" s="15" t="s">
+      <c r="C388" s="10" t="s">
         <v>1346</v>
       </c>
       <c r="D388" s="18"/>
@@ -21793,13 +21757,13 @@
       <c r="X388" s="18"/>
     </row>
     <row r="389">
-      <c r="A389" s="10" t="s">
+      <c r="A389" s="15" t="s">
         <v>1347</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="15" t="s">
         <v>1348</v>
       </c>
-      <c r="C389" s="10" t="s">
+      <c r="C389" s="15" t="s">
         <v>1349</v>
       </c>
       <c r="D389" s="18"/>
@@ -21825,10 +21789,10 @@
       <c r="X389" s="18"/>
     </row>
     <row r="390">
-      <c r="A390" s="20" t="s">
+      <c r="A390" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="B390" s="20" t="s">
+      <c r="B390" s="10" t="s">
         <v>1351</v>
       </c>
       <c r="C390" s="10" t="s">
@@ -21857,13 +21821,13 @@
       <c r="X390" s="18"/>
     </row>
     <row r="391">
-      <c r="A391" s="15" t="s">
+      <c r="A391" s="20" t="s">
         <v>1353</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="20" t="s">
         <v>1354</v>
       </c>
-      <c r="C391" s="15" t="s">
+      <c r="C391" s="10" t="s">
         <v>1355</v>
       </c>
       <c r="D391" s="18"/>
@@ -21889,13 +21853,13 @@
       <c r="X391" s="18"/>
     </row>
     <row r="392">
-      <c r="A392" s="10" t="s">
+      <c r="A392" s="15" t="s">
         <v>1356</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="15" t="s">
         <v>1357</v>
       </c>
-      <c r="C392" s="10" t="s">
+      <c r="C392" s="15" t="s">
         <v>1358</v>
       </c>
       <c r="D392" s="18"/>
@@ -22081,13 +22045,13 @@
       <c r="X397" s="18"/>
     </row>
     <row r="398">
-      <c r="A398" s="15" t="s">
+      <c r="A398" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="B398" s="15" t="s">
+      <c r="B398" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="C398" s="15" t="s">
+      <c r="C398" s="10" t="s">
         <v>1376</v>
       </c>
       <c r="D398" s="18"/>
@@ -22145,13 +22109,13 @@
       <c r="X399" s="18"/>
     </row>
     <row r="400">
-      <c r="A400" s="10" t="s">
+      <c r="A400" s="15" t="s">
         <v>1380</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="B400" s="15" t="s">
         <v>1381</v>
       </c>
-      <c r="C400" s="10" t="s">
+      <c r="C400" s="15" t="s">
         <v>1382</v>
       </c>
       <c r="D400" s="18"/>
@@ -22183,7 +22147,7 @@
       <c r="B401" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="C401" s="15" t="s">
+      <c r="C401" s="10" t="s">
         <v>1385</v>
       </c>
       <c r="D401" s="18"/>
@@ -22209,10 +22173,10 @@
       <c r="X401" s="18"/>
     </row>
     <row r="402">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="B402" s="15" t="s">
+      <c r="B402" s="10" t="s">
         <v>1387</v>
       </c>
       <c r="C402" s="15" t="s">
@@ -22273,13 +22237,13 @@
       <c r="X403" s="18"/>
     </row>
     <row r="404">
-      <c r="A404" s="10" t="s">
+      <c r="A404" s="15" t="s">
         <v>1392</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="B404" s="15" t="s">
         <v>1393</v>
       </c>
-      <c r="C404" s="10" t="s">
+      <c r="C404" s="15" t="s">
         <v>1394</v>
       </c>
       <c r="D404" s="18"/>
@@ -22305,14 +22269,14 @@
       <c r="X404" s="18"/>
     </row>
     <row r="405">
-      <c r="A405" s="15" t="s">
+      <c r="A405" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="B405" s="15" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C405" s="15" t="s">
+      <c r="B405" s="10" t="s">
         <v>1396</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>1397</v>
       </c>
       <c r="D405" s="18"/>
       <c r="E405" s="18"/>
@@ -22338,13 +22302,13 @@
     </row>
     <row r="406">
       <c r="A406" s="15" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D406" s="18"/>
       <c r="E406" s="18"/>
@@ -22370,7 +22334,7 @@
     </row>
     <row r="407">
       <c r="A407" s="15" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B407" s="15" t="s">
         <v>1400</v>
@@ -22433,13 +22397,13 @@
       <c r="X408" s="18"/>
     </row>
     <row r="409">
-      <c r="A409" s="10" t="s">
+      <c r="A409" s="15" t="s">
         <v>1405</v>
       </c>
-      <c r="B409" s="10" t="s">
+      <c r="B409" s="15" t="s">
         <v>1406</v>
       </c>
-      <c r="C409" s="10" t="s">
+      <c r="C409" s="15" t="s">
         <v>1407</v>
       </c>
       <c r="D409" s="18"/>
@@ -22465,13 +22429,13 @@
       <c r="X409" s="18"/>
     </row>
     <row r="410">
-      <c r="A410" s="15" t="s">
+      <c r="A410" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="B410" s="15" t="s">
+      <c r="B410" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="C410" s="15" t="s">
+      <c r="C410" s="10" t="s">
         <v>1410</v>
       </c>
       <c r="D410" s="18"/>
@@ -22497,13 +22461,13 @@
       <c r="X410" s="18"/>
     </row>
     <row r="411">
-      <c r="A411" s="10" t="s">
+      <c r="A411" s="15" t="s">
         <v>1411</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="15" t="s">
         <v>1412</v>
       </c>
-      <c r="C411" s="10" t="s">
+      <c r="C411" s="15" t="s">
         <v>1413</v>
       </c>
       <c r="D411" s="18"/>
@@ -22561,13 +22525,13 @@
       <c r="X412" s="18"/>
     </row>
     <row r="413">
-      <c r="A413" s="15" t="s">
+      <c r="A413" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="B413" s="15" t="s">
+      <c r="B413" s="10" t="s">
         <v>1418</v>
       </c>
-      <c r="C413" s="15" t="s">
+      <c r="C413" s="10" t="s">
         <v>1419</v>
       </c>
       <c r="D413" s="18"/>
@@ -22689,13 +22653,13 @@
       <c r="X416" s="18"/>
     </row>
     <row r="417">
-      <c r="A417" s="10" t="s">
+      <c r="A417" s="15" t="s">
         <v>1429</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="15" t="s">
         <v>1430</v>
       </c>
-      <c r="C417" s="10" t="s">
+      <c r="C417" s="15" t="s">
         <v>1431</v>
       </c>
       <c r="D417" s="18"/>
@@ -22721,13 +22685,13 @@
       <c r="X417" s="18"/>
     </row>
     <row r="418">
-      <c r="A418" s="15" t="s">
+      <c r="A418" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="B418" s="15" t="s">
+      <c r="B418" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="C418" s="15" t="s">
+      <c r="C418" s="10" t="s">
         <v>1434</v>
       </c>
       <c r="D418" s="18"/>
@@ -22753,13 +22717,13 @@
       <c r="X418" s="18"/>
     </row>
     <row r="419">
-      <c r="A419" s="10" t="s">
+      <c r="A419" s="15" t="s">
         <v>1435</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="15" t="s">
         <v>1436</v>
       </c>
-      <c r="C419" s="10" t="s">
+      <c r="C419" s="15" t="s">
         <v>1437</v>
       </c>
       <c r="D419" s="18"/>
@@ -22849,10 +22813,10 @@
       <c r="X421" s="18"/>
     </row>
     <row r="422">
-      <c r="A422" s="15" t="s">
+      <c r="A422" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="B422" s="15" t="s">
+      <c r="B422" s="10" t="s">
         <v>1445</v>
       </c>
       <c r="C422" s="10" t="s">
@@ -22887,7 +22851,7 @@
       <c r="B423" s="15" t="s">
         <v>1448</v>
       </c>
-      <c r="C423" s="15" t="s">
+      <c r="C423" s="10" t="s">
         <v>1449</v>
       </c>
       <c r="D423" s="18"/>
@@ -22945,13 +22909,13 @@
       <c r="X424" s="18"/>
     </row>
     <row r="425">
-      <c r="A425" s="10" t="s">
+      <c r="A425" s="15" t="s">
         <v>1453</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="15" t="s">
         <v>1454</v>
       </c>
-      <c r="C425" s="10" t="s">
+      <c r="C425" s="15" t="s">
         <v>1455</v>
       </c>
       <c r="D425" s="18"/>
@@ -23041,10 +23005,10 @@
       <c r="X427" s="18"/>
     </row>
     <row r="428">
-      <c r="A428" s="20" t="s">
+      <c r="A428" s="10" t="s">
         <v>1462</v>
       </c>
-      <c r="B428" s="20" t="s">
+      <c r="B428" s="10" t="s">
         <v>1463</v>
       </c>
       <c r="C428" s="10" t="s">
@@ -23073,13 +23037,13 @@
       <c r="X428" s="18"/>
     </row>
     <row r="429">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="20" t="s">
         <v>1465</v>
       </c>
-      <c r="B429" s="15" t="s">
+      <c r="B429" s="20" t="s">
         <v>1466</v>
       </c>
-      <c r="C429" s="15" t="s">
+      <c r="C429" s="10" t="s">
         <v>1467</v>
       </c>
       <c r="D429" s="18"/>
@@ -23201,13 +23165,13 @@
       <c r="X432" s="18"/>
     </row>
     <row r="433">
-      <c r="A433" s="10" t="s">
+      <c r="A433" s="15" t="s">
         <v>1477</v>
       </c>
-      <c r="B433" s="10" t="s">
+      <c r="B433" s="15" t="s">
         <v>1478</v>
       </c>
-      <c r="C433" s="10" t="s">
+      <c r="C433" s="15" t="s">
         <v>1479</v>
       </c>
       <c r="D433" s="18"/>
@@ -23233,13 +23197,13 @@
       <c r="X433" s="18"/>
     </row>
     <row r="434">
-      <c r="A434" s="15" t="s">
+      <c r="A434" s="10" t="s">
         <v>1480</v>
       </c>
-      <c r="B434" s="15" t="s">
+      <c r="B434" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="C434" s="15" t="s">
+      <c r="C434" s="10" t="s">
         <v>1482</v>
       </c>
       <c r="D434" s="18"/>
@@ -23265,13 +23229,13 @@
       <c r="X434" s="18"/>
     </row>
     <row r="435">
-      <c r="A435" s="10" t="s">
+      <c r="A435" s="15" t="s">
         <v>1483</v>
       </c>
-      <c r="B435" s="10" t="s">
+      <c r="B435" s="15" t="s">
         <v>1484</v>
       </c>
-      <c r="C435" s="10" t="s">
+      <c r="C435" s="15" t="s">
         <v>1485</v>
       </c>
       <c r="D435" s="18"/>
@@ -23393,13 +23357,13 @@
       <c r="X438" s="18"/>
     </row>
     <row r="439">
-      <c r="A439" s="15" t="s">
+      <c r="A439" s="10" t="s">
         <v>1495</v>
       </c>
-      <c r="B439" s="15" t="s">
+      <c r="B439" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="C439" s="15" t="s">
+      <c r="C439" s="10" t="s">
         <v>1497</v>
       </c>
       <c r="D439" s="18"/>
@@ -23425,13 +23389,13 @@
       <c r="X439" s="18"/>
     </row>
     <row r="440">
-      <c r="A440" s="10" t="s">
+      <c r="A440" s="15" t="s">
         <v>1498</v>
       </c>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="15" t="s">
         <v>1499</v>
       </c>
-      <c r="C440" s="10" t="s">
+      <c r="C440" s="15" t="s">
         <v>1500</v>
       </c>
       <c r="D440" s="18"/>
@@ -23457,10 +23421,10 @@
       <c r="X440" s="18"/>
     </row>
     <row r="441">
-      <c r="A441" s="20" t="s">
+      <c r="A441" s="10" t="s">
         <v>1501</v>
       </c>
-      <c r="B441" s="20" t="s">
+      <c r="B441" s="10" t="s">
         <v>1502</v>
       </c>
       <c r="C441" s="10" t="s">
@@ -23489,10 +23453,10 @@
       <c r="X441" s="18"/>
     </row>
     <row r="442">
-      <c r="A442" s="10" t="s">
+      <c r="A442" s="20" t="s">
         <v>1504</v>
       </c>
-      <c r="B442" s="10" t="s">
+      <c r="B442" s="20" t="s">
         <v>1505</v>
       </c>
       <c r="C442" s="10" t="s">
@@ -23521,13 +23485,13 @@
       <c r="X442" s="18"/>
     </row>
     <row r="443">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="10" t="s">
         <v>1507</v>
       </c>
-      <c r="B443" s="15" t="s">
+      <c r="B443" s="10" t="s">
         <v>1508</v>
       </c>
-      <c r="C443" s="15" t="s">
+      <c r="C443" s="10" t="s">
         <v>1509</v>
       </c>
       <c r="D443" s="18"/>
@@ -23585,13 +23549,13 @@
       <c r="X444" s="18"/>
     </row>
     <row r="445">
-      <c r="A445" s="10" t="s">
+      <c r="A445" s="15" t="s">
         <v>1513</v>
       </c>
-      <c r="B445" s="10" t="s">
+      <c r="B445" s="15" t="s">
         <v>1514</v>
       </c>
-      <c r="C445" s="10" t="s">
+      <c r="C445" s="15" t="s">
         <v>1515</v>
       </c>
       <c r="D445" s="18"/>
@@ -23617,13 +23581,13 @@
       <c r="X445" s="18"/>
     </row>
     <row r="446">
-      <c r="A446" s="15" t="s">
+      <c r="A446" s="10" t="s">
         <v>1516</v>
       </c>
-      <c r="B446" s="15" t="s">
+      <c r="B446" s="10" t="s">
         <v>1517</v>
       </c>
-      <c r="C446" s="15" t="s">
+      <c r="C446" s="10" t="s">
         <v>1518</v>
       </c>
       <c r="D446" s="18"/>
@@ -23777,13 +23741,13 @@
       <c r="X450" s="18"/>
     </row>
     <row r="451">
-      <c r="A451" s="10" t="s">
+      <c r="A451" s="15" t="s">
         <v>1531</v>
       </c>
-      <c r="B451" s="10" t="s">
+      <c r="B451" s="15" t="s">
         <v>1532</v>
       </c>
-      <c r="C451" s="10" t="s">
+      <c r="C451" s="15" t="s">
         <v>1533</v>
       </c>
       <c r="D451" s="18"/>
@@ -23905,13 +23869,13 @@
       <c r="X454" s="18"/>
     </row>
     <row r="455">
-      <c r="A455" s="15" t="s">
+      <c r="A455" s="10" t="s">
         <v>1543</v>
       </c>
-      <c r="B455" s="15" t="s">
+      <c r="B455" s="10" t="s">
         <v>1544</v>
       </c>
-      <c r="C455" s="15" t="s">
+      <c r="C455" s="10" t="s">
         <v>1545</v>
       </c>
       <c r="D455" s="18"/>
@@ -23937,13 +23901,13 @@
       <c r="X455" s="18"/>
     </row>
     <row r="456">
-      <c r="A456" s="10" t="s">
+      <c r="A456" s="15" t="s">
         <v>1546</v>
       </c>
-      <c r="B456" s="10" t="s">
+      <c r="B456" s="15" t="s">
         <v>1547</v>
       </c>
-      <c r="C456" s="10" t="s">
+      <c r="C456" s="15" t="s">
         <v>1548</v>
       </c>
       <c r="D456" s="18"/>
@@ -23969,13 +23933,13 @@
       <c r="X456" s="18"/>
     </row>
     <row r="457">
-      <c r="A457" s="15" t="s">
+      <c r="A457" s="10" t="s">
         <v>1549</v>
       </c>
-      <c r="B457" s="15" t="s">
+      <c r="B457" s="10" t="s">
         <v>1550</v>
       </c>
-      <c r="C457" s="15" t="s">
+      <c r="C457" s="10" t="s">
         <v>1551</v>
       </c>
       <c r="D457" s="18"/>
@@ -24001,13 +23965,13 @@
       <c r="X457" s="18"/>
     </row>
     <row r="458">
-      <c r="A458" s="10" t="s">
+      <c r="A458" s="15" t="s">
         <v>1552</v>
       </c>
-      <c r="B458" s="10" t="s">
+      <c r="B458" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="C458" s="10" t="s">
+      <c r="C458" s="15" t="s">
         <v>1554</v>
       </c>
       <c r="D458" s="18"/>
@@ -24065,13 +24029,13 @@
       <c r="X459" s="18"/>
     </row>
     <row r="460">
-      <c r="A460" s="15" t="s">
+      <c r="A460" s="10" t="s">
         <v>1558</v>
       </c>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="10" t="s">
         <v>1559</v>
       </c>
-      <c r="C460" s="15" t="s">
+      <c r="C460" s="10" t="s">
         <v>1560</v>
       </c>
       <c r="D460" s="18"/>
@@ -24097,13 +24061,13 @@
       <c r="X460" s="18"/>
     </row>
     <row r="461">
-      <c r="A461" s="20" t="s">
+      <c r="A461" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="B461" s="20" t="s">
+      <c r="B461" s="15" t="s">
         <v>1562</v>
       </c>
-      <c r="C461" s="10" t="s">
+      <c r="C461" s="15" t="s">
         <v>1563</v>
       </c>
       <c r="D461" s="18"/>
@@ -24129,13 +24093,13 @@
       <c r="X461" s="18"/>
     </row>
     <row r="462">
-      <c r="A462" s="15" t="s">
+      <c r="A462" s="20" t="s">
         <v>1564</v>
       </c>
-      <c r="B462" s="15" t="s">
+      <c r="B462" s="20" t="s">
         <v>1565</v>
       </c>
-      <c r="C462" s="15" t="s">
+      <c r="C462" s="10" t="s">
         <v>1566</v>
       </c>
       <c r="D462" s="18"/>
@@ -24161,13 +24125,13 @@
       <c r="X462" s="18"/>
     </row>
     <row r="463">
-      <c r="A463" s="10" t="s">
+      <c r="A463" s="15" t="s">
         <v>1567</v>
       </c>
-      <c r="B463" s="10" t="s">
+      <c r="B463" s="15" t="s">
         <v>1568</v>
       </c>
-      <c r="C463" s="10" t="s">
+      <c r="C463" s="15" t="s">
         <v>1569</v>
       </c>
       <c r="D463" s="18"/>
@@ -24193,13 +24157,13 @@
       <c r="X463" s="18"/>
     </row>
     <row r="464">
-      <c r="A464" s="15" t="s">
+      <c r="A464" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="B464" s="15" t="s">
+      <c r="B464" s="10" t="s">
         <v>1571</v>
       </c>
-      <c r="C464" s="15" t="s">
+      <c r="C464" s="10" t="s">
         <v>1572</v>
       </c>
       <c r="D464" s="18"/>
@@ -24225,13 +24189,13 @@
       <c r="X464" s="18"/>
     </row>
     <row r="465">
-      <c r="A465" s="10" t="s">
+      <c r="A465" s="15" t="s">
         <v>1573</v>
       </c>
-      <c r="B465" s="10" t="s">
+      <c r="B465" s="15" t="s">
         <v>1574</v>
       </c>
-      <c r="C465" s="10" t="s">
+      <c r="C465" s="15" t="s">
         <v>1575</v>
       </c>
       <c r="D465" s="18"/>
@@ -24289,13 +24253,13 @@
       <c r="X466" s="18"/>
     </row>
     <row r="467">
-      <c r="A467" s="15" t="s">
+      <c r="A467" s="10" t="s">
         <v>1579</v>
       </c>
-      <c r="B467" s="15" t="s">
+      <c r="B467" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="C467" s="15" t="s">
+      <c r="C467" s="10" t="s">
         <v>1581</v>
       </c>
       <c r="D467" s="18"/>
@@ -24353,13 +24317,13 @@
       <c r="X468" s="18"/>
     </row>
     <row r="469">
-      <c r="A469" s="10" t="s">
+      <c r="A469" s="15" t="s">
         <v>1585</v>
       </c>
-      <c r="B469" s="10" t="s">
+      <c r="B469" s="15" t="s">
         <v>1586</v>
       </c>
-      <c r="C469" s="10" t="s">
+      <c r="C469" s="15" t="s">
         <v>1587</v>
       </c>
       <c r="D469" s="18"/>
@@ -24417,13 +24381,13 @@
       <c r="X470" s="18"/>
     </row>
     <row r="471">
-      <c r="A471" s="15" t="s">
+      <c r="A471" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="B471" s="15" t="s">
+      <c r="B471" s="10" t="s">
         <v>1592</v>
       </c>
-      <c r="C471" s="15" t="s">
+      <c r="C471" s="10" t="s">
         <v>1593</v>
       </c>
       <c r="D471" s="18"/>
@@ -24481,13 +24445,13 @@
       <c r="X472" s="18"/>
     </row>
     <row r="473">
-      <c r="A473" s="10" t="s">
+      <c r="A473" s="15" t="s">
         <v>1597</v>
       </c>
-      <c r="B473" s="10" t="s">
+      <c r="B473" s="15" t="s">
         <v>1598</v>
       </c>
-      <c r="C473" s="10" t="s">
+      <c r="C473" s="15" t="s">
         <v>1599</v>
       </c>
       <c r="D473" s="18"/>
@@ -24513,13 +24477,13 @@
       <c r="X473" s="18"/>
     </row>
     <row r="474">
-      <c r="A474" s="15" t="s">
+      <c r="A474" s="10" t="s">
         <v>1600</v>
       </c>
-      <c r="B474" s="15" t="s">
+      <c r="B474" s="10" t="s">
         <v>1601</v>
       </c>
-      <c r="C474" s="15" t="s">
+      <c r="C474" s="10" t="s">
         <v>1602</v>
       </c>
       <c r="D474" s="18"/>
@@ -24577,13 +24541,13 @@
       <c r="X475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="10" t="s">
+      <c r="A476" s="15" t="s">
         <v>1606</v>
       </c>
-      <c r="B476" s="10" t="s">
+      <c r="B476" s="15" t="s">
         <v>1607</v>
       </c>
-      <c r="C476" s="10" t="s">
+      <c r="C476" s="15" t="s">
         <v>1608</v>
       </c>
       <c r="D476" s="18"/>
@@ -24609,13 +24573,13 @@
       <c r="X476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="15" t="s">
+      <c r="A477" s="10" t="s">
         <v>1609</v>
       </c>
-      <c r="B477" s="15" t="s">
+      <c r="B477" s="10" t="s">
         <v>1610</v>
       </c>
-      <c r="C477" s="15" t="s">
+      <c r="C477" s="10" t="s">
         <v>1611</v>
       </c>
       <c r="D477" s="18"/>
@@ -24641,13 +24605,13 @@
       <c r="X477" s="18"/>
     </row>
     <row r="478">
-      <c r="A478" s="10" t="s">
+      <c r="A478" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="B478" s="10" t="s">
+      <c r="B478" s="15" t="s">
         <v>1613</v>
       </c>
-      <c r="C478" s="10" t="s">
+      <c r="C478" s="15" t="s">
         <v>1614</v>
       </c>
       <c r="D478" s="18"/>
@@ -24673,13 +24637,13 @@
       <c r="X478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="15" t="s">
+      <c r="A479" s="10" t="s">
         <v>1615</v>
       </c>
-      <c r="B479" s="15" t="s">
+      <c r="B479" s="10" t="s">
         <v>1616</v>
       </c>
-      <c r="C479" s="15" t="s">
+      <c r="C479" s="10" t="s">
         <v>1617</v>
       </c>
       <c r="D479" s="18"/>
@@ -24705,13 +24669,13 @@
       <c r="X479" s="18"/>
     </row>
     <row r="480">
-      <c r="A480" s="10" t="s">
+      <c r="A480" s="15" t="s">
         <v>1618</v>
       </c>
-      <c r="B480" s="10" t="s">
+      <c r="B480" s="15" t="s">
         <v>1619</v>
       </c>
-      <c r="C480" s="10" t="s">
+      <c r="C480" s="15" t="s">
         <v>1620</v>
       </c>
       <c r="D480" s="18"/>
@@ -24769,13 +24733,13 @@
       <c r="X481" s="18"/>
     </row>
     <row r="482">
-      <c r="A482" s="15" t="s">
+      <c r="A482" s="10" t="s">
         <v>1624</v>
       </c>
-      <c r="B482" s="15" t="s">
+      <c r="B482" s="10" t="s">
         <v>1625</v>
       </c>
-      <c r="C482" s="15" t="s">
+      <c r="C482" s="10" t="s">
         <v>1626</v>
       </c>
       <c r="D482" s="18"/>
@@ -24833,13 +24797,13 @@
       <c r="X483" s="18"/>
     </row>
     <row r="484">
-      <c r="A484" s="10" t="s">
+      <c r="A484" s="15" t="s">
         <v>1630</v>
       </c>
-      <c r="B484" s="10" t="s">
+      <c r="B484" s="15" t="s">
         <v>1631</v>
       </c>
-      <c r="C484" s="10" t="s">
+      <c r="C484" s="15" t="s">
         <v>1632</v>
       </c>
       <c r="D484" s="18"/>
@@ -24929,13 +24893,13 @@
       <c r="X486" s="18"/>
     </row>
     <row r="487">
-      <c r="A487" s="15" t="s">
+      <c r="A487" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="B487" s="15" t="s">
+      <c r="B487" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="C487" s="15" t="s">
+      <c r="C487" s="10" t="s">
         <v>1641</v>
       </c>
       <c r="D487" s="18"/>
@@ -25025,13 +24989,13 @@
       <c r="X489" s="18"/>
     </row>
     <row r="490">
-      <c r="A490" s="10" t="s">
+      <c r="A490" s="15" t="s">
         <v>1648</v>
       </c>
-      <c r="B490" s="10" t="s">
+      <c r="B490" s="15" t="s">
         <v>1649</v>
       </c>
-      <c r="C490" s="10" t="s">
+      <c r="C490" s="15" t="s">
         <v>1650</v>
       </c>
       <c r="D490" s="18"/>
@@ -25057,13 +25021,13 @@
       <c r="X490" s="18"/>
     </row>
     <row r="491">
-      <c r="A491" s="15" t="s">
+      <c r="A491" s="10" t="s">
         <v>1651</v>
       </c>
-      <c r="B491" s="15" t="s">
+      <c r="B491" s="10" t="s">
         <v>1652</v>
       </c>
-      <c r="C491" s="15" t="s">
+      <c r="C491" s="10" t="s">
         <v>1653</v>
       </c>
       <c r="D491" s="18"/>
@@ -25185,13 +25149,13 @@
       <c r="X494" s="18"/>
     </row>
     <row r="495">
-      <c r="A495" s="10" t="s">
+      <c r="A495" s="15" t="s">
         <v>1663</v>
       </c>
-      <c r="B495" s="10" t="s">
+      <c r="B495" s="15" t="s">
         <v>1664</v>
       </c>
-      <c r="C495" s="10" t="s">
+      <c r="C495" s="15" t="s">
         <v>1665</v>
       </c>
       <c r="D495" s="18"/>
@@ -25281,13 +25245,13 @@
       <c r="X497" s="18"/>
     </row>
     <row r="498">
-      <c r="A498" s="15" t="s">
+      <c r="A498" s="10" t="s">
         <v>1672</v>
       </c>
-      <c r="B498" s="15" t="s">
+      <c r="B498" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="C498" s="15" t="s">
+      <c r="C498" s="10" t="s">
         <v>1674</v>
       </c>
       <c r="D498" s="18"/>
@@ -25345,13 +25309,13 @@
       <c r="X499" s="18"/>
     </row>
     <row r="500">
-      <c r="A500" s="10" t="s">
+      <c r="A500" s="15" t="s">
         <v>1678</v>
       </c>
-      <c r="B500" s="10" t="s">
+      <c r="B500" s="15" t="s">
         <v>1679</v>
       </c>
-      <c r="C500" s="10" t="s">
+      <c r="C500" s="15" t="s">
         <v>1680</v>
       </c>
       <c r="D500" s="18"/>
@@ -25377,13 +25341,13 @@
       <c r="X500" s="18"/>
     </row>
     <row r="501">
-      <c r="A501" s="20" t="s">
+      <c r="A501" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="B501" s="20" t="s">
+      <c r="B501" s="10" t="s">
         <v>1682</v>
       </c>
-      <c r="C501" s="14" t="s">
+      <c r="C501" s="10" t="s">
         <v>1683</v>
       </c>
       <c r="D501" s="18"/>
@@ -25409,13 +25373,13 @@
       <c r="X501" s="18"/>
     </row>
     <row r="502">
-      <c r="A502" s="15" t="s">
+      <c r="A502" s="20" t="s">
         <v>1684</v>
       </c>
-      <c r="B502" s="15" t="s">
+      <c r="B502" s="20" t="s">
         <v>1685</v>
       </c>
-      <c r="C502" s="15" t="s">
+      <c r="C502" s="14" t="s">
         <v>1686</v>
       </c>
       <c r="D502" s="18"/>
@@ -25569,13 +25533,13 @@
       <c r="X506" s="18"/>
     </row>
     <row r="507">
-      <c r="A507" s="10" t="s">
+      <c r="A507" s="15" t="s">
         <v>1699</v>
       </c>
-      <c r="B507" s="10" t="s">
+      <c r="B507" s="15" t="s">
         <v>1700</v>
       </c>
-      <c r="C507" s="10" t="s">
+      <c r="C507" s="15" t="s">
         <v>1701</v>
       </c>
       <c r="D507" s="18"/>
@@ -25601,13 +25565,13 @@
       <c r="X507" s="18"/>
     </row>
     <row r="508">
-      <c r="A508" s="15" t="s">
+      <c r="A508" s="10" t="s">
         <v>1702</v>
       </c>
-      <c r="B508" s="15" t="s">
+      <c r="B508" s="10" t="s">
         <v>1703</v>
       </c>
-      <c r="C508" s="15" t="s">
+      <c r="C508" s="10" t="s">
         <v>1704</v>
       </c>
       <c r="D508" s="18"/>
@@ -25639,7 +25603,7 @@
       <c r="B509" s="15" t="s">
         <v>1706</v>
       </c>
-      <c r="C509" s="10" t="s">
+      <c r="C509" s="15" t="s">
         <v>1707</v>
       </c>
       <c r="D509" s="18"/>
@@ -25665,10 +25629,10 @@
       <c r="X509" s="18"/>
     </row>
     <row r="510">
-      <c r="A510" s="10" t="s">
+      <c r="A510" s="15" t="s">
         <v>1708</v>
       </c>
-      <c r="B510" s="10" t="s">
+      <c r="B510" s="15" t="s">
         <v>1709</v>
       </c>
       <c r="C510" s="10" t="s">
@@ -25825,10 +25789,10 @@
       <c r="X514" s="18"/>
     </row>
     <row r="515">
-      <c r="A515" s="20" t="s">
+      <c r="A515" s="10" t="s">
         <v>1723</v>
       </c>
-      <c r="B515" s="20" t="s">
+      <c r="B515" s="10" t="s">
         <v>1724</v>
       </c>
       <c r="C515" s="10" t="s">
@@ -25857,13 +25821,13 @@
       <c r="X515" s="18"/>
     </row>
     <row r="516">
-      <c r="A516" s="15" t="s">
+      <c r="A516" s="20" t="s">
         <v>1726</v>
       </c>
-      <c r="B516" s="15" t="s">
+      <c r="B516" s="20" t="s">
         <v>1727</v>
       </c>
-      <c r="C516" s="15" t="s">
+      <c r="C516" s="10" t="s">
         <v>1728</v>
       </c>
       <c r="D516" s="18"/>
@@ -25921,13 +25885,13 @@
       <c r="X517" s="18"/>
     </row>
     <row r="518">
-      <c r="A518" s="10" t="s">
+      <c r="A518" s="15" t="s">
         <v>1732</v>
       </c>
-      <c r="B518" s="10" t="s">
+      <c r="B518" s="15" t="s">
         <v>1733</v>
       </c>
-      <c r="C518" s="10" t="s">
+      <c r="C518" s="15" t="s">
         <v>1734</v>
       </c>
       <c r="D518" s="18"/>
@@ -25985,13 +25949,13 @@
       <c r="X519" s="18"/>
     </row>
     <row r="520">
-      <c r="A520" s="15" t="s">
+      <c r="A520" s="10" t="s">
         <v>1738</v>
       </c>
-      <c r="B520" s="15" t="s">
+      <c r="B520" s="10" t="s">
         <v>1739</v>
       </c>
-      <c r="C520" s="15" t="s">
+      <c r="C520" s="10" t="s">
         <v>1740</v>
       </c>
       <c r="D520" s="18"/>
@@ -26017,13 +25981,13 @@
       <c r="X520" s="18"/>
     </row>
     <row r="521">
-      <c r="A521" s="10" t="s">
+      <c r="A521" s="15" t="s">
         <v>1741</v>
       </c>
-      <c r="B521" s="10" t="s">
+      <c r="B521" s="15" t="s">
         <v>1742</v>
       </c>
-      <c r="C521" s="10" t="s">
+      <c r="C521" s="15" t="s">
         <v>1743</v>
       </c>
       <c r="D521" s="18"/>
@@ -26049,13 +26013,13 @@
       <c r="X521" s="18"/>
     </row>
     <row r="522">
-      <c r="A522" s="15" t="s">
+      <c r="A522" s="10" t="s">
         <v>1744</v>
       </c>
-      <c r="B522" s="15" t="s">
+      <c r="B522" s="10" t="s">
         <v>1745</v>
       </c>
-      <c r="C522" s="15" t="s">
+      <c r="C522" s="10" t="s">
         <v>1746</v>
       </c>
       <c r="D522" s="18"/>
@@ -26081,13 +26045,13 @@
       <c r="X522" s="18"/>
     </row>
     <row r="523">
-      <c r="A523" s="10" t="s">
+      <c r="A523" s="15" t="s">
         <v>1747</v>
       </c>
-      <c r="B523" s="10" t="s">
+      <c r="B523" s="15" t="s">
         <v>1748</v>
       </c>
-      <c r="C523" s="10" t="s">
+      <c r="C523" s="15" t="s">
         <v>1749</v>
       </c>
       <c r="D523" s="18"/>
@@ -26113,13 +26077,13 @@
       <c r="X523" s="18"/>
     </row>
     <row r="524">
-      <c r="A524" s="15" t="s">
+      <c r="A524" s="10" t="s">
         <v>1750</v>
       </c>
-      <c r="B524" s="15" t="s">
+      <c r="B524" s="10" t="s">
         <v>1751</v>
       </c>
-      <c r="C524" s="15" t="s">
+      <c r="C524" s="10" t="s">
         <v>1752</v>
       </c>
       <c r="D524" s="18"/>
@@ -26145,14 +26109,14 @@
       <c r="X524" s="18"/>
     </row>
     <row r="525">
-      <c r="A525" s="10" t="s">
+      <c r="A525" s="15" t="s">
         <v>1753</v>
       </c>
-      <c r="B525" s="10" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C525" s="10" t="s">
+      <c r="B525" s="15" t="s">
         <v>1754</v>
+      </c>
+      <c r="C525" s="15" t="s">
+        <v>1755</v>
       </c>
       <c r="D525" s="18"/>
       <c r="E525" s="18"/>
@@ -26178,10 +26142,10 @@
     </row>
     <row r="526">
       <c r="A526" s="10" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C526" s="10" t="s">
         <v>1757</v>
@@ -26209,13 +26173,13 @@
       <c r="X526" s="18"/>
     </row>
     <row r="527">
-      <c r="A527" s="15" t="s">
+      <c r="A527" s="10" t="s">
         <v>1758</v>
       </c>
-      <c r="B527" s="15" t="s">
+      <c r="B527" s="10" t="s">
         <v>1759</v>
       </c>
-      <c r="C527" s="15" t="s">
+      <c r="C527" s="10" t="s">
         <v>1760</v>
       </c>
       <c r="D527" s="18"/>
@@ -26241,13 +26205,13 @@
       <c r="X527" s="18"/>
     </row>
     <row r="528">
-      <c r="A528" s="10" t="s">
+      <c r="A528" s="15" t="s">
         <v>1761</v>
       </c>
-      <c r="B528" s="10" t="s">
+      <c r="B528" s="15" t="s">
         <v>1762</v>
       </c>
-      <c r="C528" s="10" t="s">
+      <c r="C528" s="15" t="s">
         <v>1763</v>
       </c>
       <c r="D528" s="18"/>
@@ -26273,13 +26237,13 @@
       <c r="X528" s="18"/>
     </row>
     <row r="529">
-      <c r="A529" s="15" t="s">
+      <c r="A529" s="10" t="s">
         <v>1764</v>
       </c>
-      <c r="B529" s="15" t="s">
+      <c r="B529" s="10" t="s">
         <v>1765</v>
       </c>
-      <c r="C529" s="15" t="s">
+      <c r="C529" s="10" t="s">
         <v>1766</v>
       </c>
       <c r="D529" s="18"/>
@@ -26337,13 +26301,13 @@
       <c r="X530" s="18"/>
     </row>
     <row r="531">
-      <c r="A531" s="10" t="s">
+      <c r="A531" s="15" t="s">
         <v>1770</v>
       </c>
-      <c r="B531" s="10" t="s">
+      <c r="B531" s="15" t="s">
         <v>1771</v>
       </c>
-      <c r="C531" s="10" t="s">
+      <c r="C531" s="15" t="s">
         <v>1772</v>
       </c>
       <c r="D531" s="18"/>
@@ -26369,13 +26333,13 @@
       <c r="X531" s="18"/>
     </row>
     <row r="532">
-      <c r="A532" s="15" t="s">
+      <c r="A532" s="10" t="s">
         <v>1773</v>
       </c>
-      <c r="B532" s="15" t="s">
+      <c r="B532" s="10" t="s">
         <v>1774</v>
       </c>
-      <c r="C532" s="15" t="s">
+      <c r="C532" s="10" t="s">
         <v>1775</v>
       </c>
       <c r="D532" s="18"/>
@@ -26433,13 +26397,13 @@
       <c r="X533" s="18"/>
     </row>
     <row r="534">
-      <c r="A534" s="10" t="s">
+      <c r="A534" s="15" t="s">
         <v>1779</v>
       </c>
-      <c r="B534" s="10" t="s">
+      <c r="B534" s="15" t="s">
         <v>1780</v>
       </c>
-      <c r="C534" s="10" t="s">
+      <c r="C534" s="15" t="s">
         <v>1781</v>
       </c>
       <c r="D534" s="18"/>
@@ -26561,13 +26525,13 @@
       <c r="X537" s="18"/>
     </row>
     <row r="538">
-      <c r="A538" s="15" t="s">
+      <c r="A538" s="10" t="s">
         <v>1791</v>
       </c>
-      <c r="B538" s="15" t="s">
+      <c r="B538" s="10" t="s">
         <v>1792</v>
       </c>
-      <c r="C538" s="15" t="s">
+      <c r="C538" s="10" t="s">
         <v>1793</v>
       </c>
       <c r="D538" s="18"/>
@@ -26593,13 +26557,13 @@
       <c r="X538" s="18"/>
     </row>
     <row r="539">
-      <c r="A539" s="10" t="s">
+      <c r="A539" s="15" t="s">
         <v>1794</v>
       </c>
-      <c r="B539" s="10" t="s">
+      <c r="B539" s="15" t="s">
         <v>1795</v>
       </c>
-      <c r="C539" s="10" t="s">
+      <c r="C539" s="15" t="s">
         <v>1796</v>
       </c>
       <c r="D539" s="18"/>
@@ -26625,13 +26589,13 @@
       <c r="X539" s="18"/>
     </row>
     <row r="540">
-      <c r="A540" s="15" t="s">
+      <c r="A540" s="10" t="s">
         <v>1797</v>
       </c>
-      <c r="B540" s="15" t="s">
+      <c r="B540" s="10" t="s">
         <v>1798</v>
       </c>
-      <c r="C540" s="15" t="s">
+      <c r="C540" s="10" t="s">
         <v>1799</v>
       </c>
       <c r="D540" s="18"/>
@@ -26721,13 +26685,13 @@
       <c r="X542" s="18"/>
     </row>
     <row r="543">
-      <c r="A543" s="10" t="s">
+      <c r="A543" s="15" t="s">
         <v>1806</v>
       </c>
-      <c r="B543" s="10" t="s">
+      <c r="B543" s="15" t="s">
         <v>1807</v>
       </c>
-      <c r="C543" s="10" t="s">
+      <c r="C543" s="15" t="s">
         <v>1808</v>
       </c>
       <c r="D543" s="18"/>
@@ -26785,13 +26749,13 @@
       <c r="X544" s="18"/>
     </row>
     <row r="545">
-      <c r="A545" s="15" t="s">
+      <c r="A545" s="10" t="s">
         <v>1812</v>
       </c>
-      <c r="B545" s="15" t="s">
+      <c r="B545" s="10" t="s">
         <v>1813</v>
       </c>
-      <c r="C545" s="15" t="s">
+      <c r="C545" s="10" t="s">
         <v>1814</v>
       </c>
       <c r="D545" s="18"/>
@@ -26817,13 +26781,13 @@
       <c r="X545" s="18"/>
     </row>
     <row r="546">
-      <c r="A546" s="10" t="s">
+      <c r="A546" s="15" t="s">
         <v>1815</v>
       </c>
-      <c r="B546" s="10" t="s">
+      <c r="B546" s="15" t="s">
         <v>1816</v>
       </c>
-      <c r="C546" s="10" t="s">
+      <c r="C546" s="15" t="s">
         <v>1817</v>
       </c>
       <c r="D546" s="18"/>
@@ -26849,13 +26813,13 @@
       <c r="X546" s="18"/>
     </row>
     <row r="547">
-      <c r="A547" s="37" t="s">
+      <c r="A547" s="10" t="s">
         <v>1818</v>
       </c>
-      <c r="B547" s="15" t="s">
+      <c r="B547" s="10" t="s">
         <v>1819</v>
       </c>
-      <c r="C547" s="15" t="s">
+      <c r="C547" s="10" t="s">
         <v>1820</v>
       </c>
       <c r="D547" s="18"/>
@@ -26881,13 +26845,13 @@
       <c r="X547" s="18"/>
     </row>
     <row r="548">
-      <c r="A548" s="10" t="s">
+      <c r="A548" s="37" t="s">
         <v>1821</v>
       </c>
-      <c r="B548" s="10" t="s">
+      <c r="B548" s="15" t="s">
         <v>1822</v>
       </c>
-      <c r="C548" s="10" t="s">
+      <c r="C548" s="15" t="s">
         <v>1823</v>
       </c>
       <c r="D548" s="18"/>
@@ -26945,13 +26909,13 @@
       <c r="X549" s="18"/>
     </row>
     <row r="550">
-      <c r="A550" s="15" t="s">
+      <c r="A550" s="10" t="s">
         <v>1827</v>
       </c>
-      <c r="B550" s="15" t="s">
+      <c r="B550" s="10" t="s">
         <v>1828</v>
       </c>
-      <c r="C550" s="15" t="s">
+      <c r="C550" s="10" t="s">
         <v>1829</v>
       </c>
       <c r="D550" s="18"/>
@@ -27015,7 +26979,7 @@
       <c r="B552" s="15" t="s">
         <v>1834</v>
       </c>
-      <c r="C552" s="10" t="s">
+      <c r="C552" s="15" t="s">
         <v>1835</v>
       </c>
       <c r="D552" s="18"/>
@@ -27047,7 +27011,7 @@
       <c r="B553" s="15" t="s">
         <v>1837</v>
       </c>
-      <c r="C553" s="15" t="s">
+      <c r="C553" s="10" t="s">
         <v>1838</v>
       </c>
       <c r="D553" s="18"/>
@@ -27137,13 +27101,13 @@
       <c r="X555" s="18"/>
     </row>
     <row r="556">
-      <c r="A556" s="20" t="s">
+      <c r="A556" s="15" t="s">
         <v>1845</v>
       </c>
-      <c r="B556" s="20" t="s">
+      <c r="B556" s="15" t="s">
         <v>1846</v>
       </c>
-      <c r="C556" s="10" t="s">
+      <c r="C556" s="15" t="s">
         <v>1847</v>
       </c>
       <c r="D556" s="18"/>
@@ -27169,10 +27133,10 @@
       <c r="X556" s="18"/>
     </row>
     <row r="557">
-      <c r="A557" s="10" t="s">
+      <c r="A557" s="20" t="s">
         <v>1848</v>
       </c>
-      <c r="B557" s="10" t="s">
+      <c r="B557" s="20" t="s">
         <v>1849</v>
       </c>
       <c r="C557" s="10" t="s">
@@ -27201,13 +27165,13 @@
       <c r="X557" s="18"/>
     </row>
     <row r="558">
-      <c r="A558" s="15" t="s">
+      <c r="A558" s="10" t="s">
         <v>1851</v>
       </c>
-      <c r="B558" s="15" t="s">
+      <c r="B558" s="10" t="s">
         <v>1852</v>
       </c>
-      <c r="C558" s="15" t="s">
+      <c r="C558" s="10" t="s">
         <v>1853</v>
       </c>
       <c r="D558" s="18"/>
@@ -27233,13 +27197,13 @@
       <c r="X558" s="18"/>
     </row>
     <row r="559">
-      <c r="A559" s="10" t="s">
+      <c r="A559" s="15" t="s">
         <v>1854</v>
       </c>
-      <c r="B559" s="10" t="s">
+      <c r="B559" s="15" t="s">
         <v>1855</v>
       </c>
-      <c r="C559" s="10" t="s">
+      <c r="C559" s="15" t="s">
         <v>1856</v>
       </c>
       <c r="D559" s="18"/>
@@ -27297,13 +27261,13 @@
       <c r="X560" s="18"/>
     </row>
     <row r="561">
-      <c r="A561" s="15" t="s">
+      <c r="A561" s="10" t="s">
         <v>1860</v>
       </c>
-      <c r="B561" s="15" t="s">
+      <c r="B561" s="10" t="s">
         <v>1861</v>
       </c>
-      <c r="C561" s="15" t="s">
+      <c r="C561" s="10" t="s">
         <v>1862</v>
       </c>
       <c r="D561" s="18"/>
@@ -27393,13 +27357,13 @@
       <c r="X563" s="18"/>
     </row>
     <row r="564">
-      <c r="A564" s="10" t="s">
+      <c r="A564" s="15" t="s">
         <v>1869</v>
       </c>
-      <c r="B564" s="10" t="s">
+      <c r="B564" s="15" t="s">
         <v>1870</v>
       </c>
-      <c r="C564" s="10" t="s">
+      <c r="C564" s="15" t="s">
         <v>1871</v>
       </c>
       <c r="D564" s="18"/>
@@ -27457,13 +27421,13 @@
       <c r="X565" s="18"/>
     </row>
     <row r="566">
-      <c r="A566" s="15" t="s">
+      <c r="A566" s="10" t="s">
         <v>1875</v>
       </c>
-      <c r="B566" s="15" t="s">
+      <c r="B566" s="10" t="s">
         <v>1876</v>
       </c>
-      <c r="C566" s="15" t="s">
+      <c r="C566" s="10" t="s">
         <v>1877</v>
       </c>
       <c r="D566" s="18"/>
@@ -27521,13 +27485,13 @@
       <c r="X567" s="18"/>
     </row>
     <row r="568">
-      <c r="A568" s="10" t="s">
+      <c r="A568" s="15" t="s">
         <v>1881</v>
       </c>
-      <c r="B568" s="10" t="s">
+      <c r="B568" s="15" t="s">
         <v>1882</v>
       </c>
-      <c r="C568" s="10" t="s">
+      <c r="C568" s="15" t="s">
         <v>1883</v>
       </c>
       <c r="D568" s="18"/>
@@ -27553,13 +27517,13 @@
       <c r="X568" s="18"/>
     </row>
     <row r="569">
-      <c r="A569" s="15" t="s">
+      <c r="A569" s="10" t="s">
         <v>1884</v>
       </c>
-      <c r="B569" s="15" t="s">
+      <c r="B569" s="10" t="s">
         <v>1885</v>
       </c>
-      <c r="C569" s="15" t="s">
+      <c r="C569" s="10" t="s">
         <v>1886</v>
       </c>
       <c r="D569" s="18"/>
@@ -27585,13 +27549,13 @@
       <c r="X569" s="18"/>
     </row>
     <row r="570">
-      <c r="A570" s="10" t="s">
+      <c r="A570" s="15" t="s">
         <v>1887</v>
       </c>
-      <c r="B570" s="10" t="s">
+      <c r="B570" s="15" t="s">
         <v>1888</v>
       </c>
-      <c r="C570" s="10" t="s">
+      <c r="C570" s="15" t="s">
         <v>1889</v>
       </c>
       <c r="D570" s="18"/>
@@ -27617,13 +27581,13 @@
       <c r="X570" s="18"/>
     </row>
     <row r="571">
-      <c r="A571" s="15" t="s">
+      <c r="A571" s="10" t="s">
         <v>1890</v>
       </c>
-      <c r="B571" s="15" t="s">
+      <c r="B571" s="10" t="s">
         <v>1891</v>
       </c>
-      <c r="C571" s="15" t="s">
+      <c r="C571" s="10" t="s">
         <v>1892</v>
       </c>
       <c r="D571" s="18"/>
@@ -27681,13 +27645,13 @@
       <c r="X572" s="18"/>
     </row>
     <row r="573">
-      <c r="A573" s="20" t="s">
+      <c r="A573" s="15" t="s">
         <v>1896</v>
       </c>
-      <c r="B573" s="20" t="s">
+      <c r="B573" s="15" t="s">
         <v>1897</v>
       </c>
-      <c r="C573" s="10" t="s">
+      <c r="C573" s="15" t="s">
         <v>1898</v>
       </c>
       <c r="D573" s="18"/>
@@ -27713,10 +27677,10 @@
       <c r="X573" s="18"/>
     </row>
     <row r="574">
-      <c r="A574" s="10" t="s">
+      <c r="A574" s="20" t="s">
         <v>1899</v>
       </c>
-      <c r="B574" s="10" t="s">
+      <c r="B574" s="20" t="s">
         <v>1900</v>
       </c>
       <c r="C574" s="10" t="s">
@@ -27745,13 +27709,13 @@
       <c r="X574" s="18"/>
     </row>
     <row r="575">
-      <c r="A575" s="15" t="s">
+      <c r="A575" s="10" t="s">
         <v>1902</v>
       </c>
-      <c r="B575" s="15" t="s">
+      <c r="B575" s="10" t="s">
         <v>1903</v>
       </c>
-      <c r="C575" s="15" t="s">
+      <c r="C575" s="10" t="s">
         <v>1904</v>
       </c>
       <c r="D575" s="18"/>
@@ -27809,13 +27773,13 @@
       <c r="X576" s="18"/>
     </row>
     <row r="577">
-      <c r="A577" s="10" t="s">
+      <c r="A577" s="15" t="s">
         <v>1908</v>
       </c>
-      <c r="B577" s="10" t="s">
+      <c r="B577" s="15" t="s">
         <v>1909</v>
       </c>
-      <c r="C577" s="10" t="s">
+      <c r="C577" s="15" t="s">
         <v>1910</v>
       </c>
       <c r="D577" s="18"/>
@@ -27841,10 +27805,10 @@
       <c r="X577" s="18"/>
     </row>
     <row r="578">
-      <c r="A578" s="15" t="s">
+      <c r="A578" s="10" t="s">
         <v>1911</v>
       </c>
-      <c r="B578" s="15" t="s">
+      <c r="B578" s="10" t="s">
         <v>1912</v>
       </c>
       <c r="C578" s="10" t="s">
@@ -27873,10 +27837,10 @@
       <c r="X578" s="18"/>
     </row>
     <row r="579">
-      <c r="A579" s="10" t="s">
+      <c r="A579" s="15" t="s">
         <v>1914</v>
       </c>
-      <c r="B579" s="10" t="s">
+      <c r="B579" s="15" t="s">
         <v>1915</v>
       </c>
       <c r="C579" s="10" t="s">
@@ -27905,13 +27869,13 @@
       <c r="X579" s="18"/>
     </row>
     <row r="580">
-      <c r="A580" s="15" t="s">
+      <c r="A580" s="10" t="s">
         <v>1917</v>
       </c>
-      <c r="B580" s="15" t="s">
+      <c r="B580" s="10" t="s">
         <v>1918</v>
       </c>
-      <c r="C580" s="15" t="s">
+      <c r="C580" s="10" t="s">
         <v>1919</v>
       </c>
       <c r="D580" s="18"/>
@@ -28001,13 +27965,13 @@
       <c r="X582" s="18"/>
     </row>
     <row r="583">
-      <c r="A583" s="10" t="s">
+      <c r="A583" s="15" t="s">
         <v>1926</v>
       </c>
-      <c r="B583" s="10" t="s">
+      <c r="B583" s="15" t="s">
         <v>1927</v>
       </c>
-      <c r="C583" s="10" t="s">
+      <c r="C583" s="15" t="s">
         <v>1928</v>
       </c>
       <c r="D583" s="18"/>
@@ -28097,13 +28061,13 @@
       <c r="X585" s="18"/>
     </row>
     <row r="586">
-      <c r="A586" s="15" t="s">
+      <c r="A586" s="10" t="s">
         <v>1935</v>
       </c>
-      <c r="B586" s="15" t="s">
+      <c r="B586" s="10" t="s">
         <v>1936</v>
       </c>
-      <c r="C586" s="15" t="s">
+      <c r="C586" s="10" t="s">
         <v>1937</v>
       </c>
       <c r="D586" s="18"/>
@@ -28161,13 +28125,13 @@
       <c r="X587" s="18"/>
     </row>
     <row r="588">
-      <c r="A588" s="10" t="s">
+      <c r="A588" s="15" t="s">
         <v>1941</v>
       </c>
-      <c r="B588" s="10" t="s">
+      <c r="B588" s="15" t="s">
         <v>1942</v>
       </c>
-      <c r="C588" s="10" t="s">
+      <c r="C588" s="15" t="s">
         <v>1943</v>
       </c>
       <c r="D588" s="18"/>
@@ -28196,7 +28160,7 @@
       <c r="A589" s="10" t="s">
         <v>1944</v>
       </c>
-      <c r="B589" s="15" t="s">
+      <c r="B589" s="10" t="s">
         <v>1945</v>
       </c>
       <c r="C589" s="10" t="s">
@@ -28228,7 +28192,7 @@
       <c r="A590" s="10" t="s">
         <v>1947</v>
       </c>
-      <c r="B590" s="10" t="s">
+      <c r="B590" s="15" t="s">
         <v>1948</v>
       </c>
       <c r="C590" s="10" t="s">
@@ -28353,13 +28317,13 @@
       <c r="X593" s="18"/>
     </row>
     <row r="594">
-      <c r="A594" s="15" t="s">
+      <c r="A594" s="10" t="s">
         <v>1959</v>
       </c>
-      <c r="B594" s="15" t="s">
+      <c r="B594" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="C594" s="15" t="s">
+      <c r="C594" s="10" t="s">
         <v>1961</v>
       </c>
       <c r="D594" s="18"/>
@@ -28385,13 +28349,13 @@
       <c r="X594" s="18"/>
     </row>
     <row r="595">
-      <c r="A595" s="10" t="s">
+      <c r="A595" s="15" t="s">
         <v>1962</v>
       </c>
-      <c r="B595" s="10" t="s">
+      <c r="B595" s="15" t="s">
         <v>1963</v>
       </c>
-      <c r="C595" s="10" t="s">
+      <c r="C595" s="15" t="s">
         <v>1964</v>
       </c>
       <c r="D595" s="18"/>
@@ -28417,13 +28381,13 @@
       <c r="X595" s="18"/>
     </row>
     <row r="596">
-      <c r="A596" s="15" t="s">
+      <c r="A596" s="10" t="s">
         <v>1965</v>
       </c>
-      <c r="B596" s="15" t="s">
+      <c r="B596" s="10" t="s">
         <v>1966</v>
       </c>
-      <c r="C596" s="15" t="s">
+      <c r="C596" s="10" t="s">
         <v>1967</v>
       </c>
       <c r="D596" s="18"/>
@@ -28449,13 +28413,13 @@
       <c r="X596" s="18"/>
     </row>
     <row r="597">
-      <c r="A597" s="10" t="s">
+      <c r="A597" s="15" t="s">
         <v>1968</v>
       </c>
-      <c r="B597" s="10" t="s">
+      <c r="B597" s="15" t="s">
         <v>1969</v>
       </c>
-      <c r="C597" s="10" t="s">
+      <c r="C597" s="15" t="s">
         <v>1970</v>
       </c>
       <c r="D597" s="18"/>
@@ -28481,13 +28445,13 @@
       <c r="X597" s="18"/>
     </row>
     <row r="598">
-      <c r="A598" s="15" t="s">
+      <c r="A598" s="10" t="s">
         <v>1971</v>
       </c>
-      <c r="B598" s="15" t="s">
+      <c r="B598" s="10" t="s">
         <v>1972</v>
       </c>
-      <c r="C598" s="15" t="s">
+      <c r="C598" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="D598" s="18"/>
@@ -28609,13 +28573,13 @@
       <c r="X601" s="18"/>
     </row>
     <row r="602">
-      <c r="A602" s="10" t="s">
+      <c r="A602" s="15" t="s">
         <v>1983</v>
       </c>
       <c r="B602" s="15" t="s">
         <v>1984</v>
       </c>
-      <c r="C602" s="10" t="s">
+      <c r="C602" s="15" t="s">
         <v>1985</v>
       </c>
       <c r="D602" s="18"/>
@@ -28644,7 +28608,7 @@
       <c r="A603" s="10" t="s">
         <v>1986</v>
       </c>
-      <c r="B603" s="10" t="s">
+      <c r="B603" s="15" t="s">
         <v>1987</v>
       </c>
       <c r="C603" s="10" t="s">
@@ -28705,13 +28669,13 @@
       <c r="X604" s="18"/>
     </row>
     <row r="605">
-      <c r="A605" s="15" t="s">
+      <c r="A605" s="10" t="s">
         <v>1992</v>
       </c>
-      <c r="B605" s="15" t="s">
+      <c r="B605" s="10" t="s">
         <v>1993</v>
       </c>
-      <c r="C605" s="15" t="s">
+      <c r="C605" s="10" t="s">
         <v>1994</v>
       </c>
       <c r="D605" s="18"/>
@@ -28737,10 +28701,10 @@
       <c r="X605" s="18"/>
     </row>
     <row r="606">
-      <c r="A606" s="10" t="s">
+      <c r="A606" s="15" t="s">
         <v>1995</v>
       </c>
-      <c r="B606" s="10" t="s">
+      <c r="B606" s="15" t="s">
         <v>1996</v>
       </c>
       <c r="C606" s="15" t="s">
@@ -28775,7 +28739,7 @@
       <c r="B607" s="10" t="s">
         <v>1999</v>
       </c>
-      <c r="C607" s="10" t="s">
+      <c r="C607" s="15" t="s">
         <v>2000</v>
       </c>
       <c r="D607" s="18"/>
@@ -28801,10 +28765,10 @@
       <c r="X607" s="18"/>
     </row>
     <row r="608">
-      <c r="A608" s="20" t="s">
+      <c r="A608" s="10" t="s">
         <v>2001</v>
       </c>
-      <c r="B608" s="20" t="s">
+      <c r="B608" s="10" t="s">
         <v>2002</v>
       </c>
       <c r="C608" s="10" t="s">
@@ -28833,10 +28797,10 @@
       <c r="X608" s="18"/>
     </row>
     <row r="609">
-      <c r="A609" s="10" t="s">
+      <c r="A609" s="20" t="s">
         <v>2004</v>
       </c>
-      <c r="B609" s="10" t="s">
+      <c r="B609" s="20" t="s">
         <v>2005</v>
       </c>
       <c r="C609" s="10" t="s">
@@ -28865,13 +28829,13 @@
       <c r="X609" s="18"/>
     </row>
     <row r="610">
-      <c r="A610" s="15" t="s">
+      <c r="A610" s="10" t="s">
         <v>2007</v>
       </c>
-      <c r="B610" s="15" t="s">
+      <c r="B610" s="10" t="s">
         <v>2008</v>
       </c>
-      <c r="C610" s="15" t="s">
+      <c r="C610" s="10" t="s">
         <v>2009</v>
       </c>
       <c r="D610" s="18"/>
@@ -28929,13 +28893,13 @@
       <c r="X611" s="18"/>
     </row>
     <row r="612">
-      <c r="A612" s="10" t="s">
+      <c r="A612" s="15" t="s">
         <v>2013</v>
       </c>
-      <c r="B612" s="10" t="s">
+      <c r="B612" s="15" t="s">
         <v>2014</v>
       </c>
-      <c r="C612" s="10" t="s">
+      <c r="C612" s="15" t="s">
         <v>2015</v>
       </c>
       <c r="D612" s="18"/>
@@ -28961,13 +28925,13 @@
       <c r="X612" s="18"/>
     </row>
     <row r="613">
-      <c r="A613" s="15" t="s">
+      <c r="A613" s="10" t="s">
         <v>2016</v>
       </c>
-      <c r="B613" s="15" t="s">
+      <c r="B613" s="10" t="s">
         <v>2017</v>
       </c>
-      <c r="C613" s="15" t="s">
+      <c r="C613" s="10" t="s">
         <v>2018</v>
       </c>
       <c r="D613" s="18"/>
@@ -28993,13 +28957,13 @@
       <c r="X613" s="18"/>
     </row>
     <row r="614">
-      <c r="A614" s="10" t="s">
+      <c r="A614" s="15" t="s">
         <v>2019</v>
       </c>
-      <c r="B614" s="10" t="s">
+      <c r="B614" s="15" t="s">
         <v>2020</v>
       </c>
-      <c r="C614" s="10" t="s">
+      <c r="C614" s="15" t="s">
         <v>2021</v>
       </c>
       <c r="D614" s="18"/>
@@ -29057,13 +29021,13 @@
       <c r="X615" s="18"/>
     </row>
     <row r="616">
-      <c r="A616" s="15" t="s">
+      <c r="A616" s="10" t="s">
         <v>2025</v>
       </c>
-      <c r="B616" s="15" t="s">
+      <c r="B616" s="10" t="s">
         <v>2026</v>
       </c>
-      <c r="C616" s="15" t="s">
+      <c r="C616" s="10" t="s">
         <v>2027</v>
       </c>
       <c r="D616" s="18"/>
@@ -29121,37 +29085,37 @@
       <c r="X617" s="18"/>
     </row>
     <row r="618">
-      <c r="A618" s="10" t="s">
+      <c r="A618" s="15" t="s">
         <v>2031</v>
       </c>
-      <c r="B618" s="10" t="s">
+      <c r="B618" s="15" t="s">
         <v>2032</v>
       </c>
-      <c r="C618" s="10" t="s">
+      <c r="C618" s="15" t="s">
         <v>2033</v>
       </c>
       <c r="I618" s="8"/>
     </row>
     <row r="619">
-      <c r="A619" s="15" t="s">
+      <c r="A619" s="10" t="s">
         <v>2034</v>
       </c>
-      <c r="B619" s="15" t="s">
+      <c r="B619" s="10" t="s">
         <v>2035</v>
       </c>
-      <c r="C619" s="15" t="s">
+      <c r="C619" s="10" t="s">
         <v>2036</v>
       </c>
       <c r="I619" s="8"/>
     </row>
     <row r="620">
-      <c r="A620" s="10" t="s">
+      <c r="A620" s="15" t="s">
         <v>2037</v>
       </c>
-      <c r="B620" s="10" t="s">
+      <c r="B620" s="15" t="s">
         <v>2038</v>
       </c>
-      <c r="C620" s="10" t="s">
+      <c r="C620" s="15" t="s">
         <v>2039</v>
       </c>
       <c r="I620" s="8"/>
@@ -29169,13 +29133,13 @@
       <c r="I621" s="8"/>
     </row>
     <row r="622">
-      <c r="A622" s="15" t="s">
+      <c r="A622" s="10" t="s">
         <v>2043</v>
       </c>
-      <c r="B622" s="15" t="s">
+      <c r="B622" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="C622" s="15" t="s">
+      <c r="C622" s="10" t="s">
         <v>2045</v>
       </c>
       <c r="I622" s="8"/>
@@ -29193,25 +29157,25 @@
       <c r="I623" s="8"/>
     </row>
     <row r="624">
-      <c r="A624" s="10" t="s">
+      <c r="A624" s="15" t="s">
         <v>2049</v>
       </c>
-      <c r="B624" s="10" t="s">
+      <c r="B624" s="15" t="s">
         <v>2050</v>
       </c>
-      <c r="C624" s="10" t="s">
+      <c r="C624" s="15" t="s">
         <v>2051</v>
       </c>
       <c r="I624" s="8"/>
     </row>
     <row r="625">
-      <c r="A625" s="15" t="s">
+      <c r="A625" s="10" t="s">
         <v>2052</v>
       </c>
-      <c r="B625" s="15" t="s">
+      <c r="B625" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="C625" s="15" t="s">
+      <c r="C625" s="10" t="s">
         <v>2054</v>
       </c>
       <c r="I625" s="8"/>
@@ -29241,37 +29205,37 @@
       <c r="I627" s="8"/>
     </row>
     <row r="628">
-      <c r="A628" s="10" t="s">
+      <c r="A628" s="15" t="s">
         <v>2061</v>
       </c>
-      <c r="B628" s="10" t="s">
+      <c r="B628" s="15" t="s">
         <v>2062</v>
       </c>
-      <c r="C628" s="10" t="s">
+      <c r="C628" s="15" t="s">
         <v>2063</v>
       </c>
       <c r="I628" s="8"/>
     </row>
     <row r="629">
-      <c r="A629" s="15" t="s">
+      <c r="A629" s="10" t="s">
         <v>2064</v>
       </c>
-      <c r="B629" s="15" t="s">
+      <c r="B629" s="10" t="s">
         <v>2065</v>
       </c>
-      <c r="C629" s="15" t="s">
+      <c r="C629" s="10" t="s">
         <v>2066</v>
       </c>
       <c r="I629" s="8"/>
     </row>
     <row r="630">
-      <c r="A630" s="10" t="s">
+      <c r="A630" s="15" t="s">
         <v>2067</v>
       </c>
-      <c r="B630" s="10" t="s">
+      <c r="B630" s="15" t="s">
         <v>2068</v>
       </c>
-      <c r="C630" s="10" t="s">
+      <c r="C630" s="15" t="s">
         <v>2069</v>
       </c>
       <c r="I630" s="8"/>
@@ -29301,25 +29265,25 @@
       <c r="I632" s="8"/>
     </row>
     <row r="633">
-      <c r="A633" s="15" t="s">
+      <c r="A633" s="10" t="s">
         <v>2076</v>
       </c>
-      <c r="B633" s="15" t="s">
+      <c r="B633" s="10" t="s">
         <v>2077</v>
       </c>
-      <c r="C633" s="15" t="s">
+      <c r="C633" s="10" t="s">
         <v>2078</v>
       </c>
       <c r="I633" s="8"/>
     </row>
     <row r="634">
-      <c r="A634" s="10" t="s">
+      <c r="A634" s="15" t="s">
         <v>2079</v>
       </c>
-      <c r="B634" s="10" t="s">
+      <c r="B634" s="15" t="s">
         <v>2080</v>
       </c>
-      <c r="C634" s="10" t="s">
+      <c r="C634" s="15" t="s">
         <v>2081</v>
       </c>
       <c r="I634" s="8"/>
@@ -29337,13 +29301,13 @@
       <c r="I635" s="8"/>
     </row>
     <row r="636">
-      <c r="A636" s="15" t="s">
+      <c r="A636" s="10" t="s">
         <v>2085</v>
       </c>
-      <c r="B636" s="15" t="s">
+      <c r="B636" s="10" t="s">
         <v>2086</v>
       </c>
-      <c r="C636" s="15" t="s">
+      <c r="C636" s="10" t="s">
         <v>2087</v>
       </c>
       <c r="I636" s="8"/>
@@ -29373,34 +29337,34 @@
       <c r="I638" s="8"/>
     </row>
     <row r="639">
-      <c r="A639" s="10" t="s">
+      <c r="A639" s="15" t="s">
         <v>2094</v>
       </c>
-      <c r="B639" s="10" t="s">
+      <c r="B639" s="15" t="s">
         <v>2095</v>
       </c>
-      <c r="C639" s="10" t="s">
+      <c r="C639" s="15" t="s">
         <v>2096</v>
       </c>
       <c r="I639" s="8"/>
     </row>
     <row r="640">
-      <c r="A640" s="15" t="s">
+      <c r="A640" s="10" t="s">
         <v>2097</v>
       </c>
-      <c r="B640" s="15" t="s">
+      <c r="B640" s="10" t="s">
         <v>2098</v>
       </c>
-      <c r="C640" s="15" t="s">
+      <c r="C640" s="10" t="s">
         <v>2099</v>
       </c>
       <c r="I640" s="8"/>
     </row>
     <row r="641">
-      <c r="A641" s="10" t="s">
+      <c r="A641" s="15" t="s">
         <v>2100</v>
       </c>
-      <c r="B641" s="10" t="s">
+      <c r="B641" s="15" t="s">
         <v>2101</v>
       </c>
       <c r="C641" s="15" t="s">
@@ -29409,10 +29373,10 @@
       <c r="I641" s="8"/>
     </row>
     <row r="642">
-      <c r="A642" s="15" t="s">
+      <c r="A642" s="10" t="s">
         <v>2103</v>
       </c>
-      <c r="B642" s="15" t="s">
+      <c r="B642" s="10" t="s">
         <v>2104</v>
       </c>
       <c r="C642" s="15" t="s">
@@ -29433,13 +29397,13 @@
       <c r="I643" s="8"/>
     </row>
     <row r="644">
-      <c r="A644" s="10" t="s">
+      <c r="A644" s="15" t="s">
         <v>2109</v>
       </c>
-      <c r="B644" s="10" t="s">
+      <c r="B644" s="15" t="s">
         <v>2110</v>
       </c>
-      <c r="C644" s="10" t="s">
+      <c r="C644" s="15" t="s">
         <v>2111</v>
       </c>
       <c r="I644" s="8"/>
@@ -29481,25 +29445,25 @@
       <c r="I647" s="8"/>
     </row>
     <row r="648">
-      <c r="A648" s="15" t="s">
+      <c r="A648" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="B648" s="15" t="s">
+      <c r="B648" s="10" t="s">
         <v>2122</v>
       </c>
-      <c r="C648" s="15" t="s">
+      <c r="C648" s="10" t="s">
         <v>2123</v>
       </c>
       <c r="I648" s="8"/>
     </row>
     <row r="649">
-      <c r="A649" s="10" t="s">
+      <c r="A649" s="15" t="s">
         <v>2124</v>
       </c>
-      <c r="B649" s="10" t="s">
+      <c r="B649" s="15" t="s">
         <v>2125</v>
       </c>
-      <c r="C649" s="10" t="s">
+      <c r="C649" s="15" t="s">
         <v>2126</v>
       </c>
       <c r="I649" s="8"/>
@@ -29517,19 +29481,19 @@
       <c r="I650" s="8"/>
     </row>
     <row r="651">
-      <c r="A651" s="15" t="s">
+      <c r="A651" s="10" t="s">
         <v>2130</v>
       </c>
-      <c r="B651" s="15" t="s">
+      <c r="B651" s="10" t="s">
         <v>2131</v>
       </c>
-      <c r="C651" s="15" t="s">
+      <c r="C651" s="10" t="s">
         <v>2132</v>
       </c>
       <c r="I651" s="8"/>
     </row>
     <row r="652">
-      <c r="A652" s="10" t="s">
+      <c r="A652" s="15" t="s">
         <v>2133</v>
       </c>
       <c r="B652" s="15" t="s">
@@ -29541,7 +29505,7 @@
       <c r="I652" s="8"/>
     </row>
     <row r="653">
-      <c r="A653" s="15" t="s">
+      <c r="A653" s="10" t="s">
         <v>2136</v>
       </c>
       <c r="B653" s="15" t="s">
@@ -29577,25 +29541,25 @@
       <c r="I655" s="8"/>
     </row>
     <row r="656">
-      <c r="A656" s="10" t="s">
+      <c r="A656" s="15" t="s">
         <v>2145</v>
       </c>
-      <c r="B656" s="10" t="s">
+      <c r="B656" s="15" t="s">
         <v>2146</v>
       </c>
-      <c r="C656" s="10" t="s">
+      <c r="C656" s="15" t="s">
         <v>2147</v>
       </c>
       <c r="I656" s="8"/>
     </row>
     <row r="657">
-      <c r="A657" s="15" t="s">
+      <c r="A657" s="10" t="s">
         <v>2148</v>
       </c>
-      <c r="B657" s="15" t="s">
+      <c r="B657" s="10" t="s">
         <v>2149</v>
       </c>
-      <c r="C657" s="15" t="s">
+      <c r="C657" s="10" t="s">
         <v>2150</v>
       </c>
       <c r="I657" s="8"/>
@@ -29613,13 +29577,13 @@
       <c r="I658" s="8"/>
     </row>
     <row r="659">
-      <c r="A659" s="10" t="s">
+      <c r="A659" s="15" t="s">
         <v>2154</v>
       </c>
-      <c r="B659" s="10" t="s">
+      <c r="B659" s="15" t="s">
         <v>2155</v>
       </c>
-      <c r="C659" s="10" t="s">
+      <c r="C659" s="15" t="s">
         <v>2156</v>
       </c>
       <c r="I659" s="8"/>
@@ -29637,13 +29601,13 @@
       <c r="I660" s="8"/>
     </row>
     <row r="661">
-      <c r="A661" s="15" t="s">
+      <c r="A661" s="10" t="s">
         <v>2160</v>
       </c>
-      <c r="B661" s="15" t="s">
+      <c r="B661" s="10" t="s">
         <v>2161</v>
       </c>
-      <c r="C661" s="15" t="s">
+      <c r="C661" s="10" t="s">
         <v>2162</v>
       </c>
       <c r="I661" s="8"/>
@@ -29661,22 +29625,22 @@
       <c r="I662" s="8"/>
     </row>
     <row r="663">
-      <c r="A663" s="10" t="s">
+      <c r="A663" s="15" t="s">
         <v>2166</v>
       </c>
-      <c r="B663" s="10" t="s">
+      <c r="B663" s="15" t="s">
         <v>2167</v>
       </c>
-      <c r="C663" s="10" t="s">
+      <c r="C663" s="15" t="s">
         <v>2168</v>
       </c>
       <c r="I663" s="8"/>
     </row>
     <row r="664">
-      <c r="A664" s="20" t="s">
+      <c r="A664" s="10" t="s">
         <v>2169</v>
       </c>
-      <c r="B664" s="20" t="s">
+      <c r="B664" s="10" t="s">
         <v>2170</v>
       </c>
       <c r="C664" s="10" t="s">
@@ -29685,10 +29649,10 @@
       <c r="I664" s="8"/>
     </row>
     <row r="665">
-      <c r="A665" s="10" t="s">
+      <c r="A665" s="20" t="s">
         <v>2172</v>
       </c>
-      <c r="B665" s="10" t="s">
+      <c r="B665" s="20" t="s">
         <v>2173</v>
       </c>
       <c r="C665" s="10" t="s">
@@ -29703,16 +29667,16 @@
       <c r="B666" s="10" t="s">
         <v>2176</v>
       </c>
-      <c r="C666" s="15" t="s">
+      <c r="C666" s="10" t="s">
         <v>2177</v>
       </c>
       <c r="I666" s="8"/>
     </row>
     <row r="667">
-      <c r="A667" s="15" t="s">
+      <c r="A667" s="10" t="s">
         <v>2178</v>
       </c>
-      <c r="B667" s="15" t="s">
+      <c r="B667" s="10" t="s">
         <v>2179</v>
       </c>
       <c r="C667" s="15" t="s">
@@ -29721,25 +29685,25 @@
       <c r="I667" s="8"/>
     </row>
     <row r="668">
-      <c r="A668" s="10" t="s">
+      <c r="A668" s="15" t="s">
         <v>2181</v>
       </c>
-      <c r="B668" s="10" t="s">
+      <c r="B668" s="15" t="s">
         <v>2182</v>
       </c>
-      <c r="C668" s="10" t="s">
+      <c r="C668" s="15" t="s">
         <v>2183</v>
       </c>
       <c r="I668" s="8"/>
     </row>
     <row r="669">
-      <c r="A669" s="15" t="s">
+      <c r="A669" s="10" t="s">
         <v>2184</v>
       </c>
-      <c r="B669" s="15" t="s">
+      <c r="B669" s="10" t="s">
         <v>2185</v>
       </c>
-      <c r="C669" s="15" t="s">
+      <c r="C669" s="10" t="s">
         <v>2186</v>
       </c>
       <c r="I669" s="8"/>
@@ -29805,37 +29769,37 @@
       <c r="I674" s="8"/>
     </row>
     <row r="675">
-      <c r="A675" s="10" t="s">
+      <c r="A675" s="15" t="s">
         <v>2202</v>
       </c>
-      <c r="B675" s="10" t="s">
+      <c r="B675" s="15" t="s">
         <v>2203</v>
       </c>
-      <c r="C675" s="10" t="s">
+      <c r="C675" s="15" t="s">
         <v>2204</v>
       </c>
       <c r="I675" s="8"/>
     </row>
     <row r="676">
-      <c r="A676" s="15" t="s">
+      <c r="A676" s="10" t="s">
         <v>2205</v>
       </c>
-      <c r="B676" s="15" t="s">
+      <c r="B676" s="10" t="s">
         <v>2206</v>
       </c>
-      <c r="C676" s="15" t="s">
+      <c r="C676" s="10" t="s">
         <v>2207</v>
       </c>
       <c r="I676" s="8"/>
     </row>
     <row r="677">
-      <c r="A677" s="10" t="s">
+      <c r="A677" s="15" t="s">
         <v>2208</v>
       </c>
-      <c r="B677" s="10" t="s">
+      <c r="B677" s="15" t="s">
         <v>2209</v>
       </c>
-      <c r="C677" s="10" t="s">
+      <c r="C677" s="15" t="s">
         <v>2210</v>
       </c>
       <c r="I677" s="8"/>
@@ -29865,49 +29829,49 @@
       <c r="I679" s="8"/>
     </row>
     <row r="680">
-      <c r="A680" s="15" t="s">
+      <c r="A680" s="10" t="s">
         <v>2217</v>
       </c>
-      <c r="B680" s="15" t="s">
+      <c r="B680" s="10" t="s">
         <v>2218</v>
       </c>
-      <c r="C680" s="15" t="s">
+      <c r="C680" s="10" t="s">
         <v>2219</v>
       </c>
       <c r="I680" s="8"/>
     </row>
     <row r="681">
-      <c r="A681" s="10" t="s">
+      <c r="A681" s="15" t="s">
         <v>2220</v>
       </c>
-      <c r="B681" s="10" t="s">
+      <c r="B681" s="15" t="s">
         <v>2221</v>
       </c>
-      <c r="C681" s="10" t="s">
+      <c r="C681" s="15" t="s">
         <v>2222</v>
       </c>
       <c r="I681" s="8"/>
     </row>
     <row r="682">
-      <c r="A682" s="15" t="s">
+      <c r="A682" s="10" t="s">
         <v>2223</v>
       </c>
-      <c r="B682" s="15" t="s">
+      <c r="B682" s="10" t="s">
         <v>2224</v>
       </c>
-      <c r="C682" s="15" t="s">
+      <c r="C682" s="10" t="s">
         <v>2225</v>
       </c>
       <c r="I682" s="8"/>
     </row>
     <row r="683">
-      <c r="A683" s="10" t="s">
+      <c r="A683" s="15" t="s">
         <v>2226</v>
       </c>
-      <c r="B683" s="10" t="s">
+      <c r="B683" s="15" t="s">
         <v>2227</v>
       </c>
-      <c r="C683" s="10" t="s">
+      <c r="C683" s="15" t="s">
         <v>2228</v>
       </c>
       <c r="I683" s="8"/>
@@ -29949,13 +29913,13 @@
       <c r="I686" s="8"/>
     </row>
     <row r="687">
-      <c r="A687" s="15" t="s">
+      <c r="A687" s="10" t="s">
         <v>2238</v>
       </c>
-      <c r="B687" s="15" t="s">
+      <c r="B687" s="10" t="s">
         <v>2239</v>
       </c>
-      <c r="C687" s="15" t="s">
+      <c r="C687" s="10" t="s">
         <v>2240</v>
       </c>
       <c r="I687" s="8"/>
@@ -29973,13 +29937,13 @@
       <c r="I688" s="8"/>
     </row>
     <row r="689">
-      <c r="A689" s="10" t="s">
+      <c r="A689" s="15" t="s">
         <v>2244</v>
       </c>
-      <c r="B689" s="10" t="s">
+      <c r="B689" s="15" t="s">
         <v>2245</v>
       </c>
-      <c r="C689" s="10" t="s">
+      <c r="C689" s="15" t="s">
         <v>2246</v>
       </c>
       <c r="I689" s="8"/>
@@ -29997,13 +29961,13 @@
       <c r="I690" s="8"/>
     </row>
     <row r="691">
-      <c r="A691" s="15" t="s">
+      <c r="A691" s="10" t="s">
         <v>2250</v>
       </c>
-      <c r="B691" s="15" t="s">
+      <c r="B691" s="10" t="s">
         <v>2251</v>
       </c>
-      <c r="C691" s="15" t="s">
+      <c r="C691" s="10" t="s">
         <v>2252</v>
       </c>
       <c r="I691" s="8"/>
@@ -30033,13 +29997,13 @@
       <c r="I693" s="8"/>
     </row>
     <row r="694">
-      <c r="A694" s="10" t="s">
+      <c r="A694" s="15" t="s">
         <v>2259</v>
       </c>
-      <c r="B694" s="10" t="s">
+      <c r="B694" s="15" t="s">
         <v>2260</v>
       </c>
-      <c r="C694" s="10" t="s">
+      <c r="C694" s="15" t="s">
         <v>2261</v>
       </c>
       <c r="I694" s="8"/>
@@ -30069,7 +30033,7 @@
       <c r="I696" s="8"/>
     </row>
     <row r="697">
-      <c r="A697" s="15" t="s">
+      <c r="A697" s="10" t="s">
         <v>2268</v>
       </c>
       <c r="B697" s="10" t="s">
@@ -30081,7 +30045,7 @@
       <c r="I697" s="8"/>
     </row>
     <row r="698">
-      <c r="A698" s="10" t="s">
+      <c r="A698" s="15" t="s">
         <v>2271</v>
       </c>
       <c r="B698" s="10" t="s">
@@ -30093,13 +30057,13 @@
       <c r="I698" s="8"/>
     </row>
     <row r="699">
-      <c r="A699" s="15" t="s">
+      <c r="A699" s="10" t="s">
         <v>2274</v>
       </c>
-      <c r="B699" s="15" t="s">
+      <c r="B699" s="10" t="s">
         <v>2275</v>
       </c>
-      <c r="C699" s="15" t="s">
+      <c r="C699" s="10" t="s">
         <v>2276</v>
       </c>
       <c r="I699" s="8"/>
@@ -30117,37 +30081,37 @@
       <c r="I700" s="8"/>
     </row>
     <row r="701">
-      <c r="A701" s="10" t="s">
+      <c r="A701" s="15" t="s">
         <v>2280</v>
       </c>
-      <c r="B701" s="10" t="s">
+      <c r="B701" s="15" t="s">
         <v>2281</v>
       </c>
-      <c r="C701" s="10" t="s">
+      <c r="C701" s="15" t="s">
         <v>2282</v>
       </c>
       <c r="I701" s="8"/>
     </row>
     <row r="702">
-      <c r="A702" s="15" t="s">
+      <c r="A702" s="10" t="s">
         <v>2283</v>
       </c>
-      <c r="B702" s="15" t="s">
+      <c r="B702" s="10" t="s">
         <v>2284</v>
       </c>
-      <c r="C702" s="15" t="s">
+      <c r="C702" s="10" t="s">
         <v>2285</v>
       </c>
       <c r="I702" s="8"/>
     </row>
     <row r="703">
-      <c r="A703" s="10" t="s">
+      <c r="A703" s="15" t="s">
         <v>2286</v>
       </c>
-      <c r="B703" s="10" t="s">
+      <c r="B703" s="15" t="s">
         <v>2287</v>
       </c>
-      <c r="C703" s="10" t="s">
+      <c r="C703" s="15" t="s">
         <v>2288</v>
       </c>
       <c r="I703" s="8"/>
@@ -30165,13 +30129,13 @@
       <c r="I704" s="8"/>
     </row>
     <row r="705">
-      <c r="A705" s="15" t="s">
+      <c r="A705" s="10" t="s">
         <v>2292</v>
       </c>
-      <c r="B705" s="15" t="s">
+      <c r="B705" s="10" t="s">
         <v>2293</v>
       </c>
-      <c r="C705" s="15" t="s">
+      <c r="C705" s="10" t="s">
         <v>2294</v>
       </c>
       <c r="I705" s="8"/>
@@ -30213,25 +30177,25 @@
       <c r="I708" s="8"/>
     </row>
     <row r="709">
-      <c r="A709" s="10" t="s">
+      <c r="A709" s="15" t="s">
         <v>2304</v>
       </c>
-      <c r="B709" s="10" t="s">
+      <c r="B709" s="15" t="s">
         <v>2305</v>
       </c>
-      <c r="C709" s="10" t="s">
+      <c r="C709" s="15" t="s">
         <v>2306</v>
       </c>
       <c r="I709" s="8"/>
     </row>
     <row r="710">
-      <c r="A710" s="15" t="s">
+      <c r="A710" s="10" t="s">
         <v>2307</v>
       </c>
-      <c r="B710" s="15" t="s">
+      <c r="B710" s="10" t="s">
         <v>2308</v>
       </c>
-      <c r="C710" s="15" t="s">
+      <c r="C710" s="10" t="s">
         <v>2309</v>
       </c>
       <c r="I710" s="8"/>
@@ -30249,10 +30213,10 @@
       <c r="I711" s="8"/>
     </row>
     <row r="712">
-      <c r="A712" s="10" t="s">
+      <c r="A712" s="15" t="s">
         <v>2313</v>
       </c>
-      <c r="B712" s="10" t="s">
+      <c r="B712" s="15" t="s">
         <v>2314</v>
       </c>
       <c r="C712" s="15" t="s">
@@ -30267,7 +30231,7 @@
       <c r="B713" s="10" t="s">
         <v>2317</v>
       </c>
-      <c r="C713" s="10" t="s">
+      <c r="C713" s="15" t="s">
         <v>2318</v>
       </c>
       <c r="I713" s="8"/>
@@ -30297,13 +30261,13 @@
       <c r="I715" s="8"/>
     </row>
     <row r="716">
-      <c r="A716" s="15" t="s">
+      <c r="A716" s="10" t="s">
         <v>2325</v>
       </c>
-      <c r="B716" s="15" t="s">
+      <c r="B716" s="10" t="s">
         <v>2326</v>
       </c>
-      <c r="C716" s="15" t="s">
+      <c r="C716" s="10" t="s">
         <v>2327</v>
       </c>
       <c r="I716" s="8"/>
@@ -30345,13 +30309,13 @@
       <c r="I719" s="8"/>
     </row>
     <row r="720">
-      <c r="A720" s="10" t="s">
+      <c r="A720" s="15" t="s">
         <v>2337</v>
       </c>
-      <c r="B720" s="10" t="s">
+      <c r="B720" s="15" t="s">
         <v>2338</v>
       </c>
-      <c r="C720" s="10" t="s">
+      <c r="C720" s="15" t="s">
         <v>2339</v>
       </c>
       <c r="I720" s="8"/>
@@ -30381,13 +30345,13 @@
       <c r="I722" s="8"/>
     </row>
     <row r="723">
-      <c r="A723" s="15" t="s">
+      <c r="A723" s="10" t="s">
         <v>2346</v>
       </c>
-      <c r="B723" s="15" t="s">
+      <c r="B723" s="10" t="s">
         <v>2347</v>
       </c>
-      <c r="C723" s="15" t="s">
+      <c r="C723" s="10" t="s">
         <v>2348</v>
       </c>
       <c r="I723" s="8"/>
@@ -30444,16 +30408,16 @@
       <c r="A728" s="15" t="s">
         <v>2361</v>
       </c>
-      <c r="B728" s="10" t="s">
+      <c r="B728" s="15" t="s">
         <v>2362</v>
       </c>
-      <c r="C728" s="10" t="s">
+      <c r="C728" s="15" t="s">
         <v>2363</v>
       </c>
       <c r="I728" s="8"/>
     </row>
     <row r="729">
-      <c r="A729" s="10" t="s">
+      <c r="A729" s="15" t="s">
         <v>2364</v>
       </c>
       <c r="B729" s="10" t="s">
@@ -30465,49 +30429,49 @@
       <c r="I729" s="8"/>
     </row>
     <row r="730">
-      <c r="A730" s="15" t="s">
+      <c r="A730" s="10" t="s">
         <v>2367</v>
       </c>
-      <c r="B730" s="15" t="s">
+      <c r="B730" s="10" t="s">
         <v>2368</v>
       </c>
-      <c r="C730" s="15" t="s">
+      <c r="C730" s="10" t="s">
         <v>2369</v>
       </c>
       <c r="I730" s="8"/>
     </row>
     <row r="731">
-      <c r="A731" s="10" t="s">
+      <c r="A731" s="15" t="s">
         <v>2370</v>
       </c>
-      <c r="B731" s="10" t="s">
+      <c r="B731" s="15" t="s">
         <v>2371</v>
       </c>
-      <c r="C731" s="10" t="s">
+      <c r="C731" s="15" t="s">
         <v>2372</v>
       </c>
       <c r="I731" s="8"/>
     </row>
     <row r="732">
-      <c r="A732" s="15" t="s">
+      <c r="A732" s="10" t="s">
         <v>2373</v>
       </c>
-      <c r="B732" s="15" t="s">
+      <c r="B732" s="10" t="s">
         <v>2374</v>
       </c>
-      <c r="C732" s="15" t="s">
+      <c r="C732" s="10" t="s">
         <v>2375</v>
       </c>
       <c r="I732" s="8"/>
     </row>
     <row r="733">
-      <c r="A733" s="10" t="s">
+      <c r="A733" s="15" t="s">
         <v>2376</v>
       </c>
-      <c r="B733" s="10" t="s">
+      <c r="B733" s="15" t="s">
         <v>2377</v>
       </c>
-      <c r="C733" s="10" t="s">
+      <c r="C733" s="15" t="s">
         <v>2378</v>
       </c>
       <c r="I733" s="8"/>
@@ -30525,13 +30489,13 @@
       <c r="I734" s="8"/>
     </row>
     <row r="735">
-      <c r="A735" s="15" t="s">
+      <c r="A735" s="10" t="s">
         <v>2382</v>
       </c>
-      <c r="B735" s="15" t="s">
+      <c r="B735" s="10" t="s">
         <v>2383</v>
       </c>
-      <c r="C735" s="15" t="s">
+      <c r="C735" s="10" t="s">
         <v>2384</v>
       </c>
       <c r="I735" s="8"/>
@@ -30543,7 +30507,7 @@
       <c r="B736" s="15" t="s">
         <v>2386</v>
       </c>
-      <c r="C736" s="10" t="s">
+      <c r="C736" s="15" t="s">
         <v>2387</v>
       </c>
       <c r="I736" s="8"/>
@@ -30555,7 +30519,7 @@
       <c r="B737" s="15" t="s">
         <v>2389</v>
       </c>
-      <c r="C737" s="15" t="s">
+      <c r="C737" s="10" t="s">
         <v>2390</v>
       </c>
       <c r="I737" s="8"/>
@@ -30609,25 +30573,25 @@
       <c r="I741" s="8"/>
     </row>
     <row r="742">
-      <c r="A742" s="10" t="s">
+      <c r="A742" s="15" t="s">
         <v>2403</v>
       </c>
-      <c r="B742" s="10" t="s">
+      <c r="B742" s="15" t="s">
         <v>2404</v>
       </c>
-      <c r="C742" s="10" t="s">
+      <c r="C742" s="15" t="s">
         <v>2405</v>
       </c>
       <c r="I742" s="8"/>
     </row>
     <row r="743">
-      <c r="A743" s="15" t="s">
+      <c r="A743" s="10" t="s">
         <v>2406</v>
       </c>
-      <c r="B743" s="15" t="s">
+      <c r="B743" s="10" t="s">
         <v>2407</v>
       </c>
-      <c r="C743" s="15" t="s">
+      <c r="C743" s="10" t="s">
         <v>2408</v>
       </c>
       <c r="I743" s="8"/>
@@ -30657,13 +30621,13 @@
       <c r="I745" s="8"/>
     </row>
     <row r="746">
-      <c r="A746" s="10" t="s">
+      <c r="A746" s="15" t="s">
         <v>2415</v>
       </c>
-      <c r="B746" s="10" t="s">
+      <c r="B746" s="15" t="s">
         <v>2416</v>
       </c>
-      <c r="C746" s="10" t="s">
+      <c r="C746" s="15" t="s">
         <v>2417</v>
       </c>
       <c r="I746" s="8"/>
@@ -30693,13 +30657,13 @@
       <c r="I748" s="8"/>
     </row>
     <row r="749">
-      <c r="A749" s="15" t="s">
+      <c r="A749" s="10" t="s">
         <v>2424</v>
       </c>
-      <c r="B749" s="15" t="s">
+      <c r="B749" s="10" t="s">
         <v>2425</v>
       </c>
-      <c r="C749" s="15" t="s">
+      <c r="C749" s="10" t="s">
         <v>2426</v>
       </c>
       <c r="I749" s="8"/>
@@ -30729,13 +30693,13 @@
       <c r="I751" s="8"/>
     </row>
     <row r="752">
-      <c r="A752" s="10" t="s">
+      <c r="A752" s="15" t="s">
         <v>2433</v>
       </c>
-      <c r="B752" s="10" t="s">
+      <c r="B752" s="15" t="s">
         <v>2434</v>
       </c>
-      <c r="C752" s="10" t="s">
+      <c r="C752" s="15" t="s">
         <v>2435</v>
       </c>
       <c r="I752" s="8"/>
@@ -30753,13 +30717,13 @@
       <c r="I753" s="8"/>
     </row>
     <row r="754">
-      <c r="A754" s="15" t="s">
+      <c r="A754" s="10" t="s">
         <v>2439</v>
       </c>
-      <c r="B754" s="15" t="s">
+      <c r="B754" s="10" t="s">
         <v>2440</v>
       </c>
-      <c r="C754" s="15" t="s">
+      <c r="C754" s="10" t="s">
         <v>2441</v>
       </c>
       <c r="I754" s="8"/>
@@ -30849,10 +30813,10 @@
       <c r="I761" s="8"/>
     </row>
     <row r="762">
-      <c r="A762" s="10" t="s">
+      <c r="A762" s="15" t="s">
         <v>2463</v>
       </c>
-      <c r="B762" s="10" t="s">
+      <c r="B762" s="15" t="s">
         <v>2464</v>
       </c>
       <c r="C762" s="15" t="s">
@@ -30867,31 +30831,31 @@
       <c r="B763" s="10" t="s">
         <v>2467</v>
       </c>
-      <c r="C763" s="10" t="s">
+      <c r="C763" s="15" t="s">
         <v>2468</v>
       </c>
       <c r="I763" s="8"/>
     </row>
     <row r="764">
-      <c r="A764" s="15" t="s">
+      <c r="A764" s="10" t="s">
         <v>2469</v>
       </c>
-      <c r="B764" s="15" t="s">
+      <c r="B764" s="10" t="s">
         <v>2470</v>
       </c>
-      <c r="C764" s="15" t="s">
+      <c r="C764" s="10" t="s">
         <v>2471</v>
       </c>
       <c r="I764" s="8"/>
     </row>
     <row r="765">
-      <c r="A765" s="10" t="s">
+      <c r="A765" s="15" t="s">
         <v>2472</v>
       </c>
-      <c r="B765" s="10" t="s">
+      <c r="B765" s="15" t="s">
         <v>2473</v>
       </c>
-      <c r="C765" s="10" t="s">
+      <c r="C765" s="15" t="s">
         <v>2474</v>
       </c>
       <c r="I765" s="8"/>
@@ -30909,37 +30873,37 @@
       <c r="I766" s="8"/>
     </row>
     <row r="767">
-      <c r="A767" s="15" t="s">
+      <c r="A767" s="10" t="s">
         <v>2478</v>
       </c>
-      <c r="B767" s="15" t="s">
+      <c r="B767" s="10" t="s">
         <v>2479</v>
       </c>
-      <c r="C767" s="15" t="s">
+      <c r="C767" s="10" t="s">
         <v>2480</v>
       </c>
       <c r="I767" s="8"/>
     </row>
     <row r="768">
-      <c r="A768" s="10" t="s">
+      <c r="A768" s="15" t="s">
         <v>2481</v>
       </c>
-      <c r="B768" s="10" t="s">
+      <c r="B768" s="15" t="s">
         <v>2482</v>
       </c>
-      <c r="C768" s="10" t="s">
+      <c r="C768" s="15" t="s">
         <v>2483</v>
       </c>
       <c r="I768" s="8"/>
     </row>
     <row r="769">
-      <c r="A769" s="15" t="s">
+      <c r="A769" s="10" t="s">
         <v>2484</v>
       </c>
-      <c r="B769" s="15" t="s">
+      <c r="B769" s="10" t="s">
         <v>2485</v>
       </c>
-      <c r="C769" s="15" t="s">
+      <c r="C769" s="10" t="s">
         <v>2486</v>
       </c>
       <c r="I769" s="8"/>
@@ -30957,13 +30921,13 @@
       <c r="I770" s="8"/>
     </row>
     <row r="771">
-      <c r="A771" s="10" t="s">
+      <c r="A771" s="15" t="s">
         <v>2490</v>
       </c>
-      <c r="B771" s="10" t="s">
+      <c r="B771" s="15" t="s">
         <v>2491</v>
       </c>
-      <c r="C771" s="10" t="s">
+      <c r="C771" s="15" t="s">
         <v>2492</v>
       </c>
       <c r="I771" s="8"/>
@@ -31017,13 +30981,13 @@
       <c r="I775" s="8"/>
     </row>
     <row r="776">
-      <c r="A776" s="15" t="s">
+      <c r="A776" s="10" t="s">
         <v>2505</v>
       </c>
-      <c r="B776" s="15" t="s">
+      <c r="B776" s="10" t="s">
         <v>2506</v>
       </c>
-      <c r="C776" s="15" t="s">
+      <c r="C776" s="10" t="s">
         <v>2507</v>
       </c>
       <c r="I776" s="8"/>
@@ -31041,97 +31005,97 @@
       <c r="I777" s="8"/>
     </row>
     <row r="778">
-      <c r="A778" s="10" t="s">
+      <c r="A778" s="15" t="s">
         <v>2511</v>
       </c>
-      <c r="B778" s="10" t="s">
+      <c r="B778" s="15" t="s">
         <v>2512</v>
       </c>
-      <c r="C778" s="10" t="s">
+      <c r="C778" s="15" t="s">
         <v>2513</v>
       </c>
       <c r="I778" s="8"/>
     </row>
     <row r="779">
-      <c r="A779" s="15" t="s">
+      <c r="A779" s="10" t="s">
         <v>2514</v>
       </c>
-      <c r="B779" s="15" t="s">
+      <c r="B779" s="10" t="s">
         <v>2515</v>
       </c>
-      <c r="C779" s="15" t="s">
+      <c r="C779" s="10" t="s">
         <v>2516</v>
       </c>
       <c r="I779" s="8"/>
     </row>
     <row r="780">
-      <c r="A780" s="10" t="s">
+      <c r="A780" s="15" t="s">
         <v>2517</v>
       </c>
-      <c r="B780" s="10" t="s">
+      <c r="B780" s="15" t="s">
         <v>2518</v>
       </c>
-      <c r="C780" s="10" t="s">
+      <c r="C780" s="15" t="s">
         <v>2519</v>
       </c>
       <c r="I780" s="8"/>
     </row>
     <row r="781">
-      <c r="A781" s="15" t="s">
+      <c r="A781" s="10" t="s">
         <v>2520</v>
       </c>
-      <c r="B781" s="15" t="s">
+      <c r="B781" s="10" t="s">
         <v>2521</v>
       </c>
-      <c r="C781" s="15" t="s">
+      <c r="C781" s="10" t="s">
         <v>2522</v>
       </c>
       <c r="I781" s="8"/>
     </row>
     <row r="782">
-      <c r="A782" s="10" t="s">
+      <c r="A782" s="15" t="s">
         <v>2523</v>
       </c>
-      <c r="B782" s="10" t="s">
+      <c r="B782" s="15" t="s">
         <v>2524</v>
       </c>
-      <c r="C782" s="10" t="s">
+      <c r="C782" s="15" t="s">
         <v>2525</v>
       </c>
       <c r="I782" s="8"/>
     </row>
     <row r="783">
-      <c r="A783" s="15" t="s">
+      <c r="A783" s="10" t="s">
         <v>2526</v>
       </c>
-      <c r="B783" s="15" t="s">
+      <c r="B783" s="10" t="s">
         <v>2527</v>
       </c>
-      <c r="C783" s="15" t="s">
+      <c r="C783" s="10" t="s">
         <v>2528</v>
       </c>
       <c r="I783" s="8"/>
     </row>
     <row r="784">
-      <c r="A784" s="10" t="s">
+      <c r="A784" s="15" t="s">
         <v>2529</v>
       </c>
-      <c r="B784" s="10" t="s">
+      <c r="B784" s="15" t="s">
         <v>2530</v>
       </c>
-      <c r="C784" s="10" t="s">
+      <c r="C784" s="15" t="s">
         <v>2531</v>
       </c>
       <c r="I784" s="8"/>
     </row>
     <row r="785">
-      <c r="A785" s="15" t="s">
+      <c r="A785" s="10" t="s">
         <v>2532</v>
       </c>
-      <c r="B785" s="15" t="s">
+      <c r="B785" s="10" t="s">
         <v>2533</v>
       </c>
-      <c r="C785" s="15" t="s">
+      <c r="C785" s="10" t="s">
         <v>2534</v>
       </c>
       <c r="I785" s="8"/>
@@ -31161,13 +31125,13 @@
       <c r="I787" s="8"/>
     </row>
     <row r="788">
-      <c r="A788" s="10" t="s">
+      <c r="A788" s="15" t="s">
         <v>2541</v>
       </c>
-      <c r="B788" s="10" t="s">
+      <c r="B788" s="15" t="s">
         <v>2542</v>
       </c>
-      <c r="C788" s="10" t="s">
+      <c r="C788" s="15" t="s">
         <v>2543</v>
       </c>
       <c r="I788" s="8"/>
@@ -31185,25 +31149,25 @@
       <c r="I789" s="8"/>
     </row>
     <row r="790">
-      <c r="A790" s="15" t="s">
+      <c r="A790" s="10" t="s">
         <v>2547</v>
       </c>
-      <c r="B790" s="15" t="s">
+      <c r="B790" s="10" t="s">
         <v>2548</v>
       </c>
-      <c r="C790" s="15" t="s">
+      <c r="C790" s="10" t="s">
         <v>2549</v>
       </c>
       <c r="I790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="10" t="s">
+      <c r="A791" s="15" t="s">
         <v>2550</v>
       </c>
-      <c r="B791" s="10" t="s">
+      <c r="B791" s="15" t="s">
         <v>2551</v>
       </c>
-      <c r="C791" s="10" t="s">
+      <c r="C791" s="15" t="s">
         <v>2552</v>
       </c>
       <c r="I791" s="8"/>
@@ -31215,7 +31179,7 @@
       <c r="B792" s="10" t="s">
         <v>2554</v>
       </c>
-      <c r="C792" s="15" t="s">
+      <c r="C792" s="10" t="s">
         <v>2555</v>
       </c>
       <c r="I792" s="8"/>
@@ -31227,7 +31191,7 @@
       <c r="B793" s="10" t="s">
         <v>2557</v>
       </c>
-      <c r="C793" s="10" t="s">
+      <c r="C793" s="15" t="s">
         <v>2558</v>
       </c>
       <c r="I793" s="8"/>
@@ -31245,25 +31209,25 @@
       <c r="I794" s="8"/>
     </row>
     <row r="795">
-      <c r="A795" s="15" t="s">
+      <c r="A795" s="10" t="s">
         <v>2562</v>
       </c>
-      <c r="B795" s="15" t="s">
+      <c r="B795" s="10" t="s">
         <v>2563</v>
       </c>
-      <c r="C795" s="15" t="s">
+      <c r="C795" s="10" t="s">
         <v>2564</v>
       </c>
       <c r="I795" s="8"/>
     </row>
     <row r="796">
-      <c r="A796" s="10" t="s">
+      <c r="A796" s="15" t="s">
         <v>2565</v>
       </c>
-      <c r="B796" s="10" t="s">
+      <c r="B796" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="C796" s="10" t="s">
+      <c r="C796" s="15" t="s">
         <v>2567</v>
       </c>
       <c r="I796" s="8"/>
@@ -31281,61 +31245,61 @@
       <c r="I797" s="8"/>
     </row>
     <row r="798">
-      <c r="A798" s="15" t="s">
+      <c r="A798" s="10" t="s">
         <v>2571</v>
       </c>
-      <c r="B798" s="15" t="s">
+      <c r="B798" s="10" t="s">
         <v>2572</v>
       </c>
-      <c r="C798" s="15" t="s">
+      <c r="C798" s="10" t="s">
         <v>2573</v>
       </c>
       <c r="I798" s="8"/>
     </row>
     <row r="799">
-      <c r="A799" s="10" t="s">
+      <c r="A799" s="15" t="s">
         <v>2574</v>
       </c>
-      <c r="B799" s="10" t="s">
+      <c r="B799" s="15" t="s">
         <v>2575</v>
       </c>
-      <c r="C799" s="10" t="s">
+      <c r="C799" s="15" t="s">
         <v>2576</v>
       </c>
       <c r="I799" s="8"/>
     </row>
     <row r="800">
-      <c r="A800" s="15" t="s">
+      <c r="A800" s="10" t="s">
         <v>2577</v>
       </c>
-      <c r="B800" s="15" t="s">
+      <c r="B800" s="10" t="s">
         <v>2578</v>
       </c>
-      <c r="C800" s="15" t="s">
+      <c r="C800" s="10" t="s">
         <v>2579</v>
       </c>
       <c r="I800" s="8"/>
     </row>
     <row r="801">
-      <c r="A801" s="10" t="s">
+      <c r="A801" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="B801" s="10" t="s">
+      <c r="B801" s="15" t="s">
         <v>2581</v>
       </c>
-      <c r="C801" s="10" t="s">
+      <c r="C801" s="15" t="s">
         <v>2582</v>
       </c>
       <c r="I801" s="8"/>
     </row>
     <row r="802">
-      <c r="A802" s="15" t="s">
+      <c r="A802" s="10" t="s">
         <v>2583</v>
       </c>
-      <c r="B802" s="15" t="s">
+      <c r="B802" s="10" t="s">
         <v>2584</v>
       </c>
-      <c r="C802" s="15" t="s">
+      <c r="C802" s="10" t="s">
         <v>2585</v>
       </c>
       <c r="I802" s="8"/>
@@ -31353,37 +31317,37 @@
       <c r="I803" s="8"/>
     </row>
     <row r="804">
-      <c r="A804" s="10" t="s">
+      <c r="A804" s="15" t="s">
         <v>2589</v>
       </c>
-      <c r="B804" s="10" t="s">
+      <c r="B804" s="15" t="s">
         <v>2590</v>
       </c>
-      <c r="C804" s="10" t="s">
+      <c r="C804" s="15" t="s">
         <v>2591</v>
       </c>
       <c r="I804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="15" t="s">
+      <c r="A805" s="10" t="s">
         <v>2592</v>
       </c>
-      <c r="B805" s="15" t="s">
+      <c r="B805" s="10" t="s">
         <v>2